--- a/GoogleMapAllData.xlsx
+++ b/GoogleMapAllData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -64,7 +64,7 @@
     <x:t xml:space="preserve">       402 Grandslam I Thum, Plot No.40, Noida, Uttar Pradesh 201301      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADmKSURBVHhe7Z3/cxtnft/7d1yTpsm0TdrMtJlO2uQHJmXBGY6QpkTjMXoeI/EYqebEyIEa68jIoaKTFIaq5OFRdwyVskyDBHeseWYMhzFrnkWTJ50V0dQpxLlieCOTjo70yYQtGTYlSJRhw/fp83n2WeDZxQJ4QHwhSLxfM58Bdp9nn31299nP+/m2u/+IAAAAAAN+r7ePIBoAAACMgGgAAAAwBqIBAADAGCkaq++sEwwGg8Fg5QwtDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABjTUNH46MGPaeDVNH1x9CP6+RMfSOP/vC4lwgAAADQ3DRONiyuf0L/8ww/oC19+39M47NvLn6jYoHEkafpwB41cV4slSMUj1HZ4ilJquVmR+TyfUEvNzfL5jj2T12Yls5Gg5Y20WipkL5WHvUBDROPlpUc5cfjtv/iY3ljNqBCS/3mdHc5xm4XUVIR87RGaTqoVzJ1FikUCYr242f1BOh5dofzRiAJ8c4qGwnp4gtJZFehBOjFOp+34nQHq7hun5S0V2BCaUzSK7uv6MLXxuSpifBxN4yQ88nrgsR6KXc0XqMpEw7pWvXG9QOokaETsIzSccJRJpmbitJ2gsaA7rTStxweo28/H6Keu8ABdvq2CSiCvU2eEZt2Hk5yiXvd9V4LlC37ynZgXufCmFuWhWBqO8+qR7/1YKai7aNy5/zn99DFLEIZmH6i1hXAYx+G4H4htdp3UPJ3u5JtALwQbFA+Lmza6ZglBapFGgn46O6eKKxeaziANzSUpw+HJeRoSN9jxGW83mxFOJdR5iMaublCa7/LtDVo4E6S24CitlhCa2rLHREOniHOphZOoCVI0hmlZLVI2Q6mVcVFG/DR0ySoz9RCNtvYgjSWcslEr57U6Kson70NLK/PGAPkCQig4W+IY1ydFZSsYpXUruCjyOom0fBHXda5QNMpRi/JQLA2IRh3g8QoWg9CffaTWEL2bytKfvfGQvnrxgfxv85siDsf94/9bvKnZGNK00O+n3uFhZyG4NU7h9gFa2FbLgs3JQ9TWf0XW7Lhl0ua6AdZjoSKFxhKg7okNtazIrlAs0CGcinXTy8J6bpJmj3FrRDkgbu08G6QDfPO6Wzuy4A7S5USUegN+cVP6qbt/njY1Edq8qGqFomXTe2GSxg5qopFN0uX+MHWxYHLLp38mt63Mi+7IS+TDzjenZYWHaehiktI38vnqikRptcilLtiXF6VE49w8LUcj1nGofdvwjexwvI502PFGaGLGlc8t67zox1IWt2goZJk4ZtWMC5zKVoLiffn9nB5X51TmUayzzfPcWKLRHQ4XVDyM91MKUf67g8M01q+nlRH3SgeFY1o5zorKVHuI4rfUchHkdQqFqVuI6OmL2tF4XNfNuUHtegzSgtaSKTi226Ky9pQdd5Smh8U9mgtXrSI7rUpaRfo+FPa+Zbh2fXrj80rAbcuXA703whfwKJvRKYpx/htUQauUuovGf3j+rhSCv12ziiSLBC/b9nPHP8gJx9V3MnLdr567K5d3C24BBMPjtH7bVXjZCRycpE21KFkcLHlxl8/7nTeUzZZoyZjeWKLmODSzRqktPodrNCFaN72TG1ZrZstq7Qy9oW555VxCZ4RQiFWZ1BUaESJ0+qLyziujonUTofiKyLGoFW7ODVBIxLdFYz0aFDW/SVrn5DIbNB3xU/DCigyTeckda+l8yLhqPxnez3Qf+YRz6OoZp1VOYHvNSnvUStuNc19FKCUafM5ki0/U7t8YpGB7H11W3X7yxiwpGur8ceUglaCYEPcDLBR2eldFC1FLryiVikaWKxJC5EdVl6ZsyQoRyJUfs5bGyKJVIQlp57ay/XjB+7ZaSI607JbqolqUiHV6RaQI9jVevyRaKp3ifNoX23VdMxwePEmzt0TZslsynaLypoq089hEpYvLZWxFHltmw2rt2+HpuZMirWFaUvva5LTCrnvaA5nX3DHncezbozw6z5VA3PdnO4M0clVlYGNStDzDFFenXsYX903s+galZfdD81F30fjJXksc7j+yZkeNffehQzTYeB3DcXj5n4htdg1Z6IIkylxhIWAn4HZkXutsuGam3ww6RRyeG1lYVUtGIm6a9FbactQKLmi+Yb3gOltDejiLmC0CFs4bnOOGo2vWgiBzO0FLCeEsxX+HIy+TDxn3nOZJZO3T6Vwc6bkoFZajyDksOGfSmfppTJ0izmdp0ThE01rtU7YmHZUF5ZzLdel5iEaGa8FCxO39c15yTkXE9wVcXZM3RinYKdKQ6wxFg/PFZa9dOCNVKalsP4WkL/bRAc/WkRINx7nwWldI/hpbLXuffc0c18NKy9nFm6LZHvNzKK+fHb6dprR2b9j7mr2jlosg85o75jyOfXuUR+e5Esj7RhcDdU2nrOPj+J6VzCai7qLxr9SMKVs0Bl+zuqt0c4sGb7NbrMfCFBTOrrDwCrwEwmsdI5zDWSE+I9dVdciNO225LAqYMvuG8CysSa1byDZHwXU6qnzBtQportUhcd7gmZVxOuLnZv0ATcQXaV07sAJHXiIfhfkudLQF6WmUCsvhcZMy5fbN56O0aDjTLMxLJaKhnRs21+QI3anI/TjETiBbpHZ+lIMxEQ2BHH/gFrPYV2X7cZG+QkOi9msLqZ6Wu/xYeK0rxHFe5RiiGuspuB6FLfLV0UAuDwXHpsTNRq6z85tN02que0psJ63IcWs40tBwnAuP8ug8VxZpfbKMMl0Ai1/f5qDuovHrX09JIUhsfCqX3d1TP6t1T33/3U/lOt5mV+CLXqKZLJ2ASfdUWhR0biKXuvjb4kZsD1gtGgdOx1BQWLdF2qLA906u5Wr5hQV356IhyaZoPTFD8X4eEwjS2TktL/axlslH4U3mdGiMIz0XpcJyeNykTLl9F9yYjnQ4rjPNwrwUHosnUjSc18JNwTlzO/M7et6cZaMQV75kq1nEn0zSUkX70cmIPAaKd3XZ5aeK7in7vHJrxhcYpCXhVJ3Xo1A0loeF01d5KDiHJURD/pfdU+roi5QhN3oaOo5z4ZGW81wJZByre8q6b5zXlOOX9BtNQN1F44waCH/+2/nLyCLBrQtuddiCwditEN5mN5AFUdx0XiYvZJmBcEnWGgfgvv7SWE1sZ1cR4yxEBYVVFjqnI1o6J/LoKLjFRIP/l+qeEmJx1dm6SM/05G5smRf7Ji+Tj8KbrNDROtJzUSosh8dNypTbN5+PI8KR5nCkw3GdaRbmpfBYPKlQNDh+zbqnFJkEj79EqFdsZ74fDSkmYltP42OrciDccV6TNMvjXIcj4j6zr4F1zLXqnipwyrcn6YhHGXIjJ7mERKtNLVtY+cgdu0d5dOSN4TLhOma+//RjKX59m4O6i8YPNj+TQvCvT95x9H+7+VSEcRyOy9s0BQWFwDXlVk6p1Qahs6IAiEIfEoXEUYsrBg+0c00+vkIpFqJMmlIrk3Ra1ODtabwFDlAOpAVo6OIGZbZ5IHuQwjxDyI7j4cwdBdc1EL4+c1IbCE/R5WMi/2fmSWq5aHEsnBPNaDUH3nGTl8lHOcfNFDqNPKXCcuxQNGR4eJSWOXF7mnMunUpFI03LE8MUT3hUdCoVDTVAbQ/iykH4p5wD1CzMQX4OI+NVwgrPsWwpDLumyZbbj7juy3OLtFmk7uZ2hM4pt2lajemDy8XPj+c15mvqmupuDYSLytptccxcZqf6hMAZDoSvzdBZbSCcJ3q0HY7SqmhpZFIrFO/hiqK9rxLXUnWfcbrWvZqi1bi4d8S9lHvORIplQE53ti+PFKwecYxihfR/N6NSxCd4gsi2SGOiR3bvQjRc/CfVRfWt7+kjUE54Ci7H+bWvlXQTjcXLKTke7gvTUHwtLxDSSXCBd5srDR3HuICfup7ooZGZfJqFDlCUV23aanf/FM0Oh/KtnXKiISg55Ta9RtP2lFtOv288Ny3WfZOXykdhvptHNOS04lOh/JTH0UGttlmpaKjavxrIdFCpaDBbCZrITWPmqbDOh0OtMSe+dl7peomGQHaXVrAfWSHwU+yGWnZRkGfhbB0P90VGaSk3sFz8/BS7xptivfuh2s0ZbZosT7nVGjYF+Sk15VZNKefj9gUiFJubpLO5VlGJa8m47tXQs858iKsjBPOQlXZuYoo4l09YwmQPtjvvv3mKn8i3ViAairkffCIF4ZcH7tInHo0IficVj21wHI4LwJ5BPlfjNTYFJHvp/OBaGtEQ0WD+87DV2jg7U9j06/7GlgzbtQFwAHZIZiVKx7m7SC0DJ3vp/OBamtEw0fiHu1n5zAbb8u18c2PmhtUK4fUcBwAAQPPSMNFg7PdL/cq5u3JQiF+Hbr/59qsl3ksFAACgOWioaHz+Y6LfuGB1U3158h6F1dttAyMpGQYAAKC5aahoMO/f+1y+b4rFgo3/8zoAAADNT8NFg7FnU7FhthQAAOwddkU0GB7DwDgGAADsLXZNNAAAAOw9IBq7QcH7Z3ZG4ZPPAABQXyAaDqzXCDheASK/XjdFq7X8bveuiIb+xTLrW9UTrnfspBZH1WtBVPgNLTybodRagmbHB+j4EwEac7+qIpuipQvqS3n2qx60b1LYryeRr2CQ59T5NUF+l4/1Zt0eCgdKv3oDALB7QDQcqHfPaO9+yaTVC+3Udwlqwi6IBr+lM/fSN16WX+zroVk7ExuT1N0eoYmbllCk+et0nSdzX6fjfR14qo/G4qN0XDh+9/uN+NsNuS/+8UvlHN+JztDSGT8FhVDIFyGqLwKGch974vPO77kapenRHiE6EA0AmhWIhoNC0ZDo376QL8kbpOmpPlmrls5T1rJ7KKRe2BZ61vXt6/QKTaiXHB54aoCmoyedoiHC9e81D81ob0Er983uEt/CzpOi2Yj7RWwbFA/lnb/8BKnjGwviXBzMf6uccoLp9VK8NYofDlFM1y/9ZYLy/Llelc3fIdFfNW2nb/CSPwDA7gHRcGAqGvwN6RlaT1qfO3V8VzubpqXzYvmM7YDzrxu3vtktBELUsnOiwa9TF7Vs+1vb1udAA8IpW1uX/WZ3iW9hlyQrnH9n3pHz2zUd35gQ8Gu4C9+4WeRNqjpCRPn12Aci6hiV0C7lhEcgv2PgIQ4QDQCaGoiGAw/RYAcoavJt3M/Ob3aXDtD5IaZMOk2Ob8Cz47NfXS3ja91AjP61PxHX5/q4C9f689/0LvPNbkfrgB16/lvYpeDP2vq0L5x5vZLZ+zXNpUTDCpNjQU+o88XIc+ASAq91DEQDgKYGouHAEo3cILg0P3WFB2jW7jHycnaitZDvnrJNxWEnyF8SkxEVvE6JhtVa0LdTpsYqyn6z2zGmYdAKEGxePEmhoMif1oVWG9FQqJaGL6i+oAbRAGDfANFwUKR7SqfA2VnfUJZdSHbNWnd8JqLh+qZxAcIJF/1md4WikRH75q+NTeszmwQsEDXrnmLUV8z0cSB0TwGw94FoONiJaFjbOJwodz/ZcWT84t1T8lOZnQO0pH/UMOdcDb7ZXYlobExSr18IhuNrYxZlB8JzeO1jhSZCIZrQv/SmfyfaZCDcBqIBQFMD0XCwE9FI0+UT1nTSze0MZTbmaUR+3tGO4x4IT1DsoD4Qzt805oF1ezpqkhbOhOi0/JC+wTe7TUVDfY985HqRNo1ryq2ckusWM4nXPqwptfnJAK7uKRWem3K7tSYnA3RPeKgXRAOApgai4WAnoiFwT6mdHqawPlhebsqt/r1m+d3gRcu5MuW+2W0oGtz95Dl2ouXD8XAf51MJiJMi+8hu0MJg/uG+0LP6d6IFrof7HMeoA9EAoKmBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjIFoAAAAMAaiAQAAwBiIBgAAAGMgGgAAAIyBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjIFoAAAAMAaiAQAAwJhdEY2Xr39Kwa8/lMb/AQAA7A0aLhrLP/qcfAMPHMbrAAAAND8NF43JxU8LRIPXAQAAaH7Q0gAAAGAMxjQAAAAYsyuiAVqLzEaCljfSaqmQVDxCbecTagmUJ0nThzto5Lpa3DEJGmmP0HRSLQJgAETDgXUz9sYL7yLp2A5PUUot01aCJp4N0oH2DmrrDFB3/xStF/WLHulmN2hhsIdCfrG9SOPAYz00MrehAk2w0uRtbfMFwnQ6ukiprIoinYIIC0/SplrjYPsKDXWKcP24NOQxd0Zo1n06klPUW4GzWb7gJ9+JeSp2emohGsXSWD4vjs9e75FvR3gtuD7suCZsfG1jVw1PlhEQDbB7QDQcmIpGimZ7Oih0fpHS7KAzGzQd8VPwwooMLcSVblYsi/ihE1O0msyI5QylVsapt9NPpy96uW8v3GlmKL0xT0NBka9ROx9KNNoDFLuhVmlk3hggH4eXEg0R7ou4wisUjXLsP9EYpmW1qF/boUvFW1uVAdEAuwdEw4GpaFjOWL9pM3Mnizpfd7rSWXcO0NK2XMyRnumhttA4ratlG3ZshXnyzmv6Yp+WBufzEB3vCZDvzBUS8qRhCd/xHrHPUqIRClO3W8w8nO/m3CD1BvzCYfqpKzJIC7dVgKDAMd8W4vaUHXeUpocPaeFpWo8PULedVniALmtpFaOcaMhwKaCW9cbnlaDalnf0mZtTNBQW50ys59bb0MX8gcprEZ2iGOff67y5RUOxHgtR2zGrteWVRql9MpsXxTnhVqlo1fZemKSxg87yt3lJP/9RWt5SAYLMjSgdf4zDrFbPRMIWL0s04ldntOsRpdVaaRvYl9RcNL6/nqWJhU/lbzEefPJjmk58Ko3/F4NnVfF03MbNrjIVjQwtnREtBbulkbVaGvkavhtnuqujAWrrdzvx4lQiGplLA9QWGKVVuaRqkm9MUnf7AC3oIrUh1rFwXRJOrpRoiLB1kaavs48u25FcosH79AVP0uwtq9W0PhmRorignI9DNLIrFAv6qTe2Is9dRrWO7PC0EF9fcJiW1L42Oa1i3Wsa5URDYtLS2Jqns51BGrmqMiDOU29nmOKq51DG74xQ7PoGpdMeV9BQNBxplNknrYxSSMSPr4hwcX435wYoJATAFo3M4iAF7XOWTdFqVCurrrTTV4fFtj00Kxetyo8vMk6rvLy9RnFRpoJFyzEANRaNv3I9g8HLblgkQhce5uL85p9uewoHz6rq0NJqzCwryxHna58u050rO78n8mFdx2Y8Ha+F08EXOKoycHwj0Uh6dU8FKCacjWxVzORzuHohYHWnsZMrIxop4eoW+v3ks4XO4XytfOhpiy3l/jyPV+zPx6Km1Sk2J7WWxnaa0rq4qX3N3lHLRaiZaHA335YuBuo8T1nHx/HDsRJjTx6ikeGWVcB5PhxplN2nu+tThOdaGlbcoUva9jxWZZ8zecwncwLO12b96iKty6S5fIQofksGSOR5dHdHAqBRU9F4/Ot5MWDjZTfcutDjsPE6NzwdV4/Dy/VH3awFDlp3oHKJLh/TWhpqTMO0peF2VHI5J06Ww5H7y61zmu4snGF+6h4uHAjn+LJLzK6xZ8X6TjXOYSQavDBPp+1+eYfzLXQ8jGxNqWPUj1emqWrcNnKdfT6yaVrNdU/Zx+V09F440tBwnGsT0RCkta4iOw/6tfMqHzmkaOS3k+YP0vFowiorAq80iu/Tus6nL+pnzFpnlQPrGjv2Jy0v6pdPhcjnD9PpwXGaXUlSxlE+nOfDcc0B8KCmovFfh52Onpfd7AvRuMPOp48ua/3GdGucwu2DtKTVoPM409W7KhzotdSMqHFvWbZwpoOOjK/llq2b3pVX1e3jHEjPi4YMD1hCoQtIaqq4k3A7EB4v8QXEMQoHV040loeF01fOuBLRkP9lV4uqOXs4ei/0NHQqFg0Zx+rO8TrPZqJR2D2lU5BGyX1a/0uLBrcmZUBRMrdXaCE+SqefEi3Gg1Fala05iAaonJqKxt/83WcOR8/Lbrgriruk7Diluqf0tBrZPeXlFBw3k7zJXWMEUjR4nWiF9IfotMPLbVA8pN34N0YpmOtX1ijicLwdVWFe5dhCQGyfy5cmGgIWK9+ZKZrWuqpKOYnCsCTN8iyxwxFxrLazsfJRq+6pgmO9PUlHTESDxa9gEoGVj1xXkIlo8DVwHTN3BenHUngtNHYiGmX3Wap7SpStcAd1T7i6zNT5zdxO0FJCtC6sRVV50AUHogEqo+YD4T9473OKf+9T+VsMFgluXbB5CYZN8w6EWzdqb9QazKVMUrQGguRTNejNibCoLQsB2RC3am5gWBtIFrGWz4v4B0WNesNqOWS2NmjpPG8XrWL2lLWuO9df7hQNOfjNXRfazK3KREPAjpef7dCcjTUQLo73tjreqT4Kmg6Er83QWW0gfD0aFPsUNWHR0sikVijew91U9r7EeZsYpnhu9o+G6j7jdFN8bJkUrcZPygHk3HMm2UVZKx9LiLSVF5WC1SOOUayQtfybUQqJ/U2siFq/qACsTvTIZ3HyDty7fOTYiWiU2ad7IHx9RhyXdl1lC5DDb1rnJc1TfJ8SwszHaG+rwjK3JmWrZuImL0E0QOXUXDT2NqaiISj1cF9WOLeo9uDeUwM0rW7aHO6+e3+QjvRFacljwDe9tkjL7JAdFMkrO4mcI3CJhsg917z1WmvFoiHYFOt9LmezOaNNk+Upt1rF1yEaTKkpt9mkaKmF5Xn1BSIUm5uks7nuL3XMaoC4gOQixexrItIOPevMh3CZtBo7ZKU9rPaXnKezT1jCZA+2O6e3zlP8RL61UhfREJTaJ1N2ym3u/BeWt9TiaG7KLZ/TkUv2viEaoHIgGmDvYI/LlOm/BwDUD4gG2DNkVqJ0XLQQ3G0uAEDjgGgAAAAwZldEg2dC8RRatsbMigIAAFALGi4aPBNKn0rL1rjZUQAAAKqh4aKBz70CAMDeBS0NAAAAxmBMAwAAgDG7IhoAAAD2JhANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDENEY3J64/o5/7wDn3hy+8b2S8N3KVvLz9SWwMAAGgWGiIaLAJe4lDKWGQAAAA0Fw0RDVsITKk0PgAAgMbQUNGo1AAAADQXEI1dJUnThzto5LpabAkSNNIeoemkWgQA7CnQPeUmvUbT/WHq6uygtnY/dYX7KJ5Iq8BaU0o0rLDe+H7zrhANAPYyDRGNStk90UjSbMRPoTPztJnOEGUzlFoZp97OII0lxHLNgWgAAPYWDRGNr84+oK9efKCWyrNronFninrbD9H0bbWsWL0QoLZzi2qJaPPSIPUG/FZLJBKl5S0VkOTtB+lyIpoL7+4XApRV4YLNiwPU7RetmM4A9V6YpLGDHqIh0+GWjrLDU5RSQZtz+r4HacGVVwtLcLonNtSy4NY4hdt7aFYlVCqd5fMusZL5sR295fQn4qPyOApFTYXP5M9B17FJWs811qzw+NUZGnoqfw5X9cbcVoLifWE6wMfuD9Pp8RXKSbbBOc7cGKfTMu0OOvDUAM1qpwEAUB11F42/f+/TnAiYCseuiUZ2hWIB4Qija5TWnJBOZnGQgsFhWmLnm03RajSSd+rK2cuWivBymdQVGhHpnb6oPOLKKIU6hcNcEbFFK2ZzboBCIr5pSyNzaYB8wZM0e8tqBa1PRsjXOUALHr1nqbiWL3u5Z4Y4arl0yotGB/lYLDfSxA0yJ1a4PAfbYjG1QnHRevOduaIcv739OK1y5rbXKC6OMzi6IkMpu0HxsBCC0YR1DVKLNBIUAhhTnr/cOb49KVqGIq/q2Fikg4FhWua8AACqpiEtjW99b7si4dg10RBkbk7R2SdELZVruIPjtLBmu13GcuRDlzRPuX2FhoRDneXHSqRDE85Xc1DsgH3DCfXfT8ELyjlKRHpeLQ2JWzSs5eMzen5SNNvjVdsXpGboeM7RW/GsbcunU140QhS/JUM84HBXa+3GKAVz56VweyloESVw14fJFxilVV20eftO4fh5ncE5DtsCIxEiFPLTmBUMAKiSuoiG7fSLWTnhsOPtGlxDXZmheH9EDogfOGR3n1i15Fy3Uc6UQ5UOTTg3jqpgh9Z2nj2W5axzNWKJtc5MNLyd9epoQKXvRhOKrXk6neuaKp9OedGw/3vhEZ4VrYUS2+utIvm/326VKGT+1TYG57jw+hQ7xwCAStkV0Rh8TXechdjxmgLuLhGOyOo+YYcXoJjeWNDZBdFYHhatIk/RIErP9FDbsXlKXRrIdU2ZpFNz0VCtsWLblxUNOdaktqn4HAMAaklDuqf43VOmgsHslmhwX3+bu2tEsDl5SHWfcH+7a4CZseOXdGj8v4HdU4xqYZw+5te2K58O5/nIpJZmtaIhB+H17qniomHWPVXsHGdo6Yw+fqJwXU8AwM6p/0D47c8qEgxmt0SDthM0FvRT9/CiNuV2is6Kdb1TlpdLX+wjHw9m37SOJc1Tcp8STo69VBnRcA+Er8+cLDEQTrR0TrRwhhOUyVgu0BrAFs73tpW39ak+4UzFctHTmqbLx8T+XU66XDrSiYdHaZm9+PYGLZwJammYiEZ+oJoyGzQdEWIpzoF1FGVEQw2E94rmnDUQnqDYU+6B8DLnuD1IQ3PWDjK352noiT66rGskAGDHNKSlMXgxbSwYzK6JBrO1RrODPRTiabHC+R147BANxdccNdfNmQHqltM9rSmd00pAyjo0gdGUW0VGCNIRGTefZn7faqpsmemksotKm0VlUzKdbJIunwqRTxyfLxCmodFBOlKRaByiscnR3JTY8Kmpgim3RUWD2UrQxLNBbcqtmknFGJzjdCJKxx+zro8vEKHYIhQDgFrRENGolF0VjX0Gd4kV7b6qC+VEBQCwl2mIaFQqAhCNGrCdpvQaP7OQf6CvMUA0ANjPNFQ0KjWwc+RsqM4Qnb3YaO8N0QBgPwPRAAAAYAy6pwAAABjTENH4uePm3we37d//8V21NQAAgGahIaLB755iEfASBy9jkXlRbAMAAKC5aIhoAAAA2B9ANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYcy/9AKIBAADADIgGAAAAYyAaAAAAjJGi8eiTTwgGg8Fgu2iPHpX/rcY4jRoYRAMGg8H2stmC4PWrmx2/SoNowGAwWDOa7vzt32pMT7sKg2jAYDDYfjBbGPRf3fS4VRhEAwaDwZrRdOdv/1ZjetpVGEQDBoPB9oPZwqD/6qbHrcIgGjAYDNaMpjt/9+9OzE63SoNowGAw2H4wWxiK/dbIIBowGAzWDFbO6fNvNcZp1MAaLhoPtj+h+PX75D9/l35N2EviP6/ziguDwWCwMmYLgtevbnb8Kq1honFn6xFdmL9Hv9j/QcE3wXndyNw9GcdrWxgMBms5052//VuN6WlXYXUXjXfef0R/+PLH9M/78mLxC6c+oOHX70nj//Z6jnNcxOVtvNKCwWAwWBGzhUH/1U2PW4XVTTQW1h7Swb/8iH6iJ9+i+C9/cpemltKO7ij+z+t+Y+TDXDze5r/9RUqmoacJg8FgLWO687d/qzE97SqsbqJhC8DPHHuf/vsLH9GNd8sLwPfXH9KzEx/RT4tt7O294u2uXaOvtXfQ1xa8wgrt3to1WlpLeYZVbRsv0dH287TkFcZ2e4XevJH0Ditl5dKtxnaaJxgMVtpsYdB/ddPjVmF1F43kx97hpYy32U3RuHvjJXr+6S7yCXFo6+yiL516id7+0A6vTDSWhv3k63uN7nqEVWwL56lNd+ZlnPt7f32UfI+P0dseYSWtjqKx4zzBYK1muvN3/+7E7HSrtLqLhldYMXvjZr41sluice/aeXqy/XF6/rU1untfLH+4Rt/tf5x8z7xEP3zIcSoTjZpahaKxY6tnSwMGg9XHbGEo9lsjaxrR+MbV+zL+H72yJZd3RzTW6MWnO+hL0TXn+o+/Q8+3+5VQuEUjRW+/2E9f6vILh+6nrqf76fVbdphoaQyK1srgNfn/vRefobYzL9Drp56mA9yK8T9Nz7+6QXeXxuiovf0zY7Sca9W40uFtlMn9S+d+jl6/lt/+S6deU+Km9tf9Er1np3PrtVwLytcl9v2K6zhtU+m+/Ko4Lj/vzyNddUyWuc7Jww15jF2dYlvZUnvFO09l8s92bylGX/ktDuugA7/VT6+u5cNKHk+JPMBgTWnlnD7/VmOcRg2sKUTjW9fSufhnX91F0bjzGn2l/Ul68aY77D798NoVWrp1X/x3Osi7r50g3+Pn6c2ktfzDF54h39Mv0A/VtgWi0fkMvfhWku49FGn+9XPk6xRCcTRGy7z9xyv08jN+enzkLRm/wDxbGh30ZL9wtNwqSn6HvtbVQV951RpDcYrGCn3zcT8dfWFN7FvEvfkCHRXO9M+XVFq6FaR7hb72uBDTccsplxONt8e4ZfYCvS22fXR/zTqmYeuYCkWjeP4f3eI8PkMv3xTnnc+XELHHu8Txyy7P0sdTKg8w2L4yWxC8fnWz41dpuy4aL/9doWCwmW5fU5NOTDipDY+wnLlq1R+n6K4+bqPSePW2tVzY0riSj/tQOGNO64patuPorQPdPEWjn76r7Z/35zuv7S+XFuf7SfrmDTuuLoT57aXJdM/Rm3qN//V+auu6QMvifznR4Dw8PbaSC7936xq9eW2D7on/haJRPP9Lg3562tHqEy3BJ/30p9f4f+njKZUHex0M1tSmO3/7txrT067C6iYaP/Oc5fQ/um9l9srbhbOnpr+fzk3J1QWDt+F1nIYev+62E9F4mKLlXPcUd+Ww5dMoEI0SzjYXpyLRcI49FOwvl9Z9Wo5+iQ6I2vjRU2P08uUVulusu8YjXa71/65aV+447r0Vo9/1c1dbP33zxSv0tmqFsRWKRrH8b9DL3fb5dJq1n9LHUyoPMNi+NFsY9F/d9LhVWN1E49/135GOfy25Taf+Zkv+/6vv5Wu1LBg/2VsoGGz8cB+v5zT09XW3ot1T4kR9KFoU3NXhcpDSCcruKXVsLuFpHtFQllyhpVdi9PwzXeR7/AS97iWQVYqGtIdJevvaK/TiqWeoq/NxGnhtQ6535MlANHJdVcWs1PEUyQMMtidMd/72bzWmp12F1U00fnMsJR0/v1uKRYH/c6ti5v+l6bUbD4oKBhtvw2GchjusvqYGwlXffc5KDISzkzv6ouaMpHNtQtEQzvVNro3n4ibp1aOuvNsm0y3TPaV3szmOQzjqy86a/d1XjubyYS4a9+nNfj/5+r/j7FKy81TyeErnwV4Hg+0rs4VB/9VNj1uF1U00/mTunnT8h77xkVy2heOf/v779FPCigkGW/c3P5LhnIZXeD3tnnDMT3Z+if70shpgLTPllgdc27rHaFm0NO4l36IXj3I3VZ1EQwrSUXr1ttgXt3oqEg3RihK17eft2rYcdPaL2reHMMt0iw+Es3j5Op+jV3n84H6SlqPPyBlMtmi83uuX277H50vU9r97RrQC1LMq5qIhlt+6oKY/W3m+x7Olvvgcvc5iUPJ4SufB3hcM1tSmO3/3707MTrdKq5to2F1M3KJ4L2Vl2BaOUoLBce1WyD/s0juo7l6L0Vfsh/v8j9Nz514p/nCfmtrJU2h9Xc/Qn7/2Ag1oXVw1FY1PxL5OPCnzdfSlZGWiIeye/tCi/2n6Suwt74Fhma5ryu2571gOWMZJ0fLYl9S0YXF+xi6IY9aO48MVetme7srbPhfLTSOuSDSE3b02Rs/9hjVeJM/vlfzT5CWPp0QeYLB9abYwFPutkdVNNNi+OGq9T+q5v/o4t47FophgsHFc3oa39QqHwWCwfWnlnD7/VmOcRg2srqLB75LirihuOSyuPfCMo9u1d6yxDt7mrQ28rBAGg8HKmi0IXr+62fGrtLqKBtufv2ENav/8ifdp+d1tzzhsf/+jbRmH40aveDw7AIPBYK1kuvO3f6sxPe0qrO6iwdYXt7qc/kXfB3L2lDucnwjnMI7Dcd3hMBgMBitjtjDov7rpcauwhojG9iPnIPgfvPSx7Lqa/8ED+dlXe/3/KDHWAYPBYC1luvO3f6sxPe0qrCGiYdvrf/+AfumPrYf+dON1s8vlxzxgMBgMVsRsYdB/ddPjVmENFQ22+w8/oW8s3Kf/+Pxdafyf13nFhcFgsJY13fm7f3didrpVWsNFAwaDwWB1MFsYiv3WyCAaMBgM1gxWzunzbzXGadTAIBowGAy2l80WBK9f3ez4VRpEAwaDwZrRdOdv/1ZjetpVGEQDBoPB9oPZwqD/6qbHrcIgGjAYDNaMpjt/+7ca09OuwiAaMBgMth/MFgb9Vzc9bhUG0YDBYLBmNN35u393Yna6VRpEAwaDwfaD2cJQ7LdGJkWDAAAAAAMgGgAAAIyBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjIFoAAAAMAaiAQAAwBiIBgAAAGPqJhqvLX9Cv3ruLn3hy+8b2y8P3KVvi+32HgkaaY/QdFIturk+TG2HpyilFndKKh4xTkfGPZ9QSxWSnKLeUscDAGhZ6iYa//b0HU9hKGc/9fvv0w82P1Op7CIbk9TdHqDYDbVcEogGAKA1qJto2CJQCYfHt+Q2v3L2LmWyauUusToaoGAgQL4zVyij1hUHogEAaA2aSjTuP/ox/eIfWS2U06/cV2t3gewKxQJhil+foePtA7SwrdbnSNNqNEJdnR3U5g/TUDxKZ3Unm16hiYgQnPYOOvDUAE1HT5Zw9mlajw9Qd8BPbe1+6goP0OXbKsiFWzQyN6doKGztxyfyO3Qx7+Vl3HOTdLk/TAdEuMynFs5sXhqkXnu/kSgtb6kAiAYAoAhNJRrM361/Sv+4x9qW/+8GmTcGyCedc4aWzvjp+IzT3acv9pEvKMTktmiDZFK0GosIx2072RRdPuan0Jl52pTBKxSPCMdcRDTScydFWsO0pAI3J0Va4UnatBYdOERja57OdgZp5KracGOSejuF0G1YizJue5CG5pKi1Zah1NVhCrXnwzOLgxS095sVxyBEMJc2RAMAUISmEw3m7ExabsutDm59NBaXUNwYpaDDiSdp+nCHU0iyi/nuKelwe2hWCybhoIu2NLbTlNZbMsphz95RyxoO0RBCkN7SO86sfPVOWXuxWhqL8r9Fhhb6Oyg4uiL+W3GHLmnbb1+hIXu/EA0AQBGaUjQ++5yoc+hDuf3v/h+7z6RBpGboeOcALdmO3O6qUjV0a/wiQDH2vTm0MQ0evwiM0qoVYFFqTCObptVc91SHMm+H7RANQVrrnrK37Y1bG8q4rjGNzclDah3nN79N3nThg2gAAAppetH4nfHGiobVrVPoUIMXbJWorWjI/cluIlXrL+GwHaIh41ndU9akAdXSMBYN9zFoQDQAAEVo6u6pXzjV6O6pDYqH/TRyXS3a3BqnMAuB5pxr1T21fD7v6CW3J+mIiWgUCJHI10GXaBTtnuLj7KDuiVzzycKesQbRAAAUoakHwhfeafBA+MooBTuHablguq9wsiE/Db1htQbcA+HLo4dKDIQnKHaw+ED4ejQowqK0KloactC8h7upDETjZpRCIt7EimhpbKdodaJHzpJyiEaJgXB5DJ0Rit9MW8sr49T7lBBGPkSIBgCgCE0lGrs95Xb1QvHnMtZjIWo7Ma/CajjlNpvMTYv1BSIUm5sUaYUofkuFazhEQ7B5cYC6/SIPnQHqvTBP8RMdFI5ZqmC1NJxTbkcuOXOwOZMfS5H5VAIC0QAAFKOpRKOZHu4DAABQSN1Ew24xVGpN8xoRAAAABdRNNPiFhb9S4QsLf2ngLs3c2IsvLAQAgNagbqIBAABg/wHRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA3gIPPpp/Tx1n1Kvn+XNt7dpHduvUur76zDWsj4mvO15zLAZYHLBAA2EA0guXc/TT+6naRb6z+iD+58KJYf0CefZCj7+ecqBmgV+JrztecywGWBywSXDS4jAEA0Wpz0g4eyVnl78wN6IP4D4AWXDS4jXFa4zIDWBaLRwnAtcv3d9yAWwBguK1xmuOyA1gSi0YJ89llWdjfgxgc7hcsOlyEuS6C1gGi0GHyTcxdD6qMttQaAncFliMsShKO1gGi0GFw7hGCAWsFlicsUaB0gGi0EdymgSwrUGpSr1gKi0SLwjBcewASgHnDZwqyq1gCi0SJw3zNmSYF6wWWLyxjY/0A0WgB+KIvn2ANQT7iM4QHA/Q9EowXggcp6tjJiC9t09MV79KOP8PR4K8NlDIPi+x+Ixj6H3xvEr4GoBz/+MVHP5D36wpffl/ZvTt2hH35Y6fTLNK3HB6g74Ke29g468FgPxRZTKgxUT5KmD3dQ2/mEtbgySqF2P52+WJ9zzGUN76ra30A09jn8wrl6zGxhwTjywlZOMGw7+JcfqxhmpC/2kU84se5zU7RwdZ7ip0JiOUhjiYyK0ewkaESIXW+8WWvYbtGIUrjTT2fnlGhcHxZiHaHpGmWfyxqXObB/gWjsc/hNpfziuVqiC8Y/+4MPHKLxPy9X1g22fF44tIOTlB9CTdHqXII294pm7DXRcFNj0eCyxmUO7F8gGvscntHCbyytFSwYv/NNSzDiS4/ob9cy9BM9lmA899I9FcuczYmwcFpBGppLUqagZ8vL4bmcdDZNy+N91O0X8USLpSs8QLFzh8T/YVq2YoiTME8jkYBowYg4/iAdj47SWYejL91Flrk5RUNhbfsLi5TivEqHy/u1zdv5phZH6fhjVtqO7QVSNA9HaTYaoa5OTkO0uvqnaL3YeHJ6jab7w7m4oWdHaemOCmO2rPADcl9hGoonaLZf/LfPYXKKekXYyHW171zehR2eEpJdHVzWMItqfwPR2OfwtxFq9XrzrEjGFoyJa9ty3VTikRSNnQiGJJuihXPcJSWcFjvUwRlazT2wXl40VkeD0nkeGbS6t6aFYMi0bNFIzdNp4WB9T/TRxMwiLc1E6XjQcpJ2GpvxCPk6QzQys0aprSStxk9SKNdFtkKxQAcF+2doPZmmzetR6g0coomE8OqpNVq6Ok7HRVphke+lq6KFZJ2WPFuLNPJEiM5OiLAtsf3VYeoW+QmNrshg23H7Dg7S9NyiEI8ese8O6p7YkOEOsuJ8RPziWAZpdi1J6eQKTZ8Qxx8Ux8r7zYq88rH5D9FIfJ6W5qZo5KCIzwLjIRrpNXE+Yj1i/+LYp8X/hBBuK9aO4bLGZQ7sXyAa+xz+qE4t+EwIxm//xccFgrHTFkYB7IDjg8Ihixq5cOBj17mqXUY0tq/QkHCI3THdwaZp6VwgJxqyJdM5QAt6zf32pHScMo2sSE+kEY6uqUAmQwtcO++/Iv5tUDwsnHokSssbaY/WkGH3VCZNaSEaaeGVl86JtFWt3hKNk1r+0nT5mFgX8aj1i5aNTzj4iZtqmeFzIPY/dClDmTcGRHiY4rdUGMNCIkTPSzQkNe6eYmpV5kBzAtHY59TiBmbB+K3/bQnGX161BGPyeo0EIyucnV695do0C4V0mmVEw+0AFSnRcrBFw+r+cTvgwjQc3TS22dul12j2Qh8deYK7qNzdR2VEQxzP7DHVtSVN1fx10XDlzzvP9nHZ6TiN968ft45MD6IBagREY59TbffUp6JmXUwwnv1WtS0MqxbskzX6PPmauBINPTw1I7uDpJNWtexSLY31WKh0S0O1Vo7POF106tYapVWrInV9nlbt4MwKTYREnodtISstGqkpduQRUftXR5AVLQluxexANKyWRA/N6gHZFK2vWSuaoaWB7qn9D0Rjn1PNQDgLxhf/10dSIMa+a82KGn9zOycYPCheLexUufYePhal2auLokZ/SA7i2kKwOsoCwIPXM7Q0N0lnn7AGlG0n7R7TsKbsCidZdExjlI7IQfN8GusTPA6ijYsMch781DslwtOWqPieOEnxuUVaiA/KMYmgGpNg0Rjj8IPDIv8ztKw7bAFPKbYG+jcovZWk9ZlBCov4OxENym5Q/KA4fn3M4hB350Volg/FHtPodI5pyNZIMdFIcJeXaD0Ni/M7k9Bmse0MDITvfyAa+5xqptz+3oT14F69BMMmdTU/u8gX4Bk/+Vq+PVvImg1kiceEaH3kavau2VPcdbQQdXXTaLOnfIEIxRZnXK2DtHTmcjxFxRkRTj6HPvuqM0C9g/O0qY1tpN8QQqL2H7uhVtqIlsDShfzMqNCzUYqdEP93IhoMd5UN5tPrigzSgt7Q0mdPibx29/PkAPG/mGiIvSwN2ud3tKBrq1Iw5Xb/A9HY51TzcN9jF1L061+3XFf0ysO6CEbVZJK0etPpXlcviNZJaJzsnvX02gpt6t1TqouLB49BbcHDffsfiMY+p5rXiLBo/OzxDyjwJykpGM/8n63mEgzK0PKw6p66wFNeXV1LDNesuftIdS/xlNvT3MVlT1MFNQWvEdn/QDRagJ2+sPDE1H0pHGzH//o+fd5UgqGwu6f0rqWZNcfAuuxeejZodcEIQenuizofiAM1AS8sbA0gGi0AXo0OGgFejd4aQDRaBJ7RUs/Xo4PWhssWZk21BhCNFgGfewX1BJ97bR0gGi0Ez2ypx2vSQWuDctVaQDRaDB6oTH2UeyMgAFXBZQmD360FRKPF+OyzrOx7hnCAauEyxGWJyxRoHSAaLQjf5Fw7RJcC2ClcdrgMQTBaD4hGC8M3Pg9gYlYVMIXLCpcZVDhaF4hGi8MzXriLgefYQzxAMbhscBnhsoJZUq0NRANI+KEs7m7g10BwLZJfPMdvLK3VV//A3oGvOV97LgNcFrhMcNnAg3uAgWgAB/zeIH7hHL+plGuV/G0E/qgOrHWMrzlfey4DXBbwLimgA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDFSNLw++QiDwWAwmNvQ0gAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgzL30A/r/U1uc1bW5VQYAAAAASUVORK5CYII=</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADmKSURBVHhe7Z3/cxtnft/7d1yTpsm0TdrMtJlO2uQHJmXBGY6QpkTjMXoeI/EYqebEyIEa68jIoaKTFIaq5OFRdwyVskyDBHeseWYMhzFrnkWTJ50V0dQpxLlieCOTjo70yYQtGTYlSJRhw/fp83n2WeDZxQJ4QHwhSLxfM58Bdp9nn31299nP+/m2u/+IAAAAAAN+r7ePIBoAAACMkKKx+s46wWAwGAxWztDSAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDENFY2PHvyYBl5N0xdHP6KfP/GBNP7P61IiDAAAQHPTMNG4uPIJ/cs//IC+8OX3PY3Dvr38iYoNGkeSpg930Mh1tViCVDxCbYenKKWWmxWZz/MJtdTcLJ/v2DN5bVYyGwla3kirpUL2UnnYCzRENF5eepQTh9/+i4/pjdWMCiH5n9fZ4Ry3WUhNRcjXHqHppFrB3FmkWCQg1oub3R+k49EVyh+NKMA3p2gorIcnKJ1VgR6kE+N02o7fGaDuvnFa3lKBDaE5RaPovq4PUxufqyLGx9E0TsIjrwce66HY1XyBqkw0rGvVG9cLpE6CRsQ+QsMJR5lkaiZO2wkaC7rTStN6fIC6/XyMfuoKD9Dl2yqoBPI6dUZo1n04ySnqdd93JVi+4CffiXmRC29qUR6KpeE4rx753o+VgrqLxp37n9NPH7MEYWj2gVpbCIdxHI77gdhm10nN0+lOvgn0QrBB8bC4aaNrlhCkFmkk6Kezc6q4cqHpDNLQXJIyHJ6cpyFxgx2f8XazGeFUQp2HaOzqBqX5Lt/eoIUzQWoLjtJqCaGpLXtMNHSKOJdaOImaIEVjmJbVImUzlFoZF2XET0OXrDJTD9Foaw/SWMIpG7VyXqujonzyPrS0Mm8MkC8ghIKzJY5xfVJUtoJRWreCiyKvk0jLF3Fd5wpFoxy1KA/F0oBo1AEer2AxCP3ZR2oN0bupLP3ZGw/pqxcfyP82vynicNw//r/Fm5qNIU0L/X7qHR52FoJb4xRuH6CFbbUs2Jw8RG39V2TNjlsmba4bYD0WKlJoLAHqnthQy4rsCsUCHcKpWDe9LKznJmn2GLdGlAPi1s6zQTrAN6+7tSML7iBdTkSpN+AXN6WfuvvnaVMToc2LqlYoWja9FyZp7KAmGtkkXe4PUxcLJrd8+mdy28q86I68RD7sfHNaVniYhi4mKX0jn6+uSJRWi1zqgn15UUo0zs3TcjRiHYfatw3fyA7H60iHHW+EJmZc+dyyzot+LGVxi4ZCloljVs24wKlsJSjel9/P6XF1TmUexTrbPM+NJRrd4XBBxcN4P6UQ5b87OExj/XpaGXGvdFA4ppXjrKhMtYcofkstF0Fep1CYuoWInr6oHY3Hdd2cG9SuxyAtaC2ZgmO7LSprT9lxR2l6WNyjuXDVKrLTqqRVpO9DYe9bhmvXpzc+rwTctnw50HsjfAGPshmdohjnv0EVtEqpu2j8h+fvSiH42zWrSLJI8LJtP3f8g5xwXH0nI9f96rm7cnm34BZAMDxO67ddhZedwMFJ2lSLksXBkhd3+bzfeUPZbImWjOmNJWqOQzNrlNric7hGE6J10zu5YbVmtqzWztAb6pZXziV0RgiFWJVJXaERIUKnLyrvvDIqWjcRiq+IHIta4ebcAIVEfFs01qNBUfObpHVOLrNB0xE/BS+syDCZl9yxls6HjKv2k+H9TPeRTziHrp5xWuUEttestEettN0491WEUqLB50y2+ETt/o1BCrb30WXV7SdvzJKioc4fVw5SCYoJcT/AQmGnd1W0ELX0ilKpaGS5IiFEflR1acqWrBCBXPkxa2mMLFoVkpB2bivbjxe8b6uF5EjLbqkuqkWJWKdXRIpgX+P1S6Kl0inOp32xXdc1w+HBkzR7S5QtuyXTKSpvqkg7j01UurhcxlbksWU2rNa+HZ6eOynSGqYlta9NTivsuqc9kHnNHXMex749yqPzXAnEfX+2M0gjV1UGNiZFyzNMcXXqZXxx38Sub1Badj80H3UXjZ/stcTh/iNrdtTYdx86RION1zEch5f/idhm15CFLkiizBUWAnYCbkfmtc6Ga2b6zaBTxOG5kYVVtWQk4qZJb6UtR63gguYb1guuszWkh7OI2SJg4bzBOW44umYtCDK3E7SUEM5S/Hc48jL5kHHPaZ5E1j6dzsWRnotSYTmKnMOCcyadqZ/G1CnifJYWjUM0rdU+ZWvSUVlQzrlcl56HaGS4FixE3N4/5yXnVER8X8DVNXljlIKdIg25zlA0OF9c9tqFM1KVksr2U0j6Yh8d8GwdKdFwnAuvdYXkr7HVsvfZ18xxPay0nF28KZrtMT+H8vrZ4dtpSmv3hr2v2TtquQgyr7ljzuPYt0d5dJ4rgbxvdDFQ13TKOj6O71nJbCLqLhr/Ss2YskVj8DWru0o3t2jwNrvFeixMQeHsCguvwEsgvNYxwjmcFeIzcl1Vh9y405bLooAps28Iz8Ka1LqFbHMUXKejyhdcq4DmWh0S5w2eWRmnI35u1g/QRHyR1rUDK3DkJfJRmO9CR1uQnkapsBweNylTbt98PkqLhjPNwrxUIhrauWFzTY7QnYrcj0PsBLJFaudHORgT0RDI8QduMYt9VbYfF+krNCRqv7aQ6mm5y4+F17pCHOdVjiGqsZ6C61HYIl8dDeTyUHBsStxs5Do7v9k0rea6p8R20ooct4YjDQ3HufAoj85zZZHWJ8so0wWw+PVtDuouGr/+9ZQUgsTGp3LZ3T31s1r31Pff/VSu4212Bb7oJZrJ0gmYdE+lRUHnJnKpi78tbsT2gNWiceB0DAWFdVukLQp87+RarpZfWHB3LhqSbIrWEzMU7+cxgSCdndPyYh9rmXwU3mROh8Y40nNRKiyHx03KlNt3wY3pSIfjOtMszEvhsXgiRcN5LdwUnDO3M7+j581ZNgpx5Uu2mkX8ySQtVbQfnYzIY6B4V5ddfqronrLPK7dmfIFBWhJO1Xk9CkVjeVg4fZWHgnNYQjTkf9k9pY6+SBlyo6eh4zgXHmk5z5VAxrG6p6z7xnlNOX5Jv9EE1F00zqiB8Oe/nb+MLBLcuuBWhy0YjN0K4W12A1kQxU3nZfJClhkIl2StcQDu6y+N1cR2dhUxzkJUUFhloXM6oqVzIo+OgltMNPh/qe4pIRZXna2L9ExP7saWebFv8jL5KLzJCh2tIz0XpcJyeNykTLl98/k4IhxpDkc6HNeZZmFeCo/FkwpFg+PXrHtKkUnw+EuEesV25vvRkGIitvU0PrYqB8Id5zVJszzOdTgi7jP7GljHXKvuqQKnfHuSjniUITdykktItNrUsoWVj9yxe5RHR94YLhOuY+b7Tz+W4te3Oai7aPxg8zMpBP/65B1H/7ebT0UYx+G4vE1TUFAIXFNu5ZRabRA6KwqAKPQhUUgctbhi8EA71+TjK5RiIcqkKbUySadFDd6exlvgAOVAWoCGLm5QZpsHsgcpzDOE7DgeztxRcF0D4eszJ7WB8BRdPibyf2aepJaLFsfCOdGMVnPgHTd5mXyUc9xModPIUyosxw5FQ4aHR2mZE7enOefSqVQ00rQ8MUzxhEdFp1LRUAPU9iCuHIR/yjlAzcIc5OcwMl4lrPAcy5bCsGuabLn9iOu+PLdIm0Xqbm5H6Jxym6bVmD64XPz8eF5jvqauqe7WQLiorN0Wx8xldqpPCJzhQPjaDJ3VBsJ5okfb4SitipZGJrVC8R6uKNr7KnEtVfcZp2vdqylajYt7R9xLuedMpFgG5HRn+/JIweoRxyhWSP93MypFfIIniGyLNCZ6ZPcuRMPFf1JdVN/6nj4C5YSn4HKcX/taSTfRWLyckuPhvjANxdfyAiGdBBd4t7nS0HGMC/ip64keGpnJp1noAEV51aatdvdP0exwKN/aKScagpJTbtNrNG1PueX0+8Zz02LdN3mpfBTmu3lEQ04rPhXKT3kcHdRqm5WKhqr9q4FMB5WKBrOVoIncNGaeCut8ONQac+Jr55Wul2gIZHdpBfuRFQI/xW6oZRcFeRbO1vFwX2SUlnIDy8XPT7FrvCnWux+q3ZzRpsnylFutYVOQn1JTbtWUcj5uXyBCsblJOptrFZW4lozrXg0968yHuDpCMA9Zaecmpohz+YQlTPZgu/P+m6f4iXxrBaKhmPvBJ1IQfnngLn3i0Yjgd1Lx2AbH4bgA7BnkczVeY1NAspfOD66lEQ0RDeY/D1utjbMzhU2/7m9sybBdGwAHYIdkVqJ0nLuL1DJwspfOD66lGQ0TjX+4m5XPbLAt3843N2ZuWK0QXs9xAAAANC8NEw3Gfr/Ur5y7KweF+HXo9ptvv1rivVQAAACag4aKxuc/JvqNC1Y31Zcn71FYvd02MJKSYQAAAJqbhooG8/69z+X7plgs2Pg/rwMAAND8NFw0GHs2FRtmSwEAwN5hV0SD4TEMjGMAAMDeYtdEAwAAwN4DorEbFLx/ZmcUPvkMAAD1BaLhwHqNgOMVIPLrdVO0Wsvvdu+KaOhfLLO+VT3hesdOanFUvRZEhd/QwrMZSq0laHZ8gI4/EaAx96sqsilauqC+lGe/6kH7JoX9ehL5CgZ5Tp1fE+R3+Vhv1u2hcKD0qzcAALsHRMOBeveM9u6XTFq90E59l6Am7IJo8Fs6cy9942X5xb4emrUzsTFJ3e0RmrhpCUWav07XeTL3dTre14Gn+mgsPkrHheN3v9+Iv92Q++Ifv1TO8Z3oDC2d8VNQCIV8EaL6ImAo97EnPu/8nqtRmh7tEaID0QCgWYFoOCgUDYn+7Qv5krxBmp7qk7Vq6TxlLbuHQuqFbaFnXd++Tq/QhHrJ4YGnBmg6etIpGiJc/17z0Iz2FrRy3+wu8S3sPCmajbhfxLZB8VDe+ctPkDq+sSDOxcH8t8opJ5heL8Vbo/jhEMV0/dJfJijPn+tV2fwdEv1V03b6Bi/5AwDsHhANB6aiwd+QnqH1pPW5U8d3tbNpWjovls/YDjj/unHrm91CIEQtOyca/Dp1Ucu2v7VtfQ40IJyytXXZb3aX+BZ2SbLC+XfmHTm/XdPxjQkBv4a78I2bRd6kqiNElF+PfSCijlEJ7VJOeATyOwYe4gDRAKCpgWg48BANdoCiJt/G/ez8ZnfpAJ0fYsqk0+T4Bjw7PvvV1TK+1g3E6F/7E3F9ro+7cK0//03vMt/sdrQO2KHnv4VdCv6srU/7wpnXK5m9X9NcSjSsMDkW9IQ6X4w8By4h8FrHQDQAaGogGg4s0cgNgkvzU1d4gGbtHiMvZydaC/nuKdtUHHaC/CUxGVHB65RoWK0FfTtlaqyi7De7HWMaBq0AwebFkxQKivxpXWi1EQ2Famn4guoLahANAPYNEA0HRbqndAqcnfUNZdmFZNesdcdnIhqubxoXIJxw0W92VygaGbFv/trYtD6zScACUbPuKUZ9xUwfB0L3FAB7H4iGg52IhrWNw4ly95MdR8Yv3j0lP5XZOUBL+kcNc87V4JvdlYjGxiT1+oVgOL42ZlF2IDyH1z5WaCIUogn9S2/6d6JNBsJtIBoANDUQDQc7EY00XT5hTSfd3M5QZmOeRuTnHe047oHwBMUO6gPh/E1jHli3p6MmaeFMiE7LD+kbfLPbVDTU98hHrhdp07im3MopuW4xk3jtw5pSm58M4OqeUuG5Kbdba3IyQPeEh3pBNABoaiAaDnYiGgL3lNrpYQrrg+Xlptzq32uW3w1etJwrU+6b3Yaiwd1PnmMnWj4cD/dxPpWAOCmyj+wGLQzmH+4LPat/J1rgerjPcYw6EA0AmhqIBgAAAGMgGgAAAIyBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjIFoAAAAMAaiAQAAwBiIBgAAAGMgGgAAAIyBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjNkV0Xj5+qcU/PpDafwfAADA3qDhorH8o8/JN/DAYbwOAABA89Nw0Zhc/LRANHgdAACA5gctDQAAAMZgTAMAAIAxuyIaoLXIbCRoeSOtlgpJxSPUdj6hlkB5kjR9uINGrqvFHZOgkfYITSfVIgAGQDQcWDdjb7zwLpKO7fAUpdQybSVo4tkgHWjvoLbOAHX3T9F6Ub/okW52gxYGeyjkF9uLNA481kMjcxsq0AQrTd7WNl8gTKeji5TKqijSKYiw8CRtqjUOtq/QUKcI149LQx5zZ4Rm3acjOUW9FTib5Qt+8p2Yp2KnpxaiUSyN5fPi+Oz1Hvl2hNeC68OOa8LG1zZ21fBkGQHRALsHRMOBqWikaLang0LnFynNDjqzQdMRPwUvrMjQQlzpZsWyiB86MUWryYxYzlBqZZx6O/10+qKX+/bCnWaG0hvzNBQU+Rq186FEoz1AsRtqlUbmjQHycXgp0RDhvogrvELRKMf+E41hWlaL+rUdulS8tVUZEA2we0A0HJiKhuWM9Zs2M3eyqPN1pyuddecALW3LxRzpmR5qC43Tulq2YcdWmCfvvKYv9mlpcD4P0fGeAPnOXCEhTxqW8B3vEfssJRqhMHW7xczD+W7ODVJvwC8cpp+6IoO0cFsFCAoc820hbk/ZcUdpeviQFp6m9fgAddtphQfospZWMcqJhgyXAmpZb3xeCapteUefuTlFQ2FxzsR6br0NXcwfqLwW0SmKcf69zptbNBTrsRC1HbNaW15plNons3lRnBNulYpWbe+FSRo76Cx/m5f08x+l5S0VIMjciNLxxzjMavVMJGzxskQjfnVGux5RWq2VtoF9Sc1F4/vrWZpY+FT+FuPBJz+m6cSn0vh/MXhWFU/HbdzsKlPRyNDSGdFSsFsaWaulka/hu3GmuzoaoLZ+txMvTiWikbk0QG2BUVqVS6om+cYkdbcP0IIuUhtiHQvXJeHkSomGCFsXafo6++iyHcklGrxPX/Akzd6yWk3rkxEpigvK+ThEI7tCsaCfemMr8txlVOvIDk8L8fUFh2lJ7WuT0yrWvaZRTjQkJi2NrXk62xmkkasqA+I89XaGKa56DmX8zgjFrm9QOu1xBQ1Fw5FGmX3SyiiFRPz4iggX53dzboBCQgBs0cgsDlLQPmfZFK1GtbLqSjt9dVhs20OzctGq/Pgi47TKy9trFBdlKli0HANQY9H4K9czGLzshkUidOFhLs5v/um2p3DwrKoOLa3GzLKyHHG+9uky3bmy83siH9Z1bMbT8Vo4HXyBoyoDxzcSjaRX91SAYsLZyFbFTD6HqxcCVncaO7kyopESrm6h308+W+gcztfKh5622FLuz/N4xf58LGpanWJzUmtpbKcprYub2tfsHbVchJqJBnfzbelioM7zlHV8HD8cKzH25CEaGW5ZBZznw5FG2X26uz5FeK6lYcUduqRtz2NV9jmTx3wyJ+B8bdavLtK6TJrLR4jit2SARJ5Hd3ckABo1FY3Hv54XAzZedsOtCz0OG69zw9Nx9Ti8XH/UzVrgoHUHKpfo8jGtpaHGNExbGm5HJZdz4mQ5HLm/3Dqn6c7CGean7uHCgXCOL7vE7Bp7VqzvVOMcRqLBC/N02u6XdzjfQsfDyNaUOkb9eGWaqsZtI9fZ5yObptVc95R9XE5H74UjDQ3HuTYRDUFa6yqy86BfO6/ykUOKRn47af4gHY8mrLIi8Eqj+D6t63z6on7GrHVWObCusWN/0vKifvlUiHz+MJ0eHKfZlSRlHOXDeT4c1xwAD2oqGv912OnoednNvhCNO+x8+uiy1m9Mt8Yp3D5IS1oNOo8zXb2rwoFeS82IGveWZQtnOujI+Fpu2brpXXlV3T7OgfS8aMjwgCUUuoCkpoo7CbcD4fESX0Aco3Bw5URjeVg4feWMKxEN+V92taias4ej90JPQ6di0ZBxrO4cr/NsJhqF3VM6BWmU3Kf1v7RocGtSBhQlc3uFFuKjdPop0WI8GKVV2ZqDaIDKqalo/M3ffeZw9LzshruiuEvKjlOqe0pPq5HdU15OwXEzyZvcNUYgRYPXiVZIf4hOO7zcBsVD2o1/Y5SCuX5ljSIOx9tRFeZVji0ExPa5fGmiIWCx8p2Zommtq6qUkygMS9IszxI7HBHHajsbKx+16p4qONbbk3TERDRY/AomEVj5yHUFmYgGXwPXMXNXkH4shddCYyeiUXafpbqnRNkKd1D3hKvLTJ3fzO0ELSVE68JaVJUHXXAgGqAyaj4Q/oP3Pqf49z6Vv8VgkeDWBZuXYNg070C4daP2Rq3BXMokRWsgSD5Vg96cCIvashCQDXGr5gaGtYFkEWv5vIh/UNSoN6yWQ2Zrg5bO83bRKmZPWeu6c/3lTtGQg9/cdaHN3KpMNATsePnZDs3ZWAPh4nhvq+Od6qOg6UD42gyd1QbC16NBsU9RExYtjUxqheI93E1l70uct4lhiudm/2io7jNON8XHlknRavykHEDOPWeSXZS18rGESFt5USlYPeIYxQpZy78ZpZDY38SKqPWLCsDqRI98FifvwL3LR46diEaZfboHwtdnxHFp11W2ADn8pnVe0jzF9ykhzHyM9rYqLHNrUrZqJm7yEkQDVE7NRWNvYyoaglIP92WFc4tqD+49NUDT6qbN4e679wfpSF+UljwGfNNri7TMDtlBkbyyk8g5ApdoiNxzzVuvtVYsGoJNsd7ncjabM9o0WZ5yq1V8HaLBlJpym02KllpYnldfIEKxuUk6m+v+UsesBogLSC5SzL4mIu3Qs858CJdJq7FDVtrDan/JeTr7hCVM9mC7c3rrPMVP5FsrdRENQal9MmWn3ObOf2F5Sy2O5qbc8jkduWTvG6IBKgeiAfYO9rhMmf57AED9gGiAPUNmJUrHRQvB3eYCADQOiAYAAABjdkU0eCYUT6Fla8ysKAAAALWg4aLBM6H0qbRsjZsdBQAAoBoaLhr43CsAAOxd0NIAAABgDMY0AAAAGLMrogEAAGBvAtEAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGNMQ0Zi8/oh+7g/v0Be+/L6R/dLAXfr28iO1NQAAgGahIaLBIuAlDqWMRQYAAEBz0RDRsIXAlErjAwAAaAwNFY1KDQAAQHMB0dhVkjR9uINGrqvFliBBI+0Rmk6qRQDAngLdU27SazTdH6auzg5qa/dTV7iP4om0Cqw1pUTDCuuN7zfvCtEAYC/TENGolN0TjSTNRvwUOjNPm+kMUTZDqZVx6u0M0lhCLNcciAYAYG/RENH46uwD+urFB2qpPLsmGnemqLf9EE3fVsuK1QsBaju3qJaINi8NUm/Ab7VEIlFa3lIBSd5+kC4nornw7n4hQFkVLti8OEDdftGK6QxQ74VJGjvoIRoyHW7pKDs8RSkVtDmn73uQFlx5tbAEp3tiQy0Lbo1TuL2HZlVCpdJZPu8SK5kf29FbTn8iPiqPo1DUVPhM/hx0HZuk9VxjzQqPX52hoafy53BVb8xtJSjeF6YDfOz+MJ0eX6GcZBuc48yNcTot0+6gA08N0Kx2GgAA1VF30fj79z7NiYCpcOyaaGRXKBYQjjC6RmnNCelkFgcpGBymJXa+2RStRiN5p66cvWypCC+XSV2hEZHe6YvKI66MUqhTOMwVEVu0YjbnBigk4pu2NDKXBsgXPEmzt6xW0PpkhHydA7Tg0XuWimv5spd7ZoijlkunvGh0kI/FciNN3CBzYoXLc7AtFlMrFBetN9+ZK8rx29uP0ypnbnuN4uI4g6MrMpSyGxQPCyEYTVjXILVII0EhgDHl+cud49uTomUo8qqOjUU6GBimZc4LAKBqGtLS+Nb3tisSjl0TDUHm5hSdfULUUrmGOzhOC2u222UsRz50SfOU21doSDjUWX6sRDo04Xw1B8UO2DecUP/9FLygnKNEpOfV0pC4RcNaPj6j5ydFsz1etX1BaoaO5xy9Fc/atnw65UUjRPFbMsQDDne11m6MUjB3Xgq3l4IWUQJ3fZh8gVFa1UWbt+8Ujp/XGZzjsC0wEiFCIT+NWcEAgCqpi2jYTr+YlRMOO96uwTXUlRmK90fkgPiBQ3b3iVVLznUb5Uw5VOnQhHPjqAp2aG3n2WNZzjpXI5ZY68xEw9tZr44GVPpuNKHYmqfTua6p8umUFw37vxce4VnRWiixvd4qkv/77VaJQuZfbWNwjguvT7FzDAColF0RjcHXdMdZiB2vKeDuEuGIrO4TdngBiumNBZ1dEI3lYdEq8hQNovRMD7Udm6fUpYFc15RJOjUXDdUaK7Z9WdGQY01qm4rPMQCgljSke4rfPWUqGMxuiQb39be5u0YEm5OHVPcJ97e7BpgZO35Jh8b/G9g9xagWxuljfm278ulwno9MamlWKxpyEF7vniouGmbdU8XOcYaWzujjJwrX9QQA7Jz6D4Tf/qwiwWB2SzRoO0FjQT91Dy9qU26n6KxY1ztlebn0xT7y8WD2TetY0jwl9ynh5NhLlREN90D4+szJEgPhREvnRAtnOEGZjOUCrQFs4XxvW3lbn+oTzlQsFz2tabp8TOzf5aTLpSOdeHiUltmLb2/QwpmgloaJaOQHqimzQdMRIZbiHFhHUUY01EB4r2jOWQPhCYo95R4IL3OO24M0NGftIHN7noae6KPLukYCAHZMQ1oagxfTxoLB7JpoMFtrNDvYQyGeFiuc34HHDtFQfM1Rc92cGaBuOd3TmtI5rQSkrEMTGE25VWSEIB2RcfNp5vetpsqWmU4qu6i0WVQ2JdPJJunyqRD5xPH5AmEaGh2kIxWJxiEamxzNTYkNn5oqmHJbVDSYrQRNPBvUptyqmVSMwTlOJ6J0/DHr+vgCEYotQjEAqBUNEY1K2VXR2Gdwl1jR7qu6UE5UAAB7mYaIRqUiANGoAdtpSq/xMwv5B/oaA0QDgP1MQ0WjUgM7R86G6gzR2YuN9t4QDQD2MxANAAAAxqB7CgAAgDENEY2fO27+fXDb/v0f31VbAwAAaBYaIhr87ikWAS9x8DIWmRfFNgAAAJqLhogGAACA/QFEAwAAgDEQDQAAAMZANAAAABgD0QAAAGDMvfQDiAYAAAAzIBoAAACMgWgAAAAwBqIBAADAGCkajz75hGAwGAy2i/boUfnfaozTqIFBNGAwGGwvmy0IXr+62fGrNIgGDAaDNaPpzt/+rcb0tKswiAYMBoPtB7OFQf/VTY9bhUE0YDAYrBlNd/72bzWmp12FQTRgMBhsP5gtDPqvbnrcKgyiAYPBYM1ouvN3/+7E7HSrNIgGDAaD7QezhaHYb40MogGDwWDNYOWcPv9WY5xGDazhovFg+xOKX79P/vN36deEvST+8zqvuDAYDAYrY7YgeP3qZsev0homGne2HtGF+Xv0i/0fFHwTnNeNzN2Tcby2hcFgsJYz3fnbv9WYnnYVVnfReOf9R/SHL39M/7wvLxa/cOoDGn79njT+b6/nOMdFXN7GKy0YDAaDFTFbGPRf3fS4VVjdRGNh7SEd/MuP6Cd68i2K//Ind2lqKe3ojuL/vO43Rj7MxeNt/ttfpGQaepowGAzWMqY7f/u3GtPTrsLqJhq2APzMsffpv7/wEd14t7wAfH/9IT078RH9tNjG3t4r3u7aNfpaewd9bcErrNDurV2jpbWUZ1jVtvESHW0/T0teYWy3V+jNG0nvsFJWLt1qbKd5gsFgpc0WBv1XNz1uFVZ30Uh+7B1eynib3RSNuzdeouef7iKfEIe2zi760qmX6O0P7fDKRGNp2E++vtforkdYxbZwntp0Z17Gub/310fJ9/gYve0RVtLqKBo7zhMM1mqmO3/3707MTrdKq7toeIUVszdu5lsjuyUa966dpyfbH6fnX1uju/fF8odr9N3+x8n3zEv0w4ccpzLRqKlVKBo7tnq2NGAwWH3MFoZivzWyphGNb1y9L+P/0Stbcnl3RGONXny6g74UXXOu//g79Hy7XwmFWzRS9PaL/fSlLr9w6H7qerqfXr9lh4mWxqBorQxek//fe/EZajvzAr1+6mk6wK0Y/9P0/KsbdHdpjI7a2z8zRsu5Vo0rHd5Gmdy/dO7n6PVr+e2/dOo1JW5qf90v0Xt2Ordey7WgfF1i36+4jtM2le7Lr4rj8vP+PNJVx2SZ65w83JDH2NUptpUttVe881Qm/2z3lmL0ld/isA468Fv99OpaPqzk8ZTIAwzWlFbO6fNvNcZp1MCaQjS+dS2di3/21V0UjTuv0Vfan6QXb7rD7tMPr12hpVv3xX+ng7z72gnyPX6e3kxayz984RnyPf0C/VBtWyAanc/Qi28l6d5DkeZfP0e+TiEUR2O0zNt/vEIvP+Onx0fekvELzLOl0UFP9gtHy62i5Hfoa10d9JVXrTEUp2is0Dcf99PRF9bEvkXcmy/QUeFM/3xJpaVbQbpX6GuPCzEdt5xyOdF4e4xbZi/Q22LbR/fXrGMato6pUDSK5//RLc7jM/TyTXHe+XwJEXu8Sxy/7PIsfTyl8gCD7SuzBcHrVzc7fpW266Lx8t8VCgab6fY1NenEhJPa8AjLmatW/XGK7urjNiqNV29by4UtjSv5uA+FM+a0rqhlO47eOtDNUzT66bva/nl/vvPa/nJpcb6fpG/esOPqQpjfXppM9xy9qdf4X++ntq4LtCz+lxMNzsPTYyu58Hu3rtGb1zbonvhfKBrF87806KenHa0+0RJ80k9/eo3/lz6eUnmw18FgTW2687d/qzE97SqsbqLxM89ZTv+j+1Zmr7xdOHtq+vvp3JRcXTB4G17Haejx6247EY2HKVrOdU9xVw5bPo0C0SjhbHNxKhIN59hDwf5yad2n5eiX6ICojR89NUYvX16hu8W6azzS5Vr/76p15Y7j3lsx+l0/d7X10zdfvEJvq1YYW6FoFMv/Br3cbZ9Pp1n7KX08pfIAg+1Ls4VB/9VNj1uF1U00/l3/Hen415LbdOpvtuT/v/pevlbLgvGTvYWCwcYP9/F6TkNfX3cr2j0lTtSHokXBXR0uBymdoOyeUsfmEp7mEQ1lyRVaeiVGzz/TRb7HT9DrXgJZpWhIe5ikt6+9Qi+eeoa6Oh+ngdc25HpHngxEI9dVVcxKHU+RPMBge8J052//VmN62lVY3UTjN8dS0vHzu6VYFPg/typm/l+aXrvxoKhgsPE2HMZpuMPqa2ogXPXd56zEQDg7uaMvas5IOtcmFA3hXN/k2ngubpJePerKu20y3TLdU3o3m+M4hKO+7KzZ333laC4f5qJxn97s95Ov/zvOLiU7TyWPp3Qe7HUw2L4yWxj0X930uFVY3UTjT+buScd/6BsfyWVbOP7p779PPyWsmGCwdX/zIxnOaXiF19PuCcf8ZOeX6E8vqwHWMlNuecC1rXuMlkVL417yLXrxKHdT1Uk0pCAdpVdvi31xq6ci0RCtKFHbft6ubctBZ7+ofXsIs0y3+EA4i5ev8zl6lccP7idpOfqMnMFki8brvX657Xt8vkRt/7tnRCtAPatiLhpi+a0Lavqzled7PFvqi8/R6ywGJY+ndB7sfcFgTW2683f/7sTsdKu0uomG3cXELYr3UlaGbeEoJRgc126F/MMuvYPq7rUYfcV+uM//OD137pXiD/epqZ08hdbX9Qz9+Wsv0IDWxVVT0fhE7OvEkzJfR19KViYawu7pDy36n6avxN7yHhiW6bqm3J77juWAZZwULY99SU0bFudn7II4Zu04Plyhl+3prrztc7HcNOKKREPY3Wtj9NxvWONF8vxeyT9NXvJ4SuQBBtuXZgtDsd8aWd1Eg+2Lo9b7pJ77q49z61gsigkGG8flbXhbr3AYDAbbl1bO6fNvNcZp1MDqKhr8LinuiuKWw+LaA884ul17xxrr4G3e2sDLCmEwGKys2YLg9aubHb9Kq6tosP35G9ag9s+feJ+W3932jMP29z/alnE4bvSKx7MDMBgM1kqmO3/7txrT067C6i4abH1xq8vpX/R9IGdPucP5iXAO4zgc1x0Og8FgsDJmC4P+q5setwpriGhsP3IOgv/BSx/Lrqv5HzyQn3211/+PEmMdMBgM1lKmO3/7txrT067CGiIatr3+9w/ol/7YeuhPN143u1x+zAMGg8FgRcwWBv1XNz1uFdZQ0WC7//AT+sbCffqPz9+Vxv95nVdcGAwGa1nTnb/7dydmp1ulNVw0YDAYDFYHs4Wh2G+NDKIBg8FgzWDlnD7/VmOcRg0MogGDwWB72WxB8PrVzY5fpUE0YDAYrBlNd/72bzWmp12FQTRgMBhsP5gtDPqvbnrcKgyiAYPBYM1ouvO3f6sxPe0qDKIBg8Fg+8FsYdB/ddPjVmEQDRgMBmtG052/+3cnZqdbpUE0YDAYbD+YLQzFfmtkUjQIAAAAMACiAQAAwBiIBgAAAGMgGgAAAIyBaAAAADAGogEAAMAYiAYAAABjIBoAAACMgWgAAAAwBqIBAADAGIgGAAAAYyAaAAAAjIFoAAAAMKZuovHa8if0q+fu0he+/L6x/fLAXfq22G7vkaCR9ghNJ9Wim+vD1HZ4ilJqcaek4hHjdGTc8wm1VCHJKeotdTwAgJalbqLxb0/f8RSGcvZTv/8+/WDzM5XKLrIxSd3tAYrdUMslgWgAAFqDuomGLQKVcHh8S27zK2fvUiarVu4Sq6MBCgYC5DtzhTJqXXEgGgCA1qCpROP+ox/TL/6R1UI5/cp9tXYXyK5QLBCm+PUZOt4+QAvban2ONK1GI9TV2UFt/jANxaN0Vney6RWaiAjBae+gA08N0HT0ZAlnn6b1+AB1B/zU1u6nrvAAXb6tgly4RSNzc4qGwtZ+fCK/QxfzXl7GPTdJl/vDdECEy3xq4czmpUHqtfcbidLylgqAaAAAitBUosH83fqn9I97rG35/26QeWOAfNI5Z2jpjJ+OzzjdffpiH/mCQkxuizZIJkWrsYhw3LaTTdHlY34KnZmnTRm8QvGIcMxFRCM9d1KkNUxLKnBzUqQVnqRNa9GBQzS25ulsZ5BGrqoNNyapt1MI3Ya1KOO2B2loLilabRlKXR2mUHs+PLM4SEF7v1lxDEIEc2lDNAAARWg60WDOzqTlttzq4NZHY3EJxY1RCjqceJKmD3c4hSS7mO+ekg63h2a1YBIOumhLYztNab0loxz27B21rOEQDSEE6S2948zKV++UtRerpbEo/1tkaKG/g4KjK+K/FXfokrb99hUasvcL0QAAFKEpReOzz4k6hz6U2//u/7H7TBpEaoaOdw7Qku3I7a4qVUO3xi8CFGPfm0Mb0+Dxi8AorVoBFqXGNLJpWs11T3Uo83bYDtEQpLXuKXvb3ri1oYzrGtPYnDyk1nF+89vkTRc+iAYAoJCmF43fGW+saFjdOoUONXjBVonaiobcn+wmUrX+Eg7bIRoyntU9ZU0aUC0NY9FwH4MGRAMAUISm7p76hVON7p7aoHjYTyPX1aLNrXEKsxBozrlW3VPL5/OOXnJ7ko6YiEaBEIl8HXSJRtHuKT7ODuqeyDWfLOwZaxANAEARmnogfOGdBg+Er4xSsHOYlgum+wonG/LT0BtWa8A9EL48eqjEQHiCYgeLD4SvR4MiLEqroqUhB817uJvKQDRuRikk4k2siJbGdopWJ3rkLCmHaJQYCJfH0Bmh+M20tbwyTr1PCWHkQ4RoAACK0FSisdtTblcvFH8uYz0WorYT8yqshlNus8nctFhfIEKxuUmRVojit1S4hkM0BJsXB6jbL/LQGaDeC/MUP9FB4ZilClZLwznlduSSMwebM/mxFJlPJSAQDQBAMZpKNJrp4T4AAACF1E007BZDpdY0rxEBAABQQN1Eg19Y+CsVvrDwlwbu0syNvfjCQgAAaA3qJhoAAAD2HxANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAOMp9+Sh9v3afk+3dp491NeufWu7T6zjqshYyvOV97LgNcFrhMAGAD0QCSe/fT9KPbSbq1/iP64M6HYvkBffJJhrKff65igFaBrzlfey4DXBa4THDZ4DICAESjxUk/eChrlbc3P6AH4j8AXnDZ4DLCZYXLDGhdIBotDNci1999D2IBjOGywmWGyw5oTSAaLchnn2VldwNufLBTuOxwGeKyBFoLiEaLwTc5dzGkPtpSawDYGVyGuCxBOFoLiEaLwbVDCAaoFVyWuEyB1gGi0UJwlwK6pECtQblqLSAaLQLPeOEBTADqAZctzKpqDSAaLQL3PWOWFKgXXLa4jIH9D0SjBeCHsniOPQD1hMsYHgDc/0A0WgAeqKxnKyO2sE1HX7xHP/oIT4+3MlzGMCi+/4Fo7HP4vUH8Goh68OMfE/VM3qMvfPl9af/m1B364YeVTr9M03p8gLoDfmpr76ADj/VQbDGlwkD1JGn6cAe1nU9YiyujFGr30+mL9TnHXNbwrqr9DURjn8MvnKvHzBYWjCMvbOUEw7aDf/mximFG+mIf+YQT6z43RQtX5yl+KiSWgzSWyKgYzU6CRoTY9cabtYbtFo0ohTv9dHZOicb1YSHWEZquUfa5rHGZA/sXiMY+h99Uyi+eqyW6YPyzP/jAIRr/83Jl3WDL54VDOzhJ+SHUFK3OJWhzr2jGXhMNNzUWDS5rXObA/gWisc/hGS38xtJawYLxO9+0BCO+9Ij+di1DP9FjCcZzL91TsczZnAgLpxWkobkkZQp6trwcnstJZ9O0PN5H3X4RT7RYusIDFDt3SPwfpmUrhjgJ8zQSCYgWjIjjD9Lx6CiddTj60l1kmZtTNBTWtr+wSCnOq3S4vF/bvJ1vanGUjj9mpe3YXiBF83CUZqMR6urkNESrq3+K1ouNJ6fXaLo/nIsbenaUlu6oMGbLCj8g9xWmoXiCZvvFf/scJqeoV4SNXFf7zuVd2OEpIdnVwWUNs6j2NxCNfQ5/G6FWrzfPimRswZi4ti3XTSUeSdHYiWBIsilaOMddUsJpsUMdnKHV3APr5UVjdTQoneeRQat7a1oIhkzLFo3UPJ0WDtb3RB9NzCzS0kyUjgctJ2mnsRmPkK8zRCMza5TaStJq/CSFcl1kKxQLdFCwf4bWk2navB6l3sAhmkgIr55ao6Wr43RcpBUW+V66KlpI1mnJs7VII0+E6OyECNsS218dpm6Rn9Doigy2Hbfv4CBNzy0K8egR++6g7okNGe4gK85HxC+OZZBm15KUTq7Q9Alx/EFxrLzfrMgrH5v/EI3E52lpbopGDor4LDAeopFeE+cj1iP2L459WvxPCOG2Yu0YLmtc5sD+BaKxz+GP6tSCz4Rg/PZffFwgGDttYRTADjg+KByyqJELBz52navaZURj+woNCYfYHdMdbJqWzgVyoiFbMp0DtKDX3G9PSscp08iK9EQa4eiaCmQytMC18/4r4t8GxcPCqUeitLyR9mgNGXZPZdKUFqKRFl556ZxIW9XqLdE4qeUvTZePiXURj1q/aNn4hIOfuKmWGT4HYv9DlzKUeWNAhIcpfkuFMSwkQvS8RENS4+4pplZlDjQnEI19Ti1uYBaM3/rflmD85VVLMCav10gwssLZ6dVbrk2zUEinWUY03A5QkRItB1s0rO4ftwMuTMPRTWObvV16jWYv9NGRJ7iLyt19VEY0xPHMHlNdW9JUzV8XDVf+vPNsH5edjtN4//px68j0IBqgRkA09jnVdk99KmrWxQTj2W9V28KwasE+WaPPk6+JK9HQw1MzsjtIOmlVyy7V0liPhUq3NFRr5fiM00Wnbq1RWrUqUtfnadUOzqzQREjkedgWstKikZpiRx4RtX91BFnRkuBWzA5Ew2pJ9NCsHpBN0fqataIZWhrontr/QDT2OdUMhLNgfPF/fSQFYuy71qyo8Te3c4LBg+LVwk6Va+/hY1GavbooavSH5CCuLQSroywAPHg9Q0tzk3T2CWtA2XbS7jENa8qucJJFxzRG6YgcNM+nsT7B4yDauMgg58FPvVMiPG2Jiu+JkxSfW6SF+KAckwiqMQkWjTEOPzgs8j9Dy7rDFvCUYmugf4PSW0lanxmksIi/E9Gg7AbFD4rj18csDnF3XoRm+VDsMY1O55iGbI0UE40Ed3mJ1tOwOL8zCW0W287AQPj+B6Kxz6lmyu3vTVgP7tVLMGxSV/Ozi3wBnvGTr+Xbs4Ws2UCWeEyI1keuZu+aPcVdRwtRVzeNNnvKF4hQbHHG1TpIS2cux1NUnBHh5HPos686A9Q7OE+b2thG+g0hJGr/sRtqpY1oCSxdyM+MCj0bpdgJ8X8nosFwV9lgPr2uyCAt6A0tffaUyGt3P08OEP+LiYbYy9KgfX5HC7q2KgVTbvc/EI19TjUP9z12IUW//nXLdUWvPKyLYFRNJkmrN53udfWCaJ2ExsnuWU+vrdCm3j2lurh48BjUFjzct/+BaOxzqnmNCIvGzx7/gAJ/kpKC8cz/2WouwaAMLQ+r7qkLPOXV1bXEcM2au49U9xJPuT3NXVz2NFVQU/Aakf0PRKMF2OkLC09M3ZfCwXb8r+/T500lGAq7e0rvWppZcwysy+6lZ4NWF4wQlO6+qPOBOFAT8MLC1gCi0QLg1eigEeDV6K0BRKNF4Bkt9Xw9OmhtuGxh1lRrANFoEfC5V1BP8LnX1gGi0ULwzJZ6vCYdtDYoV60FRKPF4IHK1Ee5NwICUBVcljD43VpANFqMzz7Lyr5nCAeoFi5DXJa4TIHWAaLRgvBNzrVDdCmAncJlh8sQBKP1gGi0MHzj8wAmZlUBU7iscJlBhaN1gWi0ODzjhbsYeI49xAMUg8sGlxEuK5gl1dpANICEH8ri7gZ+DQTXIvnFc/zG0lp99Q/sHfia87XnMsBlgcsElw08uAcYiAZwwO8N4hfO8ZtKuVbJ30bgj+rAWsf4mvO15zLAZQHvkgI6EA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGCNFw+uTjzAYDAaDuQ0tDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgDEQDAACAMRANAAAAxkA0AAAAGAPRAAAAYAxEAwAAgDEQDQAAAMZANAAAABgD0QAAAGAMRAMAAIAxEA0AAADGQDQAAAAYA9EAAABgzL30A/r/hcShQAPwBTAAAAAASUVORK5CYII=</x:t>
   </x:si>
   <x:si>
     <x:t>201301</x:t>
@@ -88,13 +88,13 @@
     <x:t>4.8</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
+    <x:t>41</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">       47 High St, Fremantle WA 6160, Australia      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADkwSURBVHhe7Z2Nc1zXed77dzhJmyZxkpl4Urd2klaFWwRIEO40Qzgera3RVhptw4owZTARDVgyWZqiYVCkggA2CqgoYyGGDQsVolVQYgSLEGFRYghBoQFriCKhAIsCLAhLgVwL5JIgl1zq6XnPvXf37N2vu9wPLIDnN/PO7r3n3HPPOXv2fc7X7v0XKDG/9uQlfOKrl3Dt5sf2mXQkXCwbcq2ES1oV49IwFj69C8s5bzmDxU9/Eosz8n4Vy499Ehf/4ZYOcbgxvg/vPDaMa3Jw6SQufulTeOehfXhv+AQiH9zCXR1LlXFkF95RaaVZlyQu9/lDLF2w4lrIuSz5WxrGXt9ujC7ZxybhEbTWNmM0bB8bRELNqNkzgojzXt87ycrwbvtcGKN76lFTm2495yRY7tGNWX2VxWyXCnfSC0/g6AM+7Hh4P3oGxzC/HLPO52QGPU76mYjOYWCXD60hs2CZ8unDzmA7xhN1k0w39kY76oLDWJHTcXW+oRED59X7c92JeslKZAHToT4cftiHmoYAjp5M5iN6YQSdwUbUGflI5DPH51EqPvjgAxw8eBBdXV1YX1+3z0K/l3Otra04dy5bxRKSnb9s3Y+Si8avf/1Dz6LR9P01XL+VHs8Rjd9QaVWMa8rBf7oR779nHxvErl3FTe3n8otGdFSJgSMaQvwW1uZOY7l3HxZqP4WF781BktKi8eRJ3LBiuSihaKxN4HBtAKGL9rHBfF8jao5N6feZRGNxIJAiGodPRq0AN/lEQ4jHsDI3gdHe/Wjy+dDUb9VDdnKIRlzlp9mHgEo/NQ0rn6lC4sZIN66Ep9ESClNAIiNJMfVC9GwH/LX7cXpNHei68KPnbASxuIS68lQB0RDcwkHBIKXgavR66UXjPxy5rB3+7PId+0w6IzM38Zv7LXH5vW+t4qc/v22HWMx+cEeH1Tx92T5TCd7H+w99EgvD79vHNrHTSkw+ZQuFKRpKNro+hfnjc4nRg3D5+B/q0cJdKLE4/yYuq9GFw925ZzH/6aeV3Khk33wK79z3FD40vZ5yMlZaliC9+6Or+kgTfxPv5R0JZSKC8ZZ6NA24FCW+hFAwKQTpohHDZFs9gvq6GKaP+FB35Eyqk9ZOUZFTNJRYzEyp9mBceb5POdnU+OlkEY14FNNdfiUYU4g6909QoGgoRBjrjoxgVNXRgTFLJswRWCqqzgLJeAniUypNH45LcdNGKSpPuyovGoIpHBQMUgrKIhpf/sGadvjdp67bZzKzsnYXO7sjOu4vt1zCMz+KIm57X7lWzn95ULpulePmzNOYv++LWHzzfdxSDil27X1cOroD7/zFMNa0g0oVjbvvDWLhvl14f+4qRCKvzzyLhU9/MTFaiTwn1w4iIsMONeL4aFiNLj7/nOVQVC936fOfxPzR07gmYhGTezXi3XGRFJWWTHN9/ilcUqJzJ7aK1ee+iHfuSTQUc30IqN7v0dAcImtRRMNzGD3oR42/D/O249WOsqEZoTnL3UXPdqtrDOdmp9F5yjoRW55A5wOqdy3R84w05vv8qGsexLx8nGrEsTik7uXvx6IOzUYm0YiqdCWtEaykCYZQuGjIKK1JHdc0tGPansnJLhoqTI1C6vyHMDoXtkYS60uY7t6tzqnyy/UX+nW9Dal6jK1HMD/Ugh0q/USetMA0KoGJIZZ7qFUSHOGgYJBSUBbR+Luf3NQO/7Ntq7hjdsEzcPdjoPfH1/EvWy9hR9cV3FKeV66RayWNF1ValebG+UFcDN5nrS/U7sC7XSfwi8QcUqpoCDfOP4d3P/8ZK/5D+/D++avJkUd8FR8efwzztbJe8SklIE8rEbDDFHevzWBpnxIWufa++/Du8TeN3vMtXP6eEpn7JB9fxHsjz6kRzz2KhiJmzrM3NKK1YwyLxmyTdpQH+zHaFtROrsa3GwNTqW4zOtOPA1/w6Tn6usbmZHge0UA8guneFgR86pysMTR3YHLZCspOBtHQ95E00s2Kdw+iYY/E/L1z9nFu0RAiZ/tx2KjL4ON9mLa0XrNysh1NUlap594JhA46IzYhhvmB3bqO67qNhlRGRDgoGKQUlEU0xPF/9puW0x+YTC7C5UKmoyLXrbUNuUau/YxKQ9IilUE7ypTpKUIISaUsoiGcvhDTjv9Xv3YJ59/37vklrlwj177+TgXG7iQBRYMQko+yiYbw7VetdQnZAfWj2Vv4OPtmKh0mcSSuXPOdPOshpPRQNAgh+SiraAid45ZwiMmU1eET1/Dmu7f1VJTY2Z/F8E11zpnOEpNrCCGEVB9lFw1h4p9jelutIwrZTOLItBYhhJDqpCKiIciCtvw2Y+/za/ijjiv4rQMf4reVyXs5N/LTm1z0JoSQKqdiokEIIWTzQ9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeKZionHrDjDy05vY+/wa/qjjCn796x/itw58iHr1Xs5JmMQhhBBSvVRENH78zzH83rdW8YmvXsppEkfiEkIIqU7KLhrffvV6RoFwm4w4nPdyDSGEkOqjrKLhVTB+/1uXEb8L/M0bN/CrX7PObYxwRLEyM4OVqH1YDPEI5s8uIBK3j4shPILW2m7M2oelYwY9tc0YDduHpaCgcpewvnUdlbgshJA0yiYar78TSxOHTFb7zBWcnLtlXwWc/H+38EstVpikUVHWJnC0wYeB8/ZxMayO4UCDH0MX7ONi2EyiUVC55zDg8+HoqRKoRtGiEcbonnq0hqg6hOSiLKJx8zbwmW9mX8MQUchF72vWCEXSkLS2PZtJNDYKigYhFaEsovHiT26mCYVp+URDpqo+a4uOpFU5xInWo+ecfRiPYLq3BQFfPWpqfQg83o/5RKfYcrhDY/1obfTp8J1PDGPRCXc5sdku5ZCGpjDeFsQOdY+6RnXteaOHHZ3DUHMj6lTYjofbMTrQrt7bQuESjdi5bgQaVNpL9onVKQw87tfp1vj8ONA/h+QYLYrFUDuanDwG23F62Q7KVIZms4yK+BImO5qxs0Gl3dCI1o4zWElMPdnXh/rQpOpIO1y3885VLld9562jXOV03zdv3A6MjuzX5eoZl2P5jG3bM4KIHTWF6AJG7bzpuuidSpmGWznVYdRjByYT9WyXrX8sURdO2VZOqs/Gbl9NbRNG3RJSnZRFNJq+v5YmFKb98V9fsWNmp/8fbui4klblSHVii/1+1DUrIRBvE49iuksdHzljOx8rbuCI+qKvq8PIHELNvmR4BtGoUY4+NKfcUTyGxaFm1DT2YV6HRnD6CR/8T4xgcT2GmJ1WTSbRWFbvG/wqj44zXcCQ34fW4SXExOGsTaFHHXe+YeUyeuoQ6vzdmLa94MpwM+qCw1jRR1YZ6poHMS/h68opmmVQgjPZpsTy4JhVB7ElK7wttQ7qlNDMLkURlZMp5c5Trgyikb2Ocpcz9b5e4spnp8oVjlpx8o40whhXeQ90TSGq01zQZWkaspQ79poSQ/8hjF9U95C8Sz03tGPS/ph02fzqeEnCI5jtCyoxU9dL+1GnYhHJYz0OnzQVm5DqoyyiUfP0Ze3wdxvikW904eYf37utr5O0KkeqE4tFbUfooHr4NQ2mw9uNUaM3ifN98NcqxyAikkE0ggPO0EBhh4+vJt8nesmC3MstGlF1T3GGpmNTDiq65jg+C7lXXfeMdbCuyiD5cTDvm6kMFwcRrN2P06LVOm4Lxs1ud2QMBxJ5lesDCF3UIRZmWfKVK4NoZK2jfOU07+Uprv05JcgjGrpeXNcsjOH40IySVuvaA2MpFYXxlmR6cv+9w0bay8PY66p7iVPTZeeRkCqlLKLxa09aQiHrEQdeunZPonEleldfJ2lVjlQnhnjYmJ5yzHR4LocYV73FLA5THEKKQzLDUxypTZpoHEKn6vXXBAexaDhDTdiYinHMcT5qhDSfmJ5ywp185SmD5CGg7meF2MxhoNGpowzXF1KuDKKRtY70cY5yFhzXla98oiH53uWM0NxIOVziqZjva0zcM2/ZFBQNshkoi2j8xtc/1A7/+q2P9fE3T1jCkc3+8K/Sp6ui6loJk7Qqh+nEYupL3GhNTzm9yzSH53KY62fQ6ZxzOYXiRUOmpJb0dE9KOusqH0oQWocXEj1r0/lEQs2o0dNT5tSMk68MZcgrGjM4LusAlRaNPOUsPK4rX2UQjdluJdQUDbLFKOv01PylZJc4l3BkGoX8c/iODtu46SnLiTgOTTPVkVs0zCkMl1PI6TRW5b1rGihNNIz3PnWdM61hhtlMH0s6n7T76mkRJ19ShmKnp5Jl1BRSrpT6zlNHecpZeNzUcHWy8Omp1QVMz4RV98Lb9FTWstlQNMhmoCyi8eVBay1jIHXSOKtwZBKN585YC+GSVuUwnVgUpw/64JcdLbKIuzSBngfSF3H1Qrh04u1FYr/60us+vcsp5HYa1oKxtaieZyFcIYvZNXtUr1c0Wf+2pBGdJ5cQU9fKDp6g7HSynY8s5tfs6ce8GmnodFskXee+VhnyLoQbZRx/Qo2+UhbCUx1fQeUqRDTylLPwuG7RsITF360+v5hVutjSFCZnHCHwshCuRGVZXSsL4SP74XcthFM0yFagLKLhbLl175KSrbSmWDjmFo27HydHKxu65da9XXS02+htStzdOD7cl9hmGXxqJPeW21xOw32v/kNZRUO2wYaC9WiyF41j55NbZpvaRjDeHUCN49jjYZw2trAOnBrG0cRUiuX0s24bFtS9ZAtscsutEoDEADKfaChylasQ0VDkLGfBcdNFIzY3iL2yfmVvdtC751rGlPTZmFtufUEcHpyxBMRmZczY2ixbbo01fYoG2SqURTTk32qd31l83zXa+N1D2X/09yddV/D2z+8kttvKj/sq+8+3LtHISQaHWQyG8xGk55r19wKbia1aLkK2KWURDcH5G5FfVqMI+WsQhx/N3sLnjlqjiEz22bZV/OsnrPcV/RsRcW6q93fAPceflVKKhsx/B9B5Kmwt3Np79lN6ppuSrVouQrYvZRMN4TunrL8D+ZXWS+hW72/bvc5s01SmybWVJDLSbE1l9NprEnkp8Ugj7RfMqVMfm5atWi5CtillFQ2hy/in288du4yXz9+C8xuMbPbX4/xrdEIIqUbKLhrC6QveH8IkcQkhhFQnFRENwf24V3nUq5i85+NeCSFkc1Ax0SCEELL5oWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4pmyicafdF3BJ756KcU+d+wyrt/62I5BCCFks1E20fjN/R+miYbY6QsxOwYhhJDNRtlE4z8/czmjaHSfum7HIIQQstkom2j8+fc+yiga/33gIzvGJiYexnRvC4KNPtTsGUHEPq1ZX8L8qREc378bgRZXmJt4FLP9LQj46lFT68POYDtGL0TtwHRWTrajSe4pcZv7MbtmBwjxiMpTM3Y22Gk1d2By2Q4T8oWHR9BaK2GmdWPWDk4hX771vVLDx5fsMIdcdVhIXgghFaVsovHdN25kFI2HvrvJRWN9BgMPNGJv7wQWw1HE4vZ5zQx6GhrR2jaIUEcg3Rm6iI61oMbfjWmJFI9hcbgZdY19mE9J0yI2041AQzNGL8Ysp9zlT0l/vs+PuuZhLMrsn5OWvx+LVnDecFwcVA5c5WUtimjCMk8l5s53DLPdcq9BzOvwKOYHXOXKWYeKAvJCCKksZRONxSvxNMH4g/bLWP7FXTtGdTPbVY/WUNg+SrIyFESgb84+yoDtACOh5ryiIfeo6ZqxjxTRCRytVcKQfltMH6tHcMDorq+fQWdtIwZ0VhYQ2hPAgJGU1Vt30soXrjjXnTe/DrnzPYPjDT4cN++l85q8V946LCAvhJDKUjbREHYYO6j+49OXcTm6OQRDyCwaYYzu8qOzvw+txjTRfIYZJS+iEXujXfX27R67YkX3/jONNNR997jzY507fDLDzdVIRHr3O5qz3D9DuM7vw7uNcvVhetUOdOE93zZaoNoxua4P8tZhIXkhhFSWsorGC+duasH4pZZLCF/dPIIhZBaNGfTU1ienXmJhnG5rRN0TE3C7bi+iIcz3BZRjtOft/3Q/TrtvqYlhss010tDO151HK386rQe6MaudtEn28MjZPnR2jGA+HEU0PIdQs3LYwWGs2OFuvOVbiKq8+4yRRf46LDQvhJDKUVbRuPsx8Lmj1i6qp8cy9IirDO3oHUfosp5zKsKq9JgDCF204mtk/r1WOU1zUVrhRTSiJ/cne+yJdYYsaxrSuzfWNPQ6gcpX52sZ5vqd8Gy9/3zhQmQMB9xltfGe76gSl916RLPihBVQhwly5IUQUlnKKhrCm+/e1qLxK62XcP79O/bZKiWWXHidPFKPvYMLiWO9WOuam7eQnrP7nBfRiGC82T29tIRQQAnUlH2YQhSLQ/ut3U++IDpDYzgecNY0MhCfUvkqItweEWixTMF7vldUHYi4zJpRC6jDJNnyQgipNGUXDaH1765q4fjdQ6tYWdvMC+FzGGh09e6Xh7H3nkYa1ppE6kjBcr4ZRw9uVO+8KbEjaQ5DgQCGzusQCy0KTu88X7i1UJ4Srp17pt69t3xHp7oRkNFI2ughXx0WkhdCSKWpiGjcvJ1cFK95OvMOKjn38Hc/QtP31/BXr0Tx9zM38cFHGycwmUVDicGI9J7bMSlBznz8kTNwu3kv01Oyi6hmT7+9NTWGlVPtCDQo55nrIjUaWjk3jKN+H46eciLGMH3EZ2ypdU8/5Qt3b8m1t/RmWUfIl+/YOXt7sPk7EIN8dVhIXgghlaUioiFErn+st9yKcPzONz7EuUWlJDbvXo7j3x5e1WGmfeabG7dlJrowhdllx42ZRLEYakeT/cO1prYRLGZYrvEiGoX+uE+nqeIFHu/AuDtefAmTHckf7wUed+04yhue+uO/wOOuHw+a5My3NRLJtC6U3Kabpw4LyQshpKJUTDQEEQ7njwxlR9XBkWv46c9v43cOZv6fql/92iX7SkIIIdVARUVDkKmqAy9dyygSbqNoEEJIdVFx0XD4x4u38cd/nf736aZRNAghpLrYMNEQPv4YePEnN/Gn34lQNAghZBOwoaJhsvBhHH/zxg0E//Yj1D5zBb/2xCX8FyUmhBBCqoeqEQ1CCCHVD0WDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPLMhovHSudvwf+eGNnlPCCFkc1Bx0Zh9/y7q2q+nmJwjhBBS/VRcNIanbqeJhpwjhBBS/XCkQbY1s131qOmasY/IpiM8gtbaZoyG5SCKlZkZrER1CCkTXNMwiJ7cj5pdw1ixj4XYa+2oaejGbNw+Icx0o845d64bNbXK8Ri24wstGDirWzFwvg/+2haMR6xDk5WhIGoC/Vh820Mc8/4ZuKe8C/EwpntbEPBJ3n3YGWzH6IUc37oM5dW2ZwQZsl9lhDG6px6tIfuzURQtGmsTOFy7G6PL9rGwfgadqi57ztnHmhkcb3Cfuwd0/avPzz6sGEvDaKptxMB5+7hEFF3/KaIxhwGfD0dPUTXKyYaIRtVycRDB2nZMrtvHitkun/qSqi/LnH1CsTgQQM0TE6pfo3B/ieMxROYG0aocROdrEmMJoUCqo7JQ54P1aBpast7njZOHe8m7EozRZh92tAxjPhxFdC2MxbEOBBv8yrll+eJtlNMqCWUQDfuz63wtZh8rVB3VKSH19xkVrz+f/Ti9Zh/fKxtU//N9jfA3NqLuyBkYJS2a0ooGqQQUjRSs3uDxRBtWPZfG3TjQ0ojggOO4ozj9RD32DtutNMuX2HTOerTg7onrnluysXuJ4yBftHSBKTzvsTfaUdeo8m4IjRAJNaMmmDpqSZDTac2gR+V3KNSHJjVySeQxOofQ/iB2yIjEF0TnmJMfO/5YP1obReDUSKe5H/NKvE63GfFPGmWNR1JGRoHHVfyEvlnphc6OofNhIz0J185FrrHNrus0p5U1r9mZ7fahrjuZhjjYvS0t8AcGsWifc48EY+cHcVjnUY1MH27HuHmb5Ql0BpWDVmF1jck86Lw6+VeWGLXkyLNuK/0jGJB76TLnqKNsxKUtBRE6N4YDro6JkNYeXY48dr4fB75gl1WNwodm5GaSD7M8dpvS13ZgdGQ/djbYZVydwsDjfrt8fhzon0sKV8q9rDSTo7koFkPtaHLalhpFnzZHhOSeoGikEMNkmyEI0juUL770HB2HHlcNs8HovXsQjUy9IR3eMmaFC17i2GQWjcLzLs6u5tiUdWCyPIy9Ki/jq/axSV7RUI5OOaHZJTVykW+2jGb2+NA6vIRYXOVSHKLqsfack0ArfuDIBFbEEUVmMKBGVjvE8Z0Kq/hq1Ha2GwGjh77Y71fpD2NRpx3FdJc6TvR+nfsPYl4KvL6AkBpZJHv8eUYaOfOaHT0NmBAEGXkEELogdZ38PGXUl8iHqt9WCbuo0lVlXDnZrnrxjngvYMhv5OGixDWmhdz1nyfPunzqXgPnlhDVH0i+OkpHdy50G4ph+ogPB8Z0a0qQUzTWJnBURq5nrWui+vNMTsWm1L+gr5U2MYZFNfqNxVPrA2tT6FHHnW/Yn0kO0YieOoQ6fzem7XutDDejLltniHiGouFC97JtZy/v9ZdJz1HbPSz3NFAGJ2p9cc0vUgTjLeY0kzWlcfikKQde4lhkFo1C867u15w5HeuaVAFLoMsrPUPTzC+tcpgXdUwLES2jxy2IGFo9c4mfuh6wMrzbtTaT6ghiUVuMHCQ/skajD9Lvr+uk2RbNfKKRM6850I7LFjZ539iHeVvErWmr1CksEZDk6E+QcGeUaJVh6IIOUChRmZnC7LJdaHd7y5NnKV/qvfLVkRuXUMgancvx5hQN/f4QJhPNOILFs1NYzCkaxvdLiWp0TcTDPlbINYnPxLyXq61gXbUVJx3BjpuxM0Q8U3LR+OliHEOTt/VrNq7f+hijM7e1yftsyK4q2Y5b0d1Vc+pLoZ2QTOU4C5fJ93qawRlBCPpLbDpQZXoIPYOoUQX6OufLpu/RjmmzQStyxdFfbPd9bEt8SQrKezGikSqSSeRLm3pd1nxrR5ElvjMy0rgcQcrCvWOmaORKL7do5M5rLmT6xnL6Usd1dvzEe71Y7oyWrDxkuo9VxhjmB3ZjhxpdtLb1Y/TsQko7ctd/vjynOXRPdW4QGcMBs606U1WGDuUUDVXe008pEVOjx8MdgxifkxGkjqXJLBqu9hU2pqdc5cspGmokOp+YnnKuTS07KZySisbfuX6DIcduRCQCvTcScf7rs+sZhUN2VdUbaVVsl1VcDX+lJ3be6KEr5IslPfe0XmJOJ2qgHbH1ZZM574wLirnixGSh2rLJI/XYO6iciX2c+BIWmPfyTE9lcEimyKbgxYGZjiCmyqDqRaanHCeWkp986XkQjax5zc30MenRzxmjC4U4NBl1qDwmRwNWHjKNIFOILGB2bBCdzaq8/kM47WQ5k2jkyHOxoqHDEg43af7e5HRWbtGwiC2rugn16XWcul39mLc/v7yisa7yq5x+6/BCop2nXJNDNHTe9fSU8Xm48kUKp6Sicf93kmIgJsduZHRhxhGTc25kO64ZR44rg7VYfLStHXVthtOWBhdoR+cec7FZ4VU0VEoyzG8aGlE9NWOOOgUvcTI5AofC8l6uhfAUZyH3cI+qEj1NLw7MdASWw030JIWpDiM/+dLLLRq585obPYo7qOpYXZ+YWtH3C6CzrdmY4rI+47ROg3MfJRbTMrqwD9UJPW2ZyLOr/vPlOb2teKlzhyWEghm2Ccs0p4ih4cQTa2mC4ZxjyzOYnlGjCzvIGqkkP8MUARD0tUb7ch8rRKC9iEZa2e3OkFl2UjglFY0vdqc6ejl2U/2iYc+rq8aX2hu05qVrzPlWwbNoKFRc2RFTY3zh0vAQJ90RJCko72lbbqNYOduNpnvecpvukLST8FuL3REpTyysRkoBHNZz5F4cmOkIlCge9MHfJgvnMcSWJtDzgEw9OPnJn544HL9y4LGY5cZSnFauvK7NINQ9jNlsW2a1Q1JpuXr9ejODOp+yJXeuD4Fav17sF/Qa2AP7cVoyGZnAYVX/ThgiZ3RPO/HbA32fFjUKVOWXJHPWb6a24qXObZzpzrR2aK3BOIvR+vpgH2YlgfUldX+/KrN9DylrQzNC9m9/9MK+KruzZqPba4u6tyqMHkm4RUIvpDei8+QSYuozXzklW8KNzyyHaMimiZo9alSjRhqxyBxCLdJWnLhRzA51I6R3cpFCKKlo/N+f3Elx9HLsRqaiZErKiZNrespMq6I/ApQvi+uLJciUUdqXqxDRsHtZqQuTLjzEiS4YC6NuCsm7kLJGoHrA6gu5c/+Y5YAyUahoCMrhDjlz0jJX3ztlp+/FgaU6AtleOiRTNuqcbFUdHe02FvfzpxebG8ReKau9eJ7W082WV9s5ZV9EtT63NDHP8nlEZ5LbUOsamzEwlSxx7MJIYsutbKE9PGhsMVWjF71GoMJaR+xrstZvcaIx3+uaIjXQYnhwwgpTbcjJk94i3NeR0qOPTPWllLXnNePmYSUKWvjtus0wspAtu86W7Ka2EYx3q3s7I+kcoqHzZW/d1nV8ahhHE5sA7FGnU4fEMyVfCP+nD+4i9I+39Ws2RCRkdCGWSTAcNmQhfLujHNDALpl3Vj1HdsKSyK4hvSuKbAl058zYOk88U3LRIFuAeASzM2bvdLsTw/zftOB4tik7sumIzamRnkxT2sfEOxQNQgghnqFoEEII8QxFgxBCiGc2RDRkJ5RsoRWr6K4oQgghRVFx0ZCdUOZWWjHujiKEkM1BxUWDj3slhJDNC0cahBBCPMM1jc1Gyi9g+UxkQkhl2RDR2BTwmciEEJIGRSML8l9NfCYyIYSkQtHIhP5fmmzPRPbwp3gFPBNZX3tsGONPyB/U2X/UxmciE0KqFIpGBnI/EzmPaBT4TGR9rfxN9tgCImsiDXwmMiGkeqFopJHvmch5REM7de/PRNbXmg9M4jORCSFVDEXDTd5nIucRDed5Bx6fiayvda9x8JnIhJAqhaLhwpouMpy1bclnIucTDQuvz0ROEw0+E5kQUsVQNFLw8kxkcdS7MWosMJuiUegzkdNEQzv61CeX8ZnIhJBqgaJh4umZyNZjIpv6ZhBV8eQ51Z1+5dSdkUaBz0ROE42yPROZEEKKh6Jh4PmZyMvOc42tba0Dx5QQGNNThTwTOU00FOV5JjIhhBQPRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDNaNG7eugUajUajbWK7eTP3a4mMokGj0WjVYPmcvrwWY5JGCYyiQaPRaJvZHEHI9GqaE79Io2jQaDRaNZrp/J3XYsxMuwijaNBoNNpWMEcYzFfTzLhFGEWDRqPRqtFM5++8FmNm2kUYRYNGo9G2gjnCYL6aZsYtwigaNBqNVo1mOn/3672Yk26RRtGg0Wi0rWCOMGR7LZFVRDR++GYUv/0/VvGJr17yZL//rVWcmLmWMS0ajUbbkpbP6ctrMSZplMAqIhoiApnEIZeJyGRKi0aj0WiGOYKQ6dU0J36RVhHRcIQgU1gmKzQ+jUajbTkznb/zWoyZaRdhFRWNQi1TWjQajUbLYI4wmK+mmXGLMIrGhtoSXmqqx7cnM4VtVXsL3659DC8tZQqj0WgJM52/81qMmWkXYZyectuVObz01CPY2VCPmlofdj7yJF54K5I5btGWSzSssH0vLGUI28xG0aDRymKOMJivpplxi7CKiEahtnGisYSXH/PhwbZX8N6Va7h54xo+eHsA+xrux7NvlWM3F0WDRqNlMdP5u1/vxZx0i7SKiMaxsTUce3ktY1gm2zDRWH4R+2ofxUsXU8/Pdu9EzZEzieP3Xj2GfTt91kjkseOYXrXjLsn1x/DqW8cT4Y8+pQToRjKt915uw6M+NYpp2Il93c/j2T/PIBo6HRnp2Nb0Ij5wrn/FvPcxvO7Kq2WW4Dw6uJA8d2EAj9Tuw8th6zhXOtMdLrHS+XEcveX0f/BCry5HuqjZ4SeSdbCz9Xm8cyU1/IXTJ/DMQ8k6nE2EK1t9Cy88+Qh2SNl9j+AbA2/jqhPmoY6vTg/gGzrteux4qA0vLyTDaLQta44wZHstkZVdNGbeu54QAa/CsWGiceNtPLdTOcLjc7hsOCHTrp45hvvv78Kb4nxvhDF7/LGkU7edvR6pXFNxwz/Gt1V633jZnt56uxcPNiiH+XZYj2Lee6UND6r4XkcaV19tQ939B/HyBWsU9M7zj6GuoQ2vmw7Xtg9eMPLlHO87gcvqfb508otGPepELBciuKzKmYinzQrXdfCROg6/jRfU6K2u7ce243euH8Cs1OFHc3hBlfP+nret628s4IVHlBD0vGV9BuEz+Pb9SgD7bQHMV8cXn1cjQ5VXu2wi0vfv7MK05EXfn0arUsvn9OW1GJM0SmAVGWn8YPJaQcKxYaKh7Or5F9H+JdVLlR7usQG8PqccfCLccuTPvGpMVX30YzyjHOrLy+q9dmjK+RoOShxwXddb9nsf7u+2naM2lV6mkYYTliIa1vGTJ8z8hPHyvky9fWXhE3gy4eiteNa1+dPJLxoP4oULzrVuk3DXaG26F/cn6iX9ei1oj9kCN9mFup29mDVFW65vUI5fznmo40ccgdGmROhBH559KxmfRttS5ghCplfTnPhFWllEw3H62SyfcDjxMoVVxKSH+vYJvPDUY3pBfMejzvSJ1UtOTBslzHao2qEp52akJQ6tpkMcmuWsEz1ibdY5b6KR2VnP9uy00089nyIUq6/gG4mpqfzp5BcN530myxB+Q40Wclxvjor0+6ecUYltOv/2NR7qOP3zyVbHNFoVm+n8nddizEy7CNsQ0Tha7aJhmkyXKEdkTZ+Iw9uJ597OEE9sA0RjukuNijKKxi1cPrEPNa2v4INX2xJTU17SKblo2KOxbNfnFQ291mRfU3Ad02jbxBxhMF9NM+MWYRWZnpL/nvIqGGIbJRoy11/jnhpR9t7zj9rTJzLf7lpgFnPi53Ro8r6C01Ni9gjjG60+47r86Uiev/J8CUVDL8Kb01PZRcPb9FS2Or6GN9vM9RPbXJ8njbYpzHT+zmsxZqZdhJV/IfzijYIEQ2yjROPmR2/h2ft9eLTrjLHl9kW0q3P7XrSc6OWXn0SdLGaft3qzl2VL7kPKycmCcB7RcC+Ev3PiYI6F8Ft484ga4XS9havXrDUUawFbOd+L9gL2i08qZ6qOMyyEWxbBq63q/i4nnS8d7cQf6cW0XqhewOtt9xtpeBGN5EL1zWsLeOkxJZaqDpIL4TlEw14I39f/tr0Q/haee8i9EJ6njmvvxzOvWJ/X1Yuv4JkvPYlX7V1jNNqWNUcYzFfTzLhFWEVGGkfH1jwLhtiGiYbY6hxePrYPD8q2WOX8dvzZo3jmhbmUnut7J9rwqN7uaW3pfMkWkLwOTZmnLbe2XVWC9BUdN5lm8t72Vtk820n1FJWxi8qxnOncWMKrBx9EnSpf3c5H8EzPMXylINF4FM8+35vYEvvIwRfTttxmFQ2x1bfwg7+439hya++kkjAPdXz5reN48s+sz6du52N47ow5qqLRNomZzt/9ei/mpFukVUQ0CrUNFY0tZjIllnX6qiyWT1RoNFpZzBGGbK8lsoqIRqEiQNEogX0UweU5+c1C8gd9lTGKBo12T5bP6ctrMSZplMAqKhqFWqa0aN5M74ZqeBDtL1dylCFG0aDRKmqOIGR6Nc2JX6RRNGg0Gq0azXT+zmsxZqZdhHF6ikaj0baCOcJgvppmxi3CKiIav32g8Me9/l4bH/dKo9G2sZnO33ktxsy0i7CKiIb895SIQCZxyGQiMoPqmkxp0Wg0Gi2DOcJgvppmxi3CKiIaNBqNRivQTOfvfr0Xc9It0igaNBqNthXMEYZsryUyigaNRqNVg+Vz+vJajEkaJTCKBo1Go21mcwQh06tpTvwijaJBo9Fo1Wim83deizEz7SKMokGj0WhbwRxhMF9NM+MWYRQNGo1Gq0Yznb/zWoyZaRdhFA0ajUbbCuYIg/lqmhm3CKNo0Gg0WjWa6fzdr/diTrpFmhYNEEIIIR6gaBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDimbKJxiuzt/Cfjl3GJ756ybP9+/bL+JG6bvMxg57aZoyG7UM357pRs2cEEfvwXomEmj2no+N2zdhHBRIeQWuu8hBCti1lE41/d3g1ozDks3/1tUv4p5U7diobyNIwmmobMXDePs4JRYMQsj0om2g4IlAIewbX9DWfO3oZsbh9coOY72uEv7ERdUfOIGafyw5FgxCyPagq0bh282N89pvWCOXwiWv22Q0gPoeBxiBC58ZwoLYdk+v2+QRRzPc3Y2dDPWp8QXSG+nHUdLLROQw1K8GprceOh9sx2n8oh7OPYjHUjqZGH2pqfdgZbMfpZTvIhVs0YhdG0Bm07lOn8tt5MunlddxjwzjdFsQOFa7zaYQLK691oNW5b3M/ZtfsAIoGISQLVSUawk8Wb+OXWqxr5f1GEHujHXXaOccwfcSHA2Op7j56cj/q/EpMltUYJBbB/ECzctyOk43g9BM+BI5MYEUHzyHUrBxzFtGInjqk0urGtB24MqzSCg5jxTpMIUU01iZwtMGPnrP2hUvDaG1QQrdkHeq4tX50ngqrUVsMkbPdCNQmw2NTHfA7942rMigRTKRN0SCEZKHqREM4OhbV18qoQ0YflcUlFOf74E9x4mGM7qlPFZL4VHJ6SjvcFowbwVAOOutIYz2KqDmSsR32+Kp9bJAiGkoIomvmxJmVr9YR6y7WSGNKv7eIYbKtHv6+OfXeitv5mnH9+hl0OvelaBBCslCVonHnLtDQeUVf/5UfOnMmFSIyhgMN7Zh2HLkzVWX30K31i0YMiO9NYKxpyPpFYx/mrQCLXGsa8SjmE9NT9bZldtgpoqGIGtNTzrWtIetCHde1prEyvNs+J/lNXpM0U/goGoSQdKpeNL48WFnRsKZ10h2qv9dRidKKhr6fniaye/05HHaKaOh41vSUtWnAHml4Fg13GQwoGoSQLFT19NSnn6r09NQSQkEfes7Zhw4XBxEUITCcc6mmp2a7ko5eszyMvV5EI02IVL52uUQj6/SUlLMeTUOJ4ZOFs2ONokEIyUJVL4RP/qzCC+FzffA3dGM2bbuvcrIBHzrfsEYD7oXw2b7dORbCZzCwK/tC+GK/X4X1Y16NNPSieYtMU3kQjQv9CKh4Q3NqpLEewfxQi94llSIaORbCdRkamhG6ELWO5wbR+rASRikiRYMQkoWqEo2N3nI735v9dxmLAwHUHJyww0q45TYeTmyLrWtsxsCpYZVWAKGLdrhBimgoVk62o8mn8tDQiNbeCYQO1iM4YKmCNdJI3XLb81pqDlbGkmspOp+2gFA0CCHZqCrRqKYf9xFCCEmnbKLhjBgKtar5GxFCCCFplE005A8LP1fgHxb+QftljJ3fjH9YSAgh24OyiQYhhJCtB0WDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA2SQuz2bXy0dg3hS5ex9PMV/OzizzH/s0XaNjL5zOWzlzYgbUHaBCEOFA2iuXotiveXw7i4+D4+XL2ijq/j1q0Y4nfv2jHIdkE+c/nspQ1IW5A2IW1D2gghFI1tTvT6Dd2rXF75ENfVe0IyIW1D2oi0FWkzZPtC0djGSC9y8ecfUCyIZ6StSJuRtkO2JxSNbcidO3E93cAvPrlXpO1IG5K2RLYXFI1thnzJZYoh8os1+wwh94a0IWlLFI7tBUVjmyG9QwoGKRXSlqRNke0DRWMbIVMKnJIipYbtantB0dgmyI4XWcAkpBxI2+Kuqu0BRWObIHPP3CVFyoW0LWljZOtD0dgGyI+yZI89IeVE2hh/ALj1oWhsA2ShspyjjIHJdex74Sre/wV/Pb6dkTbGRfGtD0VjiyP/GyR/A1EOPv4YaBm+ik989ZK2f/PUKt67Uuj2yygWQ+1oavShprYeO77QgoGpiB1GiieM0T31qOmasQ7n+hCo9eHwyfLUsbQ1/lfV1oaiscWRP5wrx84WEYy9z68lBMOxXd/7yI7hjejJ/ahTTqzp2Agmz04g9FRAHftxfCZmx6h2ZtCjxK41VK09bLdo9CPY4MPRU7ZonOtWYt2M0RJlX9qatDmydaFobHHkn0rlj+dKiSkYv/H1D1NE43+dLmwabLZLObRdw0guoUYwf2oGK5tFMzabaLgpsWhIW5M2R7YuFI0tjuxokX8sLRUiGF/+gSUYoemb+IeFGH65xRKMJ1+8asfyzspQUDktPzpPhRFLm9nK5PBcTjoexezgfjT5VDw1YtkZbMfAsd3qfTdmrRiqEibQ09yoRjAqjs+PA/19OJri6HNPkcUujKAzaFzfO4WI5FU7XLmvY5mdb2SqDwe+YKWdcr1Ci+aefoz3N2Nng6ShRl1tI1jMtp4cXcBoWzARN/B4H6ZX7TBhzQrfoe8VRGdoBuNt6r1Th+ERtKqwnnP2vRN5V7ZnREl2cUhb4y6qrQ1FY4sjz0Yo1d+bx1UyjmAMvbWuz43M3NSicS+CoYlHMHlMpqSU0xKH2jGG+cQP1vOLxnyfXzvPvR3W9NaoEgydliMakQkcVg627oH9GBqbwvRYPw74LSfppLESakZdQwA9YwuIrIUxHzqEQGKKbA4DjfXwt41hMRzFyrl+tDbuxtCM8uqRBUyfHcQBlVZQ5Xv6rBohWdWSZG0KPQ8EcHRIha2p6892o0nlJ9A3p4Mdx123qwOjp6aUeLSoe9ejaWhJh6cQV/XR7FNl6cD4QhjR8BxGD6ry+1VZ5b5xlVcpm283ekITmD41gp5dKr4ITAbRiC6o+hhoUfdXZR9V72eUcFux7hlpa9LmyNaForHFkYfqlII7SjD+299+lCYY9zrCSEMccKhDOWTVI1cO/Pg56WrnEY31M+hUDrFpwHSwUUwfa0yIhh7JNLRj0uy5Lw9rx6nTiKv0VBrB/gU7UIhhUnrnbWfUuyWEgsqpN/djdimaYTTkcXoqFkVUiUZUeeXpYyptu1dvicYhI39RnH5CnWvO0OtXI5s65eCHLtjHgtSBun/nazHE3mhX4UGELtphggiJEr1MoqEp8fSUUKo2R6oTisYWpxRfYBGMh75rCcb3zlqCMXyuRIIRV87O7N5Kb1qEQjvNPKLhdoA2ETVycETDmv5xO+D0NFKmaRxzrosuYLx3P/Y+IFNU7umjPKKhyjP+hD21pc3u+Zui4cpf5jw75XLSSTW5v1luE50eRYOUCIrGFqfY6anbqmedTTAe/z/FjjCsXnCd7tEnSfbEbdEwwyNjejpIO2m7l51rpLE4EMg90rBHKwfGUl105OICovaoInJuAvNOcGwOQwGV525HyHKLRmREHHmz6v3bJYirkYSMYu5BNKyRRAvGzYB4BIsL1olqGGlwemrrQ9HY4hSzEC6C8aX//QstEMdft3ZFDb65nhAMWRQvFnGq0nsPPtGP8bNTqke/Wy/iOkIw3ycCIIvXY5g+NYyjD1gLyo6Tdq9pWFt2lZPMuqbRh7160TyZxuKQrIMY6yIdkgcfWkdUeNQSlboHDiF0agqToQ69JuG31yRENI5L+K5ulf8xzJoOWyFbiq2F/iVE18JYHOtAUMW/F9FAfAmhXar85prFbpnOa8a4FMVZ02hIXdPQo5FsojEjU15q9NSt6ndsxtjFdm9wIXzrQ9HY4hSz5fYvh6wf7pVLMBwiZ5O7i+oaZcdPspfv7BaydgNZ4jGkRh+Jnr1r95RMHU32u6ZpjN1TdY3NGJgac40OotqZ6/UUO06PcvIJzN1XDY1o7ZjAirG2EX1DCYl9/4Hz9kkHNRKY7k3ujAo83o+Bg+r9vYiGIFNlHcn0djZ3YNIcaJm7p1Rem9pkc4B6n0001F2mO5z67Uub2ioUbrnd+lA0tjjF/LjvC70R/Ol3LNfVf+ZGWQSjaGJhzF9Ida/zvWp0EhiEM7MeXZjDijk9ZU9xyeIxKS38cd/Wh6KxxSnmb0RENH7rwIdo/J8RLRiP/XCtugQDMcx229NTvbLl1TW1JEjPWqaP7Okl2XJ7WKa4nG2qpKTwb0S2PhSNbcC9/mHhwZFrWjjEDvz9NdytKsGwcaanzKmlsYWUhXU9vfS435qCUYLStL8/9QdxpCTwDwu3BxSNbQD/Gp1UAv41+vaAorFNkB0t5fx7dLK9kbbFXVPbA4rGNoGPeyXlhI973T5QNLYRsrOlHH+TTrY3bFfbC4rGNkMWKiO/SPwjICFFIW2Ji9/bC4rGNuPOnbiee6ZwkGKRNiRtSdoU2T5QNLYh8iWX3iGnFMi9Im1H2hAFY/tB0djGyBdfFjC5q4p4RdqKtBl2OLYvFI1tjux4kSkG2WNP8SDZkLYhbUTaCndJbW8oGkQjP8qS6Qb5GwjpRcofz8k/lpbqqX9k8yCfuXz20gakLUibkLbBH+4RgaJBUpD/DZI/nJN/KpVepTwbQR6qQ9s+Jp+5fPbSBqQt8L+kiAlFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjyjRSPTIx9pNBqNRnMbRxqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8czV6Hf8fjQMZIkJes/sAAAAASUVORK5CYII=</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD1gSURBVHhe7b2PVxznne65f0dm7u7s3Jk7c87NuZvdyb2zmyW7DNzLqHfniLm5YsZrTnxF4rGIbDRrRUQa6SqWQpAlDQGHKzKMEjFhzIiIGA8rromEJZtYEUJWIIoIsQQxAguDBGoLaAmpbeRn3+9bVd1vV1d3V6vp5kc/n3Oe0131vlX11tvV36feH13932GF+d09t/GZr9/G4sNP7TXxSLooEbKtpMu+csbtDox97llMJT3kECY+9/uYGJL3s5h6/vcx/rNHOsXhQe9O3Hi+A4uycPssxv/ys7jx5Z242XEawQ8f4bHOpc6x61ncUPuKU4PsXI7zJ5i8buW1kHUJyjfZgR2BbeietJdNZrpQXViF7hl72SDYWYWC7V0IOu/1saNMd2yz182ge3sxCgrjdeyKJMsxGjGst7IYblDpzv5mzuPwUwFsemYvjrX1YHQqbK1PyhCOOft38DhO3LpgD/aV1GJwyV5eHkFraQU6I3VjnUt1p6oQVW+VkbzW+n09qja8jhOHR/kUct563w5m/V9p9KxD5zNYaT788EPs378fDQ0NWFpyKgT6vayrrq7GlSuuEyAkCQuh+1hx0/iXf3PHt2lU/uM87j+Kz+eYxu+pfeWMRRXgP1eKWzftZYPw4gIe6jiX2jRC3coMHNMQlh9hfqQPU007MVb4WYz9cASyK20ae87igZXLxQqaxvx5HCwsR+e4vWww2lyKgiMD+r2XaUy0lseYxsGzISvBTSrTEJbDmB45j+6mvagMBFDZYtVDYhKZRh0Gl+1lYUqdu3FsfR7uoKxU1jRi5zBMQ4Xq3l22UZgGMtSIomyZRmkzRq2UnOA2DhoGyYSsmMb/dmhOB/zhqU/sNfF0DT3Ev9prmcu//fYsfvHBx3aKxfCHn+i0gpfn7DW54BZuffn3MdZxy162CfcpM/msbRSmaSjbaPgsRo+PRFoPwtzxP9GthcdQZnHtEuZU68Lh8cj3MPq5l5XdqN1eOoAbXziAO2bkVMHQ2pdlSO//ZEEvaZYv4WbKlpAXVmCsbHU5yvIkOiuiRhBvGmH01xSjQm8XxuChAIoOXYgN9E7wTmoayiyGBtT1YGx5rRllTxKUly6g3m2AA3UoKG/DhF6QcwrEBXKMt6FCgrUur2kaqnRv16Kgok2ZWWnUWHSL4MlNY0dHAtMQYyo0Wz0K0wCzhGkcNAySCVkxja+9Oq8DfuO5+/Yab6bnH2NzY1Dn/e1dt3H0JyEs29FXtpX1X2ubt1bkiIdDL2P0C3+BiUu38Eh9mcOLt3D78Cbc+OsOzOsvd6xpPL7ZhrEvPItbIwsQi7w/9D2Mfe4vIq2V4AnZtg1BaXaoFse9DtW6+PMTVlfE8ggm//z3MXq4D4tq34/DcqxSvN8rlqL2Jd1cf34At5XpfBKexeyJv8CNJzINxUgzygvLcLhzBMH5EEIzI+jeX4aCMieQ2qZRUoXOEaujJHSxUW1jdGvZ+6g/ZwfbqfOof2ov+iR7ipbGaHMZiqraMCofp2pxTLSrY5W12IE+EV5B2TKvsprzCEq558fQWaVaLe12FFZlLCtR5bDPKYoyk/IA6t8R44o1DW1EJdIaMYJ5Bqah67GiGcNSL0uT6D+k6jlSj0H07VbmG6mLIEZbq1DZnKrVlTmOcdAwSCZkxTR+/POHOuB/vmYWn5i34B48/hRoeus+/vvq29jUcBePVOSVbWRb2cdral+55sG1NoxXfMEaXyjchPcbTuOjSB9SrGkID66dwPt//kdW/i/vxK1rC9GWx/Is7hx/HqOFMl7xWWUgLysTsNMUjxeHMLlTGYts+4Uv4P3jlxCKBLxHmPuhMpkvSDn+Aje7TqgWzxOahiJ8vQv1FaUoUoGuoKQU1XU9mDB6m3Sw29+C7poKbJI8gW1oHbAMxCE01IJ9Xwro7p6i0qpoegrTkOA42LQL5QEJzgFsrqpD/5SVlBjvoIzQWLSMch5NA5aBKEZVayGuNWSju9r2n1dpLtNQyHYFu3oQqY4MTAPLM+g7UK7ruai0AvXNddhhmq9q4fWq8m/WRqUMr6Yr5nPIJmIcNAySCVkxDQn8n/+WFfRb+6ODb8mQ7qjgfWtsQ7aRbf9I7UP2RXJDfPcUIYTEkhXTEPquh3Xg/51v3Ma1W/4jv+SVbWTbn97IdoOdmNA0CCGpyJppCK+8aY1LyAyonww/wqeJJ1PpNMkjeWWb76YYDyErD02DEJKKrJqGUN9rGYdIuqwOnl7Epfc/1l1Roou/CeNbap3TnSWSbQghhKw9sm4awvn3wnparWMKiSR5pFuLEELI2iQnpiHIgLb8NmPHyXn8+7q7+IN9d/CHSvJe1nX94iEHvQkhZI2TM9MghBCy/qFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnyTM9N49AnQ9YuH2HFyHv++7i7+5d/cwR/su4Ni9V7WSZrkIYQQsnbJiWm89V4Y//bbs/jM128nleSRvIQQQtYmWTeNV96872kQbkmLw3kv2xBCCFl7ZNU0/BrGv/v2HJYfA99/5wF+5xvWutUxjhCmh4YwHbIXM2E5iNGLYwgu28uZMNOF6sJGDNuLK8cQjhVWoXvGXlwJ0jrvFaxvXUcrfC6EkDiyZho/vRGOMwcvFR69i7Mjj+ytgLO/eoTf2mWlyT5yyvx5HC4JoPWavZwJsz3YV1KG9uv2ciasJ9NI67xH0BoI4PC5FXCNjE1jBt3bi1HdSdchJBlZMY2HHwN/9K3EYxhiCsloettqocg+ZF95z3oyjdWCpkFITsiKabz284dxRmEqlWlIV9XnbdORfeUOCaLFOHbFXlwOYrBpF8oDxSgoDKD8xRaMRm6KrYDb3tOC6tKATt+8uwMTTroriA03qIDUPoDemgpsUscoKlXbXjPusEMjaK8qRZFK2/RMLbpba9V72yhcphG+0ojyErXvSXvF7ABaXyzT+y0IlGFfywiibbQQJjprUemUsaIWfVN2ktc5VJnnqFieRH9dFTaXqH2XlKK67gKmI11P9vadzahUdaQDrjt4JzsvV32nrKNk5+k+bsq8deju2qvP61ivLMtnbGt7F4J21hhCY+i2y6bromkgphtu+lydUY916I/Us31uLT2RunDObfqs+mzs66uy5rxRt4SsTbJiGpX/OB9nFKb+w3fu2jkT0/KzBzqv7Ct3xAaxiZYyFFUpI5BosxzCYINaPnTBDj5W3vJD6ou+pBaDI+isCkTTPUyjQAX6zhEVjpbDmGivQkFpM0Z1ahB9uwMo292FiaUwwva+CrxMY0q9LylTZXSC6RjaywKo7phEWALO/ACOqeX6d6xShs69hKKyRgzaUXC6owpFFR2Y1kvWORRVtWFU0pdUUDTPQRlOf40yy/09Vh2EJ630mtg6KFJGMzwZQkhWxpx3ivPyMI3EdZT8PGOP6yevfHbqvGZCVp6ULY0Z9KqylzcMIKT3OabPpbLdcu7w28oMy15C77g6hpRd6rmkFv32x6TPrUwtT0p6EMPNFcrM1PZy/ahV4aCUsRgHz5qOTcjaIyumUfDynA742wzzSNW6cPPuzY/1drKv3BEbxMIhOxA6qDv8ghIz4G1Dt3E3iWvNKCtUgUFMxMM0KlqdpoHCTu+djb6P3CULciy3aYTUMSUYmoFNBajQvBP4LORYRY1D1sKSOgcpj4N5XK9zGG9DReFe9IlX67y70Gvedgd7sC9SVtm+HJ3jOsXCPJdU5+VhGgnrKNV5msfyldf+nCKkMA1dL65txnpwvH1IWau17b6emIpC767o/uT4OzqMfU91YIer7iVPQYNdRkLWKFkxjd/dYxmFjEfse33xiUzjbuix3k72lTtigxiWZ4zuKUdmwHMFxGV1t5ggYEpAiAlIZnpMILWJM42XUK/u+gsq2jBhBEPNjNEV48gJPqqFNBrpnnLSnXKlOAcpQ7k6npViM4LWUqeOPLZP57w8TCNhHenlJOeZdl5XuVKZhpT7WaeF5kbOw2WeitHm0sgxU56bgqZB1gNZMY3f+5s7OuDff/SpXv7Wacs4EulP/ja+uyqktpU02VfuMINYWH2JS63uKefuMi7guQLm0gXUO+tcQSFz05AuqUnd3ROznyVVDmUI1R1jkTtrM/gEO6tQoLunzK4Zp1we55DSNIZwXMYBcm0aKc4z/byucmXBNIYblVHTNMgGI6vdU6O3o7fEyYzDqxXy3swnOm31uqesIOIENM1AXXLTMLswXEEhadCYlfeubqA40zDeB9R2TreGmWYzeCQafOKOq7tFnHLJOWTaPRU9R0065xVT3ynqKMV5pp83Nl2tTL97anYMg0Mz6vbCX/dUwnOzoWmQ9UBWTONrbdZYRmtsp3FC4/AyjRMXrIFw2VfuMINYCH37AyiTGS0yiDt5Hseeih/E1QPhchNvDxKXqS+9vqd3BYXkQcMaMLYG1VMMhCtkMLtgu7rrFU/Wvy0pRf3ZSYTVtjKDp0JmOtnBRwbzC7a3YFS1NPR+d8l+neNa55ByINw4x97dqvUVMxAeG/jSOq90TCPFeaaf120alrGUNarPL2ydXXhyAP1DjhH4GQhXpjKltpWB8K69KHMNhNM0yEYgK6bhTLl1z5KSqbSmWThym8bjT6OtlVWdcuueLtrdaNxtSt5tON7RHJlmWXGgK/mU22RBw32slpcSmoZMg+2sKEalPWgcvhadMltZ04XexnIUOIF9eQZ9xhTW1nMdOBzpSrGCfsJpw4I6lkyBjU65VQYQaUCmMg1FsvNKxzQUSc8z7bzxphEeacMOGb+yJzvo2XO7epT12ZhTbgMVONg2ZBmIzXSPMbVZptwaY/o0DbJRyIppyNNqnd9Z/KOrtfFvXkr8o78/bbiLqx98EpluKz/uy+2Tb12mkRSPgJkJRvAR5M414e8F1hMb9bwIyVOyYhqC8xiR31atCHk0iMNPhh/hi4etVoSXPl8zi/9xt/U+p48RkeCm7v72ufv4E7KSpiH93+WoPzdjDdzac/Zj7kzXJRv1vAjJX7JmGsJ3z1mPA/kX1bfRqN5/bN91JuqmMiXb5pJgV5XVldFkj0mkZIVbGnG/YI7t+li3bNTzIiRPyappCA3Gk26/eGQOb1x7BOc3GIn0nV4+Gp0QQtYiWTcNoe+6/z9hkryEEELWJjkxDcH9d6/yV68iec+/eyWEkPVBzkyDEELI+oemQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvsmYaf9pwF5/5+u0YffHIHO4/+tTOQQghZL2RNdP4V3vvxJmGqO962M5BCCFkvZE10/g/j855mkbjuft2DkIIIeuNrJnGV394z9M0/qr1np1jHbM8g8GmXagoDaBgexeC9mrN0iRGz3Xh+N5tKN/lSnOzHMJwyy6UB4pRUBjA5opadF8P2YnxTJ+tRaUcU/JWtWB43k4QloOqTFXYXGLvq6oO/VN2mpAqfaYL1YWSZqoRw3ZyDKnKrY8Vm947aac5JKvDdMpCCMkpWTONH7zzwNM0vvyDdW4aS0NofaoUO5rOY2ImhPCyvV4zhGMlpaiuaUNnXXl8MHQR6tmFgrJGDEqm5TAmOqpQVNqM0Zh9WoSHGlFeUoXu8bAVlBvKYvY/2lyGoqoOTEjvn7OvshZMWMkp0zHepgK4Kst8CKGIvLsSk5c7jOFGOVYbRnV6CKOtrvNKWoeKNMpCCMktWTONibvLcYbxx7VzmProsZ1jbTPcUIzqzhl7Kcp0ewXKm0fsJQ/sABjsrEppGnKMgoYhe0kROo/DhcoY4g+LwSPFqGg1bteXLqC+sBStuihj6NxejlZjV9bdurOvVOmKK40py+uQvNxDOF4SwHHzWLqs0WOlrMM0ykIIyS1ZMw1hkzGD6n9/eQ5zofVhGIK3acyg+9ky1Lc0o9roJhr16FHyYxrhd2rV3b59x66Y1nf/Xi0Nddzt7vJY6w6e9Ti4aonI3f2mqgTH90jX5X1mm3FezRictRNd+C+3jTaoWvQv6YWUdZhOWQghuSWrpnHqykNtGL+16zZmFtaPYQjepjGEY4XF0a6X8Az6akpRtPs83KHbj2kIo83lKjDa/fZ/thd97kNqwuivcbU0dPB1l9Eqn97XU40Y1kHaJHF68GIz6uu6MDoTQmhmBJ1VKmBXdGDaTnfjr9xCSJU9YLQsUtdhumUhhOSOrJrG40+BLx62ZlG93ONxR7zG0IHeCYQuHbuiMszKHXM5Oset/Brpfy9UQdMclFb4MY3Q2b3RO/bIOEOCMQ25uzfGNPQ4gSpX/dseff1OeqK7/1TpQrAH+9znauO/3CFlLtt0i2baSUujDiMkKQshJLdk1TSES+9/rE3jX1TfxrVbn9hr1yjh6MBr/6Fi7GgbiyzrwVpX37yF3Dm71/kxjSB6q9zdS5PoLFcGNWAvxhDCRPtea/ZToAL1nT04Xu6MaXiwPKDKlUG63SLQZhmD/3JPqzoQcxk2s6ZRh1ESlYUQkmuybhpC9Y8XtHH8m5dmMT2/ngfCR9Ba6rq7n+rAjidqaVhjErEtBSv4erYe3Ki788rIjKQRtJeXo/2aTrHQpuDcnadKtwbKY9J1cPe6u/dX7tBAI8qlNRLXekhVh+mUhRCSa3JiGg8/jg6KF7zsPYNK1j3zg3uo/Md5/O2ZEP556CE+vLd6BuNtGsoMuuTuuRb9kuT0xx+6AHeY99M9JbOICra32FNTw5g+V4vyEhU8k22kWkPTVzpwuCyAw+ecjGEMHgoYU2rd3U+p0t1Tcu0pvQnGEVKVO3zFnh5s/g7EIFUdplMWQkhuyYlpCMH7n+opt2Ic//qbd3BlQjmJzftzy/ifD87qNFN/9K3VmzITGhvA8JQTxkxCmOisRaX9w7XKmi5MeAzX+DGNdH/cp/ep8pW/WIded77lSfTXRX+8V/6ia8ZRyvTYH/+Vv+j68aBJ0nJbLRGvcaHoNN0UdZhOWQghOSVnpiGIcTgPMpQZVfu7FvGLDz7Gv97v/Zyq3/nGbXtLQggha4GcmoYgXVX7Xl/0NAm3aBqEELK2yLlpOLw7/jH+w3fiH59uiqZBCCFri1UzDeHTT4HXfv4Qf/bdIE2DEELWAatqGiZjd5bx/XceoOIf7qHw6F387u7b+L+VmRBCCFk7rBnTIIQQsvahaRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvtGk8fPQIFEVRG0oPHyZ+zUc59ZKhaBoURa1tOQHP65XyL6c+MxRNg6KojSEnMCZ7zWdJHayAaBoURa0POYHP65VKLaceMxRNg6KojSknUJqv+SyzbjIQTYOiqPUhJ/CZr5R/mXWZgWgaFEVtTDmB0nzNZ5l1k4FoGhRFrQ85gS/ZK5VYUkcroFUxjVOXlrDllfta8t4rD0VRVEZyAqXXaz7KqZcMlXPTGBx/hKLa+zGSdV55KYqiIgHP65XyL6c+M1TOTePkz5biTEPWeeWlKIryLScwJnvNZ0kdrIDY0qDyWoN1xSiou+yZRq0xOYHPfJ19F6+98iP88q4ExkXcvXULwUV5T8XJrMsMxDENQ3Nv7EHBV0/iprFu4c0aFJQ0YPCBkfdyA4qcdf0NKChUgcfQpv+4Eyf6Jq28g03YUrgTb8wY29u62bYVBU8fx413feQxj++hJyq7LD+YxKXGnXg6IGUPYPPWGrx+LRjN75bH+WpVvoYPvfKvKU3i9cpi7DxlfzZKGZvG7Bl8s/A5vG7e+Nx7C0dVXb7Sb6x7dBnfK3GvewLp+lefn1daNjV2Es8VbsaJQY+0DJR5/TumIctTuPrjH+Pd8ZCV5gRK83WFdG9+HlNTHyaU1zYroY8++gi/vDaMnjO9WvJe1nnljZNTZxlqVUxjzep6K7YW1uCn96LrBusC6kuqvixXo+tutDyNguozmJNl95f4wSI+vNqKnSpAHH1Tgu8YTj0dG6gsqfVbi/Fc25jPPOZ6Dz1J2ZVhvP58AJt2nsTwZBBzs5O4cfoItpZsUcEtgXGsVtBaEWXBNOzP7uibi9F1qo6KlJFuOXY1uk5/Pnvw5qy9/KRapfofPrYZWzZvRlHNW1jwSH9SpVX/TuAzX2cvW6YxZwfGHOjOnVns3vsS/vNXKxOqte2k57ZPKjnmf236e89jiRqbmnFndtZz24jMusxANI0YWXeD37vsLF/Fic3PYc/Ozdja4gTuIN6sLsYLJ+3Ak+BLbAZn3Vpw34nrO7fn8fqktewnjyP5osUbTPplX3irBkWbVdkNoxF9eOp5FGyNbbVElDRoXcYrqryvnmrCc6rlEinj3as4tWcrNkmLJLAVR0875bHznz6OnZvF4FRL5/njGFbm9eYBI/8bxrk+mIlpGT391yq/vsuM7u9U32kc/bKxP0mffA07nVaRyK7ruKCVsKyJNdgQQFFDdB8SYF/YuRNbnm7FDXuduyW4MNiKb+oyqpbpl2vwxlh0fw/Hz+DoVhWgVVrR5mgZdFmd8itFWi1JyqyvleOv4YQcS59zkjqyt4nTA7mWtuJU/2nscd2YiOKuR13X0et2YfA49vxH+1xVK/zVy3JDIuUwz8e+pvS2R/D6a3vwpf/rT/F3cj1PX0ZHzQv42lf+Ctte3Ivvd48h5BwrpqUxiXfbT2Foyk57eB/3PriOX1/9BX418h7GJ6ex8MAjmKap75/4If7LS9/Sd/leunCxXwfy4V+NeG6friYnP8COnbvx1W0v4B9a2/DBralImryXdZImeSSvuW2MnDrLUDSNGC3ipwcMQ5C7Q/niy52jE9AfqIu9xLh792Ea7i9RJH3naSvdbx5b3qaRftkl2BUcumDsw9b4SbygyvKG8+UzldI0VKBTQWhwTLVcFtU6ac1UBrDz5Jj6wqoLTgKiumN9pV/uzK38T9ecwU0JRDOXcUK1rDZJ4DszqfKrVltfA5427tBvHN+i9n8SN/S+g7hUp5Yjd7/O8VsxLF1990ZwSrUsonf8KVoaSctq5feS7gaMGIK0PJ7GqWtS19HPU1p9kXKo+t0padfVftU53nyjRt3FO+Y9gle3GGW4LnmNbiF3/acosz4/dawT/WOYuxut88R1FC99c6GvoUVcqglgz+mZmPSkpjF7BrXScu2ztpnTn2e0Kzam/iPbyjVxGjdU63fhwXv48V+Vo/b0TSxKwA/+Aq8d2IPXrt63AqFpGg/FNH6EoVtWkAzd+iX6r4zhbshenvsAUzMf4YETRNPQ2G/ex487u/T75u+3oPZwXVweR9I9JaYhBuKVno6khbHjxW9ovT9+0zOPSNKcfLfv3PHME6njDEXTcEnfZdvBXt7rL5Puo7bvsNzdQB5B1Priml+kGbyx0+xmsro0vvmG2QXkJ48lb9NIt+zqeM9778faJtbAItLn69wdOnLySkBSAfN6bP4i445bJGZo3ZlL/tjxgJsnn3ONzVhBzrmrXrhrm5GTLuWRMZpI3tjj6zp53jbNVKaRtKzRdXHSgc42Nnm/uQnDtolb3VaxXVhiINHWn0jSnVaidQ6vXnPSlKlcvoDBcWvbuOstRZnl/GKPlaqO3HIZhYzRuVqhSU1Dv9+Pn0ZaMjO40XcBN5KahvH9Wgrh7t2PsLhkLyvdOLUL+7quW8vJWhoP7uO+jN05AfP+XcxO3UFoyRVMfeitvne0Ecj7XJpGU/P3sfXZr8W1WqT7y90F9quRX+u8so25PiK7/jLVipvG5bGHePWdJf3qlS66u/AQr7+7pCXvvfKIZFaVTMfN6eyqq+pLoYOQdOU4A5fR97qbwWlBiPSX2AygSoEt2HP8MubkgrXz6e2cL5s+Rg0uOV8MH3n0F9t9HFuRboq0yp6JacSaZFQSkGK3S1huHSgS5HdaRlqSxzjHmIF7R6ZpJNtfctNIXtboPuMl3TdW0Jc6LrLzR97rwXKntWSVwes41jkuYrjlOWxSrYudB47j9b6RmOvIXf+pyhwX0H3VuaGZ09hjXqtOV5XRnZbUNNT5vrlfmZhqPX7zSCveuCotyNht403DdX3dGtDdU5VfeRbbtr+g7qa/jm90vmcFwjvmmMZETEtDDCf4wXsY0d1TI6q18BvcmrpttVjMYOpDq2EawY8+0vtpPt4Sl+ZlGqK/V2WTbWRbd1qkPjPUippGu+s3GLLsziMm8fSxaJ7ypgeexiGzqoqNfeVsltWDC+pLpe7EBo07dLVevlhy5x53l5g0iBrSgdj6skmft+eAYrI8izJQbemnNcV4oVUFE3s58iVMs+zZ6Z7yCEimycYoXdNYVOeg6kW6p5wgFlOeFTCNhGVNrkuH5I7+qtG6UOslAEqrQ5Ux2hqwyuDVgozRzAgGT7fi6PPqfLfsx5vOOXmZRpIyZ2oaOs1tSEpbGqPdWclNw9LCuKqbU016HKfoq8cxbH9+KU1j/uf4/tZyHDo9qoK9te66amnsft2jpaG7p6SlYcWThZtXcFF3T9mxQ7U07qyjlkb/wGW9n1+/p87VI91Lkle2+Vn/pfh0qYMV0Iqaxn96JRrkRbLsziOtCzOPSNa588l0XDOPLLvzZEfWYHHtgRoUHTCCtlzMT9fgaKU52Kzk1zTsZv5zba+pOzWjjzrtPF6BwFF6Zc/WQHhMsJBjuFtVkTvNdE3DCriRVofowhGjPJmZRvKyJpduxe1Vday2j3St6OM9jaMHnje6uKzPOO6mwTmOMotL0rqIpFndlpEyu+o/VZkzM40xnNrqMU1YujnFDO3jyDEiY2kiwzQWxi/j0mXVunDSdEsl+hmmNI0P/j8c+E/KZOS9Hfh+1Wa0NCKmIYExdkxjduQtDH+wYOUTheZwex21NLr/20/0fj766F5cWqKWhuSVbWRbd1qkjjPUippG2XdjA70su/OsfdOw+9VVoIq9G7T6pQvM/laRb9NQUnllRkyB8YV7kjyJTSPNssdNuQ3iZl8DnnviKbfxAUkHiS3WYPeHcj6Lk6ql9DS+qfvI0zUNZYp7A9hyQAbOF7Ewdgav/KXMyvFrGlaLYIsK4AuLzviCEbSSlXX2Mk41nMRgoimzunWm9uW669eTGdT6mCm5V5vwdOEWPdgvy3oM7C/34E3p5585g2+q+nfSHs68hVc2B1B7xv489HF2qlagOn89GSBZ/WZoGk53Z9x1aI3BHH3LOie9/dYmDOqB9TF1/C3qnO1jyLmWPI9T9m9/9MC+OndnzEZfrzvVsdXnoVvMbtOYO4fv/j9bcfztCSwuhPDhpVdx5BsJWhrKpM0xjY9Gf4aLvxzHvftLWLo/j7tT4yqgr5+Wxun/1qP3I78Jcad9++W/1XKvl7yyjWzrTtP1tQJaUdN4beBhTKCXZXce6YqSLiknT7LuKXNfOf0RoHxZ3MFPSbqM4r5c6ZiGfZcVOzDpko88cyPGwKhb6ZRdFDNGoO6AS4qxec9pKwC584rSNQ2RCriv/vUWa0qo9NU3XrD3n65pKN29ilely0atk6mqr/9zgzG4n3p/C1db8YKcqz14Hnenm6is9t2zZ5edlvW5xZl5gs9j7nJ0GmrR5udx4oI90Ky0cO21yJRbmUL7zdarRqvEHiNQaTtfs7dJWL+ZmcZwo6uL1JA2w71nrDR1DTllKpIpwseO6O5N5xgfXmiKOddX3jTKM3kGtdr47bp1m4bSwi9fRe22r+A/f+VrePn759H/42/jG/90FSEJhDG/04htaTxcmsfMe0P4xeAgRt57H3eCc5ibmrZbGiqemAE1hVbDNC72D+j9eHVPJTINp3tKtnWnReo8Q634QPjViUf4Uf+SfvVKF4lJSOtC5GUYjlZlIDzfpb6EJ74q/c7qzjEy44XSs4b0rCiPNGptygmU5usTaq0NhCcyDckr26ybgXBqg+jBDAYvu+6Y81qLGP67nfheoi47KjdyAl+yV79aeuC9PoFM07h0+V08v+Pr2ji8dKDmZf2L8bm7d+P2k66+9/c/0MeV6bTmeq8xjZFfv6fzyjbm+oikjlZANA2KojamnEDp9ZqmTNMQ/XzoF/rHfokkP8ozt39SyaNB5Ad7VS9W4+bNCc88IklzftyX8HEiTr1kKJoGRVFrW07A83rNkRzTkK6nZPKa6ZSpPvjglv/HiKi85rYxcuozQ9E0KIraGHICY7LXJ5TMSqo5dFQbRzJJK8Nr+0wlrQd5KKHXMUUb/oGFMhNKptCKcjoriqKo9Ssn8Hm95kBiHDK4nUzS2vDadqXkPBr9jZ+c1ZL3G/7R6DITypxKK+LsKIqiVlxOoDRf81lm3WSgnJsG/+6VoqgnkhP4zFfKv8y6zEBsaVAUtTHlBErzNZ9l1k0G4pjGepPxXB95rMbNy5dxkz/Co/JBTuBL9kolltTRCmhVTGNdaK3+J3KMaVzFiYDxXCKKoqJyAqXXaz7KqZcMRdNIIHlW06r/J7KXYkyDovJATsDzeqX8y6nPDEXT8JJ+aGCi/0T28VC8NP4TWW976CTeqJYH1NkPapu6gBPOA+j0HzoZD6yLMQ3Xw/weBXHjVA2ec/5ve2sN3uR4EZUvcgJjstd8ltTBCoim4aHk/4mcwjTS/E9kva08Jvv0CD6clSfXxv5H9MPZC3hFLTuPoU5mGnNn9qNoSwMu2ce6efJ5FCX6XwyKWm9yAp/XK5VaTj1mKJpGnFL9J3IK09BB3f9/IuttzT9MerAY+298SrJN5E98krU07gUxZ7aK7LyJH+dNURtYTqA0X/NZZt1kIJqGWyn/EzmFaTj/d+DzP5H1tu4xjkmje8qRkyeZaTwIYjjSPeVsG1tWilq3cgKf+Ur5l1mXGYim4ZLVXWQEa1vR/0ROZRqW/P4ncpxp3FP7V0F/58mRiNnEbJPENPS+dPeUV1cWReWZnEBpvuazzLrJQDSNGPn5T2QJ1M/hdWOA2TSNdP8TOc40dKCP/ecy+YtSP6Yh+475lzb916A0DWqDyAl8yV6pxJI6WgHRNEz5+k/kSbxeWYznjl3GnMon/1N9dIsK6k5LI83/RI4zDT2QvhlH3xjDwr1F3DxzBFtL/JnGjeNbVDlUq0a1NBZmruLUTutvNGkaVF7KCZRer/kop14yFE3DkO//RB53/tfYmtZ64pAyAqN7Kp3/RI4zDSWZsrvTnjb73IHX8EaDOrYzWJ7ENPR/NR/YqsdC9P9OnzmJ2sKnceq6nU5R61FOwPN6pfzLqc8MRdOgKGpjyAmMyV7zWVIHKyCaBkVR60NO4PN6pVLLqccMRdOgKGpjygmU5ms+y6ybDETToChqfcgJfOYr5V9mXWYgmgZFURtTTqA0X/NZZt1kIJoGRVHrQ07gS/ZKJZbU0QqIpkFR1MaUEyi9XvNRTr1kKJoGRVFrW07A83ql/MupzwxF06AoamPICYzJXvNZUgcrIJoGRVHrQ07g83qlUsupxwxF06AoamPKCZTmaz7LrJsMRNOgKGp9yAl85ivlX2ZdZiCaBkVRG1NOoDRf81lm3WQgmgZFUetDTuBL9kolltTRCkibBgghhBAf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf5MQ0Oq48xB/+l1l85uu3femPa+fwk+GH9taEEELWCjkxDTEBL3NIJjEZQggha4ucmIZjBH5JNz8hhJDckFPTSFeEEELWFjSNVWUG3duLceyKvZgXDOFYYRW6Z+xFQsi6gt1TbkJj6K6pwOaSYhQUBrC5Yi86h0J24kqTzDSstOrOjRZdaRqErGdyYhrpsnqmMYPeqgDKD53HdCgMLIcRHGlDdUkZjg+p5RWHpkEIWV/kxDS+03sf3zl7315KzaqZxmwXqgu3oXvKXrYZbSpFwZEBewmYfrsO1aUBqyVS1YLheTthRravQ99QSyS9skYZ0LKdrpg+W4vKgGrFlJSiuqkDx5/1MA29H2np2NrehaCdNH3OPHYd+l1ltbAMp7J90l5WjLehonAXeu0dJdvPcIPLrHR5nEBvBf32zmZ9HvGmZqf3ROtg8+4OTEQaa1Z658Ue1D8TrcNRszE3P4TOvRXYJOceqMDBthFELNtHHYevteGg3ncxNj1Ti16jGgghmZF10/jVhx9HTMCvcayaaSyPoLVUBcKWMYSMIGQSHqhDWVkjBiX4Lgcx2lIVDep2sNctFRXlwsELOKb2d/CsHRFHmlFeogLmiMqtWjHT52pRrvL7bWmE365FUdlL6B23WkETHVUoKqlFv0fvWbDTKJezvKsHkjXVflKbRjGKxCwnQ5AGWSxWuq6DJbUYHEGnar0VHbpgB35n+zaMSuGWxtCpzrOseUSnYnkSnRXKCJqHrM8gOIBjZcoAW+3In6qOpzpUy1CV1T43Memy0kYMS1kIIRmTk5bGj95dSss4Vs00FOHrXTj8lLpLlTvcujb0jzlhV7ACef3bRqRcuoB6FVB75WclOqCp4GsEKAnARY1D9vsAyprs4KhR+/NqaWjcpmEt7+sxyxNE7y6vu31FsAf7IoHeymdtm3o/qU2jHJ3jOsUDSXe11q41oyxSL/Hba0Orsg3uSiOKSpsxapq2bF+iAr+s81HHFY7BaJQJlQdw3EomhGRIVkzDCfqJlMo4nHyrhtyhjvSgs6ZKD4hv2uZ0n1h3yZFuo4jsgKoDmgpuktVGAlpBg0QsK1hH7og11jp/puEdrEebS+39uzGMYv48Dka6plLvJ7VpOO+98EhfVq2FJNubrSL9vsZpldjo8tvb+Kjj+M8nUR0TQtJlVUyj7owZOONx8q0JpLtEBSKr+0QCXilazcaCySqYxnCjahV5mgYQ6tmFgt3nEXy7NtI15Wc/K24admss0fYpTUOPNdnbpF3HhJCVJCfdU/LsKb+GIayWaUhff4G7a0Qx3bHN7j6R/nbXALPg5E8a0OR9DrunBLuFcXB3wNgu9X6kzDs6jH1mahp6EN7snkpsGv66pxLVcRiDh8zxExvX50kIeXKyPxA+9UlahiGslmlgaQjHywKobBwwptx24bBaV91lRbnQ2b0oksHs69a5hGRK7jMqyEmUSmEa7oHwiZ6XkgyEA4NHVAuncQjhsBUCrQFsFXynrLJNdO1VwVQtJ6zWEPp2q+O7gnSq/eggXtGMYYniS5PoP1Rm7MOPaUQHqhGeRHeVMktVB9ZZpDANeyC8WjXnrIHwIbQ+4x4IT1HHhWWoP2cdIDx1HvVP7UWf6ZGEkCcmJy2NurMh34YhrJppCPNj6K3bhXKZFquC36YvbUN951jMnet0Ty0q9XRPa0pnt20gKQOawteUW5uwMqQdOm90n9Fj21NlU0wn1V1Uxiwqh6T7WZ5B34FyFKnzKyqtQH1zHXakZRrbcLyjOTIltuJAV9yU24SmIcwPof3FMmPKrT2TSvBRx6GhFuz7kvX5FJVWoXWAjkHISpET00iXVTWNDYZ0iSXsvsoKqUyFELKeyYlppGsCNI0VYCmE0Jj8ZiH6g77cQNMgZCOTU9NIV+TJ0bOhSspx+GyuozdNg5CNDE2DEEKIb9g9RQghxDc5MY0/3Of//8Ed/btvz9lbE0IIWSvkxDTk2VNiAl7m4CUxmVNqG0IIIWuLnJgGIYSQjQFNgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4JmumcWb4Ef6PI3P4zNdv+9b/WjuHn6jt1h9DOFZYhe4Ze9HNlUYUbO9C0F58UoKdVb73o/M2DNlLaTLThepk50MIyVuyZhr/y8FZT2NIpf/hG7fx6+lP7L2sIpMdqCwsRes1ezkpNA1CSH6QNdNwTCAdtrfN622+eHgO4WV75Sox2lyKstJSFB26gLC9LjE0DUJIfrCmTGPx4af4/LesFsrB04v22lVgeQStpRXovNKDfYW16F+y10cIYbSlCptLilEQqEB9ZwsOm0E2NIL2KmU4hcXY9EwtulteShLsQ5jorEVlaQAFhQFsrqhF35Sd5MJtGuHrXaivsI5TpMpbfzYa5XXeIx3oq6nAJpWuy2mkC9Nv16HaOW5VC4bn7QSaBiEkAWvKNISfT3yM39plbSvvV4PwO7Uo0sE5jMFDAezriQ33obN7UVSmzGRKtUHCQYy2VqnA7QTZIPp2B1B+6DymdfIIOqtUYE5gGqFzL6l9NWLQTpzuUPuq6MC0tRhDjGnMn8fhkjIcu2hvONmB6hJldJPWos5bWIb6czOq1RZG8GIjyguj6eGBOpQ5x11W56BMMLJvmgYhJAFrzjSEwz0hva20OqT1kVtcRnGtGWUxQXwG3duLY41keSDaPaUD7i70GslQATphS2MphJDZkrEDdu+svWwQYxrKCELzZseZVa7qLusoVktjQL+3CKO/phhlzSPqvZW3/m1j+6ULqHeOS9MghCRgTZrGJ4+Bkvq7evsX/snpM8kRwR7sK6nFoBPIna4q+w7dGr8oRavE3gjGmIaMX5Q2Y9RKsEg2prEcwmike6rYlnfAjjENRcjonnK2re60NtR5XWMa0x3b7HVS3ug2UZnGR9MghMSz5k3ja225NQ2rWyc+oJY1OS6xsqahj6e7iey7/iQBO8Y0dD6re8qaNGC3NHybhvscDGgahJAErOnuqc8dyHX31CQ6KwI4dsVedBhvQ4UYgRGcV6p7arghGug1Ux3Y4cc04oxIletZl2kk7J6S8yxGZXuk+WThzFijaRBCErCmB8L7f5PjgfCRZpSVNGI4brqvCrLlAdS/Y7UG3APhw83bkgyED6H12cQD4RMtZSqtBaOqpaEHzXdJN5UP07jegnKVr31EtTSWghht36VnScWYRpKBcH0OJVXovB6ylkfaUP2MMkY5RZoGISQBa8o0VnvK7WhT4t9lTLSWo2D/eTttBafcLs9EpsUWlVah9VyH2lc5OsftdIMY01BMn61FZUCVoaQU1U3n0bm/GBWtlitYLY3YKbfH3o4twXRPdCxFl9M2EJoGISQRa8o01tKP+wghhMSTNdNwWgzpas08RoQQQkgcWTMNeWDhF9N8YOEf186h59p6fGAhIYTkB1kzDUIIIRsPmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGiSG8Mcf4978ImZuz2Hyg2n8ZvwDjP5mgsojyWcun71cA3ItyDVBiANNg2gWFkO4NTWD8YlbuDN7Vy3fx6NHYSw/fmznIPmCfOby2cs1INeCXBNybcg1QghNI88J3X+g7yqnpu/gvnpPiBdybcg1IteKXDMkf6Fp5DFyFznxwYc0C+IbuVbkmpFrh+QnNI085JNPlnV3A7/45EmRa0euIbmWSH5B08gz5EsuXQzBj+btNYQ8GXINybVE48gvaBp5htwd0jDISiHXklxTJH+gaeQR0qXALimy0vC6yi9oGnmCzHiRAUxCsoFcW5xVlR/QNPIE6XvmLCmSLeTakmuMbHxoGnmA/ChL5tgTkk3kGuMPADc+NI08QAYqs9nKaO1fws5TC7j1EX89ns/INcZB8Y0PTWODI88NksdAZINPPwV2dSzgM1+/rfU/HZjFzbvpTr8MYaKzFpWlARQUFmPTl3ahdSBop5HMmUH39mIUNAxZiyPNKC8M4ODZ7NSxXGt8VtXGhqaxwZEHzmVjZosYxo6T8xHDcPTsD+/ZOfwROrsXRSqIVR7pQv/F8+g8UK6Wy3B8KGznWOsM4Zgyu+rOtXqH7TaNFlSUBHD4nG0aVxqVWVehe4WKL9eaXHNk40LT2ODIk0rlwXMriWkYv/c3d2JM4+/60usGG25QAe3ZDkSHUIMYPTeE6fXiGevNNNyssGnItSbXHNm40DQ2ODKjRZ5YulKIYXztVcswOgcf4mdjYfz2Lssw9ry2YOfyz3R7hQpaZag/N4NwXM+WV8BzBenlEIbb9qIyoPKpFsvmilq0Htmm3jdi2MqhKuE8jlWVqhaMyhMow76WZhyOCfTJu8jC17tQX2Fs3zSAoJRVB1w5riPv4BscaMa+L1n7jtleoU1zewt6W6qwuUT2oVpdNV2YSDSeHBpDd01FJG/5i80YnLXThHkrfZM+VgXqO4fQW6PeO3U404VqlXbsin3sSNmVtncpy84MudY4i2pjQ9PY4Mh/I6zU482X1W4cw2i/vKTXdQ091KbxJIahWQ6i/4h0SamgJQG1rgejkR+spzaN0eYyHTx31FndW93KMPS+HNMInsdBFWCLntqL9p4BDPa0YF+ZFSSdfUx3VqGopBzHesYQnJ/BaOdLKI90kY2gtbQYZTU9mJgJYfpKC6pLt6F9SEX14BgGL7Zhn9pXhSr34EXVQrKqJcr8AI49VY7D7SptXm1/sRGVqjzlzSM62QncRc/WofvcgDKPXerYxahsn9TpMSyr+qgKqHOpQ+/YDEIzI+jer86/TJ2rHHdZlVXOLbANxzrPY/BcF449q/KLwXiYRmhM1UfrLnV8de7d6v2QMm4r1xMj15pcc2TjQtPY4Mif6qwEnyjD+Mo/3IszjCdtYcQhAbizTgVkdUeuAvjxK3KrncI0li6gXgXEylYzwIYweKQ0Yhq6JVNSi37zzn2qQwdOvY9ltT+1j4qWMTtRCKNf7s5rLqh3k+isUEG9qgXDkyGP1pDP7qlwCCFlGiEVlQePqH3bd/WWabxklC+Evt1qXZXHXb9q2RSpAN9+3V4WpA7U8evfDiP8Tq1Kr0DnuJ0miJEo0/MyDc0Kd08JK3XNkbUJTWODsxJfYDGML//AMowfXrQMo+PKChnGsgp25u2t3E2LUeigmcI03AHQJqhaDo5pWN0/7gAcv4+YbhpHznahMfQ27cWOp6SLyt19lMI01Pn07ra7trTsO3/TNFzl8y6zc17OfmIlxzfP20Tvj6ZBVgiaxgYn0+6pj9WddSLDePFHmbYwrLvgIn1HHyV6J26bhpke7NHdQTpI23fZyVoaE63lyVsadmtlX09siA6OjyFktyqCV85j1EkOj6C9XJW50TGy5KYR7JJAXqXu/u0zWFYtCWnFPIFpWC2JXeg1E5aDmBizVqyFlga7pzY+NI0NTiYD4WIYf/n3H2mDOP5Ta1ZU26WliGHIoHimSFCVu/eK3S3ovTig7ui36UFcxwhGm8UAZPC6B4PnOnD4KWtA2QnS7jENa8quCpIJxzSasUMPmkf3MdEu4yDGuEidlCGA6i6VHrJMpeipl9B5bgD9nXV6TKLMHpMQ0zgu6c82qvL3YNgM2AqZUmwN9E8iND+DiZ46VKj8T2IaWJ5E57Pq/M0xi23SnVeFXjkVZ0yjJHZMQ7dGEpnGkHR5qdZTo6rfniFjFtuTwYHwjQ9NY4OTyZTb/7fd+uFetgzDIXgxOruoqFRm/ETv8p3ZQtZsIMs82lXrI3Jn75o9JV1H/S2ubhpj9lRRaRVaB3pcrYOQDuZ6PMXOc0wF+Qjm7KuSUlTXnce0MbYRekcZiX381mv2SgfVEhhsis6MKn+xBa371fsnMQ1BusrqovvbXFWHfrOhZc6eUmWtrJHJAep9ItNQRxmsc+q3Oa5rK1045XbjQ9PY4GTy474vNQXxZ9+1QlfLhQdZMYyMCc9g9HpseB1tUq2T8jY4PeuhsRFMm91TdheXDB6TlYU/7tv40DQ2OJk8RkRM4w/23UHpfw1qw3j+n+bXlmEgjOFGu3uqSaa8urqWBLmzlu4ju3tJptwelC4uZ5oqWVH4GJGND00jD3jSBxbu71rUxiHa98+LeLymDMPG6Z4yu5Z6xmIG1nX30otlVheMMpTKvS2xP4gjKwIfWJgf0DTyAD4aneQCPho9P6Bp5AkyoyWbj0cn+Y1cW5w1lR/QNPIE/t0rySb8u9f8gaaRR8jMlmw8Jp3kN7yu8guaRp4hA5XBjyJPBCQkI+Ra4uB3fkHTyDM++WRZ9z3TOEimyDUk15JcUyR/oGnkIfIll7tDdimQJ0WuHbmGaBj5B00jj5EvvgxgclYV8YtcK3LN8IYjf6Fp5Dky40W6GGSOPc2DJEKuDblG5FrhLKn8hqZBNPKjLOlukMdAyF2kPHhOnli6Uv/6R9YP8pnLZy/XgFwLck3ItcEf7hGBpkFikOcGyQPn5Emlclcp/40gf6pD5Y/kM5fPXq4BuRb4LCliQtMghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ32jT8PrLR4qiKIpyiy0NQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvlkI3cf/D1THV8jgmUPzAAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>Australia</x:t>
@@ -121,7 +121,7 @@
     <x:t xml:space="preserve">       2a Conway St, Fitzroy Square, London W1T 6BA, United Kingdom      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADn6SURBVHhe7Z2Lc1vXfef3z8ik7W637bSd6Uz20bT1zjJZLpmywrQjTD3CVmNsNEaqtRg58NYKGdvSKrLMUBEdlnS4ZMJVEiZ0aHNNGy5XHDEWLUayVTF0GSKuWLYymchkLJN6IaYEvSBR/u75nXsvcHDxuiQICCS/n5nfABfn3nMfAH+fex4A/xUIIYQQD/xN415QGoQQQjxBaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxTNmkcece8HfR23ji5SV8rvUqfvuZS/j9fZf0c3lt8Ge3cXfZXpkQQkhFUhZpjP5LAn/0tcv45Jcv5o2Hmq/g1LmEvRUhhJBKo+TSaBu5kZTCp5+7jOeOXsfYz+9i6dbHOs78PKFfkzJnvRfevGFvTQghpJIoqTTaVfIXCfzOM5dw7OwdfPyxXZAFKZN1ZF3Z5psnKI61IBYJo2r3IGL2MiGEFEPJpPHWewmd/H/zKxfxTx/es19N4bQq3EypdWUbKZM6HgR33juKZ1v/HJ969iF84rk/x+4Xj2MmbhdWGsuLmOxqQNBXi6rqWmx5uAG94ylFVLI0Yme6sW+7HzXVYQwt2i8q9DGrc0mFD1tDzRg657wJixjarV6va8bkLfulNOYRCcl2HZiyXyGErA0lkYYMev+h3d3UO5b1rzqnNIQX1TZSJnXcvmu/WC6mv4+/eHY7nhl+D5c+iuPa4nuIHNmOT7W9ivn79joVwyJGwj7UhPsws6gEu5xAbLoPjXUBdE5YCbYypZHAVFcQW3d1Y2x2EXHXvUHGMSfiWDjRjGB1CJHz8oItDSWUfcNZzmx+APVaNpQGIWtNSaTx6k9v66T/6abLuJ+jSyqfNGQbZ+D8NVVX+YjjWOdDCA6+by/b3H8P3z70EJ75sX2n++FRfOHZDkR+/A0En1OtkWc/h+CLZ3DNkMqdqVfxTOvnVNlD+OPWb+BYssopvPDsHrz0znHVmpHyz+IzHS9hahUtmcTbzahRd9tjrm3neoPJpJuRgJfnMdYaxtY6uVP3o7H1NBbMWWsXRtEWkrv/WtT4Q2gbnrcLLBZOtqLR77Pu/sM9mFqyCxSJsz3Y97CUWS2e/miOk5KkHujGTI7ZctlFl8BYUy0C3dPquSWNfQ0NqAoNYMFaIclMlx8BVfZEiaRx69YtHYXwuh4h64mSSGPXi0s64ecbl8gnDUG2lfJ6VVfZ+Ogknnl2B176hb1sMDXwMD7xgwlrQUvjs9g9+B6uKafd+eAMvn5Yyeboh1b5B6r8uT2I/ELdQt9P4NJb38DnDnVgQvtPpPEQPtXxKqYkK8bfx0svPITPDbwnhStiptuPqqbTKp26iM1i8sysUqA7AcdV4vUhuH8Yc7JRYh5D0lJJ1jGL/oAPjQPzSKiEnjg/oFotfvSe1YVIjLciEOjApFS2HMNMj1H30igOSwvnjL2nMx2qZdCAEWsxjYWBXQi29KA37MgpjP6zKcF4lUbnydNoqwvarQ+bW/KaapG8PYjGEknj29/+Ntrb2/MKQcpkHQlCNhIlkUbV16/ohH/2g8yxDIdC0pi6cE+XS11lQ8tAJXs795tcGt6DT7xwFJdkwW5pTBgti2snnsYnnn8Vcl8+8eJnsS2ttaLE8Pxn8cI/ynORRrqYdN0dx626V8BUu2ottEftpeykJeBFSaSuRB4bxr7kmEIUndVB9J/TJYoEFqLj6r0QpViJuu2koShJ0Grbkcvqua77gNHqiWHuzDjmskhDH3ddGJFpVbis9nG8GYG6vThlr5tNGvHpHlW/H50TqWM5eFyJS1oVXSISi/iwan00DCOuj6c00vjwww+xf//+nOJwhNHY2IiJCftGg5ANQkmk8VtPW0K4fjv3dKlC0pBtpVzqKhsrlYYusZHWhX7tKiKq5SDdUu54YVJWtLqnzH2k1Z1GApMtPmxpGc9sTShWLI2JDlQF+zCnSxym0etXd+36ZBKY6d2FLdJt1dSDIWmtJLuQRCgyTuAORziLOPVsEDW+EA629mFkelG3VjKJYSRci1Cv2e01j0hQJGAZRx+zaz/pXWWWNBojasfS1ZUcELe7rWSco4TSEHKJg8IgG52SSEO+7e1VGtL9dONO5nqONGQKbtlYUfeUSxq/eBXbDGkkxz8yWDtp5OyeUnfv8SXr1cLSiOJInSMNm9gspob70CbdR4EDOJVshfjRm7qpz0riwjTGIt04uMOHmp09mMm4Ebe6mXTCNxABOq9la2mkY0hDJNRgi8IUSLQDNSUeCHeLg8Igm4GSSOM/HbK6p6SLKReD0dv43b2WXGTQ+2e/TJ8mJVNvpays3VM5B8Lfx0utmQPhZlq4c+YbdvdUAqd7PotP9Uzgjl2mSXZlrUQa+XEGwt3TTnMOhBfqnjLGQiyshGwlZ2saa31/+sA47NZE4kIUk1HVurAW1etmCyadTNkpCex0tTQ8S0Pt+2QzqkJ9GDK7qkSQJZaGYIqDwiCbgZJI44s/tAbCOwp8QW9h6T62dsT0ur/ecBHP/yiOZTu5yrby+hf7yjgQLuSYcvuJw9/HlJP4tTTsgXDJfLEJvHD4IXxh+KpVbtfx9dPWsh4of/6rOKb9t3bSkO9oyEB2cP8gZmLqQApOubUHwg+NYkGOOzGPkadUa8JJ4LFRHFTbtp2wkjFip9Hp9+HwCauu+PG9SlJhROzvS8RlXzu6MSMbT3cjaJTpQfTqgDE+YiDycvaTHNNIyW+l0rAGv6UbK4SI47QySUNwxEFhkM1ASaRhTrm9ZwwWZ0Om13b9+Ab+deNFbGm/qr/jIdvItlJHeafcWhT8cp+WRjN6hlNTbr/w8kTalNtr//gS9hz6nB7L+NTX9uDbE7ZQ1lIagp5C63y5T74Etxf9+b7cp9YfaQoZU26VQIyxh8S5weSU2yoZn+ibNloESvTDzajXU25rsWWH+YU7ta/x7uSUW5kR1XnSTupZ0PvZkaOelUpDIQPiegDcXi6nNAQRB4VBNgMlkYYkfue3pHJ9uc+NdEfFblhjG7KNbCtf7pO6Ko5sYxqEELIJKIk0BPm1Wkn88pMg+abeupF1H/TPiBSE0iCEbFJKJg1Bfq1Wkr/MgPrRVOEfLJR11sUPFlIahJBNSkmlIbh/Gv3g0ev4yS/u6q4oiWw/jS7bEEIIqTxKLg3B6z9hknX4T5gIIaRyKYs0BBnQlu9mOP/u9ff2Zf6714oc9CaEEJKkbNIghBCy/qE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeOZa/AalQQghxBuUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPlE0ad+4Bgz+7jSdeXsLnWq/it5+5hN/bdwm16rm8JmWyDiGEkMqlLNL48b8k8Edfu4xPfvli3pB1ZF1CCCGVScml8cKbN7IKwh3S4nCeyzaEEEIqj5JKw6sw/vhrV7B8H/jO2zfxm1+xXlsf4oiiszqMoUV7sUKIRcKoao/aS+uExUE0Vndgyl4khFQmJZPGW+8lMuSQLaqfv4rj03fsrYDj/3QHv9ZglUkdlQ2lsWZQGoSsC0oijdt3gT98LvcYhkghH10nrRaK1CF1VS6UxppBaRCyLiiJNF776e0MUZhRSBrSVfVpWzpSV/mwJNAf6Ua9rxaNEcsGibN9OLjDh6rqWmzZ0YyRef2ywl5/uAeNfin3YWu4BzNxu1hYXsRYaxhb62pRVedHY08U8WW7DHHMRZr1vqxtuzF52S5SxMa77Xqt/Q6dMyq+PI7eJwPYosqqfAHs65mG0y7T0mgZxVSPvV9fCG3H0822cKLVOOZWjF2wCwR1zKeaQsljrm8axoJxzDM9DQjaxxx8sgdTS3aRInFuEG0hP2rUcdX43fvNc74uaSQmOhCsU0JOXut08l6bpSgie0P2tQnhYF/q2lj7acXQ8dRx1DeNYmFpGv1h57jVe3rWfBMJIQ4lkUb9i0sZojDjT//2qr1mbnr+/qZeV+oqHyIBlTRU4p+ajyMumebCABoleZ1XC8sJLKhkE/Cr5HbLXL8PMzG1eGsWQ2Efag6dtpNUHJMtfgTbxy1RxFRi2p2SUWwwjJpAByZl22WVjHvVcmgAC2oxEbWTpuxX1j3RrJabMan3O4v+gA+NA/NISL1L4+hUy21v2+uKNKoDaDuxqMoTiL3dikD1XpyyL2XiZLPa7wGM2Oc0N6D2q+oes/PkXE9AndMA5qS6xLw+p0DXtC6LnzhgHHMMk+0BVDUMqzNVLI3icF0AnWekUDEv1y6EiJ34851vmjQuqOdSz0T2xJ332izPIxJSIui25RyTa1OL+l77IPR+1LXrnUZMbZ64MIyDdT5s8TcgMq0OzLke/m7MWFsQQgxKIo2qr1/RCX+XIY9CrQs3//D+Xb2d1FU+RAJBRM7bi4qpdh9CTsLRqKQU9OGI7v2R9XdhyLxLP9+HkJOgdYJSyVgnegtJ2FXhQcR0PbVoO2klPs3yLE51DKg79wTGmmpd+41hqq8Dp+TYVGKLL8UtYdhMtSt5dVhdUloaTY64BDlO55gXMaTEtW/YTuyaGEYaUjKTukI9s/q5kLgQxWRUCUg913XvH03VHZvF5JlZSxr6uIzzsffVOCj7yne+6rkjjbg6VhGifSyZFLg2qoWiE75xbXC2G4E6Vbe8Zrc0Jo3yyRbV4mgZt5cUep3K63YkpBIoiTR+62lLFDIese/166uSxtX4fb2d1FU+JLmaycJKetIF4o7OCSl3r69YVne2zmsqgWXbtmq3SCOLcJJY++008lgGi0b3lBP2OEbmmIbsyzzmdDEKM93+5DaJ6T484ZPuo2b0R8YxZ/plUbUmtqs78x170dk3jJkLpiRUS8TonnKOyxJAvvNV6ER9AG1NPlSF+jBnJv008l+bTGEqVAvooPOeOHKySjQiybTrRWkQkpOSSON3nrmkE/6NOx/r5eeOWuLIFf/1G5ndVXG1rZRJXeXDLQErQR08nqt/272+wi2NnN0c+ZJoAWncUtv6pXtqNtnaMBPfaqQx1aGStbnNcgxz0WFEmmRcJIDDJ4yTVC2KhelRDHXtRb2SS70znqKTrdU9ZR2XdR7epSFdUvM49VS+lsYqpHHZkAClQUhRlLR7auZi6nYxnziytUL+ZfGeLit/95SZLBKYPGSOUdgkTytLIjS7p+YHUF+d6tPXJLfN1l0Tw8yZKBZuZeuCiWMhat/1Z0l8uovFkzSspJu7e0rJ4kx66yI+3GC3jpQs1DFMma0L6fpxjkUkqddzUPva6dSb73zVc/Oc5LlPvQ9ZBVPg2njqnqI0CFktJZHGF/ussYxeszNfkUsc2aTxvdPWQLjUVT7c0lBMdyNoDyoLiQujaNuupKAzo5WMcw+Ex/Rdsy6X05Ak2RtGfbd1Z77qgXA94OxH2/F5JJRgZCZUSGY6eZKGqlsPhDdjTJK/DPwO7lVJ1RkIt445eGgUMUmy6pjHWvyo2T+qxy1mumWQ3DkftW2/2legB3Oy6bkeda3C6J9WermlzrW/QXefOa0GzwPhioUBVe9uVWYfw9SJcSzYDT4vA+Ey0G0NhEfRu8M9EE5pELJaSiINZ8qte5aUTKU1ZeGEWxr3P061Vh7ElFt3sohHe7DvYWt6p0zH7B3XxlBY66dNuX1qAHNmb5ZKYiPO9FU9vXPQKE+fglq/ty9t+mpqWqk9Lda4uU6cTe1T6hzpCCa7ZQpJQ1gYVvvNUTfiSn7mMavjSk4jVgl8sis15dY9XVdml+nzkenFXaOI7DdbBXnO153MdfK3k72WpA+9Z+0yRb5rI1Nu+5PTkWXKrTHNmdIgpChKIg35tVrnexYvulobnzqQ+0t/f9Z+Fe/+8l5yuq18uY+/fEsIIZVDSaQhOD8j8uuqFSE/DeLwo6k7+MxhqxWRLT7ddBn/9inreeX/jAghhGwuSiYN4ZsnrJ8D+Y3Gi+hQz+/aXQS5uqnMkG0JIYRUFiWVhtBu/NLtZ1qu4NjZO3C+g5Er/naEwiCEkEqk5NIQTp3z/k+YZF1CCCGVSVmkIbj/3av8q1cJec5/90oIIeuDskmDEELI+ofSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4pmTS+LP2q/jkly+mxWdaruDGnY/tNQghhKw3SiaN3917KUMaEqfOJew1CCGErDdKJo3/8vyVrNLoOHHDXoMQQsh6o2TS+OsffJRVGv+j9yN7jfVPbDCMmuowhhbtF9JIYKojgKrqDkzZr2SwHMNkVwOCvlq1ng9bQ80YmbfLhPgshppC2FKtyuv8qG8axcKyXWayOIhGWSdL1HRE7ZUMZP26WjRGjAO/PI7esF+dj9pO7aux9XTmvpYX9fGG/D5U7R5EzH45L9n2tRRF/5MB47wGMRe3y4T4dKrcF0LbsHlRFBdG0RayjrXGH0Z/1NyYEFJKSiaN7759M6s0Pv/dDSKN2CgOqmRYlUsa090IStLLKQ1LKjXhPsxI9l2OY6ZXScjfjRmdrBOYPORDQIkiJsuJeQyFfQj2zEphYZan0esPIeLKt+rAceoplfTVsSUTuawb8KFxYB6JXPu6FUXvdj+e6BrF3GLcWq8gWfalXhtpqEWwfRxxY1+BrmmrGIsYkX3b5YnzA0o6fnRO2N2a6jiOGMcaP9OhrnMucRNC1pqSSWPu6nKGMP6k+Qou/Oq+vUZlM9XuujtOI46xJpW4OjrUHX6WhLU8j0gogCMdzXmkoZJfnQ9HzIbArdNoc+rTz4OInLeKNOOtqAr2Yc5ezEf8+F7UNAyrI00ncbIZW8Id6NxtnN+sSszBbkwZIohFwmmtiYX+EILdTmL3RtZ9qfPuVBLpnLAXFYkTB1L7ujCAJ6qbMXZLF2nmeoOoemrUOpeMa5BQ70UtAis8NkLI6iiZNIQtxgyq//z1K7gSXx/CEPJJIzHRgUBIJa4L0i2UKQ1JuDVNp/V6ebun3OhuJjth6uetmDTv6HVC9VKfSMuHtrddkw7UXXqntD7OL2IoLZG7iE0jou72GwedcrX+zgDaerrRKF1T0pUW7sFMvl6hnPuyWlDJloYSrG7VOEk/2zWT16QFpp66ZSbo1xypEEJKSkml8crEbS2MX2u4iMVr60cYQk5p6K6cAHolx+nE7pKGdFv59uKUZLUVScNqvSSTp67btW2217KQeLsZNaEBLNjLDjPdAbv+HNLQxytdarUIdURVenewWgfJrrTEIk41+VGTJ1Hn3Zdcw+3WfiS2PjWcksD5PoRcLQ3durDPW1ov7tbWwsAu72MshJCiKKk07n8MfOawNYvq68OVfx+o71jtROYOpztlrjeEQMu4lVAzpGF3Ww3YL3iWRlwl2V3YEh5MDT6vWhrWmMG+YVcKVcm43q9aLvpt8NbSSArssuzX1VWmk7uS45K9bJJ3X9Y4h3tMI7kv3UpKjXkkZNA7oN4DRxTSbVdnjGlM9+mB9ipp2entCSGlpKTSEH7yi7taGr/ReBFnP7hnv1qhJOKIL1kxdqgWT/TNJpf1wK8k7Tq7FSG4pKG7rQLOQLbCozQWpDsroNYzvarrXkX3lAzA1zVj0rxT14nbh4PHkweeXxqC3N3bXUJpYy1JpPWR2TVXcF9aQC7ZaAEZ53r5NDp3ON1g3RjrP5DW/ZQ4N4CDdjeZzLwa6QhyTIOQMlFyaQiNr17T4vjUgctYWFq/A+FTHdZMoGzRGDmHkXD2Mglz4NckPt6BoBLGpPuOfVUD4dZ4QX2/a8pUtMOaSpstpFvnbA9CwZ50GaXtS2Zi1aLtpHEvrwWWpaVRaF9ahq7up2xdUkms1ltGy8lBTzrwo/esvUwIKSllkcbtu6lB8aqvZ59BJa/t+O5HqH9xCd94I46/i97Ghx89OMHknz1l42ppZFCgpSEtk2Cd2v6C/UIarim3S7O6yyhDCCb6eBowkiO/pnDd/bu6fDK6pxT6OykBldhlE2dM45CXLiF3q8bqfmrsmba7pxZVqy6QdXwksTiLsY5d2LK9J9V6c1hOID4fRWR/AFv2cxCckHJRFmkIsRsf6ym3Io4/+OolTMwpk9j84soy/sPBy7rMjD987rK9RvmJz45j6kKBlFiUNKxkmvWOvN2eh+v6cl9j17glkBzMdK02kSvmR9HpfLnPF8C+jH3FMRdpRr39RcSML+TlJMu+Cn25zxl494dwsCfLOevrXostDzegc3jWkg8hpCyUTRqCiMP5IUOZUbV/8Dp+9su7+IP92X+n6je/ctHekhBCSCVQVmkI0lW17/XrWSXhDkqDEEIqi7JLw+Efzt/Fn/5t5s+nm0FpEEJIZfHApCF8/DHw2k9v4y++GaM0CCFkHfBApWEye2kZ33n7JkLf/wjVz1/Fbz11EX+uZEIIIaRyqBhpEEIIqXwoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR45oFI4/WJuwh886YOeU4IIWR9UHZpTH1wHzXNN9JCXiOEEFL5lF0aA+N3M6QhrxFCCKl82NIghBDiGY5pEEII8cwDkQYhwCKGdteic8JerFjiWIhGsRC3F4umyPO+PIvJczF7Ya1ZL+8JeZBQGlmIR/twMORHTXUtqur8qN/bh6kluzA2jH3VfvSetZcNEm83q20OYMxJMEuzGGoKYWudqqfah62hZgydy8w+8XODaNsVwBa1v5X8wcYiYVWv1G2HPtYeTF62VxAWB9ForqOjA1N2sYmub/cgSpWS0ilPgppqr0VjZNFecrD2nfl6NqbR6/Ph8An7fdPXM4whL5tmJd95R9Gp3p/0srg6hwBqwgNYWFbv0VADagI9mLNL1xZKgxSG0nCRmOhAsG4XjpyZRzyhXrg1j7FDAVQFujGj/mjVGhhrqkVNe1QWDBKYPORDzaHT6pniVhRHArUIHhpVd6nqlYS6Yz3RrOpWCeeC3kAjSWDr9gOITKj93bJf9Ig7ySfi7mNVnO9DyN+ByaU44snQR5gBpeGBMktjQb0nNQEl+TVr6eSD0iCFoTTSmEckVIv6/nl72WZZ3W36a9F20kq2ukVRp/6QncQs3DqNtjpf8g9uoT+EqlAf5sx13MKRbXx7capQllYiy5bMsyb5pVEcrA4ict5ezrFtNgpKYymKyN6QbhFV+UI42DdtCVLQybQVp6I9aPT7VGvGh/omJUzj/BeON6Pep7ZVLaLGrgEc2elKkCdak9tuDbdizJCrTv794xhRLTfZf40/jP6zhTOpF2nkrzuVyPX1kXO3I1nv8iLGWsNWi1LOrSeK+ArOO0W6NPQNjK8BI+ZNRtp7JOuHETkzjLYdznXrwYx5WS6MGmXdGOpOf48LHZtudevta7Flx15EjGuuj6VlAKfs6yafibbji4ifTX0GMo6HrHvWXBo/U1myf+yufszFjTsfYyh6V4c8z4XMqpLpuGWbXeVOuLlYVn+shiCExMlmVPmdO/w4Tj1Vi1CvSz6KxIUoJqOLVrIdb0XVkx2IuP7oMliJNERE0n02bS3qdXbsMv6Iu9O7rwyy1uewLEJVIui2E2JsHJ2qJVXvnKPdDaZbVtKwip1GpxLtweN2xpju1q2syLSqfTlhtbrMBKmuX03gAEbOq41V+dyAusOua0529UlirzK2n+tXxyrX2yrOiVdp5K7bdfef0dKIY7LFj2D7uH1dptFvtmIKnHc6qX1ZLd70VqmQKQ0luXAfZuSFW7OIqH0Huu03X2525D3qiiKWSCAxrwSilpPbFzo21UqtV63u3glrb/Ez6piqQ8m/D30s9vYJ2X5or3rP1GesIXU8Q2Ff6njIhmBNpfGq6zsYsuxGJBHsuplc579/61ZWccisqlqjrrLMslpB18NMlz/VFWW3IFJ/HN66P/QfXXUAbSeURFTCiU+rOzS17CT8JF6lIXe8ru6p2JlutLUOYmYxjvjiNCLqj7gqNIAFqziNvNJQx1CTlKLN2W4EnBaXvnYqyRtdbJKMazqsVtVUu0oeXeaJqWuUvKu1rte+YXPPMYw0pCf2NAnb79VIDgE6eJVG7roLSCPLeesbiLB1HfOftxt7XwOqTtVqCX5n1n49RaY00m9ydLm9b/2euVrE5vaFji2z3P7c2y1lXVfLuH6uWVY3EnL8xkt5P1NkXbKm0tj2zZQMJGTZjbQuzHUk5DU3Mh3XXEeWS07WhKDuzOxISz7qLi2g7oQnJVnoFoq6A0vmnfSklIupDpXAmxzxCIZ8XPtOC/OP1lVWs7MjZ0tCowfys7em8v2B67K0Y1Xo87avlz7e9AF2fQevj9W6HslWh8Z6zUpQmclPmOn2J881I/m736sceJVG7roLSEOE7noPdOjrWOi83Vj7qpIxDNUqOOhT+ynY0ki/BmZ5tvcz9VqhY7OeO12yDvHje9Prd7paNa5rpch2DGR9s6bS+G8d6Ylelt1UtDRcXTsprD+g9OQzj0jQh7a3E9YfUtrde+7uKRkQj+sRdmCuN+j6ozP+EFVzPzlwfULdue5UTX5n2b6rdf9BznQHUPPUqNp7PjL/sB3y/YHrMrc0LhsJtATS0FJdD9LI2U1W6Lzd2Puy79StLjt1TY3N098jWb+80ogNuuqnNDYdayqN//fTe2mJXpbdSFeUdEk56+TrnjLrKs+XAK0uEXeT3PkDcicfGeyuOTSIISWI9K4VqyyzGyh9IFzLJtiXNn1yssXs5rLx2j0Vl8F4v/qjdf7QpY87iH5zerAW48pbGt66p3JJQ54X3z2VO7HnJrM1p3BNbChKGvMDqE9rZSqMa7Sq7qlkmTVeEmgZTx5/+nuUXxqIZr5nZvmadE9RGpuONR8I/+cP7yPyD3f1Yy5EEtK6kMgmDIeyD4QLF1RSqAvgcGQaMbmjVy2D2PQADvqNufoOOoFId0QDRtx/FXH1BxTwob5jHAt2PRlTbvW0XB8ae2f1IKo1puFKQIJXaSj0a8asLd36CA9gTrLOcgyT7YHVjWnYA+GNqhlmDfhG0bvDPRCeWxruQde54QNZBsKbMXZBHaiUD+7V3X/mQHjOxC6zujoGUt+lMZH96nGj1BTqyY5d1h283WJbkTR0v70fR6IJJHQmj6lWpc8ajJb9q2s80xtGvRK/Li5w3ulkJl3nc+QcX/p7JOvnkYYeCLfeMy8D4RnHpgfC7XJFfKLbEqR9w6H3RWlsOtZcGhuCxXH0Pml92U7PONregM7h2fS7VY11N5xxJ+tgT1F1vtwXfLIVI+4v911W+wpbXySUqZ6941n+vGKzqRlXBln/IO0ZM8kkKKLosqeD6mPoyZ5cFbo+fc7pkaxLnU+/c130lFtjamkhaSgKTrkdVuXmlFtDnnkTu/0816C4/vJkri9rKlYkDfUuzPTusqbm2oP8IlSZrutc4/qmQcwZb/Nqp9w6JFSLQWYt9Z9zv+cFpCG4p9wqYZrlhafc9mDfw7K9PeU2mjoxvS9KY9NBaZD1j3ST5RxX2OQYXVNCtnE0QlYCpUHWOerO/zsNODLhasERdWlUq3N7qnspcX4AjWljXoSsHEqDkA1Mwuiaq/GH0DacZUYfISvggUhDZkLJFFqJ8syKIoQQshaUXRoyE8qcSitR1tlRhBBCVk3ZpcF/90oIIesXtjQIIYR4hmMahBBCPPNApEEIIWR9QmkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9oady+cwcMBoPBWMdx+3b+xzUKSoPBYDAqIQolfXksJqSONQhKg8FgMNZzOELI9miGs36RQWkwGAxGJYaZ/J3HYsKsu4igNBgMBmMjhCMG89EMc90igtJgMBiMSgwz+TuPxYRZdxFBaTAYDMZGCEcM5qMZ5rpFBKXBYDAYlRhm8nc/riaceosMSoPBYDA2QjhiyPW4RlEWabz0kzh+/39dxie/fNFT/PHXLuNo9HrWuhgMBmNDRqGkL4/FhNSxBlEWaYgEsskhX4hkstXFYDAYDCMcIWR7NMNZv8goizQcEWQryxYrXZ/BYDA2XJjJ33ksJsy6i4iySmOlka0uBoPBYGQJRwzmoxnmukUEpfFAYx6v19fihbFsZRs13sEL1Y/j9flsZQwGIxlm8nceiwmz7iKC3VPuuDqN1599FFvralFV7cPWR5/GK+/Esq9bdOSThlW255X5LGXrOSgNBqMk4YjBfDTDXLeIKIs0VhoPThrzOPa4D480vYH3r17H7ZvX8eG7vdhTtw3feqcUs7koDQaDkSPM5O9+XE049RYZZZFGy/ASWo4tZS3LFg9MGhdew57qx/D6+fTXpzq2ourQ6eTy+2+2YM9Wn9USefwIJi/b687L9i14850jyfLHnlUCupmq6/1jTXjMp1oxdVuxp+NlfOuvs0hD1yMtHTvqX8OHzvZvmPtuwVuuY7XCEs5jfbOp18714tHqPTi2aC3nq2ey1SUrfTxOoreS/g9f6dLnkSk1u/xo6hpsbXwZ711NL3/l1FE8//nUNZxKlqu4/A5eefpRbJFz9z2Kr/a+i2tOmYdrfG2yF1/Vdddiy+ebcGw2VcZgbNhwxJDrcY2i5NKIvn8jKQGv4nhg0rj5Lr63VSXCI9O4YiQhM66dbsG2be34iSTfm4uYOvJ4KqnbyV63VK6rdRd/jBdUfV89ZndvvduFR+pUwnx3Ubdi3n+jCY+o9b22NK692YSabftx7JzVCnrv5cdRU9eEt8yEa8eHrxjH5SzvOYor6nmhegpLoxY1IsvZGK6o80yup8Mq19fgI7W8+C5eUa23mqYf24nf2b4XU3INP5rGK+o8t3W+a21/cxavPKpE0PmO9R4snsYL25QAe2wBFrrG519WLUN1rPa5iaS3bW3HpByL3j+DUaFRKOnLYzEhdaxBlKWl8cOx6ysSxwOThoprZ19D81+pu1S5w23pxVvTKsEny61E/vybRlfVRz/G8yqhHrugnuuEppKvkaAkAde0v2M/92Fbh50cdaj6srU0nLI0aVjLTx81j2cRx/Zku9tXsXgUTycTvbWetW3hegpL4xG8cs7Z1h1S7mqtTXZhW/K6ZG6vhfa4LbixdtRs7cKUKW3Zvk4lfnnNwzV+1BGMDiWhR3z41jup9RmMDRWOELI9muGsX2SURBpO0s8VhcThrJetrCwhd6jvHsUrzz6uB8S3POZ0n1h3ycluo2TYCVUnNJXcjLokoVW1SkKzknXyjliH9Zo3aWRP1lOdW+36019PE8XlN/DVZNdU4XoKS8N5ni2ylN9UrYU825utIv38WadVYoc+fnsbD9c48/3JdY0ZjAoOM/k7j8WEWXcR8UCkcbjSpWGGdJeoRGR1n0jC24rvvZtlPYkHII3JdtUqyiqNO7hydA+qGt/Ah282JbumvNSz5tKwW2O5ti8oDT3WZG+z4mvMYGyScMRgPpphrltElKV7Sn57yqswJB6UNKSvv8rdNaLi/Zcfs7tPpL/dNcAs4ayfN6HJ8zJ2T0nYLYyvNvqM7QrXI8f8pZfXUBp6EN7snsotDW/dU7mu8XX8pMkcP7HD9X4yGOsizOTvPBYTZt1FROkHws/fXJEwJB6UNG5/9A6+tc2Hx9pPG1NuX0Ozem3Pa1YSvXLsadTIYPZZ6272ikzJ/bxKcjIgXEAa7oHw947uzzMQfgc/OaRaOO3v4Np1awzFGsBWyfe8PYD92tMqmarlLAPhVsTwZqPavytJF6pHJ/FHuzCpB6pn8VbTNqMOL9JIDVTfvj6L1x9XslTXIDUQnkca9kD4np537YHwd/C9z7sHwgtc4+pteP4N6/26dv4NPP9XT+NNe9YYg7FhwxGD+WiGuW4RUZaWxuHhJc/CkHhg0pC4PI1jLXvwiEyLVclvy18+hudfmU67c33/aBMe09M9rSmdr9sCKZjQVHiacmvHNSWkL+l1U3Wm9m1PlS0wnVR3URmzqJzIW8/Neby5/xHUqPOr2foonu9swZdWJI3H8K2Xu5JTYh/d/1rGlNuc0pC4/A5++D+3GVNu7ZlUUubhGl955wie/kvr/anZ+ji+d9psVTEY6yTM5O9+XE049RYZZZHGSuOBSmODhXSJ5ey+KkkUkgqDwShJOGLI9bhGURZprFQClMYaxEcxXJmW7yykvtBXnqA0GIxVRaGkL4/FhNSxBlFWaaw0stXF8BZ6NlTdI2g+Vs5WhgSlwWCUNRwhZHs0w1m/yKA0GAwGoxLDTP7OYzFh1l1EsHuKwWAwNkI4YjAfzTDXLSLKIo3f37fyf/f6R038d68MBmMTh5n8ncdiwqy7iCiLNOS3p0QC2eSQLUQyfWqbbHUxGAwGI0s4YjAfzTDXLSLKIg0Gg8FgrDDM5O9+XE049RYZlAaDwWBshHDEkOtxjYLSYDAYjEqIQklfHosJqWMNgtJgMBiM9RyOELI9muGsX2RQGgwGg1GJYSZ/57GYMOsuIigNBoPB2AjhiMF8NMNct4igNBgMBqMSw0z+zmMxYdZdRFAaDAaDsRHCEYP5aIa5bhFBaTAYDEYlhpn83Y+rCafeIkNLA4QQQogHKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnSiaNN6bu4LMtV/DJL1/0HA81X8GP1Hbrjyg6q8MYWrQX3Ux0oGr3IGL24mqJRcKe69HrtkftpRWyOIjGfOdDCNm0lEwa//Hg5axiKBT/5isX8c8L9+xaHiDzA6iv9qP3rL2cF0qDELI5KJk0HAmshN19S3qbzxy+gsSy/eIDYqbbj4Dfj5pDp5GwX8sNpUEI2RxUlDSu3/4Yn37OaqEcPHrdfvUBsDyNXn8IkYlh7Ktuxtgt+/Ukccz0hLG1rhZVvhDaIj04bCbZ+DT6w0o41bXYsqMZQz0H8iT7OOYizaj3+1BV7cPWUDNOXbCLXLilkTg3iLaQtZ8adbxtx1NZXq/bMoBTTSFsUeX6OI1yYeFkKxqd/YZ7MLVkF1AahJAcVJQ0hJ/O3cWvNVjbyvMHQeLtZtTo5JzA5CEf9g2np/v48b2oCSiZXFBtkEQMM71hlbidJBvDqad8CB4axYIunkYkrBJzDmnETxxQdXVg0i5cGFB1hQawYC2mkSaNpVEcrgug84y94fwAGuuU6OatRb1udQBtJxZVqy2B2JkOBKtT5YnxVgSc/S6rc1ASTNZNaRBCclBx0hAOD8f1ttLqkNZHeXGJ4mw3AmlJfBFDu2vTRbI8nuqe0gm3ASNGMVSCztnSuBVH3GzJ2Al75LK9bJAmDSWC+JLZcWYdV+OgtRerpTGun1skMNZUi0D3tHpurdt20tj+1mm0OfulNAghOahIady7D9S1XdXbf+klp8+kTMSGsa+uGZNOIne6quw7dGv8wo9eyb1JjDENGb/wd2PGKrDIN6axHMdMsnuq1o7sCTtNGoq40T3lbNsYsTbU67rGNBYGdtmvyfGmtkmFKT5KgxCSScVL44t95ZWG1a2TmVADXY4l1lYaen+6m8i+68+TsNOkodezuqesSQN2S8OzNNznYEBpEEJyUNHdU//+2XJ3T80jEvKhc8JedDjfh5CIwEjOa9U9NdWeSvSaCwN4wos0MkSkjmunSxo5u6fkPGtR359sPlk4M9YoDUJIDip6IHzs52UeCJ/uRqCuA1MZ031Vkg360Pa21RpwD4RPde/KMxAeRe/O3APhcz0BVdaDGdXS0IPmDdJN5UEa53oQVOv1T6uWxq0YZvob9CypNGnkGQjX51AXRuRc3Fqe7kPjDiVGOUVKgxCSg4qSxoOecjvTlft7GXO9QVTtH7XL1nDK7fJiclpsjT+M3hMDqq4gIuftcoM0aSgWjjej3qeOoc6Pxq5RRPbXItRrWcFqaaRPue08mX4EC8OpsRR9nLZAKA1CSC4qShqV9OU+QgghmZRMGk6LYaVRMT8jQgghJIOSSUN+sPAzK/zBwj9pvoLhs+vxBwsJIWRzUDJpEEII2XhQGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVB0kjcvYuPlq5j8eIVzP9yAT8//0vM/HyOsYlC3nN57+UzIJ8F+UwQ4kBpEM2163F8cGER5+c+wKXLV9XyDdy5k8Dy/fv2GmSzIO+5vPfyGZDPgnwm5LMhnxFCKI1NTvzGTX1XeWHhEm6o54RkQz4b8hmRz4p8ZsjmhdLYxMhd5NwvP6QsiGfksyKfGfnskM0JpbEJuXdvWXc38A+frBb57MhnSD5LZHNBaWwy5I9cuhhiv1qyXyFkdchnSD5LFMfmgtLYZMjdIYVB1gr5LMlnimweKI1NhHQpsEuKrDX8XG0uKI1Ngsx4kQFMQkqBfLY4q2pzQGlsEqTvmbOkSKmQz5Z8xsjGh9LYBMiXsmSOPSGlRD5j/ALgxofS2ATIQGUpWxm9Y7ew55Vr+OBX/Pb4ZkY+YxwU3/hQGhsc+d0g+RmIUvDxx0DDwDV88ssXdfy7Zy/j/asrnX4Zx1ykGfV+H6qqa7Hl4Qb0jsfsMlI8ixjaXYuq9qi1ON2NYLUPB4+X5hrLZ42/VbWxoTQ2OPKDc6WY2SLCeOLlpaQwnNj5g4/sNbwRP74XNSqJ1bcMYuzMKCLPBtVyAEeiCXuNSieKTiW7xkil3mG7pdGDUJ0Ph0/Y0pjoULIOY2iNDl8+a/KZIxsXSmODI79UKj88t5aYwvidZy6lSePbp1bWDTbVrhLazgGkhlBjmDkRxcJ6ccZ6k4abNZaGfNbkM0c2LpTGBkdmtMgvlq4VIowv/tASRmTyNv5+NoFfb7CE8fRr1+y1vLPQH1JJK4C2E4tIZPRsZUt4riS9HMdU317U+9R6qsWyNdSM3pZd6nkHpqw11EUYRWfYr1owah1fAPt6unE4LdHn7yJLnBtEW8jYvmscMTlWnXBlv05kT76x8W7se9iqO217hZbm7h6M9ISxtU7qUK2upkHM5RpPjs9iqCmUXDf4ZDcmL9tlwpJVvkXvK4S2SBQjTeq5cw0XB9Goyjon7H0nj13F7kGl7OKQzxpnUW1sKI0NjvxvhLX6efNlVY0jjP53bunXBqO3tTRWIwzNcgxjLdIlpZKWJNTWYcwkv7BeWBoz3QGdPJ9otbq3hpQwdF2ONGKjOKgSbM32vegfHsfkcA/2Bawk6dSxEAmjpi6IzuFZxJYWMRM5gGCyi2wavf5aBJqGMbcYx8JEDxr9u9AfVVk9NovJM33Yp+oKqeOePKNaSNZlSbE0js7tQRzuV2VLavszHahXxxPsntbFTuKu2dmKoRPjSh4Nat+1qO+f1+VpLKvrEfapc2nFyOwi4ovTGNqvzj+gzlX2u6yOVc7NtwudkVFMnhhE5061vggmizTis+p69Dao/atzH1LPo0rc1lqrRj5r8pkjGxdKY4Mj/1RnLbinhPGF73+UIYzVtjAykAQcaVUJWd2RqwR+ZEJutQtI49ZptKmEWN9rJtg4Jlv8SWnolkxdM8bMO/cLAzpx6jqWVX2qjlDPrF0oJDAmd+dNp9WzeURCKqmHezA1H8/SGvLYPZWII66kEVdZebJF1W3f1VvSOGAcXxynnlKvhbPc9auWTY1K8P3n7GVBroHaf9vJBBJvN6vyECLn7TJBRKKkl00amjXunhLW6jNHKhNKY4OzFn/AIozPf9cSxg/OWMIYmFgjYSyrZGfe3srdtIhCJ80C0nAnQJuYajk40rC6f9wJOLOOtG4aJ5zt4rMY6dqLJ7ZLF5W7+6iANNT5jDxld23psO/8TWm4ji/7MTvn5dSTHrJ/87xNdH2UBlkjKI0NTrHdU3fVnXUuYTz5f4ttYVh3wTX6jj5F6k7cloZZHhvW3UE6Sdt32flaGnO9wfwtDbu1sm84PUXHzs8ibrcqYhOjmHGKE9PoD6pj7nBEll8asUFJ5GF192+fwbJqSUgrZhXSsFoSDRgxC5ZjmJu1XqiElga7pzY+lMYGp5iBcBHGX/2fX2lBHHnLmhXV95NbSWHIoHixSFKVu/fQUz0YOTOu7uh36UFcRwQz3SIAGbwexuSJARzebg0oO0naPaZhTdlVSTLnmEY3ntCD5qk65vplHMQYF2mVY/ChcVCVxy2p1Gw/gMiJcYxFWvWYRMAekxBpHJHynR3q+IcxZSZshUwptgb65xFfWsTccCtCav3VSAPL84jsVOdvjlnsku68MEbkVJwxjbr0MQ3dGskljah0eanWU4e6vsNRYxbb6uBA+MaH0tjgFDPl9m/6rS/ulUoYDrEzqdlFNX6Z8ZO6y3dmC1mzgSx59KvWR/LO3jV7SrqOxnpc3TTG7Kkafxi948Ou1kFcJ3M9nmKv06mSfBJz9lWdH42to1gwxjbibyuR2PvvPWu/6KBaApNdqZlRwSd70LtfPV+NNATpKmtN1bc13Ioxs6Flzp5Sx1rfJJMD1PNc0lB7mWx1rm93RtfWSuGU240PpbHBKebLfQ93xfAX37RSV8/pmyURRtEkFjFzLj29znSp1kmwD07Penx2Ggtm95TdxSWDx2Rt4Zf7Nj6UxganmJ8REWn83r5L8P/vmBbG4y8tVZYwkMBUh9091SVTXl1dS4LcWUv3kd29JFNuD0oXlzNNlawp/BmRjQ+lsQlY7Q8W7h+8rsUhse/vruN+RQnDxumeMruWhmfTBtZ199KTAasLRgmlfm9P+hfiyJrAHyzcHFAamwD+NDopB/xp9M0BpbFJkBktpfx5dLK5kc8WZ01tDiiNTQL/3SspJfx3r5sHSmMTITNbSvEz6WRzw8/V5oLS2GTIQGXsV8lfBCSkKOSzxMHvzQWlscm4d29Z9z1THKRY5DMknyX5TJHNA6WxCZE/crk7ZJcCWS3y2ZHPEIWx+aA0NjHyhy8DmJxVRbwinxX5zPCGY/NCaWxyZMaLdDHIHHvKg+RCPhvyGZHPCmdJbW4oDaKRL2VJd4P8DITcRcoPz8kvlq7Vf/0j6wd5z+W9l8+AfBbkMyGfDX5xjwiUBklDfjdIfnBOfqlU7irlfyPIP9VhbJ6Q91zee/kMyGeBvyVFTCgNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHhGSyPbv3xkMBgMBsMdbGkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8cy1+A38fxT5943h+h6sAAAAAElFTkSuQmCC</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADn6SURBVHhe7Z2Lc1vXfef3z8ik7W637bSd6Uz20bT1zjJZLpmywrQjTD3CVmNsNEaqtRg58NYKGdvSKrLMUBEdlnS4ZMJVEiZ0aHNNGy5XHDEWLUayVTF0GSKuWLYymchkLJN6IaYEvSBR/u75nXsvcHDxuiQICCS/n5nfABfn3nMfAH+fex4A/xUIIYQQD/xN415QGoQQQjxBaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxTNmkcece8HfR23ji5SV8rvUqfvuZS/j9fZf0c3lt8Ge3cXfZXpkQQkhFUhZpjP5LAn/0tcv45Jcv5o2Hmq/g1LmEvRUhhJBKo+TSaBu5kZTCp5+7jOeOXsfYz+9i6dbHOs78PKFfkzJnvRfevGFvTQghpJIoqTTaVfIXCfzOM5dw7OwdfPyxXZAFKZN1ZF3Z5psnKI61IBYJo2r3IGL2MiGEFEPJpPHWewmd/H/zKxfxTx/es19N4bQq3EypdWUbKZM6HgR33juKZ1v/HJ969iF84rk/x+4Xj2MmbhdWGsuLmOxqQNBXi6rqWmx5uAG94ylFVLI0Yme6sW+7HzXVYQwt2i8q9DGrc0mFD1tDzRg657wJixjarV6va8bkLfulNOYRCcl2HZiyXyGErA0lkYYMev+h3d3UO5b1rzqnNIQX1TZSJnXcvmu/WC6mv4+/eHY7nhl+D5c+iuPa4nuIHNmOT7W9ivn79joVwyJGwj7UhPsws6gEu5xAbLoPjXUBdE5YCbYypZHAVFcQW3d1Y2x2EXHXvUHGMSfiWDjRjGB1CJHz8oItDSWUfcNZzmx+APVaNpQGIWtNSaTx6k9v66T/6abLuJ+jSyqfNGQbZ+D8NVVX+YjjWOdDCA6+by/b3H8P3z70EJ75sX2n++FRfOHZDkR+/A0En1OtkWc/h+CLZ3DNkMqdqVfxTOvnVNlD+OPWb+BYssopvPDsHrz0znHVmpHyz+IzHS9hahUtmcTbzahRd9tjrm3neoPJpJuRgJfnMdYaxtY6uVP3o7H1NBbMWWsXRtEWkrv/WtT4Q2gbnrcLLBZOtqLR77Pu/sM9mFqyCxSJsz3Y97CUWS2e/miOk5KkHujGTI7ZctlFl8BYUy0C3dPquSWNfQ0NqAoNYMFaIclMlx8BVfZEiaRx69YtHYXwuh4h64mSSGPXi0s64ecbl8gnDUG2lfJ6VVfZ+Ogknnl2B176hb1sMDXwMD7xgwlrQUvjs9g9+B6uKafd+eAMvn5Yyeboh1b5B6r8uT2I/ELdQt9P4NJb38DnDnVgQvtPpPEQPtXxKqYkK8bfx0svPITPDbwnhStiptuPqqbTKp26iM1i8sysUqA7AcdV4vUhuH8Yc7JRYh5D0lJJ1jGL/oAPjQPzSKiEnjg/oFotfvSe1YVIjLciEOjApFS2HMNMj1H30igOSwvnjL2nMx2qZdCAEWsxjYWBXQi29KA37MgpjP6zKcF4lUbnydNoqwvarQ+bW/KaapG8PYjGEknj29/+Ntrb2/MKQcpkHQlCNhIlkUbV16/ohH/2g8yxDIdC0pi6cE+XS11lQ8tAJXs795tcGt6DT7xwFJdkwW5pTBgti2snnsYnnn8Vcl8+8eJnsS2ttaLE8Pxn8cI/ynORRrqYdN0dx626V8BUu2ottEftpeykJeBFSaSuRB4bxr7kmEIUndVB9J/TJYoEFqLj6r0QpViJuu2koShJ0Grbkcvqua77gNHqiWHuzDjmskhDH3ddGJFpVbis9nG8GYG6vThlr5tNGvHpHlW/H50TqWM5eFyJS1oVXSISi/iwan00DCOuj6c00vjwww+xf//+nOJwhNHY2IiJCftGg5ANQkmk8VtPW0K4fjv3dKlC0pBtpVzqKhsrlYYusZHWhX7tKiKq5SDdUu54YVJWtLqnzH2k1Z1GApMtPmxpGc9sTShWLI2JDlQF+zCnSxym0etXd+36ZBKY6d2FLdJt1dSDIWmtJLuQRCgyTuAORziLOPVsEDW+EA629mFkelG3VjKJYSRci1Cv2e01j0hQJGAZRx+zaz/pXWWWNBojasfS1ZUcELe7rWSco4TSEHKJg8IgG52SSEO+7e1VGtL9dONO5nqONGQKbtlYUfeUSxq/eBXbDGkkxz8yWDtp5OyeUnfv8SXr1cLSiOJInSMNm9gspob70CbdR4EDOJVshfjRm7qpz0riwjTGIt04uMOHmp09mMm4Ebe6mXTCNxABOq9la2mkY0hDJNRgi8IUSLQDNSUeCHeLg8Igm4GSSOM/HbK6p6SLKReD0dv43b2WXGTQ+2e/TJ8mJVNvpays3VM5B8Lfx0utmQPhZlq4c+YbdvdUAqd7PotP9Uzgjl2mSXZlrUQa+XEGwt3TTnMOhBfqnjLGQiyshGwlZ2saa31/+sA47NZE4kIUk1HVurAW1etmCyadTNkpCex0tTQ8S0Pt+2QzqkJ9GDK7qkSQJZaGYIqDwiCbgZJI44s/tAbCOwp8QW9h6T62dsT0ur/ecBHP/yiOZTu5yrby+hf7yjgQLuSYcvuJw9/HlJP4tTTsgXDJfLEJvHD4IXxh+KpVbtfx9dPWsh4of/6rOKb9t3bSkO9oyEB2cP8gZmLqQApOubUHwg+NYkGOOzGPkadUa8JJ4LFRHFTbtp2wkjFip9Hp9+HwCauu+PG9SlJhROzvS8RlXzu6MSMbT3cjaJTpQfTqgDE+YiDycvaTHNNIyW+l0rAGv6UbK4SI47QySUNwxEFhkM1ASaRhTrm9ZwwWZ0Om13b9+Ab+deNFbGm/qr/jIdvItlJHeafcWhT8cp+WRjN6hlNTbr/w8kTalNtr//gS9hz6nB7L+NTX9uDbE7ZQ1lIagp5C63y5T74Etxf9+b7cp9YfaQoZU26VQIyxh8S5weSU2yoZn+ibNloESvTDzajXU25rsWWH+YU7ta/x7uSUW5kR1XnSTupZ0PvZkaOelUpDIQPiegDcXi6nNAQRB4VBNgMlkYYkfue3pHJ9uc+NdEfFblhjG7KNbCtf7pO6Ko5sYxqEELIJKIk0BPm1Wkn88pMg+abeupF1H/TPiBSE0iCEbFJKJg1Bfq1Wkr/MgPrRVOEfLJR11sUPFlIahJBNSkmlIbh/Gv3g0ev4yS/u6q4oiWw/jS7bEEIIqTxKLg3B6z9hknX4T5gIIaRyKYs0BBnQlu9mOP/u9ff2Zf6714oc9CaEEJKkbNIghBCy/qE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZ67Fb1AahBBCvEFpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPlE0ad+4Bgz+7jSdeXsLnWq/it5+5hN/bdwm16rm8JmWyDiGEkMqlLNL48b8k8Edfu4xPfvli3pB1ZF1CCCGVScml8cKbN7IKwh3S4nCeyzaEEEIqj5JKw6sw/vhrV7B8H/jO2zfxm1+xXlsf4oiiszqMoUV7sUKIRcKoao/aS+uExUE0Vndgyl4khFQmJZPGW+8lMuSQLaqfv4rj03fsrYDj/3QHv9ZglUkdlQ2lsWZQGoSsC0oijdt3gT98LvcYhkghH10nrRaK1CF1VS6UxppBaRCyLiiJNF776e0MUZhRSBrSVfVpWzpSV/mwJNAf6Ua9rxaNEcsGibN9OLjDh6rqWmzZ0YyRef2ywl5/uAeNfin3YWu4BzNxu1hYXsRYaxhb62pRVedHY08U8WW7DHHMRZr1vqxtuzF52S5SxMa77Xqt/Q6dMyq+PI7eJwPYosqqfAHs65mG0y7T0mgZxVSPvV9fCG3H0822cKLVOOZWjF2wCwR1zKeaQsljrm8axoJxzDM9DQjaxxx8sgdTS3aRInFuEG0hP2rUcdX43fvNc74uaSQmOhCsU0JOXut08l6bpSgie0P2tQnhYF/q2lj7acXQ8dRx1DeNYmFpGv1h57jVe3rWfBMJIQ4lkUb9i0sZojDjT//2qr1mbnr+/qZeV+oqHyIBlTRU4p+ajyMumebCABoleZ1XC8sJLKhkE/Cr5HbLXL8PMzG1eGsWQ2Efag6dtpNUHJMtfgTbxy1RxFRi2p2SUWwwjJpAByZl22WVjHvVcmgAC2oxEbWTpuxX1j3RrJabMan3O4v+gA+NA/NISL1L4+hUy21v2+uKNKoDaDuxqMoTiL3dikD1XpyyL2XiZLPa7wGM2Oc0N6D2q+oes/PkXE9AndMA5qS6xLw+p0DXtC6LnzhgHHMMk+0BVDUMqzNVLI3icF0AnWekUDEv1y6EiJ34851vmjQuqOdSz0T2xJ332izPIxJSIui25RyTa1OL+l77IPR+1LXrnUZMbZ64MIyDdT5s8TcgMq0OzLke/m7MWFsQQgxKIo2qr1/RCX+XIY9CrQs3//D+Xb2d1FU+RAJBRM7bi4qpdh9CTsLRqKQU9OGI7v2R9XdhyLxLP9+HkJOgdYJSyVgnegtJ2FXhQcR0PbVoO2klPs3yLE51DKg79wTGmmpd+41hqq8Dp+TYVGKLL8UtYdhMtSt5dVhdUloaTY64BDlO55gXMaTEtW/YTuyaGEYaUjKTukI9s/q5kLgQxWRUCUg913XvH03VHZvF5JlZSxr6uIzzsffVOCj7yne+6rkjjbg6VhGifSyZFLg2qoWiE75xbXC2G4E6Vbe8Zrc0Jo3yyRbV4mgZt5cUep3K63YkpBIoiTR+62lLFDIese/166uSxtX4fb2d1FU+JLmaycJKetIF4o7OCSl3r69YVne2zmsqgWXbtmq3SCOLcJJY++008lgGi0b3lBP2OEbmmIbsyzzmdDEKM93+5DaJ6T484ZPuo2b0R8YxZ/plUbUmtqs78x170dk3jJkLpiRUS8TonnKOyxJAvvNV6ER9AG1NPlSF+jBnJv008l+bTGEqVAvooPOeOHKySjQiybTrRWkQkpOSSON3nrmkE/6NOx/r5eeOWuLIFf/1G5ndVXG1rZRJXeXDLQErQR08nqt/272+wi2NnN0c+ZJoAWncUtv6pXtqNtnaMBPfaqQx1aGStbnNcgxz0WFEmmRcJIDDJ4yTVC2KhelRDHXtRb2SS70znqKTrdU9ZR2XdR7epSFdUvM49VS+lsYqpHHZkAClQUhRlLR7auZi6nYxnziytUL+ZfGeLit/95SZLBKYPGSOUdgkTytLIjS7p+YHUF+d6tPXJLfN1l0Tw8yZKBZuZeuCiWMhat/1Z0l8uovFkzSspJu7e0rJ4kx66yI+3GC3jpQs1DFMma0L6fpxjkUkqddzUPva6dSb73zVc/Oc5LlPvQ9ZBVPg2njqnqI0CFktJZHGF/ussYxeszNfkUsc2aTxvdPWQLjUVT7c0lBMdyNoDyoLiQujaNuupKAzo5WMcw+Ex/Rdsy6X05Ak2RtGfbd1Z77qgXA94OxH2/F5JJRgZCZUSGY6eZKGqlsPhDdjTJK/DPwO7lVJ1RkIt445eGgUMUmy6pjHWvyo2T+qxy1mumWQ3DkftW2/2legB3Oy6bkeda3C6J9WermlzrW/QXefOa0GzwPhioUBVe9uVWYfw9SJcSzYDT4vA+Ey0G0NhEfRu8M9EE5pELJaSiINZ8qte5aUTKU1ZeGEWxr3P061Vh7ElFt3sohHe7DvYWt6p0zH7B3XxlBY66dNuX1qAHNmb5ZKYiPO9FU9vXPQKE+fglq/ty9t+mpqWqk9Lda4uU6cTe1T6hzpCCa7ZQpJQ1gYVvvNUTfiSn7mMavjSk4jVgl8sis15dY9XVdml+nzkenFXaOI7DdbBXnO153MdfK3k72WpA+9Z+0yRb5rI1Nu+5PTkWXKrTHNmdIgpChKIg35tVrnexYvulobnzqQ+0t/f9Z+Fe/+8l5yuq18uY+/fEsIIZVDSaQhOD8j8uuqFSE/DeLwo6k7+MxhqxWRLT7ddBn/9inreeX/jAghhGwuSiYN4ZsnrJ8D+Y3Gi+hQz+/aXQS5uqnMkG0JIYRUFiWVhtBu/NLtZ1qu4NjZO3C+g5Er/naEwiCEkEqk5NIQTp3z/k+YZF1CCCGVSVmkIbj/3av8q1cJec5/90oIIeuDskmDEELI+ofSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4pmTS+LP2q/jkly+mxWdaruDGnY/tNQghhKw3SiaN3917KUMaEqfOJew1CCGErDdKJo3/8vyVrNLoOHHDXoMQQsh6o2TS+OsffJRVGv+j9yN7jfVPbDCMmuowhhbtF9JIYKojgKrqDkzZr2SwHMNkVwOCvlq1ng9bQ80YmbfLhPgshppC2FKtyuv8qG8axcKyXWayOIhGWSdL1HRE7ZUMZP26WjRGjAO/PI7esF+dj9pO7aux9XTmvpYX9fGG/D5U7R5EzH45L9n2tRRF/5MB47wGMRe3y4T4dKrcF0LbsHlRFBdG0RayjrXGH0Z/1NyYEFJKSiaN7759M6s0Pv/dDSKN2CgOqmRYlUsa090IStLLKQ1LKjXhPsxI9l2OY6ZXScjfjRmdrBOYPORDQIkiJsuJeQyFfQj2zEphYZan0esPIeLKt+rAceoplfTVsSUTuawb8KFxYB6JXPu6FUXvdj+e6BrF3GLcWq8gWfalXhtpqEWwfRxxY1+BrmmrGIsYkX3b5YnzA0o6fnRO2N2a6jiOGMcaP9OhrnMucRNC1pqSSWPu6nKGMP6k+Qou/Oq+vUZlM9XuujtOI46xJpW4OjrUHX6WhLU8j0gogCMdzXmkoZJfnQ9HzIbArdNoc+rTz4OInLeKNOOtqAr2Yc5ezEf8+F7UNAyrI00ncbIZW8Id6NxtnN+sSszBbkwZIohFwmmtiYX+EILdTmL3RtZ9qfPuVBLpnLAXFYkTB1L7ujCAJ6qbMXZLF2nmeoOoemrUOpeMa5BQ70UtAis8NkLI6iiZNIQtxgyq//z1K7gSXx/CEPJJIzHRgUBIJa4L0i2UKQ1JuDVNp/V6ebun3OhuJjth6uetmDTv6HVC9VKfSMuHtrddkw7UXXqntD7OL2IoLZG7iE0jou72GwedcrX+zgDaerrRKF1T0pUW7sFMvl6hnPuyWlDJloYSrG7VOEk/2zWT16QFpp66ZSbo1xypEEJKSkml8crEbS2MX2u4iMVr60cYQk5p6K6cAHolx+nE7pKGdFv59uKUZLUVScNqvSSTp67btW2217KQeLsZNaEBLNjLDjPdAbv+HNLQxytdarUIdURVenewWgfJrrTEIk41+VGTJ1Hn3Zdcw+3WfiS2PjWcksD5PoRcLQ3durDPW1ov7tbWwsAu72MshJCiKKk07n8MfOawNYvq68OVfx+o71jtROYOpztlrjeEQMu4lVAzpGF3Ww3YL3iWRlwl2V3YEh5MDT6vWhrWmMG+YVcKVcm43q9aLvpt8NbSSArssuzX1VWmk7uS45K9bJJ3X9Y4h3tMI7kv3UpKjXkkZNA7oN4DRxTSbVdnjGlM9+mB9ipp2entCSGlpKTSEH7yi7taGr/ReBFnP7hnv1qhJOKIL1kxdqgWT/TNJpf1wK8k7Tq7FSG4pKG7rQLOQLbCozQWpDsroNYzvarrXkX3lAzA1zVj0rxT14nbh4PHkweeXxqC3N3bXUJpYy1JpPWR2TVXcF9aQC7ZaAEZ53r5NDp3ON1g3RjrP5DW/ZQ4N4CDdjeZzLwa6QhyTIOQMlFyaQiNr17T4vjUgctYWFq/A+FTHdZMoGzRGDmHkXD2Mglz4NckPt6BoBLGpPuOfVUD4dZ4QX2/a8pUtMOaSpstpFvnbA9CwZ50GaXtS2Zi1aLtpHEvrwWWpaVRaF9ahq7up2xdUkms1ltGy8lBTzrwo/esvUwIKSllkcbtu6lB8aqvZ59BJa/t+O5HqH9xCd94I46/i97Ghx89OMHknz1l42ppZFCgpSEtk2Cd2v6C/UIarim3S7O6yyhDCCb6eBowkiO/pnDd/bu6fDK6pxT6OykBldhlE2dM45CXLiF3q8bqfmrsmba7pxZVqy6QdXwksTiLsY5d2LK9J9V6c1hOID4fRWR/AFv2cxCckHJRFmkIsRsf6ym3Io4/+OolTMwpk9j84soy/sPBy7rMjD987rK9RvmJz45j6kKBlFiUNKxkmvWOvN2eh+v6cl9j17glkBzMdK02kSvmR9HpfLnPF8C+jH3FMRdpRr39RcSML+TlJMu+Cn25zxl494dwsCfLOevrXostDzegc3jWkg8hpCyUTRqCiMP5IUOZUbV/8Dp+9su7+IP92X+n6je/ctHekhBCSCVQVmkI0lW17/XrWSXhDkqDEEIqi7JLw+Efzt/Fn/5t5s+nm0FpEEJIZfHApCF8/DHw2k9v4y++GaM0CCFkHfBApWEye2kZ33n7JkLf/wjVz1/Fbz11EX+uZEIIIaRyqBhpEEIIqXwoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR45oFI4/WJuwh886YOeU4IIWR9UHZpTH1wHzXNN9JCXiOEEFL5lF0aA+N3M6QhrxFCCKl82NIghBDiGY5pEEII8cwDkQYhwCKGdteic8JerFjiWIhGsRC3F4umyPO+PIvJczF7Ya1ZL+8JeZBQGlmIR/twMORHTXUtqur8qN/bh6kluzA2jH3VfvSetZcNEm83q20OYMxJMEuzGGoKYWudqqfah62hZgydy8w+8XODaNsVwBa1v5X8wcYiYVWv1G2HPtYeTF62VxAWB9ForqOjA1N2sYmub/cgSpWS0ilPgppqr0VjZNFecrD2nfl6NqbR6/Ph8An7fdPXM4whL5tmJd95R9Gp3p/0srg6hwBqwgNYWFbv0VADagI9mLNL1xZKgxSG0nCRmOhAsG4XjpyZRzyhXrg1j7FDAVQFujGj/mjVGhhrqkVNe1QWDBKYPORDzaHT6pniVhRHArUIHhpVd6nqlYS6Yz3RrOpWCeeC3kAjSWDr9gOITKj93bJf9Ig7ySfi7mNVnO9DyN+ByaU44snQR5gBpeGBMktjQb0nNQEl+TVr6eSD0iCFoTTSmEckVIv6/nl72WZZ3W36a9F20kq2ukVRp/6QncQs3DqNtjpf8g9uoT+EqlAf5sx13MKRbXx7capQllYiy5bMsyb5pVEcrA4ict5ezrFtNgpKYymKyN6QbhFV+UI42DdtCVLQybQVp6I9aPT7VGvGh/omJUzj/BeON6Pep7ZVLaLGrgEc2elKkCdak9tuDbdizJCrTv794xhRLTfZf40/jP6zhTOpF2nkrzuVyPX1kXO3I1nv8iLGWsNWi1LOrSeK+ArOO0W6NPQNjK8BI+ZNRtp7JOuHETkzjLYdznXrwYx5WS6MGmXdGOpOf48LHZtudevta7Flx15EjGuuj6VlAKfs6yafibbji4ifTX0GMo6HrHvWXBo/U1myf+yufszFjTsfYyh6V4c8z4XMqpLpuGWbXeVOuLlYVn+shiCExMlmVPmdO/w4Tj1Vi1CvSz6KxIUoJqOLVrIdb0XVkx2IuP7oMliJNERE0n02bS3qdXbsMv6Iu9O7rwyy1uewLEJVIui2E2JsHJ2qJVXvnKPdDaZbVtKwip1GpxLtweN2xpju1q2syLSqfTlhtbrMBKmuX03gAEbOq41V+dyAusOua0529UlirzK2n+tXxyrX2yrOiVdp5K7bdfef0dKIY7LFj2D7uH1dptFvtmIKnHc6qX1ZLd70VqmQKQ0luXAfZuSFW7OIqH0Huu03X2525D3qiiKWSCAxrwSilpPbFzo21UqtV63u3glrb/Ez6piqQ8m/D30s9vYJ2X5or3rP1GesIXU8Q2Ff6njIhmBNpfGq6zsYsuxGJBHsuplc579/61ZWccisqlqjrrLMslpB18NMlz/VFWW3IFJ/HN66P/QfXXUAbSeURFTCiU+rOzS17CT8JF6lIXe8ru6p2JlutLUOYmYxjvjiNCLqj7gqNIAFqziNvNJQx1CTlKLN2W4EnBaXvnYqyRtdbJKMazqsVtVUu0oeXeaJqWuUvKu1rte+YXPPMYw0pCf2NAnb79VIDgE6eJVG7roLSCPLeesbiLB1HfOftxt7XwOqTtVqCX5n1n49RaY00m9ydLm9b/2euVrE5vaFji2z3P7c2y1lXVfLuH6uWVY3EnL8xkt5P1NkXbKm0tj2zZQMJGTZjbQuzHUk5DU3Mh3XXEeWS07WhKDuzOxISz7qLi2g7oQnJVnoFoq6A0vmnfSklIupDpXAmxzxCIZ8XPtOC/OP1lVWs7MjZ0tCowfys7em8v2B67K0Y1Xo87avlz7e9AF2fQevj9W6HslWh8Z6zUpQmclPmOn2J881I/m736sceJVG7roLSEOE7noPdOjrWOi83Vj7qpIxDNUqOOhT+ynY0ki/BmZ5tvcz9VqhY7OeO12yDvHje9Prd7paNa5rpch2DGR9s6bS+G8d6Ylelt1UtDRcXTsprD+g9OQzj0jQh7a3E9YfUtrde+7uKRkQj+sRdmCuN+j6ozP+EFVzPzlwfULdue5UTX5n2b6rdf9BznQHUPPUqNp7PjL/sB3y/YHrMrc0LhsJtATS0FJdD9LI2U1W6Lzd2Puy79StLjt1TY3N098jWb+80ogNuuqnNDYdayqN//fTe2mJXpbdSFeUdEk56+TrnjLrKs+XAK0uEXeT3PkDcicfGeyuOTSIISWI9K4VqyyzGyh9IFzLJtiXNn1yssXs5rLx2j0Vl8F4v/qjdf7QpY87iH5zerAW48pbGt66p3JJQ54X3z2VO7HnJrM1p3BNbChKGvMDqE9rZSqMa7Sq7qlkmTVeEmgZTx5/+nuUXxqIZr5nZvmadE9RGpuONR8I/+cP7yPyD3f1Yy5EEtK6kMgmDIeyD4QLF1RSqAvgcGQaMbmjVy2D2PQADvqNufoOOoFId0QDRtx/FXH1BxTwob5jHAt2PRlTbvW0XB8ae2f1IKo1puFKQIJXaSj0a8asLd36CA9gTrLOcgyT7YHVjWnYA+GNqhlmDfhG0bvDPRCeWxruQde54QNZBsKbMXZBHaiUD+7V3X/mQHjOxC6zujoGUt+lMZH96nGj1BTqyY5d1h283WJbkTR0v70fR6IJJHQmj6lWpc8ajJb9q2s80xtGvRK/Li5w3ulkJl3nc+QcX/p7JOvnkYYeCLfeMy8D4RnHpgfC7XJFfKLbEqR9w6H3RWlsOtZcGhuCxXH0Pml92U7PONregM7h2fS7VY11N5xxJ+tgT1F1vtwXfLIVI+4v911W+wpbXySUqZ6941n+vGKzqRlXBln/IO0ZM8kkKKLosqeD6mPoyZ5cFbo+fc7pkaxLnU+/c130lFtjamkhaSgKTrkdVuXmlFtDnnkTu/0816C4/vJkri9rKlYkDfUuzPTusqbm2oP8IlSZrutc4/qmQcwZb/Nqp9w6JFSLQWYt9Z9zv+cFpCG4p9wqYZrlhafc9mDfw7K9PeU2mjoxvS9KY9NBaZD1j3ST5RxX2OQYXVNCtnE0QlYCpUHWOerO/zsNODLhasERdWlUq3N7qnspcX4AjWljXoSsHEqDkA1Mwuiaq/GH0DacZUYfISvggUhDZkLJFFqJ8syKIoQQshaUXRoyE8qcSitR1tlRhBBCVk3ZpcF/90oIIesXtjQIIYR4hmMahBBCPPNApEEIIWR9QmkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9oady+cwcMBoPBWMdx+3b+xzUKSoPBYDAqIQolfXksJqSONQhKg8FgMNZzOELI9miGs36RQWkwGAxGJYaZ/J3HYsKsu4igNBgMBmMjhCMG89EMc90igtJgMBiMSgwz+TuPxYRZdxFBaTAYDMZGCEcM5qMZ5rpFBKXBYDAYlRhm8nc/riaceosMSoPBYDA2QjhiyPW4RlEWabz0kzh+/39dxie/fNFT/PHXLuNo9HrWuhgMBmNDRqGkL4/FhNSxBlEWaYgEsskhX4hkstXFYDAYDCMcIWR7NMNZv8goizQcEWQryxYrXZ/BYDA2XJjJ33ksJsy6i4iySmOlka0uBoPBYGQJRwzmoxnmukUEpfFAYx6v19fihbFsZRs13sEL1Y/j9flsZQwGIxlm8nceiwmz7iKC3VPuuDqN1599FFvralFV7cPWR5/GK+/Esq9bdOSThlW255X5LGXrOSgNBqMk4YjBfDTDXLeIKIs0VhoPThrzOPa4D480vYH3r17H7ZvX8eG7vdhTtw3feqcUs7koDQaDkSPM5O9+XE049RYZZZFGy/ASWo4tZS3LFg9MGhdew57qx/D6+fTXpzq2ourQ6eTy+2+2YM9Wn9USefwIJi/b687L9i14850jyfLHnlUCupmq6/1jTXjMp1oxdVuxp+NlfOuvs0hD1yMtHTvqX8OHzvZvmPtuwVuuY7XCEs5jfbOp18714tHqPTi2aC3nq2ey1SUrfTxOoreS/g9f6dLnkSk1u/xo6hpsbXwZ711NL3/l1FE8//nUNZxKlqu4/A5eefpRbJFz9z2Kr/a+i2tOmYdrfG2yF1/Vdddiy+ebcGw2VcZgbNhwxJDrcY2i5NKIvn8jKQGv4nhg0rj5Lr63VSXCI9O4YiQhM66dbsG2be34iSTfm4uYOvJ4KqnbyV63VK6rdRd/jBdUfV89ZndvvduFR+pUwnx3Ubdi3n+jCY+o9b22NK692YSabftx7JzVCnrv5cdRU9eEt8yEa8eHrxjH5SzvOYor6nmhegpLoxY1IsvZGK6o80yup8Mq19fgI7W8+C5eUa23mqYf24nf2b4XU3INP5rGK+o8t3W+a21/cxavPKpE0PmO9R4snsYL25QAe2wBFrrG519WLUN1rPa5iaS3bW3HpByL3j+DUaFRKOnLYzEhdaxBlKWl8cOx6ysSxwOThoprZ19D81+pu1S5w23pxVvTKsEny61E/vybRlfVRz/G8yqhHrugnuuEppKvkaAkAde0v2M/92Fbh50cdaj6srU0nLI0aVjLTx81j2cRx/Zku9tXsXgUTycTvbWetW3hegpL4xG8cs7Z1h1S7mqtTXZhW/K6ZG6vhfa4LbixdtRs7cKUKW3Zvk4lfnnNwzV+1BGMDiWhR3z41jup9RmMDRWOELI9muGsX2SURBpO0s8VhcThrJetrCwhd6jvHsUrzz6uB8S3POZ0n1h3ycluo2TYCVUnNJXcjLokoVW1SkKzknXyjliH9Zo3aWRP1lOdW+36019PE8XlN/DVZNdU4XoKS8N5ni2ylN9UrYU825utIv38WadVYoc+fnsbD9c48/3JdY0ZjAoOM/k7j8WEWXcR8UCkcbjSpWGGdJeoRGR1n0jC24rvvZtlPYkHII3JdtUqyiqNO7hydA+qGt/Ah282JbumvNSz5tKwW2O5ti8oDT3WZG+z4mvMYGyScMRgPpphrltElKV7Sn57yqswJB6UNKSvv8rdNaLi/Zcfs7tPpL/dNcAs4ayfN6HJ8zJ2T0nYLYyvNvqM7QrXI8f8pZfXUBp6EN7snsotDW/dU7mu8XX8pMkcP7HD9X4yGOsizOTvPBYTZt1FROkHws/fXJEwJB6UNG5/9A6+tc2Hx9pPG1NuX0Ozem3Pa1YSvXLsadTIYPZZ6272ikzJ/bxKcjIgXEAa7oHw947uzzMQfgc/OaRaOO3v4Np1awzFGsBWyfe8PYD92tMqmarlLAPhVsTwZqPavytJF6pHJ/FHuzCpB6pn8VbTNqMOL9JIDVTfvj6L1x9XslTXIDUQnkca9kD4np537YHwd/C9z7sHwgtc4+pteP4N6/26dv4NPP9XT+NNe9YYg7FhwxGD+WiGuW4RUZaWxuHhJc/CkHhg0pC4PI1jLXvwiEyLVclvy18+hudfmU67c33/aBMe09M9rSmdr9sCKZjQVHiacmvHNSWkL+l1U3Wm9m1PlS0wnVR3URmzqJzIW8/Neby5/xHUqPOr2foonu9swZdWJI3H8K2Xu5JTYh/d/1rGlNuc0pC4/A5++D+3GVNu7ZlUUubhGl955wie/kvr/anZ+ji+d9psVTEY6yTM5O9+XE049RYZZZHGSuOBSmODhXSJ5ey+KkkUkgqDwShJOGLI9bhGURZprFQClMYaxEcxXJmW7yykvtBXnqA0GIxVRaGkL4/FhNSxBlFWaaw0stXF8BZ6NlTdI2g+Vs5WhgSlwWCUNRwhZHs0w1m/yKA0GAwGoxLDTP7OYzFh1l1EsHuKwWAwNkI4YjAfzTDXLSLKIo3f37fyf/f6R038d68MBmMTh5n8ncdiwqy7iCiLNOS3p0QC2eSQLUQyfWqbbHUxGAwGI0s4YjAfzTDXLSLKIg0Gg8FgrDDM5O9+XE049RYZlAaDwWBshHDEkOtxjYLSYDAYjEqIQklfHosJqWMNgtJgMBiM9RyOELI9muGsX2RQGgwGg1GJYSZ/57GYMOsuIigNBoPB2AjhiMF8NMNct4igNBgMBqMSw0z+zmMxYdZdRFAaDAaDsRHCEYP5aIa5bhFBaTAYDEYlhpn83Y+rCafeIkNLA4QQQogHKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnSiaNN6bu4LMtV/DJL1/0HA81X8GP1Hbrjyg6q8MYWrQX3Ux0oGr3IGL24mqJRcKe69HrtkftpRWyOIjGfOdDCNm0lEwa//Hg5axiKBT/5isX8c8L9+xaHiDzA6iv9qP3rL2cF0qDELI5KJk0HAmshN19S3qbzxy+gsSy/eIDYqbbj4Dfj5pDp5GwX8sNpUEI2RxUlDSu3/4Yn37OaqEcPHrdfvUBsDyNXn8IkYlh7Ktuxtgt+/Ukccz0hLG1rhZVvhDaIj04bCbZ+DT6w0o41bXYsqMZQz0H8iT7OOYizaj3+1BV7cPWUDNOXbCLXLilkTg3iLaQtZ8adbxtx1NZXq/bMoBTTSFsUeX6OI1yYeFkKxqd/YZ7MLVkF1AahJAcVJQ0hJ/O3cWvNVjbyvMHQeLtZtTo5JzA5CEf9g2np/v48b2oCSiZXFBtkEQMM71hlbidJBvDqad8CB4axYIunkYkrBJzDmnETxxQdXVg0i5cGFB1hQawYC2mkSaNpVEcrgug84y94fwAGuuU6OatRb1udQBtJxZVqy2B2JkOBKtT5YnxVgSc/S6rc1ASTNZNaRBCclBx0hAOD8f1ttLqkNZHeXGJ4mw3AmlJfBFDu2vTRbI8nuqe0gm3ASNGMVSCztnSuBVH3GzJ2Al75LK9bJAmDSWC+JLZcWYdV+OgtRerpTGun1skMNZUi0D3tHpurdt20tj+1mm0OfulNAghOahIady7D9S1XdXbf+klp8+kTMSGsa+uGZNOIne6quw7dGv8wo9eyb1JjDENGb/wd2PGKrDIN6axHMdMsnuq1o7sCTtNGoq40T3lbNsYsTbU67rGNBYGdtmvyfGmtkmFKT5KgxCSScVL44t95ZWG1a2TmVADXY4l1lYaen+6m8i+68+TsNOkodezuqesSQN2S8OzNNznYEBpEEJyUNHdU//+2XJ3T80jEvKhc8JedDjfh5CIwEjOa9U9NdWeSvSaCwN4wos0MkSkjmunSxo5u6fkPGtR359sPlk4M9YoDUJIDip6IHzs52UeCJ/uRqCuA1MZ031Vkg360Pa21RpwD4RPde/KMxAeRe/O3APhcz0BVdaDGdXS0IPmDdJN5UEa53oQVOv1T6uWxq0YZvob9CypNGnkGQjX51AXRuRc3Fqe7kPjDiVGOUVKgxCSg4qSxoOecjvTlft7GXO9QVTtH7XL1nDK7fJiclpsjT+M3hMDqq4gIuftcoM0aSgWjjej3qeOoc6Pxq5RRPbXItRrWcFqaaRPue08mX4EC8OpsRR9nLZAKA1CSC4qShqV9OU+QgghmZRMGk6LYaVRMT8jQgghJIOSSUN+sPAzK/zBwj9pvoLhs+vxBwsJIWRzUDJpEEII2XhQGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVB0kjcvYuPlq5j8eIVzP9yAT8//0vM/HyOsYlC3nN57+UzIJ8F+UwQ4kBpEM2163F8cGER5+c+wKXLV9XyDdy5k8Dy/fv2GmSzIO+5vPfyGZDPgnwm5LMhnxFCKI1NTvzGTX1XeWHhEm6o54RkQz4b8hmRz4p8ZsjmhdLYxMhd5NwvP6QsiGfksyKfGfnskM0JpbEJuXdvWXc38A+frBb57MhnSD5LZHNBaWwy5I9cuhhiv1qyXyFkdchnSD5LFMfmgtLYZMjdIYVB1gr5LMlnimweKI1NhHQpsEuKrDX8XG0uKI1Ngsx4kQFMQkqBfLY4q2pzQGlsEqTvmbOkSKmQz5Z8xsjGh9LYBMiXsmSOPSGlRD5j/ALgxofS2ATIQGUpWxm9Y7ew55Vr+OBX/Pb4ZkY+YxwU3/hQGhsc+d0g+RmIUvDxx0DDwDV88ssXdfy7Zy/j/asrnX4Zx1ykGfV+H6qqa7Hl4Qb0jsfsMlI8ixjaXYuq9qi1ON2NYLUPB4+X5hrLZ42/VbWxoTQ2OPKDc6WY2SLCeOLlpaQwnNj5g4/sNbwRP74XNSqJ1bcMYuzMKCLPBtVyAEeiCXuNSieKTiW7xkil3mG7pdGDUJ0Ph0/Y0pjoULIOY2iNDl8+a/KZIxsXSmODI79UKj88t5aYwvidZy6lSePbp1bWDTbVrhLazgGkhlBjmDkRxcJ6ccZ6k4abNZaGfNbkM0c2LpTGBkdmtMgvlq4VIowv/tASRmTyNv5+NoFfb7CE8fRr1+y1vLPQH1JJK4C2E4tIZPRsZUt4riS9HMdU317U+9R6qsWyNdSM3pZd6nkHpqw11EUYRWfYr1owah1fAPt6unE4LdHn7yJLnBtEW8jYvmscMTlWnXBlv05kT76x8W7se9iqO217hZbm7h6M9ISxtU7qUK2upkHM5RpPjs9iqCmUXDf4ZDcmL9tlwpJVvkXvK4S2SBQjTeq5cw0XB9Goyjon7H0nj13F7kGl7OKQzxpnUW1sKI0NjvxvhLX6efNlVY0jjP53bunXBqO3tTRWIwzNcgxjLdIlpZKWJNTWYcwkv7BeWBoz3QGdPJ9otbq3hpQwdF2ONGKjOKgSbM32vegfHsfkcA/2Bawk6dSxEAmjpi6IzuFZxJYWMRM5gGCyi2wavf5aBJqGMbcYx8JEDxr9u9AfVVk9NovJM33Yp+oKqeOePKNaSNZlSbE0js7tQRzuV2VLavszHahXxxPsntbFTuKu2dmKoRPjSh4Nat+1qO+f1+VpLKvrEfapc2nFyOwi4ovTGNqvzj+gzlX2u6yOVc7NtwudkVFMnhhE5061vggmizTis+p69Dao/atzH1LPo0rc1lqrRj5r8pkjGxdKY4Mj/1RnLbinhPGF73+UIYzVtjAykAQcaVUJWd2RqwR+ZEJutQtI49ZptKmEWN9rJtg4Jlv8SWnolkxdM8bMO/cLAzpx6jqWVX2qjlDPrF0oJDAmd+dNp9WzeURCKqmHezA1H8/SGvLYPZWII66kEVdZebJF1W3f1VvSOGAcXxynnlKvhbPc9auWTY1K8P3n7GVBroHaf9vJBBJvN6vyECLn7TJBRKKkl00amjXunhLW6jNHKhNKY4OzFn/AIozPf9cSxg/OWMIYmFgjYSyrZGfe3srdtIhCJ80C0nAnQJuYajk40rC6f9wJOLOOtG4aJ5zt4rMY6dqLJ7ZLF5W7+6iANNT5jDxld23psO/8TWm4ji/7MTvn5dSTHrJ/87xNdH2UBlkjKI0NTrHdU3fVnXUuYTz5f4ttYVh3wTX6jj5F6k7cloZZHhvW3UE6Sdt32flaGnO9wfwtDbu1sm84PUXHzs8ibrcqYhOjmHGKE9PoD6pj7nBEll8asUFJ5GF192+fwbJqSUgrZhXSsFoSDRgxC5ZjmJu1XqiElga7pzY+lMYGp5iBcBHGX/2fX2lBHHnLmhXV95NbSWHIoHixSFKVu/fQUz0YOTOu7uh36UFcRwQz3SIAGbwexuSJARzebg0oO0naPaZhTdlVSTLnmEY3ntCD5qk65vplHMQYF2mVY/ChcVCVxy2p1Gw/gMiJcYxFWvWYRMAekxBpHJHynR3q+IcxZSZshUwptgb65xFfWsTccCtCav3VSAPL84jsVOdvjlnsku68MEbkVJwxjbr0MQ3dGskljah0eanWU4e6vsNRYxbb6uBA+MaH0tjgFDPl9m/6rS/ulUoYDrEzqdlFNX6Z8ZO6y3dmC1mzgSx59KvWR/LO3jV7SrqOxnpc3TTG7Kkafxi948Ou1kFcJ3M9nmKv06mSfBJz9lWdH42to1gwxjbibyuR2PvvPWu/6KBaApNdqZlRwSd70LtfPV+NNATpKmtN1bc13Ioxs6Flzp5Sx1rfJJMD1PNc0lB7mWx1rm93RtfWSuGU240PpbHBKebLfQ93xfAX37RSV8/pmyURRtEkFjFzLj29znSp1kmwD07Penx2Ggtm95TdxSWDx2Rt4Zf7Nj6UxganmJ8REWn83r5L8P/vmBbG4y8tVZYwkMBUh9091SVTXl1dS4LcWUv3kd29JFNuD0oXlzNNlawp/BmRjQ+lsQlY7Q8W7h+8rsUhse/vruN+RQnDxumeMruWhmfTBtZ199KTAasLRgmlfm9P+hfiyJrAHyzcHFAamwD+NDopB/xp9M0BpbFJkBktpfx5dLK5kc8WZ01tDiiNTQL/3SspJfx3r5sHSmMTITNbSvEz6WRzw8/V5oLS2GTIQGXsV8lfBCSkKOSzxMHvzQWlscm4d29Z9z1THKRY5DMknyX5TJHNA6WxCZE/crk7ZJcCWS3y2ZHPEIWx+aA0NjHyhy8DmJxVRbwinxX5zPCGY/NCaWxyZMaLdDHIHHvKg+RCPhvyGZHPCmdJbW4oDaKRL2VJd4P8DITcRcoPz8kvlq7Vf/0j6wd5z+W9l8+AfBbkMyGfDX5xjwiUBklDfjdIfnBOfqlU7irlfyPIP9VhbJ6Q91zee/kMyGeBvyVFTCgNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHhGSyPbv3xkMBgMBsMdbGkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8cy1+A38f0sX+n92oSrHAAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>Kingdom</x:t>
@@ -133,6 +133,30 @@
     <x:t>+44 20 7436 4899</x:t>
   </x:si>
   <x:si>
+    <x:t>!4m7!3m6!1s0x2a32bad65efbe949</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Creative Native  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       158 Murray St, Perth WA 6000, Australia      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD1WSURBVHhe7Z2Pcxvneefv70jbu17btJ1pppe7pD/Ox9wxYMsKdx0hzRiJxzh7jKvOYuRArRUydsRTbIWhLLksmfBIh6fWbJCw5pk1XJ44ZixajBipoukqRDxi0cqkLZGRTEqUYFGCRAkS5eee591d4N3FAlgRBAiS38/MM8Duu/vuu7vvPt/3ed8Xi39FAAAAgAf+vGkvQTQAAAB4AqIBAADAMxANAAAAnoFoAAAA8Mz11E2IBgAAAG9ANAAAAHimYqJx5x7R38dv0+5XlugP2q7Sr37jMv1m82X1XdYN/uw23V0xNwYAAFCVVEQ0Rv8lTb/z7UX6xNcuFbTfb71CY2fT5l4AAACqjbKLRvvIzYwofPZbi/StIzdo/P27tLT8sbJT76fVOkmztvvOWzfNvQEAAFQTZRWNDnb+IgK/9o3L9MaZO/Txx2aCC5Im28i2ss93j1WrcMRp9tOfpNm4uVhR5Ng76OIlcxEAACpM2UTjJ++llfP/5a9fon/68J65NosVVTiZ4m1lH0mTPNaDW2cH6Hz4IXqPxeG9hx6imdYB+uiWmbiBRSN9dpDawwHy1dZRTX2AmtqGaTZlJlYTK2lKzsRppK+Vmh8J0OHT5nqL1AwNtYRpm3keDS2jNO82HjY3QA21AYqeMZczLNDQLtm3lSaXzVU25igW5vTaTpoy12RYGKQmOW4ea4otmBsCsDkpi2jIoPdnzO6m6LjrU5lXNIQf8D6SJnncvmuurBDpM+00/eltdH7sAt1mzUrfuECXDm6j9/5sgJaUY9qgopHooVBtkA7GEpRcSlFqIUFD+4Lk2zFAs1U2ASEZi9C2x/fS4VgPNbMj7rKJRpomD/gpyEKRlHKn52go4qdQ74yRrDHdE6BggEXywEneS8cUDc67eThprtNQYiPpLqJhI05dOeUDYHNTFtH4u5/eVk7/sy2LdD9Pl1Qh0ZB9rIHz1zivynGBLjz2SZrpf5/um2sU6TE69+lPmUKRKxq3zvTRucc+Y0Qmj+2hC4k7Zopwh658/ymaruW0T3+Gpve8TFdumEnCrQRdaP6SsW/tl+j8jy5QNi6TfXdwtGOmDb7M5ViNaCRppLGOGqJz5rLJSoKigTraf9QIN8RZ1xwaoDGrFe8PU9dxu1NN87nuf9yvHO62x1tpxMpStcDbaCzeS00BSfc7IoAUTfc2Usgvzpid/NO9NLVkJjnJ7OPilJdPUnttiGLnzGVhoo1qQn00ay4q1LmFKXZ6mIWnlextF0M0mhsbqSY8QPPmWovpbhYbTtu9StGY6nBEHOraRGjIWrWyQONtEdpez9dCIr7eOKXKINzLy8vKiuF1OwCEsojGzh8sKYdfaFyikGgIsq+kN3BeFePGUXbKAbpw3lzOcIeWzrxNVz4UMbCLxv3zfTTz0JdoLn5dOfubb7/AkcqXMnncGt1L733hBbp8jRdWrtPlDo5amo6QujIrF+jiU5+iD2LvU5qdRvpDPv5//TznbYjOzZE9vO/zdImPey+9SMl+FpDViMbSKO13OloTaY3XHJpQ35Vo1EcolkhyedI0f6yVoxN2vJYwXBygJk4fOsftdkk/2soteXas4m/MbpvQARYKidCSJ6lLE6TUsefIF+ykSdGglSRNdgSppnGYpaQQLk7ZFKdJ3clyuZwOPn2ilXy7BlkujcjEHlEYotF1nAWo3nFdRJTq+ZxPyHHKIRopmjwUoFDHhCEUyQT1c1nK0a31ve99jzo6OgoKgqTJNmIAeKEsolHzwhXl8M9cyB3LsCgmGlMX76l0yatiXBqgmaJO2S4aix2founDCVtkcuXw5+m9jrhad2OQHf1zY5SJl669T5fffl+Jxv34C/Teo330kZGi+Kg/QO91S+aLLCifpA9+dN1IEFbepvOrEQ1nS1dDCYVyrlakYQiIgRGhhM0IZarDn/luMEexkJ8OS3HVMewtenGevk7jQqm8941mu4mSMzR5amaVouFw5jnrHEJxpoeCtojCEI39R5NGVNGdMNezSx/m6EPEzO04OaxCNFyuU/p4K9VEjHuwlnz44Ye0b9++vMJhCUZTUxOdPu04CQDyUBbR+JVnDUG4cTv/dKlioiH7SrrkVTEeWDQMx37uH/TuKI4uJEJ4aoBUL9Qljh6+/CnVbXV+4AglOWqwBEYJinRLOY0FxzjO52nurLGtgazLU745bm37d9KQowdKoTstBzmioY6dZX5gp7kuOw7gNOU0XZysOM9MfgujdPARvxqr6OobpumL9lEGd1YpGslhatYHua2uqsy1Mc5FOXYZv8hsa3Zbidi4HSeHVYjG6U7Xa2jdg7Umn3BAMMBqKYtoyK+9vYqGdD/dvJO7nSUaMgW3YuTtnuLW4I3ramDci2ikhlgMLNEQVu7QUmKMLnbvoZnaT9HM9xOqxa1E49mjlJmYZWMNReNBuqccojEbDdlEw+puyqGYaAjSpZUYpaHuvdTg91NDr3Ed8pNPNAp3T6nzcDpltmxEoYmGGU0podAFJN5JvnKJRqCHpo2UiuAUDggGKIWyiMZ/PGB0T0kXUz4G47fp1/ca4iKD3j/7uX2alEy9lbSKdk9ZA+EDF8xlkwID4YW7p/SxEIP7iZdo+tMvsNxwtm8/T+899Dxd1j0nO0MjrzXsnjIdY+5AuDG11DYQbhONNI23WN1TRpdPzkwky3kXFA0Wi/gE1wdtT+kyWo1TLjoQLufkz3HkdK6PwuKsVXl10eDSSfdQuI/FTOuqUhHB6kVj90Ae0VAzs/Soh9EFsEzowgHBAKVQFtH4yg+NgfDOIj/Qm1+6T9s7k2rbX2y8RC/+KEUrpveVfWX9V/oqOBDO3I6/QNMPfYlm375Ad/hhLjbl1hgI30EXEuZAePwlmtEGwpMvy759lJSwgyOOawMcXXzhZaMrYiVBc1/4JE0fHKMbnPf9tBwrQB+MiKTkDoQvviyzrFYjGkyeKbc1QcuRmqJhDoQLqVOdvI/WrWXm0X7MdLYXR6n9kb00JpsXiTSme4Lki/TRtNxOjjhm+/lYwV77jKcc3JyyIV6ZKbdLMxSLcNTSb3phLmOwnsthnlMWY/yl/YQIl100jMFviUY0Z16CaKjrGO6hKbkuy3M0foCvc+Y6JmnsGRbfzLVI0nQ0Qg09xaKu0rGEA4IBSqEsoqFPub2nN8FdkOm13T++Sf+66RJt67iqfuMh+8i+kkdlp9waqCm01o/7arfRBx1HCv6479aZl+mDL2hTbs9cz0YeK4t0+bA15fZTLCAvsAiYacz9G3Ga28PCIvs+9BB9cPhtbfrlWk25NSj24z7l7Pb1Zn84599J0QlDQCxS8V5q/qIx5dYXiGTTi4iGmjHVnZ1yuz3SRuMXjaT8uDtl54/7mronDAFhZGA793cZBqqrTQ3GO0SDkf1ss7lKEA2ZUjv2fEhdZ18gTO09bbRbF1+O8Ea4/GrKrZqaPFixH1mKcEAwQCmURTTE8Vvvksr34z4n0h2VvGmMbcg+sq/8uE/yApUht3sKAADslEU0BHlbrTh+eSVIoam3TmTb9X6NyFYFogEAKEbZREOQt9WK85cZUD+aKv7CQtmm+l9YuHmBaAAAilFW0RCcr0bff+QGvf3BXdUVJeb2anTZBwAAQPVRdtEQvP4Jk2yDP2ECAIDqpSKiIciAtvw2w/q7199ozv27Vwx6AwBAdVMx0QAAALDxgWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPFMx0bhzj2jwZ7dp9ytL9AdtV+lXv3GZfqP5MtXxd1knabINAACA6qUiovHjf0nT73x7kT7xtUsFTbaRbQEAAFQnZReN77x101UgnCYRh/Vd9gEAAFB9lFU0vArG7377Cq3cJ/qrE7fol79urNuSwrE4Q5Nnk+ZCtZCi+Xic5lPmIgBgS1M20fjJe+kccXCz2hev0tHEHXMvoqP/dId+odFIkzw2M1MddVTTETeXiJJDjeQL9tKsubwuLAxSU22EhhbMZUpQ1O+ng8egGgCAMonG7btEn/lW/jEMEYVCdB83IhTJQ/LarDhFoyrIEQ0AAMhSFtF47ae3c4RCt2KiIV1VnzVFR/KqKKkZGmoJ07Zaduj1AWrqnqDkipEkTr6pd5Cij/upZtcgqY6klQUab4vQ9npz+944pcztaSVJk92NFPJzWq2fQk/30rRqsMepS/LPWCdN8dpkLJLJd7o7QD6boMxRLOSn9hNm9JVKUGyvWU5/mNqH54z1Ku8IxU4NU7uUk4+7PWId1yB9dpDaw5w/7+sL8L5HDYVQx9fK1RST9UZZu07z1zM9FKznslrnx8xGQ+Q7cJJUqQpdixxSNBtrpQbz2myP9NDkopnEpOJ9tF+Vv462Pb6XYmeyJ6DKeWiAxqz7JOfP55A600tNAfdztmMe29o23EpjF80k8/rpoqnfFwC2OmURjYYfLOUIhW5/+JdXzS3z0/sPt9S2klflWKCRCDv3jgnD2S3NUIyXG/oNh6wig/oIRU/PUSolbjJFk4cC2e2TCerfZTlbdqi9QfJFBmhWNl3hbTt42XKwTE73lO6cEg4HPTdADfWtNLnM39k5D+3yU9PAHKU5PX1xlNoDAXbskrPh5H2RPpqWjJb5HLhMwZ6E5MLnNEoH64PUdcp0gZxvU32YYpbm5EQammhIVxU7WuO7wEIWtoSs8LVwkhyMkC/YSZNSDL4201FeDg/QvCSe6+Nz3cnX2Shj6lQnhWq5jOfUonGd+D7EEkk+/zTND+0lXz07/8bsOQ/xfcucs4PUseeyx2bmB7RjQzQAKEhZRKPmhSvK4e/UxKNYdOHkH8/fVftJXhWDnVW4tpXGxTFbzAzT4X5uMfNXcfLhqOVdGeVg7dunj7dSTcRwMOlUipS2WJzuZGdnRBVCQdFQDjpA0TNqQaVlBIfz8YX6bGMfqsXfKXmJ0wtlHKyg8jXLROxkU0t6oUSA2LkPmi6xoGhwBNQToGC36YxlW0vIilwLOxI11VH7ca0cKzM01jlAU9xGmOpgh28dw0SPvNT5HJpQ3xUrE0YZtVUFHf0y3xf9HpvnPKIiHYgGAIUoi2j8yrOGUMh4RPPrN1YlGldT99V+klfFEKe+w2px5qK6p/SWs2wv3SNOsxwMRwTZ7inLvIqG6aBVazlJI43Zrim1nX48y1RexZ1eSuuesvbNnFcR0VARUKCHpvlrarjRJmS2sljm6mwlz500lOkS0jFEzCYoTOro3kxe6ny065ZTRqago5fIJtM9ZZXVOmeIBgCFKIto/No3LiuHf/POx2r5W0cM4chnn/+L3O6qFO8raZJXxViNaJgONJc0b8+OWbqnrFatcqzeRUM5aIkolkZpv9WiZ9R2z4yq6CeXIk5PiYLRPSVdW5aT9iwaKgKSSCZFY89oYywFr4WTBxcN6c5aK9FQaap7yjyG7ZwhGgAUoqzdU9OXrA75wsLhFoX8y8I9lbbu3VPy24n4gmpN54iGjDNIX7vWY0WZUzacn+7IaKLtwUTDdNDRnlaqacmOhaRPtJJPExFF5rhFnJ44d9sxuJw7HkQ0jAgo3NND7fq1KngtnLh1TyVp+lSc5jk/T91TJYhGzn28OEC7baJhFzSIBgBZyiIaX+kzxjKiNu+bXzjcROPlk8ZAuORVOYoPhNucDbsRaW2rQWcppji+aIQaehLs4Lklvo+dX8soO8I0pedGqesR6Q7Jisb8wE6qaWRnlOZ0Pp6bc1JjFfXcorc5WBaTYB2FDowaM7vSCzR+IET7h2XPIqJxtpdCnN4vg8jLXN7+RjUDKXNeanwgQIfjXCZ1yFyHrMSVy+TThKzwtWAW4zR+ai6zffGBcGOgW0id7jEESR8IfxDR4LJMHZvI/EBRJijU7OqlaY400skExRrlvljXzBD7hh5j5pfct3a+1hANAAzKIhrWlFvnLCmZSquLhWVO0bj/cTZaWdcpt/4w7e/LThvNFQ1mZY5GeHs1zbSWBaZlkGatfqNUgvojxtjBtsdbaWio0x7JLIzSQSUkxiCsa4vWLfoRluLU/3TQZWpwEdFg5o+aU13VfqMU26cP8KfZge9U+WYH1h2i4RYpCAWuhZqx5O/JCCavsU25bdjbpwbBLVLxXmr+ojHmoKbcxrOdcQ8sGmrGmD8zqUDGmqzpur5AhKLHBuigPnngonVfjOm40UMs7hANABRlEQ15W631O4sfOLzdbz+X/0d/f9Rxld79+b3MdFv5cR/efAsAANVDWURDsF4j8oscRcirQSx+NHWHPnfQiCLc7LMti/RvnzG+b/bXiAAAwEajbKIhfPeY8TqQX2q6RJ38/a7ZzZOvm0o32RcAAEB1UVbREDq0N91+7tAVeuPMHbJ+g5HP/nIEggEAANVI2UVDGDvr/U+YZFsAAADVSUVEQ3D+3av81auYfMffvQIAwMagYqIBAABg4wPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzZRONP+q4Sp/42iWbfe7QFbp552NzCwAAABuNsonGr++9nCMaYmNn0+YWAAAANhplE43/8uIVV9HoPHbT3AIAAMBGo2yi8affv+YqGv8zes3cYgOzskCT3Y0UDvipZtcgJc3ViuU5mj42SIf37qRQoyOtEAuD1FRfR02xBXOFSaFjCUszNNTCx/LXUU1H3FxZBLdjpSSfMG2r5XzqA9TQMkrzK2aakE7SbHyYYi1Slk6aMle7k6Lp3kajTLV+zms4k1cyFuF1st5pfjrMxS+WDgBYX8omGn994paraDz21xtcNJbjFH0kQLu7R2l2IUVp3bFSnLrY4Ta19FGsLeTu5F1J0tgzLArsHG2OvOCxmIVhag6E6GB/nOaXvHb7uR0rTZMH/BRkoUjKMdJzNBTxU6h3xkimBRraxc5/bw8N9TTyvoVFIzkYIV+wkybl5M28gixoeUt4poeC4QGaNxdzKJYOAKgYZRON2asrOYLxe61X6OJH980tqpupDpdWPzPfH6ZQT8JcckFvUXsUjfTxVtoW6aSuXfZjFj6W4ej3H/Ucyyhcj7V8ktprQxQ7ZywqJtqoJtRHs+aidV50urOIaLDA7Kij9uOaRJzro3DtXhpbMpdtGCLWPJzvPIqlAwAqSdlEQ9imzaD6Ty9coSupjSEYgrtoiEMMUntvDzVJd1Gtn7ZHemk6ZSZreBYNjia6AmF22NKa149Z5FgrE9RV20iHo63UkOkGcnQpOcl3LOmuqm2jSX3fiwO0200ciooGH4OjmK7T5qJC1gUo6qZ/cwPUUN9Kk8vmspNi6QCAilJW0Xj19G0lGL/QeIkWrm8cwRDcRcNwiL5IH02LGqQXaKwlQL5nRsmpG15FY7onaEYTTtEocizl6OsodICFQhr1yQT18/6FoqC8x1J5OYTAbZ1QVDTmKBZyRBpK4JxCIhjRUkP/nLnspFg6AKDSlFU07n9M9LmDxiyqF4ZdmuNVRv5BWNPhLYojdXTj5Ol68SQavG9DgFv4hgrYHXmxY8U7yVfbSuNaC1y6nmoCPTRtLtsodKw1FQ2jW60mM6axQOMHgryP41yE5DA1c7Q0ku8iFUsHAFScsoqG8PYHd5Vo/FLTJTpz4Z65tkpJpyi1ZNj4gTra3TeTWVaD0KrvP0JDtgBEIgLnOi+iIY5bH5NwOPJix1IC4tHRFzuW2m+tuqeYlSSNtxkzsXyBCEWPDdBBF2GVyMd34GTeAfJi6QCAylN20RCa/u66Eo7ffm6R5pc28kB4gqIBR9eLcq6riDRUpOAe1Rj7FTnW0ijtdxu8dos0ih3Ly0C4hRfRcCARkK9x2N6FJ8esD1MsX89TsXQAwLpQEdG4fTc7KF7zgvsMKln3+F9fo4YfLNFfvJmiv4/fpg+vrZ/A5Js9ZUwnbaVxSbLGGVxaw17HNLI4Wv9M4WOlaaqTW+Iy5iEiYo5peOv/dx7LMeV2aYZikTxjCQ8iGssLNHuskxr8Iep3DLWo6+MUEo1i6QCA9aEioiEkb36sptyKcPzWNy/T6VlWEpMPrqzQv9+/qNJ0+8y3Fs0tKk9qZoKmLrp1jKRoNqbPWBqkWRfPthaiUfRYK0ma7I7Q9npOl9+HdE8YTr8oLsdy/Lgvb14eRUNEV/1IcG8vTeqnJKxIFOWn9hNu15cplg4AWDcqJhqCCIf1IkOZUbVv8Ab97Od36bf2ub+n6pe/fsncEwAAQDVQUdEQpKuq+fUbriLhNIgGAABUFxUXDYt/PHeX/vAvc1+frhtEAwAAqot1Ew3h44+JXvvpbfrj7yYhGgAAsAFYV9HQmbm8Qn914haF/+Ya1b54lX7lmUv031hMAAAAVA9VIxoAAACqH4gGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeGZdROP103cp+N1byuQ7AACAjUHFRWPqwn3ytd60mawDAABQ/VRcNAYm7uaIhqwDAABQ/SDSAAAA4BmMaQAAAPDMuogGAE6mOuqoKbZgLoENwcIgNdVGaEjdthTNx+M0n1Ipm5g4ddXWUddpYyk9F6epuU1/0jYgGk4WJyj6dJC2ccWoqQ9QQ8swza9IQpJGGuso2J1Qm9lYPknt9XV08FiKpnsCVHNowkwwmI2GqGbXIOeQJTkYyV13qoeaHwmQL/MgemGBhnZJWVtpctlcZWOOYmFOr+2kKXONhafjne7kfWX/rG37YiNFT5Xi4I0y6yKxKtFYGqX9tTtp6KK5LMi9qPVnHmqDOB2ud657cKSMNR1xc6mCzA1QQ22AomfM5TWi5POxiUaCon6/egbWBqPeuj5vpaDqc+6z4B27aEx1+8m3b5Qlc+sA0dBZZucS9FNTNEEpEYqlGYpF/JmKmz7eys6ZK5wSkSzpE63kM5222ibUR7NmWsap1+6lsSVzFaVpvIUfiB7rgUhz5QvR9p09ND6zQKm0udoTVv511DysS5CJcjiSrj8oD3A850O2kqZkoo+a2Am3H1/to7JGoiGOJVTH5dBOgMvr4/PNXlvmXB+Fbdd/dayXaEhDJBhgcT9wku/c2rG2orHGJHrUOQfzNoZWyRqLxlYEoqETZ4cjomAuCkoErIhARRTOFmuaJg9wa8N6+BaNB2lk0Vg0WsON1MxRSta5casswBXPCkjEsQd7aNohRk7cHavhgJsbG6kmPEDz5lqL6W5+8Dhtt/6geDyeIs9DpqKnZ7ItrPnjbdQU8PO2ftoe6aUpy0Erx9JGQ4N7aTtHY10jsmyInDLz2qpz65+gkZawivJ8gQj1nykuSlOdfO07s45PHOxuPt+gJtypo3upZkf22qTP9NH+x6WsHDU93kojc2aCcHGU2sMSfUkZwtQ+LImGo8iUWb8eqQTF9hplrvFb2wuyD59DrIca/OZ9M6/FWLw3c60aWkbNSDYPK1JXwhQ7PUzNta00bnOgxjF0p52M2SPY9Jleav6iea4cIfbH5Zq6n4/a99AAjTwj52+eox55+4PU3JvICpdNNJzONEWzsVZqsOpEuJXG9IiwCFJvG/rjKrq3NQqYnOfAKV6u99AUycw5W2V1uU8rSZrsbqQQL0vZQ0/30nSmKtrP0ym86bOD9mMf1cq5SVhz0fjZ7Ar1j99Vn/m4eedjGorfVSbf8yGzqmQ67nrOrlIPUku2hTfVoQmEoLpD9K4Do/VrCYISHd5/lvPJ7KcqebblOz+wk0KHeikasSqbu8MsJBpdx0XQQhQ7Z64WlMixwzkhx8s6Oq/HU3gQjfREGwWDnTQpnoofuOlezXGpc62j0IFhml1IUVpVC/dIo6Y+QrEE78XRzGw/5xFgYTPT86Gub0YQ5NrzNTjLDzbnZTkRuWeZyOPiAEdJnHaO7ygfZ/5oK7do+fyUM56hfok0B+ZUOdPnZNvsvXU6CFqR89C2F2fFreOu01JbDOfiEwGdSxnRXOZasFDwcjp5krq48bD/aJ5rz6goVl1Lo3FijyYNh5dXNLjBcrA+SF2njH1SpzopxA2YETML5/mofWuD7GRnKLkkBbZfD1qaoC5ebj8haUwB0Ugde458Vp1g5ge4/rs0alxR9dbIV51/47Ct+yfnObCVo/A9zK3PufdptjfIywM0K6e5kqLJDl7ORHn287RdQ8f1lsZZkzx/eqNkE7CmovF3jt9gyLITEYlQ963MNv/9pWVX4ZBZVXVaXusyyyollTdIUb1b9QyHzVrIrJyWw7npTkq+K6cgXSRm69fZheV0mMqR1bOomHXPIudhURgOeP9RdtYSVWh9wKlhjj7kgVMPVfZB8Xo8hYtoGM7RKotxfFtrUAmpGW2pYztbyO6iEY5qT5fpCDIRWz7UdqYAy3d1L4zuP6NM9i4suR+246h0Px1Wz704hBD1n1UJDF+b+ARNXbT2dYgGXxufrSvSEFMj8jHysom4y7WQPPVIyY5DKKTu2RyvHKOAaKjjPUfjGY+bpNlTEzRrZuc8H2cDSepGaskSegNbec175CYatMwOWL/n5rZF7ydjEwor0tJumZQhv2gUvofuomG/T+mUKfIWsk+mB8J+nrZrqK6XvqNZzwfdHqyNy5qKxsPfzYqBmCw7kehC30ZM1jmR6bj6NrJcUVJcWXdwiyXHSUsltlpbKRp7po7DaHtTQnWHROTBlW2typz9rvqoM33uSRqJOBym6ehEbIzWH1dMFzMqruaApdspI2jGeuVw1ENlVfrCx8tBPWSOY6tuirgx7mM+RDnbWA+x7dgW7qKR3xEUwrgf4vTlulvRXOa76h60ojrjuLllta5lmqajO2kbt0ybWnpp6NSMeY4Grk7WJS9jG7kujvK7XAtnnjaSw9Ss9+nnONDcY9hEg8937HkWMX+Y9rf10UhiIUcAcs7HWZYFrXvKdn6S5nTWmmhwC3060z1l7evlfsqEEy2aYYyuqmx9LVxXCt9Dd9FwlIsjyGz3lGUeRINJad1T1r65PmRjs6ai8aVOu6OXZScbQjSk2yHipxBXBr3dYKFakxKuKofkEn5eHKDd0qI8k40uBCPqSCjHlW2ZG61iZ8XKPBhpbvVwa09s/EAd7e7jh8BcNhyA7oCNGV5KKHQBkbGaTKUvcjwnOQ+ZE3mIOPzXozGdsosG0eQhEcGEFl0wsr9EHVz+bDRgHLdQd5AiOUNTw33ULt13wedozCyD00EoJ6uN69hxcUYu18KZp04+UcpGk7nHsIuGQfoiX5tYjxrH8e3opWlThFzPRy/LMufPTr9pYCYjNrZ9bPfI7kxVXqp7SrsfXu6n2s5+vsrkXmplKFpX8tzD4qKR5vx5H+messTato/9PHOvh9E9lftsbh7WVDT+30/v2Ry9LDuRrijpkrK2KdQ9pedVse4psw8z1DFhb6HomA55JMYRhaO/1UBahCFqb4nYW/TiwFpas103Jmqart4tIJVtR65zy3lYFPaKqbq+wn00pHdVOR4Ur8dT5DxkTjhKCedGW2RdO/UgOffPfZg8OYI8qMhuH19XvifZrh85hnEPst0/5qQF5ywkq6zsaCalZWou8golwla5bA6C0WfNZcjUmVyH7nYtnHlmkevqMk1YujkzDlSOYZ9yrItG+mKcJuMcXRhJXDapl/lbyTmi4VJeEWi7k7TOMdeZ2u6nakgVv5/z/WH7mKFCImH72NLuAS0jvRxF7mFx0TDqpu26T7R5Ew3J2ybYxnNluw6bgDUfCP/nD+9T7B/vqs98iEhIdCHmJhgWlR8IT3ElkEGwwcIzWsyKJS0g12mujHq4nC1w1dfP6x394KrS1wep/RhXrswYg8MZMTkPosLhgNUgohxbi4CcD4rH4ymKiobZFSRjJGeNRzUlU3IfZ8cm3srF8QhyfYLszNNpw6XlnJvuCJbiFOscyM7IcqIcEp+zo9WvBut5vW28JdFDIRnslXNn1PjMI+Z4TpIjR+u6CGqgOvvbA5lAUNPIToHLrFqS4oSDxsB2UpbTCxwNhmi/qhMlioZMOXWZ3m04UKv7xrj3DT1GV2F6js+Fy5NxXHKu2n1Rg8J87lZ/v/N8ckRDDewGqP3oHKWXuZ4ca6Ow1C0PoiGDyTW7OKrhSCOdTFCsUbqpit1Po6vR5rBNMtE9f1flDPfQlJzk8hxfcz6WlXeRe2jUlUZutHG5VLVw3qcUje3zU1BmtfE5yzXtekTKbt23AqJxtpfrVoT6ExxpLCdpur9RdetBNDYz6iHgSuBizoqsBplzBnizqNZvzkNvjIHktqT4gZa+UG0a6JD5oOukZrQBvQwO0WCkD9gWAbk4fi/HU3gQDWF+ONt/bcsvj2ikWVh2S5+xOcBYUDTM7/kHUY0WdM7DKY7X5hAMUvHsNFSZORadyAq/PmVSptDu79OnmLITVQ5EKws7wH7tx6BN3ROGgJQoGnIP8/0uQ4nhvlEjjUXPKJMxrTV6iIVAa+0mJ3ps59p1XL/G9vPJEQ1GpuxmpwcP0kgnH9uKUvV75HCm0sU7pk2fjh4boIPWgHO+++mYZGJD/dbGHNSXvGWsRuUdpvaeNlsUU/Ae8vNi7WsMULvcp1SC+s2ZhaouD3Xysa1nvYBoMNIAk6m7Rl0Ypdg+5/jhxgeiAaofcSaOGWpgA4P7uaGBaIAqJ03Tf9VIh0/niYTABgP3c6MD0QAAAOCZdRENmQklU2jF1uVHewAAAFZFxUVDZkLpU2nF1vM1IQAAALxTcdHA370CAMDGBZEGAAAAz2BMAwAAgGfWRTQAAABsTCAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwjBKN23fuEAwGg8E2sN2+XfhzjQyiAYPBYNVgxZy+fJZikscaGEQDBoPBNrJZguD2qZu1fYkG0YDBYLBqNN35W5+lmJ53CQbRgMFgsM1gljDon7rp25ZgEA0YDAarRtOdv/VZiul5l2AQDRgMBtsMZgmD/qmbvm0JBtGAwWCwajTd+Ts/V2NWviUaRAMGg8E2g1nCkO9zjawiovG3b6foN//XIn3ia5c82e9+e5GOxG+45gWDwWCb0oo5ffksxSSPNbCKiIaIgJs4FDIRGbe8YDAYDKaZJQhun7pZ25doFRENSwjc0tzsQbeHwWCwTWe687c+SzE97xKsoqLxoOaWFwwGg8FczBIG/VM3fdsSDKKxrjZHrzfU0XfG3dI2q71D36l9il6fc0uDwWAZ052/9VmK6XmXYOiectrVBL3+/BO0vb6Oamr9tP2JZ+nVd5Lu25ZshUTDSNvz6pxL2kY2iAYMVhazhEH/1E3ftgSriGg8qK2faMzRG0/56dGWN+n81Rt0+9YN+vDdKO2pf5heeqccs7kgGjAYLI/pzt/5uRqz8i3RKiIah4aX6NAbS65pbrZuonHxNdpT+yS9fs6+fqpzO9UcOJlZPv/WIdqz3W9EIk8dpslFc9s52f8QvfXO4Uz6k8+zAN3K5nX+jRZ60s9RTP122tP5Cr30py6iofKRSMe0htfoQ2v/N/VjH6KfOMpqmCE4T/bNZNedjdITtXvojQVjuVA+k20OsVLlsRy94fR/+Gq3Oo9cUTPTj2SvwfamV+i9q/b0V8eO0IuPZa/hVCadbfEdevXZJ2ibnLv/Cfpm9F26bqV5uMbXJ6P0TZV3HW17rIXemMmmwWCb1ixhyPe5RlZ20Yifv5kRAa/CsW6icetdenk7O8LDCbqiOSHdrp88RA8/3EFvi/O9tUBTh5/KOnXT2atI5QZvu/Bj+g7n9803zO6td7vp0Xp2mO8uqCjm/Jst9Chv7zXSuP5WC/ke3kdvnDWioPdeeYp89S30E93hmvbhq1q5rOU9R+gKfy+WT3HRqCOfiOVMkq7weWa2U2akq2twjZcX3qVXOXrztfzYdPzW/lGakmt4LUGv8nk+3PWusf+tGXr1CRaCrneMe7Bwkr7zMAtgrymAxa7xuVc4MuSymucmIv3w9g6alLKo48NgVWrFnL58lmKSxxpYRSKNH47feCDhWDfRYLt+5jVq/TK3UqWFeyhKP0mwg8+kG478xbe0rqprP6YX2aG+cZG/K4fGzldzUOKAfR3vmN/99HCn6RyVcX5ukYaVZhMNY/nZI3p5FuiNPW6tfbaFI/RsxtEb2xn7Fs+nuGg8Sq+etfZ1mqQ7orXJbno4c11y91eC9pQpcOMd5NveTVO6aMv+9ez4ZZ2Ha/yEJTDKWIQe9dNL72S3h8E2lVmC4Papm7V9iVYW0bCcfj4rJhzWdm5pFTFpob57hF59/ik1IL7tSav7xGglZ7qNMmY6VOXQ2LlpeYlDq2kTh2Y460yLWJmxzptouDvrqa7tZv729TahWHyTvpnpmiqeT3HRsL67mUv6LY4WCuyvR0Xq+/NWVGKaKr+5j4drnHt/8l1jGKyKTXf+1mcppuddgq2LaBysdtHQTbpL2BEZ3Sfi8LbTy++6bCe2DqIx2cFRkato3KErR/ZQTdOb9OFbLZmuKS/5rLlomNFYvv2LioYaazL3eeBrDINtEbOEQf/UTd+2BKtI95S8e8qrYIitl2hIX3+Ns2uE7fwrT5rdJ9Lf7hhgFrO2L+jQ5HsFu6fEzAjjm01+bb/i+UiZv/rKGoqGGoTXu6fyi4a37ql81/gGvd2ij5+Y5rifMNiGMN35W5+lmJ53CVb+gfBztx5IMMTWSzRuX3uHXnrYT092nNSm3L5Grbxuz2uGE73yxrPkk8HsM0Zr9opMyX2MnZwMCBcRDedA+HtH9hUYCL9Dbx/gCKfjHbp+wxhDMQaw2fmeMwewX3uWnSkvuwyEG5akt5r4+A4nXSwf5cSf6KZJNVA9Qz9peVjLw4toZAeqb9+YodefYrHka5AdCC8gGuZA+J7ed82B8Hfo5cecA+FFrnHtw/Tim8b9un7uTXrxy8/SW+asMRhs05olDPqnbvq2JVhFIo2Dw0ueBUNs3URDbDFBbxzaQ4/KtFh2ftv+5El68dWEreV6/kgLPammexpTOl83BaSoQ2PzNOXWtOssSF9V22bzzB7bnCpbZDqp6qLSZlFZVjCfW3P01r5Hycfn59v+BL3YdYi++kCi8SS99Ep3ZkrsE/tey5lym1c0xBbfoR/+2cPalFtzJpWkebjGV945TM/+iXF/fNufopdP6lEVDLZBTHf+zs/VmJVviVYR0XhQW1fR2GQmXWJ5u6/KYsVEBQaDlcUsYcj3uUZWEdF4UBGAaKyBXUvSlYT8ZiH7g77KGEQDBluVFXP68lmKSR5rYBUVjQc1t7xg3kzNhqp/lFrfqGSUIQbRgMEqapYguH3qZm1fokE0YDAYrBpNd/7WZymm512CoXsKBoPBNoNZwqB/6qZvW4JVRDR+s/nB/+71d1rwd68wGGwLm+78rc9STM+7BKuIaMi7p0QE3MTBzURk+ngft7xgMBgM5mKWMOifuunblmAVEQ0YDAaDPaDpzt/5uRqz8i3RIBowGAy2GcwShnyfa2QQDRgMBqsGK+b05bMUkzzWwCAaMBgMtpHNEgS3T92s7Us0iAYMBoNVo+nO3/osxfS8SzCIBgwGg20Gs4RB/9RN37YEg2jAYDBYNZru/K3PUkzPuwSDaMBgMNhmMEsY9E/d9G1LMIgGDAaDVaPpzt/5uRqz8i3RlGgQAAAA4AGIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACeKZtovDl1h/7zoSv0ia9d8my/33qFfsT7bTzi1FUboaEFc9HJ6U6q2TVISXNxtSRjEc/5qG074ubSA7IwSE2FzgcAsGUpm2j8h/2LrsJQzP7N1y/RP8/fM3NZR+YGqKE2QNEz5nJBIBoAgK1B2UTDEoEHYVffktrncwevUHrFXLlOTPcEKBgIkO/ASUqb6/ID0QAAbA2qSjRu3P6YPvstI0LZf+SGuXYdWElQNBCm2Olhaq5tpfFlc32GFE33Rmh7fR3V+MPUHuulg7qTTSWoP8KCU1tH2x5vpaHe5wo4+xTNxlqpIeCnmlo/bQ+30thFM8mBUzTSZwepPWwcx8flbT+a9fJq20MDNNYSpm2crsqppQvzx9uoyTpupJemlswEiAYAIA9VJRrCT2fv0i80GvvK9/UgfaKVfMo5p2nygJ+ah+3uPnV0L/mCLCYXOQZJJ2k6GmHHbTnZJI0946fQgVGaV8kJikXYMecRjdSx5zivTpo0E+cHOK/wAM0bizZsorE0Sgfrg9R1ytxxboCa6lno5oxFtW1tkNqPLXDUlqbkqU4K1WbT0xNtFLSOu8LnwCKYyRuiAQDIQ9WJhnBwOKX2lahDoo/K4hCKMz0UtDnxBRraVWcXkpWJbPeUcriNNKIlEzvovJHGcopSeiRjOuyRRXNZwyYaLASpJb3jzChX06BxFCPSmFDfDdI03lJHwZ4Efze2bT+u7b98ktqt40I0AAB5qErRuHefqL79qtr/q39r9ZlUiOQwNde30qTlyK2uKrOFboxfBCgqvjeDNqYh4xeBHpo2EgwKjWmspGg60z1VZ5q7w7aJBpPSuqesfZtixo5qW8eYxvzATnOdlDe7T9Z04YNoAAByqXrR+EpfZUXD6NbJdajBbksl1lY01PFUN5HZ6i/gsG2iobYzuqeMSQNmpOFZNJznoAHRAADkoaq7pz79fKW7p+YoFvZT12lz0eJcH4VFCDTnvFbdU1MdWUevuDhAu72IRo4Qcbl2OEQjb/eUnGcdNfRnwicDa8YaRAMAkIeqHggff7/CA+GJHgrWd9JUznRfdrIhP7WfMKIB50D4VM/OAgPhcYruyD8QPtsb5LRemuZIQw2aN0o3lQfRONtLId6uP8GRxnKSpvsb1Swpm2gUGAhX51AfodjZlLGc6KOmx1kY5RQhGgCAPFSVaKz3lNvp7vy/y5iNhqhm36iZtoZTblcWMtNifYEIRY8NcF4hip0z0zVsosHMH22lBj+XoT5ATd2jFNtXR+GooQpGpGGfctt13F6C+eHsWIoqpykgEA0AQD6qSjSq6cd9AAAAcimbaFgRw4Na1bxGBAAAQA5lEw15YeHnHvCFhb/XeoWGz2zEFxYCAMDWoGyiAQAAYPMB0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEA9hI371L15Zu0MKlKzT383l6/9zPafr9WdgWMrnncu+lDkhdkDoBgAVEAyiu30jRhYsLdG72Al1evMrLN+nOnTSt3L9vbgG2CnLP5d5LHZC6IHVC6obUEQAgGluc1M1bqlV5cf4y3eTvALghdUPqiNQVqTNg6wLR2MJIK3L25x9CLIBnpK5InZG6A7YmEI0tyL17K6q7AQ8+WC1Sd6QOSV0CWwuIxhZDHnLpYkh+tGSuAWB1SB2SugTh2FpANLYY0jqEYIC1QuqS1CmwdYBobCGkSwFdUmCtQb3aWkA0tggy40UGMAEoB1K3MKtqawDR2CJI3zNmSYFyIXVL6hjY/EA0tgDyoyyZYw9AOZE6hh8Abn4gGlsAGagsZ5QRHV+mPa9epwsf4dfjWxmpYxgU3/xANDY58t4geQ1EOfj4Y6LGgev0ia9dUvbvnl+k81cfdPplimZjrdQQ8FNNbR1t+2IjRSeSZhoonQUa2lVHNR1xYzHRQ6FaP+0/Wp5rLHUN76ra3EA0NjnywrlyzGwRwdj9ylJGMCzb8f1r5hbeSB3dSz52Yg2HBmn81CjFng/xcpAOx9PmFtVOnLpY7Jpi1drCdopGL4Xr/XTwmCkapztZrCM0tEbFl7omdQ5sXiAamxx5U6m8eG4t0QXj175x2SYa3xt7sG6wqQ52aDsGKDuEmqTpY3Ga3yiasdFEw8kai4bUNalzYPMC0djkyIwWeWPpWiGC8ZUfGoIRm7xN/zCTpl9sNATj2deum1t5Z74/zE4rSO3HFiid07Pl5vAcTnolRVN9e6nBz9txxLI93ErRQzv5eydNGVvwRRilrkiAIxjexh+k5t4eOmhz9IW7yNJnB6k9rO3fPUFJKatyuHJcy9ydb3Kih5q/aORt259Rormrl0Z6I7S9XvLgqKtlkGbzjSenZmioJZzZNvR0D00ummnCkpG+TR0rTO2xOI208HfrGi4MUhOndZ02j50pO9uuQZbs0pC6hllUmxuIxiZH/hthrV5vvsLZWILR/86yWjcYv61EYzWCoVhJ0vgh6ZJipyUOtW2YpjM/WC8uGtM9QeU8d7cZ3VtDLBgqL0s0kqO0nx2s75G91D88QZPDvdQcNJyklcd8LEK++hB1Dc9QcmmBpmPPUSjTRZagaKCOgi3DNLuQovnTvdQU2En9cfbqyRmaPNVHzZxXmMs9eYojJOOyZFmaoK5HQnSwn9OWeP9TndTA5Qn1JFSy5bh9O9po6NgEi0cjH7uOGvrnVLqNFb4eET+fSxuNzCxQaiFBQ/v4/IN8rnLcFS6rnJt/J3XFRmny2CB17eDtRWBcRCM1w9cj2sjH53Mf4u9xFm5jq1UjdU3qHNi8QDQ2OfKnOmvBPRaM//E313IEY7URRg7igGNt7JC5Rc4O/PBpaWoXEY3lk9TODrEhqjvYFE0eCmREQ0Uy9a00rrfcLw4ox6nyWOH8OI9w74yZKKRpXFrnLSf52xzFwuzUI700NZdyiYY8dk+lU5Ri0UixV548xHmbrXpDNJ7TypeisWd4XcSl1c+RjY8dfP9Zc1mQa8DHbz+epvSJVk4PU+ycmSaIkLDouYmGYo27p4S1qnOgOoFobHLW4gEWwXjsrw3B+P4pQzAGTq+RYKyws9Obt9KaFqFQTrOIaDgdoEmSIwdLNIzuH6cDzs3D1k1jmbVfaoZGuvfS7keki8rZfVRENPh8Rp4xu7aUmS1/XTQc5XMvs3VeVj52k+Pr562j8oNogDUCorHJKbV76i63rPMJxtP/t9QIw2gF+1SLPku2JW6Khp6eHFbdQcpJm63sQpHGbDRUONIwo5XmYbuLTp6boZQZVSRPj9K0lZxOUH+Iy9xpCVlh0UgOiiOPcOvfPIMVjiQkilmFaBiRRCON6AkrSZqdMVZUQ6SB7qnND0Rjk1PKQLgIxpf/z0dKIA7/xJgV1ff2ckYwZFC8VMSpSus9/EwvjZya4Bb9TjWIawnBdI8IgAxeD9PksQE6+IgxoGw5aeeYhjFll51k3jGNHtqtBs2zecz2yziINi7SJmXwU9Mgp6cMUfE98hzFjk3QeKxNjUkEzTEJEY3Dkr6jk8s/TFO6w2ZkSrEx0D9HqaUFmh1uozBvvxrRoJU5iu3g89fHLHZKd16ERuRUrDGNevuYhopG8olGXLq8OHrq5Os7HNdmsa0ODIRvfiAam5xSptz+eb/xw71yCYZF8lR2dpEvIDN+sq18a7aQMRvIEI9+jj4yLXvH7CnpOhrvdXTTaLOnfIEIRSeGHdFBSjlzNZ5ibtPFTj6DPvuqPkBNbaM0r41tpE6wkJjHj54xV1pwJDDZnZ0ZFXq6l6L7+PtqREOQrrK2bH7bI200rgda+uwpLmtDi0wO4O/5RIOPMtlmXd+enK6tBwVTbjc/EI1NTik/7vtid5L++LuG6+o9eassglEy6QWaPmt3r9PdHJ2E+sjqWU/NJGhe754yu7hk8BisLfhx3+YHorHJKeU1IiIav9F8mQL/O6kE46m/XaouwaA0TXWa3VPdMuXV0bUkSMtauo/M7iWZcrtfurisaapgTcFrRDY/EI0twGpfWLhv8IYSDrHmv79B96tKMEys7im9a2l4xjawrrqXng4aXTAsKA17e+0/iANrAl5YuDWAaGwB8Gp0UAnwavStAURjiyAzWsr5enSwtZG6hVlTWwOIxhYBf/cKygn+7nXrANHYQsjMlnK8Jh1sbVCvthYQjS2GDFQmP8q8ERCAkpC6hMHvrQVEY4tx796K6nuGcIBSkTokdUnqFNg6QDS2IPKQS+sQXQpgtUjdkToEwdh6QDS2MPLgywAmZlUBr0hdkTqDBsfWBaKxxZEZL9LFIHPsIR4gH1I3pI5IXcEsqa0NRAMo5EdZ0t0gr4GQVqS8eE7eWLpW//oHNg5yz+XeSx2QuiB1QuoGfrgHBIgGsCHvDZIXzsmbSqVVKf+NIH+qA9s6Jvdc7r3UAakLeJcU0IFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGeUaLj95SMMBoPBYE5DpAEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAz11M36f8D6+k6ILYX1tEAAAAASUVORK5CYII=</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       creativenative.com.au      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>+61 466 401 977</x:t>
+  </x:si>
+  <x:si>
     <x:t>!4m7!3m6!1s0x390ce1e56048842f</x:t>
   </x:si>
   <x:si>
@@ -145,7 +169,7 @@
     <x:t xml:space="preserve">       14/B, Anupam Enclave phase 1, IGNOU Main Rd, Saidulajab, Extention, New Delhi, 110030      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADzdSURBVHhe7Z3/cxtnft/7d1yTpsm0TdrMtJlO2uQHJWXAGY6QXoXGY/Q8h8RjpJoTIwdu7CMjh4xOVhiqkodH3TFUyjINE94x5pkxHMaseRYtnnVSxKNOIe8qhjcy6ehIn0zakmFTgkQZNn2ffj7PPgs8u1gAD4kvBIn3a+YzwO4+++yzD579vJ9v2OefEAAAAGDB77V3EEQDAACAFRANAAAA1kA0AAAAWKNEY+mtFYLBYDAYrJShpQEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABraioaH9z/MXW/mqbPDXxAP3/8PWXyXfal+BgAAID6pmaicX7xI/rXf/gefeaL7waaHPvmwkc6NADls3C2mQ6cnddbu08qmair9IAdcHuZ5m6k9Ea1WaeJo83Uf01v1gk1EY2X5x5mxeG3/+JDurSU0UdIfZd97nEJu6tkUrQyP0nJrjaKR/poQe/OJ0MLfVE60FQgzOZl6m3hY1v8/Vofh2MHlrUwxY5008SNtBPWigzNnQrTgbZJ2s5Z9Y5ypJ680VYB5wrRKIB1GTdxHFh7cl1vO6xd6KHOR7hcym8WjlJnzzStSZl3UWU/SoPzuWfeYZ76+RyPQ9xK0dy5NoqFnTJw8PEOGp01HbSck6AJbxI4aePUHrRf0M9e6+iq3uElc6mbQnzcf1+FSE20USg6RCt62x4n/7Llmy0UidPJoVlKmfnloUFF4/a9T+mnjzmC0Dt1X+/NR45JGAn7Hp+zO8iPFKbWjgGaGGjjH7bIA7U4QDH14weHSU+2UfTcorOhCq4RbnOdlobYgUQGaKlggfGxMU0nmyIU5YKWDC7/exLlSI+OUzXqbhCNILZRxj3ki8Ya308oeoImFtcpw+U4k1qkZCJMoWPTuYqNW2GK8nU29T6FXzRSdPEYn3u4j+ZW05TeSNPalT5qbQlT7yU3tp2LRvCzpitifNxWNHaOL/+2MpRenabeaDPFBrSfyKNBRUPGK0QMYn/2gd5D9DZL659dekBfPn9ffXf5TQ4jYf/4/+5iXdpNjt/Rm2ytUjLOtae+7gJh5MeOUfKm3gyKq1hBD0BEKHTqMtfEIhQf9qqGckZnpmmBhehQCz8g4Tj1ns9FLM7T81B4ru08iKOTQ9QekQcoTIeOjdGK8RNkboxTbzyiamRSOzLjdq49Rhe74nRQHk597fR1I77EEC0V+ElLiYZK++gsTen4QxFO63UjsvQyTbjXbolQ+7lczc0rGmlaSXZTq5umeDddvOUcWeI8DXmcOf++MXFWunacZmfYYdzfZAHVVvnaQxPn+TqqtszOuedyNj2lfidvTZtbo0/78u0WOxnzdzDTsbVOMz06XsmHoXlK5zlJjU0Zz8Pn9FRL2sgjl9QkdTb5y36cWuN+5+gTjesDFG3pphlfOZFyrxy+2tqhaBxuo07+3YPTysfavM9HyfLullf9e1+cz5X11i5fSytLvugK6fMddCA2km25rLllR5XlMRo83ICi8Z+ev6OE4O+WnR9MREK2Xfu5zveywnHlrYza96tn7qjtXaXIAyUFJ9R1mTKFwqyO8UMyRmt6My8udg7S0gglbGvYIlJhp/BI3L5akyrITVHqvSA1vgylLvVQtKmDLm44x0uLBj/Qp7iwS03QrS2yQKlfjFs4p1ui1H9Fp5Sv396Sa+2oa7ckKLmYUtdem+igEDuTQ20jtCSnbLJT5/iiBWpTnocwAOX4dfxSO1sZ5fBZJ7JOUxx37Oys4yA3llXa3a4IUzTSF05wrZhrsfpCa2Oc/+5vxK3GqNuVKEgeswObk/xgZyw18/axVac2LY47EuHfwueABJWvHHZ4kVJ8WIXlmqSbnlK/08pQlMsEC7ZEvZWmubO87f4OtEyjUSMdN+V3iNDwdTnGYc9EcvnAv+FogIPKo0gZz8fn9CTPmtjJe1oPAehrzN0coVa+d84ajVc0lgYidECeKWczh2phH6EJJfA7FA0uX3Oj8bz413if5O+M+XzYlHePaOhnR37v1GXqjzTTyfNBNaRg0ci8wRVPtzxL74VR1tcudKvejIYTjZ9sd8Th3kNndtTgtx94RENM9gkSRrb/GZ+z6xR6oFJciMP8oEupKRBGHgBP4VDhpPZo2GdPOHHY4BGKFE21eWtNqiB7Hgh5uMI0qCvPpUXDfSg1UutzHQIX3vSG+ajpwj/uJF5d+8ys+q7YmnWcgbGrmDA4jtSXN4YDkLR7WlY67VO3+Ts7orjfcS1P0uAo17L5qykatJmmtBnOjIcWaZiFwHHATpqyzpp/u5BRExRWhmMU6jNbJhoVZw/NueLDqJqyPr/U75RJcxrNrJZyI2KmNiRsjEZvqA2Gncr8LC3c4hPUdb35oJxRqUpJoTIeiM/p2Z5rhFsZZscd57xQ+SP3k3OInt/KgxlOvu9ANOTZ0a2KKTdDtnK/uef5sCnvHtHw5rvEFVg2gkRj3ds9tXCWK1dul7aCz2nElsa/0TOmXNHoec3prjLNLxpyzq4T+FCkaaZLantFHhxVGI3CKfjDSS2Cm6HRvH7eYKT7xBzIc7uq3KKtCrLngct/IIuLhu+BU44/ty9tNNddx+7GV+ragudB81HsmFA07ZKvh40WnQ+PI+Ka+1K2e8q9j9w9itA7rSGvKKv0ZcMbFuTgVNp85eHWGD2l95XMK27VmAPBjrnxZWhp+AgdlG6LriGauLKc635S5cs8R1uRfFUElvFClBANXxqy92SGk2dDWl6qEpBfRgPz1BMuoKwKpURDXd8Zv8g+R7w/pCti/jJWsrx7RMObf4Xvw8k/M49Ud1af253qHPe2Upx95rNUD1RdND771ZQSgvnVj9W2v3vqZ43uqe+9/bHaJ+fsOv6HgpHuqGjUrfEzQWFkNoa/mR0QzqndNlPvG56Q+WzxgyL91J7CJpYTplLOqKjjDXoQpb/a3afCOs116RZxC7LnISrmCBnPg+aj2DGhaNolXy1FQ11HdU/p/PY7GulukRaBdIe4XVOMOs8c2C1GgBNxWkPOvuJ5leH0sqOS7im3IhFUblLLtDA5Qr0JDhvl1qqbD9kuu20QWC4L4RMNdV+5rrUcvt/ffw01gYTz/ZZukepwVe2ecq8vLWglFKaAcCUhYdyXTXkvQzSy11ECGmaRcEu+cxyiwZzSA+HPfzOXGSIS0rqQVocrGILbCpFzdp28B8opXPnO2zH3wZfCmDfgFvhw2omGEqE8p5rhFk8zdU46e4s7I6cgP+W2jgTPQxbwIJrdPpJ2z/W5IHOT2fMQ7ZZoBHVPyTz6+XXlfMwHOC8e1QIw71t+jxgND3R7nJfKf0NEFLki6yXAiahuIrN7qmBeBTiI2Z5cuWGxmJPWhTogSItI35N0Xzb5ZtUVSqNJYLksRIDT4/LrlsEcvt8/7xp6qvrRBOeVEa7AQLjkn2oRqK15GuQKVN4zY3an+vFcX09wSI4ZXVW++7Ip7+7xckSDce6Nz9fpRveU5gdrnygh+LcnbmvlDuZjPiZhJKycs+vYPFD+MFIr0k1eD/5wmRQtDSfYGemxEXYFC6N9lJz3i2WaLh7zFjQX5Yz0QG4px62OxwdoQa61uUozp+T/JaZo5AbzKLPqDFxzfOrRvDGkaoajMtC9yekebVOziDwPUZFrC54HzUexY0JR0eCHynYgXAaZDxwdoiVuaaipoW3STeUVSzVWITOCTKeku1Qkf1T9JrPO+Rejk3nOklFpcwbCnQFprk3zuXZ5xb/1cc53mX2zyWlcnab+xySNutzIWFqLM4iuUIOuYTp9QcqMnq6aGKElqfnLRAsuX60Di1nxCySojN+cpsE+ToPezBHg9Pj8WMsRGryy6ozFbOppslxTz469BF1jk50/50uusiUUnnKbq41Li4R/xygLBIdREwJWZ2nwMJeBPl1e/fiuL4Pfct1c967vvmzKe4VEw93ndNcxvoHwlckTnoHwtfN9NHjerBnsDlUXDeE/6y6qb3w3qCrgIFNwJcyvf6WQ+6gxQYXdjy+M578ZJiqc85A45kz5zP25TxcoPdiWRQ3eFfhfhupCcgZGSzrurXW6+Bw7RN6nphAO9Bi1bAnLD/7YQHbaYPy5cc+UW+80wGlKHs8NTpe8NlNMGNSxbL4YpsMXFw3GnHIbjtPJkdxUU88DLHlgTNsdvjBGp82poUJQy0XYmKfRp6PONVQeFPhDlkrbCRqVsRM9bfYpI2zJvEov0qh0O/G+g49z+Zjo86THnArq3KshCluralqymnIrfeVd3t8wkKAyLvuyg+8mQU6Pk+zp/5c/rfr+kFfgOVKCY967UPLPfYxvbEr9Qc74zfPwX189U7lJD0H3VbK8V0w0GLe7Tu8uNuVW4g4eZK8tNRGNCz/4SAnCL3ffoY8CGhHyTioZ25AwEnZvItNid/jHO9XU54IcoDfVRxyXt8YNdkiAE9lrqNletmM4oIY43ZHB03lrS01EQ/gvfU5r4/Rk/k23fm1DHauLAfBdILM4RJ2FmtdVB6JRMfa8aKTo4vEO7/RrUB+kpun0sfECfxysLTUTjX+8s6X+syG2cCvX3Ji87rRCZL+EAbUGolEx9kFLA4BS1Ew0BPf9Ur9y5o4axJLXobtvvv1ykfdSAQAAqA9qKhqf/pjoN8453VRfHLtLcf1220h/Sh0DAABQ39RUNIR3736q3jclYiEm32UfAACA+qfmoiG4s6nE9u5sKQAAaDx2RTQEGcPAOAYAAOwtdk00AAAA7D0gGhUlTWvz87RW8P8325ne6vu3cFFKXddkf06xzazO08Iq/pJWjFL/ZvZQ07WwwV4CouFHv5bCfR3DoXhHwDuhCrFIw2H3fUBBVEk01MIxYePVCMXYqWg4r0HwvOpDW+k0FniFwk5RDs97DwvnwhQ6XuV/MqtXUliud11xnGtk870lQq0dQzSn1gOxYzuiYb0W9laGUsvzNDXSTZ2PRWjQnwel1iP3rbyYt/Ld7Vka1q9WUWuQD5nv09KrMRqvHUmaqzoyqVn39Th8/JE276qPYEdANDzoF+DJy/vkDWzyQCyOUHtLkKPYCVUSjW1RnmjszPFXXzRqghINdlAl17uuBt5rZNKrtDB6Qr3gzvYf3NtqaVgicYqzHkwOUGdeHsjvHi6yHrnzVmh5SaPzMkjnZZmxoWXnsHo1D5cb3s69ADJXKZOlUs3VGNNX5AWKJ3Kva1dv/03QqH7HW95xsCMgGia35UHyrWLHyCJI2dXpiq7j7HceabWsa3Y96OQQnTacXfGX8fni2s51S4b1rQleZA3vHMUdf2a2h6LZt/YyN/XynpfkniQd2lynxWSuj9DJx3Ut8PFumnLf26XyIXjtZeX4jPjc9PhfFJeeN+P21kBVHMXW6i6EEg2L9a6Z4HvLf2uxfx0J81XqXvKvIchbX0Pmu6KKrBWeLxqF17f2hC2GDl8ofUXXI9cv3fS8NFJeB+/ef8ALJNfGjuj8SvN9xuikp+bgTYO8tdi7RgeX4cMWa9iAokA0TPQaAdmaTQDF13H2FlqnJsSFXpbkdF+HvkPR2M51bcKq12iLR9BreJsrAQZTqrXgrGrovFLdec117nXVAefekrWX+V5vcgh3JUN3bQGVD0XWXvbkk4NHNESwWo7Q8DXH5akaprwtWDsnR3gKr9VdEO34Sq13Xeze1LWzjkzWdxDnzsd0ecutIOjHdw0Xj2MtvlZ4vmgUzmNr0chSIH0uQaKhhctcHtdc6VCd419kS0QlKF2Sz7KmttEKlDLhWUeGmTtTrAwDGyAaPuT106dlHQN59XTPCM0se4tn6XWc3QfHcZSeRWp8y6huRzTsr2sT1teaUo6nlNN07ses5SszH2C15kOchofZCUfYGWSrv/miIQvOeNb+1gvkqPWyVT54a5iSV9nXQpcQjfzFbJzWYkgf9zpuQfIkt1Z3QQzHV3y96yL3Jnnt/hZyH7E+6j/mvuFY8ilcwPF6r5HFzIuAfFMtF71WeL5oFM7j2olGkX1yjj8NefuMcvnZjlxrlcl7vpigfWB7QDSCkFrLogzeOc38g0eM7pui6zibD45897/uXPbtTDTsr8uUDOt1uH4xCybf8QehnA07YHPhnPxzjQfdZ+oeApyJKQrefHLIHXfi9ndBSKvPdTYqjW5cCl/+FcJ0fHpxpvz1rkvcm14hUFo9kiZpVUh6lMio7hqvI89RII1mXqj0BVzbvG/X4ZbI470jGhq3pWF0kQYJRNA+sD0gGqXY4loiOwGny6DUOs7mgyPfKyUa27muTVifQFRQNFQNnEWjfdwMFywaBdcGKOHQvPnkkDseLBqp8ZwTrIhoCIHrXZe4N0ZaIu3jqzTTpcuHtD4kbfN93vEJDwXSaHZPSfqKrBVen6JRoe4pBef94Vzey/2ge6ryQDQMVFM+YLlWNfimmviOQ/A8GOY6zp4Hxwlbqnuq+Nrd3ri2c93iYXfePVX0gZO+fEn/eVm20hgUzzvXmTWTN47i5ntZoiHfLbqnKiEaItB5612XuDdGlbO2DjoZ5rjUfum+SlBvV8zXrWUSnEbPQHiJtcLrTjTKGghPqdUoT3uW3eVyZgx0YyC8OkA0TNTaxWFq7Zs1ptyO02ne59ScS6zj7Htw/APhCwNHPAPh6sEssXa3E9d2rmsXtuBA+DbWiPaiB79Vi8wZkI2emc0+sFLDi8rAeEbvUbX03JrXmVvT1PuYFppSoqHEN6KmQbvReY6zs2l111pm0tcGHGdqDoQXFI1C67UzgY4vYL3rYvcmqPvjcwyHpmZR5bVMTbxlS6bczp07Qgc9U271OtsF1grfsWhszFOyb4wWilYqvOnLIyjvOFWeKbe+Nd6VmJpTbtc5H/lZ7L3k5Jpa79udchvQPeWfcptSx7tpzhAhsH0gGn644E715MYDDj5yhHqTy9mHu/g6zv4Hp/iUW7VuddG1u424tnPdkmF9U26PjeXWk5aHOztobuKIhqevXJsIidSeQ/xAzrjxqEHxKKfJ2ZFZHKGnJE+NuNPzQ9T5iKRB7j9Bw+560KVEg3+NpWF2mHKeHrj1HvfGrabcGiJQXDS0OPrXaxcCHR+nhvf717sueG8KaVn4urA4jpDkjdEy8OKk0c3zgn/uK7JW+I5FQ4VN0FTRPxL6yqCfAnlHvj/35a2/7vlznzxDxrO4xQI/0pFdj9277r6D58998iz4joPtA9HYF5R4YLdBw68Rvavrtdcp1wcoWmSsBDQWEI29jmq2j1NnwJ8Stw/WiN7d9drrEW7V/VkbDeoWIwAQjT2OmhUk3RDn4OgAANUHogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArLmbvg/RAAAAYAdEAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWLMrovHytY8p+tUHyuQ7AACAvUHNRWPhR59SqPu+x2QfAACA+qfmojE2+3GeaMg+AAAA9Q9aGgAAAKzBmAYAAABrdkU0AKgUC2eb6cDZefU9lUxkvweRWZ2nhdW03qoeKh1HxymltuapvylBE+tqI5+tFC1dWabUlt4GoM6BaASQnh+hk/EIhZrYIbVEqLVjhBY29EGD9I1x6j0SpYMcrv+a3qlZO99NrZEwHWgK06HEUOD5ivVxam9ppvZkIa/iRTkkSVeehWnQ9Ze3Z2k4kUt/e89lWivglFR8LQma8l9e0lXM2VUEcajGPai8HqK52/qwBdsRjYVzYQodn6bisrFOE0eNNHG+xp7uoakb9mKzLdG4PUmdLVEavaG3AahzIBo+Mtf6KNZyhAavrFI6wzs2V2nmVJQORAdoyXC8qYk2OvTYCUpe43CbeqcmMy9xsKO4yRFwTXLuLJ+fdSImKbp4TITFXjQCuT5A0fgYrcn3rUUajoapfWyVMpLezCpNJNjxDS3L0TxcEQolfOmroWi4gptJr9LC6Akn7245+0qxHdGwwxGN7O+xuU4rF/qolR17/zU74diWaACwx4BoeFilZLyZWkdX9bZGHHGkmXrfEBVhNi9Tb7iDLuargGLuTDPFh404JHxThIYX9bYm80Y3HUz0Ub/ppAzEIZYWE0d4Oid1YpbHqD02QAumwHmcmBd1LBZnpximk+eNEAGisfZGD7XntZ7SfH1vOpcGInSg6zLp3FL3eSA2Qit6O4dXNFyWBqIUOma0CNKLlOyIqxbdgXCceidzeZsnGmemaWEoQYe49abCns+lywxbGJ9oaNLnOyjkqzgE50ewaCSvTFLv47mwS+7N1UScAagcFReN761s0ejMx+qzEPc/+jFNzH+sTL4XQmZVyXTcms2u2pimk00xSt7U24WY7aEDT/dRsstwZFnnFOR0nH0nzxs11U12JpE4XyvYSQlWorE6xg6/m+Z8rZ0sKXa43NJoHw+Ox3VwK+zYQy2GEPqcWYbvORrtozk5Lv3w7Jhdx6jiyIoEC2+M86SlLytcIiLRAZ9iKoJFg26OULypm2bknrYkf3Itp8ytaeqNRPgc52p5otEUpd4L6xw2Q6lLnOYmviftzMsRDUf4c2WjZH54RENaciO0JDs2lynJ8WfzA6IB9hgVFY2/9v0HQ7b9iEjEzj3IhvnNP90MFA6ZVdVsxFWTWVaWD7DXOUlFeIjPi+qWRIZmunwtDXFEh72OSGrTMeU4yhGNDM2dCue3jIRrfZxGdpJs8b75bK3fT87BpTndYQq5zt+TF04asy0tQTnRBE3J+IM4eREJ2S/nxbj1dMxtWTlOP08YFAVEw7w230fI10pZGY5RiO9JyBMNo4XjxJ8b6ylLNDxpLZ4f+aLhrYio4253IEQD7DEqKhqPfjUnBmKy7UdaF2YYMdnnR6bjmmFku+r4H2C17Thec9xhoS/sc06OULi1x8wlqbVzPHpMY2k4oQals06GnWxrpIfmVMPD66QcQcpd07Q855qapM6mNppyvFMwuqXhCFQ+HgeX4pZWS5jTyQnz5IXjMPPT5B6X7jvHMUo3juSDxKuEUzlT3WrIo7RoFMwP7fzzRMMjCt74KycaxfPDk6cqrJtPDp7jEA2wx6ioaPy3Pq+jl20/dS0aBcYe/I5Earp+5+N1WGlaGe3I9asnJ2kw5q1558YPfE4qk6b0hmMzp5rpqZHl7LYa2DZQff+nTPEqgHSnRQZoSW+aeB2c7rsXQbvhF42gfMmxcFa6wFZZPHU4aX1IvPPcUjDHJzx4nXoWo3tKpa/g+TUUDU/3VPH88OYpRAPsLyoqGn/79594HL1s+5GuKOmScsMU654y46rNnwBTNNXGLYZzfm/gdSTiWP0DuzL4Hdxvz6iWhR5EFSfqqZ0aZjhvQZxcfo1XI06sJU5Jf8/U9SGKx4acriIXEY3AgWi/gxPWaYpbJtGj3FLIOrNCEwT0J6MGu9s66GTYHcuQsY0E9XbFfF11JsGiYQ6EO60235iNcd1aiYZ3ILx4fkA0wH6m4gPhP3jnU0p+92P1WQgRCWldiAUJhkvNB8KFW/wQt0TpdHKRUuKouOafWhyjk5Ewnb6g67ub8zQo01qHuRXAjsIZ0whw4Hzu2rUxOs1hT18w5cCkQM2WKSYayvG0TebXwJWYGFNut9M95SKOTFpJhjNTTrMlQUn9f4X04gi1P85O1G3mKOfH5xjddmoWVdEWitepy5TbuXNH6KA55VZNIW6m2Klp5w9wmXVugcXopJ4ttmPRuDlNg33TzjRlD77fY3OdlpInKO6bclssPyAaYD9TcdHYF6zP0vDTzp/21BTJx9qof3LZ2w1k/IEuFEnQ8KxXFJRj4HNL/zGssGikl2dp4VZA55OaAhym3ksBx4TVaep3/9wXjlLnudmC/zgOFA1mjfeHfM5sbdL9w2IzHXy8myY89+XMmvLMEJNBbGMWVT6OU8+2tAr9uW9jnkbd30P+rGjcz45FQyYKuIP3HpzfI5umIr9hofyAaID9DEQDNCTpybaiYyUAgGAgGqABSdHF4x3W/zoHAOSAaAAAALBmV0RDZkLJFFqx2syKAgAAUAlqLhoyE8qcSitW09lRAAAAdkzNRQPLvQIAwN4FLQ0AAADWYEwDAACANbsiGgAAAPYmEA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANTURjbFrD+nn/vA2feaL71rZL3XfoW8uPNRnAwAAqBdqIhoiAkHiUMxEZAAAANQXNRENVwhs2W54AAAAtaGmorFdAwAAUF9ANHaVdZo42kz91/RmQzBP/U0JmljXmwCAPQW6p/ykl2miK06HWprpQFOYDsU7KDmf1gcrTTHRcI61J/ebd4VoALCXqYlobJfdE411mkqEKXZqmtbSGaKtDKUWR6i9JUqD87xdcSAaAIC9RU1E48tT9+nL5+/rrdLsmmjcHqf2piM0cUtva5bORejAmVm9RbT2Rg+1R8JOSyQxRAsb+sC6nN9DF+eHssdbu1iAtvRxZu18N7WGuRXTEqH2c2M0eDhANFQ80tLRdnScUvrQ2gXz2j0040urgyM4raOrepu5OULxpjaa0hEVi2fhrE+sVHpcR+84/dHkgLqPfFHTxydzeXDo2BitZBtrzvHklUnqfTyXh0tmY25jnpIdcToo9x6O08mRRcpKtkUeZ66P0EkVdzMdfLybpoxsAACUR9VF4x/e+TgrArbCsWuisbVIwxF2hEPLlDackElmtoei0T6aE+e7laKloUTOqWtnr1oq7OUyqcvUz/GdPK894uIAxVrYYS5yaG7FrF3ophiHt21pZN7oplD0BE3ddFpBK2MJCrV000xA71kqaaTL3W6bJAlaKp7SotFMIRHL1TRJg8yLc1zlwSZvphYpya230KnL2vG754/QkiRuc5mSfJ/RgUV1lLZWKRlnIRiYd36D1Cz1R1kAh7XnL5XHt8a4Zchp1fcmIh2N9NGCpAUAUDY1aWl847ub2xKOXRMNJnNjnE4/xrVUqeH2jNDMsut2BceR975heMrNy9TLDnVK/laiHBo7X8NBiQMO9c3r72GKntPOUcHxBbU0FH7RcLY7J830pGiqLai2z6QmqTPr6J1wzrml4yktGjFK3lRHApDjvtba9QGKZvMl/3wlaAktcNf6KBQZoCVTtOX8Fnb8ss8ij+OuwChYhGJhGnQOAwDKpCqi4Tr9QlZKONxwu4bUUBcnKdmVUAPiB4+43SdOLTnbbZQ17VCVQ2PnJkE14tAOnBWP5TjrbI1Y4eyzE41gZ700ENHx+zGEYmOaTma7pkrHU1o03O9BBBzf4tZCkfPNVpH63uW2SjQq/focizzO/30K5TEAYLvsimj0vGY6znzccHWBdJewI3K6T8ThRWjYbCyY7IJoLPRxqyhQNIjSk2104Ng0pd7oznZN2cRTcdHQrbFC55cUDTXWpM/Zdh4DACpJTbqn5N1TtoIh7JZoSF//AX/XCLM2dkR3n0h/u2+AWXDDF3Vo8r2G3VOCbmGcPBY2zisdj6T5qTEjznJFQw3Cm91ThUXDrnuqUB5naO6UOX6i8f2eAICdU/2B8FufbEswhN0SDdqcp8FomFr7Zo0pt+N0mve1jzteLn2+g0IymH3DuZe0TMl9nJ2ceKkSouEfCF+ZPFFkIJxo7gy3cPrmKZNxXKAzgM3O95aTtpXxDnamvF0wW9N08Rhf3+ekS8WjnHh8gBbEi2+u0sypqBGHjWjkBqops0oTCRZLzgPnLkqIhh4Ib+fmnDMQPk/Dj/sHwkvkcVOUei84F8jcmqbexzrooqmRAIAdU5OWRs/5tLVgCLsmGsLGMk31tFFMpsWy8zv4yBHqTS57aq5rk93UqqZ7OlM6J7SAlHRojNWUW02GBekpFTYXZ+7aeqpsiemkqovKmEXlUjSerXW6+FyMQnx/oUicegd66KlticYRGhwbyE6JjT83njfltqBoCBvzNPp01Jhyq2dSCRZ5nJ4fos5HnN8nFEnQ8CwUA4BKURPR2C67Khr7DOkSK9h9VRVKiQoAYC9TE9HYrghANCrAZprSy/Kfhdwf+moDRAOA/UxNRWO7BnaOmg3VEqPT52vtvSEaAOxnIBoAAACsQfcUAAAAa2oiGj/Xab8+uGv/8Y/v6LMBAADUCzURDXn3lIhAkDgEmYjMi3wOAACA+qImogEAAGB/ANEAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFijROPhRx8RDAaDwerIHj7M/yzHzLjLMIgGDAaD7QdzhcH8NM0MW4ZBNGAwGKwezXT+7mc5ZsZdhkE0YDAYbD+YKwzmp2lm2DIMogGDwWD1aKbz93/uxNx4yzSIBgwGg+0Hc4Wh0GeFDKIBg8Fg9WClnL58lmMSRwUMogGDwWB72VxBCPo0zQ1fpkE0YDAYrB7NdP7uZzlmxl2G1Vw07m9+RMlr9yh89g79OttL/F32BYWFwWAwmKW5wmB+mmaGLcNqJhq3Nx7Suem79Itd7+WtCS77+i/cVWGCzoXBYLCGM9P5u5/lmBl3GVZ10Xjr3Yf0hy9/SP+yIycWv/Dce9T3+l1l8t3dL2E6OaycExQXDAaDwQqYKwzmp2lm2DKsaqIxs/yADv/lB/QTbbkWxX/9kzs0Ppf2dEfJd9n3G/3vZ8PJOf/9L1IqDjNOGAwGaxgznb//cyfmxlumVU00XAH4mWPv0v944QO6/nZpAfjeygN6evQD+mk+xz0/KNzu2lX6SlMzfWUm6Fi+3V2+SnPLqcBjZdvqS/RM01maCzomdmuRvnN9PfhYMSsVbzm20zTBYLBgcwUh6NM0N3yZVnXRWP8w+Hgxk3N2UzTuXH+Jnn/iEIVYHA60HKIvPPcSvfm+e3x7ojHXF6ZQx2t0J+DYtm3mLB0wnXkJ5/7O3zxDoUcH6c2AY0WtiqKx4zTBYI1mpvN3P8sxM+4yrOqiEXSskF26kWuN7JZo3L16lj7f9Cg9/9oy3bnH2+8v07e7HqXQky/RDx9ImO2JRkVtm6KxY6tmSwMGg1XHXGEwP00zw5ZhdSMaX7tyT4X/o1c21PbuiMYyvfhEM31haNm7/8Nv0fNNYS0UftFI0ZsvdtEXDoXZoYfp0BNd9PpN9xi3NHq4tdJzVX1/58Un6cCpF+j1556gg9KKCT9Bz7+6SnfmBukZ9/wnB2kh26rxxSPnaFPXV879DL1+NXf+F557TYubvl7rS/SOG8/N17ItqNAhvvYrvvt0Tcf78qt8X2G5XkC8+p4c8+XJg1V1j4da+FzVUnslOE0l0i92d26YvvRbcqyZDv5WF726nDtW9H6KpAEG2xNmOn/3sxwz4y7D6kI0vnE1nQ1/+tVdFI3br9GXmj5PL97wH7tHP7x6meZu3uPvXgd557XjFHr0LH1n3dn+4QtPUuiJF+iH+tw80Wh5kl78/jrdfcBx/s2zFGphoXhmmBbk/A8X6eUnw/Ro//dV+DwLbGk00+e72NFKq2j9W/SVQ830pVedMRSvaCzS1x8N0zMvLPO1OeyNF+gZdqZ/PqfjMi0v3sv0lUdZTEccp1xKNN4clJbZC/Qmn/vw3rJzT33OPeWLRuH0P7wpaXySXr7B+S75xSL26CG+f9XlWfx+iqUBBtuX5gqD+WmaGbYM23XRePnv8wVDzPb8ippyYuykVgOOZc1Xq/4wRXfMcRsdx6u3nO38lsblXNgH7Iwlrst62w1jtg5MCxSNLvq2cX25Xuiscb1sXJLuz9PXr7thTSHMna9MxXuGvmPW+F/vogOHztECfy8lGpKGJwYXs8fv3rxK37m6Snf5e75oFE7/XE+YnvC0+rgl+Pkw/elV+V78foqlwd0Hg9W1mc7f/7kTc+Mt06omGj/zrOP0P7jnJPbym/mzpya+l85OyTUFQ86RfRKHGb7qthPReJCihWz3lHTliOXiyBONIs42G2ZbouEde8i7Xjaue7Qw9AU6yLXxZ54bpJcvLtKdQt01AfFKrf939b5S93H3+8P0u2Hpauuir794md7UrTCxfNEolP5VernVzU+vOdcpfj/F0gCD7UtzhaHQZ4WsaqLxH7puK8e/vL5Jz/3thvr+19/N1WpFMH6yPV8wxOTPfbJf4jD3V90Kdk9xRr3PLQrp6vA5SOUEVfeUvjef8NSPaGhbX6S5V4bp+ScPUejR4/R6kECWKRrKHqzTm1dfoRefe5IOtTxK3a+tqv2eNFmIRrarqpAVu58CaYDB6tJKOX35LMckjgpY1UTjNwdTyvHLu6VEFOS7tCom/1+aXrt+v6BgiMk5ckzi8B+rrumBcN13n7UiA+Hi5J550XBGyrnWoWiwc/2O1MazYdfp1Wd8aXdNxVuie8rsZvPcBzvqi96a/Z1Xnsmmw1407tF3usIU6vqWt0vJTVPR+ymeBncfDLYvzBWEoE/T3PBlWtVE408u3FWO/8jXPlDbrnD8899/l36KrZBgiLV+/QN1XOIIOl5Nu8uO+fMtX6A/vagHWEtMuZUB1wOtg7TALY2769+nF5+RbqoqiYYSpGfo1Vt8LWn1bEs0uBXFte3n3dq2GnQOc+07QJhVvIUHwkW8Qi3P0qsyfnBvnRaGnlQzmFzReL09rM59R/KLa/vfPsWtAP1fFXvR4O3vn9PTn50035XZUp97ll4XMSh6P8XT4F4LBqtrM52/+1mOmXGXYVUTDbeLSVoU76ScBLvCUUwwJKzbCvnHXXoH1Z2rw/Ql98994Ufp2TOvFP5zn57aKVNoQ4eepD9/7QXqNrq4KioaH/G1jn9epeuZl9a3Jxpsd80/LYafoC8Nfz94YFjF65tye+ZbjgNWYVK0MPgFPW2Y82fwHN+zcR/vL9LL7nRXOffZ4ew04m2JBtudq4P07G8440Uqfy/n/k1e9H6KpAEG25fmCoP5aZoZtgyrmmiIfW7AeZ/Us3/9YXafiEUhwRCTsHKOnBt0HAaDwRrCTOfvfpZjZtxlWFVFQ94lJV1R0nKYXb4fGMa0q285Yx1yzvdX8bJCGAwGszZXGMxP08ywZVhVRUPszy85g9o/f/xdWnh7MzCM2D/8aFOFkbBDlwP+OwCDwWCNZKbz93/uxNx4y7Sqi4ZYR9LpcvpXHe+p2VP+4/KPcDkmYSSs/zgMBoPBSpgrDIU+K2Q1EY3Nh95B8D946UPVdTX9g/tq2Vd3//8sMtYBg8Fg+9pKOX35LMckjgpYTUTDtdf/4T790h87f/ozTfZNLZQe84DBYDCYz1xBCPo0zQ1fptVUNMTuPfiIvjZzj37t+TvK5LvsCwoLg8FgDWum83c/yzEz7jKs5qIBg8FgsCqYKwzmp2lm2DIMogGDwWD1aKbzdz/LMTPuMgyiAYPBYPvBXGEwP00zw5ZhEA0YDAarRzOdv/9zJ+bGW6ZBNGAwGGw/mCsMhT4rZBANGAwGqwcr5fTlsxyTOCpgEA0YDAbby+YKQtCnaW74Mg2iAYPBYPVopvN3P8sxM+4yDKIBg8Fg+8FcYTA/TTPDlmFKNAgAAACwAKIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwpmqi8drCR/SrZ+7QZ774rrX9cvcd+iaft/eYp/6mBE2s600/1/rowNFxSunNnZJKJqzjUWHPzuutbbI+Tu3F7gcA0LBUTTT+/cnbgcJQyn7q99+lH6x9omPZRVbHqLUpQsPX9XZRIBoAgMagaqLhisB2ODqyoc75ldN3KLOld+4SSwMRikYiFDp1mTJ6X2EgGgCAxqCuROPewx/TL/6R00I5+co9vXcX2Fqk4UicktcmqbOpm2Y29f4saVoaStChlmY6EI5Tb3KITptONr1IowkWnKZmOvh4N00MnSji7NO0kuym1kiYDjSF6VC8my7e0od8+EUjc2OceuPOdUKc3t7zOS+vwp4Zo4tdcTrIx1U6jePC2hs91O5eNzFECxv6AEQDAFCAuhIN4e9XPqZ/2uacK993g8ylbgop55yhuVNh6pz0uvv0+Q4KRVlMbnEbJJOipeEEO27Xyabo4rEwxU5N05o6vEjJBDvmAqKRvnCC4+qjOX1wbYzjio/RmrPpwSMaG9N0uiVK/Vf0iatj1N7CQrfqbKqwTVHqvbDOrbYMpa70Uawpdzwz20NR97pbfA8sgtm4IRoAgALUnWgIpyfT6lxpdUjro7b4hOL6AEU9TnydJo42e4VkazbXPaUcbhtNGYeJHXTBlsZmmtJmS0Y77KnbetvAIxosBOkNs+PMSVf7uHMVp6Uxq747ZGimq5miA4v83Qnb+4Zx/uZl6nWvC9EAABSgLkXjk0+JWnrfV+f/7l+5fSY1IjVJnS3dNOc6crerStfQnfGLCA2L781ijGnI+EVkgJacAw7FxjS20rSU7Z5q1hbssD2iwaSN7in33Pakc6IK6xvTWBs7ovdJenPn5MwUPogGACCfuheN3xmprWg43Tr5DjV6zlWJyoqGup7qJtK1/iIO2yMaKpzTPeVMGtAtDWvR8N+DAUQDAFCAuu6e+oXnat09tUrJeJj6r+lNl5sjFBchMJxzpbqnFs7mHL3i1hg9ZSMaeULE6TrsE42C3VNyn83UOpptPjm4M9YgGgCAAtT1QPjMWzUeCF8coGhLHy3kTfdlJxsLU+8lpzXgHwhfGDhSZCB8noYPFx4IXxmK8rEhWuKWhho0b5NuKgvRuDFEMQ43usgtjc0ULY22qVlSHtEoMhCu7qElQckbaWd7cYTaH2dhlFuEaAAAClBXorHbU26XzhX+X8bKcIwOHJ/Wxyo45XZrPTstNhRJ0PCFMY4rRsmb+riBRzSYtfPd1BrmNLREqP3cNCWPN1N82FEFp6XhnXLb/4Y3BWuTubEUlU4tIBANAEAh6ko06unPfQAAAPKpmmi4LYbtWt28RgQAAEAeVRMNeWHhr2zzhYW/1H2HJq/vxRcWAgBAY1A10QAAALD/gGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBvCQ+fhj+nDjHq2/e4dW316jt26+TUtvrcAayOQ3l99eyoCUBSkTALhANIDi7r00/ejWOt1c+RG9d/t93r5PH32Uoa1PP9UhQKMgv7n89lIGpCxImZCyIWUEAIhGg5O+/0DVKm+tvUf3+TsAQUjZkDIiZUXKDGhcIBoNjNQiV95+B2IBrJGyImVGyg5oTCAaDcgnn2yp7gY8+GCnSNmRMiRlCTQWEI0GQx5y6WJIfbCh9wCwM6QMSVmCcDQWEI0GQ2qHEAxQKaQsSZkCjQNEo4GQLgV0SYFKg3LVWEA0GgSZ8SIDmABUAylbmFXVGEA0GgTpe8YsKVAtpGxJGQP7H4hGAyB/ypI59gBUEylj+APg/gei0QDIQGU1WxnDM5v0zIt36Ucf4N/jjYyUMQyK738gGvsceW+QvAaiGvz4x0RtY3fpM198V9m/e+42/fD97U6/TNNKsptaI2E60NRMBx9po+HZlD4GymedJo4204Gz887m4gDFmsJ08nx18ljKGt5Vtb+BaOxz5IVz1ZjZIoLx1AsbWcFw7fBffqhD2JE+30EhdmKtZ8Zp5so0JZ+L8XaUBuczOkS9M0/9LHbtyXqtYftFY4jiLWE6fUGLxrU+FusETVQo+VLWpMyB/QtEY58jbyqVF89VElMw/sUfvOcRjf91cXvdYAtn2aEdHqPcEGqKli7M09pe0Yy9Jhp+KiwaUtakzIH9C0RjnyMzWuSNpZVCBON3vu4IRnLuIf3dcoZ+os0RjGdfuqtD2bM2GmenFaXeC+uUyevZCnJ4Pie9laaFkQ5qDXM4brEcinfT8Jkj/L2PFpwQnAnT1J+IcAuGw4Sj1Dk0QKc9jr54F1nmxjj1xo3zz81SStKqHK5c17Vg55uaHaDOR5y4PeczSjSPDtHUUIIOtUgc3OrqGqeVQuPJ6WWa6Ipnw8aeHqC52/qYsOEcP6iuFafe5DxNdfF3Nw/Xx6mdj/Vf09fOpp3t6DhLdnlIWcMsqv0NRGOfI2sjVOr15lscjSsYo1c31b7x+YdKNHYiGIqtFM2ckS4pdlriUHsmaSn7h/XSorE0EFXO86kep3trggVDxeWKRmqaTrKDDT3WQaOTszQ3OUSdUcdJunGsJRMUaolR/+QypTbWaSl5gmLZLrJFGo40U7RrklbW07R2bYjaI0dodJ69emqZ5q6MUCfHFed0z13hFpKTLTk2Zqn/sRidHuVjG3z+lT5q5fTEBhbVYddxhw730MSFWRaPNr52M7WOrqrjHrY4PxJhvpcemlpep/T6Ik0c5/uP8r3Kdbc4rXJv4SPUn5ymuQvj1H+Yw4vABIhGepnzY7iNr8/3PsHf51m4nVA7RsqalDmwf4Fo7HNkUZ1K8AkLxm//xYd5grHTFkYe4oCTPeyQuUbODnzwmlS1S4jG5mXqZYfYOmw62DTNnYlkRUO1ZFq6acasud8aU45TxbHF8XEc8aFlfVDI0IzUzrsu87dVSsbZqSeGaGE1HdAasuyeyqQpzaKRZq88d4bj1rV6RzROGOlL08VjvC8RUOvnlk2IHfzoDb0tSB7w9XvfyFDmUjcfj1Pypj4miJCw6AWJhqLC3VNCpcocqE8gGvucSjzAIhi/9X8cwfjLK45gjF2rkGBssbMzq7dSmxahUE6zhGj4HaAmxS0HVzSc7h+/A86Pw9NN45p7XnqZps510FOPSReVv/uohGjw/Uwd011bynTN3xQNX/qC0+zelxuP1+T65n2bqPggGqBCQDT2OeV2T33MNetCgvH0N8ptYTi14JCq0efI1cS1aJjHU5OqO0g5aV3LLtbSWBmOFW9p6NZK56TXRaduLlNatypS16ZpyT2cWaTRGKe5zxWy4qKRGhdHnuDav76DLW5JSCtmB6LhtCTaaMo8sJWilWVnRz20NNA9tf+BaOxzyhkIF8H43P/+QAnE4LedWVEj39nMCoYMipeLOFWpvcePDdHUlVmu0R9Rg7iuECwNiADI4PUkzV0Yo9OPOQPKrpP2j2k4U3bZSRYc0xigp9SgeS6OlVEZBzHGRXokDWFqH+fjaUdUQo+doOSFWZpJ9qgxiagekxDRGJTjh/s4/ZO0YDpsRqYUOwP9q5TeWKeVyR6Kc/idiAZtrVLyMN+/OWZxRLrzEjQlt+KOabR4xzRUa6SQaMxLlxe3nvo4fyfnjVlsOwMD4fsfiMY+p5wpt7836vxxr1qC4ZK6kptdFIrIjJ9cLd+dLeTMBnLEY5RbH9mavW/2lHQdzQz5ummM2VOhSIKGZyd9rYO0cuZqPEWH6Wcnn8WcfdUSofaeaVozxjbSl1hI9PWHr+udLtwSmDuXmxkVe3qIho/z952IhiBdZT25+A4lemjGbGiZs6c4ra1dMjmAvxcSDb7KXI+bvwN5XVvbBVNu9z8QjX1OOX/ue+Rcij77Vcd1DV1+UBXBKJvMOi3d8LrXpXPcOomNkNuznl5epDWze0p3ccngMags+HPf/geisc8p5zUiIho/2/keRf4kpQTjyb/aqC/BoAwt9OnuqXMy5dXXtSRIzVq6j3T3kky5PSldXO40VVBR8BqR/Q9EowHY6QsLj4/fU8Ih1vk39+jTuhIMjds9ZXYtTS57BtZV99LTUacLhgWltWPI+4c4UBHwwsLGAKLRAODV6KAW4NXojQFEo0GQGS3VfD06aGykbGHWVGMA0WgQsNwrqCZY7rVxgGg0EDKzpRqvSQeNDcpVYwHRaDBkoDL1QfaNgACUhZQlDH43FhCNBuOTT7ZU3zOEA5SLlCEpS1KmQOMA0WhA5CGX2iG6FMBOkbIjZQiC0XhANBoYefBlABOzqoAtUlakzKDC0bhANBocmfEiXQwyxx7iAQohZUPKiJQVzJJqbCAaQCF/ypLuBnkNhNQi5cVz8sbSSq36B/YO8pvLby9lQMqClAkpG/jjHhAgGsCDvDdIXjgnbyqVWqWsjSCL6sAax+Q3l99eyoCUBbxLCphANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgjRKNoCUfYTAYDAbzG1oaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKy5m75P/x8RhyWlQVdyggAAAABJRU5ErkJggg==</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADzZSURBVHhe7Z3/cxznfd/7d7hJ02TaJm1m2kwnbfIDk6KHGQwvdXmNRldrfIlGl3JMhMqplQyEChCaYhCwpAYGbQRMUaRBAhsRLFinIEIFixBh0WQIg2YAu0TgoQCFBmQKkEidBPJIUCdB/vTzefbZu2f39u4e4L7ggHu/Zj5zt7vPPvvsc89+3s+32+cfEQAAAGDB3fR9gmgAAACwAqIBAADAGogGAAAAa5RoLL21QjAYDAaDlTK0NAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGBNTUXjg/s/oe5X0/S5gQ/oF4+/p0y+y74UHwMAAFDf1Ew0zi9+RP/yD9+jz3zx3UCTY99a+EiHBqB8Fs4204Gz83pr90klE3WVHrADbi/T3I2U3qg26zRxtJn6r+nNOqEmovHy3MOsOPzOX3xIl5Yy+gip77LPPS5hd5VMilbmJynZ1UbxSB8t6N35ZGihL0oHmgqE2bxMvS18bIu/X+vjcOzAsham2JFumriRdsJakaG5U2E60DZJ2zmr3lGO1JM32irgXCEaBbAu4yaOA2tPrutth7ULPdT5CJdL+c3CUersmaY1KfMuquxHaXA+98w7zFM/n+NxiFspmjvXRrGwUwYOPt5Bo7Omg5ZzEjThTQInbZzag/YL+tlrHV3VO7xkLnVTiI/776sQqYk2CkWHaEVv2+PkX7Z8s4UicTo5NEspM788NKho3L73Kf3sMUcQeqfu6735yDEJI2Hf43N2B/mRwtTaMUATA238wxZ5oBYHKKZ+/OAw6ck2ip5bdDZUwTXCba7T0hA7kMgALRUsMD42pulkU4SiXNCSweV/T6Ic6dFxqkbdDaIRxDbKuId80Vjj+wlFT9DE4jpluBxnUouUTIQpdGw6V7FxK0xRvs6m3qfwi0aKLh7jcw/30dxqmtIbaVq70ketLWHqveTGtnPRCH7WdEWMj9uKxs7x5d9WhtKr09QbbabYgPYTeTSoaMh4hYhB7M8+0HuI3mZp/bNLD+jL5++r7y6/xWEk7B//312sS7vJ8Tt6k61VSsa59tTXXSCM/NgxSt7Um0FxFSvoAYgIhU5d5ppYhOLDXtVQzujMNC2wEB1q4QckHKfe87mIxXl6HgrPtZ0HcXRyiNoj8gCF6dCxMVoxfoLMjXHqjUdUjUxqR2bczrXH6GJXnA7Kw6mvnb5uxJcYoqUCP2kp0VBpH52lKR1/KMJpvW5Ell6mCffaLRFqP5eruXlFI00ryW5qddMU76aLt5wjS5ynIY8z5983Js5K147T7Aw7jPubLKDaKl97aOI8X0fVltk591zOpqfU7+StaXNr9Glfvt1iJ2P+DmY6ttZppkfHK/kwNE/pPCepsSnjeficnmpJG3nkkpqkziZ/2Y9Ta9zvHH2icX2Aoi3dNOMrJ1LulcNXWzsUjcNt1Mm/e3Ba+Vib9/koWd7d8qp/74vzubLe2uVraWXJF10hfb6DDsRGsi2XNbfsqLI8RoOHG1A0/sPzd5QQ/O2y84OJSMi2a7/Q+V5WOK68lVH7fv3MHbW9qxR5oKTghLouU6ZQmNUxfkjGaE1v5sXFzkFaGqGEbQ1bRCrsFB6J21drUgW5KUq9F6TGl6HUpR6KNnXQxQ3neGnR4Af6FBd2qQm6tUUWKPWLcQvndEuU+q/olPL121tyrR117ZYEJRdT6tprEx0UYmdyqG2EluSUTXbqHF+0QG3K8xAGoBy/jl9qZyujHD7rRNZpiuOOnZ11HOTGskq72xVhikb6wgmuFXMtVl9obYzz3/2NuNUYdbsSBcljdmBzkh/sjKVm3j626tSmxXFHIvxb+ByQoPKVww4vUooPq7Bck3TTU+p3WhmKcplgwZaot9I0d5a33d+Blmk0aqTjpvwOERq+Lsc47JlILh/4NxwNcFB5FCnj+ficnuRZEzt5T+shAH2NuZsj1Mr3zlmj8YrG0kCEDsgz5WzmUC3sIzShBH6HosHla240nhf/Gu+T/J0xnw+b8u4RDf3syO+dukz9kWY6eT6ohhQsGpk3uOLplmfpvTDK+tqFbtWb0XCi8dPtjjjce+jMjhr8zgOPaIjJPkHCyPY/4XN2nUIPVIoLcZgfdCk1BcLIA+ApHCqc1B4N++wJJw4bPEKRoqk2b61JFWTPAyEPV5gGdeW5tGi4D6VGan2uQ+DCm94wHzVd+MedxKtrn5lV3xVbs44zMHYVEwbHkfryxnAAknZPy0qnfeo2f2dHFPc7ruVJGhzlWjZ/NUWDNtOUNsOZ8dAiDbMQOA7YSVPWWfNvFzJqgsLKcIxCfWbLRKPi7KE5V3wYVVPW55f6nTJpTqOZ1VJuRMzUhoSN0egNtcGwU5mfpYVbfIK6rjcflDMqVSkpVMYD8Tk923ONcCvD7LjjnBcqf+R+cg7R81t5MMPJ9x2Ihjw7ulUx5WbIVu439zwfNuXdIxrefJe4AstGkGise7unFs5y5crt0lbwOY3Y0vhXesaUKxo9rzndVab5RUPO2XUCH4o0zXRJba/Ig6MKo1E4BX84qUVwMzSa188bjHSfmAN5bleVW7RVQfY8cPkPZHHR8D1wyvHn9qWN5rrr2N34Sl1b8DxoPoodE4qmXfL1sNGi8+FxRFxzX8p2T7n3kbtHEXqnNeQVZZW+bHjDghycSpuvPNwao6f0vpJ5xa0acyDYMTe+DC0NH6GD0m3RNUQTV5Zz3U+qfJnnaCuSr4rAMl6IEqLhS0P2nsxw8mxIy0tVAvLLaGCeesIFlFWhlGio6zvjF9nniPeHdEXMX8ZKlnePaHjzr/B9OPln5pHqzupzu1Od495WirPPfJbqgaqLxme/mlJCML/6sdr2d0/9vNE99f23P1b75Jxdx/9QMNIdFY26NX4mKIzMxvA3swPCObXbZup9wxMyny1+UKSf2lPYxHLCVMoZFXW8QQ+i9Fe7+1RYp7ku3SJuQfY8RMUcIeN50HwUOyYUTbvkq6VoqOuo7imd335HI90t0iKQ7hC3a4pR55kDu8UIcCJOa8jZVzyvMpxedlTSPeVWJILKTWqZFiZHqDfBYaPcWnXzIdtltw0Cy2UhfKKh7ivXtZbD9/v7r6EmkHC+39ItUh2uqt1T7vWlBa2EwhQQriQkjPuyKe9liEb2OkpAwywSbsl3jkM0mFN6IPz5b+UyQ0RCWhfS6nAFQ3BbIXLOrpP3QDmFK995O+Y++FIY8wbcAh9OO9FQIpTnVDPc4mmmzklnb3Fn5BTkp9zWkeB5yAIeRLPbR9LuuT4XZG4yex6i3RKNoO4pmUc/v66cj/kA58WjWgDmfcvvEaPhgW6P81L5b4iIIldkvQQ4EdVNZHZPFcyrAAcx25MrNywWc9K6UAcEaRHpe5LuyybfrLpCaTQJLJeFCHB6XH7dMpjD9/vnXUNPVT+a4LwywhUYCJf8Uy0CtTVPg1yByntmzO5UP57r6wkOyTGjq8p3Xzbl3T1ejmgwzr3x+Trd6J7S/HDtEyUE//rEba3cwXzMxySMhJVzdh2bB8ofRmpFusnrwR8uk6Kl4QQ7Iz02wq5gYbSPkvN+sUzTxWPeguainJEeyC3luNXx+AAtyLU2V2nmlPy/xBSN3GAeZVadgWuOTz2aN4ZUzXBUBro3Od2jbWoWkechKnJtwfOg+Sh2TCgqGvxQ2Q6EyyDzgaNDtMQtDTU1tE26qbxiqcYqZEaQ6ZR0l4rkj6rfZNY5/2J0Ms9ZMiptzkC4MyDNtWk+1y6v+Lc+zvkus282OY2r09T/mKRRlxsZS2txBtEVatA1TKcvSJnR01UTI7QkNX+ZaMHlq3VgMSt+gQSV8ZvTNNjHadCbOQKcHp8fazlCg1dWnbGYTT1Nlmvq2bGXoGtssvPnfMlVtoTCU25ztXFpkfDvGGWB4DBqQsDqLA0e5jLQp8urH9/1ZfBbrpvr3vXdl015r5BouPuc7jrGNxC+MnnCMxC+dr6PBs+bNYPdoeqiIfwn3UX1je8FVQUcZAquhPmNrxRyHzUmqLD78YXx/DfDRIVzHhLHnCmfuT/36QKlB9uyqMG7Av/LUF1IzsBoSce9tU4Xn2OHyPvUFMKBHqOWLWH5wR8byE4bjD837ply650GOE3J47nB6ZLXZooJgzqWzRfDdPjiosGYU27DcTo5kptq6nmAJQ+MabvDF8botDk1VAhquQgb8zT6dNS5hsqDAn/IUmk7QaMydqKnzT5lhC2ZV+lFGpVuJ9538HEuHxN9nvSYU0GdezVEYWtVTUtWU26lr7zL+xsGElTGZV928N0kyOlxkj39//KnVd8f8go8R0pwzHsXSv65j/GNTak/yBm/eR7+66tnKjfpIei+Spb3iokG43bX6d3FptxK3MGD7LWlJqJx4YcfKUH41e479FFAI0LeSSVjGxJGwu5NZFrsDv94p5r6XJAD9Kb6iOPy1rjBDglwInsNNdvLdgwH1BCnOzJ4Om9tqYloCP+5z2ltnJ7Mv+nWr22oY3UxAL4LZBaHqLNQ87rqQDQqxp4XjRRdPN7hnX4N6oPUNJ0+Nl7gj4O1pWai8Q93ttR/NsQWbuWaG5PXnVaI7JcwoNZANCrGPmhpAFCKmomG4L5f6tfO3FGDWPI6dPfNt18u8l4qAAAA9UFNRePTnxD95jmnm+qLY3cprt9uG+lPqWMAAADqm5qKhvDu3U/V+6ZELMTku+wDAABQ/9RcNAR3NpXY3p0tBQAAjceuiIYgYxgYxwAAgL3FrokGAACAvQdEo6KkaW1+ntYK/v9mO9Nbff8WLkqp65rszym2mdV5WljFX9KKUerfzB5quhY22EtANPzo11K4r2M4FO8IeCdUIRZpOOy+DyiIKomGWjgmbLwaoRg7FQ3nNQieV31oK53GAq9Q2CnK4XnvYeFcmELHq/xPZvVKCsv1riuOc41svrdEqLVjiObUeiB2bEc0rNfC3spQanmepka6qfOxCA3686DUeuS+lRfzVr67PUvD+tUqag3yIfN9Wno1RuO1I0lzVUcmNeu+HoePP9LmXfUR7AiIhgf9Ajx5eZ+8gU0eiMURam8JchQ7oUqisS3KE42dOf7qi0ZNUKLBDqrketfVwHuNTHqVFkZPqBfc2f6De1stDUskTnHWg8kB6szLA/ndw0XWI3feCi0vaXReBum8LDM2tOwcVq/m4XLD27kXQOYqZbJUqrkaY/qKvEDxRO517ertvwka1e94yzsOdgREw+S2PEi+VewYWQQpuzpd0XWc/c4jrZZ1za4HnRyi04azK/4yPl9c27luybC+NcGLrOGdo7jjz8z2UDT71l7mpl7e85Lck6RDm+u0mMz1ETr5uK4FPt5NU+57u1Q+BK+9rByfEZ+bHv+L4tLzZtzeGqiKo9ha3YVQomGx3jUTfG/5by32ryNhvkrdS/41BHnra8h8V1SRtcLzRaPw+taesMXQ4Qulr+h65Pqlm56XRsrr4N37D3iB5NrYEZ1fab7PGJ301By8aZC3FnvX6OAyfNhiDRtQFIiGiV4jIFuzCaD4Os7eQuvUhLjQy5Kc7uvQdyga27muTVj1Gm3xCHoNb3MlwGBKtRacVQ2dV6o7r7nOva464NxbsvYy3+tNDuGuZOiuLaDyocjay558cvCIhghWyxEavua4PFXDlLcFa+fkCE/htboLoh1fqfWui92bunbWkcn6DuLc+Zgub7kVBP34ruHicazF1wrPF43CeWwtGlkKpM8lSDS0cJnL45orHapz/ItsiagEpUvyWdbUNlqBUiY868gwc2eKlWFgA0TDh7x++rSsYyCvnu4ZoZllb/EsvY6z++A4jtKzSI1vGdXtiIb9dW3C+lpTyvGUcprO/Zi1fGXmA6zWfIjT8DA74Qg7g2z1N180ZMEZz9rfeoEctV62ygdvDVPyKvta6BKikb+YjdNaDOnjXsctSJ7k1uouiOH4iq93XeTeJK/d30LuI9ZH/cfcNxxLPoULOF7vNbKYeRGQb6rlotcKzxeNwnlcO9Eosk/O8achb59RLj/bkWutMnnPFxO0D2wPiEYQUmtZlME7p5l/8IjRfVN0HWfzwZHv/tedy76diYb9dZmSYb0O1y9mweQ7/iCUs2EHbC6ck3+u8aD7TN1DgDMxRcGbTw65407c/i4IafW5zkal0Y1L4cu/QpiOTy/OlL/edYl70ysESqtH0iStCkmPEhnVXeN15DkKpNHMC5W+gGub9+063BJ5vHdEQ+O2NIwu0iCBCNoHtgdEoxRbXEtkJ+B0GZRax9l8cOR7pURjO9e1CesTiAqKhqqBs2i0j5vhgkWj4NoAJRyaN58ccseDRSM1nnOCFRENIXC96xL3xkhLpH18lWa6dPmQ1oekbb7POz7hoUAaze4pSV+RtcLrUzQq1D2l4Lw/nMt7uR90T1UeiIaBasoHLNeqBt9UE99xCJ4Hw1zH2fPgOGFLdU8VX7vbG9d2rls87M67p4o+cNKXL+k/L8tWGoPieec6s2byxlHcfC9LNOS7RfdUJURDBDpvvesS98aoctbWQSfDHJfaL91XCertivm6tUyC0+gZCC+xVnjdiUZZA+EptRrlac+yu1zOjIFuDIRXB4iGiVq7OEytfbPGlNtxOs37nJpziXWcfQ+OfyB8YeCIZyBcPZgl1u524trOde3CFhwI38Ya0V704LdqkTkDstEzs9kHVmp4URkYz+g9qpaeW/M6c2uaeh/TQlNKNJT4RtQ0aDc6z3F2Nq3uWstM+tqA40zNgfCColFovXYm0PEFrHdd7N4EdX98juHQ1CyqvJapibdsyZTbuXNH6KBnyq1eZ7vAWuE7Fo2NeUr2jdFC0UqFN315BOUdp8oz5da3xrsSU3PK7TrnIz+LvZecXFPrfbtTbgO6p/xTblPqeDfNGSIEtg9Eww8X3Kme3HjAwUeOUG9yOftwF1/H2f/gFJ9yq9atLrp2txHXdq5bMqxvyu2xsdx60vJwZwfNTRzR8PSVaxMhkdpziB/IGTceNSge5TQ5OzKLI/SU5KkRd3p+iDofkTTI/Sdo2F0PupRo8K+xNMwOU87TA7fe49641ZRbQwSKi4YWR/967UKg4+PU8H7/etcF700hLQtfFxbHEZK8MVoGXpw0unle8M99RdYK37FoqLAJmir6R0JfGfRTIO/I9+e+vPXXPX/uk2fIeBa3WOBHOrLrsXvX3Xfw/LlPngXfcbB9IBr7ghIP7DZo+DWid3W99jrl+gBFi4yVgMYCorHXUc32ceoM+FPi9sEa0bu7Xns9wq26P2ujQd1iBACiscdRs4KkG+IcHB0AoPpANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANbsiGi9f+5iiX32gTL4DAADYG9RcNBZ+/CmFuu97TPYBAACof2ouGmOzH+eJhuwDAABQ/6ClAQAAwBqMaQAAALBmV0QDgEqxcLaZDpydV99TyUT2exCZ1XlaWE3rreqh0nF0nFJqa576mxI0sa428tlK0dKVZUpt6W0A6hyIRgDp+RE6GY9QqIkdUkuEWjtGaGFDHzRI3xin3iNROsjh+q/pnZq1893UGgnTgaYwHUoMBZ6vWB+n9pZmak8W8ipelEOSdOVZmAZdf3l7loYTufS391ymtQJOScXXkqAp/+UlXcWcXUUQh2rcg8rrIZq7rQ9bsB3RWDgXptDxaSouG+s0cdRIE+dr7OkemrphLzbbEo3bk9TZEqXRG3obgDoHouEjc62PYi1HaPDKKqUzvGNzlWZORelAdICWDMebmmijQ4+doOQ1Drepd2oy8xIHO4qbHAHXJOfO8vlZJ2KSoovHRFjsRSOQ6wMUjY/RmnzfWqThaJjax1YpI+nNrNJEgh3f0LIczcMVoVDCl74aioYruJn0Ki2MnnDy7pazrxTbEQ07HNHI/h6b67RyoY9a2bH3X7MTjm2JBgB7DIiGh1VKxpupdXRVb2vEEUeaqfcNURFm8zL1hjvoYr4KKObONFN82IhDwjdFaHhRb2syb3TTwUQf9ZtOykAcYmkxcYSnc1InZnmM2mMDtGAKnMeJeVHHYnF2imE6ed4IESAaa2/0UHte6ynN1/emc2kgQge6LpPOLXWfB2IjtKK3c3hFw2VpIEqhY0aLIL1IyY64atEdCMepdzKXt3micWaaFoYSdIhbbyrs+Vy6zLCF8YmGJn2+g0K+ikNwfgSLRvLKJPU+ngu75N5cTcQZgMpRcdH4/soWjc58rD4Lcf+jn9DE/MfK5HshZFaVTMet2eyqjWk62RSj5E29XYjZHjrwdB8luwxHlnVOQU7H2XfyvFFT3WRnEonztYKdlGAlGqtj7PC7ac7X2smSYofLLY328eB4XAe3wo491GIIoc+ZZfieo9E+mpPj0g/Pjtl1jCqOrEiw8MY4T1r6ssIlIhId8CmmIlg06OYIxZu6aUbuaUvyJ9dyytyapt5IhM9xrpYnGk1R6r2wzmEzlLrEaW7ie9LOvBzRcIQ/VzZK5odHNKQlN0JLsmNzmZIcfzY/IBpgj1FR0fim7z8Ysu1HRCJ27kE2zG/96WagcMisqmYjrprMsrJ8gL3OSSrCQ3xeVLckMjTT5WtpiCM67HVEUpuOKcdRjmhkaO5UOL9lJFzr4zSyk2SL981na/1+cg4uzekOU8h1/p68cNKYbWkJyokmaErGH8TJi0jIfjkvxq2nY27LynH6ecKgKCAa5rX5PkK+VsrKcIxCfE9CnmgYLRwn/txYT1mi4Ulr8fzIFw1vRUQdd7sDIRpgj1FR0Xj0qzkxEJNtP9K6MMOIyT4/Mh3XDCPbVcf/AKttx/Ga4w4LfWGfc3KEwq09Zi5JrZ3j0WMaS8MJNSiddTLsZFsjPTSnGh5eJ+UIUu6apuU519QkdTa10ZTjnYLRLQ1HoPLxOLgUt7RawpxOTpgnLxyHmZ8m97h03zmOUbpxJB8kXiWcypnqVkMepUWjYH5o558nGh5R8MZfOdEonh+ePFVh3Xxy8ByHaIA9RkVF47/2eR29bPupa9EoMPbgdyRS0/U7H6/DStPKaEeuXz05SYMxb807N37gc1KZNKU3HJs51UxPjSxnt9XAtoHq+z9lilcBpDstMkBLetPE6+B0370I2g2/aATlS46Fs9IFtsriqcNJ60PineeWgjk+4cHr1LMY3VMqfQXPr6FoeLqniueHN08hGmB/UVHR+Ju/+8Tj6GXbj3RFSZeUG6ZY95QZV23+BJiiqTZuMZzzewOvIxHH6h/YlcHv4H57RrUs9CCqOFFP7dQww3kL4uTya7wacWItcUr6e6auD1E8NuR0FbmIaAQORPsdnLBOU9wyiR7llkLWmRWaIKA/GTXY3dZBJ8PuWIaMbSSotyvm66ozCRYNcyDcabX5xmyM69ZKNLwD4cXzA6IB9jMVHwj/4TufUvJ7H6vPQohISOtCLEgwXGo+EC7c4oe4JUqnk4uUEkfFNf/U4hidjITp9AVd392cp0GZ1jrMrQB2FM6YRoAD53PXro3RaQ57+oIpByYFarZMMdFQjqdtMr8GrsTEmHK7ne4pF3Fk0koynJlymi0JSur/K6QXR6j9cXaibjNHOT8+x+i2U7OoirZQvE5dptzOnTtCB80pt2oKcTPFTk07f4DLrHMLLEYn9WyxHYvGzWka7Jt2pil78P0em+u0lDxBcd+U22L5AdEA+5mKi8a+YH2Whp92/rSnpkg+1kb9k8vebiDjD3ShSIKGZ72ioBwDn1v6j2GFRSO9PEsLtwI6n9QU4DD1Xgo4JqxOU7/7575wlDrPzRb8x3GgaDBrvD/kc2Zrk+4fFpvp4OPdNOG5L2fWlGeGmAxiG7Oo8nGceralVejPfRvzNOr+HvJnReN+diwaMlHAHbz34Pwe2TQV+Q0L5QdEA+xnIBqgIUlPthUdKwEABAPRAA1Iii4e77D+1zkAIAdEAwAAgDW7IhoyE0qm0IrVZlYUAACASlBz0ZCZUOZUWrGazo4CAACwY2ouGljuFQAA9i5oaQAAALAGYxoAAACs2RXRAAAAsDeBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsqYlojF17SL/wh7fpM19818p+pfsOfWvhoT4bAABAvVAT0RARCBKHYiYiAwAAoL6oiWi4QmDLdsMDAACoDTUVje0aAACA+gKisaus08TRZuq/pjcbgnnqb0rQxLreBADsKdA95Se9TBNdcTrU0kwHmsJ0KN5Byfm0PlhpiomGc6w9ud+8K0QDgL1MTURju+yeaKzTVCJMsVPTtJbOEG1lKLU4Qu0tURqc5+2KA9EAAOwtaiIaX566T18+f19vlWbXROP2OLU3HaGJW3pbs3QuQgfOzOotorU3eqg9EnZaIokhWtjQB9bl/B66OD+UPd7axQK0pY8za+e7qTXMrZiWCLWfG6PBwwGioeKRlo62o+OU0ofWLpjX7qEZX1odHMFpHV3V28zNEYo3tdGUjqhYPAtnfWKl0uM6esfpjyYH1H3ki5o+PpnLg0PHxmgl21hzjievTFLv47k8XDIbcxvzlOyI00G593CcTo4sUlayLfI4c32ETqq4m+ng4900ZWQDAKA8qi4af//Ox1kRsBWOXRONrUUajrAjHFqmtOGETDKzPRSN9tGcON+tFC0NJXJOXTt71VJhL5dJXaZ+ju/kee0RFwco1sIOc5FDcytm7UI3xTi8bUsj80Y3haInaOqm0wpaGUtQqKWbZgJ6z1JJI13udtskSdBS8ZQWjWYKiViupkkaZF6c4yoPNnkztUhJbr2FTl3Wjt89f4SWJHGby5Tk+4wOLKqjtLVKyTgLwcC88xukZqk/ygI4rD1/qTy+NcYtQ06rvjcR6WikjxYkLQCAsqlJS+Mb39vclnDsmmgwmRvjdPoxrqVKDbdnhGaWXbcrOI689w3DU25epl52qFPytxLl0Nj5Gg5KHHCob15/D1P0nHaOCo4vqKWh8IuGs905aaYnRVNtQbV9JjVJnVlH74Rzzi0dT2nRiFHypjoSgBz3tdauD1A0my/55ytBS2iBu9ZHocgALZmiLee3sOOXfRZ5HHcFRsEiFAvToHMYAFAmVREN1+kXslLC4YbbNaSGujhJya6EGhA/eMTtPnFqydluo6xph6ocGjs3CaoRh3bgrHgsx1lna8QKZ5+daAQ766WBiI7fjyEUG9N0Mts1VTqe0qLhfg8i4PgWtxaKnG+2itT3LrdVolHp1+dY5HH+71MojwEA22VXRKPnNdNx5uOGqwuku4QdkdN9Ig4vQsNmY8FkF0RjoY9bRYGiQZSebKMDx6Yp9UZ3tmvKJp6Ki4ZujRU6v6RoqLEmfc628xgAUElq0j0l756yFQxht0RD+voP+LtGmLWxI7r7RPrbfQPMghu+qEOT7zXsnhJ0C+PksbBxXul4JM1PjRlxlisaahDe7J4qLBp23VOF8jhDc6fM8RON7/cEAOyc6g+E3/pkW4Ih7JZo0OY8DUbD1No3a0y5HafTvK993PFy6fMdFJLB7BvOvaRlSu7j7OTES5UQDf9A+MrkiSID4URzZ7iF0zdPmYzjAp0BbHa+t5y0rYx3sDPl7YLZmqaLx/j6PiddKh7lxOMDtCBefHOVZk5FjThsRCM3UE2ZVZpIsFhyHjh3UUI09EB4OzfnnIHweRp+3D8QXiKPm6LUe8G5QObWNPU+1kEXTY0EAOyYmrQ0es6nrQVD2DXREDaWaaqnjWIyLZad38FHjlBvctlTc12b7KZWNd3TmdI5oQWkpENjrKbcajIsSE+psLk4c9fWU2VLTCdVXVTGLCqXovFsrdPF52IU4vsLReLUO9BDT21LNI7Q4NhAdkps/LnxvCm3BUVD2Jin0aejxpRbPZNKsMjj9PwQdT7i/D6hSIKGZ6EYAFSKmojGdtlV0dhnSJdYwe6rqlBKVAAAe5maiMZ2RQCiUQE205Relv8s5P7QVxsgGgDsZ2oqGts1sHPUbKiWGJ0+X2vvDdEAYD8D0QAAAGANuqcAAABYUxPR+IVO+/XBXfv3f3xHnw0AAKBeqIloyLunRASCxCHIRGRe5HMAAADUFzURDQAAAPsDiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBolGg8/+ohgMBgMVkf28GH+Zzlmxl2GQTRgMBhsP5grDOanaWbYMgyiAYPBYPVopvN3P8sxM+4yDKIBg8Fg+8FcYTA/TTPDlmEQDRgMBqtHM52//3Mn5sZbpkE0YDAYbD+YKwyFPitkEA0YDAarByvl9OWzHJM4KmAQDRgMBtvL5gpC0KdpbvgyDaIBg8Fg9Wim83c/yzEz7jKs5qJxf/MjSl67R+Gzd+g32F7i77IvKCwMBoPBLM0VBvPTNDNsGVYz0bi98ZDOTd+lX+56L29NcNnXf+GuChN0LgwGgzWcmc7f/SzHzLjLsKqLxlvvPqQ/fPlD+ucdObH4pefeo77X7yqT7+5+CdPJYeWcoLhgMBgMVsBcYTA/TTPDlmFVE42Z5Qd0+C8/oJ9qy7Uo/suf3KHxubSnO0q+y77f7H8/G07O+W9/kVJxmHHCYDBYw5jp/P2fOzE33jKtaqLhCsDPHXuX/vsLH9D1t0sLwPdXHtDTox/Qz/I57vlB4XbXrtJXmprpKzNBx/Lt7vJVmltOBR4r21ZfomeaztJc0DGxW4v03evrwceKWal4y7GdpgkGgwWbKwhBn6a54cu0qovG+ofBx4uZnLObonHn+kv0/BOHKMTicKDlEH3huZfozffd49sTjbm+MIU6XqM7Ace2bTNn6YDpzEs493f++hkKPTpIbwYcK2pVFI0dpwkGazQznb/7WY6ZcZdhVReNoGOF7NKNXGtkt0Tj7tWz9PmmR+n515bpzj3efn+ZvtP1KIWefIl+9EDCbE80KmrbFI0dWzVbGjAYrDrmCoP5aZoZtgyrG9H42pV7KvwfvbKhtndHNJbpxSea6QtDy979H36bnm8Ka6Hwi0aK3nyxi75wKMwOPUyHnuii12+6x7il0cOtlZ6r6vs7Lz5JB069QK8/9wQdlFZM+Al6/tVVujM3SM+45z85SAvZVo0vHjlHm7q+cu5n6PWrufO/8NxrWtz09VpfonfceG6+lm1BhQ7xtV/x3adrOt6XX+X7Csv1AuLV9+SYL08erKp7PNTC56qW2ivBaSqRfrG7c8P0pd+WY8108Le76NXl3LGi91MkDTDYnjDT+buf5ZgZdxlWF6LxjavpbPjTr+6iaNx+jb7U9Hl68Yb/2D360dXLNHfzHn/3Osg7rx2n0KNn6bvrzvaPXniSQk+8QD/S5+aJRsuT9OIP1unuA47zr5+lUAsLxTPDtCDnf7hILz8Zpkf7f6DC51lgS6OZPt/FjlZaRevfpq8caqYvveqMoXhFY5G+/miYnnlhma/NYW+8QM+wM/3zOR2XaXnxXqavPMpiOuI45VKi8eagtMxeoDf53If3lp176nPuKV80Cqf/4U1J45P08g3Od8kvFrFHD/H9qy7P4vdTLA0w2L40VxjMT9PMsGXYrovGy3+XLxhitudX1JQTYye1GnAsa75a9YcpumOO2+g4Xr3lbOe3NC7nwj5gZyxxXdbbbhizdWBaoGh00XeM68v1QmeN62XjknR/nr5+3Q1rCmHufGUq3jP0XbPG/3oXHTh0jhb4eynRkDQ8MbiYPX735lX67tVVusvf80WjcPrnesL0hKfVxy3Bz4fpT6/K9+L3UywN7j4YrK7NdP7+z52YG2+ZVjXR+LlnHaf/wT0nsZffzJ89NfH9dHZKrikYco7skzjM8FW3nYjGgxQtZLunpCtHLBdHnmgUcbbZMNsSDe/YQ971snHdo4WhL9BBro0/89wgvXxxke4U6q4JiFdq/b+n95W6j7s/GKbfC0tXWxd9/cXL9KZuhYnli0ah9K/Sy61ufnrNuU7x+ymWBhhsX5orDIU+K2RVE41/13VbOf7l9U167m821Pdvfi9XqxXB+On2fMEQkz/3yX6Jw9xfdSvYPcUZ9T63KKSrw+cglRNU3VP63nzCUz+ioW19keZeGabnnzxEoUeP0+tBAlmmaCh7sE5vXn2FXnzuSTrU8ih1v7aq9nvSZCEa2a6qQlbsfgqkAQarSyvl9OWzHJM4KmBVE43fGkwpxy/vlhJRkO/Sqpj8f2l67fr9goIhJufIMYnDf6y6pgfCdd991ooMhIuTe+ZFwxkp51qHosHO9btSG8+GXadXn/Gl3TUVb4nuKbObzXMf7Kgvemv2d155JpsOe9G4R9/tClOo69veLiU3TUXvp3ga3H0w2L4wVxCCPk1zw5dpVRONP7lwVzn+I1/7QG27wvFPf/9d+hm2QoIh1vr1D9RxiSPoeDXtLjvmz7d8gf70oh5gLTHlVgZcD7QO0gK3NO6u/4BefEa6qaokGkqQnqFXb/G1pNWzLdHgVhTXtp93a9tq0DnMte8AYVbxFh4IF/EKtTxLr8r4wb11Whh6Us1gckXj9fawOvcdyS+u7X/nFLcC9H9V7EWDt39wTk9/dtJ8V2ZLfe5Zel3EoOj9FE+Dey0YrK7NdP7uZzlmxl2GVU003C4maVG8k3IS7ApHMcGQsG4r5B926R1Ud64O05fcP/eFH6Vnz7xS+M99emqnTKENHXqS/vy1F6jb6OKqqGh8xNc6/nmVrmdeWt+eaLDdNf+0GH6CvjT8g+CBYRWvb8rtmW87DliFSdHC4Bf0tGHOn8FzfM/Gfby/SC+7013l3GeHs9OItyUabHeuDtKzv+mMF6n8vZz7N3nR+ymSBhhsX5orDOanaWbYMqxqoiH2uQHnfVLPfvPD7D4Ri0KCISZh5Rw5N+g4DAaDNYSZzt/9LMfMuMuwqoqGvEtKuqKk5TC7fD8wjGlX33LGOuScH6ziZYUwGAxmba4wmJ+mmWHLsKqKhtifX3IGtX/x+Lu08PZmYBixv//xpgojYYcuB/x3AAaDwRrJTOfv/9yJufGWaVUXDbGOpNPl9C863lOzp/zH5R/hckzCSFj/cRgMBoOVMFcYCn1WyGoiGpsPvYPgf/DSh6rravqH99Wyr+7+/1lkrAMGg8H2tZVy+vJZjkkcFbCaiIZrr//9ffqVP3b+9Gea7JtaKD3mAYPBYDCfuYIQ9GmaG75Mq6loiN178BF9beYe/cfn7yiT77IvKCwMBoM1rJnO3/0sx8y4y7CaiwYMBoPBqmCuMJifpplhyzCIBgwGg9Wjmc7f/SzHzLjLMIgGDAaD7QdzhcH8NM0MW4ZBNGAwGKwezXT+/s+dmBtvmQbRgMFgsP1grjAU+qyQQTRgMBisHqyU05fPckziqIBBNGAwGGwvmysIQZ+mueHLNIgGDAaD1aOZzt/9LMfMuMswiAYMBoPtB3OFwfw0zQxbhinRIAAAAMACiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMCaqonGawsf0a+fuUOf+eK71var3XfoW3ze3mOe+psSNLGuN/1c66MDR8cppTd3SiqZsI5HhT07r7e2yfo4tRe7HwBAw1I10fi3J28HCkMp+5nff5d+uPaJjmUXWR2j1qYIDV/X20WBaAAAGoOqiYYrAtvh6MiGOufXTt+hzJbeuUssDUQoGolQ6NRlyuh9hYFoAAAag7oSjXsPf0K//EdOC+XkK/f03l1ga5GGI3FKXpukzqZumtnU+7OkaWkoQYdamulAOE69ySE6bTrZ9CKNJlhwmprp4OPdNDF0ooizT9NKsptaI2E60BSmQ/FuunhLH/LhF43MjXHqjTvXCXF6e8/nvLwKe2aMLnbF6SAfV+k0jgtrb/RQu3vdxBAtbOgDEA0AQAHqSjSEv1v5mP5xm3OufN8NMpe6KaScc4bmToWpc9Lr7tPnOygUZTG5xW2QTIqWhhPsuF0nm6KLx8IUOzVNa+rwIiUT7JgLiEb6wgmOq4/m9MG1MY4rPkZrzqYHj2hsTNPplij1X9Enro5RewsL3aqzqcI2Ran3wjq32jKUutJHsabc8cxsD0Xd627xPbAIZuOGaAAAClB3oiGcnkyrc6XVIa2P2uITiusDFPU48XWaONrsFZKt2Vz3lHK4bTRlHCZ20AVbGptpSpstGe2wp27rbQOPaLAQpDfMjjMnXe3jzlWclsas+u6QoZmuZooOLPJ3J2zvG8b5m5ep170uRAMAUIC6FI1PPiVq6X1fnf97f+X2mdSI1CR1tnTTnOvI3a4qXUN3xi8iNCy+N4sxpiHjF5EBWnIOOBQb09hK01K2e6pZW7DD9ogGkza6p9xz25POiSqsb0xjbeyI3ifpzZ2TM1P4IBoAgHzqXjR+d6S2ouF06+Q71Og5VyUqKxrqeqqbSNf6izhsj2iocE73lDNpQLc0rEXDfw8GEA0AQAHqunvql56rdffUKiXjYeq/pjddbo5QXITAcM6V6p5aOJtz9IpbY/SUjWjkCRGn67BPNAp2T8l9NlPraLb55ODOWINoAAAKUNcD4TNv1XggfHGAoi19tJA33ZedbCxMvZec1oB/IHxh4EiRgfB5Gj5ceCB8ZSjKx4ZoiVsaatC8TbqpLETjxhDFONzoIrc0NlO0NNqmZkl5RKPIQLi6h5YEJW+kne3FEWp/nIVRbhGiAQAoQF2Jxm5PuV06V/h/GSvDMTpwfFofq+CU26317LTYUCRBwxfGOK4YJW/q4wYe0WDWzndTa5jT0BKh9nPTlDzeTPFhRxWcloZ3ym3/G94UrE3mxlJUOrWAQDQAAIWoK9Gopz/3AQAAyKdqouG2GLZrdfMaEQAAAHlUTTTkhYW/ts0XFv5K9x2avL4XX1gIAACNQdVEAwAAwP4DogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAawEPm44/pw417tP7uHVp9e43euvk2Lb21Amsgk99cfnspA1IWpEwA4ALRAIq799L041vrdHPlx/Te7fd5+z599FGGtj79VIcAjYL85vLbSxmQsiBlQsqGlBEAIBoNTvr+A1WrvLX2Ht3n7wAEIWVDyoiUFSkzoHGBaDQwUotcefsdiAWwRsqKlBkpO6AxgWg0IJ98sqW6G/Dgg50iZUfKkJQl0FhANBoMeciliyH1wYbeA8DOkDIkZQnC0VhANBoMqR1CMEClkLIkZQo0DhCNBkK6FNAlBSoNylVjAdFoEGTGiwxgAlANpGxhVlVjANFoEKTvGbOkQLWQsiVlDOx/IBoNgPwpS+bYA1BNpIzhD4D7H4hGAyADldVsZQzPbNIzL96lH3+Af483MlLGMCi+/4Fo7HPkvUHyGohq8JOfELWN3aXPfPFdZf/mudv0o/e3O/0yTSvJbmqNhOlAUzMdfKSNhmdT+hgon3WaONpMB87OO5uLAxRrCtPJ89XJYylreFfV/gaisc+RF85VY2aLCMZTL2xkBcO1w3/5oQ5hR/p8B4XYibWeGaeZK9OUfC7G21EanM/oEPXOPPWz2LUn67WG7ReNIYq3hOn0BS0a1/pYrBM0UaHkS1mTMgf2LxCNfY68qVRePFdJTMH4Z3/wnkc0/tfF7XWDLZxlh3Z4jHJDqClaujBPa3tFM/aaaPipsGhIWZMyB/YvEI19jsxokTeWVgoRjN/9uiMYybmH9LfLGfqpNkcwnn3prg5lz9ponJ1WlHovrFMmr2cryOH5nPRWmhZGOqg1zOG4xXIo3k3DZ47w9z5acEJwJkxTfyLCLRgOE45S59AAnfY4+uJdZJkb49QbN84/N0spSatyuHJd14Kdb2p2gDofceL2nM8o0Tw6RFNDCTrUInFwq6trnFYKjSenl2miK54NG3t6gOZu62PChnP8oLpWnHqT8zTVxd/dPFwfp3Y+1n9NXzubdraj4yzZ5SFlDbOo9jcQjX2OrI1Qqdebb3E0rmCMXt1U+8bnHyrR2IlgKLZSNHNGuqTYaYlD7Zmkpewf1kuLxtJAVDnPp3qc7q0JFgwVlysaqWk6yQ429FgHjU7O0tzkEHVGHSfpxrGWTFCoJUb9k8uU2linpeQJimW7yBZpONJM0a5JWllP09q1IWqPHKHRefbqqWWauzJCnRxXnNM9d4VbSE625NiYpf7HYnR6lI9t8PlX+qiV0xMbWFSHXccdOtxDExdmWTza+NrN1Dq6qo572OL8SIT5Xnpoanmd0uuLNHGc7z/K9yrX3eK0yr2Fj1B/cprmLoxT/2EOLwITIBrpZc6P4Ta+Pt/7BH+fZ+F2Qu0YKWtS5sD+BaKxz5FFdSrBJywYv/MXH+YJxk5bGHmIA072sEPmGjk78MFrUtUuIRqbl6mXHWLrsOlg0zR3JpIVDdWSaemmGbPmfmtMOU4VxxbHx3HEh5b1QSFDM1I777rM31YpGWennhiihdV0QGvIsnsqk6Y0i0aavfLcGY5b1+od0ThhpC9NF4/xvkRArZ9bNiF28KM39LYgecDX730jQ5lL3Xw8Tsmb+pggQsKiFyQaigp3TwmVKnOgPoFo7HMq8QCLYPz2/3EE4y+vOIIxdq1CgrHFzs6s3kptWoRCOc0SouF3gJoUtxxc0XC6f/wOOD8OTzeNa+556WWaOtdBTz0mXVT+7qMSosH3M3VMd20p0zV/UzR86QtOs3tfbjxek+ub922i4oNogAoB0djnlNs99THXrAsJxtPfKLeF4dSCQ6pGnyNXE9eiYR5PTaruIOWkdS27WEtjZThWvKWhWyudk14Xnbq5TGndqkhdm6Yl93BmkUZjnOY+V8iKi0ZqXBx5gmv/+g62uCUhrZgdiIbTkmijKfPAVopWlp0d9dDSQPfU/geisc8pZyBcBONz//sDJRCD33FmRY18dzMrGDIoXi7iVKX2Hj82RFNXZrlGf0QN4rpCsDQgAiCD15M0d2GMTj/mDCi7Tto/puFM2WUnWXBMY4CeUoPmuThWRmUcxBgX6ZE0hKl9nI+nHVEJPXaCkhdmaSbZo8YkonpMQkRjUI4f7uP0T9KC6bAZmVLsDPSvUnpjnVYmeyjO4XciGrS1SsnDfP/mmMUR6c5L0JTcijum0eId01CtkUKiMS9dXtx66uP8nZw3ZrHtDAyE738gGvuccqbc/o9R54971RIMl9SV3OyiUERm/ORq+e5sIWc2kCMeo9z6yNbsfbOnpOtoZsjXTWPMngpFEjQ8O+lrHaSVM1fjKTpMPzv5LObsq5YItfdM05oxtpG+xEKirz98Xe904ZbA3LnczKjY00M0fJy/70Q0BOkq68nFdyjRQzNmQ8ucPcVpbe2SyQH8vZBo8FXmetz8Hcjr2toumHK7/4Fo7HPK+XPfI+dS9NmvOq5r6PKDqghG2WTWaemG170unePWSWyE3J719PIirZndU7qLSwaPQWXBn/v2PxCNfU45rxER0fj5zvco8icpJRhP/tVGfQkGZWihT3dPnZMpr76uJUFq1tJ9pLuXZMrtSenicqepgoqC14jsfyAaDcBOX1h4fPyeEg6xzr++R5/WlWBo3O4ps2tpctkzsK66l56OOl0wLCitHUPeP8SBioAXFjYGEI0GAK9GB7UAr0ZvDCAaDYLMaKnm69FBYyNlC7OmGgOIRoOA5V5BNcFyr40DRKOBkJkt1XhNOmhsUK4aC4hGgyEDlakPsm8EBKAspCxh8LuxgGg0GJ98sqX6niEcoFykDElZkjIFGgeIRgMiD7nUDtGlAHaKlB0pQxCMxgOi0cDIgy8DmJhVBWyRsiJlBhWOxgWi0eDIjBfpYpA59hAPUAgpG1JGpKxgllRjA9EACvlTlnQ3yGsgpBYpL56TN5ZWatU/sHeQ31x+eykDUhakTEjZwB/3gADRAB7kvUHywjl5U6nUKmVtBFlUB9Y4Jr+5/PZSBqQs4F1SwASiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrlGgELfkIg8FgMJjf0NIAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYM3d9H36/4zZj635yYjBAAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>110030</x:t>
@@ -169,7 +193,7 @@
     <x:t xml:space="preserve">       K2-513/H , Tararchand Colony, Mahipalpur Village, Mahipalpur, New Delhi, Delhi 110037      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADQQSURBVHhe7Z2Pcxvneefv70jbaa9z7XWmnjvftXe58TF3DDjHCrmOkGaMxGPWHuOqWqxUOrVCRi5V2VJZypLLUglLpTw2ZsyEMWvGcFhzTFu0GDFWRVFRyPjEMiMRNkVaFCGRhkQSIiVIlJ97n3ffBV4AC+Al8YMQ8P3MfGex+7777ruL5fPd98eC/4YAAAAAA/6ioZFgGgAAAIyAaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY7bNNJb/2U9rF8bUGgAAgIeBbTGNjdUVmvlSpRR/BtvFXbo1MUG31qy11f5ddHlvH61aqzlh8fhv0eXjE2qtkEzQ7KO7aP66WgUA5IRtMY3Fv22my4+KYCLEn4sFGeBUvZL1Mi2qfKWDCKyVj9DMsGXcMA0AQCYKbhr3rs0nBeRi7KbKRwAtdmAaAIBMFNw0uEuKjWLpH75NN15pkp+v7vpjlVo8pAyga1N09cBXLcOr/Cpdefcq3ZcJVpC6+u6r9PEfPCLShb7+Ki2tXqWFZi3/0FV6IPNbATXwg7dp7uuPWel/sI+uBu6qVItbIy9r5b1M16+pBIG1fx/NPvV70breCfTRFZ9dntPx9Pxc59+iWRXTY+e8SPN7Rd6+q1YCc6WHph/dS9duqXWdtY9o3j7Hxx6jjzvPUXjDSko0jQerE3HXb6Zviu6oNO4uW3ptL01XirRHf4+m9/H1U0lMymvP8L6i/o+ptP5XaSZPpsFdqibdquh6BaVIQU3j1g+75R+8PZbxQMg2kZs9r6lcxYGjaWxcFcH0EfrY/xFFRFCMXDsp6v9FEXQ50FsBeProCC2vEd2/NUFzT6kANnJV5L9L4XMvi8C7jxZUoTKgfvkQXf/kLt3fWKFQLwe9Q3QjYqXf+ZdDIr2Rrl25Sw/E/rf8Vvp1NQYh939sF81NXKW1VZFnVdTnsR00e25FBtP7n/TRx499la5+kiJ/StNIPn+53vA23VbrMRbp2tcfoenj5+i2uCYPVkVgF+u24cSZxsZHdPUpkfbqhMx7/9Y5mv2yMKfej6SxrQ03ivN9mW6wMYnrceP4jtgx0157ottD+6xreU1cy8iidS3zZBqzX9splc4UOI3zFFP3KwC5oGCmwd1SgS+IJ1wRpFbefkttFYHiwpjcxmn3rmlPttuMk2k8mHiZLj/ZQzfVOnOz10OXT3BQ5AD8FM1rLYFl/1N0+U/7aFmt28ZiB2kOqAG/ds4bUzT3JWGq/8KB0Hra//hdPTCt0LUGsU+/NbrC+0+LgBtFGMvaLRE01Wq0jIEU+dOYBt16mz6OBl3ruPF1UcgWiAjWyuiYB1dO0mzfBLG36aYhr9+XvkNLqhXCPJj6Dk0/9jItim3y+C+NxFoetz6iG+c+kqaR/to7XKuNc3QlT6bBM//4nk1lHLZh8D1999Iv1VYASoOCmUbw4DflH1rwxf1qS4xrz++RacXUTeVkGnKbqGeSZFDkABwfpJLLcDANZQA2N1rsbZzXQ1evWNttQq9+MRqEnfZfu6R1TynpJhOfP41p6EbBLZhUXVMczOOMMR7dNGT5zSOk+YsqW1236+Lz1x6hy0/toyt9b1NItBrsrrXM1/6LNHfJymuR/H3kklTGAcMApU5BTMP+A+OuKKfWhN4KKZZB8eSAr7a9cFI+QSeTHKSSy4gP0slB/C5db05vGosnRFBNZRrX+yjwKHdPLcouHJFDPoFvzTSIbr+7V57vKneTOXZNCbI1jU/1Fo1AtJaWp0Zo/sQ+ClQ+QoHXpmT+zNe+sKbBJBoHDAOUA3k3Df5Dio1bfE9tTYbTbGPRn9y2i+SATxQ5J4KnNuYgEcHZehpODlKbN42P6OqTm+ueitufA3jc8a7S/J9u3TTsFsbMC484d00xTt1Tn07RjYtXZbDXTSN995Qwi4vnaEm0LmxkmprqnP7aF7Z7Skc3DhgGKAfybhr2OxlsBpng7inOWwyDh06mIcccvmwNdq9ywIpcpetHPfTxEIe1rZmGPXgbHej+kgiSKjBaA+Fa+sA+EWDFujYQHmcCgVdFkN1FV6cW6e7aIoX6REtBHG/LpiFMauEF7gZKF3w3PxD+ce+UGgi3JgvYA+GhV3fQ5a/3UIgrwOfbJ+rz5VcpJPdNd+2TB8IXX+VZVvk3DcY2DhgGKAfyahr6Oxkmg9z8B2fn3+5uKkfTEPCU0bl9IrhxPeOml27NNAIn+mjWnnL7tUaaT5xy++4hCuhTbtVMKCbZBEQAGxL5ecqqrNsIzb8UG/zevGmoLiqH6xCHPuVWTqOdoDV5TRJMQxB3/RLy0sYi3ei0p9wmTzFOfe2Zwk25dYKNA4YByoG8mobdLcXvZJhSzO9u5BqnoF9sLB4XrYYiryMAoHDkzTQS38kwpZjf3cg1xWwa99dWaC3A73mkmDUFAChL8mIa+myobMRlFNO7G7mmmE1DztJ6zEMz2hvlAACQF9Ow38nIhcqhmwoAAB4W8jqmAQAAoLSAaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwJi8mcYfHP+UPveN63H6wrElun33M5UDAADAw0beTOO3G28kmQZr5FJE5QAAAPCwkTfT+J+vLDmaRtup2yoHAACAh428mcafvHbL0TT+tPuWylGkhAM00OSjHZVVVFHtodqmYVrYUGnM/DC1+jzkEukuTx31ToRVgiJD+uRxUS6XranBH1SpRAuDzVTrccvtO75ST91jIZXCBGlgT/L+7RdUcgKRS/3RulS4vXSga4LC2rmkr0uYprvqqcbN293iOgzGX4dN1CXUXyfqUEcDsdMEADyk5M00vvvBmqNpPPXdYjaNCI0fcZNXGEWIA2Rkjgbq3FTTFbCS1yeo0+umhr45ioj08Nk2qtGDYaZ0Uf5oUxUd8M9ReDkck91jd7GDvNUi/4y1wdq/noaivjFH/hoPdY5p+wrxsZII9lNDtZdaTwWt9KAwM6849qBdWPq6yEDvbaNxzq6ug/f4hNjLxrAuoWE6XM2GAtMAoBTIm2nMfrqRZBifb16i+ZsPVI4iZP0MtVbWkH9GrTNjLVRR00OziZ8lVuD1dkxZq5nS1dN5qpZByF9HFXv6Kda2CFCvCPSx/BPUbhh8OehX1Ollie+ku4YqROC3SFcXkbarilpPa+NPMz3kq2ykkWW1blSXsDh/YaJtbdQA0wCgJMibaTA7tBlU//3lJVoKF7FhMPx0XtlC4/rT8nwfPVfZRpPiY3JQV9v2D4vwmDndCrQeqq1T3V9uH7X6A7Gn97k+qtVbGmOipVEtArVdoKyfj56ri3V/xXdfpWfyuJt83XNqLV1dOC3RUKz83VH/y1yXyIU28vqEic5zXpgGAKVAXk3jjQt3pGH8Sv11Cq4UuWEwMhBaBhFF2xY53ZzQkiBa6NsdNYpM6RQJ0FBTM3WftbqEFk41U02lm1o/iD3RhwYbaScHcamaWJBmgmPU3dRCA1NBsX+Qprt5rMBHftsH0iFaCrW6AaWtC3c9JbQ0NsbijSRTXTamqNvrteovryFMA4BSIK+m8eAzoi8ctWZRvTyYMGBcjGQwDdl9Va2NWUz1UAP31zedsZ7QM6U7MH3CE0uf6hAtC62lwWMaeqBPIkRD9VVa6yEF88N0VATw9gvpvwO9Lgu9PqqIjmkEafSIV5pYXNddHPF1me32kffYmHVeMA0ASoa8mgZz7uN70jR+reE6Xbx6X20tUmRwS909xUQu9dFhObuJZxT101BbjTZmkTk9Eb1La7LNnZDXGhN5ri91tJUzoKLjFA6EJ6idB+e1GVqpiOte2wjRaIvVdSW7nk710dG4MY1konXh65jUrQbTAKAUyLtpMA0/WpHG8R9eWqSF5Yd4IDyRjTny+zzUfVGtJ5KQHv6ghXyHBq2grJCD0+rpnoNufKvBMo3o03tvHfn+MdlUUrY0xPF51hO3fBLJVJdEuOvNVT+oxmbS14XNL3Eqri0T8wIAFC8FMY0792KD4hUvO8+g4m1Pf/cW1X5/mf72vTD9eOIOXbtVaINJmHK7HCC/CLq1vQlBdyNC4bkJ8h/00o6D9iC3Rqp0Of3US+1nrVAdmekTT+SxMY3IByIwe5ppZN5at7q31LgA49R9lWpMYyNoTReOmyarkaEuUdaDNHuqjWrdNdSre8Rm6oKWBgAlQ0FMgwnd/kxOuWXj+N0Xb9CFWeEkio+XNug/HV6Uabp+768XVY4CkvByX8OJMctAbGQAtF68ax8MxL0sJ8mQLl+4e9p6End5fNQ6GB9l07/cJ67jWAc1aOlJLxfaXGiLPt3HKxa8M9VFdjfxC46NXTTuEPCN6wLTAKBkWAnfLoxpMGwc9g8Z8oyqg/2r9ItP7tHvHnT+narf+OZ1tScAAIBioKCmwXBX1YG3Vh1NIlEwDQAAKC4Kbho2P5u5R//r75J/Pl0XTAMAAIqLbTMN5rPPiN78+R36w2+HYBoAAPAQsK2moRO4sUH/+MEa+b53iypf+ZR+c/91+t/CTAAAABQPRWMaAAAAih+YBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACM2RbTeOvCPfJ+e02KPwMAAHg4KLhpTF59QK7m23HibQAAAIqfgptG39i9JNPgbQAAAIoftDQAAAAYgzENAAAAxmyLaQCQLyaPV1HF8QlrJdhPDZVtNGmtJbMYoPFLIbWSP0L+OqrY00/WkSaovbKOBoJyJZmNEE2fDVBoQ60DUGTANBwIT/TQYZ+HXJUiAFV7qLaxhyaXVWIi6xPU6dUCFXOhjSp436jcVPN8Cw1dCqsMFps6jgkySCYEpOUADTT5aGe1XY8OGk8VsAQywFXX0VBiHqeycw4HVO26yWvSReOLKtmAzZhGaKCeXN4umlXrzgRpYI9WpxTfZTo2ZRqLg3Sg2ku9l9Q6AEUGTCOBiAj4NdW7qfPsHIUjYsP6HI0e8VKFt4OmHZ7+pjtEGgeTJNPQgtV6kKa768hV3Ugj6sF2s8cxIjGwh0WA8rrJd2yYFpbDFF6eo8muetohTGFgXuVJQAY4cT6uOjvIKQpoGu0XrLVIWNS39yVxnVLXN5FNtTSMsEyjwa9OXHyXs6faqFYE9vYLZsaxKdMAoMiBacQxR35fFdX2zql1xcYUdXuqqPU0R3eNmR6q9bZRZ1MG05DoZWzyOKbBLyGwL/T6tGBlExGBVbRujpwRn5KRAa7GJ4Kimw6f1PZ0MI2F0y3U4HHLp++ddV2qlRSmkf1akBVMd3iooil2vMjpZnGMHocn/HjTsGFjdu0fFiUrwlPkb/TRDjZrt49aB2PXMdk0Wmhkoitaz9omYaDKlOODeSoSTEMRPtkoWinxBu98PZxNw392kFqfjuWdtk/O4ToDUEzk3DR+MbtBvaP35DIVt+9+RgMT96T4cyp4VhVPxy3Y7KrlYTpcWUP+GbWeFg4mbhHgw/GBinE0DWEUNVUiEIvosKnjCLZkGiEaqqui5/ocos9YC1VUO5dnB7hZEdj1llFiMIuIMrzCMMc5nfvhu2KBUZYRNQnrvOXx1C3BJuLtmLJW4nA2DTZnX2Uzja6LzxvWdW/om6OIKC8yP0ytHo/YxzpasmlUUc0RYRQiORI6Q+3ClOV3IMjGNGj9DLVq32HG6xFnGtyS66Fp3rAeIL8oP3o9YBqgyMmpafwo4R0MXk+ETaLmxFo0zx9/Z93ROHhWVZVWVkFmWW3iD5afNHeop9+MprERju+e2mxgkPk3axoT1FntEIAZGYTTm0ZInNlok5tcdvCPK9sKpHEtIhlE62iIxx+4fNuUeL+aNmrf76FuGRetoO9Yr1SmoR9bXFtXQitltruGXG3W9U82DWU2Ck6382ZlGnF1TX89kk0j/oFBptvdgXHXGYDiI6em8fi3Y2bA4vVEuHWh52HxtkR4Oq6eh9fzTuIfrFwXQUgpGjjCIiBo/ezOphHbT8r7Eg3Yg6dGx7GCUlwZtlIFurhyszUNXhEtomqrNZVYtnPd7HTuZrMCI5srP0Vzub7uORVM4wN5jMymIeuXdFwhdf2TTSP+PPX0+GCeChPTSH894o/Dee3rZBGXHnedASg+cmoaX22LD/S8nkhRm4YMaPYTsY4eOKwxgRqte8XZNGLBKqn/2+g44khy8FroUg89x4HWXpcj5w7EBZzsuqfsQCrr7mmh8UuJpuFU/xiTx93U0D8nWisqHxsVlzshWgr6+EQcKUxD656S9Uu5fwFNQ36Hdosh/fWAaYBSIqem8c8/vx8X6Hk9Ee6K4i4pO0+67im9rMK8BCgCbX0VeU8k/vVrgWOR/6jtJ8lEqQCV1D1lDXzHAo/BcXQcgh+3AlprGuOnxsrg2kgjagB2ywPhcfsEhfm4ybtHtBSiwSzVQL5aCuRgd30jHXaLesvtPLZRR61NNVaLwxFn09AHwiMf8FhLM43rLRXtuIUyjfgHgfTXA6YBSomcD4T/8toD8v/snlymgk2CWxcsJ8OwKfhAODMv/mirvXTUP0UhDkyRMIWm+uiwx01HTzk/32ZqaTA8xdYrgt2oXcRmjuNkGipQyUFe3n89QAMiuMfPMhIBKm7KbZCm/emnsDoGUj6+fM8jFsxk0BTl+FWXW3iqhxqeFkHUdiJZZ7GPNmtKzqJK20KJNw2ecjt+Ynf8FGGeYea1zlu+ABcJ0uiRGjo8aNV4y6YxM0ydbeI6yRSdBNPg6dPiGvoSptymux4wDVBK5Nw0SoLgGHU/77WmdPKUyCfqqX0w4PhkzpiYhggNNLJfPLGLfNFyTI8jAtXk2UByl8zyBPVq+9c29dNsYqaEl/tcYlnbMZXyXBxNQ7AgtrsSgtnCYDPVyimmVbTj6ebYmI2EWxaxmUoScV1c2iyqZCzTiLbcUr3cp5+3yNNwYiz6BvWWTYO/M8cuO8s0Yq3J1C/3pboeMA1QSsA0yo25QTrKT+qHBuU0VGARHqxPO1YCALCAaZQj4QBNOjwply+iFXiw0fitcwDKGZgGAAAAY7bFNHgmFE+hZRVmVhQAAIBcUHDT4JlQ+lRaVkFnRwEAANgyBTcN/LtXAAB4eEFLAwAAgDEY0wAAAGDMtpgGAACAhxOYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMCYgphG34U79Dt/tUif+8Z1I32+eYnenbyj9gYAAFAsFMQ02ASczCGd2GQAAAAUFwUxDdsITNlsfgAAAIWhoKaxWQEAACguYBrbSpAG9lRR+wW1WhZMUHtlHQ0E1SoA4KEC3VOJhAM00OSjndVVVFHppp2+RvJPhFVirklnGlZag7/UoitMA4CHmYKYxmbZPtMI0lCdm2qODNNCOEK0EaHQVA81VHupc0Ks5xyYBgDg4aIgpvF3Q7fp707eVmuZ2TbTWOynhsrdNDCv1hXTJzxUcWxMrREtnG6hBo/baonUddHkskoI8v4tNDLRFU2vbRIGtKHSBQsnm6nWLVox1R5qONFHnbscTEOWwy0dpT39FFJJC6f0Y7fQaEJdLSzDqe2dU+uCmR7yVdbTkCooXTmTxxPMStbHDvRW0O/1d8jzSDY1lT4YuwY79/fRbLSxZqX7zw5S69OxazitN+aWJ8jf6KMdfO5uHx3umaKoZRtc48jFHjosy66iHU8305B2GQAA2ZF30/jXa/eiJmBqHNtmGhtT1O0RgbArQGEtCOlExlrI622jcQ6+GyGa7qqLBXUV7GVLRUS5SOgMtYvyDp9UEXGqg2qqRcCcErlFK2bhVDPViPymLY3I6WZyeV+ioRmrFTTbV0eu6mYadeg9C/m1etnr9YPEWTOVk9k0qsjFZjkXJm6QxWOly2uwLlZDU+QXrTfXkTMq8Nv799A0V249QH5xnt6OKZlKG3Pk9wkj6JiwvoPQGLV7hQF2q8if6RrP94mWoairOjc2aa+njSa5LgCArClIS+Offra+KePYNtMQRC7109EnxFMqP+G29NBowA67jBXIW09rkXL9DLWKgDrEr5XIgCaCrxagOAC72ibUZzd5T6jgKBHlObU0JImmYa0fGNTrE6KheqenfUFokA5EA72Vz9o3czmZTaOG/DMyxQFOT2itXewgb/S6JO8vDa1OGdyFNnJ5OmhaN23ev1oEft5mcI19tsFIhAnVuKnTSgYAZEleTMMO+qmUyTjsfNsGP6FODZK/qU4OiO/YbXefWE/J0W6jqFRAlQFNBDfOquCAVnGcI5YVrKNPxBJrm5lpOAfr6Q6PKj8RzSiWh+lwtGsqczmZTcP+7IRD+oZoLaTZX28Vyc9NdqtEIeuv9jG4xsnfT6prDADYLNtiGi3v6YEzGTtfUcDdJSIQWd0nHPA81K03FnS2wTQm20SryNE0iMKD9VSxf5hCp5ujXVMm5eTcNFRrLNX+GU1DjjWpfTZ9jQEAuaQg3VP821OmhsFsl2lwX39FYteIYKFvt+o+4f72hAFmxs6fNqDx5wJ2TzGqhXF4v1vbL3M5XOfn+rQyszUNOQivd0+lNg2z7qlU1zhC40f08RNFwvcJANg6+R8In7+/KcNgtss0aH2COr1uqm0b06bc9tNRsa2h34py4ZON5OLB7EvWuYR5Su7TIshxlMpgGokD4bODL6UZCCcaPyZaOG0TFIlYIdAawBbBd96q22x/owimYj3lZQ3TyH5x/IQgnakcGcR9HTTJUXx9jkaPeLUyTEwjNlBNkTkaqBNmKa6BdRYZTEMNhDeI5pw1ED5B3U8nDoRnuMaVXmo9ZR0gMj9MrU800ojukQCALVOQlkbLybCxYTDbZhrMcoCGWuqphqfFiuC34yu7qdUfiHtyXRhsplo53dOa0jmgDCRjQBMYTblVRIQhPSfzxsqMHVtNlc0wnVR2UWmzqGzSlrMRpJFDNeQS5+fy+Ki1o4We25Rp7KbOvo7olFjfof6kKbcpTYNZnqDe573alFs1k4oxuMbhiS468BXr+3F56qh7DI4BQK4oiGlslm01jRKDu8RSdl/lhUymAgB4mCmIaWzWBGAaOWA9TOEAv7MQe6GvMMA0AChlCmoamxXYOnI2VHUNHT1Z6OgN0wCglIFpAAAAMAbdUwAAAIwpiGn8zgHz/w9u67/+zZLaGwAAQLFQENPg355iE3AyByexybwh9gEAAFBcFMQ0AAAAlAYwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMdI07ty9SxAEQdA26s6dzMtsxGXkQDANCIKgh1m2ITgtddn5sxRMA4IgqBilB397mY30srMQTAOCIKgUZBuDvtSl581CMA0IgqBilB787WU20svOQjANCIKgUpBtDPpSl543C8E0IAiCilF68E9cbkV2uVkKpgFBEFQKso0h1TJHgmlAEAQVgzIFfV5mIy4jByq4adxev0v+C6vkPr5EXxJ6U3zmbU55IQiCoAyyDcFpqcvOn6UKZhqLy3foxPAK/X7TjaT/Cc7b2k+tyDxO+0IQBJWd9OBvL7ORXnYWyrtpfHT9Dv3VW7fotxpjZvHooRvU9v6KFH+2t3OeAyIv7+NUFgRBEJRCtjHoS1163iyUN9MYDazRrtdu0q/Wx1oUX/77JeofD8d1R/Fn3vZH7Z9G8/E+f/K9kCxDLxOCIKhspAd/e5mN9LKzUN5MwzaA39x/nb7++k26+ElmA/jF7Bo933uT/q3Yx97fKd/26jx9q7KKvjXqlJaslcB5Gg+EHNOy1tybtK/yOI07pbHmp+jcxaBzWjplKjcbbbVOEASll20M+lKXnjcL5d00grec09OJ99lO01i6+Ca98sxOcglzqKjeSc8eepMuf2qnb840xtvc5Gp8j5Yc0jat0eNUoQfzDMH92o/3kevxTrrskJZWeTSNLdcJgspNevBPXG5FdrlZKu+m4ZSWSh9cirVGtss0Vs4fpycrH6dX3gvQ0qpY/zRAP216nFx736Qra5xnc6aRU23SNLasfLY0IAjKj2xjSLXMkYrGNL5/dlXm/+u3l+X69phGgN54poqe7QrEb7/1E3ql0q2MItE0QnT5jSZ6dqdbBHQ37Xymid6fsdNES6NFtFZazsvP197YSxVHXqf3Dz1DO7gV436GXnlnjpbGO2mfvf/eTpqMtmoSyuF9lOTxZXA/Ru+fj+3/7KH3lLmp49W+Sdfscmbei7agXDvFsd9OOE9bqty33hHn5ebjOZSrzslSwjVZm5PnuLNa7Ctbam871ylD/Vkr49304lOcVkU7nmqidwKxtLTnk6YOEFSUyhT0eZmNuIwcqChM45/Oh6P5j76zjaax+B69WPkkvXEpMW2Vrpw/Q+Mzq+JzfIBceu8guR4/TueC1vqV1/eS65nX6YraN8k0qvfSGx8GaWVNlPnjF8hVLYxiXzdN8v63puitvW56vP1DmT9Jji2NKnqySQRabhUFf0Lf2llFL75jjaHEm8YU/eBxN+17PSCOLfJeep32iWD66rgqS1dSuWfoW48LM+2xgnIm07jcyS2z1+my2PfOasA6pzbrnJJNI3X978xwHffSW5fEdefrJUzs8Z3i/GWXZ/rzSVcHCCop2YbgtNRl589S224ab/082TBYpvvnVDKIiSA155AWVcJT9a0QLenjNqqMd+at9eSWxplY3jURjLmsM2rdzqO3DnQ5mkYT/VQ7Ph/PdVw7XrQsrveT9IOLdl7dCGP7S8lyj9E5/Yn//Saq2HmCJsXnTKbBdXimcyqavjJzns6dn6MV8TnZNFLXf7zFTc/EtfpES/BJN33nPH9Ofz7p6mBvg6Cilh787WU20svOQnkzjd98wQr6N1etyp65nDx7auAX4eiUXN0weB/exmXo+fOurZjGWogmo91T3JXDipWRZBppgm00z6ZMI37sIel40bJWabLrWdohnsb3Heqkt0amaClVd41DufzU/+dqW6bzWPmwm/7czV1tTfSDN87QZdUKYyWbRqr6z9Fbtfb1jJd1nPTnk64OEFSSso1BX+rS82ahvJnGf2lalIE/EFynQ/+8LD//6Gexp1o2jF9rSDYMFr/cx9u5DH173pWye0pcqE9Fi4K7OhICpAyCsntKnVuC8RSPaSgFp2j87W56Ze9Ocj1+kN53MsgsTUNqLUiXz79NbxzaSzurH6fm9+bk9rg6GZhGtKsqldKdT4o6QNBDIT3428tspJedhfJmGn/cGZKBn39bik2BP3OrYvD/hem9i7dTGgaL9+E0LiMxLb9SA+Gq7z6qNAPhHOT2vaEFIxlci9A0RHA9x0/j0bxBemdfQt1tyXIzdE/p3Wxx5yEC9Uj8k/3S2/ui9TA3jVU61+QmV9NP4ruU7DqlPZ/0dbC3QVBJyTYGfalLz5uF8mYaf39qRQb+3d+/Kddt4/iNb16nXxdKZRis2h/clOlchlN6PrUiAvOT1c/Sd0bUAGuGKbc84FpR20mToqWxEvyQ3tjH3VR5Mg1pSPvonXlxLG71bMo0RCtKPG2/Yj9ty0Fnt3j6djBmWW7qgXA2L1f1C/QOjx+sBmmya6+cwWSbxvsNbrnvNb5e4mn/p0dEK0C9q2JuGmL9wxNq+rNV5xWeLfW1F+h9NoO055O+DvaxIKiopQf/xOVWZJebpfJmGnYXE7coroWsCtvGkc4wOK/dCvl4m36Daul8N71ov9znfpxeOPZ26pf71NROnkLr2rmXXn3vdWrWurhyahp3xbEOPinrte/N4OZMQ2hFf2nR/Qy92P2h88CwLDdhyu2xn1gBWOYJ0WTns2rasLg+nSfEOWvn8ekUvWVPd+V9X+iOTiPelGkILZ3vpBf+yBovktf3TOxt8rTnk6YOEFSSso0h1TJHyptpsL7WYf2e1As/uhXdxmaRyjBYnJf34X2d0iEIgkpSmYI+L7MRl5ED5dU0+LekuCuKWw5jgduOeXSd/8ga6+B9PpzDjxVCEARllG0ITktddv4slVfTYL36gTWo/bsHr9PkJ+uOeVj/enVd5uG8XWcc3h2AIAgqJ+nB315mI73sLJR302A1+q0up99uvCFnTyWm8xvhnMZ5OG9iOgRBEJRBtjHoS1163ixUENNYvxM/CP6Xb96SXVfDv7wt/+2rvf3lNGMdEARBZSU9+NvLbKSXnYUKYhq23v/X2/T5v7Fe+tPF24YmM495QBAEQSlkG4O+1KXnzUIFNQ3W6tpd+v7oKn3xlSUp/szbnPJCEASVrfTgn7jciuxys1TBTQOCIAjKg2xjSLXMkWAaEARBxaBMQZ+X2YjLyIFgGhAEQQ+zbENwWuqy82cpmAYEQVAxSg/+9jIb6WVnIZgGBEFQKcg2Bn2pS8+bhWAaEARBxSg9+NvLbKSXnYVgGhAEQaUg2xj0pS49bxaCaUAQBBWj9OCfuNyK7HKzFEwDgiCoFGQbQ6pljiRNgwAAAAADYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABj8mYa703epf9xbIk+943rxvpvzUv0rtjv4WOC2ivraCCoVhO50EYVe/oppFa3SshfZ1yOzHt8Qq1tkmA/NaQ7HwBA2ZI30/jPhxcdjSGTfv2b1+mXC/dVKdvIXB/VVnqo+6JaTwtMAwBQHuTNNGwT2Ax7epblPl84ukSRDbVxm5ju8JDX4yHXkTMUUdtSA9MAAJQHRWUaq3c+o9//a6uFcvjtVbV1G9iYom6Pj/wXBulAZTONrqvtUcI03VVHO6urqMLto1Z/Fx3Vg2x4inrrhOFUVtGOp5tpoOulNME+TLP+Zqr1uKmi0k07fc00Mq+SEkg0jcilfmr1Wcdxifq2noxFeZn3WB+NNPloh0iX9dTSmYXTLdRgH7euiyaXVQJMAwCQgqIyDebns/foV+qtffnzdhD5oJlcMjhHaPyImw4Mxof78MlGcnmFmcyLNkgkRNPddSJw20E2RCP73VRzZJgWZPIU+etEYE5hGuFTL4my2mhcJS70ibJ8fbRgrcYRZxrLw3S02kvtZ9WOc33UUC2Mbs5alXkrvdR6KihabREKnW2jmspYemSshbz2cTfEOQgTjJYN0wAApKDoTIM5OhiW+3Krg1sfhSXBKC52kDcuiAdpYE9VvJFsjMW6p2TArachLZlEgE7Z0lgPU1hvyaiAPbSo1jXiTEMYQXhZ7ziz6tXQbx3FammMyc8WERptqiJvx5T4bOVtPa3tv36GWu3jwjQAACkoStO4/4CouvVTuf+f/9DuMykQoUE6UN1M43Ygt7uq1BO6NX7hoW6OvVG0MQ0ev/B00LSVYJFuTGMjTNPR7qkqJeeAHWcagrDWPWXv2+C3dpR5E8Y0Fvp2q21c39g+MenGB9MAACRT9KbxZz2FNQ2rWyc5oHpP2C6RW9OQx5PdROqpP03AjjMNmc/qnrImDaiWhrFpJJ6DBkwDAJCCou6eevRQobun5sjvc1P7BbVqM9NDPjYCLTjnqntq8ngs0Evm++g5E9NIMiJRr10JppGye4rPs4pqe6PNJwt7xhpMAwCQgqIeCB/9qMAD4VMd5K1uo8mk6b4iyNa4qfUDqzWQOBA+2bE7zUD4BHXvSj0QPtvlFWldNC1aGnLQvJ67qQxM41IX1Yh8vVOipbEeouneejlLKs400gyEy3OoriP/pbC1PtVDDU8LY+RThGkAAFJQVKax3VNup0+kfi9jtruGKg4Oq7QcTrndCEanxbo8ddR9qk+UVUP+GZWuEWcagoWTzVTrFnWo9lDDiWHyH6wiX7flClZLI37Kbfvp+BosDMbGUmQ9lYHANAAAqSgq0yiml/sAAAAkkzfTsFsMm1XR/IwIAACAJPJmGvyDhV/Y5A8Wfr55iQYvPow/WAgAAOVB3kwDAABA6QHTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0QR+TePbq1vErB60s098kCfTTzCU1/NAuVkfg75++e7wG+F/ieAMAGpgEkK6thujofpJnZq3Rj8VOxfpvu3o3QxoMHKgcoF/g75++e7wG+F/ie4HuD7xEAYBplTvj2mnyqnF+4QbfFZwCc4HuD7xG+V/ieAeULTKOM4afI2U+uwSyAMXyv8D3D9w4oT2AaZcj9+xuyuwF/+GCr8L3D9xDfS6C8gGmUGfxHzl0MoZvLagsAW4PvIb6XYBzlBUyjzOCnQxgGyBV8L/E9BcoHmEYZwV0K6JICuQb3VXkB0ygTeMYLD2ACkA/43sKsqvIAplEmcN8zZkmBfMH3Ft9joPSBaZQB/FIWz7EHIJ/wPYYXAEsfmEYZwAOV+WxldI+u0743VujqTbw9Xs7wPYZB8dIHplHi8O8G8c9A5IPPPiOq71uhz33jutR/PLRIVz7d7PTLMM36m6nW46aKyira8ZV66h4LqTSQPUEa2FNFFccnrNWpDqqpdNPhk/m5xnyv4beqShuYRonDPziXj5ktbBjPvb4cNQxbu167pXKYET7ZSC4RxGqP9dPo2WHyH6oR617qnIioHMXOBLULs2vwF+sTdqJpdJGv2k1HTynTuNAmzLqOBnJUfb7X+J4DpQtMo8ThXyrlH57LJbph/Lu/vBFnGv8wsrlusMnjIqDt6qPYEGqIpk9N0MLD4hkPm2kkkmPT4HuN7zlQusA0Shye0cK/WJor2DD+7AeWYfjH79C/BCL0q/WWYbzw5orKZc5Cr08ELS+1ngpSJKlnyyngJQTpjTBN9jRSrVvkEy2Wnb5m6j62W3xuo0krh7gIw9Re5xEtGJHH7aUDXR10NC7Qp+8ii1zqp1aftv+JMQpxXWXA5ePacg6+obEOOvAVq+y4/QXSNPd00VBXHe2s5jJEq6upn2ZTjSeHAzTQ5IvmrXm+g8YXVRqzbKXvkMfyUat/goaaxGf7Ggb7qUGktV9Qx47WXWhPv7Ds7OB7DbOoShuYRonD/xshVz9vviGKsQ2j9/y63NY/cUeaxlYMQ7IRotFj3CUlghYH1JZBmo6+sJ7ZNKY7vDJ4PtdidW8NCMOQZdmmERqmwyLAup5opN7BMRof7KIDXitI2mUs+OvIVV1D7YMBCi0Hadr/EtVEu8imqNtTRd6mQZoNhmnhQhc1eHZT74SI6qEAjZ/toQOiLJ+o9/hZ0UKyLkuM5TFqf6KGjvaKtGWx/9k2qhX1qemYksl24HbtaqGBU2PCPOrFsauotndOpsexIa5HnVucSwsNBYIUDk7RwEFx/l5xrnzcDVFXPjf3bmr3D9P4qX5q3yXys8E4mEY4IK5Hd704vjj3AfF5Qhi3lWvL8L3G9xwoXWAaJQ7/U51ccF8Yxv/53q0kw9hqCyMJDsD+FhGQxRO5COCdF/hRO4NprJ+hVhEQa7v1ABum8WOeqGnIlkx1M43qT+7zfTJwyjI2RHmiDF9XQCUyERrlp/OmM+LTHPl9IqjXddHkXNihNWTYPRUJU1iYRlhE5fFjomz1VG+Zxkta/cI0sl9sq3N46hctG5cI8L2X1DrD10Acv/V0hCIfNIt0H/lnVBrDRiJMz8k0JDnunmJydc+B4gSmUeLk4g+YDeOp71qG8dpZyzD6LuTIMDZEsNMfb/lpmo1CBs0MppEYABUh0XKwTcPq/kkMwMllxHXT2LL3Cwdo6EQjPfcEd1Eldh9lMA1xPkP7VdeWlHry100joX7OdbbPyy4nXnx8/bx1ZHkwDZAjYBolTrbdU/fEk3Uqw3j+n7JtYVhPwS75RB8j9iSuTENPDw3K7iAZpNVTdrqWxmx3TfqWhmqtHBiMD9GhmQCFVasidGGYpu3kyBT11og6t9lGlt40Qv0cyOvE0786gw3RkuBWzBZMw2pJ1NOQnrARotmAtaEYWhronip9YBolTjYD4WwYX/u/N6VBdP7UmhXVc249ahg8KJ4tHFT56d23v4uGzo6JJ/rdchDXNoLpDjYAHrwepPFTfXT0CWtA2Q7SiWMa1pRdESRTjml00HNy0DxWxmwvj4No4yItXAc3NfSL9LBlKq4nXiL/qTEa9bfIMQmvGpNg0+jk9F1tov6DNKkHbAFPKbYG+ucovByk2cEW8on8WzEN2pgj/y5x/vqYxW7uzqujIT4Ve0yjOn5MQ7ZGUpnGBHd5idZTm7i+gxPaLLatgYHw0gemUeJkM+X2L3qtF/fyZRg2obOx2UUuD8/4iT3l27OFrNlAlnn0itZH9Mk+YfYUdx2NdiV002izp1yeOuoeG0xoHYRlMJfjKSpPuwjyUfTZV9UeamgZpgVtbCP8gTASdfzui2qjjWgJjJ+IzYyqeb6Lug+Kz1sxDYa7ylpi5e2sa6FRvaGlz54Sda1t4skB4nMq0xBHGW+xr29HUtfWZsGU29IHplHiZPNy31dOhOgPv22Frq4za3kxjKyJBGn6Unx4nT4hWic1PWT3rIcDU7Sgd0+pLi4ePAa5BS/3lT4wjRInm58RYdP49wdukOfvQ9Iw9v5wubgMgyI02aa6p07wlNeEriWGn6y5+0h1L/GU28PcxWVPUwU5BT8jUvrANMqArf5g4cH+VWkcrAM/XqUHRWUYCrt7Su9aGgzEDazL7qXnvVYXjDCU2sau+BfiQE7ADxaWBzCNMgA/jQ4KAX4avTyAaZQJPKMlnz+PDsobvrcwa6o8gGmUCfh3ryCf4N+9lg8wjTKCZ7bk42fSQXmD+6q8gGmUGTxQGboZ/UVAALKC7yUMfpcXMI0y4/79Ddn3DOMA2cL3EN9LfE+B8gGmUYbwHzk/HaJLAWwVvnf4HoJhlB8wjTKG//B5ABOzqoApfK/wPYMHjvIFplHm8IwX7mLgOfYwD5AKvjf4HuF7BbOkyhuYBpDwS1nc3cA/A8FPkfzDc/yLpbn6r3/g4YG/c/7u+R7ge4HvCb438OIeYGAaIA7+3SD+wTn+pVJ+quT/jcD/VAcqH/F3zt893wN8L+C3pIAOTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxkjTcPqXjxAEQRCUKLQ0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABizEr5N/x/rokn9cYIluwAAAABJRU5ErkJggg==</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADQQSURBVHhe7Z2Pcxvneefv70jbaa9z7XWmnjvftXe58TF3DDjHCrmOkGaMxGPWHuOqWqxUOrVCRi5V2VJZypLLUglLpTw2ZsyEMWvGcFhzTFu0GDFWRVFRyPjEMiMRNkVaFCGRhkQSIiVIlJ97n3ffBV4AC+Al8YMQ8P3MfGex+7777ruL5fPd98eC/4YAAAAAA/6ioZFgGgAAAIyAaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY7bNNJb/2U9rF8bUGgAAgIeBbTGNjdUVmvlSpRR/BtvFXbo1MUG31qy11f5ddHlvH61aqzlh8fhv0eXjE2qtkEzQ7KO7aP66WgUA5IRtMY3Fv22my4+KYCLEn4sFGeBUvZL1Mi2qfKWDCKyVj9DMsGXcMA0AQCYKbhr3rs0nBeRi7KbKRwAtdmAaAIBMFNw0uEuKjWLpH75NN15pkp+v7vpjlVo8pAyga1N09cBXLcOr/Cpdefcq3ZcJVpC6+u6r9PEfPCLShb7+Ki2tXqWFZi3/0FV6IPNbATXwg7dp7uuPWel/sI+uBu6qVItbIy9r5b1M16+pBIG1fx/NPvV70breCfTRFZ9dntPx9Pxc59+iWRXTY+e8SPN7Rd6+q1YCc6WHph/dS9duqXWdtY9o3j7Hxx6jjzvPUXjDSko0jQerE3HXb6Zviu6oNO4uW3ptL01XirRHf4+m9/H1U0lMymvP8L6i/o+ptP5XaSZPpsFdqibdquh6BaVIQU3j1g+75R+8PZbxQMg2kZs9r6lcxYGjaWxcFcH0EfrY/xFFRFCMXDsp6v9FEXQ50FsBeProCC2vEd2/NUFzT6kANnJV5L9L4XMvi8C7jxZUoTKgfvkQXf/kLt3fWKFQLwe9Q3QjYqXf+ZdDIr2Rrl25Sw/E/rf8Vvp1NQYh939sF81NXKW1VZFnVdTnsR00e25FBtP7n/TRx499la5+kiJ/StNIPn+53vA23VbrMRbp2tcfoenj5+i2uCYPVkVgF+u24cSZxsZHdPUpkfbqhMx7/9Y5mv2yMKfej6SxrQ03ivN9mW6wMYnrceP4jtgx0157ottD+6xreU1cy8iidS3zZBqzX9splc4UOI3zFFP3KwC5oGCmwd1SgS+IJ1wRpFbefkttFYHiwpjcxmn3rmlPttuMk2k8mHiZLj/ZQzfVOnOz10OXT3BQ5AD8FM1rLYFl/1N0+U/7aFmt28ZiB2kOqAG/ds4bUzT3JWGq/8KB0Hra//hdPTCt0LUGsU+/NbrC+0+LgBtFGMvaLRE01Wq0jIEU+dOYBt16mz6OBl3ruPF1UcgWiAjWyuiYB1dO0mzfBLG36aYhr9+XvkNLqhXCPJj6Dk0/9jItim3y+C+NxFoetz6iG+c+kqaR/to7XKuNc3QlT6bBM//4nk1lHLZh8D1999Iv1VYASoOCmUbw4DflH1rwxf1qS4xrz++RacXUTeVkGnKbqGeSZFDkABwfpJLLcDANZQA2N1rsbZzXQ1evWNttQq9+MRqEnfZfu6R1TynpJhOfP41p6EbBLZhUXVMczOOMMR7dNGT5zSOk+YsqW1236+Lz1x6hy0/toyt9b1NItBrsrrXM1/6LNHfJymuR/H3kklTGAcMApU5BTMP+A+OuKKfWhN4KKZZB8eSAr7a9cFI+QSeTHKSSy4gP0slB/C5db05vGosnRFBNZRrX+yjwKHdPLcouHJFDPoFvzTSIbr+7V57vKneTOXZNCbI1jU/1Fo1AtJaWp0Zo/sQ+ClQ+QoHXpmT+zNe+sKbBJBoHDAOUA3k3Df5Dio1bfE9tTYbTbGPRn9y2i+SATxQ5J4KnNuYgEcHZehpODlKbN42P6OqTm+ueitufA3jc8a7S/J9u3TTsFsbMC484d00xTt1Tn07RjYtXZbDXTSN995Qwi4vnaEm0LmxkmprqnP7aF7Z7Skc3DhgGKAfybhr2OxlsBpng7inOWwyDh06mIcccvmwNdq9ywIpcpetHPfTxEIe1rZmGPXgbHej+kgiSKjBaA+Fa+sA+EWDFujYQHmcCgVdFkN1FV6cW6e7aIoX6REtBHG/LpiFMauEF7gZKF3w3PxD+ce+UGgi3JgvYA+GhV3fQ5a/3UIgrwOfbJ+rz5VcpJPdNd+2TB8IXX+VZVvk3DcY2DhgGKAfyahr6Oxkmg9z8B2fn3+5uKkfTEPCU0bl9IrhxPeOml27NNAIn+mjWnnL7tUaaT5xy++4hCuhTbtVMKCbZBEQAGxL5ecqqrNsIzb8UG/zevGmoLiqH6xCHPuVWTqOdoDV5TRJMQxB3/RLy0sYi3ei0p9wmTzFOfe2Zwk25dYKNA4YByoG8mobdLcXvZJhSzO9u5BqnoF9sLB4XrYYiryMAoHDkzTQS38kwpZjf3cg1xWwa99dWaC3A73mkmDUFAChL8mIa+myobMRlFNO7G7mmmE1DztJ6zEMz2hvlAACQF9Ow38nIhcqhmwoAAB4W8jqmAQAAoLSAaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwJi8mcYfHP+UPveN63H6wrElun33M5UDAADAw0beTOO3G28kmQZr5FJE5QAAAPCwkTfT+J+vLDmaRtup2yoHAACAh428mcafvHbL0TT+tPuWylGkhAM00OSjHZVVVFHtodqmYVrYUGnM/DC1+jzkEukuTx31ToRVgiJD+uRxUS6XranBH1SpRAuDzVTrccvtO75ST91jIZXCBGlgT/L+7RdUcgKRS/3RulS4vXSga4LC2rmkr0uYprvqqcbN293iOgzGX4dN1CXUXyfqUEcDsdMEADyk5M00vvvBmqNpPPXdYjaNCI0fcZNXGEWIA2Rkjgbq3FTTFbCS1yeo0+umhr45ioj08Nk2qtGDYaZ0Uf5oUxUd8M9ReDkck91jd7GDvNUi/4y1wdq/noaivjFH/hoPdY5p+wrxsZII9lNDtZdaTwWt9KAwM6849qBdWPq6yEDvbaNxzq6ug/f4hNjLxrAuoWE6XM2GAtMAoBTIm2nMfrqRZBifb16i+ZsPVI4iZP0MtVbWkH9GrTNjLVRR00OziZ8lVuD1dkxZq5nS1dN5qpZByF9HFXv6Kda2CFCvCPSx/BPUbhh8OehX1Ollie+ku4YqROC3SFcXkbarilpPa+NPMz3kq2ykkWW1blSXsDh/YaJtbdQA0wCgJMibaTA7tBlU//3lJVoKF7FhMPx0XtlC4/rT8nwfPVfZRpPiY3JQV9v2D4vwmDndCrQeqq1T3V9uH7X6A7Gn97k+qtVbGmOipVEtArVdoKyfj56ri3V/xXdfpWfyuJt83XNqLV1dOC3RUKz83VH/y1yXyIU28vqEic5zXpgGAKVAXk3jjQt3pGH8Sv11Cq4UuWEwMhBaBhFF2xY53ZzQkiBa6NsdNYpM6RQJ0FBTM3WftbqEFk41U02lm1o/iD3RhwYbaScHcamaWJBmgmPU3dRCA1NBsX+Qprt5rMBHftsH0iFaCrW6AaWtC3c9JbQ0NsbijSRTXTamqNvrteovryFMA4BSIK+m8eAzoi8ctWZRvTyYMGBcjGQwDdl9Va2NWUz1UAP31zedsZ7QM6U7MH3CE0uf6hAtC62lwWMaeqBPIkRD9VVa6yEF88N0VATw9gvpvwO9Lgu9PqqIjmkEafSIV5pYXNddHPF1me32kffYmHVeMA0ASoa8mgZz7uN70jR+reE6Xbx6X20tUmRwS909xUQu9dFhObuJZxT101BbjTZmkTk9Eb1La7LNnZDXGhN5ri91tJUzoKLjFA6EJ6idB+e1GVqpiOte2wjRaIvVdSW7nk710dG4MY1konXh65jUrQbTAKAUyLtpMA0/WpHG8R9eWqSF5Yd4IDyRjTny+zzUfVGtJ5KQHv6ghXyHBq2grJCD0+rpnoNufKvBMo3o03tvHfn+MdlUUrY0xPF51hO3fBLJVJdEuOvNVT+oxmbS14XNL3Eqri0T8wIAFC8r4dv5N40792KD4hUvO8+g4m1Pf/cW1X5/mf72vTD9eOIOXbtVaINJmHK7HCC/CLq1vQlBdyNC4bkJ8h/00o6D9iC3Rqp0Of3US+1nrVAdmekTT+SxMY3IByIwe5ppZN5at7q31LgA49R9lWpMYyNoTReOmyarkaEuUdaDNHuqjWrdNdSre8Rm6oKWBgAlQ0FMgwnd/kxOuWXj+N0Xb9CFWeEkio+XNug/HV6Uabp+768XVY4CkvByX8OJMctAbGQAtF68ax8MxL0sJ8mQLl+4e9p6End5fNQ6GB9l07/cJ67jWAc1aOlJLxfaXGiLPt3HKxa8M9VFdjfxC46NXTTuEPCN6wLTAKBkKJhpMGwc9g8Z8oyqg/2r9ItP7tHvHnT+narf+OZ1tScAAIBioKCmwXBX1YG3Vh1NIlEwDQAAKC4Kbho2P5u5R//r75J/Pl0XTAMAAIqLbTMN5rPPiN78+R36w2+HYBoAAPAQsK2moRO4sUH/+MEa+b53iypf+ZR+c/91+t/CTAAAABQPRWMaAAAAih+YBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACM2RbTeOvCPfJ+e02KPwMAAHg4KLhpTF59QK7m23HibQAAAIqfgptG39i9JNPgbQAAAIoftDQAAAAYgzENAAAAxmyLaQCQLyaPV1HF8QlrJdhPDZVtNGmtJbMYoPFLIbWSP0L+OqrY00/WkSaovbKOBoJyJZmNEE2fDVBoQ60DUGTANBwIT/TQYZ+HXJUiAFV7qLaxhyaXVWIi6xPU6dUCFXOhjSp436jcVPN8Cw1dCqsMFps6jgkySCYEpOUADTT5aGe1XY8OGk8VsAQywFXX0VBiHqeycw4HVO26yWvSReOLKtmAzZhGaKCeXN4umlXrzgRpYI9WpxTfZTo2ZRqLg3Sg2ku9l9Q6AEUGTCOBiAj4NdW7qfPsHIUjYsP6HI0e8VKFt4OmHZ7+pjtEGgeTJNPQgtV6kKa768hV3Ugj6sF2s8cxIjGwh0WA8rrJd2yYFpbDFF6eo8muetohTGFgXuVJQAY4cT6uOjvIKQpoGu0XrLVIWNS39yVxnVLXN5FNtTSMsEyjwa9OXHyXs6faqFYE9vYLZsaxKdMAoMiBacQxR35fFdX2zql1xcYUdXuqqPU0R3eNmR6q9bZRZ1MG05DoZWzyOKbBLyGwL/T6tGBlExGBVbRujpwRn5KRAa7GJ4Kimw6f1PZ0MI2F0y3U4HHLp++ddV2qlRSmkf1akBVMd3iooil2vMjpZnGMHocn/HjTsGFjdu0fFiUrwlPkb/TRDjZrt49aB2PXMdk0Wmhkoitaz9omYaDKlOODeSoSTEMRPtkoWinxBu98PZxNw392kFqfjuWdtk/O4ToDUEzk3DR+MbtBvaP35DIVt+9+RgMT96T4cyp4VhVPxy3Y7KrlYTpcWUP+GbWeFg4mbhHgw/GBinE0DWEUNVUiEIvosKnjCLZkGiEaqqui5/ocos9YC1VUO5dnB7hZEdj1llFiMIuIMrzCMMc5nfvhu2KBUZYRNQnrvOXx1C3BJuLtmLJW4nA2DTZnX2Uzja6LzxvWdW/om6OIKC8yP0ytHo/YxzpasmlUUc0RYRQiORI6Q+3ClOV3IMjGNGj9DLVq32HG6xFnGtyS66Fp3rAeIL8oP3o9YBqgyMmpafwo4R0MXk+ETaLmxFo0zx9/Z93ROHhWVZVWVkFmWW3iD5afNHeop9+MprERju+e2mxgkPk3axoT1FntEIAZGYTTm0ZInNlok5tcdvCPK9sKpHEtIhlE62iIxx+4fNuUeL+aNmrf76FuGRetoO9Yr1SmoR9bXFtXQitltruGXG3W9U82DWU2Ck6382ZlGnF1TX89kk0j/oFBptvdgXHXGYDiI6em8fi3Y2bA4vVEuHWh52HxtkR4Oq6eh9fzTuIfrFwXQUgpGjjCIiBo/ezOphHbT8r7Eg3Yg6dGx7GCUlwZtlIFurhyszUNXhEtomqrNZVYtnPd7HTuZrMCI5srP0Vzub7uORVM4wN5jMymIeuXdFwhdf2TTSP+PPX0+GCeChPTSH894o/Dee3rZBGXHnedASg+cmoaX22LD/S8nkhRm4YMaPYTsY4eOKwxgRqte8XZNGLBKqn/2+g44khy8FroUg89x4HWXpcj5w7EBZzsuqfsQCrr7mmh8UuJpuFU/xiTx93U0D8nWisqHxsVlzshWgr6+EQcKUxD656S9Uu5fwFNQ36Hdosh/fWAaYBSIqem8c8/vx8X6Hk9Ee6K4i4pO0+67im9rMK8BCgCbX0VeU8k/vVrgWOR/6jtJ8lEqQCV1D1lDXzHAo/BcXQcgh+3AlprGuOnxsrg2kgjagB2ywPhcfsEhfm4ybtHtBSiwSzVQL5aCuRgd30jHXaLesvtPLZRR61NNVaLwxFn09AHwiMf8FhLM43rLRXtuIUyjfgHgfTXA6YBSomcD4T/8toD8v/snlymgk2CWxcsJ8OwKfhAODMv/mirvXTUP0UhDkyRMIWm+uiwx01HTzk/32ZqaTA8xdYrgt2oXcRmjuNkGipQyUFe3n89QAMiuMfPMhIBKm7KbZCm/emnsDoGUj6+fM8jFsxk0BTl+FWXW3iqhxqeFkHUdiJZZ7GPNmtKzqJK20KJNw2ecjt+Ynf8FGGeYea1zlu+ABcJ0uiRGjo8aNV4y6YxM0ydbeI6yRSdBNPg6dPiGvoSptymux4wDVBK5Nw0SoLgGHU/77WmdPKUyCfqqX0w4PhkzpiYhggNNLJfPLGLfNFyTI8jAtXk2UByl8zyBPVq+9c29dNsYqaEl/tcYlnbMZXyXBxNQ7AgtrsSgtnCYDPVyimmVbTj6ebYmI2EWxaxmUoScV1c2iyqZCzTiLbcUr3cp5+3yNNwYiz6BvWWTYO/M8cuO8s0Yq3J1C/3pboeMA1QSsA0yo25QTrKT+qHBuU0VGARHqxPO1YCALCAaZQj4QBNOjwply+iFXiw0fitcwDKGZgGAAAAY7bFNHgmFE+hZRVmVhQAAIBcUHDT4JlQ+lRaVkFnRwEAANgyBTcN/LtXAAB4eEFLAwAAgDEY0wAAAGDMtpgGAACAhxOYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABjYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMCYgphG34U79Dt/tUif+8Z1I32+eYnenbyj9gYAAFAsFMQ02ASczCGd2GQAAAAUFwUxDdsITNlsfgAAAIWhoKaxWQEAACguYBrbSpAG9lRR+wW1WhZMUHtlHQ0E1SoA4KEC3VOJhAM00OSjndVVVFHppp2+RvJPhFVirklnGlZag7/UoitMA4CHmYKYxmbZPtMI0lCdm2qODNNCOEK0EaHQVA81VHupc0Ks5xyYBgDg4aIgpvF3Q7fp707eVmuZ2TbTWOynhsrdNDCv1hXTJzxUcWxMrREtnG6hBo/baonUddHkskoI8v4tNDLRFU2vbRIGtKHSBQsnm6nWLVox1R5qONFHnbscTEOWwy0dpT39FFJJC6f0Y7fQaEJdLSzDqe2dU+uCmR7yVdbTkCooXTmTxxPMStbHDvRW0O/1d8jzSDY1lT4YuwY79/fRbLSxZqX7zw5S69OxazitN+aWJ8jf6KMdfO5uHx3umaKoZRtc48jFHjosy66iHU8305B2GQAA2ZF30/jXa/eiJmBqHNtmGhtT1O0RgbArQGEtCOlExlrI622jcQ6+GyGa7qqLBXUV7GVLRUS5SOgMtYvyDp9UEXGqg2qqRcCcErlFK2bhVDPViPymLY3I6WZyeV+ioRmrFTTbV0eu6mYadeg9C/m1etnr9YPEWTOVk9k0qsjFZjkXJm6QxWOly2uwLlZDU+QXrTfXkTMq8Nv799A0V249QH5xnt6OKZlKG3Pk9wkj6JiwvoPQGLV7hQF2q8if6RrP94mWoairOjc2aa+njSa5LgCArClIS+Offra+KePYNtMQRC7109EnxFMqP+G29NBowA67jBXIW09rkXL9DLWKgDrEr5XIgCaCrxagOAC72ibUZzd5T6jgKBHlObU0JImmYa0fGNTrE6KheqenfUFokA5EA72Vz9o3czmZTaOG/DMyxQFOT2itXewgb/S6JO8vDa1OGdyFNnJ5OmhaN23ev1oEft5mcI19tsFIhAnVuKnTSgYAZEleTMMO+qmUyTjsfNsGP6FODZK/qU4OiO/YbXefWE/J0W6jqFRAlQFNBDfOquCAVnGcI5YVrKNPxBJrm5lpOAfr6Q6PKj8RzSiWh+lwtGsqczmZTcP+7IRD+oZoLaTZX28Vyc9NdqtEIeuv9jG4xsnfT6prDADYLNtiGi3v6YEzGTtfUcDdJSIQWd0nHPA81K03FnS2wTQm20SryNE0iMKD9VSxf5hCp5ujXVMm5eTcNFRrLNX+GU1DjjWpfTZ9jQEAuaQg3VP821OmhsFsl2lwX39FYteIYKFvt+o+4f72hAFmxs6fNqDx5wJ2TzGqhXF4v1vbL3M5XOfn+rQyszUNOQivd0+lNg2z7qlU1zhC40f08RNFwvcJANg6+R8In7+/KcNgtss0aH2COr1uqm0b06bc9tNRsa2h34py4ZON5OLB7EvWuYR5Su7TIshxlMpgGokD4bODL6UZCCcaPyZaOG0TFIlYIdAawBbBd96q22x/owimYj3lZQ3TyH5x/IQgnakcGcR9HTTJUXx9jkaPeLUyTEwjNlBNkTkaqBNmKa6BdRYZTEMNhDeI5pw1ED5B3U8nDoRnuMaVXmo9ZR0gMj9MrU800ojukQCALVOQlkbLybCxYTDbZhrMcoCGWuqphqfFiuC34yu7qdUfiHtyXRhsplo53dOa0jmgDCRjQBMYTblVRIQhPSfzxsqMHVtNlc0wnVR2UWmzqGzSlrMRpJFDNeQS5+fy+Ki1o4We25Rp7KbOvo7olFjfof6kKbcpTYNZnqDe573alFs1k4oxuMbhiS468BXr+3F56qh7DI4BQK4oiGlslm01jRKDu8RSdl/lhUymAgB4mCmIaWzWBGAaOWA9TOEAv7MQe6GvMMA0AChlCmoamxXYOnI2VHUNHT1Z6OgN0wCglIFpAAAAMAbdUwAAAIwpiGn8zgHz/w9u67/+zZLaGwAAQLFQENPg355iE3AyByexybwh9gEAAFBcFMQ0AAAAlAYwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMdI07ty9SxAEQdA26s6dzMtsxGXkQDANCIKgh1m2ITgtddn5sxRMA4IgqBilB397mY30srMQTAOCIKgUZBuDvtSl581CMA0IgqBilB787WU20svOQjANCIKgUpBtDPpSl543C8E0IAiCilF68E9cbkV2uVkKpgFBEFQKso0h1TJHgmlAEAQVgzIFfV5mIy4jByq4adxev0v+C6vkPr5EXxJ6U3zmbU55IQiCoAyyDcFpqcvOn6UKZhqLy3foxPAK/X7TjaT/Cc7b2k+tyDxO+0IQBJWd9OBvL7ORXnYWyrtpfHT9Dv3VW7fotxpjZvHooRvU9v6KFH+2t3OeAyIv7+NUFgRBEJRCtjHoS1163iyUN9MYDazRrtdu0q/Wx1oUX/77JeofD8d1R/Fn3vZH7Z9G8/E+f/K9kCxDLxOCIKhspAd/e5mN9LKzUN5MwzaA39x/nb7++k26+ElmA/jF7Bo933uT/q3Yx97fKd/26jx9q7KKvjXqlJaslcB5Gg+EHNOy1tybtK/yOI07pbHmp+jcxaBzWjplKjcbbbVOEASll20M+lKXnjcL5d00grec09OJ99lO01i6+Ca98sxOcglzqKjeSc8eepMuf2qnb840xtvc5Gp8j5Yc0jat0eNUoQfzDMH92o/3kevxTrrskJZWeTSNLdcJgspNevBPXG5FdrlZKu+m4ZSWSh9cirVGtss0Vs4fpycrH6dX3gvQ0qpY/zRAP216nFx736Qra5xnc6aRU23SNLasfLY0IAjKj2xjSLXMkYrGNL5/dlXm/+u3l+X69phGgN54poqe7QrEb7/1E3ql0q2MItE0QnT5jSZ6dqdbBHQ37Xymid6fsdNES6NFtFZazsvP197YSxVHXqf3Dz1DO7gV436GXnlnjpbGO2mfvf/eTpqMtmoSyuF9lOTxZXA/Ru+fj+3/7KH3lLmp49W+Sdfscmbei7agXDvFsd9OOE9bqty33hHn5ebjOZSrzslSwjVZm5PnuLNa7Ctbam871ylD/Vkr49304lOcVkU7nmqidwKxtLTnk6YOEFSUyhT0eZmNuIwcqChM45/Oh6P5j76zjaax+B69WPkkvXEpMW2Vrpw/Q+Mzq+JzfIBceu8guR4/TueC1vqV1/eS65nX6YraN8k0qvfSGx8GaWVNlPnjF8hVLYxiXzdN8v63puitvW56vP1DmT9Jji2NKnqySQRabhUFf0Lf2llFL75jjaHEm8YU/eBxN+17PSCOLfJeep32iWD66rgqS1dSuWfoW48LM+2xgnIm07jcyS2z1+my2PfOasA6pzbrnJJNI3X978xwHffSW5fEdefrJUzs8Z3i/GWXZ/rzSVcHCCop2YbgtNRl589S224ab/082TBYpvvnVDKIiSA155AWVcJT9a0QLenjNqqMd+at9eSWxplY3jURjLmsM2rdzqO3DnQ5mkYT/VQ7Ph/PdVw7XrQsrveT9IOLdl7dCGP7S8lyj9E5/Yn//Saq2HmCJsXnTKbBdXimcyqavjJzns6dn6MV8TnZNFLXf7zFTc/EtfpES/BJN33nPH9Ofz7p6mBvg6Cilh787WU20svOQnkzjd98wQr6N1etyp65nDx7auAX4eiUXN0weB/exmXo+fOurZjGWogmo91T3JXDipWRZBppgm00z6ZMI37sIel40bJWabLrWdohnsb3Heqkt0amaClVd41DufzU/+dqW6bzWPmwm/7czV1tTfSDN87QZdUKYyWbRqr6z9Fbtfb1jJd1nPTnk64OEFSSso1BX+rS82ahvJnGf2lalIE/EFynQ/+8LD//6Gexp1o2jF9rSDYMFr/cx9u5DH173pWye0pcqE9Fi4K7OhICpAyCsntKnVuC8RSPaSgFp2j87W56Ze9Ocj1+kN53MsgsTUNqLUiXz79NbxzaSzurH6fm9+bk9rg6GZhGtKsqldKdT4o6QNBDIT3428tspJedhfJmGn/cGZKBn39bik2BP3OrYvD/hem9i7dTGgaL9+E0LiMxLb9SA+Gq7z6qNAPhHOT2vaEFIxlci9A0RHA9x0/j0bxBemdfQt1tyXIzdE/p3Wxx5yEC9Uj8k/3S2/ui9TA3jVU61+QmV9NP4ruU7DqlPZ/0dbC3QVBJyTYGfalLz5uF8mYaf39qRQb+3d+/Kddt4/iNb16nXxdKZRis2h/clOlchlN6PrUiAvOT1c/Sd0bUAGuGKbc84FpR20mToqWxEvyQ3tjH3VR5Mg1pSPvonXlxLG71bMo0RCtKPG2/Yj9ty0Fnt3j6djBmWW7qgXA2L1f1C/QOjx+sBmmya6+cwWSbxvsNbrnvNb5e4mn/p0dEK0C9q2JuGmL9wxNq+rNV5xWeLfW1F+h9NoO055O+DvaxIKiopQf/xOVWZJebpfJmGnYXE7coroWsCtvGkc4wOK/dCvl4m36Daul8N71ov9znfpxeOPZ26pf71NROnkLr2rmXXn3vdWrWurhyahp3xbEOPinrte/N4OZMQ2hFf2nR/Qy92P2h88CwLDdhyu2xn1gBWOYJ0WTns2rasLg+nSfEOWvn8ekUvWVPd+V9X+iOTiPelGkILZ3vpBf+yBovktf3TOxt8rTnk6YOEFSSso0h1TJHyptpsL7WYf2e1As/uhXdxmaRyjBYnJf34X2d0iEIgkpSmYI+L7MRl5ED5dU0+LekuCuKWw5jgduOeXSd/8ga6+B9PpzDjxVCEARllG0ITktddv4slVfTYL36gTWo/bsHr9PkJ+uOeVj/enVd5uG8XWcc3h2AIAgqJ+nB315mI73sLJR302A1+q0up99uvCFnTyWm8xvhnMZ5OG9iOgRBEJRBtjHoS1163ixUENNYvxM/CP6Xb96SXVfDv7wt/+2rvf3lNGMdEARBZSU9+NvLbKSXnYUKYhq23v/X2/T5v7Fe+tPF24YmM495QBAEQSlkG4O+1KXnzUIFNQ3W6tpd+v7oKn3xlSUp/szbnPJCEASVrfTgn7jciuxys1TBTQOCIAjKg2xjSLXMkWAaEARBxaBMQZ+X2YjLyIFgGhAEQQ+zbENwWuqy82cpmAYEQVAxSg/+9jIb6WVnIZgGBEFQKcg2Bn2pS8+bhWAaEARBxSg9+NvLbKSXnYVgGhAEQaUg2xj0pS49bxaCaUAQBBWj9OCfuNyK7HKzFEwDgiCoFGQbQ6pljiRNgwAAAAADYBoAAACMgWkAAAAwBqYBAADAGJgGAAAAY2AaAAAAjIFpAAAAMAamAQAAwBiYBgAAAGNgGgAAAIyBaQAAADAGpgEAAMAYmAYAAABj8mYa703epf9xbIk+943rxvpvzUv0rtjv4WOC2ivraCCoVhO50EYVe/oppFa3SshfZ1yOzHt8Qq1tkmA/NaQ7HwBA2ZI30/jPhxcdjSGTfv2b1+mXC/dVKdvIXB/VVnqo+6JaTwtMAwBQHuTNNGwT2Ax7epblPl84ukSRDbVxm5ju8JDX4yHXkTMUUdtSA9MAAJQHRWUaq3c+o9//a6uFcvjtVbV1G9iYom6Pj/wXBulAZTONrqvtUcI03VVHO6urqMLto1Z/Fx3Vg2x4inrrhOFUVtGOp5tpoOulNME+TLP+Zqr1uKmi0k07fc00Mq+SEkg0jcilfmr1Wcdxifq2noxFeZn3WB+NNPloh0iX9dTSmYXTLdRgH7euiyaXVQJMAwCQgqIyDebns/foV+qtffnzdhD5oJlcMjhHaPyImw4Mxof78MlGcnmFmcyLNkgkRNPddSJw20E2RCP73VRzZJgWZPIU+etEYE5hGuFTL4my2mhcJS70ibJ8fbRgrcYRZxrLw3S02kvtZ9WOc33UUC2Mbs5alXkrvdR6KihabREKnW2jmspYemSshbz2cTfEOQgTjJYN0wAApKDoTIM5OhiW+3Krg1sfhSXBKC52kDcuiAdpYE9VvJFsjMW6p2TArachLZlEgE7Z0lgPU1hvyaiAPbSo1jXiTEMYQXhZ7ziz6tXQbx3FammMyc8WERptqiJvx5T4bOVtPa3tv36GWu3jwjQAACkoStO4/4CouvVTuf+f/9DuMykQoUE6UN1M43Ygt7uq1BO6NX7hoW6OvVG0MQ0ev/B00LSVYJFuTGMjTNPR7qkqJeeAHWcagrDWPWXv2+C3dpR5E8Y0Fvp2q21c39g+MenGB9MAACRT9KbxZz2FNQ2rWyc5oHpP2C6RW9OQx5PdROqpP03AjjMNmc/qnrImDaiWhrFpJJ6DBkwDAJCCou6eevRQobun5sjvc1P7BbVqM9NDPjYCLTjnqntq8ngs0Evm++g5E9NIMiJRr10JppGye4rPs4pqe6PNJwt7xhpMAwCQgqIeCB/9qMAD4VMd5K1uo8mk6b4iyNa4qfUDqzWQOBA+2bE7zUD4BHXvSj0QPtvlFWldNC1aGnLQvJ67qQxM41IX1Yh8vVOipbEeouneejlLKs400gyEy3OoriP/pbC1PtVDDU8LY+RThGkAAFJQVKax3VNup0+kfi9jtruGKg4Oq7QcTrndCEanxbo8ddR9qk+UVUP+GZWuEWcagoWTzVTrFnWo9lDDiWHyH6wiX7flClZLI37Kbfvp+BosDMbGUmQ9lYHANAAAqSgq0yiml/sAAAAkkzfTsFsMm1XR/IwIAACAJPJmGvyDhV/Y5A8Wfr55iQYvPow/WAgAAOVB3kwDAABA6QHTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0QR+TePbq1vErB60s098kCfTTzCU1/NAuVkfg75++e7wG+F/ieAMAGpgEkK6thujofpJnZq3Rj8VOxfpvu3o3QxoMHKgcoF/g75++e7wG+F/ie4HuD7xEAYBplTvj2mnyqnF+4QbfFZwCc4HuD7xG+V/ieAeULTKOM4afI2U+uwSyAMXyv8D3D9w4oT2AaZcj9+xuyuwF/+GCr8L3D9xDfS6C8gGmUGfxHzl0MoZvLagsAW4PvIb6XYBzlBUyjzOCnQxgGyBV8L/E9BcoHmEYZwV0K6JICuQb3VXkB0ygTeMYLD2ACkA/43sKsqvIAplEmcN8zZkmBfMH3Ft9joPSBaZQB/FIWz7EHIJ/wPYYXAEsfmEYZwAOV+WxldI+u0743VujqTbw9Xs7wPYZB8dIHplHi8O8G8c9A5IPPPiOq71uhz33jutR/PLRIVz7d7PTLMM36m6nW46aKyira8ZV66h4LqTSQPUEa2FNFFccnrNWpDqqpdNPhk/m5xnyv4beqShuYRonDPziXj5ktbBjPvb4cNQxbu167pXKYET7ZSC4RxGqP9dPo2WHyH6oR617qnIioHMXOBLULs2vwF+sTdqJpdJGv2k1HTynTuNAmzLqOBnJUfb7X+J4DpQtMo8ThXyrlH57LJbph/Lu/vBFnGv8wsrlusMnjIqDt6qPYEGqIpk9N0MLD4hkPm2kkkmPT4HuN7zlQusA0Shye0cK/WJor2DD+7AeWYfjH79C/BCL0q/WWYbzw5orKZc5Cr08ELS+1ngpSJKlnyyngJQTpjTBN9jRSrVvkEy2Wnb5m6j62W3xuo0krh7gIw9Re5xEtGJHH7aUDXR10NC7Qp+8ii1zqp1aftv+JMQpxXWXA5ePacg6+obEOOvAVq+y4/QXSNPd00VBXHe2s5jJEq6upn2ZTjSeHAzTQ5IvmrXm+g8YXVRqzbKXvkMfyUat/goaaxGf7Ggb7qUGktV9Qx47WXWhPv7Ds7OB7DbOoShuYRonD/xshVz9vviGKsQ2j9/y63NY/cUeaxlYMQ7IRotFj3CUlghYH1JZBmo6+sJ7ZNKY7vDJ4PtdidW8NCMOQZdmmERqmwyLAup5opN7BMRof7KIDXitI2mUs+OvIVV1D7YMBCi0Hadr/EtVEu8imqNtTRd6mQZoNhmnhQhc1eHZT74SI6qEAjZ/toQOiLJ+o9/hZ0UKyLkuM5TFqf6KGjvaKtGWx/9k2qhX1qemYksl24HbtaqGBU2PCPOrFsauotndOpsexIa5HnVucSwsNBYIUDk7RwEFx/l5xrnzcDVFXPjf3bmr3D9P4qX5q3yXys8E4mEY4IK5Hd704vjj3AfF5Qhi3lWvL8L3G9xwoXWAaJQ7/U51ccF8Yxv/53q0kw9hqCyMJDsD+FhGQxRO5COCdF/hRO4NprJ+hVhEQa7v1ABum8WOeqGnIlkx1M43qT+7zfTJwyjI2RHmiDF9XQCUyERrlp/OmM+LTHPl9IqjXddHkXNihNWTYPRUJU1iYRlhE5fFjomz1VG+Zxkta/cI0sl9sq3N46hctG5cI8L2X1DrD10Acv/V0hCIfNIt0H/lnVBrDRiJMz8k0JDnunmJydc+B4gSmUeLk4g+YDeOp71qG8dpZyzD6LuTIMDZEsNMfb/lpmo1CBs0MppEYABUh0XKwTcPq/kkMwMllxHXT2LL3Cwdo6EQjPfcEd1Eldh9lMA1xPkP7VdeWlHry100joX7OdbbPyy4nXnx8/bx1ZHkwDZAjYBolTrbdU/fEk3Uqw3j+n7JtYVhPwS75RB8j9iSuTENPDw3K7iAZpNVTdrqWxmx3TfqWhmqtHBiMD9GhmQCFVasidGGYpu3kyBT11og6t9lGlt40Qv0cyOvE0786gw3RkuBWzBZMw2pJ1NOQnrARotmAtaEYWhronip9YBolTjYD4WwYX/u/N6VBdP7UmhXVc249ahg8KJ4tHFT56d23v4uGzo6JJ/rdchDXNoLpDjYAHrwepPFTfXT0CWtA2Q7SiWMa1pRdESRTjml00HNy0DxWxmwvj4No4yItXAc3NfSL9LBlKq4nXiL/qTEa9bfIMQmvGpNg0+jk9F1tov6DNKkHbAFPKbYG+ucovByk2cEW8on8WzEN2pgj/y5x/vqYxW7uzqujIT4Ve0yjOn5MQ7ZGUpnGBHd5idZTm7i+gxPaLLatgYHw0gemUeJkM+X2L3qtF/fyZRg2obOx2UUuD8/4iT3l27OFrNlAlnn0itZH9Mk+YfYUdx2NdiV002izp1yeOuoeG0xoHYRlMJfjKSpPuwjyUfTZV9UeamgZpgVtbCP8gTASdfzui2qjjWgJjJ+IzYyqeb6Lug+Kz1sxDYa7ylpi5e2sa6FRvaGlz54Sda1t4skB4nMq0xBHGW+xr29HUtfWZsGU29IHplHiZPNy31dOhOgPv22Frq4za3kxjKyJBGn6Unx4nT4hWic1PWT3rIcDU7Sgd0+pLi4ePAa5BS/3lT4wjRInm58RYdP49wdukOfvQ9Iw9v5wubgMgyI02aa6p07wlNeEriWGn6y5+0h1L/GU28PcxWVPUwU5BT8jUvrANMqArf5g4cH+VWkcrAM/XqUHRWUYCrt7Su9aGgzEDazL7qXnvVYXjDCU2sau+BfiQE7ADxaWBzCNMgA/jQ4KAX4avTyAaZQJPKMlnz+PDsobvrcwa6o8gGmUCfh3ryCf4N+9lg8wjTKCZ7bk42fSQXmD+6q8gGmUGTxQGboZ/UVAALKC7yUMfpcXMI0y4/79Ddn3DOMA2cL3EN9LfE+B8gGmUYbwHzk/HaJLAWwVvnf4HoJhlB8wjTKG//B5ABOzqoApfK/wPYMHjvIFplHm8IwX7mLgOfYwD5AKvjf4HuF7BbOkyhuYBpDwS1nc3cA/A8FPkfzDc/yLpbn6r3/g4YG/c/7u+R7ge4HvCb438OIeYGAaIA7+3SD+wTn+pVJ+quT/jcD/VAcqH/F3zt893wN8L+C3pIAOTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxkjTcPqXjxAEQRCUKLQ0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABgD0wAAAGAMTAMAAIAxMA0AAADGwDQAAAAYA9MAAABgDEwDAACAMTANAAAAxsA0AAAAGAPTAAAAYAxMAwAAgDEwDQAAAMbANAAAABizEr5N/x9qVUzvYAiJ0wAAAABJRU5ErkJggg==</x:t>
   </x:si>
   <x:si>
     <x:t>110037</x:t>
@@ -190,7 +214,7 @@
     <x:t xml:space="preserve">       J35W+CWP, Unnamed Road, Shiv Puri, Block E, Raghu Nagar, Sagar Pur, New Delhi, Delhi 110045      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAEDFSURBVHhe7Z2Pcxvneefvz8jk+vt6be46k+vcpa1vhsnxwAxHaHPC1WNMPGHrMXKaiJELXa2QlU1VkRSGiuQwlMtSDU+5MqVDmzFtODzzzFg0FSlWRVNVyaRimJNJRyYdmbQkw6YEmRJs2s89z/u+C7y7WABLggAh8vuZeQbY3XfffXf33ef7/tp9/xUBAAAAAfjL5haCaAAAAAgERAMAAEBgIBoAAAACo0Rj5rU5gsFgMBismKGmAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGpqGi8c+sjanshRZ/vfod+b/9VZfJf1iV5GwAAgOqmYqJxcvoO/bu/vkof/8pbvibbfjh1x4QGoMq40Ek1uwYpaRY3lkUa2lVHXRfM4pqZpK7aOA0tmkUvK0maOTdLyRWzvJGsW1rknNfj2jGLg9Rc20lTZnGrUBHReG7idkYcvvjdd+nlmbTZQuq/rHO2S9hqYupYHdUcmzRLROlLg9TxQJhqOOPVhGN0qG+asmdjwss2y5oT8lROU2+EM+u4DqeZp0SDs90hSSNx77rCJM910757nTRFad/x8czDlTrZQjU7BmhBLyrSp9uopp4zu/0ATnZSyKxLJuKecwjT9lgbDV1KmcC5yHnnplk7t9WcS9VSQDRyrld9hBpbemjimgmw7qxCNK6NU+/DUdpm7mPDw+00Nm+2FRONa8O0rz5K/ZfMckDWkn+KEjAtfvci9nC3dS82RjRyr4kxy7fcLZRdNK7d/JB+c68WhI6RW2ZtLrJNwkjYq7xPteASjeQpOsQZt+uccR3JceqKhunIqPMwpGmstY72JeYptZTKmlIVvS3Wm3liTabj+PeeoszjtHyWOmoj1DttlouQHIyzs49TYnqR0uzw04vTlIizc+A0q8Ne7qNYbRuNLavgiqljIjDuY8z1NmTSoTK47SDTKVoYbaOG2hglLpt1Hra8aFjb0ql5GjscpZpoN82UXDL2I6BoLE/SCc6fzXyjk3L/nfvI+WVE3ZIiorFG1pJ/1gu/e3GmNUI1TcPmGdtA0ciTf+42yi4a0l8hYtDwnXfMGqI3uBj8nZffo2+dvKX+O/wZh5GwX/+/JZRI1hlbNFIvt1OsZdh1412iUuRhFgdfE89mHFULaGqifbZTn+6maG07TbicTZ54RWDqw9Rx2nO9lFA4zoAdB4c5kSnQSI1nJ+1r4hJYRsBSdGZvHe0e0N7DP4Nr0Yt2+6tZENFQYfrHaaQ1pkq+oUic+i86adcOLHFu2NTkuHQa76EZ69RULS8WoZDaN0YdJ7PHU3H3DFN/3Nmu41442UaNYb5HHF9j6ylasK5r+mIfHTK1xm0PtNGIpeeUms7EJduGeg7kfeh9r9cSFzBqG7JOcoWFpD1O2+s5LVz6bW4/60qLq0YgtcUedw02cx6y7/EBOrEjgOOT2mNOXuKabJNzr4tcc+UUdT6aOc7XwlUqlloy572X7VRqguSfnPxiHctJV3+iW52zCufanh/fY4vgZ5x7rmgsjLZTc8Q5f66JXTEbFCmaS2Tz0Pa4VWvxiEaajyOCPGTnIwNEYxX8l8euKyH4x1mduUQkZNmxT+y7mhGOc6+l1brPHL2ulqsBtyi4SV85RR3RKDtk58GRDBmhxrh2itJ81ZGYzT78ypk7D7F+iDpOz7NjDWcyscpcds1DkUc0lMC4axGaJM2dG6c5lUP1cRxBUGlo6KM5zuAhJxOvcLrZGTk1jyAPvZegolGjakUc80qa5vr5OBEujaut+mEOxftoRg68PEsJ3jdzPHbCR+xa3vwANddzydU8oCruKF+Leb7aK0ma6o7x9WehOMxCwavSqlZYR4dOmit7RfbnB/yyhE8rpxyNsANQ1zLJIsq1tcy+uvaW76H3vV6uGmOKrx3Ht3+Y5iQzpPmec3yh1rMmb8xSv9QIBuZVbZGWdA0245D5Poszcq6bLrUHEI3kMBdIIi5xdVPkmtuOWvKa3aTJ17+xvo0mcvJesPxTXDQkXT00NW9q6msVjfSiqmk0dJqat0c0pKk2FD1AIyYfzA1IzZ3zkckmqiYf7aQJiXAlRTO9vBwzzb22aFzh/5I/L7ifXAf/a3J3UnbR+NVmLQ43b+vRUSd+/J5LNMRknSBhZPnXeJ9qwU80VAbgjCdNPIcGrWJFepZL0W3Ue043T+mH23r4bees/rfQmSXdNKRL/frBcjVhKfKIhqsElR+VXiNE8l89uMqpGcHxNGH5ZfDUdA8/IBFOgzkXD0FFI7d5Lk4jquQmD7NVMmdUOpyaGT/QqSX72CbuQZ1KiTsjjAKLwu7anTRklRrteylNdO7rrEvOqkam0tVEI/YFGG/P+9DnXK+VRXfzlF98yqEbJ6jOLaUFwyBpDbGj0//DFD1uHLmCzz1ITYNJjnfTbi4lS82r4zuDNHXFvoZFrrnLUUsNlfPuRfmvw4UOO6LnJkj+yckvrmPlpsu9PT/q2OrZtCzWo8VaIXE7107noX3DrhujamI6bbrPseO0dZYrs3Smc4Cm+LnVaeLnL8Vxiujn5P8svukKcD7VSNlF49+bEVOOaLS/qJurbPOKhuxTLdiOxouuaYS59GpnOjdSra/JlCh1M5BydFJycx6szH/zYBr/oI6dk9HETGYLKBqZUqI6vlOryf5XzWRGVAS/DK6ag4a9YpYlxwkockWjsKNwP0Re55OymqecdAWLW5O9lzpd9vk5pq6NXNdMDcgg6zyO0MH3eu3g0qnTjCH7Su3OLGrMwAjH8S/aHdbGrLRmakgKvS6zbzG45jV3bpBOtEgNmMXyoNNMV+Sae67hTHfE1BTEsfo3TQlB8s9q84Lf/fTDm2e4mkgzPSxwmWZhWzTkv0ecGDlPfe1lu7vg4UKl6QB1cC2yJsb31xJ9Lznpuospu2h87m+SSggm599Xy97mqd+1mqd+8sb7ap3sUy1kHY0/CwM7fZqTsngziwrPIjKTqV0wTq1jWjKh1dy07HSmz1KCS5Ydo86yKZWKGPg2T/GzYpdcV8b1w3HRql0wkjZxAt5S91oyeI4TUKyjaKiwunlKn9dq4tZk76WfI7ZYi2hY22a6oxSy84SvaEhfk3Fey3zuEWmems3cs8JpXaVo2EjTF4uVji/INbe2S36T85D+mjxNU0KQ/LPavOB3P/3wPbarf0niLiwaU50sAoFFQ5qk5lUBzHU+HoJck7uFsovGYdMR/tgPs5leREJqF1LrcARDcGohss9GMNMbo1i3LRC6uchph00OH+BSmrsj3BEBKXOpjnLPdjUqKVPTYNSD10Ydu9yZVRx3R2ubq6M8Sx4n4XSEe0t8ro5wQddwjnD82XZ0RjK9SovdUb62DK4eNDtuYUWXpp3qfUmikeO0+ZqwkK5NNNI0cTic27ziZEW1bwnNUym5L1ZTnl98dvOU2u6uMU4czRZW1to8pfJeZtRQFolbN30VueY511DuZwP1dnM+9d5riyD5R+6FqznRdazcdOWmxR/fY+cVDf1cra55St4XmaQFEUz7vsn/MKcvj8AEuSZ3C2UXjZ8vfKCE4JMHrrnabL28z9skjISVfTaC9MvsVE2HY3olTclzndTAJQmnuUh1/pnSrpDTPOUZkpu+LJ2tHqeuSv3sEDwlWfXuBK/P7c8Q8pcsFzgzSkfekEozx+MdcmtQ4sbxu0us+qGo8dRW8mbwpUlKOO25XlgM5Vp1jM7rjsvleZro3Kk6EXXncomicamH449Tv5znMj+4/U2qKWdtosFk0qsDqHt5P9f21MG8HeGT1LtjdR3hal2mycJ0hJv4pCN8ZG8kK+Cqk186rOf53KSjmwsfMsrKTqs9gIALL3ZH+MLJTjrB++Yg14Dz45GEGXLL+y5wnm7kdXrwxmpFQwtRSI3YUyn3JW/+sdDXp5umJBDnFdUHlDlWEdEokA9zju3EnRn+bIuGfu5CMoBC+nrk2g62UHQtHeHMwoAcm7f5+LnC1yRFU/2dlJjcmMLyaim7aAh/Ypqovv9PeeqzjAzBlTB//HihrFZ+FobbqFENv9Odh73j7vSkJrPDNFU7rT06irFf/vPvB9ClfvfwRUaVhrKjqNzwwz7pjIbKRZyM83KfHPNQT/blvgxSw/E+iIxqv/VzeH4Z3Dy4uuM6F1efAzvBxpY+14Ndkmgw7mGnpyixPyuyqxYNJjXZY103z70udcit1LKiVppWWChaY9aQW6dfQZO+2JMZ9tnYOkgjne4aaqEht3JeTqd5Dovj1N9ijitDRu9vss5z9aLhHTThR2EHaVhZpDMHWYCc56S7nXYXyAuutBTIh+rYkv8yxmJd5OW+7DNvhty6Hln3kFtXnlbpsGqIfI8TsTpq9Cn45abLmLpOulDoDOqodioiGqM/v6ME4Z6263THpxIh36SSvg0JI2FBlXKRhcfb1g82GN2ckrd/ZjOy2fKhasbNDoCpdioiGsJ/69S1jSPDuZm78Yklta2aOsCBlzTNfKeJTuQZhw42iOQpOrJ30LdJZHOy+fJhepprvJn3SKqfionGL66vqHc2xKauZKsbwxd1LUTWSxgAAADVS8VEQ3C+L/Xpo9dVp618Dt358u23CnyXCgAAQHVQUdH48COiPz2um6m+MnCDYubrtpGupNoGAACguqmoaAhv3fhQfW9KxEJM/ss6AAAA1U/FRUNwRlOJYbQUAADcPWyIaAjSh4F+DAAAuLvYMNEAAABw9wHRqCg+b7oCcBeR+8a4+5tZLq7N0sSlCrx75XpzvcgzVk3znt+lQDRc6Nf57df8836WY02sp2jotGY/+Zwl0GccKo75HEPmEy0yv/okpari4dWflrDvu3eu9XVDPrxYa0/c5ZD7eYv1x3Oe6lMvq5vLfDWikRxqolC0x/N1Xy/eZ04++9FOI6uZT3w1olFsrvHleZoZlc/I76SGptxnKD0/TWOJbjq0k/OH/dkag8xfoj8HU0fb7m2yZqYUPLMAxtroTKEv6Nb7fRrHvlZiBUS7TEA0XJhvwGS+F5Sm1Lx8lLCOGsyXbktj/UVDMl/zoDvCahQN/eG3Nhqb159sz3xYsSrehM112E76XF8FXg+UaPB9sz7kqKmcaDjHkPmzp/oP6ClK8zkvD6uqaQTC88wtL9LcqP6oYr5Z8HJYjWgUhPeVb3u19lGivSH3GeJ7pyaz6uujrgaPQxfUB03jLEg63Sn54Gn9ATXRmqA+iBphoZDd5OOIMkugr6jqD2ZKPnEdQ777FemkCTM9grbKPz0QDReeDGxQkxRl5kOwS8x+pYWUmvRFfSBOTffaRx38Xz+oOkMXnpPZ/RB6P7KXRac1FotRSObisHJ3jmisav7pQep1XYNC56vPxzWXsy9JGol7PoUtyDeEMtPfFrmu3g8I9vIDaF+rAueorsfRAf1lWV8n53amGdTH+fTsiioO131w76M+mNjD107uayHBVqIRo8aYtyCSmwb/OczNRF7WtVYfnbTETX0xOWf+DsH/PHPm/5CZB+35zHuyNcJc0WinM5P2xxazH2LMyYe+5H/mQpkv02oWTttzefd4PhzoFo0g8577UijtmbT4pzlnGgQJJ/PgqC8C62kWXF+xdua58cznIfdvW7yTurzHyJkeYGOAaLjwzwzqITQfSEuNHsh+KpmRzyFnPpXMqMweaaGR2TSlZdYw+ZRy5kHVD23hOZlXJxrNiVn12W37oXdn+ADzT7MT672Q5PRm5592rkHh83XOx5rLOQ9qBsNd/PBaX721KXwcXfKK7h2kuWW+rs6c3ZlrVfgc1fWQz6APz1LSt2Tm70xXKxoy/3nvhXlKFboQSjT4PDlu+cx+9iN1njQUmMNcpSXjnMzn7a35u7Mz7HkpdJ7Ol2tTNHE0Qg3HxrVQ8LXut54JV95S+ZXFL/MJ+bPWBE+esHnxf+b0dMRZh5oeb6do5hPlejY+dzps0Sj2jBWviRROu3+aJQ94C0Yyd4kOp/fpGtfrNbzOOy+KmpArxuedewyVpgd2WsJpf723ckA0XPhkhkVP85TMpmc3K5hMqD/T7JeZ7AdV/rtLFiojuOZkXq1o8LHUpD8yx4HPwypNbPYsfozEac8/7f5Mu+ccCp5v7vnkJTVLQ+pT2PJ56XZKjM66+zMKHcfvQTfOV12rIueorkfBZib7HhnSi3SmNfvZeBVHEdHwnwvFg5Xuud6YNeeGN74Cc5iLk1fT9zJybRq4VMq1KC1Acv/yfWLf5zwF+/qq/+5Pn6tCk8mjrrzlEzbnuud1vA5+z4xgp1WHcc3hoUTFL3/IfsWesfKJRv51eh/3tc9dJ7U+7Wtyj5E8100d7YM0s8jPimk+rbEKrJUCouFC36hsJ5MYO7lOq0NUJmKxOnS12RnWmzHsdfLfnWFzH8I1iAajajhm8picDF9k/ml3RvesK3q+xR9Am/SVaRrpa9OlpfDObEdhoePYAuHgXZf3HM318L2GDvoeZY8rJh2y2SaQ3Djc99rPYfjiEjs954aef8GOzy8fatPb9Qx64hjlvkspWtKnREY5U7cjz+JOcwbbkar0+Rzb5KfV5NecfOiLXx4U7LT63R8xk+Yc0XDnydw0u7f7UTjt/mkuWTSk9hlppwn1SOS7LhZq9seAhbZ1BKLhwnOj1ENtzczHqMykqsmm1JOTYb0Zw5v5i2XotYkGx6SbcI6O05wdZ4D5p90Z072u+PkWfwDzsdDPcZtmv4LHKSYaBc/RxO17DR3se+RPbhzuffwchi/ec1HNg3yeV/SMjjo+fQ8KzZEhNZHmwXka49qQqmFI7UPu+WSnu3/CRZ7ztJunJH0F5qpYTX51hc2LXx5kXM1Tku4C800UyZO5aS6eZwun3T/Ncu5rb56S7bavyXNdXBTPt+UAouEi90ap6SBNW7KQ4xyuDFgzjukOX/ecw/aNDZKhnY5hjf0QuvHJVLK/dFzuskZ++DzYrvmnO33mn7biLXy+uefji3IA/NBfNMsOJi5pYih4nGtyDp45tm3nW+Qc1TX2vYYOxR8+FQcLchb3Pjnpz0eOAKb5HkT5fsX5HJz4isxhzqgmo6YWOhTmuNR6ab6KU0drQ4FmMv/zdHWEqxFAMUrYUVjHzc2v7utu59fCjtfB3zm6O8LNjHj9nvNy0qXSkT9P5qa5eJ4tnHb/NJfUES5iz/cmtzbFptIhfTMNXDPXuyo8/T6VAqLhwi8z6HXOFI5zPfKA99AMl4hVh2yTNKdkM6HO7Fxqm8/XEV4gQ6/w9noubXAANUf5dJ8aqx1YNBg1tDWT0ZhVzD/t1xFe+Hw955N37mbtGEM7uCbhDLnluIb28zrT1lz4ONac3X4d4UXOUV3jEkVDnL2MUhuRuaRz7qtXNArM+ZwjGgzXlE5EOb12GlQNJN8c5oxyfryP5aTUKKpCJXLPecqQ24njO2mba8itvtaqI1nuo3Q687k2duvRaLkOOKBo5M0bnny8vEgziQN8/9xDbnXzK+dTZzirPBsPsKhIoqpENLxDbpPyLNW30YQpcLqH3HrmG88h9xhK3OMDNCfnzPdl4hg/M+jT2GjyZAanCUHdbOkgjam2czWv9OgAHXGpvXfIbQ9vDygajMwVvdu8/CNt6r37sw+hmzxp5fQNiUP1xJkdEhls/ulMvAXP13M+5oHUneQe5CEZzs5lLsNid3Na5hy/UOy6+s3ZbTmsQueornGpoqHuKztYk/Z9Pd3WffWKhrk3fnM++4kGk+b1ItZ2GgrOYW5GTbmasJSwcdxWzcCNPs9MCZbvt+/LffZ85uZ6Ovcp1wEHFI28eUNfq0yaVL73f7nPnr9f5QEnTLWIBuN6uc9Oo8Lzcl/B0U8+xxChOG58i7pO1rDjCgLRKAf2Q2tGeRTLpBuKy8loZ1TYgeahnHM3exyhap7J+1BvMHfZnM8VAfPLbxogGuuMfDohZsatZ6qQ1ercmDQ/zDFnTLvzlqrVhxOccs7dnKSRpgbVVKM6upPyHoZ/Sa8auNvmfC4/mF9+MwHRWG9UFbKJGqwmpo2oQgYn901s/eZxlZHzxne1fLcKgK0FRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQmBupWxANAAAAwYBoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACEzFROPOB0Q/mLxNu59aos+2v03/5tGr9Il9V9V/WTf4k9v0/ooJDAAAoCqpiGic+n9p+oOvX6OPf+WtgnZP23U6cylt9gIAAFBtlF00OkZuZUThU1+7Rl97/iaNvfY+LS1/pOzca2m1TrY54R5/6ZbZGwAAQDVRVtE4xs5fROC3H71KL1y8Qx99ZDb4INskjISVff5mFMKxHiQTcarZNUhJswwAAKVQNtH48atp5fx/46/eop+9+YFZm8WpVXiZ4rCyj2yTODaCO68+Twfb/4Q+efAe+tjX/oR2PXGSZlJmY7WxskgTx5uoIVxHNbV1tO3eJuodz0pEVYrGSoqmepw0h2l7rI2GLuW7wCmaS7RRo3N+D7RQ4qI7bHK8m5oj4cz591vb1fnz+qzlHk+HCVPHy/75baE/pvbtumBWALCFKYtoSKf3fzLNTb1jy2atm3yiITzB+8g2ieP2+2ZlpZj+Ln3u4P306PCrdPXdFN1YfJUSJ+6nT3Y8Q/MfmjBVwyKNxMMUivfRzCI7vJU0Jaf7qLk+yg5OO8VqFI3UcBPVRDtpQhLFaZ4biFMo0k0zPgMhUidbKOSEleVzndRQf4DOLOllmh+gxto49RsR8G7POf90ihZG26ihNkaJy3pVRliahlmivMxTIqYFB6IBQJlE45l/vq2c/qdar9GHeZqkComG7ON0nD/LcVWOFL3QdQ81DL5ulg0fvkrfPnwPPfoj41LefJ6+eLCTEj/6JjV8jWsjBz9LDU+coxuWqNyZeoYebf8sb7uH/rD9m/RCJsopevzgHnry/Emuzcj2z9CnO5+kqVxvVZT0y20Uqm+jMc++c70NGUeZ4zRX5mmsPU7b69kR1keouf0sLdjO+sop6ohFKMROMhSJUcfwvNmgWTjdbkr1XGKP99CU47yZ9MUe2nevVeKf9D+pqWN87GOTZolJnaIj7PiHFvXi1HEWwv2n+G6kOK0NdMjZoJikLsuBq3NtPUvZOsIiDe2oo47Teo2/aKZprLWOot3TakmFaWqifSIk7tMluthN0Qhv4zjLIRrLy8vKihE0HADlpiyisfOJJeXwC/VLFBINQfaV7Y0cV8V49zQ9evABevIXZtliauBe+tg/GK+hROMztGvwVbrBmnbnl+foG0dYbJ5/U2//JW//2h5K/IId14dpuvrjb9JnD3fSBaV/Ihr30Cc7n6Ep8WSp1+nJx++hzw68KhtXxUx3xOMwDclZmjg3q0rNbqfJTrg1TA37h2lOdkrP05DUVDJxzFJ/NEzNA/OUZiFJXx7gWkuEei+qjZQeb6dopoaQpJkeK+4ldvxSwzlnjiQl/tomGtGLLpTYWbWHBalpRLM1jfSlcRq75LMj10pULYH3nTL+UwRo94AtKkQTR+uoOaHXBRaNY2dp4nCYYr22aqTVusb+szS0qzyi8e1vf5uOHTtWUBBkm4QRA2CjKYto1HzjunL4F3+Z25fhUEw0pq58oLZLXBVDiQE7e+P7ba4O76GPPf48XZUFU9O4YNUsbow+Qh977BkSl3Phic/Qfa7aCgvDY5+hx/9F/otouIVJxd15Use9CnJK7D64nObiIDV7HXlymEvYTilfSvEN1H9JbWHYSU+O870QSeESPDtOpwSvWD5LHbzvyDX+r+I+YNV6kjR3bpzmfHy/MNPNNQRpEhL7XAudcft9D/rYTtgRy6/LNXAEwsFe5ycaqekeTmuERUCfiwqzl2s2qlZhNZOpayPXSx+/HKLx5ptv0v79+/MKhyMYzc3NdOFCGRIAwCopi2j81iNaEG7ezj9cqphoyL6yXeKqGKsVDbXFILULte5tSnDNQZqlvPb4hATUzVP2MVxxu+CS7tEwbTs6bmoCblYtGhc6qaahj+bUFodp6o04DjFNM707aZs0W7X20JDUVjJNV7pZKOPoM+YIziKdOdhAoXCMDrX30cj0oqqt+OHqp3D6NKyaRl6cmkY9i4xRgUCi4Umzt9kte42k/yLbIa7Wq36O8omGkE84IBigGimLaMjb3kFFQ5qfbt3JDeeIhgzBrRirap7yiMYvnqH7LNHI9H/ksH6ikbd5ip1raslyfAVFY5JO1HscYnKWpob7qCMeYWd+wNQCRDQi1KtbdPKSvjJNY4luOvRAmEI7emgmp/CcpJF4HR06aV8fdtYNnIZxs1gQ3Wfh7C8CsfrmKTd2GNVJr4TCFhCfa7TOeIUDggGqlbKIxn8+rJunpIkpH4OTt+l3WrS4SKf3T95wD5OSobeyraLNU+wq/DvCX6cn23M7wu1H+c65b5rmqTSd7fkMfbLnAt0x2xSZpqzViEZhnI7wCY9jztsRXqx5yuoL0bCDb3IcsB5F1Njv6Sl2+iGuTNLEJNcu9CKvt2swNj7NXEY03OuEpKq9HBm2E6xFwwm7to5wN64wqsktRgkWvmxTlbvzvVzYwgHBANVKWUTjy9/THeGdRV7QW1j6kLZ3JlXYX2l6ix77YYpWjHOVfWX9l/sq2BEu5Bly+7Ej36Upx/Er0TAd4eKbkhfo8SP30BeH39bbTRzfOKuXVUf5Y1+lF5T+rZ9oyDsa0pHdsH+QZpKcEK5hFB5yazrCD5+iBUl3ep5G9nJtwnG6yVN0iPftGDUl9+RZ6oqE6ciojks1K9XHKeEMb5VjPcCOVXae7qYGa5vqRK+NWv0jWdR7D7u4FiKJ8mlysjvCVVirKcsb1jvkNqm2Z4V01aLBV0I6v6UZKyuQlRENwREOCAaoVsoiGvaQ2w+szmI/ZHjt8R/dol9rfou2HXtbveMh+8i+Ekdlh9xqir7cp0SjjXqGs0Nuv/jUBdeQ2xv/8iTtOfxZ1Zfxya/voW9fMIKynqIhqCG09otyLdRf6OU+Dj/SGrOG3LKAWH0J6UuDmSG3NdI/0TdtleLZiQ+3UaPzIt0DnpfkxrszQ25DkTh1nXY3G2Uo8nJfdsgtI2H7WszLff4vArpe7vOmadWiwUiHuKtGVjnREEQ4IBigWimLaIjjd74lle/lPi/SHJW8pfs2ZB/ZV17uk7iqDr8+DQAA2AKURTQE+VqtOH75JEihobdeJOxGf0akKBANAMAWpWyiIcjXasX5ywioH04V/2ChhLkrPlgI0QAAbFHKKhqC99Poh56/Sa/84n3VFCXm92l02QcAAED1UXbREIJOwiRhMAkTAABULxURDUE6tOXdDGe619/dlzvda1V2egMAAMhQMdEAAABw9wPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBURDQGLtymT/z1Nfr4V94KZH/Udp1+OHXb7A0AAKBaqIhoiAj4iUMhE5EBAABQXVRENBwhCMpqwwMAAKgMFRWN1RoAAIDqAqKxoSzS0K466rpgFrcEk9RVG6ehRbMIALirQPOUl9QsDbXGaHt9HdXUhml7rIUSkymzcb0pJBp6W3Nis3lXiAYAdzMVEY3VsnGisUgj8TA1HD5FC6k00UqaktN91FwfpROTvLzuQDQAAHcXFRGNb43com+dvGWWirNhonFtkJprd9LQFbNsmDkeoZqj42aJaOF0OzVHwromEu+hqSWzYVH2b6czkz2Z7Y2tLEArZjuzcLKNGsNci6mPUPPxATqxw0c0VDxS0zG2a5CSZtPCqH3sdhrzpFWjBaexf94sM5f7KFbbRCMmokLxTB3ziJVKj+PotdPvT3Sr88gVNbN9OHsNtu8doLlMZU1vT5wbpo4Hstdwxq7MLU1SoiVG2+TcwzE61DdNGckOcI3TF/vokIq7jrY90EYj1mUAAJRG2UXjZ2++nxGBoMKxYaKxMk29EXaEPbOUspyQTXq8naLRTpoQ57uSpJmeeNapG2evairs5dLJs9TF8R06aTzidDc11LPDnObQXItZGG2jBg4ftKaRPt1GoegBGrmsa0FzA3EK1bfRmE/rWTJhpctZbhomCVosnuKiUUchEcv5FEmFzI3erq7BMi8mpynBtbfQ4bPG8Tv799GMJG55lhJ8ntHuabWVVuYpEWMh6J7U9yA5Tl1RFsBe4/mLXeMrA1wz5LSacxORjkY6aUrSAgAomYrUNL7/T8urEo4NEw0mfWmQjtzPpVQp4bb30dis43YF7cg7TluecvksdbBDHZHXSpRDY+drOShxwKHOSfM/TNHjxjkqOD6/mobCKxp6ed+wnZ4kjTT5lfaZ5DDtyzh6HU7vWzye4qLRQInLaosPst1TW7vYTdHMdcndXwla3AjchU4KRbppxhZt2b+eHb+sC3CNY47AKFiEGsJ0Qm8GAJRIWUTDcfr5rJhwOOE2DCmhTg9TojWuOsS37XSaT3QpOdNslDHjUJVDY+cmQQ3i0GqOicfSzjpTIlbodcFEw99Zz3RHTPxeLKFYOkWHMk1TxeMpLhrOfz98tq9wbaHA/natSP1vdWolBpV+s0+Aa5x7f/JdYwDAatkQ0Wh/0XacuTjhqgJpLmFHpJtPxOFFqNeuLNhsgGhMdXKtyFc0iFLDTVSz9xQlT7dlmqaCxLPuomFqY/n2Lyoaqq/J7LPqawwAWE8q0jwl354KKhjCRomGtPXXeJtGmIWBnab5RNrbPR3MghO+oEOT/xVsnhJMDePQ3rC1X/F4JM27B6w4SxUN1QlvN0/lF41gzVP5rnGaJg7b/ScGz/0EAKyd8neEX/lgVYIhbJRo0PIknYiGqbFz3BpyO0hHeF3zoPZyqZMtFJLO7Ev6XFIyJPcBdnLipYqIhrcjfG74QIGOcKKJo1zD6ZykdFq7QN2Bzc73ik7b3GALO1NezntZU3RmLx/f46SLxaOceKybpsSLL8/T2OGoFUcQ0ch2VFN6nobiLJZ8DfRZFBEN0xHezNU53RE+Sb0PeDvCi1zj2ih1jOoDpK+coo77W+iMrZEAgDVTkZpG+8lUYMEQNkw0hKVZGmlvogYZFsvOb9u9O6kjMesquS4Mt1GjGu6ph3QOGQEp6tCYQENuDWkWpN0qbDbO7LHNUNkiw0lVE5U1isqhYDwri3TmYAOF+PxCkRh1dLfT7lWJxk46MdCdGRIbOziYM+Q2r2gIS5PU/3DUGnJrRlIJAa5xarKH9t2r708oEqfecSgGAOtFRURjtWyoaGwypEksb/NVWSgmKgCAu5mKiMZqRQCisQ4spyg1K+8sZF/oqwwQDQA2MxUVjdUaWDtqNFR9Ax05WWnvDdEAYDMD0QAAABAYNE8BAAAITEVE4xP7gs8P7tgffv262RsAAEC1UBHRkG9PiQj4iYOficg8zfsAAACoLioiGgAAADYHEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwSjRu37lDMBgMBttAu327+G8pJnGsg0E0YDAY7G42RxD8fm1zwpdoEA0YDAarRrOdv/Nbitlxl2AQDRgMBtsM5giD/WubHbYEg2jAYDBYNZrt/J3fUsyOuwSDaMBgMNhmMEcY7F/b7LAlGEQDBoPBqtFs5+/9XYs58ZZoEA0YDAbbDOYIQ77fdTKIBgwGg1WDFXP68luKSRzrYBUXjVvLdyhx4SaFj12nP2Z7lv/LOr+wMBgMBitijiD4/drmhC/RKiYa15Zu0/FTN+hTrVdz5gSXdV2jN1QYv31hMBhsy5nt/J3fUsyOuwQru2i89tZt+uvn3qV/25IVi98/eJU6X7qhTP476yXMPg4r+/jFBYPBYLA85giD/WubHbYEK5tojM2+Rzv+4R36laZsjeK//+11GpxIuZqj5L+s+9OutzPhZJ//8d2kisOOEwaDwbaM2c7f+S3F7LhLsLKJhiMAv7X3LfqfT71DF98oLgA/mXuPHu5/h36T93H29wu3sXaeHq+to8fH/Lbl2o3Z8zQxm/TdVrLNP0t7ao/RhN82sSvT9MrFRf9thaxYvKXYWtMEg8EKmyMM9q9tdtgSrOyisfiu//ZCJvtspGhcv/gsPfbgdgqxONTUb6cvHXyWXn3b2b460ZjoDFOo5UW67rNt1TZ2jGpsZ17Eub/5gz0Uuu8EveqzraCVUTTWnCYYbKuZ7fy9v2sxJ94Sreyi4bctn718KVsb2SjRuHH+GH2h9j567MVZun6Tl9+epR+33kehh56l19+TMKsTjXW1VYrGmq2cNQ0YDFYec4Qh3+86WdWIxhPnbqrwX3t+SS1vjGjM0tMP1tGXembd69/9ET1WGzZC4RWNJL36dCt9aXuYHXqYtj/YSi9ddrZxTaOdayvt59X/N59+iGoOP0UvHXyQtkktJvwgPfbCPF2fOEF7nP0fOkFTmVqNJx7Zx5g6vnLuR+ml89n9v3TwRSNu5niNz9KbTjyXX8zUoELb+djPe87TMRPvcy/weYXleD7xmnPS5rkm782rc9xez/uqmtrz/mkqkn6xGxO99NU/l211tO3PW+mF2ey2gudTIA0wWFVaMacvv6WYxLEOVhWi8f3zqUz4Iy9soGhce5G+WvsFevqSd9tNev38WZq4fJP/ux3k9Rf3U+i+Y/TKol5+/amHKPTgU/S62TdHNOofoqd/ukg33uM4f/AIhepZKPb00pTs/+40PfdQmO7r+qkKn2O+NY06+kIrO1qpFS3+iB7fXkdffUH3obhFY5q+d1+Y9jw1y8fmsJeeoj3sTP9+wsRlW068Z+nx+1hM+7RTLiYar56QmtlT9Crve/vmrD6nTn1OuaKRP/23L0saH6LnLvF1l+vFInbfdj5/1eRZ+HwKpQEG21TmCILfr21O+BJtw0XjuX/OFQyxoPuvqyknxk5q3mdbxjyl6neTdN3utzFxvHBFL+fWNM5mw77HzljiOmuWnTB27cA2X9FopR9bx5fjhY5Zx8vEJen+An3vohPWFsLs/spUvEfpFbvE/1Ir1Ww/TlP8v5hoSBoePDGd2X7j8nl65fw83eD/uaKRP/0T7WF60FXr45rgF8L0d+flf+HzKZQGZx0MVtVmO3/ntxSz4y7ByiYav/WIdvrv3NSJPftq7uipoZ+kMkNybcGQfWSdxGGHL7utRTTeS9JUpnlKmnLEsnHkiEYBZ5sJsyrRcPc95BwvE9dNmur5Em3j0viegyfouTPTdD1fc41PvFLq/wuzrth53PhpL/1FWJraWul7T5+lV00tTCxXNPKlf56ea3Sup9v0cQqfT6E0wGCb0hxhsH9ts8OWYGUTjT9ovaYc/+ziMh38P0vq/zP/lC3VimD8anOuYIjJy32yXuKw15fd8jZP8YV6m2sU0tThcZDKCarmKXNuHuGpHtEwtjhNE8/30mMPbafQffvpJT+BLFE0lL23SK+ef56ePvgQba+/j9penFfrXWkKIBqZpqp8Vuh88qQBBrsrzHb+zm8pZsddgpVNNP7sRFI5fvm2lIiC/JdaxfC/pOjFi7fyCoaY7CPbJA7vtvKa6Qg3bfcZK9ARLk5uz9OWM1LOtQpFg53rK1Iaz4RdpBf2eNLumIq3SPOU3czmOg921GfcJfvrz+/JpCO4aNykV1rDFGr9kbtJyUlTwfMpnAZnHQy2qcwRBvvXNjtsCVY20fjb0RvK8e984h217AjHb/zVW/TrbPkEQ6zxe++o7RKH3/Zy2g12zF+o/xL93RnTwVpkyK10uNY0nqAprmncWPwpPb1HmqnKJBpKkPbQC1f4WFLrWZVocC2KS9uPOaVt1ekc5tK3jzCrePN3hIt4heofoRek/+DmIk31PKRGMDmi8VJzWO37plwvLu3/+DDXAsy7KsFFg5d/etwMf9ZpviGjpT7/CL0kYlDwfAqnwTkWDFbVZjt/7+9azIm3RCubaDhNTFKjeDOpE+wIRyHBkLBOLeQXG/QNquvne+mrzst94fvokaPP53+5zwztlCG0oe0P0d+/+BS1WU1c6yoad/hY+7+g0rXn2cXViQbbDfulxfCD9NXen/p3DKt4PUNuj/5IO2AVJklTJ75khg3z9TlxnM/ZOo+3p+k5Z7ir7PtIb2YY8apEg+36+RP0yJ/q/iJ1fc9m3yYveD4F0gCDbUpzhCHf7zpZ2URD7PPd+ntSjzzzbmadiEU+wRCTsLKP7Ou3HQaDwTalFXP68luKSRzrYGUVDfmWlDRFSc1hfPaWbxjbzr+m+zpkn5/O42OFMBgMVtQcQfD7tc0JX6KVVTTE/v5l3an9e/vfoqk3ln3DiP3sl8sqjITtOevz7gAMBoNtJbOdv/Nbitlxl2BlFw2xloRucvqdlqtq9JR3u7wRLtskjIT1bofBYDBYEXOEwf61zQ5bglVENJZvuzvBH332XdV0dernt9S0r876bxTo64DBYLAtZbbzd35LMTvuEqwiouHYSz+7RX/0df3Sn22ybmSqeJ8HDAaDwfKYIwz2r2122BKsoqIhdvO9O/TE2E36r49dVyb/ZZ1fWBgMBtuyZjt/7+9azIm3RKu4aMBgMBisDOYIQ77fdTKIBgwGg1WDFXP68luKSRzrYBANGAwGu5vNEQS/X9uc8CUaRAMGg8Gq0Wzn7/yWYnbcJRhEAwaDwTaDOcJg/9pmhy3BIBowGAxWjWY7f+e3FLPjLsEgGjAYDLYZzBEG+9c2O2wJBtGAwWCwajTb+Xt/12JOvCUaRAMGg8E2gznCkO93nUyJBgEAAAABgGgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEJiyicaLU3foM0ev08e/8lZgu6ftOv2Q97v7mKSu2jgNLZpFLxc6qWbXICXN4lpJJuKB41Fhj02apVWyOEjNhc4HALBlKZto/MdD13yFoZj9+l+9RT9f+MDEsoHMD1BjbYR6L5rlgkA0AABbg7KJhiMCq2FX35La59NHrlN6xazcIGa6IxSNRCh0+Cylzbr8QDQAAFuDqhKNm7c/ok99TddQDj1/06zdAFamqTcSo8SFYdpX20Zjy2Z9hhTN9MRpe30d1YRj1JHooSO2k01NU3+cBae2jrY90EZDPQcKOPsUzSXaqDESppraMG2PtdGZK2aTB69opC8NUkdMHyfE6e04mfXyKuzRATrTGqNtvF2l09ouLJxup2bnuPEemloyGyAaAIA8VJVoCP889z796ya9r/zfCNIvt1FIOec0TRwO075ht7tPnWyhUJTF5ArXQdJJmumNs+N2nGySzuwNU8PhU7SgNk9TIs6OOY9opEYPcFydNGE2LgxwXLEBWtCLLlyisXSKjtRHqeuc2XF+gJrrWejm9aIKWxuljtFFrrWlKXmukxpqs9vT4+0UdY67wufAIpiJG6IBAMhD1YmGcGQ4pfaVWofUPiqLRygudlPU5cQXaWhXnVtIVsazzVPK4TbRiLWZ2EHnrWkspyhl12SMwx65ZpYtXKLBQpBashvOdLqaB/VRdE1jXP3XpGmstY6i3dP8X4ftOG3tv3yWOpzjQjQAAHmoStH44EOi+o631f5/8aTTZlIhksO0r76NJhxH7jRVmRK67r+IUK/43gxWn4b0X0S6aUZv0BTq01hJ0UymearOmL/DdokGk7Kap5x9mxN6RxXW06exMLDTrJP0ZvfJmi18EA0AQC5VLxpf7qusaOhmnVyHGj3uqMT6ioY6nmomMqX+Ag7bJRoqnG6e0oMGTE0jsGh4z8ECogEAyENVN0/9/sFKN0/NUyIWpq4LZtHhch/FRAgs57xezVNTx7KOXnFlgHYHEY0cIeJ07fCIRt7mKTnPOmrsz1SfNM6INYgGACAPVd0RPvZahTvCp7spWt9JUznDfdnJNoSp42VdG/B2hE917yzQET5JvTvyd4TP9UR5Ww/NcE1DdZo3STNVANG41EMNHK5/mmsay0ma6W9So6RcolGgI1ydQ32cEpdSenm6j5ofYGGUU4RoAADyUFWisdFDbmeO538vY663gWr2nzLb1nHI7cpiZlhsKBKn3tEBjquBEpfNdguXaDALJ9uoMcxpqI9Q8/FTlNhfR7FerQq6puEectt12p2CheFsX4pKpxEQiAYAIB9VJRrV9HIfAACAXMomGk6NYbVWNZ8RAQAAkEPZREM+WPjpVX6w8I/artPwxbvxg4UAALA1KJtoAAAA2HxANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAC7S779P7y7dpMW3rtP8Gwv02uU3aOa1OdgWMrnncu8lD0hekDwBgANEAyhu3EzRL68s0uW5X9LVa2/z8i26cydNKx9+aEKArYLcc7n3kgckL0iekLwheQQAiMYWJ3XrPVWqvLJwlW7xfwD8kLwheUTyiuQZsHWBaGxhpBQ598abEAsQGMkrkmck74CtCURjC/LBByuquQEPPlgrknckD0leAlsLiMYWQx5yaWJIvrNk1gCwNiQPSV6CcGwtIBpbDCkdQjDAeiF5SfIU2DpANLYQ0qSAJimw3iBfbS0gGlsEGfEiHZgAlAPJWxhVtTWAaGwRpO0Zo6RAuZC8JXkMbH4gGlsAeSlLxtgDUE4kj+EFwM0PRGMLIB2V5axl9I4t056nb9Av38Hb41sZyWPoFN/8QDQ2OfLdIPkMRDn46COipoEb9PGvvKXsPxy8Rq+/vdrhlymaS7RRYyRMNbV1tO3eJuodT5ptoHQWaWhXHdUcm9SL093UUBumQyfLc40lr+FbVZsbiMYmRz44V46RLSIYu59aygiGYzv+4V0TIhipky0UYifWeHSQxs6dosTBBl6O0onJtAlR7UxSF4tdc6JaS9he0eihWH2Yjowa0bjQyWIdp6F1Sr7kNclzYPMC0djkyJdK5cNz64ktGL/96FWXaHz7zOqawaaOsUPbMUDZLtQkzYxO0sLdohl3m2h4WWfRkLwmeQ5sXiAamxwZ0SJfLF0vRDC+/D0tGImJ2/SPs2n6lSYtGI88e8OECs5Cf4ydVpQ6RhcpndOy5efwPE56JUVTfS3UGOZwXGPZHmuj3qM7+X8nTekQfBFOUVc8wjUYDhOO0r6ebjricvSFm8jSlwapI2btf3yckpJW5XDluI75O9/keDftu1fH7dqfUaK5q4dGeuK0vV7i4FpX6yDN5etPTs3SUGssE7bh4W6auGa2CUt6+zZ1rBh1JCZppJX/O9dwcZCaeVvXBXPsTNrZdg2yZJeG5DWMotrcQDQ2OTI3wnp93nyFo3EEo//8slo3OHlbicZaBEOxkqSxo9IkxU5LHGr7MM1kXlgvLhoz3VHlPHe36+atIRYMFZcjGslTdIgdbOj+FuofHqeJ4R7aF9VO0oljIRGnUH0DdQ3PUnJpkWYSB6gh00Q2Tb2ROoq2DtPcYooWLvRQc2Qn9U+yV0/O0sS5PtrHccU43RPnuIakL0uWpXHqur+BjvTztiXe/1wnNXJ6Grqn1WbHcYd2tNPQ6DiLRxMfu44a++fVdhcrfD3iYT6XdhqZXaTU4jQN7efzj/K5ynFXOK1ybuGd1JU4RROjg9S1g8OLwPiIRmqWr0dvEx+fz32I/0+ycOtQa0bymuQ5sHmBaGxyZFKd9eADFowvfvfdHMFYaw0jB3HAiXZ2yFwiZwd+4oIUtYuIxvJZ6mCH2NhrO9gUTRyNZERD1WTq22jMLrlfGVCOU8WxwvFxHLGeWbNRSNOYlM5bz/K/eUrE2KnHe2hqPuVTGwrYPJVOUYpFI8VeeeIox21K9Vo0DljpS9GZvbwu7lPq55pNiB18/yWzLMg14ON3nE5T+uU23h6jxGWzTRAhYdHzEw3FOjdPCeuV50B1AtHY5KzHAyyC8ef/WwvGP5zTgjFwYZ0EY4WdnV28ldK0CIVymkVEw+sADUmuOTiioZt/vA44Nw5XM41jzn6pWRo53kK775cmKm/zURHR4PMZ2WuatpSZkr8tGp70+afZOS8nHrfJ8e3ztlHxQTTAOgHR2OSU2jz1Ppes8wnGw98vtYahS8EhVaLPki2JG9GwtyeHVXOQctKmlF2opjHX21C4pmFqK/uG3S46eXmWUqZWkbxwimaczelp6m/gNHc6QlZYNJKD4sjjXPo3Z7DCNQmpxaxBNHRNoolG7A0rSZqb1SuqoaaB5qnND0Rjk1NKR7gIxuf/1ztKIE78WI+K6ntlOSMY0ileKuJUpfQe29tDI+fGuUS/U3XiOkIw0y0CIJ3XwzQxOkBH7tcdyo6T9vZp6CG77CTz9ml0027VaZ6NY65f+kGsfpF2SUOYmgd5e0qLSuj+A5QYHaexRLvqk4iaPgkRjROyfUcnp3+YpmyHzciQYt3RP0+ppUWaG26nGIdfi2jQyjwldvD5230WO6U5L04jcipOn0a9u09D1UbyicakNHlx7amTr+/wpDWKbW2gI3zzA9HY5JQy5PYv+/WLe+USDIfkuezoolBERvxkS/nOaCE9GkiLRz/XPjIle8/oKWk6GuvxNNNYo6dCkTj1jg97agcp5cxVf4oJ08VOPoM9+qo+Qs3tp2jB6ttIvcxCYo7fe9GsdOCawMTx7Miohod7qHc//1+LaAjSVNaejW97vJ3G7IqWPXqK09rYKoMD+H8+0eCjTLQ717c7p2lrtWDI7eYHorHJKeXlvnuPJ+lzf6NdV8/Z98oiGCWTXqSZS273OnOcaycNfeS0rKdmp2nBbp4yTVzSeQzWF7zct/mBaGxySvmMiIjG7+67SpG/TSrBeOjJpeoSDErTVKdpnjouQ149TUuClKyl+cg0L8mQ20PSxOUMUwXrCj4jsvmBaGwB1vrBwv2DN5VwiO37wU36sKoEw+A0T9lNS8Ozro511bz0cFQ3wbCgNLb0uF+IA+sCPli4NYBobAHwaXRQCfBp9K0BRGOLICNayvl5dLC1kbyFUVNbA4jGFgHTvYJyguletw4QjS2EjGwpx2fSwdYG+WprAdHYYkhHZfKdzBcBASgJyUvo/N5aQDS2GB98sKLaniEcoFQkD0lekjwFtg4QjS2IPORSOkSTAlgrknckD0Ewth4QjS2MPPjSgYlRVSAoklckz6DAsXWBaGxxZMSLNDHIGHuIB8iH5A3JI5JXMEpqawPRAAp5KUuaG+QzEFKKlA/PyRdL12vWP3D3IPdc7r3kAckLkickb+DFPSBANIAL+W6QfHBOvlQqpUqZG0Em1YFtHZN7Lvde8oDkBXxLCthANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwSjT8pnyEwWAwGMxrqGkAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIzI3ULfr//stH7k+Tah4AAAAASUVORK5CYII=</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAEDFSURBVHhe7Z2Pcxvneefvz8jk+vt6be46k+vcpa1vhsnxwAxHaHPC1WNMPGHrMXKaiJELXa2QlU1VkRSGiuQwlMtSDU+5MqVDmzFtODzzzFg0FSlWRVNVyaRimJNJRyYdmbQkw6YEmRJs2s89z/u+C7y7WABLggAh8vuZeQbY3XfffXf33ef7/tp9/xUBAAAAAfjL5haCaAAAAAgERAMAAEBgIBoAAAACo0Rj5rU5gsFgMBismKGmAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGpqGi8c+sjanshRZ/vfod+b/9VZfJf1iV5GwAAgOqmYqJxcvoO/bu/vkof/8pbvibbfjh1x4QGoMq40Ek1uwYpaRY3lkUa2lVHXRfM4pqZpK7aOA0tmkUvK0maOTdLyRWzvJGsW1rknNfj2jGLg9Rc20lTZnGrUBHReG7idkYcvvjdd+nlmbTZQuq/rHO2S9hqYupYHdUcmzRLROlLg9TxQJhqOOPVhGN0qG+asmdjwss2y5oT8lROU2+EM+u4DqeZp0SDs90hSSNx77rCJM910757nTRFad/x8czDlTrZQjU7BmhBLyrSp9uopp4zu/0ATnZSyKxLJuKecwjT9lgbDV1KmcC5yHnnplk7t9WcS9VSQDRyrld9hBpbemjimgmw7qxCNK6NU+/DUdpm7mPDw+00Nm+2FRONa8O0rz5K/ZfMckDWkn+KEjAtfvci9nC3dS82RjRyr4kxy7fcLZRdNK7d/JB+c68WhI6RW2ZtLrJNwkjYq7xPteASjeQpOsQZt+uccR3JceqKhunIqPMwpGmstY72JeYptZTKmlIVvS3Wm3liTabj+PeeoszjtHyWOmoj1DttlouQHIyzs49TYnqR0uzw04vTlIizc+A0q8Ne7qNYbRuNLavgiqljIjDuY8z1NmTSoTK47SDTKVoYbaOG2hglLpt1Hra8aFjb0ql5GjscpZpoN82UXDL2I6BoLE/SCc6fzXyjk3L/nfvI+WVE3ZIiorFG1pJ/1gu/e3GmNUI1TcPmGdtA0ciTf+42yi4a0l8hYtDwnXfMGqI3uBj8nZffo2+dvKX+O/wZh5GwX/+/JZRI1hlbNFIvt1OsZdh1412iUuRhFgdfE89mHFULaGqifbZTn+6maG07TbicTZ54RWDqw9Rx2nO9lFA4zoAdB4c5kSnQSI1nJ+1r4hJYRsBSdGZvHe0e0N7DP4Nr0Yt2+6tZENFQYfrHaaQ1pkq+oUic+i86adcOLHFu2NTkuHQa76EZ69RULS8WoZDaN0YdJ7PHU3H3DFN/3Nmu41442UaNYb5HHF9j6ylasK5r+mIfHTK1xm0PtNGIpeeUms7EJduGeg7kfeh9r9cSFzBqG7JOcoWFpD1O2+s5LVz6bW4/60qLq0YgtcUedw02cx6y7/EBOrEjgOOT2mNOXuKabJNzr4tcc+UUdT6aOc7XwlUqlloy572X7VRqguSfnPxiHctJV3+iW52zCufanh/fY4vgZ5x7rmgsjLZTc8Q5f66JXTEbFCmaS2Tz0Pa4VWvxiEaajyOCPGTnIwNEYxX8l8euKyH4x1mduUQkZNmxT+y7mhGOc6+l1brPHL2ulqsBtyi4SV85RR3RKDtk58GRDBmhxrh2itJ81ZGYzT78ypk7D7F+iDpOz7NjDWcyscpcds1DkUc0lMC4axGaJM2dG6c5lUP1cRxBUGlo6KM5zuAhJxOvcLrZGTk1jyAPvZegolGjakUc80qa5vr5OBEujaut+mEOxftoRg68PEsJ3jdzPHbCR+xa3vwANddzydU8oCruKF+Leb7aK0ma6o7x9WehOMxCwavSqlZYR4dOmit7RfbnB/yyhE8rpxyNsANQ1zLJIsq1tcy+uvaW76H3vV6uGmOKrx3Ht3+Y5iQzpPmec3yh1rMmb8xSv9QIBuZVbZGWdA0245D5Poszcq6bLrUHEI3kMBdIIi5xdVPkmtuOWvKa3aTJ17+xvo0mcvJesPxTXDQkXT00NW9q6msVjfSiqmk0dJqat0c0pKk2FD1AIyYfzA1IzZ3zkckmqiYf7aQJiXAlRTO9vBwzzb22aFzh/5I/L7ifXAf/a3J3UnbR+NVmLQ43b+vRUSd+/J5LNMRknSBhZPnXeJ9qwU80VAbgjCdNPIcGrWJFepZL0W3Ue043T+mH23r4bees/rfQmSXdNKRL/frBcjVhKfKIhqsElR+VXiNE8l89uMqpGcHxNGH5ZfDUdA8/IBFOgzkXD0FFI7d5Lk4jquQmD7NVMmdUOpyaGT/QqSX72CbuQZ1KiTsjjAKLwu7anTRklRrteylNdO7rrEvOqkam0tVEI/YFGG/P+9DnXK+VRXfzlF98yqEbJ6jOLaUFwyBpDbGj0//DFD1uHLmCzz1ITYNJjnfTbi4lS82r4zuDNHXFvoZFrrnLUUsNlfPuRfmvw4UOO6LnJkj+yckvrmPlpsu9PT/q2OrZtCzWo8VaIXE7107noX3DrhujamI6bbrPseO0dZYrs3Smc4Cm+LnVaeLnL8Vxiujn5P8svukKcD7VSNlF49+bEVOOaLS/qJurbPOKhuxTLdiOxouuaYS59GpnOjdSra/JlCh1M5BydFJycx6szH/zYBr/oI6dk9HETGYLKBqZUqI6vlOryf5XzWRGVAS/DK6ag4a9YpYlxwkockWjsKNwP0Re55OymqecdAWLW5O9lzpd9vk5pq6NXNdMDcgg6zyO0MH3eu3g0qnTjCH7Su3OLGrMwAjH8S/aHdbGrLRmakgKvS6zbzG45jV3bpBOtEgNmMXyoNNMV+Sae67hTHfE1BTEsfo3TQlB8s9q84Lf/fTDm2e4mkgzPSxwmWZhWzTkv0ecGDlPfe1lu7vg4UKl6QB1cC2yJsb31xJ9Lznpuospu2h87m+SSggm599Xy97mqd+1mqd+8sb7ap3sUy1kHY0/CwM7fZqTsngziwrPIjKTqV0wTq1jWjKh1dy07HSmz1KCS5Ydo86yKZWKGPg2T/GzYpdcV8b1w3HRql0wkjZxAt5S91oyeI4TUKyjaKiwunlKn9dq4tZk76WfI7ZYi2hY22a6oxSy84SvaEhfk3Fey3zuEWmems3cs8JpXaVo2EjTF4uVji/INbe2S36T85D+mjxNU0KQ/LPavOB3P/3wPbarf0niLiwaU50sAoFFQ5qk5lUBzHU+HoJck7uFsovGYdMR/tgPs5leREJqF1LrcARDcGohss9GMNMbo1i3LRC6uchph00OH+BSmrsj3BEBKXOpjnLPdjUqKVPTYNSD10Ydu9yZVRx3R2ubq6M8Sx4n4XSEe0t8ro5wQddwjnD82XZ0RjK9SovdUb62DK4eNDtuYUWXpp3qfUmikeO0+ZqwkK5NNNI0cTic27ziZEW1bwnNUym5L1ZTnl98dvOU2u6uMU4czRZW1to8pfJeZtRQFolbN30VueY511DuZwP1dnM+9d5riyD5R+6FqznRdazcdOWmxR/fY+cVDf1cra55St4XmaQFEUz7vsn/MKcvj8AEuSZ3C2UXjZ8vfKCE4JMHrrnabL28z9skjISVfTaC9MvsVE2HY3olTclzndTAJQmnuUh1/pnSrpDTPOUZkpu+LJ2tHqeuSv3sEDwlWfXuBK/P7c8Q8pcsFzgzSkfekEozx+MdcmtQ4sbxu0us+qGo8dRW8mbwpUlKOO25XlgM5Vp1jM7rjsvleZro3Kk6EXXncomicamH449Tv5znMj+4/U2qKWdtosFk0qsDqHt5P9f21MG8HeGT1LtjdR3hal2mycJ0hJv4pCN8ZG8kK+Cqk186rOf53KSjmwsfMsrKTqs9gIALL3ZH+MLJTjrB++Yg14Dz45GEGXLL+y5wnm7kdXrwxmpFQwtRSI3YUyn3JW/+sdDXp5umJBDnFdUHlDlWEdEokA9zju3EnRn+bIuGfu5CMoBC+nrk2g62UHQtHeHMwoAcm7f5+LnC1yRFU/2dlJjcmMLyaim7aAh/Ypqovv9PeeqzjAzBlTB//HihrFZ+FobbqFENv9Odh73j7vSkJrPDNFU7rT06irFf/vPvB9ClfvfwRUaVhrKjqNzwwz7pjIbKRZyM83KfHPNQT/blvgxSw/E+iIxqv/VzeH4Z3Dy4uuM6F1efAzvBxpY+14Ndkmgw7mGnpyixPyuyqxYNJjXZY103z70udcit1LKiVppWWChaY9aQW6dfQZO+2JMZ9tnYOkgjne4aaqEht3JeTqd5Dovj1N9ijitDRu9vss5z9aLhHTThR2EHaVhZpDMHWYCc56S7nXYXyAuutBTIh+rYkv8yxmJd5OW+7DNvhty6Hln3kFtXnlbpsGqIfI8TsTpq9Cn45abLmLpOulDoDOqodioiGqM/v6ME4Z6263THpxIh36SSvg0JI2FBlXKRhcfb1g82GN2ckrd/ZjOy2fKhasbNDoCpdioiGsJ/69S1jSPDuZm78Yklta2aOsCBlzTNfKeJTuQZhw42iOQpOrJ30LdJZHOy+fJhepprvJn3SKqfionGL66vqHc2xKauZKsbwxd1LUTWSxgAAADVS8VEQ3C+L/Xpo9dVp618Dt358u23CnyXCgAAQHVQUdH48COiPz2um6m+MnCDYubrtpGupNoGAACguqmoaAhv3fhQfW9KxEJM/ss6AAAA1U/FRUNwRlOJYbQUAADcPWyIaAjSh4F+DAAAuLvYMNEAAABw9wHRqCg+b7oCcBeR+8a4+5tZLq7N0sSlCrx75XpzvcgzVk3znt+lQDRc6Nf57df8836WY02sp2jotGY/+Zwl0GccKo75HEPmEy0yv/okpari4dWflrDvu3eu9XVDPrxYa0/c5ZD7eYv1x3Oe6lMvq5vLfDWikRxqolC0x/N1Xy/eZ04++9FOI6uZT3w1olFsrvHleZoZlc/I76SGptxnKD0/TWOJbjq0k/OH/dkag8xfoj8HU0fb7m2yZqYUPLMAxtroTKEv6Nb7fRrHvlZiBUS7TEA0XJhvwGS+F5Sm1Lx8lLCOGsyXbktj/UVDMl/zoDvCahQN/eG3Nhqb159sz3xYsSrehM112E76XF8FXg+UaPB9sz7kqKmcaDjHkPmzp/oP6ClK8zkvD6uqaQTC88wtL9LcqP6oYr5Z8HJYjWgUhPeVb3u19lGivSH3GeJ7pyaz6uujrgaPQxfUB03jLEg63Sn54Gn9ATXRmqA+iBphoZDd5OOIMkugr6jqD2ZKPnEdQ777FemkCTM9grbKPz0QDReeDGxQkxRl5kOwS8x+pYWUmvRFfSBOTffaRx38Xz+oOkMXnpPZ/RB6P7KXRac1FotRSObisHJ3jmisav7pQep1XYNC56vPxzWXsy9JGol7PoUtyDeEMtPfFrmu3g8I9vIDaF+rAueorsfRAf1lWV8n53amGdTH+fTsiioO131w76M+mNjD107uayHBVqIRo8aYtyCSmwb/OczNRF7WtVYfnbTETX0xOWf+DsH/PHPm/5CZB+35zHuyNcJc0WinM5P2xxazH2LMyYe+5H/mQpkv02oWTttzefd4PhzoFo0g8577UijtmbT4pzlnGgQJJ/PgqC8C62kWXF+xdua58cznIfdvW7yTurzHyJkeYGOAaLjwzwzqITQfSEuNHsh+KpmRzyFnPpXMqMweaaGR2TSlZdYw+ZRy5kHVD23hOZlXJxrNiVn12W37oXdn+ADzT7MT672Q5PRm5592rkHh83XOx5rLOQ9qBsNd/PBaX721KXwcXfKK7h2kuWW+rs6c3ZlrVfgc1fWQz6APz1LSt2Tm70xXKxoy/3nvhXlKFboQSjT4PDlu+cx+9iN1njQUmMNcpSXjnMzn7a35u7Mz7HkpdJ7Ol2tTNHE0Qg3HxrVQ8LXut54JV95S+ZXFL/MJ+bPWBE+esHnxf+b0dMRZh5oeb6do5hPlejY+dzps0Sj2jBWviRROu3+aJQ94C0Yyd4kOp/fpGtfrNbzOOy+KmpArxuedewyVpgd2WsJpf723ckA0XPhkhkVP85TMpmc3K5hMqD/T7JeZ7AdV/rtLFiojuOZkXq1o8LHUpD8yx4HPwypNbPYsfozEac8/7f5Mu+ccCp5v7vnkJTVLQ+pT2PJ56XZKjM66+zMKHcfvQTfOV12rIueorkfBZib7HhnSi3SmNfvZeBVHEdHwnwvFg5Xuud6YNeeGN74Cc5iLk1fT9zJybRq4VMq1KC1Acv/yfWLf5zwF+/qq/+5Pn6tCk8mjrrzlEzbnuud1vA5+z4xgp1WHcc3hoUTFL3/IfsWesfKJRv51eh/3tc9dJ7U+7Wtyj5E8100d7YM0s8jPimk+rbEKrJUCouFC36hsJ5MYO7lOq0NUJmKxOnS12RnWmzHsdfLfnWFzH8I1iAajajhm8picDF9k/ml3RvesK3q+xR9Am/SVaRrpa9OlpfDObEdhoePYAuHgXZf3HM318L2GDvoeZY8rJh2y2SaQ3Djc99rPYfjiEjs954aef8GOzy8fatPb9Qx64hjlvkspWtKnREY5U7cjz+JOcwbbkar0+Rzb5KfV5NecfOiLXx4U7LT63R8xk+Yc0XDnydw0u7f7UTjt/mkuWTSk9hlppwn1SOS7LhZq9seAhbZ1BKLhwnOj1ENtzczHqMykqsmm1JOTYb0Zw5v5i2XotYkGx6SbcI6O05wdZ4D5p90Z072u+PkWfwDzsdDPcZtmv4LHKSYaBc/RxO17DR3se+RPbhzuffwchi/ec1HNg3yeV/SMjjo+fQ8KzZEhNZHmwXka49qQqmFI7UPu+WSnu3/CRZ7ztJunJH0F5qpYTX51hc2LXx5kXM1Tku4C800UyZO5aS6eZwun3T/Ncu5rb56S7bavyXNdXBTPt+UAouEi90ap6SBNW7KQ4xyuDFgzjukOX/ecw/aNDZKhnY5hjf0QuvHJVLK/dFzuskZ++DzYrvmnO33mn7biLXy+uefji3IA/NBfNMsOJi5pYih4nGtyDp45tm3nW+Qc1TX2vYYOxR8+FQcLchb3Pjnpz0eOAKb5HkT5fsX5HJz4isxhzqgmo6YWOhTmuNR6ab6KU0drQ4FmMv/zdHWEqxFAMUrYUVjHzc2v7utu59fCjtfB3zm6O8LNjHj9nvNy0qXSkT9P5qa5eJ4tnHb/NJfUES5iz/cmtzbFptIhfTMNXDPXuyo8/T6VAqLhwi8z6HXOFI5zPfKA99AMl4hVh2yTNKdkM6HO7Fxqm8/XEV4gQ6/w9noubXAANUf5dJ8aqx1YNBg1tDWT0ZhVzD/t1xFe+Hw955N37mbtGEM7uCbhDLnluIb28zrT1lz4ONac3X4d4UXOUV3jEkVDnL2MUhuRuaRz7qtXNArM+ZwjGgzXlE5EOb12GlQNJN8c5oxyfryP5aTUKKpCJXLPecqQ24njO2mba8itvtaqI1nuo3Q687k2duvRaLkOOKBo5M0bnny8vEgziQN8/9xDbnXzK+dTZzirPBsPsKhIoqpENLxDbpPyLNW30YQpcLqH3HrmG88h9xhK3OMDNCfnzPdl4hg/M+jT2GjyZAanCUHdbOkgjam2czWv9OgAHXGpvXfIbQ9vDygajMwVvdu8/CNt6r37sw+hmzxp5fQNiUP1xJkdEhls/ulMvAXP13M+5oHUneQe5CEZzs5lLsNid3Na5hy/UOy6+s3ZbTmsQueornGpoqHuKztYk/Z9Pd3WffWKhrk3fnM++4kGk+b1ItZ2GgrOYW5GTbmasJSwcdxWzcCNPs9MCZbvt+/LffZ85uZ6Ovcp1wEHFI28eUNfq0yaVL73f7nPnr9f5QEnTLWIBuN6uc9Oo8Lzcl/B0U8+xxChOG58i7pO1rDjCgLRKAf2Q2tGeRTLpBuKy8loZ1TYgeahnHM3exyhap7J+1BvMHfZnM8VAfPLbxogGuuMfDohZsatZ6qQ1ercmDQ/zDFnTLvzlqrVhxOccs7dnKSRpgbVVKM6upPyHoZ/Sa8auNvmfC4/mF9+MwHRWG9UFbKJGqwmpo2oQgYn901s/eZxlZHzxne1fLcKgK0FRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDA3UrcgGgAAAIIB0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACEzFROPOB0Q/mLxNu59aos+2v03/5tGr9Il9V9V/WTf4k9v0/ooJDAAAoCqpiGic+n9p+oOvX6OPf+WtgnZP23U6cylt9gIAAFBtlF00OkZuZUThU1+7Rl97/iaNvfY+LS1/pOzca2m1TrY54R5/6ZbZGwAAQDVRVtE4xs5fROC3H71KL1y8Qx99ZDb4INskjISVff5mFMKxHiQTcarZNUhJswwAAKVQNtH48atp5fx/46/eop+9+YFZm8WpVXiZ4rCyj2yTODaCO68+Twfb/4Q+efAe+tjX/oR2PXGSZlJmY7WxskgTx5uoIVxHNbV1tO3eJuodz0pEVYrGSoqmepw0h2l7rI2GLuW7wCmaS7RRo3N+D7RQ4qI7bHK8m5oj4cz591vb1fnz+qzlHk+HCVPHy/75baE/pvbtumBWALCFKYtoSKf3fzLNTb1jy2atm3yiITzB+8g2ieP2+2ZlpZj+Ln3u4P306PCrdPXdFN1YfJUSJ+6nT3Y8Q/MfmjBVwyKNxMMUivfRzCI7vJU0Jaf7qLk+yg5OO8VqFI3UcBPVRDtpQhLFaZ4biFMo0k0zPgMhUidbKOSEleVzndRQf4DOLOllmh+gxto49RsR8G7POf90ihZG26ihNkaJy3pVRliahlmivMxTIqYFB6IBQJlE45l/vq2c/qdar9GHeZqkComG7ON0nD/LcVWOFL3QdQ81DL5ulg0fvkrfPnwPPfoj41LefJ6+eLCTEj/6JjV8jWsjBz9LDU+coxuWqNyZeoYebf8sb7uH/rD9m/RCJsopevzgHnry/Emuzcj2z9CnO5+kqVxvVZT0y20Uqm+jMc++c70NGUeZ4zRX5mmsPU7b69kR1keouf0sLdjO+sop6ohFKMROMhSJUcfwvNmgWTjdbkr1XGKP99CU47yZ9MUe2nevVeKf9D+pqWN87GOTZolJnaIj7PiHFvXi1HEWwv2n+G6kOK0NdMjZoJikLsuBq3NtPUvZOsIiDe2oo47Teo2/aKZprLWOot3TakmFaWqifSIk7tMluthN0Qhv4zjLIRrLy8vKihE0HADlpiyisfOJJeXwC/VLFBINQfaV7Y0cV8V49zQ9evABevIXZtliauBe+tg/GK+hROMztGvwVbrBmnbnl+foG0dYbJ5/U2//JW//2h5K/IId14dpuvrjb9JnD3fSBaV/Ihr30Cc7n6Ep8WSp1+nJx++hzw68KhtXxUx3xOMwDclZmjg3q0rNbqfJTrg1TA37h2lOdkrP05DUVDJxzFJ/NEzNA/OUZiFJXx7gWkuEei+qjZQeb6dopoaQpJkeK+4ldvxSwzlnjiQl/tomGtGLLpTYWbWHBalpRLM1jfSlcRq75LMj10pULYH3nTL+UwRo94AtKkQTR+uoOaHXBRaNY2dp4nCYYr22aqTVusb+szS0qzyi8e1vf5uOHTtWUBBkm4QRA2CjKYto1HzjunL4F3+Z25fhUEw0pq58oLZLXBVDiQE7e+P7ba4O76GPPf48XZUFU9O4YNUsbow+Qh977BkSl3Phic/Qfa7aCgvDY5+hx/9F/otouIVJxd15Use9CnJK7D64nObiIDV7HXlymEvYTilfSvEN1H9JbWHYSU+O870QSeESPDtOpwSvWD5LHbzvyDX+r+I+YNV6kjR3bpzmfHy/MNPNNQRpEhL7XAudcft9D/rYTtgRy6/LNXAEwsFe5ycaqekeTmuERUCfiwqzl2s2qlZhNZOpayPXSx+/HKLx5ptv0v79+/MKhyMYzc3NdOFCGRIAwCopi2j81iNaEG7ezj9cqphoyL6yXeKqGKsVDbXFILULte5tSnDNQZqlvPb4hATUzVP2MVxxu+CS7tEwbTs6bmoCblYtGhc6qaahj+bUFodp6o04DjFNM707aZs0W7X20JDUVjJNV7pZKOPoM+YIziKdOdhAoXCMDrX30cj0oqqt+OHqp3D6NKyaRl6cmkY9i4xRgUCi4Umzt9kte42k/yLbIa7Wq36O8omGkE84IBigGimLaMjb3kFFQ5qfbt3JDeeIhgzBrRirap7yiMYvnqH7LNHI9H/ksH6ikbd5ip1raslyfAVFY5JO1HscYnKWpob7qCMeYWd+wNQCRDQi1KtbdPKSvjJNY4luOvRAmEI7emgmp/CcpJF4HR06aV8fdtYNnIZxs1gQ3Wfh7C8CsfrmKTd2GNVJr4TCFhCfa7TOeIUDggGqlbKIxn8+rJunpIkpH4OTt+l3WrS4SKf3T95wD5OSobeyraLNU+wq/DvCX6cn23M7wu1H+c65b5rmqTSd7fkMfbLnAt0x2xSZpqzViEZhnI7wCY9jztsRXqx5yuoL0bCDb3IcsB5F1Njv6Sl2+iGuTNLEJNcu9CKvt2swNj7NXEY03OuEpKq9HBm2E6xFwwm7to5wN64wqsktRgkWvmxTlbvzvVzYwgHBANVKWUTjy9/THeGdRV7QW1j6kLZ3JlXYX2l6ix77YYpWjHOVfWX9l/sq2BEu5Bly+7Ej36Upx/Er0TAd4eKbkhfo8SP30BeH39bbTRzfOKuXVUf5Y1+lF5T+rZ9oyDsa0pHdsH+QZpKcEK5hFB5yazrCD5+iBUl3ep5G9nJtwnG6yVN0iPftGDUl9+RZ6oqE6ciojks1K9XHKeEMb5VjPcCOVXae7qYGa5vqRK+NWv0jWdR7D7u4FiKJ8mlysjvCVVirKcsb1jvkNqm2Z4V01aLBV0I6v6UZKyuQlRENwREOCAaoVsoiGvaQ2w+szmI/ZHjt8R/dol9rfou2HXtbveMh+8i+Ekdlh9xqir7cp0SjjXqGs0Nuv/jUBdeQ2xv/8iTtOfxZ1Zfxya/voW9fMIKynqIhqCG09otyLdRf6OU+Dj/SGrOG3LKAWH0J6UuDmSG3NdI/0TdtleLZiQ+3UaPzIt0DnpfkxrszQ25DkTh1nXY3G2Uo8nJfdsgtI2H7WszLff4vArpe7vOmadWiwUiHuKtGVjnREEQ4IBigWimLaIjjd74lle/lPi/SHJW8pfs2ZB/ZV17uk7iqDr8+DQAA2AKURTQE+VqtOH75JEihobdeJOxGf0akKBANAMAWpWyiIcjXasX5ywioH04V/2ChhLkrPlgI0QAAbFHKKhqC99Poh56/Sa/84n3VFCXm92l02QcAAED1UXbREIJOwiRhMAkTAABULxURDUE6tOXdDGe619/dlzvda1V2egMAAMhQMdEAAABw9wPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBURDQGLtymT/z1Nfr4V94KZH/Udp1+OHXb7A0AAKBaqIhoiAj4iUMhE5EBAABQXVRENBwhCMpqwwMAAKgMFRWN1RoAAIDqAqKxoSzS0K466rpgFrcEk9RVG6ehRbMIALirQPOUl9QsDbXGaHt9HdXUhml7rIUSkymzcb0pJBp6W3Nis3lXiAYAdzMVEY3VsnGisUgj8TA1HD5FC6k00UqaktN91FwfpROTvLzuQDQAAHcXFRGNb43com+dvGWWirNhonFtkJprd9LQFbNsmDkeoZqj42aJaOF0OzVHwromEu+hqSWzYVH2b6czkz2Z7Y2tLEArZjuzcLKNGsNci6mPUPPxATqxw0c0VDxS0zG2a5CSZtPCqH3sdhrzpFWjBaexf94sM5f7KFbbRCMmokLxTB3ziJVKj+PotdPvT3Sr88gVNbN9OHsNtu8doLlMZU1vT5wbpo4Hstdwxq7MLU1SoiVG2+TcwzE61DdNGckOcI3TF/vokIq7jrY90EYj1mUAAJRG2UXjZ2++nxGBoMKxYaKxMk29EXaEPbOUspyQTXq8naLRTpoQ57uSpJmeeNapG2evairs5dLJs9TF8R06aTzidDc11LPDnObQXItZGG2jBg4ftKaRPt1GoegBGrmsa0FzA3EK1bfRmE/rWTJhpctZbhomCVosnuKiUUchEcv5FEmFzI3erq7BMi8mpynBtbfQ4bPG8Tv799GMJG55lhJ8ntHuabWVVuYpEWMh6J7U9yA5Tl1RFsBe4/mLXeMrA1wz5LSacxORjkY6aUrSAgAomYrUNL7/T8urEo4NEw0mfWmQjtzPpVQp4bb30dis43YF7cg7TluecvksdbBDHZHXSpRDY+drOShxwKHOSfM/TNHjxjkqOD6/mobCKxp6ed+wnZ4kjTT5lfaZ5DDtyzh6HU7vWzye4qLRQInLaosPst1TW7vYTdHMdcndXwla3AjchU4KRbppxhZt2b+eHb+sC3CNY47AKFiEGsJ0Qm8GAJRIWUTDcfr5rJhwOOE2DCmhTg9TojWuOsS37XSaT3QpOdNslDHjUJVDY+cmQQ3i0GqOicfSzjpTIlbodcFEw99Zz3RHTPxeLKFYOkWHMk1TxeMpLhrOfz98tq9wbaHA/natSP1vdWolBpV+s0+Aa5x7f/JdYwDAatkQ0Wh/0XacuTjhqgJpLmFHpJtPxOFFqNeuLNhsgGhMdXKtyFc0iFLDTVSz9xQlT7dlmqaCxLPuomFqY/n2Lyoaqq/J7LPqawwAWE8q0jwl354KKhjCRomGtPXXeJtGmIWBnab5RNrbPR3MghO+oEOT/xVsnhJMDePQ3rC1X/F4JM27B6w4SxUN1QlvN0/lF41gzVP5rnGaJg7b/ScGz/0EAKyd8neEX/lgVYIhbJRo0PIknYiGqbFz3BpyO0hHeF3zoPZyqZMtFJLO7Ev6XFIyJPcBdnLipYqIhrcjfG74QIGOcKKJo1zD6ZykdFq7QN2Bzc73ik7b3GALO1NezntZU3RmLx/f46SLxaOceKybpsSLL8/T2OGoFUcQ0ch2VFN6nobiLJZ8DfRZFBEN0xHezNU53RE+Sb0PeDvCi1zj2ih1jOoDpK+coo77W+iMrZEAgDVTkZpG+8lUYMEQNkw0hKVZGmlvogYZFsvOb9u9O6kjMesquS4Mt1GjGu6ph3QOGQEp6tCYQENuDWkWpN0qbDbO7LHNUNkiw0lVE5U1isqhYDwri3TmYAOF+PxCkRh1dLfT7lWJxk46MdCdGRIbOziYM+Q2r2gIS5PU/3DUGnJrRlIJAa5xarKH9t2r708oEqfecSgGAOtFRURjtWyoaGwypEksb/NVWSgmKgCAu5mKiMZqRQCisQ4spyg1K+8sZF/oqwwQDQA2MxUVjdUaWDtqNFR9Ax05WWnvDdEAYDMD0QAAABAYNE8BAAAITEVE4xP7gs8P7tgffv262RsAAEC1UBHRkG9PiQj4iYOficg8zfsAAACoLioiGgAAADYHEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwSjRu37lDMBgMBttAu327+G8pJnGsg0E0YDAY7G42RxD8fm1zwpdoEA0YDAarRrOdv/Nbitlxl2AQDRgMBtsM5giD/WubHbYEg2jAYDBYNZrt/J3fUsyOuwSDaMBgMNhmMEcY7F/b7LAlGEQDBoPBqtFs5+/9XYs58ZZoEA0YDAbbDOYIQ77fdTKIBgwGg1WDFXP68luKSRzrYBUXjVvLdyhx4SaFj12nP2Z7lv/LOr+wMBgMBitijiD4/drmhC/RKiYa15Zu0/FTN+hTrVdz5gSXdV2jN1QYv31hMBhsy5nt/J3fUsyOuwQru2i89tZt+uvn3qV/25IVi98/eJU6X7qhTP476yXMPg4r+/jFBYPBYLA85giD/WubHbYEK5tojM2+Rzv+4R36laZsjeK//+11GpxIuZqj5L+s+9OutzPhZJ//8d2kisOOEwaDwbaM2c7f+S3F7LhLsLKJhiMAv7X3LfqfT71DF98oLgA/mXuPHu5/h36T93H29wu3sXaeHq+to8fH/Lbl2o3Z8zQxm/TdVrLNP0t7ao/RhN82sSvT9MrFRf9thaxYvKXYWtMEg8EKmyMM9q9tdtgSrOyisfiu//ZCJvtspGhcv/gsPfbgdgqxONTUb6cvHXyWXn3b2b460ZjoDFOo5UW67rNt1TZ2jGpsZ17Eub/5gz0Uuu8EveqzraCVUTTWnCYYbKuZ7fy9v2sxJ94Sreyi4bctn718KVsb2SjRuHH+GH2h9j567MVZun6Tl9+epR+33kehh56l19+TMKsTjXW1VYrGmq2cNQ0YDFYec4Qh3+86WdWIxhPnbqrwX3t+SS1vjGjM0tMP1tGXembd69/9ET1WGzZC4RWNJL36dCt9aXuYHXqYtj/YSi9ddrZxTaOdayvt59X/N59+iGoOP0UvHXyQtkktJvwgPfbCPF2fOEF7nP0fOkFTmVqNJx7Zx5g6vnLuR+ml89n9v3TwRSNu5niNz9KbTjyXX8zUoELb+djPe87TMRPvcy/weYXleD7xmnPS5rkm782rc9xez/uqmtrz/mkqkn6xGxO99NU/l211tO3PW+mF2ey2gudTIA0wWFVaMacvv6WYxLEOVhWi8f3zqUz4Iy9soGhce5G+WvsFevqSd9tNev38WZq4fJP/ux3k9Rf3U+i+Y/TKol5+/amHKPTgU/S62TdHNOofoqd/ukg33uM4f/AIhepZKPb00pTs/+40PfdQmO7r+qkKn2O+NY06+kIrO1qpFS3+iB7fXkdffUH3obhFY5q+d1+Y9jw1y8fmsJeeoj3sTP9+wsRlW068Z+nx+1hM+7RTLiYar56QmtlT9Crve/vmrD6nTn1OuaKRP/23L0saH6LnLvF1l+vFInbfdj5/1eRZ+HwKpQEG21TmCILfr21O+BJtw0XjuX/OFQyxoPuvqyknxk5q3mdbxjyl6neTdN3utzFxvHBFL+fWNM5mw77HzljiOmuWnTB27cA2X9FopR9bx5fjhY5Zx8vEJen+An3vohPWFsLs/spUvEfpFbvE/1Ir1Ww/TlP8v5hoSBoePDGd2X7j8nl65fw83eD/uaKRP/0T7WF60FXr45rgF8L0d+flf+HzKZQGZx0MVtVmO3/ntxSz4y7ByiYav/WIdvrv3NSJPftq7uipoZ+kMkNybcGQfWSdxGGHL7utRTTeS9JUpnlKmnLEsnHkiEYBZ5sJsyrRcPc95BwvE9dNmur5Em3j0viegyfouTPTdD1fc41PvFLq/wuzrth53PhpL/1FWJraWul7T5+lV00tTCxXNPKlf56ea3Sup9v0cQqfT6E0wGCb0hxhsH9ts8OWYGUTjT9ovaYc/+ziMh38P0vq/zP/lC3VimD8anOuYIjJy32yXuKw15fd8jZP8YV6m2sU0tThcZDKCarmKXNuHuGpHtEwtjhNE8/30mMPbafQffvpJT+BLFE0lL23SK+ef56ePvgQba+/j9penFfrXWkKIBqZpqp8Vuh88qQBBrsrzHb+zm8pZsddgpVNNP7sRFI5fvm2lIiC/JdaxfC/pOjFi7fyCoaY7CPbJA7vtvKa6Qg3bfcZK9ARLk5uz9OWM1LOtQpFg53rK1Iaz4RdpBf2eNLumIq3SPOU3czmOg921GfcJfvrz+/JpCO4aNykV1rDFGr9kbtJyUlTwfMpnAZnHQy2qcwRBvvXNjtsCVY20fjb0RvK8e984h217AjHb/zVW/TrbPkEQ6zxe++o7RKH3/Zy2g12zF+o/xL93RnTwVpkyK10uNY0nqAprmncWPwpPb1HmqnKJBpKkPbQC1f4WFLrWZVocC2KS9uPOaVt1ekc5tK3jzCrePN3hIt4heofoRek/+DmIk31PKRGMDmi8VJzWO37plwvLu3/+DDXAsy7KsFFg5d/etwMf9ZpviGjpT7/CL0kYlDwfAqnwTkWDFbVZjt/7+9azIm3RCubaDhNTFKjeDOpE+wIRyHBkLBOLeQXG/QNquvne+mrzst94fvokaPP53+5zwztlCG0oe0P0d+/+BS1WU1c6yoad/hY+7+g0rXn2cXViQbbDfulxfCD9NXen/p3DKt4PUNuj/5IO2AVJklTJ75khg3z9TlxnM/ZOo+3p+k5Z7ir7PtIb2YY8apEg+36+RP0yJ/q/iJ1fc9m3yYveD4F0gCDbUpzhCHf7zpZ2URD7PPd+ntSjzzzbmadiEU+wRCTsLKP7Ou3HQaDwTalFXP68luKSRzrYGUVDfmWlDRFSc1hfPaWbxjbzr+m+zpkn5/O42OFMBgMVtQcQfD7tc0JX6KVVTTE/v5l3an9e/vfoqk3ln3DiP3sl8sqjITtOevz7gAMBoNtJbOdv/Nbitlxl2BlFw2xloRucvqdlqtq9JR3u7wRLtskjIT1bofBYDBYEXOEwf61zQ5bglVENJZvuzvBH332XdV0dernt9S0r876bxTo64DBYLAtZbbzd35LMTvuEqwiouHYSz+7RX/0df3Sn22ybmSqeJ8HDAaDwfKYIwz2r2122BKsoqIhdvO9O/TE2E36r49dVyb/ZZ1fWBgMBtuyZjt/7+9azIm3RKu4aMBgMBisDOYIQ77fdTKIBgwGg1WDFXP68luKSRzrYBANGAwGu5vNEQS/X9uc8CUaRAMGg8Gq0Wzn7/yWYnbcJRhEAwaDwTaDOcJg/9pmhy3BIBowGAxWjWY7f+e3FLPjLsEgGjAYDLYZzBEG+9c2O2wJBtGAwWCwajTb+Xt/12JOvCUaRAMGg8E2gznCkO93nUyJBgEAAAABgGgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEJiyicaLU3foM0ev08e/8lZgu6ftOv2Q97v7mKSu2jgNLZpFLxc6qWbXICXN4lpJJuKB41Fhj02apVWyOEjNhc4HALBlKZto/MdD13yFoZj9+l+9RT9f+MDEsoHMD1BjbYR6L5rlgkA0AABbg7KJhiMCq2FX35La59NHrlN6xazcIGa6IxSNRCh0+Cylzbr8QDQAAFuDqhKNm7c/ok99TddQDj1/06zdAFamqTcSo8SFYdpX20Zjy2Z9hhTN9MRpe30d1YRj1JHooSO2k01NU3+cBae2jrY90EZDPQcKOPsUzSXaqDESppraMG2PtdGZK2aTB69opC8NUkdMHyfE6e04mfXyKuzRATrTGqNtvF2l09ouLJxup2bnuPEemloyGyAaAIA8VJVoCP889z796ya9r/zfCNIvt1FIOec0TRwO075ht7tPnWyhUJTF5ArXQdJJmumNs+N2nGySzuwNU8PhU7SgNk9TIs6OOY9opEYPcFydNGE2LgxwXLEBWtCLLlyisXSKjtRHqeuc2XF+gJrrWejm9aIKWxuljtFFrrWlKXmukxpqs9vT4+0UdY67wufAIpiJG6IBAMhD1YmGcGQ4pfaVWofUPiqLRygudlPU5cQXaWhXnVtIVsazzVPK4TbRiLWZ2EHnrWkspyhl12SMwx65ZpYtXKLBQpBashvOdLqaB/VRdE1jXP3XpGmstY6i3dP8X4ftOG3tv3yWOpzjQjQAAHmoStH44EOi+o631f5/8aTTZlIhksO0r76NJhxH7jRVmRK67r+IUK/43gxWn4b0X0S6aUZv0BTq01hJ0UymearOmL/DdokGk7Kap5x9mxN6RxXW06exMLDTrJP0ZvfJmi18EA0AQC5VLxpf7qusaOhmnVyHGj3uqMT6ioY6nmomMqX+Ag7bJRoqnG6e0oMGTE0jsGh4z8ECogEAyENVN0/9/sFKN0/NUyIWpq4LZtHhch/FRAgs57xezVNTx7KOXnFlgHYHEY0cIeJ07fCIRt7mKTnPOmrsz1SfNM6INYgGACAPVd0RPvZahTvCp7spWt9JUznDfdnJNoSp42VdG/B2hE917yzQET5JvTvyd4TP9UR5Ww/NcE1DdZo3STNVANG41EMNHK5/mmsay0ma6W9So6RcolGgI1ydQ32cEpdSenm6j5ofYGGUU4RoAADyUFWisdFDbmeO538vY663gWr2nzLb1nHI7cpiZlhsKBKn3tEBjquBEpfNdguXaDALJ9uoMcxpqI9Q8/FTlNhfR7FerQq6puEectt12p2CheFsX4pKpxEQiAYAIB9VJRrV9HIfAACAXMomGk6NYbVWNZ8RAQAAkEPZREM+WPjpVX6w8I/artPwxbvxg4UAALA1KJtoAAAA2HxANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAC7S779P7y7dpMW3rtP8Gwv02uU3aOa1OdgWMrnncu8lD0hekDwBgANEAyhu3EzRL68s0uW5X9LVa2/z8i26cydNKx9+aEKArYLcc7n3kgckL0iekLwheQQAiMYWJ3XrPVWqvLJwlW7xfwD8kLwheUTyiuQZsHWBaGxhpBQ598abEAsQGMkrkmck74CtCURjC/LBByuquQEPPlgrknckD0leAlsLiMYWQx5yaWJIvrNk1gCwNiQPSV6CcGwtIBpbDCkdQjDAeiF5SfIU2DpANLYQ0qSAJimw3iBfbS0gGlsEGfEiHZgAlAPJWxhVtTWAaGwRpO0Zo6RAuZC8JXkMbH4gGlsAeSlLxtgDUE4kj+EFwM0PRGMLIB2V5axl9I4t056nb9Av38Hb41sZyWPoFN/8QDQ2OfLdIPkMRDn46COipoEb9PGvvKXsPxy8Rq+/vdrhlymaS7RRYyRMNbV1tO3eJuodT5ptoHQWaWhXHdUcm9SL093UUBumQyfLc40lr+FbVZsbiMYmRz44V46RLSIYu59aygiGYzv+4V0TIhipky0UYifWeHSQxs6dosTBBl6O0onJtAlR7UxSF4tdc6JaS9he0eihWH2Yjowa0bjQyWIdp6F1Sr7kNclzYPMC0djkyJdK5cNz64ktGL/96FWXaHz7zOqawaaOsUPbMUDZLtQkzYxO0sLdohl3m2h4WWfRkLwmeQ5sXiAamxwZ0SJfLF0vRDC+/D0tGImJ2/SPs2n6lSYtGI88e8OECs5Cf4ydVpQ6RhcpndOy5efwPE56JUVTfS3UGOZwXGPZHmuj3qM7+X8nTekQfBFOUVc8wjUYDhOO0r6ebjricvSFm8jSlwapI2btf3yckpJW5XDluI75O9/keDftu1fH7dqfUaK5q4dGeuK0vV7i4FpX6yDN5etPTs3SUGssE7bh4W6auGa2CUt6+zZ1rBh1JCZppJX/O9dwcZCaeVvXBXPsTNrZdg2yZJeG5DWMotrcQDQ2OTI3wnp93nyFo3EEo//8slo3OHlbicZaBEOxkqSxo9IkxU5LHGr7MM1kXlgvLhoz3VHlPHe36+atIRYMFZcjGslTdIgdbOj+FuofHqeJ4R7aF9VO0oljIRGnUH0DdQ3PUnJpkWYSB6gh00Q2Tb2ROoq2DtPcYooWLvRQc2Qn9U+yV0/O0sS5PtrHccU43RPnuIakL0uWpXHqur+BjvTztiXe/1wnNXJ6Grqn1WbHcYd2tNPQ6DiLRxMfu44a++fVdhcrfD3iYT6XdhqZXaTU4jQN7efzj/K5ynFXOK1ybuGd1JU4RROjg9S1g8OLwPiIRmqWr0dvEx+fz32I/0+ycOtQa0bymuQ5sHmBaGxyZFKd9eADFowvfvfdHMFYaw0jB3HAiXZ2yFwiZwd+4oIUtYuIxvJZ6mCH2NhrO9gUTRyNZERD1WTq22jMLrlfGVCOU8WxwvFxHLGeWbNRSNOYlM5bz/K/eUrE2KnHe2hqPuVTGwrYPJVOUYpFI8VeeeIox21K9Vo0DljpS9GZvbwu7lPq55pNiB18/yWzLMg14ON3nE5T+uU23h6jxGWzTRAhYdHzEw3FOjdPCeuV50B1AtHY5KzHAyyC8ef/WwvGP5zTgjFwYZ0EY4WdnV28ldK0CIVymkVEw+sADUmuOTiioZt/vA44Nw5XM41jzn6pWRo53kK775cmKm/zURHR4PMZ2WuatpSZkr8tGp70+afZOS8nHrfJ8e3ztlHxQTTAOgHR2OSU2jz1Ppes8wnGw98vtYahS8EhVaLPki2JG9GwtyeHVXOQctKmlF2opjHX21C4pmFqK/uG3S46eXmWUqZWkbxwimaczelp6m/gNHc6QlZYNJKD4sjjXPo3Z7DCNQmpxaxBNHRNoolG7A0rSZqb1SuqoaaB5qnND0Rjk1NKR7gIxuf/1ztKIE78WI+K6ntlOSMY0ileKuJUpfQe29tDI+fGuUS/U3XiOkIw0y0CIJ3XwzQxOkBH7tcdyo6T9vZp6CG77CTz9ml0027VaZ6NY65f+kGsfpF2SUOYmgd5e0qLSuj+A5QYHaexRLvqk4iaPgkRjROyfUcnp3+YpmyHzciQYt3RP0+ppUWaG26nGIdfi2jQyjwldvD5230WO6U5L04jcipOn0a9u09D1UbyicakNHlx7amTr+/wpDWKbW2gI3zzA9HY5JQy5PYv+/WLe+USDIfkuezoolBERvxkS/nOaCE9GkiLRz/XPjIle8/oKWk6GuvxNNNYo6dCkTj1jg97agcp5cxVf4oJ08VOPoM9+qo+Qs3tp2jB6ttIvcxCYo7fe9GsdOCawMTx7Miohod7qHc//1+LaAjSVNaejW97vJ3G7IqWPXqK09rYKoMD+H8+0eCjTLQ717c7p2lrtWDI7eYHorHJKeXlvnuPJ+lzf6NdV8/Z98oiGCWTXqSZS273OnOcaycNfeS0rKdmp2nBbp4yTVzSeQzWF7zct/mBaGxySvmMiIjG7+67SpG/TSrBeOjJpeoSDErTVKdpnjouQ149TUuClKyl+cg0L8mQ20PSxOUMUwXrCj4jsvmBaGwB1vrBwv2DN5VwiO37wU36sKoEw+A0T9lNS8Ozro511bz0cFQ3wbCgNLb0uF+IA+sCPli4NYBobAHwaXRQCfBp9K0BRGOLICNayvl5dLC1kbyFUVNbA4jGFgHTvYJyguletw4QjS2EjGwpx2fSwdYG+WprAdHYYkhHZfKdzBcBASgJyUvo/N5aQDS2GB98sKLaniEcoFQkD0lekjwFtg4QjS2IPORSOkSTAlgrknckD0Ewth4QjS2MPPjSgYlRVSAoklckz6DAsXWBaGxxZMSLNDHIGHuIB8iH5A3JI5JXMEpqawPRAAp5KUuaG+QzEFKKlA/PyRdL12vWP3D3IPdc7r3kAckLkickb+DFPSBANIAL+W6QfHBOvlQqpUqZG0Em1YFtHZN7Lvde8oDkBXxLCthANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwSjT8pnyEwWAwGMxrqGkAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIzI3ULfr/L2NDgxwdpVUAAAAASUVORK5CYII=</x:t>
   </x:si>
   <x:si>
     <x:t>110045</x:t>
@@ -220,7 +244,7 @@
     <x:t xml:space="preserve">       Wz-329, near Lajwanti, Nangal Raya, Chowk, New Delhi, Delhi 110046      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADteSURBVHhe7Z39c1zXed/7Z3ictE2TTOP+4nYaJ1VnYA8KuCi3cbkTDbfhaGuN1uWIMOVVIxoIJSI0ScGgSRkB5C1go3QNBzIkRLBWQYkhLEKASYkBDAXGWiEChwJsCrApQCK1FsglQS4J6tvznHvv7rn7gr3AYhdv38/MM7v3npd77ss+3/N2z/4zlJATZxP45Fffx3M/Sth7gF/Fl3H6jdtofi2hvzvItsSVNBtHAhcOVeNkYxOqGi8iae/FQh/qg01oOeDD6Zi9T1heQH/Yh2Aklo6bkyn0BIPouWRvCstjaKsMInrF2U5gojWAYOsYEunLkocERht9aBiI29v5iKljhNG/YG8q4tEwKg70QVIm31TnWdOEiSUrTJM6tjq3A9VoG7c3hbFmVFRGMCnf5Zo433Nipa+PGgc3mGzNCLvaiyeNskp4RatzsZPqfKvRcPgwdjn7rnQjdEDdE3VdU9cwR5kmTqXz0eeeylOQ62Oc43gkfX6ajPB8ZKVLYjISUNc5rMqTTr/yOa98rxCLoMrfgWnj2XCFSxmc7xp1/felj+e+nm5c+QiJi2ip8aty2091gbyF6Q4/AocOo94so4d0OVmS4/vQ8mbGr0ruuXONctxr8xwnW30ItE/p7w7T7X5Upa6Bx2fKvC9LMZwOBNR1Keyjsq6pOvdB5SsC6plInQPmEA1Vo7ZnTsdIYdzj5PkmVNQdxnGfOle9X6UJhtHSGESoKyNdGfjz+sMoqWj8fP6+FoJPH72GpHEhMrmnwiSOxJU0G8l8737lAKpx/Jz5YMiNUg9kZRNGDQc7rx6MqoC6mabTzUkSEyd8qAr3YlZ+B8txTHdJWucHllAPeUCF92F+heskJBdmMBrZj117O9M/zivDOB0Zxry9maaAI1qeQlegGsETw9D6nVzA6IkgjmsxUgJ6RD3kjSrfpSSSc8No2+tbN9GY7RSnqs4hrvKOTyFaJ3mny5rp5HS51X1pOe84ElV2v4ojTsreg8VhnFTOruXcHJKqzPNDzQjVpPPReRh5ZomCduJ1GLymyqQPY4are9QTQTSWw2FkiYZCOxh5ZtL5r3zOXu6VD/VdU4irwsn9aJH8nfDLnQiq9D1TcXXu6vnqqcMudew1iYZC7wt1Y1aeiwJ5a6Y6EFD70k5ZUSDd/LkITqt7lQvrt3UU/ZJWlSG5oK6XVNBU/vrWFBANEYDamjCiKr2QGO9AbWXIEAOPz1TGfUmqilPA34wJeQwWY4hGejG5aIWZ5LqmuszyPBr5Jc4dVhU3Vc7L1nOVmOpG/aPq+E6R9HmqNEYlVgS6otIP9SiUnZKLhvAn34prMfibv8/vWb/75m0d578+77rEG4N++N0/XkHfKNdDYDlFeejclseRLs9htDmM3fqhUQ//Ux2YuGaHOQ9GDkvXci0HVuUP4XjnmOXkHcRp1eQ6bgFHJKgHv+epgP4xVyiHW99u5J1QLaSwqp2psF2PNqG/P6JqSbZwehSN7HOyy6NaaRcaQ/q4Vf4wuoZ6cdJoeWU5OV3LPIwLxg9UapMuJ6VIXupUtV1xxj7UNvZhMBJM/eD0ubvim6IgqDIdC+rzre+TK2SG2yKo92eQSzQUSbU/aOa/4jl7uFdXlVA8ap3b7nAH+lXlwQyfP9eEWp+6bvo+DiN6pDpVG12taDgVirSDz5+3hYr/BZ9xLS0KlalKtdLzIaLf8LCcb47nvpBoKBKxzlT6XY8ezhZ8T89U5n2xWvm6J0KXIawqGXaQQc5rqtBimHGf5wfUNdLPrP07swXEwqqwuiqx6rmqkt+76QPKRFlEY+jnd7UgPNR0HXdzNCJ+c+tj/EHDBzqOxCWrJzFQh4pDw+px3j6s5OQ2BHGi/o2p3aXIcBKzXUoQN8s1Ege6KkcWx2BdZot+i3FJVTBdrZLtT1lEQ/hvEau1cXIg+wGpfWFRh31BtUjIWojjwpHD6L9qb251xOnIWJFyKE/2GtWxDSY5pWqtBceuSkhSidbedHdL8kqvctLGuMNGsZxEYnFBj8dljiGsSHwYJw8V7o7dvCQx/d06nPYwvrGdKJto/PL6Mv55/fvaJq+mmxsDl6xWiOyXOITgmjT5pZnegcmd9XssSPJyH1pCVnehdNe0DJR/IDQL537t78Q079e2p2yiIbQM3tIC8dlT1/XAVvzWx/g3f2l1S/2VCiOEELK5KatoPPgY+NN2q5vqq703EPr+R/q7vy2uwwghhGxuyioawvs3HuBT9qC3mHyXfYQQQjY/ZRcNwZlNJcbZUoQQsnXYENEQZAyD4xiEELK12DDRIIQQsvWgaKwz7rdAs9/wdSFLiYzMuN/sLgnut57lpbl8S3vI267zsRjmOXWSEJIDioaLzGUvZKmPZgy6XulfmVWJxrUBNNQE0HPZ3s6DzjNVpmrsergObQMzq3jJbDWiMYUunw8nh/KcczKO2dgAoo11CPlzLCGyNIfpoT6cPrwfwbrsJRTiYx32Eh/WefRcch+nUHgK/fZx7vOIj3SgYa+8y7DCtSeErAmKhgt7bSHHES0tYHYoglrl2L2saimsSjQ84spzOYn4zDBO7zMWbivIakRjJeT6+FB7uAP9HXXKsWeKhjqOrC/U2I1oczB73Z25XtSq69HjLMw2EkGw5mh63Z9C4SniuHDIEhb3eSQx2R7E7v0dGJ1ZQGKDX5QmZDtC0XCRIRo2ehXK1Gq0FvPnm1OL4u0Od6ZWucwlGtGRAWOROeOtWXuxs0Ki4s7TJj6M40rMzHWQkpe6cVwfR96mbsJg6mXhHKLRM4ZBY+G8dI3eHTcL5xrkWaDPCc9VZr1OkrncvFzvfekVRguFO8hS0bvCEbRl3isRnYz7RAhZXygaLnKLhl7b31h9VS+NHIhgQjyijEt0ph1ktmgopxzuxrTsWJpBVOUf6LA9fTGioVyr/BdAapXRq7IOkcrrinKwqjUiK4sGpPtILyycLRoVzpLRKu5sj8o/tehaAdFwyCcaNrnKLMfNXEtK/uvCud6FwjVLqnx+Wd46+17JkvbBU53oslfldYshIWQ9oGi4yCMaLkdqxXHVfrWoWMsjZ4uG+WcudnjYDi9KNGznb69wKss5u5epluWUnT+MyhYNV1y7HNbyzqUVjcxra+4rFC5MdwQQ1KKbfa8krimGWjhrDuNC5oUjhKwZioYLL6JhfZcuILdZzj9bNNyi4ApfN9Gwyp1dJneZTdFwnaOrHJtYNORPdZw/v8m6V3EMhjP/3yHH/xAQQoqCouEij2i4uqfEqeb/T4XyiYbZPWWVO79z3DyisfbuKTlHnzpHJ8fMe2Vdj8x7l0uICCFrh6LhIrdouAfCVe11hf/0LZtouAbC7b+SPWEOIitSA8KbQzSKGgiX/8dW5crVmnKOo/9ZMUd6tjQIWT8oGi4yRGNpAdPRowhlTLld6T991ywaXv9rWKbcTvXh5N6MKbdTHQhWBtAyZB0sKX8Lutfpz98copE5pTY+1IRgTRMmnH8BLhTuIofAy3moe6WvQWpMI196QshaoGi4sBxRuhab/+W+fP/pu2bRsL/n/a/hVJnyv9xn/h+y/v/pMcdlbxLRULhe3sv6L+TC4WlyiIZC/0mRMe04f3pCyFqgaGwWduB/DRNCth4UjU3BzvyvYULI1oOiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDimbKJxt37wN/G7uDJlxbx+eYP8XvPfIBPNXygv8u+vp/dwb1lOzIhhJBNSVlEY/ifkvijr1/DJ7/6/or2UNN1XLictFMRQgjZbJRcNFoGb6VE4TPPXsOzZ25i9Bf3sLj0sbaRXyT1Pglz4j3/+i07NSGEkM1ESUWjVTl/EYHff+YDnL10Fx9/bAfkQMIkjsSVNN8aonCsB/FoGBUH+hC3twkhpBhKJhpvvJPUzv93/uJ9/ON79+29aZxWRSaTKq6kkTDJYyO4+84ZHGv+E3z62EP4xLN/ggMvnMN0wg7cbCwvYKK9DkFfNSoqq7Hr4Tp0jaUlYjOLRnykAw17/aiqDKN/wd6p0GVW55I2H3aHmtB/2bkJC+g/oPbXNGFiyd7lYg7RkKSLYNLeQwhZH0oiGjLo/Yd2d1PXaM5fdV7REF5QaSRM8rhzz95ZLqa+jy8c24tnBt7BBx8lcGPhHURP78WnW36IuQd2nE3DAgbDPlSFuzG9oAR2OYn4VDfqawJoG7cc7OYUjSQm24PYvb8DozMLSGTUDbLKnExgfqgJwcoQoldkhy0aSlAaBnKc2VwvarXYUDQIWW9KIho//Okd7fQ/03gND/J0Sa0kGpLGGTh/ReVVPhI42/YQgn3v2ts2D97Bd048hGd+bNd03zuDLx2LIPrjbyL4rGqNHPs8gi+M4IYhKncnf4hnmj+vwh7CHzd/E2dTWU7i+WMH8eJb51RrRsI/h89GXsTkGloyyTebUKVq26MZaWe7gimnm+WAl+cw2hzG7hqpqftR33wR8+astavDaAlJ7b8aVf4QWgbm7ACL+fPNqPf7rNp/uBOTi3aAInmpEw0PS5jV4umJ5TkpceqBDkznmS2XW+iSGG2sRqBjSn23RKOhrg4VoV7MWxFSTLf7EVBhT5ZINJaWlrQVwms8QrYSJRGN/S8saoe/0rjESqIhSFoJr1V5lY2PzuOZY4/ixV/a2waTvQ/jE389bm1o0fgcDvS9gxtK0+7+egTfOKnE5sx7VvivVfizBxH9papCP0jigze+ic+fiGBc65+IxkP4dOSHmBSvmHgXLz7/ED7f+44ErorpDj8qGi8qd5pBfAYTIzNKAjMdcEI5Xh+CRwYwK4mSc+iXlkoqjxn0BHyo751DUjn05JVe1Wrxo+uSDkRyrBmBQAQTktlyHNOdRt6LwzgpLZwR+0gjEdUyqMOgtelivnc/gqc60RV2xCmMnktpgfEqGm3nL6KlJmi3PmyWZJ9qkbzZh/oSicZ3vvMdtLa2rigIEiZxxAjZTpRENCq+cV07/Eu/zh7LcCgkGpNX7+twyatsaDFQzt72/SYfDBzEJ54/gw9kw25pjBstixtDT+MTz/0QUi8ff+Fz2ONqrShheO5zeP4f5LuIhluYdN6Rc1beq2CyVbUWWmP2Vm5cDnhBHGmGI48PoCE1phBDW2UQPZd1iCKJ+diYuhciKZajbjlvSJQ4aJV28Jr6rvM+arR64pgdGcNsDtHQ5a4JIzqlApfVMc41IVBzGBfsuLlEIzHVqfL3o208XZbj55RwSauiXYTEIjGgWh91A0jo8pRGNN577z0cOXIkr3A4glFfX4/xcbuiQcg2oSSi8btPW4Jw807+6VKFREPSSrjkVTZWKxo6xEZaF3rfh4iqloN0S2Xa8xMS0eqeMo/hyttFEhOnfNh1aiy7NaFYtWiMR1AR7MasDnGYQpdf1dr1ySQx3bUfu6TbqrET/dJaSXUhiaDIOEGmOYKzgAvHgqjyhXC8uRuDUwu6tZJNHIPhaoS6zG6vOUSDIgKW4ugyZxzH3VVmiUZ9VB1YurpSA+J2t5WMc5RQNIR8wkHBINudkoiGvO3tVTSk++nW3ex4jmjIFNyysaruqQzR+OUPsccQjdT4RxbrJxp5u6dU7T2xaO0tLBoxnK5xRMMmPoPJgW60SPdR4CgupFohfnSlK/U5SV6dwmi0A8cf9aFqXyemsyriVjeTdvgGIoDOvlwtDTeGaIgI1dlCYQpILIKqEg+EZwoHBYPsBEoiGv/xhNU9JV1M+eiL3cG/PmyJiwx6/+xX7mlSMvVWwsraPZV3IPxdvNicPRBuuoW7I9+0u6eSuNj5OXy6cxx37TBNqitrNaKxMs5AeOa007wD4YW6p4yxEAvLIVvO2ZrGWtvjHhiH3ZpIXo1hIqZaF9am2m+2YNxki50SgX0ZLQ3PoqGOfb4JFaFu9JtdVSKQJRYNwRQOCgbZCZRENL78A2sgPFLgBb35xQfYHYnruL9d9z6e+1ECy7ZzlbSy/8vdZRwIF/JMuf3Eye9j0nH8WjTsgXDxfPFxPH/yIXxp4EMr3M7jGxetbT1Q/tzXcFbr3/qJhryjIQPZwSN9mI6rghSccmsPhJ8YxryUOzmHwUOqNeE48Pgwjqu0LUOWM0b8Itr8PpwcsvJKnDusRCqMqP2+REKO9WgHpiXxVAeCRpgeRK8MGOMjBiJeznFSYxpp8VutaFiD39KNFULU0bQyiYbgCAcFg+wESiIa5pTb+8ZgcS5kem37j2/hX9S/j12tH+p3PCSNpJU8yjvl1qLgy31aNJrQOZCecvull8ZdU25v/MOLOHji83os49NfP4jvjNuCsp6iIegptM7LffIS3GH0rPRyn4o/2BgyptwqATHGHpKX+1JTbitkfKJ7ymgRKKEfaEKtnnJbjV2Pmi/cqWONdaSm3MqMqLbztlPPgT7Oo3nyWa1oKGRAXA+A29vlFA1BhIOCQXYCJRENcfzOWlL5Xu7LRLqj4ressQ1JI2nl5T7Ja9ORa0yDEEJ2ACURDUFWqxXHL0uCrDT1NhOJu9HLiBSEokEI2aGUTDQEWa1WnL/MgPrRZOEFCyXOlliwkKJBCNmhlFQ0hMyl0Y+fuYmf/PKe7ooSy7U0uqQhhBCy+Si5aAhe/4RJ4vBPmAghZPNSFtEQZEBb3s1w/u71Dxqy/+51Uw56E0IISVE20SCEELL1oWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM/cSNyiaBBCCPEGRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeKZsonH3PtD3szt48qVFfL75Q/zeMx/gDxo+QLX6LvskTOIQQgjZvJRFNH78T0n80dev4ZNffX9FkzgSlxBCyOak5KLx/Ou3cgpEpkmLw/kuaQghhGw+SioaXgXjj79+HcsPgO++eRu/8xfWvq0nHAnMx2KYT9ibwtVhtDzqQ0VlNdrG1fa1MXSF/ahS2xW+ABqic1Y8QgjZIpRMNN54J5klDrms8rkPcW7qrp0KOPePd/FbdVaY5LF1mEKXz4eTQ45qxDEYrkawdQyJZbW5nMCFQ9UINA5jfjGBxOIcZudMhdmJLKD/QDXqowv2NiFks1MS0bhzD/jDZ/OPYYgorET7eauFInlIXluTGE7X2C0MTeY2oWgQsvUoiWi88tM7WUJhWiHRkK6qz9iiI3mVFelSClldSFX+EFoG0l1Ik63KwXUOoMfuYqryH0b0stNaiKHN6YZa6EO9dEHlswN9qh1ixFfEo2FUnBrGZGcYu5W4VPjUsc+ZzjSBaTMs2o0WU4Sk6+upAHZJ/tL11TkFs50WH+tAvd/qKtv1aBP6U+VWJGbQ3xiy0tb4Ud8+hri0jmzmh5rttD7sDjdj9KodoNDXxHT6+tzD6Ne75BzDiI4M2N10kr4T03LozGukr4lieQEXVFn0eaqy1DYOYN4oi5sEZqNNqPVJHpJ3Byau2UGKRKwbx+3uwV2Pqnt1KX3O1vXu1ceyrpl1vROXOo1ztctKCElREtGofWExSyhM+89/9aEdMz+df3dbx5W8yscMegI+1PfOIakcVfJKL+qV4+q6ZIWKg6wINGF0Trnj5Timu8KoqmnCxJKEukVgtdvaiVUG0DK0oI6dRPzNZgQqD+OCffqJc4e1SA3OJJFM2sdOpXeXG4tjaFPbLW9aspGMRRCsUY78irUdH2pS2065FzAY9qW70RZnEFXbtT2WWCbPN6EqcBSDklaVa7bXOudR25kWFg0lruFuTIsiLKm8Vcsi0DElgYrslsZsZ0DF78WsFDU5h35VlkC7E99NvE+VJRDBhOS9rERVrkmoF/MSeKUbtTX70TWupQiJEXUNKkOIXtGb1vVW1yQ6FdfXe75fXd8aJRR16bLqY6fKSggRSiIaFd+4rh3+fkM8CrUuMvn7d+/pdJJX+RAnF0TPZXtT1dXnY2OYvGo5W3GQT/YaDnJ5Cl3+arScl/DViUTmtnZijReN1oGE+3A6Jt9zdeMY6ZXTSywmLMGwkbJWRSRxEqON1Qh1mYPucUx2R3BBHKhyrqFKJQJaQGxmBnC6J6bq8dZxGwYsx2sRx2BduiyFRSOYctSCPs+w3arIcV6SX6hzxt5Spb8aw0RMCam9nWYO0aBz7W2WZ3Ah0otJJbSTrdliM92uWoit+oLaLY0x/V2zrIRWrqexS8dxWkCEEE1JRON3n7aEQsYjGl69uSbR+DDxQKeTvMpHUtVW92OXdNE0dqJ/ZMaqfdtkOUjFxCln38qiUGhbOyjboVmY4ZlphYx9C0b3lGM6P8sxm87QxXgEFfvs2nkWcgy30xemO/ypshYWDee7hdsRZ4tGcqobT/qka6gJPdExzOb12JL3fvQbXWVprHxdgqKQ1ppz7JWvtwVFg5BsSiIav//MB9rh37r7sd5+9owlHPnsP30zu7sqodJKmORVduIzmBzoRouMXQSO4oLt07JFw6rFb7hoLKnvfumemkm1NqSspRKNyYivZKKhWY5jNjaAaKOM4QRwcigjXCN5r040pDuLokFIcZS0e2r6/XQ1fSXhyNUK+aeF+zqsrN1TSiwmpHVhb6odK3fFuLpIMp3O6rZXdmLW9F13N5ERrh11BJNWgEZaQFZ+ubqn5J0Suxafq3vqmroOukvIcr6FuqdcXXZFiYYSixF36yIxUJfHcefqnopjeiSGeXUunrqnKBqErJqSiMaXu62xjC6XJ8ovHLlE43sXrYFwyatsxIdxXNVsZTDa2r6oa/DOuxe69i4D4TLG4QwK+5Wz1qeZ6XRWt13IiemBcHsQPmsgfHEYJ2v8aDk3h+RSUs92CsnsIzu/4gfCjXPuO4yAMRCuyx3qwKR41qU5jJ4IoMKzaFjiFojE1DlJ2eK4cEiV5cSwNXtLicDoKeXojwxbQn4thtERdY7yXVF4INwa6BYS4x2ozRwIp2gQsmpKIhrOlNvMWVIyldYUC8cyRePBx+nWSrmn3CYv96Wm3Mo0zOPd6amrulYd6U291V2196gxdXVlUSi0XdiJZU657cRJIzxpTBWtbezDYCToGlhPT7mV8YJmJT52gGBOudXnHHON5cwPNKE2X1qZInssaE9BVuXqaMaTqxANawxDHbfGbinZZdHnKedyuDs17TUxdBRVPiVQ1qbCPeVW4soguEMi1omGh6Xc9pTbmHOvKBqErJWSiIasVuu8Z/FCRmvj00fzv/T3X1o/xNu/up+abisv922mlW+zu6fKjOHIsXQRLRkOmRBCSk1JRENwlhH5bdWKkKVBHH40eRefPWm1InLZZxqv4V8dsr5vtmVENlI04v11CJ0YxrxckuU4JloDrAUTQspOyURD+NaQtRzIP69/HxH1/Z5dU87XTWWapN1sbGhLQ4SivQ5Buysm+FSnqyuGEELKQUlFQ2g1Vrr97KnrOHvpLpx3MPLZXw1yaXRCCNmMlFw0hAuXvf8Jk8QlhBCyOSmLaAiZf/cqf/UqJt/5d6+EELI1KJtoEEII2fpQNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHhmQ0Tj1fF7CHzrtjb5TgghZGtQdtGY/PUDVDXdcpnsI4QQsvkpu2j0jt3LEg3ZRwghZPPDlgYhhBDPcEyDEEKIZzZENAhZD+LRMCoO9CGut2Joqwyjf0FvZLMcx/TIDOLL9napWOhDvVGOydZq1EfzFSqB+VgM8wl7k5AtAEWjAPKjr2iN2VsmSUxGAqiojGBSb4vTUnFzWdhxbHZ+GeH5nUoBxiMqvXN8i8TlPrSE/KiSvGv8qG3sw2w+p6TTB3A6lrR3OFjn0jZub5aEBfQfMK+DD8GnmjF42bsHXZVoXBtAQ00APZft7TzoPFNlqsauh+vQNjCj7rZHViUaU+jy+XByiKpBtg4UjQLkFY2pDgS1Y3E7bTdxDNb50PKm43KSGG2sRkN0DonFRNo8e6QMMkQjGYuoMgXQMqTyV3kmE3MYPRFAlRKt+Vw1bJ1enUNA5bFk79OUTzRSDnVpAbNDEdQqx9427s2Jrko0POLKczmJ+MwwTu9TgqaeAU+3aVWiQcjWg6JRgJyisTyHaEjV0CNNK4uGCIu/A9Mph205yoLOWJx5yhmugEs0pEzVqO2a01spli6iRdXicx5Tpw+hVqULdkzZO4Vs0Uhe6sbxR31aZHY92oRB+zDTHapVY1yfxLnDqAh2Y9bexpVuhCqbMOoSJSFDNGwkfVXAuGbLCxhtDmN3jboPquVU3xlDwg7LJRrRkQG06HL6sDvciWlHfzKceT7cedrEh3FciVmXcYnyXY+cotEzhsHGEHapuFX+MHouOYUqhzgTsr6su2j8bHYZPaP39Gc+bt39GP2xe9rkez5kVpVMx93I2VW5REMcS1XjRSQzavpukpg44UNtj+nExUn4URu2HEiFL4SWaI6uj7WIxqJybJVBRK/oEIMk5mNjmLyao55sp59Qjr1WtVDSTjHDmV3tRX2NcoRXVB6q9j1/rgkBv906UXlUpUTCaklVGE5Ti8ihYWS3HXKLhiVyznkkMHHKr2r5Y5ZQxKfQY6TJFg3llMPdmJYdSzOIqrgBRwyLEQ37vEKOIK90PXKIRoWKG51SOaq4sz0qf6lI6FCKBtl6rKto/DDjHQzZzkREIth+OxXnf3x7KadwyKyqaiOvjZpllSUaUuv0HcYF8SoricZcL2prmjBh1rCTM6rG2YSuEat7an6oCUFVI053X9msRTQ8OkUXRvrZrhAqQsr5a613O7PJVl/aYWpUqybow2m5LNrJhzF4TX1fVunUObe1+nH8nCUTkjZ390we0TCPrc/J3UpJnletO3uMKFs03KKpw53xpKJEw/0crHg9coiGK64drq8XRYNsQdZVNPZ8Ky0GYrKdibQuzDhisi8TmY5rxpHtjcAtGglV41ROsNf2CCuIxnS7H4F2s8snNxKvQlot2plILT2HZbR0UqyjaGB5Cl0Bp3vLdGaWc89VLis8gQuHqtFyXgnfVAcC0qpQ+eqWmHamuVo/ggfR0OXLcWzbqWeLhvv8XeHrJhoFrkcO0XCdoyucokG2HusqGv894nb0sp3JVhYN6Y4KmP3tptM10X3gIUTNymgeUk5qOZkeGFctkIp93Zh2trPGA2zM4+ftnlLlTuQZbM8svx7cVw7t6liWaDgth1zIOVRFYqq1ErTiSeujRuUrDjLVFZNJHtEwu6ekfHnTZzr4UoqG2T1V4HpQNMg2Z11F4//99L7L0ct2JtIVJV1STpyVuqfMvMrRPTXdFUKow6zVW87C6hePYzCcXbt0zPzhz/eEUHVCatpuEm82I3RswOWQxNHqloa9rRFnmem4prpRG+zApDFUpLtqUk7VHgh3jaEoCg6Em6JnTyM+EFaOzTkna2wm63zMISsZ7A4exvGQ4wzluvnQ0ng0+9xS5BYN10C4dPFVZoivcdyyiYZrILzA9aBokG3Oug+E//y9B4j+/T39mQ8RCWldiOUSDIdyD4Qn32xClT1omZTpliPWFFZz1oyLLKerWFKOwO9H1yV728R2Pm0jlktKXpEBVY9jGrr27kO9KkxcRU/GVWsg4J71JC2hYM1+nB6ZU+VX256m3GaX/7TK1yWEugUiU3kt55e8OoyWvfa4jqDHMlQaY9aUHgBXeeRvoWSIxtICpqNHEXJNuY3jwiHloGVwe1Ftygt6XWHUqnOWK7Zm0ViMIRrpxaTkmYErjTwDU304uTdjyu1K14OiQbY56y4aW535gSbU+q2plDI9smvM8Yw5yOF0EwN1qAj1Yt7eziQpL9/ZUzWr/CG0DOTow4rPYCK2kF1DnxtwvbhX3z6W9YZzItatavx2HF8ADc0DBV7uyxANhRafDGeWiHWi4eF818VskdlkOM9sLNGQ/CzL83Lf8pyerqqn3Ko45suKaxYN+7s1GO1Gp0mVKf/LfXmvB0WDbHMoGmTncakDgRXGSggh+aFokB1GEtPfrcNpj2+dE0LcUDQIIYR4ZkNEQ2ZCyRRasY16aY8QQsjqKbtoyEwocyqt2EYuE0IIIcQ7ZRcN/t0rIYRsXdjSIIQQ4hmOaRBCCPHMhogGIYSQrQlFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghntGicefuXdBoNBptE9mdO9mfxZiZdxFG0aDRaLTtYI4wmJ+mmXGLMIoGjUajbUYznX/m51rMybdIo2jQaDTadjBHGPJ9rpNRNGg0Gm0zWCGnL5/FmOSxDkbRoNFotK1sjiDk+jTNiV+kUTRoNBptM5rp/J3PYszMuwijaNBoNNp2MEcYzE/TzLhFGEWDRqPRNqOZzt/5LMbMvIuwsojGiz9J4FN/eQ2f/Or7nuyPv34NZ2I3c+ZFo9FotBzmCIP5aZoZtwgri2iICOQSh5VMRCZXXjQajbYjzHT+mZ9rMSffIq0souEIQa6wXLba+DQajbbjzRGGfJ/rZGUVjdVarrxoNBptW1ohpy+fxZjksQ5G0dhQm8OrtdV4fjRX2Ha1t/B85RN4dS5XGI1GW7U5gpDr0zQnfpHG7qlM+3AKrx57DLtrqlFR6cPux57Gy2/Fc8ct2lYSDSvs4MtzOcK2slE0aDRPZjp/57MYM/MuwsoiGqu1jRONOZx9wodHGl/Dux/exJ3bN/He2104WLMH336rFLO5KBo0Gm2dzBEG89M0M24RVhbRODWwiFNnF3OG5bINE42rr+Bg5eN49Yp7/2RkNypOXExtv/v6KRzc7bNaIk+cxsQ1O+6cpD+F1986nQp//JgSoNvpvN4924jHfaoVU7MbByMv4dv/M4do6HykpWNb7St4z0n/mnnsU3gjo6yWWYLzePdMet/lLjxWeRBnF6ztlfKZaM4QK10ex9FbTv8HL7fr88gWNTv8TPoa7K5/Ce986A5/+cIZPPfF9DWcTIUru/YWXn76MeySc/c9hq91vY0bTpiHa3xjogtf03lXY9cXG3F2Jh1Go20ZM52/81mMmXkXYSUXjdi7t1Ii4FU4Nkw0br+N7+1WjvD0FK4bTsi0GxdPYc+eVvxEnO/tBUyefiLt1G1nr1sqN1XchR/jeZXf187a3Vtvt+ORGuUw317QrZh3X2vEIyq+15bGjdcbUbXnCM5etlpB77z0BKpqGvGG6XBte+9lo1zO9sEzuK6+F8qnsGhUo0rEciaO6+o8U/G0WeH6Gnykthfexsuq9VbV+GPb8TvpuzAp1/CjKbysznNP29tW+tszePkxJQRtb1n3YOEint+jBLDTFsBC1/jKS6plqMpqn5uI9J7drZiQsujj02jb1BxhMD9NM+MWYWVpafxg9OaqhGPDREPZjUuvoOnPVC1VarinuvDGlHLwqXDLkT/3utFV9dGP8ZxyqGevqu/aoSnnazgoccBVrW/Z333YE7GdozaVX66WhhPmEg1r++kzZnkWcPZgrtq+soUzeDrl6K14VtrC+RQWjUfw8mUnbaZJeEZrbaIde1LXJTu9FrQnbIEbbUXV7nZMmqIt6WuU45d9Hq7xY47AaFMi9IgP334rHZ9G2xJmOv/Mz7WYk2+RVhLRcJx+PiskHE68XGFlMamhvn0GLx97Qg+I73rc6T6xasmpbqOU2Q5VOzTl3Iy8xKFVNItDs5x1qkaszdrnTTRyO+vJtt12/u79LqG49hq+luqaKpxPYdFwvueyHOG3VWthhfRmq0h/P+a0SmzT5bfTeLjG2fcn3zWm0baROcKQ73OdbENE4+RmFw3TpLtEOSKr+0Qc3m587+0c8cQ2QDQmWlWrKKdo3MX1MwdRUf8a3nu9MdU15SWfdRcNuzWWL31B0dBjTXaaVV9jGm2LWCGnL5/FmOSxDlaW7ilZe8qrYIhtlGhIX39FZteIsndfetzuPpH+9owBZjEn/ooOTb6XsXtKzG5hfK3eZ6QrnI+U+SsvraNo6EF4s3sqv2h4657Kd41v4ieN5viJbRn3k0bbVuYIQq5P05z4RVrpB8Kv3F6VYIhtlGjc+egtfHuPD4+3XjSm3L6CJrXv4CuWE71+9mlUyWD2Jas2e12m5H5ROTkZEC4gGpkD4e+cObLCQPhd/OSEauG0voUbN60xFGsAWznfK/YA9itPK2eqtnMMhFsWx+v16vgZTrpQPtqJP9aOCT1QPYM3GvcYeXgRjfRA9Z2bM3j1CSWW6hqkB8JXEA17IPxg59v2QPhb+N4XMwfCC1zjyj147jXrft248hqe+7On8bo9a4xG2zJmOn/nsxgz8y7CytLSODmw6FkwxDZMNMSuTeHsqYN4RKbFKue3608fx3MvT7lqru+eacTjerqnNaXzVVtACjo0ZZ6m3Np2QwnSV3TcdJ7pY9tTZQtMJ9VdVMYsKsdWzOf2HF4/8giq1PlV7X4Mz7WdwldWJRqP49svtaemxD525JWsKbd5RUPs2lv4wf/aY0y5tWdSSZiHa3z9rdN4+k+t+1O1+wl876LZqqLRtqk5wmB+mmbGLcLKIhqrtQ0VjW1m0iWWt/uqJFZIVGg0micznb/zWYyZeRdhZRGN1YoARWMd7KM4rk/JOwvpF/rKYxQNGm1DzBEG89M0M24RVlbRWK3lyovmzfRsqJpH0HS2nK0MMYoGjbYuZjr/zM+1mJNvkUbRoNFotO1gjjDk+1wnY/cUjUajbQYr5PTlsxiTPNbByiIan2pY/d+9/lEj/+6VRqPRCpojCLk+TXPiF2llEQ1Ze0pEIJc45DIRmW6VJldeNBqNtiPMdP7OZzFm5l2ElUU0aDQajVZic4TB/DTNjFuEUTRoNBptM5rp/J3PYszMuwijaNBoNNp2MEcYzE/TzLhFGEWDRqPRNqOZzj/zcy3m5FukUTRoNBptO5gjDPk+18koGjQajbYZrJDTl89iTPJYB6No0Gg02lY2RxByfZrmxC/SKBo0Go22Gc10/s5nMWbmXYRRNGg0Gm07mCMM5qdpZtwiTIsGCCGEEA9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxTMlE47XJu/jcqev45Fff92wPNV3Hj1S6rUcMbZVh9C/Ym5mMR1BxoA9xe3OtxKNhz/nouK0xe2uVLPShfqXzIYTsWEomGv/++LWcwlDI/uVfvI+fz9+3c9lA5npRW+lH1yV7e0UoGoSQnUHJRMMRgdVwoHtRp/nsyetILts7N4jpDj8Cfj+qTlxE0t6XH4oGIWRnsKlE4+adj/GZZ60WyvEzN+29G8DyFLr8IUTHB9BQ2YTRJXt/igSmO8PYXVONCl8ILdFOnDSdbGIKPWElOJXV2PVoE/o7j67g7BOYjTah1u9DRaUPu0NNuHDVDsogUzSSl/vQErKOU6XK23Iu7eV13FO9uNAYwi4VrstphAvz55tR7xw33InJRTuAokEIycOmEg3hp7P38Ft1Vlr5vhEk32xClXbOSUyc8KFhwO3uE+cOoyqgxOSqaoMk45juCivH7TjZOC4c8iF4YhjzOngK0bByzHlEIzF0VOUVwYQdON+r8gr1Yt7adOESjcVhnKwJoG3ETjjXi/oaJXRz1qaOWxlAy9CCarUlER+JIFiZDk+ONSPgHHdZnYMSwVTeFA1CSB42nWgIJwcSOq20OqT1UV4yhOJSBwIuJ76A/gPVbiFZHkt3T2mHW4dBIxjKQedtaSwlkDBbMrbDHrxmbxu4REMJQWLR7DizylXfZx3FammM6e8WSYw2ViPQMaW+W3Fbzhvply6ixTkuRYMQkodNKRr3HwA1LR/q9F950ekzKRPxATTUNGHCceROV5VdQ7fGL/zoEt+bwhjTkPELfwemrQCLlcY0lhOYTnVPVduW22G7REORMLqnnLT1USuhjpsxpjHfu9/eJ+VNp0mbKXwUDUJINpteNL7cXV7RsLp1sh1qoN1RifUVDX083U1k1/pXcNgu0dDxrO4pa9KA3dLwLBqZ52BA0SCE5GFTd0/9u2Pl7p6aQzTkQ9u4velwpRshEQLDOa9X99Rka9rRa6724kkvopElRKpc+zJEI2/3lJxnNWp7Us0nC2fGGkWDEJKHTT0QPvqLMg+ET3UgUBPBZNZ0X+Vkgz60vGm1BjIHwic79q8wEB5D1778A+GznQEV1olp1dLQg+Z10k3lQTQudyKo4vVMqZbGUhzTPXV6lpRLNFYYCNfnUBNG9HLC2p7qRv2jShjlFCkahJA8bCrR2Ogpt9Pt+d/LmO0KouLIsB22jlNulxdS02Kr/GF0DfWqvIKIXrHDDVyioZg/14RanypDjR/17cOIHqlGqMtSBaul4Z5y23beXYL5gfRYii6nLSAUDUJIPjaVaGyml/sIIYRkUzLRcFoMq7VNs4wIIYSQLEomGrJg4WdXuWDhf2i6joFLW3HBQkII2RmUTDQIIYRsPygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQF8l79/DR4k0svH8dc7+axy+u/ArTv5il7SCTey73Xp4BeRbkmSDEgaJBNDduJvDrqwu4MvtrfHDtQ7V9C3fvJrH84IEdg+wU5J7LvZdnQJ4FeSbk2ZBnhBCKxg4nceu2rlVenf8At9R3QnIhz4Y8I/KsyDNDdi4UjR2M1CJnf/UexYJ4Rp4VeWbk2SE7E4rGDuT+/WXd3cAfPlkr8uzIMyTPEtlZUDR2GPIjly6G+G8W7T2ErA15huRZonDsLCgaOwypHVIwyHohz5I8U2TnQNHYQUiXArukyHrD52pnQdHYIciMFxnAJKQUyLPFWVU7A4rGDkH6njlLipQKebbkGSPbH4rGDkBeypI59oSUEnnG+ALg9oeisQOQgcpStjK6Rpdw8OUb+PVv+Pb4TkaeMQ6Kb38oGtscWTdIloEoBR9/DNT13sAnv/q+tn977Bre/XC10y8TmI02odbvQ0VlNXY9XIeusbgdRopnAf0HqlHRGrM2pzoQrPTh+LnSXGN51rhW1faGorHNkQXnSjGzRQTjyZcWU4Lh2L6//siO4Y3EucOoUk6s9lQfRkeGET0WVNsBnI4l7RibnRjalNjVRzdrDTtTNDoRqvHh5JAtGuMRJdZh9K9T8eVZk2eObF8oGtscWalUFp5bT0zB+P1nPnCJxncurK4bbLJVObR9vUgPocYxPRTD/FbRjK0mGpmss2jIsybPHNm+UDS2OTKjRVYsXS9EML78A0swohN38HczSfx2nSUYT79yw47lnfmekHJaAbQMLSCZ1bOVy+FlOOnlBCa7D6PWp+KpFsvuUBO6Tu1X3yOYtGKoizCMtrBftWBUHF8ADZ0dOOly9Ct3kSUv96ElZKRvH0NcyqodrhzXsdzONz7WgYaHrbxd6RVaNA90YrAzjN01kodqdTX2YTbfeHJiBv2NoVTc4FMdmLhmhwmLVvgufawQWqIxDDaq7841XOhDvQprG7ePnSq7sgN9SrKLQ541zqLa3lA0tjny3wjrtbz5ssrGEYyet5b0vr7YHS0aaxEMzXIco6ekS0o5LXGozQOYTr2wXlg0pjsC2nk+2Wx1b/UrwdB5OaIRH8Zx5WCr9h5Gz8AYJgY60RCwnKSTx3w0jKqaINoGZhBfXMB09CiCqS6yKXT5qxFoHMDsQgLz452o9+9HT0x59fgMJka60aDyCqlyT4yoFpJ1WdIsjqFtbxAne1TYoko/EkGtKk+wY0oHO467al8z+ofGlHjUqWNXo7ZnToe7WFbXI+xT59KMwZkFJBam0H9EnX9Anascd1mVVc7Ntx9t0WFMDPWhbZ+KLwKTQzQSM+p6dNWp46tz71ffY0q4rVhrRp41eebI9oWisc2RP9VZD+4rwfjS9z/KEoy1tjCyEAccbVYOWdXIlQM/PS5V7QKisXQRLcoh1naZDjaBiVP+lGjolkxNE0bNmvvVXu04dR7LKj+VR6hzxg4UkhiV2nnjRfVtDtGQcurhTkzOJXK0hjx2TyUTSCjRSCivPHFK5W3X6i3ROGqUL4ELh9S+cI5av2rZVCkH33PZ3hbkGqjjt5xPIvlmkwoPIXrFDhNESJTo5RINzTp3Twnr9cyRzQlFY5uzHj9gEYwv/l9LMP56xBKM3vF1Eoxl5ezM6q3UpkUotNMsIBqZDtAmrloOjmhY3T+ZDjg7D1c3jWNOusQMBtsP48m90kWV2X1UQDTU+Qwesru2tNk1f1M0MsqXu8zOeTn5uE2Ob563ic6PokHWCYrGNqfY7ql7qmadTzCe+ptiWxhWLbhK1+jTpGvitmiY4fEB3R2knbRdy16ppTHbFVy5pWG3VhoG3C46fmUGCbtVER8fxrQTnJxCT1CVOeII2cqiEe8TRx5WtX/7DJZVS0JaMWsQDaslUYdBM2A5jtkZa8dmaGmwe2r7Q9HY5hQzEC6C8Wf/5zdaIE6/Yc2K6v7JUkowZFC8WMSpSu09dKgTgyNjqka/Xw/iOkIw3SECIIPXA5gY6sXJvdaAsuOkM8c0rCm7yknmHdPowJN60Dydx2yPjIMY4yLNUgYf6vtUeMISlaq9RxEdGsNotFmPSQTsMQkRjdMSvi+iyj+ASdNhK2RKsTXQP4fE4gJmB5oRUvHXIhpYnkN0nzp/c8xiv3TnhTEop+KMadS4xzR0aySfaMSky0u1niLq+g7EjFlsa4MD4dsfisY2p5gpt3/eY724VyrBcIiPpGcXVfllxk+6lu/MFrJmA1ni0aNaH6mafcbsKek6Gu3M6KYxZk9V+cPoGhvIaB0ktDPX4yl2nDbl5FOYs69q/KhvHsa8MbaReFMJiX38rkv2TgfVEphoT8+MCj7Via4j6vtaREOQrrLmdH67w80YNRta5uwpVdbaRpkcoL7nEw11lIlm5/p2ZHVtrRZOud3+UDS2OcW83Pdwexxf+Jblujov3i6JYBRNcgHTl93udbpdtU6C3XB61hMzU5g3u6fsLi4ZPCbrC1/u2/5QNLY5xSwjIqLxBw0fwP+/41ownnhxcXMJBpKYjNjdU+0y5TWja0mQmrV0H9ndSzLl9rh0cTnTVMm6wmVEtj8UjR3AWhcsPNJ3UwuHWMPf3sSDTSUYNk73lNm1NDDjGljX3UtPBawuGCUotYc73S/EkXWBCxbuDCgaOwAujU7KAZdG3xlQNHYIMqOllMujk52NPFucNbUzoGjsEPh3r6SU8O9edw4UjR2EzGwpxTLpZGfD52pnQdHYYchAZfw3qRUBCSkKeZY4+L2zoGjsMO7fX9Z9zxQOUizyDMmzJM8U2TlQNHYg8iOX2iG7FMhakWdHniEKxs6DorGDkR++DGByVhXxijwr8sywwrFzoWjscGTGi3QxyBx7igfJhzwb8ozIs8JZUjsbigbRyEtZ0t0gy0BILVIWnpMVS9frX//I1kHuudx7eQbkWZBnQp4NvrhHBIoGcSHrBsmCc7JSqdQq5b8R5E91aDvH5J7LvZdnQJ4FriVFTCgahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hktGrn+8pFGo9FotExjS4MQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnbiRu4f8DLRtxTpBYux8AAAAASUVORK5CYII=</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADteSURBVHhe7Z39c1zXed/7Z3ictE2TTOP+4nYaJ1VnYA8KuCi3cbkTDbfhaGuN1uWIMOVVIxoIJSI0ScGgSRkB5C1go3QNBzIkRLBWQYkhLEKASYkBDAXGWiEChwJsCrApQCK1FsglQS4J6tvznHvv7rn7gr3AYhdv38/MM7v3npd77ss+3/N2z/4zlJATZxP45Fffx3M/Sth7gF/Fl3H6jdtofi2hvzvItsSVNBtHAhcOVeNkYxOqGi8iae/FQh/qg01oOeDD6Zi9T1heQH/Yh2Aklo6bkyn0BIPouWRvCstjaKsMInrF2U5gojWAYOsYEunLkocERht9aBiI29v5iKljhNG/YG8q4tEwKg70QVIm31TnWdOEiSUrTJM6tjq3A9VoG7c3hbFmVFRGMCnf5Zo433Nipa+PGgc3mGzNCLvaiyeNskp4RatzsZPqfKvRcPgwdjn7rnQjdEDdE3VdU9cwR5kmTqXz0eeeylOQ62Oc43gkfX6ajPB8ZKVLYjISUNc5rMqTTr/yOa98rxCLoMrfgWnj2XCFSxmc7xp1/felj+e+nm5c+QiJi2ip8aty2091gbyF6Q4/AocOo94so4d0OVmS4/vQ8mbGr0ruuXONctxr8xwnW30ItE/p7w7T7X5Upa6Bx2fKvC9LMZwOBNR1Keyjsq6pOvdB5SsC6plInQPmEA1Vo7ZnTsdIYdzj5PkmVNQdxnGfOle9X6UJhtHSGESoKyNdGfjz+sMoqWj8fP6+FoJPH72GpHEhMrmnwiSOxJU0G8l8737lAKpx/Jz5YMiNUg9kZRNGDQc7rx6MqoC6mabTzUkSEyd8qAr3YlZ+B8txTHdJWucHllAPeUCF92F+heskJBdmMBrZj117O9M/zivDOB0Zxry9maaAI1qeQlegGsETw9D6nVzA6IkgjmsxUgJ6RD3kjSrfpSSSc8No2+tbN9GY7RSnqs4hrvKOTyFaJ3mny5rp5HS51X1pOe84ElV2v4ojTsreg8VhnFTOruXcHJKqzPNDzQjVpPPReRh5ZomCduJ1GLymyqQPY4are9QTQTSWw2FkiYZCOxh5ZtL5r3zOXu6VD/VdU4irwsn9aJH8nfDLnQiq9D1TcXXu6vnqqcMudew1iYZC7wt1Y1aeiwJ5a6Y6EFD70k5ZUSDd/LkITqt7lQvrt3UU/ZJWlSG5oK6XVNBU/vrWFBANEYDamjCiKr2QGO9AbWXIEAOPz1TGfUmqilPA34wJeQwWY4hGejG5aIWZ5LqmuszyPBr5Jc4dVhU3Vc7L1nOVmOpG/aPq+E6R9HmqNEYlVgS6otIP9SiUnZKLhvAn34prMfibv8/vWb/75m0d578+77rEG4N++N0/XkHfKNdDYDlFeejclseRLs9htDmM3fqhUQ//Ux2YuGaHOQ9GDkvXci0HVuUP4XjnmOXkHcRp1eQ6bgFHJKgHv+epgP4xVyiHW99u5J1QLaSwqp2psF2PNqG/P6JqSbZwehSN7HOyy6NaaRcaQ/q4Vf4wuoZ6cdJoeWU5OV3LPIwLxg9UapMuJ6VIXupUtV1xxj7UNvZhMBJM/eD0ubvim6IgqDIdC+rzre+TK2SG2yKo92eQSzQUSbU/aOa/4jl7uFdXlVA8ap3b7nAH+lXlwQyfP9eEWp+6bvo+DiN6pDpVG12taDgVirSDz5+3hYr/BZ9xLS0KlalKtdLzIaLf8LCcb47nvpBoKBKxzlT6XY8ezhZ8T89U5n2xWvm6J0KXIawqGXaQQc5rqtBimHGf5wfUNdLPrP07swXEwqqwuiqx6rmqkt+76QPKRFlEY+jnd7UgPNR0HXdzNCJ+c+tj/EHDBzqOxCWrJzFQh4pDw+px3j6s5OQ2BHGi/o2p3aXIcBKzXUoQN8s1Ege6KkcWx2BdZot+i3FJVTBdrZLtT1lEQ/hvEau1cXIg+wGpfWFRh31BtUjIWojjwpHD6L9qb251xOnIWJFyKE/2GtWxDSY5pWqtBceuSkhSidbedHdL8kqvctLGuMNGsZxEYnFBj8dljiGsSHwYJw8V7o7dvCQx/d06nPYwvrGdKJto/PL6Mv55/fvaJq+mmxsDl6xWiOyXOITgmjT5pZnegcmd9XssSPJyH1pCVnehdNe0DJR/IDQL537t78Q079e2p2yiIbQM3tIC8dlT1/XAVvzWx/g3f2l1S/2VCiOEELK5KatoPPgY+NN2q5vqq703EPr+R/q7vy2uwwghhGxuyioawvs3HuBT9qC3mHyXfYQQQjY/ZRcNwZlNJcbZUoQQsnXYENEQZAyD4xiEELK12DDRIIQQsvWgaKwz7rdAs9/wdSFLiYzMuN/sLgnut57lpbl8S3vI267zsRjmOXWSEJIDioaLzGUvZKmPZgy6XulfmVWJxrUBNNQE0HPZ3s6DzjNVpmrsergObQMzq3jJbDWiMYUunw8nh/KcczKO2dgAoo11CPlzLCGyNIfpoT6cPrwfwbrsJRTiYx32Eh/WefRcch+nUHgK/fZx7vOIj3SgYa+8y7DCtSeErAmKhgt7bSHHES0tYHYoglrl2L2saimsSjQ84spzOYn4zDBO7zMWbivIakRjJeT6+FB7uAP9HXXKsWeKhjqOrC/U2I1oczB73Z25XtSq69HjLMw2EkGw5mh63Z9C4SniuHDIEhb3eSQx2R7E7v0dGJ1ZQGKDX5QmZDtC0XCRIRo2ehXK1Gq0FvPnm1OL4u0Od6ZWucwlGtGRAWOROeOtWXuxs0Ki4s7TJj6M40rMzHWQkpe6cVwfR96mbsJg6mXhHKLRM4ZBY+G8dI3eHTcL5xrkWaDPCc9VZr1OkrncvFzvfekVRguFO8hS0bvCEbRl3isRnYz7RAhZXygaLnKLhl7b31h9VS+NHIhgQjyijEt0ph1ktmgopxzuxrTsWJpBVOUf6LA9fTGioVyr/BdAapXRq7IOkcrrinKwqjUiK4sGpPtILyycLRoVzpLRKu5sj8o/tehaAdFwyCcaNrnKLMfNXEtK/uvCud6FwjVLqnx+Wd46+17JkvbBU53oslfldYshIWQ9oGi4yCMaLkdqxXHVfrWoWMsjZ4uG+WcudnjYDi9KNGznb69wKss5u5epluWUnT+MyhYNV1y7HNbyzqUVjcxra+4rFC5MdwQQ1KKbfa8krimGWjhrDuNC5oUjhKwZioYLL6JhfZcuILdZzj9bNNyi4ApfN9Gwyp1dJneZTdFwnaOrHJtYNORPdZw/v8m6V3EMhjP/3yHH/xAQQoqCouEij2i4uqfEqeb/T4XyiYbZPWWVO79z3DyisfbuKTlHnzpHJ8fMe2Vdj8x7l0uICCFrh6LhIrdouAfCVe11hf/0LZtouAbC7b+SPWEOIitSA8KbQzSKGgiX/8dW5crVmnKOo/9ZMUd6tjQIWT8oGi4yRGNpAdPRowhlTLld6T991ywaXv9rWKbcTvXh5N6MKbdTHQhWBtAyZB0sKX8Lutfpz98copE5pTY+1IRgTRMmnH8BLhTuIofAy3moe6WvQWpMI196QshaoGi4sBxRuhab/+W+fP/pu2bRsL/n/a/hVJnyv9xn/h+y/v/pMcdlbxLRULhe3sv6L+TC4WlyiIZC/0mRMe04f3pCyFqgaGwWduB/DRNCth4UjU3BzvyvYULI1oOiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDimbKJxt37wN/G7uDJlxbx+eYP8XvPfIBPNXygv8u+vp/dwb1lOzIhhJBNSVlEY/ifkvijr1/DJ7/6/or2UNN1XLictFMRQgjZbJRcNFoGb6VE4TPPXsOzZ25i9Bf3sLj0sbaRXyT1Pglz4j3/+i07NSGEkM1ESUWjVTl/EYHff+YDnL10Fx9/bAfkQMIkjsSVNN8aonCsB/FoGBUH+hC3twkhpBhKJhpvvJPUzv93/uJ9/ON79+29aZxWRSaTKq6kkTDJYyO4+84ZHGv+E3z62EP4xLN/ggMvnMN0wg7cbCwvYKK9DkFfNSoqq7Hr4Tp0jaUlYjOLRnykAw17/aiqDKN/wd6p0GVW55I2H3aHmtB/2bkJC+g/oPbXNGFiyd7lYg7RkKSLYNLeQwhZH0oiGjLo/Yd2d1PXaM5fdV7REF5QaSRM8rhzz95ZLqa+jy8c24tnBt7BBx8lcGPhHURP78WnW36IuQd2nE3DAgbDPlSFuzG9oAR2OYn4VDfqawJoG7cc7OYUjSQm24PYvb8DozMLSGTUDbLKnExgfqgJwcoQoldkhy0aSlAaBnKc2VwvarXYUDQIWW9KIho//Okd7fQ/03gND/J0Sa0kGpLGGTh/ReVVPhI42/YQgn3v2ts2D97Bd048hGd+bNd03zuDLx2LIPrjbyL4rGqNHPs8gi+M4IYhKncnf4hnmj+vwh7CHzd/E2dTWU7i+WMH8eJb51RrRsI/h89GXsTkGloyyTebUKVq26MZaWe7gimnm+WAl+cw2hzG7hqpqftR33wR8+astavDaAlJ7b8aVf4QWgbm7ACL+fPNqPf7rNp/uBOTi3aAInmpEw0PS5jV4umJ5TkpceqBDkznmS2XW+iSGG2sRqBjSn23RKOhrg4VoV7MWxFSTLf7EVBhT5ZINJaWlrQVwms8QrYSJRGN/S8saoe/0rjESqIhSFoJr1V5lY2PzuOZY4/ixV/a2waTvQ/jE389bm1o0fgcDvS9gxtK0+7+egTfOKnE5sx7VvivVfizBxH9papCP0jigze+ic+fiGBc65+IxkP4dOSHmBSvmHgXLz7/ED7f+44ErorpDj8qGi8qd5pBfAYTIzNKAjMdcEI5Xh+CRwYwK4mSc+iXlkoqjxn0BHyo751DUjn05JVe1Wrxo+uSDkRyrBmBQAQTktlyHNOdRt6LwzgpLZwR+0gjEdUyqMOgtelivnc/gqc60RV2xCmMnktpgfEqGm3nL6KlJmi3PmyWZJ9qkbzZh/oSicZ3vvMdtLa2rigIEiZxxAjZTpRENCq+cV07/Eu/zh7LcCgkGpNX7+twyatsaDFQzt72/SYfDBzEJ54/gw9kw25pjBstixtDT+MTz/0QUi8ff+Fz2ONqrShheO5zeP4f5LuIhluYdN6Rc1beq2CyVbUWWmP2Vm5cDnhBHGmGI48PoCE1phBDW2UQPZd1iCKJ+diYuhciKZajbjlvSJQ4aJV28Jr6rvM+arR64pgdGcNsDtHQ5a4JIzqlApfVMc41IVBzGBfsuLlEIzHVqfL3o208XZbj55RwSauiXYTEIjGgWh91A0jo8pRGNN577z0cOXIkr3A4glFfX4/xcbuiQcg2oSSi8btPW4Jw807+6VKFREPSSrjkVTZWKxo6xEZaF3rfh4iqloN0S2Xa8xMS0eqeMo/hyttFEhOnfNh1aiy7NaFYtWiMR1AR7MasDnGYQpdf1dr1ySQx3bUfu6TbqrET/dJaSXUhiaDIOEGmOYKzgAvHgqjyhXC8uRuDUwu6tZJNHIPhaoS6zG6vOUSDIgKW4ugyZxzH3VVmiUZ9VB1YurpSA+J2t5WMc5RQNIR8wkHBINudkoiGvO3tVTSk++nW3ex4jmjIFNyysaruqQzR+OUPsccQjdT4RxbrJxp5u6dU7T2xaO0tLBoxnK5xRMMmPoPJgW60SPdR4CgupFohfnSlK/U5SV6dwmi0A8cf9aFqXyemsyriVjeTdvgGIoDOvlwtDTeGaIgI1dlCYQpILIKqEg+EZwoHBYPsBEoiGv/xhNU9JV1M+eiL3cG/PmyJiwx6/+xX7mlSMvVWwsraPZV3IPxdvNicPRBuuoW7I9+0u6eSuNj5OXy6cxx37TBNqitrNaKxMs5AeOa007wD4YW6p4yxEAvLIVvO2ZrGWtvjHhiH3ZpIXo1hIqZaF9am2m+2YNxki50SgX0ZLQ3PoqGOfb4JFaFu9JtdVSKQJRYNwRQOCgbZCZRENL78A2sgPFLgBb35xQfYHYnruL9d9z6e+1ECy7ZzlbSy/8vdZRwIF/JMuf3Eye9j0nH8WjTsgXDxfPFxPH/yIXxp4EMr3M7jGxetbT1Q/tzXcFbr3/qJhryjIQPZwSN9mI6rghSccmsPhJ8YxryUOzmHwUOqNeE48Pgwjqu0LUOWM0b8Itr8PpwcsvJKnDusRCqMqP2+REKO9WgHpiXxVAeCRpgeRK8MGOMjBiJeznFSYxpp8VutaFiD39KNFULU0bQyiYbgCAcFg+wESiIa5pTb+8ZgcS5kem37j2/hX9S/j12tH+p3PCSNpJU8yjvl1qLgy31aNJrQOZCecvull8ZdU25v/MOLOHji83os49NfP4jvjNuCsp6iIegptM7LffIS3GH0rPRyn4o/2BgyptwqATHGHpKX+1JTbitkfKJ7ymgRKKEfaEKtnnJbjV2Pmi/cqWONdaSm3MqMqLbztlPPgT7Oo3nyWa1oKGRAXA+A29vlFA1BhIOCQXYCJRENcfzOWlL5Xu7LRLqj4ressQ1JI2nl5T7Ja9ORa0yDEEJ2ACURDUFWqxXHL0uCrDT1NhOJu9HLiBSEokEI2aGUTDQEWa1WnL/MgPrRZOEFCyXOlliwkKJBCNmhlFQ0hMyl0Y+fuYmf/PKe7ooSy7U0uqQhhBCy+Si5aAhe/4RJ4vBPmAghZPNSFtEQZEBb3s1w/u71Dxqy/+51Uw56E0IISVE20SCEELL1oWgQQgjxDEWDEEKIZygahBBCPHMjcYuiQQghxBsUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeKZsonH3PtD3szt48qVFfL75Q/zeMx/gDxo+QLX6LvskTOIQQgjZvJRFNH78T0n80dev4ZNffX9FkzgSlxBCyOak5KLx/Ou3cgpEpkmLw/kuaQghhGw+SioaXgXjj79+HcsPgO++eRu/8xfWvq0nHAnMx2KYT9ibwtVhtDzqQ0VlNdrG1fa1MXSF/ahS2xW+ABqic1Y8QgjZIpRMNN54J5klDrms8rkPcW7qrp0KOPePd/FbdVaY5LF1mEKXz4eTQ45qxDEYrkawdQyJZbW5nMCFQ9UINA5jfjGBxOIcZudMhdmJLKD/QDXqowv2NiFks1MS0bhzD/jDZ/OPYYgorET7eauFInlIXluTGE7X2C0MTeY2oWgQsvUoiWi88tM7WUJhWiHRkK6qz9iiI3mVFelSClldSFX+EFoG0l1Ik63KwXUOoMfuYqryH0b0stNaiKHN6YZa6EO9dEHlswN9qh1ixFfEo2FUnBrGZGcYu5W4VPjUsc+ZzjSBaTMs2o0WU4Sk6+upAHZJ/tL11TkFs50WH+tAvd/qKtv1aBP6U+VWJGbQ3xiy0tb4Ud8+hri0jmzmh5rttD7sDjdj9KodoNDXxHT6+tzD6Ne75BzDiI4M2N10kr4T03LozGukr4lieQEXVFn0eaqy1DYOYN4oi5sEZqNNqPVJHpJ3Byau2UGKRKwbx+3uwV2Pqnt1KX3O1vXu1ceyrpl1vROXOo1ztctKCElREtGofWExSyhM+89/9aEdMz+df3dbx5W8yscMegI+1PfOIakcVfJKL+qV4+q6ZIWKg6wINGF0Trnj5Timu8KoqmnCxJKEukVgtdvaiVUG0DK0oI6dRPzNZgQqD+OCffqJc4e1SA3OJJFM2sdOpXeXG4tjaFPbLW9aspGMRRCsUY78irUdH2pS2065FzAY9qW70RZnEFXbtT2WWCbPN6EqcBSDklaVa7bXOudR25kWFg0lruFuTIsiLKm8Vcsi0DElgYrslsZsZ0DF78WsFDU5h35VlkC7E99NvE+VJRDBhOS9rERVrkmoF/MSeKUbtTX70TWupQiJEXUNKkOIXtGb1vVW1yQ6FdfXe75fXd8aJRR16bLqY6fKSggRSiIaFd+4rh3+fkM8CrUuMvn7d+/pdJJX+RAnF0TPZXtT1dXnY2OYvGo5W3GQT/YaDnJ5Cl3+arScl/DViUTmtnZijReN1oGE+3A6Jt9zdeMY6ZXTSywmLMGwkbJWRSRxEqON1Qh1mYPucUx2R3BBHKhyrqFKJQJaQGxmBnC6J6bq8dZxGwYsx2sRx2BduiyFRSOYctSCPs+w3arIcV6SX6hzxt5Spb8aw0RMCam9nWYO0aBz7W2WZ3Ah0otJJbSTrdliM92uWoit+oLaLY0x/V2zrIRWrqexS8dxWkCEEE1JRON3n7aEQsYjGl69uSbR+DDxQKeTvMpHUtVW92OXdNE0dqJ/ZMaqfdtkOUjFxCln38qiUGhbOyjboVmY4ZlphYx9C0b3lGM6P8sxm87QxXgEFfvs2nkWcgy30xemO/ypshYWDee7hdsRZ4tGcqobT/qka6gJPdExzOb12JL3fvQbXWVprHxdgqKQ1ppz7JWvtwVFg5BsSiIav//MB9rh37r7sd5+9owlHPnsP30zu7sqodJKmORVduIzmBzoRouMXQSO4oLt07JFw6rFb7hoLKnvfumemkm1NqSspRKNyYivZKKhWY5jNjaAaKOM4QRwcigjXCN5r040pDuLokFIcZS0e2r6/XQ1fSXhyNUK+aeF+zqsrN1TSiwmpHVhb6odK3fFuLpIMp3O6rZXdmLW9F13N5ERrh11BJNWgEZaQFZ+ubqn5J0Suxafq3vqmroOukvIcr6FuqdcXXZFiYYSixF36yIxUJfHcefqnopjeiSGeXUunrqnKBqErJqSiMaXu62xjC6XJ8ovHLlE43sXrYFwyatsxIdxXNVsZTDa2r6oa/DOuxe69i4D4TLG4QwK+5Wz1qeZ6XRWt13IiemBcHsQPmsgfHEYJ2v8aDk3h+RSUs92CsnsIzu/4gfCjXPuO4yAMRCuyx3qwKR41qU5jJ4IoMKzaFjiFojE1DlJ2eK4cEiV5cSwNXtLicDoKeXojwxbQn4thtERdY7yXVF4INwa6BYS4x2ozRwIp2gQsmpKIhrOlNvMWVIyldYUC8cyRePBx+nWSrmn3CYv96Wm3Mo0zOPd6amrulYd6U291V2196gxdXVlUSi0XdiJZU657cRJIzxpTBWtbezDYCToGlhPT7mV8YJmJT52gGBOudXnHHON5cwPNKE2X1qZInssaE9BVuXqaMaTqxANawxDHbfGbinZZdHnKedyuDs17TUxdBRVPiVQ1qbCPeVW4soguEMi1omGh6Xc9pTbmHOvKBqErJWSiIasVuu8Z/FCRmvj00fzv/T3X1o/xNu/up+abisv922mlW+zu6fKjOHIsXQRLRkOmRBCSk1JRENwlhH5bdWKkKVBHH40eRefPWm1InLZZxqv4V8dsr5vtmVENlI04v11CJ0YxrxckuU4JloDrAUTQspOyURD+NaQtRzIP69/HxH1/Z5dU87XTWWapN1sbGhLQ4SivQ5Buysm+FSnqyuGEELKQUlFQ2g1Vrr97KnrOHvpLpx3MPLZXw1yaXRCCNmMlFw0hAuXvf8Jk8QlhBCyOSmLaAiZf/cqf/UqJt/5d6+EELI1KJtoEEII2fpQNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHhmQ0Tj1fF7CHzrtjb5TgghZGtQdtGY/PUDVDXdcpnsI4QQsvkpu2j0jt3LEg3ZRwghZPPDlgYhhBDPcEyDEEKIZzZENAhZD+LRMCoO9CGut2Joqwyjf0FvZLMcx/TIDOLL9napWOhDvVGOydZq1EfzFSqB+VgM8wl7k5AtAEWjAPKjr2iN2VsmSUxGAqiojGBSb4vTUnFzWdhxbHZ+GeH5nUoBxiMqvXN8i8TlPrSE/KiSvGv8qG3sw2w+p6TTB3A6lrR3OFjn0jZub5aEBfQfMK+DD8GnmjF42bsHXZVoXBtAQ00APZft7TzoPFNlqsauh+vQNjCj7rZHViUaU+jy+XByiKpBtg4UjQLkFY2pDgS1Y3E7bTdxDNb50PKm43KSGG2sRkN0DonFRNo8e6QMMkQjGYuoMgXQMqTyV3kmE3MYPRFAlRKt+Vw1bJ1enUNA5bFk79OUTzRSDnVpAbNDEdQqx9427s2Jrko0POLKczmJ+MwwTu9TgqaeAU+3aVWiQcjWg6JRgJyisTyHaEjV0CNNK4uGCIu/A9Mph205yoLOWJx5yhmugEs0pEzVqO2a01spli6iRdXicx5Tpw+hVqULdkzZO4Vs0Uhe6sbxR31aZHY92oRB+zDTHapVY1yfxLnDqAh2Y9bexpVuhCqbMOoSJSFDNGwkfVXAuGbLCxhtDmN3jboPquVU3xlDwg7LJRrRkQG06HL6sDvciWlHfzKceT7cedrEh3FciVmXcYnyXY+cotEzhsHGEHapuFX+MHouOYUqhzgTsr6su2j8bHYZPaP39Gc+bt39GP2xe9rkez5kVpVMx93I2VW5REMcS1XjRSQzavpukpg44UNtj+nExUn4URu2HEiFL4SWaI6uj7WIxqJybJVBRK/oEIMk5mNjmLyao55sp59Qjr1WtVDSTjHDmV3tRX2NcoRXVB6q9j1/rgkBv906UXlUpUTCaklVGE5Ti8ihYWS3HXKLhiVyznkkMHHKr2r5Y5ZQxKfQY6TJFg3llMPdmJYdSzOIqrgBRwyLEQ37vEKOIK90PXKIRoWKG51SOaq4sz0qf6lI6FCKBtl6rKto/DDjHQzZzkREIth+OxXnf3x7KadwyKyqaiOvjZpllSUaUuv0HcYF8SoricZcL2prmjBh1rCTM6rG2YSuEat7an6oCUFVI053X9msRTQ8OkUXRvrZrhAqQsr5a613O7PJVl/aYWpUqybow2m5LNrJhzF4TX1fVunUObe1+nH8nCUTkjZ390we0TCPrc/J3UpJnletO3uMKFs03KKpw53xpKJEw/0crHg9coiGK64drq8XRYNsQdZVNPZ8Ky0GYrKdibQuzDhisi8TmY5rxpHtjcAtGglV41ROsNf2CCuIxnS7H4F2s8snNxKvQlot2plILT2HZbR0UqyjaGB5Cl0Bp3vLdGaWc89VLis8gQuHqtFyXgnfVAcC0qpQ+eqWmHamuVo/ggfR0OXLcWzbqWeLhvv8XeHrJhoFrkcO0XCdoyucokG2HusqGv894nb0sp3JVhYN6Y4KmP3tptM10X3gIUTNymgeUk5qOZkeGFctkIp93Zh2trPGA2zM4+ftnlLlTuQZbM8svx7cVw7t6liWaDgth1zIOVRFYqq1ErTiSeujRuUrDjLVFZNJHtEwu6ekfHnTZzr4UoqG2T1V4HpQNMg2Z11F4//99L7L0ct2JtIVJV1STpyVuqfMvMrRPTXdFUKow6zVW87C6hePYzCcXbt0zPzhz/eEUHVCatpuEm82I3RswOWQxNHqloa9rRFnmem4prpRG+zApDFUpLtqUk7VHgh3jaEoCg6Em6JnTyM+EFaOzTkna2wm63zMISsZ7A4exvGQ4wzluvnQ0ng0+9xS5BYN10C4dPFVZoivcdyyiYZrILzA9aBokG3Oug+E//y9B4j+/T39mQ8RCWldiOUSDIdyD4Qn32xClT1omZTpliPWFFZz1oyLLKerWFKOwO9H1yV728R2Pm0jlktKXpEBVY9jGrr27kO9KkxcRU/GVWsg4J71JC2hYM1+nB6ZU+VX256m3GaX/7TK1yWEugUiU3kt55e8OoyWvfa4jqDHMlQaY9aUHgBXeeRvoWSIxtICpqNHEXJNuY3jwiHloGVwe1Ftygt6XWHUqnOWK7Zm0ViMIRrpxaTkmYErjTwDU304uTdjyu1K14OiQbY56y4aW535gSbU+q2plDI9smvM8Yw5yOF0EwN1qAj1Yt7eziQpL9/ZUzWr/CG0DOTow4rPYCK2kF1DnxtwvbhX3z6W9YZzItatavx2HF8ADc0DBV7uyxANhRafDGeWiHWi4eF818VskdlkOM9sLNGQ/CzL83Lf8pyerqqn3Ko45suKaxYN+7s1GO1Gp0mVKf/LfXmvB0WDbHMoGmTncakDgRXGSggh+aFokB1GEtPfrcNpj2+dE0LcUDQIIYR4ZkNEQ2ZCyRRasY16aY8QQsjqKbtoyEwocyqt2EYuE0IIIcQ7ZRcN/t0rIYRsXdjSIIQQ4hmOaRBCCPHMhogGIYSQrQlFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghntGicefuXdBoNBptE9mdO9mfxZiZdxFG0aDRaLTtYI4wmJ+mmXGLMIoGjUajbUYznX/m51rMybdIo2jQaDTadjBHGPJ9rpNRNGg0Gm0zWCGnL5/FmOSxDkbRoNFotK1sjiDk+jTNiV+kUTRoNBptM5rp/J3PYszMuwijaNBoNNp2MEcYzE/TzLhFGEWDRqPRNqOZzt/5LMbMvIuwsojGiz9J4FN/eQ2f/Or7nuyPv34NZ2I3c+ZFo9FotBzmCIP5aZoZtwgri2iICOQSh5VMRCZXXjQajbYjzHT+mZ9rMSffIq0souEIQa6wXLba+DQajbbjzRGGfJ/rZGUVjdVarrxoNBptW1ohpy+fxZjksQ5G0dhQm8OrtdV4fjRX2Ha1t/B85RN4dS5XGI1GW7U5gpDr0zQnfpHG7qlM+3AKrx57DLtrqlFR6cPux57Gy2/Fc8ct2lYSDSvs4MtzOcK2slE0aDRPZjp/57MYM/MuwsoiGqu1jRONOZx9wodHGl/Dux/exJ3bN/He2104WLMH336rFLO5KBo0Gm2dzBEG89M0M24RVhbRODWwiFNnF3OG5bINE42rr+Bg5eN49Yp7/2RkNypOXExtv/v6KRzc7bNaIk+cxsQ1O+6cpD+F1986nQp//JgSoNvpvN4924jHfaoVU7MbByMv4dv/M4do6HykpWNb7St4z0n/mnnsU3gjo6yWWYLzePdMet/lLjxWeRBnF6ztlfKZaM4QK10ex9FbTv8HL7fr88gWNTv8TPoa7K5/Ce986A5/+cIZPPfF9DWcTIUru/YWXn76MeySc/c9hq91vY0bTpiHa3xjogtf03lXY9cXG3F2Jh1Go20ZM52/81mMmXkXYSUXjdi7t1Ii4FU4Nkw0br+N7+1WjvD0FK4bTsi0GxdPYc+eVvxEnO/tBUyefiLt1G1nr1sqN1XchR/jeZXf187a3Vtvt+ORGuUw317QrZh3X2vEIyq+15bGjdcbUbXnCM5etlpB77z0BKpqGvGG6XBte+9lo1zO9sEzuK6+F8qnsGhUo0rEciaO6+o8U/G0WeH6Gnykthfexsuq9VbV+GPb8TvpuzAp1/CjKbysznNP29tW+tszePkxJQRtb1n3YOEint+jBLDTFsBC1/jKS6plqMpqn5uI9J7drZiQsujj02jb1BxhMD9NM+MWYWVpafxg9OaqhGPDREPZjUuvoOnPVC1VarinuvDGlHLwqXDLkT/3utFV9dGP8ZxyqGevqu/aoSnnazgoccBVrW/Z333YE7GdozaVX66WhhPmEg1r++kzZnkWcPZgrtq+soUzeDrl6K14VtrC+RQWjUfw8mUnbaZJeEZrbaIde1LXJTu9FrQnbIEbbUXV7nZMmqIt6WuU45d9Hq7xY47AaFMi9IgP334rHZ9G2xJmOv/Mz7WYk2+RVhLRcJx+PiskHE68XGFlMamhvn0GLx97Qg+I73rc6T6xasmpbqOU2Q5VOzTl3Iy8xKFVNItDs5x1qkaszdrnTTRyO+vJtt12/u79LqG49hq+luqaKpxPYdFwvueyHOG3VWthhfRmq0h/P+a0SmzT5bfTeLjG2fcn3zWm0baROcKQ73OdbENE4+RmFw3TpLtEOSKr+0Qc3m587+0c8cQ2QDQmWlWrKKdo3MX1MwdRUf8a3nu9MdU15SWfdRcNuzWWL31B0dBjTXaaVV9jGm2LWCGnL5/FmOSxDlaW7ilZe8qrYIhtlGhIX39FZteIsndfetzuPpH+9owBZjEn/ooOTb6XsXtKzG5hfK3eZ6QrnI+U+SsvraNo6EF4s3sqv2h4657Kd41v4ieN5viJbRn3k0bbVuYIQq5P05z4RVrpB8Kv3F6VYIhtlGjc+egtfHuPD4+3XjSm3L6CJrXv4CuWE71+9mlUyWD2Jas2e12m5H5ROTkZEC4gGpkD4e+cObLCQPhd/OSEauG0voUbN60xFGsAWznfK/YA9itPK2eqtnMMhFsWx+v16vgZTrpQPtqJP9aOCT1QPYM3GvcYeXgRjfRA9Z2bM3j1CSWW6hqkB8JXEA17IPxg59v2QPhb+N4XMwfCC1zjyj147jXrft248hqe+7On8bo9a4xG2zJmOn/nsxgz8y7CytLSODmw6FkwxDZMNMSuTeHsqYN4RKbFKue3608fx3MvT7lqru+eacTjerqnNaXzVVtACjo0ZZ6m3Np2QwnSV3TcdJ7pY9tTZQtMJ9VdVMYsKsdWzOf2HF4/8giq1PlV7X4Mz7WdwldWJRqP49svtaemxD525JWsKbd5RUPs2lv4wf/aY0y5tWdSSZiHa3z9rdN4+k+t+1O1+wl876LZqqLRtqk5wmB+mmbGLcLKIhqrtQ0VjW1m0iWWt/uqJFZIVGg0micznb/zWYyZeRdhZRGN1YoARWMd7KM4rk/JOwvpF/rKYxQNGm1DzBEG89M0M24RVlbRWK3lyovmzfRsqJpH0HS2nK0MMYoGjbYuZjr/zM+1mJNvkUbRoNFotO1gjjDk+1wnY/cUjUajbQYr5PTlsxiTPNbByiIan2pY/d+9/lEj/+6VRqPRCpojCLk+TXPiF2llEQ1Ze0pEIJc45DIRmW6VJldeNBqNtiPMdP7OZzFm5l2ElUU0aDQajVZic4TB/DTNjFuEUTRoNBptM5rp/J3PYszMuwijaNBoNNp2MEcYzE/TzLhFGEWDRqPRNqOZzj/zcy3m5FukUTRoNBptO5gjDPk+18koGjQajbYZrJDTl89iTPJYB6No0Gg02lY2RxByfZrmxC/SKBo0Go22Gc10/s5nMWbmXYRRNGg0Gm07mCMM5qdpZtwiTIsGCCGEEA9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxTMlE47XJu/jcqev45Fff92wPNV3Hj1S6rUcMbZVh9C/Ym5mMR1BxoA9xe3OtxKNhz/nouK0xe2uVLPShfqXzIYTsWEomGv/++LWcwlDI/uVfvI+fz9+3c9lA5npRW+lH1yV7e0UoGoSQnUHJRMMRgdVwoHtRp/nsyetILts7N4jpDj8Cfj+qTlxE0t6XH4oGIWRnsKlE4+adj/GZZ60WyvEzN+29G8DyFLr8IUTHB9BQ2YTRJXt/igSmO8PYXVONCl8ILdFOnDSdbGIKPWElOJXV2PVoE/o7j67g7BOYjTah1u9DRaUPu0NNuHDVDsogUzSSl/vQErKOU6XK23Iu7eV13FO9uNAYwi4VrstphAvz55tR7xw33InJRTuAokEIycOmEg3hp7P38Ft1Vlr5vhEk32xClXbOSUyc8KFhwO3uE+cOoyqgxOSqaoMk45juCivH7TjZOC4c8iF4YhjzOngK0bByzHlEIzF0VOUVwYQdON+r8gr1Yt7adOESjcVhnKwJoG3ETjjXi/oaJXRz1qaOWxlAy9CCarUlER+JIFiZDk+ONSPgHHdZnYMSwVTeFA1CSB42nWgIJwcSOq20OqT1UV4yhOJSBwIuJ76A/gPVbiFZHkt3T2mHW4dBIxjKQedtaSwlkDBbMrbDHrxmbxu4REMJQWLR7DizylXfZx3FammM6e8WSYw2ViPQMaW+W3Fbzhvply6ixTkuRYMQkodNKRr3HwA1LR/q9F950ekzKRPxATTUNGHCceROV5VdQ7fGL/zoEt+bwhjTkPELfwemrQCLlcY0lhOYTnVPVduW22G7REORMLqnnLT1USuhjpsxpjHfu9/eJ+VNp0mbKXwUDUJINpteNL7cXV7RsLp1sh1qoN1RifUVDX083U1k1/pXcNgu0dDxrO4pa9KA3dLwLBqZ52BA0SCE5GFTd0/9u2Pl7p6aQzTkQ9u4velwpRshEQLDOa9X99Rka9rRa6724kkvopElRKpc+zJEI2/3lJxnNWp7Us0nC2fGGkWDEJKHTT0QPvqLMg+ET3UgUBPBZNZ0X+Vkgz60vGm1BjIHwic79q8wEB5D1778A+GznQEV1olp1dLQg+Z10k3lQTQudyKo4vVMqZbGUhzTPXV6lpRLNFYYCNfnUBNG9HLC2p7qRv2jShjlFCkahJA8bCrR2Ogpt9Pt+d/LmO0KouLIsB22jlNulxdS02Kr/GF0DfWqvIKIXrHDDVyioZg/14RanypDjR/17cOIHqlGqMtSBaul4Z5y23beXYL5gfRYii6nLSAUDUJIPjaVaGyml/sIIYRkUzLRcFoMq7VNs4wIIYSQLEomGrJg4WdXuWDhf2i6joFLW3HBQkII2RmUTDQIIYRsPygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQF8l79/DR4k0svH8dc7+axy+u/ArTv5il7SCTey73Xp4BeRbkmSDEgaJBNDduJvDrqwu4MvtrfHDtQ7V9C3fvJrH84IEdg+wU5J7LvZdnQJ4FeSbk2ZBnhBCKxg4nceu2rlVenf8At9R3QnIhz4Y8I/KsyDNDdi4UjR2M1CJnf/UexYJ4Rp4VeWbk2SE7E4rGDuT+/WXd3cAfPlkr8uzIMyTPEtlZUDR2GPIjly6G+G8W7T2ErA15huRZonDsLCgaOwypHVIwyHohz5I8U2TnQNHYQUiXArukyHrD52pnQdHYIciMFxnAJKQUyLPFWVU7A4rGDkH6njlLipQKebbkGSPbH4rGDkBeypI59oSUEnnG+ALg9oeisQOQgcpStjK6Rpdw8OUb+PVv+Pb4TkaeMQ6Kb38oGtscWTdIloEoBR9/DNT13sAnv/q+tn977Bre/XC10y8TmI02odbvQ0VlNXY9XIeusbgdRopnAf0HqlHRGrM2pzoQrPTh+LnSXGN51rhW1faGorHNkQXnSjGzRQTjyZcWU4Lh2L6//siO4Y3EucOoUk6s9lQfRkeGET0WVNsBnI4l7RibnRjalNjVRzdrDTtTNDoRqvHh5JAtGuMRJdZh9K9T8eVZk2eObF8oGtscWalUFp5bT0zB+P1nPnCJxncurK4bbLJVObR9vUgPocYxPRTD/FbRjK0mGpmss2jIsybPHNm+UDS2OTKjRVYsXS9EML78A0swohN38HczSfx2nSUYT79yw47lnfmekHJaAbQMLSCZ1bOVy+FlOOnlBCa7D6PWp+KpFsvuUBO6Tu1X3yOYtGKoizCMtrBftWBUHF8ADZ0dOOly9Ct3kSUv96ElZKRvH0NcyqodrhzXsdzONz7WgYaHrbxd6RVaNA90YrAzjN01kodqdTX2YTbfeHJiBv2NoVTc4FMdmLhmhwmLVvgufawQWqIxDDaq7841XOhDvQprG7ePnSq7sgN9SrKLQ541zqLa3lA0tjny3wjrtbz5ssrGEYyet5b0vr7YHS0aaxEMzXIco6ekS0o5LXGozQOYTr2wXlg0pjsC2nk+2Wx1b/UrwdB5OaIRH8Zx5WCr9h5Gz8AYJgY60RCwnKSTx3w0jKqaINoGZhBfXMB09CiCqS6yKXT5qxFoHMDsQgLz452o9+9HT0x59fgMJka60aDyCqlyT4yoFpJ1WdIsjqFtbxAne1TYoko/EkGtKk+wY0oHO467al8z+ofGlHjUqWNXo7ZnToe7WFbXI+xT59KMwZkFJBam0H9EnX9Anascd1mVVc7Ntx9t0WFMDPWhbZ+KLwKTQzQSM+p6dNWp46tz71ffY0q4rVhrRp41eebI9oWisc2RP9VZD+4rwfjS9z/KEoy1tjCyEAccbVYOWdXIlQM/PS5V7QKisXQRLcoh1naZDjaBiVP+lGjolkxNE0bNmvvVXu04dR7LKj+VR6hzxg4UkhiV2nnjRfVtDtGQcurhTkzOJXK0hjx2TyUTSCjRSCivPHFK5W3X6i3ROGqUL4ELh9S+cI5av2rZVCkH33PZ3hbkGqjjt5xPIvlmkwoPIXrFDhNESJTo5RINzTp3Twnr9cyRzQlFY5uzHj9gEYwv/l9LMP56xBKM3vF1Eoxl5ezM6q3UpkUotNMsIBqZDtAmrloOjmhY3T+ZDjg7D1c3jWNOusQMBtsP48m90kWV2X1UQDTU+Qwesru2tNk1f1M0MsqXu8zOeTn5uE2Ob563ic6PokHWCYrGNqfY7ql7qmadTzCe+ptiWxhWLbhK1+jTpGvitmiY4fEB3R2knbRdy16ppTHbFVy5pWG3VhoG3C46fmUGCbtVER8fxrQTnJxCT1CVOeII2cqiEe8TRx5WtX/7DJZVS0JaMWsQDaslUYdBM2A5jtkZa8dmaGmwe2r7Q9HY5hQzEC6C8Wf/5zdaIE6/Yc2K6v7JUkowZFC8WMSpSu09dKgTgyNjqka/Xw/iOkIw3SECIIPXA5gY6sXJvdaAsuOkM8c0rCm7yknmHdPowJN60Dydx2yPjIMY4yLNUgYf6vtUeMISlaq9RxEdGsNotFmPSQTsMQkRjdMSvi+iyj+ASdNhK2RKsTXQP4fE4gJmB5oRUvHXIhpYnkN0nzp/c8xiv3TnhTEop+KMadS4xzR0aySfaMSky0u1niLq+g7EjFlsa4MD4dsfisY2p5gpt3/eY724VyrBcIiPpGcXVfllxk+6lu/MFrJmA1ni0aNaH6mafcbsKek6Gu3M6KYxZk9V+cPoGhvIaB0ktDPX4yl2nDbl5FOYs69q/KhvHsa8MbaReFMJiX38rkv2TgfVEphoT8+MCj7Via4j6vtaREOQrrLmdH67w80YNRta5uwpVdbaRpkcoL7nEw11lIlm5/p2ZHVtrRZOud3+UDS2OcW83Pdwexxf+Jblujov3i6JYBRNcgHTl93udbpdtU6C3XB61hMzU5g3u6fsLi4ZPCbrC1/u2/5QNLY5xSwjIqLxBw0fwP+/41ownnhxcXMJBpKYjNjdU+0y5TWja0mQmrV0H9ndSzLl9rh0cTnTVMm6wmVEtj8UjR3AWhcsPNJ3UwuHWMPf3sSDTSUYNk73lNm1NDDjGljX3UtPBawuGCUotYc73S/EkXWBCxbuDCgaOwAujU7KAZdG3xlQNHYIMqOllMujk52NPFucNbUzoGjsEPh3r6SU8O9edw4UjR2EzGwpxTLpZGfD52pnQdHYYchAZfw3qRUBCSkKeZY4+L2zoGjsMO7fX9Z9zxQOUizyDMmzJM8U2TlQNHYg8iOX2iG7FMhakWdHniEKxs6DorGDkR++DGByVhXxijwr8sywwrFzoWjscGTGi3QxyBx7igfJhzwb8ozIs8JZUjsbigbRyEtZ0t0gy0BILVIWnpMVS9frX//I1kHuudx7eQbkWZBnQp4NvrhHBIoGcSHrBsmCc7JSqdQq5b8R5E91aDvH5J7LvZdnQJ4FriVFTCgahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hktGrn+8pFGo9FotExjS4MQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnbiRu4f8DPbJ0QFoj+3UAAAAASUVORK5CYII=</x:t>
   </x:si>
   <x:si>
     <x:t>Accountant</x:t>
@@ -238,7 +262,7 @@
     <x:t xml:space="preserve">       F-185, 4th Floor, New Delhi, Delhi 110018      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADfwSURBVHhe7Z2Pcxvneefv70jb6bXXXjtznrvMNW1vPMwNA96xQuZGSDNG4jFrj3GnWqxUOrVCRg5VRVIYypLLkAlLpjzemQ0T1qxZw2XFMW3RYsRYEUVFIeITg1QibIm0KFIiBYsiREqQqDz3Pu++C7y7WABL4gch4vuZ+Q6weN99990Xy+e7748F/w0BAAAALvirhkaCaQAAAHAFTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK7ZMtNY/pcgrV6YUFsAAAAeB7bENNZX7tCVz1dK8XuwVdyn26EQ3V41tlYGd9HlvQO0YmzmhcW236XLbSG1VUxCNPPpXTR3Q20CAPLClpjG4t800+VPi2AixO9LBRngVL1S9QotqnzbBxFYK5+gK6OGccM0AADZKLppPLg+lxKQS3GYqhABtNSBaQAAslF00+AhKTaKpb/7Lt18tUm+v7brz1Rq6ZA2gK6G6dqBLxmGV/kluvrONXooE4wgde2d1+ijP3lCpAt95TVaWrlG881a/pFr9EjmNwJq5IcnaPYrTxrpf7KPrkXuq1SD22OvaOW9QjeuqwSBsf8AzTz7B4m63osM0NWAWZ7T8fT8XOffpRkV05PnvEhze0XegWtGAnO1j6Y/vZeu31bbOqsf0px5jk8+SR91n6PYupFkN41HKyFL+10ZCNM9lcbDZUvf30vTlSLt039A0/u4/VQSk7btGd5X1P9JlTb4Gl0pkGnwkKqbYVUMvYLtSFFN4/Y/9Mo/eHMu45GQaSKf9H1f5SoNHE1j/ZoIpk/QR8EPKS6CYvz6SVH/z4mgy4HeCMDTx8ZoeZXo4e0QzT6rAtjYNZH/PsXOvSIC7z6aV4XKgPqFw3Tj4/v0cP0ORfs56B2mm3Ej/d5PDov0Rrp+9T49EvvfDhrpN9QchNz/yV00G7pGqysiz4qoz5M7aObcHRlMH348QB89+SW69nGa/GlNI/X85XbDCbqrtpMs0vWvPEHTbeformiTRysisItt03AsprH+IV17VqS9FpJ5H94+RzNfEObU/6E0ttXRRnG+r9BNNibRHjfbdiSPmbHtie6O7DPa8rpoy/ii0ZYFMo2ZL++UymQKnMZ5Smn4FYB8UDTT4GGpyGfFHa4IUndOvKU+FYHiwoT8jNMeXNfubLcYJ9N4FHqFLj/TR5+obeaTfh9d7uSgyAH4WZrTegLLwWfp8p8P0LLaNo3FDNIcUCNB7ZzXwzT7eWGqP+FAaNztf/SOHpju0PUGsc+gMbvC+0+LgJtAGMvqbRE01WaijKE0+TOYBt0+QR8lgq5xXGtdFLIHIoK1Mjrm0dWTNDMQIvY23TRk+33+e7SkeiHMo/D3aPrJV2hRfCaPf2gs2fO4/SHdPPehNI3Mbe/QVuvn6GqBTINX/vE1m844TMPga/r+pV+qTwHYHhTNNBYOfk3+oS18Y7/6JMn1l/bItFIapnIyDfmZqGeKZFDkAGwNUqllOJiGMgCTmy3mZ5zXR9euGp+bRF/7XCIIO+2/ekkbnlLSTcaaP4Np6EbBPZh0Q1MczC3GaEU3DVl+8xhp/qLKVu12Q7z/8hN0+dl9dHXgBEVFr8EcWsve9p+j2UtGXoPU7yOfpDMOGAbY7hTFNMw/MB6KcupN6L2QUpkUTw346rOXT8o76FRSg1RqGdYgnRrE79ON5symsdgpgmo607gxQJFP8/DUohzCETnkHfjmTIPo7jt75fmu8DCZ49CUIFfTuKX3aASit7QcHqO5zn0UqXyCIt8Py/zZ2764psHYjQOGAcqBgpsG/yEl5y3+Xn2aCqeZxqLfuW0VqQGfKH5OBE9tzkEigrNxN5wapDZuGh/StWc2Njxl2Z8DuOV412juzzdvGmYP48rLTzgPTTFOw1O3wnTz4jUZ7HXTyDw8Jczi4jlaEr0LE5mmljpnbvviDk/p6MYBwwDlQMFNw3wmg80gGzw8xXlLYfLQyTTknMMXjMnuFQ5Y8Wt045iPPhrhsLY50zAnbxMT3Z8XQVIFRmMiXEsf2icCrNjWJsItJhB5TQTZXXQtvEj3VxcpOiB6CuJ4mzYNYVLzL/MwUKbgu/GJ8I/6w2oi3FgsYE6ER1/bQZe/0kdRrgCf74Cozxdeo6jcN1Pbp06EL77Gq6wKbxqMaRwwDFAOFNQ09Gcy3Exy8x+cmX+rh6kcTUPAS0Zn94ngxvW0LC/dnGlEOgdoxlxy++VGmrMvuX3nMEX0JbdqJRSTagIigI2I/LxkVdZtjOYOJSe/N24aaojKoR0s6Etu5TLaEK3KNrGZhsDSfra8tL5IN7vNJbepS4zTtz1TvCW3TrBxwDBAOVBQ0zCHpfiZDLeU8rMb+cYp6Jcai22i11DidQQAFI+CmYb9mQy3lPKzG/mmlE3j4eodWo3wcx5pVk0BAMqSgpiGvhoqF3EZpfTsRr4pZdOQq7Se9NEV7YlyAAAoiGmYz2TkQ+UwTAUAAI8LBZ3TAAAAsL2AaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA1xTNNO4/JBr8+T168fVl+m8tt+jfff0m/d6Bm1Ql3vNnnMZ5AAAAlC5FMY0f/Wuc/vBbi/Spr97IKM7DeQEAAJQmBTeN77x319Eg7OIeh/me9wEAAFB6FNQ03BrGH31ridYfEf2f91fp337N+AzGsc1ZGKSGynaaUpt5ZT1K02cjFF1X26XOYoQmL0XVBgClTcFM48eX4ynm4KTKV2/RyfB9tRfRyV/cp1+rN9K4DFDCXGinis0G/kKaxuIwHaj2U/8ltV3iRIfqyePvoRm1PdVWRRVtIbUFQGlRENO494DoD76Zfg6DTSETnaeNHgqXwWWBEqVUTeMxB6YBSpmCmMabP7uXYhS6spkGD1V9RpkOl1VU1hdovKWOdlaLP9xqHzX0hCiWGOaI0UywmWp9XhEsvbQz0ExjcyqJmRul1oCPPJVV5PEFqHV4ViUYzJ9uoQZz37oemlpWCYL4pUHrvicXVAqjjusVdZL7dtHkokoSRCe6VLlVtOO5Zhq6FFMpgvVZ6/m0nKH5xPmEqKOyjoa0Q0WDdVSxZ5DkYIkM7C00FupJ1Lu2aVTuLwObOJ6pjgty96xtkECVPXQyeV5m2cl0q6lYg2mMpnvqqUbtW/OS1p5yX/O8jHMMnh2m1ueSbT+tNRHFwhRsDNAOPhevrc7iehhrCiTar7ZpWGu/DHWwk6GcZJtzXbksU8nzj1/soyOy/sZ3PJKmWQEoNAUxjdofLKcYha7//u1bKmd6en6yKvNyWcUjRpPHfVTTNmEYRTRM/XuqqCFoRNXYqUPk8bfTpBp+nh+oI09ggOblVoT6/V5qGJiluNg3fmWAGkRw6L0oEyk+0UJ+c18ec+/RgvPyKB2r9lPHWVXwLO8boKAKDNFBcZzEviJQ9SaPGw+1U021CJBXjKG86Klmsd1Mk2u8FaPxJhHMDg7TDCfHZ2mozkuepjNk5HZjGlVUc1QEc7FDPHqGOnxVdOSkirgpPY3MbWAhpewJ6vBXUW2/OukspmH5LkR7Trb5qaJ+WJyxIMU0hIHV9dE0512LUFB8p/6uMCfKYD60R6szm57PJ0zQaKGZHr/Yd8DSfv5OY9+MdbCRqRxLmwtSehpz3I7qO16P07wwWr9PtI38jgEoLgUxjYpXlmTA362ZR7behZ2fXn0g9+OyioYMNs00rv0xxk83U0Wd+oNei1FM/0NVwWlE3vVzcKrRxtHFH3dogqbmOEpwYKqi1tNGIJKsnaFWc18RCGLLWprK3zDIR52lYI1t3/UIjbUPiLvauDCFKgr06redUZrqa6exK+KtrF89jZjRiIkO0wFLQM1mGtb24IDmaVcBLcU0MrWBDVl2C02qu21GtrWvi6Z5Q6anNw1Zz4OjyvwE0QhNno2kMY0aCnJ7KOS+5ncqzsFT05eYT2BmemsS58jHDPRE5HsmPheiydCCPG7GOtjIWk4G05hq89q+Y74mvNSt+QoAxaIgpvHbLxtGwfMRB95a2ZRp3Io9kvtxWUVDBkEeFrDJ/IPmu/zE8JSZbganuOgB7KYdPATU1ENDHDwSAdG427WUadlX3LVqw1NmutHD4X1305A+DJbAMJeOCbVph8/HFhCJwtQregvGcJIb00gfuFNNI1Mb2HAom++oXzQ/y3bsBdE7e9pLO55rpI6+YZrWjSnFNNKfo3yvtXlC6jjxcB+96OUhrWbqD07QjBnZmUx1sJGpnMymYXzHTnVMDAkCUEQKYhq/8/WbMuDfvf8ruf3NE4ZxpNPn/iZ1uCom9uU0LqtocBA073QdkH/ccjhCBQdLcFKIu82p4T5qrRMG4D9EY4nA5aNeNSKSgizHGJ7iIRIzUBTGNELUXV0o01A4toENh7I3ZBoMD9WER2mos5FqRUCu7Qkbd/2W78WFaewfdewdJFiP0kxomIJNPDfkp2OntMLS1cGJNOW4MY3EkCAAW0xBh6embyRvMzMZh1Mv5F8XHsq0og5PzQ5QbWVyLkGi3SnzH7M5vyGRQU4FpJShiSiN1Jv5ZykY0MbrTcyyOfhqQUMGil3avinDU/wcQojm15yGp2JySEjeycrgmW14ympIOZlGxjawIcvONjxlTU8e22HY62IX+S2G48404u83kycxB6RIHFME+bPWXkFsuF7tm6UOFjKVY60PYzWNOE0e9ZLnqDkPpdDaBYBiUhDT+Is+Yy6jVx8MF6QzDifTeO2MMRHOZRWPKI3tF3+gPGnKh+Xg3FtHtV3G3SNPZlbs6aFp0dOIR8MUrOdhKtM0RumIuHtsNe9C5aSxV9xNGiE0drJRBKc6CqqVTbFwHzU8JwIkF3yph2pEOf1hEYrWxDH76+VKHjPY5jwRriabeQJ2ZL+4+09MhBt3sbVdxgqx+OwotfpFwHJrGtI0hSktivbgArO0QXx2gsZDKjTKsjNMhK+LYF/tpSOicePibj7K7cUrj9Sxp7t4Ytn8nuI00y8Cr/mswwZMg9bD1CuOy/WQDwPGF2j8aA0dGeZU43pIpInrYfy4aL+DRs8kYx0WQzR+dla1c+Zy7KYxP7CbKurFtmhU2fMMd4nrI9mucrL+6UYaM3cAoIgUxDTMJbf2VVK8lFY3C1N203j0q2RvpfhLbkVgNZdGymWggzRjxDyRZiyb5IDu8dVR76kBOqZNsurLZnnp5pE+61DF/HByPsS+NJZXxMilpzwf0DlKwYN6D8K65La2sc+ytDO55JbHzFto3NJT0s6Hy24RQZoDkYkIQDwuL/cNNFPvcRGw3JqGMJ2xwzXyfI1J+8xtIFcQ1Q9rZduW3LacsTzFHb/YQy9qy1l7RZskji0C72RncrmrPG+zx7QR02CWQ9T/kt9YcivbfyJZj1iEhvTrQbR9YrluhjrIlVXermTbZSgnpT5qroRvSIxFFmL3UA8d+KJx7chrbyKRG4CiUhDT4F+rNZ+z+IGtt/EfD6V/6O9P2m7RBx8/TCy35Yf78Mu3AABQOhTENBjzZ0R+XfQi+KdBTN6Zuk+fPWb0Ipz0maZF+q39xnv8jAgAAJQWBTMN5runjJ8D+Y2GG9Qu3j9QXf50w1S6eF8AAAClRUFNg2nTfun2s8eX6O2L98l8BiOdvj0CwwAAgFKk4KbBjF1y/0+YOC8AAIDSpCimwfCEtv7vXvlfvbL4Pf7dKwAAPB4UzTQAAAA8/sA0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuGZLTOOtCw/I/91VKX4PAADg8aDopjF17RF5mu9axJ8BAAAofYpuGgMTD1JMgz8DAABQ+qCnAQAAwDWY0wAAAOCaLTENAPLFVFsVVbSFjI2FQWqobKcpYyuF+GyIpmZjaqtwRIN1VLFnkKJyK0QdlXU0tCA3UlmP0vTZCEXX1TYAJQ5MIwuWoGQhTlPtfqpIBKkYjTd5yVNnBgtFbII6fFXUMKCihggSk531VOMV5VZ6aWegmUZmjaSsrM9SMFBFNe0hcXSNuQERLH3UMaEC4nKI+l/y045KcYxqH9U2DdJMmlgpA1x1HY3Yg5oMwBmCXV7ggMrtoMR1beyhyUWV7IKNmMZUp/h+Do6KbyoTCzS0R6uT+I5qXmqhkUvuzWZDprE4TAeq/dR/SW0DUOLANLKQ1jTCXVQjg4oWpGJnqLXaS0dOmrahjCXQRzPyTtLY9tT10TRnWY/RdG8deXxdNO32TvNKH9VW+qk3rLZFkBupE8Gw6YwykiiN1AtjaZugGJcZn6Uhke7vTOxgQQY4cR4pZldE0+i4YGzFY7M01X+IaoSJDc0Zn2VjI6bhDsM0GoLqxNcWaOZUO9WKwN5xwZ1xbMg0AHjMgGlkwdE05B2/n7rbm62mIYidbCRPdTONc3yRxhKg4BUjjQNItzCVbr24NWE0TkHlQrsWeKxMdyWNyHI8iTUQM/FTh9KWJQNcTUAERd3sBA6mMX+6hRp8Xnn3vbOuh6aW+dMYje3XgqxgustHFQkTE8c/LdqpRtRXbSdJrSvD5+fZr/UIYmEKNgaMnpM3QK3Dya5Zqmm00FioJ1HP2qZRmleGnPYGwILNNBSynf1Wc3duD2fTCJ4dptbnknmnzZMrijkDkD/ybho/F5Gsf/yBfE3H3fu/oqHQAyl+nw5eVcXLcbdydZVToOGgIO/sObCn3Nkad/7+433Uy0NJXc53+Alk0BBBf01tm2QwDVoT5uMXga2nz9azYeI0edSb7GkIg+OeRrp6mAFuRgR2T3UjjZlF2YJZfKKF/P52muR0HofvSQZGWUbCJISh1og2qxbtoi4BNhG/4/GdTYN7UwGzTdY5iHupYWCW4qK8+Nwotfp8Yh/jaKmmIdr8qDAKkRyPnpFDg0dOGhE6F9MwzL0mcQOQtT0spsE9OdW7XItQUJSfaA+YBnjMyKtp/JPtGQzetsMmUdO5msjzZ99bczQOXlVVpZW1VausUgJNdJSOeFVwdTQNgZxjEPuJoDJlNwMLxjyIY0DPZBoCGbRkMHLIsx6m3qfF8bkOQjv3D6ctJxng1JyMGfwtwcwIpK2nzb6DQPWQRnj+gYM8mwR/zvvVtFPHfp8aQjOCfooxSNKYhn5s0Q4eWy9lpreGPO3Gd5JqGlYD5nTHvGlJYxqWumZuj1TTSJoNI9PN7w2mAR4z8moaT303aQYs3rbDvQs9D4s/s8PLcfU8vL0VWAONEVgTk9rpTEPOO4j9fC00mRhjsRMTd+C7aYcIHubwiRFAjECfIluw4yEfD3++ZyC5vyRKY/u1noaa08jW05ABjA1R9FxaT4tKW4KZETBT62WmC5PyGYGRh3H4LprLDfTOqmDq0JOSZDcNWb+U4wqp9kg1Dev3oafnzzQyt0eqaVhNwZIO0wCPGXk1jS+1WwM9b9t5nE2Dh6P8+ri2k2nI4RSeiB6kfvHqPz6RGNvXmReBw8M9Ed1U1uMUW44ZOtVMFbv6aNrc1oOuXJElzKt3wLoyi1nkICR6Qmp8XSKHe4SBWczFwBrgjKDvYbO7ZDcNs+fgzFSbqM/grDBVlY+PyeWGRE9Bn5+wkMY0tOEpWb+0+xfRNCzDU5nbA6YBtjN5NY1/+dlDS6DnbTs8FMVDUmaeTMNTelnFGJ6a7g1QoEsPKnERBM3x5yiN1PHdpLPMwDc/IAKC2cOQPQ4/dYesthGbaKcaHg/XA7udtMNTMZo87hNpRg9D9jj0JbMyCNnu7LUgbMduGhw05ZzMHtFTSAQzY6lvbb9tbbBmQnKyu76RjnhF0Jaf89xGHbU21Rg9DkecTUOfCI+/z+fXTJN63bXjFss0rBPhmdsDpgG2M3mfCP/l9UcU/OkD+ZoONgnuXbCcDMOk2BPhRoCqo2A4SnFx1x89K4K7ZXmrDXtPgwOAObyjkCudtN4J91ZcLSlNYxpxceduXZFlDEcl7+aNgNbQE1bDUws0ftS2Gkkj1TQE8jzYDJPBzFilJdpGPa8QC/dRw3PivEw/lMFP7KOtmpKrqDL2UKymwUtuJzt30w69fXh+xm9MbssH4OT51NCRYaPGmzaNK6PU3T5K88aWhs001hZoOniIArYlt5naA6YBtjN5N43HnfnhZqqVyyiryOOro94Je9jW0E2Dh6XEHXpKcFYrnYw5BSMg2XspUvY74GiEJkML1qGtmAhAibI0lFklVlFt9OE+B3OSw2e2YKa3zY7nmmnI8sCbsWrKXKkkEe3j0VZRpWKYRqIN0j3cZzufhs6JxBPUmzYN/u7MyXsL9u/Im/bhvnTtAdMA2xmYBihLYsP1GedKAADOwDRAGRKlsYONrp86BwAkgWkAAABwzZaYBq+E4iW0rK16aA8AAMDGKbpp8EoofSktayt/JgQAAIB7im4a+HevAADw+IKeBgAAANdgTgMAAIBrtsQ0AAAAPJ7ANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANcUxTQGLtyj3//rRfrUV2+40h83L9E7U/fU3gAAAEqFopgGm4CTOWQSmwwAAIDSoiimYRqBWzaaHwAAQHEoqmlsVAAAAEoLmMaWskBDe6qo44LaLAtC1FFZR0MLahMA8FiB4Sk7sQgNNQVoZ3UVVVR6aWegkYKhmErMN5lMw0hrCG636ArTAOBxpiimsVG2zjQWaKTOSzVHR2k+Fidaj1M03EcN1X7qDontvAPTAAA8XhTFNL49cpe+ffKu2srOlpnG4iA1VO6moTm1rZju9FHF8Qm1RTR/uoUafF6jJ1LXQ1PLKmGB92+hsVBPIr22SRjQukoXzJ9splqv6MVU+6ihc4C6dzmYhiyHezpKewYpqpLmT+nHbqFxW10NDMOp7Z9V24IrfRSorKcRVVCmcqbabGYl62MGeiPo9we75HmkmppKH062wc79AzST6KwZ6cGzw9T6XLINp/XO3HKIgo0B2sHn7g3Qkb4wJSzbRRvHL/bREVl2Fe14rplGtGYAAORGwU3jF9cfJEzArXFsmWmsh6nXJwJhT4RiWhDSiU+0kN/fTpMcfNejNN1TlwzqKtjLnoqIcvHoGeoQ5R05qSJiuItqqkXADIvcohczf6qZakR+tz2N+Olm8vgP0cgVoxc0M1BHnupmGncYPYsGtXqZ2/XDxFmzlZPdNKrIw2Y5GyPukFkx0mUbrInNaJiCovfmOXpGBX5z/z6a5sqtRSgoztPfFZaptD5LwYAwgq6Q8R1EJ6jDLwywV0X+bG08NyB6hqKu6tzYpP2+dpriugAAcqYoPY1//Onahoxjy0xDEL80SMeeFnepfIfb0kfjETPsMkYgbz2tRcq1M9QqAuoIP1YiA5oIvlqA4gDsaQ+p917yd6rgKBHlOfU0JHbTMLYPDOv1idJIvdPdviA6TAcSgd7IZ+ybvZzsplFDwSsyxQFOt/XWLnaRP9EuqftLQ6tTBnehnTy+LprWTZv3rxaBnz9z0cYB02AkwoRqvNRtJAMAcqQgpmEG/XTKZhxmvi2D71DDwxRsqpMT4jt2m8Mnxl1yYtgoIRVQZUATwY2zKjigVbRxxDKCdeKOWGJ85s40nIP1dJdPlW9HM4rlUTqSGJrKXk520zDfO+GQvi56Cxn213tF8n2T2StRyPqrfVy0cer3k66NAQAbZUtMo+VdPXCmYuYrCXi4RAQiY/iEA56PevXOgs4WmMZUu+gVOZoGUWy4nir2j1L0dHNiaMpNOXk3DdUbS7d/VtOQc01qnw23MQAgnxRleIp/e8qtYTBbZRo81l9hHxoRzA/sVsMnPN5um2BmzPwZAxq/L+LwFKN6GEf2e7X9spfDdX5xQCszV9OQk/D68FR603A3PJWujeM0eVSfP1HYvk8AwOYp/ET43MMNGQazVaZBayHq9nuptn1CW3I7SMfEZw2DRpSLnWwkD09mXzLOJcZLcp8TQY6jVBbTsE+EzwwfyjARTjR5XPRw2kMUjxsh0JjAFsF3zqjbzGCjCKZiO22zxmhsvzi+LUhnK0cG8UAXTXEUX5ul8aN+rQw3ppGcqKb4LA3VCbMUbWCcRRbTUBPhDaI7Z0yEh6j3OftEeJY2rvRT6ynjAPG5UWp9upHGdI8EAGyaovQ0Wk7GXBsGs2WmwSxHaKSlnmp4WawIfju+uJtagxHLnev8cDPVyuWexpLOIWUgWQOawNWSW0VcGNKLMm+yzOSx1VLZLMtJ5RCVtorKJGM56ws0driGPOL8PL4AtXa10IsbMo3d1D3QlVgSGzg8mLLkNq1pMMsh6n/Jry25VSupGBdtHAv10IEvGt+Px1dHvRNwDADyRVFMY6NsqWlsM3hILO3wVUHIZioAgMeZopjGRk0AppEH1mIUi/AzC8kH+ooDTAOA7UxRTWOjAptHroaqrqFjJ4sdvWEaAGxnYBoAAABccyd2F8NTAAAA3FEU0/j9A+7/P7ipP/rWktobAABAqVAU0+DfnmITcDIHJ7HJvCH2AQAAUFoUxTQAAABsD2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa6Rp3Lt/nyAIgqAS0r17qa+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/762ZklpujYBoQBEHbQaYxpHvNk2AaEARBpaBsQZ9fcxGXkQfBNCAIgh5nmYbg9KrLzJ+jYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/zNRfpZeegopvG3bX7FLywQt62Jfq80JviPX/mlBeCIAhyKdMY9Fddet4cVDTTWFy+R52jd+gzTTdT/ic4f9Zx6o7M47QvBEFQ2UkP/vbXzcgsN0cV3DQ+vHGP/vqt2/S7jUmz+PThm9T+3h0pfm9+znkOiLy8j1NZEARBUBqZxpDuNU8qmGmMR1Zp1/c/oV+vT/YovvC3SzQ4GbMMR/F7/uxPO24l8vE+/+vvo7IMvUwIgqBtq2xBn19zEZeRBxXMNEwD+O39N+grr39CFz/ObgA/n1mll/o/od8S+5j7O+XbWp2n71RW0XfGndJSdSdyniYjUce0nDX7Ju2rbKNJpzTWXJjOXVxwTsukbOXmos3WCYIgZ5mG4PSqy8yfowpuGgu3ndMziffZStNYuvgmvfr8TvIIc6io3kkvHH6TLt8y0zdmGpPtXvI0vktLDmkb1ngbVejBPEtwv/7P+8jzVDdddkjLqAKaxqbrBEHlJj34m6+5SC87BxXcNJzS0un9S8neyFaZxp3zbfRM5VP06rsRWloR27ci9OOmp8iz9026usp5NmYaedUGTWPTKmRPA4Kgwsg0Bv1Vl543B5WMafzg7IrM/80Ty3J7a0wjQm88X0Uv9ESsn9/+Eb1a6VVGYTeNKF1+o4le2OkVAd1LO59voveumGmip9Eieist5+X762/spYqjr9N7h5+nHdyL8T5Pr749S0uT3bTP3H9vN00lejW2cngfJXl8GdyP03vnk/u/cPhdZW7qeLVv0nWznCvvJnpQnp3i2Cds52lKlfvW2+K8vHw8h3LVORmytcnqrDzHndViX9lTO+Fcpyz1Z92Z7KVvPMtpVbTj2SZ6O5JMy3g+GeoAQY+F9OBvvuYivewcVBKm8Y/nY4n8x97eQtNYfJe+UfkMvXHJnrZCV8+fockrK+K9NUAuvXuQPE+10bkFY/vq63vJ8/zrdFXtm2Ia1XvpjQ8W6M6qKPOfXyZPtTCKfb00xfvfDtNbe730VMcHMn+KHHsaVfRMkwi03Cta+BF9Z2cVfeNtYw7Fahph+uFTXtr3ekQcW+S99DrtE8H0tUlVlq6Ucs/Qd54SZtpnBOVspnG5m3tmr9Nlse+9lYhxTu3GOaWaRvr637vCddxLb10S7c7tJUzsqZ3i/OWQZ+bzyVQHCNqWMo1Bf9Wl581BW24ab/0s1TBYbvfPq2QQE0Fq1iEtIdtd9e0oLenzNqqMt+eM7dSexplk3lURjLmsM2rbzKP3DnQ5mkYT/Vg7Ph/P06YdL1EW1/sZ+uFFM69uhMn9pWS5x+mcfsf/XhNV7OykKfE+m2lwHZ7vDifS71w5T+fOz9Id8T7VNNLXf7LFS89ben2iJ/iMl753nt9nPp9MdTA/g6CSlh787a+bkVlujiqYafz2y0bQ/2TFqOyZy6mrp4Z+HkssydUNg/fhz7gMPX/BtRnTWI3SVGJ4iodyWMkyUkwjQ7BN5NmQaVjnHlKOlyhrhaZ6XqAd4m583+FuemssTEvphmscyuW7/r9Un2U7jzsf9NJfenmorYl++MYZuqx6YaxU00hX/1l6q9ZsT6uM42Q+n0x1gKBtKdMY0r3mSQUzjT9sWpSBP7KwRof/ZVm+/6efJu9q2TB+oyHVMFj8cB9/zmXonxdcaYenREPdEj0KHuqwBUgZBOXwlDo3m/GUjmkoLYRp8kQvvbp3J3meOkjvORlkjqYhtbpAl8+foDcO76Wd1U9R87uz8nNLnVyYRmKoKp0ynU+aOkBQSSpb0OfXXMRl5EEFM40/647KwM+/LcWmwO+5VzH8/2L07sW7aQ2DxftwGpdhTyus1ES4GrtPKMNEOAe5fW9owUgG1xI0DRFcz/HdeCLvAr29z1Z3U7LcLMNT+jCb5TxEoB6z3tkvndiXqId701ihc01e8jT9yDqkZNYp4/lkroP5GQRtC5mG4PSqy8yfowpmGn976o4M/Lt/8IncNo3j337tBv2mUDrDYNX+8BOZzmU4pRdSd0Rgfqb6BfremJpgzbLklidcK2q7aUr0NO4sfEBv7ONhqgKZhjSkffT2nDgW93o2ZBqiFyXutl8177blpLNX3H07GLMsN/1EOJuXp/plepvnD1YWaKpnr1zBZJrGew1eue91bi9xt//jo6IXoJ5VcW8aYvuDTrX82ajzHV4t9eWX6T02g4znk7kO5rEgqKSlB3/zNRfpZeeggpmGOcTEPYrrUaPCpnFkMgzOa/ZCPtqi36BaOt9L3zAf7vM+RS8fP5H+4T61tJOX0Hp27qXX3n2dmrUhrryaxn1xrIPPyHrte3NhY6YhdEd/aNH7PH2j9wPniWFZrm3J7fEfGQFY5onSVPcLatmwaJ/uTnHO2nncCtNb5nJX3vfl3sQy4g2ZhtDS+W56+U+N+SLZvmeST5NnPJ8MdYCgbSnTGPRXXXreHFQw02B9ucv4PamX/+l24jM2i3SGweK8vA/v65QOQRBUFtKDv/mai/Syc1BBTYN/S4qHorjnMBG565hH1/kPjbkO3ueDWfxYIQRBkGuZxqC/6tLz5qCCmgbrtfeNSe3/cPAGTX285piH9YtrazIP5+054/DsAARBUDlJD/72183ILDdHFdw0WI1BY8jp3zfelKun7On8RDincR7Oa0+HIAiCssg0hnSveVJRTGPtnnUS/Otv3pZDV6O/vCv/7av5+SsZ5jogCIK2tbIFfX7NRVxGHlQU0zD13i/u0h9/y3joTxd/NjKVfc4DgiAIssk0BKdXXWb+HFVU02CtrN6nH4yv0OdeXZLi9/yZU14IgqCylR78zddcpJedg4puGhAEQVABZBqD/qpLz5uDYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/762ZklpujYBoQBEHbQaYxpHvNk2AaEARBpaBsQZ9fcxGXkQfBNCAIgh5nmYbg9KrLzJ+jYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5c5A0DQIAAABcANMAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUFM413p+7Tfz2+RJ/66g3X+i/NS/SO2O/xI0QdlXU0tKA27Vxop4o9gxRVm5slGqxzXY7M2xZSWxtkYZAaMp0PAKBsKZhp/Ocji47GkE2/+bUb9Mv5h6qULWR2gGorfdR7UW1nBKYBACgPCmYapglshD19y3Kfzx5bovi6+nCLmO7ykd/nI8/RMxRXn6UHpgEAKA9KyjRW7v2KPvNNo4dy5MSK+nQLWA9Try9AwQvDdKCymcbX1OcJYjTdU0c7q6uowhug1mAPHdODbCxM/XXCcCqraMdzzTTUcyhDsI/RTLCZan1eqqj00s5AM43NqSQbdtOIXxqk1oBxHI+ob+vJZJSXeY8P0FhTgHaIdFlPLZ2ZP91CDeZx63poalklwDQAAGkoKdNgfjbzgH6t3tiX328F8febySODc5wmj3rpwLA13MdONpLHL8xkTvRB4lGa7q0TgdsMslEa2++lmqOjNC+TwxSsE4E5jWnETh0SZbXTpEqcHxBlBQZo3ti0YDGN5VE6Vu2njrNqx9kBaqgWRjdrbMq8lX5qPbUgem1xip5tp5rKZHp8ooX85nHXxTkIE0yUDdMAAKSh5EyDOTYck/tyr4N7H8XFZhQXu8hvCeILNLSnymok6xPJ4SkZcOtpREsmEaDT9jTWYhTTezIqYI8sqm0Ni2kII4gt6wNnRr0aBo2jGD2NCfneIE7jTVXk7wqL90be1tPa/mtnqNU8LkwDAJCGkjSNh4+Iqltvyf3/8h/MMZMiER2mA9XNNGkGcnOoSt2hG/MXPurl2JtAm9Pg+QtfF00bCQaZ5jTWYzSdGJ6qUnIO2BbTEMS04Slz34agsaPMa5vTmB/YrT7j+ib3SUo3PpgGACCVkjeNv+grrmkYwzqpAdXfabpEfk1DHk8OE6m7/gwB22IaMp8xPGUsGlA9DdemYT8HDZgGACANJT089enDxR6emqVgwEsdF9SmyZU+CrARaME5X8NTU23JQC+ZG6AX3ZhGihGJeu2ymUba4Sk+zyqq7U90nwzMFWswDQBAGkp6Inz8wyJPhIe7yF/dTlMpy31FkK3xUuv7Rm/APhE+1bU7w0R4iHp3pZ8In+nxi7QemhY9DTlpXs/DVC5M41IP1Yh8/WHR01iL0nR/vVwlZTGNDBPh8hyq6yh4KWZsh/uo4TlhjHyKMA0AQBpKyjS2esntdGf65zJmemuo4uCoSsvjktv1hcSyWI+vjnpPDYiyaih4RaVrWExDMH+ymWq9og7VPmroHKXgwSoK9BquYPQ0rEtuO05bazA/nJxLkfVUBgLTAACko6RMo5Qe7gMAAJBKwUzD7DFsVCXzMyIAAABSKJhp8A8WfnaDP1j4x81LNHzxcfzBQgAAKA8KZhoAAAC2HzANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDSAhfiDB3R7eYUWbizR7Mfz9OGVj2n6wxmojMTfOX/3fA3wtcDXBAAmMA0gubMSo2tzC3Rl5hrdXLwltu/S/ftxWn/0SOUA5QJ/5/zd8zXA1wJfE3xt8DUCAEyjzIndXZV3lXPzN+mueA+AE3xt8DXC1wpfM6B8gWmUMXwXOfPxdZgFcA1fK3zN8LUDyhOYRhny8OG6HG7AHz7YLHzt8DXE1xIoL2AaZQb/kfMQQ/STZfUJAJuDryG+lmAc5QVMo8zgu0MYBsgXfC3xNQXKB5hGGcFDChiSAvkG11V5AdMoE3jFC09gAlAI+NrCqqryAKZRJvDYM1ZJgULB1xZfY2D7A9MoA/ihLF5jD0Ah4WsMDwBuf2AaZQBPVBayl9E7vkb73rhD1z7B0+PlDF9jmBTf/sA0tjn8u0H8MxCF4Fe/IqofuEOf+uoNqf90eJGu3tro8ssYzQSbqdbnpYrKKtrxxXrqnYiqNJA7CzS0p4oq2kLGZriLaiq9dORkYdqYrzX8VtX2BqaxzeEfnCvEyhY2jBdfX04Yhqld37+tcrgjdrKRPCKI1R4fpPGzoxQ8XCO2/dQdiqscpU6IOoTZNQRL9Q7bbho9FKj20rFTyjQutAuzrqOhPFWfrzW+5sD2BaaxzeFfKuUfnssnumH8ztdvWkzj78Y2Ngw21SYC2q4BSk6hRmn6VIjmHxfPeNxMw06eTYOvNb7mwPYFprHN4RUt/Iul+YIN4y9+aBhGcPIe/SQSp1+vNwzj5TfvqFzume8PiKDlp9ZTCxRPGdlyCni2IL0eo6m+Rqr1inyix7Iz0Ey9x3eL9+00ZeQQjTBKHXU+0YMRebx+OtDTRccsgT7zEFn80iC1BrT9OycoynWVAZePa8o5+EYnuujAF42yLfsLpGnu6aGRnjraWc1liF5X0yDNpJtPjkVoqCmQyFvzUhdNLqo0ZtlI3yGPFaDWYIhGmsR7sw0XBqlBpHVcUMdO1F1oz6Cw7Nzgaw2rqLY3MI1tDv9vhHz9vPm6KMY0jP7za/KzwdA9aRqbMQzJepTGj/OQlAhaHFBbhmk68cB6dtOY7vLL4PliizG8NSQMQ5ZlmkZ0lI6IAOt5upH6hydocriHDviNIGmWMR+sI091DXUMRyi6vEDTwUNUkxgiC1Ovr4r8TcM0sxCj+Qs91ODbTf0hEdWjEZo820cHRFkBUe/Js6KHZDRLkuUJ6ni6ho71i7Rlsf/ZdqoV9anpCstkM3B7drXQ0KkJYR714thVVNs/K9MtrIv2qPOKc2mhkcgCxRbCNHRQnL9fnCsfd13Ulc/Nu5s6gqM0eWqQOnaJ/GwwDqYRi4j26K0XxxfnPiTeh4RxG7k2DV9rfM2B7QtMY5vD/1QnHzwUhvE///52imFstoeRAgfgYIsIyOKOXATw7gt8q53FNNbOUKsIiLW9eoCN0eRxX8I0ZE+mupnG9Tv3uQEZOGUZ66I8UUagJ6ISmTiN89150xnxbpaCARHU63poajbm0BtyOTwVj1FMmEZMROXJ46JsdVdvmMYhrX4xGtsvPqtzuOsXPRuPCPD9l9Q2w20gjt96Ok7x95tFeoCCV1Qaw0YiTM/JNCR5Hp5i8nXNgdIEprHNyccfMBvGs//XMIzvnzUMY+BCngxjXQQ7/faW76bZKGTQzGIa9gCoiIqeg2kaxvCPPQCnlmEZpjFl7heL0EhnI734NA9R2YePspiGOJ+R/WpoS0rd+eumYaufc53N8zLLsYqPr5+3jiwPpgHyBExjm5Pr8NQDcWedzjBe+sdcexjGXbBH3tEnSd6JK9PQ06PDcjhIBml1l52ppzHTW5O5p6F6KweGrSE6eiVCMdWriF4YpWkzOR6m/hpR53bTyDKbRnSQA3mduPtXZ7AuehLci9mEaRg9iXoa0RPWozQTMT4ohZ4Ghqe2PzCNbU4uE+FsGF/+359Ig+j+sbEqqu/cWsIweFI8Vzio8t17YH8PjZydEHf0u+UkrmkE011sADx5PUyTpwbo2NPGhLIZpO1zGsaSXREk085pdNGLctI8WcZMP8+DaPMiLVwHLzUMivSYYSqepw9R8NQEjQdb5JyEX81JsGl0c/qudlH/YZrSA7aAlxQbE/2zFFteoJnhFgqI/JsxDVqfpeAucf76nMVuHs6roxE+FXNOo9o6pyF7I+lMI8RDXqL31C7adzikrWLbHJgI3/7ANLY5uSy5/at+48G9QhmGSfRscnWRx8crfpJ3+eZqIWM1kGEe/aL3kbizt62e4qGj8R7bMI22esrjq6PeiWFb7yAmg7mcT1F5OkSQT6Cvvqr2UUPLKM1rcxux94WRqOP3XlQfmoiewGRncmVUzUs91HtQvN+MaTA8VNaSLG9nXQuN6x0tffWUqGttEy8OEO/TmYY4ymSL2b5dKUNbGwVLbrc/MI1tTi4P932xM0r/47tG6Oo5s1oQw8iZ+AJNX7KG1+lO0Tup6SNzZD0WCdO8Pjylhrh48hjkFzzct/2BaWxzcvkZETaN3ztwk3x/G5WGsfcflkvLMChOU+1qeKqTl7zahpYYvrPm4SM1vMRLbo/wEJe5TBXkFfyMyPYHplEGbPYHCw8OrkjjYB345xV6VFKGoTCHp/ShpeGIZWJdDi+95DeGYISh1Db2WB+IA3kBP1hYHsA0ygD8NDooBvhp9PIAplEm8IqWQv48Oihv+NrCqqnyAKZRJuDfvYJCgn/3Wj7ANMoIXtlSiJ9JB+UNrqvyAqZRZvBEZfSTxC8CApATfC1h8ru8gGmUGQ8frsuxZxgHyBW+hvha4msKlA8wjTKE/8j57hBDCmCz8LXD1xAMo/yAaZQx/IfPE5hYVQXcwtcKXzO44ShfYBplDq944SEGXmMP8wDp4GuDrxG+VrBKqryBaQAJP5TFww38MxB8F8k/PMe/WJqv//oHHh/4O+fvnq8Bvhb4muBrAw/uAQamASzw7wbxD87xL5XyXSX/bwT+pzpQ+Yi/c/7u+RrgawG/JQV0YBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGmkaTv/yEYIgCILsQk8DAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa+7E7tL/B+HUjPExdF5OAAAAAElFTkSuQmCC</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADfwSURBVHhe7Z2Pcxvneefv70jb6bXXXjtznrvMNW1vPMwNA96xQuZGSDNG4jFrj3GnWqxUOrVCRg5VRVIYypLLkAlLpjzemQ0T1qxZw2XFMW3RYsRYEUVFIeITg1QibIm0KFIiBYsiREqQqDz3Pu++C7y7WABL4gch4vuZ+Q6weN99990Xy+e7748F/w0BAAAALvirhkaCaQAAAHAFTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK7ZMtNY/pcgrV6YUFsAAAAeB7bENNZX7tCVz1dK8XuwVdyn26EQ3V41tlYGd9HlvQO0YmzmhcW236XLbSG1VUxCNPPpXTR3Q20CAPLClpjG4t800+VPi2AixO9LBRngVL1S9QotqnzbBxFYK5+gK6OGccM0AADZKLppPLg+lxKQS3GYqhABtNSBaQAAslF00+AhKTaKpb/7Lt18tUm+v7brz1Rq6ZA2gK6G6dqBLxmGV/kluvrONXooE4wgde2d1+ijP3lCpAt95TVaWrlG881a/pFr9EjmNwJq5IcnaPYrTxrpf7KPrkXuq1SD22OvaOW9QjeuqwSBsf8AzTz7B4m63osM0NWAWZ7T8fT8XOffpRkV05PnvEhze0XegWtGAnO1j6Y/vZeu31bbOqsf0px5jk8+SR91n6PYupFkN41HKyFL+10ZCNM9lcbDZUvf30vTlSLt039A0/u4/VQSk7btGd5X1P9JlTb4Gl0pkGnwkKqbYVUMvYLtSFFN4/Y/9Mo/eHMu45GQaSKf9H1f5SoNHE1j/ZoIpk/QR8EPKS6CYvz6SVH/z4mgy4HeCMDTx8ZoeZXo4e0QzT6rAtjYNZH/PsXOvSIC7z6aV4XKgPqFw3Tj4/v0cP0ORfs56B2mm3Ej/d5PDov0Rrp+9T49EvvfDhrpN9QchNz/yV00G7pGqysiz4qoz5M7aObcHRlMH348QB89+SW69nGa/GlNI/X85XbDCbqrtpMs0vWvPEHTbeformiTRysisItt03AsprH+IV17VqS9FpJ5H94+RzNfEObU/6E0ttXRRnG+r9BNNibRHjfbdiSPmbHtie6O7DPa8rpoy/ii0ZYFMo2ZL++UymQKnMZ5Smn4FYB8UDTT4GGpyGfFHa4IUndOvKU+FYHiwoT8jNMeXNfubLcYJ9N4FHqFLj/TR5+obeaTfh9d7uSgyAH4WZrTegLLwWfp8p8P0LLaNo3FDNIcUCNB7ZzXwzT7eWGqP+FAaNztf/SOHpju0PUGsc+gMbvC+0+LgJtAGMvqbRE01WaijKE0+TOYBt0+QR8lgq5xXGtdFLIHIoK1Mjrm0dWTNDMQIvY23TRk+33+e7SkeiHMo/D3aPrJV2hRfCaPf2gs2fO4/SHdPPehNI3Mbe/QVuvn6GqBTINX/vE1m844TMPga/r+pV+qTwHYHhTNNBYOfk3+oS18Y7/6JMn1l/bItFIapnIyDfmZqGeKZFDkAGwNUqllOJiGMgCTmy3mZ5zXR9euGp+bRF/7XCIIO+2/ekkbnlLSTcaaP4Np6EbBPZh0Q1MczC3GaEU3DVl+8xhp/qLKVu12Q7z/8hN0+dl9dHXgBEVFr8EcWsve9p+j2UtGXoPU7yOfpDMOGAbY7hTFNMw/MB6KcupN6L2QUpkUTw346rOXT8o76FRSg1RqGdYgnRrE79ON5symsdgpgmo607gxQJFP8/DUohzCETnkHfjmTIPo7jt75fmu8DCZ49CUIFfTuKX3aASit7QcHqO5zn0UqXyCIt8Py/zZ2764psHYjQOGAcqBgpsG/yEl5y3+Xn2aCqeZxqLfuW0VqQGfKH5OBE9tzkEigrNxN5wapDZuGh/StWc2Njxl2Z8DuOV412juzzdvGmYP48rLTzgPTTFOw1O3wnTz4jUZ7HXTyDw8Jczi4jlaEr0LE5mmljpnbvviDk/p6MYBwwDlQMFNw3wmg80gGzw8xXlLYfLQyTTknMMXjMnuFQ5Y8Wt045iPPhrhsLY50zAnbxMT3Z8XQVIFRmMiXEsf2icCrNjWJsItJhB5TQTZXXQtvEj3VxcpOiB6CuJ4mzYNYVLzL/MwUKbgu/GJ8I/6w2oi3FgsYE6ER1/bQZe/0kdRrgCf74Cozxdeo6jcN1Pbp06EL77Gq6wKbxqMaRwwDFAOFNQ09Gcy3Exy8x+cmX+rh6kcTUPAS0Zn94ngxvW0LC/dnGlEOgdoxlxy++VGmrMvuX3nMEX0JbdqJRSTagIigI2I/LxkVdZtjOYOJSe/N24aaojKoR0s6Etu5TLaEK3KNrGZhsDSfra8tL5IN7vNJbepS4zTtz1TvCW3TrBxwDBAOVBQ0zCHpfiZDLeU8rMb+cYp6Jcai22i11DidQQAFI+CmYb9mQy3lPKzG/mmlE3j4eodWo3wcx5pVk0BAMqSgpiGvhoqF3EZpfTsRr4pZdOQq7Se9NEV7YlyAAAoiGmYz2TkQ+UwTAUAAI8LBZ3TAAAAsL2AaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA1xTNNO4/JBr8+T168fVl+m8tt+jfff0m/d6Bm1Ql3vNnnMZ5AAAAlC5FMY0f/Wuc/vBbi/Spr97IKM7DeQEAAJQmBTeN77x319Eg7OIeh/me9wEAAFB6FNQ03BrGH31ridYfEf2f91fp337N+AzGsc1ZGKSGynaaUpt5ZT1K02cjFF1X26XOYoQmL0XVBgClTcFM48eX4ynm4KTKV2/RyfB9tRfRyV/cp1+rN9K4DFDCXGinis0G/kKaxuIwHaj2U/8ltV3iRIfqyePvoRm1PdVWRRVtIbUFQGlRENO494DoD76Zfg6DTSETnaeNHgqXwWWBEqVUTeMxB6YBSpmCmMabP7uXYhS6spkGD1V9RpkOl1VU1hdovKWOdlaLP9xqHzX0hCiWGOaI0UywmWp9XhEsvbQz0ExjcyqJmRul1oCPPJVV5PEFqHV4ViUYzJ9uoQZz37oemlpWCYL4pUHrvicXVAqjjusVdZL7dtHkokoSRCe6VLlVtOO5Zhq6FFMpgvVZ6/m0nKH5xPmEqKOyjoa0Q0WDdVSxZ5DkYIkM7C00FupJ1Lu2aVTuLwObOJ6pjgty96xtkECVPXQyeV5m2cl0q6lYg2mMpnvqqUbtW/OS1p5yX/O8jHMMnh2m1ueSbT+tNRHFwhRsDNAOPhevrc7iehhrCiTar7ZpWGu/DHWwk6GcZJtzXbksU8nzj1/soyOy/sZ3PJKmWQEoNAUxjdofLKcYha7//u1bKmd6en6yKvNyWcUjRpPHfVTTNmEYRTRM/XuqqCFoRNXYqUPk8bfTpBp+nh+oI09ggOblVoT6/V5qGJiluNg3fmWAGkRw6L0oEyk+0UJ+c18ec+/RgvPyKB2r9lPHWVXwLO8boKAKDNFBcZzEviJQ9SaPGw+1U021CJBXjKG86Klmsd1Mk2u8FaPxJhHMDg7TDCfHZ2mozkuepjNk5HZjGlVUc1QEc7FDPHqGOnxVdOSkirgpPY3MbWAhpewJ6vBXUW2/OukspmH5LkR7Trb5qaJ+WJyxIMU0hIHV9dE0512LUFB8p/6uMCfKYD60R6szm57PJ0zQaKGZHr/Yd8DSfv5OY9+MdbCRqRxLmwtSehpz3I7qO16P07wwWr9PtI38jgEoLgUxjYpXlmTA362ZR7behZ2fXn0g9+OyioYMNs00rv0xxk83U0Wd+oNei1FM/0NVwWlE3vVzcKrRxtHFH3dogqbmOEpwYKqi1tNGIJKsnaFWc18RCGLLWprK3zDIR52lYI1t3/UIjbUPiLvauDCFKgr06redUZrqa6exK+KtrF89jZjRiIkO0wFLQM1mGtb24IDmaVcBLcU0MrWBDVl2C02qu21GtrWvi6Z5Q6anNw1Zz4OjyvwE0QhNno2kMY0aCnJ7KOS+5ncqzsFT05eYT2BmemsS58jHDPRE5HsmPheiydCCPG7GOtjIWk4G05hq89q+Y74mvNSt+QoAxaIgpvHbLxtGwfMRB95a2ZRp3Io9kvtxWUVDBkEeFrDJ/IPmu/zE8JSZbganuOgB7KYdPATU1ENDHDwSAdG427WUadlX3LVqw1NmutHD4X1305A+DJbAMJeOCbVph8/HFhCJwtQregvGcJIb00gfuFNNI1Mb2HAom++oXzQ/y3bsBdE7e9pLO55rpI6+YZrWjSnFNNKfo3yvtXlC6jjxcB+96OUhrWbqD07QjBnZmUx1sJGpnMymYXzHTnVMDAkCUEQKYhq/8/WbMuDfvf8ruf3NE4ZxpNPn/iZ1uCom9uU0LqtocBA073QdkH/ccjhCBQdLcFKIu82p4T5qrRMG4D9EY4nA5aNeNSKSgizHGJ7iIRIzUBTGNELUXV0o01A4toENh7I3ZBoMD9WER2mos5FqRUCu7Qkbd/2W78WFaewfdewdJFiP0kxomIJNPDfkp2OntMLS1cGJNOW4MY3EkCAAW0xBh6embyRvMzMZh1Mv5F8XHsq0og5PzQ5QbWVyLkGi3SnzH7M5vyGRQU4FpJShiSiN1Jv5ZykY0MbrTcyyOfhqQUMGil3avinDU/wcQojm15yGp2JySEjeycrgmW14ympIOZlGxjawIcvONjxlTU8e22HY62IX+S2G48404u83kycxB6RIHFME+bPWXkFsuF7tm6UOFjKVY60PYzWNOE0e9ZLnqDkPpdDaBYBiUhDT+Is+Yy6jVx8MF6QzDifTeO2MMRHOZRWPKI3tF3+gPGnKh+Xg3FtHtV3G3SNPZlbs6aFp0dOIR8MUrOdhKtM0RumIuHtsNe9C5aSxV9xNGiE0drJRBKc6CqqVTbFwHzU8JwIkF3yph2pEOf1hEYrWxDH76+VKHjPY5jwRriabeQJ2ZL+4+09MhBt3sbVdxgqx+OwotfpFwHJrGtI0hSktivbgArO0QXx2gsZDKjTKsjNMhK+LYF/tpSOicePibj7K7cUrj9Sxp7t4Ytn8nuI00y8Cr/mswwZMg9bD1CuOy/WQDwPGF2j8aA0dGeZU43pIpInrYfy4aL+DRs8kYx0WQzR+dla1c+Zy7KYxP7CbKurFtmhU2fMMd4nrI9mucrL+6UYaM3cAoIgUxDTMJbf2VVK8lFY3C1N203j0q2RvpfhLbkVgNZdGymWggzRjxDyRZiyb5IDu8dVR76kBOqZNsurLZnnp5pE+61DF/HByPsS+NJZXxMilpzwf0DlKwYN6D8K65La2sc+ytDO55JbHzFto3NJT0s6Hy24RQZoDkYkIQDwuL/cNNFPvcRGw3JqGMJ2xwzXyfI1J+8xtIFcQ1Q9rZduW3LacsTzFHb/YQy9qy1l7RZskji0C72RncrmrPG+zx7QR02CWQ9T/kt9YcivbfyJZj1iEhvTrQbR9YrluhjrIlVXermTbZSgnpT5qroRvSIxFFmL3UA8d+KJx7chrbyKRG4CiUhDT4F+rNZ+z+IGtt/EfD6V/6O9P2m7RBx8/TCy35Yf78Mu3AABQOhTENBjzZ0R+XfQi+KdBTN6Zuk+fPWb0Ipz0maZF+q39xnv8jAgAAJQWBTMN5runjJ8D+Y2GG9Qu3j9QXf50w1S6eF8AAAClRUFNg2nTfun2s8eX6O2L98l8BiOdvj0CwwAAgFKk4KbBjF1y/0+YOC8AAIDSpCimwfCEtv7vXvlfvbL4Pf7dKwAAPB4UzTQAAAA8/sA0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuGZLTOOtCw/I/91VKX4PAADg8aDopjF17RF5mu9axJ8BAAAofYpuGgMTD1JMgz8DAABQ+qCnAQAAwDWY0wAAAOCaLTENAPLFVFsVVbSFjI2FQWqobKcpYyuF+GyIpmZjaqtwRIN1VLFnkKJyK0QdlXU0tCA3UlmP0vTZCEXX1TYAJQ5MIwuWoGQhTlPtfqpIBKkYjTd5yVNnBgtFbII6fFXUMKCihggSk531VOMV5VZ6aWegmUZmjaSsrM9SMFBFNe0hcXSNuQERLH3UMaEC4nKI+l/y045KcYxqH9U2DdJMmlgpA1x1HY3Yg5oMwBmCXV7ggMrtoMR1beyhyUWV7IKNmMZUp/h+Do6KbyoTCzS0R6uT+I5qXmqhkUvuzWZDprE4TAeq/dR/SW0DUOLANLKQ1jTCXVQjg4oWpGJnqLXaS0dOmrahjCXQRzPyTtLY9tT10TRnWY/RdG8deXxdNO32TvNKH9VW+qk3rLZFkBupE8Gw6YwykiiN1AtjaZugGJcZn6Uhke7vTOxgQQY4cR4pZldE0+i4YGzFY7M01X+IaoSJDc0Zn2VjI6bhDsM0GoLqxNcWaOZUO9WKwN5xwZ1xbMg0AHjMgGlkwdE05B2/n7rbm62mIYidbCRPdTONc3yRxhKg4BUjjQNItzCVbr24NWE0TkHlQrsWeKxMdyWNyHI8iTUQM/FTh9KWJQNcTUAERd3sBA6mMX+6hRp8Xnn3vbOuh6aW+dMYje3XgqxgustHFQkTE8c/LdqpRtRXbSdJrSvD5+fZr/UIYmEKNgaMnpM3QK3Dya5Zqmm00FioJ1HP2qZRmleGnPYGwILNNBSynf1Wc3duD2fTCJ4dptbnknmnzZMrijkDkD/ybho/F5Gsf/yBfE3H3fu/oqHQAyl+nw5eVcXLcbdydZVToOGgIO/sObCn3Nkad/7+433Uy0NJXc53+Alk0BBBf01tm2QwDVoT5uMXga2nz9azYeI0edSb7GkIg+OeRrp6mAFuRgR2T3UjjZlF2YJZfKKF/P52muR0HofvSQZGWUbCJISh1og2qxbtoi4BNhG/4/GdTYN7UwGzTdY5iHupYWCW4qK8+Nwotfp8Yh/jaKmmIdr8qDAKkRyPnpFDg0dOGhE6F9MwzL0mcQOQtT0spsE9OdW7XItQUJSfaA+YBnjMyKtp/JPtGQzetsMmUdO5msjzZ99bczQOXlVVpZW1VausUgJNdJSOeFVwdTQNgZxjEPuJoDJlNwMLxjyIY0DPZBoCGbRkMHLIsx6m3qfF8bkOQjv3D6ctJxng1JyMGfwtwcwIpK2nzb6DQPWQRnj+gYM8mwR/zvvVtFPHfp8aQjOCfooxSNKYhn5s0Q4eWy9lpreGPO3Gd5JqGlYD5nTHvGlJYxqWumZuj1TTSJoNI9PN7w2mAR4z8moaT303aQYs3rbDvQs9D4s/s8PLcfU8vL0VWAONEVgTk9rpTEPOO4j9fC00mRhjsRMTd+C7aYcIHubwiRFAjECfIluw4yEfD3++ZyC5vyRKY/u1noaa08jW05ABjA1R9FxaT4tKW4KZETBT62WmC5PyGYGRh3H4LprLDfTOqmDq0JOSZDcNWb+U4wqp9kg1Dev3oafnzzQyt0eqaVhNwZIO0wCPGXk1jS+1WwM9b9t5nE2Dh6P8+ri2k2nI4RSeiB6kfvHqPz6RGNvXmReBw8M9Ed1U1uMUW44ZOtVMFbv6aNrc1oOuXJElzKt3wLoyi1nkICR6Qmp8XSKHe4SBWczFwBrgjKDvYbO7ZDcNs+fgzFSbqM/grDBVlY+PyeWGRE9Bn5+wkMY0tOEpWb+0+xfRNCzDU5nbA6YBtjN5NY1/+dlDS6DnbTs8FMVDUmaeTMNTelnFGJ6a7g1QoEsPKnERBM3x5yiN1PHdpLPMwDc/IAKC2cOQPQ4/dYesthGbaKcaHg/XA7udtMNTMZo87hNpRg9D9jj0JbMyCNnu7LUgbMduGhw05ZzMHtFTSAQzY6lvbb9tbbBmQnKyu76RjnhF0Jaf89xGHbU21Rg9DkecTUOfCI+/z+fXTJN63bXjFss0rBPhmdsDpgG2M3mfCP/l9UcU/OkD+ZoONgnuXbCcDMOk2BPhRoCqo2A4SnFx1x89K4K7ZXmrDXtPgwOAObyjkCudtN4J91ZcLSlNYxpxceduXZFlDEcl7+aNgNbQE1bDUws0ftS2Gkkj1TQE8jzYDJPBzFilJdpGPa8QC/dRw3PivEw/lMFP7KOtmpKrqDL2UKymwUtuJzt30w69fXh+xm9MbssH4OT51NCRYaPGmzaNK6PU3T5K88aWhs001hZoOniIArYlt5naA6YBtjN5N43HnfnhZqqVyyiryOOro94Je9jW0E2Dh6XEHXpKcFYrnYw5BSMg2XspUvY74GiEJkML1qGtmAhAibI0lFklVlFt9OE+B3OSw2e2YKa3zY7nmmnI8sCbsWrKXKkkEe3j0VZRpWKYRqIN0j3cZzufhs6JxBPUmzYN/u7MyXsL9u/Im/bhvnTtAdMA2xmYBihLYsP1GedKAADOwDRAGRKlsYONrp86BwAkgWkAAABwzZaYBq+E4iW0rK16aA8AAMDGKbpp8EoofSktayt/JgQAAIB7im4a+HevAADw+IKeBgAAANdgTgMAAIBrtsQ0AAAAPJ7ANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANcUxTQGLtyj3//rRfrUV2+40h83L9E7U/fU3gAAAEqFopgGm4CTOWQSmwwAAIDSoiimYRqBWzaaHwAAQHEoqmlsVAAAAEoLmMaWskBDe6qo44LaLAtC1FFZR0MLahMA8FiB4Sk7sQgNNQVoZ3UVVVR6aWegkYKhmErMN5lMw0hrCG636ArTAOBxpiimsVG2zjQWaKTOSzVHR2k+Fidaj1M03EcN1X7qDontvAPTAAA8XhTFNL49cpe+ffKu2srOlpnG4iA1VO6moTm1rZju9FHF8Qm1RTR/uoUafF6jJ1LXQ1PLKmGB92+hsVBPIr22SRjQukoXzJ9splqv6MVU+6ihc4C6dzmYhiyHezpKewYpqpLmT+nHbqFxW10NDMOp7Z9V24IrfRSorKcRVVCmcqbabGYl62MGeiPo9we75HmkmppKH062wc79AzST6KwZ6cGzw9T6XLINp/XO3HKIgo0B2sHn7g3Qkb4wJSzbRRvHL/bREVl2Fe14rplGtGYAAORGwU3jF9cfJEzArXFsmWmsh6nXJwJhT4RiWhDSiU+0kN/fTpMcfNejNN1TlwzqKtjLnoqIcvHoGeoQ5R05qSJiuItqqkXADIvcohczf6qZakR+tz2N+Olm8vgP0cgVoxc0M1BHnupmGncYPYsGtXqZ2/XDxFmzlZPdNKrIw2Y5GyPukFkx0mUbrInNaJiCovfmOXpGBX5z/z6a5sqtRSgoztPfFZaptD5LwYAwgq6Q8R1EJ6jDLwywV0X+bG08NyB6hqKu6tzYpP2+dpriugAAcqYoPY1//Onahoxjy0xDEL80SMeeFnepfIfb0kfjETPsMkYgbz2tRcq1M9QqAuoIP1YiA5oIvlqA4gDsaQ+p917yd6rgKBHlOfU0JHbTMLYPDOv1idJIvdPdviA6TAcSgd7IZ+ybvZzsplFDwSsyxQFOt/XWLnaRP9EuqftLQ6tTBnehnTy+LprWTZv3rxaBnz9z0cYB02AkwoRqvNRtJAMAcqQgpmEG/XTKZhxmvi2D71DDwxRsqpMT4jt2m8Mnxl1yYtgoIRVQZUATwY2zKjigVbRxxDKCdeKOWGJ85s40nIP1dJdPlW9HM4rlUTqSGJrKXk520zDfO+GQvi56Cxn213tF8n2T2StRyPqrfVy0cer3k66NAQAbZUtMo+VdPXCmYuYrCXi4RAQiY/iEA56PevXOgs4WmMZUu+gVOZoGUWy4nir2j1L0dHNiaMpNOXk3DdUbS7d/VtOQc01qnw23MQAgnxRleIp/e8qtYTBbZRo81l9hHxoRzA/sVsMnPN5um2BmzPwZAxq/L+LwFKN6GEf2e7X9spfDdX5xQCszV9OQk/D68FR603A3PJWujeM0eVSfP1HYvk8AwOYp/ET43MMNGQazVaZBayHq9nuptn1CW3I7SMfEZw2DRpSLnWwkD09mXzLOJcZLcp8TQY6jVBbTsE+EzwwfyjARTjR5XPRw2kMUjxsh0JjAFsF3zqjbzGCjCKZiO22zxmhsvzi+LUhnK0cG8UAXTXEUX5ul8aN+rQw3ppGcqKb4LA3VCbMUbWCcRRbTUBPhDaI7Z0yEh6j3OftEeJY2rvRT6ynjAPG5UWp9upHGdI8EAGyaovQ0Wk7GXBsGs2WmwSxHaKSlnmp4WawIfju+uJtagxHLnev8cDPVyuWexpLOIWUgWQOawNWSW0VcGNKLMm+yzOSx1VLZLMtJ5RCVtorKJGM56ws0driGPOL8PL4AtXa10IsbMo3d1D3QlVgSGzg8mLLkNq1pMMsh6n/Jry25VSupGBdtHAv10IEvGt+Px1dHvRNwDADyRVFMY6NsqWlsM3hILO3wVUHIZioAgMeZO7G7hTeNjZoATCMPrMUoFuFnFpIP9BUHmAYA25mimsZGBTaPXA1VXUPHThY7esM0ANjOwDQAAAC4BsNTAAAAXFMU0/j9A+7/P7ipP/rWktobAABAqVAU0+DfnmITcDIHJ7HJvCH2AQAAUFoUxTQAAABsD2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa6Rp3Lt/nyAIgqAS0r17qa+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/762ZklpujYBoQBEHbQaYxpHvNk2AaEARBpaBsQZ9fcxGXkQfBNCAIgh5nmYbg9KrLzJ+jYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/zNRfpZeegopvG3bX7FLywQt62Jfq80JviPX/mlBeCIAhyKdMY9Fddet4cVDTTWFy+R52jd+gzTTdT/ic4f9Zx6o7M47QvBEFQ2UkP/vbXzcgsN0cV3DQ+vHGP/vqt2/S7jUmz+PThm9T+3h0pfm9+znkOiLy8j1NZEARBUBqZxpDuNU8qmGmMR1Zp1/c/oV+vT/YovvC3SzQ4GbMMR/F7/uxPO24l8vE+/+vvo7IMvUwIgqBtq2xBn19zEZeRBxXMNEwD+O39N+grr39CFz/ObgA/n1mll/o/od8S+5j7O+XbWp2n71RW0XfGndJSdSdyniYjUce0nDX7Ju2rbKNJpzTWXJjOXVxwTsukbOXmos3WCYIgZ5mG4PSqy8yfowpuGgu3ndMziffZStNYuvgmvfr8TvIIc6io3kkvHH6TLt8y0zdmGpPtXvI0vktLDmkb1ngbVejBPEtwv/7P+8jzVDdddkjLqAKaxqbrBEHlJj34m6+5SC87BxXcNJzS0un9S8neyFaZxp3zbfRM5VP06rsRWloR27ci9OOmp8iz9026usp5NmYaedUGTWPTKmRPA4Kgwsg0Bv1Vl543B5WMafzg7IrM/80Ty3J7a0wjQm88X0Uv9ESsn9/+Eb1a6VVGYTeNKF1+o4le2OkVAd1LO59voveumGmip9Eieist5+X762/spYqjr9N7h5+nHdyL8T5Pr749S0uT3bTP3H9vN00lejW2cngfJXl8GdyP03vnk/u/cPhdZW7qeLVv0nWznCvvJnpQnp3i2Cds52lKlfvW2+K8vHw8h3LVORmytcnqrDzHndViX9lTO+Fcpyz1Z92Z7KVvPMtpVbTj2SZ6O5JMy3g+GeoAQY+F9OBvvuYivewcVBKm8Y/nY4n8x97eQtNYfJe+UfkMvXHJnrZCV8+fockrK+K9NUAuvXuQPE+10bkFY/vq63vJ8/zrdFXtm2Ia1XvpjQ8W6M6qKPOfXyZPtTCKfb00xfvfDtNbe730VMcHMn+KHHsaVfRMkwi03Cta+BF9Z2cVfeNtYw7Fahph+uFTXtr3ekQcW+S99DrtE8H0tUlVlq6Ucs/Qd54SZtpnBOVspnG5m3tmr9Nlse+9lYhxTu3GOaWaRvr637vCddxLb10S7c7tJUzsqZ3i/OWQZ+bzyVQHCNqWMo1Bf9Wl581BW24ab/0s1TBYbvfPq2QQE0Fq1iEtIdtd9e0oLenzNqqMt+eM7dSexplk3lURjLmsM2rbzKP3DnQ5mkYT/Vg7Ph/P06YdL1EW1/sZ+uFFM69uhMn9pWS5x+mcfsf/XhNV7OykKfE+m2lwHZ7vDifS71w5T+fOz9Id8T7VNNLXf7LFS89ben2iJ/iMl753nt9nPp9MdTA/g6CSlh787a+bkVlujiqYafz2y0bQ/2TFqOyZy6mrp4Z+HkssydUNg/fhz7gMPX/BtRnTWI3SVGJ4iodyWMkyUkwjQ7BN5NmQaVjnHlKOlyhrhaZ6XqAd4m583+FuemssTEvphmscyuW7/r9Un2U7jzsf9NJfenmorYl++MYZuqx6YaxU00hX/1l6q9ZsT6uM42Q+n0x1gKBtKdMY0r3mSQUzjT9sWpSBP7KwRof/ZVm+/6efJu9q2TB+oyHVMFj8cB9/zmXonxdcaYenREPdEj0KHuqwBUgZBOXwlDo3m/GUjmkoLYRp8kQvvbp3J3meOkjvORlkjqYhtbpAl8+foDcO76Wd1U9R87uz8nNLnVyYRmKoKp0ynU+aOkBQSSpb0OfXXMRl5EEFM40/647KwM+/LcWmwO+5VzH8/2L07sW7aQ2DxftwGpdhTyus1ES4GrtPKMNEOAe5fW9owUgG1xI0DRFcz/HdeCLvAr29z1Z3U7LcLMNT+jCb5TxEoB6z3tkvndiXqId701ihc01e8jT9yDqkZNYp4/lkroP5GQRtC5mG4PSqy8yfowpmGn976o4M/Lt/8IncNo3j337tBv2mUDrDYNX+8BOZzmU4pRdSd0Rgfqb6BfremJpgzbLklidcK2q7aUr0NO4sfEBv7ONhqgKZhjSkffT2nDgW93o2ZBqiFyXutl8177blpLNX3H07GLMsN/1EOJuXp/plepvnD1YWaKpnr1zBZJrGew1eue91bi9xt//jo6IXoJ5VcW8aYvuDTrX82ajzHV4t9eWX6T02g4znk7kO5rEgqKSlB3/zNRfpZeeggpmGOcTEPYrrUaPCpnFkMgzOa/ZCPtqi36BaOt9L3zAf7vM+RS8fP5H+4T61tJOX0Hp27qXX3n2dmrUhrryaxn1xrIPPyHrte3NhY6YhdEd/aNH7PH2j9wPniWFZrm3J7fEfGQFY5onSVPcLatmwaJ/uTnHO2nncCtNb5nJX3vfl3sQy4g2ZhtDS+W56+U+N+SLZvmeST5NnPJ8MdYCgbSnTGPRXXXreHFQw02B9ucv4PamX/+l24jM2i3SGweK8vA/v65QOQRBUFtKDv/mai/Syc1BBTYN/S4qHorjnMBG565hH1/kPjbkO3ueDWfxYIQRBkGuZxqC/6tLz5qCCmgbrtfeNSe3/cPAGTX285piH9YtrazIP5+054/DsAARBUDlJD/72183ILDdHFdw0WI1BY8jp3zfelKun7On8RDincR7Oa0+HIAiCssg0hnSveVJRTGPtnnUS/Otv3pZDV6O/vCv/7av5+SsZ5jogCIK2tbIFfX7NRVxGHlQU0zD13i/u0h9/y3joTxd/NjKVfc4DgiAIssk0BKdXXWb+HFVU02CtrN6nH4yv0OdeXZLi9/yZU14IgqCylR78zddcpJedg4puGhAEQVABZBqD/qpLz5uDYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5cxBMA4IgqBSlB3/762ZklpujYBoQBEHbQaYxpHvNk2AaEARBpaBsQZ9fcxGXkQfBNCAIgh5nmYbg9KrLzJ+jYBoQBEGlKD34m6+5SC87B8E0IAiCtoNMY9Bfdel5c5A0DQIAAABcANMAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUFM413p+7Tfz2+RJ/66g3X+i/NS/SO2O/xI0QdlXU0tKA27Vxop4o9gxRVm5slGqxzXY7M2xZSWxtkYZAaMp0PAKBsKZhp/Ocji47GkE2/+bUb9Mv5h6qULWR2gGorfdR7UW1nBKYBACgPCmYapglshD19y3Kfzx5bovi6+nCLmO7ykd/nI8/RMxRXn6UHpgEAKA9KyjRW7v2KPvNNo4dy5MSK+nQLWA9Try9AwQvDdKCymcbX1OcJYjTdU0c7q6uowhug1mAPHdODbCxM/XXCcCqraMdzzTTUcyhDsI/RTLCZan1eqqj00s5AM43NqSQbdtOIXxqk1oBxHI+ob+vJZJSXeY8P0FhTgHaIdFlPLZ2ZP91CDeZx63poalklwDQAAGkoKdNgfjbzgH6t3tiX328F8febySODc5wmj3rpwLA13MdONpLHL8xkTvRB4lGa7q0TgdsMslEa2++lmqOjNC+TwxSsE4E5jWnETh0SZbXTpEqcHxBlBQZo3ti0YDGN5VE6Vu2njrNqx9kBaqgWRjdrbMq8lX5qPbUgem1xip5tp5rKZHp8ooX85nHXxTkIE0yUDdMAAKSh5EyDOTYck/tyr4N7H8XFZhQXu8hvCeILNLSnymok6xPJ4SkZcOtpREsmEaDT9jTWYhTTezIqYI8sqm0Ni2kII4gt6wNnRr0aBo2jGD2NCfneIE7jTVXk7wqL90be1tPa/mtnqNU8LkwDAJCGkjSNh4+Iqltvyf3/8h/MMZMiER2mA9XNNGkGcnOoSt2hG/MXPurl2JtAm9Pg+QtfF00bCQaZ5jTWYzSdGJ6qUnIO2BbTEMS04Slz34agsaPMa5vTmB/YrT7j+ib3SUo3PpgGACCVkjeNv+grrmkYwzqpAdXfabpEfk1DHk8OE6m7/gwB22IaMp8xPGUsGlA9DdemYT8HDZgGACANJT089enDxR6emqVgwEsdF9SmyZU+CrARaME5X8NTU23JQC+ZG6AX3ZhGihGJeu2ymUba4Sk+zyqq7U90nwzMFWswDQBAGkp6Inz8wyJPhIe7yF/dTlMpy31FkK3xUuv7Rm/APhE+1bU7w0R4iHp3pZ8In+nxi7QemhY9DTlpXs/DVC5M41IP1Yh8/WHR01iL0nR/vVwlZTGNDBPh8hyq6yh4KWZsh/uo4TlhjHyKMA0AQBpKyjS2esntdGf65zJmemuo4uCoSsvjktv1hcSyWI+vjnpPDYiyaih4RaVrWExDMH+ymWq9og7VPmroHKXgwSoK9BquYPQ0rEtuO05bazA/nJxLkfVUBgLTAACko6RMo5Qe7gMAAJBKwUzD7DFsVCXzMyIAAABSKJhp8A8WfnaDP1j4x81LNHzxcfzBQgAAKA8KZhoAAAC2HzANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDQAAAC4BqYBAADANTANAAAAroFpAAAAcA1MAwAAgGtgGgAAAFwD0wAAAOAamAYAAADXwDSAhfiDB3R7eYUWbizR7Mfz9OGVj2n6wxmojMTfOX/3fA3wtcDXBAAmMA0gubMSo2tzC3Rl5hrdXLwltu/S/ftxWn/0SOUA5QJ/5/zd8zXA1wJfE3xt8DUCAEyjzIndXZV3lXPzN+mueA+AE3xt8DXC1wpfM6B8gWmUMXwXOfPxdZgFcA1fK3zN8LUDyhOYRhny8OG6HG7AHz7YLHzt8DXE1xIoL2AaZQb/kfMQQ/STZfUJAJuDryG+lmAc5QVMo8zgu0MYBsgXfC3xNQXKB5hGGcFDChiSAvkG11V5AdMoE3jFC09gAlAI+NrCqqryAKZRJvDYM1ZJgULB1xZfY2D7A9MoA/ihLF5jD0Ah4WsMDwBuf2AaZQBPVBayl9E7vkb73rhD1z7B0+PlDF9jmBTf/sA0tjn8u0H8MxCF4Fe/IqofuEOf+uoNqf90eJGu3tro8ssYzQSbqdbnpYrKKtrxxXrqnYiqNJA7CzS0p4oq2kLGZriLaiq9dORkYdqYrzX8VtX2BqaxzeEfnCvEyhY2jBdfX04Yhqld37+tcrgjdrKRPCKI1R4fpPGzoxQ8XCO2/dQdiqscpU6IOoTZNQRL9Q7bbho9FKj20rFTyjQutAuzrqOhPFWfrzW+5sD2BaaxzeFfKuUfnssnumH8ztdvWkzj78Y2Ngw21SYC2q4BSk6hRmn6VIjmHxfPeNxMw06eTYOvNb7mwPYFprHN4RUt/Iul+YIN4y9+aBhGcPIe/SQSp1+vNwzj5TfvqFzume8PiKDlp9ZTCxRPGdlyCni2IL0eo6m+Rqr1inyix7Iz0Ey9x3eL9+00ZeQQjTBKHXU+0YMRebx+OtDTRccsgT7zEFn80iC1BrT9OycoynWVAZePa8o5+EYnuujAF42yLfsLpGnu6aGRnjraWc1liF5X0yDNpJtPjkVoqCmQyFvzUhdNLqo0ZtlI3yGPFaDWYIhGmsR7sw0XBqlBpHVcUMdO1F1oz6Cw7Nzgaw2rqLY3MI1tDv9vhHz9vPm6KMY0jP7za/KzwdA9aRqbMQzJepTGj/OQlAhaHFBbhmk68cB6dtOY7vLL4PliizG8NSQMQ5ZlmkZ0lI6IAOt5upH6hydocriHDviNIGmWMR+sI091DXUMRyi6vEDTwUNUkxgiC1Ovr4r8TcM0sxCj+Qs91ODbTf0hEdWjEZo820cHRFkBUe/Js6KHZDRLkuUJ6ni6ho71i7Rlsf/ZdqoV9anpCstkM3B7drXQ0KkJYR714thVVNs/K9MtrIv2qPOKc2mhkcgCxRbCNHRQnL9fnCsfd13Ulc/Nu5s6gqM0eWqQOnaJ/GwwDqYRi4j26K0XxxfnPiTeh4RxG7k2DV9rfM2B7QtMY5vD/1QnHzwUhvE///52imFstoeRAgfgYIsIyOKOXATw7gt8q53FNNbOUKsIiLW9eoCN0eRxX8I0ZE+mupnG9Tv3uQEZOGUZ66I8UUagJ6ISmTiN89150xnxbpaCARHU63poajbm0BtyOTwVj1FMmEZMROXJ46JsdVdvmMYhrX4xGtsvPqtzuOsXPRuPCPD9l9Q2w20gjt96Ok7x95tFeoCCV1Qaw0YiTM/JNCR5Hp5i8nXNgdIEprHNyccfMBvGs//XMIzvnzUMY+BCngxjXQQ7/faW76bZKGTQzGIa9gCoiIqeg2kaxvCPPQCnlmEZpjFl7heL0EhnI734NA9R2YePspiGOJ+R/WpoS0rd+eumYaufc53N8zLLsYqPr5+3jiwPpgHyBExjm5Pr8NQDcWedzjBe+sdcexjGXbBH3tEnSd6JK9PQ06PDcjhIBml1l52ppzHTW5O5p6F6KweGrSE6eiVCMdWriF4YpWkzOR6m/hpR53bTyDKbRnSQA3mduPtXZ7AuehLci9mEaRg9iXoa0RPWozQTMT4ohZ4Ghqe2PzCNbU4uE+FsGF/+359Ig+j+sbEqqu/cWsIweFI8Vzio8t17YH8PjZydEHf0u+UkrmkE011sADx5PUyTpwbo2NPGhLIZpO1zGsaSXREk085pdNGLctI8WcZMP8+DaPMiLVwHLzUMivSYYSqepw9R8NQEjQdb5JyEX81JsGl0c/qudlH/YZrSA7aAlxQbE/2zFFteoJnhFgqI/JsxDVqfpeAucf76nMVuHs6roxE+FXNOo9o6pyF7I+lMI8RDXqL31C7adzikrWLbHJgI3/7ANLY5uSy5/at+48G9QhmGSfRscnWRx8crfpJ3+eZqIWM1kGEe/aL3kbizt62e4qGj8R7bMI22esrjq6PeiWFb7yAmg7mcT1F5OkSQT6Cvvqr2UUPLKM1rcxux94WRqOP3XlQfmoiewGRncmVUzUs91HtQvN+MaTA8VNaSLG9nXQuN6x0tffWUqGttEy8OEO/TmYY4ymSL2b5dKUNbGwVLbrc/MI1tTi4P932xM0r/47tG6Oo5s1oQw8iZ+AJNX7KG1+lO0Tup6SNzZD0WCdO8Pjylhrh48hjkFzzct/2BaWxzcvkZETaN3ztwk3x/G5WGsfcflkvLMChOU+1qeKqTl7zahpYYvrPm4SM1vMRLbo/wEJe5TBXkFfyMyPYHplEGbPYHCw8OrkjjYB345xV6VFKGoTCHp/ShpeGIZWJdDi+95DeGYISh1Db2WB+IA3kBP1hYHsA0ygD8NDooBvhp9PIAplEm8IqWQv48Oihv+NrCqqnyAKZRJuDfvYJCgn/3Wj7ANMoIXtlSiJ9JB+UNrqvyAqZRZvBEZfSTxC8CApATfC1h8ru8gGmUGQ8frsuxZxgHyBW+hvha4msKlA8wjTKE/8j57hBDCmCz8LXD1xAMo/yAaZQx/IfPE5hYVQXcwtcKXzO44ShfYBplDq944SEGXmMP8wDp4GuDrxG+VrBKqryBaQAJP5TFww38MxB8F8k/PMe/WJqv//oHHh/4O+fvnq8Bvhb4muBrAw/uAQamASzw7wbxD87xL5XyXSX/bwT+pzpQ+Yi/c/7u+RrgawG/JQV0YBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGpgGAAAA18A0AAAAuAamAQAAwDUwDQAAAK6BaQAAAHANTAMAAIBrYBoAAABcA9MAAADgGmkaTv/yEYIgCILsQk8DAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa2AaAAAAXAPTAAAA4BqYBgAAANfANAAAALgGpgEAAMA1MA0AAACugWkAAABwDUwDAACAa+7E7tL/B9LrkVyX6Qm4AAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>110018</x:t>
@@ -253,319 +277,316 @@
     <x:t xml:space="preserve"> Accounting Services in India  </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">       Flat No. 379 Pkt, Ground floor, 1, Block B, Sector 17, Rohini, Delhi, 110085      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADlcSURBVHhe7Z3/cxvnnd/7Z2Ry1/Z6d9Okv6SdXu7qzjAZFkxZoZcKcx6h5zEaj5F6LEYO3LNCnmzxFEtmqEgOj3RYMmF1DXN0aPPMGD5WHDEWLUaydWKoY4j4xGNOJhOZTGRSX4yYEiRKkCi/+3ye3QUWiwWwJAgQJN6vmc/sl+fZZ59dPPi89/myz/4zlJDDJxL45Neu4MUfJcw9wK/iqzj29m20vZnQ6xayLXHlmM1hCcN76tAUXTK3HSwNoak2gmEdbMTtmtQhBhNtqKntxLTeKJAWYuiqzTw+GetESKXfpI6r6YgZOyc74Qv0YDZ9m4ALPQjWq/PY97lxoRfhUK+ZHxPJY6gf8+amZmEQDfWtmFoxt3OxuoBoOIC+C+Z2BoWuV6Hvn3l/ZN2v7uVlHaKZ7rBddz5WZ9AXqEPzSNzcYZF5TyW9jPwUupc6f22YsoXb8xSPRhz5s5/PuP6MPK1OqHCrvDhx/v7OvPsR7J4xNkxmuwPwmecvFJ6d10J4+P0yyC6/wmxPADUtZ5FU6zoPe4ag70iBe5883ZpVLpMLMUzNGfcz/VsmMd0ZREhdm5wjm8L5ckeV7ZBLmdK/oR/H5FbK/6Q2jOiCEaRJXY9xfPtp2xlW45g9F8Oi/l857q8ua40YtZ8uPoLmVHmR68hVdjaXP2vaj5KKxs8X72sh+Mzz15C0FxgH91SYxJG4cszmUOCPkyEaCZw5oP64LWOqUCRVAR9D1yN+m2gAU0frEOxUhTvpVlTdCrfxh6hR+1N/eO2o/Wjqm0FC7l88hr7H6tDQZ5ZcVTCnT01g0U1nV86ivV4dO7hg3Pv4DKIRP0I9dmejztkRyHJAGawmkVB/4OiBIHYcGFNX7sYaRUOxOChOZRCLZrlYHNyNmkblZNT9kvwunuzEsZP2f2iapHJCofrdOHZuAQm5vSsJLJ7rVH/qIAYuGnGyRKPgvVS/ibpfh9QPnFTXHJ/pR1O9V9FQJeLkfviCrRi/rDKUVL9Lz2741ikauNSvhDyC6IzhVRKTPYbDuqQ3C4Y785rvXhq4/365j3PkN3W/1P07aeQpQzQK3fuVGI4FbWV1aQztarv9HeO/k/FbJpQjDwTQNeFWEgvnK9c1xYci6vd7HsMz8vurHSsLmOpUv2FQlVnt+OM4s88PX6Qfs8tqU0ShL4IG9X+SXBrHd2JKTrOa0GG+sCrfcqgi0x8kMN6i/ouHlf+QzeQCRvcp0U8Jm1xHlYqG8Mffjmsx+Ju/z/0o+1fv3NZx/utLxg+7OaxFNBSJGQxE1A+tCumOx1oxPNyJcK1yGuZlJlVhfdqvnI48TRm7bDidhklC7Q86nriXYxh4RjlsFb/GH8ah/pjxx9NhYzii/hDuT/8KETMzjzX+IJq7J2Cr3KmSLk83jqcnO/qa1fU93Iiukbn0ebNYu2gYjsTmOJSjOKKFN4LRa4aj8Kk/WS4SF4fQrmo++trU02Bo934MTKTLT5ZoCPnupSKpamf6N5P0nulF3wG17lE0xBHM9kawU4RGpd0e7cWR9YqGIhHrRfPDcj+kfO1HNJbpJPOFO/Na6F7m+v1yH2fkVz/gmOYLyDXPmU7PzIMlGkKBe49rE+gzy6ovEEHXqXShdP6WUjPxqdrxeJZuFM5XvnsRP9eLQ1aZqg8g/EwPplRZTKHK7GhL2PiNVRlpaBnCfCoPCcxHW9Fglp+G/f2YFnExyfIH9rTUuZralICk7odcRxWLxqmf39WC8FDrddx1qUT85tbH+FTzVR1H4hKi/r4YbaxTT4duT5Nkbaz3Xm7H34DlqljKIhrCf+s0ahtHRrJ/rIaXl3XYF1WNhBBNXNU69g3ZnrzIulnvvdyOvwHLVdGUTTR+eX0V/7zpirbpy+nqxsgFoxYi+yUOIYSQyqVsoiG0j97SAvG5o9d1R1P81sf4N39hNEv9pQojhBBS2ZRVNB58DPxJt9FM9bXBGwh//yO9HuiK6zBCCCGVTVlFQ7hy4wE+bXZ6i8m67COEEFL5lF00BGs0lRhHSxFCyNZhU0RDkD4M9mMQQsjWYtNEgxBCyNaDorFFyH4bOROZp2d6wdsLS2uJWwyZbwQXeMNVz9Mzl/m2OiGk4qBoOEnGMR8bQbSlEeFA5vQfMv2AfXqCtBnTXuTGmKLBfoxMbXCo1zGlRx4KicZ0tx++nPNCZeItrjPPMq1GG0YvehebNYnGtRE016fnjcqJzCU0F8NofyuaHwngmHMalkLhiTkMt4SNqSzqA2iQucPsv0Gh8IWR9NQlLtOyuJWRvFOrELLFoGhkII5S5ozpwXBPo/rDu80ZlUlipBG+w/lmzxQc8/oox5ZYkAnZ6hyTB+amkGhsPI48ryxh/lQnGpRj75r0JhxrEg2PSJoyz9KxaA+alUN2zt2VPzyJqcPGJJPa0ScXMCwTOPbOGcGFwvXsuvYJICf0PGHpmVGTGG9R29EFJJYTactfOAjZUlA0nFhPjZOdhUVDnEgw11ThdhwO2ERmRbVPB52I9ePQY7YJ6C6knbN2wEfHMG2fEO9kOj39hGuJip4YsA1nYr1oUk7OmFgt/cScETcnufPsC2ZOcb14ui11np2R3tQkbW6iET2nntT1NRpxZ61LdE4GmYvUeSW9bNHIGy6z/taG0jPFCvap4guFu+Rxvjdou5fGPcvKEyHbCIpGLjyIRvKd1oypj3Pj7oD1NwTkGwOyoae63o2+ScPFJs7JtzUcU13XBtF+ypy2+502BGv344zpoLNFQ9VizGmXk/Gz6AqkJ2krRjScjjWpnGowNR10XM/yaglFtmjUGdNKy46VOURV+kGrpuVVNFLkEI0ULuGmmNq/l4HLg3ja+p0Lhcs3E2R6b6umsSw1jfSU28Y5A2iImM1beqbb9OyqhGwHKBq5KCgahgOx5vvPj4sD1t8LSDdPefqoTsZHZMRBmR+HUWSLRnqKdkHCremgixKNDGdsxMn48IwWFaOPJ1s0Mp/idXjEDC+baDh+U/u+QuHC0ggOfVHdPxEFZWF782JyDqMtreiTb3wsJ7B4qlUJv9cyQsjWgKKRi0KiIV8dc36JLCeGc7UcjWF+NHRanaguzlehm6/sT+0Zjj7TKWaLRmbe7eEbJxrGeuZ1iRnOP1s0MkUhI1znucJFQzdHOvs07DWNbET4838xjpCtBUUjF3lFw/iCV8NAri8XOXE4YNP5pJ2Nu2jIl8AqTjQymqckDwH05ejLr0zRKKJ5KmZ+slQHGOgmxidyN1Fm3gNCtj4UjVzkEw2v39ROke2A9ZfHZEivmcbav/m8OaKR2RFufnnPKZ6m06040Si2I1zKhG3ggmD/tnXinTaED45kCMR8X4g1DbKtoGjkIqdo5Pmm9qUxHOscc3nqdHPAxr7Up07X+M3nDRMNr3leWcJs9HmEHUNutYhIvs33NxLyPebHlKgoL7lu0ViOIdo5mPGpzGzWIRrqt8sYUrs8p7+Znha9AuEiKvUBPWrNaJ5yfHM9PoZDcn/OGVecvDSov03NPg2ynaBo5CKXaOT7prYc4/o9cPendsz0IGRzpGv55vOGiUaBPKf7KXK/3Lc40ooGPeRW8t2KYTPOukXDXM//wuR6REPheHmvyfnN9ELhBV7uS8p3y81h0/rb1CNuBYWQrQtFYwORF/1q9nl7K7tSqMg8W4MMzE1CSOVA0dgw4jhzYD+GL5ubW4JKzHMSs3/ViGMe3zonhJQXigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGfKJhp37wN/G7uDp19dxhfaPsTvPXcVn26+qtdl39DP7uDeqhmZEEJIRVIW0Rj7pyT+8BvX8MmvXclrD7Vex5mLSfMoQgghlUbJRaN99FZKFD77wjW8cPwmxn9xD8srH2s794uk3idhVryX3rplHk0IIaSSKKlodCjnLyLw+89dxYkLd/Hxx2aACxImcSSuHPPtUxSOjSAejaBmzxDi5jYhhBRDyUTj7feS2vn/zp9fwT9+cN/cm8aqVTiZVnHlGAmTNDaDu+8dx8G2P8ZnDj6ET7zwx9jz8knMJszASmN1CVPdjQj561BTW4cdDzeibyItERUpGqsJTPdaefZjZ7gVwxfTN1jnWV1L2pxxljC8R+2vb8XUirkrgwVEw3JcJ6bNPYSQjaEkoiGd3n9gNjf1jbv+q3OKhvCyOkbCJI0798yd5WLm+/jiwUfw3Mh7uPpRAjeW3kP02CP4TPsPsfDAjFMxLGE04ocv0o/ZJSWwq0nEZ/rRVB9E16ThYCtRNBIjjagJdmJKMqXyPD8YgS/Qg1lzIERWnpMJLJ5qRag2jOgl2WGKhhKU5hGXK1sYRIMWG4oGIRtNSUTjhz+9o53+Z1uu4UGOJql8oiHHWB3nr6u0ykcCJ7oeQmjofXPb5MF7+O7hh/Dcj80n3Q+O48sHOxH98bcQekHVRg5+AaGXz+GGTVTuTv8Qz7V9QYU9hD9q+xZOpJKcxksH9+KV8ydVbUbCP4/Pdb6C6XXUZJLvtMKnnrbHHcfO94VSTjfLAa8uYLwtgp318qQeQFPbWSzaR61dHkN7OACfcrq+QBjtIwtmgMHi6TY0BfzG03+kF9PLZoAieaEXzQ9LmFHjGYi5X9R0hzp3R8zcUiTGcKQ2guElY9Nd6JIYb6lDsGdGrRui0dyoxCc8iEUjQorZ7gCCKuzpEonGysqKtkJ4jUfIVqIkorH75WXt8PP1S+QTDUGOlfAGlVbZ+Og0njv4GF75pbltY3rwYXziryeNDS0an8eeofdwQ2na3V+fwzePKLE5/oER/msV/sJeRH+pnv4fJHH17W/hC4c7Man1T0TjIXym84eYFq+YeB+vvPQQvjD4ngSuidmeAGpazip36iA+h6lzc0oCnQ44oRyvH6EDI5iXg5ILGJaaSiqNOQwE/WgaXEBSCUny0qCqtQTQd0EHIjnRhmCqhhDHbK8t7WXl+KWGc84807lOVTNoxKixmYEWOysdxaLUNIJ5ahqabNHoOn0W7fUhs/ZhsiL7VI3knSE0lUg0vvvd76KjoyOvIEiYxBEjZDtREtGo+eZ17fAv/Dq7L8OikGhMX76vwyWtsqHFQDl70/fbuTqyF5946TiuyoZZ05i01SxunHoWn3jxh5Dn8smXP49dGbUVJQwvfh4v/YOsi2hkCpNOu/OkkfYayHpidyHDAS+JI3U48vgImlNP+TF01YYwcFGHKJJYjE2o30IkxXDU7adtEiUOWh07ek2t67Sft9V64pg/N4F5F9EQZntUbUg3ISn74n6cMWsZgptoJGZ6VfoBdE2m83LopBIuqVV0i5AY6KavxhEkdH5KIxoffPABDhw4kFM4LMFoamrC5KT5oEHINqEkovG7zxqCcPNO7uFShURDjpVwSatsrFU0dIiJ1C70vg8RVTUHaZZy2ktTEtFonrKfIyPtDJKYOurHjqMT2bUJxZpFY7ITNaF+zOsQixn0BdRTu76YJGb7dmOHNFu19GJYaiuppisRFNPJZ5glOEs4czAEnz+MQ239GJ1Z0rUVNxIn96drGlafhrOm4ThPZlOZIRpNUXVi6b9IdYibzVbSz1FC0RByCQcFg2x3SiIa8ra3V9GQ5qdbd7PjWaIhQ3DLxpqapxyi8csfYpdNNFL9H1lsnGjkbJ5SjjixbOwtLBoxHKu3RMMkPofpkX60RwLKmT9v1gJENALoSz/Uu5K8PIPxaA8OPeaH74lezGY9iMcxGpFagv3+LCAaUnmYMLbcahqZ2ERD0ms0hcIuILFO+ErcEe4UDgoGqQZKIhr/8bDRPCVNTLkYit3Bv95viIt0ev/sV5nDpGTorYSVtXkqZ0f4+3ilLbsj3O4W7p77ltk8lcTZ3s/jM72TuGuGaVJNWWsRjfxYHeHOYac5O8ILNU/Z+kIMDIdsOGdjGGvDQGbHOMzaQfJyDFMxVbswNtV+ew3Gjkszlyka1r61iYY69+lW1IT7MWxvqhKBLLFoCHbhoGCQaqAkovGVHxgd4Z0FXtBbXH6AnZ1xHfe3G6/gxR8lsGo6VzlW9n+lv4wd4UKOIbefOPJ9TFuOX4uG2REufi4+iZeOPIQvj3xohJtpfPOssa07yl/8Ok5o/ds40ZB3NKQjO3RgCLNxlZGCQ27NjvDDY1iUfCcXMLpP1Sas2kp8DIfUse2nDGeM+Fl0Bfw4cspISzcr1UcQNd+XSMi5HuvBrBw804OQLUx3otcGbf0jaRYHwipPqhYimVJ51sNp6/fjjKkSaxUNo/NbmrHCiFqaVibRECzhoGCQaqAkomEfcnvf1lnshgyv7f7xLfyLpivY0fGhfsdDjpFjJY3yDrk1KPhynxaNVvSOpIfcfvnVyYwhtzf+4RXsPfwF3ZfxmW/sxXcnTUHZSNEQ9BBa+4ty+zGQ7+U+FX+0JWwbcqsExNb3kLw4lBpyWyP9E/0zGc1fiyOtaNBDbuuw4zHHS3kTPakht75ABF2nTafuxMvLfWsRDYV0iOsOcHO7nKIhiHBQMEg1UBLREMdvzSWV6+U+J9IcFb9l9G3IMXKsvNwnaVUcbn0ahBBSBZRENASZrVYcv0wJkm/orROJu9nTiBSEokEIqVJKJhqCzFYrzl9GQP1ouvCEhRJnS0xYSNEghFQpJRUNwTk1+qHjN/GTX97TTVFiblOjyzGEEEIqj5KLhuD1I0wShx9hIoSQyqUsoiFIh7a8m2F97vVTzdmfe63ITm9CCCEpyiYahBBCtj4UDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnyiYad+8DQz+7g6dfXcYX2j7E7z13FZ9qvoo6tS77JEziEEIIqVzKIho//qck/vAb1/DJr13JaxJH4hJCCKlMSi4aL711y1UgnCY1DmtdjiGEEFJ5lFQ0vArGH33jOlYfAH/1zm38zp8b+zZHOGLoqo1geMnczCBf2BZkNY7Zc3OIr5rba2WyEzV7hhCX9WLTIoRsGUomGm+/l8wSBzerffFDnJy5ax4FnPzHu/itRiNM0igvJRKNpSE0FS04SxjeU4em6Aap1rURNNcHMXDR3F4rdtEoNi1CyJahJKJx5x7wBy/k7sMQUchH92mjhiJpSFrlo4pEo1jsokEIqRpKIhqv//ROllDYrZBoSFPVZ03RkbTKh0MYLitnr56guyYSaiNfmGJ1CWdawthZX4ea+gAaWkawuArEoxHU1Kp9pqWc/rUJ9D0TxA7Z7w+iuXcGVr1KH3N0EKP7AvDVdmJai046DctZT3c4RCRDnIz8Doz0oingV8f5sXPfIObN7DqFTKc1MIFRdQ2SJ19AHXvBiqxIzGAgIvmpw47HWjHc+3xaNJyiuBrHVHcjQn7Jrx+hZ3oxa0vKSXyix8yjmfZFW+TlGKL7jTzV+MM41J++T8Z52zB8shUN5rkaWsawuJzOa9Z1EEKKoiSi0fDycpZQ2O0//+WHZszc9P7dbR1X0iofNmFIqPWg3+aU84UB871B+CLKKYtHSy5gOOJHsHvGCHQ6VcxhQI4fXEBS+gGWJ3R67e8Y7tAQmiDaR+YQX7ZcZHZNo7Bo1CF0WDnRFbUZn0FU5cl3+KzhdF1Eo6Y+guiMkoHVJOYHVB4CPZjVoXGc2aecv6SlDk6aaeUSjYx7sZrAVIfats7rIBnrREidd/iSERo/1aq2WzEleV5dQDSshKAnhoTcp7jcpzo09C3ouMZ51X3sm0Fc8nV5BIfq/dgRaExfx2BECYd1HYSQYimJaNR887p2+Ltt4lGoduHk79+/p4+TtMqHKQyXlYNWTjHUEbM5unxhhtMN986ZW+LAYpiKLbk6aHFmieWEIRgmcryvM6bXtWi0OJ3sekRjt8qvDjG40INgbSvGxSG7iEbYcsaCGT56zVpvxKhWCJOJtpyikUwkkLBnXpqy6lWNydxMk8R4i+O8KsXp/k6cuaRW1XHa4ds72OUaJC3Zp8/bhilb+NRRJX5HJ8wthSNvhJDiKIlo/O6zhlBIf0TzGzfXJRofJh7o4ySt8mE42vaWMGq+qJxrRiUnX5hyfzP9eNrvx85IKwaiE5i3O1g3x7Vka56yTAmRoEXDXE+zHtFwnHNVPalb+xx5ypuWOH3n07q9T8N5fatLtuYpy9xEw7imLpuPt+MqnstjOJRxDZnpynVk3Dtn3gghRVES0fj9565qh3/r7sd6+4XjhnDksv/0rezmqoQ6VsIkrfIhjlaanRYw2xN0qWnkCjNZjWM+NoJoSwQ764M4csr0VE7HtaLSCkjz1FyqtmF3diUTjZWzaM9wuOnwjRONpEorYDRPSY1GkLgbJRrXbOfS56VoEFJOSto8NXsl3W6QTzjcaiH/tHRfh21K85Q4GOXYjwWD6Jq0OlHzhSmxOJdZu0iMNOZ+EndxdrpZZR2i8fSgzRtmnMdFNC71I5yneSqnaOh1r81TphBMyrqJxHUVDbfmqQQWY+a9VGJTuHmKokFIOSmJaHyl3+jL6NPeKU0u4XATje+dNTrCJa3ykelok8rZBQNtmNLakC8s3VGsX3BTNY7xo+pp+8CYcoGyLc1CARyLJZGUx+blMRypD6D95AKSK0ksnmpDWEZd5RUNQ1iCnaqGoxMx44V7MC0OdmUB44eDyjlbeZT8mh3hEt3qnFfp6qMdzjSvaNiuz+gIj6HviVwd4QmcOaDOI6OY1LUlF8bQ9YiMjDKdu7o306cmsGjqrZeOcOnoNjrC1Xkfc3aEUzQIKSclEQ1ryK1zlJQMpbWLhWVO0Xjwcbq2sqlDbpUDHG/xw6ebSPKFyeYchq0htzL0c3+/bZhpErN9u42hrGZnd/JCeihsQ8sQRjtDqaaYXKJh9Juo9K1OZRnmezBkDi0No72nDU+n8ij53Y1jg9ZwVj/CB4fyD7nNKRqKtQy5dcYd7kzXcLRg+tF3wYgqpIfcSp9QG8btFY/lGAZSQ5NlyK05kkqgaBBSdkoiGjJbrfWexcuO2sZnns/90t9/6fgQ7/7qfmq4rbzcx5lv14tT5AghpHhKIhqCNY3Ib6tahEwNYvGj6bv43BGjFuFmn225hn+1z1gv/zQi2wmKBiFk4ymZaAjfPmVMB/LPm66gU63fM5sVcjVT2U2OJcVA0SCEbDwlFQ2hwzbT7eeOXseJC3dhvYORy/5ylIJBCCGVSMlFQzhz0ftHmCQuIYSQyqQsoiE4P/cqn3oVk3V+7pUQQrYGZRMNQgghWx+KBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9simi8MXkPwW/f1ibrhBBCtgZlF43pXz+Ar/VWhsk+QgghlU/ZRWNw4l6WaMg+QgghlQ9rGoQQQjzDPg1CCCGe2RTRIFXK0hCaaiMYXjI2pzvq0BQ1N7JIYDEWw2LC3CSEVAQUjQyWMLynDjX1rZhaMXdlsIBoWIXXdmLa3IPVOKa6I9hZL/v92Blpw/hlM8wkcXEI7eEAfLUqjj+I5u4JxFfNQMygL1CHrglzU6POE3I61DhGI/mcrB3jOtzixqMR1OwZUqmZXJtA3zNB7JC81QfQ0DKCxVTeMtHHSjzTdjzciK6ROSTN8IKsSTTUffH7ceQUVYOQSoKikYEpGsohNo+k3GqahUE0aIeZFo3ZniB8kUHMi+dcTWJ+MAJfsBfzRjCSk50I1YfQdWoBieUEEgsxDDT61TFDpnNOYrylDuG+BR1fo52rOs++MfW8bbJyFu21AfTNmNt58SgaKzEcC/rRpBJNSF6W5xCN+BHsdj9JxrHqWuNzYzj2hB+hjpg34ViTaBBCKhGKRgaGs21ubERNeBCL5l6L2e4Agirs6ZRoKCe7J4S+mN4wyHCMRs0kyzEqZ90V8KP9HcPVxoeUM1YiYslU4uR+1KjzNNe2Ytyq8cz0IFjbhilHLcDd8XoUjVgnfPW2WpMiebo1syZiI6uWIsTHcKg+mCFmyQv9OPSY36iNPNaKUUsP3URjYAKjLWFd0/EFIhi4YMmkukdqX9ekuUkIqQg2XDR+Nr+KgfF7epmLW3c/xnDsnjZZz4WMqpLhuOUbXWU4267T6qle1Q6il8zdgjzp14cRfUccX6ajTbEax2xfBDssAbgmcXdj2NFcJUwdVU6y01SbS/0IpwTBqHm0n15QefGnnKZ22Paah0lRouGCDm8561pzcD/WUVO6PIimeiUMl1QKqjayeLIVwYC6XyJ+LqJRo+JGZ1SKUksbUOkHejCrQykahFQiGyoaP3S8gyHbTkQkQt23U3H+x3dWXIVDRlXV2dIqzygrw9keOqmcv9QqbM00iRFV+2gcQUI7PqdoGA5Ot/U/YjpIvVs9yecQmPm+EGo6TNFYVcfXm01Pen0/ziwbcQxn7NKEZZJPNKy+hyzLJRoJEcbMWoOdXIKjnb95LdMdfkc+pX/Gj2MS7CIa2c1yEYxekw2KBiGVyIaKxq5vp8VATLadSO3CHkdM9jmR4bj2OLJdemxP6NJ/keoQN/brfg5X0TAxaxq+oHpallqDV9FQ9Ycz+9R5h1T60gxlOebUunSWp/sztPN2CoFphpNdR00joc7xhN/1GIvCopFbrHS+XEQj43wZ4RQNQiqRDRWN/96Z6ehl28mWEQ3lGkcbTaGwC0geIdCsTihnZzp4r81TisXB3bpZaDZVu1BYtY4ZScfWv5FMGJ3qysYP1+Hp/rnUdlI3ca1RNFZV/EjhDm130bDXgozzHjqZY8QTRYOQLc+Gisb/++n9DEcv206kKUqapKw4+Zqn7GmVs3nKcmS6Uzjcj2F7U9Vkp3pytkRjBgOhEAYu6A0DLRpWf4i3jnCN1CpCrWjfk9mXIs097S0qH7aOcjtZjlezBtFYTWCqI6gEY8IYQZUHV9HI6AhPYuqwH77Djj4RK12KBiFbng3vCP/5Bw8Q/ft7epkLEQmpXYi5CYbFZnWEpxyZ7vyW5pUwolbTe4ZomE4yNeTW0TwlMZxDbpdmMHxAhulaQ25NtNioc6U6gg20cKn9bv0ZQnGikVDHu+QlBxnHypBbVQM68oijhqLEL1QbRPsp49zJy2Nof0TVluQgigYhW54NF42tTbazlQ5x3QFubmeKhmJ1AeNt6Zf7Qs/0YEp35KbJeLmvXomMEqG+GWcTjtGv4Uv1c5gsqyd5lW4u55mYm8D0ZWejkkfR0E7a6HNwmtv59LG2OLle7kvEetH8sDHkVobR9k2YdROKBiFbHorGJrA48rx+Gj8yspTlcAkhpJKhaGwSyYsxzOfoLyaEkEqFokEIIcQzmyIaMhJKhtCKlWdUFCGEkI2g7KIhI6HsQ2nFyjc6ihBCSDGUXTT4uVdCCNm6sKZBCCHEM+zTIIQQ4plNEQ1CCCFbE4oGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8o0Xjzt27oNFoNNom2p07hZfFmKSxAUbRoNFotK1sliC4Le1mxS/SKBo0Go1WiWZ3/tayGLOnXYRRNGg0Gm07mCUM9qXd7HGLMIoGjUajVaLZnb+1LMbsaRdhFA0ajUbbDmYJg31pN3vcIoyiQaPRaJVodufvXK7HrHSLNIoGjUajbQezhCHXcoOMokGj0WiVYIWcviyLMUljA6wsovHKTxL49F9cwye/dsWT/dE3ruF47KZrWjQajUazmSUIbku7WfGLtLKIhoiAmzjkMxEZt7RoNBqtKszu/K1lMWZPuwgri2hYQuAW5mZrjU+j0WhVb5Yw2Jd2s8ctwsoqGms1t7RoNBqtKszu/K1lMWZPuwijaGyqLeCNhjq8NO4Wtl3tPF6qfQpvLLiF0Wi0dZslDPal3exxizA2Tzntwxm8cfBx7KyvQ02tHzsffxavnY+7xy3a8omGEbb3tQWXsK1sFA0azZPZnb9zuR6z0i3SyiIaa7XNE40FnHjKj0db3sT7H97Ends38cG7fdhbvwvfOV+K0VwUDRqNtkFmCUOu5QZZWUTj6Mgyjp5Ydg1zs00TjcuvY2/tk3jjUub+6c6dqDl8NrX9/ltHsXen36iJPHUMU9fMuAty/FG8df5YKvzJg0qAbqfTev9EC570q1pM/U7s7XwV3/mfLqKh05GajmkNr+MD6/g37ec+ircdeTXMEJwn++fS+y724fHavTixZGznS2eqzSFWOj+Wozec/g9e69bXkS1qZvjx9D3Y2fQq3vswM/y1M8fx4pfS93A6Fa7s2nm89uzj2CHX7n8cX+97FzesMA/3+MZUH76u067Dji+14MRcOoxGq1gr5PRlWYxJGhtgJReN2Pu3UiLgVTg2TTRuv4vv7VSO8NgMrtuckN1unD2KXbs68BNxvreXMH3sqbRTN529rqncVHGXfoyXVHpfP2E2b73bjUfrlcN8d0nXYt5/swWPqvheaxo33mqBb9cBnLho1ILee/Up+Opb8Lbd4Zr2wWu2fFnbe4/julovlE5h0aiDT8RyLo7r6jpT8bQZ4foefKS2l97Fa6r25mv5sen4reP7MC338KMZvKauc1fXu8bxt+fw2uNKCLrOG7/B0lm8tEsJYK8pgIXu8aVXVc1Q5dW8NhHpXTs7MCV50een0baZWYLgtrSbFb9IK0tN4wfjN9ckHJsmGspuXHgdrX+qnlLlCfdoH96eUQ4+FW448hffsjVVffRjvKgc6onLal07NOV8bQ5KHLCv47y57seuTtM5alPpudU0rLAM0TC2nz1uz88STux1e9pXtnQcz6YcvRHPOLZwOoVF41G8dtE61mkS7qitTXVjV+q+ZB+vBe0pU+DGO+Db2Y1pu2jL8fXK8cs+D/f4cUtgtCkRetSP75xPx6fRtoTZnb+1LMbsaRdhJRENy+nnskLCYcVzCyuLyRPqu8fx2sGndIf4jiet5hPjKTnVbJQy06Fqh6acmy0tcWg1beLQDGedeiLWZuzzJhruznq6a6eZfub+DKG49ia+nmqaKpxOYdGw1t3MJfy2qi3kOd5eK9LrB61aiWk6/+YxHu5x9u+T6x7TaNvILGGwL+1mj1uEbYpoHKl00bCbNJcoR2Q0n4jD24nvvesST2wTRGOqQ9WKXEXjLq4f34uapjfxwVstqaYpL+lsuGiYtbFcxxcUDd3XZB6z5ntMo21Rszt/a1mM2dMuwsrSPCVzT3kVDLHNEg1p669xNo0oe//VJ83mE2lvd3Qwi1nx8zo0WS9j85SYWcP4epPfdlzhdCTPX311A0VDd8Lbm6dyi4a35qlc9/gmftJi7z8xzfF70mjb0ixhsC/tZo9bhJW+I/zS7TUJhthmicadj87jO7v8eLLjrG3I7etoVfv2vm440esnnoVPOrMvGE+z12VI7peUk5MO4QKi4ewIf+/4gTwd4Xfxk8OqhtNxHjduGn0oRge2cr6XzA7s159VzlRtu3SEGxbHW03q/A4nXSgd7cQf78aU7qiew9stu2xpeBGNdEf1nZtzeOMpJZbqHqQ7wvOIhtkRvrf3XbMj/Dy+9yVnR3iBe1y7Cy++afxeNy69iRf/9Fm8ZY4ao9G2jNmdv3O5HrPSLdLKUtM4MrLsWTDENk00xK7N4MTRvXhUhsUq57fjT57Ei6/NZDy5vn+8BU/q4Z7GkM43TAEp6NCUeRpya9oNJUhf1XHTaabPbQ6VLTCcVDdR2UZRWZY3ndsLeOvAo/Cp6/PtfBwvdh3FV9ckGk/iO692p4bEPn7g9awhtzlFQ+zaefzgf+2yDbk1R1JJmId7fP38MTz7J8bv49v5FL531l6rotG2mVmC4La0mxW/SCuLaKzVNlU0tplJk1jO5quSWCFRodFonszu/K1lMWZPuwgri2isVQQoGhtgH8VxfUbeWUi/0Fceo2jQaJtiljDYl3azxy3CyioaazW3tGjeTI+Gqn8UrSfKWcsQo2jQaBtidudvLYsxe9pFGEWDRqPRtoNZwmBf2s0etwhj8xSNRqNVotmdv3O5HrPSLdLKIhqfbl77517/sIWfe6XRaDTPZglDruUGWVlEQ+aeEhFwEwc3E5HpV8e4pUWj0Wjb0go5fVkWY5LGBlhZRINGo9FoJTJLENyWdrPiF2kUDRqNRqtEszt/a1mM2dMuwigaNBqNth3MEgb70m72uEUYRYNGo9Eq0ezO31oWY/a0izCKBo1Go20Hs4TBvrSbPW4RdiNxi6JBo9FoFWd25+9crsesdIs0igaNRqNtB7OEIddyg4yiQaPRaJVghZy+LIsxSWMDjKJBo9FoW9ksQXBb2s2KX6Rp0QAhhBDiAYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ4pmWi8OX0Xnz96HZ/82hXP9lDrdfxIHbf1iKGrNoLhJXPTyWQnavYMIW5urpd4NOI5HR23I2ZurZGlITTlux5CSNVSMtH494euuQpDIfuXf34FP1+8b6ayiSwMoqE2gL4L5nZeKBqEkOqgZKJhicBa2NO/rI/53JHrSK6aOzeJ2Z4AgoEAfIfPImnuyw1FgxBSHVSUaNy88zE++4JRQzl0/Ka5dxNYnUFfIIzo5Aiaa1sxvmLuT5HAbG8EO+vrUOMPoz3aiyN2J5uYwUBECU5tHXY81orh3ufzOPsE5qOtaAj4UVPrx85wK85cNoMcOEUjeXEI7WHjPD6V3/aTaS+v4x4dxJmWMHaocJ1PW7iweLoNTdZ5I72YXjYDKBqEkBxUlGgIP52/h99qNI6V9c0g+U4rfNo5JzF12I/mkUx3nzi5H76gEpPLqg6SjGO2L6Ict+Vk4zizz4/Q4TEs6uAZRCPKMecQjcSp51VanZgyAxcHVVrhQSwamxlkiMbyGI7UB9F1zjxwYRBN9UroFoxNHbc2iPZTS6rWlkT8XCdCtenw5EQbgtZ5V9U1KBFMpU3RIITkoOJEQzgyktDHSq1Dah/lxSEUF3oQzHDiSxjeU5cpJKsT6eYp7XAbMWoLhnLQOWsaKwkk7DUZ02GPXjO3bWSIhhKCxLK94czIV9OQcRajpjGh1w2SGG+pQ7BnRq0bcdtP245fOYt267wUDUJIDipSNO4/AOrbP9THf/UVq82kTMRH0FzfiinLkVtNVeYTutF/EUCf+N4Utj4N6b8I9GDWCDDI16exmsBsqnmqzjR3h50hGoqErXnKOrYpahyo4zr6NBYHd5v7JL/pY9JmFz6KBiEkm4oXja/0l1c0jGadbIca7LZUYmNFQ59PNxOZT/15HHaGaOh4RvOUMWjArGl4Fg3nNdigaBBCclDRzVP/7mC5m6cWEA370TVpblpc6kdYhMDmnDeqeWq6I+3oNZcH8bQX0cgSIpWvJxyikbN5Sq6zDg0DqeqTgTVijaJBCMlBRXeEj/+izB3hMz0I1ndiOmu4r3KyIT/a3zFqA86O8Ome3Xk6wmPoeyJ3R/h8b1CF9WJW1TR0p3mjNFN5EI2LvQipeAMzqqaxEsfsQKMeJZUhGnk6wvU11EcQvZgwtmf60fSYEka5RIoGISQHFSUamz3kdrY793sZ830h1BwYM8M2cMjt6lJqWKwvEEHfqUGVVgjRS2a4jQzRUCyebEWDX+WhPoCm7jFED9Qh3GeoglHTyBxy23U6MweLI+m+FJ1PU0AoGoSQXFSUaFTSy32EEEKyKZloWDWGtVrFTCNCCCEki5KJhkxY+Lk1Tlj4H1qvY+TCVpywkBBCqoOSiQYhhJDtB0WDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA2SQfLePXy0fBNLV65j4VeL+MWlX2H2F/O0KjL5zeW3lzIgZUHKBCEWFA2iuXEzgV9fXsKl+V/j6rUP1fYt3L2bxOqDB2YMUi3Iby6/vZQBKQtSJqRsSBkhhKJR5SRu3dZPlZcXr+KWWifEDSkbUkakrEiZIdULRaOKkafI+V99QLEgnpGyImVGyg6pTigaVcj9+6u6uYF/fLJepOxIGZKyRKoLikaVIX9yaWKI/2bZ3EPI+pAyJGWJwlFdUDSqDHk6pGCQjULKkpQpUj1QNKoIaVJgkxTZaFiuqguKRpUgI16kA5OQUiBli6OqqgOKRpUgbc8cJUVKhZQtKWNk+0PRqALkpSwZY09IKZEyxhcAtz8UjSpAOipLWcvoG1/B3tdu4Ne/4dvj1YyUMXaKb38oGtscmTdIpoEoBR9/DDQO3sAnv3ZF2789eA3vf7jW4ZcJzEdb0RDwo6a2DjsebkTfRNwMI8WzhOE9dajpiBmbMz0I1fpx6GRp7rGUNc5Vtb2haGxzZMK5UoxsEcF4+tXllGBY9sRff2TG8Ebi5H74lBNrODqE8XNjiB4Mqe0gjsWSZoxKJ4YuJXZN0Up9wnaKRi/C9X4cOWWKxmSnEusIhjco+1LWpMyR7QtFY5sjM5XKxHMbiV0wfv+5qxmi8d0za2sGm+5QDu2JQaS7UOOYPRXD4lbRjK0mGk42WDSkrEmZI9sXisY2R0a0yIylG4UIxld+YAhGdOoO/m4uid9uNATj2ddvmLG8szgQVk4riPZTS0hmtWy5OTyHk15NYLp/Pxr8Kp6qsewMt6Lv6G613olpI4a6CWPoigRUDUbF8QfR3NuDIxmOPn8TWfLiENrDtuO7JxCXvGqHK+e1zN35xid60PywkXbG8Qotmnt6Mdobwc56SUPVulqGMJ+rPzkxh+GWcCpu6JkeTF0zw4RlI3yHPlcY7dEYRlvUunUPl4bQpMK6Js1zp/KubM+QkuzikLLGUVTbG4rGNke+jbBR05uvqmQswRg4v6L3DcXuaNFYj2BoVuMYPypNUsppiUNtG8Fs6oX1wqIx2xPUzvPpNqN5a1gJhk7LEo34GA4pB+t7ZD8GRiYwNdKL5qDhJK00FqMR+OpD6BqZQ3x5CbPR5xFKNZHNoC9Qh2DLCOaXElic7EVTYDcGYsqrx+cwda4fzSqtsMr31DlVQzJuS5rlCXQ9EsKRARW2rI4/14kGlZ9Qz4wOthy374k2DJ+aUOLRqM5dh4aBBR2ewaq6HxG/upY2jM4tIbE0g+ED6vqD6lrlvKsqr3Jt/t3oio5h6tQQup5Q8UVgXEQjMafuR1+jOr+69mG1HlPCbcRaN1LWpMyR7QtFY5sjH9XZCO4rwfjy9z/KEoz11jCyEAccbVMOWT2RKwd+bFIetQuIxspZtCuH2NBnd7AJTB0NpERD12TqWzFuf3K/PKgdp05jVaWn0gj3zpmBQhLj8nTeclatLSAaVk490ovphYRLbchj81QygYQSjYTyylNHVdrmU70hGs/b8pfAmX1qX8TlqV/VbHzKwQ9cNLcFuQfq/O2nk0i+06rCw4heMsMEERIlem6iodng5ilho8ocqUwoGtucjfgDi2B86f8agvHX5wzBGJzcIMFYVc7O/ngrT9MiFNppFhANpwM0iauagyUaRvOP0wFnp5HRTGOZdVxiDqPd+/H0I9JE5Ww+KiAa6npG95lNW9rMJ3+7aDjy555n67qsdDJNzm+/bjs6PYoG2SAoGtucYpun7qkn61yC8czfFFvDMJ6CffqJPk36SdwUDXt4fEQ3B2knbT5l56tpzPeF8tc0zNpK80imi45fmkPCrFXEJ8cwawUnZzAQUnnutIQsv2jEh8SRR9TTv3kFq6omIbWYdYiGUZNoxKg9YDWO+TljRyXUNNg8tf2haGxziukIF8H40//zGy0Qx942RkX1/2QlJRjSKV4s4lTl6T28rxej5ybUE/1u3YlrCcFsjwiAdF6PYOrUII48YnQoW07a2adhDNlVTjJnn0YPntad5uk05gekH8TWL9ImefCjaUiFJwxR8T3yPKKnJjAebdN9EkGzT0JE45iEP9Gp8j+CabvDVsiQYqOjfwGJ5SXMj7QhrOKvRzSwuoDoE+r67X0Wu6U5L4JRuRSrT6M+s09D10ZyiUZMmrxU7alT3d+RmG0U2/pgR/j2h6KxzSlmyO2fDRgv7pVKMCzi59Kji3wBGfGTfsq3RgsZo4EM8RhQtY/Uk71j9JQ0HY33OpppbKOnfIEI+iZGHLWDhHbmuj/FjNOlnHwK++ir+gCa2sawaOvbSLyjhMQ8f98Fc6eFqglMdadHRoWe6UXfAbW+HtEQpKmsLZ3ezkgbxu0VLfvoKZXXhhYZHKDWc4mGOstUm3V/e7KattYKh9xufyga25xiXu57uDuOL37bcF29Z2+XRDCKJrmE2YuZ7nW2W9VOQv2wWtYTczNYtDdPmU1c0nlMNha+3Lf9oWhsc4qZRkRE41PNVxH433EtGE+9slxZgoEkpjvN5qluGfLqaFoS5Mlamo/M5iUZcntImrisYapkQ+E0ItsfikYVsN4JCw8M3dTCIdb8tzfxoKIEw8RqnrI3LY3MZXSs6+alZ4JGE4wSlIb9vZkvxJENgRMWVgcUjSqAU6OTcsCp0asDikaVICNaSjk9OqlupGxx1FR1QNGoEvi5V1JK+LnX6oGiUUXIyJZSTJNOqhuWq+qColFlSEdl/DepGQEJKQopS+z8ri4oGlXG/furuu2ZwkGKRcqQlCUpU6R6oGhUIfInl6dDNimQ9SJlR8oQBaP6oGhUMfLHlw5MjqoiXpGyImWGDxzVC0WjypERL9LEIGPsKR4kF1I2pIxIWeEoqeqGokE08lKWNDfINBDyFCkTz8mMpRv11T+ydZDfXH57KQNSFqRMSNngi3tEoGiQDGTeIJlwTmYqladK+TaCfFSHVj0mv7n89lIGpCxwLilih6JBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghntGi4fbJRxqNRqPRnMaaBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM/cSNzC/wfMkhbnioRPgQAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110085</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       kkstartupindia.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d1af8e651ab1b</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Tax And Accounting  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       B 6/22, Dda Flats, Pochanpur Colony, New Delhi, Delhi 110075      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADVrSURBVHhe7Z2Lc1vnmZ/7Z2Syu9003e7uzHbSbvfmTpmUA6asMMkIs67QdY1GY2RVi5EDd62QsU2uLMkMFclmSYelbK42YQKHNivacLhixVi0ZMlWRVPLEPGKy6xMxjJpy6RusChBogSJ0q/f+51zwIP7IXEhSPyemXeAc75zvnMh9D7nuwD6ZyCEEEIc8FcNjaA0CCGEOILSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOKYkknj9l3gZ+FbePzVeXy19Qr+5dMX8ftNF/V7Wdf/y1u4s2huTAghpCwpiTSO/VMMf/K9S/j8dy5kjQdaLuPE2Zi5FyGEkHKj6NJoG7oRl8IfP3sJzx66juFf38H8wn0dp34d0+ukzNruhbdumHsTQggpJ4oqjXaV/EUCv/P0RRw+cxv375sFaZAy2Ua2lX1+cJTiKASRUABV2/oRMZcJISQfiiaNdz6I6eT/he9ewD9+etdcu4TVqkhmXG0r+0iZ1LEa3P7gEHa1fg1f2vUAPvfs17Dt5SOYjJqF5cbiHMb218PnrkFVdQ02PFiP4MiSIspSGosxRKbCGOppQdNDHhwYNdfHiWI61II6fU1ubPS34MR5swhzGNhmXGs8aj2oa+7H5Ly5ibVNbQvGFsxVCcwg5Jd9OzBuriGEOKMo0pBB7z8yu5uCw2n/1WaUhvCy2kfKpI5bd8yVpWLix/j6rofw9OAHuHg1imtzHyB04CF8qe01zNwztykb5jAUcMMV6MHknBKsJOOJHjTUetE5aliuHKUh57RhcyMOhLrQpJJ+Z5I0Yu+2wOVRophTC+qapvsCcHm7Ma1LDSE0hKTQIBadwfAeL6r8PZjWkymWxNI0mObKZ/pQp4VDaRCyXIoijdd+cUsn/T9uvoR7GbqksklD9rEGzl9XdZWOKA53PgBf/0fmssm9D/DSngfw9Ntmc+PTQ/jmrg6E3n4evmdVa2TXV+F7+RSu2aRye/w1PN36VVX2AP609Xkcjlc5jhd2bccrp4+o1oyUfwVf7ngF4ytoyejkqp6mh5P2nQ764qJIkcaiSrCtAWysNZ7QG1pPYtY+a+38MbT5PXCppOry+NE2OGMWGMweb0WDx60SrmoBBLoxHn+6V+dzphtND0qZ0eLpDWe4qPjxwuhMkUYMw8018Adtx10cUdv5EDonC6nS0CycRFu1B8EJWTC2aaqvVyLpw6zeYInJ/R54VdnjRZLGwsKCjlw43Y6QcqIo0tj68rxO+NnGJbJJQ5B9pbxO1VUyrh7H07s245UPzWUb430P4nM/MbOblsZXsK3/A1xTTrv9ySl8f6+SzaFPjfJPVPmz2xH6UD3934vh4jvP46t7OjCq/SfSeABf6ngN45LJox/hlRcewFf7PpDCZTHZ5UFV80mVZpOITGHs1JRSYLI0oiohu+HbMYhp2Sk2gwFpqcTrmEKv142GvhnEVGKPnetTrRaViM/oQsRGWuH1dmBMKluMYLLbVvf8MeyVFs4p80inOuCrrseQsZiBdNIwEn7niLmoUeu2WNs5l0bncbWu1pKNiWxX60fo3X40FEkaL730Etrb27MKQcpkGwlC1hJFkUbV9y/rhH/mk9SxDItc0hg/f1eXS10lQ8tAJXsz99u5OLgdn3vhEC7KgtnSGLW1LK4dfQqfe+41yPPx6MtfwaaE1ooSw3NfwQv/IO9FGoli0nV3HDHqXgbj7aq10B42l9KTII05SZRJiTwyiKbqAAZ0DpYk7kPvWV2iiGE2PKL+FqIUIxG3HbcpSifqAIYuqfe67p22Vk8E06dGML1SaWRcl0YalsA8SgI6Txvb7D6i1kurYr82iSY6qFof9YOI6vMtjjQ+/fRT7NixI6M4LGE0NDRgdDThQgkpe4oijS8+ZQjh+q3M06VySUP2lXKpq2QsVxq6xERaF3rdFYRUy0G6pZLjhTHZ0Oiesh8joe4EYhjb58aGfSOprQnFsqUx2oEqX485NmAxgaDHSsgxTAa3YoN0WzV3Y0BaK0ldSQkD0Dos4czhxC4fXG4/drf2YGhiTrdWsrNyaSSegzFYPhTv0bKJRcYv4gPixno9zlFEaQiZxEFhkLVOUaQh3/Z2Kg3pfrpxO3U7SxoyBbdkLKt7KkkaH76GTTZpxMc/UiicNDJ2Ty3GEJ031uaWRhgHapOSdGQK44M9aAt44PLuNAakdYK3un8yEzs/geFQF3ZvdsO1pRuTmXtoFFmksdzuqQTs20QwVG+Kwi6QcAdcRR4ITxYHhUHWA0WRxr/fY3RPSRdTJvrDt/C7jYZcZND7lx8nTpOSqbdSVtLuqYwD4R/hldbUgXD7P/vbp543u6diONn9FXypexS3zTJNvCtrOdLIjjUQnjytNONAeK7uKdtYiIGRcI3ka0xTretNHBi3BrVj58MYC6vWhbGo1ttbMJlIJ40VDoQnkLhN7HiLnlk1YO+qEoEWWRqCXRwUBlkPFEUa3/qpMRDekeMLerPz97CxI6K3/c36C3ju51EsmslV9pX13+op4UC4kGHK7ef2/hjjVuLX0jAHwiVLRkbxwt4H8M3BK0a5Wcf3TxrLeqD8uWdwWPuvcNKQ72jIQLZvRz8mI+pEck65NQfC9xzDrJx3bAZDT6rWhNVaiRzDbrVv21EzIUdOotPjxt6jRl3RI41KUgGEzprLcqzNXZiUnSe64LOV6UH0aq9tfCQd6aSh9k2YchvFZDAAV3wW1PKlYQx+SzeWHyHLRSWShmCJg8Ig64GiSMM+5faubbA4HTK9dv/bN/DPGy5gQ/sV/R0P2Uf2lTpKO+XWIOeX+7Q0WtA9uDTl9puvjiZMub32D69g+56v6rGML31vO14aNYVSSGkIegqt9eU+6dtvRG+2L/ep7Yea/bYpt0ogtrGH2Nn++JTbKhmf6JlI6P6aHWxBnZ5yW4MNm1swYEpCiIx0xafcujwBdB7PltiF9NIQuSV8uS/QhTEZbNesQBoKGRDXA+DmcimlIYg4KAyyHiiKNCTxW78llenLfclId1TkhjG2IfvIvvLlPqmr7Eg3pkEIIRVAUaQhyK/VSuKXnwTJNvU2Gdl2tX9GJCeUBiGkQimaNAT5tVpJ/jID6ufjuX+wULZZEz9YSGkQQiqUokpDSP5p9N2HruO9D+/oriiJdD+NLvsQQggpP4ouDcHpf8Ik2/A/YSKEkPKlJNIQZEBbvpth/Xevv9eU+t+9luWgNyGEkDglkwYhhJC1D6VBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHFM0aTxn9uv4PPfuZAQX953GTdu3ze3IIQQstYomjR+t/FiijQkTpyNmVsQQghZaxRNGv/xuctppdFx9Ia5BSGEkLVG0aTxlz+5mlYa/yN41dyiTIlOYaDZjw3VNaiq9aCu+RhmF80yYWYQbX4PXFLu9qJp/wgi9vKFGUwe7ceBxq3w1fcjYq42iGI61II6t9pX7b9hcyNCZ6JmmUFkpAsNHrdR/mA9ehPK7fu7sdHfghPnzaIkxtuNY6RGAEOXZItc55LrWDnKL40g+ITXdh8HE+8jIWRNUjRp/PDdm2ml8Y0flrM0Yhjb44ZXiUKLIDaDgYAbvu4po3hxAkGV0Bv6ZhCT8sgIOr01aBq01BBGp0qQDc09CLX6ULUtURrRI41weTswZq6MnuqAr3YnTswby5jpQ51K6r1njeSdXB57twUuj0rOc2phMYbpvoCqrxvTRnFOooP1cO05qa4y97nkOlbW8oUwDnjVfQpOICr3aX4KIXUfvfsnpJQQsoYpmjSmryymCOPPWi7j/Gf3zC3KkIWTaKv2IXTOXBZGWlHl6zGS4Vw/GlRSH5BEaTLd7UVVe9hcUphP05FQIEkaUQwrkey27yySUU/inaPG0nRQiabZSOoGcxjYUoO247ImhuHmGviDM0aRsKiklXy+mRDheT0InpGFXOeS61g5ysMdcNV2YNwo0cSOt6RIlBCy9iiaNIQNthlU/+H7l3E5WsbCELQUWjFm70Y534fHq60EOIOQ39bSmJeWhhu7j6SmwlRpJKGezmePtsCnnvbHF4xV0qX0eJ89kQNj+2rQEJJ1SiDbVFIfMdYbGFKxpJMN3TLw92HWXE4g5VxyHWv556LvR4IQCSFrkaJK4+DoLS2M36i/gLlrZS4MQUsj8Qk5Zd3cIHZ/3RgHkPB3pe9yySwNI+Hq/b/eiCHbw7pIwxDEEkvrzESdkJTTrUuHIbu2d5NTdqZzyXWsZZ5LVLXgar0IsneKkDVPUaVx7z7w5b3GLKrvDyYO+JYluaShu3iSxzTybGnUNuKEuVHRpHGmC15PFybtLSg7KeeS61jLOJeoumdb1D1Lui5CyNqkqNIQ3vvwjpbGbzVcwJlP7ppry5Rc3VPSVy/JVxcY6L76LandPjmloVGJdkuNko4h1OJ0T0Vw4kk36nptTZq02M8l17EcnsuiWicTCdrD7JYiZJ1QdGkIDa9d0+L40s5LmJ1fwwPhox1L7020NJLWCanSUMl7lw974zOtBCPRGgPdRRoIlxlZtS0YM8dNDHKdS54D4Xo5irF2rxLGiDGDihCyLiiJNG7dWRoUr/p++hlUsm7zD6+i7uV5PP9mFD8L38KnV0stmKQpt+ZU0fhTukil1oO2I3Nm99SELvelGddI19KY7fWjyprmmqZ7KnnKbUSXLyX8xGmuUUwGA5kHtzUx1XrxpJ3qmutcch0re3lUHdcLV6Cf380gZJ1REmkIkRv39ZRbEccfPHMRo9PKJCYfXl7EH+6+pMvs8UfP6m+hlZakL/c1JH95L9eX+0zSdk+p5Dre05jwhbgBUxAWCV/u25xcnvSFukAXxrLdosggmqr9CKXrmcp5LrmOlaVcd/PJ+tTI3pVGCCl3SiYNQcRh/ZChzKja0X8dv/z4Dv5gR/rfqfrCdy+YexJCCCkHSioNQbqqmt64nlYSyUFpEEJIeVFyaVj8/bk7+E//K/Xn0+1BaRBCSHmxatIQ7t8HXv/FLXz9BxFKgxBC1gCrKg07UxcX8bfv3oT/x1dR/dwVfPHJC/iakgkhhJDyoWykQQghpPyhNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDimFWRxhujd+D9wU0d8p4QQsjaoOTSGP/kHlwtNxJC1hFCCCl/Si6NvpE7KdKQdYQQQsoftjQIIYQ4hmMahBBCHLMq0iCkEERCAVRt60dEL4XRWR3AwJxeSGUxgslTU4gsmsvFYq4fDbbzGG+vQUMo00lFMRsOYzZqLhKyBqA0EpjDwLb0/8gTE5Ti0giCT3ixoboGVbUe1DUPYtZMSJIoqmR9SgQwdAmIHW+Bq1a9TzhMFGP7POoYffF6sjLakaZ+FfZzFPR2HRg3FxPQZV4cCMfMFRaSgGvQOWouFgXjXi+duxu+J1oxdNZ5Bl2WNC4NoqnWi96z5nIGdJ3xc6rBhgfr0Tk4heQ7lJFlSWMCQbcbe4/SGmTtQGkk4FAaC2Ec8LrREJxAVBL8/BRCATe8+yekNC3RwXq49pw0k08Uw81uuJ48pt4ZxMId8FX7ETpnrshFNhnYySkNlRy9qnzBXKcpnTTi93phDtNHO1CnEnvnqLMkuixpOCShzsUYIlPHcGCLElp72Jk4liUNQtYelEYCDqWhEryrNjERS+thKYElsaieKL0eBM+Yy0LkGHbXutF2XCVIXV6DuuCMWWhDJ6E0Sb9g0vCjzl8DX5ddeKnSiJ3pwe7Nbi2ZDZtbMGSe6mSXBy6VUC2iRxpR5evBtLmMcz3wV7dgOEFKQvp7Lfu7vF2YtFpbi3MYbg1gY62Sm2rRNXSHDVEr0kkjdGoQbfo83dgY6Mak5Z+kZJ6JxDpN9N/KC/WMECfT/Ugrjd4RDDX7davU5Qmg94x1UqWQMyGFpeDS+OX0InqH7+jXTNy4fR8D4Ts65H0mZFaVTMct3ewqh9JIgy5vtloSicTebYHL34dZc9ki0h9QSaQVoS6/etq3JUo7RZdGB8ZUYq+rtifFpGR2vg8NtSoRnlNXp56+Z4+0wOtRdYoIVB2uuCRiqgUl3TpLSVNLxNaiWiLDvV44ibZqn9niMrrsfO0jhigiE+i17ZMqDZWUAz2YlBULqvWntvVaMsxHGuZ1+S2pZ7sfaaRRpbYNTaga1bbTvap+j/pb61JKg6w9CiqN15K+gyHLyYgkfPtvxrf57y8upBWHzKqqsdVVmllWRiKz+rNTIpM0oirRJT2JLjGDkF+1KN5NoxP1FG0cL924gklWaSSdX7qk6EAaUjYdVOLyq+SvxZWYzMbb3UsJU6OuyedW56ze6iRvjNVgUe1X24LOdg92HzE0Ifumk3BGadiPra89sZWiW3QB4++QKg1LNga63Nw2P2mYyd9sUWW9H2mkkbCtWa7vF6VB1iAFlcamHyzJQEKWk5HWhX0bCVmXjEzHtW8jy8VnBS2N6ASCWzIlRsWZLvUUmqEVsShCkWTvQeeI/VncSCapUlBhnUM2GdhxKI3ELjJ7MsssUqM8ihNP1qDtuJLehLpWaVWoel261SXJNDGRL+FAGvr80hzbvAep0kiUQkJ5waSR436kkUbCNSaUUxpk7VFQafzXjsREL8vJrCtpSEshkG2QNKISqht1vfan0iVm+1Sd3g4MdKtXTyvGbN6IzUcRlTjbg8fladtajppHKrQ0BJX0fZLQzo+kSMNqOaRD7o2rI6xaKz5jO2l9yJiPJMh4V0wyGe61vXtKzi/j/sl/k2JKw949leN+UBpknVNQafzdL+4mJHpZTka6oqRLytomW/eUva5Sdk85ksZiFGPt3qX+9nTM9KGutgVjKYPACukXt1oYZovDpxJvinx0kkmT9NPJYKIHdb4ujNvOR3fnZEq8KXXEMN7hVdcZUMe0klkMY3vctplfJvZrlsFuXyN2+61kKEnWjbbmnRnHeTLd64SBcLl/MqPM7lzbcUsmjYSB8Bz3g9Ig65yCD4T/6tN7CP39Hf2aCZGEtC4k0gnDonwHwqMqGXjhCvRn+U6FSsDtngzTcOcwpFooRheOiX7KTzMushxp6Cd8YypwRFUci6gWgzd5ZpSNtHXIdGJbd4tgnlvbUeO+xM4fQ9tDjThhZVY9lqH2sc2a0gPgqo7MLZSke70wh8nQTvgTptwaLTU9uD2vFuULesEA6tT1yH1bsTTmwwh19GFc6kwiYR+ZcjvRj70PJbUms90PSoOscwoujbWNQ2nof/iJ/dlWxBNAZBBNyU/JJrOqLletLelqzKf85FlUKpmOn5pKnX2ULuELM4No83vgkvORKar7RzJ/CzpDHTG13me/FkU03I2mB40ppjJtNDhiP3mj+yY+U0lISp6pGPd66d5l+HKfaoXJdFU95VZtU9fcj2lzkxVLw3xvDEYnoveJn1PmL/dlvB9J101pkPUGpUEqD2tygrlICHEOpUEqjBgm/7YeBxx+65wQkgilQQghxDGrIg2ZCSVTaCVKMyuKEEJIISi5NGQmlH0qrUTpZkcRQgjJh5JLg//dKyGErF3Y0iCEEOIYjmkQQghxzKpIgxBCyNqE0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjtHSuHX7NhgMBoOxinHrVu7XfELqKEBQGgwGg7GWwxJCuld7WNvnGZQGg8FglGPYk7/1mk/Y684jKA0Gg8FYD2GJwf5qD/u2eQSlwWAwGOUY9uRvveYT9rrzCEqDwWAw1kNYYrC/2sO+bR5BaTAYDEY5hj35J7+uJKx68wxKg8FgMNZDWGLI9FqgoDQYDAajHCJX0pfXfELqKECURBqvvBfF7//1JXz+OxccxZ9+7xIOha+nrYvBYDAYtrCEkO7VHtb2eUZJpCESSCeHbCGSSVcXg8FgVETYk7/1mk/Y684jSiINSwTpytLFcrdnMBiMig9LDPZXe9i3zSNKKo3lRrq6GAwGoyLCnvyt13zCXnceQWmsaszgjboavDCcrmy9xmm8UP0Y3phJV8ZgMFYclhjsr/awb5tHsHsqOa5M4I1dj2BjbQ2qqt3Y+MhTOHg6kn7bvCObNIyy7Qdn0pSt5aA0GAxHYU/+ya8rCavePKMk0lhurJ40ZnD4MTcebn4TH125jls3r+PT94PYXrsJL54uxmwuSoPBYBQoLDFkei1QlEQa+wbnse/wfNqydLFq0jj/OrZXP4o3ziWuH+/YiKo9J+PLH721D9s3uo2WyGMHMHbJ3HZG9t+Ht04fiJc/uksJ6OZSXR8dbsajbtWKqd2I7R2v4sW/TCMNXY+0dMyoex2fWvu/aT/2PryTdK5GGMJ5tGdqad3ZIB6p3o7Dc8ZytnrGWpNkpc/HSvRG0v/pwf36OlKlZpYfWroHGxtexQdXEssPnjiE576xdA/H4+UqLp3GwacewQa5dvcjeCb4Pq5ZZQ7u8bWxIJ7RdddgwzeacXhqqYzBKNvIlfTlNZ+QOgoQRZdG+KMbcQk4FceqSePm+/jRRpUID0zgsi0J2ePayX3YtKkd70nyvTmH8QOPLSV1M9nrlsp1te3c23hB1ffMYbN76/39eLhWJcz353Qr5qM3m/Gw2t5pS+PaW81wbdqBw2eNVtAHrz4GV20z3rEnXDM+PWg7L2t5+yFcVu9z1ZNbGjVwiSynIrisrjO+nQ6jXN+Dq2p57n0cVK03V/PbZuK39g9iXO7h1QkcVNe5qfN9Y/+bUzj4iBJB52njbzB3Ei9sUgLsNgWY6x6fe1W1DNW5mtcmkt60sR1jci76+AzGOgtLCOle7WFtn2eUpKXx0+HryxLHqklDxbUzr6PlL9RTqjzh7gvinQmV4OPlRiJ/7i1bV9XVt/GcSqiHz6v3OqGp5GtLUJKAXe2nzfdubOowk6MOVV+6loZVliANY/mpQ/bzmcPh7eme9lXMHcJT8URvbGfsm7ue3NJ4GAfPWvsmh5QntdbG9mNT/L6k7q+F9pgpuOF2uDbux7hd2rJ/rUr8ss7BPX7EEowOJaGH3Xjx9NL2DMaaCHvyt17zCXvdeURRpGEl/UyRSxzWdunKShLyhPr+IRzc9ZgeEN/wqNV9Yjwlx7uN4mEmVJ3QVHKz1SUJrapVEpqRrONPxDqMdc6kkT5Zj3duNOtPXJ8giktv4pl411TuenJLw3qfLtKU31SthSz721tF+v0uq1Vihj5/cx8H9zj175PpHjMY6ygsMdhf7WHfNo+4Fr1RemnsLXdp2EO6S1QiMrpPJOFtxI/eT7OdxCpIY6xdtYrSSuM2Lh/ajqqGN/HpW83xrikn9RRcGmZrLNP+OaWhx5rMfZZ9jxmMNRr25G+95hP2uvOIokgjOeS3p5wKQ2K1pCF9/VXJXSMqPnr1UbP7RPrbkwaYJaztsyY0eV/C7ikJs4XxTIPbtl/ueuScv/1qAaWhB+Ht3VOZpeGseyrTPb6O95rt4ydmJP09GYx1GZYY7K/2sG+bRxRdGuFzN5clDInVksatq6fx4iY3Hm0/aZty+zpa1LrtrxtJ9PLhp+CSwewzxtPsZZmS+w2V5GRAOIc0kgfCPzi0I8tA+G28t0e1cNpP49p1YwzFGMBWyfecOYD9+lMqmarlNAPhRkTwVoM6flKSzlWPTuKP7MeYHqiewjvNm2x1OJHG0kD1retTeOMxJUt1D5YGwrNIwxwI3979vjkQfho/+kbyQHiOe1y9Cc+9afy9rp17E8/9xVN4y5w1xmCsmbAn/+TXlYRVb55RkpbG3sF5x8KQWDVpSFyawOF92/GwTItVyW/Dnz+K5w5OJDy5fnSoGY/q6Z7GlM43TIHkTGgqHE25NeOaEtK39bZLdS4d25wqm2M6qe6iss2isiJrPTdn8NaOh+FS1+fa+Aie69yHby9LGo/ixVf3x6fEPrLj9ZQptxmlIXHpNH76PzfZptyaM6mkzME9vnz6AJ76c+Pv49r4GH500t6qYjDWWVhCSPdqD2v7PKMk0lhurKo01llIl1jG7quiRC6pMBgMR2FP/tZrPmGvO48oiTSWKwFKowBxNYLLE/KdhaUv9JUmKA0GY1XCEoP91R72bfOIkkpjuZGuLoaz0LOhah9Gy+FStjIkKA0GoyBhT/7Waz5hrzuPoDQYDAZjPYQlBvurPezb5hHsnmIwGIxyDHvyT35dSVj15hklkcbvNy3/v3v9k2b+d68MBoPhOCwxZHotUJREGvLbUyKBdHJIFyKZHrVPuroYDAZjXUaupC+v+YTUUYAoiTQYDAaDUaSwhJDu1R7W9nkGpcFgMBjlGPbkb73mE/a68whKg8FgMNZDWGKwv9rDvm0eQWkwGAxGOYY9+Vuv+YS97jyC0mAwGIz1EJYY7K/2sG+bR1AaDAaDUY5hT/7JrysJq948g9JgMBiM9RCWGDK9FigoDQaDwSiHyJX05TWfkDoKEJQGg8FgrOWwhJDu1R7W9nmGlgYIIYQQB1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHlFwai/eAQ+/fwtd+EMHXVfydei/rCCGElD8lk8b1W/fxN+/cxJ98L/X/Cpd1XSdu6m0IIYSUL0WXxief3cOuv7uOf9V4MS6JP9x9CS8ev6lD3lvrZZudalvZhxBCSPlRNGn8YvoOtr48j9+sX2pRPLg/gsNnbid0R8l7WfdfXvwsvp3s82jwqq6DEEJI+VA0aVgC+OKTF7D94DV8cOGuWZKZX83eRX3fNfwLtY+1f/kRRmd1DTpHzcUcxGbCGJ+JmksFZq4fDdUdGDcXU7g0hbGzEXNhGeSqNx9Wek6EkLKg6NL47Obyxylkn9WURvRsP9r8HriUHKpqPahr7sd0PO8vTxrj+91w7TiGgmhjtANV9mSeI7lHBurh8nZj2lx2TBGlseJzIoSUBUWXxnIY+XCpO2q1pBELd8BX7UXb0RlEY2o5OoPhPV64Av2YXZQtlieNgrJMaayYYrY0CCFrmrKRRu/pBb39nsPGM/nqSGMGIX8N6oIz5rLJwkm0VbtNUSRLI4rpUAvqPG6V0N3Y6G/BifNmkWK8XbVW2sP6fSQUQNW+Ppxo9mODtGLcfrQdmUP0TDcarP0D3ZhM0yzR9cg+Zujj6+TeihPhpf3rmo+ZcjOPt60f8c6g88fiLSiXRx17MOk6Lcx6B46o63LL8dLUa16TQdI9WZzT17ixVu2rW2qD6c8px/kLsTM92L1ZymqwYXMLhuynnO16spwDIWTllIU0QmO34tu3vrmK0pg/ht3VPoTOmctxYpgNj2D8vGp6JCXI6NGdcHk7MGZm5tm+AFz+Pswai6nSqA0gNBFBbFHVOdAIV60SRX0PJmX/hSkMBNzwdk3o7VNI29KogW+PSrTSKoqcRKenBruPGPcwURpT6PW60dA3o46ttj3XhwaVTINndGEiKfWOoNOrZNprJOVc0pjulpZZH6bldsVmjGvab1xTqjQynz/OyzkGMHBOFcr9UhLzetT1L0hh9uvJdg6EkJWz6tIY+Ifb8W0tYQhO9y8oOompJDVnLqcl6al6IYqoTmImZh1Dl4zF1JbGiH6vWVTJWOqyrUpM9EmklUYLhm3Hl+O5OmzHi9cl5+1D71m9oLCLMAldbyvG7E/8x1tQ5enCpHqfSxpyDv7uKWNBETsfxlh4Th0xnTQyn/94uxv+hFafagn63Digi7NfT7ZzIISsnKJJ44tPGUl/IWYMhJ8+lzp99sg/3o5PybULQ/aRdVJHSVmJNBajmIx3T0lXjsRSHSnSyJJsheVLI3HsIeV48bpimAxuxQb1NN7Q3I2BU1OIZuquSVOvPPU/bq7LdR2xiR487pauthb0hkYwbbuYVGlkOv85DGyz7mdiGMfJfj3ZzoEQsnKKJo0//d5lnfg/jizie/83qt/3//KWWWoI47caUoUhyJf7ZL3UUVIydk+pJBRVLQr9mJqYIHUS1N1T5jNsknjKRxomkSmMD/agLeCBy7sTJ9IJMk9paBYjmA4PItQcwMZaL/YeNQ6UcE4OpBHvqspEtuvJcA6EkJVTNGls/uFVnfjlt6VECvJeWhVHf3Ubb/9TLKMwBNlHyqSO0mIOhJt993GyDIRLkmsI2ZKRTq5lKA2VXMfkaVyXCBEM1Sedu4WuN0f3lL2bLeE6VKI+lfhkHx2sj5+Hc2nEMLbHDdeek4ldStY5Zb2e7OdACFk5RZPGSydu6sS/rWdeL1vi+MJ3L+C3VWQShvDYK/O6XOooNTGVmH21W3HglDnAmmPKrQy4Vm3rxqRqacQiEwjVSzdVkaShhVSPoUvqWJJJlyUN1YpST9tt1tO2HnR2q6fvNH8DXW/mgXCRl6u2EUMyfhCLYDIY0DOYLGmceNKt91WNTP20P7xPtQLM76o4l4Ziosuc/mycc0xmSz3UiBOyc9bryX4OhJCVUzRpWF1M0qK4EjV+N8QSRzZhyLZWK+T8Kv0GVTTcg93Wl/vcXjS1Dmb+cp85tVOm0Lo8AQSP9mGvrYuroNKAOtYunz6vhn61xXKkoYjZv7To9mN3z0T6gWFdb9KU29aTRgLWRDHZvdWcNqzuT3eXumbbdUSnMGBNd5V9G3vi04iXJQ1FNNyNpgeN8SJ9f0eW7kzW68lyDoSQlVM0aQj/7YDxe1JNb1w31xjiyCQMQbaVfWRfQggh5UVRpSG/JSVdUdJyCM/k/vHBX358R28r+/zTXO7fqiKEEFJaiioN4eVh45ve//qZi5i8EO/fSGHq4qLeRrb96Xv2Lz4QQggpF4ouDeGZfqPL6XcbL+rZU8nIN8KlTLaRbQkhhJQnJZHG/fuJg+B//bPruuvq5FRM/7ev1vrns4x1EEIIWX1KIg2Ldz6I4YEW40t/9pB1J86mncdDCCGkjCipNIQ7i0Dv3y/A9fwVHfJe1hFCCCl/Si4NQgghaxdKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIY4omjTfHb+Mr+y7j89+54DgeaLmMn6v91h5hdFYHMDBnLiYz2oGqbf2ImIsrJRIKOK5Hb9seNpeWyVw/GrJdDyGkYimaNP7d7ktpxZArfvu7F/Cr2btmLavITB/qqj0InjGXs0JpEEIqg6JJw5LActjWM6/3+fLey4gtmitXickuD7weD1x7TiJmrssMpUEIqQzKShrXb93HHz9rtFB2H7purl0FFicQ9PgRGh1EU3ULhhfM9XGimOwOYGNtDarcfrSFurHXnmSjE+gNKOFU12DD5hYMdO/MkuyjmA61oM7jRlW1Gxv9LThx3ixKIlkasbP9aPMbx3Gp8207spTl9bb7+nCi2Y8Nqlyfp61cmD3eigbruIFujM+bBZQGISQDZSUN4RfTd/Ab9ca+8n41iL3bApdOzjGM7XGjaTAx3UePNMLlVTI5r9ogsQgmgwGVuK0kG8GJJ93w7TmGWV08gVBAJeYM0oge3anq6sCYWTjbp+ry92HWWEwgQRrzx7C31ovOU+aOM31oqFWimzEW9bbVXrQdnVOtthgipzrgq14qj420wmsdd1Fdg5JgvG5KgxCSgbKThrB3MKr3lVaHtD5KS5IoznTBm5DE5zCwrSZRJIsjS91TOuHWY8hWDJWgM7Y0FqKI2lsyZsIeumQu20iQhhJBdN7ecWacV0O/cRSjpTGi3xvEMNxcA2/XhHpvbNt23Lb/wkm0WcelNAghGShLady9B9S2XdH7f/sVq8+kREQG0VTbgjErkVtdVeYTujF+4UFQcm8c25iGjF94ujBpFBhkG9NYjGIy3j1VY0b6hJ0gDUXU1j1l7dsQMnbU2yaNacz2bTXXyfku7bMUdvFRGoSQVMpeGt/qKa00jG6d1ITq3W9ZorDS0MfT3UTmU3+WhJ0gDb2d0T1lTBowWxqOpZF8DTYoDUJIBsq6e+rf7ip199QMQn43OkfNRYtzPfCLCGzJuVDdU+PtS4lec74PjzuRRoqI1HltSZJGxu4puc4a1PXGm08G1ow1SoMQkoGyHggf/nWJB8InuuCt7cB4ynRflWR9brS9a7QGkgfCx7u2ZhkIDyO4JfNA+HS3V5V1Y1K1NPSgeb10UzmQxtlu+NR2vROqpbEQwWRvvZ4llSCNLAPh+hpqAwidjRrLEz1o2KzEKJdIaRBCMlBW0ljtKbeT+zN/L2M66EPVjmNmWQGn3C7OxafFujwBBI/2qbp8CJ0zy20kSEMxe6QFdW51DrUeNOw/htCOGviDhhWMlkbilNvO44lnMDu4NJaiz9MUCKVBCMlEWUmjnL7cRwghJJWiScNqMSw3yuZnRAghhKRQNGnIDxZ+eZk/WPhnLZcxeGYt/mAhIYRUBkWTBiGEkPUHpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AaJIHYnTu4On8dcxcuY+bjWfz63MeY/PU0o4JC/ubyt5fPgHwW5DNBiAWlQTTXrkfxyfk5nJv+BBcvXVHLN3D7dgyL9+6ZW5BKQf7m8reXz4B8FuQzIZ8N+YwQQmlUONEbN/VT5fnZi7ih3hOSDvlsyGdEPivymSGVC6VRwchT5PTHn1IWxDHyWZHPjHx2SGVCaVQgd+8u6u4G/sMnK0U+O/IZks8SqSwojQpD/pFLF0Pks3lzDSErQz5D8lmiOCoLSqPCkKdDCoMUCvksyWeKVA6URgUhXQrskiKFhp+ryoLSqBBkxosMYBJSDOSzxVlVlQGlUSFI3zNnSZFiIZ8t+YyR9Q+lUQHIl7Jkjj0hxUQ+Y/wC4PqH0qgAZKCymK2M4PACth+8hk8+47fHKxn5jHFQfP1Daaxz5HeD5GcgisH9+0B93zV8/jsXdPybXZfw0ZXlTr+MYjrUgjqPG1XVNdjwYD2CIxGzjOTPHAa21aCqPWwsTnTBV+3G7iPFucfyWeNvVa1vKI11jvzgXDFmtogwHn91Pi4MK7b85Kq5hTOiRxrhUkmsbl8/hk8dQ2iXTy17cSAcM7cod8LoVLJrCJXrE3ayNLrhr3Vj71FTGqMdStYBDBTo9OWzJp85sn6hNNY58kul8sNzhcQujN95+mKCNF46sbxusPF2ldC29GFpCDWCyaNhzK4VZ6w1aSRTYGnIZ00+c2T9Qmmsc2RGi/xiaaEQYXzrp4YwQmO38P+mYvjNekMYT71+zdzKObO9fpW0vGg7OodYSs9WuoSXlKQXoxjvaUSdW22nWiwb/S0I7tuq3ndg3NhC3YRj6Ax4VAtGbeP2oqm7C3sTEn32LrLY2X60+W377x9BRM5VJ1w5rhXpk29kpAtNDxp1J+yv0NLc1o2h7gA21kodqtXV3I/pTOPJ0SkMNPvj2/qe6MLYJbNMmDfKN+hj+dEWCmOoWb237uFcPxpUWeeoeez4uavY1q+UnR/yWeMsqvUNpbHOkf8boVA/b76oqrGE0Xt6Qa/rD9/S0liJMDSLEQzvky4plbQkobYOYjL+hfXc0pjs8urk+Xir0b01oISh67KkETmG3SrBuh5qRO/gCMYGu9HkNZKkVcdsKABXrQ+dg1OIzM9hMrQTvngX2QSCnhp4mwcxPRfF7Gg3Gjxb0RtWWT0yhbFTPWhSdfnVeY+dUi0k47YsMT+Czod82NuryubV/qc6UKfOx9c1oYutxO3a0oqBoyNKHvXq2DWo653R5QksqvsRcKtracXQ1ByicxMY2KGu36uuVY67qM5Vrs29FZ2hYxg72o/OLWp7EUwaaUSn1P0I1qvjq2sfUO/DStzGVitGPmvymSPrF0pjnSP/qU4huKuE8c0fX00RxkpbGClIAg61qoSsnshVAj8wKo/aOaSxcBJtKiHWBe0JNoqxfZ64NHRLprYFw/Yn9/N9OnHqOhZVfaoOf/eUWSjEMCxP580n1bsZhPwqqQe6MT4TTdMactg9FYsiqqQRVVl5bJ+q23yqN6Sx03Z+UZx4Uq0LpHnqVy0bl0rwvWfNZUHugTp+2/EYYu+2qHI/QufMMkFEoqSXThqaAndPCYX6zJHyhNJY5xTiH7AI4xs/NITxk1OGMPpGCySMRZXs7I+38jQtotBJM4c0khOgSUS1HCxpGN0/yQk4tY6EbhorrP2iUxja34jHH5IuquTuoxzSUNcz9KTZtaXDfPK3SyPp/NKfs3VdVj2JIce3X7cdXR+lQQoEpbHOybd76o56ss4kjCf+T74tDOMp2KWf6JdYehI3pWEvjwzq7iCdpM2n7GwtjemgL3tLw2ytNA0mpujIuSlEzVZFZPQYJq3i2AR6feqcOyyRZZdGpF8SeUA9/ZtXsKhaEtKKWYE0jJZEPYbsBYsRTE8ZK8qhpcHuqfUPpbHOyWcgXITxF3/zmRbEgXeMWVE97y3EhSGD4vkiSVWe3v1PdmPo1Ih6ot+qB3EtEUx2iQBk8HoQY0f7sPchY0DZStLJYxrGlF2VJDOOaXThcT1ovlTHdK+Mg9jGRVrlHNxo6FflUUMqrod2InR0BMOhVj0m4TXHJEQaB6R8S4c6/0GM2xO2QqYUGwP9M4jOz2F6sBV+tf1KpIHFGYS2qOu3j1lsle68AIbkUqwxjdrEMQ3dGskkjbB0eanWU4e6v4Nh2yy2lcGB8PUPpbHOyWfK7V/1Gl/cK5YwLCKnlmYXuTwy42fpKd+aLWTMBjLk0ataH/En+6TZU9J1NNyd1E1jmz3l8gQQHBlMah1EdTLX4ynmNp0qycexz76q9aCh9RhmbWMb0XeVSMzjB8+YKy1US2Bs/9LMKN8T3QjuUO9XIg1Buspal+rbGGjFsL2hZZ89pc61rlkmB6j3maShjjLWat3frpSureXCKbfrH0pjnZPPl/se3B/B139gpK7ukzeLIoy8ic1h8mxiep3cr1onvh5YPevRqQnM2runzC4uGTwmhYVf7lv/UBrrnHx+RkSk8XtNF+H53xEtjMdemS8vYSCG8Q6ze2q/THlN6loS5Mlauo/M7iWZcrtburisaaqkoPBnRNY/lEYFsNIfLNzRf12LQ6LpZ9dxr6yEYWJ1T9m7lganEgbWdffSE16jC0YJpa6xO/ELcaQg8AcLKwNKowLgT6OTUsCfRq8MKI0KQWa0FPPn0UllI58tzpqqDCiNCoH/3SspJvzvXisHSqOCkJktxfiZdFLZ8HNVWVAaFYYMVEY+i/8iICF5IZ8lDn5XFpRGhXH37qLue6Y4SL7IZ0g+S/KZIpUDpVGByD9yeTpklwJZKfLZkc8QhVF5UBoVjPzDlwFMzqoiTpHPinxm+MBRuVAaFY7MeJEuBpljT3mQTMhnQz4j8lnhLKnKhtIgGvlSlnQ3yM9AyFOk/PCc/GJpof7XP7J2kL+5/O3lMyCfBflMyGeDX9wjAqVBEpDfDZIfnJNfKpWnSvm/EeQ/1WFUTsjfXP728hmQzwJ/S4rYoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hgtjXT/5SODwWAwGMnBlgYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1yL3sD/B7UzpW+i8ACtAAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110075</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 081300 73002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accounting firm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d0308cdf58f75</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Legal Tax &amp; Accounting Solutions  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Y-14/1 2nd Floor, Loha Mandi, Naraina Industrial Area Phase 1, Naraina, New Delhi, Delhi 110028      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADx3SURBVHhe7Z2Pcxzned/7d7i/pjPNJG09rafpj4yGbhFgBuG5KeF4dLZGiDS6lBER0pBjmohUMrTEIqBJFQFtFFBQpkKMGhYiVKciRAWJEBHRoklBYYBoiIGHAiQSEEGABHUiyCMpngj66fO877t37+7t3i1wh7sD7vuZeeZub9999913332+76/b9+8RAAAAEII/bNlPEA0AAAChgGgAAAAIDUQDAABAaJRozHw0RzAYDAaD5TO0NAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0JRWNz+78ktreSNK3ej6jf3HwujL5Lr8leB8AAIDKpmSicXL6Pv2zP75OX/reNV+TfW9O3TehQfmYpK6aZhpeMptrIBFvpm27hyhhtjcDKs3HJs3W5sZ1LasJmjk7S4lVvVlZJGlxcpIWk2azgihpeVjLPVoaopZ1PpfF5lbyzsaLxusTn6fF4ff+4ia9O5Mye0h9l9+c/RK2XMz0RGlbbJAWzbZDcmQfbWtopwm/Qp5K0NzkCMVb91GsoZOmzM/ZpGiqk+OvCQhz7wx11PM+U4BS89N0Lt5Dh3ZF6UA8d0lJXRyijlgD1dbU0bYIh++dpOS6nUUu0ZB9fI4s0+HLIxpLNLy7jlry5FEQxXQSKq6aCHW8mynfNosDMZVfXefND0XGdS3LI3SgPkoDF/VmEOqY+mYa9WbfhjqpaeqLROjIqeKrRqFlsGjlIUz+hbxHimoSjeXbD+mfPKsFoWP0jvk1G9knYSTsdT6mLCTFcfND/45VmO+xo2yI0KGTfsVQHFaEmvb30HAPC0uQIAjTPdSoHKx/GBGmaPe03jjfSbUNzdTR309djXkcohQmLngdp5YoJUKxNEYd0To6MLLexya/aAQ5vUIf2PVRaaLB93jfCNelvcxTPKZFtiSiERInzbXNnvtWQU5qLRRaBotWHoqdf9UkGjJeIWLQ+OefmV+IPuH22J+/e5f+9OQd9d3hdzmMhP2T/1e+dqsqNLF+mjPJ8m5n4fzOjj5QNFbFYUTpeGdbQBhxfI0Uv2Q20+fK7xATQ5w+zwM/19eYLvgq/UfHaKq3mXbUs9OKxKjjpB1fkmbsffFeOlIs0ViZpPj+GG0XR8pxH+qf5vaWRa796iFpp+Gh/SptwY42fx4lJ/vp0JMR5Ry3P7mf4hcy5Stv/qwmaKJ7HzVGeB+3Ihq/20szAcVTxbVvHx2oiVF83vzocKGHog28b6d9LUmai7dRE1dKJO4dsTY6vWB2GfGOnx2hDpV23t/sOfcCVxDS+7ji0rkr4/BCOhmV5sYYNXFlyVUx8h6fKx/87lXOfHOXo6ljfP8Gxmm0VZcFqTANWPeIlsep77tRU06kJe0pRxbuMlhYHqq4XALiKf+rS3Sa06zKTX0DNbWO0CI/u+o4SasxXTZ1WgbiPdTEeaJ+W3MeV4lo/McXbygh+Pmsvs0iErLt2K8duJ4WjrMfpdRv/+HoDbVdFkzLQrU2VJdRcHeDixyiIYWotvUMpYLCzA9Sk0+3GJeUddWip45FKNanvZYuwE5LJEWJd9spWrOfTq+o3ZQ8uZ9qo210boGvMZWgmT5Oa2Dh9Dw0HlwPrBJKboX1mK6yxDh1cQuoyaQr7371kNRR4+ERmltK6laUL3ny6FI/O8Rd1Hdeu5Hk2U5u8bFTNwKdL3/meqNcCx+kOSkCq0maOMbbh/le6t0uVFzHztDE4Uz+a1Lqt6aBMyqtTv4lTz3Ped9JE8ZXLw5y3qfLgc7r2uZ+mpH992YpzsdGe0xrdHWa+qIRaumbVvmXmtctzHWJBt+zuXfaqLaer9ukxXt8znzwuVe5881djkQ0pIssPs0n53swN8BpauihGbV3lgbkOgfndRlYkXIS/Ey6ymCBeajvZ7BouK4xNU/DzZFMb0FW/jtp6aWp+SQl5Zg153H++1kKNlw0/mGLFofbn+vZUcd/dtclGmLymyBhZPsf8THlRDtSrnX0xtw151wECUJijA5FzMMYEGampyHA6a1DNJSTzDz8quCLYOlNRgpvhI6rZ0HH7+rKWuWHMrBw6oJv16IyNSnPA8vXWisPvu3spbbtjNvk268eEhaze3pXMLnzSAQ0/SAbZrobqNZ2DIH5w74gaR5wB7mHkkazaaPienaMkqpVYV1bYoRbH/toNKHTmhbdexy3fX3GMYwuy4akw2p9Mip+p1Xpk3+Lg+tsaah7lqRzrRFduZEdnuNz5oPPvcqdb7oc2aLhElk7H1hEkivuSoOEr+20nXkGVxksMA9V2ByiodLdO6s3mNTCJE1McuVDNrLyPzsta8/j/PezFGy4aPxzM2PKEY32t3R3lW1e0ZBjyoqqBYtDjBJXQgz6gU87S1dhYuQGZwmCfhBbBs2d9gsjtZ0GcShm28UaRYOb2keiUS7UmfZ37oIv3xusaxTkt6DC6X5ovNgPrPrucsbMCguoiTvffv2QePPTj1x5pPd1vOM6i6oUuNKZwzFIF0Smy8Ax/3Rlrl+3opzasPpdjXN4RINrkzPp7iknbifvs+9DJn7zXQRK71K4riWkk7HjVBUcZ0zPe3yufPC7VznzzZ3HqnvKvn/ecy9Z3VOOeZ8/g+t6CsxD+7vGne7UdD89E5FurTYaiI/TnD6pJiv/s9Oy9jz2HF8mNlw0fvtHCSUEk/NfqG1v99SvWt1Tf/fJF+o3OabcqAKz06/LKAAfQZDuqCi3WNI1Gb8w77ZlandZrEE0klwopantCZu74Mv3EorGcqbg59vv64h8WbtoqHEgO52B+ZNih8atEukycGrRvpUDjX39asadEgpbQCbpuDU+o8Kr7imTPpdjyL4Pdvzqe7FFg1GtbJkpeNE+Pk8+ZN2rfPnmLkc5RcN0F7cMzqZbGxLefc8yuK+nsDy0v2vc6VasOrMnZUwsSkdOmZNl5X92WtxhwuSx5/gyseGicdgMhL/4ZubWiEhI60JaHY5gCE4rRI4pN+7CF4IsZ5Kg0Wa7xuA2xylJX3fwmElI0eCWkfSnSr+vl9wFX8e/1u4p10Nj4cozzo/Cu6fs/Awidx6F6p7Kkz+u6x1v5/vnny7X9ct4mIydxO2uKnf+ZTnLhUF6Jp332U4mX/4W1j3lsMTllvNsdzPF0sfnyYese5Uv3/Lkg512n3IwcZSfIdc9y+C+nsLyUIU9Oq6+a+x0s1icdbcuVEXBiTsr/7PT4g4TJo89x5eJDReNXyw+UELwL59fdvVLevmC90kYCSvHlJvshykPWaLhgzeMdMd4HaeL3A5RwU1aEYxGLuh+0qOuI9ApmpqlNRA+1bOrqAPhziAjJSap78nsgfDA/V5ncWmMjneOrX2ygBrjMYOsTPJ8DzV5B8ID8ydJpw+yA23l895LqYHSrsekK8n/PrvLjK4QSAWhacARc3f+ycDntt29NMMtjVRimuL7JLyT99lOxp2/nkHc2RE6EjQQLrPUOgdpygzu27jTbJBjZUZQ+vx58sF7r/LmmzsfcooGPyNH6huo4+Q8pTiuxVPtFJO0ue5ZBvf1FJiHIir1+2nUNUnESXeCTj/Lz93hMf3nPG5xnDvKlZGDpuWiKl8NdHySr189mNlpcV1nqDz2HF8mNlw0hP9kuqj+8m+skTIPMgVXwnzth67iWzZ8H6ZcrEM0XP/N8CWEaKg45QH3mi5g6jpyiIYU1o2ccjuQniopU2o9fzrMtd/riOQ60wOpNjqPgq5fSE720oFvaAeuptxOZlqyefMnOU0DzewM1LFtNDzcyTVw/wH6rOuXlpMaADfb3rhZ8GXKpjPNtO/UIOe9M1ia7WSy4g875dZ81wPsbrLiNCzy767KQ6588N4rIWe+ufMhp2gwqQu91GKmJTe1DtFoZ2N216bBfT0F5qF6NnZZU317+P7YZWOWhp0pt5K2/f3WdN4Ui4w+Vg/aZ6fFe53589hzfJkoiWic+sV9JQi/0XaD7vs0IuSdVDK2IWEkbHUgNW2f+fzAF9X09/Q/g5A4s7nMJgCFUBLREP5zp25tHBnJfuyb/veK2lcJA+CgEklw030/Daf/+AbCwzXeP99Hx60ZdQAUQslE4+Mbq+o/G2JTC5nmxsgF3QqR3yUMAACAyqVkoiE475f66tEbalBcXofuvPn2T3O8lwoAAEBlUFLRePhLot/p1t1U3xu8RTHzdtuGroTaBwAAoLIpqWgI1249VO+bErEQk+/yGwAAgMqn5KIhOLOpxKpnthQAAGx+yiIagoxhYBwDAAA2F2UTDQAAAJsPiMamw+efpSAvqflJtY4BCMZ+EaD657Trn/JuSpWf+f7h7WJ5liYu4r9eGw1EIwhZGEneAHvBbJcI9ZDIawvSFlErug1fdB7QyhGNtaxjnka99iSq3snjRq4r+BUlhTLVHcm8F2iDUPeu5OttGzyvk6ltiNGh3nH9XqSQrEU0wuWn9xUvshpdO42my3J+1iIaieF9VBvtpTmz7SVneZUFuGYnabS/jQ481kDHs8qhWWXRrKrnXmWRMa8UUa8cUav4jalV/NLYqw9aq/ylmR9xr/PfvbZ7V0ogGgHIwkjRBr6J6dXGSoP7IWFSSVo81WatNlchosFOKvQ65jaOc4t20pTr/U0bKxqlwBH8sqy3rfLVvP9JFi7ilkD8oKwEN+R2TjlYi2iEw/PutHtLNHeqk5rq3Wu+5GItopGTPOVVziPvJTvOonLApxyqJQwaWCjkMFldUFZZTAuUfjmlvGxQOXqzil+js0DTvUk6br0YkVZmKW6v8qfW1OH9zuqEZhXL9a/zv7FANPxQN5Gd9HlZcS375XTqBWu9Q9QnLzpzCnRy2rXedceI9VKpnOslu8kSDUWKzrU6y1TqByfXusepi0PpWovUOLPXBHenxX77aeqCvZ52G40GvRsr7YhCvFTRRjm3GDXF6qjRWXZT4RWNXOtn+9+DXNdtO0TtxNvp9KT9IjyrZriG+2Wj7l2Y9baZxXfa0+eW+6fugb0IlULKob0eiC4H7qVkDbZoOJi3uLrSkqOcZolGjrXTXfkZiH/ZcFbGTL/deXWJzrWb83AtvKU38+JKP9EIKvv+z44hX3lN7/ervPjku3qLrXm5pHoNvmdVPnmteWO/FpVJeVuu+96k3mnLpNWnfKg3IBcs2hsDRMMHVatQN1TXILyKrx6Y+mbqOz9PSVmfUV5PvjtTU0jJmzO5ldJ1Xj/suddLdhNONKQ2G7DusXqVNNfkzpoY5geppT7zYkTXutTiHDkterEgZkHCcuG9JNeUosWTbdza8rYIvKxHNPj88spy18qI7oc19/rZPvcgz3Vni4asac1CwYemEmeoi53zoZPa+6zlftk49y7fetspdihR6x7IW4b1Pdd5mRYJzqOY3Ou08xAR8S6aZfATDWauz3ojbJ5ymiUafH+C1k4vRDTcTpbz92gDNR4b10KRmKYB65hs0Qgu+zlFI02+8uonGvqYLntpDfltpwlnKiETaeFh1Noo2ffDQaU1/aZes0yAZx10l9hXEBCNLDxCIW8ItZyVIA+Mq9YhTV+nVmGQh9VZx3jN60x7Cn5ymmvENc7DLYXaXatRxzhdItI1sWKfzDwkQzpGFfbgWMYBJmZp4uysEg1ZsMhdi+XC3JhZL9uffA+hB8u5zfXFaFuM8009bJ6HNef62T73IM91Z4uGuwUp+9dzv2wy9y7Xets6Xa7VBJUT1ddmlxuJL3asU6+5Ij9IPM4iVV4CRMNVnvKUUzuP1HGu14/L/cmUBVd+BhJUNqx77XMvVC3clGdX+vOUfXfYIPKVV085VOhjAn9T1+DJe7/fHJJ8v7mC4xL/pRE69Nucp3xusZirFV5ZQDS8JEboQH0bTTiF2OmqsvyTPDB2oVOF1dxslzkPFdfwgtdLduMXl+pqSXcjSKF2N2W9D0vS6qZx4kind4lr5I9FVP9tV/8IzcgCM3qHegjs8zrmfli85HsIPdjOTXWfOAsveR7WnOtnZ98DIdd1u5yczwPt2r+G+2Xjug+B623r68zE65jZP82VFOXYk3T6WWlVSP5qR6mcacA6EmFEI185tfNAhXXyQ+G+P678CiSobFhxqXRbaXHMTnO6bOcu++6wQeQrr55yqNDHBP62FtFIcpnfya0K+/ymG9E9poGWxqYh6MGyF0vyOix1TOBaD+tfZ9qf3A+OLqy6m0YVQL+HRLqepsdouHs/NUUi1NQ7zanU4ZwumvDkewg9eK+dnWSjXM+C9BFnHkx1TYHrZ2ffg3zX7XJyPg90Zv/a7peN9975r7ct9y+gi0lY5f0yA2uea6OmhSGtAbmOqU5xJAH3JyCNdvdU7nLqziMVdqNEw+6eknTnWOvDnae5y743//3JV17d16nRxxTcPSXdg36rbMqYhycPVAVhp7uHo1KAaLjQfYvuAsNI37LcVFMovA5LjYHYrRMhXYBMgbPjdK2X7CZ/wc/94KiH0HW8Ltw6vSwWk+M0lW5dMGp1OUmL7pbL6ru3HwRf9PUFP4QespwbO+lOWfa0mR88t1NyxelaP9tnf87r9ji5nKKxtvtlk33v/NbbljJmLwFrSOezHr86sH8/bXfSK+Vvdxt1NLq7Zlz4iYZnIDx3OXXnkboW5/yK4omGayBcTW13t+TtNLnztFyiUeBAuGDGxtJjNzZy7zzdhko0PL9VChANG+ka8O0z1n37He9qd5rlsEw3S3q94NQSnTvcSIfUuEgh60z7kUc0LvaqmvvANNe47yVoZmCfminjpHemRwZ5+2lGBjS5xTE3wMc6UwdVrV8PfgpqoPQxa0DXF7+HMElTA52uZVXT+Dk3NSWRnZD1sOZeP9vnHuS5bpeTyykaee5XwettG6fJrYm4+b9CcrqfWp5kJ2rUWsXDac+Me3D5auA4ctTIXfkq4zvz49S3iysB9pTbnOXUnUcqDWFFI+z67feWaCb+PMVcU271WtuZMqnX4m7qkdavN0/LJRqcVa4pt0m9Xnh6rNMz5dZMqc1UDPh5kMkUQdOfRXTUOugy6YC3pbxLi6RCxzUgGhYz3Q2Bs2RUM98MIGc5LMFe71qmDdp/zsm5XrKb/AU/j2gwMutJ/QlJpWOM4getWpJnOumO5nY6Z01ltdfTVutWj+d+BP0fQvObGYR24ScaTIp/b7QfVm7KB6+f7X8Pcl23y8nlFA0mxFrNBa23zSyOZMZr1DnsP7ypWVOZmUqCTFLIzKLyQeWr3FNtgX/uy1FO7TxQ1+I6Xw7RkHP7ThTQ5SCTLpm+7PPnvtV5GrXX2m4dojkTxJ2n5RMNcfyuP/c199CEXQY8f+5zPf+qzDh54Lb0efDnPlDVSI02aGroZgfrbWeB9durC4gGKDqpaW6tdHoG+7YEWG87G6zfXm1ANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNCUTTRW/ipOd8+Pmy0AAACbgbKIxurtW3TpazXK5DsoF/fp5uQk3byrt24P7aQP9wzSbb1ZFJaP/Qp9eGzSbJWSSZr7yk5auGY2AQBFoSyisfzf2+jDr7AzYZPvlYJycCZd2fYDWjbhtg7sWGu+TJfGtHBDNAAA+Si5aHxxdSHLIVdiN9VGONBKB6IBAMhHyUVDuqREKG782Y/o+out6vuVnb9r9lYOgQ707jRdOfBNLXg136TLb16hB2qHdlJX3nyZPv6tL/N+tu+8TDduX6HFNiv86BV6qMJrhzr7kxM0/51H9P7f2ktXZu+bvZqbp39gxfcDunbV7GD08YM098Svp9P6+ewgXY458fmdzw4vaf4VmjM+PXPNy7Swh8MOXtE7hMv9NPOVPXT1ptm2ufsRLTjX+Mgj9PHx9yi5qnd5RePh7UlX/l0anKbPzT7pLrvx4z00U8P7vvLrNLNX8s/sEgLzXpBjOf2PmH1DL9OlDRIN6VIN062KrlewFSmpaNz8aZ964J2xjIdsjoh81v9jE6oy8BWN1SvsTL9MH8c/ohQ7xdTVk5z+32SnK45eO+CZI6dp5S7Rg5uTNP+EcWCnr3D4+5R87wfsePfSoolUOdSvv0DXPrlPD1ZvUWJAnN4LdD2l93/+8xd4/366evk+PeTjb8b1/mtmDEId/8hOmp+8Qndvc5jbnJ5HttPce7eUM33wySB9/Mg36conAeEDRSP7+tV2ywm6Y7YzLNPV73yZZo69R3c4Tx7eZsfO247guERj9SO68gTve3lShX1w8z2a+zqL08BHStjuju3n6/0BXRdh4vy4fmx75pw5857ozuhenZdXOS9TyzovN0g05r61Q1kuUZB9EqaSul8BKAYlEw3plpr9Ktdw2UndOvG6+ZUdxflx9Zvs++KqVbMtM36i8XDyB/Th4/30mdkWPhtooA+7xSmKA36CFqyWwEr8Cfrw9wdpxWw7wuI4aXGos3Hrmlenaf5rLKo/F0eoa/sfv2k7plt0tYWPGdKjK3L8DDvcNCwsd2+y0zSb6TiGA8LnEA26eYI+TjtdfV53WgyqBcLO2gid8PDySZobnCTRNls0VP597SW6YVohwsPpl2jmkR/QMv+mzv/86UzL4+ZHdP29j5Ro5M57n7xafY8ub5BoyMw/KbNBwuEIhpTp+xd/YX4FYGtQMtFYOvhH6kFb+v6z5pcMV7+7W+2rpG4qP9FQv3E6s0w5RXHAbieVHYePaBgBcLje7vwmYRvoymX9u0Pi5d9MO2G/4+9etLqnjNki4w6fQzRsoZAWTFDXlDhzlzC6sUVDxd92mix9MXGbfLvG37/1Zfrwib10efAEJbjV4HSt5c/736T5izqsJvt+FJMg4YBggK1OSUTDecCkK8qvNWG3QiplUDzb4ZvfnjupatDZZDup7DjcTjrbid+na225RWO5m51qkGhcG6TZr0j31LLqwuEQqga+PtEguvPmHnW9t6WbzLdriilUND61WzQMt5ZWpk/TQvdemq35Ms3+eFqFz5/3pRUNwSscEAxQDWy4aMiDlBm3+AvzazayzxEWu+ZWLrIdPlHqPXae1piDgp2zrg1nO6m1i8ZHdOXxtXVPuY4XB+463xVa+P31i4bTwrj03Jf9u6YEv+6pT6fp+oUrytnbopG7e4rF4sJ7dINbFw5qn5nqnDvvS9s9ZWMLBwQDVAMbLhrOfzJEDPIh3VMSthIGD/1EQ405fF0Pdt8Wh5W6QteONNDHo+LW1icazuBteqD7a+wkjWPUA+HW/uG97GB52xoId4nA7MvsZHfSlellun93mRKD3FLg861bNFikFp+TbqBcznftA+EfD0ybgXA9WcAZCE+8vJ0+/E4/JSQBcr2DnJ6vv0wJdWyuvM8eCF9+WWZZbbxoCI5wQDBANbChomH/JyPMILc8cE74cndT+YoGI1NG5/eyc5N0uqaXrk80ZrsHac6Zcvut/bTgnXL75gs0a0+5NTOhhGwRYAc2yuFlyqpK22laeD4z+L120TBdVD754MKecqum0U7SXZUnHtFgXPnnCUury3T9uDPlNnuKcXDeC6WbcuuHCAcEA1QDGyoaTreU/CcjLJX8341i4+f0K43lY9xqqPA0AgBKx4aJhvc/GWGp5P9uFJtKFo0Hd2/R3Vn5n0fArCkAQFWyIaJhz4YqxCSOSvrvRrGpZNFQs7QeaaBL1j/KAQBgQ0TD+U9GMawauqkAAGCzsKFjGgAAALYWEA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaMoiGq+f/4KiP7qrTL4DAADYHJRcNKauPKTatjsuk98AAABUPiUXjcHxL7JEQ34DAABQ+aClAQAAIDQY0wAAABCasogGAMVjkrpq6qjrvN5KxJtp27FJveFDan6SpuaTZmvjmDpWl0nH0hC11HTSlN7KZnmWJi4mzAYAlQ1EIw+uh99FiqY6o7TN6wxWl2iiex81Rvi4mgjtiLXR8MWMk5rpbqBt+0Yo223NUzxWR7HeWbMdjEoTO8psa6bRZR0mdXGIOmINVCu/R6J0oHeSkqt6n5slGt5dR7XNQ+R1W8oB787+vaic73RdQ21DjA71jlPCN61+rE00projVHtwzCf/bXSc6XTVN1DT/l6aMHkbhrWIRmJ4H9VGe2nObANQyUA08hAoGtM91KiciuUMWDCGmyO0fd8gzSwlKbmyRHMj7RSrj7JTM27qUj/F2LkPL+nNNPOD1FQTo/i82V4jyRF2PIfPsJQx4qT4nB2nliglzndpjDqidXRgxM/9a9EQgWsZcieqdKJh8nA1RUluCcQPRpWILYYSjrWJRjjccaaS8zQ18Dw11vN9W9C/5WNNLQ0ANhEQjTz4isaqtAqidLyzzSUaqXfbuKbM2/fMDwblyGKDtKi2dIuiJe520IsDMV8HLef3hs1idZr6og3Ud0FvJob4fJ6Ww1xfY4Az1aIRi8Wotn4/nbYOyhINFsVz7c20o57zhGvfLU7rZWWMDrmEkNPTUEcd7ygJY1J0rpXP0eejiLZoOKjridChk5nEpC7006EnIxy2jrY/2Uaj6ah8ROPoGE31mnRGYtRxMpN/gZUAF+44HWZ6WMyetVopQfnBZItGO52e7KWWBrmGCDW1jqVFsSTiDECRKLpo/N3cKg2c+0J9BnHn/i9pePILZfI9CJlVJdNxyzm7ys/JyENe28q1eo/Dm+pkh3B03GxZLAzSM1bXUbaTYCFp9G8JhBENJVZpUfJn6ljE32kb0WiJz7Jjj7icojudSZo42kCNx8a1Y0xM04A6TtKm40iLhGpN1VFtOt9ERFjUps2mjZ9oMErkJI9lg/OvRWr5l3iLWyOLJ9somhZnH9GocVpZKUq8207RGhbDFb2/ENHQ19VG59R5c+WH5zxKNOqo8TALBV9CKnGGulhUD53UOQ3RAJuJoorG//H8B0O2vYhINHbfTYf53Zfu+QqHzKqqs+Iq1yyrLCeT4Fp1xNTIXQ4vQaPNAQ7+3hnqsGviiRE6YHdFKWeUcWw2+UVDWi4R6njXqdX7wPE3eVoRGRzR4HMkOZ31HNc7Ps5MOT7HYWpS73BLy7RoxMnXdup8kuNixzrpUEMPzcgPqruM88mvHhEgGva5swVPRDZCx9XpfETDERuF7HfCFigaKg/MfcyTH9mi4Q4r++38gmiAzUJRRePRH2XEQEy2vUjrwg4jJr95kem4dhjZLgduJ5NUtfGWQePE1ysaHM/pZ+uoaUA7wpmehsx4BKOcCDstP8tyZBd6uNbNzjmoYbcwRkei1phKFpZoMMmT+6m2nh0cB3c5M3WtPmly9k9zOhr7aU5dm7QqJN5Gil8yztTlyC3yioZOn9+5dV74iIZLFNz7iyYaefIjWzTc12jvh2iAzURRReObnW5HL9teNrNoSHdUNGo5aI/DC9s9JShHqrqUpOvG01JIySC6tnOH6+iZ/tn0thrYTpNgBx1Ji08WSXZ+URa5nC0Vt2g4cUb5Oua8ouG0HPxY5XPV8zXOs0CacNL6kHglX5yumCwCRCPTPaXTF3h8KUXD7p7Kkx8QDbBVKapo/NXfPnA5etn2Il1R0iXlhMnVPWXHVYruqZm+GMV6bIeiB3CjPdIZr1sSvrVLNnEw4QbCDdL6qI9RfCh3S0GcS6DTlxlX3CqY8JxPsTqvZnK1DAYIShqvaDDi5GRgl1sKaWfmN7vLlWadVwf276ftjrMUJ7u7jToadYvDFz/RcA2Ep2jicMTVElOkz1060XANhOfJD4gG2KoUfSD8F1cfUvxvvlCfQYhISOtCzE8wHEo9EK6cPteW49MJPYh6tpMaa6L+A7iC1+FlTblN0iLH0WRPubWQvnoRnGh30Am0c/EXjRTva/A/1qSjkZ2Sb5eQCx/RYGQGlvqPR9qZ6RZIbXM/zcjYy2qCRbaZmlhQvd1qmVlTehZVzhaKnYdqyu049e2S81hTbtX0Zj24LaQWxqjjMWeMZv2isXiyk46f9BNV9zEy5Xaiexdtd025zZ0fEA2wVSm6aGx2FkfaqElNi5Q/mjVT33iOR9m3luz+c19tfR3t2D/i/2c1GY+oyVELZ5Kz4zS14OP6vYPpNipdcn6v2eMqDv6i4QiPy5lx62W0NaanmKppo0M0Z2uhz4C+CGNmFpUPnrQG/bkvOdlLB77hd1/WLxry3RmMdqOPSacr6M99OfIDogG2KhCNjWZlkvp2suPc2UNTQd3yoAwkaHRfrrESAIAfEI1SsJqgqUm/LiZQNhJjdOTZsP86BwA4QDQAAACEpiyiITOhZAqtWLn+tAcAAGDtlFw0ZCaUPZVWrJyvCQEAABCekosGlnsFAIDNC1oaAAAAQoMxDQAAAKEpi2gAAADYnEA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGiUan9+/TzAYDAYro33+ef7PQkziKIJBNGAwGGwzmyMIfp+2OeELNIgGDAaDVaLZzt/5LMTsuAswiAYMBoNtBXOEwf60zQ5bgEE0YDAYrBLNdv7OZyFmx12AQTRgMBhsK5gjDPanbXbYAgyiAYPBYJVotvP3fq7HnHgLNIgGDAaDbQVzhCHos0gG0YDBYLBKsHxOXz4LMYmjCFYS0fjpe0n6tT9epi9971oo+3d/skwnJm/7xgWDwWAwyxxB8Pu0zQlfoJVENEQE/MQhl4nI+MUFg8FgVWG283c+CzE77gKsJKLhCIHfPj9ba3gYDAarenOEwf60zQ5bgJVUNNZqfnHBYDBYVZjt/J3PQsyOuwCDaJTV5un1pjr64Tm/fVvV3qcf1uyh1+f99sFgsHWbIwz2p2122AIM3VNe+3SaXn/hKdpRX0fbaiK046nn6NX3E/5hC7ZcoqH37X113mffZjaIBgwWymzn7/1cjznxFmglEY21WvlEY57e2BOhx1vfosuf3qbP796mqx/00d76R+ml9zdiNhdEAwaDFckcYQj6LJKVRDSOjqzQ0TdWfPf5WdlEY+E12lvzNL1+yf37VOcO2nb4THr78ttHae+OiG6J7DlOE8sm7Lwcf5Tefv94ev/TL7AA3c3EdfmNVno6wq2Y+h20t/MVeum/+IiGikdaOsaaXqOrzvFv2ec+Sj/zpFWbFpyn+2czv13so6dq9tIbS3o7VzwT7R6xUulxHL12+j95tVtdR7aomf0nMnmwo+UV+vBT9/5XT5+gF5/I5OFUej/b8vv06nNP0Xa59shT9P2+D+iWsy9EHt+a6KPvq7jraPsTrfTGbGYfDFaxls/py2chJnEUwTZcNCYv30mLQFjhKJto3P2AXt7BjvD4NN2wnJBtt84cpUcfPUbvifO9u0RTx/dknLpx9qqlcpvDLv01/ZDj+/4bpnvrg256vJ4d5gdLqhVz+a1WepzDh21p3Hq7lWofPUhvXNStoA9f2UO19a30M9vhGrv6qpUuZ3vvCbrB3/PFk1806qhWxHI2QTf4OtPhlOn9Kg9u8vbSB/Qqt95qW//aOH7n+D6akjy8OU2v8nU+2vWBPv7uLL36FAtB1/v6HiydoR8+ygLYawQwXx5feoVbhpxWc20i0o/uOEYTkhZ1fhhsi5kjCH6ftjnhC7SStDR+cu72moSjbKLBduvCa9T2La6lSg33aB/9bJodfHq/duQvvm11Vd38a3qRHeobC/xdOTR2vpaDEgdce+x98z1Cj3Ya56iM4/NraTj7XKKht587Yadnid7Y61fbZ1s6Qc+lHb0Op4/NH09+0XicXr3oHOs12e9prU1006PpfMk+XgnaHiNw545R7Y5umrJFW46vZ8cvv4XI46ccgVHGIvR4hF56PxMeBtsUZjt/57MQs+MuwDZENBynH2T5hMMJ57evJCY11A9O0Ksv7FED4tufdrpPdC053W2UNuNQlUNj52bFJQ5tW7s4NO2s0zViZfq3cKLh76ynunaY+N2/u4Ri+S36frprKn88+UXD+e5nPvvvcmshx/F2q0h9f8FplRhT6TfHhMjj7PsTlMcw2BYyRxjsT9vssAVYWUTjSKWLhm3SXcKOSHefiMPbQS9/4BNOrAyiMXGMW0W+onGfbpzYS9ta3qKrb7emu6bCxFN00TCtsaDj84qGGmsyx6w5j2GwTWq283c+CzE77gKsJN1T8u6psIIhVi7RkL7+bd6uEbbLrzxtuk+kv90zwCzmhM/p0OR7CbunxEwL4/stEeu4/PFImr/9ShFFQw3C291TwaIRrnsqKI9v03ut9viJMc/9hMG2pDnCYH/aZoctwDZ+IPzS3TUJhli5ROPzm+/TS49G6OljZ6wpt69RG/+29zXtRG+88RzVymD2BV2bvSFTcp9gJycDwnlEwzsQ/uGJgzkGwu/Te4e5hXPsfbp1W4+h6AFsdr6XzAD2a8+xM+Vtn4FwbQl6u4XP73HS+eJRTvypbppQA9Wz9LPWR604wohGZqD689uz9PoeFkvOg8xAeA7RMAPhe3s/MAPh79PLT3gHwvPkcc2j9OJb+n7duvQWvfit5+htM2sMBts0Zjt/7+d6zIm3QCtJS+PIyEpowRArm2iILU/TG0f30uMyLZad3/bfeZpefHXaVXO9fKKVnlbTPfWUzteNgOR1aGyhptwau8WC9G0VNhNn5txmqmye6aSqi8qaReVYznjuztPbBx+nWr6+2h1P0YtdR+nbaxKNp+mlV7rTU2KfOvha1pTbQNEQW36ffvKdR60pt2YmlewLkcc33j9Oz/2Ovj+1O/bQy2fsVhUMtkXNEYagzyJZSURjrVZW0dhiJl1igd1XG2L5RAUGg/laPqcvn4WYxFEEK4lorFUEIBpFsJsJujEt/1nI/KGvNAbRgMFKao4g+H3a5oQv0EoqGms1v7hg4UzNhqp/nNreKGUrQwyiAYMVxWzn73wWYnbcBRhEAwaDwbaCOcJgf9pmhy3A0D0Fg8FglWi283c+CzE77gKsJKLxawfWvtzrv23Fcq8wGAwW2hxhsD9ts8MWYCURDXn3lIiAnzj4mYhMPx/jFxcMBoNVhdnO3/u5HnPiLdBKIhowGAwG22BzhCHos0gG0YDBYLBKsHxOXz4LMYmjCAbRgMFgsM1sjiD4fdrmhC/QIBowGAxWiWY7f+ezELPjLsAgGjAYDLYVzBEG+9M2O2wBBtGAwWCwSjTb+TufhZgddwEG0YDBYLCtYI4w2J+22WELMIgGDAaDVaLZzt/7uR5z4i3QIBowGAy2FcwRhqDPIpkSDQIAAABCANEAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQbJhpvTd2n/3D0Bn3pe9dC22+03aA3+bjNxyR11TTT8JLZ9HK+k7btHqKE2VwviXhz6HhU2GOTZmuNLA1RS67rAQBULRsmGv/60LKvMOSzf/xH1+gXiw9MLGVkfpCaahqo74LZzglEAwBQHWyYaDgisBZ296+oY7565AalVs2PZWKmp4GiDQ1Ue/gMpcxvwUA0AADVQUWJxu3Pf0n/5r/pFsqhE7fNr2VgdZr6GmIUPz9CB2ra6Nw983uaJM30NtOO+jraFolRR7yXjthONjlNA80sODV1tP3JNhrufT6Hs0/SXLyNmhoitK0mQjtibXR6wezy4BWN1MUh6ojp89RyejtOZry8Cnt0kE63xmg771fptPYLi++0U4tz3uZemloxOyAaAIAAKko0hL+d+4L+/j59rHwvB6l326hWOecUTRyO0IERt7tPntxPtVEWkwVug6QSNNPXzI7bcbIJOv1shBoPj9Gi2j1N8WZ2zAGikTz1PMfVSRNm5+IgxxUbpEW96cIlGitjdKQ+Sl1nzYHzg9RSz0I3rzdV2JoodZxa4lZbihJnO6mxJrM/Nd5OUee8q3wNLILpuCEaAIAAKk40hCMjSXWstDqk9VFaPEJxoYeiLie+RMO769xCsjqe6Z5SDncfjVq7iR10YEvjXpKSdkvGOOzRZbNt4RINFoLkit1xptPVMqTPolsa4+q7JkXnWuso2jPN33XYjnes4++doQ7nvBANAEAAFSkaDx4S1Xd8qo7/9k+dPpMSkRihA/VtNOE4cqerytTQ9fhFA/WJ701jjWnI+EVDD83oHZpcYxqrSZpJd0/VGfN32C7RYJJW95RzbEtcH6jCesY0Fgd3md8kvZljMmYLH0QDAJBNxYvGH/SXVjR0t062Q412OypRXNFQ51PdRKbWn8Nhu0RDhdPdU3rSgGlphBYN7zVYQDQAAAFUdPfUV14odffUPMVjEeo6bzYdLvVTTITAcs7F6p6aOpZx9IqFQXomjGhkCRGna6dHNAK7p+Q666hpIN180jgz1iAaAIAAKnog/NxHJR4In+6haH0nTWVN92Un2xihjnd1a8A7ED7VsyvHQPgk9e0MHgif643yvl6a4ZaGGjTfJ91UIUTjYi81criBaW5p3EvQzMA+NUvKJRo5BsLVNdQ3U/xiUm9P91PLkyyMcokQDQBAABUlGuWecjvTHfy/jLm+Rtp2cMzsK+KU29Wl9LTY2oZm6js1yHE1UvyS2W/hEg1m8WQbNUU4DfUN1NI9RvGDdRTr06qgWxruKbdd77hTsDiSGUtR6TQCAtEAAARRUaJRSX/uAwAAkM2GiYbTYlirVcxrRAAAAGSxYaIhLyz86hpfWPjv227QyIXN+MJCAACoDjZMNAAAAGw9IBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAXqS++oJsrt2np2g2a/2SRPrr0Cc18NAerIpN7LvdeyoCUBSkTADhANIDi1u0kXVlYoktzV+j68qe8fYfu30/R6sOHJgSoFuSey72XMiBlQcqElA0pIwBANKqc5J27qla5sHid7vB3APyQsiFlRMqKlBlQvUA0qhipRc59chViAUIjZUXKjJQdUJ1ANKqQBw9WVXcDHnywXqTsSBmSsgSqC4hGlSEPuXQxJD5bMb8AsD6kDElZgnBUFxCNKkNqhxAMUCykLEmZAtUDRKOKkC4FdEmBYoNyVV1ANKoEmfEiA5gAbARStjCrqjqAaFQJ0veMWVJgo5CyJWUMbH0gGlWA/ClL5tgDsJFIGcMfALc+EI0qQAYqN7KV0XfuHu199RZd+Qz/Hq9mpIxhUHzrA9HY4sh7g+Q1EBvBL39JtG/wFn3pe9eU/asXlunyp2udfpmkuXgbNTVEaFtNHW3/xj7qG0+YfaBwlmh4dx1tOzapN6d7qLEmQodObkweS1nDu6q2NhCNLY68cG4jZraIYDzzykpaMBzb+eObJkQ4kif3Uy07saajQ3Tu7BjFX2jk7Sgdn0yZEJXOJHWx2LXEK7WG7RWNXorVR+jIKSMa5ztZrJtpuEjJl7ImZQ5sXSAaWxx5U6m8eK6Y2ILxT//rdZdo/NnptXWDTR1jh7ZzkDJDqAmaOTVJi5tFMzabaHgpsmhIWZMyB7YuEI0tjsxokTeWFgsRjD/4iRaM+MTn9PPZFP2DfVownnvtlgkVnsWBGDutKHWcWqJUVs+Wn8PzOOnVJE3176emCIfjFsuOWBv1Hd3F3ztpSofgTBijruYGbsFwmEiUDvT20BGXo8/dRZa6OEQdMev47nFKSFqVw5XzOubvfBPjPXTgGzpu1/GMEs3dvTTa20w76iUObnW1DtFc0HhycpaGW2PpsI3f7aGJZbNPWNH7t6tzxagjPkmjrfzdycOlIWrhfV3nzbnTaWfbPcSSXRhS1jCLamsD0djiyNoIxXq9+SpH4wjGwPv31G9Dk58r0ViPYChWE3TuqHRJsdMSh9o+QjPpP6znF42Znqhyns+06+6tYRYMFZcjGokxOsQOtvax/TQwMk4TI710IKqdpBPHYryZausbqWtklhIrSzQTf54a011k09TXUEfR1hGaW0rS4vleamnYRQOT7NUTszRxtp8OcFwxTvfEWW4h6WzJsDJOXY810pEB3rfCx5/tpCZOT2PPtNrtOO7ane00fGqcxWMfn7uOmgbm1X4Xq5wfzRG+lnYanV2i5NI0DR/k64/ytcp5Vzmtcm2RXdQVH6OJU0PUtZPDi8D4iEZylvOjbx+fn699mL9PsnDrUOtGypqUObB1gWhscWRRnWLwgAXj9/7iZpZgrLeFkYU44Hg7O2SukbMDP35eqtp5ROPeGepgh9jUZzvYJE0cbUiLhmrJ1LfRObvmvjCoHKeKY5Xj4zhivbNmp5Cic1I7bz3D3+YpHmOn3txLU/NJn9ZQyO6pVJKSLBpJ9soTRzluU6vXovG8lb4knX6Wf2v2qfVzy6aWHfzARbMtSB7w+TveSVHq3TbeH6P4JbNPECFh0fMTDUWRu6eEYpU5UJlANLY4xXiARTCe+F9aMH58VgvG4PkiCcYqOzu7eiu1aREK5TTziIbXARoS3HJwREN3/3gdcHYcrm4ax5zjkrM02r2fnnlMuqi83Ud5RIOvZ/RZ07WlzNT8bdHwpM8/zc51OfG4Tc5vX7eNig+iAYoERGOLU2j31Bdcsw4SjO/+ZaEtDF0LrlU1+gyZmrgRDXt/YkR1ByknbWrZuVoac32NuVsaprVyYMTtohOXZilpWhWJ82M04+xOTdNAI6e50xGy3KKRGBJH3sy1f3MFq9ySkFbMOkRDtyT20ai9YzVBc7P6h0poaaB7ausD0djiFDIQLoLxrf/5mRKI4z/Ts6L637uXFgwZFC8UcapSe48920ujZ8e5Rr9LDeI6QjDTIwIgg9cjNHFqkI48pgeUHSftHdPQU3bZSQaOafTQM2rQPBPH3ICMg1jjIu2Shgi1DPH+pBaV2seep/ipcToXb1djElEzJiGicVz27+zk9I/QlO2wGZlSrAf65ym5skRzI+0U4/DrEQ1anaf4Tr5+e8xil3TnNdOoXIozplHvHtNQrZEg0ZiULi9uPXVy/o5MWrPY1gcGwrc+EI0tTiFTbv9wQP9xb6MEwyFxNjO7qLZBZvxkavnObCE9G0iLxwC3PtI1e8/sKek6Otfr6aaxZk/VNjRT3/iIp3WQVM5cjaeYMF3s5NPYs6/qG6ilfYwWrbGN5LssJOb8fRfMjw7cEpjozsyMavxuL/Ud5O/rEQ1BusraM/HtaG6nc3ZDy549xWltapXJAfw9SDT4LBPtTv72ZHVtrRVMud36QDS2OIX8ue8b3Qn67R9p19V75u6GCEbBpJZo5qLbvc50c+uksZ+cnvXk7DQt2t1TpotLBo9BccGf+7Y+EI0tTiGvERHR+NUD16nhfySUYOz56UplCQalaKrTdE91y5RXT9eSIDVr6T4y3Usy5faQdHE501RBUcFrRLY+EI0qYL0vLDw4dFsJh9iB/3ubHlaUYBic7im7a2lk1jWwrrqXvhvVXTAsKE37e91/iANFAS8srA4gGlUAXo0OSgFejV4dQDSqBJnRspGvRwfVjZQtzJqqDiAaVQKWewUbCZZ7rR4gGlWEzGzZiNekg+oG5aq6gGhUGTJQmfgs/UZAAApCyhIGv6sLiEaV8eDBqup7hnCAQpEyJGVJyhSoHiAaVYg85FI7RJcCWC9SdqQMQTCqD4hGFSMPvgxgYlYVCIuUFSkzqHBULxCNKkdmvEgXg8yxh3iAIKRsSBmRsoJZUtUNRAMo5E9Z0t0gr4GQWqS8eE7eWFqsVf/A5kHuudx7KQNSFqRMSNnAH/eAANEALuS9QfLCOXlTqdQqZW0EWVQHVj0m91zuvZQBKQt4lxSwgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaJRo+C35CIPBYDCY19DSAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEJpbyTv0/wGW2IBKU/KMzQAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Website Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d1be6bdc70bc9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ASK ACCOUNTING &amp; TAX SOLUTIONS  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       RZ-726-A, Street Number 7, Puran Nagar, Palam, New Delhi, Delhi 110077      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADdhSURBVHhe7Z2PcxtHdufv79gkdb+SSq7Kldu6/LiUi3vFJe8YYS8nbLaEXZcZu4w7xeJKC2+sFSOHilZWGMqSw5C7PNLhKSdmmeWaMc/wMWKJtmhxLVsriopCxCUeNjJpS6RFkRJlWJQgSoIE+d17PTNADzAAhsQPgsD3U/UKmOmenp7G4H371/T8Cyoih05E6Uvfu06vvh019xB9GonT0fdXqf2dqPpuIdsSV47ZGJZoZGc9NQeXzG2i2HttVOftoul75o64EaexK0Qxc5cr5oeoqaGNpqx0dOLzNBLwUPPQvLkjSfRkC9U0DtCcuS1MHaknX2/Y3LKzOOinus6QuWUxT8FGL/VfNDczMNffSDV7Rim19OV8dXy9wnRnPdVo6UeCAdu2Ope/npoGU65F/cwxmjrkobpDZ+xll7wF0tK3k/770NIwNTd4qXkn533nMEXUzhB11+6gkQW1oVD5tMLlmFr+TVWIQdp5VZwAjahTpadHlwfIX9tCp1f4qj7geyT1t025JlueM6B+u9SyycaFLqpJuY5U5NwvDKWUl+26rO8GaXldGKIXtDhp4bb07NjKXLFEY3yf+3YGuOysY4zftPuCimAw2Z68rmVJfw+NJROxX7d8TznHyPZkHtPvzwzkLMsc+VRlaYW7iWsvs/Sy0tMrL/6ouYWKKho/X3ykhODXDyxTTPsjpfKQwySOxJVjNgYHp2Tua+o3nODiEP+4vl6ayXIt6cT4z+YlX4+DoxcR4j9SI9/Yjs7iXoiO+lhQ+mcpyueMhvv4T+SnYLq+MGHq93ocbzQRBMshLZ7soqMnHRJQDthHh4NhiogDjMdo8WwXi52PjoaM3C0O7WBh4Zs7FlO/p9OfUoSuriFAwUuG/ETDA9T8LJeZJBHupcZaH3WcMso4tjBOHU+x8zX/Lanp23H6fTgPwwGq4z9Y8k9n/ma9IVVmsXk+h08LX5dosHAGBmhGErg3q36zhIOPc7lz+o2HxknVgWJLNHGokQ6OGrlxJRr8O3d7nYQ9StODXRQMOVSkXIiG+n38vTSt8j3P+fLxMfp12Z3XXB+H7+zj6+Tyj4QpuMejxc9XNBh1j3FZJ46J0un9LCSt47R4j8/Jv1X3U3JO67oidHov/z+4bFW45InLPhF+qY/vpwANhiMUuxehmcE9tIV/K2fRyKcsc+VTd/Ju4trLLLtoZMn3BlB00RD+6w8jSgz+7h+cqtkGf/3BqorztR/YbrES4+yUDEcnP7IRXiMOysEy1goio7Qvk6NXN6tTetpNtTxJ/QGvcox13gD1T2Yoo4u95MvUmlE14wM0wfed/PGtlkMaS5M02OKnreqP7aGtT+2xn29pnA6rP0CAxpZT/5RJFkfbqIkFTK5ly7NtNGIKiBAN9dG+bxhhadeTkr6dDL+PKby2Px2LkZEOX4O/jfqPsBjlJRrsmEZZsNU1cZp7h2hO/w+vhGjwRZ9yWDXS8umZNASEcSMa0dE97NyHaNHcTmJe87DDb+5CNKRsTr/MFQZV1n7q6G3XWg7pzkvFb/Wr61C/zakhOlzbSMHLRnDeosEs8v46/ZhomAbN+1vdKyNdfK+20YR1H6eG9x2wXffiSb7XPFa5j1Nwfz35zUqe/f7Msyyz5lN38kzOuPYyyy4aWfK9AZRENE79/IEShN9pu0kPHBoRn9/9gn513w0VR+KCYhKhsT31dPBkedRaQA6kFSMtEOfeyOogpcUpXcZOYpSTzVqWZZbvkoiG8N+6jNbG4dF0Z9X0tysq7Pe4RQKKTIRr4HuHaTGt6weUI7Ewt8rWOn5WUUglp1F1Z6ruysgkdftyt9yc2KxlWW75LplofHIzTr/UfF3Z9EKyuTF60WiFyH6JAwAANqR71ur68/hoX58xVgU2hpKJhtAxdlcJxFeO3DQGUe9+Qf/uT41uqb/kMAAAAOVNSUXj8RdEv99jdFN9b+g2+f/mlvru7Y6oMAAAAOVNSUVDuH77Mf2aOegtJt9lHwAAgPKn5KIhWLOpxDBbCgAANg8bIhqCjGFgHAMAADYXGyYaAAAANh8QjYrC/lRqpqe1DaK0GArRYgme8bM9be3wNLaN5VmauoTndQAoVyAaNozH9esC6U+bZloSoaCkLCkiyz4c7EsuR5GbtYhGmPo9Hjp8KpdqGGkm8tXgpaaWPppKW+IjM2sRjcjIHqrz9dkWaEwQj1FkNkRjA2207ykvHU1dtiVXeHSWRswlMtR1yNpAetlqy7UYzwOEEw9UqWvQyyFhstxJShnp5nAvAbCZgWjYMERD1hZqHrY/cVo60TAdKjvA6HyIgvt9SsTcPcG9FtFwiz3NWHSepgcPUGNDwL7qaxbW1NLIglzPlmdb6Giwl/ZpebLIHm6ssCuLyBmLChorCzf2zRrB5uq8zbytHhxTTx5nF1VZLyrzqrTyJLOHOj6o3me5QWUC0bBhiIbf76e6huTKq0KaaMSXaKI9YCzsJwulWU+prozTQdtiZLJuTD11vGc5jxhNtCYXVLPhtGiaWkHVQwdPJjMTuzhAB581FvyTxdDGEkk5iMaRcZruM/Pp8VPHSStj9riZcY4308titnecEi41U3kw6aLRTqdDycX/9Bp/WjnrmHEy5j1b+L0z1KEtvKeQ5aqtZefVgo7aInmMWnG3NYMoqN8ly3Lzssild62rIQNQ/kA0bJirSQZn2bF7bE7R7syiNHXES42dk2atNEyD6jhxyEYaCZFQzqhee8dFlsXHMqy0qd5zYTmvhSFqllr+Zd6SpctPtpEv8b4PB9EwlyGPSdfNB+3kM98Bka9o2J1stvJwEg1jGfFFvoRY5Ax1s6haCyhmFY0EufLuEG6K1ZTuxNW7IszylrLfnrLKrIhKhryod2g4rkorGK2atHeKAFABQDRsWKLBzi7KNdMGDzt/B2emHJC9VqpW3jT7r9W7K8ylx+U4f2cXHZRap+yQYxvYUTnVQDOIhn7u6U5PSitFXrDkoaPqdA6iYaspS7hz3MxkiKfKwGxR5SiPdNGwx5VwvbyKJxopZavvk7JPPa/TPoV0ZWXpesr2wi0ANjkQDRuaaDDGy4TYwbFu2JyZcu7sCFPNCg/3kk91e0Tp9F5pVUi6RteIcqaZujxyioaRP6dzGw7S7izVcYkWjqCH53K8Fhni6aKRozxyjWno4ZtCNOS9JVm6nmZ6MrxwC4AKAKJhwy4a7MLUW8N8RyZpLlU0rJaDE3F2Wg0BGpvn1ooZT1ofku50l4xPJEYC7GQQjWT3lJG/zO/CsDvLooqG3j2VozzKRzQK0T1l3BMZu54i43SwIdObFQHY/EA0bKSKBiPORgZ29XdQS/dD6pv4bLVOY7B7X0sLbbGcpTjZnW3U0ZgyGKvjJBq2gfBc79i2O8tiioZtIDxHeZSFaBRqIDxH19Oa3/MNwCYDomHDQTSY9HdQG7VN9c5oGVSOR2imP0BNvcl5/cr58THJWVPGLKqsLRRdNNSU20nq3yHn0abcZn3Htt1ZrkU0Mr43PCWeTLmd6tlBW2xTbrOXR1mIBufENuV2ZVa9azrZYkiZcrsk7xVPHbfI8q53IeN7vgGoHCAaNpxFw/Ed1PF5GmtNvku7qXXY/s5oVXO1ZioZyCB2chaVA0o0JD3DMj3cl/kd23ZnuRbREMft/N5wI14iX5ke7stSHuUhGkzKw336e7wVtof7/NQRnLW3GLK9653J/J5vACoHiAZg8N5wAIA7IBqANQPvDQcAuAOiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuGbDRGPl74O0emHS3AIAALAZ2BDRiN+5TZe/VqtMvoON4gHdCoXo1qqxdWd4O320a4juGJsFYbnzV+ijzpC5VUpCNPfl7bRw3dwEABSEDRGN5b9oo4++zM6ETb6XC8rBmflKt1do2YxXObBjrX2CLo8bwg3RAADkouSi8fDaQppDLsduqmI40HIHogEAyEXJRUO6pEQobv7VD+nGq63q+9Xtf2CGlg8ZHehqmK7u+6YheLXfpCtvX6VHKsBwUlffPkaf/O4THM723WN0885VWmzT4o9dpccqvuFQZ398nOa/+6QR/ru76ersAzPU4NbpV7T0XqHr18wAxjh+iOae+Y1EXu/PDtEVv5We0/n0+JLnX6E506cnr3mZFnZx3KGrRoBwZYBmvryLrt0yt3VWP6YF6xqffJI+OXqOonEjKFU0Ht8J2crv8lCY7pth0l1280e7aKaWw778GzSzW8rPDBIylr0gx3L+nzTDho/R5SKJhnSpuulWRdcrqERKKhq3ftKv/vDWWMZjNktEPh/4kRmrPHAUjfhVdqZP0CfBjynGTjF27STn/6vsdMXRGw545vBpWlklenQrRPPPmA7s9FWO/4Ci515hx7ubFs1ElUP9+st0/dMH9Ch+myKD4vRephsxI/z+z17m8Ba6duUBPebjbwWN8OvmGIQ6/sntNB+6Sqt3OM4dzs+TW2ju3G3lTB99OkSfPPlNuvpphvgZRSP9+tV283G6a24nWaZr332CZjrP0V0uk8d32LHztiU4NtGIf0xXn+GwYyEV99GtczT3dRanwY+VsK2Ot/D1vkI3RJi4PG50bkmeM2vZE90d222U5TUuy9iyUZZFEo25b21Vlk0UJEzilFP3KwCFoGSiId1Ss1/hGi47qdvH3zL3sqO4MKn2SdjDa1rNdoNxEo3HoVfoo6cH6HNzW/h80Esf9YhTFAf8DC1oLYGV4DP00R8O0Yq5bQmL5aTFoc4GtWuOh2n+ayyqPxNHaNT2P3lbd0y36VozHzNsjK7I8TPscBOwsKzeYqdpbibSGMkQP4to0K3j9EnC6RrntefFRLVA2FmbQic8vnKS5oZCJNqmi4Yqv6+9RjfNVojwOPwazTz5Ci3zPnX+A6eTLY9bH9ONcx8r0che9g5lFT9HV4okGjLzT+7ZTMJhCYbc0w8u/dzcC0BlUDLRWNr/x+qPtvT9veaeJNde3KnCyqmbykk01D7OZ5oppygO2O6k0tNwEA1TACxutFv7JK6Xrl4x9ltEjn014YSdjl+9pHVPmaaLjD1+FtHQhUJaMJm6psSZ24TRji4aKv2206Tpi5m2WW7X+fu3nqCPntlNV4aOU4RbDVbXWu6y/yrNXzLiGqT/HoUkk3BAMEClUxLRsP5g0hXl1JrQWyHlMiie7vDNfS+dVDXodNKdVHoadied7sQf0PW27KKx3MNONZNoXB+i2S9L99Sy6sLhGKoGvj7RILr79i51vXekm8yxa4rJVzQ+01s0DLeWVsKnaaFnN83WPkGzPwqr+LnLvrSiIaQKBwQDVANFFw35IyXHLf7G3JuOhFnCotfcNop0h08UO8fOUxtzULBzNmrD6U5q7aLxMV19em3dU7bjxYHbzneVFv5w/aJhtTAuv/SEc9eU4NQ99VmYbly8qpy9LhrZu6dYLC6eo5vcurBQYeZU5+xlX9ruKR1dOCAYoBooumhYz2SIGORCuqckbjkMHjqJhhpz+Lox2H1HHFbsKl0/7KVPxsStrU80rMHbxED319hJmo7RGAjXwkd2s4PlbW0g3CYCs8fYyW6nq+FlerC6TJEhbinw+dYtGixSiy9JN1A257v2gfBPBsPmQLgxWcAaCI8c20IffXeAIpIBud4hzs/Xj1FEHZut7NMHwpePySyr4ouGYAkHBANUA0UVDf2ZDDeD3PKHs+JvdDeVo2gwMmV0fjc7N8mnbXrp+kRjtmeI5qwpt99qoYXUKbdvv0yz+pRbcyaUkC4C7MDGOL5MWVV5O00LB5KD32sXDbOLyqEcbOhTbtU02hCtqjJJEQ3GVn4pcSm+TDeOWlNu06cYZy57oXRTbp0Q4YBggGqgqKJhdUvJMxluKednNwqNk9MvN5Y7udVQ5nkEAJSOoolG6jMZbinnZzcKTTmLxqPV27Q6K895ZJg1BQCoSooiGvpsqHxM0iinZzcKTTmLhpql9aSXLmtPlAMAQFFEw3omoxBWDd1UAACwWSjqmAYAAIDKAqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFxTMtF48Iho+J/u0wuvr9B/bv+M/u2f3KBf3XeD6vm77JMwiQMAAKB8KYlo/PSfY/Rbf75MX/re9awmcSQuAACA8qToovGDd+86CkSqSYvD+i7HAAAAKD+KKhpuBeO3//wmxR8T/fUHq/Sv/tjYtzHCEaLu2gCNLJmbhSQeoZmzsxSJm9vlzmbLLwCgJBRNNN7/KJYmDk5W++pndDL8wDyK6OT/e0C/sMcIkzRKSxFFY3mU9jX4aPCSuV3upOR3urOeajpDxgYAoGopimjcf0j0G3+WeQxDRCEbPe8ZLRRJQ9IqHUUUjU0ORAMAIBRFNN78x/tpQqFbLtGQrqrfNEVH0iodhmgMjvZRs9dDNbUe2hroo5moGbw0TM21XTRtbgp2Zxqlmb491OjhfXxs44t9NL1iBqljk4IkxzUPTtJYq5+21NZTnZfPe9E6ERNfoon2AG1t4LQavNTcF6Ko1VXEYaf5OCusqXWUFhPdSFnykIab/EqZSLhl2vVHwxRsMfJf4/FTx+i8GQAAqFSKIhpNf7uSJhS6/Ze//MyMmZm+n62quJJW6TAcZF1ggGYivHlvlkYCHqo7dIZUR1kO0YieOkB1vi6akmPjEZrq9FHNnlF2zYyDaNQ0BCgY5sjxGM0NBqjG20szKjRKU0e81Ng5aQhFJEyDO1lkgsbBc30+zuMQzUmmYvMqj76esArLmocU1pxfvaXBwjWy00PNQ/MU4zzGFsapw+ul7guY/QZAJVMU0ah55aZy+Ds08cjVukjlH648VMdJWqVDRGMHjSyYm8LlAfLXttBp0a4cohEJsuPfP24IjBCZpamzsxmdsL9fq5mb4WPL1vc2mrhnBAmx99qoJjBM4t/VsX2zRgATWwjRVGhJnTdrHlJYa35tonGhi+oaB2jO3BTm+huprkuLAwCoOIoiGv/mJUMoZDxi31t31iUan0Ufq+MkrdLhMKYRn0zuyyEatDROh5/y0JZnW6h7YJRmFrRat4MTtloOCj2cHXKyO0iznYZoxMID9IJHus7aaDA4SXOy0yJbHlJZY3510VCC45RHXVgAABVHUUTjl//khnL4dx98obb/7LghHJnsq3+R3l0V5WMlTNIqHXmKhhCP0WJ4nEZ6WqiJHXtTX1jr2lqDaCS6qjIQj9BcaJSCrTLu4aPDp7S0MuXBiTXkN0009o47tmAAAJVLUbunZq4nJ/lnEw6nVsg/Lz1SYeXXPdVOU8nL0pwpO9/QJE3rtfWLveSzRGYtojE/RE21fgrq48qJc7JYnLW3LqKje8xWSI482Fh7fnXRiH3QRnUNbTSldaEl8wgAqFSKIhrfHjDGMvr1Tnkmk3A4icaxM8ZAuKRVOnIMhMc5vMFDB9mTxriGHgkPULPMYDKd6UyvDFDzsZJla3Db12f0+69FNNj9n97L502kFaGZ/gA19UorwAhrPDRuPHjHYRNHvFS336j1Z80Dx50+NUmLZvNgLfldHNpBNXtYmGIxNfBN8TD1++qT+Ygt0cShRjo4qveVAQAqjaKIhjXlNnWWlEyl1cXCslTRePxFsrWy4VNu9w7RnNYHE7vYRy9oU1T792s1cJmB1JOcwro10E4TVqtlTaLBxOfVdFw1rZbTamodTuYjymKmh7Ww47fCsuVhZZwOs+j1XzS315Bfa/yjhvepwXphJUSDL/qMKbcyLbhnEk+QA1DhFEU0ZLVa6zmLv01pbfz6gcwP/f1u52f04aePEtNt5eE+rHwLAADlQ1FEQ7CWEflFbkXI0iAWb08/oK8cNloRTvabrcv0r/ca30u/jAgAAIBsFE00hB+eMpYD+aXm69TF3x+aXReZuql0k2MBAACUF0UVDaFTW+n2K0du0omLD8h6BiOT/eUYBAMAAMqRoouGcPqS+5cwSVwAAADlSUlEQ0h93au86lVMvuN1rwAAsDkomWgAAADY/EA0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuGZDROOtCw/J98NVZfIdAADA5qDkojF99THVtd21mewDAABQ/pRcNIYmH6aJhuwDAABQ/qClAQAAwDUY0wAAAOCaDRENAArO0jA11wZoZEk2QtSd+O5APEIzZ2cpEje3i4bko566LxhbkWCAajpDxkYaUVoMhWgxam4CUKZANGws0cjOemoOpnsb9YffOUwRc5uWJ6k/4KU6dgo1DV5qbj9DiwknZDiLGt08PtrXM+nsqC50cZwumjY3s2PkUU+7zuung30paceXaKpnDzV6JI6HtvrbaORSNo9k5LmxK0Qxc4/FdCenkdHZFYLUa/JQ44vtNJY1vymsRTSWR2lfg48GL5nbmVC/SzJfjuWclbWIRpj6PR46fAqqAcobiIYNl6IR5z+4z0PNQ/MUEwcSm6eRADu6vlkJZezOQogthSnIcepaz6Q55fWIRiKP8RhF58epw8cOvzds7uM4fK4te4ZoZilK0ZUlmhttJz87yu4LmZySJXQ+Ohqy57BUopG4pnuc31Nd1JQ1vymsRTTcov8uqpxDFNzvo7rAsFZByMZaRAOAzQFEw4ZL0ZgdoubGXprWHIe9JZIuGorLA+SvbaHTK+a2RQbREGednhfnPEZPtlBN4wDN8ffYB21cK+b07hlhFiqP/iFaNLftGHlu8vupxtdLM9q1pYlGlAWwxU9bRGQ8fuoYnVe7Z3q55aXF0/OkUNffRhMp+cp2TXUpeVl8r52avR4uL249Bfpo2ipLB9EInh2ljmeTcWcs/bHFzYLT72JWGA6eTLQ5KXZxgA6q89TTlmfbaMwoDsZBNI6M03RfgLY2mGV30spEhnsGgDKj4KLxT3NxGpx4qD4zcffBFzQSeqhMvmdCZlXJdNzSza5yKRqpRIxWRPNwDgdQRNGIvddGNV52sPx9uosd2JFJI0BnYYheYGc5tmxu2zDzPDlPQb/WamFsoiGtmJ3JVlZsgVs5Xi9fK7dO+DrqEiIRo4lWPk5zzkpE9o5TetshQ7nfO0MdtY0UvGxsxibbyefroin5EWRcgp1v4jdJE416bhEM0IwE3pulIKfvs64pH9Fg5vobqcZqMXKZNjdwWpd5i1sjiyfbyJcQbAfR4JZcx6klLrsYRT7g60ncDxANsDkoqGj8n5RnMGQ7FRGJxp7VRJw/eO2eo3DIrKp6La3SzLIynJfej22zVNFQTsUI89vGAhwcQGyJTrd6nYUnX9FY0runIjQWcDqOUU44k7PU8szi1lTrTzhrm2jYhMFAnGgdX7+VvhKlOKfX0EbdnV6ulRsyMd3JYuOUr4xirZejEafjPa3rTD9fmmgkxUZQDjvgJDBZyPC76BUIuSZ/f6JpwbDoNnroqCou+32gjrN1T0q4c1wAypWCisa2HybFQEy2U5HWhR5HTPalItNx9TiyXXwyOS+7o0jDbGkka+eGA7AJjhrc1bpTdDTnZNRGU481THee9jAPNXVZA7QFEA1mptdHNX4WB05TF42M+VPhUTq913Ts4V7ySatCREY5SnGmdkeexI1oOJWpmHk9aaJhv07b71cw0XD6LQzT82yVqTpO675zuj4rLgDlSkFF45tddkcv26lUpGgIk+2J7qE1OwDdOcVk4NqwiUP19MLAbGJbDbqn5tGhjz2v7ikrzypdPs/QEk2lioZjF5OBhEurQ1ofqoUhQtXA1yaOOlE+qWQodyVyltBI/rzUn+w1s1NC0Uh2Txn5tlpS6djLFKIBKoGCisbf/+Mjm6OX7VSkK0q6pKw42bqn9LRK2T2VUzQu9pG/kVsNKsRERCPRbZPFAYQHqCllEF0fj9Bx2z0lx+sD3/kMhOt5joW6qJGdazOfz3J2Ku2GNprS09auRY3bNLbQQb/llGVsw0MdrQdSumZ0nMvdPhBujLU0DepdQYx17lKJhk2kYzR1yEN1h1KuK1Ee9jKFaIBKoOAD4T+/9piC//BQfWZCREJaF2JOgmFRtgPhqvasTbnN0D3l6ACsY7nKHGFPE4tMUrc+XVbD9ZiGua/J6ltPm3IbpcWzuaawOuU5xq0Wn9HlYjk7swXSeGjc6A6LLXGLiFsVo6pkOJzTkZlB2riHGgDnNDLXyFOu6d4SzQQPpE0RViLSEKCg+fxGlAW4+VkWFfHY6xaNKE0PdlEw5JA3XTTUlNtJ6t/BIqFPuQ33srAag9uCmhjwVAudVieylylEA1QCBReNzY1L0RDmx6nbergv7cG9HA5gfpQ6/NqDgRke+ovOTtL0QmrdPEMelfPSHGXKw3117Mi3toxmeTAtQ56jvJ9FwubsVkI0+KLPmHKbln9j1lRippKQs2ZvXFNyTCDzw32Lo23UpKbcGtNbEw8srls0zPIcTvyySZRoJPOV6eG+aKiP9n3DyFOdN0D9k1Za9jKFaIBKAKJRLbCj79/O4rG9l6YdKtVVi7ScvFnGSgAANiAa1UQ8QtOhjNX9qiQW5laCw9IpAABnIBoAAABcsyGiITOhZAqtWGlmRQEAACgEJRcNmQmlT6UVK93sKAAAAPlQctHA614BAGDzgpYGAAAA12BMAwAAgGs2RDQAAABsTiAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwjRKN+w8eEAwGg8E20O7fz/2Zj0kaBTCIBgwGg21mswTB6VM3K36eBtGAwWCwcjTd+Vuf+Ziedh4G0YDBYLBKMEsY9E/d9Lh5GEQDBoPBytF052995mN62nkYRAMGg8EqwSxh0D910+PmYRANGAwGK0fTnX/q53rMSjdPg2jAYDBYJZglDJk+C2QQDRgMBisHy+X05TMfkzQKYCURjZ+ci9Kv/ekyfel7113Zb//5Mh0P3XFMCwaDwWCaWYLg9KmbFT9PK4loiAg4iUM2E5FxSgsGg8GqwnTnb33mY3raeVhJRMMSAqcwJ1trfBgMBqt6s4RB/9RNj5uHlVQ01mpOacFgMFhVmO78rc98TE87D4NobKjN01tN9fSDCaewSrXz9IPaXfTWvFMYDAZbt1nCoH/qpsfNw9A9lWqfhemtl5+jrQ31VFProa3PvURvnI84x83bsomGEbb7jXmHsM1sEA0YzJXpzj/1cz1mpZunlUQ01mobJxrzdGKXh55ufYeufHaH7q/eoWsf9tPuhm302vlizOaCaMBgsAKZJQyZPgtkJRGNI6MrdOTEimOYk22YaCy8Sbtrn6e3Ltv3T3dtpZpDZxLbV949Qru3eoyWyK6jNLVsxp2X44/Qu+ePJsKff5kFaDWZ1pUTrfS8h1sxDVtpd9fr9Nr/cBANlY60dExrepOuWce/o5/7CL2fklfDDMF5fmA2ue9SPz1Xu5tOLBnb2dKZak8RK5Ufy9EbTv/Hb/So60gXNTP8eLIMtja/Th99Zg9/4/RxevWZZBlOJ8LZls/TGy89R1vk2j3P0ff7P6TbVpiLMr491U/fV2nX05ZnWunEbDIMBitby+X05TMfkzQKYEUXjdCVuwkRcCscGyYaqx/Ssa3sCI+G6abmhHS7feYIbdvWSefE+a4u0fTRXUmnbjp71VK5w3GXfko/4PS+f8Ls3vqwh55uYIf54ZJqxVx5p5We5vhuWxq3322lum376cQloxX00eu7qK6hld7XHa5p197Q8mVt7z5ON/l7rnRyi0Y91YlYzkboJl9nIp4yI1yVwS3eXvqQ3uDWW13rT03Hbx3fT9NShrfC9AZf57buD43jV2fpjedYCLrPG7/B0hn6wTYWwD5TAHOV8eXXuWXIeTWvTUR629ZOmpK8qPPDYBVmliA4fepmxc/TStLS+PHEnTUJx4aJBtvti29S27e4lio13CP99H6YHXwi3HDkr76rdVXd+im9yg71xAJ/Vw6Nna/moMQB13WeN797aFuX6RyVcXpOLQ0rzCYaxvZLx/X8LNGJ3U61fbal4/RSwtEb8Yxjc6eTWzSepjcuWcemmoSntNamemhbolzSj1eCtssUuIlOqtvaQ9O6aMvxDez4ZZ+LMn7OEhhlLEJPe+i188n4MNimMN35W5/5mJ52HlYU0bCcfibLJRxWPKewkpjUUD88Tm+8vEsNiG953uo+MWrJiW6jhJkOVTk0dm5aWuLQatrFoRnOOlEjVmbscycazs56unurmb59v00olt+h7ye6pnKnk1s0rO9O5hC+yq2FLMfrrSL1/WWrVWKayr95jIsyTv99MpUxDFZBZgmD/qmbHjcP2xDROFzuoqGbdJewIzK6T8ThbaVjHzrEE9sA0Zjq5FaRo2g8oJvHd1NN8zt07d3WRNeUm3QKLhpmayzT8TlFQ401mcesuYxhsE1quvO3PvMxPe08rCTdU7L2lFvBENso0ZC+/prUrhG2K68/b3afSH97ygCzmBU/q0OT7yXsnhIzWxjfb/Zox+VOR/L8ndcLKBpqEF7vnsosGu66pzKV8R0616qPn5iW8nvCYBVpljDon7rpcfOw4g+EX15dk2CIbZRo3L91nl7b5qHnO89oU27fpDbet/tNw4nePPES1clg9kWjNntTpuQ+w05OBoRziEbqQPhHx/dnGQh/QOcOcQun8zzdvmOMoRgD2Ox8L5sD2G++xM6Utx0Gwg2L0LvNfP4UJ50rHeXEn+uhKTVQPUvvt27T0nAjGsmB6vt3ZumtXSyWXAbJgfAsomEOhO/u+9AcCD9Px55JHQjPUca12+jVd4zf6/bld+jVb71E75qzxmCwTWO680/9XI9Z6eZpJWlpHB5dcS0YYhsmGmLLYTpxZDc9LdNi2flt+f3n6dU3wraa65XjrfS8mu5pTOl8yxSQnA6NzdWUW9NusyB9R8VNppk8tzlVNsd0UtVFpc2isixrOqvz9O7+p6mOr69u63P0avcR+s6aRON5eu31nsSU2Of2v5k25TajaIgtn6cff3ebNuXWnEklYS7K+Ob5o/TS7xu/T93WXXTsjN6qgsEq1CxhyPRZICuJaKzVNlQ0KsykSyxj91VRLJeowGAwR8vl9OUzH5M0CmAlEY21igBEowB2K0I3w/LMQvKBvtIYRAMGK6lZguD0qZsVP0+7Hb1bOtFYqzmlBXNnajZUw9PUdqKUrQwxiAYMVhDTnb/1mY/paedhEA0YDAarBLOEQf/UTY+bh5VUNJzCnAyiAYPBqt5052995mN62nlYSUTj1/at/XWvv9WK173CYDCYa7OEQf/UTY+bh5VENGTtKREBJ3FwMhGZAT7GKS0YDAarCtOdf+rnesxKN08riWjAYDAYrMhmCUOmzwIZRAMGg8HKwXI5ffnMxySNAhhEAwaDwTazWYLg9KmbFT9Pg2jAYDBYOZru/K3PfExPOw+DaMBgMFglmCUM+qduetw8DKIBg8Fg5Wi687c+8zE97TwMogGDwWCVYJYw6J+66XHzMIgGDAaDlaPpzj/1cz1mpZunQTRgMBisEswShkyfBTIlGgQAAAC4AKIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGuKJhrvTD+g/3TkJn3pe9dd2++03aS3+bjNR4i6awM0smRupnKhi2p2DlPE3FwvkWDAdToqbmfI3FojS8PUnO16AABVS9FE4z8cXHYUhlz2L//4Ov188ZGZygYyP0RNtV7qv2huZwWiAQCoDoomGpYIrIWdAyvqmK8cvkmxuLlzg5jp9ZLP66W6Q2coZu7LDEQDAFAdlJVo3Ln/Bf3mnxktlIPH75h7N4B4mPq9fgpeGKV9tW00cc/cnyBKM30B2tpQTzUeP3UE++iw7mSjYRoMsODU1tOWZ9topO9AFmcfpblgGzV5PVRT66Gt/jY6vWAGpZAqGrFLw9ThN85Tx/ntOJn08irukSE63eqnLRyu8qmFC4vvtVOzdd5AH02vmAEQDQBABspKNIR/nHtIv7DHOFa+bwSxD9qoTjnnGE0d8tC+Ubu7j55soTofi8kCt0FiEZrpD7DjtpxshE7v9VDjoXFaVMFhCgbYMWcQjeipA5xWF02ZgYtDnJZ/iBaNTRs20VgZp8MNPuo+ax44P0TNDSx088amilvro45TS9xqi1HkbBc11ibDY5Pt5LPOG+drYBFMpA3RAABkoOxEQzg8GlXHSqtDWh+lJUUoLvaSz+bEl2hkZ71dSOKTye4p5XD30JgWTOygM7Y07kUpqrdkTIc9tmxua9hEg4UguqJ3nBn5ah42zmK0NCbVd4MYTbTWk683zN+NuB3vacffO0Md1nkhGgCADJSlaDx6TNTQ8Zk6/js/sfpMSkRklPY1tNGU5citriqzhm6MX3ipX3xvAm1MQ8YvvL00YwQYZBvTiEdpJtE9VW+as8O2iQYT1bqnrGObg8aBKm7KmMbi0A5zn+Q3eUzSdOGDaAAA0il70fj2QGlFw+jWSXeovh5LJQorGup8qpvIrPVncdg20VDxjO4pY9KA2dJwLRqp16AB0QAAZKCsu6e+/HKpu6fmKej3UPcFc9Pi8gD5RQg051yo7qnpzqSjVywM0QtuRCNNiDhf21NEI2P3lFxnPTUNJppPBtaMNYgGACADZT0QPvFxiQfCw73ka+ii6bTpvuxkGz3U8YHRGkgdCJ/u3ZFlIDxE/dszD4TP9fk4rI9muKWhBs33SDeVC9G41EeNHG8wzC2NexGaGdyjZknZRCPLQLi6hoYABS9Fje3wADU/y8IolwjRAABkoKxEY6On3M70ZH4uY66/kWr2j5thBZxyG19KTIut8wao/9QQp9VIwctmuIZNNJjFk23U5OE8NHipuWecgvvryd9vqILR0rBPue1+z56DxdHkWIrKpykgEA0AQCbKSjTK6eE+AAAA6RRNNKwWw1qtbJYRAQAAkEbRREMWLPzKGhcs/I9tN2n04mZcsBAAAKqDookGAACAygOiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGsBF7+JBurdyhpes3af7TRfr48qc08/EcrIpMfnP57eUekHtB7gkALCAaQHH7TpSuLizR5bmrdGP5M96+Sw8exCj++LEZA1QL8pvLby/3gNwLck/IvSH3CAAQjSonendV1SoXFm/QXf4OgBNyb8g9IveK3DOgeoFoVDFSi5z79BrEArhG7hW5Z+TeAdUJRKMKefQorrob8McH60XuHbmH5F4C1QVEo8qQP7l0MUQ+XzH3ALA+5B6SewnCUV1ANKoMqR1CMEChkHtJ7ilQPUA0qgjpUkCXFCg0uK+qC4hGlSAzXmQAE4BiIPcWZlVVBxCNKkH6njFLChQLubfkHgOVD0SjCpCHsmSOPQDFRO4xPABY+UA0qgAZqCxmK6N/4h7tfuM2Xf0cT49XM3KPYVC88oFoVDiybpAsA1EMvviCaM/QbfrS964r+/cvL9OVz9Y6/TJKc8E2avJ6qKa2nrZ8Yw/1T0bMMJA/SzSys55qOkPGZriXGms9dPBkccpY7jWsVVXZQDQqHFlwrhgzW0QwXnh9JSEYlm3/0S0zhjuiJ1uojp1Y05Fhmjg7TsGXG3nbR0dDMTNGuROibha75mC51rBTRaOP/A0eOnzKFI0LXSzWARopUPblXpN7DlQuEI0KR1YqlYXnCokuGL/8JzdsovFXp9fWDTbdyQ5t+xAlh1AjNHMqRIubRTM2m2ikUmDRkHtN7jlQuUA0KhyZ0SIrlhYKEYxv/9gQjODUffrZbIx+cY8hGC+9eduM5Z7FQT87LR91nFqiWFrPlpPDS3HS8ShND7RQk4fjcYtlq7+N+o/s4O9dNG3E4EIYp+6Al1swHMfjo319vXTY5uizd5HFLg1Th187vmeSIpJX5XDlvJY5O9/IZC/t+4aRtu14Ronmzj4a6wvQ1gZJg1tdrcM0l2k8OTpLI63+RNzGF3tpatkME1aM8C3qXH7qCIZorJW/W2W4NEzNHNZ9wTx3Iu9sO4dZsvND7jXMoqpsIBoVjrwboVDLm8c5GUswBs/fU/uGQ/eVaKxHMBTxCE0ckS4pdlriUNtHaSbxwHpu0Zjp9Snn+UK70b01woKh0rJEIzJOB9nB1j3VQoOjkzQ12kf7fIaTtNJYDAaorqGRukdnKbKyRDPBA9SY6CILU7+3nnytozS3FKXFC33U7N1BgyH26pFZmjo7QPs4LT/ne+ost5CMYkmyMkndTzXS4UEOW+Hjz3ZRE+ensTesgi3HXbe9nUZOTbJ47OFz11PT4LwKtxHn8gh4+FraaWx2iaJLYRrZz9fv42uV88Y5r3Jtnh3UHRynqVPD1L2d44vAOIhGdJbLo38Pn5+vfYS/h1i4jVjrRu41uedA5QLRqHDkpTqF4BELxn//m1tpgrHeFkYa4oCD7eyQuUbODvzoBalq5xCNe2eogx1iU7/uYKM0dcSbEA3Vkmloowm95r4wpBynSiPO6XEa/r5ZM1CI0YTUzlvP8Ld5CvrZqQf6aHo+6tAactk9FYtSlEUjyl556ginbdbqDdE4oOUvSqf38r6AQ62fWzZ17OAHL5nbgpQBn7/jvRjFPmjjcD8FL5thgggJi56TaCgK3D0lFOqeA+UJRKPCKcQfWATjmf9tCMaPzhqCMXShQIIRZ2enV2+lNi1CoZxmDtFIdYAmEW45WKJhdP+kOuD0NGzdNJZZx0VnaaynhV54SrqoUruPcogGX8/YXrNrS5lZ89dFIyV/znm2rstKx25yfv26dVR6EA1QICAaFU6+3VMPuWadSTBe/Lt8WxhGLbhO1eiTJGvipmjo4ZFR1R2knLRZy87W0pjrb8ze0jBbK/tG7S46cnmWomarInJhnGas4FiYBhs5z12WkGUXjciwOPIA1/7NK4hzS0JaMesQDaMlsYfG9IB4hOZmjR3l0NJA91TlA9GocPIZCBfB+Nb/+lwJxNH3jVlRA+fuJQRDBsXzRZyq1N79e/to7Owk1+h3qEFcSwhmekUAZPB6lKZODdHhp4wBZctJp45pGFN22UlmHNPopRfUoHkyjblBGQfRxkXaJQ8eah7m8KghKnVPHaDgqUmaCLarMQmfOSYhonFUwrd3cf5HaVp32IxMKTYG+ucpurJEc6Pt5Of46xENis9TcDtfvz5msUO68wI0JpdijWk02Mc0VGskk2iEpMuLW09dXL6jIW0W2/rAQHjlA9GocPKZcvtHg8aDe8USDIvI2eTsojqvzPhJ1vKt2ULGbCBDPAa59ZGo2afMnpKuo4m+lG4abfZUnTdA/ZOjKa2DqHLmajzFjNPNTj6BPvuqwUvN7eO0qI1tRD9gITHP33/R3GnBLYGpnuTMqMYX+6h/P39fj2gI0lXWnkxva6CdJvSGlj57ivPa1CqTA/h7JtHgs0y1W+Xbm9a1tVYw5bbygWhUOPk83PeNngj93g8N19V3ZrUogpE3sSWauWR3rzM93DppHCCrZz06G6ZFvXvK7OKSwWNQWPBwX+UD0ahw8llGRETjV/fdIO//jCjB2PWTlfISDIrRdJfZPdUjU15TupYEqVlL95HZvSRTbg9KF5c1TRUUFCwjUvlANKqA9S5YuH/4jhIOsX3/9w49LivBMLG6p/SupdFZ28C66l560Wd0wbCgNLX02R+IAwUBCxZWBxCNKgBLo4NSgKXRqwOIRpUgM1qKuTw6qG7k3sKsqeoAolEl4HWvoJjgda/VA0SjipCZLcVYJh1UN7ivqguIRpUhA5WRzxMrAgKQF3IvYfC7uoBoVBmPHsVV3zOEA+SL3ENyL8k9BaoHiEYVIn9yqR2iSwGsF7l35B6CYFQfEI0qRv74MoCJWVXALXKvyD2DCkf1AtGocmTGi3QxyBx7iAfIhNwbco/IvYJZUtUNRAMo5KEs6W6QZSCkFikLz8mKpYV66x/YPMhvLr+93ANyL8g9IfcGHtwDAkQD2JB1g2TBOVmpVGqV8m4EeakOrHpMfnP57eUekHsBa0kBHYgGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuEaJhtMrH2EwGAwGSzW0NAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALjmdvQu/X/PUwjQp+t7dQAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110077</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       business.site      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d19c98cbf325d</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Nischal Singla  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Q-340, Sector 40, Gurugram, Haryana 122001      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADltSURBVHhe7Z2PU5xHeufv7/D9qqu6VHJ3W3euy/1IuUhCoIqIvURstjy7LrN2mZxiKdbijbUQ+VC0lkKwJR9Baw4cTntmlyxrYs7jEHHGFpZirbWScbQQlyi2ZLAlsCSQkEdCjH6Nhfa55+nud6bfd96ZaRgYBub7qXpq5n27337ft99+n28/3T3wTwgAUILcprcOXqFtf7tINx/w5uXrtLPxKr1+mb9fvU7bvnuVXhm7yxv3aebtq/Twawt0T5KG+ftfXqeZ+7yxuEg/5DIO/DzBG0Q//+srVtoCHfgzU969m/TK965S1wSX9+Au57tKvx9dVMeAjcWfNDYRRAOAkkSLxivjZpOW6Oc/vEI7j9/WonHwOl01KTT+BT2ktvmYl65Q1ydmP3PvH67RQz+4oQRFRCNVnlX+xBf0cMcNuqkTiOYC5YMNA0QDgJIlKBo6itg2nE00OGLgCOQt29sn0zKLhpT70HevBOwL+rnJCTYOEA0ASpaVRhpX6fVps59xijTGUnnAxgaiAUDJop16cE5DRREZRUNHDdnmNEJF494CHeCy1ZwGi9O9z6/TK4OY09iIQDQAKFmMaPzVNfrW7iv0EDv1/Sc5yhCyiIZMZI9Hr9JvN/Ixu/mY4cVkBJFRNJh756/T/j/XQ1O/8efX6Pjckk4AGwqIBgAli9+pA+ACRAOAkgWiAZYPRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOCMEo3JT6cJBoPBYLBchkgDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzhRUNK7f+iW1vB2nb3Zdp3+396oy+S77YpwGAACguCmYaByduEf/5s+u0kPfvRJqkvbO+D2TGwAAQDFSENF4a/RuUhz+8Ic36IPJhEkh9V32eemSFwAAQHGy5qIxv/iA/tVuLQhtw7fM3nQkTfJI3qt8DAAAgOJjzUVD5itEDGp/cN3sIfo8tkQ/+OA2/eXRW+q7x7c4j+T9i/8XN3vWh/i5AWqrq6GK8koqq47Qns4Rsi4zhDhNR1toRzXn52O2PNlE0bMZ7mFugBqrKqkxOmd2CPbx1bS1roVOXDJJWTHH1VSr81bU1NH+3jGKZ71WR860c5ntNG42V5vYQD3Xbz0N2tUwP0I99Va9d09QKibNTnysl/Z7z6yqhnY09dL4gkksKeZo8Jlg+9LEovVU9swAxcz2RiUxM0Gno120fzu3keB9LsVotLOBaq13aXjGpAm50uNTNNhcR1u8dtR8nGbt9ylXG70zQ5PHBuhw03aqbdj4dR3GmovGb798TQnBz6Z01YpIyLZnv7bnalI4Tn2aUPt+6+A1tb0eJNhZ1lbVUsexGYovxCk+M0Z9DdVUUT/gbzwW8aNNVBFpp1HTQuKnpIwX6ESa04rRid3awdsvdeKDFnb4LBSyaylB0/3sUCPdNK2TM6Icb6SFTs/EKcHXlpiboGh9NdW2jzk724yspWjEjtN+Fs4yn2jMULSO66V7SotebIQ6ItV04FjuDoR+Ztvp8Cl+ZnLj/OKefjFCZZEumszwzDYvm1w0+FlX1NRTW28vddQG7zNB4+0Rfld7aVJucilOkz38jtR47SB3+uiL1RRhoVAuKTFDg/I+cZvU5GqjY9TBQtPY3EvR1tpNIdBhrLlo/PNGLQ6Ld/XqqMM/ve0TDTHZJ0ge2f4XfMz6YBpF8IW7w42Be/NtH4S54jid5gay39dl5vwsDB1nzKYh8X4Lbalvpw7fS52g082VVNdjdXeWuDGW11L0vNkOJUbD9ZX0bH/gWs92UaS8lUaNs0yc5R74k1qotjyZvVfVaCKq8UPi0FOWvI+FMYo2mfzVEtVYvSyJoPi8gwNNtJUFIXjvKbi+mqupsb2d81uicb6X6spZAO+YbWa2fzuVNZ9MnSMU/cx29Nk3xixNUE9NJbW9r49WDvPQmPqu8T8juefG7gHqkbpSL7uk+yOhoNOdPWqiQ1V3fKz1XFXeg/00vFt6pUZ8pZf6XMTUn7+X6uU/4T0Prt+2o3MUP9tNjSqS5F5xfTdN5tTQZYiGw/Ukr1893zqKWtU83cOOsWGInyiTs6zjNN5dr9qGd29JAr3/2uey3Kdp1+H3OUaHq6rpsP2Y75yktuRzzJGuvgfeu5FWKqvt1R04lzZqri+trjcRay4a/9asmPJEo/VdPVxlW1A05Jh1YV5ejO00GDI0NHqwkiq4B58TjhRmj7VQLUce41bj0sLDL935YGPX2x0jZlPB+7Zlc7yayc4abpj8gmUahrnUT41V/EKc5yYt18VOLlLjXdcciw6/oIdGdK9pYUpFKUnnG4w0lsQ5c3qXGf5SvSx21p7YKadSSbUvDtH0nI58wpCoIFLHL+ElyW85ZTnftn6aNZsKeWFzvXgLHLXkFFjzEucQjTKuq54zHK2ocCWHaEx0US070Z4zMUokzDPn8nyiUR6htqEpii1IeVPUx73Sxv4ZXTcLupfqdURUfj5/dILLk2c1yNErO7itDaZXfIcFnp9PpGtC5c+Mq2g4XI/v+sPb7Z4hKc2xrGNz6t5iH7Ryx6YpGYlPd0vvv5+mJTv3/kcP8faLuToLme/Th2qXfkfvw043HR+vw6Xgd+hZ7z1YRhv11/XmYs1F4/deiSkhGJv5Um0Hh6d+1Rqe+sfPv1T75Jh1YYxD3wxDMqpX5XM6QXQjVr3z32vy9+iZya4I1aoXPvzl8wtE2L4QJFLYV8vXzM68qZWix0zYbBg/VO2PYKRXXmt6WiG9JpoaosN9LAryPSgavJ0K4w0S1VRxHtmX6+UUpPcfiVCPqoYQ0Qi+ZGH7ggTLyYB6iXOIhr+usouG1G2Frzz/c1V5fT3QhBrutMVUzul1RFT+g1bPQUWbfH3WLjdHZLXDMPOOd7meQJQXH2pIHR8boj3lDTQsG8suS+o21eNPxON6WNFDnru0K7MZTvA9CkNHtfq9CyOQrtpS4Lz2vmW0UbdntTFZc9F40UyEv/xOKt4UkZDoQqIOTzAELwqRY9YFJ9HQzsZ7CdMarfQSpddZxT0pr8Wwg95Rwz0YdVvBxh4mEGH7MpO4NEHDvS16GKN6O/WpSfjMzkOVK4092GuykXSrLsKciO7lG8ca9sIFmO6powg7RlXGWomG2k7dq8+J5xAN/7PMJhphDsu/L/18zJw1hOOZyZPr+oTU+bMRdm2atOOXdT2MJRQyj5ccmhLyubelOWt4yrPsbSnbfWri3FHbTlsyzkWGpIe1YXvfMtqo27PamKy5aPxi9r4Sgn//wryvJxLkS06TPJJXjlkXVmN4SsENelsl7T/qOe9q/u41n2Bj19srGZ4KY7aPG6tEBKZcfQ0hSGPPVzRUfTmKhqTbQqryB0RjJcNTahy6RkcvPvz1nMtxrblomHmxxv6p5Hsg53R2rEzq/NkIuzaN7/hlX48Qo+EGaVNzah5OD00xed1bgvPW6OEpL0oNtL1wMt+nMMvnlMUp4xmaf2i6apMYnsrFmouG8N/MENXf/EPmsQtZgit5vvr99azmlUyEx+jEvlo64L1ACm7Q7PTVJKyKXrzeU8BUo1rhRLjnLM+abQ/VyOtpeF6vBEkbG/ZeiLDhqfkpGh2b0/mDLy5v5x6esvIHGG/Xk/Fhpup7xRPh2pFFOoOqEeLE7eEfJ9HwdyBsRyD34z9nDtEIqR/piLg5Vo2bI3IUjWVfj0ZHGE20v8oMTQl53Zu+Xvs+lSPO0pY0me8zPtKu5hRHM8z1ZUxfjYlwg9uz2pgURDSO/eKeEoTfaLlG90KCCPmbVDK3IXkk73qStuR2boIG98pEXeYlt7N9dVQmjVBaSNjwlI/0xu5fcmuWAdaZHo2sWGrvD/nNgVk+uI3P6y25jaWuVZ1aTdbqCUh1xKXj1PaYd105JsKV+LBjYPFJyBthJsIbuUuvJ8LHqOfJ4ER4rhfdQuW3e/JGsL3ljHN8rdZkKp0/Tofbj4dHRjKpXhWhA9EJiskLnYhTbKKf9rPQJ5dDiujxMxm+xOUlYrqOs4qGfk7exH9iRq6HHaHnCKRuvYnrTBPhtqNcOE4Hqmqo7egMJe5I/laqk5VETo5V43NEGevDUTSWfT0GNSRp1YOQ173F6cRevcx1lo+Veu54TDoYKxMN/f5yu8rwO6fs6YElt8F3IlcbtfDV9SajIKIh/H67jjYODKXHizv+ekGlrdsEeADfj/uquLcuq2QmMsS5Ajv68d4m34/zBs9lyh/W2AM/7qvvotF5k2Sc67C3bSMCM9RKe75uevHVEXq2eYCmrVPHx7qT6bK+vWfEqmN7ya1aQmv/MHBORVBSB40D5hgWsL7ksspA/rxFg/H9cKqO2qJTqR4cv+xZJ0d9Y+pch481UMeQdbyMYXdvN9cuS0K76AB/zywaDIvsAeXA9DPtOci9SssR+Jfc9tNhji4zigaTsJbP7uDnNNxem+ylZnesGp8jylgfjqLBLO96PHRkl+as87m3+AT1mecuy8IHB9vTo+A0wu5T77Oj2KSp8+dKZzIsQ0+SrY1aBOt6M1Ew0fjs2pL6zYbY+KVUuDF0Vkchsl/yFCOzQy+oHvuBITN0U0hkCEjNUZQ2auXO7uPs+osIX3OVlWl+J7+WrFt9LLHDl556uiaBEqFgoiF4f1/qNw9eU8Mp8ufQvb98+5dZ/i5VMZA4N+brwReGBE3+oIEOnykqV7kOxOjE3qaMQw7rQYLFvC75y2LzK/7kb2DWmvWpj8QCR8Ryn/aqKVByFFQ0HvyS6A869TDVd/tvUp3567Y1HTGVBsDGwf67X3r4KvjbnM2F/Jq6kioee8Hx76KBzUpBRUO4cvOB+ntTIhZi8l32AQAAKH4KLhqCt5pKbL1XSwEAAHBnXURDkDmMYp/HAAAA4GfdRAMAAMDGA6IBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMCZdRONhb+L0u0zI2YLAADARmBdRGNp8Sad/2q5MvkO1ot7dGNsjG7c1luLA9vok539tKg3V4X5Q79CnxwaM1uFZIymH95Gl66YTQDAqrAuojH/P1vok4fZmbDJ92JBOThzXen2Es2bfJsHdqzlX6Hzx7VwQzQAALkouGh8eflSmkMuxmGqtXCgxQ5EAwCQi4KLhgxJiVBc+6tX6OrLzer7xW3fMqnFQ0YHenuCLu75hha88m/QhXcu0n2VoJ3UxXdeo89+9yuczvad1+ja4kWabbHyD1+kByq/dqhTPz5CM995RKf/7i66OHXPpGpunHjJKu8lunLZJDD6+H6afuLXk9d6d6qfLtR55YWdz84v1/wrNG18euqe5+nSTs7bf1EnCBd6afLhnXT5htm2uf0pXfLu8ZFH6LPDH1J8SScFRePB4piv/s73T9BdkybDZdd+tJMmyznt4V+nyV1SfyZJyFj3ghzL1/+ISRt4jc6vkWjIkKrLsCqGXsFmpKCiceMnPeqF9+YyHrB5InK990cmV3EQKhpLF9mZfoU+i35KCXaKictH+fp/h52uOHrtgCcPnKCF20T3b4zRzBPGgZ24yPnvUfzDl9jx7qJZU6hyqF/bR1c+v0f3l25SrE+c3j66mtDpd3+2j9Ob6PKFe/SAj78R1elXzByEOv6RbTQzdpFuL3KeRb6eR7bQ9Ic3lTO9/3k/ffbIN+ji5xnyZxSN9PtX241H6JbZTjFPl7/zFZo89CHd4jp5sMiOnbc9wfGJxtKndPEJTnttTOW9f+NDmv4ai1Pfp0rYbh9v4vt9ia6KMHF9XD20JXXOrHVPdGt4l67Ly1yXiXldl2skGtPf3KosmyhImuQppuFXAFaDgomGDEtN/Sb3cNlJ3TzyltnLjuLMiNonaV9etnq260yYaDwYe4k+ebyXrptt4XpfDX3SKU5RHPATdMmKBBaiT9Anf9RPC2bbExbPSYtDnYpa97w0QTNfZVH9mThC3dv/7B3bMd2ky418zICeXZHjJ9nhJmFhuX2DnabZTJYxmCF/FtGgG0fos6TT1ef1X4tBRSDsrI3QCQ8uHKXp/jESbbNFQ9XfV1+layYKER5MvEqTj7xE87xPnf+FE6nI48andPXDT5VoZK/7kLpa+pAurJFoyMo/abOZhMMTDGnT9879wuwFYHNQMNGY2/un6kWb+95usyfF5eeeUWnFNEwVJhpqH19nmimnKA7Y76TSywgRDSMAHldbvX2St4YuXtD7PWKv/U7SCYcdf/ucNTxlzBYZf/4somELhUQwmYamxJn7hNGPLRqq/JYTZOmLKdvU2xX+/s2v0CdP7KIL/UcoxlGDN7SWu+5/h2bO6bya9OexmmQSDggG2OwURDS8F0yGosKiCTsKKZZJ8XSHb/Y9f1T1oNNJd1LpZfiddLoTv0dXWrKLxnwnO9VMonGln6YeluGpeTWEwzlUD3xlokF0652d6n4XZZgsdGiKyVc0vrAjGoajpYWJE3SpcxdNlX+Fpn40ofLnrvvCioYQFA4IBigF1lw05EVKzVv80OxNR9I8YbF7butFusMnSnzIztOac1Cwc9a94XQntXzR+JQuPr684Snf8eLAfee7SJf+aOWi4UUY55//SvjQlBA2PPXFBF09e1E5e1s0sg9PsVic/ZCucXThodLMUufsdV/Y4SkbWzggGKAUWHPR8H6TIWKQCxmekrzFMHkYJhpqzuFrerJ7URxW4iJdOVBDnw2LW1uZaHiTt8mJ7q+ykzSOUU+EW+mDu9jB8rY1Ee4TganX2Mluo4sT83Tv9jzF+jlS4POtWDRYpGafl2GgbM53+RPhn/VNmIlwvVjAmwiPvbaFPvlOL8XkAuR++/l6vvYaxdSx2eo+fSJ8/jVZZbX2oiF4wgHBAKXAmoqG/ZsMl0lueeG8/Os9TBUqGowsGZ3Zxc5NrtO3vHRlojHV2U/T3pLbbzbRpeCS23f20ZS95NashBLSRYAd2DDnlyWr6tpO0KUXUpPfyxcNM0QVUg8+7CW3ahntGN1WdRIQDcZXf4G8tDRPVw97S27TlxhnrnuhcEtuwxDhgGCAUmBNRcMblpLfZLhSzL/dWG3CnH6xMX+Io4Yiv0YAQOFYM9EI/ibDlWL+7cZqU8yicf/2Tbo9Jb/zyLBqCgBQkqyJaNirofIxKaOYfrux2hSzaKhVWo/U0HnrF+UAALAmouH9JmM1rBSGqQAAYKOwpnMaAAAANhcQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADhzM34LogEAAMANiAYAAABnIBoAAACcgWgAAABwBqIBAADAmXURjbfOfEmRV24rk+8AAAA2BgUXjfGLD6ii5ZbPZB8AAIDip+Ci0T/yZZpoyD4AAADFDyINAAAAzmBOAwAAgDPrIhoAAAA2JhCNEOLnBqitroYqyiuprKqGdjQP0HTcJArzI9RTn0pvbD1Js0sm7Xwv7SiP0OGxhNmhme2vp7KaVhq1y1EkaLw9QmXl7TRu9mRngnpqKqljxGwqZihaW0mN0TmzLcRouN7bN0eDz8i1ttDoHZ3qh4+v4/Rs1yD3/FyEtsg9l1dT7XOtdHrGpOWFvjb/ta8icwPUWBUsP07T0RbaUa3vZWtdC524ZJJysTBG0aY62spl6mObKDqW9lBLgzPtGdrMGHVwO+k4YzbBpgKiESAx1k617PTbjs1QnP1+Ij5Dp1+MUEX9gBaGJXbakWpq7J+hhGwnZmiwnp1o95Q6XpjuqaOySBdNekKiHFc1tb0f4lwmuvh8ORy2jwSdbq6kuh7LY0v5Usbu4+wODXdOUlt5DfVMyIYRDc6zZyimkn3M9LPQZbmGO2N0WO6ZC4uJ6CTiNHushWqr6mk4b1+/lqIRoxO7q9V92+UnPmihihoWCtm1lKBpFvSKSDdN6+TMxNkZcj3saB+hWWkcfKyqB24vup5LDIhGSQLR8KF73DtshywoB1ytX4Kpfmqs7aJxTxCYWJSjiGcG2EUZlLB45WjHVdF8kt19gCU5H0cl7S3hL58Sg/T9sQE+H4uYd7740SYqa2igPeUtdNqLJFiMIuUc2ajr1I55D+cpq+unWZUhxWRnDUU47dlMosFCWpEsy4MjmYZKerbfOOOlOTrdWq974BJ9dY9R3K6jkS5qrNEOfMuTLTR4juXNEzvPrDqcPdZq8nNvvp6jGisSGD/EItA9QD1Pcrpd7wES77fQlvp26vCJUojoLo2wk6ul6HmznYHZPu4MZKi/Mu/5hjwzud6yQ2Pqu2orB/tpeLdEqjqfuh9bNFUZ9TTo7YpPUJ+JbFXd9bDoeedQeVtpcKBJ1b1qo0sxGu1soFoTSdU+102Tyd6EOPR66hvqtuqX0xfm6ERznY4kq+uo7ah1PZlwFg0T2Xnn80V25nqiXSrya4yeVW11R5/1fDh6rytvoGF50A73Fj01RG3SNrx7s/pqCWsUoaLG8T6Bj1UXjX+cXqK+01+qz0zcuvdLGhz7Upl8z4SsqpLluAVbXbVwnPaHOg/uUY6N0PilNLfPXmCCohxpNA74G5+OWPhlkBe8qolOhHg2cSBKTDK9fBlEQ79EnhPXTrDtfY54njHCxijnlIw8tGh0vM/iVxW4PxHEqjqKfpDhXEJsiAWpJssLFqfRgzVUe2hECwXXSZ/lqFVdcFQyeF7XX0xFKd5QWXqkIc6+IvICDUt+LxLg/KfNy6+cMJfXc4ajQenxh8HRUQc7hej5YPmmLnzDe7xvW66ecZzFPyA2YbiIhkSyQ1MUW9DXnl00dKcjsnuApu8kKGHaW7K9qLyVVPviEE3PxVX0O90tkXE/TUvxS/xsDvH2i16nRTv02heP06zUf2yMerijtEWE4tgcH5+g2Clpu9xmF9QBmXEUjfixF/h5ttOoeQdkqLYiKb46bwU79/GZuIrug50wtd0wpNqyy71V1PfSpBx8Z4qi/KwjXSYM5Pf7QFWEOk6ZkjnCbpS2n+ORAj+rKhr/N/AbDNkOIiJR23k7medbr94JFQ5ZVVVplVWQVVa+lzUH6oWR3g47kvYx02httCOV3k5QUBQxFqhqIybLFY0lfjm4N6+GRNR3/YJP99QapxbsTWtHuf9oTEcVnamxlPgQRx/yQmY6l0EihWe5d1dRU09tPxjwC6g61opyGHH8OhoK6dnz3vHedjqhxCvcqfuH0XRU4+URJ5vLeU92RahWOYvw8v0CEbYvSLCcDITUY5poBKLOrKJhf/ew20tY3ce1800i+au8axLHup0Grchttn87lW2zIyjtfLPXB2O9A2GWPP4OX491fd49Dc/Lhpwr0JFRnZSUaMqz99pD7nvzl6Xq24vKWRDjRqg15pkO2G0N5GJVRePRV1JiICbbQSS6sPOIyb4gshzXziPba07YC5oL0/PTDsomzs5SeoTcKL0hnCQ6LbnfJxr6hQ2+gMqSvS/d61WNXYahvP3J7zJZ7s1nCJbDk/mLQC9fvZDq3v3OLo2lGE2fGqDDTTKMUU11+7i3KpFFJuehrsU4ZF/P3ibojEOcCDPZxQJsHG+akw0iixGSiw6C5ZvryVs09Lb/XmV3ej2miYb57pFVNHxtw2DvC3tuS3PWEI5nXh6pX38bD/bsvTboJhqBcysCx3NEMJkcnvKux7uG9OvxCYWK/s3QlJDnvfkWuRjL2pZAGqsqGt9o9zt62Q5S1KKRcXgqpIdjM9JKZTVdNGk2hQTvi1TVU7SfP6UhWz07GY6K2BPlgZcvscDnEjvXS89KL9Lbti5A9Q65xzqZjC4YL+qYEEdi9z5th2e9kLaAqHmLMAeQgYUR6qiR6IU9s1x/4P5TGIecp2iMt7PDcRINKa9aRVWpbTt/2PXwvpzDUzpiSg51WPgc07qLRoLLY6coQzje8/eVkdux6jyrJxqqfDU8ZdqvfX8h1yOoCHj3cYpJxGqGpvK+N3VePTylFrGktQ3gwqqKxt/9/L7P0ct2EBmKkiEpL0+24Sm7rML8CNBMhNuTcII9EX62m+pqu/0viohGbW9q9U1cO1QdSeioQlZf6ZeSnXZ9qpcTNN+LGuKAkkhUUdtCbc/4Hez4oWpqa/aGhjz8L4caOqrrpUF7qCqjA9DDXqkXN8XowUqqaGcHqFZfBcaGPUEMHZ6Kqzmiaf0mhzr1XMNTGV90JX7hdaudR8j1OE6EK0cm4pi8N026Y/IvGnARjeSCAsF2qvPy3eppC1lFQ9efrx1J+3R1rIrVFY2053WpnztD2UXDizD276622kKe9ybX67tPLo87CxnbEghl1SfCf3H5AUX/4Uv1mQkRCYkuxMIEw6PgE+GMRAG1Vdvp8Cm9pDZtya2aOLaW3KYNT5nfXbBTTq4FkPkLPibV+w2Q6eXLJhrK0bEzCkY4Igi83++kA45Z3YM4UsvRZ3QAjFxHVYQORM2SW1lqeqqdoxTv9yhmhZhMQMrk6VKMI6B62sF1IqnZJ8K1+ERkXiih0/VEOEdKMm8iE+EDTRy18bZRrayikUbg3hn/ktu4utbkxKz8DqO9n8bDJoGXuCx51nsHaHJOX1t8boIGZSXUXrPoQEV7/KzZc6lJ5Yle9TuRbKKh9tV10bg0jzu6vaWGb3Td6onrTBPh9nOL04m91RRpNvlnjlPHY1b+ZYtGnMb72sN/i+IoGjJ5XfZMN01ypKGuv0Gux7uG9OvR6CHYVD4hz3s7160Xp0xw1+EOt9G+BrVaDKKxPFZdNDYD8bFe2u+Ne1ZHaE/rkP/HfdJYvR/3SXrnCMWMQCjRCVm3L8tkM62iyvjy3Zmj8VNT2hmloV+qioAD0j201CoqTbrjVMtE7eghm2gIcyPUZ/+o7bEG6hmxbmZphoabU+nBH0SmltyaJbSWpiXYscoke2pCk2h2yFqiGcifr2hI3fl+3FffRaNqUpYxvXw9SRtCYEy9oqY2rX0kOBpV98Nly5LQnr38PYtoSJkn9tWq9qSWgXa1Wj1xJrjktvsFLtvUVVjHIph/sJ3qksOVyxUNU39hk8WOoqHuzyznlYUUPcf66UAyssskGnwbEtn5rovJ895mj5rnLsvCO49TlJ9NrkUVwA9EAwCbs10UyTg/s054EatBRZNBZ7pWyG+OfIsqCocMtSIKKD4gGgAkSdDkDxro8Jnw2G59kPmcWvMbCtkcoY5I4YZUEhPdtCd0SfkaIkt05Ue0VYG5HFAUQDQAKHbsv/slw6GBX9tvNtRKuapaOoBfaxcl6yIashJKltCKFWZVFAAAgNWg4KIhK6HspbRihVwdBQAAYOUUXDTw714BAGDjgkgDAACAM5jTAAAA4My6iAYAAICNCUQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADijROPuvXsEg8FgsCKyu3fTP/Mxu+w8DKIBg8Fgm8E8YbA/bbPz5mEQDRgMBitGs52/95mP2WXnYRANGAwG2wzmCYP9aZudNw+DaMBgMFgxmu38g58rMa/cPA2iAYPBYJvBPGHI9LlKBtGAwWCwYrBcTl8+8zEpYxUMogGDwWAb2TxBCPu0zcufp0E0YDAYrBjNdv7eZz5ml52HFUQ0fvJhnH7tz+bpoe9ecbL/8hfzdGRsMbQsGAwGg4WYJwz2p2123jysIKIhIhAmDtlMRCasLBgMBisJs52/95mP2WXnYQURDU8IwtLCbLn5YTAYrOTNEwb70zY7bx5WUNFYroWVBYPBYCVhtvMPfq7EvHLzNIjGutoMvbWjkr5/Oixts9pH9P3ynfTWTFgaDAZbsXnCkOlzlQzDU0H7YoLe2vcUba2qpLLyatr61PP0xkex8Lx5WzbR0Gm73pgJSdvIBtGAwUItl9OXz3xMylgFK4hoLNfWTzRm6O2d1fR487t04YtFunt7kS5/3EO7qh6lVz9ai9VcEA0YDJaneYIQ9mmblz9PK4hoHBxaoINvL4Smhdm6icalN2lX+dP01nn//vH2rVT24snk9oX3DtKurdU6Etl5mEbnTd4ZOf4gvffR4WT60/tYgG6nyrrwdjM9Xc1RTNVW2tX+Or3630NEQ5UjkY6xHW/SZe/4d+1zH6SfBq5Vmxacp3unUvvO9dBT5bvo7Tm9na2c0daAWKnr8Ry9dvo/fqNT3Ue6qJn0I6k62Nr4On3yhT/9jRNH6OUnUnU4nkxnm/+I3nj+Kdoi9179FH2v52O66aU51PHN0R76niq7krY80UxvT6XSYLANY7bz9z7zMbvsPGzNRWPswq2kCLgKx7qJxu2P6bWt7AgPT9A1ywnZdvPkQXr00UP0oTjf23M0fnhnyqkbZ68ilUXOO/f39H0u73tvm+Gtjzvp8Sp2mB/PqSjmwrvN9Djnd400br7XTBWP7qW3z+ko6JPXd1JFVTP91Ha4xi6/YV2Xt73rCF3j77nKyS0alVQhYjkVo2t8n8l8ynS6qoMbvD33Mb3B0VtF898bx+8d30PjUoc3JugNvs9HOz7Wx9+eojeeYiHo+Eg/g7mT9P1HWQC7jQDmquPzr3NkyNdq7k1E+tGth2hUrkWdHwbbpOYJg/1pm503DytIpPHj04vLEo51Ew22m2ffpJZvci9VergHe+inE+zgk+nakb/8njVUdePv6WV2qG9f4u/KobHztRyUOOCKQx+Z79X0aLtxjsq4vLBIw0vziYbefv6IfT1z9PausN4+29wRej7p6HU+fWzucnKLxuP0xjnv2KBJeiBaG+2kR5P1kn68ErSdRuBOH6KKrZ00bou2HF/Fjl/2OdTxU57AKGMReryaXv0olR8G2xBmO3/vMx+zy87D1kQ0PKefyXIJh5cvLK0gJj3Uj4/QG/t2qgnxLU97wye6l5wcNkqacajKobFzs8oSh1bWKg5NO+tkj1iZ3ucmGuHOerxjqynfv98nFPPv0veSQ1O5y8ktGt73MAtJv83RQpbj7ahIfd/nRSXG1PWbYxzqOP35ZKpjGGwTmScM9qdtdt48bF1E40Cxi4ZtMlzCjkgPn4jD20qvfRyST2wdRGP0EEdFoaJxj64d2UVlje/S5feak0NTLuWsumiYaCzT8TlFQ801mWOWXccw2AY12/kHP1diXrl5WkGGp+RvT7kKhth6iYaM9ZcFh0bYLrz+tBk+kfH2wASzmJc/q0OT7wUcnhIzEcb3Gqut43KXI9f87ddXUTTUJLw9PJVZNNyGpzLV8SJ92GzPnxgLPE8YbFOaJwyZPlfJ1n4i/PztZQmG2HqJxt0bH9Grj1bT04dOWktu36QW3rfrTe1Er739PFXIZPZZ3Zu9Jktyn2AnJxPCOUQjOBH+yZG9WSbC79GHL3KEc+gjurmo51D0BDY73/NmAvvN59mZ8nbIRLi2GL3XyOcPOOlc5Sgn/lQnjaqJ6in6afOjVhkuopGaqL67OEVv7WSx5DpITYRnEQ0zEb6r+2MzEf4RvfZEcCI8Rx2XP0ovv6uf183z79LL33ye3jOrxmCworVcTl8+8zEpYxWsIJHGgaEFZ8EQWzfREJufoLcP7qLHZVksO78tf/A0vfzGhK/neuFIMz2tlnvqJZ1vGQHJ6dDYnJbcGrvJgvRtlTdVZurcZqlsjuWkaojKWkXlWdZybs/Qe3sfpwq+v4qtT9HLHQfp28sSjafp1dc7k0tin9r7ZtqS24yiITb/Ef34O49aS27NSipJc6jjax8dpuf/QD+fiq076bWTdlQFg20y8wQh7NM2L3+eVhDRWK6tq2hsMpMhsYzDV2tiuUQFBoM5me38vc98zC47DyuIaCxXBCAaq2A3YnRtQn6zkPpBX2EMogGDrYt5wmB/2mbnzcMKKhrLtbCyYG6mVkNVPU4tbxcyyhCDaMBgq2K28/c+8zG77DwMogGDwWCbwTxhsD9ts/PmYRiegsFgsGI02/kHP1diXrl5WkFE49f2LP/fvf7nZvy7VxgMBnM2Txgyfa6SFUQ05G9PiQiEiUOYicj08jFhZcFgMNimtFxOXz7zMSljFawgogGDwWCwNTJPEMI+bfPy52kQDRgMBitGs52/95mP2WXnYRANGAwG2wzmCYP9aZudNw+DaMBgMFgxmu38vc98zC47D4NowGAw2GYwTxjsT9vsvHkYRAMGg8GK0WznH/xciXnl5mkQDRgMBtvI5glC2KdtXv48DaIBg8FgxWi28/c+8zG77DwMogGDwWCbwTxhsD9ts/PmYUo0CAAAAHAAogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHBmzUTj3fF79FsHr9FD373ibL/Rco3e4eM2HmPUUV5Pg3NmM8iZdip7ZoBiZnOlxKL1zuWovIfGzNYymRugxmz3AwAoWdZMNP7j/vlQYchl//JPr9AvZu+bUtaRmX7aUV5DPWfNdlYgGgCA0mDNRMMTgeXwTO+COuY3D1yjxJLZuU5MdtVQpKaGKl48SQmzLzMQDQBAaVBUorF495f0n/5cRyj7jyyavevA0gT11NRR9MwQ7SlvodN3zP4kcZrsrqetVZVUVl1HbdFuOmA72fgE9dWz4JRX0pYnW2iw+4Uszj5O09EW2lFTTWXl1bS1roVOXDJJAYKikTg3QG11+jwVfL1tR1NeXuU92E8nmutoC6er67TShdn3W6nRO299N40vmASIBgAgA0UlGsLPp7+kf9qgj5Xv60HigxaqUM45QaMvVtOeIb+7jx9toooIi8kljkESMZrsqWfH7TnZGJ3YXU21Lx6nWZU8QdF6dswZRCN+7AUuq51GTeJsP5dV10+zetOHTzQWjtOBqgh1nDIHzvRTYxUL3YzeVHnLI9R2bI6jtgTFTrVTbXkqPTHSShHvvEt8DyyCybIhGgCADBSdaAgHhuLqWIk6JPooLAGhONtFEZ8Tn6PBZyr9QrI0khqeUg63gYatZGIHnTHSuBOnuB3JGIc9PG+2LXyiwUIQX7AHzvR1NQ7os+hIY0R91yTodHMlRbom+LvO2/a+dfydk9TmnReiAQDIQFGKxv0HRFVtX6jjv/0Tb8ykQMSGaE9VC416jtwbqjI9dD1/UUM94nuTWHMaMn9R00WTOkGTbU5jKU6TyeGpSmPhDtsnGkzcGp7yjm2M6gNV3sCcxmz/drNPrjd1TMps4YNoAADSKXrR+OPewoqGHtZJd6iRTk8lVlc01PnUMJHp9Wdx2D7RUPn08JReNGAiDWfRCN6DBUQDAJCBoh6eenhfoYenZihaV00dZ8ymx/leqhMhsJzzag1PjR9KOXrFpX561kU00oSIr2tbQDQyDk/JfVbSjr5k+KTxVqxBNAAAGSjqifDTnxZ4InyiiyJV7TSettyXnWxtNbV9oKOB4ET4eNf2LBPhY9SzLfNE+HR3hNO6aZIjDTVp3iDDVA6ica6bajlf3wRHGndiNNnXoFZJ+UQjy0S4uoeqeoqei+vtiV5qfJKFUW4RogEAyEBRicZ6L7md7Mz8u4zpnloq23vcpK3iktulueSy2Iqaeuo51s9l1VL0vEm38IkGM3u0hXZU8zVU1VBj53GK7q2kuh6tCjrS8C+57XjffwWzQ6m5FHWdRkAgGgCATBSVaBTTj/sAAACks2ai4UUMy7Wi+TMiAAAA0lgz0ZA/WPiby/yDhf+15RoNnd2If7AQAABKgzUTDQAAAJsPiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAB+JL7+kGwuLNHflGs18Pkufnv+cJj+dhpWQyTOXZy9tQNqCtAkAPCAaQHFzMU4XL83R+emLdHX+C96+RffuJWjpwQOTA5QK8szl2UsbkLYgbULahrQRACAaJU781m3Vq7w0e5Vu8XcAwpC2IW1E2oq0GVC6QDRKGOlFTn9+GWIBnJG2Im1G2g4oTSAaJcj9+0tquAEvPlgp0nakDUlbAqUFRKPEkJdchhhi1xfMHgBWhrQhaUsQjtIColFiSO8QggFWC2lL0qZA6QDRKCFkSAFDUmC1QbsqLSAaJYKseJEJTADWAmlbWFVVGkA0SgQZe8YqKbBWSNuSNgY2PxCNEkB+lCVr7AFYS6SN4QeAmx+IRgkgE5VrGWX0nL5Du964SRev49fjpYy0MUyKb34gGpsc+btB8mcg1oJf/pKoof8mPfTdK8r+w755uvDFcpdfxmk62kI7aqqprLyStny9gXpGYiYN5M8cDT5TSWWHxvTmRBfVllfT/qNrU8fS1vC3qjY3EI1NjvzBubVY2SKC8ezrC0nB8Gzbj26YHG7EjzZRBTuxHQcH6PSp4xTdV8vbETo8ljA5ip0x6mCxa4wWaw87KBrdVFdVTQeOGdE4085iXU+Dq3T50takzYHNC0RjkyN/qVT+8NxqYgvGv/4fV32i8VcnljcMNn6IHdq2fkpNocZo8tgYzW4UzdhoohFklUVD2pq0ObB5gWhscmRFi/zF0tVCBOOPf6wFIzp6l342laB/1qAF4/k3b5pc7sz21bHTilDbsTlKpI1shTm8gJNeitN4bxPtqOZ8HLFsrWuhnoPb+Xs7jescXAnHqaO+hiMYzlMdoT3dXXTA5+izD5Elzg1QW511fOcIxeRalcOV83oW7nxjI1205+u6bN/xjBLNZ7ppuLuetlZJGRx1NQ/QdKb55PgUDTbXJfPWPtdFo/MmTVjQ6VvUueqoLTpGw8383avDuQFq5LSOM+bcyWtne2aAJTs/pK1hFdXmBqKxyZH/jbBaf958iYvxBKPvoztq38DYXSUaKxEMxVKMTh+UISl2WuJQW4doMvmD9dyiMdkVUc7z2VY9vDXIgqHK8kQjdpz2s4OteKyJ+oZGaHSom/ZEtJP0ypiN1lNFVS11DE1RbGGOJqMvUG1yiGyCemoqKdI8RNNzcZo9002NNdupb4y9emyKRk/10h4uq46ve/QUR0i6WlIsjFDHY7V0oI/TFvj4U+20g6+ntmtCJXuOu2JbKw0eG2HxaOBzV9KOvhmV7mOJ66O+mu+llYan5ig+N0GDe/n+I3yvct4lvla5t+rt1BE9TqPHBqhjG+cXgQkRjfgU10dPA5+f732Qv4+xcOtcK0bamrQ5sHmBaGxy5J/qrAb3WTD+8Ic30gRjpRFGGuKAo63skLlHzg788BnpaucQjTsnqY0d4o4e28HGafRgTVI0VCRT1UKn7Z77pX7lOFUZS1wel1HXPWUShQSdlt5580n+NkPROnbq9d00PhMPiYYch6cScYqzaMTZK48e5LJNr16LxgvW9cXpxG7eVx/S6+fIpoIdfN85sy1IHfD5295PUOKDFk6vo+h5kyaIkLDohYmGYpWHp4TVanOgOIFobHJW4wUWwXji/2jB+NEpLRj9Z1ZJMJbY2dndW+lNi1Aop5lDNIIO0BDjyMETDT38E3TA6WX4hmk8846LT9FwZxM9+5gMUQWHj3KIBt/P8G4ztKXM9Pxt0QhcX/g1e/flleM3Ob993zaqPIgGWCUgGpucfIenvuSedSbBeO5v8o0wdC+4QvXoU6R64kY07PTYkBoOUk7a9LKzRRrTPbXZIw0TrewZ8rvo2PkpipuoInbmOE16yYkJ6qvla273hCy7aMQGxJHXc+/f3MESRxISxaxANHQk0UDDdsJSjKan9I5iiDQwPLX5gWhscvKZCBfB+Ob/vq4E4vBP9aqo3g/vJAVDJsXzRZyq9N7rdnfT8KkR7tFvV5O4nhBMdokAyOT1EI0e66cDj+kJZc9JB+c09JJddpIZ5zS66Fk1aZ4qY7pP5kGseZFWuYZqahzg9LgWlYrHXqDosRE6HW1VcxIRMychonFY0re18/UP0bjtsBlZUqwn+mcovjBH00OtVMf5VyIatDRD0W18//acxXYZzqunYbkVb06jyj+noaKRTKIxJkNeHD21c/0OjVmr2FYGJsI3PxCNTU4+S27/pE//cG+tBMMjdiq1uqiiRlb8pHr53mohvRpIi0cfRx/Jnn1g9ZQMHZ3uDgzTWKunKmrqqWdkKBAdxJUzV/MpJk8HO/kk9uqrqhpqbD1Os9bcRvwDFhJz/p6zZqcHRwKjnamVUbXPdVPPXv6+EtEQZKisNVXe1vpWOm0HWvbqKb7WHc2yOIC/ZxINPstoq1e/XWlDW8sFS243PxCNTU4+P+77emeMfu8V7bq6T95eE8HIm8QcTZ7zu9fJTo5OanvJG1mPT03QrD08ZYa4ZPIYrC74cd/mB6Kxycnnz4iIaPzqnqtU879iSjB2/mShuASDEjTeboanOmXJa2BoSZCetQwfmeElWXK7X4a4vGWqYFXBnxHZ/EA0SoCV/sHCvQOLSjjE9vztIj0oKsEweMNT9tDS0JRvYl0NLz0X0UMwLCg7mrr9P4gDqwL+YGFpANEoAfCn0UEhwJ9GLw0gGiWCrGhZyz+PDkobaVtYNVUaQDRKBPy7V7CW4N+9lg4QjRJCVrasxZ9JB6UN2lVpAdEoMWSiMnY9+RcBAcgLaUuY/C4tIBolxv37S2rsGcIB8kXakLQlaVOgdIBolCDykkvvEEMKYKVI25E2BMEoPSAaJYy8+DKBiVVVwBVpK9Jm0OEoXSAaJY6seJEhBlljD/EAmZC2IW1E2gpWSZU2EA2gkB9lyXCD/BkI6UXKH56Tv1i6Wv/1D2wc5JnLs5c2IG1B2oS0DfxwDwgQDeBD/m6Q/ME5+Uul0quU/40g/1QHVjomz1yevbQBaQv4W1LABqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGeUaIT9y0cYDAaDwYKGSAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMzfjt+j/A8mSlzDx3h4tAAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390ce18ad00f5215</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Miles Education - CPA, CMA, CFA &amp; FRM (Delhi)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>429</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Office No 166, Ground Floor, South Court Mall, behind Select City Walk Mall, Saket District Centre, Saket, New Delhi, Delhi 110017      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADbRSURBVHhe7Z2Nc1vXeaf3z8ik7W637bSd6Uz2o2nrnWWyXDBlhWlGmHqErcfYeIzUazFy4K0VMralVSSZoSI5LOlwqYSrJkzo0OaaNlyuOGIsWopkqWKoMmRcsWxlMpHJWCb0hZgS9AWJ8m/Pe+69wMHlBXEpEBBI/J6Zd4CLc++5HwDf554PgP8KhBBCiA/+umkbKA1CCCG+oDQIIYT4htIghBDiG0qDEEKIbygNQgghvqE0CCGE+KZs0rh9F/i7iVt4+tUFfK71Cn77+Yv4/e0X9XN5beBnt3Bn0V6ZEEJIRVIWaRz9lzT+6OuX8MmvXFg2Hmq5jONn0/ZWhBBCKo2SS6Nt+HpGCp9+4RJeOHgNIz+/g4WbH+s49fO0fk3KnPVeevu6vTUhhJBK4mrqeumk0a6Sv0jgd56/iENnbuPjj+0CD6RM1pF1ZZtvHaE4VoNkPIaaLQNI2suEEFIMJZPGO++ldfL/za9ewD99eNd+NYvTqnAzqdaVbaRM6ngQ3H7vIHa1/jk+teshfOKFP8eWlw9jOmUXVhqLCYzvb0QkWIea2jpseLgRPaNZRVScNBIDaFLHKcfqjkDHhF5FH3NOWRAboy0YPOu8CQkMblGv17dg/Kb9Ug5ziEdluw5M2q8QQlaHkkhDBr3/0O5u6hnx/KvOKw3hZbWNlEkdt+7YL5aLqe/j87sewfND7+HiRylcTbyH+IFH8Km21zF3z16nYkhgOBZEINaL6YQS7GIayaleNNWH0TlmJdg10dJYnEJPKIr4nLW45JjTKcwfaUGkVq1zTl6wpaGEsn3I48zm+tGgZUNpELLalEQar//0lk76n26+hHt5uqSWk4Zs4wycv6HqKh8pHOp8CJGB9+1lm3vv4Tt7HsLzP7bvdD88iC/u6kD8x99E5AXVGtn1OURePoWrhlRuT76O51s/p8oewh+3fhOHMlVO4qVdW/HK6cOqNSPln8VnOl7B5H20ZNInWhBQd9sjrm1neyKZpLskAS/OYaQ1ho31cqceQlPrScybs9bOH0VbNISASroBlcjbhuxMbjN/rBVNoaB19x/rxuSCXaBIn+nG9oelzGrx9E34O6nU4W0INA6pq2/hLbo0RprrEO6aUs8taWxvbERNtB/z1goZpveHEFZlT5dIGjdv3tRRCL/rEbKWKIk0Nr+8oBP+cuMSy0lDkG2lvEHVVTY+Oobndz2GV35hLxtM9j+MT/xgzFrQ0vgstgy8h6vKabc/OIVv7FWyOfihVf6BKn9hK+K/UHf/99K4+M438bk9HRjT/hNpPIRPdbyOScmKqffxyksP4XP970nhipjuCqGm+aRKpy6SMxg/NaOTcG4CTqnEG0RkxxBmZaP0HAalpZKpYwZ94SCa+ueQViJJn+tXrZYQes7oQqRHWxEOd2BcKltMYrrbqHvhKPZKC+eUvadTHapl0Ihha3EZpCspiLYT2bPwK43OYyfRVh+xWx82N+U11SI5Id1gpZHGd77zHbS3ty8rBCmTdSQIWU+URBo137isE/6ZD5aOZTgUksbk+bu6XOoqG1oGKtnbud/k4tBWfOKlg7goC3ZLY8xoWVw98hw+8eLrKgUCYy9/FptyWitKDC9+Fi/9ozwXaeSKSdfdcdiqewVMtqvWQrs1DpCPnASsxxNciTw5hO21MQwmZGECnbUR9J3VJYo05idG1XshCd1K1G3HDEVJglbbDl9Sz3XdO41WTxKzp0YxW0AaurXkai14SSM11a3qD6FzLHssuw8rcUmrYr+IxCI1pFof0mrRx1MaaXz44YfYsWNHXnE4wmhqasLYmH2jQcg6oSTS+K3nLCFcu5V/ulQhaci2Ui51lY2VSkOX2EjrQr92BXHVcpBuKXe8NC4rWt1T5j5y6s4hjfF9QWzYN7q0NaFYsTTGOlAT6cWsLnGQ8QR1165PJo3pns3YIN1Wzd0YlNZKputKhGKNI+SGI5wEju+KIBCMYndrL4anErq1sjxJDDcuHZfQx+zaT25XmSWNprjasYxfZAbE7W4rqa+E0hDyiYPCIOudkkhDvu3tVxrS/XT99tL1HGnIFNyysaLuKZc0fvE6NhnSyIx/LGH1pJG3e2oxjdSC9WphaUzgQL0jDZvkDCaHetEWCyEQ3onjmVZICD3Zm3pP0uenMBLvwu7Hggg80Y3p5br0p7oQ8ZgB5dXSyMWQhikeUyATHQiUeCDcLQ4Kg1QDJZHGf9pjdU9JF1M+BiZu4Xe3WXKRQe+f/TJ3mpRMvZWysnZP5R0Ifx+vtC4dCDfTwu1T37S7p9I42f1ZfKp7DLftMk2mK2sl0lgeZyDcnXTzDoQX6p4yxkIsrIRsJWdrGmtDX+7AOOzWRPr8BMYnVOvCWlSvmy0YL5QQ9wSX1qdYmTRUTcdaUBPtxaDZVSWCLLE0BFMcFAapBkoijS/90BoI7yjwBb35hXvY2JHU6/564wW8+KMUFu3kKtvK61/qLeNAuJBnyu0n9n4fk07i19KwB8IlSybH8NLeh/DFoStWuV3HN05ay3qg/MWv4ZD23+pJQ76jIQPZkR0DmE6qAyk45dYeCN9zFPNy3Ok5DD+rWhNOayV5FLvVtm1HrGSM5El0hoLYe8SqS89yqo8hbn9fIiX7eqwL07KxbjVky/Qgem3YGB9x4SUwm5VKwxr8lm6s7LTdcklDcMRBYZBqoCTSMKfc3jUGi72Q6bX7f3wd/7rpAja0X9Hf8ZBtZFupo7xTbi0KfrlPS6MF3UPZKbdffHUsZ8rt1X98BVv3fE6PZXzq61vxnTFbKKspDUFPoXW+3CdfgtuGvuW+3KfWH26OGlNulUCMsYf02YHMlNsaGZ/oncrp/pofakGDnnJbhw2PmV+4U/sa7cpMuQ2EYug8Zid1D2QAO7DHo2tNsWJpKKQ+PQBuL5dTGoKIg8Ig1UBJpCGJ3/ktqXxf7nMj3VHJ69bYhmwj28qX+6SuisNrTIMQQqqAkkhDkF+rlcQvPwmy3NRbN7Lug/4ZkYJQGoSQKqVk0hDk12ol+csMqB9NFv7BQllnTfxgIaVBCKlSSioNwf3T6LsPXsNPfnFHd0VJeP00umxDCCGk8ii5NAS//4RJ1uE/YSKEkMqlLNIQZEBbvpvh/LvX39u+9N+9VuSgNyGEkAxlkwYhhJC1D6VBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxTNmncvgsM/OwWnn51AZ9rvYLffv4ifm/7RdSp5/KalMk6hBBCKpeySOPH/5LGH339Ej75lQvLhqwj6xJCCKlMSi6Nl96+7ikId0iLw3ku2xBCCKk8SioNv8L4469fxuI94G9P3MBvftV6ba2IIz03gcm5lLWQGEBTbQyDCWuxbIx1oGbLAJL2YjnJOX9CyLqnZNJ45730Ejl4Re2LV3B46ra9FXD4n27j1xqtMqmj0pncH0Rgx1HotLnupZHA4JY6NMWzJ5hz/oSQdU9JpHHrDvCHL+QfwxApLMf+Y1YLReqQutYMVSgNQkh1URJpvPHTW0tEYUYhaUhX1adt6Uhd5WMCnSrp9w11oykURE1tEBtj3ZheSOB4cxQbautQE4yi7bBxp92uXmufsBbc0lhMYKQ1ho31ap36EJq6J5BatMvUvfl0dyMiQVWm9hN5phuTC3aRkJpCfJuxz6E5u0ChyvpiIQRU2YbHWjDYvdOQhnUOpriS8ViuVC6NosfeXtcdn0GmTSdlz4Tt/YaxvXvKKtPnJsdqh11fzvkLCxM5x727195e0HW04vhE9vo2NB/FfOaauEjNYNC57nL99o8iaaw7f6TVeJ9aMXLeLlDIcTV1D2WuUyCk3tczKcwfbkGDfc2X3TchxJOSSKPh5YUlojDjT//mir1mfrr//oZeV+oqH5Jw6xDZo5LJTbWYnEBPVCVmSaxHEkgvppE81YFI7TYctw8rvzRSGN8XQqR91BJFUiV64y49dWQnAuEOjEvmXUxivD2MmsYhq5tHyWZwSxBN/XNqn0D6/FG0hULoHJP0m8TxZ5Vk5BjVYlrVG4+pxOlXGjcncCCcrRsJVbdabjshdc+gzyxbGEVnpkzw6J4yz39xDvGoSsZdthyTsn0dGnps4dniyR77SXSG6rD7sFfnVgLD6rwy129hRp9nQ59VV/pYi7p+OzF8TlWk3pfZ/hgC9S0YsavSxxVWy3NSnsRkV1RJTG2f2bd1bN77JoTkoyTSqPnGZZ3wNxvyKNS6cPMP79/R20ld5UMS7mYMGnes8/2bUfNEP+btZUcsnWPWUl5p6OcqaYl8bCTR1cSs5K0T+Y6j2bvw5AzGT81Y0hjrQCDSi1ldYDHbE0GgQ+1H19uIYcsQFqOtvqWhj8FVd2q0FwcOq2Sskm9qIWUJw0bOT+9XU0AactyhLkwb2+NMF8L1HZiU1zyuSW79Bud6EXWti5khHOhTQrKPY/uQeRGSGG7MHpvU+3S/cRHO9+Np13ubc+yEEF+URBq/9ZwlChmP2P7mtfuSxpXUPb2d1FU+Ctyla3xKQ8YZ1HpLwqlL3eHvfSSIDY9tQ2fvEKbPZ/Rh7dNrW9mP1CuJ2V5XkzOmsfw56Of7Rq0CLxJG95S5X6twWWnouptPZkUoLBzF7hyRKoFYJZq8iVvOKUfWJnKOEcTP2Ys2012hTF1Sr3mcOe+NDaVByMopiTR+5/mLOuFfv/2xXn7hoCWOfPFfv7m0uyqltpUyqat8rLI03Mndjbqzn586isH929AgXSf2+IHe57N5ZiSVUho31bYh6Z6aybQ2chPrfUjjknFNSiyNyY5gpi6pl9IgZPUpaffU9IVsP8Vy4vBqhfxL4q4uK3/31CpJY64fDbVRxI3xa2Quh5LFxCgmjdaF7saxE2r6RIvunx83u2acbfU+CnVP5XbDmOfg1T0l37UYn1GlHkl9fJ9/aUiiL9w95VMaXt1Tl2YwPpFQV89f9xSlQcjqUxJpfKnXGsvoyfmLzy8OL2l876Q1EC51lY9VlIbaQgasA7FeTMspLCYx3RNDQ5fVmpjuChtlacz2qf2Eu61kvjiFnrA1YKxnC6UTGNkTwW6dJN0D4RPoecIcCLcSqjMYnZ6TgW51jE75cgPhC0extz6EtsOq7KYS25FWRGXml5FYRSLhjgmk05bwcs7fHghv6pmyB8LVsT3mHgjPL4303ChGJpwr7WcgXElFxCvXb2CbkpNaNgbCKQ1CVp+SSMOZcuueJSVTaU1ZOOGWxr2Ps62VBzHldnWkoVBJdLg5ak251VM8BzDr9DnJjKn92Sm37imjMnW1zxlbcE83XXbKreK8NV6i6422oGff5txyY8qtTEXtPJJtDqXPmNNhBzDcEcnpckpP9eJpOWZpPajlJYnXPG495daYZlxAGrPdSqSNQ9njNKfcuutSzA+1oMGccmu06igNQkpDSaQhv1brfM/iZVdr41M783/p78/ar+DdX97NTLeVL/fxl28JIaRyKIk0BOdnRH5dtSLkp0EcfjR5G5/Za7UivOLTzZfwb5+1nq+FnxEhhJBqomTSEL51xPo5kN9ouoAO9fyO3bWQr5vKDNmWEEJIZVFSaQjtxi/dfmbfZRw6cxvOdzDyxd8MUxiEEFKJlFwawvGz/v8Jk6xLCCGkMimLNAT3v3uVf/UqIc/5714JIWRtUDZpEEIIWftQGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ35RMGn/WfgWf/MqFnPjMvsu4fvtjew1CCCFrjZJJ43e3XVwiDYnjZ9P2GoQQQtYaJZPGf3nxsqc0Oo5ct9cghBCy1iiZNP7qBx95SuN/9Hxkr1GhpGYw2BzFhto61NSH0NB8FPOLdpkwN4S2aAgBKQ+GsX3/KJJm+fmjmfJAKIa+iZRdIKQwG29BQyiIGlW+4eFGVzkwf9gpD2JjrBuTC3aBJoXp7kZEgmrfqryheSj32PKSxmRHWG3TgUn7lcLHYpfb+9oYbcHx83aRsJjE+P4YNtbb5bFWjJjlBsmBmLoeMQwm7BcIIWuWkknjuydueErjC9+tZGmkMb4niLAShRZBeg6DsSAi3TNW8eIUelSSbeqfQ1rKk6PoDNdh+1DSKr85gQPhbHnqVAciRrLUyTPcopKr1UWXPNKiyhsxbG+enlDr16v1z6lyScrtKtFvGYBdbG/fgXF5wT62cPuEOuoCTHWp/Uhyz0qj4LGcaFHSU6KQY19MY7Zf1u/GrFWM6a4wArF+zMrmHuUZkkexW4uF0iBkPVAyacxeWVwijD9puYzzv7pnr1GB3DyJttoI4ufsZWG0FTWRXisZJgbQ5Ep+s90qsavErTHX1aQx0lyHcNeUep7EcKwOTQOOAoQ5xCN16Byzlsb31SHaM2ctCPp4QuiRzZHA4BN1aDtmKOJcL6K123A8pzXiYlHtIxrGgY4WQxqFjsU67pxjWVSCzFybGcS3RNBjn7bG49pIa2WkWUm0o8OjjBCyFimZNIQNxgyq//yNy7icqmBhCDrxtWI8p7upH09nkq0kYKOlsSAtjSB2H7aSbzIey2kZCPq1Z4+q9OnB4gQ6651ErKSwRSXyuJlZrdd2H5at1bqqteAIxkJec6Tijew/0HwS6bGOnJbGEjyOpXNUl9hY0srdv41qFU33xLAhlnvuss9wVEn0vJdQCCFrkZJK47WxW1oYv9Z4AYmrFS4MQUvDlVjdryWGsPvz0t1iRVS3IizSx9TdfE5LA5jv37xEJA6zPVEEMkLxuLu3E7UlEqslkNPS0Hf/eRK5IF1DQdUSkZ0XkEbusdjSyKnX6zVLZPpaPKLqvmm/LEhXXjhsCc2zFUIIWYuUVBr3PgY+s9eaRfWNIc977cqikDR0InSPaWRbGro7qd4Y05jqRZP058udvrVGhvnDOxEJq3qNy6LHEYwxDbl7lwF1RxTzfVHUZMY0EhjZI4Pbru60DHbXUL+dqZeRxtJj8SsNG+dYw12YtltpIqHwvlHrvCkNQtYNJZWG8JNf3NHS+I2mCzjzwV371QpFJ7dluqcmOhAIqcSoCyx06+KJfsw7y2f7sdue/dTQPIDhjog9ppFFum30gPeS2UYpzPZts2YkBaNoiw/hQMToflLJeaTVmtklM7N6jvRjb54xDd01ZCTxfNLwPhZbEH67pwTd6rGPVa5jvd3CESgNQtYNJZeG0PT6VS2OT+28hPmFNTwQLonX1f3k1SWVQQ9Cq0R6xl4W5vrRFFQJ1OyFyse5XjSIpEyJGci+A41DHuMl1kC304Xmjkziz3sshQbCp9AXiaDPPC+jfLLDmsbrFbljNoSQtUZZpHHrTnZQvOYb3jOo5LXHvvsRGl5ewDffSuHvJm7hw4/KLRjXlNuFGcRjqsXQZydP3f0UQtvhhN09NaXLI66WhExBTc1NIL4jjA07jEFwGRCuD6ukXaCrLp3C/JhqRYSD2HvEYzTkZgKzRzrQEFSJ27XrvLhbGgWOJXfKbcrqfoo6LSrrOmWn3C7tnsqBLQ1C1g1lkYaQvP6xnnIr4viDr13E2Kwyic0vLi/iP+y+pMvM+MMXLtlrlBHXl/ua3F/eK/TlPp0grS/LdQ7NIGWUTbbn3nVnwvwuhsy2qlUieqYVw2eXJnRdh3zpcFs3xleShF3SKHwsri/3xbowbr4dqhU10pr9cl/kGVe5CaVByLqhbNIQRBzODxnKjKodA9fws1/ewR/s8P6dqt/86gV7S0IIIZVAWaUhSFfV9jeveUrCHZQGIYRUFmWXhsM/nLuDP/2bpT+fbgalQQghlcUDk4bw8cfAGz+9hc9/K0lpEELIGuCBSsNk5uIi/vbEDUS//xFqX7yC33r2Av5cyYQQQkjlUDHSIIQQUvlQGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxzQORxptjdxD+1g0d8pwQQsjaoOzSmPzgHgIt13NCXiOEEFL5lF0a/aN3lkhDXiOEEFL5sKVBCCHENxzTIIQQ4psHIg1CSkEyHkPNlgEk9dIEOmtjGEzohaUsJjF9agbJRXu5ZMhx1KFzzFqabK9DUzzfQaUwPzGB+ZS9SEgFQml4kJroxe5oCAH1x15TH0LDtl5MLtiFBqmzA2jbHMYGIyloxjpQU9uBSXsxS24C0SwmML6/EZGg2pcq2/BwI3pGrbTnF0lEsq0ZOjElBtDket2JQMeEvbWBPu4wDkyk7RccPI571UlgcIt5jEFEnmnF8Fn/GXRF0rg0hO31YfSdtZfzoOvMHJP1/nQOzcB9hfKzEmlMoScYxN4jtAapXCgNF2mVOCP1m3Hg1BxSkhluzmFkTxg14S5MG3elycFGbHxkJ+Jjar2b9osOvqWRwHAsiECsF9MJtbPFNJJTvWhSyaxzzG/iSGOkuQ7b4+o4FlLZyJfVFlViCkWhVl+KPm6VHMPq2HPOqXzSyCTUmwnMHulAwwquxYqk4ZOcOuX9mTmKA08oobVP+BTHSqRBSOVDaeQwh3i0Dg19royqE20d2o7ZaeLmSbQFt+F4vgaBT2mkT7QgUN+CEVdOnO2JGMnPRrcavOq0kq3fhJ46vA2BxiF4pmF93FE0qGsQ6ZqyXxSWSiN9RrXGHgtad9+PtWDYvmTTXaqFphKqg+yvJtKLWXsZ53oRrVXn7BatWxo2+nhdwp4/1oqmkOw7iI2x7kwr0Esa8VNDaNPHaa077Zy4vp6FpZJbp03yKHYrmfUYlyjf9fCURt8ohpujuoUaCMXQd8Y5qKXXmZBKY9Wl8bPZRfSN3NGP+bh++2MMTtzRIc/zIbOqZDpu2WZXLahkUBtB/Jy9nI/RVtQ804G4/YdfE4yi7bCRfXxKQxJsTfPJpXesyRmMn5rJTex5pSF1htAQM44lnq/7RKQYRNuJPPfI9nGPq8TeUGsmRVcyO9+vWkMq4Z5T9ai77/nDLQiH7NaJqiOQkYTVCqoxkrOWyLNHPaTlLQ0taOM9SatrH1YtoXHJ4jIu0Z1N6kuloZKytOLkhZsziKv6w44Mi5GGfV7RHtsMy10P17XTXYlq3fiUqlGtO9un6g8pKepS13UmpAJZVWm87voOhiy7EUlE9t/IrPPfv33TUxwyq6rOqKsss6xWkkhUUm07kkBauTE11a22M5KsTr6SLL0jJ4EYd+XLkk8a6Rl119qCHulOW0hh/kgLIuqu2ksMumUT7ce8vbwEQ3azPVHURFXy1+53J75gNmFqlIwiQRyQU9FJPobhS+r5otpOtaQ620PYfdjShGzr3T2TRxo5+7bWybT4BGN/S6WRewOgy2N2eVHSyH3vlr0eHtLIWdc+Dn29KA2yBlhVaWz6VlYGErLsRloX5joS8pobmY5rriPLJcedSPRyNtk7CW2yI+hqIVh3npm7WJ8tjcLSsNY3hZMJj0TmML3fqwWTxHBjHbYP5dtKYR63dMmF69CgE5x53Fbi9jomqzyF48/aiX2qC2FpVUjrQx+PJNN8LTk/0sh3Paz3bKk0cqWQU75q0ih0Pczjt7bLOcec48hdl5BKZFWl8d86chO9LLupaGnou9ZQTl+1RW5C02MOrmSvk4vzmk9p5O2eWkyrVoP1atoZ2D7bi6dlLMBZzjvSnSfRqQQeUXf940vGEgzcxy3bSEI7P2oct3UtnJaDF7J/mZ0l10mvJ9e1XtUrCTLTFeMmjzRyuqfk+nm9Pxa5511KaZjdU4WuB6VB1herKo3/99O7OYlelt1IV5R0STnrLNc9ZdZVni8BWnfj4f3urJSb0JYM7irG9628peEMhLsT+UoGwlMnWhHdNZSzrt7e1RIa3xNcOsDvZslxp1WrKqyOJab27Ry3VVdgj0t25hCWDHZHtmF31EmGkmSDaGve6S1Jjbc0cgfC801UsB7KJo2cgfBC14PSIOuLVR8I/+cP7yH+D3f0Yz5EEtK6kPAShkPZB8KF8+qPWCWEvfEpJCWZp1NITvVjd8iYP39zAgfCQTT1zCClkoM1pmFMY/UpDfmOxmAsiMiOAUwnVcqRKZ35ptzmkYaTwDpPWWktfU4GZV1jGnrbRgznZD4PvI5bn6vZ3aLQLRBrTEdInz+KtkeM2WR6LENtY4hVi1bVkf+O3CWNmwlMx3ci6roWWiIykGx/fyMl1+sxJRV1uvctjYUJxDv6Pb+Lk7ONfn8GsPcR15TbZa8HpUHWF6sujXVBYhQ9z1hf2tNTNR/x+ELXJbVOzPoCoEybzPlCnl9pCItzGGl1vtyn9hXdhj6vL/epJDrpnlFlk5YvGdrTPQOhKNqGcu/EZYxjyZ2wF3mOW393xXXcqYlubH/Y2afr/NWecsZ4hJzk6IUlDanPivxf7psfakGDnnJrTW8dtNe5b2nYz63B6Fz0Npljyv/lvvzXg9Ig6wtKg5AzXQjnHWshhJhQGqTKSWP6bxtxwPc38AmpbigNQgghvnkg0pCZUDKFVqI8s6IIIYSsBmWXhsyEMqfSSpR1dhQhhJD7puzS4L97JYSQtQtbGoQQQnzDMQ1CCCG+eSDSIIQQsjahNAghhPiG0iCEEOIbSoMQQohvKA1CCCG+oTQIIYT4htIghBDiG0qDEEKIb7Q0bt2+DQaDwWBUUNy6tfSxmDDrLiIoDQaDwVgP4YjBfDTDXLeIoDQYDAajEsNM/u7H+wmn3iKD0mAwGIz1EI4Y8j2uUlAaDAaDUQlRKOnLYzEhdaxCUBoMBoOxlsMRgtejGc76RQalwWAwGJUYZvJ3HosJs+4igtJgMBiM9RCOGMxHM8x1iwhKg8FgMCoxzOTvPBYTZt1FRFmk8cpPUvj9/3UJn/zKBV/xx1+/hIMT1zzrYjAYDIZHOGIwH80w1y0iyiINkYCXHJYLkYxXXQwGg1EVYSZ/9+P9hFNvkVEWaTgi8CrzipWuz2AwGFUfjhjyPa5SlFUaKw2vuhgMBmNdRqGkL4/FhNSxCkFpPNCYw5sNdXhpxKtsvcZpvFT7FN6c8ypjMBgrDkcIXo9mOOsXGeyecseVKby563FsrK9DTW0QGx9/Dq+dTnqvW3QsJw2rbOtrcx5lazkoDQbDV5jJ33ksJsy6i4iySGOl8eCkMYdDTwXxaPNbeP/KNdy6cQ0fvtuDrfWb8O3TpZjNRWkwGIxVCkcM5qMZ5rpFRFmksW9oAfsOLXiWecUDk8b5N7C19km8eS739cmOjajZczKz/P7b+7B1Y9BqiTx1AOOX7HXnZPt9ePv0gUz5k7uUgG5k63r/UDOeDKpWTP1GbO14Fd/+Kw9p6HqkpWNHwxv40Nn+LXPf+/CO61itsITzZO9M9rWzPXi8disOJazl5eoZb3XJSh+Pk+itpP/D1/br81gqNbv8YPYabGx6Fe9dyS1/7fhBvPiF7DWczJSruHQarz33ODbIuQcfx9d63sVVp8zHNb463oOv6brrsOELzTg0ky1jMNZMmMnfeSwmzLqLiJJLY+L96xkJ+BXHA5PGjXfxvY0qER6YwmUjCZlx9eQ+bNrUjp9I8r2RwOSBp7JJ3U72uqVyTa2b+DFeUvV97ZDdvfXufjxarxLmuwndinn/rWY8qtb329K4+nYzApt24NBZqxX03qtPIVDfjHfMhGvHh68Zx+Usbz2Iy+p5oXoKS6MOAZHlTBKX1Xlm1tNhletr8JFaTryL11TrLdD8YzvxO9v3YFKu4UdTeE2d56bOd63tb8zgtceVCDpPW+9B4iRe2qQE2G0LsNA1PveqahmqY7XPTSS9aWM7xuVY9P4ZjHUajhjMRzPMdYuIsrQ0fjhybUXieGDSUHH1zBto+Ut1lyp3uPt68M6USvCZciuRv/i20VX10Y/xokqoh86r5zqhqeRrJChJwIH20/bzIDZ12MlRh6rPq6XhlOVIw1p+7qB5PAkc2up1t68icRDPZRK9tZ61beF6CkvjUbx21tnWHVLuaq2N78emzHVZur0W2lO24EbaEdi4H5OmtGX7epX45TUf1/hxRzA6lIQeDeLbp7PrMxhrIszk7368n3DqLTJKIg0n6eeLQuJw1vMqK0vIHeq7B/Harqf0gPiGJ53uE+suOdNtlAk7oeqEppKbUZcktJpWSWhWss7cEeuwXvMnDe9kPdm50a4/9/UcUVx6C1/LdE0VrqewNJznXuFRfkO1FpbZ3mwV6ee7nFaJHfr47W18XOOl70++a8xgrKNwxJDvcZXigUhjb6VLwwzpLlGJyOo+kYS3Ed9712M9iQcgjfF21SrylMZtXD64FTVNb+HDt5szXVN+6ll1aditsXzbF5SGHmuyt1nxNWYw1kgUSvryWExIHasQZemekt+e8isMiQclDenrr3F3jah4/9Un7e4T6W93DTBLOOsvm9DkeRm7pyTsFsbXmoLGdoXrkWP+8qurKA09CG92T+WXhr/uqXzX+Bp+0myOn9jhej8ZjHUVjhC8Hs1w1i8ySj8Qfu7GioQh8aCkceuj0/j2piCebD9pTLl9Ay3qta1vWEn08qHnEJDB7DPW3exlmZL7BZXkZEC4gDTcA+HvHdyxzED4bfxkj2rhtJ/G1WvWGIo1gK2S7zl7APuN51QyVcseA+FWJPF2k9q/K0kXqkcn8cf3Y1wPVM/gneZNRh1+pJEdqL51bQZvPqVkqa5BdiB8GWnYA+Fbu9+1B8JP43tfcA+EF7jGtZvw4lvW+3X13Ft48S+fw9v2rDEGY82Emfydx2LCrLuIKEtLY+/Qgm9hSDwwaUhcmsKhfVvxqEyLVclvw188iRdfm8q5c33/YDOe1NM9rSmdb9oCKZjQVPiacmvHVSWkL+t1s3Vm921PlS0wnVR3URmzqJxYtp4bc3h7x6MIqPMLbHwcL3buw5dXJI0n8e1X92emxD6+440lU27zSkPi0mn88H9uMqbc2jOppMzHNb58+gCe+wvr/QlsfArfO2m2qhiMdRqOGMxHM8x1i4iySGOl8UClsc5CusTydl+VJApJhcFg+Aoz+TuPxYRZdxFRFmmsVAKUxirER0lcnpLvLGS/0FeeoDQYjAcSjhjMRzPMdYuIskpjpeFVF8Nf6NlQ9Y+i5VA5WxkSlAaDsSphJn/34/2EU2+RQWkwGAzGeghHDPkeVynYPcVgMBiVEIWSvjwWE1LHKkRZpPH721f+717/qJn/7pXBYDAKhiMEr0cznPWLjLJIQ357SiTgJQevEMn0qm286mIwGIyqCDP5O4/FhFl3EVEWaTAYDAajxOGIwXw0w1y3iKA0GAwGoxLDTP7OYzFh1l1EUBoMBoOxHsIRg/lohrluEUFpMBgMRiWGmfzdj/cTTr1FBqXBYDAY6yEcMeR7XKWgNBgMBqMSolDSl8diQupYhaA0GAwGYy2HIwSvRzOc9YsMSoPBYDAqMczk7zwWE2bdRQSlwWAwGOshHDGYj2aY6xYRWhoghBBCfEBpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfFMyabw1eRuf3XcZn/zKBd/xUMtl/Ehtt/aYQGdtDIMJe9HNWAdqtgwgaS/eL8l4zHc9et32CXtphSQG0LTc+RBCqpaSSeM/7r7kKYZC8W++egH/PH/XruUBMtePhtoQes7Yy8tCaRBCqoOSScORwErY0rugt/nM3stIL9ovPiCmu0IIh0II7DmJtP1afigNQkh1UFHSuHbrY3z6BauFsvvgNfvVB8DiFHpCUcTHhrC9tgUjN+3XM6Qw3R3Dxvo61ASjaIt3Y6+ZZFNT6Isp4dTWYcNjLRjs3rlMsk9hNt6ChlAQNbVBbIy24Ph5u8iFWxrpswNoi1r7CajjbTuczfJ63X39ON4cxQZVro/TKBfmj7WiydlvrBuTC3YBpUEIyUNFSUP46ewd/Fqjta08fxCkT7QgoJNzGuN7gtg+lJvuU4e3IRBWMjmv2iDpJKZ7YipxO0k2iePPBhHZcxTzungK8ZhKzHmkkTqyU9XVgXG7cL5f1RXtx7y1mEOONBaOYm99GJ2n7A3n+tFUr0Q3Zy3qdWvDaDuSUK22NJKnOhCpzZanR1sRdva7qM5BSTBTN6VBCMlDxUlD2DuU0ttKq0NaH+XFJYozXQjnJPEEBrfU5YpkcTTbPaUTbiOGjWKoBJ23pXEzhZTZkrET9vAle9kgRxpKBKkFs+PMOq6mAWsvVktjVD+3SGOkuQ7hrin13Fq37Zix/c2TaHP2S2kQQvJQkdK4ew+ob7uit//yK06fSZlIDmF7fQvGnUTudFXZd+jW+EUIPZJ7MxhjGjJ+EerCtFVgsdyYxmIK05nuqTo7vBN2jjQUKaN7ytm2KW5tqNd1jWnM92+2X5PjzW6TDVN8lAYhZCkVL40v9ZZXGla3ztKEGt7vWGJ1paH3p7uJ7Lv+ZRJ2jjT0elb3lDVpwG5p+JaG+xwMKA1CSB4qunvq3+8qd/fUHOLRIDrH7EWHc72IigiM5Lxa3VOT7dlErznfj6f9SGOJiNRxPeGSRt7uKTnPOjT0ZZpPFs6MNUqDEJKHih4IH/l5mQfCp7oQru/A5JLpvirJRoJoO2G1BtwD4ZNdm5cZCJ9AzxP5B8Jnu8OqrBvTqqWhB80bpZvKhzTOdiOi1uubUi2Nm0lM9zXqWVI50lhmIFyfQ30M8bMpa3mqF02PKTHKKVIahJA8VJQ0HvSU2+n9+b+XMdsTQc2Oo3bZKk65XUxkpsUGQjH0HOlXdUUQP2eXG+RIQzF/uAUNQXUM9SE07T+K+I46RHssK1gtjdwpt53Hco9gfig7lqKP0xYIpUEIyUdFSaOSvtxHCCFkKSWThtNiWGlUzM+IEEIIWULJpCE/WPiZFf5g4Z+0XMbQmbX4g4WEEFIdlEwahBBC1h+UBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2mQHNJ37uCjhWtIXLiMuV/O4+fnfonpn88yqijkPZf3Xj4D8lmQzwQhDpQG0Vy9lsIH5xM4N/sBLl66opav4/btNBbv3bPXINWCvOfy3stnQD4L8pmQz4Z8RgihNKqc1PUb+q7y/PxFXFfPCfFCPhvyGZHPinxmSPVCaVQxchc5+8sPKQviG/msyGdGPjukOqE0qpC7dxd1dwP/8Mn9Ip8d+QzJZ4lUF5RGlSF/5NLFkPzVgv0KIfeHfIbks0RxVBeURpUhd4cUBlkt5LMknylSPVAaVYR0KbBLiqw2/FxVF5RGlSAzXmQAk5BSIJ8tzqqqDiiNKkH6njlLipQK+WzJZ4ysfyiNKkC+lCVz7AkpJfIZ4xcA1z+URhUgA5WlbGX0jNzE1teu4oNf8dvj1Yx8xjgovv6hNNY58rtB8jMQpeDjj4HG/qv45Fcu6Ph3uy7h/SsrnX6Zwmy8BQ2hIGpq67Dh4Ub0jCbtMlI8CQxuqUNN+4S1ONWFSG0Quw+X5hrLZ42/VbW+oTTWOfKDc6WY2SLCePrVhYwwnHjiBx/Za/gjdXgbAiqJNewbwMipo4jviqjlMA5MpO01Kp0JdCrZNcUr9Q7bLY1uROuD2HvElsZYh5J1DIOrdPjyWZPPHFm/UBrrHPmlUvnhudXEFMbvPH8xRxrfOb6ybrDJdpXQnuhHdgg1iekjE5hfK85Ya9Jws8rSkM+afObI+oXSWOfIjBb5xdLVQoTxpR9awoiP38Lfz6Tx642WMJ5746q9ln/m+6IqaYXRdiSB9JKeLa+E50rSiylM9m5DQ1Ctp1osG6Mt6Nm3WT3vwKS1hroIR9EZC6kWjFonGMb27i7szUn0y3eRpc8OoC1qbL9/FEk5Vp1wZb9OeCff5GgXtj9s1Z2zvUJLc0s3hrtj2FgvdahWV/MAZvONJ6dmMNgczawbeaYL45fsMmHBKt+g9xVFW3wCw83quXMNEwNoUmWdY/a+M8euYsuAUnZxyGeNs6jWN5TGOkf+N8Jq/bz5oqrGEUbf6Zv6tYGJW1oa9yMMzWISI/ukS0olLUmorUOYznxhvbA0prvCOnk+3Wp1bw0qYei6HGkkj2K3SrCBR7ahb2gU40Pd2B62kqRTx3w8hkB9BJ1DM0guJDAd34lIpotsCj2hOoSbhzCbSGF+rBtNoc3om1BZPTmD8VO92K7qiqrjHj+lWkjWZcmyMIrORyLY26fKFtT2pzrQoI4n0jWli53EHXiiFYNHRpU8GtW+69DQN6fLc1hU1yMWVOfSiuGZBFKJKQzuUOcfVucq+11UxyrnFtyMzvhRjB8ZQOcTan0RjIc0UjPqevQ0qv2rcx9UzyeUuK217hv5rMlnjqxfKI11jvxTndXgrhLGF7//0RJh3G8LYwmSgOOtKiGrO3KVwA+Mya12AWncPIk2lRAbeswEm8L4vlBGGrolU9+CEfPO/Xy/Tpy6jkVVn6oj2j1jFwppjMjdefNJ9WwO8ahK6rFuTM6lPFpDPrun0imklDRSKiuP71N123f1ljR2GseXwvFn1Wsxj7t+1bIJqATfd9ZeFuQaqP23HUsjfaJFlUcRP2eXCSISJT0vaWhWuXtKWK3PHKlMKI11zmr8AYswvvBdSxg/OGUJo39slYSxqJKdeXsrd9MiCp00C0jDnQBtkqrl4EjD6v5xJ+CldeR00zjhbJeawfD+bXj6EemicncfFZCGOp/hZ+2uLR32nb8pDdfxeR+zc15OPbkh+zfP20TXR2mQVYLSWOcU2z11R91Z5xPGM/+32BaGdRcc0Hf0WbJ34rY0zPLkkO4O0knavsterqUx2xNZvqVht1a2D+Wm6OS5GaTsVkVy7CimneL0FPoi6pg7HJEtL43kgCTymLr7t89gUbUkpBVzH9KwWhKNGDYLFpOYnbFeqISWBrun1j+UxjqnmIFwEcZf/p9faUEceMeaFdX7k5sZYcigeLFIUpW79+iz3Rg+Naru6DfrQVxHBNNdIgAZvB7C+JF+7H3EGlB2krR7TMOasquSZN4xjS48rQfNs3XM9sk4iDEu0irHEETTgCpPWVIJPLIT8SOjGIm36jGJsD0mIdI4IOVPdKjjH8KkmbAVMqXYGuifQ2ohgdmhVkTV+vcjDSzOIf6EOn9zzGKzdOfFMCyn4oxp1OeOaejWSD5pTEiXl2o9dajrOzRhzGK7PzgQvv6hNNY5xUy5/es+64t7pRKGQ/JUdnZRICQzfrJ3+c5sIWs2kCWPPtX6yNzZu2ZPSdfRSLerm8aYPRUIxdAzOuRqHaR0MtfjKfY6nSrJZzBnX9WH0NR6FPPG2EbqhBKJvf+eM/aLDqolML4/OzMq8kw3enao5/cjDUG6ylqz9W2MtWLEbGiZs6fUsTY0y+QA9TyfNNRexlud69u1pGtrpXDK7fqH0ljnFPPlvof3J/H5b1mpq/vkjZIIo2jSCUyfzU2v0/tV6yTSC6dnPTUzhXmze8ru4pLBY7K68Mt96x9KY51TzM+IiDR+b/tFhP53UgvjqVcWKksYSGOyw+6e2i9TXl1dS4LcWUv3kd29JFNud0sXlzNNlawq/BmR9Q+lUQXc7w8W7hi4psUhsf3vruFeRQnDxumeMruWhmZyBtZ199IzYasLRgmlYVt37hfiyKrAHyysDiiNKoA/jU7KAX8avTqgNKoEmdFSyp9HJ9WNfLY4a6o6oDSqBP67V1JK+O9eqwdKo4qQmS2l+Jl0Ut3wc1VdUBpVhgxUJn+V+UVAQopCPksc/K4uKI0q4+7dRd33THGQYpHPkHyW5DNFqgdKowqRP3K5O2SXArlf5LMjnyEKo/qgNKoY+cOXAUzOqiJ+kc+KfGZ4w1G9UBpVjsx4kS4GmWNPeZB8yGdDPiPyWeEsqeqG0iAa+VKWdDfIz0DIXaT88Jz8Yulq/dc/snaQ91zee/kMyGdBPhPy2eAX94hAaZAc5HeD5Afn5JdK5a5S/jeC/FMdRvWEvOfy3stnQD4L/C0pYkJpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3Whpe//KRwWAwGAx3sKVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDdXU9fx/wGFVcDAseke2AAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accounting school</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       mileseducation.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>089299 42034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d192391a563fd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Grant Thornton Learning &amp; Development Academy  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       DLF Square, 21st Floor, Jacaranda Marg, DLF Phase 2, Gurugram, Haryana 122002      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADSpSURBVHhe7Z3/cxvnfefvz8ik6V2v7bX9KXdzTXO+GSbDI308YdoRph6h8RgXj5HTWIwc6GqFrGzxFElmqEgOSzo8MuHpLmiZ0OaZNlyeOGIsWrRkq2KoMmRcsWxkMpHJWCYsSogpQaIEifL7ns+zu8ADECCWBAFCwPs18xlg99l9dhdcfV77fAH0L0AIIYS44C8b94PSIIQQ4gpKgxBCiGsoDUIIIa6hNAghhLimaNK4ex/4u8k72PPKEh5tvY7fe/4q/qjpqn4v6wZ+fgf3VuyNCSGElCRFkcbIL+L4k28v4rPf/HjNeKTlGs5eitt7EUIIKTUKLo224VsJKXzhhUW8cOImRn95D0vLn+o4/8u4XidlznYvvXXL3psQQkgpUVBptKvkLxL4/eev4uTFu/j0U7sgA1Im28i2ss/3TlMcm0E0HETV7gFE7WVCCMmHgknjnffjOvn/zl99jH/66L69NonTqkhnSm0r+0iZ1LEV3H3/BA61/ik+f+gRfOaFP8XuH53CTMwuLDVWIpjoaoDfU4uq6lpse6wBPWNJRZSyNKLnu9H0uBc11UEMRuyVCn3O6lqS4cH2QAsGLzl/hAgGd6v1dS2YWLZXpTCPcED268CUvYYQsjkURBoy6P3HdndTz2jGf9VZpSH8SO0jZVLHnXv2ymIx/Tf4s0OP4/mh93H1kxhuRN5H+Pjj+Hzba5h/YG9TMkQwHPSgJtiLmYgS7Eoc0eleNNb50DluJdjSlEYcU11+bN/VjdHZCGJpzwarzjkew8LpFvirAwhflhW2NJRQmoYyXNl8P+q1bCgNQjabgkjjtZ/d0Un/C82LeJClS2otacg+zsD566qu4hHDyc5H4B/4wF62efA+fnDkETz/tv2k+9EJfO1QB8Jvfxf+F1Rr5NCj8P/oPG4YUrk79Rqeb31UlT2CL7Z+FycTVU7hpUN78fKFU6o1I+Vfxpc6XsbUBloy8XdbUKOetkfT9p3r8SeS7qoEvDKP0dYgttfJk7oXja3nsGDOWrsygraAPP3XosYbQNvQvF1gsXCmFY1ej/X0HwxhaskuUMQvhtD0mJRZLZ6+ySwXJUnd142ZLLPlMosujtHmWvi6p9V7SxpNDQ2oCvRjwdogwUyXFz5VtqdA0lheXtaRC7fbEfIwURBp7PrRkk74a41LrCUNQfaV8npVV9H45AyeP/QkXv6VvWww1f8YPvO349aClsaXsXvgfdxQTrv74Xl856iSzYmPrPIPVfkLexH+lXqEfhDH1Xe+i0ePdGBc+0+k8Qg+3/EapiQrxj7Ayy89gkf735fCdTHT7UVV8zmVTtOIzmLi/KxSYHoCjqnE64H/wBDmZKf4PAalpZKoYxZ9Pg8a++cRVwk9frlftVq86LmoCxEfa4XP14EJqWwlipmQUffSCI5KC+e8faTzHapl0IBhazGFhf5d8B8LoSfoyCmIvotJwbiVRueZc2ir89utD5tlWadaJO8OoLFA0vjBD36A9vb2NYUgZbKNBCHlREGkUfWdazrhX/xw9ViGQy5pTF25r8ulrqKhZaCSvZ37Ta4O7cVnXjqBq7JgtzTGjZbFjdPP4TMvvgZ5Lh//0ZexI6W1osTw4pfx0j/Ke5FGqph03R2nrLrXwVS7ai20T9pLmUlJwBFJpGmJPDqEpsSYwiQ6q/3ou6RLFHEsTI6pv4UoxUrUbWcMRUmCVvsOL6r3uu6DRqsnirnzY5jLIA193nVBhKdV4Yo6xqkW+Or246y9bSZpxKZDqn4vOseT53L4lBKXtCq6RCQWsSHV+mgYQkyfT2Gk8dFHH+HAgQNZxeEIo7GxEePj9oMGIWVCQaTxu89ZQrh5J/t0qVzSkH2lXOoqGuuVhi6xkdaFXncdYdVykG6p9HhpQja0uqfMY6TUnUIcE8c82HZsbHVrQrFuaYx3oMrfizld4jCNHq96atcXE8dMzy5sk26r5hAGpbWS6EISocg4QXo4wong7CE/ajwBHG7txfB0RLdWVhPFcLAWgR6z22seYb9IwDKOPue046R2lVnSaAyrA0tXV2JA3O62knGOAkpDyCYOCoOUOwWRhnzb2600pPvp1t3V2znSkCm4RWNd3VNp0vjVa9hhSCMx/rGKzZNG1u4p9fQeW7LW5pbGJI7XOdKwic5iaqgXbdJ95DuIs4lWiBc9yYf6jMSvTGM03I3DT3pQszOEmVUP4lY3k074BiJAZ12mlkYqhjREQg22KEyBTHagpsAD4enioDBIJVAQafzHI1b3lHQxZWNg8g7+YL8lFxn0/vmvU6dJydRbKStq91TWgfAP8HLr6oFwMy3cPf9du3sqjnOhL+PzoXHctcs0ia6s9UhjbZyB8PRpp1kHwnN1TxljIRZWQraSszWNtb4vdWAcdmsifmUSE5OqdWEtqvVmCyaV1bJTEtiZ1tJwLQ117DMtqAr0YtDsqhJBFlgagikOCoNUAgWRxtd/bA2Ed+T4gt7C0gNs74jqbT/X8DFe/EkMK3ZylX1l/dd7izgQLmSZcvuZo3+DKSfxa2nYA+GS+aLjeOnoI/ja0HWr3K7jO+esZT1Q/uK3cFL7b/OkId/RkIFs/4EBzETVieSccmsPhB8ZwYKcd3wew/tUa8JJ4NERHFb7tp22kjGi59Dp9eDoaauu2Kn9SlJBhO3vS8TkWE92Y0Z2nu6G3yjTg+jVPmN8xEDk5RwnMaaRlN96pWENfks3VgBhx2lFkobgiIPCIJVAQaRhTrm9bwwWZ0Km13a9fQv/svFjbGu/rr/jIfvIvlJHcafcWuT8cp+WRgtCQ8kpt197ZTxlyu2Nf3wZe488qscyPv/tvfjBuC2UzZSGoKfQOl/uky/B7UffWl/uU9sPNweMKbdKIMbYQ/zSQGLKbZWMT/ROGy0CJfqhFtTrKbe12Pak+YU7dayx7sSUW5kR1XnGTuoZ0Md5Mks965WGQgbE9QC4vVxMaQgiDgqDVAIFkYYkfue3pLJ9uS8d6Y6K3rLGNmQf2Ve+3Cd1lRyZxjQIIaQCKIg0BPm1Wkn88pMga029TUe23eqfEckJpUEIqVAKJg1Bfq1Wkr/MgPrJVO4fLJRtHoofLKQ0CCEVSkGlIaT/NPrhEzfx01/d011REpl+Gl32IYQQUnoUXBqC2/+ESbbhf8JECCGlS1GkIciAtnw3w/nvXv+wafV/91qSg96EEEISFE0ahBBCHn4oDUIIIa6hNAghhLiG0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIa27EblEahBBC3EFpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENUWRxme/+bGOXLjdjhBCyNZAaRBCCHFNwaTx9i/i+OMXriVEsN6QfaUOQgghpUPBpPHFb29cGE58ofmaXRvRjHegavcAovbiVhCfn8TUfMxeIoRUGgWTxm83ZhbBeqO0iGBwdy0awxF7uciUgDSmujyoOTACaoOQyqRg0vhcQ2YJrDdKC0qDEFLZUBrpxKbRF/SiproW255swWBPi3rfganIABrVuionEsk7hrlwC+q9HrXeg+2BFpy9ogssYrMYbA5gm+xT50Vj1xiiK3bZShQTXQ3we6ROD/zPhjBjPsKnn0voYKo0ViIYbQ1ie51dd2gSMbvuqXYlt9BQYv8abxB9F2NYOKXO1T5effMIFmR7fW0BhOetfYW5Hj+qGoZWtSik3qr2Sf0+Gg6i6tgIpkL2OXgCaDu1RUIlhBQFSiOFKM7u88C3bwBzy3HEo9MIB0UGShq6fHVLI3b6IGp8HZiwM/lCfxA1gX4s6KUIhtX+/vYxK5kvzer66vus7DwX8qEm2I85Ge9fiWGiXS0fOQdr+N86F/8RldjVisS5GLKaOOZN1q3K+4xz08nd14LRebWzktNUd0AldXXsRH1j6PTV4vAp0UL6dVnLTUOr2zSrpFHtQ9vpCOIrcUTfbYWvej/OLuliQkgZUnBpbJQtkYZ+4g5i0HxYli6hNaSB5Rhiy/Z7wa5jeFG9v9yLQLVK3Gb57BCO96kWgXobj6l9LUNYyLHq7GPpehowbObtsdakNHR5at3xMy2oClrlktz39BvneaUfe6p3YdBoBZkCiA01JOuODqEp/dg2q6TR7EhOmESnasEct4oJIWUIpWGSIgibXNJQLYSZRPeUSqg6bPHIvjudVkcGViJG95QT9rFkX283ZvSGNrLOSez6vMz97LDLJbmnnGcGIZoCMEURO7U/Y9eUsEoazv4akUYtOsftRUJI2VEwafxWhUhDJ07dPWU/b5vJWfbNKo24SsBeq3vKaS2Yx5L3uaSRXm6wbmmoWocbpLsqgtHmzF1TAqVBSGWzpdK48skK/qL7N/g3+6/qV1l22BJpLGboEjITeQZprErOuhvITs6ZuqcWZzExGVHKsOpKSbDS/eQcK1f31Hw/6tMGr5H8+DYgDaeFsR+H6zJ3TQmUBiGVzZZK4ytKFI4cJGTZwVlXXIzB54wD4cDEsVr4OiYRj1stCxnMrtodwoxqaejtG2R7JzmvNRAew9kDHvhkBpMca34EnY+bx0ofCJ9Ez05zINwqrwn2YkYGnleimOkJor57Wo8xbEQaWBrBYaOLS7M4idHz84lxC0qDkMpmS6XxB6qF4chBQpYdnHVFJ9M0V0Ma8ele7JExCGfAeiWCs/aUWpnW2nO6H0er/Qhf1pur+owpt54ADvcmp8WuOtZgR2rLJOeU23kMq7r1dFc9hXYAc/ZAxIakoWqWLipzPz07zNOduH5Kg5DKhi2NdIwuHkHPSDITdTmzopJ+XapYCCHEpGDScJP0S25MQz9p++3vHcii9V2GlCf2MiW+FMOcfMcky6wpQggRtlQaa7E10lAsjqHnWZ/dneRDk/Et6/JlEsfralHz+MHUb7MTQkgalAYhhBDXFEwa8rPmTuLfaPCn0QkhpLQomDRGfnGX/wkTIYSUGQWTBiGEkPKD0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGsoDUIIIa6hNAghhLiG0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrimaNO7eBwZ+fgd7XlnCo63X8XvPX8UfNl1FrXov66RMtiGEEFK6FEUab/8ijj/59iI++82P1wzZRrYlhBBSmhRcGi+9dSujINJDWhzOe9mHEEJI6VFQabgVxhe/fQ0rD4D//e5t/M5fWesoDpvIABqrOzBlLz70rEQxc34W0RV7mRDyUFEwabzzfnyVHDJF9YvXcWr6rr0XcOqf7uK3GqwyqaO8iWBwdy0awxF7WTHegSpTElsgjan2WlS1T9pLm8ziEJrqfOi7ZC8TQh4qCiKNO/eAP34h+xiGSGEtus5YLRSpQ+oqXypQGoSQh5qCSOP1n91ZJQozcklDuqq+YEtH6ioqsWn0Bb2oqa7FtidbMNjTot7bSVsn8FYMDuzH9rpadI6rdStRTHQ1wO9RibbaA/+zIczEZGNhEp3VQYTPD6HtSY8u3x60y3Vdso8duwdwXpK1sU7Xbx/z7GQIjV6rjvrmESwY3TuxyV4c1vXLOe9H+GLiBBANB1F1rB/D++SarOsQKTT2jWG4OYBtap8abxB9eh85X/MckrLKfYwRTIWC+nOp8gTQdsoQoYm+niAG7eLs50IIKUUKIo36Hy2tEoUZ//mvr9tbZif097f1tlJX8Yji7D4PfPsGMLccRzw6jXBQEqUpjVr4jwxhLhJDXCXuuZAPNcF+zElP2koME+1q+cg5WB1rVhKuCfZiJqoWl2cRVi0LX/e0LlUVumxpyDGVKFSl8eg5dHprcfiUnVgv96K+bhd6xuUAKrmf74C/OoDwZb1oJfRqH9qGZhFdss5KtyTqlMym1T4rccz1qW283ZjRpRlaGm6PcTqiPpM4ou+2wle9H2cz/ekySGOtcyGElBYFkUbVd67phL/LkEeu1kU6//DBPb2f1FU00hKaxkziurwFo8u6RBOPxRAzh15k+zon6Ys0/InkKugEGxxQehLcSiP1mJJoazqspD7VriTX5UjIYqZLtSrspK+P1+xIzEL2D/TM20sK+7qHF63FdGms/xhy3R4cN7yTIIM01joXQkhpURBp/O5zlihkPKLpjZsbksb12AO9n9RVNNITtrBKGmnlKxGje8oJUxqpEtIJdvd6pZF6zGRSt/ZvO2MqQbUETu1PHEMfz2w1KGT/lGNmSOTJfTZyDKuFpbvX0slwrLXOhRBSWhREGr///FWd8G/d/VQvv3DCEke2+E/fXd1dFVP7SpnUVTTWLY24SnrqiVu6p5yWQEodWyON6EDyGIWSxtrHoDQIKVcK2j0183FytHYtcWRqhfwicl+XFbV7alESVgOGrYxusaY0rISakhzHWosoDXnvousoL2ls5BiUBiHlSkGk8fVeayyjx+yIV2QTRyZp/PCcNRAudRUPayBcDzpnHQg3E3gMZw+ohCqzmWT7+RF0Pm5sn1MawMSxWvg6JhGP20/yV/qxR8S1qOqTVTmkYQ1S2wPJith4N+rTB6nXKY2F/l2oalDnqE5ABvvXfwxTGjEsnB/BlDNGQWkQ8lBTEGk4U27TZ0nJVFpTFk6kS+PBp8nWypZPuQ0dXEMaivTtBzsQSAxc55ZGfLoXe2Q8JDF4HsHZQ35dX+OA2iqXNBSxyRCaHjOmw06mTYddpzQQGcFRLb/kgPT6jmFKYxZ9Pg+aBu0rpjQIeagpiDTk12qd71n8KK218fmD2b/091/ar+O9X99PTLeVL/cV/Zdv037eIn6mJSXJE0JIJVMQaQjOz4h8TrUi5KdBHH4ydRdfOmq1IjLFF5oX8a/3We+L/zMiUQw3+O3vG8jiGDp9aU/ChBBSwRRMGsL3Tls/B/LbjR+jQ72/Zz/FZ+umMkP23RIWx9DzrE9/O7nK40NTaBKxtNYHIYRUKgWVhtBu/NLtl45dw8mLdxPfwcgWfz3MX7glhJBSpODSEM5ecv+fMMm2hBBCSpOiSENI/+9e5b96lZD3/O9eCSHk4aBo0iCEEPLwQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcc2WSOON8Xvwfe+2DnlPCCHk4aDo0pj68AFqWm6lhKwjhBBS+hRdGv1j91ZJQ9YRQggpfdjSIIQQ4hqOaRBCCHHNlkiDEELIwwmlkUIEg7trUVW9OjrHrS3ilwbQ9qTHWu8J4HDvNOJWETDekbafB/5nWzF8KWZvAETDQb2+7d3EXiks9AX0vs7xXLEyj9HWBvg91nG3PdaAztPzdqFgX1ddCyaW7VUpzCMckH07MGWvWUXOY1QSk+jM8jeaalefT/ukvURI+UFppGAl18ZwxF5OIzqCw3U+dJ6P2stj6PR5cPS0LQUtDSPxLkcw0xNETd1+nHV20dJQiaVhCEmVODjJex3SWFHnHFRyOjCAmYgS0Uoc0eleNNZ5cPiUfVBDhk1DzjqD+X7Uyzllk4arY1QSlAapXCiNFNaWRuzdVgT2D8FMkylJIl0ammn0eGvRdsZqWWhpNDSgqTqAcPqD+sVu+LyqbGeGhBQZQGOGpB5/t0VJaXULIjbUgCp/L+b0knVdTeq4VYF+LOh1SWa6vPCpsj1ZpOHuGNZnkfLZ6XMOYlBW6fetGBzYj+111vXpzyIlwaYn4xhmQkG9vbTq2sK9aLP3FfTxQgPokZbf7gH9d9EtwYAXNaqeGq/a51TyfKzth9AXdMqD6LsYw8KpFtTrFpQH9c0jWFixd8iKe2nkPh/j/NX9k/o5xzHaXAtf17S1lKuuvjEMNwewzbi2BItj6HnWp8uqPD40hYwWMiHrYNOl8fO5FfSN3tOv2bh191MMTt7TIe+zIbOqZDpu8WZXrS2NdOJXRtDm8+H4pP3PL6M0VOvBX6ueyK1/wFaiPIeJIx4EekxrxPW6+r5z+hzcSmOm24uq5nM5EoB1XZ1nzqmk60f4sr1aWJZ1SmDvZq5fcHcMO3GtKY1a+I8MYS4SQ1zdHrmkETu1XyW//RiejSMej1qtNqNcJ+i6IHrG5xGLqbNbGsFRsyWoWlCNcm32x6y397VgdF5tuxLFVHdAJVD1mR9RolCr4rrlmPxbZcelNNycj3n+K6pe1XpL1KuXvei5qN67rCs8rcpVS3CuT3223m7M6NJZ9KkWcWP/vP7csWS1kLN1kRKyFpsqjdfSvoMhy+mIJPxdtxPb/NfvL2cUh8yqqjXqKs4sKyu56u4jM1ISm9HFVO3F4QEj8adLY0U9KWfqnto3gphuVah/1I5bo0Oq9dGA4aid4F1KIyVJZcWqU7qSdKvCfnIVdGtBusqy1C+4O4a13drSUAnbaK2sLY1MAk9N1nK8FPGqZBlbMhOhXceA9eHL9nv6jfqu9KvW1S4MXrGXFe6u1TqPVfeJE87+Ls4n9cHBavXVOPub98h667I/++FF9V7va4naQbav6cj9NyUknU2Vxo7vJWUgIcvpSOvC3EZC1qUj03HNbWS58GRKVNmxWhpGv76WRloC8R3EYPpAuO5KkfGL5NOeXq/HOaxzsBLjGsnJ7o5JT3J6ObGdIwHjumT8ItEFYq3X4xzrkEbmY1jr15ZGav1rSyNVEBarpZH+t4oZXTjOOTrbrHl+NunXmplM52aRvv+6zkcwRCEtvBTB53NtEaN7yomc10nIajZVGn/RkZroZTmdcpKGsNC/y2o5yEJaS0N3r/iM1oQiKQ3jKT9FIJM4bvTbx9UTojwlxi71qqdi9aTuLEt3hmKux588vknKuZjXFcVwgy0KUyCTHSoZZZaGu2PkSFzFkIY+htWFYz1Vp/49cyZWhWyzadJY7/kIKzIG5kXPtHRr2l1TQj7XtqzO1yvdU7OJ1oa76yRkNZsqjf/3s/spiV6W05GuKOmScrZZq3vKrKuY3VOr/iHbRIcOInAodSBcS8Pp71/VPWXNhjLrM6WhxxNkQDxsdlVlSUg6CWRI6vJkqru17GWHrNJQIjrTgqpALwbNrqr0czdxdQwrEaV0/5iJK8P568/i2Ji9JJjXruQWTJ/tlUMacj7OZ6tR170zuc2aidXGXTJ1KY31no+NbmHs249Gs/syn2vL8NlPHKM0yMbY9IHwf/7oAcL/cE+/ZkMkIa0LiUzCcCi5gXB5Mref9oTM3VOp/zjjap1PPc2P2o/pKdKwB7+lq6C+z+mPXqc01PP/VLsPNTs7MDFv9VvHl+Yx0R5AlS+UMnsqcV168FslDXMGV4ZzT+LmGPa1BboxJRe3PI/RIz5VZ/bEJceU8Z7hK0q5GQa6rZaaNXCdbSA85W91KQS/Ol7ftHoaX1bb9zXo7hhXidXGTPoLpzpw/FTqmIOFS2ms93wcpkXStcmxDSGfa9OD6F60qWuJL8excLoVAfn7UxpkA2y6NB5uckhDEZvsxWH7y3162mNYNfntssyJN4qz+zzwqX+gsl2qNBSrnuKzJKTlCKbOz67uIhJkwD3cgnqv86VDH/bsD2FCBkE1q69LBlxTviuypjQUOY+hWIng7CG/Tuz6s+luxR4ncWWUnkyp3WVMA+3G0ZRrT59yG0opz5R0E9NnVZJs7BpB+EBygHjNxGpjJn15n3mw2KU0FOs6nwTT6PkzYxaVTT7XFr8YUi0X+dvJtOIBDHf4Xc2IIyQdSoOUNk73jKC781KTfOGwxn5yT78tAJLw65RgzWsnpESgNEjJEh1sQMD+DoV8r2Ki3ZfWr19AoiM4um/AxRf9NhE9NTair9OcNUVIKUFpkNJFRNHl/N6V/I5XCFNLdlk5sihdSrXYtiuEmS1o4BDihi2RhsyEkim0EsWZFUUIIWQzKLo0ZCaUOZVWonizowghhORD0aXB/+6VEEIeXtjSIIQQ4hqOaRBCCHHNlkiDEELIwwmlQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJco6Vx5+5dMBgMBmML486d3K/5hNSxCUFpMBgMxsMcjhAyvZrhbJ9nUBoMBoNRimEmf+c1nzDrziMoDQaDwSiHcMRgvpphbptHUBoMBoNRimEmf+c1nzDrziMoDQaDwSiHcMRgvpphbptHUBoMBoNRimEm//TXjYRTb55BaTAYDEY5hCOGbK+bFJQGg8FglELkSvrymk9IHZsQRZHGyz+N4Y/+xyI++82PXcUXv72IE5M3M9bFYDAYDCMcIWR6NcPZPs8oijREApnksFaIZDLVxWAwGBURZvJ3XvMJs+48oijScESQqSxTrHd7BoPBqPhwxGC+mmFum0cUVRrrjUx1MRgMRkWEmfyd13zCrDuPoDS2NObxRn0tXhrNVFaucQEvVT+DN+YzlTEYjA2HIwbz1Qxz2zyC3VPpcX0abxx6CtvralFV7cH2p57DqxeimbfNO9aShlW299X5DGUPc1AaDIarMJN/+utGwqk3zyiKNNYbWyeNeZx8xoMnmt/EB9dv4s7tm/jovR7srduB718oxGwuSoPBYGxSOGLI9rpJURRpHBtawrGTSxnLMsWWSePK69hb/TTeuJy6fqpjO6qOnEssf/DWMezd7rFaIs8cx8Sive287H8Mb104nih/+pAS0O1kXR+cbMbTHtWKqduOvR2v4Pv/LYM0dD3S0rGj/nV85Oz/pnnsY3gn7VytsITzdO9sct2lHjxVvRcnI9byWvVMtKbJSp+Pk+itpP/jV7v0dayWml1+IvkZbG98Be9fTy1/9ewJvPjV5Gc4lShXsXgBrz73FLbJtXuewrd63sMNp8zFZ3xjogff0nXXYttXm3FyNlnGYJRs5Er68ppPSB2bEAWXxuQHtxIScCuOLZPG7ffww+0qER6fxjUjCZlx49wx7NjRjp9K8r0dwdTxZ5JJ3U72uqVyU20beRsvqfq+ddLu3nqvC0/UqYT5XkS3Yj54sxlPqO3dtjRuvNWMmh0HcPKS1Qp6/5VnUFPXjHfMhGvHR68a5+Us7z2Ba+p9rnpyS6MWNSLL2SiuqetMbKfDKtefwSdqOfIeXlWtt5rmt+3E7+zfgyn5DD+ZxqvqOnd0vmftf3sWrz6lRNB5wfobRM7hpR1KgCFbgLk+48uvqJahOlf72kTSO7a3Y0LORR+fwSizcISQ6dUMZ/s8oygtjR+P3lyXOLZMGipuXHwdLV9RT6nyhHusB+9MqwSfKLcS+YtvGV1Vn7yNF1VCPXlFvdcJTSVfI0FJAq5pv2C/92BHh50cdaj6MrU0nLIUaVjLz50wzyeCk3szPe2riJzAc4lEb21n7Zu7ntzSeAKvXnL2TQ8pT2utTXRhR+JzWb2/FtoztuBG21GzvQtTprRl/zqV+GWdi8/4KUcwOpSEnvDg+xeS2zMYD0WYyd95zSfMuvOIgkjDSfrZIpc4nO0ylRUl5An1vRN49dAzekB829NO94n1lJzoNkqEnVB1QlPJzahLElpVqyQ0K1knnoh1WOvcSSNzsp7q3G7Xn7o+RRSLb+Jbia6p3PXklobzPlNkKL+tWgtr7G+2ivT7Q06rxA59/vY+Lj7j1X+fbJ8xg1FG4YjBfDXD3DaP2BJpHC11aZgh3SUqEVndJ5LwtuOH72XYTmILpDHRrlpFGaVxF9dO7EVV45v46K3mRNeUm3o2XRp2ayzb/jmlocea7H3W/RkzGA9pmMnfec0nzLrziKJ0T8lvT7kVhsRWSUP6+qvSu0ZUfPDK03b3ifS3pw0wSzjbr5nQ5H0Ru6ck7BbGtxo9xn6565Fz/sYrmygNPQhvdk9ll4a77qlsn/FN/LTZHD+xI+3vyWCUZThiMF/NMLfNIwo/EH759rqEIbFV0rjzyQV8f4cHT7efM6bcvo4WtW7v61YSvXbyOdTIYPZF62n2mkzJ/apKcjIgnEMa6QPh7584sMZA+F389Ihq4bRfwI2b1hiKNYCtku9lewD79edUMlXLGQbCrYjirUZ1/LQknasencSf6sKEHqiexTvNO4w63EgjOVB95+Ys3nhGyVJ9BsmB8DWkYQ+E7w29Zw+EX8APv5o+EJ7jM67egRfftP5eNy6/iRe/8hzesmeNMRgPTZjJP/11I+HUm2cUpaVxdGjJtTAktkwaEovTOHlsL56QabEq+W3786fx4qvTKU+uH5xoxtN6uqc1pfMNWyA5E5oKV1Nu7bihhPQNvW2yzuSx7amyOaaT6i4qYxaVE2vWc3sebx14AjXq+mq2P4UXO4/hG+uSxtP4/itdiSmxTx14fdWU26zSkFi8gB//9x3GlFt7JpWUufiMr104juf+3Pr71Gx/Bj88Z7aqGIwyDUcM2V43KYoijfXGlkqjzEK6xLJ2XxUkckmFwWBkjFxJX17zCaljE6Io0livBCiNTYhPorg2Ld9ZSH6hrzhBaTAYRQ1HCJlezXC2zzOKKo31Rqa6GO5Cz4aqewItJ4vZypCgNBiMTQkz+Tuv+YRZdx5BaTAYDEY5hCMG89UMc9s8gt1TDAaDUYphJn/nNZ8w684jiiKNP2pa/3/3+ifN/O9eGQwGw3U4YjBfzTC3zSOKIg357SmRQCY5ZAqRTK/aJ1NdDAaDURFhJv/0142EU2+eURRpMBgMBqPA4Ygh2+smBaXBYDAYpRC5kr685hNSxyYEpcFgMBgPczhCyPRqhrN9nkFpMBgMRimGmfyd13zCrDuPoDQYDAajHMIRg/lqhrltHkFpMBgMRimGmfyd13zCrDuPoDQYDAajHMIRg/lqhrltHkFpMBgMRimGmfzTXzcSTr15BqXBYDAY5RCOGLK9blJoaYAQQghxAaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxTcGk8ebUXXz52DV89psfu45HWq7hJ2q/h49JdFYHMRixF9MZ70DV7gFE7cWNEg0HXdejt22ftJfWSWQAjWtdDyGkYimYNP794cWMYsgV/+qvPsY/L9y3a9lC5vtRX+1Fz0V7eU0oDUJIZVAwaTgSWA+7e5f0Pl86eg3xFXvlFjHT7YXP60XNkXOI2+uyQ2kQQiqDkpLGzTuf4gsvWC2Uwydu2mu3gJVp9HgDCI8Poam6BaPL9voEMcyEgtheV4sqTwBt4RCOmkk2No2+oBJOdS22PdmCwdDBNZJ9DHPhFtR7Paiq9mB7oAVnr9hFaaRLI35pAG0B6zg16nzbTiWzvN72WD/ONgewTZXr8zTKhYUzrWh0jhsMYWrJLqA0CCFZKClpCD+bu4ffarD2lfdbQfzdFtTo5BzHxBEPmoZS033s1H7U+JRMrqg2SDyKmZ6gStxOko3i7D4P/EdGsKCLpxEOqsScRRqx0wdVXR2YsAsX+lVdgX4sWIsppEhjaQRH63zoPG/vON+PxjolunlrUW9b7UPb6YhqtcURPd8Bf3WyPD7WCp9z3BV1DUqCibopDUJIFkpOGsLRoZjeV1od0vooLmmiuNgNX0oSj2Bwd22qSFbGkt1TOuE2YNgohkrQWVsayzHEzJaMnbCHF+1lgxRpKBHElsyOM+u8Ggeso1gtjTH93iKO0eZa+Lqn1Xtr27Yzxv7L59DmHJfSIIRkoSSlcf8BUNd2Xe//jZedPpMiER1CU10LJpxE7nRV2U/o1viFFz2SexMYYxoyfuHtxoxVYLHWmMZKDDOJ7qlaOzIn7BRpKGJG95Szb2PY2lFvmzamsdC/y14n55vcJxmm+CgNQshqSl4aX+8trjSsbp3VCdXX5Vhic6Whj6e7ieyn/jUSdoo09HZW95Q1acBuabiWRvo1GFAahJAslHT31L87VOzuqXmEAx50jtuLDpd7ERARGMl5s7qnptqTiV5zpR973EhjlYjUee1Mk0bW7im5zlrU9yWaTxbOjDVKgxCShZIeCB/9ZZEHwqe74avrwNSq6b4qyfo9aHvXag2kD4RPde9aYyB8Ej07sw+Ez4V8qiyEGdXS0IPmDdJN5UIal0Lwq+36plVLYzmKmb4GPUsqRRprDITra6gLInwpZi1P96LxSSVGuURKgxCShZKSxlZPuZ3pyv69jLkeP6oOjNhlmzjldiWSmBZb4w2i53S/qsuP8GW73CBFGoqFUy2o96hzqPOisWsE4QO1CPRYVrBaGqlTbjvPpJ7BwlByLEWfpy0QSoMQko2SkkYpfbmPEELIagomDafFsN4omZ8RIYQQsoqCSUN+sPBL6/zBwv/Qcg1DFx/GHywkhJDKoGDSIIQQUn5QGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBUojfu4dPlm4i8vE1zP96Ab+8/GvM/HKOUUEhf3P528s9IPeC3BOEOFAaRHPjZgwfXong8tyHuLp4XS3fwt27caw8eGBvQSoF+ZvL317uAbkX5J6Qe0PuEUIojQonduu2fqq8snAVt9R7QjIh94bcI3KvyD1DKhdKo4KRp8i5X39EWRDXyL0i94zcO6QyoTQqkPv3V3R3A//hk40i947cQ3IvkcqC0qgw5B+5dDFEf7NkryFkY8g9JPcSxVFZUBoVhjwdUhhks5B7Se4pUjlQGhWEdCmwS4psNryvKgtKo0KQGS8ygElIIZB7i7OqKgNKo0KQvmfOkiKFQu4tucdI+UNpVADypSyZY09IIZF7jF8ALH8ojQpABioL2croGV3G3ldv4MPf8NvjlYzcYxwUL38ojTJHfjdIfgaiEHz6KdDQfwOf/ebHOv7toUV8cH290y9jmAu3oN7rQVV1LbY91oCesahdRvIngsHdtahqn7QWp7vhr/bg8KnCfMZyr/G3qsobSqPMkR+cK8TMFhHGnleWEsJwYufffmJv4Y7Yqf2oUUms/tgARs+PIHzIr5Z9OD4Zt7codSbRqWTXGC7VJ+x0aYQQqPPg6GlbGuMdStZBDG7S6cu9JvccKV8ojTJHfqlUfnhuMzGF8fvPX02Rxg/Orq8bbKpdJbSd/UgOoUYxc3oSCw+LMx42aaSzydKQe03uOVK+UBpljsxokV8s3SxEGF//sSWM8MQd/P1sHJ9rsITx3Os37K3cs9AXUEnLh7bTEcRX9WxlSnhpSXolhqne/aj3qO1Ui2V7oAU9x3ap9x2YsrZQH8IIOoNe1YJR23h8aAp142hKol+7iyx+aQBtAWP/rjFE5Vx1wpXjOpE5+UbHutH0mFV3yv4KLc3dIQyHgtheJ3WoVlfzAOayjSfHZjHYHEhs63+2GxOLdpmwZJVv08cKoC08ieFm9d75DCMDaFRlneP2sRPnrmL3gFJ2fsi9xllU5Q2lUebI/42wWT9vvqKqcYTRd2FZrxuYvKOlsRFhaFaiGD0mXVIqaUlCbR3CTOIL67mlMdPt08lzT6vVvTWohKHrcqQRHcFhlWBrHt+PvqExTAyF0OSzkqRTx0I4iJo6PzqHZhFdimAmfBD+RBfZNHq8tfA1D2EuEsPCeAiN3l3om1RZPTqLifO9aFJ1BdR5T5xXLSTrY0myNIbOx/042qfKltT+5ztQr87H3z2ti53EXbOzFYOnx5Q8GtSxa1HfN6/LU1hRn0fQo66lFcOzEcQi0xg8oK7fp65VjruizlWuzbMLneERTJweQOdOtb0IJoM0YrPq8+hpUMdX1z6o3k8qcVtbbRi51+SeI+ULpVHmyH+qsxncV8L42t98skoYG21hrEIScLhVJWT1RK4S+PFxedTOIY3lc2hTCbG+x0ywMUwc8yakoVsydS0YNZ/cr/TrxKnrWFH1qToCoVm7UIhjVJ7Om8+pd/MIB1RSD4YwNR/L0Bpy2T0VjyGmpBFTWXnimKrbfqq3pHHQOL8Yzu5T64IZnvpVy6ZGJfi+S/ayIJ+BOn7bmTji77ao8gDCl+0yQUSipJdJGppN7p4SNuueI6UJpVHmbMY/YBHGV/+PJYy/PW8Jo398k4SxopKd+XgrT9MiCp00c0gjPQHaRFXLwZGG1f2TnoBX15HSTeOEs19sFsNd+7HncemiSu8+yiENdT3D++yuLR32k78pjbTzy3zOznU59aSGHN+8bhNdH6VBNglKo8zJt3vqnnqyziaMZ/9vvi0M6ym4Rj/RJ0k+idvSMMujQ7o7SCdp+yl7rZbGXI9/7ZaG3VppGkpN0dHLs4jZrYro+AhmnOL4NPr86pw7HJGtLY3ogCTyoHr6t69gRbUkpBWzAWlYLYkGDJsFK1HMzVorSqGlwe6p8ofSKHPyGQgXYXzlf/1GC+L4O9asqN6fLieEIYPi+SJJVZ7eA/tCGD4/pp7od+lBXEcEM90iABm8HsLE6X4cfdwaUHaSdPqYhjVlVyXJrGMa3dijB82Tdcz1yTiIMS7SKufgQeOAKo9ZUql5/CDCp8cwGm7VYxI+e0xCpHFcynd2qPMfwpSZsBUypdga6J9HbCmCuaFWBNT2G5EGVuYR3qmu3xyz2CXdeUEMy6U4Yxp1qWMaujWSTRqT0uWlWk8d6vMdmjRmsW0MDoSXP5RGmZPPlNu/7LO+uFcoYThEzydnF9V4ZcZP8infmS1kzQay5NGnWh+JJ/u02VPSdTQaSuumMWZP1XiD6BkbSmsdxHQy1+Mp9jadKsknMGdf1XnR2DqCBWNsI/auEol9/J6L9koH1RKY6ErOjPI/G0LPAfV+I9IQpKusNVnf9mArRs2Gljl7Sp1rfbNMDlDvs0lDHWWi1fl8u1d1ba0XTrktfyiNMiefL/c91hXFn33PSl2hc7cLIoy8iUcwcyk1vc50qdaJvxdOz3psdhoLZveU3cUlg8dkc+GX+8ofSqPMyednREQaf9h0Fd7/GdXCeOblpdISBuKY6rC7p7pkymta15IgT9bSfWR3L8mU28PSxeVMUyWbCn9GpPyhNCqAjf5g4YGBm1ocEk1/dxMPSkoYNk73lNm1NDSbMrCuu5ee9VldMEoo9ftDqV+II5sCf7CwMqA0KgD+NDopBvxp9MqA0qgQZEZLIX8enVQ2cm9x1lRlQGlUCPzvXkkh4X/3WjlQGhWEzGwpxM+kk8qG91VlQWlUGDJQGf1N4hcBCckLuZc4+F1ZUBoVxv37K7rvmeIg+SL3kNxLck+RyoHSqEDkH7k8HbJLgWwUuXfkHqIwKg9Ko4KRf/gygMlZVcQtcq/IPcMHjsqF0qhwZMaLdDHIHHvKg2RD7g25R+Re4SypyobSIBr5UpZ0N8jPQMhTpPzwnPxi6Wb9r3/k4UH+5vK3l3tA7gW5J+Te4Bf3iEBpkBTkd4PkB+fkl0rlqVL+bwT5T3UYlRPyN5e/vdwDci/wt6SICaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdoaWT6Lx8ZDAaDwUgPtjQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGsoDUIIIa6hNAghhLiG0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGtuxG7h/wMEe/AN0JJ3kAAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       gtacademy.in      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d6b43e9d86ef1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Accountezee.com  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Silverton Tower, 4th Floor, Golf Course Extn write my essay today write my essay. Road, Gurugram, Haryana 122001      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD6HSURBVHhe7Z2Pcxzned/7dzhJm2TaJK1n0rRN68wUTtDDFOUlLq/R6MYaXazRJayASAEbyUCogKEpBAFNqjDoIGCKwg7ssxHBQnQyKlRnESIsmgwh0AzOKhF4KMCmARnCUYROBHkkqJMgPX2f93337t29vbs93A8ccN/PzDN3++vdd3fffb7vr33ff0IAAACAB/64q5sgGgAAADwB0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGdqKhrv3f2Y+l5O0WeH36NPHntHGv/ndUmxDQAAQH1TM9E4u/g+/cs/e4c+8fkbrsbbvrPwvt67fkmvxmlhNaUWEpPU1dxBUwm1COoE+VwGaUEvlsVefsY5cU/R0mgHHWxtoabHJymp14LdJEXr8Tita5eyF6iJaLw4fz8jDr//tVt0YSmtt5D8z+us7bzvrpJapqnesHqxmv10MNxN0Xj2iS6c8ZPv2Ix41IJqOpQrg+L8FXJ8NhI09ThfWx6rd2fC91w8m66ocdOd96ok0ch/P4au8OZdFI3NOEW786fFojjjvjhMwVaxfF28f9t6nZPtBM2f6aSQX92DAw90UmRuL8hLkedYhIXTYt/Tcb1USxYp4vfTyXP6uVbtva8cVReNm3c+ol84ogRhYPquXpsLb+N9eN93xDG7Q4KmO/wUOjEjlJ9frDQlF8eEkwrSSDwrdBn2pGjY2b2XZSck6fwRv3QElRYNW3gmuyUaqTgNBf3UPjiXSYvr5/oo1BykyKLepxjOuPN9KpgpUOnf1zFGSwl7+h+6Uu9Z4SLPsQh18x5ANEi2V7AYhL7ynl5D9FZym75y4R596exd+d/i98Q+vO9f/N9dSqA3+SVro6k1vaxZOhOgplNz8r8tcRkvJe/jsyW6VYqG/DRwQYtNalHmGg9w7scfpoHYqlov4DC7Ricp8ohwiOKlvsTncMsp6ZynFUbP2CJlpEzGpZ/Ox0epK8COVTicXiF++XKUmnwvy/q5/kw4Bzv6ada6JzK3KhK1Fe7mDPU0hyh6XS/L626hgddKv+5i+dn0a310oGOQhgznIOPvvFcl3YsSRWN7lWb7dRVPa4C6+i/awy24XQiBCGs8OkztIidfyMGtj4epKTxB63rZQqbF3ovZ5140Tai4J6Mdtvvkdu70hT7ytfbRrOP1W4mEbM8nFR+jHn5mIpwDj4jSz9XsAfI8tvTE15xNw67PfG2GBsLi/RH7+QL2NMKsv2amxVFa2NQbbBR+jum5fpFuu+m8dRHXx6hdCrCKX/beKIctr+PUDC1Y1Xmcds+6hZ0SGRn7eZeG7c+I021TaIxWxP/c68/eH9e0zIjSny1NjcYpVeS9riZVF43fenZDCsHfL6tbyCLBy5b9ytF3MsJx6Udpue43T23I5ZqzLYqKAX6oy3kfinywLqKR40xXJ6hdvIDzW+K/eOhTj/upa2KV0mJ7ml+SQEAkCnVPZJitHRS5skopzlUyzhyHcEbRsHB+wzrBJOdETrSF2iP6BZNxaVGlJBFEOnmRhsS19JwtLMC269FwIvcFj9O0rMZI08pER9aZbItE3poVCflCiPNmXhopIuLl5Bd7J9edjy1xXuFQotddnINrScPrvShFNFI02ytKosditMLRTa/SFOfMMw6i2HblIHzs+FZTlP+SlSMKW882H57ShCF4RUoaTmeXIblM85fEO8H/2dm2tolnpkJJXRoUpR9+LnLRk2jYn/kyjYsSVSaNXJ8QJZsARa6q/aWzDw7SPJ9uOynbZNyvochz1M8mKOImyk+yxBoa5P8K53ugRDZIA+cSIl7iiAsiHla6diD3zdw3lWlqMnwB39fgsCoe5l6//f7kljRSNH8qQKHTc/oZL9J4weusPlUXjZ/rUuJw577qHTXyvXs20WDjdQzvw8v/VByzW6SvTdLJh0QugHNt/WM0u2xPnrbEZXspWXCyiZ0Tku+ETkgiIfh0TsOCc28+kWgZDjPHQTgTD4cRGKYlnRAlVw2hknERjp1FSsPhWufIh/NlsV6+ozHzupM03Wkl1LR4+cT/SbV94bQoTZ0epOAR3c7D8bRe6p1cdx6WhoMUki+eV9Hwei9UeGYOT5rbM5b/O2nadmtidNTrdukgzFJZPoo5QI2nNOFdNHLTQi78vINn7PVjZinbi2jYn7m6J+PX9KJIX+vxOVpY4zdH3YdMqZXZukgD4pqmb+rlDHmeo3m9SZGhaQ1TJCIEINBP80YewnntdiFgOJ5+GnG7PUJIw3zP+T/f85AoDR8RvkDeJo6Xv8j1FxAN+QztaVlm1DryP8dqU3XR+Fe6x5QlGv2vqOoq05yiwcfsKlx/vBijaK8qEh5oG6UlncBsicvxUmZzFOxks1VTKtdiJGTLdDgcZo6DcCSe3EQskLl602EZiU3gfBHcyN3H3bHJXKjeL3W2W8eFhZKL/OIYLomIhM2iYL0UO7puNzh3m3nJXRyq64vm9V4UcdDmM+bzOERQZRb0S19su7y3hhPPizNODoeoHaG3NGGcj+NXlmioeNicuECmBzNOOenJLhr2e52mpUgbHeBql95RmuISTUYE1bG2tCPN7R4WeY4alSb9otRpvwvOay92HXb4Gat3hu8F+wA+Xr4HUuSyTj/3+h3hOtOyXHZev7ACz7HaVF00PvOXSSkE8dUP5LKzeuqXjeqpH7z1gVzHx9QNXAUgEqOteGklJudLyVVU7DT4xbWqpgQyAVo5cRdyE5LAkXhkGE4HIdtgTAdRPdFYGBSlL/O6OWfFOSx5XVz64NwUN6RaOawdXncO7AzMl9zFOThftJLuRRFnYz5jPk+OKMRpRGQs8ouGsV3eWzeH54TvZzbNmch7Wkg0ctKEcT6OXwFnk7d6SmSiUpu81l00kpOOOOWkp0KioUku00JsjAZE+uGq0fNyFz42m54K4000ViJhkVb8oqRs38+ZPopdhxMugXVNrornpuPL7wbfk7goDRrvQO71O8J1pmVe5tKkXqwHqi4aJ3RD+LPfyboOFgkuXXCpwxIMxiqF8DG7gSz2OYv7gvWJtkxx0Ja4nC+lznFEhkU4xstnNTBaIiIxzuH6IrkknuJVEV4dZZbcfdTLl796iuF62xD1dIcz62Q7SG8fnTRyVTu6bif80lm5K6dZDtB5r6olGvJ/udVTZnrJTyrW6ZoWTdHwliaM8/F9KiAars9LYDaEe6qe0p1GFEVEw2wvkZhpjdtsWqh93FGF6bgnCg+isTah7sfZYQqZjeICZ/ooVTSk7+jsph6/vvfyHemggd5syZvJTfNFRIPbRrnNyLwFrtdfO6ouGj9c/1AKwa8evykbuvLxgdjG+/C+fMyusCVyhY5ujsnFSTrJDXU6Z2JLXM6XUiDr7Fv99twYN7AHVcOs1Mh0gmZPCKerHXNuQhKIBH6YHdDNNKU5KN3o2SWyMapBLE6RR5yNnl4dZRa3faQABIXz53plbgifFEVurn4ytJydR5NZIpHVIiIss2RRynVzL6DBiTw9Y0xcnIPzXpV0L0oQDXFlsqFbN7BzQ/f0EeEwMxmEYtsdolHomrkTAXf/PjaZ6f6aSizSFIdnfSfkKU14Fw3bOZPqnDldbmVDeAdFF1UoqSvDyqlZ6YCFTDjkaU476SQtRTqk6OcXDS6VqwZntcydFrLfLXB1j4/Pd00vc3weEUKpbqhBMdHQjd+y9KYal4NC3KxgZMawU9wbkYDYT5UqGupeizRmZBZlyc1RUsq5fme4zrSs4y27QcvOJeqetovryLkFNaLqosH8jq6i+tb3HVkYA+6Cy/v89pfzJunasLlM0/3mx01tNBBdzjwgm/NxvpQMF0sdDVcS4SDGnwyqrpFcf3tmTjlSQW5CYhJ0/hkhQGJ/q9HZFobsXml0vSvJUWbJt896rI/azS63jsxeplSml/O+tF6vW9/L3AZOJ27ncdyrku5FEWfjfMbCUU9bH3/y9fQ7uvIW3O4QjWLXLJy4+aGdT5Rij/bHaCWjyoKiaaIE0WBE/Gcz6V99UDju+LgvFR+low9w2tBdbm0fHPJX5206PkE6OjosSp8FREPAnU+sLrc53YYF2bTI5+ujKS0gdtRzlCVQh/H5ZEbIzPhoscqIYWJGdYDRz6Nk0dC9pmw99KSAinRopI/c63eG6/Lem2lKPJP23kl7GqgxNRGNcz98XwrCb/Rt0PsuhQgek4rbNngf3hc0IFytYhOhBqARrxnseWoiGsx/HVSljZOxXIls/8am3FZXDeCghqRp6SudNFL3Xx1Xkka8ZrAfqJlo/HhjW36zwbawli1uxK6qUgiv530AAADULzUTDcYaX+rTpzZUY9PdjzMj336pwLhUAAAA6oOaisZHHxP97hlVTfX5idsU1qPbBoaSchsAAID6pqaiwdy4/ZEcb4rFgo3/8zoAAAD1T81Fg7F6U7GhtxQAAOwddkU0GG7DQDsGAADsLXZNNAAAAOw9IBqgQji+dt519t7cy8BO7lfZoB6AaABBsXF7vFBvorFon3vZOaQGKA05kJ45PIefQk/207TrkB6VoRTRkLMJWkORtAaovXvMwzhmYCdANIBgP4qGA4hGeUjRMMbz2kqowQgdo8VWEq+ikRZxC7W20cilVTUb4tYqzZ4IUlPQMQIwqAgQDRvK8Y3HsnNL85zES5sJOt9rzHNtzRUsByQzh5LW8yA4ho62KDTXcfqqMQjcA500bg4CV2gO5e2kMagd5/6sCaOUENiGlZaDKTqG7pbO1Mo9CjMGtMs7T7iEB6Yz5k+OjtJJ0ymXGy8RfqXmXpbOx7jGTJjbHudelveon6bO9sm5vfl65Jzjm4s0zvM/iDB9AZFu9FzZPAJwZtZGRk7EE8jM6uhkp+miYJq5OUeRzECGPHCgHgRQXot9qG059HlnTNzxAjhFQ8JTAdjn1yiYZvKmCQ2nc35+8thhmhps8yAa+YZPt8et2ACE7unHnsmQYZgDPjrjO5zdLvc9NaFGObbuW75nIrD2d/qZlHjGNl9U8CHVBoiGDZWQ5NDWLAQ81LRIkAf4AVpzBcs5ka05sMX+rdmpHNWyu3MoONfx5gyd5BE3L6nkqOZdtpxo4TmUV0aD5OuYUHNSb6do/rRY1g7LmcjlsqtzyC1pqOHRj7vPEy6QQ1Zbw6dnhsDOvmSViJdcnxEJNYrojudezilplDD3sjxWDUHOI4an12LUI577gUCnGiLcuj/W4IMyM2GMbsrLznkvNDtOFyWkGdrkucOtmSSdz1ot2+dPccFVNOwjuxZLM4XShBpGPzvMe3pVOOSgeKbFREMOyV98Cl2ZloqIRm76KSAaetj/9jNxNZy6FV+9Xe7Lc4zHlikpJ7Aq9Ez0/nrIefYz61M8JLwQis4xWuIAt5blsPVuE3PVGoiGDU4obTRl5I7kOPuHJmhdLzsTmzkBTWbU0hznoF5M2xwb5lzH0ikdN+arSNLKpTlakamTz5dvDmWxlEqpIrkFv9zssPi/bQIgNbmNu3Pw4kjMyXFctm+Ll8B4ySoSLy6BWMfwPSpn7mWnaMhl+xD2suTiNvey3Lef5o3nOn9KOAhzsiEzfJnLzcaN04h76bOMdFFom3A6qc2Uck4avj/WHOlygifL+cln4SzlueAUDeH07dVTxdJMkTQh/juFVb57xUTDvO8F8CIauenHHq5NNDi+ZsZAYG6X/41ScbFnIvc305N8n0T8jFW28+8iEA0bRRKKxOGMDKGQOV9X56COMatIlFnn0mPo81wC/WM0vcilGnmgoNAcygLHnAvKrJfbcMgyR5bPOagXPisaHN9C84TzdvvkMjn3riLxYudbobmXnc5FOkEzbtrcXkp5rOEwBXw+mxNyhJ8VCr6GfFVT5aSLQtsECaMqxDIrvoZQyPm9i1VNMW73S5QqsnNbFEszggJpQr5njqmB5Tqbo3fB+VzlcjZ8K03khmVPH+7pxwhXYPoC879FznZn3As8k2LxY9zOuRtANGwUTigKx8OUuUp2oFxUL+QcnE42l/TaIs1Gh6nnET/5Do3SkjmRk+scymmR2MUyF/mtfeXLnXVwMlcpXsYk56LzOgdvopGdJ9ztesx7V6l48cssivSVmHvZTTSs6qRi7EA0MpkJjq9r6ZMpP124btsS4YqSTtfEckZI7PFVot1zNiHb4FxLeU6cz09WT5rXxddSKM0UThPyPduJaFjtRTn30J6miznlqotGkWdSLH6M2zl3A4iGjcIJRZH7MGUJ40g3deV1Dvka69RPei1O83GRU1SLWoj0OQrOoaxeDDMuNNdve7mtnHzPEX8B5+AUDbWcv6rBZbuteqpS8RL3RopKBeZedjr1UuZe3olo6BJGz5GOvB0jykkXBdOMS3xldZoRX1XCEPe11UPVFOMQDTXVbOlpJm+aEOHvqHpKnyP3HqvzWfGT73Epc5fL7faqapsv4EyLI77mdvk/J33kfyY5+7v4Gdv5dxGIhg1+UKWLBi2KXKVYl2nbcEHmzPLNdSyODxnbZGN3c1C1YxScQzlF54/5Kcg9ebZUY9yQnLLSTJyqF1K2ysMdTsDBwTil1cTEulFTN3Rzo6ZjnnCV09Tb00laGG4zGsIrFy/1son9yp17WYpagEbiO5h7eUeiYcXT6Cjhwo7TRaFtQpBPtgZo4OwqpcX95x5NYe4hZsZXirZYZ6btm3GavSSO0Ys2nKIh4K6uZpoonGaKpAkWPbMhfDlGJ82G8OszNDIojlVLdtbEvRfvyMnoIiW5FJNOUXJxgnoy74mARamUucu16LQPqx51zoZuM755G8Id97vQMylZNArdjyoD0bCxQ9HgXOVnCjsHptBcx8m54Uz3Se6+OfRaNhIF51BOZbt9yjCnBnPmKLc1fOYhLZzVYa5rthomBYXnCS/S5bZC8XL20JFIByDiaeTyioqGuGOybYjvr2589Dz38g5Fg6uoDjri6cZO00XBNGN01eTrmh4M2RtmxV3PlgIUqXPHyecftl1nBhfR4DBYeIPiPljhFkwzxdJEoS63fH4jbeZgay8Qxz/USUOx7Nz+Kr2WNnc5x0fNGy7CC/dR5JSIj5le3eKrt+eKQOFnUrJoFLsfVQSiUQnYYXhwDruFbBdwvhB1QL3Gq1LwS16o9LmryO7hRUp5dYTVBuam6buG432X37vU6Hnv5v2AaJSD7EaXkP3N89db7yJbKUot83cdHuuta0W9xqtSpMX1iZzvUDCQ94O+3SS9mVLfUHjpNVUXiBLNsW5b+8Kuk16kyEMd6jsdXtTfTw1dyZZtqsfu3g+IRjnc5CoJUdRuq48vNZ3IniutITppfcFeJ9RrvCpFcrJDVkEcNr74rR/iNNLaQr6HjtP5enLCexCz2jhnpIZ9DEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWjYsA9yZpI7nMjeJL2qR0VtC9JR53U6ZlbjoROmza7n5sxjrQFq743RuvlVbGqZpqyZx+T2Gft2Pl4PI+GcuUyytUpL5yZppLuNQp17/14DsB+BaNjY56LBYzYFOmhgbIyGQs7rTNPCIM+spmcKsybZsUby3IrTiDGgHG0uU5RnEst8CZ+m+RNqQLokb0+vypnGQqPLarMe0bVLLMvjk/zFtDGgHI+1I4Smq3eMov2hfSHQAOxHIBo2ShAND/P9ZuYHloPZFZiXuWhYM7RgDg5ofkldbN5lk0yu3+06+UthP42YQ+foWeTk+EQ8FLRjgDQ5bLl1T+S+jvkUeOhrPYe3mgfcPmChHPraNruZ+tkvpToA9iMQDRteRcPDfL+2+YGd4aplNfeAx7CsOcov9FPQmqNcUHDe5bzkv04bUuzsjt5Exs1y+nJf+5SotDZBh62RUXlUTtu0uQIWFRdxgGgAUL9ANGwoZ8pDTbua5ci8zPdrG4Zaj0ppHW/Oy1xyWDxkcrZEUHDe5bx4EY0UzfaKkku+iexTomTRGszOaSFFw3Fecx3HyykEbusEEA0A6heIho38zjTHkZU036+g0LzM5cwdXHAu7nwUE40ULQ230YGOSXtDtkVqkSKHHMOaQzQAaAggGjY8ikbJ8/0yatKbnHmZy5o7uPhc3O4UFo11cU5fUITh1jYiREo2cIs42arAUD0FQEMA0bDhUTRcctWF5/tVuM7LXHJYpmio+Jqze+XMxe1K/utMzQ1SSAjGvG4zsaHbTEKn51QPKJNKNIRrIBoA1C8QDRseRaPk+X41bvMylzV3sJe5uN1wv06e85nnnXaf3CUlSjXc6J6nykq4fluXW90lt33c6jLm6HKb4DmVsw3+JhANAOoXiIYNj6IhKG2+X4vceZmZsuYO9jAXdy5u16nWZdtFDOPzyxKRyzZh2bjYP+7rOjOnBMTC9nEfzytuzuGcBaIBQP0C0agle2xeZgAAcALRqBF7b15mAADIBaJREzAvMwBgfwDRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwTNVE47+cfpc+8fkbNvv0qQ26+/7Heg8AAAB7jaqJxi91v5MjGmznr6X1HgAAAPYaVRON33p2w1U0Bs/d1XsAAADYa1RNNP7g67dcReO/R27pPeqU1DJN9YbpQHMLNbUGqL13hta31aaF02Idr8+xDpq+qfahtRkaCAfIJ9b7Ah00Hk/pDYr1WB+1B/zyuAMPdFJkLqm3MClaidq3249P0dJoJ4X8fE6/iFssEzc30tcmaeARFVaTP0w9Y4tklvOSc8PUZZ7rqnGu7RQtGOc6GO6jqWtmXBI09bh1/VkbuqI3F7iPAIC9S9VE46sX7rmKxue+Ws+ikab5E34KCgeXZAeXXqWpDj+FRpfVZhdSsU7ynbionPFWnEaCfuqaWKW0OD51aZBCQlCmEnJXoqvDFGwVy9eV61bbO2la60ZysoN8wT6aXVPbk+f6XLYP0jwv67gFT8dtQpAhOUM9rUEaumQdPEdDIm4nz2nHvzpB7SJu41oIZFxaj9P5Tbkor6vJOtd2mlYmxLkDw7SUcfyrFA0FaGQuRanNrPF17+Q+AgD2BlUTjZV3t3ME41N9G7T23kd6jzpk6yINNIcoel0vM3P91BQaoxW9aGN7kSLBAEWu6uWcfdM029tCweFFuZSMdlDT45Ok3bhgmcaDVu48SdMdLdQ1md2qHLO1XeTsD7XQwGuGRFwfo3Bzd8bRm6Qu9FO4O2acS5eUhMgwK5EQNfVqsZPYwzf3laRm6KQpgBSnIduyQan3EQCwZ6iaaDAHjB5U//GLG7SRqmPBYBKT1NXcT/OZ3LRgbYIONw/Sgl40SV/oI194gtb1cq4o6HVHZkjm5zl3b5Y05jh3L5y+eYDJtnDMrZbzZSdtVP9IeJ0QLaVJBUlztVkwSCPxrCgcnrB7/PlTQrSiap28NqukIVjnkkbQKGnIexWmwx3ZqrhMVVuJ9xEAsHeoqmg8f+W+FIyf6bxBidt1LhiMdHYOx+a2TiJKAWE/DVzI5tXTr/Xl5KbXJ9psQpKMddNBXf/fJHLjhRz+SiRMPktwdKnDVtLYnnMREjtStOS5AtQzuarXKtGwBMLCuW5pWJRGrLh+RoibuXtijiK9/TS1mKDUZoKWIkJUhIhE+RQl3UcAwF6iqqLx0cdEnz6pelF9MWY2otYppTg7bp+w1fELuFqm1WjTWByjrlbhcK1qoMVhUbJwtGnkKWmsnz1OIZHTXzBu2/p4ONvOkE7Q7ImgFB5bNVAeVEnDTz1n1cmKiUbqbHe2pGG1aZgljRySNN3ZQuGIUA2IBgD7lqqKBvP6jz+QovFzXTfo6k8/1GvrFOnYvFSrJOn8ET+1j2dz7hbpaxPUI3skce+mSZoeDGXaNBYG/Zn/CtXm4awmSl9hMRHisqZXWGwnabZf9UiS1UHnJuhknjYNN2SpR5dcCldPqfaVnrOm0Ov2lTm96AKHKdtBPN9HAMBeo+qiwXT93W0pHL96/Catb+6DhnDZNtFH81t6OR/bXIWVbShnpypz4hmUaNjWibC7/EIwcvUoB64O83XGdPWVnWTsOIWfsTeES9HQpZ7CDeGqO62tKsxRPbYy3kHhr+QKoLwWNIQDsG+piWjc/yDbKN70RfceVLzuka/eovZvbNL/fCVF347fp7dv1VpgHF1FN5cp2uEsUaSF8w9Q8EyBxojtNKVW4xQ9FqQDx6w2CXEkNy4H+ui87lKrqq+C2XaNNZFD526yV9xkwGArQSvnBqndH6LxfNGQXWqzXW6d1VPOLreye68hhLIq7PFRWtLVU+tyu1GV5lbVZrVpeLqPAIC9SE1Eg0ne/Vh2uWXh+OQX3qErK0JJND/e2KZ/03NTbjPt3/259cVcDXF8lNZ1Zk45PotkjI5mnKMLsmpGfSw3FFumlHmsoNDHfbJ6h8/rNKMhXe7DH8t1j9K8vXYph1R8jHr0x32+QJgGostGyUJcivlx3yOOj/eKftznON75IWKx+wgA2JPUTDQYFg5rIEPuUXVs8g794K0P6JPH3Mep+vk/uaGPBAAAUA/UVDQYrqo6+uIdV5FwGkQDAADqi5qLhsX3r39A//lLucOnmwbRAACA+mLXRIP5+GOiF/7hPn3mL5MQDQAA2APsqmiYLL+zTV+5cI/CX7tFzc++S7945Ab9jhATAAAA9UPdiAYAAID6B6IBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnrmdugvRAAAA4I2aiMbElfv0K392kz7x+Rue7FN9G/Sdhfv6aAAAAPVCTUSDRcBNHAoZiwwAAID6oiaiYQmBV0rdHwAAQG2oqWiUagAAAOoLiMaukqCpx1to6IpebAjiNNTcQVMJvQgA2FOgespJapmmesN0sLWFmpr9dDDcTdF4Sm+sNIVEQ23riu437wrRAGAvUxPRKJXdE40ETXf4KXRihtZTaaLtNCUXx6irNUgjcbFccSAaAIC9RU1E40vTd+lLZ+/qpeLsmmjcnKSu5jaaWtPLmqUzAWo6NaeXiNZf66eugF+VRDpGaWFTb0jw8f10Pj6a2d7eKwRoW28XrJ/to3a/KMW0BqjrzASNHHIRDRkOl3S0PT5JSb1p/Zx57n6adcRVoQSnfXxVLwuuj1G4uZOmdUCFwlk47RArGR/L0SunPx4dlteRK2p6eyx7Dw4emaCVTGFNbY9eitHAI9l7uGQW5jbjFO0O0wG+dn+YesYWKSPZHu5x+uoY9ciwW+jAI300bdwGAEB5VF00/vHtDzIi4FU4dk00thcpEhCOcHSZUoYTMknP9VMwOEjz7Hy3k7Q02pF16trZy5KK8HLp5EUaEuH1nNUecXGYQq3CYS6KvUUpZv1cH4XE/l5LGunX+sgXPE7T11UpaGWig3ytfTTrUnuWjBrxspY7Y8S7FgunuGi0kI/FcjVFXCCzo7bLe7AlFpOLFBWlN9+Ji9rxW8eP0RJHbmuZouI6g8OLcittr1I0LIRgOK6eQXKOhoJCACPa8xe7x2sTomQo4qqvjUU6GBikBY4LAKBsalLS+Nb3t0oSjl0TDUH62iSdfEjkUjmH2z9Gs8uW22WUIx94zfCUWxdpQDjUaf6sRDo04XwNB8UO2DcY1//9FDyjnaNEhOdW0pA4RUMtH42Z8UnSdKdbbl+QjNHRjKNX+6lji4dTXDRCFL0ut7jA2x2ltavDFMzcl9zjpaB1aIG7Mki+wDAtmaLNx7cKx8/rPNzjsCUwEiFCIT+NqM0AgDKpimhYTj+fFRMOa79dg3OoizGK9nbIBvEDbVb1icolZ6qNMqYdqnRowrnxrhp2aE2n2WMpZ53JEUvUOm+i4e6sl4YDOnwnhlBszlBPpmqqeDjFRcP674bL9m1RWihwvFkqkv97rVKJRsZfH+PhHuc+n3z3GABQKrsiGv2vmI4zF2u/uoCrS4QjUtUn7PACFDELCya7IBoLg6JU5CoaRKlYJzUdmaHka32Zqikv4VRcNHRpLN/xRUVDtjXpY0q+xwCASlKT6ikee8qrYDC7JRpc19/krBoRrE+06eoTrm93NDAz1v4FHRr/r2H1FKNLGD1H/MZxxcPhOB+eMMIsVzRkI7xZPZVfNLxVT+W7x2maP2G2n2gczxMAsHOq3xC+9mFJgsHslmjQVpxGgn5qH5wzutxO0kmxrmtSebnU2W7ycWP2NXUtKe6S+4hwcuylioiGsyF8JXa8QEM40fwpUcIZjFM6rVygasAWzndNxW1lsls4U7Gc97am6PwRcX6Hky4WjnTi4WFaYC++tUqzJ4JGGF5EI9tQTelVmuoQYinugbqKIqKhG8K7RHFONYTHKfKIsyG8yD1uDtLAOXWC9NoMDTzUTedNjQQA7JialDT6z6Y8Cwaza6LBbC7TdH8nhbhbrHB+Bx5oo4Hosi3nuh7ro3bZ3VN16ZzSAlLUoQk8dbnVpIUgHZb7ZsPMnlt3lS3SnVRWURm9qCwKhrOdoPPPhMgnrs8XCNPAcD8dLkk02mhkYjjTJTb8zGROl9u8osFsxmn8yaDR5Vb3pGI83ONUfJSOPqCejy/QQZE5KAYAlaImolEquyoa+wyuEstbfVUViokKAGAvUxPRKFUEIBoVYCtFqWX+ZiH7QV9tgGgAsJ+pqWiUamDnyN5QrSE6ebbW3huiAcB+BqIBAADAM6ieAgAA4JmaiMavHPU+P7hl/+EvNvTRAAAA6oWaiAaPPcUi4CYObsYi87w4BgAAQH1RE9EAAACwP4BoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnpGicf/99wkGg8FgdWT37+f+lmNm2GUYRAMGg8H2g1nCYP6aZu5bhkE0YDAYrB7NdP7O352YFW6ZBtGAwWCw/WCWMOT7rZBBNGAwGKwerJjT599yjMOogEE0YDAYbC+bJQhuv6ZZ+5dpEA0YDAarRzOdv/Vbjplhl2EQDRgMBtsPZgmD+WuauW8ZBtGAwWCwejTT+Vu/5ZgZdhlWc9G4u/U+Ra/cIf/pDfptYS+I/7zObV8YDAaDeTRLGMxf08x9y7CaicbNzft0ZuY2/XrvOzlzgvO6oXO35T5ux8JgMFjDmen8nb87MSvcMq3qovGjG/fpz168Rf+iOysWv/bMOzT46m1p/N9az/scFfvyMW5hwWAwGCyPWcKQ77dCVjXRmF2+R4e+/h79bGe2RPHf/mqDJudTtuoo/s/rfnfo3cx+fMwffC0pwzDDhMFgsH1rxZw+/5ZjHEYFrGqiYQnALx65Qf/juffo6lvFBeAHK/foyfH36BfEMdbxbvvtrl2mLze30Jdn3bbl2u3lyzS/nHTdVratvkBPNZ+mebdtbGuL9PrVhPu2QlYs3HJsp3GCwWDuZgmC269p1v5lWtVFI3HLfXsh42N2UzQ2rr5Azz56kHxCHJpaD9Jjz7xAb75rbS9NNOYH/eTrfoU2XLaVbLOnqcl05kWc+9vffop8D47Qmy7bCloVRWPHcYLBGs1M52/9lmNm2GVY1UXDbVs+u3AtWxrZLdG4ffk0Pdz8ID37yjJt3BHL7y7T93ofJN8TL9BP7vE+pYlGRa1E0dixVbOkAYPBqmOWMJi/ppn7lmF1IxrfuHRH7v/nL23K5d0RjWV6/tEWemx02b7+1nfp2Wa/FgqnaCTpzed76bGDfuHQ/XTw0V569bq1TZQ0+kVppf+y/P/2809Q04nn6NVnHqUDXIrxP0rPvrxKG/Mj9JR1/BMjtJAp1TjC4WO0yfNL536KXr2cPf6xZ17R4qbP1/4CvW2Fc/2VTAnKd1Cc+yXHdVqmw33xZXFdfj6fS7j6mpQ57sm9VXmNB1vFsbKk9pJ7nIrEn+32fIS+8Dne1kIHPtdLLy9ntxW8ngJxgMH2hJnO3/otx8ywy7C6EI1vXU5l9j/58i6Kxs1X6AvND9Pz15zb7tBPLl+k+et3xH+7g9x45Rj5HjxNryfU8k+ee4J8jz5HP9HH5ohG6xP0/BsJun1PhPntp8nXKoTiqQgt8PG3FunFJ/z04NAbcv8ccy1ptNDDvcLRcqko8V368sEW+sLLqg3FLhqL9M0H/fTUc8vi3GLfa8/RU8KZ/s28Dsu0nHAv0pcfFGI6ppxyMdF4c4RLZs/Rm+LY+3eW1TUNqmvKFY388b9/neP4BL14Tdx3vl9CxB48KK5fVnkWvp5CcYDB9qVZwmD+mmbuW4btumi8+A+5gsHm9fiKmnRiwkmtumzLmCNXfStJG2a7jQ7j5TW1nFvSuJjd955wxhzWRb1s7WOWDkxzFY1e+p5xfj6f77RxvkxYHO+H6ZtXrX1NIcweL02Ge4peN3P8r/ZS08EztCD+FxMNjsOjI4uZ7bevX6bXL6/SbfE/VzTyx3++30+P2kp9oiT4sJ/++jL/L3w9heJgrYPB6tpM5+/83YlZ4ZZpVRONX3xaOf337qjIXnwzt/fU1A9SmS65pmDwMbyOwzD3r7rtRDTuJWkhUz3FVTls2TByRKOAs83sU5Jo2Nsecs6XCesOLYw+RgdEbvypZ0boxfOLtJGvusYlXM71/5FeV+w6br8RoT/yc1VbL33z+Yv0pi6FseWKRr74r9KL7db9tJs6T+HrKRQHGGxfmiUM+X4rZFUTjX/fe1M6/uXEFj3zfzbl/7/7fjZXy4Lxc125gsHGH/fxeg7DXF91y1s9JW7Uu6JEwVUdDgcpnaCsntLX5hCe+hENbYlFmn8pQs8+cZB8Dx6jV90EskzRkHYvQW9efomef+YJOtj6IPW9sirX2+LkQTQyVVX5rND15IkDDFaXVszp8285xmFUwKomGr83kpSOn8eWYlHg/1yqiP2/FL1y9W5ewWDjY3gbh+HcVl3TDeG67j5jBRrC2ck99bzhjKRzrUPREM71dc6NZ/ZN0MtPOeJumQy3SPWUWc1muw7hqM/bc/YbLz2ViYd30bhDr/f6ydf7XXuVkhWngtdTOA7WOhhsX5glCG6/pln7l2lVE42/OndbOv62b7wnly3h+Pk/uUH/TFg+wWBr/+Z7cjuH4ba9mnZbOOaHWx+jvz6vG1iLdLnlBtem9hFaECWN24k36PmnuJqqSqIhBekpenlNnItLPSWJhihFidz2s1ZuWzY6+0Xu20WYZbj5G8JZvHytT9PL3H5wJ0ELo0/IHkyWaLza5ZfHvs33S+T2v3dClAL0tyreRUMsv3FGd39Wcb7NvaU++zS9ymJQ8HoKx8E6FwxW12Y6f+u3HDPDLsOqJhpWFROXKN5OqghbwlFIMHhfqxTy410ag2rjcoS+YH3c53+Qnj71Uv6P+3TXTu5C6zv4BP3NK89Rn1HFVVHReF+c69jDMl5PvZAoTTSE3TY/WvQ/Sl+IvOHeMCzDdXS5PfVd5YDlPklaGHlMdxsW92fkjLhm4zreXaQXre6ufOzTkUw34pJEQ9jG5RF6+ndVe5G8vxezX5MXvJ4CcYDB9qVZwmD+mmbuW4ZVTTTYPjusxpN6+u9uZdaxWOQTDDbel4/hY922w2AwWEOY6fyt33LMDLsMq6po8FhSXBXFJYe55buu+5h2+UeqrYOPeWMVgxXCYDCYZ7OEwfw1zdy3DKuqaLD9zQXVqP3JYzdo4a0t133Y/vGnW3If3nf0osu3AzAYDNZIZjp/5+9OzAq3TKu6aLB1R1WV0y91vyN7Tzm38xfhvI334X2d22EwGAxWxCxhyPdbIauJaGzdtzeC/+kLt2TV1cwP78ppX631XyzQ1gGDwWD72oo5ff4txziMClhNRMOyV//xLn3qL9RHf6bxuumF4m0eMBgMBnOYJQhuv6ZZ+5dpNRUNtjv33qdvzN6h//TshjT+z+vc9oXBYLCGNdP5W7/lmBl2GVZz0YDBYDBYFcwSBvPXNHPfMgyiAYPBYPVopvO3fssxM+wyDKIBg8Fg+8EsYTB/TTP3LcMgGjAYDFaPZjp/5+9OzAq3TINowGAw2H4wSxjy/VbIIBowGAxWD1bM6fNvOcZhVMAgGjAYDLaXzRIEt1/TrP3LNIgGDAaD1aOZzt/6LcfMsMswiAYMBoPtB7OEwfw1zdy3DJOiQQAAAIAHIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeKZqovHKwvv0m6c26BOfv+HZfqNvg74jjtt7xGmouYOmEnrRyZVBanp8kpJ6cackox2ew5H7no7rpRJJTFJXoesBADQsVRONf9tz01UYitk/+5Mb9MP1D3Uou8jqBLU3ByhyVS8XBKIBAGgMqiYalgiUwuNjm/KYT5/coPS2XrlLLA0HKBgIkO/ERUrrdfmBaAAAGoO6Eo079z+mX/9zVULpeemOXrsLbC9SJBCm6JUYHW3uo9ktvT5DipZGO+hgaws1+cM0EB2lk6aTTS3SeIcQnOYWOvBIH02NHi/g7FO0Eu2j9oCfmpr9dDDcR+fX9CYHTtFIX5ukgbA6j0/Ed+Bs1svLfU9N0PneMB0Q22U8je3M+mv91GWdt2OUFjb1BogGACAPdSUazD+sfEA/06mO5f+7QfpCH/mkc07T/Ak/HY3Z3X3qbDf5gkJM1kQZJJ2kpUiHcNyWk03S+SN+Cp2YoXW5eZGiHcIx5xGN1LnjIqxBmtcb1ydEWOEJWleLNmyisTlDJ1uDNHRJH7g6QV2tQuhW1aLctzlIA+cSotSWpuSlQQo1Z7en5/opaJ13W1yDEMFM2BANAEAe6k40mJOxlDyWSx1c+qgtDqG4OkxBmxNP0NTjLXYh2Z7LVk9Jh9tJ08ZmEg46b0ljK0UpsySjHfb0Tb1sYBMNIQSpTbPiTMWra1KdRZU05uR/RZpme1soOLwo/qt9B14zjt+6SAPWeSEaAIA81KVofPgRUevAu/L4P/pbq86kRiRjdLS1j+YtR25VVekcumq/CFCEfW8Go02D2y8Cw7SkNigKtWlsp2gpUz3Vos3dYdtEQ5AyqqesY7ui6kC5r6NNY32iTa/j+GaPyZopfBANAEAudS8afzhWW9FQ1Tq5DjV4xlKJyoqGPJ+sJtK5/gIO2yYacj9VPaU6DeiShmfRcF6DAUQDAJCHuq6e+rVnal09tUrRsJ+GruhFi+tjFGYhMJxzpaqnFk5nHb1kbYIOexGNHCES8TrkEI281VN8nS3UPp4pPimsHmsQDQBAHuq6IXz2RzVuCF8cpmDrIC3kdPcVTjbkp4ELqjTgbAhfGG4r0BAep8ih/A3hK6NBsW2UlkRJQzaad3I1lQfRuDZKIbHf+KIoaWwlaWm8U/aSsolGgYZweQ2tHRS9llLLi2PU9YgQRr5EiAYAIA91JRq73eV26Uz+7zJWIiFqOjajt1Wwy+12ItMt1hfooMi5CRFWiKLX9XYDm2gI1s/2UbtfxKE1QF1nZih6rIXCEaUKqqRh73I79Jo9BuuxbFuKjKcWEIgGACAfdSUa9fRxHwAAgFyqJhpWiaFUq5thRAAAAORQNdHgAQs/XeKAhZ/q26DY1b04YCEAADQGVRMNAAAA+w+IBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAawEb6gw/o1uYdStzYoNW31ulH19+ipR+twBrI+Jnzs+c0wGmB0wQAFhANILl9J0U/XUvQ9ZWf0js33xXLd+n999O0/dFHeg/QKPAz52fPaYDTAqcJThucRgCAaDQ4qbv3ZK5ybf0duiv+A+AGpw1OI5xWOM2AxgWi0cBwLnLlrbchFsAznFY4zXDaAY0JRKMB+fDDbVndgBcf7BROO5yGOC2BxgKi0WDwS85VDMn3NvUaAHYGpyFOSxCOxgKi0WBw7hCCASoFpyVOU6BxgGg0EFylgCopUGmQrhoLiEaDwD1euAETgGrAaQu9qhoDiEaDwHXP6CUFqgWnLU5jYP8D0WgA+KMs7mMPQDXhNIYPAPc/EI0GgBsqq1nKiMxu0VPP36afvoevxxsZTmNoFN//QDT2OTxuEA8DUQ0+/pioc+I2feLzN6T962du0k/eLbX7ZYpWon3UHvBTU3MLHXigkyJzSb0NlE+Cph5voabTcbW4OEyhZj/1nK3OPea0hrGq9jcQjX0ODzhXjZ4tLBiHn9vMCIZlh75+S+/hjdTZbvIJJ9Z+apJmL81Q9JmQWA7SSDyt96h34jQkxK4rWq85bKdojFK41U8nz2nRuDIoxLqDpioUfU5rnObA/gWisc/hkUp54LlKYgrGP//Td2yi8b/Ol1YNtnBaOLRDE5RtQk3S0rk4re8VzdhrouGkwqLBaY3THNi/QDT2OdyjhUcsrRQsGH/4TSUY0fn79PfLafrZTiUYT79wW+/lnfXxsHBaQRo4l6B0Ts2Wm8NzOOntFC2MdVO7X+wnSiwHw30UOdUm/g/SgtpD3IQZGuoIiBKM2McfpKOjw3TS5ugLV5Glr03SQNg4/swcJTmu0uHyeS1zd77JuWE6+oAK23a8QIrm46M0PdpBB1s5DFHq6p2klXztyallmuoNZ/YNPTlM8zf1NmZTbT8gzxWmgWicpnvFf+seJiapS2wbuqLPnYm7sMcnhWSXB6c19KLa30A09jk8N0KlhjffFsFYgjF+eUuum4zfl6KxE8GQbCdp9hRXSQmnxQ61P0ZLmQ/Wi4vG0nBQOs/D/ap6a0oIhgzLEo3kDPUIB+t7qJvGY3M0Hxulo0HlJK0w1qMd5GsN0VBsmZKbCVqKHqdQpopskSKBFgr2xmglkaL1K6PUFWij8bjw6sllmr80RkdFWGER7/lLooSkbkuWzTkaeihEJ8fFtk1x/KVBahfxCQ0vys2W4/Yd6qepc3NCPDrFuVuofXxVbrexLe5Hh19cSz9NLycolVikqWPi+oPiWvm82yKufG3+NhqKztD8uUkaOiT2Z4FxEY3UsrgfkU5xfnHtU+J/XAi32mvHcFrjNAf2LxCNfQ5PqlMJPhSC8ftfu5UjGDstYeTADjjaLxyyyJELBz5yhbPaRURj6yINCIfYHjEdbIrmTwUyoiFLMq19NGvm3NcmpOOUYWyL8EQY4dFlvZFJ0yznznsvin+rFA0Lp94xSgurKZfSkMfqqXSKUkI0UsIrz58SYetcvRKN40b8UnT+iFjX4ZLrFyUbn3Dw49f0MsP3QJx/4LU0pS/0ie1hil7X2xgWEiF6bqIhqXD1FFOpNAfqE4jGPqcSLzALxue+qgTj65eUYExcqZBgbAtnZ2ZvOTfNQiGdZhHRcDpATVKUHCzRUNU/TgecG4atmsYy67jUMk2f6abDD3EVlbP6qIhoiOuZPqKrtqTpnL8pGo74ucfZui4rHLvx+c3rNpHhQTRAhYBo7HPKrZ76QOSs8wnGk98qt4ShcsE+maPPks2Ja9EwtydjsjpIOmmdyy5U0liJhAqXNHRp5WjM7qKT15cppUsVySsztGRtTi/SeEjEedASssKikZxkR94hcv/6CrZFSYJLMTsQDVWS6KRpc8N2klaW1Yp6KGmgemr/A9HY55TTEM6C8dn//Z4UiJHvqV5RY69vZQSDG8XLhZ0q597DR0Zp+tKcyNG3yUZcSwiWhlkAuPE6RvPnJujkQ6pB2XLSzjYN1WVXOMm8bRrDdFg2mmfDWBnndhCjXaSf4+CnrkmxPaVExffQcYqem6PZaL9skwjqNgkWjRHefmhQxD9GC6bDFnCXYtXQv0qpzQStxPopLPbfiWjQ9ipFD4nrN9ss2rg6r4Om+VKsNo1We5uGLI3kE404V3mJ0tOguL+xuNGLbWegIXz/A9HY55TT5faPx9WHe9USDIvkpWzvIl+Ae/xkc/lWbyHVG0iJx7gofWRy9o7eU1x1NDvqqKYxek/5Ah0UmYs5Sgcp6cxle4reZ0g4+Qxm76vWAHX1z9C60baRuiCERJ8/clWvtBAlgfkz2Z5RoSdHKXJM/N+JaDBcVdafDe9gRz/NmgUts/eUiGt7L3cOEP/ziYY4y3y/dX+Hc6q2SgVdbvc/EI19Tjkf9z1wJkmf+UvlukYv3quKYJRNOkFL1+zudemMKJ2ExsiqWU8tL9K6WT2lq7i48RhUFnzct/+BaOxzyhlGhEXjl4++Q4G/SkrBeOJvN+tLMChNC4O6euoMd3l1VC0xnLPm6iNdvcRdbnu4isvqpgoqCoYR2f9ANBqAnQ5YeGzyjhQOtqPfvkMf1ZVgaKzqKbNqKbZsa1iX1UtPBlUVjBCU9u5R+wdxoCJgwMLGAKLRAGBodFALMDR6YwDRaBC4R0s1h0cHjQ2nLfSaagwgGg0CpnsF1QTTvTYOEI0Ggnu2VGOYdNDYIF01FhCNBoMbKpPvZUYEBKAsOC2h8buxgGg0GB9+uC3rniEcoFw4DXFa4jQFGgeIRgPCLznnDlGlAHYKpx1OQxCMxgOi0cDwi88NmOhVBbzCaYXTDDIcjQtEo8HhHi9cxcB97CEeIB+cNjiNcFpBL6nGBqIBJPxRFlc38DAQnIvkged4xNJKzfoH9g78zPnZcxrgtMBpgtMGPtwDDEQD2OBxg3jAOR6plHOVPDcCT6oDaxzjZ87PntMApwWMJQVMIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGSkablM+wmAwGAzmNJQ0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ65nbpL/x8GarcsuWVPGAAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>079829 30850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d07c2857ade51</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Accounting Gyan : Best Accounting Classes  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       C-340, near Roop Krishna Public School, Shahbad Dairy, Rohini, New Delhi, Delhi 110042      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD27SURBVHhe7Z2Pcxzned/7d7jJpM00TTrxtJ4mbTIauAMfZhCemxKOR2drhIijaxkTIQM5oolQAUOLDAKKVBHQRkAHRSrYsBHBQnQKIowgESJMWAxB0AwuLhF4SECiABEESFAngjwS5Imgnz7Pu+/evbu3d7fA/cAR9/3MPHO3+7777rvvvvt89/2xu/+KisiRt+L0mW9cp5ffjus1RB/F1qj7x/eo7Z24+m8jyxJXttkc5ikSrqGG/nm9rFk9Q+3VQeq8oJdNLvZQuL6HpvSiYqKNqur7aI5iNNJYQ1XV3qbSu9JH4epWGl+1NhUWB3ZRVcsZSuhlT5YGqam6w7HfqeOc7vEo/0vQ5JEgBY640rCL2mPbyWP2tkSxSGPyvzdR6rTzr5nrDVPV7kE+YmGJhnbX0IFha8mCy2JfDTVFlvh/rnDrWOz/Fnxu6muo/bRXqbjzE+fjqaPQsYnk8Xsdk1lei9EJmlow0r7YRSG7jLKWtVfaZn6sY3XUHakfrvRsVFrJcvRC0t5FQwt6kXFso/LaRpOpy4oSp1upqq6LZmRBhTfSkCpaM58JGm+poXCvWffjqlzm3JlR10Md9V7UyzYLA/Qcpz2ynCst2a+dBwvHMVzooIDk1zgGdT5qucx43dTxIIVOTOsAi5kTdRQwz0fWMmRyHkOe59VPneH6mcIqs1CXdVxp9V/nS5WZSnsfjZgHKPvOdcwF4o+bmqmoovGzxYdKCP7ji8uUMCuBi085TOJIXNlms0hwha2v3UXdZ+dVfhPxeRo/EqJA4yAteuVfKl9tkJoGrPgUm6ZIY5Dq9clPg9N3OgxLqJp6Ziku2y+NUnsoSO3vWQ5s8WQHdZ90iZiQo1LSdBfVV4eo/ZRV8RILnO5TzTQmtWpllI7W1lE7p5tYZYd5qo3CtfmJBq3yujrO92lL8MVRBUIshuKI1xI0N9jMFz0v6/uBXOHqWMzwgUZ2JHy8hrim8MhPnNdxOdoXntcxmeU10yXnuI9mVnhB9tfP8UM9LPyMHwfgSNvMT5zGDrKTaxmlRS7rxPwodT4VzEM0LGfV0BVV9UXSaw9xXhyiUUP1R3h/XHSJ2ASXg3EjpMK9RIPjRqXuc9gVq+7FTrXycitNppV5gqY6uLx2dtDkfNy6TrjeDx20rhPJR/a0ZL9ZRGNNrgk+d73T1jURi1LvDj4GW4T4RquB045MW6UUv9BFDdVhilxRi860VqIU6RigKTmvDnIfQ17n1U+d0ddngutb7CyXlxyDPsS5nhAfQw/NxDht8Sn7JG27zGI0tp99TPIcc/ns5PCtIhrCf/92TInBD3/iecUr/ua9eyrOF79VisPOTjzaR4fDfOfCFaQqGKIDbcM0l63xIxWm0Yh/YoKMBpSTNNFglieoN7l9mNojs1ylLaSiBTrMiqvJJRpMPNpDB74slY3TqGuk3olU2Sa4hdTETr6KW1ANLYM00lGfbN2kXyxunM7GJn6y2eHYF4dbqUHvY3tjG427tC9buBzLc3yx2+USeOpFGrqU6SR450c5Lr4Q+y95H5OjvNZiNHliH9UHeZ2dH/tuPi/RYOLT1K+PY9uOVhoa6khrXdqotHJd/HwDcFQ5KM5nuJV6j3HL1CEabTR0kstWH0tD25lUfcwiGkJsoitZL7zOWZK1OM0MtyXrl9T757gemddJ5rRkv1lEQ2Bn3/98iLaptMN0uM8SSRuzbm/b0UyRaGrHjrT08UrLIY0cx5DXefVTZ44N0FhLOHmMnaeNs762lAxT1+6pATpaXZ8UxrR997y4tUTj1M8eKEH47dab9MCjEfHJ3Z/Trx64oeJIXGBjddkcPplNsbYmcoE5u6cA2ADSrWV3zYGCUBLREP5Hh9XaODqc7gAbvr+iwn6XWyTAIMZ3lPszdIttcSAaIH8SNPM3+6j7QuXddBWTkonGBzfX6BebriubWkg1N4YvWq0QWS9xABAgGgCUJyUTDaF95K4SiM8fu6kGnmJ3f07/4c+sbqm/5DAAAADlTUlF49HPiX7vhNVN9Y2B2xT+7i31v64zpsIAAACUNyUVDeH67Uf0a3rQW0z+yzoAAADlT8lFQ7BnU4lhthQAADw+bIpoCDKGgXEMAAB4vNg00QAAAPD4AdEoNGsxmjk7m/mJ8M3A4+lUB8uzNHnJ5zMy64n7GJP9iW8nifkoTc0X/1kA51PT6U9VO6iQ8wRKD0TDgfVeH/VKAWVBqn++jUYyvr7Cg+VhOlAbUq+uKBTKWSTzxFZbRw3NPTTp9WoEL3KIRmxoHwXs9yzlwG9clefaRhpxOzXHayyKhHpVS6q8AnVhOtyT5dUuHqxHNKZOBClwcJSy15L869Z6RCPXeUrMT9N4pIsO7wrRAffzMPIupNkojfS10oGn6qjb9XoW4iOdi6ReUyKvMhkzXqBI8Vkasl+PIXVV3s+Uoexjg40UcB1H4tIgtZuv8elxvkIEbC4QDQfWhZ18qGx1ieZOdVADi0DnJj5V6nQWfFHplyhWhVxvAs1ErpZGEbCFzn75W5KSiYY+XnaAcW4JRPSL6Pw+Xb8e0fBH/nVrPaKRFS4feZ9Re18fddanP0Qp+5H3OXWzqBzgc5j2Tq/3Wnl7FgrZzH6ZZFKgrDcsy4v8lEgn5mlIXuDZM6tCHcRG6bC8KNM8DqkfXCbWi/xk2Xoho/ONyGAzgWg4cF3YGvUiPtNBu15uV/98D83Y173LKaonm3sGqXdHUF3wZ4+7Xlme6RXNBm7RUKzwBWe+wEze5tmcevnZ4b7p1D5UntpoLGq+pDB19+dIfz1xs6Di1YfZKQbp8EkjtodoLJ5uM15s12O9kVQdnxlvmnrrzFeje71+W+P1Usg13j7kykt82lFm7cOptNJE49goTfU00nZxchL3ZOoAzLiZ8Vu3lmi8Te+H79KbjLtsZ9lbohE5O0ztUrd02dn1MOt5sveVIU+pcNcL+hQe5b42wfF0XVT12aiXQvJTASZxTidITR0djvogLY8q143GXG99AUQbFAqIhoMMF5HrQpDXFgcaB2hO/NdanCaP87ItBB6iId00vRfmKR7nGHKXp78LoFB3fdlbDJ4OwBYbeQO7fpW0/bpssl+HbV/YKk/m67LPUCc7YPtFiI701xM3C3a8OXkFeq1+JbvgKp8EO5RQqIMmJVzGg9gxW+lb5yIpEuq7I9xySToPERF9/G68RINRzsf+Tgk756HdqVfaq1fHc3qdF6z9pYmG+Rrr9zjP1XxM+nXb+YiGs25Z3wGpPz6hz+M09RvbOMvecujqde6yYnWWIhzX/h6Dv/OUIU9JvETD2qbT/BSErNup46nz6/yeh/UtCOf5kE8QhMIsJAvO+uCFfD/D8+YAbAoQDQeZLiLnxZOIx0n8fxJxUiIE8t9DNJx3ZeLsUh90ko/HuD8o4ybNAcjdqNk95SU8xkdrrDw5X8Ut+bJfue5Ifz1xs5CKZ91RBmxn7Sgfq7wdH1ZSTtR6lbU4eXO/4eMddNj8mJApviYZRMORdykz192vub800XB8FEvqQ5C6rWBH3Mz4qFseZa8+oGR+3yFZ9rKd845ehXvGzUSmPNlkEY1M69QxuMrevU61+kKW4Dvqgwfq2xnGTQfYdCAaDnxc2AI77VT3lG36onBdBOJQ3OmlhELfLWfpmhKUA0juxzL18Rg9EJ7u1Bize8fjQk5ziraDWU/cLDjiqb5r/YEmR/lY5eo+tmQf9zQLn3LscRrbL60KOT+Wo1TO1H3MNj5EQ/332rc+zrRjdoiCsz4UTDRUvo282GbmOVn2sp3T2aYdXzJuJjLlycZV7xWGQCQx1nnUH/c6+cpj8quKjvrgQr4bwuKymeOJIB2IhoMMF5GjCyHBTqLO6p6y7whNJ+W6CLxEI/mOf+lyydE1JbgdgPrK3P7UbB0V7nagy0Y+PC7kkooGY32gqY0mL5nlI04pQxeTsMbhMgNrnstftzCkNSDlOdUh4xMZnEkG0TC7p1T+jDJ0UzLRMOuW5NtuSXngLNNNFo2Ndk9JeJbuyiSuLy+C8gGi4cD7InIOVuqLxryQ0r4NnEM0dAvj8P7GnF1TQpoDiLOjqU31v4uzyd095VMI1hM3C+nxlmikMUih3Y0UTpZPhm+yJ4/DGnQ90NxM22ynLEK7u5Xa651dMw68RMM1EK5mALk/ZWqUX6lEw1G35gesz5aaxWHkyVmmmyUa+Q2Ei9h7tqbYkvlYs2ZcyXgTKD8gGg5cF9HqEs1EXqSwY1qkn28D5xINaS3U8TapsY3M3zL2dgBqnQwkilPJ9U3lYonGOvOs0nZNsVROU773rJ9XiE/3UdMOdqJaD1U67FBS4x4iuJxGljtyh2ioKbcT1Lsr6Jxyq0TEGvC3pobKOFE9HdZTOzcsGldGqbuD64a1ZOCnblnffk59qzxGM72N1NBlzYRzlulmiYYW3OSU27jKYyA8oI/ZNeV2ZVZ9Mz/txsDGdb2oCQoyRZfL0z7joLyAaDiwLqLU3U+GB7Byfhs4t2hIS2C7OZCrt/P6lrGnA9BOL5l2tm8qr0cI1h13HXlmFnm9+2Gu1LfCdXma5a1mTaVmKgkymyY1i8oDJRr2OaxhB5fh4T6zzGR6q/Ft9w2LhuzbnhThwGfd4huAkZawNeWW48j32x3frE6W6eaJhtw4OR7ua+xyPmjqerjPLNc0XNeL+9ylzHmsYPOAaGwSclE7HN/j+C3jxzHPRSY+vC/rWAkAjzsQjVKTiFN8SZ6jMGdNPY7fMsb3l9OJ0djBZhoyX6kBwBYDolFi1BOv3KR/rsd4YhsAAB4TIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPDNponGyj9E6N6FCb0EAADgcWBTRGPtzm268sVqZfIfbBYP6FY0SrfuWUt3BnfS5T0DdMdaLAjLx3+FLh+P6qVSEqW5z+2khet6EQBQEDZFNJb/dytd/hw7Ezb5Xy4oB6fzlW4v0bKOt3Vgx1r9Wboyagk3RAMAkIuSi8an1xbSHHI5dlMVw4GWOxANAEAuSi4a0iUlQnHzr79NN15uUf+v7vx9HVo+ZHSg96bp6oGvWIJX/RX68O2r9FAFWE7q6tuv0Ae/81kOZ/v6K3TzzlVabDXij1ylRyq+5VBnf/AmzX/9CSv8d/bS1dkHOtTi1thLRnov0fVrOoCxth+guWd+I5nX+7MD9GHYTs9rf2Z8yfOv0Jz26aljXqaFPRx34KoVIHzYRzOf20PXbullk3vv04J9jE88QR90n6P4mhXkFo1Hd6KO8rsyME33dZh0l9383h6aqeawz/0GzeyV8tNBQsayF2Rbzv8TOmzwFbpSJNGQLlU/3aroegVbkZKKxq2/7VUXvD2W8YjNFpFP+r6nY5UHnqKxdpWd6Wfpg8j7lGCnmLh2kvP/BXa64ugtBzxzdIxW7hE9vBWl+We0Axu7yvEfUPzcS+x499KiTlQ51C8dousfPaCHa7cp1i9O7xDdSFjh9//xEIc307UPH9Aj3v5WxAq/rscg1PZP7KT56FW6d4fj3OH8PLGN5s7dVs704UcD9METX6GrH2WIn1E00o9fLTe9SXf1copluvb1z9LM8XN0l8vk0R127LxsC45DNNbep6vPcNgrURX34a1zNPclFqf+95Ww3Rtt5uN9iW6IMHF53Di+LbXPrGVPdHdkr1WW17gsE8tWWRZJNOa+ul1ZNlGQMIlTTt2vABSCkomGdEvNfp7vcNlJ3X7zDb2WHcWFCbVOwj69ZtzZbjJeovEo+hJdfrqPPtHLwif9dXT5hDhFccDP0ILREliJPEOX/2CAVvSyLSy2kxaHOhsxjnltmua/yKL6j+IIrbv9D942HdNtutbE2wxaoyuy/Qw73CQsLPdusdPUi8k0hjLEzyIadOtN+iDpdK39OvOiUS0QdtZa6IRHH56kuYEoibaZoqHK74vfoZu6FSI8mv4OzTzxEi3zOrX/F8dSLY9b79ONc+8r0che9h5ltXaOPiySaMjMP6mzmYTDFgyp0w8u/UyvBWBrUDLRWDr4J+pCW/rmfr0mxbXnd6uwcuqm8hINtY7zmWbKKYoDdjqp9DQ8REMLgM2NNnudxK2jqx9a621ir3wh6YS9tr93yeie0maKjDN+FtEwhUJaMJm6psSZO4TRiSkaKv3WMTL0Raety+06///qZ+nyM3vpw4E3KcatBrtrLXfZf4HmL1lxLdLPRyHJJBwQDLDVKYlo2BeYdEV5tSbMVki5DIqnO3y97oWT6g46nXQnlZ6G00mnO/EHdL01u2gsn2Cnmkk0rg/Q7Oeke2pZdeFwDHUHvjHRILr79h51vHekm8yza4rJVzQ+Nls0DLeWVqbHaOHEXpqt/izNfm9axc9d9qUVDcEtHBAMUAkUXTTkQkqNW3xXr01HwmxhMe/cNot0h0+UOMfO0xhzULBztu6G053U+kXjfbr69Pq6pxzbiwN37O8qLfzBxkXDbmFceeGz3l1Tglf31MfTdOPiVeXsTdHI3j3FYnHxHN3k1oWNCtNTnbOXfWm7p0xM4YBggEqg6KJhP5MhYpAL6Z6SuOUweOglGmrM4UvWYPcdcViJq3T9aB19MCJubWOiYQ/eJge6v8hOUjtGayDcCB/ayw6Wl42BcIcIzL7CTnYnXZ1epgf3lik2wC0F3t+GRYNFavEF6QbK5nzXPxD+Qf+0Hgi3JgvYA+GxV7bR5a/3UUwyIMc7wPn50isUU9tmK/v0gfDlV2SWVfFFQ7CFA4IBKoGiiob5TIafQW654Oz4m91N5SkajEwZnd/Lzk3y6ZheujHRmD0xQHP2lNuvNtOCe8rt24do1pxyq2dCCekiwA5shOPLlFWVtzFaeDE1+L1+0dBdVB7l4MCccqum0UbpnioTl2gwjvJzxaW1ZbrRbU+5TZ9inLnshdJNufVChAOCASqBooqG3S0lz2T4pZyf3Sg0Xk6/3Fg+zq2GMs8jAKB0FE003M9k+KWcn90oNOUsGg/v3aZ7s/KcR4ZZUwCAiqQoomHOhsrHJI1yenaj0JSzaKhZWk/U0RXjiXIAACiKaNjPZBTCKqGbCgAAHheKOqYBAABgawHRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4Jvb8bsQDQAAAP6AaAAAAPDNpojGGxc+pdC37ymT/wAAAB4PSi4aU1cfUaD1rsNkHQAAgPKn5KIxMPFpmmjIOgAAAOUPWhoAAAB8gzENAAAAvtkU0QBbkKVBaqruoCm9mMbyLE1eiumFHKwn7mPM1PEaqjoeVf9jkcbkfy8S81Gamo/rpeKh8rF7kKzSj1JndSMNLamFdCrkPAEnEA0HSzS0my/kasNq66ihZZBmVnQUJnFpkNp3BK3wYJgO901TQodZF5ozjW1f3kedw7NWnLV5ioRrqL4jamzDLAyw062jzgkfjuFKHzVUh6g76kiBFgf4gq9ro0k7iflhag/XUUDlM0QHTkxQbE2HuVDOwsy3HHdzD00u6wi5yCEasaF9FAj10JxezobfuCrPtY004nZqKi9ZnF0huNDhKK9AHdeDnszl68V6RGPqRJACB0cpe+1w198g1T/fRiOX/IvNekRjPecUbB0gGg6si64pkrpKEvF5Gj8SoqpwH82JQ4iN0uHaEHWe1XdYsQnqDAXp6Cn7wrREo/OCXlxLUGy6j5pqg3T4pN5GO/3eaWtR9jvSyE6h5YxTSLIw1xumqlAXzdhOShwl76P9tM7H2jT11gWpaWCeEirfks8aOjDsfWfodBbGcZv7yEaulkYRsIUu0JjKt6JkoqGPl89xnFsCkYMhlZdFn8KxHtHwh6v+ri7R3KkOapD6esGfcKxHNEBlAtFwkC4aitUz1M6tAHHy8ffaKNw87HBS5sWfJhqama46qjJEYaYrJUTxk80UqG2lcY/rWtJOy48gosAi0NA7zwsxGtvvEh0PxznXw/vM4JjcoqFYYYGsrqfIFXuZHWNzmLbJXay7haX210Zj0R5qYrGSu9yGltGkA3Wkv564WVDx6sPsFA1BFjyOffF0W3Jf2xt7aEpajur4zHgitDUsvPZRJWi8pYbCqoxdmKJho86JKy/xaUeZtQ+n0koTjWOjNNXTSNtrddyTqQNw1rFMeNdfVb9M8V9bovE2vR9uUTb1RCnuWfaWaETOcotVtaytspvR9dTveQJbi4KLxj+zF+wf/1T9ZuLug5/TUPRTZfI/EzKrSqbjlm52VW7RcJNYGKX2kNlV5C0ac731VLXf6F5YjVI3O/2mnj5qdzs9g4yiwSSiHVTPF3V/byuLTjONOZKQbjCjpbFitYgy7cfTAZjHrbrV2Ll3aQejWy6WaDHKUddQ/RF2/lwUidgZ6mQHfPikdcSO9NcTNwt2vLnTruN3iUZioo1CoQ6alPC1GM2wY7bSt853UiS4BRjmfAWSzllExPu8e4oGo86zLd7snId2p86BqiucXucFa39posGtz/ZTSxyXW6d8cxKq5mPS3aL5iIZ1Hm3xj9PksTqqPz6hz+M09RvbOMveqsuBxj6akRWrsxThuKEuq0D8niewtSioaPyd6xkMWXYjIlF/4l4yzu9/Z9VTOGRWVY2RVmlmWXlcdLaTqWMHsarXMdZFzhcyO9XDg+adaLpoxC+5uqc0ypmpizLzhZdNNGwHIHeATYMecZaG6fDvSh4tC+uL3Ys0ByB3o2b3FDvJQJ2rq+piF4VquVxknXLU3FoyykjyHugwnKKd/nriZiEVL84tAqOl5RANlzAIyok20siy5eTN/YaPd9BhOU5ZIenYx+cmg2g48i5lVs+tSRViYe4vTTQc3ZNSj4J8M2It5SUaZp30KPsEi26VroPOspftjJYmo8I944JKoaCi8eS3U2IgJstupHVhxhGTdW5kOq4ZR5aLj3XR2U7WMm6Sh1tpxKOHQrBaGqYgWBeoM40QHY3ogXADuVjVIPXuAUc/uLoY09KwzNmCsZylrG8acDkK3VXiHNPI0dJw7Suwk+/O9UC4Cnc4Ncbs3lHOyOlE05yi7WDWEzcLjnhqrEmP6ThEw+t8iOnwaRY+5djjNLZfWhVSByxHqZyp+5htfIiG+u+1b32cacfsEAXD0TMFEw2VbyMvtpl5Tpa9bJdqsQlpx5eMCyqFgorGVzqcjl6W3TwOopH5zt6bxYFdRteT82K3B87Tujji7MRloLp3QHXNOJx+Ik7xFcvGj9TQc32zyWUlABrVUqltpMiAtFj44l7QAUJUtwz0oqCc4E4WKL1s4nYAMuYSMLrTVLjbgS4bznmzRYNRffcye+ySWzQydDEJaxwuM7DmufWhy0taA1IHpjpEZO0ScJFBNMzuKZU/s0vSRclEw+yekny76oWJs0whGiCdgorGP/zTQ4ejl2U30hUlXVJ2nGzdU2Zam9Y95SI2/CKFDzkHwpVoJB2qSzQYNdPJcXHpbiXdwlAtDq+po4w4C8/8KNGxxUZ3z5jdXOIcXF0jSjRc62zSHECcHU1tqv9d0svdPbW5oiHnT2ahhXY3Ujjp7Kwpzg39rqZi8jiswe4Dzc20zXbKMraxu5Xa651dMw68RMM1EJ54T85rK00aXUGp/ZZONBwD4fMD1FAdpohZHEaenGUK0QDpFHwg/GfXHlHkJ5+q30yISEjrQsxLMGzKZiDcRF10qSm3mbqnTNGQQW9pVdjTYa0BbL5wkw5Jz37yuCv1Fo0E3wUb04AF3T2TzIfcXbLTlxk4VvfUNEXYodZnGNfwcgBqnb0PPRDexLfs1gBqlHp3uAfCiyAaMmOrY8Ca7eTC02lJ2jIryHB21uw0bpHp5xXiMgV6BztRrYcqHT5nqXEPaxZVtjtyh2ioKbcT1LvLEu5kV6Oe4SYD/ur5jYSME9XTYT3tecOicWWUujtGPVqMrvq7ukQzEb7JcUy51XVNBrelTGXMrreRGrheJFtHyTKFaIB0Ci4ajzc+RIOJR/vosH64Tx7qaneMV3iIBmN1nbCTucnh4kjczls5u/Qxh/jsBE0tpFIXEuyw6h3PeVjEBhuds4jW+3Cf2wFop5csD3bg/c+HjCm3qamaRRMNFdcatHaTyWkt8vqAy9ktDrdSg5pyW0PbdrTSkPnAm5o1lZqpJEwdZ8fqcOIulGhwnrVlfLjPLDOZ3mqcgw2LhuxbWnjWkoFVf1P5yvBwH98AjLSErSm3HEceXp3TUZxlCtEA6UA0QHkjXWDZ7vgrkPjwvqxjJQAUE4gGKGMSNPM3+6jb59PMlUGMxg42Oyc9AFBCIBoAAAB8symiITOhZAqtWGlmRQEAACgEJRcNmQllTqUVK93sKAAAAPlQctHA514BAODxBS0NAAAAvsGYBgAAAN9simgAAAB4PIFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvimJaAxcuE+/9mfL9JlvXPdlv9V6k96euq+3BgAAUC6URDREBLzEIZuJyAAAACgvSiIathD4Zb3xAQAAlIaSisZ6DQAAQHkB0dhUlmhodw11XtCLFUGUOqsbaWhJLwIAHivQPeUmPktDLWHaXltDVdVB2h5upkg0rgMLTTbRsMKaIlvNu0I0AHicKYlorJfNE40lGmkMUv2RUVqMJ4jWEhSb7qOm2hB1R3m54EA0AACPFyURjb8cuUt/efKuXsrNponG8iA1Ve+ioQW9rJk5UUdVxyb0EtHi6TZqqgtaLZHGHppa0QFLsn0bjUV7kuENLSxAazqcWTzZSg1BbsXU1lHTiQHq3ukhGiodaelo2z1IMR20eMrcdxuNu/JqYQlOQ/+8Xmau9FG4eh+N6ISypTN13CVWKj+2o7ecfn+kSx1Huqjp8OFUGWzfP0BzycaaFR45O0ztO1JlOGM25laiFGkO0zY59mCYDvdNU1KyfZRx4mIfHVZp19C2Ha00YhQDACA/ii4a/3Lt06QI+BWOTRONtWnqrWNH2DNLccMJmSQm2igU6qBJcb5rMZrpaUw5de3sVUuFvVwidoY6Ob3DJ7VHnO6i+lp2mNMcm1sxi6daqZ7j+21pJE63UiD0Io1csVpBcwONFKhtpXGP3rNYxMiXvbxvmCRqrnRyi0YNBUQs5+MkDTInVrgqg1VejE1ThFtvgSNntOO3t++jGcnc6ixF+DhDXdMqlNbmKRJmIeiKWucgNkGdIRbAXu35c5XxwgC3DDmv+thEpEN1HTQleQEA5E1JWho//MnquoRj00SDSVwapKNP8V2q3OG29dH4rO12BcuRt582POXqGWpnhzoij5Uoh8bO13BQ4oADHVH9P0ihE9o5Kjg9r5aGwi0a1vKBYTM/MRrZ53W3z8SG6UDS0VvxrG1zp5NbNOopckWFeCDhrtbaxS4KJcslfXslaI1a4C50UKCui2ZM0Zbta9nxyzofZRy2BUbBIlQfpG4rGACQJ0URDdvpZ7JcwmHH2zTkDnV6mCItjWpAfNsuu/vEuktOdhslTTtU5dDYuUlUjTi0quPisSxnnbwjVljr/ImGt7Oe6arT6bsxhGJllA4nu6Zyp5NbNOz/XniEr3FrIcv2ZqtI/W+xWyUalX+9jY8yTj8/mcoYALBeNkU02t4xHWc6dryyQLpL2BFZ3Sfi8Oqo12wsmGyCaEx1cKvIUzSI4sP7qGr/KMVOtya7pvykU3DR0K2xTNvnFA011qS3WXcZAwAKSUm6p+TdU34FQ9gs0ZC+/ip31wizOLBLd59If7trgFmw42d1aPK/hN1Tgm5hHN4fNLbLnY7k+bkBI818RUMNwpvdU5lFw1/3VKYyTtDkEXP8ROM6nwCAjVP8gfCFh+sSDGGzRINWo9QdClJDx4Qx5XaQjvK6pkHLy8VPNlNABrMvWccSlym5O9jJiZfKIRrugfC54RezDIQTTR7jFk5HlBIJywVaA9jsfBesvM0NNrMz5eWMxRqnsf28f5eTzpWOcuLhLpoSL746T+NHQkYafkQjNVBNiXkaamSx5DKwjiKHaOiB8CZuzlkD4VHq3eEeCM9RxtUhaj9l7SCxMErtTzXTmKmRAIANU5KWRtvJuG/BEDZNNISVWRpp20f1Mi2Wnd+2L++i9sis4851cbiVGtR0T2tK55AWkJwOjfE15VaTYEF6TsVNpZnat54qm2M6qeqiMmZR2WRNZ22Jxg7VU4CPL1AXpvauNnpuXaKxi7oHupJTYsOHBtOm3GYUDWElSv3Ph4wpt3omleCjjOPRHjrwZev8BOoaqXcCigFAoSiJaKyXTRWNLYZ0iWXsvioKuUQFAPA4UxLRWK8IQDQKwGqc4rPyzELqgb7SANEAYCtTUtFYr4GNo2ZD1dbT0ZOl9t4QDQC2MhANAAAAvkH3FAAAAN+URDR+7YD/74Pb9l//4qbeGgAAQLlQEtGQd0+JCHiJg5eJyLzG2wAAACgvSiIaAAAAtgYQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDdKNO4/eEAwGAwGKyO7fz/9Nx8z087DIBowGAy2FcwWBvPXNDNuHgbRgMFgsHI00/m7fzdidrp5GkQDBoPBtoLZwpDpt0AG0YDBYLBysFxOX37zMUmjAAbRgMFgsMfZbEHw+jXNjp+nQTRgMBisHM10/vZvPmamnYdBNGAwGGwrmC0M5q9pZtw8DKIBg8Fg5Wim87d/8zEz7Tys5KJxd/UBRS7coeDxm/RFttf5v6zziguDwWAwn2YLg/lrmhk3DyuZaCyv3KcTo7fpN1tupH0TXNZ1nrqt4nhtC4PBYBVnpvN3/27E7HTztKKLxvvX79OfvXGLfqU5JRafO3SDOt69rUz+2+slzgGOK9t4pQWDwWCwDGYLQ6bfAlnRRGN89h7t/N4n9Av7Ui2KL/3VTRqcjDu6o+S/rPu9zo+T8WSb//XdmErDTBMGg8G2rOVy+vKbj0kaBbCiiYYtAL+8/zp9/dVP6OJHuQXgn+fu0fP9n9C/5W3s7b3iba6dp29V19C3xr3C0u327HmanI15huVt86/T3urjNOkVJrYwTecuLnmHZbNc6eZjG80TDAbzNlsQvH5Ns+PnaUUXjaVb3uHZTLbZTNG4efF1evnZ7RRgcaiq3U5fO/Q6Xf7YDl+faEx2BCnQ/A7d9Ahbt40fpyrTmedw7tf+fi8Fnuymyx5hWa2IorHhPMFglWam87d/8zEz7Tys6KLhFZbJ3ruUao1slmjcPn+cnq5+kl5+Z5Zu3uHlj2fpxy1PUmDP6/ThPYmzPtEoqK1TNDZsxWxpwGCw4pgtDOavaWbcPKxsROP7Z++o+H/+5opa3hzRmKXXnq2hr/XMOtff+hG9XB3UQuEWjRhdfq2FvrY9yA49SNufbaF3r9hh3NJo49ZK23n1/9pre6jqyKv07qFnaZu0YoLP0stvzdPNyW7aa2+/p5umkq0aVzqyjTa1f+Xcj9G751Pbf+3QO1rc9P4aXqdrdjpX3km2oALbed9vuo7TNp3uG2/xcQVlfx7p6mOyzFUm9+bVMW6v5W1VS+1N7zzlyL/Y7cle+uYzElZD255pobdmU2FZjydLHmCwx8JM52//5mNm2nlYWYjGD8/Hk/GPvrWJorH8Dn2z+ml67ZI77A59eP4MTV65w/+dDvLmOwcp8ORxOrdkLX/46h4KPPsqfai3TRON2j302k+X6PY9TvPvX6BALQvF3l6aku1vTdMbe4L0ZOdPVfw082xp1NDTLexopVW09CP61vYa+uZb1hiKUzSm6QdPBmnvq7O8b4576VXay870lUmdlmlp6Z6hbz3JYtpnOeVconG5W1pmr9Jl3vb+nVnrmDqsY0oXjcz5v39F8riH3rjE5S7lxSL25HY+ftXlmf14suUBBtuSZguD+WuaGTcP23TReOOf0gVDzO/2BTXlxNhJzXuEJc11V30rRjfNcRudxlsL1nJ6S+NMKu49dsaS1hm9bMcxWwemeYpGC/3Y2L/sL3Dc2F8yLcn30/SDi3ZcUwhT2ytT6R6jc+Yd/7stVLX9BE3x/1yiIXl4tns6GX77ynk6d36ebvP/dNHInP/JtiA962j1cUvw6SB957z8z3482fJgr4PBytpM5+/+3YjZ6eZpRRONX37Bcvqf3LEye+Zy+uypoX+OJ6fkmoIh28g6ScOMX3TbiGjci9FUsntKunLEUmmkiUYWZ5uMsy7RcI49pO0vmdYdmur5Gm3ju/G9h7rpjbFpupmpu8YjXbnr/yO9Ltdx3P5pL/1RULraWugHr52hy7oVJpYuGpnyP09vNNjl6TRrP9mPJ1seYLAtabYwZPotkBVNNP5Ly7Jy/LNLq3ToH1bU/7/7SequVgTjF5vSBUNMHu6T9ZKGub7olrF7igvqY25RSFeHy0EqJ6i6p/SxuYSnfERD29I0Tb7ZSy/v2U6BJw/Su14CmadoKLu3RJfPv0mvHdpD22ufpNZ35tV6R558iEayqyqTZTueDHmAwcrScjl9+c3HJI0CWNFE4/e7Y8rxy7ulRBTkv7Qqhv9fnN65eDejYIjJNhImabjDimt6IFz33Scty0C4OLm9rxnOSDnXMhQNdq7n5G48GXeJ3trryrttKt0c3VNmN5vjONhRjznv7G++uTeZD/+icYfOtQQp0PIjZ5eSnaesx5M9D/Y6GGxLmC0IXr+m2fHztKKJxl+duq0c/67vf6KWbeH4N39ynX6JLZNgiDX84BMVLml4hRfTbrNjfrr2a/SdMT3AmmPKrQy4VjV00xS3NG4v/ZRe2yvdVEUSDSVIe+mtBd6XtHrWJRrciuK77Zftu2016Bzku28PYVbpZh4IF/EK1L5Ab8n4wZ0lmurZo2Yw2aLxblNQbXtNyovv9n98hFsB+lkV/6LByz89oac/W3m+LbOlvvoCvStikPV4sufB3hcMVtZmOn/7Nx8z087DiiYadheTtCiuxawM28KRTTAkrt0K+WCT3kF183wvfdN+uC/4JL1w7M3MD/fpqZ0yhTawfQ+98s6r1Gp0cRVUNB7wvg4+rfK19/Wl9YkG223zocXgs/TN3p96DwyrdF1Tbo/9yHLAKk6Mprq/pqcNc/l0n+BjNo7j42l6w57uKtu+0JucRrwu0WC7eb6bXvg9a7xIle+Z1NPkWY8nSx5gsC1ptjCYv6aZcfOwoomG2Fe7rPdJvfB3t5LrRCwyCYaYxJVtZFuvcBgMBqsIM52//ZuPmWnnYUUVDXmXlHRFScthYvauZxzTzr9vjXXINj+dx8sKYTAYzLfZwmD+mmbGzcOKKhpir7xnDWr/+sHrNPXRqmccsX+5uqriSNyeMx7PDsBgMFglmen83b8bMTvdPK3ooiHWHLG6nP598w01e8odLk+ES5jEkbjucBgMBoPlMFsYMv0WyEoiGqv3nYPgf/r6LdV1Nfqzu+qzr/b6l7KMdcBgMNiWtlxOX37zMUmjAFYS0bDt3X+5S7/1F9ZDf6bJupGp3GMeMBgMBnOZLQhev6bZ8fO0koqG2J17D+j743foCy/fVCb/ZZ1XXBgMBqtYM52//ZuPmWnnYSUXDRgMBoMVwWxhMH9NM+PmYRANGAwGK0cznb/9m4+ZaedhEA0YDAbbCmYLg/lrmhk3D4NowGAwWDma6fzdvxsxO908DaIBg8FgW8FsYcj0WyCDaMBgMFg5WC6nL7/5mKRRAINowGAw2ONstiB4/Zpmx8/TIBowGAxWjmY6f/s3HzPTzsMgGjAYDLYVzBYG89c0M24epkSDAAAAAB9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwTdFE452pB/Tfjt2kz3zjum/77dab9DZv9/gRpc7qRhpa0otuLnRQ1e5BiunFjRKLNPpOR8U9HtVL62RpkJqyHQ8AoGIpmmj858PLnsKQy37pT67TzxYf6lQ2kfkBaqiuo96LejkrEA0AQGVQNNGwRWA97O5bUdt8/uhNSqzplZvETFcdherqKHDkDCX0usxANAAAlUFZicad+z+n3/xzq4Vy+M07eu0msDZNvXVhilwYpgPVrTS+qtcnidNMTyNtr62hqmCY2iM9dNR0svFp6m9kwamuoW07Wmmo58Uszj5Oc5FWaqgLUlV1kLaHW2lsQQe5cItG4tIgtYet/QQ4v+0nU15exT02QGMtYdrG4SqfRriweLqNmuz9NvbQ1IoOgGgAADJQVqIh/NPcp/Sv91nbyv/NIPFeKwWUc07Q5JEgHRh2uvv4yWYKhFhMFrgNkojRTG8jO27bycZobH+Q6o+M0qIKnqZIIzvmDKIRP/Uip9VBkzpwcYDTCg/QorXowCEaK6N0tDZEnWf1hvMD1FTLQjdvLaq41SFqP7XErbYExc52UH11Kjwx0UYhe79rfAwsgsm0IRoAgAyUnWgIR4fjaltpdUjro7S4hOJiF4UcTnyJhnbXOIVkbSLVPaUc7j4aMYKJHXTGlsZqnOJmS0Y77JFlvWzgEA0WgviK2XFm5atp0NqL1dKYUP8tEjTeUkOhrmn+b8VtP21sv3qG2u39QjQAABkoS9F4+Iiotv1jtf0f/a3dZ1IiYsN0oLaVJm1HbndV6Tt0a/yijnrF9yYxxjRk/KKui2asAItsYxprcZpJdk/VaPN22A7RYOJG95S9bVPE2lDFdY1pLA7s0uskv6ltUmYKH0QDAJBO2YvGH/aVVjSsbp10hxo6YatEYUVD7U91E+m7/iwO2yEaKp7VPWVNGtAtDd+i4T4GA4gGACADZd099blDpe6emqdIOEidF/SizZU+CosQGM65UN1TU8dTjl6xMEDP+RGNNCHifO10iUbG7ik5zhpq6E82nyzsGWsQDQBABsp6IHz8/RIPhE93Uai2g6bSpvuyk60PUvt7VmvAPRA+1bUry0B4lHp3Zh4In+sJcVgPzXBLQw2a75NuKh+icamH6jle/zS3NFZjNNO/T82ScohGloFwdQy1jRS5FLeWp/uoaQcLoxwiRAMAkIGyEo3NnnI7cyLzcxlzvfVUdXBUhxVwyu3aUnJabKCukXpPDXBa9RS5osMNHKLBLJ5spYYg56G2jppOjFLkYA2Fey1VsFoazim3naedOVgcTo2lqHxqAYFoAAAyUVaiUU4P9wEAAEinaKJhtxjWa2XzGhEAAABpFE005IWFn1/nCwt/q/UmDV98HF9YCAAAlUHRRAMAAMDWA6IBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAZwkPj0U7q1coeWrt+k+Y8W6f0rH9HM+3OwCjI553LupQ5IXZA6AYANRAMobt+J09WFJboyd5VuLH/My3fpwYMErT16pGOASkHOuZx7qQNSF6ROSN2QOgIARKPCid+9p+4qFxZv0F3+D4AXUjekjkhdkToDKheIRgUjd5FzH12DWADfSF2ROiN1B1QmEI0K5OHDNdXdgAsfbBSpO1KHpC6BygKiUWHIRS5dDLFPVvQaADaG1CGpSxCOygKiUWHI3SEEAxQKqUtSp0DlANGoIKRLAV1SoNCgXlUWEI0KQWa8yAAmAMVA6hZmVVUGEI0KQfqeMUsKFAupW1LHwNYHolEByENZMscegGIidQwPAG59IBoVgAxUFrOV0Tu+Sntfu01XP8HT45WM1DEMim99IBpbHHlvkLwGohj8/OdE+wZu02e+cV3Zfzq0TB9+vN7pl3Gai7RSQ12QqqpraNuX91HvREyHgfxZoqHdNVR1PGotTndRfXWQDp8sThlLXcO7qrY2EI0tjrxwrhgzW0Qwnnt1JSkYtu383i0dwx/xk80UYCfWcGyQxs+OUuRQPS+HqDua0DHKnSh1stg1Rcr1DtstGj0Urg3S0VNaNC50sFg30lCBsi91Teoc2LpANLY48qZSefFcITEF49/96Q2HaPz12Pq6waaOs0PbOUCpIdQYzZyK0uLjohmPm2i4KbBoSF2TOge2LhCNLY7MaJE3lhYKEYw//IElGJHJ+/SPswn6hX2WYLzw+m0dyz+L/WF2WiFqP7VEibSeLS+H53LSa3Ga6mumhiDH4xbL9nAr9R7bxf87aMqKwYUwSp2NddyC4TjBEB3o6aKjDkefvYsscWmQ2sPG9icmKCZ5VQ5X9mubt/ONTXTRgS9baTu2Z5Ro7u6hkZ5G2l4raXCrq2WQ5jKNJ8dnaaglnIxb/3wXTS7rMGHFCt+m9hWm9kiURlr4v12GS4PUxGGdF/S+k3ln2z3Ikp0fUtcwi2prA9HY4si3EQr1evM1TsYWjP7zq2rdYPS+Eo2NCIZiLUbjx6RLip2WONS2YZpJPrCeWzRmukLKeT7XZnVvDbFgqLRs0YiN0mF2sIGnmql/eIImh3voQMhyknYai5FGCtTWU+fwLMVWlmgm8iLVJ7vIpqm3roZCLcM0txSnxQs91FS3i/qj7NVjszR5to8OcFphzvfkWW4hWcWSYmWCOp+qp6P9HLbC25/toAbOT33XtAq2HXdgZxsNnZpg8djH+66hhv55Fe5gjcujMcjH0kYjs0sUX5qmoYN8/CE+VtnvGudVji24izojozR5apA6d3J8ERgP0YjPcnn07uP987EP8f8oC7cVa8NIXZM6B7YuEI0tjnxUpxA8ZMH4n9+9lSYYG21hpCEOONLGDpnvyNmBd1+QW+0corF6htrZITb0mg42TpPH6pKioVoyta00bt65Lwwox6nSWOP0OI1wz6wOFBI0LnfnLWf43zxFwuzUG3toaj7u0Rry2T2ViFOcRSPOXnnyGKet7+ot0XjRyF+cxvbzukaPu35u2QTYwfdf0suClAHvv/10ghLvtXJ4mCJXdJggQsKi5yUaigJ3TwmFqnOgPIFobHEKcQGLYDzzfy3B+N5ZSzAGLhRIMNbY2Zm3t3I3LUKhnGYO0XA7QE2MWw62aFjdP24HnJ6Go5vGNnu7+CyNnGim556SLip391EO0eDjGdmvu7aU6Tt/UzRc+fPOs31cdjpOk/2bx22i0oNogAIB0dji5Ns99SnfWWcSjOd/mG8Lw7oLDqg7+hSpO3EtGmZ4bFh1Byknre+ys7U05nrrs7c0dGvlwLDTRceuzFJctypiF0Zpxg5OTFN/Pee5wxay7KIRGxRH3sh3//oI1rglIa2YDYiG1ZLYRyNmwFqM5matFeXQ0kD31NYHorHFyWcgXATjq//nEyUQ3T+2ZkX1nVtNCoYMiueLOFW5ew/v76GRsxN8R79LDeLaQjDTJQIgg9fDNHlqgI4+ZQ0o207aPaZhTdllJ5lxTKOLnlOD5qk05vplHMQYF2mTPASpaZDD45aoBJ56kSKnJmg80qbGJEJ6TEJEo1vCd3Zw/odpynTYjEwptgb65ym+skRzw20U5vgbEQ1am6fITj5+c8xil3TnNdKIHIo9plHrHNNQrZFMohGVLi9uPXVw+Q5HjVlsGwMD4VsfiMYWJ58pt3/cbz24VyzBsImdTc0uCtTJjJ/UXb49W8iaDWSJRz+3PpJ39q7ZU9J1NN7j6qYxZk8F6hqpd2LY1TqIK2euxlN0nE528knM2Ve1ddTUNkqLxthG/D0WEr3/3ot6pQ23BCZPpGZG1T/fQ70H+f9GREOQrrK2VHrbG9to3GxombOnOK8NLTI5gP9nEg3ey2SbXb5daV1b6wVTbrc+EI0tTj4P9335RIx+99uW6+o5c68ogpE3iSWaueR0rzMnuHVS30d2z3p8dpoWze4p3cUlg8egsODhvq0PRGOLk89rREQ0fvXADar7q5gSjD1/u1JegkEJmurQ3VMnZMqrq2tJkDtr6T7S3Usy5fawdHHZ01RBQcFrRLY+EI0KYKMvLDw4eEcJh9iBv79Dj8pKMDR295TZtTQ86xhYV91Lz4esLhgWlIbmHucDcaAg4IWFlQFEowLAq9FBKcCr0SsDiEaFIDNaivl6dFDZSN3CrKnKAKJRIeBzr6CY4HOvlQNEo4KQmS3FeE06qGxQryoLiEaFIQOVsU+SbwQEIC+kLmHwu7KAaFQYDx+uqb5nCAfIF6lDUpekToHKAaJRgchFLneH6FIAG0XqjtQhCEblAdGoYOTClwFMzKoCfpG6InUGNxyVC0SjwpEZL9LFIHPsIR4gE1I3pI5IXcEsqcoGogEU8lCWdDfIayDkLlJePCdvLC3UV//A44Occzn3UgekLkidkLqBB/eAANEADuS9QfLCOXlTqdxVyrcR5KM6sMoxOedy7qUOSF3Au6SACUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfKNEw+uTjzAYDAaDuQ0tDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL65Hb9L/x+9mrpYDPCePwAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d1f31857204fb</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Ce Info Software Solutions Tally Services Provider &amp; Partner In Delhi Ncr  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       285 street No. -27, 100 Feet Rd, Chhatarpur, New Delhi, Delhi 110074      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADbwSURBVHhe7Z2Pcxvneefvz8ik7V2v7bSd6UzuR9PWN8fkeGDKCtMMMfUIV49x0RipzmLkwFcrZGSLJ0syQ0VyWNLhUQlPTZjQoc0zbbg8ccRYtBTJVkVTZci4YtnKZCKTsUxKlBBRgn5Bovy993n3XWCxAIglQUAg+f3MPAPuvrsvdpfg89n3x4L/CoQQQogH/rp+FygNQgghnqA0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHimZNK4ex/4u7E7ePrVBXyh+Sp++7nL+P2Gy/pnWdf3szu4t2g2JoQQUpaURBon/iWBP/rGPD79tUtLxiNNV3DqfMLsRQghpNwoujRaBm8mpfDZF+bxwpEbGPr5PSzc/kTHmZ8n9Dops7d76e2bZm9CCCHlRFGl0aqSv0jgd567jKPn7uKTT0xBFqRMtpFtZZ9vH6c4VoNYNIKK7X2ImWVCCCmEoknjnQ8SOvn/5tcv4Z8+vm/WprBbFW7G1bayj5RJHQ+Dux8cwd7mP8dn9j6CT73w59j+8jFMxk1hubE4h9FDdQj5q1BRWYVNj9ahaziliHKWRuxMBxoeC8BXGUH/nFmZQRzT0SbU2ue3ZRei59J/GbHhDtQH/Mnz73GU6/NX61PhR024Cf3n3dv40fJu9s/bbE9Y79s+YlYQsoEpijRk0PsPTXdT19BtszadXNIQXlb7SJnUceeeWVkqJn6AL+59DM8NfIDL1+K4PvcBoocfw2daXsfMA7NN2TCHwYgfvkg3JudUwltMIDbRjfrqoEpwVlIsT2kkMH4ohJptHRiamkN8iXuD+LFd8AXbMGpOIH6mDaHqPTi1YC1jphe1Sjo9RgLu8ozzT8Qxe7wJocowohesVUmx1A0oRbmZQTRsCYfSIKRI0nj9p3d00v9s4zwe5OiSWkoaso89cP6Gqqt0xHG0/RGE+j40y4YHH+C7+x/Bcz8xKeXjI/jy3jZEf/IthF5QrZG9X0Do5TO47pDK3fHX8VzzF1TZI/jj5m/haLLKcby0dwdeOXtMtWak/PP4XNsrGM/MVnlJvNsEX3UThlz7TneFkokyI2kuzmCoOYKaapUIqwOobz6NWeestYsn0BKWu/8q+AJhtAzMmAKL2ZPN5q5e3bFHOjFuJ29F4lwnGh513PGP5TgpSfTBDkzmmC03fkiJcPcJ9duIq2MNYV9aM2QM7Y4Ers+18bTSkM0c+rdWoeWktSa7NBMYaqxCsGNCL+lt6urQICJJP13gXAeCAVWm6iyGNG7fvq0jH163I6TYFEUa215e0Al/qXGJpaQhyL5SXqvqKhnXTuK5vVvwyi/MsoPx3kfxqR+arKGl8Xls7/sA15XT7n50Bt88oGRz5GOr/CNV/sIORH+hEteDBC6/8y18YX8bRrT/RBqP4DNtr2NcMln8Q7zy0iP4Qu8HUrgsJjsCroRpiE1h9MyUvmtOT5oqCTf6Edo9gGnZKTGDfmmpJOuYQk/Qj/reGSRUQk9c6FWtlgC6zulCJIabEbTv+hdjmOx01L1wAgekhXPGvJPc8VfWYdBaTGO2dxtCBzvRFbHlpFoKji6lxPlhDJ3PsqNqSelWgjqGcZM/x1ur8HRvet/W6MEq1EetdZ6l0Xoao/v9CHc5rZHQ62p7TqN/e3Gk8d3vfhetra1LCkHKZBsJQh42RZFGxTev6IR/7qPMsQybfNIYv3hfl0tdJUPLQCV7k/udXB7YgU+9dASXZcG0NEYcLYvrx5/Fp158HZJyRl7+PDantVaUGF78PF76R/lZpJEuJl132zGr7mUgCbOidcwsZSctac71od6dyGMD6g7bHlOQu/gQes7rEoVK0mPD6nchSlF38Cpx2nfwmtun0aL2HZxXP+u69zhaPTFMnxnGdJbcr4+7OoLohCoUERxrQrB6F05l2dbCem/dhfTFXRh05HWpyxaEjXNdNmnEJzrVsQaUBKxz0dvsVC0b3apwtID0tZHrZb1/MaTx8ccfY/fu3TnFYQujvr4eIyNFOABClklRpPFbz1pCuHEn93SpfNKQfaVc6ioZy5WGLjFI60Kvu4qoajlIt5Q7XhqVDa3uKed7pNWdhrrTPejHpoPDpiWQzrKlMdKGilA3pnWJzQS6AnZCTGCyaxs2SbdVYyf6pbWS7EKyuoV04k4LWzhzOLU3BJ8/jH3N3RicmNOtlUxiGIxUue7oZxANVWHfsRzdWTZ2S8MhGE/ScB2zu9stdY1k/CI1IK7X63GO4klDyCUOCoOUI0WRhjzt7VUa0v10827mdrY0ZApuyVhW95RLGr94HZsd0kiOf2SwetLI2T2lkmt8wZH4lpTGGA5XuxJibArjA91oke6j4B6c0vlXpBFAl9Wjk5PExQkMRTuwb4sfvq2dmMy4eba6hpZK9EtjjVnYgpH9lt89lY5zm/hAnRGFUyBZrtEq4xYHhUHKlaJI4z/tt7qnpIspF31jd/C7uyy5yKD3z36ZPk1Kpt5KWUm7p1SqyD4Q/iFeac4cCHf+Kd898y3TPZXA6c7P4zOdI7hryjTJrqzlSGNp7IHwUVdizjkQnq97yjEWYqFaBXV2ArZmEdX2OFsICtOaSFwcw+iYal1Yi2q9swWTTqbs0kWQIqZbLwcGnAdsbWt3k61sIDydtG10l1sYUSW+VFdV+uB7sXCKg8Ig5UpRpPGVH1kD4W15HtCbXXiAmraY3vbX6y7hxR/HsWiSq+wr67/SXcKBcCHHlNtPHfgBxu3Er6VhBsIlN8VG8NKBR/DlgatWuanjm6etZT1Q/uLzOKr9t3rSkGc0ZCA7tLsPkzF1IHmn3JqB8P0nMCvHnZjB4E7VmrCTbuwE9ql9W46bO/fYabQH/Dhw3KpLT3+VsQh7equ81xaVWGXniQ6EHGV6EL0y6BgfcSDyst8nOaaRkp9zIFw/I5EcfM/snnJPuY3p8lRdy5aGuhIy+C3dWClBlkYagi0OCoOUK0WRhnPK7X3HYHE2ZHrtoZ/cxL+uv4RNrVf1Mx6yj+wrdZR2yq1F3of7tDSa0DmQmnL75VdH0qbcXv/HV7Bj/xf0WMZnvrED3x0xQllNaQh6Cq39cJ88uLYLPUs93Ke2H2wMO6bcKoE4xh4S5/uSU24rZHyie8JxF6+S+EATau0H6ba4HpIb7khOuZUZUe0njXyyoN9nS/Z6UlNuFYtxjHfvMg/3ZT6YJ6Q93Oc+pmVLQyED4mktstJJQxBxUBikXCmKNCTx298llevhPjfSHRW7aY1tyD6yrzzcJ3WVHdnGNAghZANQFGkI8m21kvjlK0GWmnrrRrZ92F8jkhdKgxCyQSmaNAT5tlpJ/jID6sfj+b+wULZZE19YSGkQQjYoRZWG4P5q9H1HbuC9X9zTXVES2b4aXfYhhBBSfhRdGoLXf8Ik2/CfMBFCSPlSEmkIMqAtz2bY/+719xoy/91rWQ56E0IISVIyaRBCCFn7UBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDMlk8bd+0Dfz+7g6VcX8IXmq/jt5y7j9xouo0r9LOukTLYhhBBSvlyP3yy+NH7yLwn80Tfm8emvXVoyZBvZlhBCSHlSdGm89PbNrIJwh7Q47J9lH0IIIeVHUaXhVRh//I0rWHwA/O27t/CbX7fWrTlxLMYweWYKsUWznI/FOZxqDGNTZRUqWsfMymISx2RnBDXV6v229yFm1hJCyHIomjTe+SCRIYdsUfniVRybuGv2Ao790138Wp1VJnWsGeYH0FAdRM95s5yH+LFdqAi2YVSyt1fRFMJEB4LVEfRfUNdUv98c+rdXoT46p4sJIcQLRZHGnXvAH76QewxDpLAUh05aLRSpQ+paj8SikRK1MAwjba4WBqVBCFk+RZHGGz+9kyEKZ+SThnRVfdZIR+oqKfEp9NvdRtUB1B8aTutymj3ZjPqAHxWVftREOjG+YArm+lBfqe7kTQ4eb1UJuWcYg6YuXyCCnnPxZFmF1G+ifUSvBhbGEN1l3tsfxr7uCTjbWolznWh4VN67CpserUPPmFWfZnEGQ82m+0mOu/k0Zs1xa0E53q/+By+rY00t5+yuynctjjuvRTOGLpoChT7/zgH0RALwqf3t85891oRav7yvH7WNJ5LHSAhZGxRFGrUvL2SIwhl/+jdXzZa56fz7W3pbqat0zGEw4keodRhxSWYLU4iq5dqeGV2aGG5GMNmlFNNjBMmEm0UaFdURRCdU6WIC0z1q20AHJq3izJaGSvrRsHqvjjHrvWPDaA9WobbLem8snMCB6iDaz1jpPX6mDaHKOgzqxTiGGtVx7x7AtFgmMYN+ddy+xtMp6Sy7pZHnWpxsgi+4B4O6u0udX28EvuomDBmP6fMPquUZKY9hvCOsRKj2369EoVYlzPntO+YQHyGk7CmKNCq+eUUn/G0OeeRrXbj5hw/v6f2krpJxoRvhSpXobptlYWoAh3tUIjdJtuVkMg0Dt0+jRYlicF79nEUaYTvhC6Zcb6vIkIZK6j6RivPO+5yMQ7RhXNbp/fckk7KqAdNnhjEtFtBltkAMsQE0OI5n2dLwcC0aBtLeEIN1qfrk/J/uddR9sRdPV25Dv6s1UtIuOkJIwRRFGr/1rCUKGY9oePPGiqRxNf5A7yd1lQxJrFt7MWsW0xlDu7NLJxkmMWeRRlpCdpW7paGXnS0DQbUu9iX3mcOpvSH4pNuquRuDE3NI2IKR4w51Y9osWkygK+Do+lquNPJeixCiF8yiYbIjkDynfOcvUBqErD2KIo3fee6yTvg3736il184YokjV/zXb2V2V8XVvlImdZWMvIkygK4Js+imGNKYz0y0iYsTGIp2YN8WP3xbOzEpLYGs0hjD4erSSmO8zU9pELLOKWr31OSlVF/LUuLI1gr5l7n7uuyhd0/NT2F0TN3VQ8YcqpJ9+knsUyxQGpKkl+qeSlwcM8dhWHS0JHTdJeieSl4Lb91TlAYh64+iSOMr3dZYRldaxsktjmzS+P5payBc6iodSw/+yrMVPhncPm8NLMQnulG/RSV6yeSFSsMMhNerpow1ED6Gri2OgfCJDoQc75240Kvqs58LMQPhZpBZBsIHdwbyDIQDowerEGwbQyJhbZWYGcbQmL2Fl4FwJZWLal8ZCO/bpQSnlh0D4ZQGIeuPokjDnnLrniUlU2mdsrDDLY0Hn6RaKw91yq2e9mpmMxlmB5pQq6eZVmHTlib0myResDSEhTH0PBPM+d6x4Y7klFuZwtp+0lG/ko5M701NuXVNZ80ijYSS3tMy/VVaM2p5ujMIX91AahvP18JMuXU0wigNQtYnRZGGfFut/ZzFy67Wxmf25H7o789ar+L9X95PTreVh/v4zbeEEFI+FEUagv01Ir+uWhHy1SA2Px6/i88dsFoR2eKzjfP4tzutn9fU14gQQsgGoGjSEL593Po6kN+ov4Q29fM907WRq5vKGbIvIYSQ8qKo0hBaHd90+7mDV3D03F3Yz2Dkir8ZpDAIIaQcKbo0hFPnvf8TJtmWEEJIeVISaQjuf/cq/+pVQn7mv3slhJC1QcmkQQghZO1DaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPFM0afxZ61V8+muX0uJzB6/g5t1PzBaEEELWGkWTxu/uupwhDYlT5xNmC0IIIWuNoknjv7x4Jas02o7fNFsQQghZaxRNGn/1w2tZpfE/uq6ZLcqU+BT6G8PYVFmFiuoAahtPYHbRlAkXT6AlHIBPlfsCEfSMxU0BMN6q9pH9MiKCwXlrm8TMBIaiHdi3LYiG6Jy10kG+ciF2pgMNj8kxRNCffROL+WF0RaxjrfCr+jonkGrnxTEdbUJtwK+PcdOjdWnngsUYRg9FUFMtx+9HTaQZQxdN2Vwf6tPOLxW+tjFrm4Ux9DwTdFzHPkw7qieErE2KJo3vvXsrqzS+9L1ylkYCo/v9CCpRxEQUiRn0R/wIdU5ZxbfHcDjoR33vDBKqPH6mDaE8iTs+UAff/tNWsh5p06Jp6e5Ge6gK9W4p5CtXtYwfCqFmWweGpuYQX7KnbwbRsKpDHXtcziU2jHZ17AeOW5k71heBL9ikRGBVEjvepM6lDoMxvYjJjiB8kV5MS/FiAtO9sn0npq3iTBYn0BUIIzojCzEM1lUh1Dpsvbe5jsFDE1JICFnDFE0a01cXM4TxJ01XcPFXD8wWZcjt02ipDCF6wSwLw82oCHVbydL5syaBocYqBDtyJENJpMEAus7Zy+YVc+jfnkUK+cpnelEb7MBkcrsluNCNcKWSwm2zrJjt3YaKRhGYSuoRVX+fMYRGSUaJqn1Efp5CdHsIXabRoNGti9yCjB/bBV/dgGq/CGNoVy0Mqy6LxPE9qNjep96ZELKWKZo0hE2OGVT/+ZtXcCVexsIQdGJsxqgzKV/sxdOVbRhXP8aikYzEp9ftPGGSZTqJd5vgC/di1iynyCGFJNnLJemHDnYmu5x099i5HH0+qtVSsdX13iK9XIl7USX6apcwbRZjmOyKYFMkV9KXVo0fLe/aTR+rxZZsaSyaFlsuuRJC1gxFlcZrI3e0MH6t7hLmrpe5MAQtDUsQSRzrEiebXC0Nc/eeNRG7E6mTlUlDj5lURxCdUO+2mMDssSYEq3fhVLZMLtJwH1e2dYbprjB8GfKzWgx6vOIxdQ0crRYnWeUorazHzL4qanYO5BAOIWQtUVRpPPgE+NwBaxbVNwdy3BGXE3mkobuvqh1jGhPdqJeBYt3l4+JcB4KBXF1JK5GG1aUU7tKDBgarS2nfsSzXdhnSmD22B6GgOsdcvyLT0vBl7Rqzxi8aBpy1xnBqp6OlYY8NsaVByJqnqNIQ3vvFPS2N36i/hHMf3Tdry5Q83VNC4nwv9ukZR349I2iwLZRlTMNKmrU9zgTvZCXSsMZPsrU+stbjsXsqobYLqdZLvz0zKheLw6rVEUCX+1QnOtT+TRh1tkLm5TqqFtCCWRb0GIvr2hJC1hxFl4ZQ//p1LY7P7JnH7MIaHgh3syhdUI6BbhsZsHYn0jRWIg2Z0RRwtWrUdltztDSWHAg3qOOs9ythZLhtAj2hEHqc56Wl4R7zsMYuMuSo5Zv+3tmOhxCy9iiJNO7cSw2KV3wz+wwqWbfle9dQ+/ICvvVWHH83dgcfXyu1YFxTbhemEI1kSYqLCcRnxhDdHcSm3e5xgIS6+w/kmV66MmnoZFwdRMtxtT45ppFLTiI0VYc95XbuBFqCjjGWi1Zd7SPZ+qSs65Cacpuje0rLITVNN4X93hOme2oOQ/uDWcZMCCFrjZJIQ4jd/ERPuRVx/MHzlzEyrUxi+MWVRfyHffO6zBl/+IJ5Iq6UuB7uqz80bAnERidK62G49gGTkJ3EBtBQaT+vkIsVSkORON+Hli3mgbwtTeg/v0QaTnu4L4yW6FSylZHzQUS7+0q1ooaaUw/3hZ7pwKjr1zF5SNVtP4Pihg/3EbIuKZk0BBGH/UWGMqNqd98N/OyX9/AHu7N/T9Vvfv2S2ZMQQkg5UFJpCNJV1fDmjayScAelQQgh5UXJpWHzDxfu4U//JvPr051BaRBCSHnx0KQhfPIJ8MZP7+CL345RGoQQsgZ4qNJwMnV5EX/77i2Ef3ANlS9exW/tvIQ/VzIhhBBSPpSNNAghhJQ/lAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPPNQpPHmyD0Ev31Lh/xMCCFkbVByaYx/9AC+pptpIesIIYSUPyWXRu/wvQxpyDpCCCHlD1sahBBCPMMxDUIIIZ55KNIgpJjEohFUbO9DTC+Nob0ygv45vZDJ/BRGz1tbFpW5PtQ7jmO8tQr10VwHFcfs2Bhm42aRkDKC0shCfKwb+8IB+CqrUFEdQO2ubowvmEKD/NFXSLkjsiaB22M4HFTlrWNmhUlqlX60vJswa9KZ7Qnr+tpHzIq8xDEdbUKt3zqOTVt2IXrOZJzFGUTDVQi1jSHt3S72qiQWQPtwlsw00qbqCeLwmPv4JAEv57hWwhz6tzuvqx+hZ5oxeN57Bl2ONGL9dfAFOzFtlnNh/c5Sx7Xp0Tq0D0ylX9OlWJY0JtDl9+PAcVqDlB+UhouESpih6m04fGYGcckIt2cwtD+IimAHJhetbdRWGGqsQkNUbbMQT0WWDDLZofaVRJMhDbWubkClezdWkpdyr8k5fmyXSnxtGDU3zPEzcg57cMoW3YVu1CoJdE2YZZWYByN++BpPZ096WhrqGFSd47fNOk3ppJFMqLfnMH28DbXVQfW+3pLosloaHkmrczGB2NQJHN6qhKZ+r57EsSxpEFK+UBppWAm7tmfGLBsW1Z1foAotJ+30YCW2vMlTkrVKvIeVYDKkUVeHhsowlHfSOdeBYECVbc1Sv048KpGbRYs4hppD2JeWFTOTu5ZXuBvTSnxaMtVNGMqVg7U0wqiVFkpH0jSKzHoT51SrbItfS2bTliYMmvOZ7FAtNcc5y3tWhNT7m2W5NuFKdQxpUhJc0jBYYnSIe3FOnXcENdXq2qrWYH3nGOKmLJs0omcG0KKP04+aSCcmzbmnb5ubrNvFTmCfkllKxrmvR1Zp9AxjsDGMTWpbXyCCHrt1WBI5E7IyVl0aP1NZqWfonn7Nxc27n6B/7J4O+TkXMqtKpuOWbHbVgkoClSFEL5jlnMgfdQC1EesPvsIfRkvU3VUhyc+vRBO3urLc0mg9jdH9foS7nNZI6HW1PaezSymrNFyou+DZ400IuVsJppusvrMbLdV+7Du2RJrU0lAtl4wWiiuZSRdXtUqEF9SZy/sea1LCM++r6vAlJWG1zCocSVNLZOeJLC2t7NLA7dNoSf5u4hg9GFB3+cOWKGIT6HHskykNlZQj3ZiUFbenEFXbBo0MC5KGOa/k73Cp65FFGhVq2+iEqlFtO92j6g8oKepSSoOUL6sqjdddz2DIshuRROjQreQ2//07t7OKQ2ZVVTnqKsksK9cfdk4SU+oOsQld0oW1ELeStGuMQpLiJpMUs0pDynSrwnH3HBtQrY86DMZytGSWlIa1j+5W+uKu1B2ug8RwM4I6geZJkkYa8j7TXeFkC8WdzMZb3dJTLbWQH4flVHWSj2BwXv28qPZTLZv21oCSlaUJ2Td790wOaTjfW1+H9FZK4mQTKsx5ZUoj/UZAl2fdNje5tnP+bpe8HlmkkbatKdfXi9IgZcyqSmPzt1MykJBlN9K6cG4jIevcyHRc5zayXHTc0tDLJhGryJ7kLCYPBVBhjxHEVcKUO86LuigtsQipBCTdYSnZ6PV6nMMpDSuB2MeQFtmSnd3SqN6FU65CSax6cH97L2ZzNwTTpKG75lQLpVYnOGcyc0jKFVZ5HKd2mi69CSVHkaS0PvQ1kmSaq0XnQRr6+LK8t7ke6Qle9ku/EXCW55KBm1zbpX63ea5HFmmknWNaOaVBypdVlcZ/a0tP9LLspqyloe+OA2l91Ba5ElmKVFJJqIQQSBsLyC0NlVoH6owonAIZw+HqVNJI2APt57vxtNxh28vZRt416ni3ViXv6jXxYbQH1N19V696VefSm/tc0qQhqKQfkoR2UdWRTGbWNUl7Dxdynr62MdVaCVnbyfWtVvVKgkx2xbjJca2d3VNyfDn3dyf4YkrD2T2V53pQGmSdsKrS+H8/vZ+W6GXZjXRFSZeUvc1S3VPOukrzEGAMg3VVCB5yWyM9kcXfbUZ470BaApHEqFsa8/LHn3m3aYWViNMSkE6GYUSjzq6qHElDJxZHMtfEcGpvCAcGnEdjSSM1cG+NAdgtDN3iUC2hQUfOSsMtDRFhW1DtH9HnZh2XNf7i2++ageVswchgd2gX9oXtZChJVomxcU+qVZZBdmmkDYTP9KLWPYnA8b4lk0baQHie60FpkHXCqg+E//PHDxD9h3v6NRciCWldSGQThk3JB8KFi+qPVyWCA9EJxKTPPBFHbKIX+9RdenLevEkW7WesFJK4IAOg6WMaTpZqadjJRqSSmrW1HGmY5zrsKbdZuqcSY22qpaCSbLI7SIlmp0pwZswlgwxpKOznTZzHpVsgQbQct5Jf4uIJtDzm6BbTYxlqH8esKT0ArurI3UJxSeP2HCajexBOm3Jrjl8Gt2Va8WIMk10R1KrWnfwGViyNhTFE23oznskR0rZT1zg20YcDj7mm3C51PSgNsk5YdWmsC+aG0fVM0JoZJVM0H8t8kCtxvs9M4ZTpkmG0DDhve9NZWhoKGRDXA+BmOVfSUAl0/MxUZqJfjGO8e5d5uE8db7gJ/fbDcHFVl0r26VNnFZKkcs2iyiYNhX6GxXVc8bFONDxqX4cIuoad9VndN/ZMJY0reWZiSUPqsyLHw32LM3q6qp5yq7apbezDtNlkxdIwx2YNRqejt0seU+6H+3JeD0qDrBMoDUJs7NlsZpEQkgmlQYgmgcm/rcNhj0+dE7JRoTQIIYR45qFIQ2ZCyRRaidLMiiKEELIalFwaMhPKOZVWoqSzowghhKyYkkuD/+6VEELWLmxpEEII8QzHNAghhHjmoUiDEELI2oTSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGe0dK4c/cuGAwGg1FGcedO7teVhF1vgUFpMBgMxnoIWwy5XlcpKA0Gg8Eoh8iX9OW1kJA6ViEoDQaDwVjLYQsh26sz7O0LDEqDwWAwyjGcyd9+LSScdRcQlAaDwWCsh7DF4Hx1hnPbAoLSYDAYjHIMZ/K3XwsJZ90FBKXBYDAY6yFsMThfneHctoCgNBgMBqMcw5n83a8rCbveAqMk0njlvTh+/3/N49Nfu+Qp/vgb8zgydiNrXQwGg8HIErYYcr2uUpREGiKBbHJYKkQy2epiMBiMdRn5kr68FhJSxypESaRhiyBbWbZY7vYMBoOxYcMWQrZXZ9jbFxgllcZyI1tdDAaDsSHCmfzt10LCWXcBQWk81JjBm7VVeGkoW9l6jbN4qfIpvDmTrYzBYKw4bDE4X53h3LaAYPeUO65O4M29T6CmugoVlX7UPPEsXjsby75twbGUNKyyHa/NZClby0FpMBiewpn87ddCwll3AVESaSw3Hp40ZnD0KT8eb3wLH169gTu3buDj97uwo3ozvnO2GLO5KA0Gg7FKYYvB+eoM57YFREmkcXBgAQePLmQtyxYPTRoX38COyifx5oX09eNtNajYfzq5/OHbB7Gjxm+1RJ46jNF5s+2M7H8Qb589nCx/cq8S0K1UXR8ebcSTftWKqa7BjrZX8Z2/yiINXY+0dEzUvoGP7f3fcr73QbzjOlYrLOE82T2VWne+C09U7sDROWt5qXpGm12y0sdjJ3or6f/otUP6PDKlZsqPpK5BTf2r+OBqevlrp47gxS+lruF4slzF/Fm89uwT2CTn7n8Cz3e9j+t2mYdrfH20C8/ruquw6UuNODqVKmMw1kw4k7/7dSVh11tgFF0aYx/eTErAqzgemjRuvY/v16hEeHgCVxxJyBnXTx/E5s2teE+S7605jB9+KpXUTbLXLZUbatu5n+AlVd/zR0331vuH8Hi1Spjvz+lWzIdvNeJxtb3Xlsb1txvh27wbR89braAPXn0KvupGvONMuCY+fs1xXPbyjiO4on7OV09+aVTBJ7KciuGKOs/kdjqscn0Nrqnluffxmmq9+Rp/YhK/vX8XxuUaXpvAa+o8N7e/b+1/awqvPaFE0H7W+h3MncZLm5UAO40A813jC6+qlqE6VnNuIunNNa0YlWPR789grNOwxZDrdZWiJC2NHw3dWJY4Hpo0VFw/9waa/lLdpcod7sEuvDOhEnyy3ErkL77t6Kq69hO8qBLq0YvqZ53QVPJ1JChJwL7Ws+ZnPza3meSoQ9WXraVhl6VJw1p+9ojzeOZwdEe2u30Vc0fwbDLRW9tZ++avJ780Hsdr5+193SHlrtba6CFsTl6XzP210J4yghtqha/mEMad0pb9q1Xil3UervETtmB0KAk97sd3zqa2ZzDKMvIlfXktJKSOVYiiSMNO+rkinzjs7bKVlSTkDvX9I3ht71N6QHzTk3b3iXWXnOw2SoZJqDqhqeTmqEsSWkWzJDQrWSfviHVY67xJI3uyHm+vMfWnr08TxfxbeD7ZNZW/nvzSsH/OFlnKb6nWwhL7O1tF+ue9dqvEhD5+s4+Ha5z5+8l1jRmMdRC2ELK9OsPevsB4KNI4UO7ScIZ0l6hEZHWfSMKrwfffz7KdxEOQxmirahVllcZdXDmyAxX1b+HjtxuTXVNe6ll1aZjWWK7980pDjzWZfZZ9jRmMNRrO5G+/FhLOuguIknRPyXdPeRWGxMOShvT1V7i7RlR8+OqTpvtE+ttdA8wS9vZLJjT5uYTdUxKmhfF8vd+xX/565Ji/+uoqSkMPwju7p3JLw1v3VK5rfAPvNTrHT0y4fp8MxroMWwzOV2c4ty0gij8QfuHWsoQh8bCkcefaWXxnsx9Ptp52TLl9A01q3Y43rCR65eiz8Mlg9jnrbvaKTMn9kkpyMiCcRxrugfAPjuxeYiD8Lt7br1o4rWdx/YY1hmINYKvke8EMYL/xrEqmajnLQLgVMbxdr97flaTz1aOT+BOHMKoHqqfwTuNmRx1epJEaqL5zYwpvPqVkqa5BaiB8CWmYgfAdne+bgfCz+P6X3APhea5x5Wa8+Jb1+7p+4S28+JfP4m0za4zBWDPhTP72ayHhrLuAKElL48DAgmdhSDw0aUjMT+DowR14XKbFquS36S+exIuvTaTduX54pBFP6ume1pTON41A8iY0FZ6m3Jq4roT0Vb1tqs7Ue5upsnmmk+ouKscsKjuWrOfWDN7e/Th86vx8NU/gxfaD+OqypPEkvvPqoeSU2Cd2v5Ex5TanNCTmz+JH/3OzY8qtmUklZR6u8ZWzh/HsX1i/H1/NU/j+aWerisFYp2GLwfnqDOe2BURJpLHceKjSWGchXWI5u6+KEvmkwmAwPIUz+btfVxJ2vQVGSaSxXAlQGqsQ12K4MiHPLKQe6CtNUBoMxkMJWwy5XlcpSiqN5Ua2uhjeQs+Gqn4cTUdL2cqQoDQYjBVFvqQvr4WE1LEKQWkwGAzGWg5bCNlenWFvX2Cwe4rBYDDKMZzJ334tJJx1FxAlkcbvNyz/373+USP/3SuDwWB4DlsMzldnOLctIEoiDfnuKZFANjlkC5FMt9onW10MBoOxIcKZ/O3XQsJZdwFREmkwGAwGo8hhi8H56gzntgUEpcFgMBjlGM7k735dSdj1FhiUBoPBYKyHsMWQ63WVgtJgMBiMcoh8SV9eCwmpYxWC0mAwGIy1HLYQsr06w96+wKA0GAwGoxzDmfzt10LCWXcBQWkwGAzGeghbDM5XZzi3LSAoDQaDwSjHcCZ/+7WQcNZdQFAaDAaDsR7CFoPz1RnObQsILQ0QQgghHqA0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnimaNN4av4vPH7yCT3/tkud4pOkKfqz2W3uMob0ygv45s+hmpA0V2/sQM4srJRaNeK5Hb9s6ZpaWyVwf6pc6H0LIhqVo0viP++aziiFf/JuvX8I/z943tTxEZnpRWxlA1zmzvCSUBiFkY1A0adgSWA7buxf0Pp87cAWJRbPyITHZEUAwEIBv/2kkzLrcUBqEkI1BWUnjxp1P8NkXrBbKviM3zNqHwOIEugJhREcG0FDZhKHbZn2SOCY7I6iprkKFP4yWaCcOOJNsfAI9ESWcyips2tKE/s49SyT7OKajTagN+FFR6UdNuAmnLpoiF25pJM73oSVsvY9PHW/LsVSW19se7MWpxjA2qXJ9nI5yYfZkM+rt9410YnzBFFAahJAclJU0hJ9O38Ov1Vn7ys8Pg8S7TfDp5JzA6H4/GgbS03382C74gkomF1UbJBHDZFdEJW47ycZwaqcfof0nMKuLJxCNqMScQxrx43tUXW0YNYWzvaqucC9mrcU00qSxcAIHqoNoP2N2nOlFfbUS3Yy1qLetDKLl+JxqtSUQO9OGUGWqPDHcjKD9vovqHJQEk3VTGoSQHJSdNIQDA3G9r7Q6pPVRWlyiONeBYFoSn0P/9qp0kSwOp7qndMKtw6CjGCpB52xp3I4j7mzJmIQ9OG+WHaRJQ4kgvuDsOLOOq77PeherpTGsf7ZIYKixCsGOCfWztW3LScf+t0+jxX5fSoMQkoOylMb9B0B1y1W9/1dfsftMSkRsAA3VTRi1E7ndVWXu0K3xiwC6JPcmcYxpyPhFoAOTVoHFUmMai3FMJrunqkxkT9hp0lDEHd1T9r71UWtHva1rTGO2d5tZJ8eb2icVTvFRGoSQTMpeGl/pLq00rG6dzIQaPGRbYnWlod9PdxOZu/4lEnaaNPR2VveUNWnAtDQ8S8N9Dg4oDUJIDsq6e+rf7y1199QMomE/2kfMos2FboRFBI7kvFrdU+OtqUSvudiLp71II0NE6ri2uqSRs3tKzrMKtT3J5pOFPWON0iCE5KCsB8KHfl7igfCJDgSr2zCeMd1XJdmQHy3vWq0B90D4eMe2JQbCx9C1NfdA+HRnUJV1YlK1NPSgeZ10U3mQxvlOhNR2PROqpXE7hsmeOj1LKk0aSwyE63OojiB6Pm4tT3SjfosSo5wipUEIyUFZSeNhT7mdPJT7uYzprhAqdp8wZas45XZxLjkt1heIoOt4r6orhOgFU+4gTRqK2WNNqPWrY6gOoP7QCUR3VyHcZVnBammkT7ltP5l+BLMDqbEUfZxGIJQGISQXZSWNcnq4jxBCSCZFk4bdYlhulM3XiBBCCMmgaNKQLyz83DK/sPBPmq5g4Nxa/MJCQgjZGBRNGoQQQtYflAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpkDQS9+7h2sINzF26gplfzuLnF36JyZ9PMzZQyO9cfvfyGZDPgnwmCLGhNIjm+o04Pro4hwvTH+Hy/FW1fBN37yaw+OCB2YJsFOR3Lr97+QzIZ0E+E/LZkM8IIZTGBid+85a+q7w4exk31c+EZEM+G/IZkc+KfGbIxoXS2MDIXeT0Lz+mLIhn5LMinxn57JCNCaWxAbl/f1F3N/APn6wU+ezIZ0g+S2RjQWlsMOSPXLoYYr9aMGsIWRnyGZLPEsWxsaA0Nhhyd0hhkNVCPkvymSIbB0pjAyFdCuySIqsNP1cbC0pjgyAzXmQAk5BiIJ8tzqraGFAaGwTpe+YsKVIs5LMlnzGy/qE0NgDyUJbMsSekmMhnjA8Arn8ojQ2ADFQWs5XRNXQbO167jo9+xafHNzLyGeOg+PqH0ljnyPcGyddAFINPPgHqeq/j01+7pOPf7Z3Hh1eXO/0yjuloE2oDflRUVmHTo3XoGo6ZMlI4c+jfXoWK1jFrcaIDoUo/9h0rzjWWzxq/q2p9Q2msc+QL54oxs0WE8fSrC0lh2LH1h9fMFt6IH9sFn0pitQf7MHTmBKJ7Q2o5iMNjCbNFuTOGdiW7+mi53mG7pdGJcLUfB44baYy0KVlH0L9Khy+fNfnMkfULpbHOkW8qlS+eW02cwvid5y6nSeO7p5bXDTbeqhLa1l6khlBjmDw+htm14oy1Jg03qywN+azJZ46sXyiNdY7MaJFvLF0tRBhf+ZEljOjoHfz9VAK/XmcJ49k3rputvDPbE1ZJK4iW43NIZPRsZUt4riS9GMd49y7U+tV2qsVSE25C18Ft6uc2jFtbqItwAu2RgGrBqG38QTR0duBAWqJfuosscb4PLWHH/oeGEZNj1QlX3teO7Mk3NtyBhketutP2V2hpbu/EYGcENdVSh2p1NfZhOtd4cnwK/Y3h5LahZzowOm/KhAWrfJN+rzBaomMYbFQ/29dwrg/1qqx9xLx38thVbO9Tyi4M+axxFtX6htJY58j/RlitrzdfVNXYwug5e1uv6xu7o6WxEmFoFmMYOihdUippSUJtHsBk8oH1/NKY7Ajq5Pl0s9W91a+EoeuypRE7gX0qwfoe24WegWGMDnSiIWglSbuO2WgEvuoQ2gemEFuYw2R0D0LJLrIJdAWqEGwcwPRcHLMjnagPbEPPmMrqsSmMnulGg6orrI579IxqIVmXJcXCMNofC+FAjypbUPufaUOtOp5Qx4QuthO3b2sz+o8PK3nUqfeuQm3PjC5PY1Fdj4hfnUszBqfmEJ+bQP9udf5Bda7yvovqWOXc/NvQHj2B0eN9aN+qthfBZJFGfEpdj6469f7q3PvVz2NK3NZWK0Y+a/KZI+sXSmOdI/9UZzW4r4Tx5R9cyxDGSlsYGUgCjjarhKzuyFUCPzwit9p5pHH7NFpUQqztcibYOEYPBpLS0C2Z6iYMOe/cL/bqxKnrWFT1qTrCnVOmUEhgSO7OG0+rn2YQDaukHunE+Ew8S2vIY/dUIo64kkZcZeXRg6puc1dvSWOP4/jiOLVTrYtkuetXLRufSvA9582yINdAvX/LyQQS7zap8jCiF0yZICJR0ssmDc0qd08Jq/WZI+UJpbHOWY0/YBHGl75nCeOHZyxh9I6skjAWVbJz3t7K3bSIQifNPNJwJ0BDTLUcbGlY3T/uBJxZR1o3jR32fvEpDB7ahacfky4qd/dRHmmo8xncabq2dJg7f6c0XMeX/Zjt87LrSQ95f+d5O9H1URpklaA01jmFdk/dU3fWuYTxzP8ttIVh3QX79B19itSduJGGszw2oLuDdJI2d9lLtTSmu0JLtzRMa6VhID1Fxy5MIW5aFbGRE5i0ixMT6AmpY26zRba0NGJ9ksgj6u7fnMGiaklIK2YF0rBaEnUYdBYsxjA9Za0oh5YGu6fWP5TGOqeQgXARxl/+n19pQRx+x5oV1f3e7aQwZFC8UCSpyt17eGcnBs8Mqzv6bXoQ1xbBZIcIQAavBzB6vBcHHrMGlO0k7R7TsKbsqiSZc0yjA0/rQfNUHdM9Mg7iGBdplmPwo75Plcctqfge24Po8WEMRZv1mETQjEmINA5L+dY2dfwDGHcmbIVMKbYG+mcQX5jD9EAzwmr7lUgDizOIblXn7xyz2CbdeREMyqnYYxrV6WMaujWSSxpj0uWlWk9t6voOjDlmsa0MDoSvfyiNdU4hU27/usd6cK9YwrCJnUnNLvIFZMZP6i7fni1kzQay5NGjWh/JO3vX7CnpOhrqdHXTOGZP+QIRdA0PuFoHcZ3M9XiK2aZdJfkkztlX1QHUN5/ArGNsI/6uEol5/65zZqWNagmMHkrNjAo904mu3ernlUhDkK6y5lR9NZFmDDkbWs7ZU+pYaxtlcoD6OZc01LuMNtvXtyOja2u5cMrt+ofSWOcU8nDfo4di+OK3rdTVefpWUYRRMIk5TJ5PT6+Th1TrJNQNu2c9PjWBWWf3lOniksFjsrrw4b71D6Wxzinka0REGr/XcBmB/x3TwnjqlYXyEgYSGG8z3VOHZMqrq2tJkDtr6T4y3Usy5XafdHHZ01TJqsKvEVn/UBobgJV+YeHuvhtaHBINf3cDD8pKGAa7e8rZtTQwlTawrruXnglaXTBKKLW7OtMfiCOrAr+wcGNAaWwA+NXopBTwq9E3BpTGBkFmtBTz69HJxkY+W5w1tTGgNDYI/HevpJjw371uHCiNDYTMbCnG16STjQ0/VxsLSmODIQOVsV8lvxGQkIKQzxIHvzcWlMYG4/79Rd33THGQQpHPkHyW5DNFNg6UxgZE/sjl7pBdCmSlyGdHPkMUxsaD0tjAyB++DGByVhXxinxW5DPDG46NC6WxwZEZL9LFIHPsKQ+SC/lsyGdEPiucJbWxoTSIRh7Kku4G+RoIuYuUL56Tbyxdrf/6R9YO8juX3718BuSzIJ8J+WzwwT0iUBokDfneIPnCOfmmUrmrlP+NIP9Uh7FxQn7n8ruXz4B8FvhdUsQJpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz2hpZPuXjwwGg8FguIMtDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeuR6/if8P3jf6tZdrfSkAAAAASUVORK5CYII=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accounting software company</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       ceinfosoft.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390d19219c62bf57</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Accounting Software  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       F3HJ+2RM, Saraswati Vihar, Chakkarpur, Sector 28, Gurugram, Haryana 122002      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADr3SURBVHhe7Z2Pcxvneefv70ibaZvrtb3pTK93TZvOHHPHgldWaHPC1WNMPcFFY1x1ESsXutohI4esIjEMFcllqISl7nBMwgQJa8as4bDmGLFoMmKkiqaiEPGJYSoTiUI6NCGLgkVpJUqwYT/3Pu/uAu8uFsCSIEAQ+H5mHgK777vvvu/u8vm+v/Duv6IKcvIljT7wqRv0zHc1Yw/RG6kMDX3/PvW9rMnvJrzNcfmY3SFJE4dbqCOaNLatpGLHKXgiRiljm1kbO0RNPRcpzRtXBqipeYAWZIhKnAabW2jwiviamqb+QCdNqqe4PkLB5k6a2TC2TTi9w+OW85locwMU8A/QvP0YhzKkz/eSxyfytWnsUPMjWI4EyHNynCbaW6grpp8tFQ0VPHeWzYvU3+yjyFVj22R1jI40h2jyJtHCGdv1NMIm5C7Oh/ldp3j8FC1fmqNlJVNarF3JZ5pme0QZOjtp35m43COv7eFecc0DFL2u76LkOHXY7tP86RZqMo+R4Wq+rNfLEb4WrUGKjofJ7wvTUu6xzksvr4xqeIm8yfti5rMYMj9e6r8gn8wc8lkrfC7Om5l+8XuhhqdpYcBPAXGcebbCYfrzabmWc33K/03+M+GUT36mmwIjtCy+y2tyek4PkFjvV145nHDxLKcviP+j1l6az/4fCcz7LK9rL82qYTcTNB9P6uW2PQP8v+2xPydXxbPTKsrJ+xzKXCv8TUcnVVQ0frL2rhSC3zl+k9LqBbLxjgjjOByXj9kdiosGrYxRW7OfBi8ZLmpVCIDfS93nDC/mRjRohaLBFgqcnKY1fsA2EzQR8pLn6DTlSWUB0UiL/YFW8QCuGjssOJVB39cWWTG2bU5Qlks4C+UfwiIaG3GKDozRQp5A6Q7Bc1CI14om7286tUgTx8S+kH7s8rBfpDNMS6m0DIu2e8U1Mv958h1E8fgpmjnqlddO1jUyKZo97SPPsdy1k/kWZek/b7qvRYr4RNn4H9TYQxvTdKrVR/3nVii9maa1qT4KtiqikZkT+fLRUFzkQSZju14FWDjDeW0h/9lFY4+BzWHkOTE1vETe7KKxdm6AhkRcJ9ZEXI//OE0spvR7kxTXUzxrWQfu4Jg4b2b6xe+FrRyauGY+Hw3O6XeicJhGM8e85O/h51+kuzJNg49xumY+8p8JPZ9e6ogsksb3PSXS8yvpswNuFRWxVVGqdIqWIqLcyv2yXm+NFkYHKBq3/7eVfpYpI54lcd7s85dO0uzJAHXLilaSJuW1ndPzuJGQ17pt1Lg39mcqw35ALVOcIgeU/9FGFg3mz76ckmLw7R+oMmzlKxfuyzh/+iW7i6wmJURDoMVHqPuA7hw8viD1RxNGDUrgSjQEwgmPPumnfWJfk/hnaOsZp+U8xRCklJpKFj2PfP48k//sBcqwGKZA9p/R7gRTNClaGaqzs4iG4dS4tpVHRqOlWB91PaJfkyavn46o5ckkaaYnKMvq8YUoMjVGp5rNWr+DgygaX6AJkRXh+9mR8rXrHKEl9do5tNrYmXsUR8ukrw5Th4/zrF//yYFArsUo/i5FDul5GODj3ImGrCmqeTVRRUFQVDQExfJmFw1OS8+jMyw65r3h57V7eE53eIyDY+L0sumXuBf2csgWrah4zIr7USyMtEUaDQmxF+nuO9BLExMDSi29kGgcp9FoL7V59ft+5KxSDiEES8P6/eLnr2s4LPJZSDSM/49xBz9T6llm1P9dIe4daj6MZ1PPh7jWI3FdECT2Z0qgpmWP73BvaoWqiMbUTx5KQfjD3nV66NCIePve+/SbXW/JOBwX1BjsDNWaOqgRdLHvPqd6tTpkJx0otxZEq0dU8ME2qYpoMP91QG9tnIrlP+Bt39yQYR8TLRJQa4ga0lfaaehKnTumvUhqmk4dHae1bG22TtlB0UgvDlOXqOlbW+9gK1RNNH62nqEPdtyQtrCaa27EruqtEN7PcQAAwEINd9U0IlUTDaZ/8p4UiI+eXpcDTal779O//Vu9W+qLIgwAAEBtU1XReO99oj8/q3dTfWrsDgW/flt+9w2mZBgAAIDapqqiwdy48x79ljHozcbfeR8AAIDap+qiwZizqdgwWwoAAPYOuyIaDI9hYBwDAAD2FrsmGgAAAPYeEA0AAACugWjYuTlHEWWZgLaemPXHUysx6g/qSyDIJQssyxkURy5BYh7LaXeOOKzn1AgUXq7FsnzJHia9skiz0TB1HxLPiL2cmRTNn22ngLEkxv5gL02qy0eVCleXq5DP6LT1GS0Rnr42bn2Gh9XlLgAoDkRDZTNOQ35lETFj0bHsmkxyCQIRPraiL75oLJxmrgxbDH2RwUM0dGmFNP456uYKzZ70U5PfttJlQ1DnosEL6PlC1D8yQoMBezmNhfFCI7TEheT1jniBveyKp6XD50/qC/7pi+atyAUvA8MJDuQdxcP5h3KtfuqfSurPcJIX3XT3DAPAQDRU4rxapvWXp3IJZtvCfepianIlUNtiePnoK9tmV7w0kSKUW5HVvhidfaE8ufDa8DhFeMFEmaf8xd3ynC6vxCsXWBQ11lCYJsK5cBn39BhNHuVap1FutaUla6GL2SUXzPjmIna8yFr/uSRpygJ7+0PD1gUEHdmCaBTJj34/+mhivFMuYDg4ydtBiiqXmZd9b2qP6avgukhrJq4uFqjW0DVa5gXzzHKK2v+M4yrDguwxTuUUFZNWLw2pt1kuy23exxLh8rttUUReWtxYJrxUeGpcXF9z1VYDeY1KPsMA6EA0SiCdWHb1U2M5Y7OlscEtDWVp9EJsTFO30+qnNuS5SohGU2uIIldEa0U2V0qIhrGUc9vZOKXS+jLUXKu0iEazqHXGEpTa4PQSNMotLVv5zHcyyPji/FG51Haa1iY6hcgKB9pu1IqNZd794VKrwbkVjeL50R09L1Udo+UkL2dtT1ff1mvRbtMSQiF2pVMXaVAIurkYoDZ1nDz8/hI9Y7Q2Jmr/wTFa0zcLULicFuS5be9iUFHDDXGbzwqTQL7zwRD9UuEO8CrAweyy+QAUB6JRDE3U2kRT3rIiZjJG3R8Tjpdrq8KCJR2kQP4jW527E25Ew/rPXUI05HsGhLNQHIgaLr9nBVEghEDb0N8lYMLnNJdylvHVl93IdwSI/Cm7LOcviO5MzWuYZ+bxJfLj5GwtL2VKxairuZ0meWMbaVnCNzXSVKdu3FPH5eKzuBENjWZ7vBQo+BzZwuV5bQKg7isVbuf6CLW1dtJM8RsGQBaIRiE0UUs/KGqm6j+8rLkrtVU5puGipWE4mKxzl9s5J2meQzrcUt1TFgdUXDScHHheuL1bIql04ZhmxCmVP8bpnPkUdqZ5xxfJj6MzVIRCO9eZ65pitpgWX+9sOI8tZLunzONLVQRKiYZIM3yI9oUKrVTrEO5UZnVfqXCV1Wk65feL+4cVjIF7IBpOcDcHDx4Kh5GthTM85mF7r4Qc8zhYopvCfJVkXmXS6lRKOeWKi8amSE8O9CeyNXLVcZbKH+N0znxcikaJ/Dg7Q/MdE0n91a/mAO820soru+yeUruzyhMN/c164pwFfLZjuDzvDnRPaeJ6cAWooKAB4AxEw46oUc6f4XcaG69tVOE385kDjgbqu4oLk/9mPB0H0djSu445/JDlta8Wp2uKnFIONVx+V0XAwXEWfz+1NX+M5fwFcSkaJfLjFM7oLYxO6m41uqaYbaSlikbetTfeHb1d0Sj8jnedguFlDoRLMvqMKm4xA7BVIBoWNOEc9HcCO3YX8D9kK7+/2ZiuyO9N5haJ2d98fZqGBqadWx2rwim1+ulUdJFS3Dee1sThY9Qtar+npoyqpByDcPuuY0Z3Sm1hfZ69faA7250mmjgFB8JVEdji+6lLikbB6+FSNEq9y7uAaOgTD5TrwGwjLVU0Sr0v2xnnchZ/x3upcNuUWvu7qEuFF2pFA+ASiIaKdBzCUThY1jEW+3Eft0RsU3YtWPrUvbT/sXYajCnvGOc+bNfvOjbgfmn5Yn59Gmjk9CGrs7RPuR3IheeLgHA5W3g/dUnRKHg9XIqGoOi7vAuJhjiaW3Z5znqLaamiUfLd5Y44lVPf5/SM6ecqFS6w/XjP8p5qplg43xM1zayVEkAAdCAaO4icuXN0OjfwWguozkRQzTn5u3Y9MkLMuKYOJwjAjgPR2DFSNHOss2CXw66QXqTIY/rvKuTm9THqEDXPwSvV6JjYneuR3tBomX9Doc6aAgDsGBCNOkddZ8jjC1J/rJ4HP/nX1KKcjx0v/GttAEBZQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGuqJhoP3yUa/9EDOvLsBv2Xvlv0rz/zFv1m11vUIr7zPg7jOAAAAGqXqojG9/4lTb//+Zv0gU/dKGoch+MCAACoTSouGl965Z6jQNiNWxzmdz4GAABA7VFR0XArGH/w+XXKvEf0lQv36Vc/re+DcJRHeiVOCyuasbXLrE5T/wEvNTW30OAVY1+9k0nR0qUEpTLGNgB1QsVE4/uvp/PEwcman7lF5xYfGkcRnfvxQ/qldj2M0wBuSNLE4RbqiCaNbaKFs17yHJum3ZcNjWaOtlDgzBxp7EDZrgwIARmgBRlep9yMUVern0avGdsA1AkVEY0H7xD93ucKj2GwKBTj7Hm9hcJpcFqgFPmiUTvoebO0MBpBNACoUyoiGs//8EGeUKhWSjS4q+rDhuhwWlXl5hxFnvTTvuYWavL6qWt4kdT2TmouTB0+vatl34Femrim1OW1BE30BPVjW33UcXbO0j2xNtVnHOul/aE+ml01AgQLZ2xOPzlOHc0hmpC74jQovkcvxYxuHj5+mJb41DKeOJ9ph8cpJXZzek1n4nywEaePZuLD2fO39UzTmpq3c73U5jXzPU4RVYQySZoR5drfqoe39cQsx2rxEeo2up/2Heik6FXzmnC+jXxJG6B/4nwp+1hMlsI+8ph5FWjnOqkpMELLxjZdH6Fgcy/NbvKGRstRkVfzOgZ7aSZ7HfXrNBoNy7Jk868tUrTTuC/eIPXHVvT9TvD9D4n8mHGjidz9z6zQbF8oex06+i5aroMFt/cPgD1GRUSj7ZsbeUKh2h9/8ZYRszDD/3xfxuW0qkeCRv1e6hhboTQ7g405GhTb/Rd0t5GOD1CgVTiC6/p2aqpXbPfSvHRmSZoMeXPdMBsJiorttlHdQaXP95LHf5wm+dhMmpbHQuQRx84ajqO0aLSQJzRCS6wImyJt4dT94UUOFDh0T+WJRgsFTgqhEKdPpy7SoK+Fus8ZJ18MU6A5SJErKUqn00LcRLlEfDO95WG/OPcYLXOx0ys0IcrlP2ucWzj0ttZD8lhGuySukUgrel1uCly0NMS2JysSaZrtYUExy26IyFG9q02bOi6u4wDN66ejNb6OwTFak1vmdRqW4zka51cI3sTh3D1N8/iKzyfyo99DC5txGlLvf1LEzd5/TeRL3N9jMct18PRctFQqsmzp/gGwd6iIaDR9YV06/EOKeJRqXdj5wc/fkcdxWlVDOHNtQ9MdhgE7X88AO1/dmQUjai01RQsjAzTDDtJSGzZIxGhoNC7cje44u2KGp5OkaLI955hLi0ZAccTi6GiImkJ6q8J0zMVFw5q3XLn4u3B+Sk3fnh7HDQ4n5HcmvRqn+XhSOks+NisgBktn1ZaDC9HYvEj9oqyTN8X3jCirENPBM76sqPE5smXbFGKgXmPjOsljHa6TVZB0liOBbNlVWNgtLRyBNjdCQ+fEPZfnaadJyy2MUZcibha2dP8A2DtURDQ+9LQuFDwe0fXC3W2Jxi3tPXkcp1VVkkr3lGnSARrOb06Plgc7woNmjdeOgzMTcLeM6dhLi4bVOUmnY3RFmXkrLhrWMYRceP6x9n3pxRE64uUulV4ajc7RctbT6fH6z1vr2rJlYMtb8TENfbBcpiNaPX5uVbCzl7X4FYoGlGuX0Wgp2z1l3qMS10m9l6ZlRS2HjHu6wA3mPNsERWSWIqLFZimbyZbuHwB7h4qIxq9/5i3p8O89fF9uf+5FXTgK2R/9XX53lSaO5TBOq2psin9u4Yw6xhLZ1obdue6kaCwMCMe3B0RDkknRcjxG0R7u0/fTqSkO0+PZRSM1np+34qKhl4dr/9wKkC0Mbn20ijicd1+YlpR4TbJ7yjinm+tkdG2VQsbdkmjEaagVogEai4p2Ty3dyPXzFBMOp1bIvyTflWFV7Z5ycK7zp03n6tQ9pdFa3Kh5O3VP3UwY3Ti64yzVPXVkTPEqW3I6+U7evWiI70K8rF1ManpCLC6prQtR6lh79tw70j3F8PULdFJ30CwnX28v9fccpyZl3IDzbRGz1TE6UuQ6pS/0yrEjfdzJQOl+VHHqnuLfu8wnREnlNSyne8oaD6IB9ioVEY2/GtHHMiIWD1pYOJxE42sX9YFwTqtqbEzTqVYf9Z9bofQmDwj3UZBnyhgOsPyBcCEqq+JYHggf7yS/MhAunUgwTAvsRTZXaPakXzhW906Hxc0vauo8kM1sRTTkQLgoV3TRaSA8RTNHRblOTuszwUSLY/a0EAXzNyByIFw/ltGuhKmt1EC4dPTCAd9Mi/MZ++RYhsiT4rRlN5fIR3bAXsCD8k2Hh2lJtDTSqUWKtnM3VeHrRJlFivj1SQAy/+mkuLaiNSMFXIj+pWlakOMhAjcD4cZkAh4InzwqrkNW0GxpQTRAnVIR0TCn3NpnSfFUWlUsTLOLxnvv51or1Z5ym76qTksdp8mBgKWmm5tya0ybtTQ8lCm33iB1j8R1ATFYiylTRe3H8rTWEwE51dPjC1J/uK9oDdrudPRxB3Fe7tIR21sSDYF1yu0YDR1UavRGueRUU74unSOW6aJafJi6HuFyGVNu42pnkINoiH1mWTvGsyWQLTnLjCKL4zUwpv/yNfb4QhSZGqNT2a4/B9FgNuI0ao5TyfKZU6H12XJdE4rrVqbccvqDU8pNygihUKYed/Sp05ZtaUE0QJ1SEdHg1WrN31l809ba+J3jhX/09ydnbtFrb7ybnW7LP+7DyrdVQhE3koPPBfrqAQANTUVEgzGXEfll0YrgpUFMvrvwkD56Sm9FONmHe27Srx3Vv2MZkeqQvhqmoPkbAvM3JD7RMrHqPQAAVE40mC9P6cuBfLDjBg2I7+8YtdlC3VSq8bGgWuT/ynpS7ToDAACDiooGc0ZZ6fajp9fppasPyfwNRiH74iQEAwAAapGKiwYzc839S5g4LgAAgNqkKqLB2F/3yq96ZePveN0rAADsDaomGgAAAPY+EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXFMx0fiTM7foA5+6YbGPnl6new/fN2IAAADYa1RMNH6j86080WCbuZY2YgAAANhrVEw0/vMz646iMTB1z4gBAABgr1Ex0fjLb9x2FI3/GbltxKhRtARN9ARpX3MLNbX6qK1nmtYyRhizOk39QR95RLjHF6LRuGYE6KSvjWfDm7x+6hqOk6Ycn15ZpNlomLoPibBo0tibYy3WS20+LzWJ4/c90k6RuZQRkiN1KUxdj/E5QjSRn0QWmZcDelpN3iB1jyySYztvM05DfhHnTNzYIcikKZWI0+RIrzzX0BVjfxaNlqMir15xXLOX9gd7aWbVCGLSKVqOxyja005B3wAtGLsBAHubionGVy/cdxSNT3y1lkUjTfMnveQXQpFiR59eoYmQlwLDCT1YOlcvdYytUFqEa5cGKKA67uQ4dbT6qX8qKcMpKQRGOOOumOH4rwxIoekfGaHBQAt12EXjapj8rSK967pr19Nvp8msbqRp4WyA9h8K02wiSVqxnr7UNHWLvAxeMg5OzdGgyPupKavIMUthvy4simikoiHad6CThoTAdYmwQZtopC/0irIIoeAiCIFZHguRxz9MyzI0SROHvdTWGaaJcLtIG6IBQL1QMdFYvpXJE4yP9K7T6tvvGTFqkM2L1N8coOh1Y5uZ66OmwIjuDNXvkjTN9rSQP7wot1LjIWoKjZPaNliOBHLOONviYKeaLxrsqJsOq8cnaFSITtZhr4xRmz9MS0rLpRDahT4KdsYseVk4Y2tNMNdHRJoDNCTKYW1pGJ8Up8E80dDLHYysGNuCjBAl9dqZxwuhhGgAUD9UTDSYfcoMqv/4hXVa12pYMBhuKTT30bzqlFfH6Ijh9PKdurHv6DTl1991Fs54rc5V4iwaUhTUlsacaGm0dtKMccK1sUMUOD1MkZDSPXa10JmtpLlbze+nobjaPNFbBP3nNWdBkTiJhp7/wTljUyL2HcxvkUA0AKgvKioaz115IAXjl9pvUPJOjQsGI0XD5uCUfenzvbaWhu7I7UKShWvxitPPUUA0BKlYJ+3nriJpAYrojRiJdOxCVKKLIsFMmtbO9ZLfMf0cUtRkWj7qHreKl3auk/YZgrct0Si5TwDRAKCuqKhovPc+0UdP6bOovhBzVyPeVUqIhuy+alXGNBZHqKNVONuei/kDzKJmf0rU7AevOJW7gGgshkXLwjamkRWFFE2GbF1CtELRQAt1nyt9bfWWhlfENRRG47KIcxmD1xANAIAbKioazKs/e0eKxgc7btDVX7xr7K1RSnRPMelrY9QtZzd5qa1nnCYHAtkxjSyacLQ8YO7QktBxFo2FAa8tLX3s4MgYx9O/5x0jnH3h81iRrSLZskiL43wUUM6F7ikAgBsqLhpMxz/ekcLxO8dv0trGHh4It5MRNf2gjyJXjW1G7OMZV9waKUwB0RCO29qS0IXC3LcU9tlaNbqjdmpppGLHKXjCOhAuRYOPv8niyF1WTmZ38E6iYc2XxD4QbgLRAKCuqIpoPHgnNyje9AXnGVS878BXb1PbNzfo717W6DvxB/Tm7WoLjG3K7UaCokIA2kZtApBJk7YSp+gxP+07pgyCZ4QT5ym6osae111lwVk0stNYV43uKdn95c+Na3BLyJjSmxvT6KX5TSNchQfVm3NTbvO6p2xsraWh5JWLkNFoKRIiT3CM1vTgHBANAOqKqogGk7r3vpxyy8Lx2599i64sCyUx+Nl6hv59900Zptrvfe6mEaOK2H7c13F2ThcQE9mFpf/wbjCWsPxwT3eQaq3dNOW3HBJn0WBK/bhP/cHevgO9NHGt8HiGFh+hbiOuxxek/miioJhtVTRE6tYf94XCNO90uyAaANQVVRMNhoXDXMiQZ1QdG79LP3rjHfrtY87rVP3qp28YRwIAAKgFqioaDHdVdb1w11Ek7AbRAACA2qLqomHyg+vv0B9/MX/5dNUgGgAAUFvsmmgw779P9PwPH9DHvpyCaAAAwB5gV0VDJfFWhr5y4T4Fv36bmp+5RR86eoP+TIgJAACA2qFmRAMAAEDtA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuKYqojF25QH91t/epA986oYr+0jvOn134YFxNAAAgFqhKqLBIuAkDsWMRQYAAEBtURXRMIXALVuNDwAAoDpUVTS2agAAAGoLiMaukqSJwy00eMXYbAjiNNgcoomksQkA2FOge8qOlqCJniDtb22hpmYv7Q92UjSuGYE7TTHR0MM6ovXmXSEaAOxlqiIaW2X3RCNJkyEvBU5O05qWJsqkKbU4Qh2tfhqKi+0dB6IBANhbVEU0vjh5j7547p6xVZpdE42b49TRfIgmVo1tg6WzPmo6PWdsEa2d76MOn1dviYSGaWHDCEjy8X00Ex/Ohrf1CAHKGOGCtXO91OYVrZhWH3WcHaOhgw6iIdPhlo5hh8cpZQStTann7qNZW151dMFpG10xtgXXRyjY3E6TRkLF0lk4YxMrmR/T0etOfzQaluXIFzUjPJa7BvuPjtFytrGmh0cvxaj/QO4aLqmNuY04RTuDtI/L7g1S98giZSXbxTVOXx2hbpl2C+070EuTymUAAJRHxUXjx2++kxUBt8Kxa6KRWaSITzjC4QRpihNSSc/1kd8/QPPsfDMpWhoO5Zy64exlS0V4uXTqIg2K9LrPGR5xMUyBVuEwF0Vs0YpZm+qlgIjvtqWRPt9LHv9xmryut4KWx0Lkae2lWYfes1RUyZe53R4jjloqndKi0UIeFssVjbhBZkUPl9dgU2ymFikqWm+ekxcNx28eP0JLnLnNBEVFOf3hRRlKmRWKBoUQhOP6PUjN0aBfCGDE8PylrvHqmGgZirwaZWOR9vsGaIHzAgAom6q0NL79g80tCceuiYYgfW2cTj0maqlcw+0bodmE6XYZ3ZH3n1c85eZF6hcOdZJ/ViIdmnC+ioNiB+wZiBvfveQ/azhHiUjPqaUhsYuGvt0VU/OTosl2p9q+IBWjrqyj1+Ppx5ZOp7RoBCh6XYY4wOG21trVMPmz1yX/eCloIUPgrgyQxxemJVW0+fhW4fh5n4trHDQFRiJEKOClIT0YAFAmFREN0+kXslLCYcbbNbiGuhijaE9IDojvO2R2n+i15Gy3UdYMhyodmnBuHNWAHVrTGfZYurPO1ogl+j53ouHsrJfCPiN9O4pQbExTd7ZrqnQ6pUXD/O6EQ3hGtBaKHK+2iuT3HrNVYiDzbxzj4hrn359C1xgAsFV2RTT6XlYdZz5mvJqAu0uEI9K7T9jh+SiiNhZUdkE0FgZEq8hRNIi0WDs1HZ2m1PnebNeUm3R2XDSM1lih40uKhhxrMo7Z8jUGAOwkd7R7le+e4rWn3AoGs1uiwX39TfauEcHa2CGj+4T7220DzIwZv6hD4+9V7J5ijBZG91GvclzpdDjPR8aUNMsVDTkIr3ZPFRYNd91Tha5xmuZPquMnBrb7CQDYPhUXjR+vvrslwWB2SzRoM05Dfi+1DcwpU27H6ZTY1zGuezntXCd5eDD7ml4WjafkHhBOjr1UCdGwD4Qvx44XGQgnmj8tWjgDcUqndReoD2AL57uq5215vFM4U7Fd8LJqNHNUnN/mpEulI514MEwL7MU3V2j2pF9Jw41o5AaqKb1CEyEhluIa6KUoIRrGQHiHaM7pA+FxihywD4SXuMbNfuqf0k+QXp2m/sc6aUbVSADAtqlKS6PvnOZaMJhdEw1mI0GTfe0U4Gmxwvnte+QQ9UcTlprrWqyX2uR0T31K54QhICUdmsDVlFuDtBCkIzJuLs3cuY2psiWmk8ouKmUWlUnRdDJJmjkRII8on8cXpP5wHx3ZkmgcoqGxcHZKbPDEeN6U24KiwWzEafRJvzLl1phJxbi4xlp8mLoe0e+PxxeiyBwUA4CdoiqisVV2VTTqDO4SK9h9VRFKiQoAYC9TFdHYqghANHaATY20BP9mIfeDvuoA0QCgnqmqaGzVwPaRs6FaA3TqXLW9N0QDgHoGogEAAMA16J4CAADgmqqIxm91uX8/uGl/8Pl142gAAAC1QlVEg9eeYhFwEgcnY5F5ThwDAACgtqiKaAAAAKgPIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrpGg8ePiQYDAYDFZD9uBB4c/tmJlumQbRgMFgsL1spiA4fapmxi/TIBowGAxWi6Y6f/OzHFPTLsMgGjAYDFYPZgqD+qmaGrcMg2jAYDBYLZrq/M3PckxNuwyDaMBgMFg9mCkM6qdqatwyDKIBg8FgtWiq87d/bsfMdMs0iAYMBoPVg5nCUOhzhwyiAYPBYLVgpZw+f5ZjnMYOWNVF497mQ4peuUveM+v0p8KeF995n1NcGAwGg5UwUxCcPlUz45dpVRONmxsP6Oz0Hfpwz1t57wTnfYNTd2Qcp2NhMBis4Ux1/uZnOaamXYZVXDR+euMB/e0Lt+nfdObE4ndPvEUDr9yRxt/N/RynS8TlY5zSgsFgMFgBM4VB/VRNjVuGVUw0ZhP36eA33qZfbs+1KP7b36/T+Lxm6Y7i77zvzwdvZePxMX/59ZRMQ00TBoPBGsZU529+lmNq2mVYxUTDFIAPHb1B/+vZt+nqG6UF4EfL9+nJ0bfp18Qx5vFO8XbXLtOXmlvoS7NOYfl2J3GZ5hMpx7CybeV5eqr5DM07hbGtLtKrV5POYcWsVLrl2HbzBIPBipspDOqnamrcMqziopG87RxezPiY3RSN9avP0zOP7yePEIem1v30yRPP0+u3zPCticb8gJc8nS/TukPYlm32DDWpzryEc3/zO0+R59Ehet0hrKhVUDS2nScYrNFMdf72z+2YmW6ZVnHRcAorZBeu5VojuyUady6foY83P0rPvJyg9bti+1aCvt/zKHmeeJ5+fp/jbE00dtS2KBrbtkq2NGAwWGXMFIZCnztkNSMa37x0V8b/3Isbcnt3RCNBzz3eQp8cTlj33/4ePdPsNYTCLhopev25Hvrkfq9w6F7a/3gPvXLdDBMtjT7RWum7LL+/+dwT1HTyWXrlxOO0j1sx3sfpmZdWaH1+iJ4yj39iiBayrRpbOnyMYfL80rmfplcu547/5ImXDXEzztf2PL1ppnP95WwLyrNfnPtFWzlNM9J94SVRLi+fzyFdo0y62a7J/RVZxv2t4ljZUnvROU8l8s92Zz5Cn/0Eh7XQvk/00EuJXFjR8hTJAwxWk1bK6fNnOcZp7IDVhGh8+7KWjX/qpV0UjZsv02ebP07PXbOH3aWfX75I89fviu9WB7n+8jHyPHqGXk3q2z9/9gnyPP4s/dw4Nk80Wp+g515L0p37Is3vPE2eViEUT0VogY+/vUgvPOGlRwdfk/HzzLGl0UIf7xGOlltFye/Rl/a30Gdf0sdQrKKxSN961EtPPZsQ5xZxrz1LTwln+rV5Iy3V8tK9SF96VIjpiO6US4nG60PcMnuWXhfHPrib0Ms0oJcpXzQK5//Bdc7jE/TCNXHd+XoJEXt0vyi/7PIsXp5ieYDB6spMQXD6VM2MX6btumi88MN8wWBze/yOmnRiwkmtOIRlzVarvp2idXXcxkjjpVV9O7+lcTEX975wxpzWRWPbjKO2DlRzFI0e+r5yfj6f54xyvmxanO+P07eumnFVIcwdL02me5peVWv8r/RQ0/6ztCC+lxINzsPjQ4vZ8DvXL9Orl1fojvieLxqF8z/f56XHLa0+0RL8uJf+92X+Xrw8xfJg7oPBatpU529+lmNq2mVYxUTjQ0/rTv/tu3pmL76eP3tq4kdadkquKhh8DO/jNNT4FbftiMb9FC1ku6e4K4ctl0aeaBRxttk4WxIN69hD3vmyad2lheFP0j5RG3/qxBC9MLNI64W6axzS5Vr/Xxv7SpXjzmsR+msvd7X10Leeu0ivG60wtnzRKJT/FXqhzbyeVtPPU7w8xfIAg9WlmcKgfqqmxi3DKiYav99zUzr+RHKTTvzThvz+jz/I1WpZMD7YkS8YbPzjPt7Paaj7K24Fu6fEhbolWhTc1WFzkNIJyu4po2w24akd0TAsuUjzL0bomSf2k+fRY/SKk0CWKRrS7ifp9csv0nMnnqD9rY9S78srcr8lTy5EI9tVVciKladAHmCwPWGq8zc/yzE17TKsYqLx34dS0vHz2lIsCvydWxWx/6fRy1fvFRQMNj6GwzgNe1hlzRgIN/rus1ZkIJyd3FPPKc5IOtcaFA3hXF/l2ng2bpJeesqWd9NkuiW6p9RuNks5hKOesdbs1198KpsP96Jxl17t8ZKn53vWLiUzT0XLUzwP5j4YrK7MFAb1UzU1bhlWMdH4+6k70vEf+ubbctsUjl/99A36FWGFBIOt7Vtvy3BOwym8knZHOOaPt36S/veMMcBaYsotD7g2tQ3Rgmhp3Em+Rs89xd1UFRINKUhP0Uur4lzc6tmSaIhWlKhtP2PWtuWgs1fUvh2EWaZbeCCcxcvT+jS9xOMHd5O0MPyEnMFkisYrHV557Jt8vURt//snRSvA+K2Ke9EQ26+dNaY/63m+w7Ol/uJpeoXFoGh5iufBPBcMVtOmOn/753bMTLdMq5homF1M3KJ4M6Vn2BSOYoLBcc1WyM92aQ2q9csR+qz54z7vo/T06RcL/7jPmNrJU2g9+5+gr738LPUqXVw7KhoPxbmOfVzm66nnk1sTDWF31B8teh+nz0Zecx4Ylunaptye/p7ugGWcFC0MfdKYNiyuz9BZUWalHLcW6QVzuisf+3QkO414S6IhbP3yED395/p4kby+F3O/Ji9aniJ5gMHq0kxhKPS5Q1Yx0WD7i7C+ntTT/3g7u4/FopBgsHFcPoaPdQqHwWCwurRSTp8/yzFOYwesoqLBa0lxVxS3HOYS9xzjqHb5p/pYBx/z2goWK4TBYLCSZgqC06dqZvwyraKiwfa1C/qg9m8fu0ELb2w6xmH78S82ZRyOO3zR4bcDMBgM1kimOn/zsxxT0y7DKi4abJ1RvcvpNzrfkrOn7OH8i3AO4zgc1x4Og8FgsBJmCoP6qZoatwyrimhsPrAOgn/m+duy62r6J/fka1/N/V8oMtYBg8FgDWWq8zc/yzE17TKsKqJh2is/vkcf+bz+oz/VeN/kQukxDxgMBoMVMFMY1E/V1LhlWFVFg+3u/Yf0zdm79EfPrEvj77zPKS4MBoM1rKnO3/65HTPTLdOqLhowGAwGq4CZwlDoc4cMogGDwWC1YKWcPn+WY5zGDhhEAwaDwfaymYLg9KmaGb9Mg2jAYDBYLZrq/M3PckxNuwyDaMBgMFg9mCkM6qdqatwyDKIBg8FgtWiq8zc/yzE17TIMogGDwWD1YKYwqJ+qqXHLMIgGDAaD1aKpzt/+uR0z0y3TIBowGAxWD2YKQ6HPHTIpGgQAAAC4AKIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsqJhovLzyk/3R6nT7wqRuu7Q971+m74ri9R5wGm0M0kTQ27VwZoKbD45QyNrdLKhpynY6MeyZubG2R5Dh1FCsPAKBhqZho/Ifum47CUMp+5dM36Cdr7xqp7CIrY9TW7KPIVWO7KBANAEBjUDHRMEVgKxwe2ZDHfPTUOqUzxs5dYinsI7/PR56TFylt7CsMRAMA0BjUlGjcffA+ffhzegul+8W7xt5dILNIEV+Qoldi1NXcS7Obxv4sGi0Nh2h/aws1eYPUHx2mU6qT1RZpNCQEp7mF9h3opYnh40WcvUbL0V5q83mpqdlL+4O9NLNqBNmwi0b62jj1B/XzeER++8/lvLyMe3qMZnqCtE+Ey3wq4cza+T7qMM8bGqaFDSMAogEAKEBNiQbzw+V36Jfa9WP5+26QvtBLHumc0zR/0ktdMau71851kscvxGRVtEHSKVqKhITjNp1simaOeilwcprWZPAiRUPCMRcQDW3quEhrgOaNwLUxkVZwjNb0TQsW0diYplOtfhq8ZBy4MkYdrULoVvRNGbfZT/1TSdFqS1Pq0gAFmnPh6bk+8pvnzYgyCBHMpg3RAAAUoOZEgzkV0+Sx3Org1kd1sQnF1TD5LU48SROHW6xCkpnLdU9Jh9tOk0owCQddsKWxqZGmtmQMhz1509hWsIiGEAJtQ+040/PVMa6fRW9pzMnvOmma7Wkhf3hRfNfj9p9Xjt+8SP3meSEaAIAC1KRovPseUWv/LXn8X/+D2WdSJVIx6mrtpXnTkZtdVUYNXR+/8FGEfW8WZUyDxy98YVrSA3SKjWlkNFrKdk+1GObssC2iIdCU7inz2I6ofqCMaxvTWBs7ZOzj/OaOyZkqfBANAEA+NS8afzVSXdHQu3XyHar/rKkSOysa8nyym8io9Rdx2BbRkPH07il90oDR0nAtGvYyKEA0AAAFqOnuqd89Ue3uqRWKBr00eMXYNLk+QkEWAsU571T31MKZnKOXrI7RETeikSdEIl8HbaJRsHuKy9lCbaPZ5pOOOWMNogEAKEBND4TP/rTKA+GLYfK3DtBC3nRf4WQDXuq/oLcG7APhC+FDRQbC4xQ5WHggfHnYL8KGaUm0NOSgeTt3U7kQjWvDFBDxRhdFS2MzRUuj7XKWlEU0igyEyzK0hih6TdO3F0eo44AQRi4iRAMAUICaEo3dnnK7dLbw7zKWIwFqOjZthO3glNtMMjst1uMLUWRqTKQVoOh1I1zBIhqCtXO91OYVeWj1UcfZaYoea6FgRFcFvaVhnXI7eN6ag7VYbixF5tMQEIgGAKAQNSUatfTjPgAAAPlUTDTMFsNWrWaWEQEAAJBHxUSDFyz86BYXLPxI7zrFru7FBQsBAKAxqJhoAAAAqD8gGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAvpd96h2xt3KXljnVbeWKOfXn+Dln66DGsg43vO956fAX4W+JkAwASiASR37mr0i9UkXV/+Bb1185bYvkcPH6Yp8957RgzQKPA953vPzwA/C/xM8LPBzwgAEI0GR7t3X9YqV9feonviOwBO8LPBzwg/K/zMgMYFotHAcC1y+Y03IRbANfys8DPDzw5oTCAaDci772ZkdwP+8cF24WeHnyF+lkBjAdFoMPifnLsYUm9vGHsA2B78DPGzBOFoLCAaDQbXDiEYYKfgZ4mfKdA4QDQaCO5SQJcU2GnwXDUWEI0GgWe88AAmAJWAny3MqmoMIBoNAvc9Y5YUqBT8bPEzBuofiEYDwD/K4jn2AFQSfsbwA8D6B6LRAPBAZSVbGZHZTXrquTv0i7fx6/FGhp8xDIrXPxCNOofXDeJlICrB++8TtY/doQ986oa0f3fiJv381lanX2q0HO2lNp+XmppbaN8j7RSZSxlhoHySNHG4hZrOxPXNxTAFmr3Ufa4y15ifNaxVVd9ANOocXnCuEjNbWDCOPLuRFQzTDn7jthHDHdq5TvIIJ9Z2epxmL01T9ERAbPtpKJ42YtQ6cRoUYtcRrdUatl00hinY6qVTU4ZoXBkQYh2iiR3KPj9r/MyB+gWiUefwSqW88NxOogrGr3/mLYto/J+ZrXWDLZwRDu3gGOWGUFO0NBWntb2iGXtNNOzssGjws8bPHKhfIBp1Ds9o4RVLdwoWjL/6li4Y0fkH9M+JNP1yuy4YTz9/x4jlnrXRoHBafuqfSlI6r2fLyeHZnHRGo4WRTmrziniixbI/2EuR04fE9wFa0GOIizBNgyGfaMGIOF4/dQ2H6ZTF0RfvIktfG6f+oHL82TlKcV6lw+XzmubsfFNzYep6RE/bcrxAiubhYZocDtH+Vk5DtLp6xmm50HiylqCJnmA2buDJMM3fNMKYDT18nzxXkPqjcZrsEd/Na5gcpw4RNnjFOHc278IOjwvJLg9+1jCLqr6BaNQ5/G6EnVrePCOSMQVj9PKm3DcefyBFYzuCIcmkaPY0d0kJp8UOtS9GS9kfrJcWjaWwXzrPI31699aEEAyZlikaqWnqFg7W81gnjcbmaD42TF1+3UmaaaxFQ+RpDdBgLEGpjSQtRY9TINtFtkgRXwv5e2K0nNRo7cowdfgO0WhcePVUguYvjVCXSCso8j1/SbSQ9MuSY2OOBh8L0KlREbYhjr80QG0iP4Hwogw2HbfnYB9NTM0J8WgX526httEVGW4hI65HyCvK0keTiSRpyUWaOCbK7xdl5fNmRF65bN5DNBidpvmpcRo8KOKzwDiIhpYQ1yPSLs4vyj4hvseFcOuxtg0/a/zMgfoFolHn8Et1doJ3hWD8j6/fzhOM7bYw8mAHHO0TDlnUyIUDH7rCVe0SorF5kfqFQ2yLqA5Wo/nTvqxoyJZMay/NqjX31THpOGUaGZGeSCM4nDACmTTNcu2856L4tkLRoHDqoWFaWNEcWkMuu6fSGmlCNDThledPi7SNWr0uGseV/Gk0c1TsCznU+kXLxiMc/Og1Y5vhayDO338+TekLvSI8SNHrRhjDQiJEz0k0JDvcPcXs1DMHahOIRp2zE//ALBif+KouGN+4pAvG2JUdEoyMcHZq9ZZr0ywU0mmWEA27AzRIiZaDKRp694/dAeenYemmMc08TkvQ5NlOOvIYd1HZu49KiIYoz+RRo2tLmlHzV0XDlj/nPJvlMtOxGp9fLbeKTA+iAXYIiEadU2731DuiZl1IMJ78drktDL0W7JE1+hy5mrghGmp4Kia7g6STNmrZxVoay5FA8ZaG0VrpillddOp6gjSjVZG6Mk1LZnB6kUYDIs8DppAVF43UODvykKj9GyXIiJYEt2K2IRp6S6KdJtWATIqWE/qOWmhpoHuq/oFo1DnlDISzYPzF/31bCsTQ9/VZUSOvbmYFgwfFy4WdKtfeg0eHafLSnKjRH5KDuKYQLIVZAHjwOkbzU2N06jF9QNl00vYxDX3KrnCSBcc0wnREDprn0lge5XEQZVykj/PgpY5xEa7pouJ57DhFp+ZoNtonxyT8xpgEi8YQhx8cEPmP0YLqsAU8pVgf6F8hbSNJy7E+Cor42xENyqxQ9KAovzpmcYi780I0yUUxxzRarWMasjVSSDTi3OUlWk8D4vrG4sostu2BgfD6B6JR55Qz5fZvRvUf7lVKMExSl3Kzizw+nvGTq+Wbs4X02UC6eIyK1ke2Zm+bPcVdR7PDtm4aZfaUxxeiyFzM1jrQpDOX4ylGnEHh5LOos69afdTRN01rytiGdkEIiXH+yFVjp4loCcyfzc2MCjw5TJFj4vt2RIPhrrK+XHr7Q300qza01NlTIq9tPTw5QHwvJBriLPN95vUN53VtbRVMua1/IBp1Tjk/7nvkbIo+9mXddQ1fvF8RwSibdJKWrlnd69JZ0ToJjJDZs64lFmlN7Z4yurh48BjsLPhxX/0D0ahzyllGhEXjN7veIt/fp6RgPPEPG7UlGJSmhQGje+osT3m1dS0xXLPm7iOje4mn3HZzF5c5TRXsKFhGpP6BaDQA212w8Nj4XSkcbF3fuUvv1ZRgGJjdU2rXUixhGViX3UtP+vUuGCEobZ3D1h/EgR0BCxY2BhCNBgBLo4NqgKXRGwOIRoPAM1oquTw6aGz42cKsqcYAotEg4HWvoJLgda+NA0SjgeCZLZVYJh00NniuGguIRoPBA5Wpt7MrAgJQFvwsYfC7sYBoNBjvvpuRfc8QDlAu/Azxs8TPFGgcIBoNCP+Tc+0QXQpgu/Czw88QBKPxgGg0MPyPzwOYmFUF3MLPCj8zqHA0LhCNBodnvHAXA8+xh3iAQvCzwc8IPyuYJdXYQDSAhH+Uxd0NvAwE1yJ54TlesXSn3voH9g58z/ne8zPAzwI/E/xs4Id7gIFoAAu8bhAvOMcrlXKtkt+NwC/VgTWO8T3ne8/PAD8LWEsKqEA0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDVSNJxe+QiDwWAwmN3Q0gAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOCaO9o9+v+VrIGd3+c1hAAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       accountingsoftware.co.in      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>092186 34101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390cfda9dc4ed47b</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I T Solutions Tally Partner  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       A-6, 1st Floor, above Post Office, Connaught Place, New Delhi, Delhi 110001      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADRRSURBVHhe7Z2LU1xXfuf3z3BNkt1skkpSlSrvI5OJtxZ7WVCIuuISFZd6o3LvuNwTxWLkwZvRwFgWK1sSg4xkAp5eZLPKDDN4sBhhtcOKEmOwZMlShFEYGI86JBLMSDCWQBLqEVLr1RLSb8/v3HO7z+2+TR/oBw39/VT9qvvec999+X3ueXTzbwgAAAAw4G9rtxGkAQAAwAhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABiTN2ncf0j0D6P36JUDc7Sm6Tr97mtX6Q/rrsr3PK/nZ/fowbxaGAAAQEGSF2kc+9co/cl3rtGXvnVlwXiqYZZOnIuqtQAAABQaOZdG88DtmBS+vOsa7Tp8iwZ/8YDm7j6WcfoXUTmPy+zl3v74tlobAABAIZFTabSI5M8S+L3XrtKRs/fp8WNV4AKX8TK8LK/z3aMQR7YZfu8p+lrfdTUFAACLJ2fS+PR8VCb/3/72Ffrnyw/V3Dh2rSKRkFiW1+Ey3sZycP/8YdrR9Bf05I6n6Ildf0Gb3+un8YgqzDdXh+nd1g30FXUsvvZ+mkpxWa4ObBHHvIWCl9WMBCANAECm5EQa3On9x6q5qWPwrprrJJU0mPfEOlzG27j3QM3MF2M/oGd3bKDX+s7T1RsRujlznoL7N9CTzR/Q1CO1TL64F6K3G5+hzT3n6SaL4sZ5ej/wDK358XmrXGf2OL22S4gF0gAA5JCcSOODn96TSf/L9dfoUYomqYWkwevYHeeHxLbyR4SOtD5Fvp6Lalrx6Dy9u/speu0TVd24fJi+tiNAwU/eIp9M1GvI995puqlJ5X7oA3qtaY0oe4q+0vQWHYltUohAJPb3z/SL2gyXP0NPB96nkFtN5udt9OSuNrFGnPun36In3j5MV9W0RZROfW8NbT4QEMeVRhqHh+lI+0ZZc3nyO1uoPaRVW6KX6eh7W+hpPidZwzqtidI6bn3bV/u2xI/FviYDr8v13x7hmVEKHdpKz6pr9GyrOM8bPD/73L17V0Y6TJcDALiTE2lsem9OJvyF+iUWkgbD63J5ldhW3rghntZ3vEDv/1JNa4S6n6MnfjhsTcgEqWoAwmn3vzhNbzYK2RxWGfULUb5LJNhfioT8KEpXP32L1uwO0LD0HydfkbADH1AoLCYjF+n9t5+iNd0utQcXZKL+3mm6r6aZ+yMBWtMkakK83zTSeEIc1/tjwlDRKI0fFtva/QMlJRbPM/Ts/n6a4uO8d5GColbzZGxfJtJ4ip5t76fxmQjdF6d+81QDPdkYoFN8ntEInXpvAz3R2k83efks8+6771JLS8uCQuAyXoYDALA0ciKNkjdnZcI/+0VyX4ZNOmmELj2U5bytvCETn3vSdXuqHtZqFjePbqUn9orELd4Pv/cMrXfUVoQY9j5Db/+c33PydYpJbjvQn1B7cCFymnbs2kDvjqlphmtBjWreAsfPsDQcx6WWP8I7lu+30hH9cs/205bY9kyk8Rad0iqGsny/JrjwRTp15mJOpHH58mXavn17SnHYwqitraXhYSV/AMCiyYk0fmerJYRb91IPl0onDV6Xy3lbeWOBpOsqDVmikE/5PO86BUXNgZulEsNqskmTfFMREXJoXkOb+5wHN9WzkdaIGpBMzAscP5PUp6EvL2ortvTiWM1yRsftdk0uH6cdQpZfaXqd3jzcT6EvUvTgZ4lU4oAwAMgeOZEGf9vbVBrc/HT7fvJytjR4CG7eWFTzVEKC/OUHtF6TRqz/I4klSOPRZdlU9Ox7IUezlDyOXa/TUbt2kHVpiGON9U8sQRoMN8+NnabggdfJt+sZ8h067zyHLJMoDggDgOySE2n8l91W8xQ3MaWiZ/Qe/f42Sy7c6f2zXzmHSfHQWy7La/NUyo7wi/R+U3JHuJ6CZAe1TLpROtX+DD3Zrp7+bUw7lBN5FBHJfoMQxrCjo50JHXjGtUbD4TZKakFpyPfpmqe+QcEvZIlkYWkIWfx82Fm7CP2A1riJJcvo4oAwAMguOZHG139kdYQH0nxBb3ruEa0LhOWyv1lzhfb+JELzKjHyujz/65157AhnUgy5faLxBxSyk7ZMkNpQ2PAwvd2oJWS1jTdPWdOyo3zv6yohL0YaUSmMJwOHzYb76hJwYUFp2B3h7afpquoIP/LOc1pHuFWD8v04JM/5/pTV+b9QTSPUzcf+AY3ziClR45jijvfG92ncKs4ptjggDACyS06koQ+5fZgm2fHw2n2f3KZ/W3uF1rZcl9/x4HV4Xd5GfofcWqT9cp9MkA3U3hcfcvu1A86awM2fv09bdq+RT/08tPXdYTtZL0Iacj/x2oMeVpNRAhlJQxC9LIfjOobc6t0QX1h9FHKYcNNb9O4Pv7GgNOjRdRo+YA+55aHFATql1VRyDYsDwgAgu+REGpz47d+SSvXlvkS4OSp82+rb4HV4Xf5yH2+r4HBLkAAAUATkRBoM/1otJ37+SZCFht4mwssu98+IpAXSAAAUKTmTBsO/VsvJn0dA/SSU/gcLeZkV8YOFkAYAoEjJqTSYxJ9G33n4Fn32yweyKYrD7afReR0AAACFR86lwZj+EyZeBv+ECQAACpe8SIPhDm3+bob9717/oC75370WZKc3AACAGHmTBgAAgJUPpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkAaAAAAjIE0AAAAGANpAAAAMAbSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGPyJo37D4l6fnaPXjkwR2uartPvvnaV/qDuKpWL9zyPy3gZAAAAhUtepPHJv0bpT75zjb70rSsLBi/DywIAAChMbkZu51Yab39821UQicE1Dvs9rwMAAKDwyKk0TIXxle/M0vwjor8/eYd++9vWvOURR4SmR0dpOqIms0yopZxKWkbV1CKZD9P46QkKz6tpAABYBnImjU/PR5Pk4Bale69T/9h9tRZR/z/fp9+oscp4G/lljDo8Hmo8qqwx00O1pdXUO2NNZsqipDEcoJLSAIXUJF3ro7oKL3WdU9MAALAM5EQa9x4Q/fGu1H0YLIWF2HfcqqHwNnhby0YhSQMAAAqAnEjj0E/vJYlCj3TS4KaqLyvp8Lbyxyi1lpZT6zBROFgtkrZI8ipqg8ocl45Rs7+SysS8sko/NfdNWfMV00ebqLbSI9bx0LrqJhq8pAoEujTk9h0Cie9bLqftm+e5CSzdvmq7hmig3k9r5bFWU9dZrd0tMkG9qqykopJq9w3Fmr7kuu191FVtn+c2Cp5boM3u2hB1qGVLPOKaBCdIryOmPU7HvqzjnO5voCoPn7+HquqP0TSa5QAoCHIijar35pJEocef/d11tWRq2v/xjlyWt5U/4olbkpSoJ6jL66Ha7imKiiQWvdBNtSLhdpy1SqPHG6jM+wYNXBApcz5Kk93VVFbRQIMq35pKQ5JY00g4FqN9VVRTcCxslXeJ/VW20bgsnaGBag/5WoYowsl4boKCYrqqyxKgXNcrtjXF2w7TeIe17ZG7stjJ3VHar10TmhFSFdPNJy1tGB2ntq9Qm1+IRxzLbiEKMSsaHqJWbznt7F9AWgCAvJETaZS8OSsT/iZNHulqF4n808UHcj3eVv5IJw0u92n9ClGaHh2i0CVOkDPUu7mc6vpEko4RpoGaeC0le9Iw25e/Q6sFqfUHron3FzrJXyoStS6BiT7a3zVKnJp53Ve6YyctkvkYdVSWU/NxSwQ6LIUSXydNqmkmMtRJ+/t532bH6djXpW56pXQT9aaooQEAlpecSON3tlqi4P6Iug9vLUka1yOP5Hq8rfyRThpR8dS9idZyc059O/WenrCe1CWWUIIX1KRivK0ylvCyJw2zfcWa1Bh9fd72xm6atkqSSFpXMLIneR4jz2PPkJpKJMPjVEAaABQOOZHG7712VSb82/cfy+ldhy1xpIr//lZyc1VErMtlvK38kU4aivAEhfo6qZnb4b1v0AlZ7p4gQwGPI0Ha73MhjcR9ZU8aURqsz540jI9TAWkAUDjktHlq/Eq893IhcbjVQv515qEsK6jmKSGLEa5dqEkxQ2tqWULzlCPZLkYaZvtKmYzdmqeuiXMbnZEd2MnSmKKgz7x5Kjo1SiMTfGwZHqcC0gCgcMiJNL7eafVldDiyUmpxuEnj+6esjnDeVv5ISNzzQ2K6kvaPRinK+TJ8jHZWeKn5qMpo4VPUWhn/XofV6SuSMfdxcKdvzzbypugIZymUVWyjAV42qjqb9X3Ltv0aGrim9p2QTE32lToZG3aE29vmzutKITD1cUanhmhwVInAqCN8qcdpAWkAUDjkRBr2kNvEUVI8lFaXhR2J0nj0OF5bWa4htxaqD0PMKwtYSSt6ric25JaHl+7sHJNP5zbTfQ1UpQ8v1fqinckvQuPt1rZLPF6qa2+jRse+Z+jEDp/cT22PSNAuyTTdvhZMxvqQW3keo7H+GV73lUB3bBht2YY3qFcbcjvZ7qWymj5RZ1BoQ255yGzrUe1ABBkdpwDSAKBwyIk0+Ndq7e9ZvJdQ23jyjdRf+vvzluv0+a8exobb8pf78Mu3+ScpkQMAgCIn0mDsnxH5TVGL4J8GsflJ6D493WjVItziy/XX6N+/ar3P/8+IAAbSAACkImfSYL571Po5kN+qvUIB8f6Bav5I1UylB68LlgdIAwCQipxKg2nRfun26T2zdOTsfbK/g5Eq/m4AwgAAgEIk59JgTpwz/ydMvCwAAIDCJC/SYBL/3Sv/q1cOfo9/9woAACuDvEkDAADAygfSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAY3ImjT9vuU5f+tYVRzy9Z5Zu33+slgAAALDSyJk0fn/b1SRpcJw4F1VLAAAAWGnkTBr/be+sqzQCR2+rJQAAAKw0ciaNv/7hDVdp/E3HDbVEgRKZoN56P60tLaeSikqqqj9G0/OqjLl0jJr9lVQmyssqq6lrNKIKFFN9sfISj5fq9g1RWFs/OjVGg8E22rlJlAVn1Nw4C5dHaDLYQFUese1SD63zN9CJS6ooFXN8PpvIx+u0jKqZjNpWpUdsq5zWPlfjPJf5CIXaa6z11L56z6nymR6q5fNzibKA2ofrMgEKWaUAgBVKzqTxvZN3XKXx1e8VsjSiNLLbQ14hCpnoo1PUW+0hX/uEVXx3lPZ7PVTbPUVRUR45HSBfaTX12rl9fow6RBK2yyk8RK3ecqrrC1vlwwEpmubOTmr1lVNtohTSlEdPNohyIQqePR+lye5qKvO206RVnMxMH9VV+qixa5Sm55zNguEeXreBBi9Z88NHG8S51NCAOtRIXw2VeAM0wtP2virbaFwXqI48dz8Fp9T0hU7yV4r15yIUiQWaJgFY6eRMGpPX55OE8acNs3Tp14/UEgXI3VPUXOqj4AU1zQw1UYmv00rM+ntJlAbry8nbNmZNyqdrTSKCyXZv/Ak/lnBnqHezizQWLLf25e+ws7JgXkgp8XhjWALc2a8s4CBMA9Vi+z162RQFhahah62pUIuoGeg1k8gxakw4N51I/zYqq+kT9ReFEGDJ5h6xJwDAaiJn0mDWaiOo/uubszQbKWBhMDLpN9GI/jR9qZteUc0q4WB1UiKU8149ppKlSLx+raYxxzUNt8SdQhox3Mqtea1DalIi5m2MJ3oHUig1tL8j3pyV1NSmMz9KrRVxAclajV3TEEzLWk2qmoZ13s0n4zUJeV1e2ES1svnLQ+uq22jkmioEAKxYciqNg8P3pDB+o+YKzdwscGEwUhoJ7e7avOjxhoSaBifTTU6RzPTRzmfj7fh+uxbiIANpOAThNk+h+hR8u4UoOJeHx6hLLOtzPR5RI+rwU1lMfhbjbb7YeZQ8u81qFnNBCsbfTdNqmgmfbqPmph4an4lQZGaMgtVCHgnLAABWHjmVxqPHRE83WqOo3uzT01GBkkYasvmqQuvTGOuk2gqRUOtPkXzG5nZ9rc/D6tPIck3DVBqjASorbaDBu2paIKXH/RJq2ma6/w3yiVpFSPuIZHNTYp+Ga00jTAM1Wr9NKsJ9VJeyKQ0AsFLIqTSYz375QErjt2qv0NkvHqq5BYoUROrmKSZ6rpt2qiaXqvoeGgj44n0anKgTkrJM1BsTn7AzkIZp8xR3RC8kQEV0OEC+imrqdYzCsvo8dvbrold9Ho79C8baxPoNNKLJyZ1RahU1FtdjBQCsGHIuDab2g5tSHE++cY2m51ZwR3gi89yWX0kdZ9U0d/4mLOvWpLU0aSyyI3zuGO10OxddalPdVOsRwtA2aWHtv/m4PtrJkoZzntXZXtWVuIEJCm72UZd9XRi3awsAWHHkRRr3HsQ7xUvedB9BxfNe+N4Nqnpvjt76KEL/MHqPLt/It2AShtzOieRX7ZIU56MUmRql4HYvrd2u9QPI5qtKau6fUc1TVlt+cj/CUqQhjs4x5DZC4x3VSX0JcaIUCniprLqTxufEpOrTiJ3LJVHrqPCKJ3/3ZsPpLj+VbG6ncdU8Nc1Dciu20Qm9FUrWXOLDdHXG23jf3TTJjpkP00iLF30aAKwC8iINJnz7sRxyy+L4o9ev0vCkMInil7Pz9J92XpNlevzxrmUYbpPw5b7ahC/nWYnS+jJca98ERRLb+NN8uc9iadIQB+f8cl+6EUmcrPdV0zrud0k4Fzmklo8xMexO/YW+3KcY3yfOc7fqz0lE37dY3/fNdgqxvAAAK5q8SYNhcdg/ZMgjqrb33KKf/eoB/dF299+p+u1vX1FrAgAAKATyKg2Gm6rqPrzlKonEgDQAAKCwyLs0bP7pwgP6s79L/vl0PSANAAAoLJZNGszjx0SHfnqPnv1uGNIAAIAVwLJKQ2fi6jz9/ck75P/BDSrde51+59Ur9BdCJgAAAAqHgpEGAACAwgfSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAmGWRxofDD8j73Tsy+D0AAICVQd6lEfriEZU13HYEzwMAAFD45F0a3UMPkqTB8wAAABQ+qGkAAAAwBn0aAAAAjFkWaQCQdWZ6qLa0mnpnrMlQSznVBtVEEhGaHh2l6YiazBmj1FpaTq3D1lQ4WE0lLaPWhAvRqVEKTeX8oADICEgjDZx8kv7Q5yaot34T+TwJZcMBKhFJoqprSs1wEj3ZQGWi3JHMLh2jZn+lnF9WWU1do4tJGhGaDDZQFR+HWH/tC9soeNa5vjx+UaaHezK1EpwvMEpRNcfG9RpkGZlQtWNc+1wNtfZNJB1LShYljTHq8Hio8Wiaa60+TzvKKv20s32IwvOqPC2Lk0Zon4fKth8TnyoAhQukkYakhDnTR3WVPmrsEk+qcwkpzU4ylW00npRYojSy2yPLY8ns7ijt93qotnuKomL5yOkA+bTEl45I/zYq8wZoJKymef2KN+jEnDXN+xysL6e64BRF5iLxcM3EVoIrKfXS/lHnAnmTxuYekqcyH6XwxDHav9FDPrFfI3EsShqGyM8zQCF+L44pImoCwe1eKqvuoWkjcSxOGgCsBCCNNDgTppX4d/arLJ0IJ5mNNUIqHmo+mZDqwkI2paKsRktmQ01U4uukSWtKYCV5b9uYmraZod7N8eRjEaHBJh/tdBjGmaTc10uFtW6V308lXqf0kqQRGaPgNj+tZcl4/NTcp2pWY23krRBJ1l537hjtLPVR8IKapikK+sqp+XiyBhzSsAmL9Su81KFdjunjTVQrrm9JqYfWVbdTyBakmzS6hmig3jpOWYuL1cISr1MKdGnYzItaihC94x5IdT3cpLHnGIXaq2ldhVq2P/755UPOAGRK1qXxs8l56hp8IF9Tcfv+Y+odfSCD36eCR1XxcNzlHF3l+EOeHxJJoIb2d9hNQh6qqj8Wf+rkJCMS30iXSLz1pxxPyNNiXtnuUzTIyUxJwy1RynmvJjZRGCR/8SQ8fbSBfKLmEbqr5smkVUlV1VpCC6Zq8lEJbkgkdn85+TRxOa8BH0u8dhTl5rXKSnFsYqvzYhsVcUlEjzeIa6RJUkpkm1YTiuMqDSVRf4eVhKNCsl67ZjUfpnGRfGPruEijpKKagmOiVFybyS6xLNcAZWkG0hBMdvjin+9C18NNGqIm13x0RiwralMnxflo1wPSACuBrErjg4TvYPB0IiwJ3747sWX+5zt3XcXBo6rKtW0t1ygrxx+yTEwioe4WouCcEB6jLpHMYwmWkwwnJlWrGLAzID+dikTScdbanp1EZVJ11DSEXLo3uSTPhaRhlclmsWe30YDenRKdEE/aDdRx2mqeklIRokuqBUm0BHehk6pK/bHk77gG4hzLEo6Zk2hZgMutJF/bYx19qEXsqyVAXluCvG7SuVm4S0Pft3WejlrK3VPULEQxcE28d5GGLRuJKpfLZigNx7EueD1cpOF4mOByD+1Xl9ZxnQEoULIqjfXfjcuAg6cT4dqFvgwHz0uEh+Pqy/D0cuD4Qx4VCaK0gQZjT/Iq8dtPsLEkYzVjxTrEObGofg7eXuzJm5NehdanMdZJtdxsoRKL3DfLIClc+j3smkaFeHJ1y8qK8X2VSbUgC2eCG2/zUolfJEN1zPY1sJ6WE48nXs79LNb2WZR8LGK7FdY142TqSOQa6aVhHV/yvtW1cGuesq8z4yh3nmtKDKSx8PVw7kcua99LEme5fp0BKFSyKo3/EXAmep5OZEVLQzyB+xOTiExGap6eZM62kVeKQhdImAaqnckseq6bdqo2+qr6HhoI+OJ9GnftzusJCm4UT9lH453ZLJlkxNO4WG5nf+rxN6mSc1IilW334li7Z2gkURpJzWcafD24X4OvlVyOax8esd0Zce6itpXYXaNwPy6r5mKJho8v9fr5lIbePLXw9YA0wOojq9L4fz996Ej0PJ0IN0Vxk5S9zELNU/q28tE8Nd7hJ3+b/kdrJa1YEk/q2BVwZ3ZSTYPhTl8PNQe7taYqq4nFkcx05rk/wWrGcuLWPBWmEzt81Ninp1lLGnYTTuRkE/l39DkSsaM93kFyIo2KmhWP5qrl5i+VzOSwYVFzGNFqW+QQGJ+3j3Zu88fOk2tjZfUN1JhQS9NxlYajI9zqa0kazmzvO1/SSOgIX/h6QBpg9ZH1jvB/ufyIgv/0QL6mgiXBtQsON2HY5Lsj3EoAVuep7KiUQ2D10TtRCgV4yGUnjXPnperT0Juh9CTDnd/cVMEd4FaSTiENsS97OOda13H6btJQ2491DLs0T6mk23paJbgL3aIWYNCnEcM633hzi0DVQLhfR35fITpDg7uFJDR5cV9GiS5XKVuxjZRP5AnS4Gs/1kONG5xDbuUQY/58zllbkc15Lwhh8wJLlkaEQl0BCrp9P0b/POVnNEQdmzzOIbcLXg9IA6w+si6Nlc50XwNVyeYia5hmx1A8GUrmwzSyTw2ZrKik2n3al70Sn0xlh7hec3CRhkxm8S+zRWJPqTpCCKNDNJlwKDQvEl7ntthIrnX+BupVCdUmeq6Hml+wz0cfDpqImzQEETFfJEVHMpsbpa5vCsGJ5ZOugcDRzyNJIUsNmVB5eypSfblP/3zWvqCd75KloY5Ndd47kJ9n/JhSfrkv5fWANMDqA9IAxY09si1VXwkAwAGkAYqa6Fg71bn8dAoAwB1IAwAAgDHLIg0eCcVDaDmW60t7AAAAFk/epcEjofShtBzL+TMhAAAAzMm7NPDvXgEAYOWCmgYAAABj0KcBAADAmGWRBgAAgJUJpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwRkrj3v37hEAgEIgCinv3Ur8uJeztZhiQBgKBQKyGsMWQ6jVLAWkgEAhEIUS6pM+vmQRvIwsBaSAQCMRKDlsIbq962MtnGJAGAoFAFGLoyd9+zST0bWcQkAYCgUCshrDFoL/qoS+bQUAaCAQCUYihJ3/7NZPQt51BQBoIBAKxGsIWg/6qh75sBgFpIBAIRCGGnvwTX5cS9nYzjLxI4/3PIvSH//safelbV4ziK9+5RodHb7luC4FAIBAuYYsh1WuWIi/SYAm4yWGhYMm4bQuBQCBWZaRL+vyaSfA2shB5kYYtArcyt1js8ggEAlG0YQvB7VUPe/kMI6/SWGy4bQuBQCCKIvTkb79mEvq2MwhIY1ljij6sKqe3B93KVmucobdLX6YPp9zKEAjEksMWg/6qh75sBoHmqcS4PkYf7niR1lWUU0mph9a9uJUOngm7L5txLCQNq2zLwSmXspUckAYCYRR68rdfMwl92xlEXqSx2Fg+aUzRkZc99Hz9R3Tx+i26d+cWXf68g7ZUrKd3zuRiNBekgUAgshS2GPRXPfRlM4i8SGNP3xztOTLnWuYWyyaNS4doS+lL9OEF5/xQYB2V7D4Vm7748R7ass5j1URe3k8j19SyU7z+Hvr4zP5Y+Us7hIDuxLd18Ug9veQRtZiKdbQlcIDe+WsXacjtcE1HRdUhumyv/5G+7z30acKxWmEJ56XOifi8cx30YukWOjJjTS+0nZGmBFnJ47ETvZX0f3RwnzyPZKmp8sPxa7Cu9gCdv+4sP3jiMO39avwahmLlIq6doYNbX6S1fO6eF+n1js/ppl1mcI1vjnTQ63Lb5bT2q/V0ZCJehkCsmNCTf+LrUsLeboaRc2mMXrwdk4CpOJZNGnc+p++vE4lw/xjNaklIj5un9tD69S30GSffOzMU2v9yPKmrZC9rKrfEsjOf0Ntie68fUc1bn++j5ytEwvx8RtZiLn5UT8+L5U1rGjc/rqey9dvpyDmrFnT+wMtUVlFPn+oJV8Xlg9px2dNbDtOseJ9uO+mlUU5lLMuJMM2K84wtJ8Mql9fghpie+ZwOitpbWf0nKvHb63dQiK/hjTE6KM5zfevn1vp3Jujgi0IErWesz2DmFL29XgiwXQkw3TW+cEDUDMWxqnNjSa9f10IjfCxy/wjEKg1bDKlesxR5qWn8aPDWosSxbNIQcfPsIWr4K/GUyk+4ezro0zGR4GPlViLf+7HWVHXjE9orEuqRS+K9TGgi+WoJihNwWcsZ9d5D6wMqOcoQ23OradhlDmlY01sP68czQ0e2uD3ti5g5TFtjid5azlo3/XbSS+N5OnjOXjcxuDyhtjayj9bHrkvy+lJoLyvBDbZQ2bp9FNKlzetXiMTP8wyu8Yu2YGQICT3voXfOxJdHIAoy0iV9fs0keBtZiJxIw076qSKdOOzl3MryEvyE+vlhOrjjZdkhvvYlu/nEekqONRvFQiVUmdBEctO2xQmtpIkTmpWsY0/EMqx5ZtJwT9ah1nVq+875DlFc+4hejzVNpd9OemnY793CpfyOqC0ssL5eK5Lvd9i1EhXy+NU6Btc4+fNJdY0RiFUQthDcXvWwl88wlkUajYUuDT24uUQkIqv5hBPeOvr+5y7LcSyDNEZaRK3IVRr3afbwFiqp/Yguf1wfa5oy2U7WpaFqY6nWTysN2dek1ln0NUYgVmjoyd9+zST0bWcQeWme4t+eMhUGx3JJg9v6SxKbRkRcPPCSaj7h9vaEDmYOe/kFExq/z2PzFIeqYbxe69HWS78dPuZvHMiiNGQnvN48lVoaZs1Tqa7xLfqsXu8/UZHweSIQqzJsMeiveujLZhC57wi/cGdRwuBYLmncu3GG3lnvoZdaTmlDbg9Rg5i35ZCVRGePbKUy7sw+az3NzvKQ3K+KJMcdwmmkkdgRfv7w9gU6wu/TZ7tFDaflDN28ZfWhWB3YIvleUB3Yh7aKZCqmXTrCrQjTx7Vi/wlJOt12ZBJ/cR+NyI7qCfq0fr22DRNpxDuq792aoA9fFrIU1yDeEb6ANFRH+Jb2z1VH+Bn6/lcTO8LTXOPS9bT3I+vzunnhI9r7V1vpYzVqDIFYMaEnf/s1k9C3nUHkpabR2DdnLAyOZZMGx7UxOrJnCz3Pw2JF8lv7ly/R3oNjjifXi4fr6SU53NMa0vmhEkjahCbCaMitiptCSN+Qy8a3Gd+3GiqbZjipbKLSRlHZseB27kzRx9ufpzJxfmXrXqS9rXvoG4uSxkv0zoF9sSGxL24/lDTkNqU0OK6doR/9r/XakFs1korLDK7x7Jn9tPUvrc+nbN3L9P1Teq0KgVilYYtBf9VDXzaDyIs0FhvLKo1VFtwklrL5KieRTioIBMIo9OSf+LqUsLebYeRFGouVAKSRhbgRptkx/s5C/At9+QlIA4FYlrDFkOo1S5FXaSw23LaFMAs5GqrieWo4ks9aBgekgUAsKdIlfX7NJHgbWQhIA4FAIFZy2EJwe9XDXj7DQPMUAoFAFGLoyd9+zST0bWcQeZHGH9Yt/t+9/kk9/t0rAoFAGIctBv1VD33ZDCIv0uDfnmIJuMnBLVgynWIdt20hEAhEUYSe/O3XTELfdgaRF2kgEAgEIsdhi0F/1UNfNoOANBAIBKIQQ0/+ia9LCXu7GQakgUAgEKshbDGkes1SQBoIBAJRCJEu6fNrJsHbyEJAGggEArGSwxaC26se9vIZBqSBQCAQhRh68rdfMwl92xkEpIFAIBCrIWwx6K966MtmEJAGAoFAFGLoyd9+zST0bWcQkAYCgUCshrDFoL/qoS+bQUhpEAAAAGAApAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxuRMGh+F7tMze2bpS9+6YhxPNczST8R6K49Rai2tpt4ZNZnIcIBKNvdQWE0ulXCw2ng7ctmWUTW1SGZ6qHah8wEAFC05k8Z/3nnNVQzp4t99+wr9y/RDtZVlZKqbqkorqeOsml4QSAMAUBzkTBq2BBbD5s45uc7TjbMUnVczl4nxtkryVlZS2e5TFFXzUgNpAACKg4KSxq17j+nLu6ways7Dt9TcZWB+jDoq/RQc7qO60gYavKvmx4jQeHs1rasopxKPn5qD7dSoJ9nIGHVVC+GUltPaFxqot/2NBZJ9hCaDDVRV6aGSUg+t8zfQiUuqKIFEaUTP9VCz39pPmTje5v54lpfL7ummE/V+WivK5XFq5cz08Saqtfdb3U6hOVUAaQAAUlBQ0mB+OvmAfqPGWpffLwfRkw1UJpNzlEZ2e6iuz5nuI/3bqMwrZHJJ1EGiYRrvqBaJ206yYTrxqod8u4/RtCweo2C1SMwppBE5+obYVoBGVOF0t9iWv5umrUkHDmnMHaPGCi+1nlYrTnVTbYUQ3ZQ1KZct9VLz0RlRa4tS+HSAfKXx8uhQE3nt/c6LcxASjG0b0gAApKDgpME09kXkulzr4NpHfkkQxdk28jqS+Az1bi53imR+KN48JRNuDQ1oxSQSdMqaxt0IRfSajErYA9fUtIZDGkIEkTm94cw6rtoeay9WTWNIvreI0mB9OXnbxsR7a9nm49r6d09Rs71fSAMAkIKClMbDR0QVzdfl+t94324zyRPhPqqraKARO5HbTVXqCd3qv6ikDs69MbQ+De6/qGyjcavAYqE+jfkIjceap8pVuCdshzQEEa15yl63NmitKJdN6NOY7t6k5vHxxteJhy4+SAMAkEzBS+PrnfmVhtWsk5xQvftsS2RXGnJ/splIPfUvkLAd0pDLWc1T1qABVdMwlkbiOWhAGgCAFBR089R/3JHv5qkpCvo91DqsJm0udJKfRaAl52w1T4Va4olecqmbXjGRRpKIxHFtTJBGyuYpPs9yquqKVZ8s7BFrkAYAIAUF3RE++Is8d4SPtZG3IkChpOG+Isn6PNR80qoNJHaEh9o2LdARPkodG1N3hE+2e0VZO42LmobsNK/hZioDaZxrJ59YrmtM1DTuhmm8q0aOknJIY4GOcHkOFdUUPBexpsc6qfYFIUY+RUgDAJCCgpLGcg+5Hd+X+nsZkx0+Ktl+TJVlccjt/ExsWGxZZTV1HO0W2/JR8IIq13BIQzDd30BVHnEMFZVUu+8YBbeXk7/DsoJV03AOuW097jyC6b54X4o8TiUQSAMAkIqCkkYhfbkPAABAMjmThl1jWGwUzM+IAAAASCJn0uAfLHx6kT9Y+KcNs9R3diX+YCEAABQHOZMGAACA1QekAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkAaAAAAjIE0AAAAGANpAAAAMAbSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAH0QcP6MbcLZq5MktTv5qmX1z4FY3/YhJRRMGfOX/2fA/wvcD3BAA2kAaQ3LwVoS8uzdCFyS/o6rXrYvo23b8fpflHj9QSoFjgz5w/e74H+F7ge4LvDb5HAIA0ipzI7TvyqfLS9FW6Ld4D4AbfG3yP8L3C9wwoXiCNIoafIid/dRmyAMbwvcL3DN87oDiBNIqQhw/nZXMD/vDBUuF7h+8hvpdAcQFpFBn8R85NDOFfz6k5ACwNvof4XoI4igtIo8jgp0MIA2QLvpf4ngLFA6RRRHCTApqkQLbBfVVcQBpFAo944Q5MAHIB31sYVVUcQBpFArc9Y5QUyBV8b/E9BlY/kEYRwF/K4jH2AOQSvsfwBcDVD6RRBHBHZS5rGR2Dd2nLwZv0xa/x7fFihu8xdIqvfiCNVQ7/bhD/DEQuePyYqKb7Jn3pW1dk/Icd1+ji9cUOv4zQZLCBqio9VFJaTmufq6GOobAqA5kzQ72by6mkZdSaHGsjX6mHdvbn5hrzvYbfqlrdQBqrHP7BuVyMbGFhvHJgLiYMOzb+8IZawoxI/zYqE0msak8PDZ4+RsEdPjHtpf2jUbVEoTNKrUJ2tcFCfcJOlEY7+Ss81HhUSWM4IGRdTb1ZOny+1/ieA6sXSGOVw79Uyj88l010Yfzea1cd0nj3xOKawUItIqFt7KZ4F2qYxo+O0vRKccZKk0YiWZYG32t8z4HVC6SxyuERLfyLpdmChfH1H1nCCI7co3+ciNJv1ljC2HroplrKnOkuv0haXmo+OkPRpJYtt4SXkKTnIxTq3EZVHrGcqLGs8zdQx55N4n2AQtYS4iIco9bqSlGDEct4vFTX3kaNjkS/cBNZ9FwPNfu19fcNUZiPVSZc3q8d7sk3PNRGdc9Z23asL5DS3NxOA+3VtK6CtyFqXfU9NJmqPzkyQb31/tiyvm+20cg1VcbMWeVr5b781BwcpYF68d6+hjM9VCvKWofVvmPHLmJzj1B2ZvC9hlFUqxtIY5XD/xshWz9vPi82Ywuj68xdOa9n9J6UxlKEIZkP0+AebpISSYsTalMfjce+sJ5eGuNtXpk8X2mymrd6hTDktmxphI/RTpFgyzZso66+IRrpa6c6r5Uk7W1MB6uprMJHrX0TFJ6bofHgG+SLNZGNUUdlOXnr+2hyJkLTw+1UW7mJukZFVg9P0MjpTqoT2/KL4x45LWpI1mWJMzdErRt81NglyubE+qcDVCWOx9c2JovtxF22sYl6jw4JedSIfZdTVdeULHcwL65HtUecSxMNTMxQZGaMereL8/eKc+X9zotj5XPzbKLW4DEaOdpDrRvF8iwYF2lEJsT16KgR+xfn3ivejwpxW0stGb7X+J4DqxdIY5XD/1QnGzwUwvjaD24kCWOpNYwkOAEHm0RCFk/kIoHvH+ZH7TTSuHuKmkVCrOrQE2yERvZUxqQhazIVDTSoP7lf6paJU25jXmxPbMPfPqEKmSgN8tN5/SnxboqCfpHUq9spNBVxqQ0ZNk9FIxQR0oiIrDyyR2xbPdVb0nhDO74InXhVzKt2eeoXNZsykeC7zqlphq+B2H/z8ShFTzaIcj8FL6gyhkUipOcmDUmWm6eYbN1zoDCBNFY52fgDZmF89XuWMH542hJG93CWhDEvkp3+eMtP0ywKmTTTSCMxASrCouZgS8Nq/klMwMnbcDTT2GGvF5mggX3b6JUN3ESV2HyURhrifAZeVU1bMtSTvy6NhONzP2b7vOztOIP3r5+3jtwepAGyBKSxysm0eeqBeLJOJYxv/jjTGob1FFwmn+jjxJ/ElTT08nCfbA6SSVo9ZS9U05js8C1c01C1lbo+Z4oOX5igiKpVhIeP0bhdHB2jLp845oAtsoWlEe7hRF4tnv7VGcyLmgTXYpYgDasmUUMDesF8mCYnrBmFUNNA89TqB9JY5WTSEc7C+Kv/+2spiP2fWqOiOj+7GxMGd4pnCidVfnr3v9pOA6eHxBP9JtmJa4tgvI0FwJ3XfTRytJsaN1gdynaSTuzTsIbsiiSZsk+jjV6RnebxbUx2cT+I1i/SxMfgodoeUR6xpFK24Q0KHh2iwWCT7JPwqj4JlsZ+Lt8YEMffRyE9YQt4SLHV0T9FkbkZmuxrIr9YfinSoPkpCm4U56/3WWzi5rxqGuBTsfs0Kpx9GrI2kkoao9zkJWpPAXF9+0a1UWxLAx3hqx9IY5WTyZDbv+2yvriXK2HYhE/HRxeVVfKIn/hTvj1ayBoNZMmjS9Q+Yk/2CaOnuOlosD2hmUYbPVVWWU0dQ30JtYOITOayP0Ut0yqSfAx99FVFJdU2HaNprW8jclKIRO2/46yaaSNqAiP74iOjfN9sp47t4v1SpMFwU1lTfHvrqptoUK9o6aOnxLFW1fPgAPE+lTTEXkaa7OvbltS0tVgw5Hb1A2mscjL5ct9z+8L07Het1NV+6k5OhJEx0RkaP+dMr+P7RO3E10l2y3pkYoym9eYp1cTFnccgu+DLfasfSGOVk8nPiLA0/qDuKlX+n7AUxsvvzxWWMChKoYBqntrHQ14TmpYYfrLm5iPVvMRDbndyE5c9TBVkFfyMyOoH0igClvqDhdt7bklxcNT9wy16VFDCUNjNU3rTUt+Eo2NdNi9902s1wQihVG1rd34hDmQF/GBhcQBpFAH4aXSQD/DT6MUBpFEk8IiWXP48Oihu+N7CqKniANIoEvDvXkEuwb97LR4gjSKCR7bk4mfSQXGD+6q4gDSKDO6oDP869ouAAGQE30vo/C4uII0i4+HDedn2DHGATOF7iO8lvqdA8QBpFCH8R85Ph2hSAEuF7x2+hyCM4gPSKGL4D587MDGqCpjC9wrfM3jgKF4gjSKHR7xwEwOPsYc8QCr43uB7hO8VjJIqbiANIOEvZXFzA/8MBD9F8g/P8S+WZuu//oGVA3/m/NnzPcD3At8TfG/gi3uAgTSAA/7dIP7BOf6lUn6q5P+NwP9UB1E8wZ85f/Z8D/C9gN+SAjqQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkhpuP3LRwQCgUAgEgM1DQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxtyM3Kb/Dzm4z9pzUbT0AAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110001</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       itsolutioncp.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>098110 62875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390cfd19aaaaaaed</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> accounting software  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       first Floor Punjab Chamber Bulding, chandni Chowk, New Delhi, Delhi 110006      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADzvSURBVHhe7Z2NdxvXeeb370jb3W7bNNnTnG52k36sl9llyJYV2qyQ5hiJj3GsY2y1FmMHbi2TkUNVkRWGsuQyZMKlEq5as2HCmjVruDziMWPRZERLFU1XIeIjlq1M2jIZyaREGRYl6AsW5Wfve2cGuDMAiBFBQPx4fue8B5i5H3PnYvA+cz/mzr9DCdn/chIfe/ICnv1J0t4D/CKxhMOvXUfzK0n93UG2Ja6kuVdMtFajojVub3m25/tQX9mGCWtLkcJcfAwT51P2tuJ0B0LpOPPof7Qa9bF5vZVNHO2V1Wg/ZW96SMSiqHi0DwnZ0Meuw6DesEkMYHdlFP2S/ak2VAU7MJWpTqssNaossi+r7F4KlVWQ8u5A/3l7U2GWUX836s57fq66VOVNn5tGHX975vgS9/FesyyziIWrse9o9rWROt6EqpomjN+wd9jMdIU99ec+f7M88t117ud78bhTt/o8nO8Wrt9Gk32u+cuvvkeqUdszawU52L9ddj16yX3dTHUEUdF4Ql2Vdh4Hx6wATf7fYqI1gNChSf3dwvotnLjucy1QF/Hs6zC7rrJJHWtCRbgbM/a2kJqNY3xaUhU4po9ryfXb6mvBzi/X/2qs2f/5mnltEv6ivgElFY1/nbutheC39y4gZTo0Dx+qMIkjcSXNvcL8Mwmu7RyOZ6ojhKpoN6YW1cZSCjM96oIKdaYv/vGD1Qi1xZFKGcKSJvef38H9Z0titDGA8P5hzElWqVkM7gqiynYSWBJHFEB91ySSUs+JOLq2KcfUZTumHGV340c0rDi1HXF9jNTsMFpCqn7sMuryupxdfkeFM50Iqz9bz2QCqRsJTPXUYYuKa/7RK2qiiKlwXa+90ZzCoFlS5YqqutnTh6mEqg0VPzHZjfqakDq2LTI5zt8sz0xnSJ1Hp06fSkwiVhdARdoZFHAcmhznukz5k0cb1LYKP2OVLynl3aacrSp+dj168Vw36fMNKFGySyQ3ETUNGJQbmpSq3y51/Hy/xWQHwmZZB/aq3yYT132uBepiaRJdIes6TKhr3nuNzB1tw+GjHrEUbsRxWNL1zlp+Yl7SBdByXK7uAsf0cS3lFQ2Vw8iuzP8qJf+b7eq393u+FI3S8CffS2gx+Pt/zvWPt/jr49d1nD/+rvVT3StcfyaFazuX411KYPxQHcIBFa8ygK3RZowad+Ip9Wd+XMLkjt/el8Hz5/fg/rMqlDAMNkawtUbyC6K+WV3ophAvxtHzREj/YSoCEezrtpy7ZlVEQ3F+GAceEIeqzjXShK6DO9Jl1OV1OTv3+Xnrdu5oE2p13ahzOTSM2J5qRGyR03/0zgH0RJUwqjyqgg1pB5sTVTejzcbvEGlAz5hxLRUQDRGeEVW3UndVwSi6hnpxoDKM2FkJLOA4NNnnWqj8cwPq/INSl9XYsq0J/XZ4dj16sY4l6RyrCkbQEpu2biA0SUx17rCvhRB2d3ao8/H7W/Ti8EpbGoK6Rlq22ddItAP9bZlrRI5bpW6icrIwhq50fUXRPuSIS+FjFryW8oqGIjmZ/p3079C51//5UjRKw9C/3tKC8PtNl3ArRyPig2sf4RO7L+o4EpdsTLyOimxQzBsZhe4m1L97AoN1ubsYyfqhLKIh/K82q7VxYCD7gqn90aIO+4JqkZANiDgR6UJSDsPdz082HKlJdD1gd3XJ5tle1Ku7//ZT0u+mWqm7+tytY7LuKJtovHNpCb9Sf0HbxPlMc2PgtNUKkf0Sh2xAFqQJL03/DkzwJnPDkzrTh5aI080UQctAjjEMsm4pm2gILYPXtEB87uAlPdiVuPYR/tNfWt1S31FhhBBC1jZlFY07HwF/esjqpnqy9woif3tZfw+2J3QYIYSQtU1ZRUO4cOUOPmkPeovJd9lHCCFk7VN20RCc2VRinC1FCCHrh3siGoKMYXAcgxBC1hf3TDQIIYSsPygad032E6KlIutJ1k1AoaePXSwlMHVyGsbyZSVCyuF52jvv75LEXDyOOU4tJhsUikYOksY8c1mWoLaxDzNpJ7DWRcNycGFZ78re41D6J7KtpUgyy1sEEH6iGYPLLf/h4a5EY2EAu2tC6Dljb+dB55kuUzW2fKkO7QPmkhuFuBvRmERXIIADQ3nOOZXATHwAscY6RII5lnW5MYupoT4cbtiBcF1mmYw0xlIb1vIgk67zSIx1oN5ZmkSdZ89psxxJzMTs5TbsZWBGjCVvHBInO7D7ATnG5loeg/iDouEhFW9DuDKElqFZJNW/MZWcxeh+WZTQeZJ1fYhGhTqHw3G3WyyXaKTLfGMeM0NtqDUXDizAXYmGT1x5yuJ+08M4vF0JmqoLf8JxN6KxHFI/AdQ2dKC/o079Rl7RUMeRtZMauxFrNlboTWOtjlvfOW0vSjmG9pAhULO9qFX11eMsgnhSXcs1ezEii2kq9GrAQSUUUnRnEUVjcU0VAxOHwti6owOj0/P6+ifEC0XDhb1ktbMyrMONE2hRd2aW07AcWezkgLEoWyemTJ+4GEeswVr8zlo40LkbTGJkl9vhmMtZC+YS0S7n5Kzk2jqWWYQwJ5aDq41EUBFyL1HtFY3U6W7s0+dgLdQ2aJ+2lKnKiCcrsrqWrT7bjUhlE0az1p/0iIaNXtHVU5a5Y832HbFVfxO2Y8slGnnr2udice48bRLD2KfErMtYETxffeQUjZ4xvXiks8Bh5o7eHTcLpw5kOe9cC0ja4TnLnKPe53p3pK8fvcaTcS3p32N7NVqOyZ4URhszi/hplpTopBdlVIjoeH4nQrxQNEwWlSMx/0RpzPdmWE5BL4cu/+gb04gpRxnqsL2PvUS5s3y4dTeYESLtDNJ/bBU3rBy5884LhThsJ6+MaCTVd7O1sxy20xqzBDDslEvhEo3zsiaQcrhnVUnUXaesEhqS7hJxSLKsdlokLGeTWSbcFpFdw6pUXnKLhiW6mXpNjTUjFGrDuNSfjEt0ZhxktmgsU9fFiIbXiS5XHzlEw7XsuSyHL++Q0KEFRMMhn2jY5CyzpNneizl7U2O8+0HK5V3bS5bmt34P67dpN1+xYYuKU1YRoPDBTtdKs+7uLUIoGm58OSFxCm5h0X9w5dD1H1wc7nIvQ5K7RWeZdDleuA3tu4L2Ha/8sZ0WTUY05lT+VcrJ+lu3yXBa6li1lZF0WU3RkBfvuO46tYAFcFiCtZOPYnBBfV9S+dU0ob01mF6dVNJmCYMmj2i4HKkVx7r7tTGOly0ay9R1UaJxF/XhEQJJ54prl0PXlyduXlYqGsvsc64Xk8w+q97d5XLv0/VhiKEWzpoGjHgrjmxqKBomvkXDHcf8g+vvri4ChW7BOGkm0RW0HKHcsctds6TRTkg7z0z3g/yJH29sUo4/iJbjfu/43E5LXhJVEVGtBiVY2iloJ2k5C2dg2DQrndWNph37pBI8aVWIGOrzEmeaqzUm+BEN63v2sa36cTvL5et69USjUH246zTjiG1c5XDHzcuaE40EBqMeMbRbwlzKnJhQNEzydk8BqWTSHhhc3pHp717R0Ku8ZtLoO/W+WYw22i0MaX1IenlVptHtI3943SWlWirhlbQ0BP0mNeU4eucx7nGSyzkDOQ95WY70k+t4ImjSQhIHme6K8ZJHNFzdU1I+p2WVjdtZLl/XxYmG2T1VqD7cdXpPRaNk3VNWfeQXHUIsKBourHGArHc3a6fnHgjP68jUH3vZ7imFHuyua8C+gLNP7uiiaGkMu+70Mn/YFCbaQj5n+2Q7LWtGWBT1ymlYopHC+P4AqvZ7xM0sswhZWJUx4pyrOJWAKuPebFFMk1s03APheerYPnbZRMM1EF6oPtaIaJR4INw7KcNJz5YGMaFoeEipP3O4ZgcOn7TeVexnyq3rD17oXd2CdjLKgRt/UP2H9dyBu5xTUv3Bg0F1p2j9gfO+azmn07JER3e5aNFQyHuh9dRiK/+UvKLzAaP/Wo9lqPjGrCk9AK7yyO9EPKJxYx5Tsb2IeKbcahGRvnNnaqj3/dgrEo0kJnraEItnl839+8j7tPv0K2tdIrxsfbjr9J6Jhi246Sm3rvdoS7B7ym1iqEldy5n3krun3Cat94ZHjJaLnIf6rXQdpMc08ryXnWxaKBo5SMa71R228QBV88CyD/dl/cGXe1e3RloWHucrLRSjNSJ4nZO0UKrUn3hUJZOw3O9azuO0kmq/vODfEQ1FMt6J3V+yppjq92Kb79S270zTM5UEl3PMhSUaznjAcg/3Lft+7BWJhi1YfW43K+g06TLlf7gvf3246/TeiYbC9XCf973gKp35cJ9Rrxaeh/uiHRjXg/cZ9AuUjGnH7vSEUDTWKXzXchYydqNaYvnGSgghqwNFYz3Cdy1nkZpUrYQcS6cQQlYXigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG/KJhq3bgP/GL+Jx59fxB80v49f/8ZFfHL3Rf1d9vX9/CY+XLIjE0IIWZOURTSG/y2F3/n2Aj725IVl7febLmHkTMpORQghZK1RctFoGbyWFoXPfmsB3zpyFaNvf4jFGx9pO/l2Su+TMCfed1+9ZqcmhBCyliipaLQq5y8i8BvfuIiXT9/CRx/ZATmQMIkjcSXN94bWqnDEMfPpj2Mmbm+WFTn2dpy/YG8SQkiZKZlovPZWSjv/X/36BfzLe7ftvRmcVoWXCRVX0kiY5HEvuH6mF+9G7sNbShzeuu8+TDf14oPrduA6Fo3UmT60RIKoqqxGRU0Q9c0DmEnagWuKJKY66xAOqHJWBlDbOIC5XONds72orQyi67S9bZCIRXXaluO5r6G5nogKr0b7KXtHmnn0PyrHzWOP9iFhxyRkM1IS0ZBB78/Y3U1dozfsvW7yiYbwI5VGwiSPmx/aO8tE6nQLpj69Be+OnMNN5W9SV8/hwoEteOvPe7GoHdc6FY3JDoQrQzgQm0RiMYnk/CT694RQtb0XM2tsAkKiL4qqUBvGxTunZtEfDSDUGofX/U91BBEKKhHcfyIrzBIN5eTrBpQEeZlFLGKJQLZouJloVfHUsQkhFiURjX/42U3t9D/buIA7ebqklhMNSeMMnL+o8iof53DuoY9juudt3LH3aFIjOPvpT9lCkS0a10934+xDn7FaJg/txLnJW3aIcAuXfvgYpipV2Kc/g6mdz+HSVTtIuD6Jc7u/bKWt/DLe/ck5ZNplkna7au3YYX3PqXKsRDQSGKyrRm3XrL1tszSJrmA19h213Kp2tAd7MdIYwRZxuIEI2o+576tT6lz3bQtoh7tlWxMGnSzn+1Bf2YyReCfqgxIuLYRho4Xgbj2En+jExKId5ELd6W+vRssxQwbOdiNS2YARM74uewSxUwPYXdkE772JPpe6OhWm4nhOG6c7lNioMHWclYiG7KuPzdtbCn3uUfQ7u5bmMdocxdYalVZadJ1xJEsgzDdu3NBWCL/xCPFDSURjx48WtcNfblxiOdEQJK2E16q8ysbVo8opB3HuXXs7zS0snn4dl94TMXCLxp13uzF935cxG7+inf21159RLZUvp/O4PtyAt774DC5eVhtLV3CxVbVa6o9A18zSOZx/7FN4J/Y2UsqppN5Tx//jz6u8LdG5NrhTpX0aF9Rxb6cWkOhRArIS0Vgcxr7KMGJn7W0DuVuvODimv2tHWxNFbDKhypPC3FCTap0YTvd8L+pVeP9Z5dAl/GiTcr5tmBB/pB1nNcL7lVBICy1xAu2GICWH9mZaD0sJjLeG8rQC4mjPagHIviC6Ju1NRep4E6p0V1EK4/sD2D3gFjd9Lq0ndFjEJZZW/NqeE7obavVFI4nxg0GEW8csoUhMokcdxxV/lfjBD36A1tbWZQVBwiSOGCGrQUlEo+KZS9rhnz6XPZbhUEg0Js7f1uGSV9m40Ivpgk7ZLRoLrZ/C1OFJV8vk0uHP4y3laGTf1T7l6PeOIN1euvw2Lr7+thaNO/Fn8NaD3fjACtF80BPEW4ck8wUlKB/HOz+5YgUIS6/j3ZWIhvdO2EA7V7uf3mppWAJiYbVQHKc70ep1wLOIhQM4LMXVx3Df8YtzrWqzKkrnvWc4042UmMb4yencXUdhT0tjacwjJB6hkJZDpBdz1pZGH2/XMJK6VdGBKedOPyEtkzoMJqyxi1UXjRz1kDrWhIro6o+FvPfee9izZ09e4XAEo76+HqdOFThRQnxSEtH4tacsQbh6M/90qUKiIWklXPIqG3ctGpZjP/tPZneUal1IC+GxXuheqAuq9fCVT+luq3d7jyChWg2OwGhBkW4pr2knJcf5PGbPWHEtZF+e8s324vHADvR7u2KEuxENj4Oc691h78s/QKwdrz6GanXoVBYuhzs/jAMPBLBlWwPauwcwdd4QBQ96kDo9pjGP0f2qVWK2lMTx1zRh3PGTTleVce6Z85Lxi8yAuN6vWzglEo1TbVn1o61EA+j5hIOCQUpFSURDnvb2KxrS/XTtVnY8RzRkCm7ZyNs9pXzX1St6YNyPaCT7lRg4oiEs3cLi5AjOH9qJ6cpPYfqHk/qOW4vGU0eRnpjlYhVF4266pzwOcqYr7BINp7spi0KiIUiX1uQw+g81oDYQQG2nVQ9ZLCUw2myNq1QFo+ga6sUBY0xDl9PrlJWFDmX6rzKioX6PgTpbKEwBieNwTYlEQ1o2VkhZ8AoHBYOUkpKIxn/bb3VPSRdTPvriN/GbDZa4yKD3z3/hniYlU28lrKzdU85AeO85e9tmmYHw5bunzLEQizuT38fUp59RcqOyff1pvHXf07hoes4lFUd/WcXuKeU6cw+EW7OIXAPhLgeZwmij0z1ldQllzVRyun2WFQ0lFvExdT0YKaXbyBM/H9K9U5Ue/7Acf5azl8FyoxvKFA3cOIEWGZuJmV1VucZOssknGo/35hENPQ3YM/ju1FEJMYWDgkFKSUlE46s/tgbC2wo8oDe3eAdb2xI67i/XXcCzP0liyfa+klb2f7W7jAPhipvxZzB135cx8/o53FJ/9kJTbq2B8O04N2kPhMe/j2ljIDzxnKTtRkKaHarFcblXtS6++JzlzJYmMfvFj2PqwAiuqrzvpORYQbwzKJKSPRC+8JzMslqJaCjyTLmtCHkcrT0QLiRPtqk0RreWnUfLkLUjdX4YLQ+oFoBEL9DSmOoIoSrajSn5OVWLY6ZHHSvUiRkdmocb85gZalOtkjB6nEaEKkOoRh0nyxHLWIinGyrdJWQJnrRGanscb75y0dB5RzowIZnfmLW7z5x6SmBklxLX9LkmMNUVRW1HnlbVKuIIBwWDlJKSiIY55fa2eQueA5lee+in1/Dv6y9gS+v7+hkPSSNpJY/yTrm10FNonYf7KrfgndYjyz7cd/30c3jni8aU29NXMi2PpQVcPOxMuf2UEpBnlAjYYYo7V+OY3amERdLedx/eOfy6MT1ztabcWhR6uE87wz2d6E9Pud2BrjHL7Tok453Y/SXLAeuuIye8UPeUzJg6lJlyuzXajNHzVlAudFpVxtqGTowbN/VTh3I/lyHorjR7sN0tGgrdspEBcHu7CNGQKbUjT4d1PVYFI2jpaMbjpriqFtygqkM95VZPPe4r20OUIhwUDFJKSiIa4vidtaTyPdznRbqjEtessQ1JI2nl4T7Ji5QH7Wi9DpIQQgxKIhqCrFYrjl+WBFlu6q0XiXuvlxHZrFA0CCGFKJloCLJarTh/mQH1k4nCCxZKnLW/YOHGhaJBCClESUVD8C6Nvu/IVbz+zoe6K0os19LokoYQQsjao+SiIfh9CZPE4UuYCCFk7VIW0RBkQFuezXBe9/qJ3dmve+WgNyGErG3KJhqEEELWPxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG/KJhq3bgN9P7+Jx59fxB80v49f/8ZFfGL3RVSr77JPwiQOIYSQtUtZROOn/5bC73x7AR978sKyJnEkLiGEkLVJyUXju69eyykQXpMWh/Nd0hBCCFl7lFQ0/ArG7377EpbuAH99/Dp+9evWvvUqHKnTnagPBlBRGUX/vL1zHbPRzocQUhwlE43X3kpliUMuq3z2fRydvGWnAo7+yy38Up0VJnmsLybRpRxsfe8sUktqU9lEazUqWuNW8Lpjo50PIaRYSiIaNz8EPvOt/GMYIgrLceiY1UKRPCSv9UMc7Z478vXtZDfa+RBCiqUkovHiz25mCYVphURDuqo+a4uO5FVWzg+jJRJEVWU1qoIRtAzM2gEWc0PNdndNAFujzRg9bwfM96Fepalw7NF2NJvblW2YsKNiYQxdUesYFQF1jNg00m2qpVmMNkextUaF1QRR33wCc3KXr7GceE+sA7WBatTHLG+eOt2NfdukTNXYsq0Jg2aRS3k+i8PY5xIVaZlUo+WYczYpjDZWI9JlH3MpgfFDdQirssvxwk90YippBVnHa0Z/X4M+9/ZT1u65Y2b5OtUxrf25SIx12HGteug/42SuWIwj1hDBFim7qvN93ZOZOneOfbRJ16scq7ZxGHOLk+ixf6eqoKr300Z+hGxSSiIatT9azBIK0/7wO+/bMfPT+U/XdVzJq3xMoyeU6Y5Jne1FvXLcXaet0NSxJlSF9mLwrHI3SynM9EZRVdOE0bQv8XFnfiOOw8YxMK+cutpuOS4uLKmcrHKmewYwI5upWfRHA6hqPGE7OMlfOTBxnrNJJGXneSmjOqZdpjnl+EJB5dBvSPxSn888+h81ROJsNyJSvnS4iIg63qS1NdMZUmXvtc5tKYnxVrW93z43W6TC+9W5zyet8o41IxRqw3hC4icw1RlV4tUH2fSSirch7NSDIjHUpLabMC71oIQ4FlFC0BFHUuo8MYb2UDVqHTHTx1b1pAqaUMlT5wewryaALcE6xCbV0Zy6CXZgykpByKalJKJR8cwl7fB3GOJRqHXh5Z/f/VCnk7zKhzjJMHrO2JvKnc3FxzBxXhyR5SB3D5guK4HBuswdvx/REEddEe7GjL0tJMe6cfiocmDaedVh0HWIAexO52mVL3ZWh2gmWgOZO3mNcpDhAA7rQ5b+fGa6wqhqs7YTsSgirW3Y5zhXOZ8aJWDiqBWppC10DqfaVGvKboHpc1eCpcVO8AiScOMEWlR5Bhfs7TSeFo0mgYnuNoxIXanjaIdvl0NzugMhp2z62M0YN8LHD6rzPDhmbyl0HHddELIZKYlo/NpTllDIeMTul66uSDTeT97R6SSv8pHCVNcObJFuocZO9J+ctu5MNdkOW5jqCBpOtLCTFcfqckYm4kQ9guJ0+VjdNd78Lcea6TLKmBW/9OeDSeV8dZmTGNklrQopk5WvFsh0K0mxNG90Tzlmiob9XSPHNuM5lstxW/XQnqdadZ2b5RDMrrWsY+c4T4oGIZqSiMZvfOOidvjXbn2kt791xBKOfPb5v8rurkqqtBImeZWdxDQmBrrRIv3Zob0Y0Y4it5OdaAuUWDTiOJzu4/fmbznLfUcL9LWX8HywpOLUqLv/WdUKsFsY0vqQ1orklSlbSqVVx5fuKac1Iee7rGhkuraWZwWisWCIAEWDEN+UtHtq6kKmvb+ccORqhfzb/G0dVtbuKeVcx+Vu3N5UO4zuGssxlaJ7KjUbx/i0ylc7pkLdU2b+KYzvD2TGBRycai/D+UgZpGtod0MDtjj7ZWzj0Sa0hE1Rsh27PcCtGWteRjRkHKIatT1ml5PC6ELKkKt7Kqm74mbk9Hx1T1E0CPFDSUTjq93WWEZXpoNak084conGcyesgXDJq2wkhrGvJoSWIdszJE6gPRjAgSHL7VoDx00YlTEBGRzta1COZ/mB47neHaio60MilbIGvv0MhO8fxpxspmYxuEvdnbsGwj2Oa7ID4cpMmVMyW+qBBoyIsyzH+Sj0nXylOf5gdalVuAaOkxjZE0BIZiXdUGlnh9H+gMx0yicaKsXRBlSpVkzMngWVnOxG/TaVpxxmKYGJoTHM2WX1MxAuA93WQHgcXdu8A+EUDUL8UBLRcKbcemdJyVRaUywc84rGnY8yrZVyT7lNnelLT1HNmpqpmBtoQq05RdV1I5zDqStROKCdozGAa0y5lamc7UNGJsrBDTZGjCm3ysnazjln/opkvBO7vyTHsPLrGsu0HspyPnrWlBIqQ99lgD4zi8ommZnCqqfE9repdPbgdw7HLWTK55lGu6jKURNIzwQTMlNuc5zLYhw9T4SMKbf2TCqBokGIb0oiGrJarfOcxY88rY3f3pv/ob8/an0fb/7idnq6rTzcx5VvCSFk7VAS0RCcZUR+WbUiZGkQh59M3MLnDlitiFz22cYF/Mdd1vf1t4wIIYRsbEomGsL3hqzlQH6l/gLa1PcP7e6AfN1UpklaQggha4uSiobQaqx0+7mDl/Dy6VtwnsHIZ98ZpGAQQshapOSiIYyc8f8SJolLCCFkbVIW0RC8r3uVV72KyXe+7pUQQtYHZRMNQggh6x+KBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+oWgQQgjxDUWDEEKIbygahBBCfEPRIIQQ4huKBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+oWgQQgjxDUWDEEKIbygahBBCfEPRIIQQ4huKBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+KZlo/FHr+/jYkxdc9rmDl3Dt1kd2DEIIIeuNkonGbzZczBINsZEzKTsGIYSQ9UbJRON/Pnspp2i0DV2zYxBCCFlvlEw0/uyHl3OKxv/pumzHWKMkp9HfGMGWympU1ARR2ziMuSU7TDg/jJZIEFUqvCoYRU88aQdYpM70oWVbABWSPhDBvu5JmG2r1OwkRmMd2LcjhN2xeXuvQxIzsSbUBlRalX7LtgbETpv5m+EBbI00YeS8HZSLhTF0Ra2yVgTU8TrvoixLCYwfqkPYONbgrB0mFAoXluZ1nEhQ1cejfUjYuwkh65eSicbfHL+eUzQe+pu1LBopjO8PIKSEIiFCkZpFfzSAcOe0FXwjjsOhAOp7Z5FS4cmTbQhXRtHv+NvEMPbVhNB+0naPiTG0q/gHhmzHf6pNC01Ldzfaw9Wo9zjq5NEGVIXaMG4n1/nX7MXIorWdOt6k0iuhkGRLKcz0RlX8TsxYwR5mEYuoY6iyJ+Vc7qosKUy0hVAV7caUlGUpiakudaxgB6a0gBYKV6i66nogiMcPDWNmPqnrixCy/imZaMy8v5QlGL/XdAnnP7hjx1iD3DiBlsowYmftbWGsGRXhbssxm981KYw2ViPUMam3ksebEWkYcN1RT7SqO/HWuLWRdpzz6H/U66iTGG0OY19agYQ42lUrof2UfLeOFekybueXlBB4y+twthuRyiaM3rC3FXO9O1DReELlpFi2LEocawI4bBdbo+vGEchC4epYPRGE7XohhGwcSiYawhZjBtV/f+YSLiXXsGAI832or2zGuHlXfL4Xj1e2YUJ9TcSiWd0set+uYeXys0lJV1YopJyrd/A/l6P2oFoSc0NNCKuWx4R2/Faa9jEdaqP2bXdExYNqSVRs78WcvakR0cvqJvJRFkHXjVuEXLjCpVwhtHR2oF66pqT7KtqJqVyVRAhZV5RUNF44dVMLxi/VXcD8lTUuGIJ2fJZApDH2pY41eVoa9t17LiGRcYTKIPb1eTv6heUctRWm03+hwRgnsPa7BSLXPhsRDa9A5Nq3bFkcVCuoMbBMy8EbbrWQ0t1XqXmMNAZRlUdcCSHrh5KKxp2PgM8dsGZRPTOwDtxFAdHQXTA1xpjGZDfqa5Rzd7p8PFgtjQD2HXW7aV+O2mlp1DRgRCe/V6KRxFTHDmyJ9rknBKTJEb4gdebpNtPdZepc7PEZQsj6pKSiIbz+zodaNH6l/gJOn7tt712jaIHI3z0lpM70Yp/d5VLb2IfBtnB6TCMXuiWSdYft5+5eUPG2VyvRkdS2QJS5e2pOtZpkcH4ij+bnDPeMb1hI68O7jxCy3ii5aAj1/3BFC8dv713A3OI6Hgj3siQzlILoOm1tJgb2IvK0eyDcNficJpejTmDk6TAODJipLVFoOSapV3kgPE1+0UiOtekxlfE8rYP84ZPoCjrlttHiy5YGIeudsojGzQ8zg+IVz+SeQSX7tv3NZdT+aBF/9UoS/xi/ifcul1tgPFNuF6cRi6oWRY9nXGIpheRsHLE9IWzZY7QiZntRW5mZcnu33VMy46hCnLBEz+qeUvm5ptza01wjntZEGs+U23mrLC3HvR1pucuSUi2VcI1qGeR5DqRQeKJPWiBKtCRbZ0xjf+5uPELI+qEsoiEkrn2kp9yKcPzWNy/i1IxSEpt3Li3hv+xb0GGmfeZbC3aMMuJ5uK/+0JglIA66C6saW75Uh/YB2yEbJOPd2Gc/3FcVjKAlNp3DUea5u1dCMNHd4Hp4r/+M2e/jebgv2oHx5arI9XDf3ZTF2mcN5ntMTx8uFC64yypdeTN5urgIIeuHsomGIMLhLGQoM6r29F3Fz3/xIX5rT+51qn716xfslIQQQtYCZRUNQbqqdr90NadIeI2iQQgha4uyi4bDP5/9EH/4nezl002jaBBCyNrinomG8NFHwIs/u4kvfC9B0SCEkHXAPRUNk+mLS/jr49cR+dvLqHz2ffzargv4EyUmhBBC1g5rRjQIIYSsfSgahBBCfEPRIIQQ4huKBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+oWgQQgjxDUWDEEKIbygahBBCfEPRIIQQ4hstGjdv3QKNRqPR1pDdvJn/cyXm5FukUTRoNBptPZsjCLk+TXPiF2kUDRqNRluLZjp/57MYM/MuwigaNBqNthHMEQbz0zQzbhFG0aDRaLS1aKbzdz6LMTPvIoyiQaPRaBvBHGEwP00z4xZhFA0ajUZbi2Y6f+/nSszJt0ijaNBoNNpGMEcY8n2uklE0aDQabS1YIacvn8WY5LEKVhbR+LvXk/jkXy7gY09e8GW/++0FHIlfzZkXjUaj0QxzBCHXp2lO/CKtLKIhIpBLHJYzEZlcedFoNNqmMNP5O5/FmJl3EVYW0XCEIFdYLrvb+DQajbbpzREG89M0M24RVlbRuFvLlReNRqNtCjOdv/NZjJl5F2EUjXtqs3ipthrfHc0VtlHtDXy38jG8NJsrjEajrdgcYTA/TTPjFmHsnvLa+5N46emHsbWmGhWVAWx9+Cm88EYid9yibTnRsMJ2vjCbI2w9G0WDRvNlpvP3fq7EnHyLtLKIxt3avRONWbz8WAAPNr6Cd9+/ipvXr+K9N7uws+Z+fP+NUszmomjQaLRVMkcY8n2ukpVFNA4OLOLgy4s5w3LZPRON8y9iZ+UjeOmse/9E21ZU7D+R3n731YPYuTVgtUQeO4zxBTvurKQ/iFffOJwOf+RpJUDXM3m9+3IjHgmoVkzNVuxsex7f/7McoqHzkZaObbUv4j0n/SvmsQ/iNU9ZLbME55Hu6cy+M114uHInXp63tpfLZ7zZI1a6PI6jt5z+j184pM8jW9Ts8COZOtha/zzeet8d/sLIETz7UKYOJ9LhyhbewAtPPYwtcu6Bh/HNrjdxxQnzUcdXxrvwTZ13NbY81IiXpzNhNNqatUJOXz6LMcljFazkohF/91paBPwKxz0Tjetv4rmtyhEensQlwwmZduXEQdx/fyteF+d7fR4Thx/LOHXb2euWylUVd/6n+K7K75sv291bbx7CgzXKYb45r1sx777SiAdVfL8tjSuvNqLq/j14+YzVCnrr+cdQVdOI10yHa9t7LxjlcrZ3HsEl9b1QPoVFoxpVIpbTCVxS55mOp80K13VwWW3Pv4kXVOutqvGntuN30ndhQurw8iReUOd5f/ubVvrr03jhYSUE7W9Yv8H8CXz3fiWAnbYAFqrjs8+rlqEqq31uItL3b23FuJRFH59G22DmCEKuT9Oc+EVaWVoaPx69elfCcc9EQ9mV0y+i6SvqLlXucA924bVJ5eDT4ZYjf/ZVo6vq8k/xrHKoL59X37VDU87XcFDigKta37C/B3B/m+0ctan8crU0nDCXaFjbTx0xyzOPl3fmuttXNn8ET6UdvRXPSls4n8Ki8SBeOOOk9ZqEe1pr44dwf7pestNrQXvMFrjRVlRtPYQJU7QlfY1y/LLPRx0/7AiMNiVCDwbw/Tcy8Wm0dWGm83c+izEz7yKsJKLhOP18Vkg4nHi5wspicof65hG88PRjekB8yyNO94l1l5zuNkqb7VC1Q1POzchLHFpFszg0y1mn74i1Wfv8iUZuZz3RvtXO373fJRQLr+Cb6a6pwvkUFg3ney7LEX5dtRaWSW+2ivT3p51WiW26/HYaH3Wc/fvkq2MabQOZIwzmp2lm3CLsnojGgbUuGqZJd4lyRFb3iTi8rXjuzRzxxO6BaIy3qlZRTtG4hUtHdqKi/hW892pjumvKTz6rLhp2ayxf+oKiocea7DR3Xcc02jo10/k7n8WYmXcRVpbuKVl7yq9giN0r0ZC+/gpv14iyd59/xO4+kf52zwCzmBN/WYcm38vYPSVmtzC+WR8w0hXOR8r8tedXUTT0ILzZPZVfNPx1T+Wr46t4vdEcP7HN83vSaBvSHGEwP00z4xZhV5LXSjwQfvb6XQmG2L0SjZuX38D37w/gkdYTxpTbF9Gk9u180XKil15+ClUymH3aupu9JFNyH1JOTgaEC4iGdyD8rSN7lhkIv4XX96sWTusbuHLVGkOxBrCV8z1rD2C/+JRypmo7x0C4ZQm8Wq+O73HShfLRTvzhQxjXA9XTeK3xfiMPP6KRGai+eXUaLz2mxFLVQWYgfBnRsAfCd3a+aQ+Ev4HnHvIOhBeo48r78ewr1u915ewrePYrT+FVe9YYjbZuzHT+3s+VmJNvkVZy0RA7MLDoWzDE7ploiC1M4uWDO/GgTItVzm/Lnz6CZ1+YdN25vnukEY/o6Z7WlM6XbAEp6NCU+Zpya9sVJUhf03EzeWaObU+VLTCdVHdRGbOoHFs2n+uzeHXPg6hS51e19WE8234QX7sr0XgE33/+UHpK7MN7XsyacptXNMQW3sCP//x+Y8qtPZNKwnzU8aU3DuOpP7V+n6qtj+G5E2arikbboOYIQ77PVbKyiMbd2j0VjQ1m0iWWt/uqJFZIVGg0Wk4r5PTlsxiTPFbByiIadysCFI1VsMsJXJqUZxYyD/SVxygaNFpZzRGEXJ+mOfGLtLKKxt1arrxo/kzPhqp5EE0vl7OVIUbRoNFWxUzn73wWY2beRRhFg0aj0TaCOcJgfppmxi3C2D1Fo9Foa9FM5+98FmNm3kVYWUTjk7vv/nWvv9PI173SaDSab3OEwfw0zYxbhJVFNGTtKRGBXOKQy0RkulWaXHnRaDTapjDT+Xs/V2JOvkVaWUSDRqPRaCU2Rxjyfa6SUTRoNBptLVghpy+fxZjksQpG0aDRaLT1bI4g5Po0zYlfpFE0aDQabS2a6fydz2LMzLsIo2jQaDTaRjBHGMxP08y4RRhFg0aj0daimc7f+SzGzLyLMIoGjUajbQRzhMH8NM2MW4RRNGg0Gm0tmun8vZ8rMSffIo2iQaPRaBvBHGHI97lKpkUDhBBCiA8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4pmSi8crELfyPg5fwsScv+Lbfb7qEn6h064842iuj6J+3N72cakPFo31I2JsrJRGL+s5Hx22N21t3yXwf6pc7H0LIpqVkovFf9y3kFIZC9h++fgH/OnfbzuUeMtuL2soguk7b28tC0SCEbA5KJhqOCNwNj3Yv6jSfO3AJqSV75z1iqiOIUDCIqv0nkLL35YeiQQjZHKwp0bh68yN89ltWC2Xfkav23nvA0iS6ghHETg1gd2UTRm/Y+9MkMdUZxdaaalQEImiJdeKA6WSTk+iJKsGprMaWbU3o79y7jLNPYibWhNpgABWVAWyNNGHkvB3kwSsaqTN9aIlYx6lS5W05mvHyOu7BXow0RrBFhetyGuHC3LFm1DvHjXZiYtEOoGgQQvKwpkRD+NnMh/ilOiutfL8XpI43oUo75xTG9wewe8Dt7pNHG1AVUmJyXrVBUglMdUWV43acbAIjuwII7x/GnA6eRCyqHHMe0UgO7VV5tWHcDpzrVXlFejFnbbpwicbiMA7UhNB+0k4424v6GiV0s9amjlsZQsvQvGq1pZA42YZwZSY8NdaMkHPcJXUOSgTTeVM0CCF5WHOiIRwYSOq00uqQ1kd58QjF6Q6EXE58Hv2PVruFZGks0z2lHW4dBo1gKAedt6VxI4mk2ZKxHfbggr1t4BINJQTJRbPjzCpXfZ91FKulMaa/W6Qw2liNUMek+m7FbTlmpL9xAi3OcSkahJA8rEnRuH0HqGl5X6f/2t85fSZlIjGA3TVNGHccudNVZd+hW+MXQXSJ701jjGnI+EWwA1NWgMVyYxpLSUylu6eqbcvtsF2ioUga3VNO2vqYlVDH9YxpzPXusPdJeTNpMmYKH0WDEJLNmheNr3aXVzSsbp1shxo65KjE6oqGPp7uJrLv+pdx2C7R0PGs7ilr0oDd0vAtGt5zMKBoEELysKa7pz79dLm7p2YRiwTQfsredDjbjYgIgeGcV6t7aqI14+g153vxuB/RyBIiVa7tHtHI2z0l51mN2p5088nCmbFG0SCE5GFND4SPvl3mgfDJDoRq2jCRNd1XOdlwAC3HrdaAdyB8omPHMgPhcXRtzz8QPtMZUmGdmFItDT1oXifdVD5E40wnwipez6RqadxIYKqnTs+SconGMgPh+hxqooidSVrbk92o36aEUU6RokEIycOaEo17PeV26lD+5zJmusKo2DNsh63ilNul+fS02KpgFF1DvSqvMGJn7XADl2go5o42oTagylATRP2hYcT2VCPSZamC1dJwT7ltP+YuwdxAZixFl9MWEIoGISQfa0o01tLDfYQQQrIpmWg4LYa7tTWzjAghhJAsSiYasmDh5+5ywcLfa7qEgdPrccFCQgjZHJRMNAghhGw8KBqEEEJ8Q9EghBDiG4oGIYQQ31A0CCGE+IaiQQghxDcUDUIIIb6haBBCCPENRYMQQohvKBqEEEJ8Q9EghBDiG4oGIYQQ31A0CCGE+IaiQQghxDcUDUIIIb6haBBCCPENRYMQQohvKBqEEEJ8Q9EghBDiG4oGIYQQ31A0CCGE+IaiQQghxDcUDUIIIb6haBBCCPENRYMQQohvKBqEEEJ8Q9EghBDiG4oGIYQQ31A0CCGE+IaiQQghxDcUDUIIIb6haBAXqQ8/xOXFq5i/cAmzv5jD22d/gam3Z2ibyOQ3l99ergG5FuSaIMSBokE0V64mce78PM7OnMPFhffV9jXcupXC0p07dgyyWZDfXH57uQbkWpBrQq4NuUYIoWhscpLXruu7yvNzF3FNfSckF3JtyDUi14pcM2TzQtHYxMhd5Mwv3qNYEN/ItSLXjFw7ZHNC0diE3L69pLsb+McnK0WuHbmG5FoimwuKxiZD/uTSxZD4YNHeQ8jKkGtIriUKx+aCorHJkLtDCgZZLeRakmuKbB4oGpsI6VJglxRZbXhdbS4oGpsEmfEiA5iElAK5tjiranNA0dgkSN8zZ0mRUiHXllxjZOND0dgEyENZMseekFIi1xgfANz4UDQ2ATJQWcpWRtfoDex84QrOfcCnxzczco1xUHzjQ9HY4Mi6QbIMRCn46COgrvcKPvbkBW3/+ekFvPv+3U6/TGIm1oTaYAAVldXY8qU6dI0l7DBSPPPof7QaFa1xa3OyA+HKAPYdLU0dy7XGtao2NhSNDY4sOFeKmS0iGI8/v5gWDMe2//CyHcMfyaMNqFJOrPZgH0ZPDiP2dFhth3A4nrJjrHXiaFdiVx9bq3fYXtHoRKQmgANDtmicalNiHUX/KhVfrjW55sjGhaKxwZGVSmXhudXEFIzf+MZFl2j8YOTuusEmWpVD296LzBBqAlNDccytF81Yb6LhZZVFQ641uebIxoWiscGRGS2yYulqIYLx1R9bghEbv4l/mk7hl+sswXjqxSt2LP/M9USU0wqhZWgeqayerVwOz+Okl5KY6G5AbUDFUy2WrZEmdB3cob63YcKKoSphGO3RoGrBqDiBEHZ3duCAy9Ev30WWOtOHloiR/tAYElJW7XDluI7ldr6JsQ7s/pKVtyu9Qovmo50Y7Ixia43koVpdjX2YyTeenJxGf2MkHTf8RAfGF+wwYdEK36KPFUFLLI7BRvXdqcP5PtSrsPZT9rHTZVf2aJ+S7OKQa42zqDY2FI0NjrwbYbWWN19S2TiC0fPGDb2vL35Ti8ZKBEOzlMDoQemSUk5LHGrzAKbSD6wXFo2pjpB2no83W91b/UowdF6OaCSGsU852KoHGtAzMIbxgU7sDllO0sljLhZFVU0Y7QPTSCzOYyq2F+F0F9kkuoLVCDUOYGY+iblTnagP7kBPXHn1xDTGT3Zjt8oroso9flK1kKxqybA4hvYHwjjQo8IWVfqTbahV5Ql3TOpgx3FXbW9G/9CYEo86dexq1PbM6nAXS6o+ogF1Ls0YnJ5Hcn4S/XvU+YfUucpxl1RZ5dwCO9AeG8b4UB/at6v4IjA5RCM5reqjq04dX517v/oeV8JtxVoxcq3JNUc2LhSNDY68VGc1uK0E43//7eUswVhpCyMLccCxZuWQ1R25cuCHT8mtdgHRuHECLcoh1naZDjaJ8YPBtGjolkxNE0bNO/fzvdpx6jyWVH4qj0jntB0opDAqd+eNJ9S3WcQiyqlHOzExm8zRGvLZPZVKIqlEI6m88vhBlbd9V2+Jxl6jfEmM7FL7ojnu+lXLpko5+J4z9rYgdaCO33IshdTxJhUeQeysHSaIkCjRyyUamlXunhJW65ojaxOKxgZnNf7AIhgP/Y0lGD88aQlG76lVEowl5ezM21u5mxah0E6zgGh4HaBNQrUcHNGwun+8Djg7D1c3jWNOuuQ0Bg814PEHpIvK231UQDTU+Qzusru2tNl3/qZoeMqXu8zOeTn5uE2Ob563ic6PokFWCYrGBqfY7qkP1Z11PsF44u+LbWFYd8FV+o4+Q+ZO3BYNMzwxoLuDtJO277KXa2nMdIWXb2nYrZXdA24XnTg7jaTdqkicGsaUE5yaRE9YlbnNEbLlRSPRJ448qu7+7TNYUi0JacWsQDSslkQdBs2ApQRmpq0da6Glwe6pjQ9FY4NTzEC4CMZX/t8HWiAOv2bNiup+/UZaMGRQvFjEqcrde2RXJwZPjqk7+h16ENcRgqkOEQAZvB7A+FAvDjxgDSg7Tto7pmFN2VVOMu+YRgce14PmmTxmemQcxBgXaZYyBFDfp8KTlqhUPbAXsaExjMaa9ZhEyB6TENE4LOHb21T5BzBhOmyFTCm2BvpnkVycx8xAMyIq/kpEA0uziG1X52+OWeyQ7rwoBuVUnDGNGveYhm6N5BONuHR5qdZTm6rfgbgxi21lcCB840PR2OAUM+X2L3qsB/dKJRgOiZOZ2UVVQZnxk7nLd2YLWbOBLPHoUa2P9J29Z/aUdB2Ndnq6aYzZU1XBKLrGBjytg6R25no8xY7Trpx8GnP2VU0Q9c3DmDPGNpLHlZDYx+86be90UC2B8UOZmVHhJzrRtUd9X4loCNJV1pzJb2u0GaNmQ8ucPaXKWtsokwPU93yioY4y3uzUb0dW19bdwim3Gx+KxganmIf7vnQogS98z3JdnSeul0QwiiY1j6kzbvc6dUi1TsLdcHrWk9OTmDO7p+wuLhk8JqsLH+7b+FA0NjjFLCMiovGJ3RcR/L8JLRiP/d3i2hIMpDDRZndPHZIpr56uJUHurKX7yO5ekim3+6SLy5mmSlYVLiOy8aFobAJWumDhnr6rWjjEdv/jVdxZU4Jh43RPmV1LA9OugXXdvfREyOqCUYJS29DpfiCOrApcsHBzQNHYBHBpdFIOuDT65oCisUmQGS2lXB6dbG7k2uKsqc0BRWOTwNe9klLC171uHigamwiZ2VKKZdLJ5obX1eaCorHJkIHKxAfpFQEJKQq5ljj4vbmgaGwybt9e0n3PFA5SLHINybUk1xTZPFA0NiHyJ5e7Q3YpkJUi145cQxSMzQdFYxMjf3wZwOSsKuIXuVbkmuENx+aForHJkRkv0sUgc+wpHiQfcm3INSLXCmdJbW4oGkQjD2VJd4MsAyF3kbLwnKxYulpv/SPrB/nN5beXa0CuBbkm5Nrgg3tEoGgQF7JukCw4JyuVyl2lvBtBXqpD2zwmv7n89nINyLXAtaSICUWDEEKIbygahBBCfEPRIIQQ4huKBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+oWgQQgjxDUWDEEKIbygahBBCfEPRIIQQ4huKBiGEEN9QNAghhPiGokEIIcQ3FA1CCCG+oWgQQgjxDUWDEEKIbygahBBCfKNFI9crH2k0Go1G8xpbGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxD0SCEEOIbigYhhBDfUDQIIYT4hqJBCCHENxQNQgghvqFoEEII8Q1FgxBCiG8oGoQQQnxzJXkN/x9wl0Snbqo8qQAAAABJRU5ErkJggg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110006</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       softcoresoftware.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>093130 01226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390ce5b4b4100029</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Advance Acoustic Research  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       1669, Brahmaputra Apartments, Sector 29, Noida, Uttar Pradesh 201301      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADbzSURBVHhe7Z2NV1znfef370jb3W7btD2nOd3sJn1ZL9kl0FLNbg+T5ngSH8/ax7PVWkTOqLUCsSNWkRWCLLkUEhYcVq1pSKhZU4/LimNiYREpVoVxFSY+orQy2BJEMuhtLKSRkEZC/u7ze+69M8/cmWEumhcN8P2c8zvDvc+9z71zufw+93mZ4V+BEEII8cCfN+0CpUEIIcQTlAYhhBDPUBqEEEI8Q2kQQgjxTNmkcfsu8PfRW9jx8hL+oO0KfvUbF/GbzRf1z7Ju6Ge3cGfF3pgQQkhFUhZpjP1LAr/z7Uv4xNcurBq/33oZx04n7L0IIYRUGiWXRvvojaQUPvutS/jWoesYf/8OlpY/1nHi/YReJ2XOdt9584a9NyGEkEqipNLoUMlfJPBr37iI10/dxscf2wVZkDLZRraVfb57pFLFEcXcpz+Juai9WFbk2Ftx/oK9SAghZaZk0vjJewmd/H/56xfwTx/etdemcFoVbqbUtrKPlEkdD4KbpwdxNvQQ3lNyeO+hhzDbOoiPbtqF61gaidNDaA/5UVNdi6o6P5raRjAXtwsrijhmehsR9KnzrPahoWUEC9nGu+YH0VDtR98pe9kgFgnrfdvfyn4PLQyEVHktuk7aK5IsYni7HDdHbB9CzN6SkM1ISaQhg96fsbub+saX7bXp5JKG8AO1j5RJHbfu2CvLROJUO2Y+vQVnj53DLZVvEtfP4cL+LXjvzwaxpBPXOpXGdA+C1QHsj0wjthRHfHEaw7sDqNk6iLkKm4AQGwqjJtCJScnOiXkMh30IdEThTv8zPX4E/EqC+45nlFnSUEm+cUQpyM08IiFLApnSSGeqQ22njk0IsbgWv1F8afzdT2/ppP/Zlku4l6NLajVpyD7OwPmrqq7ycQ7nHvskZgfexz17jSZxDGc+/SlbFJnSuHmqH2ce+4zVMnlsJ85N37ZLhNu4/P2nMFOtyj79GczsfAmXr9tFws1pnGv+krVv9Zdw9kfnkGqXyb5bVWvHLht6SZ3H/UgjhtHGWjT0zdvLNivT6PPXYu9hK63qRHtgEMdaQtgiCdcXQtfR9OfqhHqvex/36YS75fFWjDpVLg6hqboNx6K9aPJLubQQxowWQnrrIfh0L6aW7KI01JP+1lq0HzU0cKYfoepdOGZur889hMjJETRXt8L9bKLfS2OjKlPbuN42TvUo2agydZz7kYasa4os2ksK/d7DGHZWrSxivC2M+jq1r7ToeqOIl0DMy8vLOvLhdTtCvFASaWz7wZJO+KuNS6wmDUH2lfIGVVfZuH5YJWU/zp21l5PcxtKpt3H5Q5FBujTune3H7ENfwnz0mk72N95+XrVUvpSs4+bYLrz3hedx8apaWLmGix2q1dJ0CPrKrJzD+ac+hQ8i7yOhkkriQ3X8//p5VbclnRujO9W+z+GCOu7dxCXEBpRA7kcaS2PYWx1E5Iy9bCBP61UHJvTPOtHWhRGZjqnzSWDhSKtqnRhJ9/wgmlT58BmV0KX8cKtKvp2YknykE2ctgvuUKKSFFjuOLkNI8SN7Uq2HlRgmOwI5WgFRdGW0AGSdH33T9qIi8VYranRXUQKT+3xoHkmXm34vHcd1WShNltb2DQPHdTdU8aURx+QBP4IdE5YoYtMYUMdJ275IfO9730NHR8eqQpAy2UaCkGJQEmlUPX9ZJ/xT5zLHMhzySWPq/F1dLnWVjQuDmM2blNOlcanjU5g5OJ3WMrl88PN4TyUaWXd9SCX6PceQbC9dfR8X335fS+Ne9Hm892g/PrJKNB8N+PFet1R+SQnlk/jgR9esAmHlbZy9H2m4n4QNdHK1++mtloYlEAurheIk3akOdwKeRyTow0E5XX2M9Cd+Sa41ndaF0nXvHkt1I8VmMXliNnvXUdDV0liZcInEJQppOYQGsWAtafTxnhlDXLcqejDjPOnHpGXSiNGYNXZRdGlkuQ6Jo62oChd/LOTDDz/E7t27c4rDEUZTUxNOnszzRgnxSEmk8SvPWkK4fiv3dKl80pB9pVzqKhtrloaV2M/8g9kdpVoX0kJ4ahC6F+qCaj18+VO62+rs4CHEVKvBEYwWinRLuUMnKTnO5zF/2trWQtblOL/5QezwbcOwuytGWIs0XAlyYXCbvS73ALFOvPoYqtWh97JIS7iLY9j/iA9bHt+Frv4RzJw3pOBCD1InxzQWMb5PtUrMlpIk/rpWTDp50umqMt576n3J+EVqQFyv1y2cEknjZGfG9dFRogH0XOKgMEipKIk05NPeXqUh3U83bmdu50hDpuCWjZzdUyp3Xb+mB8a9SCM+rGTgSENYuY2l6WM4370Ts9Wfwuz3p/UTt5bGs4eRnJiVRhGlsZbuKVeCnOsLpknD6W7KIJ80BOnSmh7DcPcuNPh8aOi1rkMGKzGMt1njKjX+MPqODGK/Maahz9OdlFUEulP9VylpqN/HSKMtClMgURysK5E0pGVjlZQFtzgoDFJKSiKN/7jP6p6SLqZcDEVv4dd3WXKRQe+f/Tx9mpRMvZWysnZPOQPhg+fsZZtVBsJX754yx0Is7k2/iJlPP690o6p9+zm899BzuGhmzhW1jf6hiN1TKnVmHwi3ZhGlDYSnJcgExluc7imrSyhjppLT7bOqNJQsohPqfjD2lG4j1/a5kO6dmuT4h5X4M5K9DJYb3VCmNLB8HO0yNhMxu6qyjZ1kkksaOwZzSENPA3YNvjvXqISY4qAwSCkpiTS+8kNrILwzzwf0Fpbuob4zprf9xcYLeOFHcazY2Vf2lfVf6S/jQLjiVvR5zDz0Jcy9fQ631R97vim31kD4VpybtgfCoy9i1hgIj70k+/YjJs0O1eK4OqhaF194yUpmK9OY/8InMbP/GK6ruu8l5Fh+fDAqSskcCL/0ksyyuh9pKHJMua0KuBKtPRAuxE90qn2Mbi27jvYj1orE+TG0P6JaALJ5npbGTE8ANeF+zMivU7U45gbUsQK9mNOlOVhexNyRTtUqCWLAaUSocwjUqeNkJGIZC3F1QyW7hCzhSWukYcDJ5vcvDV13qAdTUvnyvN195lynGI49o+SafK8xzPSF0dCTo1VVRBxxUBiklJREGuaU27vmI3gWZHpt949v4F83XcCWjiv6Mx6yj+wrdZR3yq2FnkLrfLivegs+6Di06of7bp56CR98wZhye+paquWxcgkXDzpTbj+lBPK8koBdprh3PYr5nUossu9DD+GDg28b0zOLNeXWIt+H+3Qy3N2L4eSU223om7DSrkM82ovmL1oJWHcdOeX5uqdkxlR3asptfbgN4+etomzofdU5NuzqxaTxUD/Tnf1zGYLuSrMH29OlodAtGxkAt5cLkIZMqT32XFBfxxp/CO09bdhhylW14EbVNdRTbvXU46GyfYhSxEFhkFJSEmlI4ne+SyrXh/vcSHdU7IY1tiH7yL7y4T6pi5QHnWjdCZIQQgxKIg1Bvq1WEr98JchqU2/dyLYP+mtENiuUBiEkHyWThiDfVivJX2ZA/Wgq/xcWyjaV/4WFGxdKgxCSj5JKQ3B/NfreQ9fx9gd3dFeURLavRpd9CCGEVB4ll4bg9Z8wyTb8J0yEEFK5lEUaggxoy2cznH/3+hvNmf/ulYPehBBS2ZRNGoQQQtY/lAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8UzZpHH7LjD0s1vY8fIS/qDtCn71GxfxG80XUat+lnVSJtsQQgipXMoijR//SwK/8+1L+MTXLqwaso1sSwghpDIpuTS+8+aNrIJwh7Q4nJ9lH0IIIZVHSaXhVRi/++3LWLkH/NVbN/HLX7fWrRdxTHXUoqojai+tjmzbFFm0lzJJzEcxNR+3lwghpPIomTR+8l4iQw7ZovqFKzg8fdveCzj8T7fxC41WmdRR6RRTGlPdPtTsHgO1QQipVEoijVt3gM98K/cYhkhhNbqPWi0UqUPqqmSKKQ1CCKl0SiKNV396K0MUZuSThnRVfdaWjtRVVi5NoO/pALZUKxn4AmjunYbT3olFwqg6MIjRZ/yoqe7ElFrnlkbi9BDaQ1Jeixp/CO2HU5LQ0ugdwUDYKQ9j4FSqXWHWZR1rDFO9YdTXybmk15VBfBbDLSHrvOv8aOqeQGzFLlMsHGlDk9+Hqmof6sNtGD9vFyhyndfC4VY0+FR9ap+GljEsGPURQjYnJZFGww+WMkRhxh/+5RV7y9z0/sNNva3UVT5mMRDwoWlwHglJkEsT6FLL7W9Z2tCJvDqA9pFZxJasdWnSWBrD/roAuk7ErOX5QTTVhRCZtxb1tnVhRKZV+UoCc4Nh1NS1YnLZKDelIcc6sqjOJYHYW20IVO/CsayXYxGjYR+CHROI6/OeRUQtNwxYB04cbUVNYA9Gz6hzNo47bvtKHzegluelPIapnpCSlNp/nxKFWpWIyXWoxd7D7DgjZLNTEmlUPX9ZJ/xthjzytS7c/OPZO3o/qatsqIQaX4pbwrCRhFrTaSTyluPJloeQJg29v1m6iOHt6il+yJKIbLtj0GwtzCMSTCXjDGmkHSuKLvXEf9A+VBpn+hGqVknflo9mdgQHB6KI2+fQPGKLTBPDaGOqqyzjvM4PYkf1Ngy7WiPJ90kI2bSURBq/8qwlChmPaH7t+n1J40r8nt5P6iori0b3lBNmInclTncyjRvdU87+ZnJ2j2lMHkgvz30skUYtuk7aiyYnO1G1dRAL9mI6sl8QkTP2os1Mjz9Zf8Z5LQ6hqTqMYWMVpUEIEUoijV/7xkWd8G/c/lgvf+uQJY5c8fm/yOyuiqt9pUzqKhvLKsH6pXtqNtnaWD2Ru5KpTrZW95S1v93SqEBpTHX6kvVnnBelQQjJQUm7p2YupPp5VhNHtlbIvyze1WVl7Z7SydIa4HaQpJ47kbuSqSTv7UNIdQQpaWxNl8KauqfSjrWKNLJ1T12axWR0EQmP3VOUBiHECyWRxlf6rbGMvrQsllsc2aTx0nFrIFzqKht6INuP9sPzSCwn9IyjkMxcypnIXcn0dC+CKtkOTKuWxnIMMwONupsrrSWxloHwtGOlSyMxP4HxqCMCLwPhSirnZaBbHXdoFwKugXBKgxDihZJIw5ly654lJVNpTVk44ZbGvY9TrZVyT7lNnOpNTk1taBnCaGcwOSCdVxqK5DRVPe11DJHdtQj1WclbJ+e0qa27EDmdmpG0FmnM9QZQ0ziSatWYU259Ieztj1oCsVkYUedlTrm1Z3QJlAYhxCslkYZ8W63zOYsfuFobv70n94f+/qjjCt79+d3kdFv5cB+/+ZYQQiqHkkhDcL5G5BdVK0K+GsThR1O38bn9VisiW3y25RL+7TPWz+vha0QIIWQzUTJpCN89Yn0dyC81XUCn+vmO3V2Sq5vKDNmXEEJIZVFSaQgdxjfdfu7AZbx+6nbyMxi54i9HKQxCCKlESi4N4dhp7/+ESbYlhBBSmZRFGoL7373Kv3qVkJ/5714JIWR9UDZpEEIIWf9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz5RMGn/UcQWf+NqFtPjcgcu4cftjewtCCCHrjZJJ49d3XcyQhsSx0wl7C0IIIeuNkknjv7xwOas0Oo/csLcghBCy3iiZNP70+1ezSuN/9l21t6hQ4rMYbglhS3Utqur8aGgZw8KKXSYsz2PmyBAO7tqGYOMQYvZqh8TpIbSH/KiR/X0BNPdGETf2j030oMnvQ5Uq3/LFRgycitslqxMbCqs6wxhetFco9LEet+qq8oWwt38aZjsuX3kaiRjmoiOItDQi5O/ElL06jSW5Nup9+1R9HVF7pcEq5QuHW9Gg37cP9eFeTC3ZBYSQdUXJpPHXb93MKo3H/rqSpZHA5D4fAkoUMUn0iXkMh30I9s5axYiiS4mkqaUfkbYgqra7pLE4hKa6ANqPLCIh+y+OoT1Qi+YRe6v5QTSoxD9w2hJF/EQngnV7cCxfAo2NYW+dSsSmNPS6ALpO2HXHJtAV8GH/EVtC+crTWMTwdh8advVguKdRHSeLNBZH0OwPYv9AFAtLWdSzSnkiKu9TnfsZtX4lhsmOQOa1I4SsC0omjbkrKxnC+L3Wyzj/0T17iwpk+Tjaq4OInLGXhYk2VAX7MWcvwm41xCLhjMQnrYGqcPq6uT4lF/upW//cctx42lfJemst2o/mfP5XxDHe4kNTZyeaDGnE32pDaNdI2rGmOlJP+PnKM3BaQyc7s0jDkunew7nS/OrlkwdqEeqbt5cU+jr70TdtLxNC1g0lk4awxZhB9Z+ev4zL8QoWhiAtheo2TBrdSTg/iB1ZnryzSSMbUx2+ZMKUpL1j0OhfUkhCbYqkrzNJqCQeCClpnZdzS++eMkmcl1ZNAAej2QWUrzxJNmmsqFZKdSMO9rWiQbqeqlWrxOy2W7VcWjHu92it23vYW9ccIaRyKKk0Xjl5SwvjFxovYPFahQtD0NJwJcxs6xSepHGmHw11u3DM3kik4RZEtnVJVqbRpxK9fiLX55EpDX0eMmahntz3DhlP8zb5yjPIJg197FoE9ykRiHNi0xhQST/YYzcVVi1PqJaSq6Vht7BWkyUhpDIpqTTufQx8br81i+r5kXXwVFlMaagn+/0q4XedTL3vtUpjri+EwIEJqzsrhzQcrJZE7i6ifOVJskkj2oma6laML9vLisTRVlT5ezAjC3nKE2+1osYY05jpk0H9fN1yhJBKpKTSEN7+4I6Wxi81XcCpc3fttRWKTsxF6J6KR/WgczZBeO6eknMxWin5pCEsDG5D1TNjyKXnfOWabNJQLabQajLNV66OODewC/UymO8LoT0ygoNBjmkQsh4puTSEpr+7psXx23suYWFpnQ+E2+SUxoo146ppMLMraC0D4VOd9lTZLCGSiY3sQei59IFuLQW7/nzlOckmjaUx7M12XZyWRr5yN9JtJ2WmnAkh64KySOPWndSgeNXz2WdQybrH//oqGn6whL94I46/j97Ch1fLLRjXlNulWUSUABoGcowVuKWxoiQgU3Q7otkTs2vKbexIK4J1rZg0unVy4m5p6LpSU2ozup/ylecimzTUu5nqDKAm3I8ZmR5sj1mkrku+cptEHAsnB7Ffncf+I3nOgxBSkZRFGkLsxsd6yq2I47e+eREn55RJbD64vIJ/v/eSLjPjM9+6ZG9RRlwf7mvqnrAE4iKrNHTCzWwZmJ+vSPtw3+OtGLYFkpcs3VPxaD/22h/eq/FLt89smqzylWclqzQU8vmK7rDVxZTtuuQp19erWgn16TaMen3PhJCKo2zSEEQczhcZyoyq3UPX8bOf38Fv7c7+PVW//PUL9p6EEEIqgbJKQ5CuqubXrmeVhDsoDUIIqSzKLg2HfzxzB3/4l5lfn24GpUEIIZXFA5OG8PHHwKs/vYU//m6M0iCEkHXAA5WGyezFFfzVWzcR+purqH7hCn7lmQv4b0omhBBCKoeKkQYhhJDKh9IghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGceiDReO3kHge/e1CE/E0IIWR+UXRpT5+6hpvVGWsg6QgghlU/ZpTE4cSdDGrKOEEJI5cOWBiGEEM9wTIMQQohnHog0yMYkMR/F1HzcXsokFgmjqiNqL5H8RNFVHcbwor143xSrHkIoDReLGN5ei6ZI5l+XTnjbhxCzl7EUxcDTAWyprkVVnR8NLUOYM/Pl+TG0h/yoUeU1/jAGormT6WrHXY3YiR40PyLHSE8I+lzlvJyQ89vVi8lL9gYu9PZ1YYy6D784hKY1JJupbh9qdo8h1zsthjRy1THVod6nsz7LeaeVF4OTnenXWMWWLzai78TafoerQ2mQyoPSSMOrNGIYbaxFsGMC8RW1mJjHcNiHQPe0LsVyFAcDPjQNziOhyuMnOhFc9Y92rdJIqAQdRP22HozPLiKesFfbpJ+r2jo+j/F9AVQFejAj5+tCb6+SXk3YkKKwRmnkY+NJoxNT9iJWEohN96Opzof2o6s9IKwFSoNUHpRGGl6lIX+Eteg6qRc0iSN7UuUTbagK9mNOlwgJjLfUItBjSyWDHMfVyc9ITA7zg2jIIQDBLQ3N0hj2VgcROWMvG+jtgyE0qIS397CxV5bku3CkDU1+n0qYPtSH2zB+3i5QZCRmaW097mzbg+HObUZ5HHORVjQ4dYVaccyoKxf5pKHLjaf/psiY/l2l1jnXc/XjS31NvUPok/N3X0vBLQ2bub4gqp6xWlvZ6kicHjJaoCG0HzZ/53HM9IZRX6fO06fKIr3Y777+R83r34upJbtAkTjVi+YvSpnV6km1bi1pRE6MGL+PXswUy21kU1F0afxsbgUD43f0ay5u3P4Yw9E7OuTnXMisKpmOW77ZVV6lkcDkPl+qpbFitTSCthSyJW29zk4mmaxNGguD2xA80Iu+sNH9dSpVc7bjY/k42qv96MviLWf7uaOtqKnbhWPOji5pJKQ8sAejZ1TTRj1Zzw2G1fatGLcPnSaNlWn0SWtLHVCuUWJeCSSQKo8rydYEOjFpH2tB6goNYsFazIk+11WkofHQ0sh3fL19XRh9J+cRdzflBI/SSKtDiXt/XQBdJ+yDKvk31YUQmbcW44d3qXNS1/O82jYRw0yfOifz+quHkYBzziuqXAkm+Xt21W21bhsxqheth5yacD9mZHl5FhF1v+V+iCEkN0WVxt+5PoMhy25EEsHum8lt/vuLy1nFIbOqao26yjPLykreqadSV5iJWJLiI6my+mdGkmWSXNNbGlaiz0jkSdYmDScZRaZVbSp5LxxuRcBI9hnSWFnM3z2lt4+rFpEPNS3HlRYVacnXOsfmEfMdWN10znmnJWaVVGv86cfT18ApX44jvmz9qLGPNZpj3MWhWNLId3zZPtRnZ/NsZJFGQlpW/vTrkVaH+l3Fl0wB2b/3IbmmWa7vyoTRrWSVtx819tcPAvY56/PfkxS4/G7mTkxgTlcn0khvZerr6O6OJMQDRZXGw99NyUBClt1I68LcRkLWuZHpuOY2slx6ciRvRXoijuHYM0ZLwx7TcFoa+o+5zhjT0H3dKmk5yTgD87jWU2GarJzQx1eJOuxOaPOIBGux97CVMfS5uvat2aqeUFcbCHfeW2wMe51++bTkm5l4hJkefzIZm4lZ1+lqWel1TuJeiWMm2T3knGd6os9GWh0Ga5ZGnuPL9tnugyRaGs5+dvgCaO6NWveEIlsdcaN7ytkv9Xt3twRlnXn9jWMlwylfxLHngqjxhbC3rR+j04v63rMw67FI+50TsgaKKo0vdaYnell2syGkcUmSknqyN/qTcaYfoeo2TNp/qInTg9hr9z3LzKrRzqDnMY3EknoKljjdjx3VrRh3lnU3iTU+4j5HM0G5E8JMTwA1ObvGMrfX3SR+9V5UgssnjalO9R7tZGwmZl3nKtLQP+uuFlujWRJ9Nsw6TNKk4EEa+Y6fLeGnkaN7yiSjDn0MqwvJSujuh4V80sjevWiSOD+N8UgP9j6uWoxbezGjW1OUBikeRZXG//vp3bREL8tupCtKuqScbVbrnjLrKmf3VLZkkfZHpv/4VTI3uze0NFzrHFZUS0A9XfadkgXVSmkJYm9adkxvKSTRx8lMTPrpPq3Vos57q6ulYSaEuLR8/Og6mb2dk5lAFlVrxofA9rB6T06ysa5NsbqnMhLq+UElyPTElo3YkDpXV9efcx7J1pcHaeQ7fka5m/uRhuzjus7ye7O2yXJ907qn5B6qRcOAq8vMeUg5H8VkVLUurEW1fhp9fmeyBqVBikfRB8L/+cN7iPzjHf2aC5GEtC4ksgnDoXIHwq0/4KZea5AXCWvMIONpXvqw56OI7A5gi/H5hYWBkHrKVYKZV3/iyQFlYwDaIYc09Pq6ANqPqPNMjmm0YtIWVraEoNeFVLI1krhD1gSij6ESrZFsrIFwe6BWzntolz6up4Hw2RHsNwbC53oD6pjqSVg96Sdi04g0SqvMOVYcUwOdiGT7bIvdfSb1xuT9yoBxZA+C5udMdLL142BU1W1nUS2sRvUe1Qp5yl/9+CWSxulePfV6YFq1NJbVeQ806s/5ONu4B8KneralDYTrchnLOm1dF93t+bgSs7zH6R59DZyyxJlB3aoZOC1LlAYpHkWXxvrGqzQU+T7cpxO+NfWxa2Q22c+tWVFJsbcRQZ8kZbXN460Ytv/Y01hexNQJta+9aKKnburpk5n7Z00IOol7fG82C2q9+4ODCyPGNFWZcms8+KZJQ1htyu3KompxhfT1k9lffUcGsT/Z/WX/HvQAcRYWJ9DnXHtVd/Dp9PNQVwczfdusujvt4y2OYf8jlhj0wPGqxy+RNBQi+Ab5vat7pql7TD1QmONTHqbcJq9/lt/7RE9yyq28p66jzo6UBikelAapPHTXSv7+e0JI+aE0SMWRmO5Fs2oh2D1LhJAKgtIghBDimQciDZkJJVNoJcozK4oQQkgxKLs0ZCaUOZVWonyzowghhBRC2aXBf/dKCCHrF7Y0CCGEeIZjGoQQQjzzQKRBCCFkfUJpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPaGncun0bDAaDwaiguHUr87WQMOsuICgNBoPB2AjhiMF8NcPctoCgNBgMBqMSw0z+7tf7CafeAoPSYDAYjI0QjhhyvRYpKA0Gg8GohMiX9OW1kJA6ihCUBoPBYKzncISQ7dUMZ/sCg9JgMBiMSgwz+TuvhYRZdwFBaTAYDMZGCEcM5qsZ5rYFBKXBYDAYlRhm8ndeCwmz7gKiLNL427fj+M3/dQmf+NoFT/G7376EQ9HrWetiMBgMRpZwxGC+mmFuW0CURRoigWxyWC1EMtnqYjAYjE0RZvJ3v95POPUWGGWRhiOCbGXZYq3bMxgMxqYPRwy5XosUZZXGWiNbXQwGg7EhI1/Sl9dCQuooQlAaDzTm8VpDLb4znq1so8Y7+E71U3htPlsZg8FYczhCyPZqhrN9gcHuKXdcmcZrzz2B+rpaVFX7UP/Es3jlnVj2bQuO1aRhle18ZT5L2XoOSoPB8BRm8ndeCwmz7gKiLNJYazw4aczj9ad8eLTlDZy9ch23bl7Hh+/2YWfdw3jxnVLM5qI0GAxGkcIRg/lqhrltAVEWaRwYWcKB15eylmWLByaN869iZ/WTeO1M+vqpznpU7TueXD775gHsrPdZLZGnDmLykr3tvOx/AG++czBZ/uRzSkA3U3Wdfb0FT/pUK6auHjs7X8aLf5pFGroeaenY0fAqPnT2f8M89gH8xHWuVljCebJ/NrXudB+eqN6J1xet5dXqmWxzyUqfj5PoraT/w1e69fvIlJpdfih1DeqbXsZ7V9LLXzl2CC88lrqGU8lyFZfewSvPPoEt8t59T+Cbfe/imlPm4Rpfm+zDN3XdtdjyWAten02VMRjrJszk77wWEmbdBUTJpRE9eyMpAa/ieGDSuPkuXqpXifDgNC4bSciMa8cP4OGHO/C2JN+bi5g6+FQqqdvJXrdUrqttF3+M76j6vvm63b31bjcerVMJ891F3Yo5+0YLHlXbe21pXHuzBTUP78brp61W0HsvP4Wauhb8xEy4dnz4inFezvLOQ7isfs5XT35p1KJGZDkbw2X1PpPb6bDK9TW4qpYX38UrqvVW0/JjO/E7+/dhSq7h1Wm8ot7nw13vWvvfnMUrTygRdL1j/Q4Wj+M7DysB9toCzHeNz7ysWobqXO33JpJ+uL4Dk3Iu+vgMxgYNRwzmqxnmtgVEWVoaPxy/viZxPDBpqLh26lW0flk9pcoT7oE+/GRaJfhkuZXIX3jT6Kq6+mO8oBLq6+fVzzqhqeRrJChJwDUd79g/+/Bwp50cdaj6srU0nLI0aVjLzx4yz2cRr+/M9rSvYvEQnk0mems7a9/89eSXxqN45bSzrzuk3NVam+zGw8nrkrm/FtpTtuDGO1BT340pU9qyf51K/LLOwzV+whGMDiWhR3148Z3U9gzGuggz+btf7yeceguMkkjDSfq5Ip84nO2ylZUl5An13UN45bmn9ID4lied7hPrKTnZbZQMO6HqhKaSm1GXJLSqNkloVrJOPhHrsNZ5k0b2ZD3VVW/Xn74+TRSX3sA3k11T+evJLw3n52yRpfymai2ssr/ZKtI/P+e0SuzQ52/v4+EaZ/5+cl1jBmMDhSOGXK9Figcijf2VLg0zpLtEJSKr+0QSXj1eejfLdhIPQBqTHapVlFUat3H50E5UNb2BD99sSXZNeamn6NKwW2O59s8rDT3WZO+z5mvMYKyTyJf05bWQkDqKEGXpnpLvnvIqDIkHJQ3p669yd42oOPvyk3b3ifS3uwaYJZztV01o8nMZu6ck7BbGN5t8xn7565Fz/urLRZSGHoQ3u6dyS8Nb91Sua3wdb7eY4yd2uH6fDMaGCkcI2V7NcLYvMEo/EH7m5pqEIfGgpHHr6jt48WEfnuw4bky5fRWtat3OV60kevn1Z1Ejg9mnrKfZyzIl9zGV5GRAOI803APh7x3avcpA+G28vU+1cDrewbXr1hiKNYCtku8ZewD71WdVMlXLWQbCrYjhzSZ1fFeSzlePTuJPdGNSD1TP4ictDxt1eJFGaqD61vVZvPaUkqW6BqmB8FWkYQ+E7+x91x4IfwcvPeYeCM9zjasfxgtvWL+va2fewAtffhZv2rPGGIx1E2byd14LCbPuAqIsLY39I0uehSHxwKQhcWkarx/YiUdlWqxKflv+5Em88Mp02pPr2UMteFJP97SmdL5mCyRvQlPhacqtHdeUkL6qt03VmTq2PVU2z3RS3UVlzKJyYtV6bs7jzd2Poka9v5r6J/BC1wF8dU3SeBIvvtydnBL7xO5XM6bc5pSGxKV38MM/e9iYcmvPpJIyD9f48jsH8eyfWL+fmvqn8NJxs1XFYGzQcMRgvpphbltAlEUaa40HKo0NFtIllrP7qiSRTyoMBsNTmMnfeS0kzLoLiLJIY60SoDSKEFdjuDwtn1lIfaCvPEFpMBgPJBwxmK9mmNsWEGWVxlojW10Mb6FnQ9U9itbXy9nKkKA0GIyihJn83a/3E069BQalwWAwGBshHDHkei1SsHuKwWAwKiHyJX15LSSkjiJEWaTxm81r/3evv9PCf/fKYDAYecMRQrZXM5ztC4yySEO+e0okkE0O2UIk06/2yVYXg8FgbIowk7/zWkiYdRcQZZEGg8FgMEocjhjMVzPMbQsISoPBYDAqMczk77wWEmbdBQSlwWAwGBshHDGYr2aY2xYQlAaDwWBUYpjJ3/16P+HUW2BQGgwGg7ERwhFDrtciBaXBYDAYlRD5kr68FhJSRxGC0mAwGIz1HI4Qsr2a4WxfYFAaDAaDUYlhJn/ntZAw6y4gKA0Gg8HYCOGIwXw1w9y2gNDSACGEEOIBSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOKZkknjjanb+M8HLuMTX7vgOX6/9TJ+pPZbf0TRVR3G8KK96OZkJ6q2DyFmL94vsUjYcz16246ovbRGFofQtNr7IYRsWkomjf+w91JWMeSLf/P1C/jnhbt2LQ+Q+UE0VPvRd8peXhVKgxCyOSiZNBwJrIXt/Ut6n8/tv4zEir3yATHT40fA70fNvuNI2OtyQ2kQQjYHFSWN67c+xme/ZbVQ9h66bq99AKxMo88fQuTkCJqrWzG+bK9PEsdMbxj1dbWo8oXQHunFfjPJxqcxEFbCqa7FlsdbMdy7Z5VkH8dcpBUNfh+qqn2oD7Xi2Hm7yIVbGonTQ2gPWcepUefbfjiV5fW2BwZxrCWELapcn6dRLiwcbUOTc9xwL6aW7AJKgxCSg4qShvDTuTv4hUZrX/n5QZB4qxU1OjknMLnPh+aR9HQfP7wLNQElk/OqDZKIYaYvrBK3k2RjOPaMD8F9Y1jQxdOIhFViziGN+JE9qq5OTNqFC4OqrtAgFqzFNNKksTSG/XUBdJ2wd5wfRFOdEt28tai3rQ6g/ciiarUlEDvRiWB1qjwx0YaAc9wV9R6UBJN1UxqEkBxUnDSE/SNxva+0OqT1UV5cojjVg0BaEl/E8PbadJGsTKS6p3TCbcSoUQyVoHO2NJbjiJstGTthj16ylw3SpKFEEF8yO86s82oaso5itTQm9M8WCYy31CLQM61+trZtP2rsv3wc7c5xKQ1CSA4qUhp37wF17Vf0/l/9W6fPpEzERtBc14pJJ5E7XVX2E7o1fuFHn+TeJMaYhoxf+HswYxVYrDamsRLHTLJ7qtaO7Ak7TRqKuNE95ezbFLF21Nu6xjQWBrfZ6+R8U/ukwhQfpUEIyaTipfGV/vJKw+rWyUyogW7HEsWVhj6e7iayn/pXSdhp0tDbWd1T1qQBu6XhWRru92BAaRBCclDR3VOffq7c3VPziIR86DppLzqc6UdIRGAk52J1T011pBK95vwgdniRRoaI1HltdUkjZ/eUvM9aNAwkm08Wzow1SoMQkoOKHggff7/MA+HTPQjUdWIqY7qvSrJBH9rfsloD7oHwqZ5tqwyER9G3NfdA+FxvQJX1Yka1NPSgeaN0U3mQxuleBNV2A9OqpbEcw8xAo54llSaNVQbC9XuoCyNyOm4tT/ej6XElRnmLlAYhJAcVJY0HPeV2pjv35zLm+oKo2j1mlxVxyu3KYnJabI0/jL4jg6quICJn7HKDNGkoFg63osGnzqHOj6buMUR21yLUZ1nBammkT7ntOpp+BgsjqbEUfZ62QCgNQkguKkoalfThPkIIIZmUTBpOi2GtUTFfI0IIISSDkklDvrDwc2v8wsLfa72MkVPr8QsLCSFkc1AyaRBCCNl4UBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQdJI3LmDq0vXsXjhMuZ/voD3z/wcM+/PMTZRyO9cfvdyD8i9IPcEIQ6UBtFcux7HufOLODN3DhcvXVHLN3D7dgIr9+7ZW5DNgvzO5Xcv94DcC3JPyL0h9wghlMYmJ37jpn6qPL9wETfUz4RkQ+4NuUfkXpF7hmxeKI1NjDxFzv38Q8qCeEbuFbln5N4hmxNKYxNy9+6K7m7gHz65X+TekXtI7iWyuaA0NhnyRy5dDLGPluw1hNwfcg/JvURxbC4ojU2GPB1SGKRYyL0k9xTZPFAamwjpUmCXFCk2vK82F5TGJkFmvMgAJiGlQO4tzqraHFAamwTpe+YsKVIq5N6Se4xsfCiNTYB8KEvm2BNSSuQe4wcANz6UxiZABipL2croG1/Gzleu4dxH/PT4ZkbuMQ6Kb3wojQ2OfG+QfA1EKfj4Y6Bx8Bo+8bULOv7dc5dw9spap1/GMRdpRYPfh6rqWmz5YiP6JmJ2GSmcRQxvr0VVR9RanO5BsNqHvYdLc43lXuN3VW1sKI0NjnzhXClmtogwdry8lBSGE1u/f9Xewhvxw7tQo5JYw4EhjJ8YQ+S5oFoO4GA0YW9R6UTRpWTXFKnUJ2y3NHoRqvNh/xFbGic7lazDGC7S6cu9Jvcc2bhQGhsc+aZS+eK5YmIK49e+cTFNGt87trZusKkOldC2DiI1hBrDzJEoFtaLM9abNNwUWRpyr8k9RzYulMYGR2a0yDeWFgsRxld+aAkjMnkL/zCbwC82WsJ49tVr9lbeWRgIqaQVQPuRRSQyerayJTxXkl6JY6p/Fxp8ajvVYqkPtaLvwDb1cyemrC3URRhDV9ivWjBqG18Azb092J+W6FfvIkucHkJ7yNi/ewIxOVedcOW4TmRPvrGJHjR/0ao7bX+Flub2Xoz2hlFfJ3WoVlfLEOZyjSfHZzHcEkpuG3y6B5OX7DJhySrfoo8VQnskitEW9bNzDReH0KTKuk7ax06eu4rtQ0rZhSH3GmdRbWwojQ2O/G+EYn29+YqqxhHGwDvLet1Q9JaWxv0IQ7MSw/gB6ZJSSUsSatsIZpIfWM8vjZmegE6eO9qs7q1hJQxdlyON2Bj2qgRb88guDIxMYHKkF80BK0k6dSxEwqipC6JrZBaxpUXMRPYgmOwim0afvxaBlhHMLcaxcLIXTf5tGIiqrB6bxeSJfjSrukLqvCdPqBaSdVlSLE2g65Eg9g+osiW1/4lONKjzCfZM62IncddsbcPwkQklj0Z17Fo0DMzr8jRW1PUI+9R7acPo7CLii9MY3q3ef0C9VznuijpXeW++beiKjGHyyBC6tqrtRTBZpBGfVdejr1EdX733YfVzVInb2uq+kXtN7jmycaE0NjjyT3WKwV0ljP/xN1czhHG/LYwMJAFH2lRCVk/kKoEfPCmP2nmksXwc7SohNvSZCTaOyQP+pDR0S6auFePmk/v5QZ04dR0rqj5VR6h31i4UEhiXp/OW4+qneURCKqmHezE1H8/SGvLYPZWII66kEVdZefKAqtt+qrekscc4vziOPaPWhbM89auWTY1K8AOn7WVBroE6fvvRBBJvtaryECJn7DJBRKKkl00amiJ3TwnFuudIZUJpbHCK8Qcswnjsry1hfP+EJYzBk0USxopKdubjrTxNiyh00swjDXcCtImploMjDav7x52AM+tI66ZxwtkvPovR7l3Y8Yh0Ubm7j/JIQ72f0Wfsri0d9pO/KQ3X+WU/Z+d9OfWkhxzffN8muj5KgxQJSmODU2j31B31ZJ1LGE//30JbGNZTcI1+ok+RehK3pWGWx0Z0d5BO0vZT9motjbm+4OotDbu10jySnqJjZ2YRt1sVsZNjmHGKE9MYCKpz7nREtro0YkOSyMPq6d9+ByuqJSGtmPuQhtWSaMSoWbASw9ystaISWhrsntr4UBobnEIGwkUYX/4/H2lBHPyJNSuq/+3lpDBkULxQJKnK03vomV6MnphQT/Tb9CCuI4KZHhGADF6PYPLIIPY/Yg0oO0naPaZhTdlVSTLnmEYPduhB81QdcwMyDmKMi7TJOfjQNKTK45ZUah7Zg8iRCYxH2vSYRMAekxBpHJTyrZ3q/EcwZSZshUwptgb65xFfWsTcSBtCavv7kQZW5hHZqt6/OWaxTbrzwhiVt+KMadSlj2no1kguaUSly0u1njrV9R2JGrPY7g8OhG98KI0NTiFTbv98wPrgXqmE4RA7kZpdVOOXGT+pp3xntpA1G8iSx4BqfSSf7F2zp6TraLzX1U1jzJ6q8YfRNzHiah3EdTLX4yn2Nl0qyScxZ1/V+dHUNoYFY2wj/pYSiX38vlP2SgfVEpjsTs2MCj7di77d6uf7kYYgXWVtqfrqw20YNxta5uwpda4NLTI5QP2cSxrqKJNtzvXtyejaWiuccrvxoTQ2OIV8uO+L3TH88Xet1NV7/GZJhFEwiUXMnE5PrzPdqnUS7IfTsx6fncaC2T1ld3HJ4DEpLvxw38aH0tjgFPI1IiKN32i+CP//jmlhPPW3S5UlDCQw1Wl3T3XLlFdX15IgT9bSfWR3L8mU273SxeVMUyVFhV8jsvGhNDYB9/uFhbuHrmtxSDT//XXcqyhh2DjdU2bX0shs2sC67l56OmB1wSihNOzqTf9AHCkK/MLCzQGlsQngV6OTcsCvRt8cUBqbBJnRUsqvRyebG7m3OGtqc0BpbBL4715JKeG/e908UBqbCJnZUoqvSSebG95XmwtKY5MhA5Wxj5LfCEhIQci9xMHvzQWlscm4e3dF9z1THKRQ5B6Se0nuKbJ5oDQ2IfJHLk+H7FIg94vcO3IPURibD0pjEyN/+DKAyVlVxCtyr8g9wweOzQulscmRGS/SxSBz7CkPkgu5N+QekXuFs6Q2N5QG0ciHsqS7Qb4GQp4i5Yvn5BtLi/Vf/8j6QX7n8ruXe0DuBbkn5N7gB/eIQGmQNOR7g+QL5+SbSuWpUv43gvxTHcbmCfmdy+9e7gG5F/hdUsSE0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZ7Q0sv3LRwaDwWAw3MGWBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxzLX4Dfx/68Tivp6OJPcAAAAASUVORK5CYII=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acoustical consultant</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       arlabin.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>0120 433 1669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390ce57072ab3f3f</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Building acoustic, insulation, interior, exterior contactor  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       phase- 01, Office no. 03 , Ist floor Krishna Plaza, 37, Pratap Nagar, Mayur Vihar, Delhi, 110091      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAELKSURBVHhe7Z2PU1xXlt/nz9iabH5MspXdTaryczbZqWISAglRTzai1uWudbkzU+rYYzH24MQeWHkgsq3BKMJhwcvCLNF62DDDmJi4vaxYYQuLkUYaYRQZ7BHGK4ODYSyDLLktrLZ+tIx8cs6993Xf9/p194OmmxZ8P1Wnul/f9+677777zvf+6vu+RAAAAEAA/mtjE0E0AAAABAKiAQAAIDAQDQAAAIFRojH33iLBYDAYDJbP0NIAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwJRUND757AtqPZqgP+j9hP7h/o+UyXf5Lc5hAAAAypuSicax2Vv02//tI/ry9y75moS9MnPL7F2mrAxTY2UXzZhNYFhboZMtUdpVWU0VndO8HaepnnraXcPblSGKPDZMy2ZXUDyS5/uosTbEeV5Nu+6J0KNNAzSzagLLES4nc2fmKb5mtnMQj9XrslUOKD9QTyMrZnuHURLReHnqZkoc/vOfX6VTc0kTQuq7/OaEy75lS9mKRoIWY61UF9JOene0lU5eNEFCMk6L06MUa2mgaO360p+8MEwd0VqqEkGoqaXG9lFaTJhAQ3yYH+hwF03FeYMdQOJYE1XUchqWEpRYTdDy/BKl7/hdwuVJ6q831x0KU3PfrHUNdn6zg/5WE8XOezIlAMoRPjxMkm15OdfF58p176bpcE2IGoc4r/keJC8M0KMldGy+13KRn5eaMHVPZsmby6PUzOGDF8x2DkonGis08rC+rynjcl/XMkxzjgBDNIorGpev3aGv7NOC0DH2mfk1EwmTfWTfj/iYsqRMRSN5qpWqxElLIV5L0uJQPVWF+2hRhcpDEKK6pl4a6W3I43g8zPZSpDJMh2KzFGfnn1iZpZH9Yap6cIgWrdrhTBfXbq0H2rt997FEsWg1NfbNU0KuMz5J3eEQHTqunZ+IYpUjkrJ9posiNU/RyXXW6jdVNC57HFmJHVvGtSSmVZ41xjYnAaUWDTvdycQSTRwMU0V0QJd7iEZxRUPGK0QMIn/2ifmF6FfcHv2zU9fpj459pr47/CfeR/Z95q/WX2vbHLigc2EYHHWa+Vxr38cO0kmOKiztdHI6HV7XMk7LqUswNVDnWG+N33TjqG4bVXsZtY7lwnl+gA58S46V2msrjS2ZgJwkaaKlmqL91s5r7OQqIxRbcLbNZ97aqk2cxhqqqc6OV1ibpf7aajpwTDLFp1bmMv1gzXTyd/uBd9Xio9QRm0/X4jmPJtpN15a0bPqmteP2kvdeiN+y83MdrYGFAYpWttLEDbPNLA/tpYqW05zOBKcvQgdcHkPKTTV1nzObAclwtBfHU626qlrOl1Gd9yr/VH5qyziPuq/WPhKnj2NbPt6eLtf17TRhl00me7h5LmK9qnXlJwSua+F7OFIfomjXtNU684nDm8Ycz4eKv22cZvpM2ZBycyydDsmjxsFJGjPdpFW1fC77fkuZeyysu1AzWo42maKhuHGaOiprqX+Wv2ekW7pjGyhiWvqRx/pozpxapdu+N8rSx9oteXXPrWsqV4ouGv/62StKCH4xr2+RiIRsO/ZbzR+lhOPMe0n1279qu6K2S49++CMH2fmIw4jPUowLf9VBcRaMKiwmnH9Ixk9Td8qBspM6/pSrBrosNf7oUKo/f7GPa+n1LEISWXJJPVjhHimFzMUhbspzYVrgQG4tLB9rpbB0JVmOyx9dyLsnzaaCf3swm3MJKBqr43TAFh6Lud5afoDTJ/SKQs7tG9N0WGqgphuFVthR8nbHKcmUBE211VKkc9LU8Gdp0O8BFvLcC3H8dTV7qf+cvhmqNVAZ9b2eDCSfuDXlGoeZbPdvFci9Ot5KEb7v+e+VG7dozNOglS/JBSkP7KTOq8D8987ryDzbyRPcGg0/RWOmfKnWaA0Lo8mu3OH6uaiq76MZ6XKUW+UhdS1GMCJ8v927+cThSWOu50M73zB1HF/h/ElS/FQ7hSubUq07Vcb4+YnNcm5K+gd5/9pemlOh7rylVd1y1GXOy/pFw5XuNS7Dnbzt+AwXKzRm5w0/Y4ek++6MKVVLcs+5jAaqLG4dRReNv9moxeHaTT076vDPr7tEQ0x+E2Qf2f5bfMzWIAV7L43YNbDzvVw4Ta1TFRZ3DVQKaxXXqBQ3+GGwHYcpXGOX9absG+2b1xtM8uI0TU3zQ8DfZzq5Zuaq1S9RLBKiw1YF3R8jGi6B8PuNWY9oeB4MG7ez84gCk2tbnFNFhJv5akuTmBygw8f42n3yV+1f7+Os89wLyc+UIBvmerhGZ6UrK5JPXoHI+E3nsao5/l5TwFahG3c+StmLWP37LEbTkzRz0biegkRDp7V51L4i3ZLUzjFfuE5bLsHV19JHI+wwKyxnnsYnDk+acz0fKn7V0nOQ+NLPhzrWfn5M3OrZYxGRsTUlGAa7rLjReeESDRmw5xZOhVOJ86Q7mfAIqdyrmsx7JWN/UqmcMUKt02UfaM497Cp5ZUfRReMfmBlTjmi0v6q7q2zzioYcszVIQfQ4StXVY35ThcVdGGyHKLWMuVT3lHEoduGaHaBHQ9L0b+Vm+iQtpsqG5YA81n1O0pTezqx162PvFtFQx1qtFBcqfelrTZnXgQs574W+/o4T9gPJ4iQD9H5xeckQCMbvN4EffNXSqGFHmTdiN+58TNJc/17aJV1yLex8z5jxFId89857v1zb/k5ftRhVfgUJ9y8LDupa2Ik3cjV5rjecpaXhicOT5uzPh4nflCGNfi6cMi733vVsZOSH1T3lmCs+B79nUXc1pyoG3ri5dZXunnLMc6/kGGlVnHMUQ5OwJ5oYy3zGy4uii8bv/XFcCcH00m217e2e+k2re+rNX91Wv8kxW4NPwVbNUvObKizZRUMVbNU9ZR4Xb+ESuNaiZzJJ32yYDnFz2ymoqa6VdWEE4i7pnsorGqkuhTzkvBf+oqFmeQUVjaDdUwqd3+u9f27RMMTnaWZ0gDpkzCf8lJ7cIBRBNNITFoKEe8qxB3UtTp6tyUQC7yC4TxyBnw8Tv1WmdHwBReMG78sVucah+VRrw1tG0+iyk9Nxu9Kd5Lj4Xkn3lNPq9d6rbF12Kh7dPaXTFeDcZUDRReOgGQh/9pX0AyUiIa0LaXU4giE4rRA5ZmvwKdj2oKi6ydlFI6PgXhyypj3yw3DGXXtKjDYYp5GkqYPW2ImDXdPMSoCBcIf1iAanyn8gXM8ssh2k9wHMte3XPZVcmqapec6YpSGqk3EH+5TZ8iDvvSigeyrnQHicTj4doUOurhwtGl6RyodLNFgspqR1oUIEu3uIKUg0tDMqrHvK81x4yBBAGaOTYzyD6a44XGnM9XyY+F33bh2i4VNWptrcZTRNAMftk7euCppUMKzzLXPaVbeUVZ4Uck9dlQZdjnKeuwwoumi8s/y5EoJ/9NRlV5+il9scJvvIvnLM1qALojO4mhqM48Kl3IFP4bMdlQyISb/uHLc0kjKI3iDdVOmH4uQ+rm1w3EonuUY10cZObP+4dhRmeqsM9AlJmUlzX7AuD/eU2wTN9bsH4FP4OZ6FcTrcxddrNl1kmXJbEebWgHUvc4mE4NrOORCu86iqfkDPiZe+ZL6Wul6fmS557oUeCDcDo0ziXK8WJEdIL0/TxBlOg9l045ly60ojO4HBqPW/lDzdU6vTFOsa8v2TnVs0uGXHNWvn/pMa2E9P89UVkAYau8xlyy/RLkeWua0HulkIZYxEBoqHmyicMRCeLXwDosGknGW2OFxpzP18FCQaasC5ljqO8f2+IfernaIyA8sVn8N6RSNBJ/ezj5CZexx3cmmcuu+T596UTfNflcPTPjftQh8/X/U0yGU0eYPL+mCD6j7T507QzGAXxabNDSojii4awn8wXVT/+/96pTaNTMGVfb7xnN+TVyqkIO6lw0O9qamH0aeHPVNuczgqM2XQmfLXf3yIDtk1/sQ8jThTCjnuuiZ2jlaZSEz3UfM9cl5z/GTQvPD8ua++l6bM4LsLP9GQ33wG7RyC/Lkvp0gw3m17yq1cZ/dxu5W0pKZNpvKoxcp/m3z3grHzU025tR5ANdMt1Jv1unNPC+YHeqDJ9WfKkQt+iWSMg3EmQ9h4Ha0rr/mcBwZsseSyxS0cCfMdKHU5Mp9tZnnUmg4uU2o9jcjs4RsTDUmzzBaqYoeaWMsnGkyO56Mg0WDS/5bXZWqsK+IZWHdYr2gwiVkaNGVFpsqPjHSlWqoq3XI/PeakW2ZJqnIkz1bPOMX2O70GJh1lOCheEtE4/s4tJQi/23qFbvk0ImRNKhnbkH1k360j/8Ox3VBdAPtMawdsPjL7Lug4DQAO6v9QZopvmVES0RD+Y5dubRwazXRPdT9eVWFbNwDusNNEI85N6yb3FGOwiSRp7s8a6LBnxgwA+UjOcivZ9efI8qFkovH/rqyp/2yIzVxMNzdGz+tWiPwu+2wtO6+lAQAA66FkoiE460t9ve2KGgSV5dCdlW//KMe6VAAAAMqDkorGnS+Ifr9Hd1N9b+hTiprVbWu74yoMAABAeVNS0RAufXpHrTclYiEm3+U3AAAA5U/JRUNwZlOJbe1sKQAAAOthS0RDkDEMjGMAAMDdxZaJBgAAgLsPiAYA5YQsnZJ6b/bdMwXc/jd+5r+33chaY/JODXB3AtHwYi8foZbNOJ16e5h6MDzLAWjzXyYijV4SwHUMx+167/C6CbDcQQGoB7+Gr8sbvc/yFFuOWh6lmuoGPetiGNTaXBxerLwKhl4A0LuIokJWUq6p1utMud6bXSLRMPnnmLxB7kDfpBGuYKxHNGZ6Quk113JxY4nmjg/T4aa9FGnwLlHC5AmPTzrLAVXTrnsa3G/yY3KHJ2iuL/02Pu9bNmV9rvj8NI0NtFLzfbV02F6wcJsD0bCRv+7bi+mZBQsj1othvMgyHP5v6bLJdPAZ7x1eNyUQDXEg3hcglbFoqGXVM/JSryAs4VsrGpwSWeFX1vnypFGJWk0rTWUszVZK0TDreLEzTHBLICbvgud773KUOViPaASDr10qbS0DFGuP+KxrlSdcrZhcz+KrhSDjPe55wp0XJqlFKb0LlzJyjbKe2eFYLzVz2XKtcrvNgWjYzA9RY6TX9VCrByCjwBqUyFiv5MxKFgef8QrJdhoZblILtqlCuJbl3cNqX/nNWCp9ud5Rrh1Q1vefe1DXHYlSXU2IDhyzrt4rGtnS6OBdzK1fav3phQZzvSNZpaFtiMb2SXj2RRWV03uwgZr5ujJe4Rnnmnslh9nLjDNZz8txuR24XnpetxAynbhdPvKmV7UoQh4HY5bFd5ysK3/1+WJnRqlDvetcFhJ05++m5Z833FSgXPee72WsSS/IqRZxNO8wFzJEI8/7vAOJinkO7Tx2kSN8sd+7ICE/g9by9bnD3fsq1HL51hsJUz5C7hFEAziYd4Q3DltewkLVEP2WIM8gqGjIsuyjtLiiX02Z+93DmXHmfke5Ltxq2XdxiObasrWSnAdxUZbMtpf99ohG7jTq5a7D+zgeWTbanDPloPK8I1mlQZaLH52nuOu1mB7E6XFap2TJcs/KpbKMuaRngh1VKq9ynVdWY7Udu9p2KgbaiecUjTzplfd8uN7p4ZQBp+KRIRrS2hugOTnBjXmK8T0P95ours3MPx9RcTlWeZHQw+lWuFq6v7aW80nHmyEaZpn/rO/zDiIaBjuP/fALl3M8OmTdKEbeoeGUgdzhOt/dQiC/mWfVhd++2xuIhh/qIeKCzRbNumiYfjuZ/8vpvfiIhgx4Zrx3WC+n7JD73cM+ceZ8R7kU7hzvP/eQfhATXNOW5a2N8/CIRs40evZV2A5KukJyvCNZpcEjAr5InNI1ZVoVY473cFYKZYcsTiKVV3nO63pZk7NKrapZSh7mEY186ZX4rJaM6rKyV8HNEA33y7TUOZwuw83MPx/RsK9N9qnyvDxLRCX9TnaPaLjOK9fhfp93KUTD9Www9m+5w+X9/J6WhnqxmZ84QDSAjakZR5yanY3LmeRDP8yp7iRluvvI/d5hz4Ob893DPqKR8x3lmQ7P9f5zD64HUb0giAXyRMLj1JhcafRzRp7fcr0jWaUhiHNJxam7elID4uLozD3yOomc72a27q282jY9eB1ANPKmV4TMqWwkuCXmGcDPEI3s5xM2N//cZFybdY6Umfglf53vmed1O1Z73yB4r9mLX3huUcgf7nrRVnJFjz/6vQ0TogEykFc32jVBhe52yTZbJxMfB+8lQzTyvXs4M0718KiCbmpIeRyQ7hrx/GbwPoiJY03sgNtpip1UOs48afRzRvZvKn3Z35Gc6XyyYMeZcvi2gMRprN7KqzznTb/LQGqcVtfRpoiGqaFLF556D7vn9bbrEY1i5J+F3T2l4srx3hVbCDLPuzWisfHuKUbeHNjufaGaNaaRAqKxsznfR9FIn/vhEdHwNMvVzAvf2S7Z2Iho6GNchdH17uHMOO2aksL1jnIf0fB5F7ZD5oOo38IWfriej3HiyZPGy3JNVneR4BUVzznsdyRnOp8suJyeOHquyceGrK4qT17lOa+gWhj7mqjR1ZqUPHR38dn5FDi9pvyMxZqoomHU7YjXIxpFyT+DZyDcd4ZXKl/KTzRyD3TnD/eiXofrvVcKiMbOxsxuSU259e2e0rVr3/n2Wd+37XFafmSIRp53DzNSMwrLmIt5aXTud5Trwp31/ecefB9USaN6FacTZ740pt/7rMK9A+E535Fs0pByLjnemexxeqprgePJOmkgz3kVs9xikThczk3HU9c7rd4dLtfbEeb8MPmU6SyzoeORNDaPelzhekSjGPkn4yRLk9S/N8QtSGvKrRIRXX7U/zdUl02EDpj0b1g0cr2j3uC6Zh98w0WYJW/MlNq4eo+7JXr5wh1urNDi8S6qC0U4n81vLiAaQBxf6t3QYWru8fzJSQ22eroUHOTh833f9kZEg8nx7mEhOTtAj8pYgnPOnO8ol8Kd4/3nHrI9qMv8e5XtyPKkMSO87ym3g8/6jmSThpTzMXno985kb01Z3SO7Wykz/3OdV8NO8ve802OZi+N0SAmjHpPqb9u7AdHgbJHX7Pq18tYjGszm5R/HYSzrn/tWp2nwsbAqX/p86X02LBpZn5k03mv2ki3c9ec9KXue97jnC1fp5Ousa+qjqayPLkQDFEB5v2870wGVBI/jUbOFcjiArKTGGcx2sVGtKnZmXsd5t1Lq/AsI3lF/9wHR2DTK/X3bWyEasnRGxMzXl81J6g7naXFloWTvTFbTWFfU/018uyDvUsrzndN4R/3dCERjx7BFLQ1Zy8vp0pDuvj49HlC2qMH7atq11/PPdgCAAqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAJTMtG49TnRX0zfpEdfWKV/2/4x/b3vf0S/1fyR+i6/Db95k26vmZ0BAACUJSURjfG/TtLvPHOZvvy9Szntd1uv0MkLSXMUAACAcqPootEx9llKFL76g8v0gyPXaOK927R64wtlZ95Lqt8kzNnvudc+M0cDAAAoJ4oqGp3s/EUEfuP7H9HR87foiy9MgA8SJvvIvnLMHx8vV+GYoFN7vkSn3jCbAACwgyiaaPz83aRy/n/nDy/R2x9+bn5N47QqvMzwvnKMhEkcW8G1d35KJxp+m4ZZHIYf+G062vFTWrxuAiEaBZO4MEwde8O0q7Kaus+ZH4VzXVTBv9m2654G6j+zYnYgisfq+fcQdZzyLxvLg1F1nCve9bAWp6meBoqEzPm/1USDk3ETWGZcHKeOaC1VcTqrautpcDphAmySNHUwRBUNo5QZOk3dks/RIVo2v7i4cZo6ajj84WHKyAGfe2XbhvMflD1FEQ0Z9P7nprupf+KG+dVNNtEQfszHSJjEcfO2+bFE3HrzGTqy52t04uQCXbvF24kFevu5r9Hwkz+lS3dkD4hGIcRHGmj3fU9R7NwSJbxFQzmiLpoxm7SWpPjsADXWsEic0C5PiwY7Jl8nuESxaCFOK04n94Wo6sEumlpKUGI1QctnuqhOzn/KzyFvITem6XA4RI1DS5RcYyHmdEYq62kkra+a1XE6UFlL4dooxZbMbymMaHB4/3nzk0XyVKsSJF/RsFkZpka/c4NtSVFE4/+8cVM5/a+2XKY7WbqkcomGHOMMnL/EcZWOBTrb8CU6+sICKX1wuDVO43t+zQhFpmhce/N5Gn/sK7pl8tgjdPaXdppv0kL/A3Tk2xy25yt05Oluml81QcL1aTrb+g197Le/QSeOLVBKJ+8s0C87vkFHHnBaPDFaziKi13/ZTWPfNWn47gP0+ptX09dwm4Wv5/5UPK/0jBsBNOQMl+u9h86eidEJdY2/Rkeau2kh1fJaB1JzDTXRyWweyCsahsX+CFXsG1cioUSjoYGaK32c4Pledo4c9uAGRUOOr2mlCY8+JEYbqKK2l+bUljhartWP9lFjLdfgudWze98QLdrHrK3QRHs97ZZaek0tNfZNU8LMDJzprKbGwUkaa4mqlpZqIZy3Dna1HqLUMZrh6TWT7VQRGaBFsyktiomWagr3zpptjaS96uBpbj3VUrTfG5dcy15qbuDz8T7utlucxhqqOYyvfSOioX5z30u59orOabPFKT4/QAe+JXkoLbpWGstyqYVy48YNZfkIut9OpyiisffHq8rh5xqXyCUaghwr4XUcV8lYPUpje6ro7HtmO8VNuvTLcZq/KGLgFo077z1PRx/4Bv3ijavK2a+ekZbKN1JxrP7sEXbiz9A7n/DG7av0Tg+3Wp6OkboqFoU3vv9r9MrLC3SLnfSti0dp/OF/ynFr0Vns1y2cD7jFc+cW7/skO+znp92CJnC6xx/4Gp06Y6fhAXpTzslpf7uDj2uLueIZ7hgn7ffzhevrHX7yeVrg+G5ff4fOfv9LdOTP0w9/YMTRPdZFMeMwK0LsFI9ZniaoaHSyEzwY8jhB3Q1TN3iaRh7emGjM9dZSRYvXeTKqtr6XRi7Khq6dRw6O07L4l/gsxeq5dZJyugmaaqulSOekFgoOH+T0NMb0dSrHWVNPsVl2w9ySWhzk60kJ0jwNWq2H5MIQt7L8WwEqHzzOXP1m8kkjLa+QzoulIaqT87imtWsBHDnFYZUslra/lP1ZQKdO8D0phmhclGvjYxY41zgflo+1suDz/kXw2X/6p39KnZ2dOQVBwmQfMZCboohGxX+/ohz++Q8yxzIc8onGzMXPVbjEVTKWf0qvcK36Dd8OXge3aLzbk+nIF57/pzTcM6F+u/KX99Bw21HjgJlP3qF3Xn9HicadN57hlsnz9IEOUXzwQhUNH9YP1rs93OoZeCcV962L0/TOL1eIfbsble5H6O3USa7SB6+P0wciGirMERDDJzEWR3Od+cLV9bqFVF3TkzFa753RXUth6ji+ortUZrm2ztv9TuXYRzSSUvOuTTvdlGNUrQrLCcZHufXRQGPxlQ2LhrcmnEYLhY5T1861gBgkLY7TVc7S7YCTJ1qpol47XjmHS+yMwx27LBsSd4QGL6gQhp3p9CQ/C5njNypOV0uDb+XQXreDdwmFtBy8Y0FyPhYlFjDVqhhNS8Mct0zCPXxj5J4UQTRmOr2izwIXCZEp+pvKhx9+SPv3788qHI5gNDY20rlzG2mi7iyKIhp/9wktCNduZp8ulU805FgJl7hKxrpFY4VbCl+i8dPuLrTV17h18f2faqe6zK2A/8I198ceoRMvxmiBWyuOCCjnK7V4r7HgCLfe7qZXvi3dQd+j1//SiIAvK/T2/2Cx+fY3aPxPnqdfvs3C4pzER5jEWfziYXMN+cLV9brzRKXbuT4PyTPttCvUTlM+lbqZrpCnJu/pUlGiwY7FtlCYmq3unXQNW9eiHSeoflfjHLlEg1sjbSHa1TZppSFNcNHwOMi1yfRvftcgZhyvnMMRQIXL4SZprn8v7ZIurZY+Gjkzn7ruDNQgtTWmocZ++DxW/orjrxtMO2anqyp97enrUuMXzoD4Gv/utHCKIhr6Hvnl00bEPgjZhAOCsX6KIhryb++goiHdT5/dytzPEQ2ZglsysnZPyYD4VTUwHkQ0rvzV/W6neucmXXr7KL1x+BE6yiJwtH9atRaU8209qruqsnGbWw1vxuhsh4w5fI3Gf2Y/mW6kJfL2X7br8ZU/7KYFOUkWUTj1QG7RSIVvomiobiaPU1bO3vnNp6XhJS0a2glqobAFZJoOs/PciGgE757yOEhx4LZopLqbMsktGob4PM2MDlBHfS1VhZ+ik1luefLCEB0w4yp1LcM01hVJC7By/H6OWVpjehdbNGhtlvprtVDYAhIfTud3VjYoGgeOeQaPioxXOCAYG6MoovG1g7p7SrqYsjE8fZP+fpMWFxn0fvNX7hFemXorYSXtnnIGwl9cMNuGHAPhubun7LEQzZ1fttORPc/Qu/z91plmGn6gmd6x+5s4Ih2X1cVkWD32gK+zzui2umO1FDaleyq4aOQicawpo0tlqs3b0gguGtpZRykWs7uqLEe4XrIMhEtXUFVKCHxEY2GAok6XlHQJeQfprdZCTtFgsZiS1oUOYXS3kWv/bKyJcKbHP5Tjz3D2umWX7oZy55WIetXBYRqxuqpc+Z2NrKLBlQfPtWvRYPE+aI8DGbK1qjYRWzggGBujKKLxnZ/ogfCuPH/QW169Q7u74mrfX2+4RM++kqA1433lWPn9OwMlHAhnrnPN+8gD36BTZxboOutYvim3eiD8fjr7thmEfqOdjloD4Qt/Lsc+T4tqEOMmffB/2OF+t1s7TnHu3/0SHXnuKF3hg+/cWuFzVdHYsasceJV+2cqCZMLUIPqfsBi1ZbZM7rzNQiRpeEfPmLr1/vMsBF+j15WXMwPdHM8lVhUZ6H6zlePxDoRnDd880UhNE+3X3S56TMNysOsVDeN8pAad7oYpQDQ41mxTbg8ccztaNRAuHi+5RCP1IQqzM9QO0MRRP0BzcqPW4jTXX091LIwSnls0uEVTo8d8FPHT1M0tiUPHc9TI15KUWJqm2P4w7drvDIInOA3+YqPGQlL/y/DklRI8duwyAG5aihsWDdXS4XzjH5OpqdOOaDCzvRQx41uCGru6L8fMuk3EEQ4IxsYoimjYU24/NyKQDZle2/Ozz+hvNV6iXZ0fq/94yDFyrMRR2im3GjWF1vlz37e/RmM9sZx/7rv2pjXdVabc2tNd71yld593ptzK+MQz9LY1iHpndZpef5qFRY6V6a7PT1DcOfj6O/SGM+V2z1foaOvzWae6xl9vT6dh7/106qQ1bfg2C4E1dfeVnqPuqbs5wzdRNITLk9Qv3S7snGS6ab/9x7l1iwajBqGzdLlshLx/7pP499Lhod7UlNvo08OeKbdLakqtmnJruo6c8HzdU0n546OZciuzyw4MaLHxRR2r/wDZPWqNf6hJAX7/y2BU68wZbPfmlW7ZqAFww4ZFg0me76NHVT6GKPJYH/Xvt0SDSUz3UfM9WvQzykKREeGAYGyMooiGOH5nLalsf+7zIt1R8c/02IYcI8fKn/skLgDKB3G0mQ4SgJ1CUURDkNVqxfHLkiC5pt56kX23ehkRALID0QA7m6KJhiCr1YrzlxlQr8zkX7BQ9in/BQvBzgaiAXY2RRUNwbs0+oEj1+j1/3dbdUWJ+S2NLscAAAAoP4ouGkLQlzDJPngJEwAAlC8lEQ1BBrTlvxnO615/sznzda8Y9AYAgPKmZKIBAADg7geiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAhMyUTj1udEw2/epEdfWKV/2/4x/b3vf0S/2fwRVfN3+U3CZB8AAADlS0lE42d/naTfeeYyffl7l3Ka7CP7AgAAKE+KLhrPvfaZr0B4TVocznc5BgAAQPlRVNEIKhj/4pkrtHaH6M9OXae/84f6t7IUjpVhaqysp5EVs71B4rF6quicNltAQJ4AcHdQNNH4+bvJDHHws8pnP6Zjs7fMUUTH3r5Ff6NBh0kcZQVEw825Lqqo7KIZs1kIEA0A7g6KIho3bxP98x9kH8MQUchFzwndQpE4JK6yAaLhBqIBwI6jKKLx0hs3M4TCtnyiIV1VXzWiI3GVjmnq9oiCcmYPD1NcNryicXGcOqK1VFVZTVW1UeoYXTIBzNoKnWyJ0u6aaqqoqaW6llFaXtNBbgeZoJnOMFXVD6XCkxeG3fEes1UqQXN99TreEIfFBqiDv3efkzCd/sFYL9WFqqkxZo5LzFKsKUq7OD51jJ1OZvlEOzXWhlgAQrS7vo9mVvXvKp1t4zRjn8+kZaaTtyU+Y/r8TM5zJWgx1qrSps/VS1OXdUiuc/mSmKcRzl91Hs7fxp5Jipv8E5aP29fUThMXTQAjaW/sG6XBeiePOc/OJ2j5WDptdS3jqfsBAEhTFNGo+/FqhlDY9u/+6GOzZ3b6fnFd7StxlY71iMY8DYZD1Di0REl2LsmFIWpk59V/XsKIFvu0ECxKD1tyiUbqQxTumVVhtmgs8/eqMNfWE2qTaHWcDtWEqfuMOiPRksQbpZjxvYljTezkmmhsPknJZJzm+vn4lNOW9LMTFMe/lKCEnJvFa+RhK50idLW1vL/u+ktOtlOYzz8lp1vj+NhpO9er0lkZpo7jK3xskuKneN/KJjrp3BJvSyPPueLD+lr1uVj8JO1RFksJy3cuFys0xvkZ6ZykhDj21XmK8XbdoM6k5IlWPs9TNLbA5+W4Fof4PDWtNGHyWAlemLeXJDxOM71RFik+/iALBf+UjE9Sd7iaDhxzbgoAwKEoolHx368oh7/XEo98rQsv//f92+o4iat0rEc0ZN8IDV6Q70KSlqcnaeaidpDimKJ98+q7kLw4TVPT7BD5uyMaSXa6kRqOz6oFi5NLrOo4NOKIuWY8LCkw350WhEILRVo0IhRbUAEaPkdVZIAWzaaw2B+hqi4RLR1fxwnrfDdOUwdf4xi3AFQ6W06rNGsk/hAddhpJXtHIea4likU851qbp5NdQ6plk/dcNgsDFK1kp3/DbAvzo3R4cJrbMvqamkfVHTPEaawhnW9ybx4dsvLw4hA9WrnXdR+UsKC7DIAMPk18tvmi8Xef0EIh4xHNL1/bkGh8nLijjpO4Soc4qqCikeSa8l7aJV0jLX00cmZe13oNydkBepRrr7vrW2kwNkmLlg9Tce5vVd1KdQPuriIhYXVPOd0/2uHZAuFg/5Yl/VY8KVMOUR+bGa7jUMe6HKfn/B7RyH8ut2O2yXsuGznvg7qFkokc5xFOZq63NhW/6p6yhddnrAqiAYA/RRGN3/j+R8rhf3brC7X9gyNaOLLZv/kfmd1VCT5WwiSu0iEOJ6hoGOLzNDM6QB3SPx5+ik7aYWtxWpwepViL9NOH6dBxHajilC6ppXE6EOL4bEeqzqG7p6SLx2kNFCQa+8a5Bu6H7F9L/brXLIO8jtxPNHKea+tEY6YrBNEAYBMoimg43VNzl9JV71zC4dcK+euVz1VY6bun3I5NOTM/0WCxmJLWhfyusLtAWCzOuFsXidEG91iBcUjSz7+rfjg96CoO0TmfgkXjwXS8Y/Xerhfbucp3t/NLnmpV/flTdldO6rYsUSzKrR0zFpDChK9XNPKeK6N7Kk5zZ6Zpmfdfl2j4dU9d5vuhuv+CdU9BNADYGEURje8M6LGMftdTnV04/ETjR6f1QLjEVTq0w6nrnVZdTUluCXSE2Xn4iga3Erj1IAO3ivhp6q4NcWtCZCROJ/eFKHJwXM/oYec40cYtkf26Fu5ykGrwmJ2Y08d+oY8ifI7BWW5p3GCnOtigZgg5Tk4NhJtBXP+BcLfzo7VZ6udrSKUluUITByN0wDhVFV9NPcUuaPlLzA5Q47d6aY59e15HrsYCGmjssqSFt/OcK+9AeI5zJZcmaWLaEYIgA+GcRzK+JAPhw00U9gyEQzQA2BhFEQ1nyq13lpRMpbXFwjGvaNz5It1aKe2UW+biOB26z0zVjLZSf9verN1T9tRYmSJ6YGA2PZBrpoSq6aMyhbNpgOaM08pwkFxzrquMprpUUlM/1VTScYrtr6Zov9Ma8E657aNDuURDWJ2mwcfC2aenjvL51PTUatr1rVYaMQKSv/a/Qiefjqjr1wP1TM5zuafcSp64pvfmOJeajdYwqu+DYE+5VXmvhd4hfU1myq3VmIJoALBxiiIaslqt8z+LH3taG//oqex/+vv3nR/TW7/6PDXdVv7ch5VvfbCcozPbKUMoAACgCBRFNARnGZFf51aELA3i8MrMLfr6Id2K8LOvtlymr+zT38tuGZEyID7SQFHzfwLp9prqDHvGQAAAoHgUTTSEPz6ulwP5m42XqIu/3zY15GzdVLbJscAHEYqeBoqYLp7IY+l/cAMAQLEpqmgIndZKt19vu0JHz98i5z8Y2eyPxiAYAABQjhRdNISTF4K/hEn2BQAAUJ6URDQE7+te5VWvYvIdr3sFAIC7g5KJBgAAgLsfiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAKNG4eesWwWAwGKyM7ObNzM9CzI67AINowGAw2HYwRxjsT9vsfQswiAYMBoOVo9nO3/ksxOy4CzCIBgwGg20Hc4TB/rTN3rcAg2jAYDBYOZrt/L2fGzEn3gINogGDwWDbwRxhyPa5SQbRgMFgsHKwfE5fPgsxiWMTDKIBg8Fgd7M5guD3aZuzf4EG0YDBYLByNNv5O5+FmB13AVYS0fjp6wn6rf92mb78vUuB7F88c5mOTF/zjQsGg8FgPuYIg/1pm71vAVYS0RAR8BOHXCYi4xcXDAaD7Qiznb/zWYjZcRdgJRENRwj8wvxsvfvDYDDYjjdHGOxP2+x9C7CSisZ6zS8uGAwG2xFmO3/v50bMibdAg2hsqS3Ry3XV9NyEX9h2tbP0XOUj9PKSXxgMBlu3OYLg92mbs3+Bhu4pr308Sy8/vYd211RTRWWIdu95gl48G/fft2DLJRo67PEXl3zC7maDaMBggcx2/s5nIWbHXYCVRDTWa1snGkt09JEQ3d/yKr3/8TW6ef0affhWPz1ecy/98GwxZnNBNGAw2CaZIwz2p232vgVYSUSjbXSV2o6u+ob52ZaJxsWX6PHKh+jlBffvM127qeLg6dT2+6+10eO7Q7ol8shhmrps9l2S49votbOHU+EPPc0CdD0d1/tHW+ihELdianbT410v0A8f8BENFY+0dIzVvUQfOse/ap+7jX7uSas2LTgPDcynf7vQT3sqH6ejK3o7VzxT7R6xUulxHL12+j95sUddR6aomfAj6TzY3fgCvfuxO/zFk0fo2W+m83AmFc52+Sy9+MQe2iXXHtpDT/a/RZ86YQHy+NOpfnpSxV1Nu77ZQkfn02Ew2F1jtvN3PgsxO+4CrOiiMf3+ZykRCCocWyYa19+iH+1mR3h4lq5YTsi2T0+30b33dtLr4nyvr9DM4UfSTt04e9VSucb7rvyMnuP4njxqurfe6qH7a9hhvrWiWjHvv9pC9/P+QVsan77WQlX37qejF3Qr6N0XHqGqmhb6ue1wjX34opUuZ/vxI3SFv+eLJ79oVFOViOV8nK7wdab2U6bDVR5c5e2Vt+hFbr1VtfzMOH7n+H6akTy8Oksv8nXe2/2WPv76PL24h4Wg+6y+Byun6bl7WQD7jADmy+OFF7hlyGk11yYife/uTpqStKjzw2Db1BxhsD9ts/ctwErS0vjJxLV1CceWiQbbp+dfotY/4Fqq1HDb+unns+zgU+HakT/7mtVVdfVn9Cw71KMX+btyaOx8LQclDriq86z5HqJ7u4xzVMbx+bU0nDCXaOjtJ47Y6Vmho4/71fbZVo7QEylHr/fTx+aPJ79o3E8vXnCO9ZqEe1prUz10bypfMo9XgvaIEbiJTqra3UMztmjL8TXs+OW3AHm8xxEYZSxC94foh2fT+8Ngd4XZzt/7uRFz4i3QiiIajtPPZvmEw9nPL6wkJjXUt47Qi08/ogbEdz3kdJ/oWnKq2yhlxqEqh8bOzYpLHFpFuzg07axTNWJl+rdgouHvrGe6d5v43b+7hOLyq/Rkqmsqfzz5RcP57mc+4de5tZDjeLtVpL4/7bRKjKn0m2MC5HHm/cmWxzDYNjJHGLJ9bpJtiWgcKnfRsE26S9gR6e4TcXi76Udv+ewntgWiMdXJrSJf0bhFV448ThWNr9KHr7WkuqaCxLPpomFaY9mOzysaaqzJHLPuPIbB7hLL5/TlsxCTODbBStI9JWtPBRUMsa0SDenrr/B2jbC9/8JDpvtE+ts9A8xizv45HZp8L2H3lJhpYTzZGLKOyx+PpPm7L2yiaKhBeLt7KrtoBOueypbH1+j1Fnv8xJjnfsJg28ocQfD7tM3Zv0Ar/kD4wvV1CYbYVonGzatn6Yf3huihztPWlNuXqJV/e/wl7USvHH2CqmQw+7yuzV6RKbnfZCcnA8J5RMM7EP7ukf05BsJv0esHuYXTeZY+vabHUPQANjvfBTOA/dIT7Ex522cgXFucXmvk83ucdL54lBPf00NTaqB6nn7ecq8VRxDRSA9U37w2Ty8/wmLJeZAeCM8hGmYg/PG+t8xA+Fn60Te9A+F58rjyXnr2VX2/Pl14lZ79gyfoNTNrDAa7a8x2/s5nIWbHXYCVpKVxaHQ1sGCIbZloiF2epaNtj9P9Mi2Wnd+u33+Inn1x1lVzff9ICz2kpnvqKZ0vGwHJ69DYAk25NfYpC9J31b7pONPnNlNl80wnVV1U1iwqx3LGc32JXtt/P1Xx9VXt3kPPdrfRd9clGg/RD1/oSU2J3bP/pYwpt1lFQ+zyWfrJf7nXmnJrZlJJWIA8vnL2MD3x+/r+VO1+hH502m5VwWDb1BxhsD9ts/ctwEoiGuu1LRWNbWbSJZa1+6oolk9UYDBYILOdv/NZiNlxF2AlEY31igBEYxPsapyuzMp/FtJ/6CuNQTRgsC0xRxjsT9vsfQuwkorGes0vLlgwU7Ohau6n1qOlbGWIQTRgsE0x2/l7PzdiTrwFGkQDBoPBtoM5wpDtc5MM3VMwGAxWDpbP6ctnISZxbIKVRDR+q3n9r3v9nRa87hUGg8HymiMIfp+2OfsXaCURDVl7SkTATxz8TERmgI/xiwsGg8F2hNnO3/ksxOy4C7CSiAYMBoPBimyOMNifttn7FmAQDRgMBitHs52/81mI2XEXYBANGAwG2w7mCIP9aZu9bwEG0YDBYLByNNv5ez83Yk68BRpEAwaDwbaDOcKQ7XOTDKIBg8Fg5WD5nL58FmISxyYYRAMGg8HuZnMEwe/TNmf/Ag2iAYPBYOVotvN3PgsxO+4CDKIBg8Fg28EcYbA/bbP3LcCUaBAAAAAQAIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIEpmmi8OnOL/lXbFfry9y4Ftt9tvUKv8HF3H9PUXVlPIytm08u5Lqp4eJjiZnOjxGP1geNR+3ZOm611sjJMjbmuBwCwYymaaPyzA5d9hSGf/e0/vETvLH9uYtlCloaorrKW+s+b7ZxANAAAO4OiiYYjAuvh4YFVdczXD12h5Jr5cYuY662lcG0tVR08TUnzW3YgGgCAnUFZica1m1/QV3+gWygHjlwzv24Ba7PUXxul2LlRaq5spYkb5vcUCZrrq6fdNdVUEYpSR6yPDtlONjFLg/UsOJXVtOtbrTTS91QOZ5+gxVgr1dWGqKIyRLujrXTyogny4BWN5IVh6ojq81RxejuOpb282rdtiE62RGkXh6t0WuHC8ol2anTOW99HM6smAKIBAMhCWYmG8MbibfobDfpY+b4VJE+1UpVyzkmaOhii5lG3u08ca6KqMIvJRW6DJOM011/PjttxsnE6uS9EkYPjtKyCZylWz445i2gkjj/FcXXRlAlcHuK4okO0rDdduERjdZwO1YSp+4w5cGmIGmtY6Jb0ptq3Mkwdx1e41Zak+JkuilSmw5OT7RR2zrvG18AimIobogEAyELZiYZwaDShjpVWh7Q+SotHKM73UtjlxFdo5OFqt5CsTaa7p5TDbaAxK5jYQWdtadxIUMJuyRiHPXbZbFu4RIOFILFqd5zpdDUO67Polsak+q5J0kRLNYV7Z/m73rfjhHX8jdPU4ZwXogEAyEJZisbnd4hqOj5Wx3/3p06fSYmIj1JzTStNOY7c6aoyNXQ9flFL/eJ7U1hjGjJ+UdtLczpAk2tMYy1Bc6nuqWpj/g7bJRpMwuqeco5tjOkD1b6eMY3lob3mN0lv+pi02cIH0QAAZFL2ovGdgdKKhu7WyXSo4R5HJTZXNNT5VDeRqfXncNgu0VD76e4pPWnAtDQCi4b3GiwgGgCALJR199Q/ebrU3VNLFIuGqPuc2XRYGKCoCIHlnDere2qmM+3oFReH6NEgopEhRJyuBz2ikbV7Sq6zmuoGU80njTNjDaIBAMhCWQ+ET7xX4oHw2V4K13TRTMZ0X3aykRB1nNKtAe9A+Ezv3hwD4dPU/2D2gfDFvjCH9dEctzTUoHmDdFMFEI0LfRTh/QZnuaVxI05zgw1qlpRLNHIMhKtrqKmn2IWE3p4doMZvsTDKJUI0AABZKCvR2Oopt3M92f+XsdgfoYr94yZsE6fcrq2kpsVW1dZT//EhjitCsQUTbuESDWb5WCvVhTgNNbXU2DNOsf3VFO3XqqBbGu4pt90n3ClYHk2Ppah0GgGBaAAAslFWolFOf+4DAACQSdFEw2kxrNfKZhkRAAAAGRRNNGTBwq+vc8HCf9l6hUbP340LFgIAwM6gaKIBAABg+wHRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDuEjevk1XV6/RyqUrtPSrZXpv4Vc0994ibAeZ3HO591IGpCxImQDAAaIBFJ9eS9AHF1doYfED+ujyx7z9Gd26laS1O3fMHmCnIPdc7r2UASkLUiakbEgZAQCiscNJfHZd1SovLn9En/F3APyQsiFlRMqKlBmwc4Fo7GCkFrn4qw8hFiAwUlakzEjZATsTiMYO5PPP11R3Ax58sFGk7EgZkrIEdhYQjR2GPOTSxRD/ZNX8AsDGkDIkZQnCsbOAaOwwpHYIwQCbhZQlKVNg5wDR2EFIlwK6pMBmg3K1s4Bo7BBkxosMYAJQDKRsYVbVzgCisUOQvmfMkgLFQsqWlDGw/YFo7ADkT1kyxx6AYiJlDH8A3P5ANHYAMlBZzFZG/8QNevzFT+mDT/Dv8Z2MlDEMim9/IBrbHFk3SJaBKAZffEHUMPQpffl7l5T946cv0/sfr3f6ZYIWY61UVxuiispq2nVPA/VPxk0YKJwVGnm4mio6p/XmbC9FKkN04Fhx8ljKGtaq2t5ANLY5suBcMWa2iGA8+sJqSjAce/B/XTV7BCNxrImq2InVtQ3TxJlxij0d4e0wHZ5Omj3KnWnqZrFrjJVrDdsrGn0UrQnRoeNGNM51sVjX08gmJV/KmpQ5sH2BaGxzZKVSWXhuM7EF4ze+/5FLNP705Pq6wWY62aE9OETpIdQ4zR2fpuW7RTPuNtHwssmiIWVNyhzYvkA0tjkyo0VWLN0sRDC+8xMtGLGpm/SL+ST9eoMWjCde+tTsFZzlwSg7rTB1HF+hZEbPlp/D8zjptQTNDDRRXYj34xbL7mgr9bft5e9dNKP34EwYp+76Wm7B8D6hMDX39dIhl6PP3UWWvDBMHVHr+J5JiktalcOV8zrm73zjk73UfI+O23U8o0Tz4T4a66un3TUSB7e6WoZpMdt4cmKeRlqiqX0jj/XS1GUTJqzq8F3qXFHqiE3TWAt/d/JwZZgaOaz7nDl3Ku1sDw+zZBeGlDXMotreQDS2OfJuhM1a3nyNo3EEY/DsDfXb8PRNJRobEQzFWpwm2qRLip2WONT2UZpL/WE9v2jM9YaV83y0XXdvjbBgqLgc0YiP0wF2sFX3NdHg6CRNjfZRc1g7SSeO5Vg9VdVEqHt0nuKrKzQXe4oiqS6yWeqvraZwyygtriRo+VwfNdbupcFp9urxeZo6M0DNHFeU0z11hltIOlvSrE5S930ROjTIYat8/JkuquP0RHpnVbDjuKsebKeR45MsHg187mqqG1xS4S7WOD/qQ3wt7TQ2v0KJlVka2c/XH+ZrlfOucVrl2kJ7qTs2TlPHh6n7Qd5fBMZHNBLznB/9DXx+vvYR/j7Nwq332jBS1qTMge0LRGObIy/V2Qw+Z8H4z39+NUMwNtrCyEAccKydHTLXyNmBHz4nVe08onHjNHWwQ6zrtx1sgqbaalOioVoyNa00YdfcLw4px6niWOP4OI5o37wJFJI0IbXzltP8bYliUXbq9X00s5TwaQ0F7J5KJijBopFgrzzVxnGbWr0Wjaes9CXo5D7+rd6n1s8tmyp28IMXzLYgecDn7ziRpOSpVg6PUmzBhAkiJCx6fqKh2OTuKWGzyhwoTyAa25zNeIBFML75vBaM/3VGC8bQuU0SjDV2dnb1VmrTIhTKaeYRDa8DNMS55eCIhu7+8TrgzDhc3TSOOccl5mmsp4kevU+6qLzdR3lEg69nbJ/p2lJmav62aHjS559m57qceNwm57ev20bFB9EAmwREY5tTaPfUba5ZZxOMx/53oS0MXQuuUjX6NOmauBENOzw+qrqDlJM2texcLY3F/kjuloZprTSPul10fGGeEqZVET83TnNOcHKWBiOc5i5HyHKLRnxYHHk91/7NFaxxS0JaMRsQDd2SaKAxO2AtTovz+odyaGmge2r7A9HY5hQyEC6C8Qf/8xMlEId/rmdFDbx+IyUYMiheKOJUpfYe3ddHY2cmuUa/Vw3iOkIw1ysCIIPXozR1fIgO3acHlB0n7R3T0FN22UlmHdPopUfVoHk6jsVBGQexxkXaJQ0hahzm8IQWlar7nqLY8UmaiLWrMYmwGZMQ0Tgs4Q92cfpHacZ22IxMKdYD/UuUWF2hxdF2ivL+GxENWlui2IN8/faYxV7pzqunMbkUZ0yjxj2moVoj2URjWrq8uPXUxfk7Om3NYtsYGAjf/kA0tjmFTLn9r4P6j3vFEgyH+Jn07KKqWpnxk67lO7OF9GwgLR6D3PpI1ew9s6ek62iiz9NNY82eqqqtp/7JUU/rIKGcuRpPMft0s5NPYc++qqmlxvZxWrbGNhKnWEjM+fvPmx8duCUw1ZOeGRV5rI/69/P3jYiGIF1l7en4dte304Td0LJnT3Fa61pkcgB/zyYafJapdid/ezO6ttYLptxufyAa25xC/tx3T0+cfu+PtevqO329KIJRMMkVmrvgdq9zPdw6iQyQ07OemJ+lZbt7ynRxyeAx2Fzw577tD0Rjm1PIMiIiGr/Z/BHV/klcCcYjP10tL8GgJM10me6pHpny6ulaEqRmLd1HpntJptwekC4uZ5oq2FSwjMj2B6KxA9jogoX7h68p4RBr/otrdKesBMPgdE/ZXUuj866BddW99FhYd8GwoNQ19bn/EAc2BSxYuDOAaOwAsDQ6KAVYGn1nANHYIciMlmIujw52NlK2MGtqZwDR2CHgda+gmOB1rzsHiMYOQma2FGOZdLCzQbnaWUA0dhgyUBn/JLUiIAAFIWUJg987C4jGDuPzz9dU3zOEAxSKlCEpS1KmwM4BorEDkYdcaofoUgAbRcqOlCEIxs4DorGDkQdfBjAxqwoERcqKlBlUOHYuEI0djsx4kS4GmWMP8QDZkLIhZUTKCmZJ7WwgGkAhf8qS7gZZBkJqkbLwnKxYullv/QN3D3LP5d5LGZCyIGVCygb+uAcEiAZwIesGyYJzslKp1Crl3QjyUh3YzjG553LvpQxIWcBaUsAGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBUaLh98pHGAwGg8G8hpYGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwHya+Iz+P8Kv0/aMmNnkAAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110091</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       ulsskagreentech.com      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x390cebc1d3b4bc89</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Fabric Acoustic Panels, Auditorium Acoustics, Studio Acoustics, Soundproof Hall- ArchiAcoustics  </x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">       Flat No. 379 Pkt, Ground floor, 1, Block B, Sector 17, Rohini, Delhi, 110085      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADlZSURBVHhe7Z3/cxvnnd/7Z2Ry1/Z6d9Okv6SdXu7qzjAZFkxZoZcKcx6h5zEaj5F6LEYO3LNCnmzxFEtmqEgOj3RYMmF1DXN0aPPMGD5WHDEWLUaydWKoY4j4xGNOJhOZTGRSX4yYEiRKkCi/+3ye3QUWiwWwJAgQJN6vmc/sl+fZZ59dPPi89/myz/4zlJDDJxL45Neu4MUfJcw9wK/iqzj29m20vZnQ6xayLXHlmM1hCcN76tAUXTK3HSwNoak2gmEdbMTtmtQhBhNtqKntxLTeKJAWYuiqzTw+GetESKXfpI6r6YgZOyc74Qv0YDZ9m4ALPQjWq/PY97lxoRfhUK+ZHxPJY6gf8+amZmEQDfWtmFoxt3OxuoBoOIC+C+Z2BoWuV6Hvn3l/ZN2v7uVlHaKZ7rBddz5WZ9AXqEPzSNzcYZF5TyW9jPwUupc6f22YsoXb8xSPRhz5s5/PuP6MPK1OqHCrvDhx/v7OvPsR7J4xNkxmuwPwmecvFJ6d10J4+P0yyC6/wmxPADUtZ5FU6zoPe4ag70iBe5883ZpVLpMLMUzNGfcz/VsmMd0ZREhdm5wjm8L5ckeV7ZBLmdK/oR/H5FbK/6Q2jOiCEaRJXY9xfPtp2xlW45g9F8Oi/l857q8ua40YtZ8uPoLmVHmR68hVdjaXP2vaj5KKxs8X72sh+Mzz15C0FxgH91SYxJG4cszmUOCPkyEaCZw5oP64LWOqUCRVAR9D1yN+m2gAU0frEOxUhTvpVlTdCrfxh6hR+1N/eO2o/Wjqm0FC7l88hr7H6tDQZ5ZcVTCnT01g0U1nV86ivV4dO7hg3Pv4DKIRP0I9dmejztkRyHJAGawmkVB/4OiBIHYcGFNX7sYaRUOxOChOZRCLZrlYHNyNmkblZNT9kvwunuzEsZP2f2iapHJCofrdOHZuAQm5vSsJLJ7rVH/qIAYuGnGyRKPgvVS/ibpfh9QPnFTXHJ/pR1O9V9FQJeLkfviCrRi/rDKUVL9Lz2741ikauNSvhDyC6IzhVRKTPYbDuqQ3C4Y785rvXhq4/365j3PkN3W/1P07aeQpQzQK3fuVGI4FbWV1aQztarv9HeO/k/FbJpQjDwTQNeFWEgvnK9c1xYci6vd7HsMz8vurHSsLmOpUv2FQlVnt+OM4s88PX6Qfs8tqU0ShL4IG9X+SXBrHd2JKTrOa0GG+sCrfcqgi0x8kMN6i/ouHlf+QzeQCRvcp0U8Jm1xHlYqG8Mffjmsx+Ju/z/0o+1fv3NZx/utLxg+7OaxFNBSJGQxE1A+tCumOx1oxPNyJcK1yGuZlJlVhfdqvnI48TRm7bDidhklC7Q86nriXYxh4RjlsFb/GH8ah/pjxx9NhYzii/hDuT/8KETMzjzX+IJq7J2Cr3KmSLk83jqcnO/qa1fU93Iiukbn0ebNYu2gYjsTmOJSjOKKFN4LRa4aj8Kk/WS4SF4fQrmo++trU02Bo934MTKTLT5ZoCPnupSKpamf6N5P0nulF3wG17lE0xBHM9kawU4RGpd0e7cWR9YqGIhHrRfPDcj+kfO1HNJbpJPOFO/Na6F7m+v1yH2fkVz/gmOYLyDXPmU7PzIMlGkKBe49rE+gzy6ovEEHXqXShdP6WUjPxqdrxeJZuFM5XvnsRP9eLQ1aZqg8g/EwPplRZTKHK7GhL2PiNVRlpaBnCfCoPCcxHW9Fglp+G/f2YFnExyfIH9rTUuZralICk7odcRxWLxqmf39WC8FDrddx1qUT85tbH+FTzVR1H4hKi/r4YbaxTT4duT5Nkbaz3Xm7H34DlqljKIhrCf+s0ahtHRrJ/rIaXl3XYF1WNhBBNXNU69g3ZnrzIulnvvdyOvwHLVdGUTTR+eX0V/7zpirbpy+nqxsgFoxYi+yUOIYSQyqVsoiG0j97SAvG5o9d1R1P81sf4N39hNEv9pQojhBBS2ZRVNB58DPxJt9FM9bXBGwh//yO9HuiK6zBCCCGVTVlFQ7hy4wE+bXZ6i8m67COEEFL5lF00BGs0lRhHSxFCyNZhU0RDkD4M9mMQQsjWYtNEgxBCyNaDorFFyH4bOROZp2d6wdsLS2uJWwyZbwQXeMNVz9Mzl/m2OiGk4qBoOEnGMR8bQbSlEeFA5vQfMv2AfXqCtBnTXuTGmKLBfoxMbXCo1zGlRx4KicZ0tx++nPNCZeItrjPPMq1GG0YvehebNYnGtRE016fnjcqJzCU0F8NofyuaHwngmHMalkLhiTkMt4SNqSzqA2iQucPsv0Gh8IWR9NQlLtOyuJWRvFOrELLFoGhkII5S5ozpwXBPo/rDu80ZlUlipBG+w/lmzxQc8/oox5ZYkAnZ6hyTB+amkGhsPI48ryxh/lQnGpRj75r0JhxrEg2PSJoyz9KxaA+alUN2zt2VPzyJqcPGJJPa0ScXMCwTOPbOGcGFwvXsuvYJICf0PGHpmVGTGG9R29EFJJYTactfOAjZUlA0nFhPjZOdhUVDnEgw11ThdhwO2ERmRbVPB52I9ePQY7YJ6C6knbN2wEfHMG2fEO9kOj39hGuJip4YsA1nYr1oUk7OmFgt/cScETcnufPsC2ZOcb14ui11np2R3tQkbW6iET2nntT1NRpxZ61LdE4GmYvUeSW9bNHIGy6z/taG0jPFCvap4guFu+Rxvjdou5fGPcvKEyHbCIpGLjyIRvKd1oypj3Pj7oD1NwTkGwOyoae63o2+ScPFJs7JtzUcU13XBtF+ypy2+502BGv344zpoLNFQ9VizGmXk/Gz6AqkJ2krRjScjjWpnGowNR10XM/yaglFtmjUGdNKy46VOURV+kGrpuVVNFLkEI0ULuGmmNq/l4HLg3ja+p0Lhcs3E2R6b6umsSw1jfSU28Y5A2iImM1beqbb9OyqhGwHKBq5KCgahgOx5vvPj4sD1t8LSDdPefqoTsZHZMRBmR+HUWSLRnqKdkHCremgixKNDGdsxMn48IwWFaOPJ1s0Mp/idXjEDC+baDh+U/u+QuHC0ggOfVHdPxEFZWF782JyDqMtreiTb3wsJ7B4qlUJv9cyQsjWgKKRi0KiIV8dc36JLCeGc7UcjWF+NHRanaguzlehm6/sT+0Zjj7TKWaLRmbe7eEbJxrGeuZ1iRnOP1s0MkUhI1znucJFQzdHOvs07DWNbET4838xjpCtBUUjF3lFw/iCV8NAri8XOXE4YNP5pJ2Nu2jIl8AqTjQymqckDwH05ejLr0zRKKJ5KmZ+slQHGOgmxidyN1Fm3gNCtj4UjVzkEw2v39ROke2A9ZfHZEivmcbav/m8OaKR2RFufnnPKZ6m06040Si2I1zKhG3ggmD/tnXinTaED45kCMR8X4g1DbKtoGjkIqdo5Pmm9qUxHOscc3nqdHPAxr7Up07X+M3nDRMNr3leWcJs9HmEHUNutYhIvs33NxLyPebHlKgoL7lu0ViOIdo5mPGpzGzWIRrqt8sYUrs8p7+Znha9AuEiKvUBPWrNaJ5yfHM9PoZDcn/OGVecvDSov03NPg2ynaBo5CKXaOT7prYc4/o9cPendsz0IGRzpGv55vOGiUaBPKf7KXK/3Lc40ooGPeRW8t2KYTPOukXDXM//wuR6REPheHmvyfnN9ELhBV7uS8p3y81h0/rb1CNuBYWQrQtFYwORF/1q9nl7K7tSqMg8W4MMzE1CSOVA0dgw4jhzYD+GL5ubW4JKzHMSs3/ViGMe3zonhJQXigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGfKJhp37wN/G7uDp19dxhfaPsTvPXcVn26+qtdl39DP7uDeqhmZEEJIRVIW0Rj7pyT+8BvX8MmvXclrD7Vex5mLSfMoQgghlUbJRaN99FZKFD77wjW8cPwmxn9xD8srH2s794uk3idhVryX3rplHk0IIaSSKKlodCjnLyLw+89dxYkLd/Hxx2aACxImcSSuHPPtUxSOjSAejaBmzxDi5jYhhBRDyUTj7feS2vn/zp9fwT9+cN/cm8aqVTiZVnHlGAmTNDaDu+8dx8G2P8ZnDj6ET7zwx9jz8knMJszASmN1CVPdjQj561BTW4cdDzeibyItERUpGqsJTPdaefZjZ7gVwxfTN1jnWV1L2pxxljC8R+2vb8XUirkrgwVEw3JcJ6bNPYSQjaEkoiGd3n9gNjf1jbv+q3OKhvCyOkbCJI0798yd5WLm+/jiwUfw3Mh7uPpRAjeW3kP02CP4TPsPsfDAjFMxLGE04ocv0o/ZJSWwq0nEZ/rRVB9E16ThYCtRNBIjjagJdmJKMqXyPD8YgS/Qg1lzIERWnpMJLJ5qRag2jOgl2WGKhhKU5hGXK1sYRIMWG4oGIRtNSUTjhz+9o53+Z1uu4UGOJql8oiHHWB3nr6u0ykcCJ7oeQmjofXPb5MF7+O7hh/Dcj80n3Q+O48sHOxH98bcQekHVRg5+AaGXz+GGTVTuTv8Qz7V9QYU9hD9q+xZOpJKcxksH9+KV8ydVbUbCP4/Pdb6C6XXUZJLvtMKnnrbHHcfO94VSTjfLAa8uYLwtgp318qQeQFPbWSzaR61dHkN7OACfcrq+QBjtIwtmgMHi6TY0BfzG03+kF9PLZoAieaEXzQ9LmFHjGYi5X9R0hzp3R8zcUiTGcKQ2guElY9Nd6JIYb6lDsGdGrRui0dyoxCc8iEUjQorZ7gCCKuzpEonGysqKtkJ4jUfIVqIkorH75WXt8PP1S+QTDUGOlfAGlVbZ+Og0njv4GF75pbltY3rwYXziryeNDS0an8eeofdwQ2na3V+fwzePKLE5/oER/msV/sJeRH+pnv4fJHH17W/hC4c7Man1T0TjIXym84eYFq+YeB+vvPQQvjD4ngSuidmeAGpazip36iA+h6lzc0oCnQ44oRyvH6EDI5iXg5ILGJaaSiqNOQwE/WgaXEBSCUny0qCqtQTQd0EHIjnRhmCqhhDHbK8t7WXl+KWGc84807lOVTNoxKixmYEWOysdxaLUNIJ5ahqabNHoOn0W7fUhs/ZhsiL7VI3knSE0lUg0vvvd76KjoyOvIEiYxBEjZDtREtGo+eZ17fAv/Dq7L8OikGhMX76vwyWtsqHFQDl70/fbuTqyF5946TiuyoZZ05i01SxunHoWn3jxh5Dn8smXP49dGbUVJQwvfh4v/YOsi2hkCpNOu/OkkfYayHpidyHDAS+JI3U48vgImlNP+TF01YYwcFGHKJJYjE2o30IkxXDU7adtEiUOWh07ek2t67Sft9V64pg/N4F5F9EQZntUbUg3ISn74n6cMWsZgptoJGZ6VfoBdE2m83LopBIuqVV0i5AY6KavxhEkdH5KIxoffPABDhw4kFM4LMFoamrC5KT5oEHINqEkovG7zxqCcPNO7uFShURDjpVwSatsrFU0dIiJ1C70vg8RVTUHaZZy2ktTEtFonrKfIyPtDJKYOurHjqMT2bUJxZpFY7ITNaF+zOsQixn0BdRTu76YJGb7dmOHNFu19GJYaiuppisRFNPJZ5glOEs4czAEnz+MQ239GJ1Z0rUVNxIn96drGlafhrOm4ThPZlOZIRpNUXVi6b9IdYibzVbSz1FC0RByCQcFg2x3SiIa8ra3V9GQ5qdbd7PjWaIhQ3DLxpqapxyi8csfYpdNNFL9H1lsnGjkbJ5SjjixbOwtLBoxHKu3RMMkPofpkX60RwLKmT9v1gJENALoSz/Uu5K8PIPxaA8OPeaH74lezGY9iMcxGpFagv3+LCAaUnmYMLbcahqZ2ERD0ms0hcIuILFO+ErcEe4UDgoGqQZKIhr/8bDRPCVNTLkYit3Bv95viIt0ev/sV5nDpGTorYSVtXkqZ0f4+3ilLbsj3O4W7p77ltk8lcTZ3s/jM72TuGuGaVJNWWsRjfxYHeHOYac5O8ILNU/Z+kIMDIdsOGdjGGvDQGbHOMzaQfJyDFMxVbswNtV+ew3Gjkszlyka1r61iYY69+lW1IT7MWxvqhKBLLFoCHbhoGCQaqAkovGVHxgd4Z0FXtBbXH6AnZ1xHfe3G6/gxR8lsGo6VzlW9n+lv4wd4UKOIbefOPJ9TFuOX4uG2REufi4+iZeOPIQvj3xohJtpfPOssa07yl/8Ok5o/ds40ZB3NKQjO3RgCLNxlZGCQ27NjvDDY1iUfCcXMLpP1Sas2kp8DIfUse2nDGeM+Fl0Bfw4cspISzcr1UcQNd+XSMi5HuvBrBw804OQLUx3otcGbf0jaRYHwipPqhYimVJ51sNp6/fjjKkSaxUNo/NbmrHCiFqaVibRECzhoGCQaqAkomEfcnvf1lnshgyv7f7xLfyLpivY0fGhfsdDjpFjJY3yDrk1KPhynxaNVvSOpIfcfvnVyYwhtzf+4RXsPfwF3ZfxmW/sxXcnTUHZSNEQ9BBa+4ty+zGQ7+U+FX+0JWwbcqsExNb3kLw4lBpyWyP9E/0zGc1fiyOtaNBDbuuw4zHHS3kTPakht75ABF2nTafuxMvLfWsRDYV0iOsOcHO7nKIhiHBQMEg1UBLREMdvzSWV6+U+J9IcFb9l9G3IMXKsvNwnaVUcbn0ahBBSBZRENASZrVYcv0wJkm/orROJu9nTiBSEokEIqVJKJhqCzFYrzl9GQP1ouvCEhRJnS0xYSNEghFQpJRUNwTk1+qHjN/GTX97TTVFiblOjyzGEEEIqj5KLhuD1I0wShx9hIoSQyqUsoiFIh7a8m2F97vVTzdmfe63ITm9CCCEpyiYahBBCtj4UDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnyiYad+8DQz+7g6dfXcYX2j7E7z13FZ9qvoo6tS77JEziEEIIqVzKIho//qck/vAb1/DJr13JaxJH4hJCCKlMSi4aL711y1UgnCY1DmtdjiGEEFJ5lFQ0vArGH33jOlYfAH/1zm38zp8b+zZHOGLoqo1geMnczCBf2BZkNY7Zc3OIr5rba2WyEzV7hhCX9WLTIoRsGUomGm+/l8wSBzerffFDnJy5ax4FnPzHu/itRiNM0igvJRKNpSE0FS04SxjeU4em6Aap1rURNNcHMXDR3F4rdtEoNi1CyJahJKJx5x7wBy/k7sMQUchH92mjhiJpSFrlo4pEo1jsokEIqRpKIhqv//ROllDYrZBoSFPVZ03RkbTKh0MYLitnr56guyYSaiNfmGJ1CWdawthZX4ea+gAaWkawuArEoxHU1Kp9pqWc/rUJ9D0TxA7Z7w+iuXcGVr1KH3N0EKP7AvDVdmJai046DctZT3c4RCRDnIz8Doz0oingV8f5sXPfIObN7DqFTKc1MIFRdQ2SJ19AHXvBiqxIzGAgIvmpw47HWjHc+3xaNJyiuBrHVHcjQn7Jrx+hZ3oxa0vKSXyix8yjmfZFW+TlGKL7jTzV+MM41J++T8Z52zB8shUN5rkaWsawuJzOa9Z1EEKKoiSi0fDycpZQ2O0//+WHZszc9P7dbR1X0iofNmFIqPWg3+aU84UB871B+CLKKYtHSy5gOOJHsHvGCHQ6VcxhQI4fXEBS+gGWJ3R67e8Y7tAQmiDaR+YQX7ZcZHZNo7Bo1CF0WDnRFbUZn0FU5cl3+KzhdF1Eo6Y+guiMkoHVJOYHVB4CPZjVoXGc2aecv6SlDk6aaeUSjYx7sZrAVIfats7rIBnrREidd/iSERo/1aq2WzEleV5dQDSshKAnhoTcp7jcpzo09C3ouMZ51X3sm0Fc8nV5BIfq/dgRaExfx2BECYd1HYSQYimJaNR887p2+Ltt4lGoduHk79+/p4+TtMqHKQyXlYNWTjHUEbM5unxhhtMN986ZW+LAYpiKLbk6aHFmieWEIRgmcryvM6bXtWi0OJ3sekRjt8qvDjG40INgbSvGxSG7iEbYcsaCGT56zVpvxKhWCJOJtpyikUwkkLBnXpqy6lWNydxMk8R4i+O8KsXp/k6cuaRW1XHa4ds72OUaJC3Zp8/bhilb+NRRJX5HJ8wthSNvhJDiKIlo/O6zhlBIf0TzGzfXJRofJh7o4ySt8mE42vaWMGq+qJxrRiUnX5hyfzP9eNrvx85IKwaiE5i3O1g3x7Vka56yTAmRoEXDXE+zHtFwnHNVPalb+xx5ypuWOH3n07q9T8N5fatLtuYpy9xEw7imLpuPt+MqnstjOJRxDZnpynVk3Dtn3gghRVES0fj9565qh3/r7sd6+4XjhnDksv/0rezmqoQ6VsIkrfIhjlaanRYw2xN0qWnkCjNZjWM+NoJoSwQ764M4csr0VE7HtaLSCkjz1FyqtmF3diUTjZWzaM9wuOnwjRONpEorYDRPSY1GkLgbJRrXbOfS56VoEFJOSto8NXsl3W6QTzjcaiH/tHRfh21K85Q4GOXYjwWD6Jq0OlHzhSmxOJdZu0iMNOZ+EndxdrpZZR2i8fSgzRtmnMdFNC71I5yneSqnaOh1r81TphBMyrqJxHUVDbfmqQQWY+a9VGJTuHmKokFIOSmJaHyl3+jL6NPeKU0u4XATje+dNTrCJa3ykelok8rZBQNtmNLakC8s3VGsX3BTNY7xo+pp+8CYcoGyLc1CARyLJZGUx+blMRypD6D95AKSK0ksnmpDWEZd5RUNQ1iCnaqGoxMx44V7MC0OdmUB44eDyjlbeZT8mh3hEt3qnFfp6qMdzjSvaNiuz+gIj6HviVwd4QmcOaDOI6OY1LUlF8bQ9YiMjDKdu7o306cmsGjqrZeOcOnoNjrC1Xkfc3aEUzQIKSclEQ1ryK1zlJQMpbWLhWVO0Xjwcbq2sqlDbpUDHG/xw6ebSPKFyeYchq0htzL0c3+/bZhpErN9u42hrGZnd/JCeihsQ8sQRjtDqaaYXKJh9Juo9K1OZRnmezBkDi0No72nDU+n8ij53Y1jg9ZwVj/CB4fyD7nNKRqKtQy5dcYd7kzXcLRg+tF3wYgqpIfcSp9QG8btFY/lGAZSQ5NlyK05kkqgaBBSdkoiGjJbrfWexcuO2sZnns/90t9/6fgQ7/7qfmq4rbzcx5lv14tT5AghpHhKIhqCNY3Ib6tahEwNYvGj6bv43BGjFuFmn225hn+1z1gv/zQi2wmKBiFk4ymZaAjfPmVMB/LPm66gU63fM5sVcjVT2U2OJcVA0SCEbDwlFQ2hwzbT7eeOXseJC3dhvYORy/5ylIJBCCGVSMlFQzhz0ftHmCQuIYSQyqQsoiE4P/cqn3oVk3V+7pUQQrYGZRMNQgghWx+KBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9simi8MXkPwW/f1ibrhBBCtgZlF43pXz+Ar/VWhsk+QgghlU/ZRWNw4l6WaMg+QgghlQ9rGoQQQjzDPg1CCCGe2RTRIFXK0hCaaiMYXjI2pzvq0BQ1N7JIYDEWw2LC3CSEVAQUjQyWMLynDjX1rZhaMXdlsIBoWIXXdmLa3IPVOKa6I9hZL/v92Blpw/hlM8wkcXEI7eEAfLUqjj+I5u4JxFfNQMygL1CHrglzU6POE3I61DhGI/mcrB3jOtzixqMR1OwZUqmZXJtA3zNB7JC81QfQ0DKCxVTeMtHHSjzTdjzciK6ROSTN8IKsSTTUffH7ceQUVYOQSoKikYEpGsohNo+k3GqahUE0aIeZFo3ZniB8kUHMi+dcTWJ+MAJfsBfzRjCSk50I1YfQdWoBieUEEgsxDDT61TFDpnNOYrylDuG+BR1fo52rOs++MfW8bbJyFu21AfTNmNt58SgaKzEcC/rRpBJNSF6W5xCN+BHsdj9JxrHqWuNzYzj2hB+hjpg34ViTaBBCKhGKRgaGs21ubERNeBCL5l6L2e4Agirs6ZRoKCe7J4S+mN4wyHCMRs0kyzEqZ90V8KP9HcPVxoeUM1YiYslU4uR+1KjzNNe2Ytyq8cz0IFjbhilHLcDd8XoUjVgnfPW2WpMiebo1syZiI6uWIsTHcKg+mCFmyQv9OPSY36iNPNaKUUsP3URjYAKjLWFd0/EFIhi4YMmkukdqX9ekuUkIqQg2XDR+Nr+KgfF7epmLW3c/xnDsnjZZz4WMqpLhuOUbXWU4267T6qle1Q6il8zdgjzp14cRfUccX6ajTbEax2xfBDssAbgmcXdj2NFcJUwdVU6y01SbS/0IpwTBqHm0n15QefGnnKZ22Paah0lRouGCDm8561pzcD/WUVO6PIimeiUMl1QKqjayeLIVwYC6XyJ+LqJRo+JGZ1SKUksbUOkHejCrQykahFQiGyoaP3S8gyHbTkQkQt23U3H+x3dWXIVDRlXV2dIqzygrw9keOqmcv9QqbM00iRFV+2gcQUI7PqdoGA5Ot/U/YjpIvVs9yecQmPm+EGo6TNFYVcfXm01Pen0/ziwbcQxn7NKEZZJPNKy+hyzLJRoJEcbMWoOdXIKjnb95LdMdfkc+pX/Gj2MS7CIa2c1yEYxekw2KBiGVyIaKxq5vp8VATLadSO3CHkdM9jmR4bj2OLJdemxP6NJ/keoQN/brfg5X0TAxaxq+oHpallqDV9FQ9Ycz+9R5h1T60gxlOebUunSWp/sztPN2CoFphpNdR00joc7xhN/1GIvCopFbrHS+XEQj43wZ4RQNQiqRDRWN/96Z6ehl28mWEQ3lGkcbTaGwC0geIdCsTihnZzp4r81TisXB3bpZaDZVu1BYtY4ZScfWv5FMGJ3qysYP1+Hp/rnUdlI3ca1RNFZV/EjhDm130bDXgozzHjqZY8QTRYOQLc+Gisb/++n9DEcv206kKUqapKw4+Zqn7GmVs3nKcmS6Uzjcj2F7U9Vkp3pytkRjBgOhEAYu6A0DLRpWf4i3jnCN1CpCrWjfk9mXIs097S0qH7aOcjtZjlezBtFYTWCqI6gEY8IYQZUHV9HI6AhPYuqwH77Djj4RK12KBiFbng3vCP/5Bw8Q/ft7epkLEQmpXYi5CYbFZnWEpxyZ7vyW5pUwolbTe4ZomE4yNeTW0TwlMZxDbpdmMHxAhulaQ25NtNioc6U6gg20cKn9bv0ZQnGikVDHu+QlBxnHypBbVQM68oijhqLEL1QbRPsp49zJy2Nof0TVluQgigYhW54NF42tTbazlQ5x3QFubmeKhmJ1AeNt6Zf7Qs/0YEp35KbJeLmvXomMEqG+GWcTjtGv4Uv1c5gsqyd5lW4u55mYm8D0ZWejkkfR0E7a6HNwmtv59LG2OLle7kvEetH8sDHkVobR9k2YdROKBiFbHorGJrA48rx+Gj8yspTlcAkhpJKhaGwSyYsxzOfoLyaEkEqFokEIIcQzmyIaMhJKhtCKlWdUFCGEkI2g7KIhI6HsQ2nFyjc6ihBCSDGUXTT4uVdCCNm6sKZBCCHEM+zTIIQQ4plNEQ1CCCFbE4oGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ6haBBCCPEMRYMQQohnKBqEEEI8o0Xjzt27oNFoNFoF2Z07uZfrMSvdIo2iQaPRaNvBLGHItdwgo2jQaDRaJVghpy/LYkzS2ACjaNBoNNpWNksQ3JZ2s+IXaRQNGo1Gq0SzO39rWYzZ0y7CKBo0Go22HcwSBvvSbva4RRhFg0aj0SrR7M7fWhZj9rSLMIoGjUajbQezhMG+tJs9bhFG0aDRaLRKNLvzdy7XY1a6RVpZROOVnyTw6b+4hk9+7Yon+6NvXMPx2E3XtGg0Go3mYpYw5FpukJVFNEQE3MQhn4nIuKVFo9Fo29IKOX1ZFmOSxgZYWUTDEgK3MDdba3wajUarWrMEwW1pNyt+kVZW0ViruaVFo9FoVWF2528tizF72kUYRWNTbQFvNNThpXG3sO1q5/FS7VN4Y8EtjEajrdssYbAv7WaPW4SxecppH87gjYOPY2d9HWpq/dj5+LN47XzcPW7Rlk80jLC9ry24hG1lo2jQaJ7M7vytZTFmT7sIK4torNU2TzQWcOIpPx5teRPvf3gTd27fxAfv9mFv/S5853wpRnNRNGg02gaZJQz2pd3scYuwsojG0ZFlHD2x7BrmZpsmGpdfx97aJ/HGpcz90507UXP4bGr7/beOYu9Ov1ETeeoYpq6ZcRfk+KN46/yxVPiTB5UA3U6n9f6JFjzpV7WY+p3Y2/kqvvM/XURDpyM1HdMaXscH1vFv2s99FG878mqYIThP9s+l913sw+O1e3FiydjOl85Um0OsdH4sR284/R+81q2vI1vUzPDj6Xuws+lVvPdhZvhrZ47jxS+l7+F0KlzZtfN47dnHsUOu3f84vt73Lm5YYR7u8Y2pPnxdp12HHV9qwYm5dBiNtmXM7vydy/WYlW6RVnLRiL1/KyUCXoVj00Tj9rv43k7lCI/N4LrNCdntxtmj2LWrAz8R53t7CdPHnko7ddPZ65rKTRV36cd4SaX39RNm89a73Xi0XjnMd5d0Leb9N1vwqIrvtaZx460W+HYdwImLRi3ovVefgq++BW/bHa5pH7xmy5e1vfc4rqv1QukUFo06+EQs5+K4rq4zFU+bEa7vwUdqe+ldvKZqb76WH5uO3zq+D9NyDz+awWvqOnd1vWscf3sOrz2uhKDrvPEbLJ3FS7uUAPaaAljoHl96VdUMVV7NaxOR3rWzA1OSF31+Gm2bmiUMuZYbZGWpafxg/OaahGPTREPZjQuvo/VP1VOqPOEe7cPbM8rBp8INR/7iW7amqo9+jBeVQz1xWa1rh6acr81BiQP2dZw31/3Y1Wk6R20qPbeahhWWIRrG9rPH7flZwom9bk/7ypaO49mUozfiGccWTqewaDyK1y5axzpNwh21talu7Erdl+zjtaA9ZQrceAd8O7sxbRdtOb5eOX7Z5+EeP24JjDYlQo/68Z3z6fg0WkVaIacvy2JM0tgAK4loWE4/lxUSDiueW1hZTJ5Q3z2O1w4+pTvEdzxpNZ8YT8mpZqOUmQ5VOzTl3GxpiUOraROHZjjr1BOxNmOfN9Fwd9bTXTvN9DP3ZwjFtTfx9VTTVOF0CouGte5mLuG3VW0hz/H2WpFeP2jVSkzT+TeP8XCPs3+fXPeYRtsGZgmC29JuVvwibVNE40ili4bdpLlEOSKj+UQc3k58712XeGKbIBpTHapW5Coad3H9+F7UNL2JD95qSTVNeUlnw0XDrI3lOr6gaOi+JvOYNd9jGm2Lmt35W8tizJ52EVaW5imZe8qrYIhtlmhIW3+Ns2lE2fuvPmk2n0h7u6ODWcyKn9ehyXoZm6fEzBrG15v8tuMKpyN5/uqrGygauhPe3jyVWzS8NU/lusc38ZMWe/+JaY7fk0bblmYJg31pN3vcIqz0HeGXbq9JMMQ2SzTufHQe39nlx5MdZ21Dbl9Hq9q393XDiV4/8Sx80pl9wXiavS5Dcr+knJx0CBcQDWdH+HvHD+TpCL+LnxxWNZyO87hx0+hDMTqwlfO9ZHZgv/6scqZq26Uj3LA43mpS53c46ULpaCf+eDemdEf1HN5u2WVLw4topDuq79ycwxtPKbFU9yDdEZ5HNMyO8L2975od4efxvS85O8IL3OPaXXjxTeP3unHpTbz4p8/iLXPUGI22Zczu/K1lMWZPuwgrS03jyMiyZ8EQ2zTRELs2gxNH9+JRGRarnN+OP3kSL742k/Hk+v7xFjyph3saQzrfMAWkoENT5mnIrWk3lCB9VcdNp5k+tzlUtsBwUt1EZRtFZVnedG4v4K0Dj8Knrs+383G82HUUX12TaDyJ77zanRoS+/iB17OG3OYUDbFr5/GD/7XLNuTWHEklYR7u8fXzx/Dsnxi/j2/nU/jeWXutikbbpmYJg31pN3vcIqwsorFW21TR2GYmTWI5m69KYoVEhUajeTK783cu12NWukVaWURjrSJA0dgA+yiO6zPyzkL6hb7yGEWDRtsUs4Qh13KDrKyisVZzS4vmzfRoqPpH0XqinLUMMYoGjbYuK+T0ZVmMSRobYBQNGo1G28pmCYLb0m5W/CKNzVM0Go1WiWZ3/tayGLOnXYSVRTQ+3bz2z73+YQs/90qj0WiezRIG+9Ju9rhFWFlEQ+aeEhFwEwc3E5HpV8e4pUWj0WhVYXbnby2LMXvaRVhZRINGo9FoJTZLGOxLu9njFmEUDRqNRqtEszt/53I9ZqVbpFE0aDQabTuYJQy5lhtkFA0ajUarBCvk9GVZjEkaG2AUDRqNRtvKZgmC29JuVvwijaJBo9FolWh2528tizF72kUYRYNGo9G2g1nCYF/azR63CKNo0Gg0WiWa3flby2LMnnYRRtGg0Wi07WCWMNiXdrPHLcK0aIAQQgjxAEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM/cSNyiaBBCCPEGRYMQQohnKBqEEEI8Q9EghBDiGYoGIYQQz1A0CCGEeIaiQQghxDMUDUIIIZ4pmWi8OX0Xnz96HZ/82hXP9lDrdfxIHbf1iKGrNoLhJXPTyWQnavYMIW5urpd4NOI5HR23I2ZurZGlITTlux5CSNVSMtH494euuQpDIfuXf34FP1+8b6ayiSwMoqE2gL4L5nZeKBqEkOqgZKJhicBa2NO/rI/53JHrSK6aOzeJ2Z4AgoEAfIfPImnuyw1FgxBSHVSUaNy88zE++4JRQzl0/Ka5dxNYnUFfIIzo5Aiaa1sxvmLuT5HAbG8EO+vrUOMPoz3aiyN2J5uYwUBECU5tHXY81orh3ufzOPsE5qOtaAj4UVPrx85wK85cNoMcOEUjeXEI7WHjPD6V3/aTaS+v4x4dxJmWMHaocJ1PW7iweLoNTdZ5I72YXjYDKBqEkBxUlGgIP52/h99qNI6V9c0g+U4rfNo5JzF12I/mkUx3nzi5H76gEpPLqg6SjGO2L6Ict+Vk4zizz4/Q4TEs6uAZRCPKMecQjcSp51VanZgyAxcHVVrhQSwamxlkiMbyGI7UB9F1zjxwYRBN9UroFoxNHbc2iPZTS6rWlkT8XCdCtenw5EQbgtZ5V9U1KBFMpU3RIITkoOJEQzgyktDHSq1Dah/lxSEUF3oQzHDiSxjeU5cpJKsT6eYp7XAbMWoLhnLQOWsaKwkk7DUZ02GPXjO3bWSIhhKCxLK94czIV9OQcRajpjGh1w2SGG+pQ7BnRq0bcdtP245fOYt267wUDUJIDipSNO4/AOrbP9THf/UVq82kTMRH0FzfiinLkVtNVeYTutF/EUCf+N4Utj4N6b8I9GDWCDDI16exmsBsqnmqzjR3h50hGoqErXnKOrYpahyo4zr6NBYHd5v7JL/pY9JmFz6KBiEkm4oXja/0l1c0jGadbIca7LZUYmNFQ59PNxOZT/15HHaGaOh4RvOUMWjArGl4Fg3nNdigaBBCclDRzVP/7mC5m6cWEA370TVpblpc6kdYhMDmnDeqeWq6I+3oNZcH8bQX0cgSIpWvJxyikbN5Sq6zDg0DqeqTgTVijaJBCMlBRXeEj/+izB3hMz0I1ndiOmu4r3KyIT/a3zFqA86O8Ome3Xk6wmPoeyJ3R/h8b1CF9WJW1TR0p3mjNFN5EI2LvQipeAMzqqaxEsfsQKMeJZUhGnk6wvU11EcQvZgwtmf60fSYEka5RIoGISQHFSUamz3kdrY793sZ830h1BwYM8M2cMjt6lJqWKwvEEHfqUGVVgjRS2a4jQzRUCyebEWDX+WhPoCm7jFED9Qh3GeoglHTyBxy23U6MweLI+m+FJ1PU0AoGoSQXFSUaFTSy32EEEKyKZloWDWGtVrFTCNCCCEki5KJhkxY+Lk1Tlj4H1qvY+TCVpywkBBCqoOSiQYhhJDtB0WDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA2SQfLePXy0fBNLV65j4VeL+MWlX2H2F/O0KjL5zeW3lzIgZUHKBCEWFA2iuXEzgV9fXsKl+V/j6rUP1fYt3L2bxOqDB2YMUi3Iby6/vZQBKQtSJqRsSBkhhKJR5SRu3dZPlZcXr+KWWifEDSkbUkakrEiZIdULRaOKkafI+V99QLEgnpGyImVGyg6pTigaVcj9+6u6uYF/fLJepOxIGZKyRKoLikaVIX9yaWKI/2bZ3EPI+pAyJGWJwlFdUDSqDHk6pGCQjULKkpQpUj1QNKoIaVJgkxTZaFiuqguKRpUgI16kA5OQUiBli6OqqgOKRpUgbc8cJUVKhZQtKWNk+0PRqALkpSwZY09IKZEyxhcAtz8UjSpAOipLWcvoG1/B3tdu4Ne/4dvj1YyUMXaKb38oGtscmTdIpoEoBR9/DDQO3sAnv3ZF2789eA3vf7jW4ZcJzEdb0RDwo6a2DjsebkTfRNwMI8WzhOE9dajpiBmbMz0I1fpx6GRp7rGUNc5Vtb2haGxzZMK5UoxsEcF4+tXllGBY9sRff2TG8Ebi5H74lBNrODqE8XNjiB4Mqe0gjsWSZoxKJ4YuJXZN0Up9wnaKRi/C9X4cOWWKxmSnEusIhjco+1LWpMyR7QtFY5sjM5XKxHMbiV0wfv+5qxmi8d0za2sGm+5QDu2JQaS7UOOYPRXD4lbRjK0mGk42WDSkrEmZI9sXisY2R0a0yIylG4UIxld+YAhGdOoO/m4uid9uNATj2ddvmLG8szgQVk4riPZTS0hmtWy5OTyHk15NYLp/Pxr8Kp6qsewMt6Lv6G613olpI4a6CWPoigRUDUbF8QfR3NuDIxmOPn8TWfLiENrDtuO7JxCXvGqHK+e1zN35xid60PywkXbG8Qotmnt6Mdobwc56SUPVulqGMJ+rPzkxh+GWcCpu6JkeTF0zw4RlI3yHPlcY7dEYRlvUunUPl4bQpMK6Js1zp/KubM+QkuzikLLGUVTbG4rGNke+jbBR05uvqmQswRg4v6L3DcXuaNFYj2BoVuMYPypNUsppiUNtG8Fs6oX1wqIx2xPUzvPpNqN5a1gJhk7LEo34GA4pB+t7ZD8GRiYwNdKL5qDhJK00FqMR+OpD6BqZQ3x5CbPR5xFKNZHNoC9Qh2DLCOaXElic7EVTYDcGYsqrx+cwda4fzSqtsMr31DlVQzJuS5rlCXQ9EsKRARW2rI4/14kGlZ9Qz4wOthy374k2DJ+aUOLRqM5dh4aBBR2ewaq6HxG/upY2jM4tIbE0g+ED6vqD6lrlvKsqr3Jt/t3oio5h6tQQup5Q8UVgXEQjMafuR1+jOr+69mG1HlPCbcRaN1LWpMyR7QtFY5sjH9XZCO4rwfjy9z/KEoz11jCyEAccbVMOWT2RKwd+bFIetQuIxspZtCuH2NBnd7AJTB0NpERD12TqWzFuf3K/PKgdp05jVaWn0gj3zpmBQhLj8nTeclatLSAaVk490ovphYRLbchj81QygYQSjYTyylNHVdrmU70hGs/b8pfAmX1qX8TlqV/VbHzKwQ9cNLcFuQfq/O2nk0i+06rCw4heMsMEERIlem6iodng5ilho8ocqUwoGtucjfgDi2B86f8agvHX5wzBGJzcIMFYVc7O/ngrT9MiFNppFhANpwM0iauagyUaRvOP0wFnp5HRTGOZdVxiDqPd+/H0I9JE5Ww+KiAa6npG95lNW9rMJ3+7aDjy555n67qsdDJNzm+/bjs6PYoG2SAoGtucYpun7qkn61yC8czfFFvDMJ6CffqJPk36SdwUDXt4fEQ3B2knbT5l56tpzPeF8tc0zNpK80imi45fmkPCrFXEJ8cwawUnZzAQUnnutIQsv2jEh8SRR9TTv3kFq6omIbWYdYiGUZNoxKg9YDWO+TljRyXUNNg8tf2haGxziukIF8H40//zGy0Qx942RkX1/2QlJRjSKV4s4lTl6T28rxej5ybUE/1u3YlrCcFsjwiAdF6PYOrUII48YnQoW07a2adhDNlVTjJnn0YPntad5uk05gekH8TWL9ImefCjaUiFJwxR8T3yPKKnJjAebdN9EkGzT0JE45iEP9Gp8j+CabvDVsiQYqOjfwGJ5SXMj7QhrOKvRzSwuoDoE+r67X0Wu6U5L4JRuRSrT6M+s09D10ZyiUZMmrxU7alT3d+RmG0U2/pgR/j2h6KxzSlmyO2fDRgv7pVKMCzi59Kji3wBGfGTfsq3RgsZo4EM8RhQtY/Uk71j9JQ0HY33OpppbKOnfIEI+iZGHLWDhHbmuj/FjNOlnHwK++ir+gCa2sawaOvbSLyjhMQ8f98Fc6eFqglMdadHRoWe6UXfAbW+HtEQpKmsLZ3ezkgbxu0VLfvoKZXXhhYZHKDWc4mGOstUm3V/e7KattYKh9xufyga25xiXu57uDuOL37bcF29Z2+XRDCKJrmE2YuZ7nW2W9VOQv2wWtYTczNYtDdPmU1c0nlMNha+3Lf9oWhsc4qZRkRE41PNVxH433EtGE+9slxZgoEkpjvN5qluGfLqaFoS5Mlamo/M5iUZcntImrisYapkQ+E0ItsfikYVsN4JCw8M3dTCIdb8tzfxoKIEw8RqnrI3LY3MZXSs6+alZ4JGE4wSlIb9vZkvxJENgRMWVgcUjSqAU6OTcsCp0asDikaVICNaSjk9OqlupGxx1FR1QNGoEvi5V1JK+LnX6oGiUUXIyJZSTJNOqhuWq+qColFlSEdl/DepGQEJKQopS+z8ri4oGlXG/furuu2ZwkGKRcqQlCUpU6R6oGhUIfInl6dDNimQ9SJlR8oQBaP6oGhUMfLHlw5MjqoiXpGyImWGDxzVC0WjypERL9LEIGPsKR4kF1I2pIxIWeEoqeqGokE08lKWNDfINBDyFCkTz8mMpRv11T+ydZDfXH57KQNSFqRMSNngi3tEoGiQDGTeIJlwTmYqladK+TaCfFSHVj0mv7n89lIGpCxwLilih6JBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghnqFoEEII8QxFgxBCiGcoGoQQQjxD0SCEEOIZigYhhBDPUDQIIYR4hqJBCCHEMxQNQgghntGi4fbJRxqNRqPRnMaaBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM9QNAghhHiGokEIIcQzFA1CCCGeoWgQQgjxDEWDEEKIZygahBBCPEPRIIQQ4hmKBiGEEM/cSNzC/wctMQmsKFdbQAAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110085</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       kkstartupindia.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d1af8e651ab1b</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Tax And Accounting  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       B 6/22, Dda Flats, Pochanpur Colony, New Delhi, Delhi 110075      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADV4SURBVHhe7Z2NV1znfef3z8hJ22032217Ts/Jdrdp4z1LsuyQZTXbHM3WR7P18TQ6nlS1iNzx1gpENlS2ZIIsORQcihqWpiTjYBNjj0PFMbGwZCnSCqMQiCtCVwJbBlsCSWgs0EhII2F/9/k9997hzvuFeWFgvp9zfmfm3ufe574w+n3u8zKjfwVCCCHEAX9dVw9KgxBCiCMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOKZo07t4HfjJ2B4+/vICvNF/Hv33qKn6v4ap+L+v6fnkH95bNjQkhhJQkRZHG8f8XxR99+xo++80rGeOBpnmcPB819yKEEFJqFFwaLYO3YlL4wrPX8OyRmxh67x4Wlj7Vcea9qF4nZdZ2L7x1y9ybEEJIKVFQabSq5C8S+O2nruKNc3fx6admQQqkTLaRbWWf7x6jOPJBOBRAxa4+hM1lQgjJhYJJ42cXojr5/9a3ruBXl++ba1ewWhWJjKttZR8pkzrWg7sXjmBf85/g8/sewGee/RPsevEoJiNmYamxPIfRw7XwuatQUVmFLQ/WIji8ooiSlMZyFOGpMQx2N6HhIQ86R8z1MSKYDjWhRl+TG1v9TTh5ySzCHPp3Gdcai2oPahr7MLlgbmJtU92E0SVzVRwzCPll3zaMm2sIIc4oiDRk0PsPze6m4FDKf7VppSG8qPaRMqnjzj1zZbGY+AG+uu8hPDVwAVdvRLA4dwGhzofw+ZZXMfOJuU3JMIfBgBuuQDcm55RgJRlPdKOu2ov2EcNypSgNOact2+vRGepAg0r67QnSiJ5qgsujRDGnFtQ1TfcG4PJ2YVqXGkKoC0mhQTQyg6EDXlT4uzGtJ1OsiKVhIMWVz/SiRguH0iBktRREGq/+4o5O+l9ovIZP0nRJZZKG7GMNnL+m6ioeEbzR/gB8fR+YyyafXMD3DjyAp942mxuXj+Dr+9oQevs78D2rWiP7vgLfi2ewaJPK3fFX8VTzV1TZA/jj5u/gjViV43hh3268dPaoas1I+ZfxpbaXML6GloxOruppeihh3+mgLyaKJGksqwTbHMDWauMJva75NGbts9YuHUeL3wOXSqoujx8tAzNmgcHsiWbUedwq4aoWQKAL47Gne3U+57rQ8KCUGS2enrE0FxU73hjak6QRxVBjFfxB23GXh9V2PoQuykKyNDRLp9FS6UFwQhaMbRpqa5VIejGrN1hh8rAHXlX2eIGksbS0pCMbTrcjpJQoiDR2vrigE36mcYlM0hBkXymvUXUVjRsn8NS+7XjpfXPZxnjvg/jMD83spqXxZezqu4BF5bS7H53BcweVbI5cNso/UuXP7kboffX0/0kUV3/2HXzlQBtGtP9EGg/g822vYlwyeeQDvPTCA/hK7wUpXBWTHR5UNJ5WaTaB8BRGz0wpBSZKI6ISshu+vQOYlp2iM+iXlkqsjin0eN2o651BVCX26MVe1WpRificLkR0uBlebxtGpbLlMCa7bHUvHMdBaeGcMY90pg2+yloMGotpSCUNI+G3D5uLGrVuh7Wdc2m0n1Drqi3ZmMh21X6ETvWhrkDS+N73vofW1taMQpAy2UaCkI1EQaRR8dy8TvjnPkoey7DIJo3xS/d1udRVNLQMVLI3c7+dqwO78ZkXjuCqLJgtjRFby2Lx2JP4zPOvQp6PR178MrbFtVaUGJ7/Ml74Z3kv0ogXk6677ahR9yoYb1WthdYxcyk1cdKYk0SZkMjDA2ioDKBf52BJ4j70nNcliihmx4bV30KUYiTilhM2RelEHcDgNfVe1/2MrdUTxvSZYUyvVRpp16WQhiUwj5KAztPGNvuPqvXSqjisTaKJDKjWR+0AIvp8CyONy5cvY+/evWnFYQmjrq4OIyNxF0pIyVMQaXzuSUMIN++kny6VTRqyr5RLXUVjtdLQJSbSutDrriOkWg7SLZUYL4zKhkb3lP0YcXXHEcXoITe2HBpObk0oVi2NkTZU+LrNsQGLCQQ9VkKOYjK4E1uk26qxC/3SWknoSoobgNZhCWcOJ/f54HL7sb+5G4MTc7q1kpm1SyP+HIzB8sFYj5ZNLDJ+ERsQN9brcY4CSkNIJw4Kg2x0CiIN+ba3U2lI99Otu8nbWdKQKbhFY1XdUwnSeP9VbLNJIzb+kUT+pJG2e2o5isiCsTa7NMbQWZ2QpMNTGB/oRkvAA5f3GWNAWid4q/snPdFLExgKdWD/djdcO7owmb6HRpFBGqvtnorDvk0Yg7WmKOwCGWuDq8AD4YnioDDIZqAg0vhPB4zuKeliSkff2B38Tr0hFxn0/uWH8dOkZOqtlBW1eyrtQPgHeKk5eSDc/s/+7pnvmN1TUZzu+jI+3zWCu2aZJtaVtRppZMYaCE+cVpp2IDxb95RtLMTASLhG8jWmqdb0xA+MW4Pa0UtjGB1TrQtjUa23t2DSkUoaaxwIjyN+m+iJJj2zqt/eVSUCLbA0BLs4KAyyGSiINL7xI2MgvC3LF/RmFz7B1raw3vbXa6/g+Z9GsGwmV9lX1n+ju4gD4UKaKbefOfgDjFuJX0vDHAiXLBkewQsHH8DXB64b5WYdz502lvVA+fNP4w3tv/xJQ76jIQPZvr19mAyrE8k65dYcCD9wHLNy3tEZDO5RrQmrtRI+jv1q35ZjZkIOn0a7x42Dx4y6IkfrlaQCCJ03l+VY2zswKTtPdMBnK9OD6JVe2/hIKlJJQ+0bN+U2gslgAK7YLKjVS8MY/JZuLD9ClouKJA3BEgeFQTYDBZGGfcrtfdtgcSpkeu3ht2/hX9ddwZbW6/o7HrKP7Ct1FHfKrUHWL/dpaTSha2Blyu3XXx6Jm3K7+M8vYfeBr+ixjM9/eze+N2IKJZ/SEPQUWuvLfdK3X4+eTF/uU9sPNvptU26VQGxjD9HzfbEptxUyPtE9Edf9NTvQhBo95bYKW7Y3od+UhBAe7ohNuXV5Amg/kSmxC6mlIXKL+3JfoAOjMtiuWYM0FDIgrgfAzeViSkMQcVAYZDNQEGlI4rd+Syrdl/sSke6o8C1jbEP2kX3ly31SV8mRakyDEELKgIJIQ5Bfq5XELz8JkmnqbSKy7Xr/jEhWKA1CSJlSMGkI8mu1kvxlBtRPx7P/YKFssyF+sJDSIISUKQWVhpD40+j7j9zEO+/f011REql+Gl32IYQQUnoUXBqC0/+ESbbhf8JECCGlS1GkIciAtnw3w/rvXn+3Ifm/ey3JQW9CCCExiiYNQgghGx9KgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDimIJJ47+3Xsdnv3klLr50aB637n5qbkEIIWSjUTBp/E791SRpSJw8HzW3IIQQstEomDT+y/PzKaXRduyWuQUhhJCNRsGk8Rc/vJFSGn8ZvGFuUaJEptDf6MeWyipUVHtQ03gcs8tmmTAzgBa/By4pd3vRcHgYYXv50gwmj/Whs34nfLV9CJurDSKYDjWhxq32Vftv2V6P0LmIWWYQHu5AncdtlD9Yi564cvv+bmz1N+HkJbMogfFW4xjJEcDgNdki27lkO1aW8mvDCD7htd3Hgfj7SAjZkBRMGt8/dTulNL72/VKWRhSjB9zwKlFoEURn0B9ww9c1ZRQvTyCoEnpd7wyiUh4eRru3Cg0DlhrG0K4SZF1jN0LNPlTsipdG5Gg9XN42jJorI2fa4Kt+BicXjGXM9KJGJfWe80byTiyPnmqCy6OS85xaWI5iujeg6uvCtFGclchALVwHTqurzH4u2Y6VsXxpDJ1edZ+CE4jIfVqYQkjdR+/hCSklhGxgCiaN6evLScL4YtM8Ln38iblFCbJ0Gi2VPoQumsvCcDMqfN1GMpzrQ51K6v2SKE2mu7yoaB0zlxTm03Q4FEiQRgRDSiT77TuLZNSTePuIsTQdVKJpNJK6wRz6d1Sh5YSsiWKosQr+4IxRJCwraSWebzpEeF4PgudkIdu5ZDtWlvKxNriq2zBulGiiJ5qSJEoI2XgUTBrCFtsMqv/83DzmIyUsDEFLoRmj9m6US714vNJKgDMI+W0tjQVpabix/2hyKkyWRgLq6Xz2WBN86ml/fMlYJV1Kj/faEzkweqgKdSFZpwSySyX1YWO9gSEVSzqZ0C0Dfy9mzeU4ks4l27FWfy76fsQJkRCyESmoNF4ZuaOF8Wu1VzC3WOLCELQ04p+Qk9bNDWD/V41xAAl/R+oul/TSMBKu3v+r9Ri0PayLNAxBrLCyzkzUcUk51bpUGLJrOZWYstOdS7ZjrfJcIqoFV+1FkL1ThGx4CiqNTz4FvnTQmEX13ED8gG9Jkk0auosncUwjx5ZGdT1OmhsVTBrnOuD1dGDS3oKyk3Qu2Y61inOJqHu2Q92zhOsihGxMCioN4Z3372lp/EbdFZz76L65tkTJ1j0lffWSfHWBge6r35Hc7ZNVGhqVaHdUKekYQi1M91QYJ/e4UdNja9KkxH4u2Y7l8FyW1TqZSNA6xm4pQjYJBZeGUPfqohbH55+5htmFDTwQPtK28t5ESyNhnZAsDZW89/lwMDbTSjASrTHQXaCBcJmRVd2EUXPcxCDbueQ4EK6XIxht9SphDBszqAghm4KiSOPOvZVB8YrnUs+gknXbv38DNS8u4DtvRvCTsTu4fKPYgkmYcmtOFY09pYtUqj1oOTpndk9N6HJfinGNVC2N2R4/Kqxprim6pxKn3IZ1+UrCj5/mGsFkMJB+cFsTVa0XT8qprtnOJduxMpdH1HG9cAX6+N0MQjYZRZGGEL71qZ5yK+L4/aevYmRamcTk/fll/If913SZPf7wWf0ttOKS8OW+usQv72X7cp9Jyu4plVzHu+vjvhDXbwrCIu7LfdsTyxO+UBfowGimWxQeQEOlH6FUPVNZzyXbsTKU624+WZ8cmbvSCCGlTtGkIYg4rB8ylBlVe/tu4pcf3sPv7039O1W/9a0r5p6EEEJKgaJKQ5CuqobXb6aURGJQGoQQUloUXRoWP794D//tb5N/Pt0elAYhhJQW6yYN4dNPgdd+cQdf/W6Y0iCEkA3AukrDztTVZfzDqdvw/+AGKp+/js/tuYI/UTIhhBBSOpSMNAghhJQ+lAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHLMu0nh95B68372tQ94TQgjZGBRdGuMffQJX0624kHWEEEJKn6JLo3f4XpI0ZB0hhJDShy0NQgghjuGYBiGEEMesizQIyQfhUAAVu/oQ1ktjaK8MoH9OLySzHMbkmSmEl83lQjHXhzrbeYy3VqEulO6kIpgdG8NsxFwkZANAacQxh/5dqf+RxycoxbVhBJ/wYktlFSqqPahpHMCsmZAkUVTI+qQIYPAaED3RBFe1eh93mAhGD3nUMXpj9WRkpC1F/Srs5yjo7dowbi7Gocu86ByLmissJAFXoX3EXCwIxr1eOXc3fE80Y/C88wy6KmlcG0BDtRc9583lNOg6Y+dUhS0P1qJ9YAqJdygtq5LGBIJuNw4eozXIxoHSiMOhNJbG0Ol1oy44gYgk+IUphAJueA9PSGlKIgO1cB04bSafCIYa3XDtOa7eGUTH2uCr9CN00VyRjUwysJNVGio5elX5krlOUzxpxO710hymj7WhRiX29hFnSXRV0nBIXJ3LUYSnjqNzhxJa65gzcaxKGoRsPCiNOBxKQyV4V3V8IpbWw0oCS2BZPVF6PQieM5eF8HHsr3aj5YRKkLq8CjXBGbPQhk5CKZJ+3qThR42/Cr4Ou/CSpRE91439291aMlu2N2HQPNXJDg9cKqFaRI7Wo8LXjWlzGRe74a9swlCclITU91r2d3k7MGm1tpbnMNQcwNZqJTfVoqvrGjNErUgljdCZAbTo83Rja6ALk5Z/EpJ5OuLrNNF/Ky/UM0KMdPcjpTR6hjHY6NetUpcngJ5z1kkVQ86E5Je8S+OX08voGbqnX9Nx6+6n6B+7p0Pep0NmVcl03OLNrnIojRTo8karJRFP9FQTXP5ezJrLFuG+gEoizQh1+NXTvi1R2im4NNowqhJ7TaU9KSYks0u9qKtWifCiujr19D17tAlej6pTRKDqcMUkEVUtKOnWWUmaWiK2FtUKae710mm0VPrMFpfRZedrHTZEEZ5Aj22fZGmopBzoxqSsWFKtP7Wt15JhLtIwr8tvST3T/UghjQq1bWhC1ai2ne5R9XvU31qXUhpk45FXabya8B0MWU5EJOE7fDu2zZ///VJKccisqipbXcWZZWUkMqs/OynSSSOiEl3Ck+gKMwj5VYviVAqdqKdo43ipxhVMMkoj4fxSJUUH0pCy6aASl18lfy2u+GQ23upeSZgadU0+tzpn9VYneWOsBstqv+omtLd6sP+ooQnZN5WE00rDfmx97fGtFN2iCxh/h2RpWLIx0OXmtrlJw0z+Zosq4/1IIY24bc1yfb8oDbIByas0tn13RQYSspyItC7s20jIukRkOq59G1kuPGtoaUQmENyRLjEqznWop9A0rYhlEYokew/ah+3P4kYySZaCCuscMsnAjkNpxHeR2ZNZepEa5RGc3FOFlhNKehPqWqVVoep16VaXJNP4RL6CA2no80txbPMeJEsjXgpx5XmTRpb7kUIacdcYV05pkI1HXqXxv9riE70sJ7KppCEthUCmQdKwSqhu1PTYn0pXmO1VdXrb0N+lXj3NGLV5I7oQQUTifDcel6dtazliHinf0hBU0vdJQrs0nCQNq+WQCrk3rrYx1VrxGdtJ60PGfCRBxrpiEklzr+3dU3J+afdP/JsUUhr27qks94PSIJucvErjn35xPy7Ry3Ii0hUlXVLWNpm6p+x1FbN7ypE0liMYbfWu9LenYqYXNdVNGE0aBFZIv7jVwjBbHD6VeJPko5NMiqSfSgYT3ajxdWDcdj66Oydd4k2qI4rxNq+6zoA6ppXMohg94LbN/DKxX7MMdvvqsd9vJUNJsm60ND6Tdpwn3b2OGwiX+yczyuzOtR23aNKIGwjPcj8oDbLJyftA+L9c/gShn9/Tr+kQSUjrQiKVMCxKdyA8opKBF65AX4bvVKgE3OpJMw13DoOqhWJ04Zjop/wU4yKrkYZ+wjemAodVxdGwajF4E2dG2UhZh0wntnW3COa5tRwz7kv00nG0PFSPk1Zm1WMZah/brCk9AK7qSN9CSbjXS3OYDD0Df9yUW6Olpge3F9SifEEvGECNuh65b2uWxsIYQm29GJc6E4jbR6bcTvTh4EMJrclM94PSIJucvEtjY+NQGvoffnx/thWxBBAeQEPiU7LJrKrLVW1LuhrzKT9xFpVKpuNnppJnH6VK+MLMAFr8HrjkfGSK6uHh9N+CTlNHVK332a9FERnrQsODxhRTmTYaHLafvNF9E5upJCQkz2SMe71y79J8uU+1wmS6qp5yq7apaezDtLnJmqVhvjcGo+PR+8TOKf2X+9Lej4TrpjTIZoPSIOWHNTnBXCSEOIfSIGVGFJP/UItOh986J4TEQ2kQQghxzLpIQ2ZCyRRaieLMiiKEEJIPii4NmQlln0orUbzZUYQQQnKh6NLgf/dKCCEbF7Y0CCGEOIZjGoQQQhyzLtIghBCyMaE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY4pijR6R+7g9/7mGj77zSuO4otN8/jp+B1zb0IIIaVCUaQhEkglh0whkiGEEFJaFEUalgicstrtCSGEFIeiSmO1QQghpLSgNNaVOfTvqkL7iLlYFoyhvTKA/jlzkRCyoWD3VCKRKfQ3+rG1ugoVlW5s9dcjNBYxC/NNJmkYZXWhzZZdKQ1CNjJFkcZqWT9pzGEw4IbvwHHMRqLAchThiW7UVXvROaaW8w6lQQjZWBRFGn87eAt/e/SWuZSddZPGtT7UVe5E/yVz2WTysAcVh4bNJWD2RDPqPG6jJRLowviCWTAn+zfj5FhXrLymUQlo2SxXzB5tQo1btWKqPag73IvOHSmkoeuRlo4Zu/oQNotmj9mP3YyhhHM1MIRT0zNjLisudsNfWYtBs6JM9Yy3JshKn4+V6I2k3xPq0NeRLDWzfGDlHmzd04vpWGPNKA+dGUDL9pV7OGlvzC2MIVTvxxa5drcf+7snEFO2g3scPdeN/bruKmzZ3oRB220ghORGwaXxq8v3YhJwKo51k8byBIIelQi7phCxJSE70eFmeL1tGJXkuxzGZFdgJambyV63VFSWi4ZPo13Vt/+omREnOuCrVglzQm2tWjGzx5rgU9s7bWlETzTB5X0GgxeNVtB0bwCu6iYMpeg9C4ds52Ut1w5ANs1WT3ZpVMElspyJQBpk8Rjl+h4sqcXwBEKq9eY6cNpM/Nb+3ZiUk1uaQkhdp7djQpdieQYhvxJBx5jxNwgPo92rBBg0M3+2e3ypV7UM1bma1yaS9nraMC7nQgjJmaK0NH7886VViWPdpKGInu/DwYfUU6o84TZ3Y2jKSruCkchbTtgy5dJptKiEOihfK9EJTSVfW4KSBOxqGzPfu+E9bCZHjaovVUtDkygNY7lhwH4+YQzWpnraV4QH0BBL9MZ2xr7Z68kuDR9CF3VJCqQ8obV2rgPe2H1J3l8LLWAKbqQNLk8HJu3Slv2rVeKXdQ7usd8SjEZJyOdGp1FMCMmRgkjDSvrpIps4rO3WDXlCnRhAqDGgB8S37LS6T4yn5Fi3USzMhKoTmkpusqmJJLSKVslYRrKOPRFrjHXOpJE6WU92eMz6E7GJYuE49se6prLXk10a1vtUpChfVq2FDPvbW0X6faPVKjHR52/u4+AeJ/990t1jQshqWRdpNL9pT5zJWNuVBNJdohKR0X0iCc+DoL2xYGcdpDHeplpFKaUBRAZqUbHnOMInmmJdU07qybs0zNZYuv2zSkOPNZn7rPoeE0LySVG6p+S3p5wKQ1gvaUhff0Vi14hitnen2X0i/e0JA8yCtX3GhCbvi9g9JZgtjP173Lb9stcj5/x4r63OXKWhB+Ht3VPppeGseyrdPY5i9IB9/MQk4e9JCFk7hR8Iv3R/VcIQ1ksaWBpDp9eNmrZh25TbPhxU6+r6jCwXOVoPlwxmnzeuJSJTcrerJCdZKos0EgfCpweeyTAQDoweUi2ctjFEo0YKNAawVfK9ZJzbdF+9SqZqOe1tjeDkHnX8hCSdrR6dxP0dGJcsvjSDoQNeWx1OpLEyUI3oDPoDSpbqHhhXkUUa5kB4nWrOGQPhYwhuTxwIz3KPK71oOWYcIHrpOFoeqsdJuyMJIWumKC2N5qMRx8IQ1k0awsIUBptr4ZNpsSr5bXlwJ1pCU3FPrrMDTajR0z2NKZ39pkCyJjSFoym3JlElpMf1tit1rhzbnCqbZTqp7qKyzaKyyFjP8hxO7vPBpa7P5fGjpaMZj69KGjvR2dsRmxLr39eXNOU2rTSEhTH0POG1Tbk1Z1IJDu5xZKwLDQ8afx+XJ4DgMI1BSL5YjNwqvDRWy7pKY5MhXWJpu68KQjapEEI2MkWRxmolQGnkgaUIIlPynYWVL/QVB0qDkM1MUaWx2iBrR8+Gqvbh4NFiZ29Kg5DNDKVBCCHEMeyeIoQQ4piiSOP3Gpz//+BW/PG35829CSGElApFkYb89pRIIJUcUoVI5hW1DyGEkNKiKNIghBCyOaA0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGO0dK4c/cuGAwGg1FCcedO8msuYa87h6A0GAwGYzOEJQb7qz3s2+YQlAaDwWCUYtiTv/WaS9jrziEoDQaDwdgMYYnB/moP+7Y5BKXBYDAYpRj25J/4upaw6s0xKA0Gg8HYDGGJId1rnoLSYDAYjFKIbElfXnMJqSMPQWkwGAzGRg5LCKle7WFtn2NQGgwGg1GKYU/+1msuYa87hyi6NG4t3UVo5CbcrfP4HypeU+9lXaptGQwGg+EwLDHYX+1h3zaHKJo0ri3cweHji/hC49Wk/xNc1rUfW9TbpNqXwWAwyi7syd96zSXsdecQBZfGe1fu4G9ev4F/V78iiz/YdxVtby3qkPfWetmmQW0r+6Sqi8FgMBhpwhKD/dUe9m1ziIJJY2jqNnb88GP8eu1Ki+J//t08+kYjcd1R8l7W/Wn79dh2ss9f/CCs67DXyWAwGGUT9uSf+LqWsOrNMQomDUsAn9tzBf/75Y9x7sPsAvjl9G080fMx/o3ax9o/1XbrG2fxQmUVXhhKVZYci1NnMToVTlmWc8y8ht2VrRhNVSZxaQLvnJtLXZYpstWbS6z1nBgMRuawxJDuNU9RcGnM3Uhdnilkn/WUxvy51/D8I1vhUnKoqN6KR/e9hgvXrfLVSWO0zQ1X/ZuYT1G26hhqRYU9mWdJ7pd/shuubZ24kKIsYxRQGms+JwZjs0e2pC+vuYTUkYcouDRSlaWLU+dXWiPrJY3Fs614uHIbnn9zCvM31fL1KfyscRtcj72GD27LNquTRl5jldJYcxSypcFgMPIblhBSvdrD2j7HKBlpvHjmpt7+2SMLenl9pDGFVx6pwqNdU/Hrb7yN5yvdpigSpRHGhVca8ehWt0robmx9pBFvXbTKVEujWbVWms/q95dfeQwVB17GW/sewRZpxbgfwfNvzGB+tBO7rf0f68R4rFWTUI/sY4Y+vk7uh/DW2ZX9H933pik383g1r+GyVc/FN2MtKNdWdewjCddphVnv62+o63LL8VLUa16TEQn35PaMvsat1Wpf3VI7kvqcspy/xOJoEE9/TcqqsOVrjXhjaqUs4/VkOAcGY0OEPflbr7mEve4coiSk8eOzkdj2B99YR2lcexNPVz6MV84nlt3EB2dPY/TiTfU+PkHOv7kXrm2teGfOWP7g5cfgeuRlfGDumySN6sfwyrtzWLyt6vzJk3BVK1HsDmJc9r8xgdcfc2Nb+7t6+6RI2dKowsONKtFKq2jubbywtQpPv2GMocRLYwI/2ubG7pen1LHVtudfxm6VTP9x1KzLHkn1nsYL25RMu42knE0aFzqlZfYyLqh979ycMq6pzbimZGmkP/87F+UcH8Pr59V9l/ulJLZtq7p+3eWZ+XoynQODsSnDEoP91R72bXOIdZfG679IFoaE0/3zGjqJqSQ1k6IsFglP1TfCmLeP25h1vHHJWE5uaZxe2fa2SsZS12lz2drG3jqwR0ppNOJntuPL8VyttuPF6pLzfhg/Omdtaxfhyv46dL2H8I79if+tRlRsPYxx9T6bNOQcHumciJUvXjyLd87OYFG9T5ZG+vMfbXbjkbhWn2oJPuzG35+V95mvJ9M5WOsYjJIOe/K3XnMJe905RMGk8bknjaT/8U3jZE9fSJ491f/LSGxKrl0Yso+skzrs2xc81iKN22GMx7qnpCtHYqWOJGlkSLaxbVYljfixh6Tjxeq6ifGuR7FFPY3v3teJ109OYD5dd02KeuWp/6/MddmuY/HdIP7KLV1tjfjRK6dxwWyFSSRLI935z+D1Gut+xodxnMzXk+kcGIxNGZYY7K/2sG+bQxRMGn/UeE0n/qm5Jez7pwX9/tWfrzzVijB+oy5ZGBLy5T5ZL3XY1xc80nZPqRt1XbUopKsjIUHqJKi7p8xrSxBP6UjDjLkJjB4J4vnHtsK1bS/eSiXIHKWh4/YcLpw9glf2PYat1dvQ9OaMXh93Tg6kEeuqSheZrifNOTAYGyLsyT/xdS1h1ZtjFEwaf94Z1olffltKpCDvpVUx8M8RvHnuVlphSMg+UiZ1JJYVNsyBcLPvPhYZBsIlye1+xZaMdHItQWmo5PqOPI3Htp3DG7sTzt0KXW+W7il7N1vcdahEfTL+yX7+yO7YeTiXxk280+iGq/Ht+C4l65wyXk/mc7DWMRibKiwxpHvNUxRMGn93bFEn/p0vfqyXLXH81reu4DdVpBOGRM2PPtblUkeq8kLGokrMD1c/ir8/aQ6wZplyKwOuFTWdGFctjcW5d/HKbummKpA0tJB2441L6ljS6lmVNFQrSj1tP289betBZ7d6+k4hZl1v+oFwkZer+km8IeMHN+cw3vWYnsFkSeOtOrfe97LcL/W0/7MDqhVgflfFuTTU8ruHzenPxjkvymypP3sSb4kMMl5P5nOwjsVglFRkS/rymktIHXmIgknD6mKSFsXlsHHCljgyCUO2tVoh76/Tb1DNnw3iaevLfe5tePLQkfRf7jOndsoUWtfWx/CPb76MJlsXV16lcVcda+/D+rx2vza3OmmoWLR/adH9CJ4Ovpt6YFjXmzDl9tDbRgLW24Qx3vmoOW1Y3Z/Ow+qabddxfQKvW9NdZd8ng7FpxKuShor5s5148k+N8SJ9f0+vfJs84/VkOAcGY1OFJYRUr/awts8xCiYNiT/rMH5P6slXb8TWiSzSCUNCtpV9ZN9U5QwGg1EWYU/+1msuYa87hyioNOS3pKQrSloOw1O3Um5jj7PvGWMdss+7M/yxQgaDwXAclhjsr/awb5tDFFQaEv94yhjU/v29VzD+4VLKbSR+9dGS3ka27Tqd4rsDDAaDUU5hT/7Way5hrzuHKLg0JOpDRpfT79Rf1bOnEsvlG+FSJtvItonlDAaDwcgSlhjsr/awb5tDFEUaS3fiB8Gfeu2G7ro6/i+39H/7aq1/LsNYB4PBYJRV2JN/4utawqo3xyiKNKx461e38MVvG1/6s4esGxzPPubBYDAYjDRhiSHda56iqNKQuHn7Ll4cuon/+vy8Dnkv61Jty2AwGGUT2ZK+vOYSUkceoujSYDAYDEYewxJCqld7WNvnGJQGg8FglGLYk7/1mkvY684hKA0Gg8HYDGGJwf5qD/u2OQSlwWAwGKUY9uRvveYS9rpzCEqDwWAwNkNYYrC/2sO+bQ5BaTAYDEYphj35J76uJax6cwxKg8FgMDZDWGJI95qnoDQYDAajFCJb0pfXXELqyENQGgwGg7GRwxJCqld7WNvnGFoaIIQQQhxAaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxTMGm8OX4XXz40j89+84rjeKBpHj9V+208xtBeGUD/nLmYyEgbKnb1IWwurpVwKOC4Hr1t65i5tErm+lCX6XoIIWVLwaTxH/dfSymGbPGb37qCf5m9b9ayjsz0oqbSg+A5czkjlAYhpDwomDQsCayGXd0Lep8vHZxHdNlcuU5Mdnjg9XjgOnAaUXNdeigNQkh5UFLSuHnnU3zhWaOFsv/ITXPtOrA8gaDHj9DIABoqmzC0ZK6PEcFkVwBbq6tQ4fajJdSFg/YkG5lAT0AJp7IKW7Y3ob/rmQzJPoLpUBNqPG5UVLqx1d+Ek5fMogQSpRE934cWv3EclzrflqMrWV5ve6gXJxv92KLK9XnayoXZE82os44b6ML4gllAaRBC0lBS0hB+MX0Pv1Zr7Cvv14PoqSa4dHKOYvSAGw0D8ek+crQeLq+SySXVBomGMRkMqMRtJdkwTu5xw3fgOGZ18QRCAZWY00gjcuwZVVcbRs3C2V5Vl78Xs8ZiHHHSWDiOg9VetJ8xd5zpRV21Et2Msai3rfSi5dicarVFET7TBl/lSnl0uBle67jL6hqUBGN1UxqEkDSUnDSEgwMRva+0OqT1UVwSRHGuA964JD6H/l1V8SJZHl7pntIJtxaDtmKoBJ22pbEUQcTekjET9uA1c9lGnDSUCCIL9o4z47zq+oyjGC2NYf3eIIqhxip4OybUe2PblhO2/ZdOo8U6LqVBCElDSUrj/idAdct1vf9fvWT1mRSJ8AAaqpswaiVyq6vKfEI3xi88CErujWEb05DxC08HJo0Cg0xjGssRTMa6p6rMSJ2w46ShiNi6p6x960LGjnrbhDGN2d6d5jo535V9VsIuPkqDEJJMyUvjG93FlYbRrZOcUL2HLUvkVxr6eLqbyHzqz5Cw46ShtzO6p4xJA2ZLw7E0Eq/BBqVBCElDSXdP/cG+YndPzSDkd6N9xFy0uNgNv4jAlpzz1T013rqS6DWXevG4E2kkiUid144EaaTtnpLrrEJNT6z5ZGDNWKM0CCFpKOmB8KH3ijwQPtEBb3UbxpOm+6ok63Oj5ZTRGkgcCB/v2JlhIHwMwR3pB8Knu7yqrAuTqqWhB81rpZvKgTTOd8GntuuZUC2NpTAme2r1LKk4aWQYCNfXUB1A6HzEWJ7oRt12JUa5REqDEJKGkpLGek+5nTyc/nsZ00EfKvYeN8vyOOV2eS42LdblCSB4rFfV5UPoolluI04aitmjTahxq3Oo9qDu8HGE9lbBHzSsYLQ04qfctp+IP4PZgZWxFH2epkAoDUJIOkpKGqX05T5CCCHJFEwaVothtVEyPyNCCCEkiYJJQ36w8Eur/MHCLzbNY+DcRvzBQkIIKQ8KJg1CCCGbD0qDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNEgc0Xv3cGPhJuauzGPmw1m8d/FDTL43zSijkL+5/O3lMyCfBflMEGJBaRDN4s0IPro0h4vTH+Hqtetq+Rbu3o1i+ZNPzC1IuSB/c/nby2dAPgvymZDPhnxGCKE0ypzIrdv6qfLS7FXcUu8JSYV8NuQzIp8V+cyQ8oXSKGPkKXL6w8uUBXGMfFbkMyOfHVKeUBplyP37y7q7gf/wyVqRz458huSzRMoLSqPMkH/k0sUQ/njBXEPI2pDPkHyWKI7ygtIoM+TpkMIg+UI+S/KZIuUDpVFGSJcCu6RIvuHnqrygNMoEmfEiA5iEFAL5bHFWVXlAaZQJ0vfMWVKkUMhnSz5jZPNDaZQB8qUsmWNPSCGRzxi/ALj5oTTKABmoLGQrIzi0hN2vLOKjj/nt8XJGPmMcFN/8UBqbHPndIPkZiELw6adAbe8iPvvNKzr+/b5r+OD6aqdfRjAdakKNx42KyipsebAWweGwWUZyZw79u6pQ0TpmLE50wFfpxv6jhbnH8lnjb1VtbiiNTY784FwhZraIMB5/eSEmDCt2/PCGuYUzIkfr4VJJrOZQH4bOHEdon08te9E5FjW3KHXG0K5kVxcq1SfsRGl0wV/txsFjpjRG2pSsA+jP0+nLZ00+c2TzQmlscuSXSuWH5/KJXRi//dTVOGl87+TqusHGW1VC29GLlSHUMCaPjWF2ozhjo0kjkTxLQz5r8pkjmxdKY5MjM1rkF0vzhQjjGz8yhBEavYP/OxXFr9cawnjytUVzK+fM9vhV0vKi5dgcokk9W6kSXkKSXo5gvLseNW61nWqxbPU3IXhop3rfhnFjC3UTjqM94FEtGLWN24uGrg4cjEv0mbvIouf70OK37X94GGE5V51w5bhWpE6+4eEONDxo1B23v0JLc1cXBrsC2FotdahWV2MfptONJ0em0N/oj23re6IDo9fMMmHBKN+ij+VHS2gMg43qvXUP5/pQp8raR8xjx85dxa4+pezckM8aZ1FtbiiNTY783wj5+nnzZVWNJYyes0t6Xd/YHS2NtQhDsxzG0CHpklJJSxJq8wAmY19Yzy6NyQ6vTp6PNxvdW/1KGLouSxrh49ivEqzroXr0DAxjdKALDV4jSVp1zIYCcFX70D4whfDCHCZDz8AX6yKbQNBTBW/jAKbnIpgd6UKdZyd6xlRWD09h9Ew3GlRdfnXeo2dUC8m4LSssDKP9IR8O9qiyBbX/mTbUqPPxdUzoYitxu3Y0o//YsJJHrTp2FWp6ZnR5HMvqfgTc6lqaMTg1h8jcBPr3quv3qmuV4y6rc5Vrc+9Ee+g4Ro/1oX2H2l4Ek0IakSl1P4K16vjq2vvV+zElbmOrNSOfNfnMkc0LpbHJkf9UJx/cV8L4+g9uJAljrS2MJCQBh5pVQlZP5CqBd47Io3YWaSydRotKiDVBe4KNYPSQJyYN3ZKpbsKQ/cn9Uq9OnLqOZVWfqsPfNWUWClEMydN542n1bgYhv0rqgS6Mz0RStIYcdk9FI4goaURUVh49pOo2n+oNaTxjO78ITu5R6wIpnvpVy8alEnzPeXNZkHugjt9yIoroqSZV7kfoolkmiEiU9FJJQ5Pn7ikhX585UppQGpucfPwDFmF87fuGMH54xhBG70iehLGskp398VaepkUUOmlmkUZiAjQJq5aDJQ2j+ycxASfXEddNY4W1X2QKg4fr8fhD0kWV2H2URRrqegb3mF1bOswnf7s0Es4v9Tlb12XVEx9yfPt129H1URokT1Aam5xcu6fuqSfrdMJ44se5tjCMp2CXfqJfYeVJ3JSGvTw8oLuDdJI2n7IztTSmg77MLQ2ztdIwEJ+iwxenEDFbFeGR45i0iqMT6PGpc26zRJZZGuE+SeQB9fRvXsGyaklIK2YN0jBaErUYtBcshzE9ZawohZYGu6c2P5TGJieXgXARxp/9n4+1IDp/ZsyK6n5nKSYMGRTPFUmq8vTu39OFwTPD6ol+px7EtUQw2SECkMHrAYwe68XBh4wBZStJJ45pGFN2VZJMO6bRgcf1oPlKHdM9Mg5iGxdplnNwo65PlUcMqbgeegahY8MYCjXrMQmvOSYh0uiU8h1t6vwHMG5P2AqZUmwM9M8gsjCH6YFm+NX2a5EGlmcQ2qGu3z5msVO68wIYlEuxxjSq48c0dGsknTTGpMtLtZ7a1P0dGLPNYlsbHAjf/FAam5xcptz+dY/xxb1CCcMifGZldpHLIzN+Vp7yrdlCxmwgQx49qvURe7JPmD0lXUdDXQndNLbZUy5PAMHhgYTWQUQncz2eYm7TrpJ8DPvsq2oP6pqPY9Y2thE5pURiHj94zlxpoVoCo4dXZkb5nuhCcK96vxZpCNJV1rxS39ZAM4bsDS377Cl1rjWNMjlAvU8nDXWU0Wbr/nYkdW2tFk653fxQGpucXL7c9+DhML76XSN1dZ2+XRBh5Ex0DpPn49Pr5GHVOvF1w+pZj0xNYNbePWV2ccngMckv/HLf5ofS2OTk8jMiIo3fbbgKz9+FtTAee2mhtISBKMbbzO6pwzLlNaFrSZAna+k+MruXZMrtfunisqapkrzCnxHZ/FAaZcBaf7Bwb99NLQ6Jhp/cxCclJQwTq3vK3rU0MBU3sK67l57wGl0wSig19V3xX4gjeYE/WFgeUBplAH8anRQD/jR6eUBplAkyo6WQP49Oyhv5bHHWVHlAaZQJ/O9eSSHhf/daPlAaZYTMbCnEz6ST8oafq/KC0igzZKAy/HHsFwEJyQn5LHHwu7ygNMqM+/eXdd8zxUFyRT5D8lmSzxQpHyiNMkT+kcvTIbsUyFqRz458hiiM8oPSKGPkH74MYHJWFXGKfFbkM8MHjvKF0ihzZMaLdDHIHHvKg6RDPhvyGZHPCmdJlTeUBtHIl7Kku0F+BkKeIuWH5+QXS/P1v/6RjYP8zeVvL58B+SzIZ0I+G/ziHhEoDRKH/G6Q/OCc/FKpPFXK/40g/6kOo3xC/ubyt5fPgHwW+FtSxA6lQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHUBqEEEIcQ2kQQghxDKVBCCHEMZQGIYQQx1AahBBCHENpEEIIcQylQQghxDGUBiGEEMdQGoQQQhxDaRBCCHEMpUEIIcQxlAYhhBDHaGmk+i8fGQwGg8FIDLY0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDiG0iCEEOIYSoMQQohjKA1CCCGOoTQIIYQ4htIghBDiGEqDEEKIYygNQgghjqE0CCGEOIbSIIQQ4hhKgxBCiGMoDUIIIY6hNAghhDhmMXIL/x/96p4KlycQgAAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110075</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 081300 73002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting firm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d0308cdf58f75</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Legal Tax &amp; Accounting Solutions  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Y-14/1 2nd Floor, Loha Mandi, Naraina Industrial Area Phase 1, Naraina, New Delhi, Delhi 110028      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADx3SURBVHhe7Z2Pcxzned/7d7i/pjPNJG09rafpj4yGbhFgBuG5KeF4dLZGiDS6lBER0pBjmohUMrTEIqBJFQFtFFBQpkKMGhYiVKciRAWJEBHRoklBYYBoiIGHAiQSEEGABHUiyCMpngj66fO877t37+7t3i1wh7sD7vuZeeZub9999913332+76/b9+8RAAAAEII/bNlPEA0AAAChgGgAAAAIDUQDAABAaJRozHw0RzAYDAaD5TO0NAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0JRWNz+78ktreSNK3ej6jf3HwujL5Lr8leB8AAIDKpmSicXL6Pv2zP75OX/reNV+TfW9O3TehQfmYpK6aZhpeMptrIBFvpm27hyhhtjcDKs3HJs3W5sZ1LasJmjk7S4lVvVlZJGlxcpIWk2azgihpeVjLPVoaopZ1PpfF5lbyzsaLxusTn6fF4ff+4ia9O5Mye0h9l9+c/RK2XMz0RGlbbJAWzbZDcmQfbWtopwm/Qp5K0NzkCMVb91GsoZOmzM/ZpGiqk+OvCQhz7wx11PM+U4BS89N0Lt5Dh3ZF6UA8d0lJXRyijlgD1dbU0bYIh++dpOS6nUUu0ZB9fI4s0+HLIxpLNLy7jlry5FEQxXQSKq6aCHW8mynfNosDMZVfXefND0XGdS3LI3SgPkoDF/VmEOqY+mYa9WbfhjqpaeqLROjIqeKrRqFlsGjlIUz+hbxHimoSjeXbD+mfPKsFoWP0jvk1G9knYSTsdT6mLCTFcfND/45VmO+xo2yI0KGTfsVQHFaEmvb30HAPC0uQIAjTPdSoHKx/GBGmaPe03jjfSbUNzdTR309djXkcohQmLngdp5YoJUKxNEYd0To6MLLexya/aAQ5vUIf2PVRaaLB93jfCNelvcxTPKZFtiSiERInzbXNnvtWQU5qLRRaBotWHoqdf9UkGjJeIWLQ+OefmV+IPuH22J+/e5f+9OQd9d3hdzmMhP2T/1e+dqsqNLF+mjPJ8m5n4fzOjj5QNFbFYUTpeGdbQBhxfI0Uv2Q20+fK7xATQ5w+zwM/19eYLvgq/UfHaKq3mXbUs9OKxKjjpB1fkmbsffFeOlIs0ViZpPj+GG0XR8pxH+qf5vaWRa796iFpp+Gh/SptwY42fx4lJ/vp0JMR5Ry3P7mf4hcy5Stv/qwmaKJ7HzVGeB+3Ihq/20szAcVTxbVvHx2oiVF83vzocKGHog28b6d9LUmai7dRE1dKJO4dsTY6vWB2GfGOnx2hDpV23t/sOfcCVxDS+7ji0rkr4/BCOhmV5sYYNXFlyVUx8h6fKx/87lXOfHOXo6ljfP8Gxmm0VZcFqTANWPeIlsep77tRU06kJe0pRxbuMlhYHqq4XALiKf+rS3Sa06zKTX0DNbWO0CI/u+o4SasxXTZ1WgbiPdTEeaJ+W3MeV4lo/McXbygh+Pmsvs0iErLt2K8duJ4WjrMfpdRv/+HoDbVdFkzLQrU2VJdRcHeDixyiIYWotvUMpYLCzA9Sk0+3GJeUddWip45FKNanvZYuwE5LJEWJd9spWrOfTq+o3ZQ8uZ9qo210boGvMZWgmT5Oa2Dh9Dw0HlwPrBJKboX1mK6yxDh1cQuoyaQr7371kNRR4+ERmltK6laUL3ny6FI/O8Rd1Hdeu5Hk2U5u8bFTNwKdL3/meqNcCx+kOSkCq0maOMbbh/le6t0uVFzHztDE4Uz+a1Lqt6aBMyqtTv4lTz3Ped9JE8ZXLw5y3qfLgc7r2uZ+mpH992YpzsdGe0xrdHWa+qIRaumbVvmXmtctzHWJBt+zuXfaqLaer9ukxXt8znzwuVe5881djkQ0pIssPs0n53swN8BpauihGbV3lgbkOgfndRlYkXIS/Ey6ymCBeajvZ7BouK4xNU/DzZFMb0FW/jtp6aWp+SQl5Zg153H++1kKNlw0/mGLFofbn+vZUcd/dtclGmLymyBhZPsf8THlRDtSrnX0xtw151wECUJijA5FzMMYEGampyHA6a1DNJSTzDz8quCLYOlNRgpvhI6rZ0HH7+rKWuWHMrBw6oJv16IyNSnPA8vXWisPvu3spbbtjNvk268eEhaze3pXMLnzSAQ0/SAbZrobqNZ2DIH5w74gaR5wB7mHkkazaaPienaMkqpVYV1bYoRbH/toNKHTmhbdexy3fX3GMYwuy4akw2p9Mip+p1Xpk3+Lg+tsaah7lqRzrRFduZEdnuNz5oPPvcqdb7oc2aLhElk7H1hEkivuSoOEr+20nXkGVxksMA9V2ByiodLdO6s3mNTCJE1McuVDNrLyPzsta8/j/PezFGy4aPxzM2PKEY32t3R3lW1e0ZBjyoqqBYtDjBJXQgz6gU87S1dhYuQGZwmCfhBbBs2d9gsjtZ0GcShm28UaRYOb2keiUS7UmfZ37oIv3xusaxTkt6DC6X5ovNgPrPrucsbMCguoiTvffv2QePPTj1x5pPd1vOM6i6oUuNKZwzFIF0Smy8Ax/3Rlrl+3opzasPpdjXN4RINrkzPp7iknbifvs+9DJn7zXQRK71K4riWkk7HjVBUcZ0zPe3yufPC7VznzzZ3HqnvKvn/ecy9Z3VOOeZ8/g+t6CsxD+7vGne7UdD89E5FurTYaiI/TnD6pJiv/s9Oy9jz2HF8mNlw0fvtHCSUEk/NfqG1v99SvWt1Tf/fJF+o3OabcqAKz06/LKAAfQZDuqCi3WNI1Gb8w77ZlandZrEE0klwopantCZu74Mv3EorGcqbg59vv64h8WbtoqHEgO52B+ZNih8atEukycGrRvpUDjX39asadEgpbQCbpuDU+o8Kr7imTPpdjyL4Pdvzqe7FFg1GtbJkpeNE+Pk8+ZN2rfPnmLkc5RcN0F7cMzqZbGxLefc8yuK+nsDy0v2vc6VasOrMnZUwsSkdOmZNl5X92WtxhwuSx5/gyseGicdgMhL/4ZubWiEhI60JaHY5gCE4rRI4pN+7CF4IsZ5Kg0Wa7xuA2xylJX3fwmElI0eCWkfSnSr+vl9wFX8e/1u4p10Nj4cozzo/Cu6fs/Awidx6F6p7Kkz+u6x1v5/vnny7X9ct4mIydxO2uKnf+ZTnLhUF6Jp332U4mX/4W1j3lsMTllvNsdzPF0sfnyYese5Uv3/Lkg512n3IwcZSfIdc9y+C+nsLyUIU9Oq6+a+x0s1icdbcuVEXBiTsr/7PT4g4TJo89x5eJDReNXyw+UELwL59fdvVLevmC90kYCSvHlJvshykPWaLhgzeMdMd4HaeL3A5RwU1aEYxGLuh+0qOuI9ApmpqlNRA+1bOrqAPhziAjJSap78nsgfDA/V5ncWmMjneOrX2ygBrjMYOsTPJ8DzV5B8ID8ydJpw+yA23l895LqYHSrsekK8n/PrvLjK4QSAWhacARc3f+ycDntt29NMMtjVRimuL7JLyT99lOxp2/nkHc2RE6EjQQLrPUOgdpygzu27jTbJBjZUZQ+vx58sF7r/LmmzsfcooGPyNH6huo4+Q8pTiuxVPtFJO0ue5ZBvf1FJiHIir1+2nUNUnESXeCTj/Lz93hMf3nPG5xnDvKlZGDpuWiKl8NdHySr189mNlpcV1nqDz2HF8mNlw0hP9kuqj+8m+skTIPMgVXwnzth67iWzZ8H6ZcrEM0XP/N8CWEaKg45QH3mi5g6jpyiIYU1o2ccjuQniopU2o9fzrMtd/riOQ60wOpNjqPgq5fSE720oFvaAeuptxOZlqyefMnOU0DzewM1LFtNDzcyTVw/wH6rOuXlpMaADfb3rhZ8GXKpjPNtO/UIOe9M1ia7WSy4g875dZ81wPsbrLiNCzy767KQ6588N4rIWe+ufMhp2gwqQu91GKmJTe1DtFoZ2N216bBfT0F5qF6NnZZU317+P7YZWOWhp0pt5K2/f3WdN4Ui4w+Vg/aZ6fFe53589hzfJkoiWic+sV9JQi/0XaD7vs0IuSdVDK2IWEkbHUgNW2f+fzAF9X09/Q/g5A4s7nMJgCFUBLREP5zp25tHBnJfuyb/veK2lcJA+CgEklw030/Daf/+AbCwzXeP99Hx60ZdQAUQslE4+Mbq+o/G2JTC5nmxsgF3QqR3yUMAACAyqVkoiE475f66tEbalBcXofuvPn2T3O8lwoAAEBlUFLRePhLot/p1t1U3xu8RTHzdtuGroTaBwAAoLIpqWgI1249VO+bErEQk+/yGwAAgMqn5KIhOLOpxKpnthQAAGx+yiIagoxhYBwDAAA2F2UTDQAAAJsPiMamw+efpSAvqflJtY4BCMZ+EaD657Trn/JuSpWf+f7h7WJ5liYu4r9eGw1EIwhZGEneAHvBbJcI9ZDIawvSFlErug1fdB7QyhGNtaxjnka99iSq3snjRq4r+BUlhTLVHcm8F2iDUPeu5OttGzyvk6ltiNGh3nH9XqSQrEU0wuWn9xUvshpdO42my3J+1iIaieF9VBvtpTmz7SVneZUFuGYnabS/jQ481kDHs8qhWWXRrKrnXmWRMa8UUa8cUav4jalV/NLYqw9aq/ylmR9xr/PfvbZ7V0ogGgHIwkjRBr6J6dXGSoP7IWFSSVo81WatNlchosFOKvQ65jaOc4t20pTr/U0bKxqlwBH8sqy3rfLVvP9JFi7ilkD8oKwEN+R2TjlYi2iEw/PutHtLNHeqk5rq3Wu+5GItopGTPOVVziPvJTvOonLApxyqJQwaWCjkMFldUFZZTAuUfjmlvGxQOXqzil+js0DTvUk6br0YkVZmKW6v8qfW1OH9zuqEZhXL9a/zv7FANPxQN5Gd9HlZcS375XTqBWu9Q9QnLzpzCnRy2rXedceI9VKpnOslu8kSDUWKzrU6y1TqByfXusepi0PpWovUOLPXBHenxX77aeqCvZ52G40GvRsr7YhCvFTRRjm3GDXF6qjRWXZT4RWNXOtn+9+DXNdtO0TtxNvp9KT9IjyrZriG+2Wj7l2Y9baZxXfa0+eW+6fugb0IlULKob0eiC4H7qVkDbZoOJi3uLrSkqOcZolGjrXTXfkZiH/ZcFbGTL/deXWJzrWb83AtvKU38+JKP9EIKvv+z44hX3lN7/ervPjku3qLrXm5pHoNvmdVPnmteWO/FpVJeVuu+96k3mnLpNWnfKg3IBcs2hsDRMMHVatQN1TXILyKrx6Y+mbqOz9PSVmfUV5PvjtTU0jJmzO5ldJ1Xj/suddLdhNONKQ2G7DusXqVNNfkzpoY5geppT7zYkTXutTiHDkterEgZkHCcuG9JNeUosWTbdza8rYIvKxHNPj88spy18qI7oc19/rZPvcgz3Vni4asac1CwYemEmeoi53zoZPa+6zlftk49y7fetspdihR6x7IW4b1Pdd5mRYJzqOY3Ou08xAR8S6aZfATDWauz3ojbJ5ymiUafH+C1k4vRDTcTpbz92gDNR4b10KRmKYB65hs0Qgu+zlFI02+8uonGvqYLntpDfltpwlnKiETaeFh1Noo2ffDQaU1/aZes0yAZx10l9hXEBCNLDxCIW8ItZyVIA+Mq9YhTV+nVmGQh9VZx3jN60x7Cn5ymmvENc7DLYXaXatRxzhdItI1sWKfzDwkQzpGFfbgWMYBJmZp4uysEg1ZsMhdi+XC3JhZL9uffA+hB8u5zfXFaFuM8009bJ6HNef62T73IM91Z4uGuwUp+9dzv2wy9y7Xets6Xa7VBJUT1ddmlxuJL3asU6+5Ij9IPM4iVV4CRMNVnvKUUzuP1HGu14/L/cmUBVd+BhJUNqx77XMvVC3clGdX+vOUfXfYIPKVV085VOhjAn9T1+DJe7/fHJJ8v7mC4xL/pRE69Nucp3xusZirFV5ZQDS8JEboQH0bTTiF2OmqsvyTPDB2oVOF1dxslzkPFdfwgtdLduMXl+pqSXcjSKF2N2W9D0vS6qZx4kind4lr5I9FVP9tV/8IzcgCM3qHegjs8zrmfli85HsIPdjOTXWfOAsveR7WnOtnZ98DIdd1u5yczwPt2r+G+2Xjug+B623r68zE65jZP82VFOXYk3T6WWlVSP5qR6mcacA6EmFEI185tfNAhXXyQ+G+P678CiSobFhxqXRbaXHMTnO6bOcu++6wQeQrr55yqNDHBP62FtFIcpnfya0K+/ymG9E9poGWxqYh6MGyF0vyOix1TOBaD+tfZ9qf3A+OLqy6m0YVQL+HRLqepsdouHs/NUUi1NQ7zanU4ZwumvDkewg9eK+dnWSjXM+C9BFnHkx1TYHrZ2ffg3zX7XJyPg90Zv/a7peN9975r7ct9y+gi0lY5f0yA2uea6OmhSGtAbmOqU5xJAH3JyCNdvdU7nLqziMVdqNEw+6eknTnWOvDnae5y743//3JV17d16nRxxTcPSXdg36rbMqYhycPVAVhp7uHo1KAaLjQfYvuAsNI37LcVFMovA5LjYHYrRMhXYBMgbPjdK2X7CZ/wc/94KiH0HW8Ltw6vSwWk+M0lW5dMGp1OUmL7pbL6ru3HwRf9PUFP4QespwbO+lOWfa0mR88t1NyxelaP9tnf87r9ji5nKKxtvtlk33v/NbbljJmLwFrSOezHr86sH8/bXfSK+Vvdxt1NLq7Zlz4iYZnIDx3OXXnkboW5/yK4omGayBcTW13t+TtNLnztFyiUeBAuGDGxtJjNzZy7zzdhko0PL9VChANG+ka8O0z1n37He9qd5rlsEw3S3q94NQSnTvcSIfUuEgh60z7kUc0LvaqmvvANNe47yVoZmCfminjpHemRwZ5+2lGBjS5xTE3wMc6UwdVrV8PfgpqoPQxa0DXF7+HMElTA52uZVXT+Dk3NSWRnZD1sOZeP9vnHuS5bpeTyykaee5XwettG6fJrYm4+b9CcrqfWp5kJ2rUWsXDac+Me3D5auA4ctTIXfkq4zvz49S3iysB9pTbnOXUnUcqDWFFI+z67feWaCb+PMVcU271WtuZMqnX4m7qkdavN0/LJRqcVa4pt0m9Xnh6rNMz5dZMqc1UDPh5kMkUQdOfRXTUOugy6YC3pbxLi6RCxzUgGhYz3Q2Bs2RUM98MIGc5LMFe71qmDdp/zsm5XrKb/AU/j2gwMutJ/QlJpWOM4getWpJnOumO5nY6Z01ltdfTVutWj+d+BP0fQvObGYR24ScaTIp/b7QfVm7KB6+f7X8Pcl23y8nlFA0mxFrNBa23zSyOZMZr1DnsP7ypWVOZmUqCTFLIzKLyQeWr3FNtgX/uy1FO7TxQ1+I6Xw7RkHP7ThTQ5SCTLpm+7PPnvtV5GrXX2m4dojkTxJ2n5RMNcfyuP/c199CEXQY8f+5zPf+qzDh54Lb0efDnPlDVSI02aGroZgfrbWeB9durC4gGKDqpaW6tdHoG+7YEWG87G6zfXm1ANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNCUTTRW/ipOd8+Pmy0AAACbgbKIxurtW3TpazXK5DsoF/fp5uQk3byrt24P7aQP9wzSbb1ZFJaP/Qp9eGzSbJWSSZr7yk5auGY2AQBFoSyisfzf2+jDr7AzYZPvlYJycCZd2fYDWjbhtg7sWGu+TJfGtHBDNAAA+Si5aHxxdSHLIVdiN9VGONBKB6IBAMhHyUVDuqREKG782Y/o+out6vuVnb9r9lYOgQ707jRdOfBNLXg136TLb16hB2qHdlJX3nyZPv6tL/N+tu+8TDduX6HFNiv86BV6qMJrhzr7kxM0/51H9P7f2ktXZu+bvZqbp39gxfcDunbV7GD08YM098Svp9P6+ewgXY458fmdzw4vaf4VmjM+PXPNy7Swh8MOXtE7hMv9NPOVPXT1ptm2ufsRLTjX+Mgj9PHx9yi5qnd5RePh7UlX/l0anKbPzT7pLrvx4z00U8P7vvLrNLNX8s/sEgLzXpBjOf2PmH1DL9OlDRIN6VIN062KrlewFSmpaNz8aZ964J2xjIdsjoh81v9jE6oy8BWN1SvsTL9MH8c/ohQ7xdTVk5z+32SnK45eO+CZI6dp5S7Rg5uTNP+EcWCnr3D4+5R87wfsePfSoolUOdSvv0DXPrlPD1ZvUWJAnN4LdD2l93/+8xd4/366evk+PeTjb8b1/mtmDEId/8hOmp+8Qndvc5jbnJ5HttPce7eUM33wySB9/Mg36conAeEDRSP7+tV2ywm6Y7YzLNPV73yZZo69R3c4Tx7eZsfO247guERj9SO68gTve3lShX1w8z2a+zqL08BHStjuju3n6/0BXRdh4vy4fmx75pw5857ozuhenZdXOS9TyzovN0g05r61Q1kuUZB9EqaSul8BKAYlEw3plpr9Ktdw2UndOvG6+ZUdxflx9Zvs++KqVbMtM36i8XDyB/Th4/30mdkWPhtooA+7xSmKA36CFqyWwEr8Cfrw9wdpxWw7wuI4aXGos3Hrmlenaf5rLKo/F0eoa/sfv2k7plt0tYWPGdKjK3L8DDvcNCwsd2+y0zSb6TiGA8LnEA26eYI+TjtdfV53WgyqBcLO2gid8PDySZobnCTRNls0VP597SW6YVohwsPpl2jmkR/QMv+mzv/86UzL4+ZHdP29j5Ro5M57n7xafY8ub5BoyMw/KbNBwuEIhpTp+xd/YX4FYGtQMtFYOvhH6kFb+v6z5pcMV7+7W+2rpG4qP9FQv3E6s0w5RXHAbieVHYePaBgBcLje7vwmYRvoymX9u0Pi5d9MO2G/4+9etLqnjNki4w6fQzRsoZAWTFDXlDhzlzC6sUVDxd92mix9MXGbfLvG37/1Zfrwib10efAEJbjV4HSt5c/736T5izqsJvt+FJMg4YBggK1OSUTDecCkK8qvNWG3QiplUDzb4ZvfnjupatDZZDup7DjcTjrbid+na225RWO5m51qkGhcG6TZr0j31LLqwuEQqga+PtEguvPmHnW9t6WbzLdriilUND61WzQMt5ZWpk/TQvdemq35Ms3+eFqFz5/3pRUNwSscEAxQDWy4aMiDlBm3+AvzazayzxEWu+ZWLrIdPlHqPXae1piDgp2zrg1nO6m1i8ZHdOXxtXVPuY4XB+463xVa+P31i4bTwrj03Jf9u6YEv+6pT6fp+oUrytnbopG7e4rF4sJ7dINbFw5qn5nqnDvvS9s9ZWMLBwQDVAMbLhrOfzJEDPIh3VMSthIGD/1EQ405fF0Pdt8Wh5W6QteONNDHo+LW1icazuBteqD7a+wkjWPUA+HW/uG97GB52xoId4nA7MvsZHfSlellun93mRKD3FLg861bNFikFp+TbqBcznftA+EfD0ybgXA9WcAZCE+8vJ0+/E4/JSQBcr2DnJ6vv0wJdWyuvM8eCF9+WWZZbbxoCI5wQDBANbChomH/JyPMILc8cE74cndT+YoGI1NG5/eyc5N0uqaXrk80ZrsHac6Zcvut/bTgnXL75gs0a0+5NTOhhGwRYAc2yuFlyqpK22laeD4z+L120TBdVD754MKecqum0U7SXZUnHtFgXPnnCUury3T9uDPlNnuKcXDeC6WbcuuHCAcEA1QDGyoaTreU/CcjLJX8341i4+f0K43lY9xqqPA0AgBKx4aJhvc/GWGp5P9uFJtKFo0Hd2/R3Vn5n0fArCkAQFWyIaJhz4YqxCSOSvrvRrGpZNFQs7QeaaBL1j/KAQBgQ0TD+U9GMawauqkAAGCzsKFjGgAAALYWEA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaMoiGq+f/4KiP7qrTL4DAADYHJRcNKauPKTatjsuk98AAABUPiUXjcHxL7JEQ34DAABQ+aClAQAAIDQY0wAAABCasogGAMVjkrpq6qjrvN5KxJtp27FJveFDan6SpuaTZmvjmDpWl0nH0hC11HTSlN7KZnmWJi4mzAYAlQ1EIw+uh99FiqY6o7TN6wxWl2iiex81Rvi4mgjtiLXR8MWMk5rpbqBt+0Yo223NUzxWR7HeWbMdjEoTO8psa6bRZR0mdXGIOmINVCu/R6J0oHeSkqt6n5slGt5dR7XNQ+R1W8oB787+vaic73RdQ21DjA71jlPCN61+rE00projVHtwzCf/bXSc6XTVN1DT/l6aMHkbhrWIRmJ4H9VGe2nObANQyUA08hAoGtM91KiciuUMWDCGmyO0fd8gzSwlKbmyRHMj7RSrj7JTM27qUj/F2LkPL+nNNPOD1FQTo/i82V4jyRF2PIfPsJQx4qT4nB2nliglzndpjDqidXRgxM/9a9EQgWsZcieqdKJh8nA1RUluCcQPRpWILYYSjrWJRjjccaaS8zQ18Dw11vN9W9C/5WNNLQ0ANhEQjTz4isaqtAqidLyzzSUaqXfbuKbM2/fMDwblyGKDtKi2dIuiJe520IsDMV8HLef3hs1idZr6og3Ud0FvJob4fJ6Ww1xfY4Az1aIRi8Wotn4/nbYOyhINFsVz7c20o57zhGvfLU7rZWWMDrmEkNPTUEcd7ygJY1J0rpXP0eejiLZoOKjridChk5nEpC7006EnIxy2jrY/2Uaj6ah8ROPoGE31mnRGYtRxMpN/gZUAF+44HWZ6WMyetVopQfnBZItGO52e7KWWBrmGCDW1jqVFsSTiDECRKLpo/N3cKg2c+0J9BnHn/i9pePILZfI9CJlVJdNxyzm7ys/JyENe28q1eo/Dm+pkh3B03GxZLAzSM1bXUbaTYCFp9G8JhBENJVZpUfJn6ljE32kb0WiJz7Jjj7icojudSZo42kCNx8a1Y0xM04A6TtKm40iLhGpN1VFtOt9ERFjUps2mjZ9oMErkJI9lg/OvRWr5l3iLWyOLJ9somhZnH9GocVpZKUq8207RGhbDFb2/ENHQ19VG59R5c+WH5zxKNOqo8TALBV9CKnGGulhUD53UOQ3RAJuJoorG//H8B0O2vYhINHbfTYf53Zfu+QqHzKqqs+Iq1yyrLCeT4Fp1xNTIXQ4vQaPNAQ7+3hnqsGviiRE6YHdFKWeUcWw2+UVDWi4R6njXqdX7wPE3eVoRGRzR4HMkOZ31HNc7Ps5MOT7HYWpS73BLy7RoxMnXdup8kuNixzrpUEMPzcgPqruM88mvHhEgGva5swVPRDZCx9XpfETDERuF7HfCFigaKg/MfcyTH9mi4Q4r++38gmiAzUJRRePRH2XEQEy2vUjrwg4jJr95kem4dhjZLgduJ5NUtfGWQePE1ysaHM/pZ+uoaUA7wpmehsx4BKOcCDstP8tyZBd6uNbNzjmoYbcwRkei1phKFpZoMMmT+6m2nh0cB3c5M3WtPmly9k9zOhr7aU5dm7QqJN5Gil8yztTlyC3yioZOn9+5dV74iIZLFNz7iyYaefIjWzTc12jvh2iAzURRReObnW5HL9teNrNoSHdUNGo5aI/DC9s9JShHqrqUpOvG01JIySC6tnOH6+iZ/tn0thrYTpNgBx1Ji08WSXZ+URa5nC0Vt2g4cUb5Oua8ouG0HPxY5XPV8zXOs0CacNL6kHglX5yumCwCRCPTPaXTF3h8KUXD7p7Kkx8QDbBVKapo/NXfPnA5etn2Il1R0iXlhMnVPWXHVYruqZm+GMV6bIeiB3CjPdIZr1sSvrVLNnEw4QbCDdL6qI9RfCh3S0GcS6DTlxlX3CqY8JxPsTqvZnK1DAYIShqvaDDi5GRgl1sKaWfmN7vLlWadVwf276ftjrMUJ7u7jToadYvDFz/RcA2Ep2jicMTVElOkz1060XANhOfJD4gG2KoUfSD8F1cfUvxvvlCfQYhISOtCzE8wHEo9EK6cPteW49MJPYh6tpMaa6L+A7iC1+FlTblN0iLH0WRPubWQvnoRnGh30Am0c/EXjRTva/A/1qSjkZ2Sb5eQCx/RYGQGlvqPR9qZ6RZIbXM/zcjYy2qCRbaZmlhQvd1qmVlTehZVzhaKnYdqyu049e2S81hTbtX0Zj24LaQWxqjjMWeMZv2isXiyk46f9BNV9zEy5Xaiexdtd025zZ0fEA2wVSm6aGx2FkfaqElNi5Q/mjVT33iOR9m3luz+c19tfR3t2D/i/2c1GY+oyVELZ5Kz4zS14OP6vYPpNipdcn6v2eMqDv6i4QiPy5lx62W0NaanmKppo0M0Z2uhz4C+CGNmFpUPnrQG/bkvOdlLB77hd1/WLxry3RmMdqOPSacr6M99OfIDogG2KhCNjWZlkvp2suPc2UNTQd3yoAwkaHRfrrESAIAfEI1SsJqgqUm/LiZQNhJjdOTZsP86BwA4QDQAAACEpiyiITOhZAqtWLn+tAcAAGDtlFw0ZCaUPZVWrJyvCQEAABCekosGlnsFAIDNC1oaAAAAQoMxDQAAAKEpi2gAAADYnEA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGiUan9+/TzAYDAYro33+ef7PQkziKIJBNGAwGGwzmyMIfp+2OeELNIgGDAaDVaLZzt/5LMTsuAswiAYMBoNtBXOEwf60zQ5bgEE0YDAYrBLNdv7OZyFmx12AQTRgMBhsK5gjDPanbXbYAgyiAYPBYJVotvP3fq7HnHgLNIgGDAaDbQVzhCHos0gG0YDBYLBKsHxOXz4LMYmjCFYS0fjpe0n6tT9epi9971oo+3d/skwnJm/7xgWDwWAwyxxB8Pu0zQlfoJVENEQE/MQhl4nI+MUFg8FgVWG283c+CzE77gKsJKLhCIHfPj9ba3gYDAarenOEwf60zQ5bgJVUNNZqfnHBYDBYVZjt/J3PQsyOuwCDaJTV5un1pjr64Tm/fVvV3qcf1uyh1+f99sFgsHWbIwz2p2122AIM3VNe+3SaXn/hKdpRX0fbaiK046nn6NX3E/5hC7ZcoqH37X113mffZjaIBgwWymzn7/1cjznxFmglEY21WvlEY57e2BOhx1vfosuf3qbP796mqx/00d76R+ml9zdiNhdEAwaDFckcYQj6LJKVRDSOjqzQ0TdWfPf5WdlEY+E12lvzNL1+yf37VOcO2nb4THr78ttHae+OiG6J7DlOE8sm7Lwcf5Tefv94ev/TL7AA3c3EdfmNVno6wq2Y+h20t/MVeum/+IiGikdaOsaaXqOrzvFv2ec+Sj/zpFWbFpyn+2czv13so6dq9tIbS3o7VzwT7R6xUulxHL12+j95tVtdR7aomf0nMnmwo+UV+vBT9/5XT5+gF5/I5OFUej/b8vv06nNP0Xa59shT9P2+D+iWsy9EHt+a6KPvq7jraPsTrfTGbGYfDFaxls/py2chJnEUwTZcNCYv30mLQFjhKJto3P2AXt7BjvD4NN2wnJBtt84cpUcfPUbvifO9u0RTx/dknLpx9qqlcpvDLv01/ZDj+/4bpnvrg256vJ4d5gdLqhVz+a1WepzDh21p3Hq7lWofPUhvXNStoA9f2UO19a30M9vhGrv6qpUuZ3vvCbrB3/PFk1806qhWxHI2QTf4OtPhlOn9Kg9u8vbSB/Qqt95qW//aOH7n+D6akjy8OU2v8nU+2vWBPv7uLL36FAtB1/v6HiydoR8+ygLYawQwXx5feoVbhpxWc20i0o/uOEYTkhZ1fhhsi5kjCH6ftjnhC7SStDR+cu72moSjbKLBduvCa9T2La6lSg33aB/9bJodfHq/duQvvm11Vd38a3qRHeobC/xdOTR2vpaDEgdce+x98z1Cj3Ya56iM4/NraTj7XKKht587Yadnid7Y61fbZ1s6Qc+lHb0Op4/NH09+0XicXr3oHOs12e9prU1006PpfMk+XgnaHiNw545R7Y5umrJFW46vZ8cvv4XI46ccgVHGIvR4hF56PxMeBtsUZjt/57MQs+MuwDZENBynH2T5hMMJ57evJCY11A9O0Ksv7FED4tufdrpPdC053W2UNuNQlUNj52bFJQ5tW7s4NO2s0zViZfq3cKLh76ynunaY+N2/u4Ri+S36frprKn88+UXD+e5nPvvvcmshx/F2q0h9f8FplRhT6TfHhMjj7PsTlMcw2BYyRxjsT9vssAVYWUTjSKWLhm3SXcKOSHefiMPbQS9/4BNOrAyiMXGMW0W+onGfbpzYS9ta3qKrb7emu6bCxFN00TCtsaDj84qGGmsyx6w5j2GwTWq283c+CzE77gKsJN1T8u6psIIhVi7RkL7+bd6uEbbLrzxtuk+kv90zwCzmhM/p0OR7CbunxEwL4/stEeu4/PFImr/9ShFFQw3C291TwaIRrnsqKI9v03ut9viJMc/9hMG2pDnCYH/aZoctwDZ+IPzS3TUJhli5ROPzm+/TS49G6OljZ6wpt69RG/+29zXtRG+88RzVymD2BV2bvSFTcp9gJycDwnlEwzsQ/uGJgzkGwu/Te4e5hXPsfbp1W4+h6AFsdr6XzAD2a8+xM+Vtn4FwbQl6u4XP73HS+eJRTvypbppQA9Wz9LPWR604wohGZqD689uz9PoeFkvOg8xAeA7RMAPhe3s/MAPh79PLT3gHwvPkcc2j9OJb+n7duvQWvfit5+htM2sMBts0Zjt/7+d6zIm3QCtJS+PIyEpowRArm2iILU/TG0f30uMyLZad3/bfeZpefHXaVXO9fKKVnlbTPfWUzteNgOR1aGyhptwau8WC9G0VNhNn5txmqmye6aSqi8qaReVYznjuztPbBx+nWr6+2h1P0YtdR+nbaxKNp+mlV7rTU2KfOvha1pTbQNEQW36ffvKdR60pt2YmlewLkcc33j9Oz/2Ovj+1O/bQy2fsVhUMtkXNEYagzyJZSURjrVZW0dhiJl1igd1XG2L5RAUGg/laPqcvn4WYxFEEK4lorFUEIBpFsJsJujEt/1nI/KGvNAbRgMFKao4g+H3a5oQv0EoqGms1v7hg4UzNhqp/nNreKGUrQwyiAYMVxWzn73wWYnbcBRhEAwaDwbaCOcJgf9pmhy3A0D0Fg8FglWi283c+CzE77gKsJKLxawfWvtzrv23Fcq8wGAwW2hxhsD9ts8MWYCURDXn3lIiAnzj4mYhMPx/jFxcMBoNVhdnO3/u5HnPiLdBKIhowGAwG22BzhCHos0gG0YDBYLBKsHxOXz4LMYmjCAbRgMFgsM1sjiD4fdrmhC/QIBowGAxWiWY7f+ezELPjLsAgGjAYDLYVzBEG+9M2O2wBBtGAwWCwSjTb+TufhZgddwEG0YDBYLCtYI4w2J+22WELMIgGDAaDVaLZzt/7uR5z4i3QIBowGAy2FcwRhqDPIpkSDQIAAABCANEAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQbJhpvTd2n/3D0Bn3pe9dC22+03aA3+bjNxyR11TTT8JLZ9HK+k7btHqKE2VwviXhz6HhU2GOTZmuNLA1RS67rAQBULRsmGv/60LKvMOSzf/xH1+gXiw9MLGVkfpCaahqo74LZzglEAwBQHWyYaDgisBZ296+oY7565AalVs2PZWKmp4GiDQ1Ue/gMpcxvwUA0AADVQUWJxu3Pf0n/5r/pFsqhE7fNr2VgdZr6GmIUPz9CB2ra6Nw983uaJM30NtOO+jraFolRR7yXjthONjlNA80sODV1tP3JNhrufT6Hs0/SXLyNmhoitK0mQjtibXR6wezy4BWN1MUh6ojp89RyejtOZry8Cnt0kE63xmg771fptPYLi++0U4tz3uZemloxOyAaAIAAKko0hL+d+4L+/j59rHwvB6l326hWOecUTRyO0IERt7tPntxPtVEWkwVug6QSNNPXzI7bcbIJOv1shBoPj9Gi2j1N8WZ2zAGikTz1PMfVSRNm5+IgxxUbpEW96cIlGitjdKQ+Sl1nzYHzg9RSz0I3rzdV2JoodZxa4lZbihJnO6mxJrM/Nd5OUee8q3wNLILpuCEaAIAAKk40hCMjSXWstDqk9VFaPEJxoYeiLie+RMO769xCsjqe6Z5SDncfjVq7iR10YEvjXpKSdkvGOOzRZbNt4RINFoLkit1xptPVMqTPolsa4+q7JkXnWuso2jPN33XYjnes4++doQ7nvBANAEAAFSkaDx4S1Xd8qo7/9k+dPpMSkRihA/VtNOE4cqerytTQ9fhFA/WJ701jjWnI+EVDD83oHZpcYxqrSZpJd0/VGfN32C7RYJJW95RzbEtcH6jCesY0Fgd3md8kvZljMmYLH0QDAJBNxYvGH/SXVjR0t062Q412OypRXNFQ51PdRKbWn8Nhu0RDhdPdU3rSgGlphBYN7zVYQDQAAAFUdPfUV14odffUPMVjEeo6bzYdLvVTTITAcs7F6p6aOpZx9IqFQXomjGhkCRGna6dHNAK7p+Q666hpIN180jgz1iAaAIAAKnog/NxHJR4In+6haH0nTWVN92Un2xihjnd1a8A7ED7VsyvHQPgk9e0MHgif643yvl6a4ZaGGjTfJ91UIUTjYi81criBaW5p3EvQzMA+NUvKJRo5BsLVNdQ3U/xiUm9P91PLkyyMcokQDQBAABUlGuWecjvTHfy/jLm+Rtp2cMzsK+KU29Wl9LTY2oZm6js1yHE1UvyS2W/hEg1m8WQbNUU4DfUN1NI9RvGDdRTr06qgWxruKbdd77hTsDiSGUtR6TQCAtEAAARRUaJRSX/uAwAAkM2GiYbTYlirVcxrRAAAAGSxYaIhLyz86hpfWPjv227QyIXN+MJCAACoDjZMNAAAAGw9IBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAAAAgNRAMAAEBoIBoAAABCA9EAAAAQGogGAACA0EA0AAAAhAaiAQAAIDQQDQAAAKGBaAAXqS++oJsrt2np2g2a/2SRPrr0Cc18NAerIpN7LvdeyoCUBSkTADhANIDi1u0kXVlYoktzV+j68qe8fYfu30/R6sOHJgSoFuSey72XMiBlQcqElA0pIwBANKqc5J27qla5sHid7vB3APyQsiFlRMqKlBlQvUA0qhipRc59chViAUIjZUXKjJQdUJ1ANKqQBw9WVXcDHnywXqTsSBmSsgSqC4hGlSEPuXQxJD5bMb8AsD6kDElZgnBUFxCNKkNqhxAMUCykLEmZAtUDRKOKkC4FdEmBYoNyVV1ANKoEmfEiA5gAbARStjCrqjqAaFQJ0veMWVJgo5CyJWUMbH0gGlWA/ClL5tgDsJFIGcMfALc+EI0qQAYqN7KV0XfuHu199RZd+Qz/Hq9mpIxhUHzrA9HY4sh7g+Q1EBvBL39JtG/wFn3pe9eU/asXlunyp2udfpmkuXgbNTVEaFtNHW3/xj7qG0+YfaBwlmh4dx1tOzapN6d7qLEmQodObkweS1nDu6q2NhCNLY68cG4jZraIYDzzykpaMBzb+eObJkQ4kif3Uy07saajQ3Tu7BjFX2jk7Sgdn0yZEJXOJHWx2LXEK7WG7RWNXorVR+jIKSMa5ztZrJtpuEjJl7ImZQ5sXSAaWxx5U6m8eK6Y2ILxT//rdZdo/NnptXWDTR1jh7ZzkDJDqAmaOTVJi5tFMzabaHgpsmhIWZMyB7YuEI0tjsxokTeWFgsRjD/4iRaM+MTn9PPZFP2DfVownnvtlgkVnsWBGDutKHWcWqJUVs+Wn8PzOOnVJE3176emCIfjFsuOWBv1Hd3F3ztpSofgTBijruYGbsFwmEiUDvT20BGXo8/dRZa6OEQdMev47nFKSFqVw5XzOubvfBPjPXTgGzpu1/GMEs3dvTTa20w76iUObnW1DtFc0HhycpaGW2PpsI3f7aGJZbNPWNH7t6tzxagjPkmjrfzdycOlIWrhfV3nzbnTaWfbPcSSXRhS1jCLamsD0djiyNoIxXq9+SpH4wjGwPv31G9Dk58r0ViPYChWE3TuqHRJsdMSh9o+QjPpP6znF42Znqhyns+06+6tYRYMFZcjGokxOsQOtvax/TQwMk4TI710IKqdpBPHYryZausbqWtklhIrSzQTf54a011k09TXUEfR1hGaW0rS4vleamnYRQOT7NUTszRxtp8OcFwxTvfEWW4h6WzJsDJOXY810pEB3rfCx5/tpCZOT2PPtNrtOO7ane00fGqcxWMfn7uOmgbm1X4Xq5wfzRG+lnYanV2i5NI0DR/k64/ytcp5Vzmtcm2RXdQVH6OJU0PUtZPDi8D4iEZylvOjbx+fn699mL9PsnDrUOtGypqUObB1gWhscWRRnWLwgAXj9/7iZpZgrLeFkYU44Hg7O2SukbMDP35eqtp5ROPeGepgh9jUZzvYJE0cbUiLhmrJ1LfRObvmvjCoHKeKY5Xj4zhivbNmp5Cic1I7bz3D3+YpHmOn3txLU/NJn9ZQyO6pVJKSLBpJ9soTRzluU6vXovG8lb4knX6Wf2v2qfVzy6aWHfzARbMtSB7w+TveSVHq3TbeH6P4JbNPECFh0fMTDUWRu6eEYpU5UJlANLY4xXiARTCe+F9aMH58VgvG4PkiCcYqOzu7eiu1aREK5TTziIbXARoS3HJwREN3/3gdcHYcrm4ax5zjkrM02r2fnnlMuqi83Ud5RIOvZ/RZ07WlzNT8bdHwpM8/zc51OfG4Tc5vX7eNig+iAYoERGOLU2j31Bdcsw4SjO/+ZaEtDF0LrlU1+gyZmrgRDXt/YkR1ByknbWrZuVoac32NuVsaprVyYMTtohOXZilpWhWJ82M04+xOTdNAI6e50xGy3KKRGBJH3sy1f3MFq9ySkFbMOkRDtyT20ai9YzVBc7P6h0poaaB7ausD0djiFDIQLoLxrf/5mRKI4z/Ts6L637uXFgwZFC8UcapSe48920ujZ8e5Rr9LDeI6QjDTIwIgg9cjNHFqkI48pgeUHSftHdPQU3bZSQaOafTQM2rQPBPH3ICMg1jjIu2Shgi1DPH+pBaV2seep/ipcToXb1djElEzJiGicVz27+zk9I/QlO2wGZlSrAf65ym5skRzI+0U4/DrEQ1anaf4Tr5+e8xil3TnNdOoXIozplHvHtNQrZEg0ZiULi9uPXVy/o5MWrPY1gcGwrc+EI0tTiFTbv9wQP9xb6MEwyFxNjO7qLZBZvxkavnObCE9G0iLxwC3PtI1e8/sKek6Otfr6aaxZk/VNjRT3/iIp3WQVM5cjaeYMF3s5NPYs6/qG6ilfYwWrbGN5LssJOb8fRfMjw7cEpjozsyMavxuL/Ud5O/rEQ1BusraM/HtaG6nc3ZDy549xWltapXJAfw9SDT4LBPtTv72ZHVtrRVMud36QDS2OIX8ue8b3Qn67R9p19V75u6GCEbBpJZo5qLbvc50c+uksZ+cnvXk7DQt2t1TpotLBo9BccGf+7Y+EI0tTiGvERHR+NUD16nhfySUYOz56UplCQalaKrTdE91y5RXT9eSIDVr6T4y3Usy5faQdHE501RBUcFrRLY+EI0qYL0vLDw4dFsJh9iB/3ubHlaUYBic7im7a2lk1jWwrrqXvhvVXTAsKE37e91/iANFAS8srA4gGlUAXo0OSgFejV4dQDSqBJnRspGvRwfVjZQtzJqqDiAaVQKWewUbCZZ7rR4gGlWEzGzZiNekg+oG5aq6gGhUGTJQmfgs/UZAAApCyhIGv6sLiEaV8eDBqup7hnCAQpEyJGVJyhSoHiAaVYg85FI7RJcCWC9SdqQMQTCqD4hGFSMPvgxgYlYVCIuUFSkzqHBULxCNKkdmvEgXg8yxh3iAIKRsSBmRsoJZUtUNRAMo5E9Z0t0gr4GQWqS8eE7eWFqsVf/A5kHuudx7KQNSFqRMSNnAH/eAANEALuS9QfLCOXlTqdQqZW0EWVQHVj0m91zuvZQBKQt4lxSwgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaJRo+C35CIPBYDCY19DSAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEBqIBgAAgNBANAAAAIQGogEAACA0EA0AAAChgWgAAAAIDUQDAABAaCAaAAAAQgPRAAAAEJpbyTv0/wGW2IBKU/KMzQAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Website Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d1be6bdc70bc9</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ASK ACCOUNTING &amp; TAX SOLUTIONS  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       RZ-726-A, Street Number 7, Puran Nagar, Palam, New Delhi, Delhi 110077      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADdhSURBVHhe7Z2PcxtHdufv79gkdb+SSq7Kldu6/LiUi3vFJe8YYS8nbLaEXZcZu4w7xeJKC2+sFSOHilZWGMqSw5C7PNLhKSdmmeWaMc/wMWKJtmhxLVsriopCxCUeNjJpS6RFkRJlWJQgSoIE+d17PTNADzAAhsQPgsD3U/UKmOmenp7G4H371/T8Cyoih05E6Uvfu06vvh019xB9GonT0fdXqf2dqPpuIdsSV47ZGJZoZGc9NQeXzG2i2HttVOftoul75o64EaexK0Qxc5cr5oeoqaGNpqx0dOLzNBLwUPPQvLkjSfRkC9U0DtCcuS1MHaknX2/Y3LKzOOinus6QuWUxT8FGL/VfNDczMNffSDV7Rim19OV8dXy9wnRnPdVo6UeCAdu2Ope/npoGU65F/cwxmjrkobpDZ+xll7wF0tK3k/770NIwNTd4qXkn533nMEXUzhB11+6gkQW1oVD5tMLlmFr+TVWIQdp5VZwAjahTpadHlwfIX9tCp1f4qj7geyT1t025JlueM6B+u9SyycaFLqpJuY5U5NwvDKWUl+26rO8GaXldGKIXtDhp4bb07NjKXLFEY3yf+3YGuOysY4zftPuCimAw2Z68rmVJfw+NJROxX7d8TznHyPZkHtPvzwzkLMsc+VRlaYW7iWsvs/Sy0tMrL/6ouYWKKho/X3ykhODXDyxTTPsjpfKQwySOxJVjNgYHp2Tua+o3nODiEP+4vl6ayXIt6cT4z+YlX4+DoxcR4j9SI9/Yjs7iXoiO+lhQ+mcpyueMhvv4T+SnYLq+MGHq93ocbzQRBMshLZ7soqMnHRJQDthHh4NhiogDjMdo8WwXi52PjoaM3C0O7WBh4Zs7FlO/p9OfUoSuriFAwUuG/ETDA9T8LJeZJBHupcZaH3WcMso4tjBOHU+x8zX/Lanp23H6fTgPwwGq4z9Y8k9n/ma9IVVmsXk+h08LX5dosHAGBmhGErg3q36zhIOPc7lz+o2HxknVgWJLNHGokQ6OGrlxJRr8O3d7nYQ9StODXRQMOVSkXIiG+n38vTSt8j3P+fLxMfp12Z3XXB+H7+zj6+Tyj4QpuMejxc9XNBh1j3FZJ46J0un9LCSt47R4j8/Jv1X3U3JO67oidHov/z+4bFW45InLPhF+qY/vpwANhiMUuxehmcE9tIV/K2fRyKcsc+VTd/Ju4trLLLtoZMn3BlB00RD+6w8jSgz+7h+cqtkGf/3BqorztR/YbrES4+yUDEcnP7IRXiMOysEy1goio7Qvk6NXN6tTetpNtTxJ/QGvcox13gD1T2Yoo4u95MvUmlE14wM0wfed/PGtlkMaS5M02OKnreqP7aGtT+2xn29pnA6rP0CAxpZT/5RJFkfbqIkFTK5ly7NtNGIKiBAN9dG+bxhhadeTkr6dDL+PKby2Px2LkZEOX4O/jfqPsBjlJRrsmEZZsNU1cZp7h2hO/w+vhGjwRZ9yWDXS8umZNASEcSMa0dE97NyHaNHcTmJe87DDb+5CNKRsTr/MFQZV1n7q6G3XWg7pzkvFb/Wr61C/zakhOlzbSMHLRnDeosEs8v46/ZhomAbN+1vdKyNdfK+20YR1H6eG9x2wXffiSb7XPFa5j1Nwfz35zUqe/f7Msyyz5lN38kzOuPYyyy4aWfK9AZRENE79/IEShN9pu0kPHBoRn9/9gn513w0VR+KCYhKhsT31dPBkedRaQA6kFSMtEOfeyOogpcUpXcZOYpSTzVqWZZbvkoiG8N+6jNbG4dF0Z9X0tysq7Pe4RQKKTIRr4HuHaTGt6weUI7Ewt8rWOn5WUUglp1F1Z6ruysgkdftyt9yc2KxlWW75LplofHIzTr/UfF3Z9EKyuTF60WiFyH6JAwAANqR71ur68/hoX58xVgU2hpKJhtAxdlcJxFeO3DQGUe9+Qf/uT41uqb/kMAAAAOVNSUXj8RdEv99jdFN9b+g2+f/mlvru7Y6oMAAAAOVNSUVDuH77Mf2aOegtJt9lHwAAgPKn5KIhWLOpxDBbCgAANg8bIhqCjGFgHAMAADYXGyYaAAAANh8QjYrC/lRqpqe1DaK0GArRYgme8bM9be3wNLaN5VmauoTndQAoVyAaNozH9esC6U+bZloSoaCkLCkiyz4c7EsuR5GbtYhGmPo9Hjp8KpdqGGkm8tXgpaaWPppKW+IjM2sRjcjIHqrz9dkWaEwQj1FkNkRjA2207ykvHU1dtiVXeHSWRswlMtR1yNpAetlqy7UYzwOEEw9UqWvQyyFhstxJShnp5nAvAbCZgWjYMERD1hZqHrY/cVo60TAdKjvA6HyIgvt9SsTcPcG9FtFwiz3NWHSepgcPUGNDwL7qaxbW1NLIglzPlmdb6Giwl/ZpebLIHm6ssCuLyBmLChorCzf2zRrB5uq8zbytHhxTTx5nF1VZLyrzqrTyJLOHOj6o3me5QWUC0bBhiIbf76e6huTKq0KaaMSXaKI9YCzsJwulWU+prozTQdtiZLJuTD11vGc5jxhNtCYXVLPhtGiaWkHVQwdPJjMTuzhAB581FvyTxdDGEkk5iMaRcZruM/Pp8VPHSStj9riZcY4308titnecEi41U3kw6aLRTqdDycX/9Bp/WjnrmHEy5j1b+L0z1KEtvKeQ5aqtZefVgo7aInmMWnG3NYMoqN8ly3Lzssild62rIQNQ/kA0bJirSQZn2bF7bE7R7syiNHXES42dk2atNEyD6jhxyEYaCZFQzqhee8dFlsXHMqy0qd5zYTmvhSFqllr+Zd6SpctPtpEv8b4PB9EwlyGPSdfNB+3kM98Bka9o2J1stvJwEg1jGfFFvoRY5Ax1s6haCyhmFY0EufLuEG6K1ZTuxNW7IszylrLfnrLKrIhKhryod2g4rkorGK2atHeKAFABQDRsWKLBzi7KNdMGDzt/B2emHJC9VqpW3jT7r9W7K8ylx+U4f2cXHZRap+yQYxvYUTnVQDOIhn7u6U5PSitFXrDkoaPqdA6iYaspS7hz3MxkiKfKwGxR5SiPdNGwx5VwvbyKJxopZavvk7JPPa/TPoV0ZWXpesr2wi0ANjkQDRuaaDDGy4TYwbFu2JyZcu7sCFPNCg/3kk91e0Tp9F5pVUi6RteIcqaZujxyioaRP6dzGw7S7izVcYkWjqCH53K8Fhni6aKRozxyjWno4ZtCNOS9JVm6nmZ6MrxwC4AKAKJhwy4a7MLUW8N8RyZpLlU0rJaDE3F2Wg0BGpvn1ooZT1ofku50l4xPJEYC7GQQjWT3lJG/zO/CsDvLooqG3j2VozzKRzQK0T1l3BMZu54i43SwIdObFQHY/EA0bKSKBiPORgZ29XdQS/dD6pv4bLVOY7B7X0sLbbGcpTjZnW3U0ZgyGKvjJBq2gfBc79i2O8tiioZtIDxHeZSFaBRqIDxH19Oa3/MNwCYDomHDQTSY9HdQG7VN9c5oGVSOR2imP0BNvcl5/cr58THJWVPGLKqsLRRdNNSU20nq3yHn0abcZn3Htt1ZrkU0Mr43PCWeTLmd6tlBW2xTbrOXR1mIBufENuV2ZVa9azrZYkiZcrsk7xVPHbfI8q53IeN7vgGoHCAaNpxFw/Ed1PF5GmtNvku7qXXY/s5oVXO1ZioZyCB2chaVA0o0JD3DMj3cl/kd23ZnuRbREMft/N5wI14iX5ke7stSHuUhGkzKw336e7wVtof7/NQRnLW3GLK9653J/J5vACoHiAZg8N5wAIA7IBqANQPvDQcAuAOiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuGbDRGPl74O0emHS3AIAALAZ2BDRiN+5TZe/VqtMvoON4gHdCoXo1qqxdWd4O320a4juGJsFYbnzV+ijzpC5VUpCNPfl7bRw3dwEABSEDRGN5b9oo4++zM6ETb6XC8rBmflKt1do2YxXObBjrX2CLo8bwg3RAADkouSi8fDaQppDLsduqmI40HIHogEAyEXJRUO6pEQobv7VD+nGq63q+9Xtf2CGlg8ZHehqmK7u+6YheLXfpCtvX6VHKsBwUlffPkaf/O4THM723WN0885VWmzT4o9dpccqvuFQZ398nOa/+6QR/ru76ersAzPU4NbpV7T0XqHr18wAxjh+iOae+Y1EXu/PDtEVv5We0/n0+JLnX6E506cnr3mZFnZx3KGrRoBwZYBmvryLrt0yt3VWP6YF6xqffJI+OXqOonEjKFU0Ht8J2crv8lCY7pth0l1280e7aKaWw778GzSzW8rPDBIylr0gx3L+nzTDho/R5SKJhnSpuulWRdcrqERKKhq3ftKv/vDWWMZjNktEPh/4kRmrPHAUjfhVdqZP0CfBjynGTjF27STn/6vsdMXRGw545vBpWlklenQrRPPPmA7s9FWO/4Ci515hx7ubFs1ElUP9+st0/dMH9Ch+myKD4vRephsxI/z+z17m8Ba6duUBPebjbwWN8OvmGIQ6/sntNB+6Sqt3OM4dzs+TW2ju3G3lTB99OkSfPPlNuvpphvgZRSP9+tV283G6a24nWaZr332CZjrP0V0uk8d32LHztiU4NtGIf0xXn+GwYyEV99GtczT3dRanwY+VsK2Ot/D1vkI3RJi4PG50bkmeM2vZE90d222U5TUuy9iyUZZFEo25b21Vlk0UJEzilFP3KwCFoGSiId1Ss1/hGi47qdvH3zL3sqO4MKn2SdjDa1rNdoNxEo3HoVfoo6cH6HNzW/h80Esf9YhTFAf8DC1oLYGV4DP00R8O0Yq5bQmL5aTFoc4GtWuOh2n+ayyqPxNHaNT2P3lbd0y36VozHzNsjK7I8TPscBOwsKzeYqdpbibSGMkQP4to0K3j9EnC6RrntefFRLVA2FmbQic8vnKS5oZCJNqmi4Yqv6+9RjfNVojwOPwazTz5Ci3zPnX+A6eTLY9bH9ONcx8r0che9g5lFT9HV4okGjLzT+7ZTMJhCYbc0w8u/dzcC0BlUDLRWNr/x+qPtvT9veaeJNde3KnCyqmbykk01D7OZ5oppygO2O6k0tNwEA1TACxutFv7JK6Xrl4x9ltEjn014YSdjl+9pHVPmaaLjD1+FtHQhUJaMJm6psSZ24TRji4aKv2206Tpi5m2WW7X+fu3nqCPntlNV4aOU4RbDVbXWu6y/yrNXzLiGqT/HoUkk3BAMEClUxLRsP5g0hXl1JrQWyHlMiie7vDNfS+dVDXodNKdVHoadied7sQf0PW27KKx3MNONZNoXB+i2S9L99Sy6sLhGKoGvj7RILr79i51vXekm8yxa4rJVzQ+01s0DLeWVsKnaaFnN83WPkGzPwqr+LnLvrSiIaQKBwQDVANFFw35IyXHLf7G3JuOhFnCotfcNop0h08UO8fOUxtzULBzNmrD6U5q7aLxMV19em3dU7bjxYHbzneVFv5w/aJhtTAuv/SEc9eU4NQ99VmYbly8qpy9LhrZu6dYLC6eo5vcurBQYeZU5+xlX9ruKR1dOCAYoBooumhYz2SIGORCuqckbjkMHjqJhhpz+Lox2H1HHFbsKl0/7KVPxsStrU80rMHbxED319hJmo7RGAjXwkd2s4PlbW0g3CYCs8fYyW6nq+FlerC6TJEhbinw+dYtGixSiy9JN1A257v2gfBPBsPmQLgxWcAaCI8c20IffXeAIpIBud4hzs/Xj1FEHZut7NMHwpePySyr4ouGYAkHBANUA0UVDf2ZDDeD3PKHs+JvdDeVo2gwMmV0fjc7N8mnbXrp+kRjtmeI5qwpt99qoYXUKbdvv0yz+pRbcyaUkC4C7MDGOL5MWVV5O00LB5KD32sXDbOLyqEcbOhTbtU02hCtqjJJEQ3GVn4pcSm+TDeOWlNu06cYZy57oXRTbp0Q4YBggGqgqKJhdUvJMxluKednNwqNk9MvN5Y7udVQ5nkEAJSOoolG6jMZbinnZzcKTTmLxqPV27Q6K895ZJg1BQCoSooiGvpsqHxM0iinZzcKTTmLhpql9aSXLmtPlAMAQFFEw3omoxBWDd1UAACwWSjqmAYAAIDKAqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFxTMtF48Iho+J/u0wuvr9B/bv+M/u2f3KBf3XeD6vm77JMwiQMAAKB8KYlo/PSfY/Rbf75MX/re9awmcSQuAACA8qToovGDd+86CkSqSYvD+i7HAAAAKD+KKhpuBeO3//wmxR8T/fUHq/Sv/tjYtzHCEaLu2gCNLJmbhSQeoZmzsxSJm9vlzmbLLwCgJBRNNN7/KJYmDk5W++pndDL8wDyK6OT/e0C/sMcIkzRKSxFFY3mU9jX4aPCSuV3upOR3urOeajpDxgYAoGopimjcf0j0G3+WeQxDRCEbPe8ZLRRJQ9IqHUUUjU0ORAMAIBRFNN78x/tpQqFbLtGQrqrfNEVH0iodhmgMjvZRs9dDNbUe2hroo5moGbw0TM21XTRtbgp2Zxqlmb491OjhfXxs44t9NL1iBqljk4IkxzUPTtJYq5+21NZTnZfPe9E6ERNfoon2AG1t4LQavNTcF6Ko1VXEYaf5OCusqXWUFhPdSFnykIab/EqZSLhl2vVHwxRsMfJf4/FTx+i8GQAAqFSKIhpNf7uSJhS6/Ze//MyMmZm+n62quJJW6TAcZF1ggGYivHlvlkYCHqo7dIZUR1kO0YieOkB1vi6akmPjEZrq9FHNnlF2zYyDaNQ0BCgY5sjxGM0NBqjG20szKjRKU0e81Ng5aQhFJEyDO1lkgsbBc30+zuMQzUmmYvMqj76esArLmocU1pxfvaXBwjWy00PNQ/MU4zzGFsapw+ul7guY/QZAJVMU0ah55aZy+Ds08cjVukjlH648VMdJWqVDRGMHjSyYm8LlAfLXttBp0a4cohEJsuPfP24IjBCZpamzsxmdsL9fq5mb4WPL1vc2mrhnBAmx99qoJjBM4t/VsX2zRgATWwjRVGhJnTdrHlJYa35tonGhi+oaB2jO3BTm+huprkuLAwCoOIoiGv/mJUMoZDxi31t31iUan0Ufq+MkrdLhMKYRn0zuyyEatDROh5/y0JZnW6h7YJRmFrRat4MTtloOCj2cHXKyO0iznYZoxMID9IJHus7aaDA4SXOy0yJbHlJZY3510VCC45RHXVgAABVHUUTjl//khnL4dx98obb/7LghHJnsq3+R3l0V5WMlTNIqHXmKhhCP0WJ4nEZ6WqiJHXtTX1jr2lqDaCS6qjIQj9BcaJSCrTLu4aPDp7S0MuXBiTXkN0009o47tmAAAJVLUbunZq4nJ/lnEw6nVsg/Lz1SYeXXPdVOU8nL0pwpO9/QJE3rtfWLveSzRGYtojE/RE21fgrq48qJc7JYnLW3LqKje8xWSI482Fh7fnXRiH3QRnUNbTSldaEl8wgAqFSKIhrfHjDGMvr1Tnkmk3A4icaxM8ZAuKRVOnIMhMc5vMFDB9mTxriGHgkPULPMYDKd6UyvDFDzsZJla3Db12f0+69FNNj9n97L502kFaGZ/gA19UorwAhrPDRuPHjHYRNHvFS336j1Z80Dx50+NUmLZvNgLfldHNpBNXtYmGIxNfBN8TD1++qT+Ygt0cShRjo4qveVAQAqjaKIhjXlNnWWlEyl1cXCslTRePxFsrWy4VNu9w7RnNYHE7vYRy9oU1T792s1cJmB1JOcwro10E4TVqtlTaLBxOfVdFw1rZbTamodTuYjymKmh7Ww47fCsuVhZZwOs+j1XzS315Bfa/yjhvepwXphJUSDL/qMKbcyLbhnEk+QA1DhFEU0ZLVa6zmLv01pbfz6gcwP/f1u52f04aePEtNt5eE+rHwLAADlQ1FEQ7CWEflFbkXI0iAWb08/oK8cNloRTvabrcv0r/ca30u/jAgAAIBsFE00hB+eMpYD+aXm69TF3x+aXReZuql0k2MBAACUF0UVDaFTW+n2K0du0omLD8h6BiOT/eUYBAMAAMqRoouGcPqS+5cwSVwAAADlSUlEQ0h93au86lVMvuN1rwAAsDkomWgAAADY/EA0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuGZDROOtCw/J98NVZfIdAADA5qDkojF99THVtd21mewDAABQ/pRcNIYmH6aJhuwDAABQ/qClAQAAwDUY0wAAAOCaDRENAArO0jA11wZoZEk2QtSd+O5APEIzZ2cpEje3i4bko566LxhbkWCAajpDxkYaUVoMhWgxam4CUKZANGws0cjOemoOpnsb9YffOUwRc5uWJ6k/4KU6dgo1DV5qbj9DiwknZDiLGt08PtrXM+nsqC50cZwumjY3s2PkUU+7zuung30paceXaKpnDzV6JI6HtvrbaORSNo9k5LmxK0Qxc4/FdCenkdHZFYLUa/JQ44vtNJY1vymsRTSWR2lfg48GL5nbmVC/SzJfjuWclbWIRpj6PR46fAqqAcobiIYNl6IR5z+4z0PNQ/MUEwcSm6eRADu6vlkJZezOQogthSnIcepaz6Q55fWIRiKP8RhF58epw8cOvzds7uM4fK4te4ZoZilK0ZUlmhttJz87yu4LmZySJXQ+Ohqy57BUopG4pnuc31Nd1JQ1vymsRTTcov8uqpxDFNzvo7rAsFZByMZaRAOAzQFEw4ZL0ZgdoubGXprWHIe9JZIuGorLA+SvbaHTK+a2RQbREGednhfnPEZPtlBN4wDN8ffYB21cK+b07hlhFiqP/iFaNLftGHlu8vupxtdLM9q1pYlGlAWwxU9bRGQ8fuoYnVe7Z3q55aXF0/OkUNffRhMp+cp2TXUpeVl8r52avR4uL249Bfpo2ipLB9EInh2ljmeTcWcs/bHFzYLT72JWGA6eTLQ5KXZxgA6q89TTlmfbaMwoDsZBNI6M03RfgLY2mGV30spEhnsGgDKj4KLxT3NxGpx4qD4zcffBFzQSeqhMvmdCZlXJdNzSza5yKRqpRIxWRPNwDgdQRNGIvddGNV52sPx9uosd2JFJI0BnYYheYGc5tmxu2zDzPDlPQb/WamFsoiGtmJ3JVlZsgVs5Xi9fK7dO+DrqEiIRo4lWPk5zzkpE9o5TetshQ7nfO0MdtY0UvGxsxibbyefroin5EWRcgp1v4jdJE416bhEM0IwE3pulIKfvs64pH9Fg5vobqcZqMXKZNjdwWpd5i1sjiyfbyJcQbAfR4JZcx6klLrsYRT7g60ncDxANsDkoqGj8n5RnMGQ7FRGJxp7VRJw/eO2eo3DIrKp6La3SzLIynJfej22zVNFQTsUI89vGAhwcQGyJTrd6nYUnX9FY0runIjQWcDqOUU44k7PU8szi1lTrTzhrm2jYhMFAnGgdX7+VvhKlOKfX0EbdnV6ulRsyMd3JYuOUr4xirZejEafjPa3rTD9fmmgkxUZQDjvgJDBZyPC76BUIuSZ/f6JpwbDoNnroqCou+32gjrN1T0q4c1wAypWCisa2HybFQEy2U5HWhR5HTPalItNx9TiyXXwyOS+7o0jDbGkka+eGA7AJjhrc1bpTdDTnZNRGU481THee9jAPNXVZA7QFEA1mptdHNX4WB05TF42M+VPhUTq913Ts4V7ySatCREY5SnGmdkeexI1oOJWpmHk9aaJhv07b71cw0XD6LQzT82yVqTpO675zuj4rLgDlSkFF45tddkcv26lUpGgIk+2J7qE1OwDdOcVk4NqwiUP19MLAbGJbDbqn5tGhjz2v7ikrzypdPs/QEk2lioZjF5OBhEurQ1ofqoUhQtXA1yaOOlE+qWQodyVyltBI/rzUn+w1s1NC0Uh2Txn5tlpS6djLFKIBKoGCisbf/+Mjm6OX7VSkK0q6pKw42bqn9LRK2T2VUzQu9pG/kVsNKsRERCPRbZPFAYQHqCllEF0fj9Bx2z0lx+sD3/kMhOt5joW6qJGdazOfz3J2Ku2GNprS09auRY3bNLbQQb/llGVsw0MdrQdSumZ0nMvdPhBujLU0DepdQYx17lKJhk2kYzR1yEN1h1KuK1Ee9jKFaIBKoOAD4T+/9piC//BQfWZCREJaF2JOgmFRtgPhqvasTbnN0D3l6ACsY7nKHGFPE4tMUrc+XVbD9ZiGua/J6ltPm3IbpcWzuaawOuU5xq0Wn9HlYjk7swXSeGjc6A6LLXGLiFsVo6pkOJzTkZlB2riHGgDnNDLXyFOu6d4SzQQPpE0RViLSEKCg+fxGlAW4+VkWFfHY6xaNKE0PdlEw5JA3XTTUlNtJ6t/BIqFPuQ33srAag9uCmhjwVAudVieylylEA1QCBReNzY1L0RDmx6nbergv7cG9HA5gfpQ6/NqDgRke+ovOTtL0QmrdPEMelfPSHGXKw3117Mi3toxmeTAtQ56jvJ9FwubsVkI0+KLPmHKbln9j1lRippKQs2ZvXFNyTCDzw32Lo23UpKbcGtNbEw8srls0zPIcTvyySZRoJPOV6eG+aKiP9n3DyFOdN0D9k1Za9jKFaIBKAKJRLbCj79/O4rG9l6YdKtVVi7ScvFnGSgAANiAa1UQ8QtOhjNX9qiQW5laCw9IpAABnIBoAAABcsyGiITOhZAqtWGlmRQEAACgEJRcNmQmlT6UVK93sKAAAAPlQctHA614BAGDzgpYGAAAA12BMAwAAgGs2RDQAAABsTiAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwjRKN+w8eEAwGg8E20O7fz/2Zj0kaBTCIBgwGg21mswTB6VM3K36eBtGAwWCwcjTd+Vuf+Ziedh4G0YDBYLBKMEsY9E/d9Lh5GEQDBoPBytF052995mN62nkYRAMGg8EqwSxh0D910+PmYRANGAwGK0fTnX/q53rMSjdPg2jAYDBYJZglDJk+C2QQDRgMBisHy+X05TMfkzQKYCURjZ+ci9Kv/ekyfel7113Zb//5Mh0P3XFMCwaDwWCaWYLg9KmbFT9PK4loiAg4iUM2E5FxSgsGg8GqwnTnb33mY3raeVhJRMMSAqcwJ1trfBgMBqt6s4RB/9RNj5uHlVQ01mpOacFgMFhVmO78rc98TE87D4NobKjN01tN9fSDCaewSrXz9IPaXfTWvFMYDAZbt1nCoH/qpsfNw9A9lWqfhemtl5+jrQ31VFProa3PvURvnI84x83bsomGEbb7jXmHsM1sEA0YzJXpzj/1cz1mpZunlUQ01mobJxrzdGKXh55ufYeufHaH7q/eoWsf9tPuhm302vlizOaCaMBgsAKZJQyZPgtkJRGNI6MrdOTEimOYk22YaCy8Sbtrn6e3Ltv3T3dtpZpDZxLbV949Qru3eoyWyK6jNLVsxp2X44/Qu+ePJsKff5kFaDWZ1pUTrfS8h1sxDVtpd9fr9Nr/cBANlY60dExrepOuWce/o5/7CL2fklfDDMF5fmA2ue9SPz1Xu5tOLBnb2dKZak8RK5Ufy9EbTv/Hb/So60gXNTP8eLIMtja/Th99Zg9/4/RxevWZZBlOJ8LZls/TGy89R1vk2j3P0ff7P6TbVpiLMr491U/fV2nX05ZnWunEbDIMBitby+X05TMfkzQKYEUXjdCVuwkRcCscGyYaqx/Ssa3sCI+G6abmhHS7feYIbdvWSefE+a4u0fTRXUmnbjp71VK5w3GXfko/4PS+f8Ls3vqwh55uYIf54ZJqxVx5p5We5vhuWxq3322lum376cQloxX00eu7qK6hld7XHa5p197Q8mVt7z5ON/l7rnRyi0Y91YlYzkboJl9nIp4yI1yVwS3eXvqQ3uDWW13rT03Hbx3fT9NShrfC9AZf57buD43jV2fpjedYCLrPG7/B0hn6wTYWwD5TAHOV8eXXuWXIeTWvTUR629ZOmpK8qPPDYBVmliA4fepmxc/TStLS+PHEnTUJx4aJBtvti29S27e4lio13CP99H6YHXwi3HDkr76rdVXd+im9yg71xAJ/Vw6Nna/moMQB13WeN797aFuX6RyVcXpOLQ0rzCYaxvZLx/X8LNGJ3U61fbal4/RSwtEb8Yxjc6eTWzSepjcuWcemmoSntNamemhbolzSj1eCtssUuIlOqtvaQ9O6aMvxDez4ZZ+LMn7OEhhlLEJPe+i188n4MNimMN35W5/5mJ52HlYU0bCcfibLJRxWPKewkpjUUD88Tm+8vEsNiG953uo+MWrJiW6jhJkOVTk0dm5aWuLQatrFoRnOOlEjVmbscycazs56unurmb59v00olt+h7ye6pnKnk1s0rO9O5hC+yq2FLMfrrSL1/WWrVWKayr95jIsyTv99MpUxDFZBZgmD/qmbHjcP2xDROFzuoqGbdJewIzK6T8ThbaVjHzrEE9sA0Zjq5FaRo2g8oJvHd1NN8zt07d3WRNeUm3QKLhpmayzT8TlFQ401mcesuYxhsE1quvO3PvMxPe08rCTdU7L2lFvBENso0ZC+/prUrhG2K68/b3afSH97ygCzmBU/q0OT7yXsnhIzWxjfb/Zox+VOR/L8ndcLKBpqEF7vnsosGu66pzKV8R0616qPn5iW8nvCYBVpljDon7rpcfOw4g+EX15dk2CIbZRo3L91nl7b5qHnO89oU27fpDbet/tNw4nePPES1clg9kWjNntTpuQ+w05OBoRziEbqQPhHx/dnGQh/QOcOcQun8zzdvmOMoRgD2Ox8L5sD2G++xM6Utx0Gwg2L0LvNfP4UJ50rHeXEn+uhKTVQPUvvt27T0nAjGsmB6vt3ZumtXSyWXAbJgfAsomEOhO/u+9AcCD9Px55JHQjPUca12+jVd4zf6/bld+jVb71E75qzxmCwTWO680/9XI9Z6eZpJWlpHB5dcS0YYhsmGmLLYTpxZDc9LdNi2flt+f3n6dU3wraa65XjrfS8mu5pTOl8yxSQnA6NzdWUW9NusyB9R8VNppk8tzlVNsd0UtVFpc2isixrOqvz9O7+p6mOr69u63P0avcR+s6aRON5eu31nsSU2Of2v5k25TajaIgtn6cff3ebNuXWnEklYS7K+Ob5o/TS7xu/T93WXXTsjN6qgsEq1CxhyPRZICuJaKzVNlQ0KsykSyxj91VRLJeowGAwR8vl9OUzH5M0CmAlEY21igBEowB2K0I3w/LMQvKBvtIYRAMGK6lZguD0qZsVP0+7Hb1bOtFYqzmlBXNnajZUw9PUdqKUrQwxiAYMVhDTnb/1mY/paedhEA0YDAarBLOEQf/UTY+bh5VUNJzCnAyiAYPBqt5052995mN62nlYSUTj1/at/XWvv9WK173CYDCYa7OEQf/UTY+bh5VENGTtKREBJ3FwMhGZAT7GKS0YDAarCtOdf+rnesxKN08riWjAYDAYrMhmCUOmzwIZRAMGg8HKwXI5ffnMxySNAhhEAwaDwTazWYLg9KmbFT9Pg2jAYDBYOZru/K3PfExPOw+DaMBgMFglmCUM+qduetw8DKIBg8Fg5Wi687c+8zE97TwMogGDwWCVYJYw6J+66XHzMIgGDAaDlaPpzj/1cz1mpZunQTRgMBisEswShkyfBTIlGgQAAAC4AKIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGuKJhrvTD+g/3TkJn3pe9dd2++03aS3+bjNR4i6awM0smRupnKhi2p2DlPE3FwvkWDAdToqbmfI3FojS8PUnO16AABVS9FE4z8cXHYUhlz2L//4Ov188ZGZygYyP0RNtV7qv2huZwWiAQCoDoomGpYIrIWdAyvqmK8cvkmxuLlzg5jp9ZLP66W6Q2coZu7LDEQDAFAdlJVo3Ln/Bf3mnxktlIPH75h7N4B4mPq9fgpeGKV9tW00cc/cnyBKM30B2tpQTzUeP3UE++iw7mSjYRoMsODU1tOWZ9topO9AFmcfpblgGzV5PVRT66Gt/jY6vWAGpZAqGrFLw9ThN85Tx/ntOJn08irukSE63eqnLRyu8qmFC4vvtVOzdd5AH02vmAEQDQBABspKNIR/nHtIv7DHOFa+bwSxD9qoTjnnGE0d8tC+Ubu7j55soTofi8kCt0FiEZrpD7DjtpxshE7v9VDjoXFaVMFhCgbYMWcQjeipA5xWF02ZgYtDnJZ/iBaNTRs20VgZp8MNPuo+ax44P0TNDSx088amilvro45TS9xqi1HkbBc11ibDY5Pt5LPOG+drYBFMpA3RAABkoOxEQzg8GlXHSqtDWh+lJUUoLvaSz+bEl2hkZ71dSOKTye4p5XD30JgWTOygM7Y07kUpqrdkTIc9tmxua9hEg4UguqJ3nBn5ah42zmK0NCbVd4MYTbTWk683zN+NuB3vacffO0Md1nkhGgCADJSlaDx6TNTQ8Zk6/js/sfpMSkRklPY1tNGU5citriqzhm6MX3ipX3xvAm1MQ8YvvL00YwQYZBvTiEdpJtE9VW+as8O2iQYT1bqnrGObg8aBKm7KmMbi0A5zn+Q3eUzSdOGDaAAA0il70fj2QGlFw+jWSXeovh5LJQorGup8qpvIrPVncdg20VDxjO4pY9KA2dJwLRqp16AB0QAAZKCsu6e+/HKpu6fmKej3UPcFc9Pi8gD5RQg051yo7qnpzqSjVywM0QtuRCNNiDhf21NEI2P3lFxnPTUNJppPBtaMNYgGACADZT0QPvFxiQfCw73ka+ii6bTpvuxkGz3U8YHRGkgdCJ/u3ZFlIDxE/dszD4TP9fk4rI9muKWhBs33SDeVC9G41EeNHG8wzC2NexGaGdyjZknZRCPLQLi6hoYABS9Fje3wADU/y8IolwjRAABkoKxEY6On3M70ZH4uY66/kWr2j5thBZxyG19KTIut8wao/9QQp9VIwctmuIZNNJjFk23U5OE8NHipuWecgvvryd9vqILR0rBPue1+z56DxdHkWIrKpykgEA0AQCbKSjTK6eE+AAAA6RRNNKwWw1qtbJYRAQAAkEbRREMWLPzKGhcs/I9tN2n04mZcsBAAAKqDookGAACAygOiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGsBF7+JBurdyhpes3af7TRfr48qc08/EcrIpMfnP57eUekHtB7gkALCAaQHH7TpSuLizR5bmrdGP5M96+Sw8exCj++LEZA1QL8pvLby/3gNwLck/IvSH3CAAQjSonendV1SoXFm/QXf4OgBNyb8g9IveK3DOgeoFoVDFSi5z79BrEArhG7hW5Z+TeAdUJRKMKefQorrob8McH60XuHbmH5F4C1QVEo8qQP7l0MUQ+XzH3ALA+5B6SewnCUV1ANKoMqR1CMEChkHtJ7ilQPUA0qgjpUkCXFCg0uK+qC4hGlSAzXmQAE4BiIPcWZlVVBxCNKkH6njFLChQLubfkHgOVD0SjCpCHsmSOPQDFRO4xPABY+UA0qgAZqCxmK6N/4h7tfuM2Xf0cT49XM3KPYVC88oFoVDiybpAsA1EMvviCaM/QbfrS964r+/cvL9OVz9Y6/TJKc8E2avJ6qKa2nrZ8Yw/1T0bMMJA/SzSys55qOkPGZriXGms9dPBkccpY7jWsVVXZQDQqHFlwrhgzW0QwXnh9JSEYlm3/0S0zhjuiJ1uojp1Y05Fhmjg7TsGXG3nbR0dDMTNGuROibha75mC51rBTRaOP/A0eOnzKFI0LXSzWARopUPblXpN7DlQuEI0KR1YqlYXnCokuGL/8JzdsovFXp9fWDTbdyQ5t+xAlh1AjNHMqRIubRTM2m2ikUmDRkHtN7jlQuUA0KhyZ0SIrlhYKEYxv/9gQjODUffrZbIx+cY8hGC+9eduM5Z7FQT87LR91nFqiWFrPlpPDS3HS8ShND7RQk4fjcYtlq7+N+o/s4O9dNG3E4EIYp+6Al1swHMfjo319vXTY5uizd5HFLg1Th187vmeSIpJX5XDlvJY5O9/IZC/t+4aRtu14Ronmzj4a6wvQ1gZJg1tdrcM0l2k8OTpLI63+RNzGF3tpatkME1aM8C3qXH7qCIZorJW/W2W4NEzNHNZ9wTx3Iu9sO4dZsvND7jXMoqpsIBoVjrwboVDLm8c5GUswBs/fU/uGQ/eVaKxHMBTxCE0ckS4pdlriUNtHaSbxwHpu0Zjp9Snn+UK70b01woKh0rJEIzJOB9nB1j3VQoOjkzQ12kf7fIaTtNJYDAaorqGRukdnKbKyRDPBA9SY6CILU7+3nnytozS3FKXFC33U7N1BgyH26pFZmjo7QPs4LT/ne+ost5CMYkmyMkndTzXS4UEOW+Hjz3ZRE+ensTesgi3HXbe9nUZOTbJ47OFz11PT4LwKtxHn8gh4+FraaWx2iaJLYRrZz9fv42uV88Y5r3Jtnh3UHRynqVPD1L2d44vAOIhGdJbLo38Pn5+vfYS/h1i4jVjrRu41uedA5QLRqHDkpTqF4BELxn//m1tpgrHeFkYa4oCD7eyQuUbODvzoBalq5xCNe2eogx1iU7/uYKM0dcSbEA3Vkmloowm95r4wpBynSiPO6XEa/r5ZM1CI0YTUzlvP8Ld5CvrZqQf6aHo+6tAactk9FYtSlEUjyl556ginbdbqDdE4oOUvSqf38r6AQ62fWzZ17OAHL5nbgpQBn7/jvRjFPmjjcD8FL5thgggJi56TaCgK3D0lFOqeA+UJRKPCKcQfWATjmf9tCMaPzhqCMXShQIIRZ2enV2+lNi1CoZxmDtFIdYAmEW45WKJhdP+kOuD0NGzdNJZZx0VnaaynhV54SrqoUruPcogGX8/YXrNrS5lZ89dFIyV/znm2rstKx25yfv26dVR6EA1QICAaFU6+3VMPuWadSTBe/Lt8WxhGLbhO1eiTJGvipmjo4ZFR1R2knLRZy87W0pjrb8ze0jBbK/tG7S46cnmWomarInJhnGas4FiYBhs5z12WkGUXjciwOPIA1/7NK4hzS0JaMesQDaMlsYfG9IB4hOZmjR3l0NJA91TlA9GocPIZCBfB+Nb/+lwJxNH3jVlRA+fuJQRDBsXzRZyq1N79e/to7Owk1+h3qEFcSwhmekUAZPB6lKZODdHhp4wBZctJp45pGFN22UlmHNPopRfUoHkyjblBGQfRxkXaJQ8eah7m8KghKnVPHaDgqUmaCLarMQmfOSYhonFUwrd3cf5HaVp32IxMKTYG+ucpurJEc6Pt5Of46xENis9TcDtfvz5msUO68wI0JpdijWk02Mc0VGskk2iEpMuLW09dXL6jIW0W2/rAQHjlA9GocPKZcvtHg8aDe8USDIvI2eTsojqvzPhJ1vKt2ULGbCBDPAa59ZGo2afMnpKuo4m+lG4abfZUnTdA/ZOjKa2DqHLmajzFjNPNTj6BPvuqwUvN7eO0qI1tRD9gITHP33/R3GnBLYGpnuTMqMYX+6h/P39fj2gI0lXWnkxva6CdJvSGlj57ivPa1CqTA/h7JtHgs0y1W+Xbm9a1tVYw5bbygWhUOPk83PeNngj93g8N19V3ZrUogpE3sSWauWR3rzM93DppHCCrZz06G6ZFvXvK7OKSwWNQWPBwX+UD0ahw8llGRETjV/fdIO//jCjB2PWTlfISDIrRdJfZPdUjU15TupYEqVlL95HZvSRTbg9KF5c1TRUUFCwjUvlANKqA9S5YuH/4jhIOsX3/9w49LivBMLG6p/SupdFZ28C66l560Wd0wbCgNLX02R+IAwUBCxZWBxCNKgBLo4NSgKXRqwOIRpUgM1qKuTw6qG7k3sKsqeoAolEl4HWvoJjgda/VA0SjipCZLcVYJh1UN7ivqguIRpUhA5WRzxMrAgKQF3IvYfC7uoBoVBmPHsVV3zOEA+SL3ENyL8k9BaoHiEYVIn9yqR2iSwGsF7l35B6CYFQfEI0qRv74MoCJWVXALXKvyD2DCkf1AtGocmTGi3QxyBx7iAfIhNwbco/IvYJZUtUNRAMo5KEs6W6QZSCkFikLz8mKpYV66x/YPMhvLr+93ANyL8g9IfcGHtwDAkQD2JB1g2TBOVmpVGqV8m4EeakOrHpMfnP57eUekHsBa0kBHYgGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuEaJhtMrH2EwGAwGSzW0NAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALjmdvQu/X/PUwjQp+t7dQAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110077</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       business.site      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d19c98cbf325d</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Nischal Singla  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Q-340, Sector 40, Gurugram, Haryana 122001      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADltSURBVHhe7Z2PU5xHeufv7/D9qqu6VHJ3W3euy/1IuUhCoIqIvURstjy7LrN2mZxiKdbijbUQ+VC0lkKwJR9Baw4cTntmlyxrYs7jEHHGFpZirbWScbQQlyi2ZLAlsCSQkEdCjH6Nhfa55+nud6bfd96ZaRgYBub7qXpq5n27337ft99+n28/3T3wTwgAUILcprcOXqFtf7tINx/w5uXrtLPxKr1+mb9fvU7bvnuVXhm7yxv3aebtq/Twawt0T5KG+ftfXqeZ+7yxuEg/5DIO/DzBG0Q//+srVtoCHfgzU969m/TK965S1wSX9+Au57tKvx9dVMeAjcWfNDYRRAOAkkSLxivjZpOW6Oc/vEI7j9/WonHwOl01KTT+BT2ktvmYl65Q1ydmP3PvH67RQz+4oQRFRCNVnlX+xBf0cMcNuqkTiOYC5YMNA0QDgJIlKBo6itg2nE00OGLgCOQt29sn0zKLhpT70HevBOwL+rnJCTYOEA0ASpaVRhpX6fVps59xijTGUnnAxgaiAUDJop16cE5DRREZRUNHDdnmNEJF494CHeCy1ZwGi9O9z6/TK4OY09iIQDQAKFmMaPzVNfrW7iv0EDv1/Sc5yhCyiIZMZI9Hr9JvN/Ixu/mY4cVkBJFRNJh756/T/j/XQ1O/8efX6Pjckk4AGwqIBgAli9+pA+ACRAOAkgWiAZYPRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOCMEo3JT6cJBoPBYLBchkgDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzhRUNK7f+iW1vB2nb3Zdp3+396oy+S77YpwGAACguCmYaByduEf/5s+u0kPfvRJqkvbO+D2TGwAAQDFSENF4a/RuUhz+8Ic36IPJhEkh9V32eemSFwAAQHGy5qIxv/iA/tVuLQhtw7fM3nQkTfJI3qt8DAAAgOJjzUVD5itEDGp/cN3sIfo8tkQ/+OA2/eXRW+q7x7c4j+T9i/8XN3vWh/i5AWqrq6GK8koqq47Qns4Rsi4zhDhNR1toRzXn52O2PNlE0bMZ7mFugBqrKqkxOmd2CPbx1bS1roVOXDJJWTHH1VSr81bU1NH+3jGKZ71WR860c5ntNG42V5vYQD3Xbz0N2tUwP0I99Va9d09QKibNTnysl/Z7z6yqhnY09dL4gkksKeZo8Jlg+9LEovVU9swAxcz2RiUxM0Gno120fzu3keB9LsVotLOBaq13aXjGpAm50uNTNNhcR1u8dtR8nGbt9ylXG70zQ5PHBuhw03aqbdj4dR3GmovGb798TQnBz6Z01YpIyLZnv7bnalI4Tn2aUPt+6+A1tb0eJNhZ1lbVUsexGYovxCk+M0Z9DdVUUT/gbzwW8aNNVBFpp1HTQuKnpIwX6ESa04rRid3awdsvdeKDFnb4LBSyaylB0/3sUCPdNK2TM6Icb6SFTs/EKcHXlpiboGh9NdW2jzk724yspWjEjtN+Fs4yn2jMULSO66V7SotebIQ6ItV04FjuDoR+Ztvp8Cl+ZnLj/OKefjFCZZEumszwzDYvm1w0+FlX1NRTW28vddQG7zNB4+0Rfld7aVJucilOkz38jtR47SB3+uiL1RRhoVAuKTFDg/I+cZvU5GqjY9TBQtPY3EvR1tpNIdBhrLlo/PNGLQ6Ld/XqqMM/ve0TDTHZJ0ge2f4XfMz6YBpF8IW7w42Be/NtH4S54jid5gay39dl5vwsDB1nzKYh8X4Lbalvpw7fS52g082VVNdjdXeWuDGW11L0vNkOJUbD9ZX0bH/gWs92UaS8lUaNs0yc5R74k1qotjyZvVfVaCKq8UPi0FOWvI+FMYo2mfzVEtVYvSyJoPi8gwNNtJUFIXjvKbi+mqupsb2d81uicb6X6spZAO+YbWa2fzuVNZ9MnSMU/cx29Nk3xixNUE9NJbW9r49WDvPQmPqu8T8juefG7gHqkbpSL7uk+yOhoNOdPWqiQ1V3fKz1XFXeg/00vFt6pUZ8pZf6XMTUn7+X6uU/4T0Prt+2o3MUP9tNjSqS5F5xfTdN5tTQZYiGw/Ukr1893zqKWtU83cOOsWGInyiTs6zjNN5dr9qGd29JAr3/2uey3Kdp1+H3OUaHq6rpsP2Y75yktuRzzJGuvgfeu5FWKqvt1R04lzZqri+trjcRay4a/9asmPJEo/VdPVxlW1A05Jh1YV5ejO00GDI0NHqwkiq4B58TjhRmj7VQLUce41bj0sLDL935YGPX2x0jZlPB+7Zlc7yayc4abpj8gmUahrnUT41V/EKc5yYt18VOLlLjXdcciw6/oIdGdK9pYUpFKUnnG4w0lsQ5c3qXGf5SvSx21p7YKadSSbUvDtH0nI58wpCoIFLHL+ElyW85ZTnftn6aNZsKeWFzvXgLHLXkFFjzEucQjTKuq54zHK2ocCWHaEx0US070Z4zMUokzDPn8nyiUR6htqEpii1IeVPUx73Sxv4ZXTcLupfqdURUfj5/dILLk2c1yNErO7itDaZXfIcFnp9PpGtC5c+Mq2g4XI/v+sPb7Z4hKc2xrGNz6t5iH7Ryx6YpGYlPd0vvv5+mJTv3/kcP8faLuToLme/Th2qXfkfvw043HR+vw6Xgd+hZ7z1YRhv11/XmYs1F4/deiSkhGJv5Um0Hh6d+1Rqe+sfPv1T75Jh1YYxD3wxDMqpX5XM6QXQjVr3z32vy9+iZya4I1aoXPvzl8wtE2L4QJFLYV8vXzM68qZWix0zYbBg/VO2PYKRXXmt6WiG9JpoaosN9LAryPSgavJ0K4w0S1VRxHtmX6+UUpPcfiVCPqoYQ0Qi+ZGH7ggTLyYB6iXOIhr+usouG1G2Frzz/c1V5fT3QhBrutMVUzul1RFT+g1bPQUWbfH3WLjdHZLXDMPOOd7meQJQXH2pIHR8boj3lDTQsG8suS+o21eNPxON6WNFDnru0K7MZTvA9CkNHtfq9CyOQrtpS4Lz2vmW0UbdntTFZc9F40UyEv/xOKt4UkZDoQqIOTzAELwqRY9YFJ9HQzsZ7CdMarfQSpddZxT0pr8Wwg95Rwz0YdVvBxh4mEGH7MpO4NEHDvS16GKN6O/WpSfjMzkOVK4092GuykXSrLsKciO7lG8ca9sIFmO6powg7RlXGWomG2k7dq8+J5xAN/7PMJhphDsu/L/18zJw1hOOZyZPr+oTU+bMRdm2atOOXdT2MJRQyj5ccmhLyubelOWt4yrPsbSnbfWri3FHbTlsyzkWGpIe1YXvfMtqo27PamKy5aPxi9r4Sgn//wryvJxLkS06TPJJXjlkXVmN4SsENelsl7T/qOe9q/u41n2Bj19srGZ4KY7aPG6tEBKZcfQ0hSGPPVzRUfTmKhqTbQqryB0RjJcNTahy6RkcvPvz1nMtxrblomHmxxv6p5Hsg53R2rEzq/NkIuzaN7/hlX48Qo+EGaVNzah5OD00xed1bgvPW6OEpL0oNtL1wMt+nMMvnlMUp4xmaf2i6apMYnsrFmouG8N/MENXf/EPmsQtZgit5vvr99azmlUyEx+jEvlo64L1ACm7Q7PTVJKyKXrzeU8BUo1rhRLjnLM+abQ/VyOtpeF6vBEkbG/ZeiLDhqfkpGh2b0/mDLy5v5x6esvIHGG/Xk/Fhpup7xRPh2pFFOoOqEeLE7eEfJ9HwdyBsRyD34z9nDtEIqR/piLg5Vo2bI3IUjWVfj0ZHGE20v8oMTQl53Zu+Xvs+lSPO0pY0me8zPtKu5hRHM8z1ZUxfjYlwg9uz2pgURDSO/eKeEoTfaLlG90KCCPmbVDK3IXkk73qStuR2boIG98pEXeYlt7N9dVQmjVBaSNjwlI/0xu5fcmuWAdaZHo2sWGrvD/nNgVk+uI3P6y25jaWuVZ1aTdbqCUh1xKXj1PaYd105JsKV+LBjYPFJyBthJsIbuUuvJ8LHqOfJ4ER4rhfdQuW3e/JGsL3ljHN8rdZkKp0/Tofbj4dHRjKpXhWhA9EJiskLnYhTbKKf9rPQJ5dDiujxMxm+xOUlYrqOs4qGfk7exH9iRq6HHaHnCKRuvYnrTBPhtqNcOE4Hqmqo7egMJe5I/laqk5VETo5V43NEGevDUTSWfT0GNSRp1YOQ173F6cRevcx1lo+Veu54TDoYKxMN/f5yu8rwO6fs6YElt8F3IlcbtfDV9SajIKIh/H67jjYODKXHizv+ekGlrdsEeADfj/uquLcuq2QmMsS5Ajv68d4m34/zBs9lyh/W2AM/7qvvotF5k2Sc67C3bSMCM9RKe75uevHVEXq2eYCmrVPHx7qT6bK+vWfEqmN7ya1aQmv/MHBORVBSB40D5hgWsL7ksspA/rxFg/H9cKqO2qJTqR4cv+xZJ0d9Y+pch481UMeQdbyMYXdvN9cuS0K76AB/zywaDIvsAeXA9DPtOci9SssR+Jfc9tNhji4zigaTsJbP7uDnNNxem+ylZnesGp8jylgfjqLBLO96PHRkl+as87m3+AT1mecuy8IHB9vTo+A0wu5T77Oj2KSp8+dKZzIsQ0+SrY1aBOt6M1Ew0fjs2pL6zYbY+KVUuDF0Vkchsl/yFCOzQy+oHvuBITN0U0hkCEjNUZQ2auXO7uPs+osIX3OVlWl+J7+WrFt9LLHDl556uiaBEqFgoiF4f1/qNw9eU8Mp8ufQvb98+5dZ/i5VMZA4N+brwReGBE3+oIEOnykqV7kOxOjE3qaMQw7rQYLFvC75y2LzK/7kb2DWmvWpj8QCR8Ryn/aqKVByFFQ0HvyS6A869TDVd/tvUp3567Y1HTGVBsDGwf67X3r4KvjbnM2F/Jq6kioee8Hx76KBzUpBRUO4cvOB+ntTIhZi8l32AQAAKH4KLhqCt5pKbL1XSwEAAHBnXURDkDmMYp/HAAAA4GfdRAMAAMDGA6IBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMCZdRONhb+L0u0zI2YLAADARmBdRGNp8Sad/2q5MvkO1ot7dGNsjG7c1luLA9vok539tKg3V4X5Q79CnxwaM1uFZIymH95Gl66YTQDAqrAuojH/P1vok4fZmbDJ92JBOThzXen2Es2bfJsHdqzlX6Hzx7VwQzQAALkouGh8eflSmkMuxmGqtXCgxQ5EAwCQi4KLhgxJiVBc+6tX6OrLzer7xW3fMqnFQ0YHenuCLu75hha88m/QhXcu0n2VoJ3UxXdeo89+9yuczvad1+ja4kWabbHyD1+kByq/dqhTPz5CM995RKf/7i66OHXPpGpunHjJKu8lunLZJDD6+H6afuLXk9d6d6qfLtR55YWdz84v1/wrNG18euqe5+nSTs7bf1EnCBd6afLhnXT5htm2uf0pXfLu8ZFH6LPDH1J8SScFRePB4piv/s73T9BdkybDZdd+tJMmyznt4V+nyV1SfyZJyFj3ghzL1/+ISRt4jc6vkWjIkKrLsCqGXsFmpKCiceMnPeqF9+YyHrB5InK990cmV3EQKhpLF9mZfoU+i35KCXaKictH+fp/h52uOHrtgCcPnKCF20T3b4zRzBPGgZ24yPnvUfzDl9jx7qJZU6hyqF/bR1c+v0f3l25SrE+c3j66mtDpd3+2j9Ob6PKFe/SAj78R1elXzByEOv6RbTQzdpFuL3KeRb6eR7bQ9Ic3lTO9/3k/ffbIN+ji5xnyZxSN9PtX241H6JbZTjFPl7/zFZo89CHd4jp5sMiOnbc9wfGJxtKndPEJTnttTOW9f+NDmv4ai1Pfp0rYbh9v4vt9ia6KMHF9XD20JXXOrHVPdGt4l67Ly1yXiXldl2skGtPf3KosmyhImuQppuFXAFaDgomGDEtN/Sb3cNlJ3TzyltnLjuLMiNonaV9etnq260yYaDwYe4k+ebyXrptt4XpfDX3SKU5RHPATdMmKBBaiT9Anf9RPC2bbExbPSYtDnYpa97w0QTNfZVH9mThC3dv/7B3bMd2ky418zICeXZHjJ9nhJmFhuX2DnabZTJYxmCF/FtGgG0fos6TT1ef1X4tBRSDsrI3QCQ8uHKXp/jESbbNFQ9XfV1+layYKER5MvEqTj7xE87xPnf+FE6nI48andPXDT5VoZK/7kLpa+pAurJFoyMo/abOZhMMTDGnT9879wuwFYHNQMNGY2/un6kWb+95usyfF5eeeUWnFNEwVJhpqH19nmimnKA7Y76TSywgRDSMAHldbvX2St4YuXtD7PWKv/U7SCYcdf/ucNTxlzBYZf/4somELhUQwmYamxJn7hNGPLRqq/JYTZOmLKdvU2xX+/s2v0CdP7KIL/UcoxlGDN7SWu+5/h2bO6bya9OexmmQSDggG2OwURDS8F0yGosKiCTsKKZZJ8XSHb/Y9f1T1oNNJd1LpZfiddLoTv0dXWrKLxnwnO9VMonGln6YeluGpeTWEwzlUD3xlokF0652d6n4XZZgsdGiKyVc0vrAjGoajpYWJE3SpcxdNlX+Fpn40ofLnrvvCioYQFA4IBigF1lw05EVKzVv80OxNR9I8YbF7butFusMnSnzIztOac1Cwc9a94XQntXzR+JQuPr684Snf8eLAfee7SJf+aOWi4UUY55//SvjQlBA2PPXFBF09e1E5e1s0sg9PsVic/ZCucXThodLMUufsdV/Y4SkbWzggGKAUWHPR8H6TIWKQCxmekrzFMHkYJhpqzuFrerJ7URxW4iJdOVBDnw2LW1uZaHiTt8mJ7q+ykzSOUU+EW+mDu9jB8rY1Ee4TganX2Mluo4sT83Tv9jzF+jlS4POtWDRYpGafl2GgbM53+RPhn/VNmIlwvVjAmwiPvbaFPvlOL8XkAuR++/l6vvYaxdSx2eo+fSJ8/jVZZbX2oiF4wgHBAKXAmoqG/ZsMl0lueeG8/Os9TBUqGowsGZ3Zxc5NrtO3vHRlojHV2U/T3pLbbzbRpeCS23f20ZS95NashBLSRYAd2DDnlyWr6tpO0KUXUpPfyxcNM0QVUg8+7CW3ahntGN1WdRIQDcZXf4G8tDRPVw97S27TlxhnrnuhcEtuwxDhgGCAUmBNRcMblpLfZLhSzL/dWG3CnH6xMX+Io4Yiv0YAQOFYM9EI/ibDlWL+7cZqU8yicf/2Tbo9Jb/zyLBqCgBQkqyJaNirofIxKaOYfrux2hSzaKhVWo/U0HnrF+UAALAmouH9JmM1rBSGqQAAYKOwpnMaAAAANhcQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADhzM34LogEAAMANiAYAAABnIBoAAACcgWgAAABwBqIBAADAmXURjbfOfEmRV24rk+8AAAA2BgUXjfGLD6ii5ZbPZB8AAIDip+Ci0T/yZZpoyD4AAADFDyINAAAAzmBOAwAAgDPrIhoAAAA2JhCNEOLnBqitroYqyiuprKqGdjQP0HTcJArzI9RTn0pvbD1Js0sm7Xwv7SiP0OGxhNmhme2vp7KaVhq1y1EkaLw9QmXl7TRu9mRngnpqKqljxGwqZihaW0mN0TmzLcRouN7bN0eDz8i1ttDoHZ3qh4+v4/Rs1yD3/FyEtsg9l1dT7XOtdHrGpOWFvjb/ta8icwPUWBUsP07T0RbaUa3vZWtdC524ZJJysTBG0aY62spl6mObKDqW9lBLgzPtGdrMGHVwO+k4YzbBpgKiESAx1k617PTbjs1QnP1+Ij5Dp1+MUEX9gBaGJXbakWpq7J+hhGwnZmiwnp1o95Q6XpjuqaOySBdNekKiHFc1tb0f4lwmuvh8ORy2jwSdbq6kuh7LY0v5Usbu4+wODXdOUlt5DfVMyIYRDc6zZyimkn3M9LPQZbmGO2N0WO6ZC4uJ6CTiNHushWqr6mk4b1+/lqIRoxO7q9V92+UnPmihihoWCtm1lKBpFvSKSDdN6+TMxNkZcj3saB+hWWkcfKyqB24vup5LDIhGSQLR8KF73DtshywoB1ytX4Kpfmqs7aJxTxCYWJSjiGcG2EUZlLB45WjHVdF8kt19gCU5H0cl7S3hL58Sg/T9sQE+H4uYd7740SYqa2igPeUtdNqLJFiMIuUc2ajr1I55D+cpq+unWZUhxWRnDUU47dlMosFCWpEsy4MjmYZKerbfOOOlOTrdWq974BJ9dY9R3K6jkS5qrNEOfMuTLTR4juXNEzvPrDqcPdZq8nNvvp6jGisSGD/EItA9QD1Pcrpd7wES77fQlvp26vCJUojoLo2wk6ul6HmznYHZPu4MZKi/Mu/5hjwzud6yQ2Pqu2orB/tpeLdEqjqfuh9bNFUZ9TTo7YpPUJ+JbFXd9bDoeedQeVtpcKBJ1b1qo0sxGu1soFoTSdU+102Tyd6EOPR66hvqtuqX0xfm6ERznY4kq+uo7ah1PZlwFg0T2Xnn80V25nqiXSrya4yeVW11R5/1fDh6rytvoGF50A73Fj01RG3SNrx7s/pqCWsUoaLG8T6Bj1UXjX+cXqK+01+qz0zcuvdLGhz7Upl8z4SsqpLluAVbXbVwnPaHOg/uUY6N0PilNLfPXmCCohxpNA74G5+OWPhlkBe8qolOhHg2cSBKTDK9fBlEQ79EnhPXTrDtfY54njHCxijnlIw8tGh0vM/iVxW4PxHEqjqKfpDhXEJsiAWpJssLFqfRgzVUe2hECwXXSZ/lqFVdcFQyeF7XX0xFKd5QWXqkIc6+IvICDUt+LxLg/KfNy6+cMJfXc4ajQenxh8HRUQc7hej5YPmmLnzDe7xvW66ecZzFPyA2YbiIhkSyQ1MUW9DXnl00dKcjsnuApu8kKGHaW7K9qLyVVPviEE3PxVX0O90tkXE/TUvxS/xsDvH2i16nRTv02heP06zUf2yMerijtEWE4tgcH5+g2Clpu9xmF9QBmXEUjfixF/h5ttOoeQdkqLYiKb46bwU79/GZuIrug50wtd0wpNqyy71V1PfSpBx8Z4qi/KwjXSYM5Pf7QFWEOk6ZkjnCbpS2n+ORAj+rKhr/N/AbDNkOIiJR23k7medbr94JFQ5ZVVVplVWQVVa+lzUH6oWR3g47kvYx02httCOV3k5QUBQxFqhqIybLFY0lfjm4N6+GRNR3/YJP99QapxbsTWtHuf9oTEcVnamxlPgQRx/yQmY6l0EihWe5d1dRU09tPxjwC6g61opyGHH8OhoK6dnz3vHedjqhxCvcqfuH0XRU4+URJ5vLeU92RahWOYvw8v0CEbYvSLCcDITUY5poBKLOrKJhf/ew20tY3ce1800i+au8axLHup0Grchttn87lW2zIyjtfLPXB2O9A2GWPP4OX491fd49Dc/Lhpwr0JFRnZSUaMqz99pD7nvzl6Xq24vKWRDjRqg15pkO2G0N5GJVRePRV1JiICbbQSS6sPOIyb4gshzXziPba07YC5oL0/PTDsomzs5SeoTcKL0hnCQ6LbnfJxr6hQ2+gMqSvS/d61WNXYahvP3J7zJZ7s1nCJbDk/mLQC9fvZDq3v3OLo2lGE2fGqDDTTKMUU11+7i3KpFFJuehrsU4ZF/P3ibojEOcCDPZxQJsHG+akw0iixGSiw6C5ZvryVs09Lb/XmV3ej2miYb57pFVNHxtw2DvC3tuS3PWEI5nXh6pX38bD/bsvTboJhqBcysCx3NEMJkcnvKux7uG9OvxCYWK/s3QlJDnvfkWuRjL2pZAGqsqGt9o9zt62Q5S1KKRcXgqpIdjM9JKZTVdNGk2hQTvi1TVU7SfP6UhWz07GY6K2BPlgZcvscDnEjvXS89KL9Lbti5A9Q65xzqZjC4YL+qYEEdi9z5th2e9kLaAqHmLMAeQgYUR6qiR6IU9s1x/4P5TGIecp2iMt7PDcRINKa9aRVWpbTt/2PXwvpzDUzpiSg51WPgc07qLRoLLY6coQzje8/eVkdux6jyrJxqqfDU8ZdqvfX8h1yOoCHj3cYpJxGqGpvK+N3VePTylFrGktQ3gwqqKxt/9/L7P0ct2EBmKkiEpL0+24Sm7rML8CNBMhNuTcII9EX62m+pqu/0viohGbW9q9U1cO1QdSeioQlZf6ZeSnXZ9qpcTNN+LGuKAkkhUUdtCbc/4Hez4oWpqa/aGhjz8L4caOqrrpUF7qCqjA9DDXqkXN8XowUqqaGcHqFZfBcaGPUEMHZ6Kqzmiaf0mhzr1XMNTGV90JX7hdaudR8j1OE6EK0cm4pi8N026Y/IvGnARjeSCAsF2qvPy3eppC1lFQ9efrx1J+3R1rIrVFY2053WpnztD2UXDizD276622kKe9ybX67tPLo87CxnbEghl1SfCf3H5AUX/4Uv1mQkRCYkuxMIEw6PgE+GMRAG1Vdvp8Cm9pDZtya2aOLaW3KYNT5nfXbBTTq4FkPkLPibV+w2Q6eXLJhrK0bEzCkY4Igi83++kA45Z3YM4UsvRZ3QAjFxHVYQORM2SW1lqeqqdoxTv9yhmhZhMQMrk6VKMI6B62sF1IqnZJ8K1+ERkXiih0/VEOEdKMm8iE+EDTRy18bZRrayikUbg3hn/ktu4utbkxKz8DqO9n8bDJoGXuCx51nsHaHJOX1t8boIGZSXUXrPoQEV7/KzZc6lJ5Yle9TuRbKKh9tV10bg0jzu6vaWGb3Td6onrTBPh9nOL04m91RRpNvlnjlPHY1b+ZYtGnMb72sN/i+IoGjJ5XfZMN01ypKGuv0Gux7uG9OvR6CHYVD4hz3s7160Xp0xw1+EOt9G+BrVaDKKxPFZdNDYD8bFe2u+Ne1ZHaE/rkP/HfdJYvR/3SXrnCMWMQCjRCVm3L8tkM62iyvjy3Zmj8VNT2hmloV+qioAD0j201CoqTbrjVMtE7eghm2gIcyPUZ/+o7bEG6hmxbmZphoabU+nBH0SmltyaJbSWpiXYscoke2pCk2h2yFqiGcifr2hI3fl+3FffRaNqUpYxvXw9SRtCYEy9oqY2rX0kOBpV98Nly5LQnr38PYtoSJkn9tWq9qSWgXa1Wj1xJrjktvsFLtvUVVjHIph/sJ3qksOVyxUNU39hk8WOoqHuzyznlYUUPcf66UAyssskGnwbEtn5rovJ895mj5rnLsvCO49TlJ9NrkUVwA9EAwCbs10UyTg/s054EatBRZNBZ7pWyG+OfIsqCocMtSIKKD4gGgAkSdDkDxro8Jnw2G59kPmcWvMbCtkcoY5I4YZUEhPdtCd0SfkaIkt05Ue0VYG5HFAUQDQAKHbsv/slw6GBX9tvNtRKuapaOoBfaxcl6yIashJKltCKFWZVFAAAgNWg4KIhK6HspbRihVwdBQAAYOUUXDTw714BAGDjgkgDAACAM5jTAAAA4My6iAYAAICNCUQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADijROPuvXsEg8FgsCKyu3fTP/Mxu+w8DKIBg8Fgm8E8YbA/bbPz5mEQDRgMBitGs52/95mP2WXnYRANGAwG2wzmCYP9aZudNw+DaMBgMFgxmu38g58rMa/cPA2iAYPBYJvBPGHI9LlKBtGAwWCwYrBcTl8+8zEpYxUMogGDwWAb2TxBCPu0zcufp0E0YDAYrBjNdv7eZz5ml52HFUQ0fvJhnH7tz+bpoe9ecbL/8hfzdGRsMbQsGAwGg4WYJwz2p2123jysIKIhIhAmDtlMRCasLBgMBisJs52/95mP2WXnYQURDU8IwtLCbLn5YTAYrOTNEwb70zY7bx5WUNFYroWVBYPBYCVhtvMPfq7EvHLzNIjGutoMvbWjkr5/Oixts9pH9P3ynfTWTFgaDAZbsXnCkOlzlQzDU0H7YoLe2vcUba2qpLLyatr61PP0xkex8Lx5WzbR0Gm73pgJSdvIBtGAwUItl9OXz3xMylgFK4hoLNfWTzRm6O2d1fR487t04YtFunt7kS5/3EO7qh6lVz9ai9VcEA0YDJaneYIQ9mmblz9PK4hoHBxaoINvL4Smhdm6icalN2lX+dP01nn//vH2rVT24snk9oX3DtKurdU6Etl5mEbnTd4ZOf4gvffR4WT60/tYgG6nyrrwdjM9Xc1RTNVW2tX+Or3630NEQ5UjkY6xHW/SZe/4d+1zH6SfBq5Vmxacp3unUvvO9dBT5bvo7Tm9na2c0daAWKnr8Ry9dvo/fqNT3Ue6qJn0I6k62Nr4On3yhT/9jRNH6OUnUnU4nkxnm/+I3nj+Kdoi9179FH2v52O66aU51PHN0R76niq7krY80UxvT6XSYLANY7bz9z7zMbvsPGzNRWPswq2kCLgKx7qJxu2P6bWt7AgPT9A1ywnZdvPkQXr00UP0oTjf23M0fnhnyqkbZ68ilUXOO/f39H0u73tvm+Gtjzvp8Sp2mB/PqSjmwrvN9Djnd400br7XTBWP7qW3z+ko6JPXd1JFVTP91Ha4xi6/YV2Xt73rCF3j77nKyS0alVQhYjkVo2t8n8l8ynS6qoMbvD33Mb3B0VtF898bx+8d30PjUoc3JugNvs9HOz7Wx9+eojeeYiHo+Eg/g7mT9P1HWQC7jQDmquPzr3NkyNdq7k1E+tGth2hUrkWdHwbbpOYJg/1pm503DytIpPHj04vLEo51Ew22m2ffpJZvci9VergHe+inE+zgk+nakb/8njVUdePv6WV2qG9f4u/KobHztRyUOOCKQx+Z79X0aLtxjsq4vLBIw0vziYbefv6IfT1z9PausN4+29wRej7p6HU+fWzucnKLxuP0xjnv2KBJeiBaG+2kR5P1kn68ErSdRuBOH6KKrZ00bou2HF/Fjl/2OdTxU57AKGMReryaXv0olR8G2xBmO3/vMx+zy87D1kQ0PKefyXIJh5cvLK0gJj3Uj4/QG/t2qgnxLU97wye6l5wcNkqacajKobFzs8oSh1bWKg5NO+tkj1iZ3ucmGuHOerxjqynfv98nFPPv0veSQ1O5y8ktGt73MAtJv83RQpbj7ahIfd/nRSXG1PWbYxzqOP35ZKpjGGwTmScM9qdtdt48bF1E40Cxi4ZtMlzCjkgPn4jD20qvfRyST2wdRGP0EEdFoaJxj64d2UVlje/S5feak0NTLuWsumiYaCzT8TlFQ801mWOWXccw2AY12/kHP1diXrl5WkGGp+RvT7kKhth6iYaM9ZcFh0bYLrz+tBk+kfH2wASzmJc/q0OT7wUcnhIzEcb3Gqut43KXI9f87ddXUTTUJLw9PJVZNNyGpzLV8SJ92GzPnxgLPE8YbFOaJwyZPlfJ1n4i/PztZQmG2HqJxt0bH9Grj1bT04dOWktu36QW3rfrTe1Er739PFXIZPZZ3Zu9Jktyn2AnJxPCOUQjOBH+yZG9WSbC79GHL3KEc+gjurmo51D0BDY73/NmAvvN59mZ8nbIRLi2GL3XyOcPOOlc5Sgn/lQnjaqJ6in6afOjVhkuopGaqL67OEVv7WSx5DpITYRnEQ0zEb6r+2MzEf4RvfZEcCI8Rx2XP0ovv6uf183z79LL33ye3jOrxmCworVcTl8+8zEpYxWsIJHGgaEFZ8EQWzfREJufoLcP7qLHZVksO78tf/A0vfzGhK/neuFIMz2tlnvqJZ1vGQHJ6dDYnJbcGrvJgvRtlTdVZurcZqlsjuWkaojKWkXlWdZybs/Qe3sfpwq+v4qtT9HLHQfp28sSjafp1dc7k0tin9r7ZtqS24yiITb/Ef34O49aS27NSipJc6jjax8dpuf/QD+fiq076bWTdlQFg20y8wQh7NM2L3+eVhDRWK6tq2hsMpMhsYzDV2tiuUQFBoM5me38vc98zC47DyuIaCxXBCAaq2A3YnRtQn6zkPpBX2EMogGDrYt5wmB/2mbnzcMKKhrLtbCyYG6mVkNVPU4tbxcyyhCDaMBgq2K28/c+8zG77DwMogGDwWCbwTxhsD9ts/PmYRiegsFgsGI02/kHP1diXrl5WkFE49f2LP/fvf7nZvy7VxgMBnM2Txgyfa6SFUQ05G9PiQiEiUOYicj08jFhZcFgMNimtFxOXz7zMSljFawgogGDwWCwNTJPEMI+bfPy52kQDRgMBitGs52/95mP2WXnYRANGAwG2wzmCYP9aZudNw+DaMBgMFgxmu38vc98zC47D4NowGAw2GYwTxjsT9vsvHkYRAMGg8GK0WznH/xciXnl5mkQDRgMBtvI5glC2KdtXv48DaIBg8FgxWi28/c+8zG77DwMogGDwWCbwTxhsD9ts/PmYUo0CAAAAHAAogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHBmzUTj3fF79FsHr9FD373ibL/Rco3e4eM2HmPUUV5Pg3NmM8iZdip7ZoBiZnOlxKL1zuWovIfGzNYymRugxmz3AwAoWdZMNP7j/vlQYchl//JPr9AvZu+bUtaRmX7aUV5DPWfNdlYgGgCA0mDNRMMTgeXwTO+COuY3D1yjxJLZuU5MdtVQpKaGKl48SQmzLzMQDQBAaVBUorF495f0n/5cRyj7jyyavevA0gT11NRR9MwQ7SlvodN3zP4kcZrsrqetVZVUVl1HbdFuOmA72fgE9dWz4JRX0pYnW2iw+4Uszj5O09EW2lFTTWXl1bS1roVOXDJJAYKikTg3QG11+jwVfL1tR1NeXuU92E8nmutoC6er67TShdn3W6nRO299N40vmASIBgAgA0UlGsLPp7+kf9qgj5Xv60HigxaqUM45QaMvVtOeIb+7jx9toooIi8kljkESMZrsqWfH7TnZGJ3YXU21Lx6nWZU8QdF6dswZRCN+7AUuq51GTeJsP5dV10+zetOHTzQWjtOBqgh1nDIHzvRTYxUL3YzeVHnLI9R2bI6jtgTFTrVTbXkqPTHSShHvvEt8DyyCybIhGgCADBSdaAgHhuLqWIk6JPooLAGhONtFEZ8Tn6PBZyr9QrI0khqeUg63gYatZGIHnTHSuBOnuB3JGIc9PG+2LXyiwUIQX7AHzvR1NQ7os+hIY0R91yTodHMlRbom+LvO2/a+dfydk9TmnReiAQDIQFGKxv0HRFVtX6jjv/0Tb8ykQMSGaE9VC416jtwbqjI9dD1/UUM94nuTWHMaMn9R00WTOkGTbU5jKU6TyeGpSmPhDtsnGkzcGp7yjm2M6gNV3sCcxmz/drNPrjd1TMps4YNoAADSKXrR+OPewoqGHtZJd6iRTk8lVlc01PnUMJHp9Wdx2D7RUPn08JReNGAiDWfRCN6DBUQDAJCBoh6eenhfoYenZihaV00dZ8ymx/leqhMhsJzzag1PjR9KOXrFpX561kU00oSIr2tbQDQyDk/JfVbSjr5k+KTxVqxBNAAAGSjqifDTnxZ4InyiiyJV7TSettyXnWxtNbV9oKOB4ET4eNf2LBPhY9SzLfNE+HR3hNO6aZIjDTVp3iDDVA6ica6bajlf3wRHGndiNNnXoFZJ+UQjy0S4uoeqeoqei+vtiV5qfJKFUW4RogEAyEBRicZ6L7md7Mz8u4zpnloq23vcpK3iktulueSy2Iqaeuo51s9l1VL0vEm38IkGM3u0hXZU8zVU1VBj53GK7q2kuh6tCjrS8C+57XjffwWzQ6m5FHWdRkAgGgCATBSVaBTTj/sAAACks2ai4UUMy7Wi+TMiAAAA0lgz0ZA/WPiby/yDhf+15RoNnd2If7AQAABKgzUTDQAAAJsPiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAB+JL7+kGwuLNHflGs18Pkufnv+cJj+dhpWQyTOXZy9tQNqCtAkAPCAaQHFzMU4XL83R+emLdHX+C96+RffuJWjpwQOTA5QK8szl2UsbkLYgbULahrQRACAaJU781m3Vq7w0e5Vu8XcAwpC2IW1E2oq0GVC6QDRKGOlFTn9+GWIBnJG2Im1G2g4oTSAaJcj9+0tquAEvPlgp0nakDUlbAqUFRKPEkJdchhhi1xfMHgBWhrQhaUsQjtIColFiSO8QggFWC2lL0qZA6QDRKCFkSAFDUmC1QbsqLSAaJYKseJEJTADWAmlbWFVVGkA0SgQZe8YqKbBWSNuSNgY2PxCNEkB+lCVr7AFYS6SN4QeAmx+IRgkgE5VrGWX0nL5Du964SRev49fjpYy0MUyKb34gGpsc+btB8mcg1oJf/pKoof8mPfTdK8r+w755uvDFcpdfxmk62kI7aqqprLyStny9gXpGYiYN5M8cDT5TSWWHxvTmRBfVllfT/qNrU8fS1vC3qjY3EI1NjvzBubVY2SKC8ezrC0nB8Gzbj26YHG7EjzZRBTuxHQcH6PSp4xTdV8vbETo8ljA5ip0x6mCxa4wWaw87KBrdVFdVTQeOGdE4085iXU+Dq3T50takzYHNC0RjkyN/qVT+8NxqYgvGv/4fV32i8VcnljcMNn6IHdq2fkpNocZo8tgYzW4UzdhoohFklUVD2pq0ObB5gWhscmRFi/zF0tVCBOOPf6wFIzp6l342laB/1qAF4/k3b5pc7sz21bHTilDbsTlKpI1shTm8gJNeitN4bxPtqOZ8HLFsrWuhnoPb+Xs7jescXAnHqaO+hiMYzlMdoT3dXXTA5+izD5Elzg1QW511fOcIxeRalcOV83oW7nxjI1205+u6bN/xjBLNZ7ppuLuetlZJGRx1NQ/QdKb55PgUDTbXJfPWPtdFo/MmTVjQ6VvUueqoLTpGw8383avDuQFq5LSOM+bcyWtne2aAJTs/pK1hFdXmBqKxyZH/jbBaf958iYvxBKPvoztq38DYXSUaKxEMxVKMTh+UISl2WuJQW4doMvmD9dyiMdkVUc7z2VY9vDXIgqHK8kQjdpz2s4OteKyJ+oZGaHSom/ZEtJP0ypiN1lNFVS11DE1RbGGOJqMvUG1yiGyCemoqKdI8RNNzcZo9002NNdupb4y9emyKRk/10h4uq46ve/QUR0i6WlIsjFDHY7V0oI/TFvj4U+20g6+ntmtCJXuOu2JbKw0eG2HxaOBzV9KOvhmV7mOJ66O+mu+llYan5ig+N0GDe/n+I3yvct4lvla5t+rt1BE9TqPHBqhjG+cXgQkRjfgU10dPA5+f732Qv4+xcOtcK0bamrQ5sHmBaGxy5J/qrAb3WTD+8Ic30gRjpRFGGuKAo63skLlHzg788BnpaucQjTsnqY0d4o4e28HGafRgTVI0VCRT1UKn7Z77pX7lOFUZS1wel1HXPWUShQSdlt5580n+NkPROnbq9d00PhMPiYYch6cScYqzaMTZK48e5LJNr16LxgvW9cXpxG7eVx/S6+fIpoIdfN85sy1IHfD5295PUOKDFk6vo+h5kyaIkLDohYmGYpWHp4TVanOgOIFobHJW4wUWwXji/2jB+NEpLRj9Z1ZJMJbY2dndW+lNi1Aop5lDNIIO0BDjyMETDT38E3TA6WX4hmk8846LT9FwZxM9+5gMUQWHj3KIBt/P8G4ztKXM9Pxt0QhcX/g1e/flleM3Ob993zaqPIgGWCUgGpucfIenvuSedSbBeO5v8o0wdC+4QvXoU6R64kY07PTYkBoOUk7a9LKzRRrTPbXZIw0TrewZ8rvo2PkpipuoInbmOE16yYkJ6qvla273hCy7aMQGxJHXc+/f3MESRxISxaxANHQk0UDDdsJSjKan9I5iiDQwPLX5gWhscvKZCBfB+Ob/vq4E4vBP9aqo3g/vJAVDJsXzRZyq9N7rdnfT8KkR7tFvV5O4nhBMdokAyOT1EI0e66cDj+kJZc9JB+c09JJddpIZ5zS66Fk1aZ4qY7pP5kGseZFWuYZqahzg9LgWlYrHXqDosRE6HW1VcxIRMychonFY0re18/UP0bjtsBlZUqwn+mcovjBH00OtVMf5VyIatDRD0W18//acxXYZzqunYbkVb06jyj+noaKRTKIxJkNeHD21c/0OjVmr2FYGJsI3PxCNTU4+S27/pE//cG+tBMMjdiq1uqiiRlb8pHr53mohvRpIi0cfRx/Jnn1g9ZQMHZ3uDgzTWKunKmrqqWdkKBAdxJUzV/MpJk8HO/kk9uqrqhpqbD1Os9bcRvwDFhJz/p6zZqcHRwKjnamVUbXPdVPPXv6+EtEQZKisNVXe1vpWOm0HWvbqKb7WHc2yOIC/ZxINPstoq1e/XWlDW8sFS243PxCNTU4+P+77emeMfu8V7bq6T95eE8HIm8QcTZ7zu9fJTo5OanvJG1mPT03QrD08ZYa4ZPIYrC74cd/mB6Kxycnnz4iIaPzqnqtU879iSjB2/mShuASDEjTeboanOmXJa2BoSZCetQwfmeElWXK7X4a4vGWqYFXBnxHZ/EA0SoCV/sHCvQOLSjjE9vztIj0oKsEweMNT9tDS0JRvYl0NLz0X0UMwLCg7mrr9P4gDqwL+YGFpANEoAfCn0UEhwJ9GLw0gGiWCrGhZyz+PDkobaVtYNVUaQDRKBPy7V7CW4N+9lg4QjRJCVrasxZ9JB6UN2lVpAdEoMWSiMnY9+RcBAcgLaUuY/C4tIBolxv37S2rsGcIB8kXakLQlaVOgdIBolCDykkvvEEMKYKVI25E2BMEoPSAaJYy8+DKBiVVVwBVpK9Jm0OEoXSAaJY6seJEhBlljD/EAmZC2IW1E2gpWSZU2EA2gkB9lyXCD/BkI6UXKH56Tv1i6Wv/1D2wc5JnLs5c2IG1B2oS0DfxwDwgQDeBD/m6Q/ME5+Uul0quU/40g/1QHVjomz1yevbQBaQv4W1LABqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGcgGgAAAJyBaAAAAHAGogEAAMAZiAYAAABnIBoAAACcgWgAAABwBqIBAADAGYgGAAAAZyAaAAAAnIFoAAAAcAaiAQAAwBmIBgAAAGeUaIT9y0cYDAaDwYKGSAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMxANAAAAzkA0AAAAOAPRAAAA4AxEAwAAgDMQDQAAAM5ANAAAADgD0QAAAOAMRAMAAIAzEA0AAADOQDQAAAA4A9EAAADgDEQDAACAMzfjt+j/A8mSlzDx3h4tAAAAAElFTkSuQmCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390ce18ad00f5215</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Miles Education - CPA, CMA, CFA &amp; FRM (Delhi)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>429</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Office No 166, Ground Floor, South Court Mall, behind Select City Walk Mall, Saket District Centre, Saket, New Delhi, Delhi 110017      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADbRSURBVHhe7Z2Nc1vXeaf3z8ik7W637bSd6Uz2o2nrnWWyXDBlhWlGmHqErcfYeIzUazFy4K0VMralVSSZoSI5LOlwqYSrJkzo0OaaNlyuOGIsWopkqWKoMmRcsWxlMpHJWCb0hZgS9AWJ8m/Pe+69wMHlBXEpEBBI/J6Zd4CLc++5HwDf554PgP8KhBBCiA/+umkbKA1CCCG+oDQIIYT4htIghBDiG0qDEEKIbygNQgghvqE0CCGE+KZs0rh9F/i7iVt4+tUFfK71Cn77+Yv4/e0X9XN5beBnt3Bn0V6ZEEJIRVIWaRz9lzT+6OuX8MmvXFg2Hmq5jONn0/ZWhBBCKo2SS6Nt+HpGCp9+4RJeOHgNIz+/g4WbH+s49fO0fk3KnPVeevu6vTUhhJBK4mrqeumk0a6Sv0jgd56/iENnbuPjj+0CD6RM1pF1ZZtvHaE4VoNkPIaaLQNI2suEEFIMJZPGO++ldfL/za9ewD99eNd+NYvTqnAzqdaVbaRM6ngQ3H7vIHa1/jk+teshfOKFP8eWlw9jOmUXVhqLCYzvb0QkWIea2jpseLgRPaNZRVScNBIDaFLHKcfqjkDHhF5FH3NOWRAboy0YPOu8CQkMblGv17dg/Kb9Ug5ziEdluw5M2q8QQlaHkkhDBr3/0O5u6hnx/KvOKw3hZbWNlEkdt+7YL5aLqe/j87sewfND7+HiRylcTbyH+IFH8Km21zF3z16nYkhgOBZEINaL6YQS7GIayaleNNWH0TlmJdg10dJYnEJPKIr4nLW45JjTKcwfaUGkVq1zTl6wpaGEsn3I48zm+tGgZUNpELLalEQar//0lk76n26+hHt5uqSWk4Zs4wycv6HqKh8pHOp8CJGB9+1lm3vv4Tt7HsLzP7bvdD88iC/u6kD8x99E5AXVGtn1OURePoWrhlRuT76O51s/p8oewh+3fhOHMlVO4qVdW/HK6cOqNSPln8VnOl7B5H20ZNInWhBQd9sjrm1neyKZpLskAS/OYaQ1ho31cqceQlPrScybs9bOH0VbNISASroBlcjbhuxMbjN/rBVNoaB19x/rxuSCXaBIn+nG9oelzGrx9E34O6nU4W0INA6pq2/hLbo0RprrEO6aUs8taWxvbERNtB/z1goZpveHEFZlT5dIGjdv3tRRCL/rEbKWKIk0Nr+8oBP+cuMSy0lDkG2lvEHVVTY+Oobndz2GV35hLxtM9j+MT/xgzFrQ0vgstgy8h6vKabc/OIVv7FWyOfihVf6BKn9hK+K/UHf/99K4+M438bk9HRjT/hNpPIRPdbyOScmKqffxyksP4XP970nhipjuCqGm+aRKpy6SMxg/NaOTcG4CTqnEG0RkxxBmZaP0HAalpZKpYwZ94SCa+ueQViJJn+tXrZYQes7oQqRHWxEOd2BcKltMYrrbqHvhKPZKC+eUvadTHapl0Ihha3EZpCspiLYT2bPwK43OYyfRVh+xWx82N+U11SI5Id1gpZHGd77zHbS3ty8rBCmTdSQIWU+URBo137isE/6ZD5aOZTgUksbk+bu6XOoqG1oGKtnbud/k4tBWfOKlg7goC3ZLY8xoWVw98hw+8eLrKgUCYy9/FptyWitKDC9+Fi/9ozwXaeSKSdfdcdiqewVMtqvWQrs1DpCPnASsxxNciTw5hO21MQwmZGECnbUR9J3VJYo05idG1XshCd1K1G3HDEVJglbbDl9Sz3XdO41WTxKzp0YxW0AaurXkai14SSM11a3qD6FzLHssuw8rcUmrYr+IxCI1pFof0mrRx1MaaXz44YfYsWNHXnE4wmhqasLYmH2jQcg6oSTS+K3nLCFcu5V/ulQhaci2Ui51lY2VSkOX2EjrQr92BXHVcpBuKXe8NC4rWt1T5j5y6s4hjfF9QWzYN7q0NaFYsTTGOlAT6cWsLnGQ8QR1165PJo3pns3YIN1Wzd0YlNZKputKhGKNI+SGI5wEju+KIBCMYndrL4anErq1sjxJDDcuHZfQx+zaT25XmSWNprjasYxfZAbE7W4rqa+E0hDyiYPCIOudkkhDvu3tVxrS/XT99tL1HGnIFNyysaLuKZc0fvE6NhnSyIx/LGH1pJG3e2oxjdSC9WphaUzgQL0jDZvkDCaHetEWCyEQ3onjmVZICD3Zm3pP0uenMBLvwu7Hggg80Y3p5br0p7oQ8ZgB5dXSyMWQhikeUyATHQiUeCDcLQ4Kg1QDJZHGf9pjdU9JF1M+BiZu4Xe3WXKRQe+f/TJ3mpRMvZWysnZP5R0Ifx+vtC4dCDfTwu1T37S7p9I42f1ZfKp7DLftMk2mK2sl0lgeZyDcnXTzDoQX6p4yxkIsrIRsJWdrGmtDX+7AOOzWRPr8BMYnVOvCWlSvmy0YL5QQ9wSX1qdYmTRUTcdaUBPtxaDZVSWCLLE0BFMcFAapBkoijS/90BoI7yjwBb35hXvY2JHU6/564wW8+KMUFu3kKtvK61/qLeNAuJBnyu0n9n4fk07i19KwB8IlSybH8NLeh/DFoStWuV3HN05ay3qg/MWv4ZD23+pJQ76jIQPZkR0DmE6qAyk45dYeCN9zFPNy3Ok5DD+rWhNOayV5FLvVtm1HrGSM5El0hoLYe8SqS89yqo8hbn9fIiX7eqwL07KxbjVky/Qgem3YGB9x4SUwm5VKwxr8lm6s7LTdcklDcMRBYZBqoCTSMKfc3jUGi72Q6bX7f3wd/7rpAja0X9Hf8ZBtZFupo7xTbi0KfrlPS6MF3UPZKbdffHUsZ8rt1X98BVv3fE6PZXzq61vxnTFbKKspDUFPoXW+3CdfgtuGvuW+3KfWH26OGlNulUCMsYf02YHMlNsaGZ/oncrp/pofakGDnnJbhw2PmV+4U/sa7cpMuQ2EYug8Zid1D2QAO7DHo2tNsWJpKKQ+PQBuL5dTGoKIg8Ig1UBJpCGJ3/ktqXxf7nMj3VHJ69bYhmwj28qX+6SuisNrTIMQQqqAkkhDkF+rlcQvPwmy3NRbN7Lug/4ZkYJQGoSQKqVk0hDk12ol+csMqB9NFv7BQllnTfxgIaVBCKlSSioNwf3T6LsPXsNPfnFHd0VJeP00umxDCCGk8ii5NAS//4RJ1uE/YSKEkMqlLNIQZEBbvpvh/LvX39u+9N+9VuSgNyGEkAxlkwYhhJC1D6VBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxTNmncvgsM/OwWnn51AZ9rvYLffv4ifm/7RdSp5/KalMk6hBBCKpeySOPH/5LGH339Ej75lQvLhqwj6xJCCKlMSi6Nl96+7ikId0iLw3ku2xBCCKk8SioNv8L4469fxuI94G9P3MBvftV6ba2IIz03gcm5lLWQGEBTbQyDCWuxbIx1oGbLAJL2YjnJOX9CyLqnZNJ45730Ejl4Re2LV3B46ra9FXD4n27j1xqtMqmj0pncH0Rgx1HotLnupZHA4JY6NMWzJ5hz/oSQdU9JpHHrDvCHL+QfwxApLMf+Y1YLReqQutYMVSgNQkh1URJpvPHTW0tEYUYhaUhX1adt6Uhd5WMCnSrp9w11oykURE1tEBtj3ZheSOB4cxQbautQE4yi7bBxp92uXmufsBbc0lhMYKQ1ho31ap36EJq6J5BatMvUvfl0dyMiQVWm9hN5phuTC3aRkJpCfJuxz6E5u0ChyvpiIQRU2YbHWjDYvdOQhnUOpriS8ViuVC6NosfeXtcdn0GmTSdlz4Tt/YaxvXvKKtPnJsdqh11fzvkLCxM5x727195e0HW04vhE9vo2NB/FfOaauEjNYNC57nL99o8iaaw7f6TVeJ9aMXLeLlDIcTV1D2WuUyCk3tczKcwfbkGDfc2X3TchxJOSSKPh5YUlojDjT//mir1mfrr//oZeV+oqH5Jw6xDZo5LJTbWYnEBPVCVmSaxHEkgvppE81YFI7TYctw8rvzRSGN8XQqR91BJFUiV64y49dWQnAuEOjEvmXUxivD2MmsYhq5tHyWZwSxBN/XNqn0D6/FG0hULoHJP0m8TxZ5Vk5BjVYlrVG4+pxOlXGjcncCCcrRsJVbdabjshdc+gzyxbGEVnpkzw6J4yz39xDvGoSsZdthyTsn0dGnps4dniyR77SXSG6rD7sFfnVgLD6rwy129hRp9nQ59VV/pYi7p+OzF8TlWk3pfZ/hgC9S0YsavSxxVWy3NSnsRkV1RJTG2f2bd1bN77JoTkoyTSqPnGZZ3wNxvyKNS6cPMP79/R20ld5UMS7mYMGnes8/2bUfNEP+btZUcsnWPWUl5p6OcqaYl8bCTR1cSs5K0T+Y6j2bvw5AzGT81Y0hjrQCDSi1ldYDHbE0GgQ+1H19uIYcsQFqOtvqWhj8FVd2q0FwcOq2Sskm9qIWUJw0bOT+9XU0AactyhLkwb2+NMF8L1HZiU1zyuSW79Bud6EXWti5khHOhTQrKPY/uQeRGSGG7MHpvU+3S/cRHO9+Np13ubc+yEEF+URBq/9ZwlChmP2P7mtfuSxpXUPb2d1FU+Ctyla3xKQ8YZ1HpLwqlL3eHvfSSIDY9tQ2fvEKbPZ/Rh7dNrW9mP1CuJ2V5XkzOmsfw56Of7Rq0CLxJG95S5X6twWWnouptPZkUoLBzF7hyRKoFYJZq8iVvOKUfWJnKOEcTP2Ys2012hTF1Sr3mcOe+NDaVByMopiTR+5/mLOuFfv/2xXn7hoCWOfPFfv7m0uyqltpUyqat8rLI03Mndjbqzn586isH929AgXSf2+IHe57N5ZiSVUho31bYh6Z6aybQ2chPrfUjjknFNSiyNyY5gpi6pl9IgZPUpaffU9IVsP8Vy4vBqhfxL4q4uK3/31CpJY64fDbVRxI3xa2Quh5LFxCgmjdaF7saxE2r6RIvunx83u2acbfU+CnVP5XbDmOfg1T0l37UYn1GlHkl9fJ9/aUiiL9w95VMaXt1Tl2YwPpFQV89f9xSlQcjqUxJpfKnXGsvoyfmLzy8OL2l876Q1EC51lY9VlIbaQgasA7FeTMspLCYx3RNDQ5fVmpjuChtlacz2qf2Eu61kvjiFnrA1YKxnC6UTGNkTwW6dJN0D4RPoecIcCLcSqjMYnZ6TgW51jE75cgPhC0extz6EtsOq7KYS25FWRGXml5FYRSLhjgmk05bwcs7fHghv6pmyB8LVsT3mHgjPL4303ChGJpwr7WcgXElFxCvXb2CbkpNaNgbCKQ1CVp+SSMOZcuueJSVTaU1ZOOGWxr2Ps62VBzHldnWkoVBJdLg5ak251VM8BzDr9DnJjKn92Sm37imjMnW1zxlbcE83XXbKreK8NV6i6422oGff5txyY8qtTEXtPJJtDqXPmNNhBzDcEcnpckpP9eJpOWZpPajlJYnXPG495daYZlxAGrPdSqSNQ9njNKfcuutSzA+1oMGccmu06igNQkpDSaQhv1brfM/iZVdr41M783/p78/ar+DdX97NTLeVL/fxl28JIaRyKIk0BOdnRH5dtSLkp0EcfjR5G5/Za7UivOLTzZfwb5+1nq+FnxEhhJBqomTSEL51xPo5kN9ouoAO9fyO3bWQr5vKDNmWEEJIZVFSaQjtxi/dfmbfZRw6cxvOdzDyxd8MUxiEEFKJlFwawvGz/v8Jk6xLCCGkMimLNAT3v3uVf/UqIc/5714JIWRtUDZpEEIIWftQGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ35RMGn/WfgWf/MqFnPjMvsu4fvtjew1CCCFrjZJJ43e3XVwiDYnjZ9P2GoQQQtYaJZPGf3nxsqc0Oo5ct9cghBCy1iiZNP7qBx95SuN/9Hxkr1GhpGYw2BzFhto61NSH0NB8FPOLdpkwN4S2aAgBKQ+GsX3/KJJm+fmjmfJAKIa+iZRdIKQwG29BQyiIGlW+4eFGVzkwf9gpD2JjrBuTC3aBJoXp7kZEgmrfqryheSj32PKSxmRHWG3TgUn7lcLHYpfb+9oYbcHx83aRsJjE+P4YNtbb5bFWjJjlBsmBmLoeMQwm7BcIIWuWkknjuydueErjC9+tZGmkMb4niLAShRZBeg6DsSAi3TNW8eIUelSSbeqfQ1rKk6PoDNdh+1DSKr85gQPhbHnqVAciRrLUyTPcopKr1UWXPNKiyhsxbG+enlDr16v1z6lyScrtKtFvGYBdbG/fgXF5wT62cPuEOuoCTHWp/Uhyz0qj4LGcaFHSU6KQY19MY7Zf1u/GrFWM6a4wArF+zMrmHuUZkkexW4uF0iBkPVAyacxeWVwijD9puYzzv7pnr1GB3DyJttoI4ufsZWG0FTWRXisZJgbQ5Ep+s90qsavErTHX1aQx0lyHcNeUep7EcKwOTQOOAoQ5xCN16Byzlsb31SHaM2ctCPp4QuiRzZHA4BN1aDtmKOJcL6K123A8pzXiYlHtIxrGgY4WQxqFjsU67pxjWVSCzFybGcS3RNBjn7bG49pIa2WkWUm0o8OjjBCyFimZNIQNxgyq//yNy7icqmBhCDrxtWI8p7upH09nkq0kYKOlsSAtjSB2H7aSbzIey2kZCPq1Z4+q9OnB4gQ6651ErKSwRSXyuJlZrdd2H5at1bqqteAIxkJec6Tijew/0HwS6bGOnJbGEjyOpXNUl9hY0srdv41qFU33xLAhlnvuss9wVEn0vJdQCCFrkZJK47WxW1oYv9Z4AYmrFS4MQUvDlVjdryWGsPvz0t1iRVS3IizSx9TdfE5LA5jv37xEJA6zPVEEMkLxuLu3E7UlEqslkNPS0Hf/eRK5IF1DQdUSkZ0XkEbusdjSyKnX6zVLZPpaPKLqvmm/LEhXXjhsCc2zFUIIWYuUVBr3PgY+s9eaRfWNIc977cqikDR0InSPaWRbGro7qd4Y05jqRZP058udvrVGhvnDOxEJq3qNy6LHEYwxDbl7lwF1RxTzfVHUZMY0EhjZI4Pbru60DHbXUL+dqZeRxtJj8SsNG+dYw12YtltpIqHwvlHrvCkNQtYNJZWG8JNf3NHS+I2mCzjzwV371QpFJ7dluqcmOhAIqcSoCyx06+KJfsw7y2f7sdue/dTQPIDhjog9ppFFum30gPeS2UYpzPZts2YkBaNoiw/hQMToflLJeaTVmtklM7N6jvRjb54xDd01ZCTxfNLwPhZbEH67pwTd6rGPVa5jvd3CESgNQtYNJZeG0PT6VS2OT+28hPmFNTwQLonX1f3k1SWVQQ9Cq0R6xl4W5vrRFFQJ1OyFyse5XjSIpEyJGci+A41DHuMl1kC304Xmjkziz3sshQbCp9AXiaDPPC+jfLLDmsbrFbljNoSQtUZZpHHrTnZQvOYb3jOo5LXHvvsRGl5ewDffSuHvJm7hw4/KLRjXlNuFGcRjqsXQZydP3f0UQtvhhN09NaXLI66WhExBTc1NIL4jjA07jEFwGRCuD6ukXaCrLp3C/JhqRYSD2HvEYzTkZgKzRzrQEFSJ27XrvLhbGgWOJXfKbcrqfoo6LSrrOmWn3C7tnsqBLQ1C1g1lkYaQvP6xnnIr4viDr13E2Kwyic0vLi/iP+y+pMvM+MMXLtlrlBHXl/ua3F/eK/TlPp0grS/LdQ7NIGWUTbbn3nVnwvwuhsy2qlUieqYVw2eXJnRdh3zpcFs3xleShF3SKHwsri/3xbowbr4dqhU10pr9cl/kGVe5CaVByLqhbNIQRBzODxnKjKodA9fws1/ewR/s8P6dqt/86gV7S0IIIZVAWaUhSFfV9jeveUrCHZQGIYRUFmWXhsM/nLuDP/2bpT+fbgalQQghlcUDk4bw8cfAGz+9hc9/K0lpEELIGuCBSsNk5uIi/vbEDUS//xFqX7yC33r2Av5cyYQQQkjlUDHSIIQQUvlQGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxzQORxptjdxD+1g0d8pwQQsjaoOzSmPzgHgIt13NCXiOEEFL5lF0a/aN3lkhDXiOEEFL5sKVBCCHENxzTIIQQ4psHIg1CSkEyHkPNlgEk9dIEOmtjGEzohaUsJjF9agbJRXu5ZMhx1KFzzFqabK9DUzzfQaUwPzGB+ZS9SEgFQml4kJroxe5oCAH1x15TH0LDtl5MLtiFBqmzA2jbHMYGIyloxjpQU9uBSXsxS24C0SwmML6/EZGg2pcq2/BwI3pGrbTnF0lEsq0ZOjElBtDket2JQMeEvbWBPu4wDkyk7RccPI571UlgcIt5jEFEnmnF8Fn/GXRF0rg0hO31YfSdtZfzoOvMHJP1/nQOzcB9hfKzEmlMoScYxN4jtAapXCgNF2mVOCP1m3Hg1BxSkhluzmFkTxg14S5MG3elycFGbHxkJ+Jjar2b9osOvqWRwHAsiECsF9MJtbPFNJJTvWhSyaxzzG/iSGOkuQ7b4+o4FlLZyJfVFlViCkWhVl+KPm6VHMPq2HPOqXzSyCTUmwnMHulAwwquxYqk4ZOcOuX9mTmKA08oobVP+BTHSqRBSOVDaeQwh3i0Dg19royqE20d2o7ZaeLmSbQFt+F4vgaBT2mkT7QgUN+CEVdOnO2JGMnPRrcavOq0kq3fhJ46vA2BxiF4pmF93FE0qGsQ6ZqyXxSWSiN9RrXGHgtad9+PtWDYvmTTXaqFphKqg+yvJtKLWXsZ53oRrVXn7BatWxo2+nhdwp4/1oqmkOw7iI2x7kwr0Esa8VNDaNPHaa077Zy4vp6FpZJbp03yKHYrmfUYlyjf9fCURt8ohpujuoUaCMXQd8Y5qKXXmZBKY9Wl8bPZRfSN3NGP+bh++2MMTtzRIc/zIbOqZDpu2WZXLahkUBtB/Jy9nI/RVtQ804G4/YdfE4yi7bCRfXxKQxJsTfPJpXesyRmMn5rJTex5pSF1htAQM44lnq/7RKQYRNuJPPfI9nGPq8TeUGsmRVcyO9+vWkMq4Z5T9ai77/nDLQiH7NaJqiOQkYTVCqoxkrOWyLNHPaTlLQ0taOM9SatrH1YtoXHJ4jIu0Z1N6kuloZKytOLkhZsziKv6w44Mi5GGfV7RHtsMy10P17XTXYlq3fiUqlGtO9un6g8pKepS13UmpAJZVWm87voOhiy7EUlE9t/IrPPfv33TUxwyq6rOqKsss6xWkkhUUm07kkBauTE11a22M5KsTr6SLL0jJ4EYd+XLkk8a6Rl119qCHulOW0hh/kgLIuqu2ksMumUT7ce8vbwEQ3azPVHURFXy1+53J75gNmFqlIwiQRyQU9FJPobhS+r5otpOtaQ620PYfdjShGzr3T2TRxo5+7bWybT4BGN/S6WRewOgy2N2eVHSyH3vlr0eHtLIWdc+Dn29KA2yBlhVaWz6VlYGErLsRloX5joS8pobmY5rriPLJcedSPRyNtk7CW2yI+hqIVh3npm7WJ8tjcLSsNY3hZMJj0TmML3fqwWTxHBjHbYP5dtKYR63dMmF69CgE5x53Fbi9jomqzyF48/aiX2qC2FpVUjrQx+PJNN8LTk/0sh3Paz3bKk0cqWQU75q0ih0Pczjt7bLOcec48hdl5BKZFWl8d86chO9LLupaGnou9ZQTl+1RW5C02MOrmSvk4vzmk9p5O2eWkyrVoP1atoZ2D7bi6dlLMBZzjvSnSfRqQQeUXf940vGEgzcxy3bSEI7P2oct3UtnJaDF7J/mZ0l10mvJ9e1XtUrCTLTFeMmjzRyuqfk+nm9Pxa5511KaZjdU4WuB6VB1herKo3/99O7OYlelt1IV5R0STnrLNc9ZdZVni8BWnfj4f3urJSb0JYM7irG9628peEMhLsT+UoGwlMnWhHdNZSzrt7e1RIa3xNcOsDvZslxp1WrKqyOJab27Ry3VVdgj0t25hCWDHZHtmF31EmGkmSDaGve6S1Jjbc0cgfC801UsB7KJo2cgfBC14PSIOuLVR8I/+cP7yH+D3f0Yz5EEtK6kPAShkPZB8KF8+qPWCWEvfEpJCWZp1NITvVjd8iYP39zAgfCQTT1zCClkoM1pmFMY/UpDfmOxmAsiMiOAUwnVcqRKZ35ptzmkYaTwDpPWWktfU4GZV1jGnrbRgznZD4PvI5bn6vZ3aLQLRBrTEdInz+KtkeM2WR6LENtY4hVi1bVkf+O3CWNmwlMx3ci6roWWiIykGx/fyMl1+sxJRV1uvctjYUJxDv6Pb+Lk7ONfn8GsPcR15TbZa8HpUHWF6sujXVBYhQ9z1hf2tNTNR/x+ELXJbVOzPoCoEybzPlCnl9pCItzGGl1vtyn9hXdhj6vL/epJDrpnlFlk5YvGdrTPQOhKNqGcu/EZYxjyZ2wF3mOW393xXXcqYlubH/Y2afr/NWecsZ4hJzk6IUlDanPivxf7psfakGDnnJrTW8dtNe5b2nYz63B6Fz0Npljyv/lvvzXg9Ig6wtKg5AzXQjnHWshhJhQGqTKSWP6bxtxwPc38AmpbigNQgghvnkg0pCZUDKFVqI8s6IIIYSsBmWXhsyEMqfSSpR1dhQhhJD7puzS4L97JYSQtQtbGoQQQnzDMQ1CCCG+eSDSIIQQsjahNAghhPiG0iCEEOIbSoMQQohvKA1CCCG+oTQIIYT4htIghBDiG0qDEEKIb7Q0bt2+DQaDwWBUUNy6tfSxmDDrLiIoDQaDwVgP4YjBfDTDXLeIoDQYDAajEsNM/u7H+wmn3iKD0mAwGIz1EI4Y8j2uUlAaDAaDUQlRKOnLYzEhdaxCUBoMBoOxlsMRgtejGc76RQalwWAwGJUYZvJ3HosJs+4igtJgMBiM9RCOGMxHM8x1iwhKg8FgMCoxzOTvPBYTZt1FRFmk8cpPUvj9/3UJn/zKBV/xx1+/hIMT1zzrYjAYDIZHOGIwH80w1y0iyiINkYCXHJYLkYxXXQwGg1EVYSZ/9+P9hFNvkVEWaTgi8CrzipWuz2AwGFUfjhjyPa5SlFUaKw2vuhgMBmNdRqGkL4/FhNSxCkFpPNCYw5sNdXhpxKtsvcZpvFT7FN6c8ypjMBgrDkcIXo9mOOsXGeyecseVKby563FsrK9DTW0QGx9/Dq+dTnqvW3QsJw2rbOtrcx5lazkoDQbDV5jJ33ksJsy6i4iySGOl8eCkMYdDTwXxaPNbeP/KNdy6cQ0fvtuDrfWb8O3TpZjNRWkwGIxVCkcM5qMZ5rpFRFmksW9oAfsOLXiWecUDk8b5N7C19km8eS739cmOjajZczKz/P7b+7B1Y9BqiTx1AOOX7HXnZPt9ePv0gUz5k7uUgG5k63r/UDOeDKpWTP1GbO14Fd/+Kw9p6HqkpWNHwxv40Nn+LXPf+/CO61itsITzZO9M9rWzPXi8disOJazl5eoZb3XJSh+Pk+itpP/D1/br81gqNbv8YPYabGx6Fe9dyS1/7fhBvPiF7DWczJSruHQarz33ODbIuQcfx9d63sVVp8zHNb463oOv6brrsOELzTg0ky1jMNZMmMnfeSwmzLqLiJJLY+L96xkJ+BXHA5PGjXfxvY0qER6YwmUjCZlx9eQ+bNrUjp9I8r2RwOSBp7JJ3U72uqVyTa2b+DFeUvV97ZDdvfXufjxarxLmuwndinn/rWY8qtb329K4+nYzApt24NBZqxX03qtPIVDfjHfMhGvHh68Zx+Usbz2Iy+p5oXoKS6MOAZHlTBKX1Xlm1tNhletr8JFaTryL11TrLdD8YzvxO9v3YFKu4UdTeE2d56bOd63tb8zgtceVCDpPW+9B4iRe2qQE2G0LsNA1PveqahmqY7XPTSS9aWM7xuVY9P4ZjHUajhjMRzPMdYuIsrQ0fjhybUXieGDSUHH1zBto+Ut1lyp3uPt68M6USvCZciuRv/i20VX10Y/xokqoh86r5zqhqeRrJChJwIH20/bzIDZ12MlRh6rPq6XhlOVIw1p+7qB5PAkc2up1t68icRDPZRK9tZ61beF6CkvjUbx21tnWHVLuaq2N78emzHVZur0W2lO24EbaEdi4H5OmtGX7epX45TUf1/hxRzA6lIQeDeLbp7PrMxhrIszk7368n3DqLTJKIg0n6eeLQuJw1vMqK0vIHeq7B/Harqf0gPiGJ53uE+suOdNtlAk7oeqEppKbUZcktJpWSWhWss7cEeuwXvMnDe9kPdm50a4/9/UcUVx6C1/LdE0VrqewNJznXuFRfkO1FpbZ3mwV6ee7nFaJHfr47W18XOOl70++a8xgrKNwxJDvcZXigUhjb6VLwwzpLlGJyOo+kYS3Ed9712M9iQcgjfF21SrylMZtXD64FTVNb+HDt5szXVN+6ll1aditsXzbF5SGHmuyt1nxNWYw1kgUSvryWExIHasQZemekt+e8isMiQclDenrr3F3jah4/9Un7e4T6W93DTBLOOsvm9DkeRm7pyTsFsbXmoLGdoXrkWP+8qurKA09CG92T+WXhr/uqXzX+Bp+0myOn9jhej8ZjHUVjhC8Hs1w1i8ySj8Qfu7GioQh8aCkceuj0/j2piCebD9pTLl9Ay3qta1vWEn08qHnEJDB7DPW3exlmZL7BZXkZEC4gDTcA+HvHdyxzED4bfxkj2rhtJ/G1WvWGIo1gK2S7zl7APuN51QyVcseA+FWJPF2k9q/K0kXqkcn8cf3Y1wPVM/gneZNRh1+pJEdqL51bQZvPqVkqa5BdiB8GWnYA+Fbu9+1B8JP43tfcA+EF7jGtZvw4lvW+3X13Ft48S+fw9v2rDEGY82Emfydx2LCrLuIKEtLY+/Qgm9hSDwwaUhcmsKhfVvxqEyLVclvw188iRdfm8q5c33/YDOe1NM9rSmdb9oCKZjQVPiacmvHVSWkL+t1s3Vm921PlS0wnVR3URmzqJxYtp4bc3h7x6MIqPMLbHwcL3buw5dXJI0n8e1X92emxD6+440lU27zSkPi0mn88H9uMqbc2jOppMzHNb58+gCe+wvr/QlsfArfO2m2qhiMdRqOGMxHM8x1i4iySGOl8UClsc5CusTydl+VJApJhcFg+Aoz+TuPxYRZdxFRFmmsVAKUxirER0lcnpLvLGS/0FeeoDQYjAcSjhjMRzPMdYuIskpjpeFVF8Nf6NlQ9Y+i5VA5WxkSlAaDsSphJn/34/2EU2+RQWkwGAzGeghHDPkeVynYPcVgMBiVEIWSvjwWE1LHKkRZpPH721f+717/qJn/7pXBYDAKhiMEr0cznPWLjLJIQ357SiTgJQevEMn0qm286mIwGIyqCDP5O4/FhFl3EVEWaTAYDAajxOGIwXw0w1y3iKA0GAwGoxLDTP7OYzFh1l1EUBoMBoOxHsIRg/lohrluEUFpMBgMRiWGmfzdj/cTTr1FBqXBYDAY6yEcMeR7XKWgNBgMBqMSolDSl8diQupYhaA0GAwGYy2HIwSvRzOc9YsMSoPBYDAqMczk7zwWE2bdRQSlwWAwGOshHDGYj2aY6xYRWhoghBBCfEBpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfFMyabw1eRuf3XcZn/zKBd/xUMtl/Ehtt/aYQGdtDIMJe9HNWAdqtgwgaS/eL8l4zHc9et32CXtphSQG0LTc+RBCqpaSSeM/7r7kKYZC8W++egH/PH/XruUBMtePhtoQes7Yy8tCaRBCqoOSScORwErY0rugt/nM3stIL9ovPiCmu0IIh0II7DmJtP1afigNQkh1UFHSuHbrY3z6BauFsvvgNfvVB8DiFHpCUcTHhrC9tgUjN+3XM6Qw3R3Dxvo61ASjaIt3Y6+ZZFNT6Isp4dTWYcNjLRjs3rlMsk9hNt6ChlAQNbVBbIy24Ph5u8iFWxrpswNoi1r7CajjbTuczfJ63X39ON4cxQZVro/TKBfmj7WiydlvrBuTC3YBpUEIyUNFSUP46ewd/Fqjta08fxCkT7QgoJNzGuN7gtg+lJvuU4e3IRBWMjmv2iDpJKZ7YipxO0k2iePPBhHZcxTzungK8ZhKzHmkkTqyU9XVgXG7cL5f1RXtx7y1mEOONBaOYm99GJ2n7A3n+tFUr0Q3Zy3qdWvDaDuSUK22NJKnOhCpzZanR1sRdva7qM5BSTBTN6VBCMlDxUlD2DuU0ttKq0NaH+XFJYozXQjnJPEEBrfU5YpkcTTbPaUTbiOGjWKoBJ23pXEzhZTZkrET9vAle9kgRxpKBKkFs+PMOq6mAWsvVktjVD+3SGOkuQ7hrin13Fq37Zix/c2TaHP2S2kQQvJQkdK4ew+ob7uit//yK06fSZlIDmF7fQvGnUTudFXZd+jW+EUIPZJ7MxhjGjJ+EerCtFVgsdyYxmIK05nuqTo7vBN2jjQUKaN7ytm2KW5tqNd1jWnM92+2X5PjzW6TDVN8lAYhZCkVL40v9ZZXGla3ztKEGt7vWGJ1paH3p7uJ7Lv+ZRJ2jjT0elb3lDVpwG5p+JaG+xwMKA1CSB4qunvq3+8qd/fUHOLRIDrH7EWHc72IigiM5Lxa3VOT7dlErznfj6f9SGOJiNRxPeGSRt7uKTnPOjT0ZZpPFs6MNUqDEJKHih4IH/l5mQfCp7oQru/A5JLpvirJRoJoO2G1BtwD4ZNdm5cZCJ9AzxP5B8Jnu8OqrBvTqqWhB80bpZvKhzTOdiOi1uubUi2Nm0lM9zXqWVI50lhmIFyfQ30M8bMpa3mqF02PKTHKKVIahJA8VJQ0HvSU2+n9+b+XMdsTQc2Oo3bZKk65XUxkpsUGQjH0HOlXdUUQP2eXG+RIQzF/uAUNQXUM9SE07T+K+I46RHssK1gtjdwpt53Hco9gfig7lqKP0xYIpUEIyUdFSaOSvtxHCCFkKSWThtNiWGlUzM+IEEIIWULJpCE/WPiZFf5g4Z+0XMbQmbX4g4WEEFIdlEwahBBC1h+UBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2mQHNJ37uCjhWtIXLiMuV/O4+fnfonpn88yqijkPZf3Xj4D8lmQzwQhDpQG0Vy9lsIH5xM4N/sBLl66opav4/btNBbv3bPXINWCvOfy3stnQD4L8pmQz4Z8RgihNKqc1PUb+q7y/PxFXFfPCfFCPhvyGZHPinxmSPVCaVQxchc5+8sPKQviG/msyGdGPjukOqE0qpC7dxd1dwP/8Mn9Ip8d+QzJZ4lUF5RGlSF/5NLFkPzVgv0KIfeHfIbks0RxVBeURpUhd4cUBlkt5LMknylSPVAaVYR0KbBLiqw2/FxVF5RGlSAzXmQAk5BSIJ8tzqqqDiiNKkH6njlLipQK+WzJZ4ysfyiNKkC+lCVz7AkpJfIZ4xcA1z+URhUgA5WlbGX0jNzE1teu4oNf8dvj1Yx8xjgovv6hNNY58rtB8jMQpeDjj4HG/qv45Fcu6Ph3uy7h/SsrnX6Zwmy8BQ2hIGpq67Dh4Ub0jCbtMlI8CQxuqUNN+4S1ONWFSG0Quw+X5hrLZ42/VbW+oTTWOfKDc6WY2SLCePrVhYwwnHjiBx/Za/gjdXgbAiqJNewbwMipo4jviqjlMA5MpO01Kp0JdCrZNcUr9Q7bLY1uROuD2HvElsZYh5J1DIOrdPjyWZPPHFm/UBrrHPmlUvnhudXEFMbvPH8xRxrfOb6ybrDJdpXQnuhHdgg1iekjE5hfK85Ya9Jws8rSkM+afObI+oXSWOfIjBb5xdLVQoTxpR9awoiP38Lfz6Tx642WMJ5746q9ln/m+6IqaYXRdiSB9JKeLa+E50rSiylM9m5DQ1Ctp1osG6Mt6Nm3WT3vwKS1hroIR9EZC6kWjFonGMb27i7szUn0y3eRpc8OoC1qbL9/FEk5Vp1wZb9OeCff5GgXtj9s1Z2zvUJLc0s3hrtj2FgvdahWV/MAZvONJ6dmMNgczawbeaYL45fsMmHBKt+g9xVFW3wCw83quXMNEwNoUmWdY/a+M8euYsuAUnZxyGeNs6jWN5TGOkf+N8Jq/bz5oqrGEUbf6Zv6tYGJW1oa9yMMzWISI/ukS0olLUmorUOYznxhvbA0prvCOnk+3Wp1bw0qYei6HGkkj2K3SrCBR7ahb2gU40Pd2B62kqRTx3w8hkB9BJ1DM0guJDAd34lIpotsCj2hOoSbhzCbSGF+rBtNoc3om1BZPTmD8VO92K7qiqrjHj+lWkjWZcmyMIrORyLY26fKFtT2pzrQoI4n0jWli53EHXiiFYNHRpU8GtW+69DQN6fLc1hU1yMWVOfSiuGZBFKJKQzuUOcfVucq+11UxyrnFtyMzvhRjB8ZQOcTan0RjIc0UjPqevQ0qv2rcx9UzyeUuK217hv5rMlnjqxfKI11jvxTndXgrhLGF7//0RJh3G8LYwmSgOOtKiGrO3KVwA+Mya12AWncPIk2lRAbeswEm8L4vlBGGrolU9+CEfPO/Xy/Tpy6jkVVn6oj2j1jFwppjMjdefNJ9WwO8ahK6rFuTM6lPFpDPrun0imklDRSKiuP71N123f1ljR2GseXwvFn1Wsxj7t+1bIJqATfd9ZeFuQaqP23HUsjfaJFlUcRP2eXCSISJT0vaWhWuXtKWK3PHKlMKI11zmr8AYswvvBdSxg/OGUJo39slYSxqJKdeXsrd9MiCp00C0jDnQBtkqrl4EjD6v5xJ+CldeR00zjhbJeawfD+bXj6EemicncfFZCGOp/hZ+2uLR32nb8pDdfxeR+zc15OPbkh+zfP20TXR2mQVYLSWOcU2z11R91Z5xPGM/+32BaGdRcc0Hf0WbJ34rY0zPLkkO4O0knavsterqUx2xNZvqVht1a2D+Wm6OS5GaTsVkVy7CimneL0FPoi6pg7HJEtL43kgCTymLr7t89gUbUkpBVzH9KwWhKNGDYLFpOYnbFeqISWBrun1j+UxjqnmIFwEcZf/p9faUEceMeaFdX7k5sZYcigeLFIUpW79+iz3Rg+Naru6DfrQVxHBNNdIgAZvB7C+JF+7H3EGlB2krR7TMOasquSZN4xjS48rQfNs3XM9sk4iDEu0irHEETTgCpPWVIJPLIT8SOjGIm36jGJsD0mIdI4IOVPdKjjH8KkmbAVMqXYGuifQ2ohgdmhVkTV+vcjDSzOIf6EOn9zzGKzdOfFMCyn4oxp1OeOaejWSD5pTEiXl2o9dajrOzRhzGK7PzgQvv6hNNY5xUy5/es+64t7pRKGQ/JUdnZRICQzfrJ3+c5sIWs2kCWPPtX6yNzZu2ZPSdfRSLerm8aYPRUIxdAzOuRqHaR0MtfjKfY6nSrJZzBnX9WH0NR6FPPG2EbqhBKJvf+eM/aLDqolML4/OzMq8kw3enao5/cjDUG6ylqz9W2MtWLEbGiZs6fUsTY0y+QA9TyfNNRexlud69u1pGtrpXDK7fqH0ljnFPPlvof3J/H5b1mpq/vkjZIIo2jSCUyfzU2v0/tV6yTSC6dnPTUzhXmze8ru4pLBY7K68Mt96x9KY51TzM+IiDR+b/tFhP53UgvjqVcWKksYSGOyw+6e2i9TXl1dS4LcWUv3kd29JFNud0sXlzNNlawq/BmR9Q+lUQXc7w8W7hi4psUhsf3vruFeRQnDxumeMruWhmZyBtZ199IzYasLRgmlYVt37hfiyKrAHyysDiiNKoA/jU7KAX8avTqgNKoEmdFSyp9HJ9WNfLY4a6o6oDSqBP67V1JK+O9eqwdKo4qQmS2l+Jl0Ut3wc1VdUBpVhgxUJn+V+UVAQopCPksc/K4uKI0q4+7dRd33THGQYpHPkHyW5DNFqgdKowqRP3K5O2SXArlf5LMjnyEKo/qgNKoY+cOXAUzOqiJ+kc+KfGZ4w1G9UBpVjsx4kS4GmWNPeZB8yGdDPiPyWeEsqeqG0iAa+VKWdDfIz0DIXaT88Jz8Yulq/dc/snaQ91zee/kMyGdBPhPy2eAX94hAaZAc5HeD5Afn5JdK5a5S/jeC/FMdRvWEvOfy3stnQD4L/C0pYkJpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3Whpe//KRwWAwGAx3sKVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDeUBiGEEN9QGoQQQnxDaRBCCPENpUEIIcQ3lAYhhBDfUBqEEEJ8Q2kQQgjxDaVBCCHEN5QGIYQQ31AahBBCfENpEEII8Q2lQQghxDdXU9fx/wGFVcDAseke2AAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting school</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       mileseducation.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>089299 42034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d192391a563fd</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Grant Thornton Learning &amp; Development Academy  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       DLF Square, 21st Floor, Jacaranda Marg, DLF Phase 2, Gurugram, Haryana 122002      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADSpSURBVHhe7Z3/cxvnfefvz8ik6V2v7bX9KXdzTXO+GSbDI308YdoRph6h8RgXj5HTWIwc6GqFrGzxFElmqEgOSzo8MuHpLmiZ0OaZNlyeOGIsWrRkq2KoMmRcsWxkMpHJWCYsSogpQaIEifL7ns+zu8ADECCWBAFCwPs18xlg99l9dhdcfV77fAH0L0AIIYS44C8b94PSIIQQ4gpKgxBCiGsoDUIIIa6hNAghhLiG0iCEEOIaSoMQQohriiaNu/eBv5u8gz2vLOHR1uv4veev4o+arur3sm7g53dwb8XemBBCSElSFGmM/CKOP/n2Ij77zY/XjEdaruHspbi9FyGEkFKj4NJoG76VkMIXXljECyduYvSX97C0/KmO87+M63VS5mz30lu37L0JIYSUEgWVRrtK/iKB33/+Kk5evItPP7ULMiBlso1sK/t87zTFsRlEw0FU7R5A1F4mhJB8KJg03nk/rpP/7/zVx/inj+7ba5M4rYp0ptS2so+USR1bwd33T+BQ65/i84cewWde+FPs/tEpzMTswlJjJYKJrgb4PbWoqq7Ftsca0DOWVEQpSyN6vhtNj3tRUx3EYMReqdDnrK4lGR5sD7Rg8JLzR4hgcLdaX9eCiWV7VQrzCAdkvw5M2WsIIZtDQaQhg95/bHc39Yxm/FedVRrCj9Q+UiZ13LlnrywW03+DPzv0OJ4feh9XP4nhRuR9hI8/js+3vYb5B/Y2JUMEw0EPaoK9mIkowa7EEZ3uRWOdD53jVoItTWnEMdXlx/Zd3RidjSCW9myw6pzjMSycboG/OoDwZVlhS0MJpWkow5XN96Ney4bSIGSzKYg0XvvZHZ30v9C8iAdZuqTWkobs4wycv67qKh4xnOx8BP6BD+xlmwfv4wdHHsHzb9tPuh+dwNcOdSD89nfhf0G1Rg49Cv+PzuOGIZW7U6/h+dZHVdkj+GLrd3EyUeUUXjq0Fy9fOKVaM1L+ZXyp42VMbaAlE3+3BTXqaXs0bd+5Hn8i6a5KwCvzGG0NYnudPKl70dh6DgvmrLUrI2gLyNN/LWq8AbQNzdsFFgtnWtHo9VhP/8EQppbsAkX8YghNj0mZ1eLpm8xyUZLUfd2YyTJbLrPo4hhtroWve1q9t6TR1NCAqkA/FqwNEsx0eeFTZXsKJI3l5WUduXC7HSEPEwWRxq4fLemEv9a4xFrSEGRfKa9XdRWNT87g+UNP4uVf2csGU/2P4TN/O24taGl8GbsH3scN5bS7H57Hd44q2Zz4yCr/UJW/sBfhX6lH6AdxXH3nu3j0SAfGtf9EGo/g8x2vYUqyYuwDvPzSI3i0/30pXBcz3V5UNZ9T6TSN6Cwmzs8qBaYn4JhKvB74DwxhTnaKz2NQWiqJOmbR5/OgsX8ecZXQ45f7VavFi56LuhDxsVb4fB2YkMpWopgJGXUvjeCotHDO20c636FaBg0YthZTWOjfBf+xEHqCjpyC6LuYFIxbaXSeOYe2Or/d+rBZlnWqRfLuABoLJI0f/OAHaG9vX1MIUibbSBBSThREGlXfuaYT/sUPV49lOOSSxtSV+7pc6ioaWgYq2du53+Tq0F585qUTuCoLdktj3GhZ3Dj9HD7z4muQ5/LxH30ZO1JaK0oML34ZL/2jvBdppIpJ191xyqp7HUy1q9ZC+6S9lJmUBByRRJqWyKNDaEqMKUyis9qPvku6RBHHwuSY+luIUqxE3XbGUJQkaLXv8KJ6r+s+aLR6opg7P4a5DNLQ510XRHhaFa6oY5xqga9uP87a22aSRmw6pOr3onM8eS6HTylxSauiS0RiERtSrY+GIcT0+RRGGh999BEOHDiQVRyOMBobGzE+bj9oEFImFEQav/ucJYSbd7JPl8olDdlXyqWuorFeaegSG2ld6HXXEVYtB+mWSo+XJmRDq3vKPEZK3SnEMXHMg23Hxla3JhTrlsZ4B6r8vZjTJQ7T6PGqp3Z9MXHM9OzCNum2ag5hUForiS4kEYqME6SHI5wIzh7yo8YTwOHWXgxPR3RrZTVRDAdrEegxu73mEfaLBCzj6HNOO05qV5kljcawOrB0dSUGxO1uKxnnKKA0hGzioDBIuVMQaci3vd1KQ7qfbt1dvZ0jDZmCWzTW1T2VJo1fvYYdhjQS4x+r2DxpZO2eUk/vsSVrbW5pTOJ4nSMNm+gspoZ60SbdR76DOJtohXjRk3yoz0j8yjRGw904/KQHNTtDmFn1IG51M+mEbyACdNZlammkYkhDJNRgi8IUyGQHago8EJ4uDgqDVAIFkcZ/PGJ1T0kXUzYGJu/gD/ZbcpFB75//OnWalEy9lbKidk9lHQj/AC+3rh4IN9PC3fPftbun4jgX+jI+HxrHXbtMk+jKWo801sYZCE+fdpp1IDxX95QxFmJhJWQrOVvTWOv7UgfGYbcm4lcmMTGpWhfWolpvtmBSWS07JYGdaS0N19JQxz7TgqpALwbNrioRZIGlIZjioDBIJVAQaXz9x9ZAeEeOL+gtLD3A9o6o3vZzDR/jxZ/EsGInV9lX1n+9t4gD4UKWKbefOfo3mHISv5aGPRAumS86jpeOPoKvDV23yu06vnPOWtYD5S9+Cye1/zZPGvIdDRnI9h8YwExUnUjOKbf2QPiRESzIecfnMbxPtSacBB4dwWG1b9tpKxkjeg6dXg+Onrbqip3aryQVRNj+vkRMjvVkN2Zk5+lu+I0yPYhe7TPGRwxEXs5xEmMaSfmtVxrW4Ld0YwUQdpxWJGkIjjgoDFIJFEQa5pTb+8ZgcSZkem3X27fwLxs/xrb26/o7HrKP7Ct1FHfKrUXOL/dpabQgNJSccvu1V8ZTptze+MeXsffIo3os4/Pf3osfjNtC2UxpCHoKrfPlPvkS3H70rfXlPrX9cHPAmHKrBGKMPcQvDSSm3FbJ+ETvtNEiUKIfakG9nnJbi21Pml+4U8ca605MuZUZUZ1n7KSeAX2cJ7PUs15pKGRAXA+A28vFlIYg4qAwSCVQEGlI4nd+Syrbl/vSke6o6C1rbEP2kX3ly31SV8mRaUyDEEIqgIJIQ5Bfq5XELz8JstbU23Rk263+GZGcUBqEkAqlYNIQ5NdqJfnLDKifTOX+wULZ5qH4wUJKgxBSoRRUGkL6T6MfPnETP/3VPd0VJZHpp9FlH0IIIaVHwaUhuP1PmGQb/idMhBBSuhRFGoIMaMt3M5z/7vUPm1b/d68lOehNCCEkQdGkQQgh5OGH0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrrkRu0VpEEIIcQelQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXFMUaXz2mx/ryIXb7QghhGwNlAYhhBDXFEwab/8ijj9+4VpCBOsN2VfqIIQQUjoUTBpf/PbGheHEF5qv2bURzXgHqnYPIGovbgXx+UlMzcfsJUJIpVEwafx2Y2YRrDdKiwgGd9eiMRyxl4tMCUhjqsuDmgMjoDYIqUwKJo3PNWSWwHqjtKA0CCGVDaWRTmwafUEvaqprse3JFgz2tKj3HZiKDKBRratyIpG8Y5gLt6De61HrPdgeaMHZK7rAIjaLweYAtsk+dV40do0humKXrUQx0dUAv0fq9MD/bAgz5iN8+rmEDqZKYyWC0dYgttfZdYcmEbPrnmpXcgsNJfav8QbRdzGGhVPqXO3j1TePYEG219cWQHje2leY6/GjqmFoVYtC6q1qn9Tvo+Egqo6NYCpkn4MngLZTWyRUQkhRoDRSiOLsPg98+wYwtxxHPDqNcFBkoKShy1e3NGKnD6LG14EJO5Mv9AdRE+jHgl6KYFjt728fs5L50qyur77Pys5zIR9qgv2Yk/H+lRgm2tXykXOwhv+tc/EfUYldrUiciyGriWPeZN2qvM84N53cfS0YnVc7KzlNdQdUUlfHTtQ3hk5fLQ6fEi2kX5e13DS0uk2zShrVPrSdjiC+Ekf03Vb4qvfj7JIuJoSUIQWXxkbZEmnoJ+4gBs2HZekSWkMaWI4htmy/F+w6hhfV+8u9CFSrxG2Wzw7heJ9qEai38Zja1zKEhRyrzj6WrqcBw2beHmtNSkOXp9YdP9OCqqBVLsl9T79xnlf6sad6FwaNVpApgNhQQ7Lu6BCa0o9ts0oazY7khEl0qhbMcauYEFKGUBomKYKwySUN1UKYSXRPqYSqwxaP7LvTaXVkYCVidE85YR9L9vV2Y0ZvaCPrnMSuz8vczw67XJJ7ynlmEKIpAFMUsVP7M3ZNCauk4eyvEWnUonPcXiSElB0Fk8ZvVYg0dOLU3VP287aZnGXfrNKIqwTstbqnnNaCeSx5n0sa6eUG65aGqnW4QbqrIhhtztw1JVAahFQ2WyqNK5+s4C+6f4N/s/+qfpVlhy2RxmKGLiEzkWeQxqrkrLuB7OScqXtqcRYTkxGlDKuulAQr3U/OsXJ1T833oz5t8BrJj28D0nBaGPtxuC5z15RAaRBS2WypNL6iROHIQUKWHZx1xcUYfM44EA5MHKuFr2MS8bjVspDB7KrdIcyolobevkG2d5LzWgPhMZw94IFPZjDJseZH0Pm4eaz0gfBJ9Ow0B8Kt8ppgL2Zk4HklipmeIOq7p/UYw0akgaURHDa6uDSLkxg9P58Yt6A0CKlstlQaf6BaGI4cJGTZwVlXdDJNczWkEZ/uxR4Zg3AGrFciOGtPqZVprT2n+3G02o/wZb25qs+YcusJ4HBvclrsqmMNdqS2THJOuZ3HsKpbT3fVU2gHMGcPRGxIGqpm6aIy99OzwzzdieunNAipbNjSSMfo4hH0jCQzUZczKyrp16WKhRBCTAomDTdJv+TGNPSTtt/+3oEsWt9lSHliL1PiSzHMyXdMssyaIoQQYUulsRZbIw3F4hh6nvXZ3Uk+NBnfsi5fJnG8rhY1jx9M/TY7IYSkQWkQQghxTcGkIT9r7iT+jQZ/Gp0QQkqLgklj5Bd3+Z8wEUJImVEwaRBCCCk/KA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGsoDUIIIa6hNAghhLiG0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4pqiSePufWDg53ew55UlPNp6Hb/3/FX8YdNV1Kr3sk7KZBtCCCGlS1Gk8fYv4viTby/is9/8eM2QbWRbQgghpUnBpfHSW7cyCiI9pMXhvJd9CCGElB4FlYZbYXzx29ew8gD43+/exu/8lbWO4rCJDKCxugNT9uJDz0oUM+dnEV2xlwkhDxUFk8Y778dXySFTVL94Haem79p7Aaf+6S5+q8EqkzrKmwgGd9eiMRyxlxXjHagyJbEF0phqr0VV+6S9tMksDqGpzoe+S/YyIeShoiDSuHMP+OMXso9hiBTWouuM1UKROqSu8qUCpUEIeagpiDRe/9mdVaIwI5c0pKvqC7Z0pK6iEptGX9CLmupabHuyBYM9Leq9nbR1Am/F4MB+bK+rRee4WrcSxURXA/welWirPfA/G8JMTDYWJtFZHUT4/BDanvTo8u1Bu1zXJfvYsXsA5yVZG+t0/fYxz06G0Oi16qhvHsGC0b0Tm+zFYV2/nPN+hC8mTgDRcBBVx/oxvE+uyboOkUJj3xiGmwPYpvap8QbRp/eR8zXPISmr3McYwVQoqD+XKk8AbacMEZro6wli0C7Ofi6EkFKkINKo/9HSKlGY8Z//+rq9ZXZCf39bbyt1FY8ozu7zwLdvAHPLccSj0wgHJVGa0qiF/8gQ5iIxxFXingv5UBPsx5z0pK3EMNGulo+cg9WxZiXhmmAvZqJqcXkWYdWy8HVP61JVocuWhhxTiUJVGo+eQ6e3FodP2Yn1ci/q63ahZ1wOoJL7+Q74qwMIX9aLVkKv9qFtaBbRJeusdEuiTslsWu2zEsdcn9rG240ZXZqhpeH2GKcj6jOJI/puK3zV+3E2058ugzTWOhdCSGlREGlUfeeaTvi7DHnkal2k8w8f3NP7SV1FIy2hacwkrstbMLqsSzTxWAwxc+hFtq9zkr5Iw59IroJOsMEBpSfBrTRSjymJtqbDSupT7UpyXY6ELGa6VKvCTvr6eM2OxCxk/0DPvL2ksK97eNFaTJfG+o8h1+3BccM7CTJIY61zIYSUFgWRxu8+Z4lCxiOa3ri5IWlcjz3Q+0ldRSM9YQurpJFWvhIxuqecMKWRKiGdYHevVxqpx0wmdWv/tjOmElRL4NT+xDH08cxWg0L2TzlmhkSe3Gcjx7BaWLp7LZ0Mx1rrXAghpUVBpPH7z1/VCf/W3U/18gsnLHFki//03dXdVTG1r5RJXUVj3dKIq6Snnrile8ppCaTUsTXSiA4kj1Eoaax9DEqDkHKloN1TMx8nR2vXEkemVsgvIvd1WVG7pxYlYTVg2MroFmtKw0qoKclxrLWI0pD3LrqO8pLGRo5BaRBSrhREGl/vtcYyesyOeEU2cWSSxg/PWQPhUlfxsAbC9aBz1oFwM4HHcPaASqgym0m2nx9B5+PG9jmlAUwcq4WvYxLxuP0kf6Ufe0Rci6o+WZVDGtYgtT2QrIiNd6M+fZB6ndJY6N+FqgZ1juoEZLB//ccwpRHDwvkRTDljFJQGIQ81BZGGM+U2fZaUTKU1ZeFEujQefJpsrWz5lNvQwTWkoUjffrADgcTAdW5pxKd7sUfGQxKD5xGcPeTX9TUOqK1ySUMRmwyh6TFjOuxk2nTYdUoDkREc1fJLDkiv7ximNGbR5/OgadC+YkqDkIeagkhDfq3W+Z7Fj9JaG58/mP1Lf/+l/Tre+/X9xHRb+XJf0X/5Nu3nLeJnWlKSPCGEVDIFkYbg/IzI51QrQn4axOEnU3fxpaNWKyJTfKF5Ef96n/W++D8jEsVwg9/+voEsjqHTl/YkTAghFUzBpCF877T1cyC/3fgxOtT7e/ZTfLZuKjNk3y1hcQw9z/r0t5OrPD40hSYRS2t9EEJIpVJQaQjtxi/dfunYNZy8eDfxHYxs8dfD/IVbQggpRQouDeHsJff/CZNsSwghpDQpijSE9P/uVf6rVwl5z//ulRBCHg6KJg1CCCEPP5QGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdsiTTeGL8H3/du65D3hBBCHg6KLo2pDx+gpuVWSsg6QgghpU/RpdE/dm+VNGQdIYSQ0octDUIIIa7hmAYhhBDXbIk0CCGEPJxQGilEMLi7FlXVq6Nz3NoifmkAbU96rPWeAA73TiNuFQHjHWn7eeB/thXDl2L2BkA0HNTr295N7JXCQl9A7+sczxUr8xhtbYDfYx1322MN6Dw9bxcK9nXVtWBi2V6VwjzCAdm3A1P2mlXkPEYlMYnOLH+jqXb1+bRP2kuElB+URgpWcm0MR+zlNKIjOFznQ+f5qL08hk6fB0dP21LQ0jAS73IEMz1B1NTtx1lnFy0NlVgahpBUiYOTvNchjRV1zkElpwMDmIkoEa3EEZ3uRWOdB4dP2Qc1ZNg05KwzmO9HvZxTNmm4OkYlQWmQyoXSSGFtacTebUVg/xDMNJmSJNKloZlGj7cWbWesloWWRkMDmqoDCKc/qF/shs+rynZmSEiRATRmSOrxd1uUlFa3IGJDDajy92JOL1nX1aSOWxXox4Jel2SmywufKtuTRRrujmF9FimfnT7nIAZllX7fisGB/dheZ12f/ixSEmx6Mo5hJhTU20urri3cizZ7X0EfLzSAHmn57R7QfxfdEgx4UaPqqfGqfU4lz8fafgh9Qac8iL6LMSycakG9bkF5UN88goUVe4esuJdG7vMxzl/dP6mfcxyjzbXwdU1bS7nq6hvDcHMA24xrS7A4hp5nfbqsyuNDU8hoIROyDjZdGj+fW0Hf6D39mo1bdz/F4OQ9HfI+GzKrSqbjFm921drSSCd+ZQRtPh+OT9r//DJKQ7Ue/LXqidz6B2wlynOYOOJBoMe0Rlyvq+87p8/BrTRmur2oaj6XIwFY19V55pxKun6EL9urhWVZpwT2bub6BXfHsBPXmtKohf/IEOYiMcTV7ZFLGrFT+1Xy24/h2Tji8ajVajPKdYKuC6JnfB6xmDq7pREcNVuCqgXVKNdmf8x6e18LRufVtitRTHUHVAJVn/kRJQq1Kq5bjsm/VXZcSsPN+Zjnv6LqVa23RL162Yuei+q9y7rC06pctQTn+tRn6+3GjC6dRZ9qETf2z+vPHUtWCzlbFykha7Gp0ngt7TsYspyOSMLfdTuxzX/9/nJGccisqlqjruLMsrKSq+4+MiMlsRldTNVeHB4wEn+6NFbUk3Km7ql9I4jpVoX6R+24NTqkWh8NGI7aCd6lNFKSVFasOqUrSbcq7CdXQbcWpKssS/2Cu2NY260tDZWwjdbK2tLIJPDUZC3HSxGvSpaxJTMR2nUMWB++bL+n36jvSr9qXe3C4BV7WeHuWq3zWHWfOOHs7+J8Uh8crFZfjbO/eY+sty77sx9eVO/1vpaoHWT7mo7cf1NC0tlUaez4XlIGErKcjrQuzG0kZF06Mh3X3EaWC0+mRJUdq6Vh9OtraaQlEN9BDKYPhOuuFBm/SD7t6fV6nMM6BysxrpGc7O6Y9CSnlxPbORIwrkvGLxJdINZ6Pc6xDmlkPoa1fm1ppNa/tjRSBWGxWhrpf6uY0YXjnKOzzZrnZ5N+rZnJdG4W6fuv63wEQxTSwksRfD7XFjG6p5zIeZ2ErGZTpfEXHamJXpbTKSdpCAv9u6yWgyyktTR094rPaE0oktIwnvJTBDKJ40a/fVw9IcpTYuxSr3oqVk/qzrJ0ZyjmevzJ45uknIt5XVEMN9iiMAUy2aGSUWZpuDtGjsRVDGnoY1hdONZTderfM2diVcg2myaN9Z6PsCJjYF70TEu3pt01JeRzbcvqfL3SPTWbaG24u05CVrOp0vh/P7ufkuhlOR3pipIuKWebtbqnzLqK2T216h+yTXToIAKHUgfCtTSc/v5V3VPWbCizPlMaejxBBsTDZldVloSkk0CGpC5Pprpby152yCoNJaIzLagK9GLQ7KpKP3cTV8ewElFK94+ZuDKcv/4sjo3ZS4J57UpuwfTZXjmkIefjfLYadd07k9usmVht3CVTl9JY7/nY6BbGvv1oNLsv87m2DJ/9xDFKg2yMTR8I/+ePHiD8D/f0azZEEtK6kMgkDIeSGwiXJ3P7aU/I3D2V+o8zrtb51NP8qP2YniINe/Bbugrq+5z+6HVKQz3/T7X7ULOzAxPzVr91fGkeE+0BVPlCKbOnEtelB79V0jBncGU49yRujmFfW6AbU3Jxy/MYPeJTdWZPXHJMGe8ZvqKUm2Gg22qpWQPX2QbCU/5Wl0Lwq+P1Taun8WW1fV+D7o5xlVhtzKS/cKoDx0+ljjlYuJTGes/HYVokXZsc2xDyuTY9iO5Fm7qW+HIcC6dbEZC/P6VBNsCmS+PhJoc0FLHJXhy2v9ynpz2GVZPfLsuceKM4u88Dn/oHKtulSkOx6ik+S0JajmDq/OzqLiJBBtzDLaj3Ol869GHP/hAmZBBUs/q6ZMA15bsia0pDkfMYipUIzh7y68SuP5vuVuxxEldG6cmU2l3GNNBuHE259vQpt6GU8kxJNzF9ViXJxq4RhA8kB4jXTKw2ZtKX95kHi11KQ7Gu80kwjZ4/M2ZR2eRzbfGLIdVykb+dTCsewHCH39WMOELSoTRIaeN0zwi6Oy81yRcOa+wn9/TbAiAJv04J1rx2QkoESoOULNHBBgTs71DI9yom2n1p/foFJDqCo/sGXHzRbxPRU2Mj+jrNWVOElBKUBildRBRdzu9dye94hTC1ZJeVI4vSpVSLbbtCmNmCBg4hbtgSachMKJlCK1GcWVGEEEI2g6JLQ2ZCmVNpJYo3O4oQQkg+FF0a/O9eCSHk4YUtDUIIIa7hmAYhhBDXbIk0CCGEPJxQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENVoad+7eBYPBYDC2MO7cyf2aT0gdmxCUBoPBYDzM4Qgh06sZzvZ5BqXBYDAYpRhm8nde8wmz7jyC0mAwGIxyCEcM5qsZ5rZ5BKXBYDAYpRhm8nde8wmz7jyC0mAwGIxyCEcM5qsZ5rZ5BKXBYDAYpRhm8k9/3Ug49eYZlAaDwWCUQzhiyPa6SUFpMBgMRilErqQvr/mE1LEJURRpvPzTGP7ofyzis9/82FV88duLODF5M2NdDAaDwTDCEUKmVzOc7fOMokhDJJBJDmuFSCZTXQwGg1ERYSZ/5zWfMOvOI4oiDUcEmcoyxXq3ZzAYjIoPRwzmqxnmtnlEUaWx3shUF4PBYFREmMnfec0nzLrzCEpjS2Meb9TX4qXRTGXlGhfwUvUzeGM+UxmDwdhwOGIwX80wt80j2D2VHten8cahp7C9rhZV1R5sf+o5vHohmnnbvGMtaVhle1+dz1D2MAelwWC4CjP5p79uJJx684yiSGO9sXXSmMfJZzx4ovlNfHD9Ju7cvomP3uvB3rod+P6FQszmojQYDMYmhSOGbK+bFEWRxrGhJRw7uZSxLFNsmTSuvI691U/jjcup66c6tqPqyLnE8gdvHcPe7R6rJfLMcUws2tvOy/7H8NaF44nypw8pAd1O1vXByWY87VGtmLrt2NvxCr7/3zJIQ9cjLR076l/HR87+b5rHPoZ30s7VCks4T/fOJtdd6sFT1XtxMmItr1XPRGuarPT5OIneSvo/frVLX8dqqdnlJ5KfwfbGV/D+9dTyV8+ewItfTX6GU4lyFYsX8OpzT2GbXLvnKXyr5z3ccMpcfMY3JnrwLV13LbZ9tRknZ5NlDEbJRq6kL6/5hNSxCVFwaUx+cCshAbfi2DJp3H4PP9yuEuHxaVwzkpAZN84dw44d7fipJN/bEUwdfyaZ1O1kr1sqN9W2kbfxkqrvWyft7q33uvBEnUqY70V0K+aDN5vxhNrebUvjxlvNqNlxACcvWa2g9195BjV1zXjHTLh2fPSqcV7O8t4TuKbe56ontzRqUSOynI3imrrOxHY6rHL9GXyiliPv4VXVeqtpfttO/M7+PZiSz/CTabyqrnNH53vW/rdn8epTSgSdF6y/QeQcXtqhBBiyBZjrM778imoZqnO1r00kvWN7OybkXPTxGYwyC0cImV7NcLbPM4rS0vjx6M11iWPLpKHixsXX0fIV9ZQqT7jHevDOtErwiXIrkb/4ltFV9cnbeFEl1JNX1Hud0FTyNRKUJOCa9gv2ew92dNjJUYeqL1NLwylLkYa1/NwJ83wiOLk309O+isgJPJdI9NZ21r6568ktjSfw6iVn3/SQ8rTW2kQXdiQ+l9X7a6E9YwtutB0127swZUpb9q9TiV/WufiMn3IEo0NJ6AkPvn8huT2D8VCEmfyd13zCrDuPKIg0nKSfLXKJw9kuU1lRQp5Q3zuBVw89owfEtz3tdJ9YT8mJbqNE2AlVJzSV3Iy6JKFVtUpCs5J14olYh7XOnTQyJ+upzu12/anrU0Sx+Ca+leiayl1Pbmk47zNFhvLbqrWwxv5mq0i/P+S0SuzQ52/v4+IzXv33yfYZMxhlFI4YzFczzG3ziC2RxtFSl4YZ0l2iEpHVfSIJbzt++F6G7SS2QBoT7apVlFEad3HtxF5UNb6Jj95qTnRNualn06Vht8ay7Z9TGnqsyd5n3Z8xg/GQhpn8ndd8wqw7jyhK95T89pRbYUhslTSkr78qvWtExQevPG13n0h/e9oAs4Sz/ZoJTd4XsXtKwm5hfKvRY+yXux4552+8sonS0IPwZvdUdmm4657K9hnfxE+bzfETO9L+ngxGWYYjBvPVDHPbPKLwA+GXb69LGBJbJY07n1zA93d48HT7OWPK7etoUev2vm4l0Wsnn0ONDGZftJ5mr8mU3K+qJCcDwjmkkT4Q/v6JA2sMhN/FT4+oFk77Bdy4aY2hWAPYKvletgewX39OJVO1nGEg3Ioo3mpUx09L0rnq0Un8qS5M6IHqWbzTvMOow400kgPVd27O4o1nlCzVZ5AcCF9DGvZA+N7Qe/ZA+AX88KvpA+E5PuPqHXjxTevvdePym3jxK8/hLXvWGIPx0ISZ/NNfNxJOvXlGUVoaR4eWXAtDYsukIbE4jZPH9uIJmRarkt+2P38aL746nfLk+sGJZjytp3taUzrfsAWSM6GpcDXl1o4bSkjf0Nsm60we254qm2M6qe6iMmZRObFmPbfn8daBJ1Cjrq9m+1N4sfMYvrEuaTyN77/SlZgS+9SB11dNuc0qDYnFC/jxf99hTLm1Z1JJmYvP+NqF43juz62/T832Z/DDc2arisEo03DEkO11k6Io0lhvbKk0yiykSyxr91VBIpdUGAxGxsiV9OU1n5A6NiGKIo31SoDS2IT4JIpr0/KdheQX+ooTlAaDUdRwhJDp1Qxn+zyjqNJYb2Sqi+Eu9GyouifQcrKYrQwJSoPB2JQwk7/zmk+YdecRlAaDwWCUQzhiMF/NMLfNI9g9xWAwGKUYZvJ3XvMJs+48oijS+KOm9f93r3/SzP/ulcFgMFyHIwbz1Qxz2zyiKNKQ354SCWSSQ6YQyfSqfTLVxWAwGBURZvJPf91IOPXmGUWRBoPBYDAKHI4Ysr1uUlAaDAaDUQqRK+nLaz4hdWxCUBoMBoPxMIcjhEyvZjjb5xmUBoPBYJRimMnfec0nzLrzCEqDwWAwyiEcMZivZpjb5hGUBoPBYJRimMnfec0nzLrzCEqDwWAwyiEcMZivZpjb5hGUBoPBYJRimMk//XUj4dSbZ1AaDAaDUQ7hiCHb6yaFlgYIIYQQF1AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ1xRMGm9O3cWXj13DZ7/5set4pOUafqL2e/iYRGd1EIMRezGd8Q5U7R5A1F7cKNFw0HU9etv2SXtpnUQG0LjW9RBCKpaCSePfH17MKIZc8a/+6mP888J9u5YtZL4f9dVe9Fy0l9eE0iCEVAYFk4YjgfWwu3dJ7/Olo9cQX7FXbhEz3V74vF7UHDmHuL0uO5QGIaQyKClp3LzzKb7wgtVCOXzipr12C1iZRo83gPD4EJqqWzC6bK9PEMNMKIjtdbWo8gTQFg7hqJlkY9PoCyrhVNdi25MtGAwdXCPZxzAXbkG914Oqag+2B1pw9opdlEa6NOKXBtAWsI5To8637VQyy+ttj/XjbHMA21S5Pk+jXFg404pG57jBEKaW7AJKgxCShZKShvCzuXv4rQZrX3m/FcTfbUGNTs5xTBzxoGkoNd3HTu1HjU/J5Ipqg8SjmOkJqsTtJNkozu7zwH9kBAu6eBrhoErMWaQRO31Q1dWBCbtwoV/VFejHgrWYQoo0lkZwtM6HzvP2jvP9aKxTopu3FvW21T60nY6oVlsc0fMd8Fcny+NjrfA5x11R16AkmKib0iCEZKHkpCEcHYrpfaXVIa2P4pImiovd8KUk8QgGd9emimRlLNk9pRNuA4aNYqgEnbWlsRxDzGzJ2Al7eNFeNkiRhhJBbMnsOLPOq3HAOorV0hjT7y3iGG2uha97Wr23tm07Y+y/fA5tznEpDUJIFkpSGvcfAHVt1/X+33jZ6TMpEtEhNNW1YMJJ5E5Xlf2Ebo1feNEjuTeBMaYh4xfebsxYBRZrjWmsxDCT6J6qtSNzwk6RhiJmdE85+zaGrR31tmljGgv9u+x1cr7JfZJhio/SIISspuSl8fXe4krD6tZZnVB9XY4lNlca+ni6m8h+6l8jYadIQ29ndU9ZkwbsloZraaRfgwGlQQjJQkl3T/27Q8XunppHOOBB57i96HC5FwERgZGcN6t7aqo9meg1V/qxx400VolIndfONGlk7Z6S66xFfV+i+WThzFijNAghWSjpgfDRXxZ5IHy6G766Dkytmu6rkqzfg7Z3rdZA+kD4VPeuNQbCJ9GzM/tA+FzIp8pCmFEtDT1o3iDdVC6kcSkEv9qub1q1NJajmOlr0LOkUqSxxkC4voa6IMKXYtbydC8an1RilEukNAghWSgpaWz1lNuZruzfy5jr8aPqwIhdtolTblciiWmxNd4gek73q7r8CF+2yw1SpKFYONWCeo86hzovGrtGED5Qi0CPZQWrpZE65bbzTOoZLAwlx1L0edoCoTQIIdkoKWmU0pf7CCGErKZg0nBaDOuNkvkZEUIIIasomDTkBwu/tM4fLPwPLdcwdPFh/MFCQgipDAomDUIIIeUHpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AaJIX4vXv4ZOkmIh9fw/yvF/DLy7/GzC/nGBUU8jeXv73cA3IvyD1BiAOlQTQ3bsbw4ZUILs99iKuL19XyLdy9G8fKgwf2FqRSkL+5/O3lHpB7Qe4JuTfkHiGE0qhwYrdu66fKKwtXcUu9JyQTcm/IPSL3itwzpHKhNCoYeYqc+/VHlAVxjdwrcs/IvUMqE0qjArl/f0V3N/AfPtkocu/IPST3EqksKI0KQ/6RSxdD9DdL9hpCNobcQ3IvURyVBaVRYcjTIYVBNgu5l+SeIpUDpVFBSJcCu6TIZsP7qrKgNCoEmfEiA5iEFAK5tzirqjKgNCoE6XvmLClSKOTeknuMlD+URgUgX8qSOfaEFBK5x/gFwPKH0qgAZKCykK2MntFl7H31Bj78Db89XsnIPcZB8fKH0ihz5HeD5GcgCsGnnwIN/Tfw2W9+rOPfHlrEB9fXO/0yhrlwC+q9HlRV12LbYw3oGYvaZSR/IhjcXYuq9klrcbob/moPDp8qzGcs9xp/q6q8oTTKHPnBuULMbBFh7HllKSEMJ3b+7Sf2Fu6IndqPGpXE6o8NYPT8CMKH/GrZh+OTcXuLUmcSnUp2jeFSfcJOl0YIgToPjp62pTHeoWQdxOAmnb7ca3LPkfKF0ihz5JdK5YfnNhNTGL///NUUafzg7Pq6wabaVULb2Y/kEGoUM6cnsfCwOONhk0Y6mywNudfkniPlC6VR5siMFvnF0s1ChPH1H1vCCE/cwd/PxvG5BksYz71+w97KPQt9AZW0fGg7HUF8Vc9WpoSXlqRXYpjq3Y96j9pOtVi2B1rQc2yXet+BKWsL9SGMoDPoVS0YtY3Hh6ZQN46mJPq1u8jilwbQFjD27xpDVM5VJ1w5rhOZk290rBtNj1l1p+yv0NLcHcJwKIjtdVKHanU1D2Au23hybBaDzYHEtv5nuzGxaJcJS1b5Nn2sANrCkxhuVu+dzzAygEZV1jluHztx7ip2Dyhl54fca5xFVd5QGmWO/N8Im/Xz5iuqGkcYfReW9bqByTtaGhsRhmYlitFj0iWlkpYk1NYhzCS+sJ5bGjPdPp0897Ra3VuDShi6Lkca0REcVgm25vH96Bsaw8RQCE0+K0k6dSyEg6ip86NzaBbRpQhmwgfhT3SRTaPHWwtf8xDmIjEsjIfQ6N2FvkmV1aOzmDjfiyZVV0Cd98R51UKyPpYkS2PofNyPo32qbEntf74D9ep8/N3TuthJ3DU7WzF4ekzJo0Eduxb1ffO6PIUV9XkEPepaWjE8G0EsMo3BA+r6fepa5bgr6lzl2jy70BkewcTpAXTuVNuLYDJIIzarPo+eBnV8de2D6v2kEre11YaRe03uOVK+UBpljvynOpvBfSWMr/3NJ6uEsdEWxiokAYdbVUJWT+QqgR8fl0ftHNJYPoc2lRDre8wEG8PEMW9CGrolU9eCUfPJ/Uq/Tpy6jhVVn6ojEJq1C4U4RuXpvPmcejePcEAl9WAIU/OxDK0hl91T8RhiShoxlZUnjqm67ad6SxoHjfOL4ew+tS6Y4alftWxqVILvu2QvC/IZqOO3nYkj/m6LKg8gfNkuE0QkSnqZpKHZ5O4pYbPuOVKaUBplzmb8AxZhfPX/WML42/OWMPrHN0kYKyrZmY+38jQtotBJM4c00hOgTVS1HBxpWN0/6Ql4dR0p3TROOPvFZjHctR97HpcuqvTuoxzSUNczvM/u2tJhP/mb0kg7v8zn7FyXU09qyPHN6zbR9VEaZJOgNMqcfLun7qkn62zCePb/5tvCsJ6Ca/QTfZLkk7gtDbM8OqS7g3SStp+y12ppzPX4125p2K2VpqHUFB29PIuY3aqIjo9gximOT6PPr865wxHZ2tKIDkgiD6qnf/sKVlRLQloxG5CG1ZJowLBZsBLF3Ky1ohRaGuyeKn8ojTInn4FwEcZX/tdvtCCOv2PNiur96XJCGDIoni+SVOXpPbAvhOHzY+qJfpcexHVEMNMtApDB6yFMnO7H0cetAWUnSaePaVhTdlWSzDqm0Y09etA8Wcdcn4yDGOMirXIOHjQOqPKYJZWaxw8ifHoMo+FWPSbhs8ckRBrHpXxnhzr/IUyZCVshU4qtgf55xJYimBtqRUBtvxFpYGUe4Z3q+s0xi13SnRfEsFyKM6ZRlzqmoVsj2aQxKV1eqvXUoT7foUljFtvG4EB4+UNplDn5TLn9yz7ri3uFEoZD9HxydlGNV2b8JJ/yndlC1mwgSx59qvWReLJPmz0lXUejobRuGmP2VI03iJ6xobTWQUwncz2eYm/TqZJ8AnP2VZ0Xja0jWDDGNmLvKpHYx++5aK90UC2Bia7kzCj/syH0HFDvNyINQbrKWpP1bQ+2YtRsaJmzp9S51jfL5AD1Pps01FEmWp3Pt3tV19Z64ZTb8ofSKHPy+XLfY11R/Nn3rNQVOne7IMLIm3gEM5dS0+tMl2qd+Hvh9KzHZqexYHZP2V1cMnhMNhd+ua/8oTTKnHx+RkSk8YdNV+H9n1EtjGdeXiotYSCOqQ67e6pLprymdS0J8mQt3Ud295JMuT0sXVzONFWyqfBnRMofSqMC2OgPFh4YuKnFIdH0dzfxoKSEYeN0T5ldS0OzKQPrunvpWZ/VBaOEUr8/lPqFOLIp8AcLKwNKowLgT6OTYsCfRq8MKI0KQWa0FPLn0UllI/cWZ01VBpRGhcD/7pUUEv53r5UDpVFByMyWQvxMOqlseF9VFpRGhSEDldHfJH4RkJC8kHuJg9+VBaVRYdy/v6L7nikOki9yD8m9JPcUqRwojQpE/pHL0yG7FMhGkXtH7iEKo/KgNCoY+YcvA5icVUXcIveK3DN84KhcKI0KR2a8SBeDzLGnPEg25N6Qe0TuFc6SqmwoDaKRL2VJd4P8DIQ8RcoPz8kvlm7W//pHHh7kby5/e7kH5F6Qe0LuDX5xjwiUBklBfjdIfnBOfqlUnirl/0aQ/1SHUTkhf3P528s9IPcCf0uKmFAahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHENpUEIIcQ1lAYhhBDXUBqEEEJcQ2kQQghxDaVBCCHENZQGIYQQ11AahBBCXENpEEIIcQ2lQQghxDWUBiGEENdQGoQQQlxDaRBCCHGNlkam//KRwWAwGIz0YEuDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGsoDUIIIa6hNAghhLiG0iCEEOIaSoMQQohrKA1CCCGuoTQIIYS4htIghBDiGkqDEEKIaygNQgghrqE0CCGEuIbSIIQQ4hpKgxBCiGtuxG7h/wP9/e6UixqahAAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122002</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       gtacademy.in      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d6b43e9d86ef1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Accountezee.com  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Silverton Tower, 4th Floor, Golf Course Extn write my essay today write my essay. Road, Gurugram, Haryana 122001      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD6HSURBVHhe7Z2Pcxzned/7dzhJm2TaJK1n0rRN68wUTtDDFOUlLq/R6MYaXazRJayASAEbyUCogKEpBAFNqjDoIGCKwg7ssxHBQnQyKlRnESIsmgwh0AzOKhF4KMCmARnCUYROBHkkqJMgPX2f93337t29vbs93A8ccN/PzDN3++vdd3fffb7vr33ff0IAAACAB/64q5sgGgAAADwB0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOCZmorGe3c/pr6XU/TZ4ffok8fekcb/eV1SbAMAAFDf1Ew0zi6+T//yz96hT3z+hqvxtu8svK/3rl/Sq3FaWE2phcQkdTV30FRCLYI6QT6XQVrQi2Wxl59xTtxTtDTaQQdbW6jp8UlK6rVgN0nRejxO69ql7AVqIhovzt/PiMPvf+0WXVhK6y0k//M6azvvu6uklmmqN6xerGY/HQx3UzSefaILZ/zkOzYjHrWgmg7lyqA4f4Ucn40ETT3O15bH6t2Z8D0Xz6Yratx0570qSTTy34+hK7x5F0VjM07R7vxpsSjOuC8OU7BVLF8X79+2XudkO0HzZzop5Ff34MADnRSZ2wvyUuQ5FmHhtNj3dFwv1ZJFivj9dPKcfq5Ve+8rR9VF4+adj+gXjihBGJi+q9fmwtt4H973HXHM7pCg6Q4/hU7MCOXnFytNycUx4aSCNBLPCl2GPSkadnbvZdkJSTp/xC8dQaVFwxaeyW6JRipOQ0E/tQ/OZdLi+rk+CjUHKbKo9ymGM+58nwpmClT693WM0VLCnv6HrtR7VrjIcyxC3bwHEA2S7RUsBqGvvKfXEL2V3KavXLhHXzp7V/63+D2xD+/7F/93lxLoTX7J2mhqTS9rls4EqOnUnPxvS1zGS8n7+GyJbpWiIT8NXNBik1qUucYDnPvxh2kgtqrWCzjMrtFJijwiHKJ4qS/xOdxySjrnaYXRM7ZIGSmTcemn8/FR6gqwYxUOp1eIX74cpSbfy7J+rj8TzsGOfpq17onMrYpEbYW7OUM9zSGKXtfL8rpbaOC10q+7WH42/VofHegYpCHDOcj4O+9VSfeiRNHYXqXZfl3F0xqgrv6L9nALbhdCIMIajw5Tu8jJF3Jw6+NhagpP0LpetpBpsfdi9rkXTRMq7sloh+0+uZ07faGPfK19NOt4/VYiIdvzScXHqIefmQjnwCOi9HM1e4A8jy098TVn07DrM1+boYGweH/Efr6APY0w66+ZaXGUFjb1BhuFn2N6rl+k2246b13E9TFqlwKs4pe9N8phy+s4NUMLVnUep92zbmGnREbGft6lYfsz4nTbFBqjFfE/9/qz98c1LTOi9GdLU6NxShV5r6tJ1UXjt57dkELw98vqFrJI8LJlv3L0nYxwXPpRWq77zVMbcrnmbIuiYoAf6nLehyIfrIto5DjT1QlqFy/g/Jb4Lx761ON+6ppYpbTYnuaXJBAQiULdExlmawdFrqxSinOVjDPHIZxRNCyc37BOMMk5kRNtofaIfsFkXFpUKUkEkU5epCFxLT1nCwuw7Xo0nMh9weM0Lasx0rQy0ZF1JtsikbdmRUK+EOK8mZdGioh4OfnF3sl152NLnFc4lOh1F+fgWtLwei9KEY0UzfaKkuixGK1wdNOrNMU584yDKLZdOQgfO77VFOW/ZOWIwtazzYenNGEIXpGShtPZZUgu0/wl8U7wf3a2rW3imalQUpcGRemHn4tc9CQa9me+TOOiRJVJI9cnRMkmQJGran/p7IODNM+n207KNhn3ayjyHPWzCYq4ifKTLLGGBvm/wvkeKJEN0sC5hIiXOOKCiIeVrh3IfTP3TWWamgxfwPc1OKyKh7nXb78/uSWNFM2fClDo9Jx+xos0XvA6q0/VRePnupQ43LmvekeNfO+eTTTYeB3D+/DyPxXH7Bbpa5N08iGRC+BcW/8YzS7bk6ctcdleShacbGLnhOQ7oROSSAg+ndOw4NybTyRahsPMcRDOxMNhBIZpSSdEyVVDqGRchGNnkdJwuNY58uF8WayX72jMvO4kTXdaCTUtXj7xf1JtXzgtSlOnByl4RLfzcDytl3on152HpeEgheSL51U0vN4LFZ6Zw5Pm9ozl/06att2aGB31ul06CLNUlo9iDlDjKU14F43ctJALP+/gGXv9mFnK9iIa9meu7sn4Nb0o0td6fI4W1vjNUfchU2plti7SgLim6Zt6OUOe52heb1JkaFrDFIkIAQj007yRh3Beu10IGI6nn0bcbo8Q0jDfc/7P9zwkSsNHhC+Qt4nj5S9y/QVEQz5De1qWGbWO/M+x2lRdNP6V7jFliUb/K6q6yjSnaPAxuwrXHy/GKNqrioQH2kZpSScwW+JyvJTZHAU72WzVlMq1GAnZMh0Oh5njIByJJzcRC2Su3nRYRmITOF8EN3L3cXdsMheq90ud7dZxYaHkIr84hksiImGzKFgvxY6u2w3O3WZecheH6vqieb0XRRy0+Yz5PA4RVJkF/dIX2y7vreHE8+KMk8MhakfoLU0Y5+P4lSUaKh42Jy6Q6cGMU056souG/V6naSnSRge42qV3lKa4RJMRQXWsLe1Ic7uHRZ6jRqVJvyh12u+C89qLXYcdfsbqneF7wT6Aj5fvgRS5rNPPvX5HuM60LJed1y+swHOsNlUXjc/8ZVIKQXz1A7nsrJ76ZaN66gdvfSDX8TF1A1cBiMRoK15aicn5UnIVFTsNfnGtqimBTIBWTtyF3IQkcCQeGYbTQcg2GNNBVE80FgZF6cu8bs5ZcQ5LXheXPjg3xQ2pVg5rh9edAzsD8yV3cQ7OF62ke1HE2ZjPmM+TIwpxGhEZi/yiYWyX99bN4Tnh+5lNcybynhYSjZw0YZyP41fA2eStnhKZqNQmr3UXjeSkI0456amQaGiSy7QQG6MBkX64avS83IWPzaanwngTjZVIWKQVvygp2/dzpo9i1+GES2Bdk6viuen48rvB9yQuSoPGO5B7/Y5wnWmZl7k0qRfrgaqLxgndEP7sd7Kug0WCSxdc6rAEg7FKIXzMbiCLfc7ivmB9oi1THLQlLudLqXMckWERjvHyWQ2MlohIjHO4vkguiad4VYRXR5kldx/18uWvnmK43jZEPd3hzDrZDtLbRyeNXNWOrtsJv3RW7spplgN03qtqiYb8X271lJle8pOKdbqmRVM0vKUJ43x8nwqIhuvzEpgN4Z6qp3SnEUUR0TDbSyRmWuM2mxZqH3dUYTruicKDaKxNqPtxdphCZqO4wJk+ShUN6Ts6u6nHr++9fEc6aKA3W/JmctN8EdHgtlFuMzJvgev1146qi8YP1z+UQvCrx2/Khq58fCC28T68Lx+zK2yJXKGjm2NycZJOckOdzpnYEpfzpRTIOvtWvz03xg3sQdUwKzUynaDZE8Lpasecm5AEIoEfZgd0M01pDko3enaJbIxqEItT5BFno6dXR5nFbR8pAEHh/LlemRvCJ0WRm6ufDC1n59FklkhktYgIyyxZlHLd3AtocCJPzxgTF+fgvFcl3YsSRENcmWzo1g3s3NA9fUQ4zEwGodh2h2gUumbuRMDdv49NZrq/phKLNMXhWd8JeUoT3kXDds6kOmdOl1vZEN5B0UUVSurKsHJqVjpgIRMOeZrTTjpJS5EOKfr5RYNL5arBWS1zp4Xsdwtc3ePj813TyxyfR4RQqhtqUEw0dOO3LL2pxuWgEDcrGJkx7BT3RiQg9lOlioa61yKNGZlFWXJzlJRyrt8ZrjMt63jLbtCyc4m6p+3iOnJuQY2oumgwv6OrqL71fUcWxoC74PI+v/3lvEm6Nmwu03S/+XFTGw1ElzMPyOZ8nC8lw8VSR8OVRDiI8SeDqmsk19+emVOOVJCbkJgEnX9GCJDY32p0toUhu1caXe9KcpRZ8u2zHuujdrPLrSOzlymV6eW8L63X69b3MreB04nbeRz3qqR7UcTZOJ+xcNTT1seffD39jq68Bbc7RKPYNQsnbn5o5xOl2KP9MVrJqLKgaJooQTQYEf/ZTPpXHxSOOz7uS8VH6egDnDZ0l1vbB4f81Xmbjk+Qjo4Oi9JnAdEQcOcTq8ttTrdhQTYt8vn6aEoLiB31HGUJ1GF8PpkRMjM+WqwyYpiYUR1g9PMoWTR0rylbDz0poCIdGukj9/qd4bq892aaEs+kvXfSngZqTE1E49wP35eC8Bt9G/S+SyGCx6Titg3eh/cFDQhXq9hEqAFoxGsGe56aiAbzXwdVaeNkLFci27+xKbfVVQM4qCFpWvpKJ43U/VfHlaQRrxnsB2omGj/e2JbfbLAtrGWLG7GrqhTC63kfAAAA9UvNRIOxxpf69KkN1dh09+PMyLdfKjAuFQAAgPqgpqLx0cdEv3tGVVN9fuI2hfXotoGhpNwGAACgvqmpaDA3bn8kx5tisWDj/7wOAABA/VNz0WCs3lRs6C0FAAB7h10RDYbbMNCOAQAAe4tdEw0AAAB7D4gGqBCOr513nb039zKwk/tVNqgHIBpAUGzcHi/Um2gs2udedg6pAUpDDqRnDs/hp9CT/TTtOqRHZShFNORsgtZQJK0Bau8e8zCOGdgJEA0g2I+i4QCiUR5SNIzxvLYSajBCx2ixlcSraKRF3EKtbTRyaVXNhri1SrMngtQUdIwADCoCRMOGcnzjsezc0jwn8dJmgs73GvNcW3MFywHJzKGk9TwIjqGjLQrNdZy+agwC90AnjZuDwBWaQ3k7aQxqx7k/a8IoJQS2YaXlYIqOobulM7Vyj8KMAe3yzhMu4YHpjPmTo6N00nTK5cZLhF+puZel8zGuMRPmtse5l+U96qeps31ybm++Hjnn+OYijfP8DyJMX0CkGz1XNo8AnJm1kZET8QQyszo62Wm6KJhmbs5RJDOQIQ8cqAcBlNdiH2pbDn3eGRN3vABO0ZDwVAD2+TUKppm8aULD6Zyfnzx2mKYG2zyIRr7h0+1xKzYAoXv6sWcyZBjmgI/O+A5nt8t9T02oUY6t+5bvmQis/Z1+JiWesc0XFXxItQGiYUMlJDm0NQsBDzUtEuQBfoDWXMFyTmRrDmyxf2t2Kke17O4cCs51vDlDJ3nEzUsqOap5ly0nWngO5ZXRIPk6JtSc1Nspmj8tlrXDciZyuezqHHJLGmp49OPu84QL5JDV1vDpmSGwsy9ZJeIl12dEQo0iuuO5l3NKGiXMvSyPVUOQ84jh6bUY9YjnfiDQqYYIt+6PNfigzEwYo5vysnPeC82O00UJaYY2ee5wayZJ57NWy/b5U1xwFQ37yK7F0kyhNKGG0c8O855eFQ45KJ5pMdGQQ/IXn0JXpqUiopGbfgqIhh72v/1MXA2nbsVXb5f78hzjsWVKygmsCj0Tvb8ecp79zPoUDwkvhKJzjJY4wK1lOWy928RctQaiYYMTShtNGbkjOc7+oQla18vOxGZOQJMZtTTHOagX0zbHhjnXsXRKx435KpK0cmmOVmTq5PPlm0NZLKVSqkhuwS83Oyz+b5sASE1u4+4cvDgSc3Icl+3b4iUwXrKKxItLINYxfI/KmXvZKRpy2T6EvSy5uM29LPftp3njuc6fEg7CnGzIDF/mcrNx4zTiXvosI10U2iacTmozpZyThu+PNUe6nODJcn7yWThLeS44RUM4fXv1VLE0UyRNiP9OYZXvXjHRMO97AbyIRm76sYdrEw2Or5kxEJjb5X+jVFzsmcj9zfQk3ycRP2OV7fy7CETDRpGEInE4I0MoZM7X1TmoY8wqEmXWufQY+jyXQP8YTS9yqUYeKCg0h7LAMeeCMuvlNhyyzJHlcw7qhc+KBse30DzhvN0+uUzOvatIvNj5VmjuZadzkU7QjJs2t5dSHms4TAGfz+aEHOFnhYKvIV/VVDnpotA2QcKoCrHMiq8hFHJ+72JVU4zb/RKliuzcFsXSjKBAmpDvmWNqYLnO5uhdcD5XuZwN30oTuWHZ04d7+jHCFZi+wPxvkbPdGfcCz6RY/Bi3c+4GEA0bhROKwvEwZa6SHSgX1Qs5B6eTzSW9tkiz0WHqecRPvkOjtGRO5OQ6h3JaJHaxzEV+a1/5cmcdnMxVipcxybnovM7Bm2hk5wl3ux7z3lUqXvwyiyJ9JeZedhMNqzqpGDsQjUxmguPrWvpkyk8Xrtu2RLiipNM1sZwREnt8lWj3nE3INjjXUp4T5/OT1ZPmdfG1FEozhdOEfM92IhpWe1HOPbSn6WJOueqiUeSZFIsf43bO3QCiYaNwQlHkPkxZwjjSTV15nUO+xjr1k16L03xc5BTVohYifY6CcyirF8OMC831215uKyffc8RfwDk4RUMt569qcNluq56qVLzEvZGiUoG5l51OvZS5l3ciGrqE0XOkI2/HiHLSRcE04xJfWZ1mxFeVMMR9bfVQNcU4RENNNVt6msmbJkT4O6qe0ufIvcfqfFb85Htcytzlcru9qtrmCzjT4oivuV3+z0kf+Z9Jzv4ufsZ2/l0EomGDH1TpokGLIlcp1mXaNlyQObN8cx2L40PGNtnY3RxU7RgF51BO0fljfgpyT54t1Rg3JKesNBOn6oWUrfJwhxNwcDBOaTUxsW7U1A3d3KjpmCdc5TT19nSSFobbjIbwysVLvWxiv3LnXpaiFqCR+A7mXt6RaFjxNDpKuLDjdFFomxDkk60BGji7Smlx/7lHU5h7iJnxlaIt1plp+2acZi+JY/SiDadoCLirq5kmCqeZImmCRc9sCF+O0UmzIfz6DI0MimPVkp01ce/FO3IyukhJLsWkU5RcnKCezHsiYFEqZe5yLTrtw6pHnbOh24xv3oZwx/0u9ExKFo1C96PKQDRs7FA0OFf5mcLOgSk013FybjjTfZK7bw69lo1EwTmUU9lunzLMqcGcOcptDZ95SAtndZjrmq2GSUHhecKLdLmtULycPXQk0gGIeBq5vKKiIe6YbBvi+6sbHz3PvbxD0eAqqoOOeLqx03RRMM0YXTX5uqYHQ/aGWXHXs6UARerccfL5h23XmcFFNDgMFt6guA9WuAXTTLE0UajLLZ/fSJs52NoLxPEPddJQLDu3v0qvpc1dzvFR84aL8MJ9FDkl4mOmV7f46u25IlD4mZQsGsXuRxWBaFQCdhgenMNuIdsFnC9EHVCv8aoU/JIXKn3uKrJ7eJFSXh1htYG5afqu4Xjf5fcuNXreu3k/IBrlILvRJWR/8/z11rvIVopSy/xdh8d661pRr/GqFGlxfSLnOxQM5P2gbzdJb6bUNxReek3VBaJEc6zb1r6w66QXKfJQh/pOhxf191NDV7Jlm+qxu/cDolEON7lKQhS12+rjS00nsudKa4hOWl+w1wn1Gq9KkZzskFUQh40vfuuHOI20tpDvoeN0vp6c8B7ErDbOGalhHwPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaNuyDnJnkDieyN0mv6lFR24J01HmdjpnVeOiEabPruTnzWGuA2ntjtG5+FZtapilr5jG5fca+nY/Xw0g4Zy6TbK3S0rlJGuluo1Dn3r/XAOxHIBo29rlo8JhNgQ4aGBujoZDzOtO0MMgzq+mZwqxJdqyRPLfiNGIMKEebyxTlmcQyX8Knaf6EGpAuydvTq3KmsdDostqsR3TtEsvy+CR/MW0MKMdj7Qih6eodo2h/aF8INAD7EYiGjRJEw8N8v5n5geVgdgXmZS4a1gwtmIMDml9SF5t32SST63e7Tv5S2E8j5tA5ehY5OT4RDwXtGCBNDltu3RO5r2M+BR76Ws/hreYBtw9YKIe+ts1upn72S6kOgP0IRMOGV9HwMN+vbX5gZ7hqWc094DEsa47yC/0UtOYoFxScdzkv+a/ThhQ7u6M3kXGznL7c1z4lKq1N0GFrZFQeldM2ba6ARcVFHCAaANQvEA0bypnyUNOuZjkyL/P92oah1qNSWseb8zKXHBYPmZwtERScdzkvXkQjRbO9ouSSbyL7lChZtAazc1pI0XCc11zH8XIKgds6AUQDgPoFomEjvzPNcWQlzfcrKDQvczlzBxecizsfxUQjRUvDbXSgY9LekG2RWqTIIcew5hANABoCiIYNj6JR8ny/jJr0Jmde5rLmDi4+F7c7hUVjXZzTFxRhuLWNCJGSDdwiTrYqMFRPAdAQQDRseBQNl1x14fl+Fa7zMpcclikaKr7m7F45c3G7kv86U3ODFBKCMa/bTGzoNpPQ6TnVA8qkEg3hGogGAPULRMOGR9Eoeb5fjdu8zGXNHexlLm433K+T53zmeafdJ3dJiVINN7rnqbISrt/W5VZ3yW0ft7qMObrcJnhO5WyDvwlEA4D6BaJhw6NoCEqb79cid15mpqy5gz3MxZ2L23Wqddl2EcP4/LJE5LJNWDYu9o/7us7MKQGxsH3cx/OKm3M4Z4FoAFC/QDRqyR6blxkAAJxANGrE3puXGQAAcoFo1ATMywwA2B9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPFM10fgvp9+lT3z+hs0+fWqD7r7/sd4DAADAXqNqovFL3e/kiAbb+WtpvQcAAIC9RtVE47ee3XAVjcFzd/UeAAAA9hpVE40/+PotV9H475Fbeo86JbVMU71hOtDcQk2tAWrvnaH1bbVp4bRYx+tzrIOmb6p9aG2GBsIB8on1vkAHjcdTeoNiPdZH7QG/PO7AA50UmUvqLUyKVqL27fbjU7Q02kkhP5/TL+IWy8TNjfS1SRp4RIXV5A9Tz9gimeW85NwwdZnnumqcaztFC8a5Dob7aOqaGZcETT1uXX/Whq7ozQXuIwBg71I10fjqhXuuovG5r9azaKRp/oSfgsLBJdnBpVdpqsNPodFltdmFVKyTfCcuKme8FaeRoJ+6JlYpLY5PXRqkkBCUqYTclejqMAVbxfJ15brV9k6a1rqRnOwgX7CPZtfU9uS5PpftgzTPyzpuwdNxmxBkSM5QT2uQhi5ZB8/RkIjbyXPa8a9OULuI27gWAhmX1uN0flMuyutqss61naaVCXHuwDAtZRz/KkVDARqZS1FqM2t83Tu5jwCAvUHVRGPl3e0cwfhU3watvfeR3qMO2bpIA80hil7Xy8xcPzWFxmhFL9rYXqRIMECRq3o5Z980zfa2UHB4US4lox3U9PgkaTcuWKbxoJU7T9J0Rwt1TWa3KsdsbRc5+0MtNPCaIRHXxyjc3J1x9CapC/0U7o4Z59IlJSEyzEokRE29Wuwk9vDNfSWpGTppCiDFaci2bFDqfQQA7BmqJhrMAaMH1X/84gZtpOpYMJjEJHU199N8JjctWJugw82DtKAXTdIX+sgXnqB1vZwrCnrdkRmS+XnO3ZsljTnO3Qunbx5gsi0cc6vlfNlJG9U/El4nREtpUkHSXG0WDNJIPCsKhyfsHn/+lBCtqFonr80qaQjWuaQRNEoa8l6F6XBHtiouU9VW4n0EAOwdqioaz1+5LwXjZzpvUOJ2nQsGI52dw7G5rZOIUkDYTwMXsnn19Gt9Obnp9Yk2m5AkY910UNf/N4nceCGHvxIJk88SHF3qsJU0tudchMSOFC15rgD1TK7qtUo0LIGwcK5bGhalESuunxHiZu6emKNIbz9NLSYotZmgpYgQFSEiUT5FSfcRALCXqKpofPQx0adPql5UX4yZjah1SinOjtsnbHX8Aq6WaTXaNBbHqKtVOFyrGmhxWJQsHG0aeUoa62ePU0jk9BeM27Y+Hs62M6QTNHsiKIXHVg2UB1XS8FPPWXWyYqKROtudLWlYbRpmSSOHJE13tlA4IlQDogHAvqWqosG8/uMPpGj8XNcNuvrTD/XaOkU6Ni/VKkk6f8RP7ePZnLtF+toE9cgeSdy7aZKmB0OZNo2FQX/mv0K1eTiridJXWEyEuKzpFRbbSZrtVz2SZHXQuQk6madNww1Z6tEll8LVU6p9peesKfS6fWVOL7rAYcp2EM/3EQCw16i6aDBdf3dbCsevHr9J65v7oCFctk300fyWXs7HNldhZRvK2anKnHgGJRq2dSLsLr8QjFw9yoGrw3ydMV19ZScZO07hZ+wN4VI0dKmncEO46k5rqwpzVI+tjHdQ+Cu5AiivBQ3hAOxbaiIa9z/INoo3fdG9BxWve+Srt6j9G5v0P19J0bfj9+ntW7UWGEdX0c1linY4SxRp4fwDFDxToDFiO02p1ThFjwXpwDGrTUIcyY3LgT46r7vUquqrYLZdY03k0Lmb7BU3GTDYStDKuUFq94doPF80ZJfabJdbZ/WUs8ut7N5rCKGsCnt8lJZ09dS63G5UpblVtVltGp7uIwBgL1IT0WCSdz+WXW5ZOD75hXfoyopQEs2PN7bp3/TclNtM+3d/bn0xV0McH6V1nZlTjs8iGaOjGefogqyaUR/LDcWWKWUeKyj0cZ+s3uHzOs1oSJf78Mdy3aM0b69dyiEVH6Me/XGfLxCmgeiyUbIQl2J+3PeI4+O9oh/3OY53fohY7D4CAPYkNRMNhoXDGsiQe1Qdm7xDP3jrA/rkMfdxqn7+T27oIwEAANQDNRUNhquqjr54x1UknAbRAACA+qLmomHx/esf0H/+Uu7w6aZBNAAAoL7YNdFgPv6Y6IV/uE+f+cskRAMAAPYAuyoaJsvvbNNXLtyj8NduUfOz79IvHrlBvyPEBAAAQP1QN6IBAACg/oFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGdup+5CNAAAAHijJqIxceU+/cqf3aRPfP6GJ/tU3wZ9Z+G+PhoAAEC9UBPRYBFwE4dCxiIDAACgvqiJaFhC4JVS9wcAAFAbaioapRoAAID6AqKxqyRo6vEWGrqiFxuCOA01d9BUQi8CAPYUqJ5yklqmqd4wHWxtoaZmPx0Md1M0ntIbK00h0VDbuqL7zbtCNADYy9RENEpl90QjQdMdfgqdmKH1VJpoO03JxTHqag3SSFwsVxyIBgBgb1ET0fjS9F360tm7eqk4uyYaNyepq7mNptb0smbpTICaTs3pJaL11/qpK+BXJZGOUVrY1BsSfHw/nY+PZra39woB2tbbBetn+6jdL0oxrQHqOjNBI4dcREOGwyUdbY9PUlJvWj9nnrufZh1xVSjBaR9f1cuC62MUbu6kaR1QoXAWTjvESsbHcvTK6Y9Hh+V15Iqa3h7L3oODRyZoJVNYU9ujl2I08Ej2Hi6ZhbnNOEW7w3SAr90fpp6xRcpItod7nL46Rj0y7BY68EgfTRu3AQBQHlUXjX98+4OMCHgVjl0Tje1FigSEIxxdppThhEzSc/0UDA7SPDvf7SQtjXZknbp29rKkIrxcOnmRhkR4PWe1R1wcplCrcJiLYm9Rilk/10chsb/Xkkb6tT7yBY/T9HVVClqZ6CBfax/NutSeJaNGvKzlzhjxrsXCKS4aLeRjsVxNERfI7Kjt8h5sicXkIkVF6c134qJ2/NbxY7TEkdtapqi4zuDwotxK26sUDQshGI6rZ5Cco6GgEMCI9vzF7vHahCgZirjqa2ORDgYGaYHjAgAom5qUNL71/a2ShGPXREOQvjZJJx8SuVTO4faP0eyy5XYZ5cgHXjM85dZFGhAOdZo/K5EOTThfw0GxA/YNxvV/PwXPaOcoEeG5lTQkTtFQy0djZnySNN3pltsXJGN0NOPo1X7q2OLhFBeNEEWvyy0u8HZHae3qMAUz9yX3eCloHVrgrgySLzBMS6Zo8/GtwvHzOg/3OGwJjESIUMhPI2ozAKBMqiIaltPPZ8WEw9pv1+Ac6mKMor0dskH8QJtVfaJyyZlqo4xphyodmnBuvKuGHVrTafZYyllncsQStc6baLg766XhgA7fiSEUmzPUk6maKh5OcdGw/rvhsn1blBYKHG+WiuT/XqtUopHx18d4uMe5zyffPQYAlMquiEb/K6bjzMXary7g6hLhiFT1CTu8AEXMwoLJLojGwqAoFbmKBlEq1klNR2Yo+VpfpmrKSzgVFw1dGst3fFHRkG1N+piS7zEAoJLUpHqKx57yKhjMbokG1/U3OatGBOsTbbr6hOvbHQ3MjLV/QYfG/2tYPcXoEkbPEb9xXPFwOM6HJ4wwyxUN2QhvVk/lFw1v1VP57nGa5k+Y7Scax/MEAOyc6jeEr31YkmAwuyUatBWnkaCf2gfnjC63k3RSrOuaVF4udbabfNyYfU1dS4q75D4inBx7qSKi4WwIX4kdL9AQTjR/SpRwBuOUTisXqBqwhfNdU3FbmewWzlQs572tKTp/RJzf4aSLhSOdeHiYFtiLb63S7ImgEYYX0cg2VFN6laY6hFiKe6Cuooho6IbwLlGcUw3hcYo84mwIL3KPm4M0cE6dIL02QwMPddN5UyMBADumJiWN/rMpz4LB7JpoMJvLNN3fSSHuFiuc34EH2mggumzLua7H+qhddvdUXTqntIAUdWgCT11uNWkhSIflvtkws+fWXWWLdCeVVVRGLyqLguFsJ+j8MyHyievzBcI0MNxPh0sSjTYamRjOdIkNPzOZ0+U2r2gwm3EafzJodLnVPakYD/c4FR+low+o5+MLdFBkDooBQKWoiWiUyq6Kxj6Dq8TyVl9VhWKiAgDYy9RENEoVAYhGBdhKUWqZv1nIftBXGyAaAOxnaioapRrYObI3VGuITp6ttfeGaACwn4FoAAAA8AyqpwAAAHimJqLxK0e9zw9u2X/4iw19NAAAgHqhJqLBY0+xCLiJg5uxyDwvjgEAAFBf1EQ0AAAA7A8gGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGekaNx//32CwWAwWB3Z/fu5v+WYGXYZBtGAwWCw/WCWMJi/ppn7lmEQDRgMBqtHM52/83cnZoVbpkE0YDAYbD+YJQz5fitkEA0YDAarByvm9Pm3HOMwKmAQDRgMBtvLZgmC269p1v5lGkQDBoPB6tFM52/9lmNm2GUYRAMGg8H2g1nCYP6aZu5bhkE0YDAYrB7NdP7Wbzlmhl2G1Vw07m69T9Erd8h/eoN+W9gL4j+vc9sXBoPBYB7NEgbz1zRz3zKsZqJxc/M+nZm5Tb/e+07OnOC8bujcbbmP27EwGAzWcGY6f+fvTswKt0yrumj86MZ9+rMXb9G/6M6Kxa898w4NvnpbGv+31vM+R8W+fIxbWDAYDAbLY5Yw5PutkFVNNGaX79Ghr79HP9uZLVH8t7/aoMn5lK06iv/zut8dejezHx/zB19LyjDMMGEwGGzfWjGnz7/lGIdRAauaaFgC8ItHbtD/eO49uvpWcQH4wco9enL8PfoFcYx1vNt+u2uX6cvNLfTlWbdtuXZ7+TLNLyddt5Vtqy/QU82nad5tG9vaIr1+NeG+rZAVC7cc22mcYDCYu1mC4PZrmrV/mVZ10Ujcct9eyPiY3RSNjasv0LOPHiSfEIem1oP02DMv0JvvWttLE435QT/5ul+hDZdtJdvsaWoynXkR5/72t58i34Mj9KbLtoJWRdHYcZxgsEYz0/lbv+WYGXYZVnXRcNuWzy5cy5ZGdks0bl8+TQ83P0jPvrJMG3fE8rvL9L3eB8n3xAv0k3u8T2miUVErUTR2bNUsacBgsOqYJQzmr2nmvmVY3YjGNy7dkfv/+Uubcnl3RGOZnn+0hR4bXbavv/VderbZr4XCKRpJevP5XnrsoF84dD8dfLSXXr1ubRMljX5RWum/LP+//fwT1HTiOXr1mUfpAJdi/I/Ssy+v0sb8CD1lHf/ECC1kSjWOcPgYbfL80rmfolcvZ49/7JlXtLjp87W/QG9b4Vx/JVOC8h0U537JcZ2W6XBffFlcl5/P5xKuviZljntyb1Ve48FWcawsqb3kHqci8We7PR+hL3yOt7XQgc/10svL2W0Fr6dAHGCwPWGm87d+yzEz7DKsLkTjW5dTmf1PvryLonHzFfpC88P0/DXntjv0k8sXaf76HfHf7iA3XjlGvgdP0+sJtfyT554g36PP0U/0sTmi0foEPf9Ggm7fE2F++2nytQqheCpCC3z8rUV68Qk/PTj0htw/x1xLGi30cK9wtFwqSnyXvnywhb7wsmpDsYvGIn3zQT899dyyOLfY99pz9JRwpn8zr8MyLSfci/TlB4WYjimnXEw03hzhktlz9KY49v6dZXVNg+qackUjf/zvX+c4PkEvXhP3ne+XELEHD4rrl1Weha+nUBxgsH1pljCYv6aZ+5Zhuy4aL/5DrmCweT2+oiadmHBSqy7bMubIVd9K0obZbqPDeHlNLeeWNC5m970nnDGHdVEvW/uYpQPTXEWjl75nnJ/P5zttnC8TFsf7YfrmVWtfUwizx0uT4Z6i180c/6u91HTwDC2I/8VEg+Pw6MhiZvvt65fp9curdFv8zxWN/PGf7/fTo7ZSnygJPuynv77M/wtfT6E4WOtgsLo20/k7f3diVrhlWtVE4xefVk7/vTsqshffzO09NfWDVKZLrikYfAyv4zDM/atuOxGNe0layFRPcVUOWzaMHNEo4Gwz+5QkGva2h5zzZcK6Qwujj9EBkRt/6pkRevH8Im3kq65xCZdz/X+k1xW7jttvROiP/FzV1kvffP4ivalLYWy5opEv/qv0Yrt1P+2mzlP4egrFAQbbl2YJQ77fClnVROPf996Ujn85sUXP/J9N+f/vvp/N1bJg/FxXrmCw8cd9vJ7DMNdX3fJWT4kb9a4oUXBVh8NBSicoq6f0tTmEp35EQ1tikeZfitCzTxwk34PH6FU3gSxTNKTdS9Cbl1+i5595gg62Pkh9r6zK9bY4eRCNTFVVPit0PXniAIPVpRVz+vxbjnEYFbCqicbvjSSl4+expVgU+D+XKmL/L0WvXL2bVzDY+BjexmE4t1XXdEO4rrvPWIGGcHZyTz1vOCPpXOtQNIRzfZ1z45l9E/TyU464WybDLVI9ZVaz2a5DOOrz9pz9xktPZeLhXTTu0Ou9fvL1ftdepWTFqeD1FI6DtQ4G2xdmCYLbr2nW/mVa1UTjr87dlo6/7RvvyWVLOH7+T27QPxOWTzDY2r/5ntzOYbhtr6bdFo754dbH6K/P6wbWIl1uucG1qX2EFkRJ43biDXr+Ka6mqpJoSEF6il5eE+fiUk9JoiFKUSK3/ayV25aNzn6R+3YRZhlu/oZwFi9f69P0Mrcf3EnQwugTsgeTJRqvdvnlsW/z/RK5/e+dEKUA/a2Kd9EQy2+c0d2fVZxvc2+pzz5Nr7IYFLyewnGwzgWD1bWZzt/6LcfMsMuwqomGVcXEJYq3kyrClnAUEgze1yqF/HiXxqDauByhL1gf9/kfpKdPvZT/4z7dtZO70PoOPkF/88pz1GdUcVVUNN4X5zr2sIzXUy8kShMNYbfNjxb9j9IXIm+4NwzLcB1dbk99VzlguU+SFkYe092Gxf0ZOSOu2biOdxfpRau7Kx/7dCTTjbgk0RC2cXmEnv5d1V4k7+/F7NfkBa+nQBxgsH1pljCYv6aZ+5ZhVRMNts8Oq/Gknv67W5l1LBb5BION9+Vj+Fi37TAYDNYQZjp/67ccM8Muw6oqGjyWFFdFcclhbvmu6z6mXf6RauvgY95YxWCFMBgM5tksYTB/TTP3LcOqKhpsf3NBNWp/8tgNWnhry3Uftn/86Zbch/cdvejy7QAMBoM1kpnO3/m7E7PCLdOqLhps3VFV5fRL3e/I3lPO7fxFOG/jfXhf53YYDAaDFTFLGPL9VshqIhpb9+2N4H/6wi1ZdTXzw7ty2ldr/RcLtHXAYDDYvrZiTp9/yzEOowJWE9Gw7NV/vEuf+gv10Z9pvG56oXibBwwGg8EcZgmC269p1v5lWk1Fg+3OvffpG7N36D89uyGN//M6t31hMBisYc10/tZvOWaGXYbVXDRgMBgMVgWzhMH8Nc3ctwyDaMBgMFg9mun8rd9yzAy7DINowGAw2H4wSxjMX9PMfcswiAYMBoPVo5nO3/m7E7PCLdMgGjAYDLYfzBKGfL8VMogGDAaD1YMVc/r8W45xGBUwiAYMBoPtZbMEwe3XNGv/Mg2iAYPBYPVopvO3fssxM+wyDKIBg8Fg+8EsYTB/TTP3LcOkaBAAAADgAYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6pmmi8svA+/eapDfrE5294tt/o26DviOP2HnEaau6gqYRedHJlkJoen6SkXtwpyWiH53DkvqfjeqlEEpPUVeh6AAANS9VE49/23HQVhmL2z/7kBv1w/UMdyi6yOkHtzQGKXNXLBYFoAAAag6qJhiUCpfD42KY85tMnNyi9rVfuEkvDAQoGAuQ7cZHSel1+IBoAgMagrkTjzv2P6df/XJVQel66o9fuAtuLFAmEKXolRkeb+2h2S6/PkKKl0Q462NpCTf4wDURH6aTpZFOLNN4hBKe5hQ480kdTo8cLOPsUrUT7qD3gp6ZmPx0M99H5Nb3JgVM00tcmaSCszuMT8R04m/Xyct9TE3S+N0wHxHYZT2M7s/5aP3VZ5+0YpYVNvQGiAQDIQ12JBvMPKx/Qz3SqY/n/bpC+0Ec+6ZzTNH/CT0djdnefOttNvqAQkzVRBkknaSnSIRy35WSTdP6In0InZmhdbl6kaIdwzHlEI3XuuAhrkOb1xvUJEVZ4gtbVog2baGzO0MnWIA1d0geuTlBXqxC6VbUo920O0sC5hCi1pSl5aZBCzdnt6bl+Clrn3RbXIEQwEzZEAwCQh7oTDeZkLCWP5VIHlz5qi0Morg5T0ObEEzT1eItdSLbnstVT0uF20rSxmYSDzlvS2EpRyizJaIc9fVMvG9hEQwhBatOsOFPx6ppUZ1EljTn5X5Gm2d4WCg4viv9q34HXjOO3LtKAdV6IBgAgD3UpGh9+RNQ68K48/o/+1qozqRHJGB1t7aN5y5FbVVU6h67aLwIUYd+bwWjT4PaLwDAtqQ2KQm0a2ylaylRPtWhzd9g20RCkjOop69iuqDpQ7uto01ifaNPrOL7ZY7JmCh9EAwCQS92Lxh+O1VY0VLVOrkMNnrFUorKiIc8nq4l0rr+Aw7aJhtxPVU+pTgO6pOFZNJzXYADRAADkoa6rp37tmVpXT61SNOynoSt60eL6GIVZCAznXKnqqYXTWUcvWZugw15EI0eIRLwOOUQjb/UUX2cLtY9nik8Kq8caRAMAkIe6bgif/VGNG8IXhynYOkgLOd19hZMN+WnggioNOBvCF4bbCjSExylyKH9D+MpoUGwbpSVR0pCN5p1cTeVBNK6NUkjsN74oShpbSVoa75S9pGyiUaAhXF5DawdFr6XU8uIYdT0ihJEvEaIBAMhDXYnGbne5XTqT/7uMlUiImo7N6G0V7HK7nch0i/UFOihybkKEFaLodb3dwCYagvWzfdTuF3FoDVDXmRmKHmuhcESpgipp2LvcDr1mj8F6LNuWIuOpBQSiAQDIR12JRj193AcAACCXqomGVWIo1epmGBEAAAA5VE00eMDCT5c4YOGn+jYodnUvDlgIAACNQdVEAwAAwP4DogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBrCR/uADurV5hxI3Nmj1rXX60fW3aOlHK7AGMn7m/Ow5DXBa4DQBgAVEA0hu30nRT9cSdH3lp/TOzXfF8l16//00bX/0kd4DNAr8zPnZcxrgtMBpgtMGpxEAIBoNTuruPZmrXFt/h+6K/wC4wWmD0winFU4zoHGBaDQwnItceettiAXwDKcVTjOcdkBjAtFoQD78cFtWN+DFBzuF0w6nIU5LoLGAaDQY/JJzFUPyvU29BoCdwWmI0xKEo7GAaDQYnDuEYIBKwWmJ0xRoHCAaDQRXKaBKClQapKvGAqLRIHCPF27ABKAacNpCr6rGAKLRIHDdM3pJgWrBaYvTGNj/QDQaAP4oi/vYA1BNOI3hA8D9D0SjAeCGymqWMiKzW/TU87fpp+/h6/FGhtMYGsX3PxCNfQ6PG8TDQFSDjz8m6py4TZ/4/A1p//qZm/STd0vtfpmilWgftQf81NTcQgce6KTIXFJvA+WToKnHW6jpdFwtLg5TqNlPPWerc485rWGsqv0NRGOfwwPOVaNnCwvG4ec2M4Jh2aGv39J7eCN1tpt8wom1n5qk2UszFH0mJJaDNBJP6z3qnTgNCbHritZrDtspGqMUbvXTyXNaNK4MCrHuoKkKRZ/TGqc5sH+BaOxzeKRSHniukpiC8c//9B2baPyv86VVgy2cFg7t0ARlm1CTtHQuTut7RTP2mmg4qbBocFrjNAf2LxCNfQ73aOERSysFC8YfflMJRnT+Pv39cpp+tlMJxtMv3NZ7eWd9PCycVpAGziUonVOz5ebwHE56O0ULY93U7hf7iRLLwXAfRU61if+DtKD2EDdhhoY6AqIEI/bxB+no6DCdtDn6wlVk6WuTNBA2jj8zR0mOq3S4fF7L3J1vcm6Yjj6gwrYdL5Ci+fgoTY920MFWDkOUunonaSVfe3JqmaZ6w5l9Q08O0/xNvY3ZVNsPyHOFaSAap+le8d+6h4lJ6hLbhq7oc2fiLuzxSSHZ5cFpDb2o9jcQjX0Oz41QqeHNt0UwlmCMX96S6ybj96Vo7EQwJNtJmj3FVVLCabFD7Y/RUuaD9eKisTQclM7zcL+q3poSgiHDskQjOUM9wsH6Huqm8dgczcdG6WhQOUkrjPVoB/laQzQUW6bkZoKWoscplKkiW6RIoIWCvTFaSaRo/coodQXaaDwuvHpymeYvjdFREVZYxHv+kighqduSZXOOhh4K0clxsW1THH9pkNpFfELDi3Kz5bh9h/pp6tycEI9Oce4Wah9fldttbIv70eEX19JP08sJSiUWaeqYuP6guFY+77aIK1+bv42GojM0f26Shg6J/VlgXEQjtSzuR6RTnF9c+5T4HxfCrfbaMZzWOM2B/QtEY5/Dk+pUgg+FYPz+127lCMZOSxg5sAOO9guHLHLkwoGPXOGsdhHR2LpIA8IhtkdMB5ui+VOBjGjIkkxrH82aOfe1Cek4ZRjbIjwRRnh0WW9k0jTLufPei+LfKkXDwql3jNLCasqlNOSxeiqdopQQjZTwyvOnRNg6V69E47gRvxSdPyLWdbjk+kXJxicc/Pg1vczwPRDnH3gtTekLfWJ7mKLX9TaGhUSInptoSCpcPcVUKs2B+gSisc+pxAvMgvG5ryrB+PolJRgTVyokGNvC2ZnZW85Ns1BIp1lENJwOUJMUJQdLNFT1j9MB54Zhq6axzDoutUzTZ7rp8ENcReWsPioiGuJ6po/oqi1pOudvioYjfu5xtq7LCsdufH7zuk1keBANUCEgGvuccqunPhA563yC8eS3yi1hqFywT+bos2Rz4lo0zO3JmKwOkk5a57ILlTRWIqHCJQ1dWjkas7vo5PVlSulSRfLKDC1Zm9OLNB4ScR60hKywaCQn2ZF3iNy/voJtUZLgUswOREOVJDpp2tywnaSVZbWiHkoaqJ7a/0A09jnlNISzYHz2f78nBWLke6pX1NjrWxnB4EbxcmGnyrn38JFRmr40J3L0bbIR1xKCpWEWAG68jtH8uQk6+ZBqULactLNNQ3XZFU4yb5vGMB2WjebZMFbGuR3EaBfp5zj4qWtSbE8pUfE9dJyi5+ZoNtov2ySCuk2CRWOEtx8aFPGP0YLpsAXcpVg19K9SajNBK7F+Cov9dyIatL1K0UPi+s02izauzuugab4Uq02j1d6mIUsj+UQjzlVeovQ0KO5vLG70YtsZaAjf/0A09jnldLn943H14V61BMMieSnbu8gX4B4/2Vy+1VtI9QZS4jEuSh+ZnL2j9xRXHc2OOqppjN5TvkAHReZijtJBSjpz2Z6i9xkSTj6D2fuqNUBd/TO0brRtpC4IIdHnj1zVKy1ESWD+TLZnVOjJUYocE/93IhoMV5X1Z8M72NFPs2ZBy+w9JeLa3sudA8T/fKIhzjLfb93f4ZyqrVJBl9v9D0Rjn1POx30PnEnSZ/5Sua7Ri/eqIhhlk07Q0jW7e106I0onoTGyatZTy4u0blZP6SoubjwGlQUf9+1/IBr7nHKGEWHR+OWj71Dgr5JSMJ742836EgxK08Kgrp46w11eHVVLDOesufpIVy9xl9seruKyuqmCioJhRPY/EI0GYKcDFh6bvCOFg+3ot+/QR3UlGBqresqsWoot2xrWZfXSk0FVBSMEpb171P5BHKgIGLCwMYBoNAAYGh3UAgyN3hhANBoE7tFSzeHRQWPDaQu9phoDiEaDgOleQTXBdK+NA0SjgeCeLdUYJh00NkhXjQVEo8Hghsrke5kRAQEoC05LaPxuLCAaDcaHH27LumcIBygXTkOcljhNgcYBotGA8EvOuUNUKYCdwmmH0xAEo/GAaDQw/OJzAyZ6VQGvcFrhNIMMR+MC0WhwuMcLVzFwH3uIB8gHpw1OI5xW0EuqsYFoAAl/lMXVDTwMBOcieeA5HrG0UrP+gb0DP3N+9pwGOC1wmuC0gQ/3AAPRADZ43CAecI5HKuVcJc+NwJPqwBrH+Jnzs+c0wGkBY0kBE4gGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeEaKhtuUjzAYDAaDOQ0lDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ65nbpL/x+Cy7Q6Bt1rfQAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>079829 30850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d07c2857ade51</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Accounting Gyan : Best Accounting Classes  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       C-340, near Roop Krishna Public School, Shahbad Dairy, Rohini, New Delhi, Delhi 110042      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD27SURBVHhe7Z2Pcxzned/7d7jJpM00TTrxtJ4mbTIauAMfZhCemxKOR2drhIijaxkTIQM5oolQAUOLDAKKVBHQRkAHRSrYsBHBQnQKIowgESJMWAxB0AwuLhF4SECiABEESFAngjwS5Imgnz7Pu+/evbu3d7fA/cAR9/3MPHO3+7777rvvvvt89/2xu/+KisiRt+L0mW9cp5ffjus1RB/F1qj7x/eo7Z24+m8jyxJXttkc5ikSrqGG/nm9rFk9Q+3VQeq8oJdNLvZQuL6HpvSiYqKNqur7aI5iNNJYQ1XV3qbSu9JH4epWGl+1NhUWB3ZRVcsZSuhlT5YGqam6w7HfqeOc7vEo/0vQ5JEgBY640rCL2mPbyWP2tkSxSGPyvzdR6rTzr5nrDVPV7kE+YmGJhnbX0IFha8mCy2JfDTVFlvh/rnDrWOz/Fnxu6muo/bRXqbjzE+fjqaPQsYnk8Xsdk1lei9EJmlow0r7YRSG7jLKWtVfaZn6sY3XUHakfrvRsVFrJcvRC0t5FQwt6kXFso/LaRpOpy4oSp1upqq6LZmRBhTfSkCpaM58JGm+poXCvWffjqlzm3JlR10Md9V7UyzYLA/Qcpz2ynCst2a+dBwvHMVzooIDk1zgGdT5qucx43dTxIIVOTOsAi5kTdRQwz0fWMmRyHkOe59VPneH6mcIqs1CXdVxp9V/nS5WZSnsfjZgHKPvOdcwF4o+bmqmoovGzxYdKCP7ji8uUMCuBi085TOJIXNlms0hwha2v3UXdZ+dVfhPxeRo/EqJA4yAteuVfKl9tkJoGrPgUm6ZIY5Dq9clPg9N3OgxLqJp6Ziku2y+NUnsoSO3vWQ5s8WQHdZ90iZiQo1LSdBfVV4eo/ZRV8RILnO5TzTQmtWpllI7W1lE7p5tYZYd5qo3CtfmJBq3yujrO92lL8MVRBUIshuKI1xI0N9jMFz0v6/uBXOHqWMzwgUZ2JHy8hrim8MhPnNdxOdoXntcxmeU10yXnuI9mVnhB9tfP8UM9LPyMHwfgSNvMT5zGDrKTaxmlRS7rxPwodT4VzEM0LGfV0BVV9UXSaw9xXhyiUUP1R3h/XHSJ2ASXg3EjpMK9RIPjRqXuc9gVq+7FTrXycitNppV5gqY6uLx2dtDkfNy6TrjeDx20rhPJR/a0ZL9ZRGNNrgk+d73T1jURi1LvDj4GW4T4RquB045MW6UUv9BFDdVhilxRi860VqIU6RigKTmvDnIfQ17n1U+d0ddngutb7CyXlxyDPsS5nhAfQw/NxDht8Sn7JG27zGI0tp99TPIcc/ns5PCtIhrCf/92TInBD3/iecUr/ua9eyrOF79VisPOTjzaR4fDfOfCFaQqGKIDbcM0l63xIxWm0Yh/YoKMBpSTNNFglieoN7l9mNojs1ylLaSiBTrMiqvJJRpMPNpDB74slY3TqGuk3olU2Sa4hdTETr6KW1ANLYM00lGfbN2kXyxunM7GJn6y2eHYF4dbqUHvY3tjG427tC9buBzLc3yx2+USeOpFGrqU6SR450c5Lr4Q+y95H5OjvNZiNHliH9UHeZ2dH/tuPi/RYOLT1K+PY9uOVhoa6khrXdqotHJd/HwDcFQ5KM5nuJV6j3HL1CEabTR0kstWH0tD25lUfcwiGkJsoitZL7zOWZK1OM0MtyXrl9T757gemddJ5rRkv1lEQ2Bn3/98iLaptMN0uM8SSRuzbm/b0UyRaGrHjrT08UrLIY0cx5DXefVTZ44N0FhLOHmMnaeNs762lAxT1+6pATpaXZ8UxrR997y4tUTj1M8eKEH47dab9MCjEfHJ3Z/Trx64oeJIXGBjddkcPplNsbYmcoE5u6cA2ADSrWV3zYGCUBLREP5Hh9XaODqc7gAbvr+iwn6XWyTAIMZ3lPszdIttcSAaIH8SNPM3+6j7QuXddBWTkonGBzfX6BebriubWkg1N4YvWq0QWS9xABAgGgCUJyUTDaF95K4SiM8fu6kGnmJ3f07/4c+sbqm/5DAAAADlTUlF49HPiX7vhNVN9Y2B2xT+7i31v64zpsIAAACUNyUVDeH67Uf0a3rQW0z+yzoAAADlT8lFQ7BnU4lhthQAADw+bIpoCDKGgXEMAAB4vNg00QAAAPD4AdEoNGsxmjk7m/mJ8M3A4+lUB8uzNHnJ5zMy64n7GJP9iW8nifkoTc0X/1kA51PT6U9VO6iQ8wRKD0TDgfVeH/VKAWVBqn++jUYyvr7Cg+VhOlAbUq+uKBTKWSTzxFZbRw3NPTTp9WoEL3KIRmxoHwXs9yzlwG9clefaRhpxOzXHayyKhHpVS6q8AnVhOtyT5dUuHqxHNKZOBClwcJSy15L869Z6RCPXeUrMT9N4pIsO7wrRAffzMPIupNkojfS10oGn6qjb9XoW4iOdi6ReUyKvMhkzXqBI8Vkasl+PIXVV3s+Uoexjg40UcB1H4tIgtZuv8elxvkIEbC4QDQfWhZ18qGx1ieZOdVADi0DnJj5V6nQWfFHplyhWhVxvAs1ErpZGEbCFzn75W5KSiYY+XnaAcW4JRPSL6Pw+Xb8e0fBH/nVrPaKRFS4feZ9Re18fddanP0Qp+5H3OXWzqBzgc5j2Tq/3Wnl7FgrZzH6ZZFKgrDcsy4v8lEgn5mlIXuDZM6tCHcRG6bC8KNM8DqkfXCbWi/xk2Xoho/ONyGAzgWg4cF3YGvUiPtNBu15uV/98D83Y173LKaonm3sGqXdHUF3wZ4+7Xlme6RXNBm7RUKzwBWe+wEze5tmcevnZ4b7p1D5UntpoLGq+pDB19+dIfz1xs6Di1YfZKQbp8EkjtodoLJ5uM15s12O9kVQdnxlvmnrrzFeje71+W+P1Usg13j7kykt82lFm7cOptNJE49goTfU00nZxchL3ZOoAzLiZ8Vu3lmi8Te+H79KbjLtsZ9lbohE5O0ztUrd02dn1MOt5sveVIU+pcNcL+hQe5b42wfF0XVT12aiXQvJTASZxTidITR0djvogLY8q143GXG99AUQbFAqIhoMMF5HrQpDXFgcaB2hO/NdanCaP87ItBB6iId00vRfmKR7nGHKXp78LoFB3fdlbDJ4OwBYbeQO7fpW0/bpssl+HbV/YKk/m67LPUCc7YPtFiI701xM3C3a8OXkFeq1+JbvgKp8EO5RQqIMmJVzGg9gxW+lb5yIpEuq7I9xySToPERF9/G68RINRzsf+Tgk756HdqVfaq1fHc3qdF6z9pYmG+Rrr9zjP1XxM+nXb+YiGs25Z3wGpPz6hz+M09RvbOMvecujqde6yYnWWIhzX/h6Dv/OUIU9JvETD2qbT/BSErNup46nz6/yeh/UtCOf5kE8QhMIsJAvO+uCFfD/D8+YAbAoQDQeZLiLnxZOIx0n8fxJxUiIE8t9DNJx3ZeLsUh90ko/HuD8o4ybNAcjdqNk95SU8xkdrrDw5X8Ut+bJfue5Ifz1xs5CKZ91RBmxn7Sgfq7wdH1ZSTtR6lbU4eXO/4eMddNj8mJApviYZRMORdykz192vub800XB8FEvqQ5C6rWBH3Mz4qFseZa8+oGR+3yFZ9rKd845ehXvGzUSmPNlkEY1M69QxuMrevU61+kKW4Dvqgwfq2xnGTQfYdCAaDnxc2AI77VT3lG36onBdBOJQ3OmlhELfLWfpmhKUA0juxzL18Rg9EJ7u1Bize8fjQk5ziraDWU/cLDjiqb5r/YEmR/lY5eo+tmQf9zQLn3LscRrbL60KOT+Wo1TO1H3MNj5EQ/332rc+zrRjdoiCsz4UTDRUvo282GbmOVn2sp3T2aYdXzJuJjLlycZV7xWGQCQx1nnUH/c6+cpj8quKjvrgQr4bwuKymeOJIB2IhoMMF5GjCyHBTqLO6p6y7whNJ+W6CLxEI/mOf+lyydE1JbgdgPrK3P7UbB0V7nagy0Y+PC7kkooGY32gqY0mL5nlI04pQxeTsMbhMgNrnstftzCkNSDlOdUh4xMZnEkG0TC7p1T+jDJ0UzLRMOuW5NtuSXngLNNNFo2Ndk9JeJbuyiSuLy+C8gGi4cD7InIOVuqLxryQ0r4NnEM0dAvj8P7GnF1TQpoDiLOjqU31v4uzyd095VMI1hM3C+nxlmikMUih3Y0UTpZPhm+yJ4/DGnQ90NxM22ynLEK7u5Xa651dMw68RMM1EK5mALk/ZWqUX6lEw1G35gesz5aaxWHkyVmmmyUa+Q2Ei9h7tqbYkvlYs2ZcyXgTKD8gGg5cF9HqEs1EXqSwY1qkn28D5xINaS3U8TapsY3M3zL2dgBqnQwkilPJ9U3lYonGOvOs0nZNsVROU773rJ9XiE/3UdMOdqJaD1U67FBS4x4iuJxGljtyh2ioKbcT1Lsr6Jxyq0TEGvC3pobKOFE9HdZTOzcsGldGqbuD64a1ZOCnblnffk59qzxGM72N1NBlzYRzlulmiYYW3OSU27jKYyA8oI/ZNeV2ZVZ9Mz/txsDGdb2oCQoyRZfL0z7joLyAaDiwLqLU3U+GB7Byfhs4t2hIS2C7OZCrt/P6lrGnA9BOL5l2tm8qr0cI1h13HXlmFnm9+2Gu1LfCdXma5a1mTaVmKgkymyY1i8oDJRr2OaxhB5fh4T6zzGR6q/Ft9w2LhuzbnhThwGfd4huAkZawNeWW48j32x3frE6W6eaJhtw4OR7ua+xyPmjqerjPLNc0XNeL+9ylzHmsYPOAaGwSclE7HN/j+C3jxzHPRSY+vC/rWAkAjzsQjVKTiFN8SZ6jMGdNPY7fMsb3l9OJ0djBZhoyX6kBwBYDolFi1BOv3KR/rsd4YhsAAB4TIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPDNponGyj9E6N6FCb0EAADgcWBTRGPtzm268sVqZfIfbBYP6FY0SrfuWUt3BnfS5T0DdMdaLAjLx3+FLh+P6qVSEqW5z+2khet6EQBQEDZFNJb/dytd/hw7Ezb5Xy4oB6fzlW4v0bKOt3Vgx1r9Wboyagk3RAMAkIuSi8an1xbSHHI5dlMVw4GWOxANAEAuSi4a0iUlQnHzr79NN15uUf+v7vx9HVo+ZHSg96bp6oGvWIJX/RX68O2r9FAFWE7q6tuv0Ae/81kOZ/v6K3TzzlVabDXij1ylRyq+5VBnf/AmzX/9CSv8d/bS1dkHOtTi1thLRnov0fVrOoCxth+guWd+I5nX+7MD9GHYTs9rf2Z8yfOv0Jz26aljXqaFPRx34KoVIHzYRzOf20PXbullk3vv04J9jE88QR90n6P4mhXkFo1Hd6KO8rsyME33dZh0l9383h6aqeawz/0GzeyV8tNBQsayF2Rbzv8TOmzwFbpSJNGQLlU/3aroegVbkZKKxq2/7VUXvD2W8YjNFpFP+r6nY5UHnqKxdpWd6Wfpg8j7lGCnmLh2kvP/BXa64ugtBzxzdIxW7hE9vBWl+We0Axu7yvEfUPzcS+x499KiTlQ51C8dousfPaCHa7cp1i9O7xDdSFjh9//xEIc307UPH9Aj3v5WxAq/rscg1PZP7KT56FW6d4fj3OH8PLGN5s7dVs704UcD9METX6GrH2WIn1E00o9fLTe9SXf1copluvb1z9LM8XN0l8vk0R127LxsC45DNNbep6vPcNgrURX34a1zNPclFqf+95Ww3Rtt5uN9iW6IMHF53Di+LbXPrGVPdHdkr1WW17gsE8tWWRZJNOa+ul1ZNlGQMIlTTt2vABSCkomGdEvNfp7vcNlJ3X7zDb2WHcWFCbVOwj69ZtzZbjJeovEo+hJdfrqPPtHLwif9dXT5hDhFccDP0ILREliJPEOX/2CAVvSyLSy2kxaHOhsxjnltmua/yKL6j+IIrbv9D942HdNtutbE2wxaoyuy/Qw73CQsLPdusdPUi8k0hjLEzyIadOtN+iDpdK39OvOiUS0QdtZa6IRHH56kuYEoibaZoqHK74vfoZu6FSI8mv4OzTzxEi3zOrX/F8dSLY9b79ONc+8r0che9h5ltXaOPiySaMjMP6mzmYTDFgyp0w8u/UyvBWBrUDLRWDr4J+pCW/rmfr0mxbXnd6uwcuqm8hINtY7zmWbKKYoDdjqp9DQ8REMLgM2NNnudxK2jqx9a621ir3wh6YS9tr93yeie0maKjDN+FtEwhUJaMJm6psSZO4TRiSkaKv3WMTL0Raety+06///qZ+nyM3vpw4E3KcatBrtrLXfZf4HmL1lxLdLPRyHJJBwQDLDVKYlo2BeYdEV5tSbMVki5DIqnO3y97oWT6g46nXQnlZ6G00mnO/EHdL01u2gsn2Cnmkk0rg/Q7Oeke2pZdeFwDHUHvjHRILr79h51vHekm8yza4rJVzQ+Nls0DLeWVqbHaOHEXpqt/izNfm9axc9d9qUVDcEtHBAMUAkUXTTkQkqNW3xXr01HwmxhMe/cNot0h0+UOMfO0xhzULBztu6G053U+kXjfbr69Pq6pxzbiwN37O8qLfzBxkXDbmFceeGz3l1Tglf31MfTdOPiVeXsTdHI3j3FYnHxHN3k1oWNCtNTnbOXfWm7p0xM4YBggEqg6KJhP5MhYpAL6Z6SuOUweOglGmrM4UvWYPcdcViJq3T9aB19MCJubWOiYQ/eJge6v8hOUjtGayDcCB/ayw6Wl42BcIcIzL7CTnYnXZ1epgf3lik2wC0F3t+GRYNFavEF6QbK5nzXPxD+Qf+0Hgi3JgvYA+GxV7bR5a/3UUwyIMc7wPn50isUU9tmK/v0gfDlV2SWVfFFQ7CFA4IBKoGiiob5TIafQW654Oz4m91N5SkajEwZnd/Lzk3y6ZheujHRmD0xQHP2lNuvNtOCe8rt24do1pxyq2dCCekiwA5shOPLlFWVtzFaeDE1+L1+0dBdVB7l4MCccqum0UbpnioTl2gwjvJzxaW1ZbrRbU+5TZ9inLnshdJNufVChAOCASqBooqG3S0lz2T4pZyf3Sg0Xk6/3Fg+zq2GMs8jAKB0FE003M9k+KWcn90oNOUsGg/v3aZ7s/KcR4ZZUwCAiqQoomHOhsrHJI1yenaj0JSzaKhZWk/U0RXjiXIAACiKaNjPZBTCKqGbCgAAHheKOqYBAABgawHRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4Jvb8bsQDQAAAP6AaAAAAPDNpojGGxc+pdC37ymT/wAAAB4PSi4aU1cfUaD1rsNkHQAAgPKn5KIxMPFpmmjIOgAAAOUPWhoAAAB8gzENAAAAvtkU0QBbkKVBaqruoCm9mMbyLE1eiumFHKwn7mPM1PEaqjoeVf9jkcbkfy8S81Gamo/rpeKh8rF7kKzSj1JndSMNLamFdCrkPAEnEA0HSzS0my/kasNq66ihZZBmVnQUJnFpkNp3BK3wYJgO901TQodZF5ozjW1f3kedw7NWnLV5ioRrqL4jamzDLAyw062jzgkfjuFKHzVUh6g76kiBFgf4gq9ro0k7iflhag/XUUDlM0QHTkxQbE2HuVDOwsy3HHdzD00u6wi5yCEasaF9FAj10JxezobfuCrPtY004nZqKi9ZnF0huNDhKK9AHdeDnszl68V6RGPqRJACB0cpe+1w198g1T/fRiOX/IvNekRjPecUbB0gGg6si64pkrpKEvF5Gj8SoqpwH82JQ4iN0uHaEHWe1XdYsQnqDAXp6Cn7wrREo/OCXlxLUGy6j5pqg3T4pN5GO/3eaWtR9jvSyE6h5YxTSLIw1xumqlAXzdhOShwl76P9tM7H2jT11gWpaWCeEirfks8aOjDsfWfodBbGcZv7yEaulkYRsIUu0JjKt6JkoqGPl89xnFsCkYMhlZdFn8KxHtHwh6v+ri7R3KkOapD6esGfcKxHNEBlAtFwkC4aitUz1M6tAHHy8ffaKNw87HBS5sWfJhqama46qjJEYaYrJUTxk80UqG2lcY/rWtJOy48gosAi0NA7zwsxGtvvEh0PxznXw/vM4JjcoqFYYYGsrqfIFXuZHWNzmLbJXay7haX210Zj0R5qYrGSu9yGltGkA3Wkv564WVDx6sPsFA1BFjyOffF0W3Jf2xt7aEpajur4zHgitDUsvPZRJWi8pYbCqoxdmKJho86JKy/xaUeZtQ+n0koTjWOjNNXTSNtrddyTqQNw1rFMeNdfVb9M8V9bovE2vR9uUTb1RCnuWfaWaETOcotVtaytspvR9dTveQJbi4KLxj+zF+wf/1T9ZuLug5/TUPRTZfI/EzKrSqbjlm52VW7RcJNYGKX2kNlV5C0ac731VLXf6F5YjVI3O/2mnj5qdzs9g4yiwSSiHVTPF3V/byuLTjONOZKQbjCjpbFitYgy7cfTAZjHrbrV2Ll3aQejWy6WaDHKUddQ/RF2/lwUidgZ6mQHfPikdcSO9NcTNwt2vLnTruN3iUZioo1CoQ6alPC1GM2wY7bSt853UiS4BRjmfAWSzllExPu8e4oGo86zLd7snId2p86BqiucXucFa39posGtz/ZTSxyXW6d8cxKq5mPS3aL5iIZ1Hm3xj9PksTqqPz6hz+M09RvbOMveqsuBxj6akRWrsxThuKEuq0D8niewtSioaPyd6xkMWXYjIlF/4l4yzu9/Z9VTOGRWVY2RVmlmWXlcdLaTqWMHsarXMdZFzhcyO9XDg+adaLpoxC+5uqc0ypmpizLzhZdNNGwHIHeATYMecZaG6fDvSh4tC+uL3Ys0ByB3o2b3FDvJQJ2rq+piF4VquVxknXLU3FoyykjyHugwnKKd/nriZiEVL84tAqOl5RANlzAIyok20siy5eTN/YaPd9BhOU5ZIenYx+cmg2g48i5lVs+tSRViYe4vTTQc3ZNSj4J8M2It5SUaZp30KPsEi26VroPOspftjJYmo8I944JKoaCi8eS3U2IgJstupHVhxhGTdW5kOq4ZR5aLj3XR2U7WMm6Sh1tpxKOHQrBaGqYgWBeoM40QHY3ogXADuVjVIPXuAUc/uLoY09KwzNmCsZylrG8acDkK3VXiHNPI0dJw7Suwk+/O9UC4Cnc4Ncbs3lHOyOlE05yi7WDWEzcLjnhqrEmP6ThEw+t8iOnwaRY+5djjNLZfWhVSByxHqZyp+5htfIiG+u+1b32cacfsEAXD0TMFEw2VbyMvtpl5Tpa9bJdqsQlpx5eMCyqFgorGVzqcjl6W3TwOopH5zt6bxYFdRteT82K3B87Tujji7MRloLp3QHXNOJx+Ik7xFcvGj9TQc32zyWUlABrVUqltpMiAtFj44l7QAUJUtwz0oqCc4E4WKL1s4nYAMuYSMLrTVLjbgS4bznmzRYNRffcye+ySWzQydDEJaxwuM7DmufWhy0taA1IHpjpEZO0ScJFBNMzuKZU/s0vSRclEw+yekny76oWJs0whGiCdgorGP/zTQ4ejl2U30hUlXVJ2nGzdU2Zam9Y95SI2/CKFDzkHwpVoJB2qSzQYNdPJcXHpbiXdwlAtDq+po4w4C8/8KNGxxUZ3z5jdXOIcXF0jSjRc62zSHECcHU1tqv9d0svdPbW5oiHnT2ahhXY3Ujjp7Kwpzg39rqZi8jiswe4Dzc20zXbKMraxu5Xa651dMw68RMM1EJ54T85rK00aXUGp/ZZONBwD4fMD1FAdpohZHEaenGUK0QDpFHwg/GfXHlHkJ5+q30yISEjrQsxLMGzKZiDcRF10qSm3mbqnTNGQQW9pVdjTYa0BbL5wkw5Jz37yuCv1Fo0E3wUb04AF3T2TzIfcXbLTlxk4VvfUNEXYodZnGNfwcgBqnb0PPRDexLfs1gBqlHp3uAfCiyAaMmOrY8Ca7eTC02lJ2jIryHB21uw0bpHp5xXiMgV6BztRrYcqHT5nqXEPaxZVtjtyh2ioKbcT1LvLEu5kV6Oe4SYD/ur5jYSME9XTYT3tecOicWWUujtGPVqMrvq7ukQzEb7JcUy51XVNBrelTGXMrreRGrheJFtHyTKFaIB0Ci4ajzc+RIOJR/vosH64Tx7qaneMV3iIBmN1nbCTucnh4kjczls5u/Qxh/jsBE0tpFIXEuyw6h3PeVjEBhuds4jW+3Cf2wFop5csD3bg/c+HjCm3qamaRRMNFdcatHaTyWkt8vqAy9ktDrdSg5pyW0PbdrTSkPnAm5o1lZqpJEwdZ8fqcOIulGhwnrVlfLjPLDOZ3mqcgw2LhuxbWnjWkoFVf1P5yvBwH98AjLSErSm3HEceXp3TUZxlCtEA6UA0QHkjXWDZ7vgrkPjwvqxjJQAUE4gGKGMSNPM3+6jb59PMlUGMxg42Oyc9AFBCIBoAAAB8symiITOhZAqtWGlmRQEAACgEJRcNmQllTqUVK93sKAAAAPlQctHA514BAODxBS0NAAAAvsGYBgAAAN9simgAAAB4PIFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvimJaAxcuE+/9mfL9JlvXPdlv9V6k96euq+3BgAAUC6URDREBLzEIZuJyAAAACgvSiIathD4Zb3xAQAAlIaSisZ6DQAAQHkB0dhUlmhodw11XtCLFUGUOqsbaWhJLwIAHivQPeUmPktDLWHaXltDVdVB2h5upkg0rgMLTTbRsMKaIlvNu0I0AHicKYlorJfNE40lGmkMUv2RUVqMJ4jWEhSb7qOm2hB1R3m54EA0AACPFyURjb8cuUt/efKuXsrNponG8iA1Ve+ioQW9rJk5UUdVxyb0EtHi6TZqqgtaLZHGHppa0QFLsn0bjUV7kuENLSxAazqcWTzZSg1BbsXU1lHTiQHq3ukhGiodaelo2z1IMR20eMrcdxuNu/JqYQlOQ/+8Xmau9FG4eh+N6ISypTN13CVWKj+2o7ecfn+kSx1Huqjp8OFUGWzfP0BzycaaFR45O0ztO1JlOGM25laiFGkO0zY59mCYDvdNU1KyfZRx4mIfHVZp19C2Ha00YhQDACA/ii4a/3Lt06QI+BWOTRONtWnqrWNH2DNLccMJmSQm2igU6qBJcb5rMZrpaUw5de3sVUuFvVwidoY6Ob3DJ7VHnO6i+lp2mNMcm1sxi6daqZ7j+21pJE63UiD0Io1csVpBcwONFKhtpXGP3rNYxMiXvbxvmCRqrnRyi0YNBUQs5+MkDTInVrgqg1VejE1ThFtvgSNntOO3t++jGcnc6ixF+DhDXdMqlNbmKRJmIeiKWucgNkGdIRbAXu35c5XxwgC3DDmv+thEpEN1HTQleQEA5E1JWho//MnquoRj00SDSVwapKNP8V2q3OG29dH4rO12BcuRt582POXqGWpnhzoij5Uoh8bO13BQ4oADHVH9P0ihE9o5Kjg9r5aGwi0a1vKBYTM/MRrZ53W3z8SG6UDS0VvxrG1zp5NbNOopckWFeCDhrtbaxS4KJcslfXslaI1a4C50UKCui2ZM0Zbta9nxyzofZRy2BUbBIlQfpG4rGACQJ0URDdvpZ7JcwmHH2zTkDnV6mCItjWpAfNsuu/vEuktOdhslTTtU5dDYuUlUjTi0quPisSxnnbwjVljr/ImGt7Oe6arT6bsxhGJllA4nu6Zyp5NbNOz/XniEr3FrIcv2ZqtI/W+xWyUalX+9jY8yTj8/mcoYALBeNkU02t4xHWc6dryyQLpL2BFZ3Sfi8Oqo12wsmGyCaEx1cKvIUzSI4sP7qGr/KMVOtya7pvykU3DR0K2xTNvnFA011qS3WXcZAwAKSUm6p+TdU34FQ9gs0ZC+/ip31wizOLBLd59If7trgFmw42d1aPK/hN1Tgm5hHN4fNLbLnY7k+bkBI818RUMNwpvdU5lFw1/3VKYyTtDkEXP8ROM6nwCAjVP8gfCFh+sSDGGzRINWo9QdClJDx4Qx5XaQjvK6pkHLy8VPNlNABrMvWccSlym5O9jJiZfKIRrugfC54RezDIQTTR7jFk5HlBIJywVaA9jsfBesvM0NNrMz5eWMxRqnsf28f5eTzpWOcuLhLpoSL746T+NHQkYafkQjNVBNiXkaamSx5DKwjiKHaOiB8CZuzlkD4VHq3eEeCM9RxtUhaj9l7SCxMErtTzXTmKmRAIANU5KWRtvJuG/BEDZNNISVWRpp20f1Mi2Wnd+2L++i9sis4851cbiVGtR0T2tK55AWkJwOjfE15VaTYEF6TsVNpZnat54qm2M6qeqiMmZR2WRNZ22Jxg7VU4CPL1AXpvauNnpuXaKxi7oHupJTYsOHBtOm3GYUDWElSv3Ph4wpt3omleCjjOPRHjrwZev8BOoaqXcCigFAoSiJaKyXTRWNLYZ0iWXsvioKuUQFAPA4UxLRWK8IQDQKwGqc4rPyzELqgb7SANEAYCtTUtFYr4GNo2ZD1dbT0ZOl9t4QDQC2MhANAAAAvkH3FAAAAN+URDR+7YD/74Pb9l//4qbeGgAAQLlQEtGQd0+JCHiJg5eJyLzG2wAAACgvSiIaAAAAtgYQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDdKNO4/eEAwGAwGKyO7fz/9Nx8z087DIBowGAy2FcwWBvPXNDNuHgbRgMFgsHI00/m7fzdidrp5GkQDBoPBtoLZwpDpt0AG0YDBYLBysFxOX37zMUmjAAbRgMFgsMfZbEHw+jXNjp+nQTRgMBisHM10/vZvPmamnYdBNGAwGGwrmC0M5q9pZtw8DKIBg8Fg5Wim87d/8zEz7Tys5KJxd/UBRS7coeDxm/RFttf5v6zziguDwWAwn2YLg/lrmhk3DyuZaCyv3KcTo7fpN1tupH0TXNZ1nrqt4nhtC4PBYBVnpvN3/27E7HTztKKLxvvX79OfvXGLfqU5JRafO3SDOt69rUz+2+slzgGOK9t4pQWDwWCwDGYLQ6bfAlnRRGN89h7t/N4n9Av7Ui2KL/3VTRqcjDu6o+S/rPu9zo+T8WSb//XdmErDTBMGg8G2rOVy+vKbj0kaBbCiiYYtAL+8/zp9/dVP6OJHuQXgn+fu0fP9n9C/5W3s7b3iba6dp29V19C3xr3C0u327HmanI15huVt86/T3urjNOkVJrYwTecuLnmHZbNc6eZjG80TDAbzNlsQvH5Ns+PnaUUXjaVb3uHZTLbZTNG4efF1evnZ7RRgcaiq3U5fO/Q6Xf7YDl+faEx2BCnQ/A7d9Ahbt40fpyrTmedw7tf+fi8Fnuymyx5hWa2IorHhPMFglWam87d/8zEz7Tys6KLhFZbJ3ruUao1slmjcPn+cnq5+kl5+Z5Zu3uHlj2fpxy1PUmDP6/ThPYmzPtEoqK1TNDZsxWxpwGCw4pgtDOavaWbcPKxsROP7Z++o+H/+5opa3hzRmKXXnq2hr/XMOtff+hG9XB3UQuEWjRhdfq2FvrY9yA49SNufbaF3r9hh3NJo49ZK23n1/9pre6jqyKv07qFnaZu0YoLP0stvzdPNyW7aa2+/p5umkq0aVzqyjTa1f+Xcj9G751Pbf+3QO1rc9P4aXqdrdjpX3km2oALbed9vuo7TNp3uG2/xcQVlfx7p6mOyzFUm9+bVMW6v5W1VS+1N7zzlyL/Y7cle+uYzElZD255pobdmU2FZjydLHmCwx8JM52//5mNm2nlYWYjGD8/Hk/GPvrWJorH8Dn2z+ml67ZI77A59eP4MTV65w/+dDvLmOwcp8ORxOrdkLX/46h4KPPsqfai3TRON2j302k+X6PY9TvPvX6BALQvF3l6aku1vTdMbe4L0ZOdPVfw082xp1NDTLexopVW09CP61vYa+uZb1hiKUzSm6QdPBmnvq7O8b4576VXay870lUmdlmlp6Z6hbz3JYtpnOeVconG5W1pmr9Jl3vb+nVnrmDqsY0oXjcz5v39F8riH3rjE5S7lxSL25HY+ftXlmf14suUBBtuSZguD+WuaGTcP23TReOOf0gVDzO/2BTXlxNhJzXuEJc11V30rRjfNcRudxlsL1nJ6S+NMKu49dsaS1hm9bMcxWwemeYpGC/3Y2L/sL3Dc2F8yLcn30/SDi3ZcUwhT2ytT6R6jc+Yd/7stVLX9BE3x/1yiIXl4tns6GX77ynk6d36ebvP/dNHInP/JtiA962j1cUvw6SB957z8z3482fJgr4PBytpM5+/+3YjZ6eZpRRONX37Bcvqf3LEye+Zy+uypoX+OJ6fkmoIh28g6ScOMX3TbiGjci9FUsntKunLEUmmkiUYWZ5uMsy7RcI49pO0vmdYdmur5Gm3ju/G9h7rpjbFpupmpu8YjXbnr/yO9Ltdx3P5pL/1RULraWugHr52hy7oVJpYuGpnyP09vNNjl6TRrP9mPJ1seYLAtabYwZPotkBVNNP5Ly7Jy/LNLq3ToH1bU/7/7SequVgTjF5vSBUNMHu6T9ZKGub7olrF7igvqY25RSFeHy0EqJ6i6p/SxuYSnfERD29I0Tb7ZSy/v2U6BJw/Su14CmadoKLu3RJfPv0mvHdpD22ufpNZ35tV6R558iEayqyqTZTueDHmAwcrScjl9+c3HJI0CWNFE4/e7Y8rxy7ulRBTkv7Qqhv9fnN65eDejYIjJNhImabjDimt6IFz33Scty0C4OLm9rxnOSDnXMhQNdq7n5G48GXeJ3trryrttKt0c3VNmN5vjONhRjznv7G++uTeZD/+icYfOtQQp0PIjZ5eSnaesx5M9D/Y6GGxLmC0IXr+m2fHztKKJxl+duq0c/67vf6KWbeH4N39ynX6JLZNgiDX84BMVLml4hRfTbrNjfrr2a/SdMT3AmmPKrQy4VjV00xS3NG4v/ZRe2yvdVEUSDSVIe+mtBd6XtHrWJRrciuK77Zftu2016Bzku28PYVbpZh4IF/EK1L5Ab8n4wZ0lmurZo2Yw2aLxblNQbXtNyovv9n98hFsB+lkV/6LByz89oac/W3m+LbOlvvoCvStikPV4sufB3hcMVtZmOn/7Nx8z087DiiYadheTtCiuxawM28KRTTAkrt0K+WCT3kF183wvfdN+uC/4JL1w7M3MD/fpqZ0yhTawfQ+98s6r1Gp0cRVUNB7wvg4+rfK19/Wl9YkG223zocXgs/TN3p96DwyrdF1Tbo/9yHLAKk6Mprq/pqcNc/l0n+BjNo7j42l6w57uKtu+0JucRrwu0WC7eb6bXvg9a7xIle+Z1NPkWY8nSx5gsC1ptjCYv6aZcfOwoomG2Fe7rPdJvfB3t5LrRCwyCYaYxJVtZFuvcBgMBqsIM52//ZuPmWnnYUUVDXmXlHRFScthYvauZxzTzr9vjXXINj+dx8sKYTAYzLfZwmD+mmbGzcOKKhpir7xnDWr/+sHrNPXRqmccsX+5uqriSNyeMx7PDsBgMFglmen83b8bMTvdPK3ooiHWHLG6nP598w01e8odLk+ES5jEkbjucBgMBoPlMFsYMv0WyEoiGqv3nYPgf/r6LdV1Nfqzu+qzr/b6l7KMdcBgMNiWtlxOX37zMUmjAFYS0bDt3X+5S7/1F9ZDf6bJupGp3GMeMBgMBnOZLQhev6bZ8fO0koqG2J17D+j743foCy/fVCb/ZZ1XXBgMBqtYM52//ZuPmWnnYSUXDRgMBoMVwWxhMH9NM+PmYRANGAwGK0cznb/9m4+ZaedhEA0YDAbbCmYLg/lrmhk3D4NowGAwWDma6fzdvxsxO908DaIBg8FgW8FsYcj0WyCDaMBgMFg5WC6nL7/5mKRRAINowGAw2ONstiB4/Zpmx8/TIBowGAxWjmY6f/s3HzPTzsMgGjAYDLYVzBYG89c0M24epkSDAAAAAB9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwTdFE452pB/Tfjt2kz3zjum/77dab9DZv9/gRpc7qRhpa0otuLnRQ1e5BiunFjRKLNPpOR8U9HtVL62RpkJqyHQ8AoGIpmmj858PLnsKQy37pT67TzxYf6lQ2kfkBaqiuo96LejkrEA0AQGVQNNGwRWA97O5bUdt8/uhNSqzplZvETFcdherqKHDkDCX0usxANAAAlUFZicad+z+n3/xzq4Vy+M07eu0msDZNvXVhilwYpgPVrTS+qtcnidNMTyNtr62hqmCY2iM9dNR0svFp6m9kwamuoW07Wmmo58Uszj5Oc5FWaqgLUlV1kLaHW2lsQQe5cItG4tIgtYet/QQ4v+0nU15exT02QGMtYdrG4SqfRriweLqNmuz9NvbQ1IoOgGgAADJQVqIh/NPcp/Sv91nbyv/NIPFeKwWUc07Q5JEgHRh2uvv4yWYKhFhMFrgNkojRTG8jO27bycZobH+Q6o+M0qIKnqZIIzvmDKIRP/Uip9VBkzpwcYDTCg/QorXowCEaK6N0tDZEnWf1hvMD1FTLQjdvLaq41SFqP7XErbYExc52UH11Kjwx0UYhe79rfAwsgsm0IRoAgAyUnWgIR4fjaltpdUjro7S4hOJiF4UcTnyJhnbXOIVkbSLVPaUc7j4aMYKJHXTGlsZqnOJmS0Y77JFlvWzgEA0WgviK2XFm5atp0NqL1dKYUP8tEjTeUkOhrmn+b8VtP21sv3qG2u39QjQAABkoS9F4+Iiotv1jtf0f/a3dZ1IiYsN0oLaVJm1HbndV6Tt0a/yijnrF9yYxxjRk/KKui2asAItsYxprcZpJdk/VaPN22A7RYOJG95S9bVPE2lDFdY1pLA7s0uskv6ltUmYKH0QDAJBO2YvGH/aVVjSsbp10hxo6YatEYUVD7U91E+m7/iwO2yEaKp7VPWVNGtAtDd+i4T4GA4gGACADZd099blDpe6emqdIOEidF/SizZU+CosQGM65UN1TU8dTjl6xMEDP+RGNNCHifO10iUbG7ik5zhpq6E82nyzsGWsQDQBABsp6IHz8/RIPhE93Uai2g6bSpvuyk60PUvt7VmvAPRA+1bUry0B4lHp3Zh4In+sJcVgPzXBLQw2a75NuKh+icamH6jle/zS3NFZjNNO/T82ScohGloFwdQy1jRS5FLeWp/uoaQcLoxwiRAMAkIGyEo3NnnI7cyLzcxlzvfVUdXBUhxVwyu3aUnJabKCukXpPDXBa9RS5osMNHKLBLJ5spYYg56G2jppOjFLkYA2Fey1VsFoazim3naedOVgcTo2lqHxqAYFoAAAyUVaiUU4P9wEAAEinaKJhtxjWa2XzGhEAAABpFE005IWFn1/nCwt/q/UmDV98HF9YCAAAlUHRRAMAAMDWA6IBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAZwkPj0U7q1coeWrt+k+Y8W6f0rH9HM+3OwCjI553LupQ5IXZA6AYANRAMobt+J09WFJboyd5VuLH/My3fpwYMErT16pGOASkHOuZx7qQNSF6ROSN2QOgIARKPCid+9p+4qFxZv0F3+D4AXUjekjkhdkToDKheIRgUjd5FzH12DWADfSF2ROiN1B1QmEI0K5OHDNdXdgAsfbBSpO1KHpC6BygKiUWHIRS5dDLFPVvQaADaG1CGpSxCOygKiUWHI3SEEAxQKqUtSp0DlANGoIKRLAV1SoNCgXlUWEI0KQWa8yAAmAMVA6hZmVVUGEI0KQfqeMUsKFAupW1LHwNYHolEByENZMscegGIidQwPAG59IBoVgAxUFrOV0Tu+Sntfu01XP8HT45WM1DEMim99IBpbHHlvkLwGohj8/OdE+wZu02e+cV3Zfzq0TB9+vN7pl3Gai7RSQ12QqqpraNuX91HvREyHgfxZoqHdNVR1PGotTndRfXWQDp8sThlLXcO7qrY2EI0tjrxwrhgzW0Qwnnt1JSkYtu383i0dwx/xk80UYCfWcGyQxs+OUuRQPS+HqDua0DHKnSh1stg1Rcr1DtstGj0Urg3S0VNaNC50sFg30lCBsi91Teoc2LpANLY48qZSefFcITEF49/96Q2HaPz12Pq6waaOs0PbOUCpIdQYzZyK0uLjohmPm2i4KbBoSF2TOge2LhCNLY7MaJE3lhYKEYw//IElGJHJ+/SPswn6hX2WYLzw+m0dyz+L/WF2WiFqP7VEibSeLS+H53LSa3Ga6mumhiDH4xbL9nAr9R7bxf87aMqKwYUwSp2NddyC4TjBEB3o6aKjDkefvYsscWmQ2sPG9icmKCZ5VQ5X9mubt/ONTXTRgS9baTu2Z5Ro7u6hkZ5G2l4raXCrq2WQ5jKNJ8dnaaglnIxb/3wXTS7rMGHFCt+m9hWm9kiURlr4v12GS4PUxGGdF/S+k3ln2z3Ikp0fUtcwi2prA9HY4si3EQr1evM1TsYWjP7zq2rdYPS+Eo2NCIZiLUbjx6RLip2WONS2YZpJPrCeWzRmukLKeT7XZnVvDbFgqLRs0YiN0mF2sIGnmql/eIImh3voQMhyknYai5FGCtTWU+fwLMVWlmgm8iLVJ7vIpqm3roZCLcM0txSnxQs91FS3i/qj7NVjszR5to8OcFphzvfkWW4hWcWSYmWCOp+qp6P9HLbC25/toAbOT33XtAq2HXdgZxsNnZpg8djH+66hhv55Fe5gjcujMcjH0kYjs0sUX5qmoYN8/CE+VtnvGudVji24izojozR5apA6d3J8ERgP0YjPcnn07uP987EP8f8oC7cVa8NIXZM6B7YuEI0tjnxUpxA8ZMH4n9+9lSYYG21hpCEOONLGDpnvyNmBd1+QW+0corF6htrZITb0mg42TpPH6pKioVoyta00bt65Lwwox6nSWOP0OI1wz6wOFBI0LnfnLWf43zxFwuzUG3toaj7u0Rry2T2ViFOcRSPOXnnyGKet7+ot0XjRyF+cxvbzukaPu35u2QTYwfdf0suClAHvv/10ghLvtXJ4mCJXdJggQsKi5yUaigJ3TwmFqnOgPIFobHEKcQGLYDzzfy3B+N5ZSzAGLhRIMNbY2Zm3t3I3LUKhnGYO0XA7QE2MWw62aFjdP24HnJ6Go5vGNnu7+CyNnGim556SLip391EO0eDjGdmvu7aU6Tt/UzRc+fPOs31cdjpOk/2bx22i0oNogAIB0dji5Ns99SnfWWcSjOd/mG8Lw7oLDqg7+hSpO3EtGmZ4bFh1Byknre+ys7U05nrrs7c0dGvlwLDTRceuzFJctypiF0Zpxg5OTFN/Pee5wxay7KIRGxRH3sh3//oI1rglIa2YDYiG1ZLYRyNmwFqM5matFeXQ0kD31NYHorHFyWcgXATjq//nEyUQ3T+2ZkX1nVtNCoYMiueLOFW5ew/v76GRsxN8R79LDeLaQjDTJQIgg9fDNHlqgI4+ZQ0o207aPaZhTdllJ5lxTKOLnlOD5qk05vplHMQYF2mTPASpaZDD45aoBJ56kSKnJmg80qbGJEJ6TEJEo1vCd3Zw/odpynTYjEwptgb65ym+skRzw20U5vgbEQ1am6fITj5+c8xil3TnNdKIHIo9plHrHNNQrZFMohGVLi9uPXVw+Q5HjVlsGwMD4VsfiMYWJ58pt3/cbz24VyzBsImdTc0uCtTJjJ/UXb49W8iaDWSJRz+3PpJ39q7ZU9J1NN7j6qYxZk8F6hqpd2LY1TqIK2euxlN0nE528knM2Ve1ddTUNkqLxthG/D0WEr3/3ot6pQ23BCZPpGZG1T/fQ70H+f9GREOQrrK2VHrbG9to3GxombOnOK8NLTI5gP9nEg3ey2SbXb5daV1b6wVTbrc+EI0tTj4P9335RIx+99uW6+o5c68ogpE3iSWaueR0rzMnuHVS30d2z3p8dpoWze4p3cUlg8egsODhvq0PRGOLk89rREQ0fvXADar7q5gSjD1/u1JegkEJmurQ3VMnZMqrq2tJkDtr6T7S3Usy5fawdHHZ01RBQcFrRLY+EI0KYKMvLDw4eEcJh9iBv79Dj8pKMDR295TZtTQ86xhYV91Lz4esLhgWlIbmHucDcaAg4IWFlQFEowLAq9FBKcCr0SsDiEaFIDNaivl6dFDZSN3CrKnKAKJRIeBzr6CY4HOvlQNEo4KQmS3FeE06qGxQryoLiEaFIQOVsU+SbwQEIC+kLmHwu7KAaFQYDx+uqb5nCAfIF6lDUpekToHKAaJRgchFLneH6FIAG0XqjtQhCEblAdGoYOTClwFMzKoCfpG6InUGNxyVC0SjwpEZL9LFIHPsIR4gE1I3pI5IXcEsqcoGogEU8lCWdDfIayDkLlJePCdvLC3UV//A44Occzn3UgekLkidkLqBB/eAANEADuS9QfLCOXlTqdxVyrcR5KM6sMoxOedy7qUOSF3Au6SACUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfKNEw+uTjzAYDAaDuQ0tDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL65Hb9L/x+9mrpYDPCePwAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d1f31857204fb</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Ce Info Software Solutions Tally Services Provider &amp; Partner In Delhi Ncr  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       285 street No. -27, 100 Feet Rd, Chhatarpur, New Delhi, Delhi 110074      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADbwSURBVHhe7Z2Pcxvneefvz8ik7V2v7bSd6UzuR9PWN8fkeGDKCtMMMfUIV49x0RipzmLkwFcrZGSLJ0syQ0VyWNLhUQlPTZjQoc0zbbg8ccRYtBTJVkVTZci4YtnKZCKTsUxKlBBRgn5Bovy993n3XWCxAIglQUAg+f3MPAPuvrsvdpfg89n3x4L/CoQQQogH/rp+FygNQgghnqA0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHimZNK4ex/4u7E7ePrVBXyh+Sp++7nL+P2Gy/pnWdf3szu4t2g2JoQQUpaURBon/iWBP/rGPD79tUtLxiNNV3DqfMLsRQghpNwoujRaBm8mpfDZF+bxwpEbGPr5PSzc/kTHmZ8n9Dops7d76e2bZm9CCCHlRFGl0aqSv0jgd567jKPn7uKTT0xBFqRMtpFtZZ9vH6c4VoNYNIKK7X2ImWVCCCmEoknjnQ8SOvn/5tcv4Z8+vm/WprBbFW7G1bayj5RJHQ+Dux8cwd7mP8dn9j6CT73w59j+8jFMxk1hubE4h9FDdQj5q1BRWYVNj9ahaziliHKWRuxMBxoeC8BXGUH/nFmZQRzT0SbU2ue3ZRei59J/GbHhDtQH/Mnz73GU6/NX61PhR024Cf3n3dv40fJu9s/bbE9Y79s+YlYQsoEpijRk0PsPTXdT19BtszadXNIQXlb7SJnUceeeWVkqJn6AL+59DM8NfIDL1+K4PvcBoocfw2daXsfMA7NN2TCHwYgfvkg3JudUwltMIDbRjfrqoEpwVlIsT2kkMH4ohJptHRiamkN8iXuD+LFd8AXbMGpOIH6mDaHqPTi1YC1jphe1Sjo9RgLu8ozzT8Qxe7wJocowohesVUmx1A0oRbmZQTRsCYfSIKRI0nj9p3d00v9s4zwe5OiSWkoaso89cP6Gqqt0xHG0/RGE+j40y4YHH+C7+x/Bcz8xKeXjI/jy3jZEf/IthF5QrZG9X0Do5TO47pDK3fHX8VzzF1TZI/jj5m/haLLKcby0dwdeOXtMtWak/PP4XNsrGM/MVnlJvNsEX3UThlz7TneFkokyI2kuzmCoOYKaapUIqwOobz6NWeestYsn0BKWu/8q+AJhtAzMmAKL2ZPN5q5e3bFHOjFuJ29F4lwnGh513PGP5TgpSfTBDkzmmC03fkiJcPcJ9duIq2MNYV9aM2QM7Y4Ers+18bTSkM0c+rdWoeWktSa7NBMYaqxCsGNCL+lt6urQICJJP13gXAeCAVWm6iyGNG7fvq0jH163I6TYFEUa215e0Al/qXGJpaQhyL5SXqvqKhnXTuK5vVvwyi/MsoPx3kfxqR+arKGl8Xls7/sA15XT7n50Bt88oGRz5GOr/CNV/sIORH+hEteDBC6/8y18YX8bRrT/RBqP4DNtr2NcMln8Q7zy0iP4Qu8HUrgsJjsCroRpiE1h9MyUvmtOT5oqCTf6Edo9gGnZKTGDfmmpJOuYQk/Qj/reGSRUQk9c6FWtlgC6zulCJIabEbTv+hdjmOx01L1wAgekhXPGvJPc8VfWYdBaTGO2dxtCBzvRFbHlpFoKji6lxPlhDJ3PsqNqSelWgjqGcZM/x1ur8HRvet/W6MEq1EetdZ6l0Xoao/v9CHc5rZHQ62p7TqN/e3Gk8d3vfhetra1LCkHKZBsJQh42RZFGxTev6IR/7qPMsQybfNIYv3hfl0tdJUPLQCV7k/udXB7YgU+9dASXZcG0NEYcLYvrx5/Fp158HZJyRl7+PDantVaUGF78PF76R/lZpJEuJl132zGr7mUgCbOidcwsZSctac71od6dyGMD6g7bHlOQu/gQes7rEoVK0mPD6nchSlF38Cpx2nfwmtun0aL2HZxXP+u69zhaPTFMnxnGdJbcr4+7OoLohCoUERxrQrB6F05l2dbCem/dhfTFXRh05HWpyxaEjXNdNmnEJzrVsQaUBKxz0dvsVC0b3apwtID0tZHrZb1/MaTx8ccfY/fu3TnFYQujvr4eIyNFOABClklRpPFbz1pCuHEn93SpfNKQfaVc6ioZy5WGLjFI60Kvu4qoajlIt5Q7XhqVDa3uKed7pNWdhrrTPejHpoPDpiWQzrKlMdKGilA3pnWJzQS6AnZCTGCyaxs2SbdVYyf6pbWS7EKyuoV04k4LWzhzOLU3BJ8/jH3N3RicmNOtlUxiGIxUue7oZxANVWHfsRzdWTZ2S8MhGE/ScB2zu9stdY1k/CI1IK7X63GO4klDyCUOCoOUI0WRhjzt7VUa0v10827mdrY0ZApuyVhW95RLGr94HZsd0kiOf2SwetLI2T2lkmt8wZH4lpTGGA5XuxJibArjA91oke6j4B6c0vlXpBFAl9Wjk5PExQkMRTuwb4sfvq2dmMy4eba6hpZK9EtjjVnYgpH9lt89lY5zm/hAnRGFUyBZrtEq4xYHhUHKlaJI4z/tt7qnpIspF31jd/C7uyy5yKD3z36ZPk1Kpt5KWUm7p1SqyD4Q/iFeac4cCHf+Kd898y3TPZXA6c7P4zOdI7hryjTJrqzlSGNp7IHwUVdizjkQnq97yjEWYqFaBXV2ArZmEdX2OFsICtOaSFwcw+iYal1Yi2q9swWTTqbs0kWQIqZbLwcGnAdsbWt3k61sIDydtG10l1sYUSW+VFdV+uB7sXCKg8Ig5UpRpPGVH1kD4W15HtCbXXiAmraY3vbX6y7hxR/HsWiSq+wr67/SXcKBcCHHlNtPHfgBxu3Er6VhBsIlN8VG8NKBR/DlgatWuanjm6etZT1Q/uLzOKr9t3rSkGc0ZCA7tLsPkzF1IHmn3JqB8P0nMCvHnZjB4E7VmrCTbuwE9ql9W46bO/fYabQH/Dhw3KpLT3+VsQh7equ81xaVWGXniQ6EHGV6EL0y6BgfcSDyst8nOaaRkp9zIFw/I5EcfM/snnJPuY3p8lRdy5aGuhIy+C3dWClBlkYagi0OCoOUK0WRhnPK7X3HYHE2ZHrtoZ/cxL+uv4RNrVf1Mx6yj+wrdZR2yq1F3of7tDSa0DmQmnL75VdH0qbcXv/HV7Bj/xf0WMZnvrED3x0xQllNaQh6Cq39cJ88uLYLPUs93Ke2H2wMO6bcKoE4xh4S5/uSU24rZHyie8JxF6+S+EATau0H6ba4HpIb7khOuZUZUe0njXyyoN9nS/Z6UlNuFYtxjHfvMg/3ZT6YJ6Q93Oc+pmVLQyED4mktstJJQxBxUBikXCmKNCTx298llevhPjfSHRW7aY1tyD6yrzzcJ3WVHdnGNAghZANQFGkI8m21kvjlK0GWmnrrRrZ92F8jkhdKgxCyQSmaNAT5tlpJ/jID6sfj+b+wULZZE19YSGkQQjYoRZWG4P5q9H1HbuC9X9zTXVES2b4aXfYhhBBSfhRdGoLXf8Ik2/CfMBFCSPlSEmkIMqAtz2bY/+719xoy/91rWQ56E0IISVIyaRBCCFn7UBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDMlk8bd+0Dfz+7g6VcX8IXmq/jt5y7j9xouo0r9LOukTLYhhBBSvlyP3yy+NH7yLwn80Tfm8emvXVoyZBvZlhBCSHlSdGm89PbNrIJwh7Q47J9lH0IIIeVHUaXhVRh//I0rWHwA/O27t/CbX7fWrTlxLMYweWYKsUWznI/FOZxqDGNTZRUqWsfMymISx2RnBDXV6v229yFm1hJCyHIomjTe+SCRIYdsUfniVRybuGv2Ao790138Wp1VJnWsGeYH0FAdRM95s5yH+LFdqAi2YVSyt1fRFMJEB4LVEfRfUNdUv98c+rdXoT46p4sJIcQLRZHGnXvAH76QewxDpLAUh05aLRSpQ+paj8SikRK1MAwjba4WBqVBCFk+RZHGGz+9kyEKZ+SThnRVfdZIR+oqKfEp9NvdRtUB1B8aTutymj3ZjPqAHxWVftREOjG+YArm+lBfqe7kTQ4eb1UJuWcYg6YuXyCCnnPxZFmF1G+ifUSvBhbGEN1l3tsfxr7uCTjbWolznWh4VN67CpserUPPmFWfZnEGQ82m+0mOu/k0Zs1xa0E53q/+By+rY00t5+yuynctjjuvRTOGLpoChT7/zgH0RALwqf3t85891oRav7yvH7WNJ5LHSAhZGxRFGrUvL2SIwhl/+jdXzZa56fz7W3pbqat0zGEw4keodRhxSWYLU4iq5dqeGV2aGG5GMNmlFNNjBMmEm0UaFdURRCdU6WIC0z1q20AHJq3izJaGSvrRsHqvjjHrvWPDaA9WobbLem8snMCB6iDaz1jpPX6mDaHKOgzqxTiGGtVx7x7AtFgmMYN+ddy+xtMp6Sy7pZHnWpxsgi+4B4O6u0udX28EvuomDBmP6fMPquUZKY9hvCOsRKj2369EoVYlzPntO+YQHyGk7CmKNCq+eUUn/G0OeeRrXbj5hw/v6f2krpJxoRvhSpXobptlYWoAh3tUIjdJtuVkMg0Dt0+jRYlicF79nEUaYTvhC6Zcb6vIkIZK6j6RivPO+5yMQ7RhXNbp/fckk7KqAdNnhjEtFtBltkAMsQE0OI5n2dLwcC0aBtLeEIN1qfrk/J/uddR9sRdPV25Dv6s1UtIuOkJIwRRFGr/1rCUKGY9oePPGiqRxNf5A7yd1lQxJrFt7MWsW0xlDu7NLJxkmMWeRRlpCdpW7paGXnS0DQbUu9iX3mcOpvSH4pNuquRuDE3NI2IKR4w51Y9osWkygK+Do+lquNPJeixCiF8yiYbIjkDynfOcvUBqErD2KIo3fee6yTvg3736il184YokjV/zXb2V2V8XVvlImdZWMvIkygK4Js+imGNKYz0y0iYsTGIp2YN8WP3xbOzEpLYGs0hjD4erSSmO8zU9pELLOKWr31OSlVF/LUuLI1gr5l7n7uuyhd0/NT2F0TN3VQ8YcqpJ9+knsUyxQGpKkl+qeSlwcM8dhWHS0JHTdJeieSl4Lb91TlAYh64+iSOMr3dZYRldaxsktjmzS+P5payBc6iodSw/+yrMVPhncPm8NLMQnulG/RSV6yeSFSsMMhNerpow1ED6Gri2OgfCJDoQc75240Kvqs58LMQPhZpBZBsIHdwbyDIQDowerEGwbQyJhbZWYGcbQmL2Fl4FwJZWLal8ZCO/bpQSnlh0D4ZQGIeuPokjDnnLrniUlU2mdsrDDLY0Hn6RaKw91yq2e9mpmMxlmB5pQq6eZVmHTlib0myResDSEhTH0PBPM+d6x4Y7klFuZwtp+0lG/ko5M701NuXVNZ80ijYSS3tMy/VVaM2p5ujMIX91AahvP18JMuXU0wigNQtYnRZGGfFut/ZzFy67Wxmf25H7o789ar+L9X95PTreVh/v4zbeEEFI+FEUagv01Ir+uWhHy1SA2Px6/i88dsFoR2eKzjfP4tzutn9fU14gQQsgGoGjSEL593Po6kN+ov4Q29fM907WRq5vKGbIvIYSQ8qKo0hBaHd90+7mDV3D03F3Yz2Dkir8ZpDAIIaQcKbo0hFPnvf8TJtmWEEJIeVISaQjuf/cq/+pVQn7mv3slhJC1QcmkQQghZO1DaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPFM0afxZ61V8+muX0uJzB6/g5t1PzBaEEELWGkWTxu/uupwhDYlT5xNmC0IIIWuNoknjv7x4Jas02o7fNFsQQghZaxRNGn/1w2tZpfE/uq6ZLcqU+BT6G8PYVFmFiuoAahtPYHbRlAkXT6AlHIBPlfsCEfSMxU0BMN6q9pH9MiKCwXlrm8TMBIaiHdi3LYiG6Jy10kG+ciF2pgMNj8kxRNCffROL+WF0RaxjrfCr+jonkGrnxTEdbUJtwK+PcdOjdWnngsUYRg9FUFMtx+9HTaQZQxdN2Vwf6tPOLxW+tjFrm4Ux9DwTdFzHPkw7qieErE2KJo3vvXsrqzS+9L1ylkYCo/v9CCpRxEQUiRn0R/wIdU5ZxbfHcDjoR33vDBKqPH6mDaE8iTs+UAff/tNWsh5p06Jp6e5Ge6gK9W4p5CtXtYwfCqFmWweGpuYQX7KnbwbRsKpDHXtcziU2jHZ17AeOW5k71heBL9ikRGBVEjvepM6lDoMxvYjJjiB8kV5MS/FiAtO9sn0npq3iTBYn0BUIIzojCzEM1lUh1Dpsvbe5jsFDE1JICFnDFE0a01cXM4TxJ01XcPFXD8wWZcjt02ipDCF6wSwLw82oCHVbydL5syaBocYqBDtyJENJpMEAus7Zy+YVc+jfnkUK+cpnelEb7MBkcrsluNCNcKWSwm2zrJjt3YaKRhGYSuoRVX+fMYRGSUaJqn1Efp5CdHsIXabRoNGti9yCjB/bBV/dgGq/CGNoVy0Mqy6LxPE9qNjep96ZELKWKZo0hE2OGVT/+ZtXcCVexsIQdGJsxqgzKV/sxdOVbRhXP8aikYzEp9ftPGGSZTqJd5vgC/di1iynyCGFJNnLJemHDnYmu5x099i5HH0+qtVSsdX13iK9XIl7USX6apcwbRZjmOyKYFMkV9KXVo0fLe/aTR+rxZZsaSyaFlsuuRJC1gxFlcZrI3e0MH6t7hLmrpe5MAQtDUsQSRzrEiebXC0Nc/eeNRG7E6mTlUlDj5lURxCdUO+2mMDssSYEq3fhVLZMLtJwH1e2dYbprjB8GfKzWgx6vOIxdQ0crRYnWeUorazHzL4qanYO5BAOIWQtUVRpPPgE+NwBaxbVNwdy3BGXE3mkobuvqh1jGhPdqJeBYt3l4+JcB4KBXF1JK5GG1aUU7tKDBgarS2nfsSzXdhnSmD22B6GgOsdcvyLT0vBl7Rqzxi8aBpy1xnBqp6OlYY8NsaVByJqnqNIQ3vvFPS2N36i/hHMf3Tdry5Q83VNC4nwv9ukZR349I2iwLZRlTMNKmrU9zgTvZCXSsMZPsrU+stbjsXsqobYLqdZLvz0zKheLw6rVEUCX+1QnOtT+TRh1tkLm5TqqFtCCWRb0GIvr2hJC1hxFl4ZQ//p1LY7P7JnH7MIaHgh3syhdUI6BbhsZsHYn0jRWIg2Z0RRwtWrUdltztDSWHAg3qOOs9ythZLhtAj2hEHqc56Wl4R7zsMYuMuSo5Zv+3tmOhxCy9iiJNO7cSw2KV3wz+wwqWbfle9dQ+/ICvvVWHH83dgcfXyu1YFxTbhemEI1kSYqLCcRnxhDdHcSm3e5xgIS6+w/kmV66MmnoZFwdRMtxtT45ppFLTiI0VYc95XbuBFqCjjGWi1Zd7SPZ+qSs65Cacpuje0rLITVNN4X93hOme2oOQ/uDWcZMCCFrjZJIQ4jd/ERPuRVx/MHzlzEyrUxi+MWVRfyHffO6zBl/+IJ5Iq6UuB7uqz80bAnERidK62G49gGTkJ3EBtBQaT+vkIsVSkORON+Hli3mgbwtTeg/v0QaTnu4L4yW6FSylZHzQUS7+0q1ooaaUw/3hZ7pwKjr1zF5SNVtP4Pihg/3EbIuKZk0BBGH/UWGMqNqd98N/OyX9/AHu7N/T9Vvfv2S2ZMQQkg5UFJpCNJV1fDmjayScAelQQgh5UXJpWHzDxfu4U//JvPr051BaRBCSHnx0KQhfPIJ8MZP7+CL345RGoQQsgZ4qNJwMnV5EX/77i2Ef3ANlS9exW/tvIQ/VzIhhBBSPpSNNAghhJQ/lAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPPNQpPHmyD0Ev31Lh/xMCCFkbVByaYx/9AC+pptpIesIIYSUPyWXRu/wvQxpyDpCCCHlD1sahBBCPMMxDUIIIZ55KNIgpJjEohFUbO9DTC+Nob0ygv45vZDJ/BRGz1tbFpW5PtQ7jmO8tQr10VwHFcfs2Bhm42aRkDKC0shCfKwb+8IB+CqrUFEdQO2ubowvmEKD/NFXSLkjsiaB22M4HFTlrWNmhUlqlX60vJswa9KZ7Qnr+tpHzIq8xDEdbUKt3zqOTVt2IXrOZJzFGUTDVQi1jSHt3S72qiQWQPtwlsw00qbqCeLwmPv4JAEv57hWwhz6tzuvqx+hZ5oxeN57Bl2ONGL9dfAFOzFtlnNh/c5Sx7Xp0Tq0D0ylX9OlWJY0JtDl9+PAcVqDlB+UhouESpih6m04fGYGcckIt2cwtD+IimAHJhetbdRWGGqsQkNUbbMQT0WWDDLZofaVRJMhDbWubkClezdWkpdyr8k5fmyXSnxtGDU3zPEzcg57cMoW3YVu1CoJdE2YZZWYByN++BpPZ096WhrqGFSd47fNOk3ppJFMqLfnMH28DbXVQfW+3pLosloaHkmrczGB2NQJHN6qhKZ+r57EsSxpEFK+UBppWAm7tmfGLBsW1Z1foAotJ+30YCW2vMlTkrVKvIeVYDKkUVeHhsowlHfSOdeBYECVbc1Sv048KpGbRYs4hppD2JeWFTOTu5ZXuBvTSnxaMtVNGMqVg7U0wqiVFkpH0jSKzHoT51SrbItfS2bTliYMmvOZ7FAtNcc5y3tWhNT7m2W5NuFKdQxpUhJc0jBYYnSIe3FOnXcENdXq2qrWYH3nGOKmLJs0omcG0KKP04+aSCcmzbmnb5ubrNvFTmCfkllKxrmvR1Zp9AxjsDGMTWpbXyCCHrt1WBI5E7IyVl0aP1NZqWfonn7Nxc27n6B/7J4O+TkXMqtKpuOWbHbVgkoClSFEL5jlnMgfdQC1EesPvsIfRkvU3VUhyc+vRBO3urLc0mg9jdH9foS7nNZI6HW1PaezSymrNFyou+DZ400IuVsJppusvrMbLdV+7Du2RJrU0lAtl4wWiiuZSRdXtUqEF9SZy/sea1LCM++r6vAlJWG1zCocSVNLZOeJLC2t7NLA7dNoSf5u4hg9GFB3+cOWKGIT6HHskykNlZQj3ZiUFbenEFXbBo0MC5KGOa/k73Cp65FFGhVq2+iEqlFtO92j6g8oKepSSoOUL6sqjdddz2DIshuRROjQreQ2//07t7OKQ2ZVVTnqKsksK9cfdk4SU+oOsQld0oW1ELeStGuMQpLiJpMUs0pDynSrwnH3HBtQrY86DMZytGSWlIa1j+5W+uKu1B2ug8RwM4I6geZJkkYa8j7TXeFkC8WdzMZb3dJTLbWQH4flVHWSj2BwXv28qPZTLZv21oCSlaUJ2Td790wOaTjfW1+H9FZK4mQTKsx5ZUoj/UZAl2fdNje5tnP+bpe8HlmkkbatKdfXi9IgZcyqSmPzt1MykJBlN9K6cG4jIevcyHRc5zayXHTc0tDLJhGryJ7kLCYPBVBhjxHEVcKUO86LuigtsQipBCTdYSnZ6PV6nMMpDSuB2MeQFtmSnd3SqN6FU65CSax6cH97L2ZzNwTTpKG75lQLpVYnOGcyc0jKFVZ5HKd2mi69CSVHkaS0PvQ1kmSaq0XnQRr6+LK8t7ke6Qle9ku/EXCW55KBm1zbpX63ea5HFmmknWNaOaVBypdVlcZ/a0tP9LLspqyloe+OA2l91Ba5ElmKVFJJqIQQSBsLyC0NlVoH6owonAIZw+HqVNJI2APt57vxtNxh28vZRt416ni3ViXv6jXxYbQH1N19V696VefSm/tc0qQhqKQfkoR2UdWRTGbWNUl7Dxdynr62MdVaCVnbyfWtVvVKgkx2xbjJca2d3VNyfDn3dyf4YkrD2T2V53pQGmSdsKrS+H8/vZ+W6GXZjXRFSZeUvc1S3VPOukrzEGAMg3VVCB5yWyM9kcXfbUZ470BaApHEqFsa8/LHn3m3aYWViNMSkE6GYUSjzq6qHElDJxZHMtfEcGpvCAcGnEdjSSM1cG+NAdgtDN3iUC2hQUfOSsMtDRFhW1DtH9HnZh2XNf7i2++ageVswchgd2gX9oXtZChJVomxcU+qVZZBdmmkDYTP9KLWPYnA8b4lk0baQHie60FpkHXCqg+E//PHDxD9h3v6NRciCWldSGQThk3JB8KFi+qPVyWCA9EJxKTPPBFHbKIX+9RdenLevEkW7WesFJK4IAOg6WMaTpZqadjJRqSSmrW1HGmY5zrsKbdZuqcSY22qpaCSbLI7SIlmp0pwZswlgwxpKOznTZzHpVsgQbQct5Jf4uIJtDzm6BbTYxlqH8esKT0ArurI3UJxSeP2HCajexBOm3Jrjl8Gt2Va8WIMk10R1KrWnfwGViyNhTFE23oznskR0rZT1zg20YcDj7mm3C51PSgNsk5YdWmsC+aG0fVM0JoZJVM0H8t8kCtxvs9M4ZTpkmG0DDhve9NZWhoKGRDXA+BmOVfSUAl0/MxUZqJfjGO8e5d5uE8db7gJ/fbDcHFVl0r26VNnFZKkcs2iyiYNhX6GxXVc8bFONDxqX4cIuoad9VndN/ZMJY0reWZiSUPqsyLHw32LM3q6qp5yq7apbezDtNlkxdIwx2YNRqejt0seU+6H+3JeD0qDrBMoDUJs7NlsZpEQkgmlQYgmgcm/rcNhj0+dE7JRoTQIIYR45qFIQ2ZCyRRaidLMiiKEELIalFwaMhPKOZVWoqSzowghhKyYkkuD/+6VEELWLmxpEEII8QzHNAghhHjmoUiDEELI2oTSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGe0dK4c/cuGAwGg1FGcedO7teVhF1vgUFpMBgMxnoIWwy5XlcpKA0Gg8Eoh8iX9OW1kJA6ViEoDQaDwVjLYQsh26sz7O0LDEqDwWAwyjGcyd9+LSScdRcQlAaDwWCsh7DF4Hx1hnPbAoLSYDAYjHIMZ/K3XwsJZ90FBKXBYDAY6yFsMThfneHctoCgNBgMBqMcw5n83a8rCbveAqMk0njlvTh+/3/N49Nfu+Qp/vgb8zgydiNrXQwGg8HIErYYcr2uUpREGiKBbHJYKkQy2epiMBiMdRn5kr68FhJSxypESaRhiyBbWbZY7vYMBoOxYcMWQrZXZ9jbFxgllcZyI1tdDAaDsSHCmfzt10LCWXcBQWk81JjBm7VVeGkoW9l6jbN4qfIpvDmTrYzBYKw4bDE4X53h3LaAYPeUO65O4M29T6CmugoVlX7UPPEsXjsby75twbGUNKyyHa/NZClby0FpMBiewpn87ddCwll3AVESaSw3Hp40ZnD0KT8eb3wLH169gTu3buDj97uwo3ozvnO2GLO5KA0Gg7FKYYvB+eoM57YFREmkcXBgAQePLmQtyxYPTRoX38COyifx5oX09eNtNajYfzq5/OHbB7Gjxm+1RJ46jNF5s+2M7H8Qb589nCx/cq8S0K1UXR8ebcSTftWKqa7BjrZX8Z2/yiINXY+0dEzUvoGP7f3fcr73QbzjOlYrLOE82T2VWne+C09U7sDROWt5qXpGm12y0sdjJ3or6f/otUP6PDKlZsqPpK5BTf2r+OBqevlrp47gxS+lruF4slzF/Fm89uwT2CTn7n8Cz3e9j+t2mYdrfH20C8/ruquw6UuNODqVKmMw1kw4k7/7dSVh11tgFF0aYx/eTErAqzgemjRuvY/v16hEeHgCVxxJyBnXTx/E5s2teE+S7605jB9+KpXUTbLXLZUbatu5n+AlVd/zR0331vuH8Hi1Spjvz+lWzIdvNeJxtb3Xlsb1txvh27wbR89braAPXn0KvupGvONMuCY+fs1xXPbyjiO4on7OV09+aVTBJ7KciuGKOs/kdjqscn0Nrqnluffxmmq9+Rp/YhK/vX8XxuUaXpvAa+o8N7e/b+1/awqvPaFE0H7W+h3MncZLm5UAO40A813jC6+qlqE6VnNuIunNNa0YlWPR789grNOwxZDrdZWiJC2NHw3dWJY4Hpo0VFw/9waa/lLdpcod7sEuvDOhEnyy3ErkL77t6Kq69hO8qBLq0YvqZ53QVPJ1JChJwL7Ws+ZnPza3meSoQ9WXraVhl6VJw1p+9ojzeOZwdEe2u30Vc0fwbDLRW9tZ++avJ780Hsdr5+193SHlrtba6CFsTl6XzP210J4yghtqha/mEMad0pb9q1Xil3UervETtmB0KAk97sd3zqa2ZzDKMvIlfXktJKSOVYiiSMNO+rkinzjs7bKVlSTkDvX9I3ht71N6QHzTk3b3iXWXnOw2SoZJqDqhqeTmqEsSWkWzJDQrWSfviHVY67xJI3uyHm+vMfWnr08TxfxbeD7ZNZW/nvzSsH/OFlnKb6nWwhL7O1tF+ue9dqvEhD5+s4+Ha5z5+8l1jRmMdRC2ELK9OsPevsB4KNI4UO7ScIZ0l6hEZHWfSMKrwfffz7KdxEOQxmirahVllcZdXDmyAxX1b+HjtxuTXVNe6ll1aZjWWK7980pDjzWZfZZ9jRmMNRrO5G+/FhLOuguIknRPyXdPeRWGxMOShvT1V7i7RlR8+OqTpvtE+ttdA8wS9vZLJjT5uYTdUxKmhfF8vd+xX/565Ji/+uoqSkMPwju7p3JLw1v3VK5rfAPvNTrHT0y4fp8MxroMWwzOV2c4ty0gij8QfuHWsoQh8bCkcefaWXxnsx9Ptp52TLl9A01q3Y43rCR65eiz8Mlg9jnrbvaKTMn9kkpyMiCcRxrugfAPjuxeYiD8Lt7br1o4rWdx/YY1hmINYKvke8EMYL/xrEqmajnLQLgVMbxdr97flaTz1aOT+BOHMKoHqqfwTuNmRx1epJEaqL5zYwpvPqVkqa5BaiB8CWmYgfAdne+bgfCz+P6X3APhea5x5Wa8+Jb1+7p+4S28+JfP4m0za4zBWDPhTP72ayHhrLuAKElL48DAgmdhSDw0aUjMT+DowR14XKbFquS36S+exIuvTaTduX54pBFP6ume1pTON41A8iY0FZ6m3Jq4roT0Vb1tqs7Ue5upsnmmk+ouKscsKjuWrOfWDN7e/Th86vx8NU/gxfaD+OqypPEkvvPqoeSU2Cd2v5Ex5TanNCTmz+JH/3OzY8qtmUklZR6u8ZWzh/HsX1i/H1/NU/j+aWerisFYp2GLwfnqDOe2BURJpLHceKjSWGchXWI5u6+KEvmkwmAwPIUz+btfVxJ2vQVGSaSxXAlQGqsQ12K4MiHPLKQe6CtNUBoMxkMJWwy5XlcpSiqN5Ua2uhjeQs+Gqn4cTUdL2cqQoDQYjBVFvqQvr4WE1LEKQWkwGAzGWg5bCNlenWFvX2Cwe4rBYDDKMZzJ334tJJx1FxAlkcbvNyz/373+USP/3SuDwWB4DlsMzldnOLctIEoiDfnuKZFANjlkC5FMt9onW10MBoOxIcKZ/O3XQsJZdwFREmkwGAwGo8hhi8H56gzntgUEpcFgMBjlGM7k735dSdj1FhiUBoPBYKyHsMWQ63WVgtJgMBiMcoh8SV9eCwmpYxWC0mAwGIy1HLYQsr06w96+wKA0GAwGoxzDmfzt10LCWXcBQWkwGAzGeghbDM5XZzi3LSAoDQaDwSjHcCZ/+7WQcNZdQFAaDAaDsR7CFoPz1RnObQsILQ0QQgghHqA0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnimaNN4av4vPH7yCT3/tkud4pOkKfqz2W3uMob0ygv45s+hmpA0V2/sQM4srJRaNeK5Hb9s6ZpaWyVwf6pc6H0LIhqVo0viP++aziiFf/JuvX8I/z943tTxEZnpRWxlA1zmzvCSUBiFkY1A0adgSWA7buxf0Pp87cAWJRbPyITHZEUAwEIBv/2kkzLrcUBqEkI1BWUnjxp1P8NkXrBbKviM3zNqHwOIEugJhREcG0FDZhKHbZn2SOCY7I6iprkKFP4yWaCcOOJNsfAI9ESWcyips2tKE/s49SyT7OKajTagN+FFR6UdNuAmnLpoiF25pJM73oSVsvY9PHW/LsVSW19se7MWpxjA2qXJ9nI5yYfZkM+rt9410YnzBFFAahJAclJU0hJ9O38Ov1Vn7ys8Pg8S7TfDp5JzA6H4/GgbS03382C74gkomF1UbJBHDZFdEJW47ycZwaqcfof0nMKuLJxCNqMScQxrx43tUXW0YNYWzvaqucC9mrcU00qSxcAIHqoNoP2N2nOlFfbUS3Yy1qLetDKLl+JxqtSUQO9OGUGWqPDHcjKD9vovqHJQEk3VTGoSQHJSdNIQDA3G9r7Q6pPVRWlyiONeBYFoSn0P/9qp0kSwOp7qndMKtw6CjGCpB52xp3I4j7mzJmIQ9OG+WHaRJQ4kgvuDsOLOOq77PeherpTGsf7ZIYKixCsGOCfWztW3LScf+t0+jxX5fSoMQkoOylMb9B0B1y1W9/1dfsftMSkRsAA3VTRi1E7ndVWXu0K3xiwC6JPcmcYxpyPhFoAOTVoHFUmMai3FMJrunqkxkT9hp0lDEHd1T9r71UWtHva1rTGO2d5tZJ8eb2icVTvFRGoSQTMpeGl/pLq00rG6dzIQaPGRbYnWlod9PdxOZu/4lEnaaNPR2VveUNWnAtDQ8S8N9Dg4oDUJIDsq6e+rf7y1199QMomE/2kfMos2FboRFBI7kvFrdU+OtqUSvudiLp71II0NE6ri2uqSRs3tKzrMKtT3J5pOFPWON0iCE5KCsB8KHfl7igfCJDgSr2zCeMd1XJdmQHy3vWq0B90D4eMe2JQbCx9C1NfdA+HRnUJV1YlK1NPSgeZ10U3mQxvlOhNR2PROqpXE7hsmeOj1LKk0aSwyE63OojiB6Pm4tT3SjfosSo5wipUEIyUFZSeNhT7mdPJT7uYzprhAqdp8wZas45XZxLjkt1heIoOt4r6orhOgFU+4gTRqK2WNNqPWrY6gOoP7QCUR3VyHcZVnBammkT7ltP5l+BLMDqbEUfZxGIJQGISQXZSWNcnq4jxBCSCZFk4bdYlhulM3XiBBCCMmgaNKQLyz83DK/sPBPmq5g4Nxa/MJCQgjZGBRNGoQQQtYflAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpkDQS9+7h2sINzF26gplfzuLnF36JyZ9PMzZQyO9cfvfyGZDPgnwmCLGhNIjm+o04Pro4hwvTH+Hy/FW1fBN37yaw+OCB2YJsFOR3Lr97+QzIZ0E+E/LZkM8IIZTGBid+85a+q7w4exk31c+EZEM+G/IZkc+KfGbIxoXS2MDIXeT0Lz+mLIhn5LMinxn57JCNCaWxAbl/f1F3N/APn6wU+ezIZ0g+S2RjQWlsMOSPXLoYYr9aMGsIWRnyGZLPEsWxsaA0Nhhyd0hhkNVCPkvymSIbB0pjAyFdCuySIqsNP1cbC0pjgyAzXmQAk5BiIJ8tzqraGFAaGwTpe+YsKVIs5LMlnzGy/qE0NgDyUJbMsSekmMhnjA8Arn8ojQ2ADFQWs5XRNXQbO167jo9+xafHNzLyGeOg+PqH0ljnyPcGyddAFINPPgHqeq/j01+7pOPf7Z3Hh1eXO/0yjuloE2oDflRUVmHTo3XoGo6ZMlI4c+jfXoWK1jFrcaIDoUo/9h0rzjWWzxq/q2p9Q2msc+QL54oxs0WE8fSrC0lh2LH1h9fMFt6IH9sFn0pitQf7MHTmBKJ7Q2o5iMNjCbNFuTOGdiW7+mi53mG7pdGJcLUfB44baYy0KVlH0L9Khy+fNfnMkfULpbHOkW8qlS+eW02cwvid5y6nSeO7p5bXDTbeqhLa1l6khlBjmDw+htm14oy1Jg03qywN+azJZ46sXyiNdY7MaJFvLF0tRBhf+ZEljOjoHfz9VAK/XmcJ49k3rputvDPbE1ZJK4iW43NIZPRsZUt4riS9GMd49y7U+tV2qsVSE25C18Ft6uc2jFtbqItwAu2RgGrBqG38QTR0duBAWqJfuosscb4PLWHH/oeGEZNj1QlX3teO7Mk3NtyBhketutP2V2hpbu/EYGcENdVSh2p1NfZhOtd4cnwK/Y3h5LahZzowOm/KhAWrfJN+rzBaomMYbFQ/29dwrg/1qqx9xLx38thVbO9Tyi4M+axxFtX6htJY58j/RlitrzdfVNXYwug5e1uv6xu7o6WxEmFoFmMYOihdUippSUJtHsBk8oH1/NKY7Ajq5Pl0s9W91a+EoeuypRE7gX0qwfoe24WegWGMDnSiIWglSbuO2WgEvuoQ2gemEFuYw2R0D0LJLrIJdAWqEGwcwPRcHLMjnagPbEPPmMrqsSmMnulGg6orrI579IxqIVmXJcXCMNofC+FAjypbUPufaUOtOp5Qx4QuthO3b2sz+o8PK3nUqfeuQm3PjC5PY1Fdj4hfnUszBqfmEJ+bQP9udf5Bda7yvovqWOXc/NvQHj2B0eN9aN+qthfBZJFGfEpdj6469f7q3PvVz2NK3NZWK0Y+a/KZI+sXSmOdI/9UZzW4r4Tx5R9cyxDGSlsYGUgCjjarhKzuyFUCPzwit9p5pHH7NFpUQqztcibYOEYPBpLS0C2Z6iYMOe/cL/bqxKnrWFT1qTrCnVOmUEhgSO7OG0+rn2YQDaukHunE+Ew8S2vIY/dUIo64kkZcZeXRg6puc1dvSWOP4/jiOLVTrYtkuetXLRufSvA9582yINdAvX/LyQQS7zap8jCiF0yZICJR0ssmDc0qd08Jq/WZI+UJpbHOWY0/YBHGl75nCeOHZyxh9I6skjAWVbJz3t7K3bSIQifNPNJwJ0BDTLUcbGlY3T/uBJxZR1o3jR32fvEpDB7ahacfky4qd/dRHmmo8xncabq2dJg7f6c0XMeX/Zjt87LrSQ95f+d5O9H1URpklaA01jmFdk/dU3fWuYTxzP8ttIVh3QX79B19itSduJGGszw2oLuDdJI2d9lLtTSmu0JLtzRMa6VhID1Fxy5MIW5aFbGRE5i0ixMT6AmpY26zRba0NGJ9ksgj6u7fnMGiaklIK2YF0rBaEnUYdBYsxjA9Za0oh5YGu6fWP5TGOqeQgXARxl/+n19pQRx+x5oV1f3e7aQwZFC8UCSpyt17eGcnBs8Mqzv6bXoQ1xbBZIcIQAavBzB6vBcHHrMGlO0k7R7TsKbsqiSZc0yjA0/rQfNUHdM9Mg7iGBdplmPwo75Plcctqfge24Po8WEMRZv1mETQjEmINA5L+dY2dfwDGHcmbIVMKbYG+mcQX5jD9EAzwmr7lUgDizOIblXn7xyz2CbdeREMyqnYYxrV6WMaujWSSxpj0uWlWk9t6voOjDlmsa0MDoSvfyiNdU4hU27/usd6cK9YwrCJnUnNLvIFZMZP6i7fni1kzQay5NGjWh/JO3vX7CnpOhrqdHXTOGZP+QIRdA0PuFoHcZ3M9XiK2aZdJfkkztlX1QHUN5/ArGNsI/6uEol5/65zZqWNagmMHkrNjAo904mu3ernlUhDkK6y5lR9NZFmDDkbWs7ZU+pYaxtlcoD6OZc01LuMNtvXtyOja2u5cMrt+ofSWOcU8nDfo4di+OK3rdTVefpWUYRRMIk5TJ5PT6+Th1TrJNQNu2c9PjWBWWf3lOniksFjsrrw4b71D6Wxzinka0REGr/XcBmB/x3TwnjqlYXyEgYSGG8z3VOHZMqrq2tJkDtr6T4y3Usy5XafdHHZ01TJqsKvEVn/UBobgJV+YeHuvhtaHBINf3cDD8pKGAa7e8rZtTQwlTawrruXnglaXTBKKLW7OtMfiCOrAr+wcGNAaWwA+NXopBTwq9E3BpTGBkFmtBTz69HJxkY+W5w1tTGgNDYI/HevpJjw371uHCiNDYTMbCnG16STjQ0/VxsLSmODIQOVsV8lvxGQkIKQzxIHvzcWlMYG4/79Rd33THGQQpHPkHyW5DNFNg6UxgZE/sjl7pBdCmSlyGdHPkMUxsaD0tjAyB++DGByVhXxinxW5DPDG46NC6WxwZEZL9LFIHPsKQ+SC/lsyGdEPiucJbWxoTSIRh7Kku4G+RoIuYuUL56Tbyxdrf/6R9YO8juX3718BuSzIJ8J+WzwwT0iUBokDfneIPnCOfmmUrmrlP+NIP9Uh7FxQn7n8ruXz4B8FvhdUsQJpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz2hpZPuXjwwGg8FguIMtDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeuR6/if8P3jf6tZdrfSkAAAAASUVORK5CYII=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting software company</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       ceinfosoft.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390d19219c62bf57</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Accounting Software  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       F3HJ+2RM, Saraswati Vihar, Chakkarpur, Sector 28, Gurugram, Haryana 122002      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADr3SURBVHhe7Z2Pcxvneefv70ibaZvrtb3pTK93TZvOHHPHgldWaHPC1WNMPcFFY1x1ESsXutohI4esIjEMFcllqISl7nBMwgQJa8as4bDmGLFoMmKkiqaiEPGJYSoTiUI6NCGLgkVpJUqwYT/3Pu/uAu8uFsCSIEAQ+H5mHgK777vvvu/u8vm+v/Duv6IKcvIljT7wqRv0zHc1Yw/RG6kMDX3/PvW9rMnvJrzNcfmY3SFJE4dbqCOaNLatpGLHKXgiRiljm1kbO0RNPRcpzRtXBqipeYAWZIhKnAabW2jwiviamqb+QCdNqqe4PkLB5k6a2TC2TTi9w+OW85locwMU8A/QvP0YhzKkz/eSxyfytWnsUPMjWI4EyHNynCbaW6grpp8tFQ0VPHeWzYvU3+yjyFVj22R1jI40h2jyJtHCGdv1NMIm5C7Oh/ldp3j8FC1fmqNlJVNarF3JZ5pme0QZOjtp35m43COv7eFecc0DFL2u76LkOHXY7tP86RZqMo+R4Wq+rNfLEb4WrUGKjofJ7wvTUu6xzksvr4xqeIm8yfti5rMYMj9e6r8gn8wc8lkrfC7Om5l+8XuhhqdpYcBPAXGcebbCYfrzabmWc33K/03+M+GUT36mmwIjtCy+y2tyek4PkFjvV145nHDxLKcviP+j1l6az/4fCcz7LK9rL82qYTcTNB9P6uW2PQP8v+2xPydXxbPTKsrJ+xzKXCv8TUcnVVQ0frL2rhSC3zl+k9LqBbLxjgjjOByXj9kdiosGrYxRW7OfBi8ZLmpVCIDfS93nDC/mRjRohaLBFgqcnKY1fsA2EzQR8pLn6DTlSWUB0UiL/YFW8QCuGjssOJVB39cWWTG2bU5Qlks4C+UfwiIaG3GKDozRQp5A6Q7Bc1CI14om7286tUgTx8S+kH7s8rBfpDNMS6m0DIu2e8U1Mv958h1E8fgpmjnqlddO1jUyKZo97SPPsdy1k/kWZek/b7qvRYr4RNn4H9TYQxvTdKrVR/3nVii9maa1qT4KtiqikZkT+fLRUFzkQSZju14FWDjDeW0h/9lFY4+BzWHkOTE1vETe7KKxdm6AhkRcJ9ZEXI//OE0spvR7kxTXUzxrWQfu4Jg4b2b6xe+FrRyauGY+Hw3O6XeicJhGM8e85O/h51+kuzJNg49xumY+8p8JPZ9e6ogsksb3PSXS8yvpswNuFRWxVVGqdIqWIqLcyv2yXm+NFkYHKBq3/7eVfpYpI54lcd7s85dO0uzJAHXLilaSJuW1ndPzuJGQ17pt1Lg39mcqw35ALVOcIgeU/9FGFg3mz76ckmLw7R+oMmzlKxfuyzh/+iW7i6wmJURDoMVHqPuA7hw8viD1RxNGDUrgSjQEwgmPPumnfWJfk/hnaOsZp+U8xRCklJpKFj2PfP48k//sBcqwGKZA9p/R7gRTNClaGaqzs4iG4dS4tpVHRqOlWB91PaJfkyavn46o5ckkaaYnKMvq8YUoMjVGp5rNWr+DgygaX6AJkRXh+9mR8rXrHKEl9do5tNrYmXsUR8ukrw5Th4/zrF//yYFArsUo/i5FDul5GODj3ImGrCmqeTVRRUFQVDQExfJmFw1OS8+jMyw65r3h57V7eE53eIyDY+L0sumXuBf2csgWrah4zIr7USyMtEUaDQmxF+nuO9BLExMDSi29kGgcp9FoL7V59ft+5KxSDiEES8P6/eLnr2s4LPJZSDSM/49xBz9T6llm1P9dIe4daj6MZ1PPh7jWI3FdECT2Z0qgpmWP73BvaoWqiMbUTx5KQfjD3nV66NCIePve+/SbXW/JOBwX1BjsDNWaOqgRdLHvPqd6tTpkJx0otxZEq0dU8ME2qYpoMP91QG9tnIrlP+Bt39yQYR8TLRJQa4ga0lfaaehKnTumvUhqmk4dHae1bG22TtlB0UgvDlOXqOlbW+9gK1RNNH62nqEPdtyQtrCaa27EruqtEN7PcQAAwEINd9U0IlUTDaZ/8p4UiI+eXpcDTal779O//Vu9W+qLIgwAAEBtU1XReO99oj8/q3dTfWrsDgW/flt+9w2mZBgAAIDapqqiwdy48x79ljHozcbfeR8AAIDap+qiwZizqdgwWwoAAPYOuyIaDI9hYBwDAAD2FrsmGgAAAPYeEA0AAACugWjYuTlHEWWZgLaemPXHUysx6g/qSyDIJQssyxkURy5BYh7LaXeOOKzn1AgUXq7FsnzJHia9skiz0TB1HxLPiL2cmRTNn22ngLEkxv5gL02qy0eVCleXq5DP6LT1GS0Rnr42bn2Gh9XlLgAoDkRDZTNOQ35lETFj0bHsmkxyCQIRPraiL75oLJxmrgxbDH2RwUM0dGmFNP456uYKzZ70U5PfttJlQ1DnosEL6PlC1D8yQoMBezmNhfFCI7TEheT1jniBveyKp6XD50/qC/7pi+atyAUvA8MJDuQdxcP5h3KtfuqfSurPcJIX3XT3DAPAQDRU4rxapvWXp3IJZtvCfepianIlUNtiePnoK9tmV7w0kSKUW5HVvhidfaE8ufDa8DhFeMFEmaf8xd3ynC6vxCsXWBQ11lCYJsK5cBn39BhNHuVap1FutaUla6GL2SUXzPjmIna8yFr/uSRpygJ7+0PD1gUEHdmCaBTJj34/+mhivFMuYDg4ydtBiiqXmZd9b2qP6avgukhrJq4uFqjW0DVa5gXzzHKK2v+M4yrDguwxTuUUFZNWLw2pt1kuy23exxLh8rttUUReWtxYJrxUeGpcXF9z1VYDeY1KPsMA6EA0SiCdWHb1U2M5Y7OlscEtDWVp9EJsTFO30+qnNuS5SohGU2uIIldEa0U2V0qIhrGUc9vZOKXS+jLUXKu0iEazqHXGEpTa4PQSNMotLVv5zHcyyPji/FG51Haa1iY6hcgKB9pu1IqNZd794VKrwbkVjeL50R09L1Udo+UkL2dtT1ff1mvRbtMSQiF2pVMXaVAIurkYoDZ1nDz8/hI9Y7Q2Jmr/wTFa0zcLULicFuS5be9iUFHDDXGbzwqTQL7zwRD9UuEO8CrAweyy+QAUB6JRDE3U2kRT3rIiZjJG3R8Tjpdrq8KCJR2kQP4jW527E25Ew/rPXUI05HsGhLNQHIgaLr9nBVEghEDb0N8lYMLnNJdylvHVl93IdwSI/Cm7LOcviO5MzWuYZ+bxJfLj5GwtL2VKxairuZ0meWMbaVnCNzXSVKdu3FPH5eKzuBENjWZ7vBQo+BzZwuV5bQKg7isVbuf6CLW1dtJM8RsGQBaIRiE0UUs/KGqm6j+8rLkrtVU5puGipWE4mKxzl9s5J2meQzrcUt1TFgdUXDScHHheuL1bIql04ZhmxCmVP8bpnPkUdqZ5xxfJj6MzVIRCO9eZ65pitpgWX+9sOI8tZLunzONLVQRKiYZIM3yI9oUKrVTrEO5UZnVfqXCV1Wk65feL+4cVjIF7IBpOcDcHDx4Kh5GthTM85mF7r4Qc8zhYopvCfJVkXmXS6lRKOeWKi8amSE8O9CeyNXLVcZbKH+N0znxcikaJ/Dg7Q/MdE0n91a/mAO820soru+yeUruzyhMN/c164pwFfLZjuDzvDnRPaeJ6cAWooKAB4AxEw46oUc6f4XcaG69tVOE385kDjgbqu4oLk/9mPB0H0djSu445/JDlta8Wp2uKnFIONVx+V0XAwXEWfz+1NX+M5fwFcSkaJfLjFM7oLYxO6m41uqaYbaSlikbetTfeHb1d0Sj8jnedguFlDoRLMvqMKm4xA7BVIBoWNOEc9HcCO3YX8D9kK7+/2ZiuyO9N5haJ2d98fZqGBqadWx2rwim1+ulUdJFS3Dee1sThY9Qtar+npoyqpByDcPuuY0Z3Sm1hfZ69faA7250mmjgFB8JVEdji+6lLikbB6+FSNEq9y7uAaOgTD5TrwGwjLVU0Sr0v2xnnchZ/x3upcNuUWvu7qEuFF2pFA+ASiIaKdBzCUThY1jEW+3Eft0RsU3YtWPrUvbT/sXYajCnvGOc+bNfvOjbgfmn5Yn59Gmjk9CGrs7RPuR3IheeLgHA5W3g/dUnRKHg9XIqGoOi7vAuJhjiaW3Z5znqLaamiUfLd5Y44lVPf5/SM6ecqFS6w/XjP8p5qplg43xM1zayVEkAAdCAaO4icuXN0OjfwWguozkRQzTn5u3Y9MkLMuKYOJwjAjgPR2DFSNHOss2CXw66QXqTIY/rvKuTm9THqEDXPwSvV6JjYneuR3tBomX9Doc6aAgDsGBCNOkddZ8jjC1J/rJ4HP/nX1KKcjx0v/GttAEBZQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGuqJhoP3yUa/9EDOvLsBv2Xvlv0rz/zFv1m11vUIr7zPg7jOAAAAGqXqojG9/4lTb//+Zv0gU/dKGoch+MCAACoTSouGl965Z6jQNiNWxzmdz4GAABA7VFR0XArGH/w+XXKvEf0lQv36Vc/re+DcJRHeiVOCyuasbXLrE5T/wEvNTW30OAVY1+9k0nR0qUEpTLGNgB1QsVE4/uvp/PEwcman7lF5xYfGkcRnfvxQ/qldj2M0wBuSNLE4RbqiCaNbaKFs17yHJum3ZcNjWaOtlDgzBxp7EDZrgwIARmgBRlep9yMUVern0avGdsA1AkVEY0H7xD93ucKj2GwKBTj7Hm9hcJpcFqgFPmiUTvoebO0MBpBNACoUyoiGs//8EGeUKhWSjS4q+rDhuhwWlXl5hxFnvTTvuYWavL6qWt4kdT2TmouTB0+vatl34Femrim1OW1BE30BPVjW33UcXbO0j2xNtVnHOul/aE+ml01AgQLZ2xOPzlOHc0hmpC74jQovkcvxYxuHj5+mJb41DKeOJ9ph8cpJXZzek1n4nywEaePZuLD2fO39UzTmpq3c73U5jXzPU4RVYQySZoR5drfqoe39cQsx2rxEeo2up/2Heik6FXzmnC+jXxJG6B/4nwp+1hMlsI+8ph5FWjnOqkpMELLxjZdH6Fgcy/NbvKGRstRkVfzOgZ7aSZ7HfXrNBoNy7Jk868tUrTTuC/eIPXHVvT9TvD9D4n8mHGjidz9z6zQbF8oex06+i5aroMFt/cPgD1GRUSj7ZsbeUKh2h9/8ZYRszDD/3xfxuW0qkeCRv1e6hhboTQ7g405GhTb/Rd0t5GOD1CgVTiC6/p2aqpXbPfSvHRmSZoMeXPdMBsJiorttlHdQaXP95LHf5wm+dhMmpbHQuQRx84ajqO0aLSQJzRCS6wImyJt4dT94UUOFDh0T+WJRgsFTgqhEKdPpy7SoK+Fus8ZJ18MU6A5SJErKUqn00LcRLlEfDO95WG/OPcYLXOx0ys0IcrlP2ucWzj0ttZD8lhGuySukUgrel1uCly0NMS2JysSaZrtYUExy26IyFG9q02bOi6u4wDN66ejNb6OwTFak1vmdRqW4zka51cI3sTh3D1N8/iKzyfyo99DC5txGlLvf1LEzd5/TeRL3N9jMct18PRctFQqsmzp/gGwd6iIaDR9YV06/EOKeJRqXdj5wc/fkcdxWlVDOHNtQ9MdhgE7X88AO1/dmQUjai01RQsjAzTDDtJSGzZIxGhoNC7cje44u2KGp5OkaLI955hLi0ZAccTi6GiImkJ6q8J0zMVFw5q3XLn4u3B+Sk3fnh7HDQ4n5HcmvRqn+XhSOks+NisgBktn1ZaDC9HYvEj9oqyTN8X3jCirENPBM76sqPE5smXbFGKgXmPjOsljHa6TVZB0liOBbNlVWNgtLRyBNjdCQ+fEPZfnaadJyy2MUZcibha2dP8A2DtURDQ+9LQuFDwe0fXC3W2Jxi3tPXkcp1VVkkr3lGnSARrOb06Plgc7woNmjdeOgzMTcLeM6dhLi4bVOUmnY3RFmXkrLhrWMYRceP6x9n3pxRE64uUulV4ajc7RctbT6fH6z1vr2rJlYMtb8TENfbBcpiNaPX5uVbCzl7X4FYoGlGuX0Wgp2z1l3qMS10m9l6ZlRS2HjHu6wA3mPNsERWSWIqLFZimbyZbuHwB7h4qIxq9/5i3p8O89fF9uf+5FXTgK2R/9XX53lSaO5TBOq2psin9u4Yw6xhLZ1obdue6kaCwMCMe3B0RDkknRcjxG0R7u0/fTqSkO0+PZRSM1np+34qKhl4dr/9wKkC0Mbn20ijicd1+YlpR4TbJ7yjinm+tkdG2VQsbdkmjEaagVogEai4p2Ty3dyPXzFBMOp1bIvyTflWFV7Z5ycK7zp03n6tQ9pdFa3Kh5O3VP3UwY3Ti64yzVPXVkTPEqW3I6+U7evWiI70K8rF1ManpCLC6prQtR6lh79tw70j3F8PULdFJ30CwnX28v9fccpyZl3IDzbRGz1TE6UuQ6pS/0yrEjfdzJQOl+VHHqnuLfu8wnREnlNSyne8oaD6IB9ioVEY2/GtHHMiIWD1pYOJxE42sX9YFwTqtqbEzTqVYf9Z9bofQmDwj3UZBnyhgOsPyBcCEqq+JYHggf7yS/MhAunUgwTAvsRTZXaPakXzhW906Hxc0vauo8kM1sRTTkQLgoV3TRaSA8RTNHRblOTuszwUSLY/a0EAXzNyByIFw/ltGuhKmt1EC4dPTCAd9Mi/MZ++RYhsiT4rRlN5fIR3bAXsCD8k2Hh2lJtDTSqUWKtnM3VeHrRJlFivj1SQAy/+mkuLaiNSMFXIj+pWlakOMhAjcD4cZkAh4InzwqrkNW0GxpQTRAnVIR0TCn3NpnSfFUWlUsTLOLxnvv51or1Z5ym76qTksdp8mBgKWmm5tya0ybtTQ8lCm33iB1j8R1ATFYiylTRe3H8rTWEwE51dPjC1J/uK9oDdrudPRxB3Fe7tIR21sSDYF1yu0YDR1UavRGueRUU74unSOW6aJafJi6HuFyGVNu42pnkINoiH1mWTvGsyWQLTnLjCKL4zUwpv/yNfb4QhSZGqNT2a4/B9FgNuI0ao5TyfKZU6H12XJdE4rrVqbccvqDU8pNygihUKYed/Sp05ZtaUE0QJ1SEdHg1WrN31l809ba+J3jhX/09ydnbtFrb7ybnW7LP+7DyrdVQhE3koPPBfrqAQANTUVEgzGXEfll0YrgpUFMvrvwkD56Sm9FONmHe27Srx3Vv2MZkeqQvhqmoPkbAvM3JD7RMrHqPQAAVE40mC9P6cuBfLDjBg2I7+8YtdlC3VSq8bGgWuT/ynpS7ToDAACDiooGc0ZZ6fajp9fppasPyfwNRiH74iQEAwAAapGKiwYzc839S5g4LgAAgNqkKqLB2F/3yq96ZePveN0rAADsDaomGgAAAPY+EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXAPRAAAA4BqIBgAAANdANAAAALgGogEAAMA1EA0AAACugWgAAABwDUQDAACAayAaAAAAXFMx0fiTM7foA5+6YbGPnl6new/fN2IAAADYa1RMNH6j86080WCbuZY2YgAAANhrVEw0/vMz646iMTB1z4gBAABgr1Ex0fjLb9x2FI3/GbltxKhRtARN9ARpX3MLNbX6qK1nmtYyRhizOk39QR95RLjHF6LRuGYE6KSvjWfDm7x+6hqOk6Ycn15ZpNlomLoPibBo0tibYy3WS20+LzWJ4/c90k6RuZQRkiN1KUxdj/E5QjSRn0QWmZcDelpN3iB1jyySYztvM05DfhHnTNzYIcikKZWI0+RIrzzX0BVjfxaNlqMir15xXLOX9gd7aWbVCGLSKVqOxyja005B3wAtGLsBAHubionGVy/cdxSNT3y1lkUjTfMnveQXQpFiR59eoYmQlwLDCT1YOlcvdYytUFqEa5cGKKA67uQ4dbT6qX8qKcMpKQRGOOOumOH4rwxIoekfGaHBQAt12EXjapj8rSK967pr19Nvp8msbqRp4WyA9h8K02wiSVqxnr7UNHWLvAxeMg5OzdGgyPupKavIMUthvy4simikoiHad6CThoTAdYmwQZtopC/0irIIoeAiCIFZHguRxz9MyzI0SROHvdTWGaaJcLtIG6IBQL1QMdFYvpXJE4yP9K7T6tvvGTFqkM2L1N8coOh1Y5uZ66OmwIjuDNXvkjTN9rSQP7wot1LjIWoKjZPaNliOBHLOONviYKeaLxrsqJsOq8cnaFSITtZhr4xRmz9MS0rLpRDahT4KdsYseVk4Y2tNMNdHRJoDNCTKYW1pGJ8Up8E80dDLHYysGNuCjBAl9dqZxwuhhGgAUD9UTDSYfcoMqv/4hXVa12pYMBhuKTT30bzqlFfH6Ijh9PKdurHv6DTl1991Fs54rc5V4iwaUhTUlsacaGm0dtKMccK1sUMUOD1MkZDSPXa10JmtpLlbze+nobjaPNFbBP3nNWdBkTiJhp7/wTljUyL2HcxvkUA0AKgvKioaz115IAXjl9pvUPJOjQsGI0XD5uCUfenzvbaWhu7I7UKShWvxitPPUUA0BKlYJ+3nriJpAYrojRiJdOxCVKKLIsFMmtbO9ZLfMf0cUtRkWj7qHreKl3auk/YZgrct0Si5TwDRAKCuqKhovPc+0UdP6bOovhBzVyPeVUqIhuy+alXGNBZHqKNVONuei/kDzKJmf0rU7AevOJW7gGgshkXLwjamkRWFFE2GbF1CtELRQAt1nyt9bfWWhlfENRRG47KIcxmD1xANAIAbKioazKs/e0eKxgc7btDVX7xr7K1RSnRPMelrY9QtZzd5qa1nnCYHAtkxjSyacLQ8YO7QktBxFo2FAa8tLX3s4MgYx9O/5x0jnH3h81iRrSLZskiL43wUUM6F7ikAgBsqLhpMxz/ekcLxO8dv0trGHh4It5MRNf2gjyJXjW1G7OMZV9waKUwB0RCO29qS0IXC3LcU9tlaNbqjdmpppGLHKXjCOhAuRYOPv8niyF1WTmZ38E6iYc2XxD4QbgLRAKCuqIpoPHgnNyje9AXnGVS878BXb1PbNzfo717W6DvxB/Tm7WoLjG3K7UaCokIA2kZtApBJk7YSp+gxP+07pgyCZ4QT5ym6osae111lwVk0stNYV43uKdn95c+Na3BLyJjSmxvT6KX5TSNchQfVm3NTbvO6p2xsraWh5JWLkNFoKRIiT3CM1vTgHBANAOqKqogGk7r3vpxyy8Lx2599i64sCyUx+Nl6hv59900Zptrvfe6mEaOK2H7c13F2ThcQE9mFpf/wbjCWsPxwT3eQaq3dNOW3HBJn0WBK/bhP/cHevgO9NHGt8HiGFh+hbiOuxxek/miioJhtVTRE6tYf94XCNO90uyAaANQVVRMNhoXDXMiQZ1QdG79LP3rjHfrtY87rVP3qp28YRwIAAKgFqioaDHdVdb1w11Ek7AbRAACA2qLqomHyg+vv0B9/MX/5dNUgGgAAUFvsmmgw779P9PwPH9DHvpyCaAAAwB5gV0VDJfFWhr5y4T4Fv36bmp+5RR86eoP+TIgJAACA2qFmRAMAAEDtA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuKYqojF25QH91t/epA986oYr+0jvOn134YFxNAAAgFqhKqLBIuAkDsWMRQYAAEBtURXRMIXALVuNDwAAoDpUVTS2agAAAGoLiMaukqSJwy00eMXYbAjiNNgcoomksQkA2FOge8qOlqCJniDtb22hpmYv7Q92UjSuGYE7TTHR0MM6ovXmXSEaAOxlqiIaW2X3RCNJkyEvBU5O05qWJsqkKbU4Qh2tfhqKi+0dB6IBANhbVEU0vjh5j7547p6xVZpdE42b49TRfIgmVo1tg6WzPmo6PWdsEa2d76MOn1dviYSGaWHDCEjy8X00Ex/Ohrf1CAHKGOGCtXO91OYVrZhWH3WcHaOhgw6iIdPhlo5hh8cpZQStTann7qNZW151dMFpG10xtgXXRyjY3E6TRkLF0lk4YxMrmR/T0etOfzQaluXIFzUjPJa7BvuPjtFytrGmh0cvxaj/QO4aLqmNuY04RTuDtI/L7g1S98giZSXbxTVOXx2hbpl2C+070EuTymUAAJRHxUXjx2++kxUBt8Kxa6KRWaSITzjC4QRpihNSSc/1kd8/QPPsfDMpWhoO5Zy64exlS0V4uXTqIg2K9LrPGR5xMUyBVuEwF0Vs0YpZm+qlgIjvtqWRPt9LHv9xmryut4KWx0Lkae2lWYfes1RUyZe53R4jjloqndKi0UIeFssVjbhBZkUPl9dgU2ymFikqWm+ekxcNx28eP0JLnLnNBEVFOf3hRRlKmRWKBoUQhOP6PUjN0aBfCGDE8PylrvHqmGgZirwaZWOR9vsGaIHzAgAom6q0NL79g80tCceuiYYgfW2cTj0maqlcw+0bodmE6XYZ3ZH3n1c85eZF6hcOdZJ/ViIdmnC+ioNiB+wZiBvfveQ/azhHiUjPqaUhsYuGvt0VU/OTosl2p9q+IBWjrqyj1+Ppx5ZOp7RoBCh6XYY4wOG21trVMPmz1yX/eCloIUPgrgyQxxemJVW0+fhW4fh5n4trHDQFRiJEKOClIT0YAFAmFREN0+kXslLCYcbbNbiGuhijaE9IDojvO2R2n+i15Gy3UdYMhyodmnBuHNWAHVrTGfZYurPO1ogl+j53ouHsrJfCPiN9O4pQbExTd7ZrqnQ6pUXD/O6EQ3hGtBaKHK+2iuT3HrNVYiDzbxzj4hrn359C1xgAsFV2RTT6XlYdZz5mvJqAu0uEI9K7T9jh+SiiNhZUdkE0FgZEq8hRNIi0WDs1HZ2m1PnebNeUm3R2XDSM1lih40uKhhxrMo7Z8jUGAOwkd7R7le+e4rWn3AoGs1uiwX39TfauEcHa2CGj+4T7220DzIwZv6hD4+9V7J5ijBZG91GvclzpdDjPR8aUNMsVDTkIr3ZPFRYNd91Tha5xmuZPquMnBrb7CQDYPhUXjR+vvrslwWB2SzRoM05Dfi+1DcwpU27H6ZTY1zGuezntXCd5eDD7ml4WjafkHhBOjr1UCdGwD4Qvx44XGQgnmj8tWjgDcUqndReoD2AL57uq5215vFM4U7Fd8LJqNHNUnN/mpEulI514MEwL7MU3V2j2pF9Jw41o5AaqKb1CEyEhluIa6KUoIRrGQHiHaM7pA+FxihywD4SXuMbNfuqf0k+QXp2m/sc6aUbVSADAtqlKS6PvnOZaMJhdEw1mI0GTfe0U4Gmxwvnte+QQ9UcTlprrWqyX2uR0T31K54QhICUdmsDVlFuDtBCkIzJuLs3cuY2psiWmk8ouKmUWlUnRdDJJmjkRII8on8cXpP5wHx3ZkmgcoqGxcHZKbPDEeN6U24KiwWzEafRJvzLl1phJxbi4xlp8mLoe0e+PxxeiyBwUA4CdoiqisVV2VTTqDO4SK9h9VRFKiQoAYC9TFdHYqghANHaATY20BP9mIfeDvuoA0QCgnqmqaGzVwPaRs6FaA3TqXLW9N0QDgHoGogEAAMA16J4CAADgmqqIxm91uX8/uGl/8Pl142gAAAC1QlVEg9eeYhFwEgcnY5F5ThwDAACgtqiKaAAAAKgPIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrpGg8ePiQYDAYDFZD9uBB4c/tmJlumQbRgMFgsL1spiA4fapmxi/TIBowGAxWi6Y6f/OzHFPTLsMgGjAYDFYPZgqD+qmaGrcMg2jAYDBYLZrq/M3PckxNuwyDaMBgMFg9mCkM6qdqatwyDKIBg8FgtWiq87d/bsfMdMs0iAYMBoPVg5nCUOhzhwyiAYPBYLVgpZw+f5ZjnMYOWNVF497mQ4peuUveM+v0p8KeF995n1NcGAwGg5UwUxCcPlUz45dpVRONmxsP6Oz0Hfpwz1t57wTnfYNTd2Qcp2NhMBis4Ux1/uZnOaamXYZVXDR+euMB/e0Lt+nfdObE4ndPvEUDr9yRxt/N/RynS8TlY5zSgsFgMFgBM4VB/VRNjVuGVUw0ZhP36eA33qZfbs+1KP7b36/T+Lxm6Y7i77zvzwdvZePxMX/59ZRMQ00TBoPBGsZU529+lmNq2mVYxUTDFIAPHb1B/+vZt+nqG6UF4EfL9+nJ0bfp18Qx5vFO8XbXLtOXmlvoS7NOYfl2J3GZ5hMpx7CybeV5eqr5DM07hbGtLtKrV5POYcWsVLrl2HbzBIPBipspDOqnamrcMqziopG87RxezPiY3RSN9avP0zOP7yePEIem1v30yRPP0+u3zPCticb8gJc8nS/TukPYlm32DDWpzryEc3/zO0+R59Ehet0hrKhVUDS2nScYrNFMdf72z+2YmW6ZVnHRcAorZBeu5VojuyUady6foY83P0rPvJyg9bti+1aCvt/zKHmeeJ5+fp/jbE00dtS2KBrbtkq2NGAwWGXMFIZCnztkNSMa37x0V8b/3Isbcnt3RCNBzz3eQp8cTlj33/4ePdPsNYTCLhopev25Hvrkfq9w6F7a/3gPvXLdDBMtjT7RWum7LL+/+dwT1HTyWXrlxOO0j1sx3sfpmZdWaH1+iJ4yj39iiBayrRpbOnyMYfL80rmfplcu547/5ImXDXEzztf2PL1ppnP95WwLyrNfnPtFWzlNM9J94SVRLi+fzyFdo0y62a7J/RVZxv2t4ljZUnvROU8l8s92Zz5Cn/0Eh7XQvk/00EuJXFjR8hTJAwxWk1bK6fNnOcZp7IDVhGh8+7KWjX/qpV0UjZsv02ebP07PXbOH3aWfX75I89fviu9WB7n+8jHyPHqGXk3q2z9/9gnyPP4s/dw4Nk80Wp+g515L0p37Is3vPE2eViEUT0VogY+/vUgvPOGlRwdfk/HzzLGl0UIf7xGOlltFye/Rl/a30Gdf0sdQrKKxSN961EtPPZsQ5xZxrz1LTwln+rV5Iy3V8tK9SF96VIjpiO6US4nG60PcMnuWXhfHPrib0Ms0oJcpXzQK5//Bdc7jE/TCNXHd+XoJEXt0vyi/7PIsXp5ieYDB6spMQXD6VM2MX6btumi88MN8wWBze/yOmnRiwkmtOIRlzVarvp2idXXcxkjjpVV9O7+lcTEX975wxpzWRWPbjKO2DlRzFI0e+r5yfj6f54xyvmxanO+P07eumnFVIcwdL02me5peVWv8r/RQ0/6ztCC+lxINzsPjQ4vZ8DvXL9Orl1fojvieLxqF8z/f56XHLa0+0RL8uJf+92X+Xrw8xfJg7oPBatpU529+lmNq2mVYxUTjQ0/rTv/tu3pmL76eP3tq4kdadkquKhh8DO/jNNT4FbftiMb9FC1ku6e4K4ctl0aeaBRxttk4WxIN69hD3vmyad2lheFP0j5RG3/qxBC9MLNI64W6axzS5Vr/Xxv7SpXjzmsR+msvd7X10Leeu0ivG60wtnzRKJT/FXqhzbyeVtPPU7w8xfIAg9WlmcKgfqqmxi3DKiYav99zUzr+RHKTTvzThvz+jz/I1WpZMD7YkS8YbPzjPt7Paaj7K24Fu6fEhbolWhTc1WFzkNIJyu4po2w24akd0TAsuUjzL0bomSf2k+fRY/SKk0CWKRrS7ifp9csv0nMnnqD9rY9S78srcr8lTy5EI9tVVciKladAHmCwPWGq8zc/yzE17TKsYqLx34dS0vHz2lIsCvydWxWx/6fRy1fvFRQMNj6GwzgNe1hlzRgIN/rus1ZkIJyd3FPPKc5IOtcaFA3hXF/l2ng2bpJeesqWd9NkuiW6p9RuNks5hKOesdbs1198KpsP96Jxl17t8ZKn53vWLiUzT0XLUzwP5j4YrK7MFAb1UzU1bhlWMdH4+6k70vEf+ubbctsUjl/99A36FWGFBIOt7Vtvy3BOwym8knZHOOaPt36S/veMMcBaYsotD7g2tQ3Rgmhp3Em+Rs89xd1UFRINKUhP0Uur4lzc6tmSaIhWlKhtP2PWtuWgs1fUvh2EWaZbeCCcxcvT+jS9xOMHd5O0MPyEnMFkisYrHV557Jt8vURt//snRSvA+K2Ke9EQ26+dNaY/63m+w7Ol/uJpeoXFoGh5iufBPBcMVtOmOn/753bMTLdMq5homF1M3KJ4M6Vn2BSOYoLBcc1WyM92aQ2q9csR+qz54z7vo/T06RcL/7jPmNrJU2g9+5+gr738LPUqXVw7KhoPxbmOfVzm66nnk1sTDWF31B8teh+nz0Zecx4Ylunaptye/p7ugGWcFC0MfdKYNiyuz9BZUWalHLcW6QVzuisf+3QkO414S6IhbP3yED395/p4kby+F3O/Ji9aniJ5gMHq0kxhKPS5Q1Yx0WD7i7C+ntTT/3g7u4/FopBgsHFcPoaPdQqHwWCwurRSTp8/yzFOYwesoqLBa0lxVxS3HOYS9xzjqHb5p/pYBx/z2goWK4TBYLCSZgqC06dqZvwyraKiwfa1C/qg9m8fu0ELb2w6xmH78S82ZRyOO3zR4bcDMBgM1kimOn/zsxxT0y7DKi4abJ1RvcvpNzrfkrOn7OH8i3AO4zgc1x4Og8FgsBJmCoP6qZoatwyrimhsPrAOgn/m+duy62r6J/fka1/N/V8oMtYBg8FgDWWq8zc/yzE17TKsKqJh2is/vkcf+bz+oz/VeN/kQukxDxgMBoMVMFMY1E/V1LhlWFVFg+3u/Yf0zdm79EfPrEvj77zPKS4MBoM1rKnO3/65HTPTLdOqLhowGAwGq4CZwlDoc4cMogGDwWC1YKWcPn+WY5zGDhhEAwaDwfaymYLg9KmaGb9Mg2jAYDBYLZrq/M3PckxNuwyDaMBgMFg9mCkM6qdqatwyDKIBg8FgtWiq8zc/yzE17TIMogGDwWD1YKYwqJ+qqXHLMIgGDAaD1aKpzt/+uR0z0y3TIBowGAxWD2YKQ6HPHTIpGgQAAAC4AKIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsqJhovLzyk/3R6nT7wqRuu7Q971+m74ri9R5wGm0M0kTQ27VwZoKbD45QyNrdLKhpynY6MeyZubG2R5Dh1FCsPAKBhqZho/Ifum47CUMp+5dM36Cdr7xqp7CIrY9TW7KPIVWO7KBANAEBjUDHRMEVgKxwe2ZDHfPTUOqUzxs5dYinsI7/PR56TFylt7CsMRAMA0BjUlGjcffA+ffhzegul+8W7xt5dILNIEV+Qoldi1NXcS7Obxv4sGi0Nh2h/aws1eYPUHx2mU6qT1RZpNCQEp7mF9h3opYnh40WcvUbL0V5q83mpqdlL+4O9NLNqBNmwi0b62jj1B/XzeER++8/lvLyMe3qMZnqCtE+Ey3wq4cza+T7qMM8bGqaFDSMAogEAKEBNiQbzw+V36Jfa9WP5+26QvtBLHumc0zR/0ktdMau71851kscvxGRVtEHSKVqKhITjNp1simaOeilwcprWZPAiRUPCMRcQDW3quEhrgOaNwLUxkVZwjNb0TQsW0diYplOtfhq8ZBy4MkYdrULoVvRNGbfZT/1TSdFqS1Pq0gAFmnPh6bk+8pvnzYgyCBHMpg3RAAAUoOZEgzkV0+Sx3Org1kd1sQnF1TD5LU48SROHW6xCkpnLdU9Jh9tOk0owCQddsKWxqZGmtmQMhz1509hWsIiGEAJtQ+040/PVMa6fRW9pzMnvOmma7Wkhf3hRfNfj9p9Xjt+8SP3meSEaAIAC1KRovPseUWv/LXn8X/+D2WdSJVIx6mrtpXnTkZtdVUYNXR+/8FGEfW8WZUyDxy98YVrSA3SKjWlkNFrKdk+1GObssC2iIdCU7inz2I6ofqCMaxvTWBs7ZOzj/OaOyZkqfBANAEA+NS8afzVSXdHQu3XyHar/rKkSOysa8nyym8io9Rdx2BbRkPH07il90oDR0nAtGvYyKEA0AAAFqOnuqd89Ue3uqRWKBr00eMXYNLk+QkEWAsU571T31MKZnKOXrI7RETeikSdEIl8HbaJRsHuKy9lCbaPZ5pOOOWMNogEAKEBND4TP/rTKA+GLYfK3DtBC3nRf4WQDXuq/oLcG7APhC+FDRQbC4xQ5WHggfHnYL8KGaUm0NOSgeTt3U7kQjWvDFBDxRhdFS2MzRUuj7XKWlEU0igyEyzK0hih6TdO3F0eo44AQRi4iRAMAUICaEo3dnnK7dLbw7zKWIwFqOjZthO3glNtMMjst1uMLUWRqTKQVoOh1I1zBIhqCtXO91OYVeWj1UcfZaYoea6FgRFcFvaVhnXI7eN6ag7VYbixF5tMQEIgGAKAQNSUatfTjPgAAAPlUTDTMFsNWrWaWEQEAAJBHxUSDFyz86BYXLPxI7zrFru7FBQsBAKAxqJhoAAAAqD8gGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAvpd96h2xt3KXljnVbeWKOfXn+Dln66DGsg43vO956fAX4W+JkAwASiASR37mr0i9UkXV/+Bb1185bYvkcPH6Yp8957RgzQKPA953vPzwA/C/xM8LPBzwgAEI0GR7t3X9YqV9feonviOwBO8LPBzwg/K/zMgMYFotHAcC1y+Y03IRbANfys8DPDzw5oTCAaDci772ZkdwP+8cF24WeHnyF+lkBjAdFoMPifnLsYUm9vGHsA2B78DPGzBOFoLCAaDQbXDiEYYKfgZ4mfKdA4QDQaCO5SQJcU2GnwXDUWEI0GgWe88AAmAJWAny3MqmoMIBoNAvc9Y5YUqBT8bPEzBuofiEYDwD/K4jn2AFQSfsbwA8D6B6LRAPBAZSVbGZHZTXrquTv0i7fx6/FGhp8xDIrXPxCNOofXDeJlICrB++8TtY/doQ986oa0f3fiJv381lanX2q0HO2lNp+XmppbaN8j7RSZSxlhoHySNHG4hZrOxPXNxTAFmr3Ufa4y15ifNaxVVd9ANOocXnCuEjNbWDCOPLuRFQzTDn7jthHDHdq5TvIIJ9Z2epxmL01T9ERAbPtpKJ42YtQ6cRoUYtcRrdUatl00hinY6qVTU4ZoXBkQYh2iiR3KPj9r/MyB+gWiUefwSqW88NxOogrGr3/mLYto/J+ZrXWDLZwRDu3gGOWGUFO0NBWntb2iGXtNNOzssGjws8bPHKhfIBp1Ds9o4RVLdwoWjL/6li4Y0fkH9M+JNP1yuy4YTz9/x4jlnrXRoHBafuqfSlI6r2fLyeHZnHRGo4WRTmrziniixbI/2EuR04fE9wFa0GOIizBNgyGfaMGIOF4/dQ2H6ZTF0RfvIktfG6f+oHL82TlKcV6lw+XzmubsfFNzYep6RE/bcrxAiubhYZocDtH+Vk5DtLp6xmm50HiylqCJnmA2buDJMM3fNMKYDT18nzxXkPqjcZrsEd/Na5gcpw4RNnjFOHc278IOjwvJLg9+1jCLqr6BaNQ5/G6EnVrePCOSMQVj9PKm3DcefyBFYzuCIcmkaPY0d0kJp8UOtS9GS9kfrJcWjaWwXzrPI31699aEEAyZlikaqWnqFg7W81gnjcbmaD42TF1+3UmaaaxFQ+RpDdBgLEGpjSQtRY9TINtFtkgRXwv5e2K0nNRo7cowdfgO0WhcePVUguYvjVCXSCso8j1/SbSQ9MuSY2OOBh8L0KlREbYhjr80QG0iP4Hwogw2HbfnYB9NTM0J8WgX526httEVGW4hI65HyCvK0keTiSRpyUWaOCbK7xdl5fNmRF65bN5DNBidpvmpcRo8KOKzwDiIhpYQ1yPSLs4vyj4hvseFcOuxtg0/a/zMgfoFolHn8Et1doJ3hWD8j6/fzhOM7bYw8mAHHO0TDlnUyIUDH7rCVe0SorF5kfqFQ2yLqA5Wo/nTvqxoyJZMay/NqjX31THpOGUaGZGeSCM4nDACmTTNcu2856L4tkLRoHDqoWFaWNEcWkMuu6fSGmlCNDThledPi7SNWr0uGseV/Gk0c1TsCznU+kXLxiMc/Og1Y5vhayDO338+TekLvSI8SNHrRhjDQiJEz0k0JDvcPcXs1DMHahOIRp2zE//ALBif+KouGN+4pAvG2JUdEoyMcHZq9ZZr0ywU0mmWEA27AzRIiZaDKRp694/dAeenYemmMc08TkvQ5NlOOvIYd1HZu49KiIYoz+RRo2tLmlHzV0XDlj/nPJvlMtOxGp9fLbeKTA+iAXYIiEadU2731DuiZl1IMJ78drktDL0W7JE1+hy5mrghGmp4Kia7g6STNmrZxVoay5FA8ZaG0VrpillddOp6gjSjVZG6Mk1LZnB6kUYDIs8DppAVF43UODvykKj9GyXIiJYEt2K2IRp6S6KdJtWATIqWE/qOWmhpoHuq/oFo1DnlDISzYPzF/31bCsTQ9/VZUSOvbmYFgwfFy4WdKtfeg0eHafLSnKjRH5KDuKYQLIVZAHjwOkbzU2N06jF9QNl00vYxDX3KrnCSBcc0wnREDprn0lge5XEQZVykj/PgpY5xEa7pouJ57DhFp+ZoNtonxyT8xpgEi8YQhx8cEPmP0YLqsAU8pVgf6F8hbSNJy7E+Cor42xENyqxQ9KAovzpmcYi780I0yUUxxzRarWMasjVSSDTi3OUlWk8D4vrG4sostu2BgfD6B6JR55Qz5fZvRvUf7lVKMExSl3Kzizw+nvGTq+Wbs4X02UC6eIyK1ke2Zm+bPcVdR7PDtm4aZfaUxxeiyFzM1jrQpDOX4ylGnEHh5LOos69afdTRN01rytiGdkEIiXH+yFVjp4loCcyfzc2MCjw5TJFj4vt2RIPhrrK+XHr7Q300qza01NlTIq9tPTw5QHwvJBriLPN95vUN53VtbRVMua1/IBp1Tjk/7nvkbIo+9mXddQ1fvF8RwSibdJKWrlnd69JZ0ToJjJDZs64lFmlN7Z4yurh48BjsLPhxX/0D0ahzyllGhEXjN7veIt/fp6RgPPEPG7UlGJSmhQGje+osT3m1dS0xXLPm7iOje4mn3HZzF5c5TRXsKFhGpP6BaDQA212w8Nj4XSkcbF3fuUvv1ZRgGJjdU2rXUixhGViX3UtP+vUuGCEobZ3D1h/EgR0BCxY2BhCNBgBLo4NqgKXRGwOIRoPAM1oquTw6aGz42cKsqcYAotEg4HWvoJLgda+NA0SjgeCZLZVYJh00NniuGguIRoPBA5Wpt7MrAgJQFvwsYfC7sYBoNBjvvpuRfc8QDlAu/Azxs8TPFGgcIBoNCP+Tc+0QXQpgu/Czw88QBKPxgGg0MPyPzwOYmFUF3MLPCj8zqHA0LhCNBodnvHAXA8+xh3iAQvCzwc8IPyuYJdXYQDSAhH+Uxd0NvAwE1yJ54TlesXSn3voH9g58z/ne8zPAzwI/E/xs4Id7gIFoAAu8bhAvOMcrlXKtkt+NwC/VgTWO8T3ne8/PAD8LWEsKqEA0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDUQDQAAAK6BaAAAAHANRAMAAIBrIBoAAABcA9EAAADgGogGAAAA10A0AAAAuAaiAQAAwDVSNJxe+QiDwWAwmN3Q0gAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOAaiAYAAADXQDQAAAC4BqIBAADANRANAAAAroFoAAAAcA1EAwAAgGsgGgAAAFwD0QAAAOCaO9o9+v+VrIGd3+c1hAAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       accountingsoftware.co.in      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>092186 34101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390cfda9dc4ed47b</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> I T Solutions Tally Partner  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       A-6, 1st Floor, above Post Office, Connaught Place, New Delhi, Delhi 110001      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADRRSURBVHhe7Z2LU1xXfuf3z3BNkt1skkpSlSrvI5OJtxZ7WVCIuuISFZd6o3LvuNwTxWLkwZvRwFgWK1sSg4xkAp5eZLPKDDN4sBhhtcOKEmOwZMlShFEYGI86JBLMSDCWQBLqEVLr1RLSb8/v3HO7z+2+TR/oBw39/VT9qvvec999+X3ueXTzbwgAAAAw4G9rtxGkAQAAwAhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABiTN2ncf0j0D6P36JUDc7Sm6Tr97mtX6Q/rrsr3PK/nZ/fowbxaGAAAQEGSF2kc+9co/cl3rtGXvnVlwXiqYZZOnIuqtQAAABQaOZdG88DtmBS+vOsa7Tp8iwZ/8YDm7j6WcfoXUTmPy+zl3v74tlobAABAIZFTabSI5M8S+L3XrtKRs/fp8WNV4AKX8TK8LK/z3aMQR7YZfu8p+lrfdTUFAACLJ2fS+PR8VCb/3/72Ffrnyw/V3Dh2rSKRkFiW1+Ey3sZycP/8YdrR9Bf05I6n6Ildf0Gb3+un8YgqzDdXh+nd1g30FXUsvvZ+mkpxWa4ObBHHvIWCl9WMBCANAECm5EQa3On9x6q5qWPwrprrJJU0mPfEOlzG27j3QM3MF2M/oGd3bKDX+s7T1RsRujlznoL7N9CTzR/Q1CO1TL64F6K3G5+hzT3n6SaL4sZ5ej/wDK358XmrXGf2OL22S4gF0gAA5JCcSOODn96TSf/L9dfoUYomqYWkwevYHeeHxLbyR4SOtD5Fvp6Lalrx6Dy9u/speu0TVd24fJi+tiNAwU/eIp9M1GvI995puqlJ5X7oA3qtaY0oe4q+0vQWHYltUohAJPb3z/SL2gyXP0NPB96nkFtN5udt9OSuNrFGnPun36In3j5MV9W0RZROfW8NbT4QEMeVRhqHh+lI+0ZZc3nyO1uoPaRVW6KX6eh7W+hpPidZwzqtidI6bn3bV/u2xI/FviYDr8v13x7hmVEKHdpKz6pr9GyrOM8bPD/73L17V0Y6TJcDALiTE2lsem9OJvyF+iUWkgbD63J5ldhW3rghntZ3vEDv/1JNa4S6n6MnfjhsTcgEqWoAwmn3vzhNbzYK2RxWGfULUb5LJNhfioT8KEpXP32L1uwO0LD0HydfkbADH1AoLCYjF+n9t5+iNd0utQcXZKL+3mm6r6aZ+yMBWtMkakK83zTSeEIc1/tjwlDRKI0fFtva/QMlJRbPM/Ts/n6a4uO8d5GColbzZGxfJtJ4ip5t76fxmQjdF6d+81QDPdkYoFN8ntEInXpvAz3R2k83efks8+6771JLS8uCQuAyXoYDALA0ciKNkjdnZcI/+0VyX4ZNOmmELj2U5bytvCETn3vSdXuqHtZqFjePbqUn9orELd4Pv/cMrXfUVoQY9j5Db/+c33PydYpJbjvQn1B7cCFymnbs2kDvjqlphmtBjWreAsfPsDQcx6WWP8I7lu+30hH9cs/205bY9kyk8Rad0iqGsny/JrjwRTp15mJOpHH58mXavn17SnHYwqitraXhYSV/AMCiyYk0fmerJYRb91IPl0onDV6Xy3lbeWOBpOsqDVmikE/5PO86BUXNgZulEsNqskmTfFMREXJoXkOb+5wHN9WzkdaIGpBMzAscP5PUp6EvL2ortvTiWM1yRsftdk0uH6cdQpZfaXqd3jzcT6EvUvTgZ4lU4oAwAMgeOZEGf9vbVBrc/HT7fvJytjR4CG7eWFTzVEKC/OUHtF6TRqz/I4klSOPRZdlU9Ox7IUezlDyOXa/TUbt2kHVpiGON9U8sQRoMN8+NnabggdfJt+sZ8h067zyHLJMoDggDgOySE2n8l91W8xQ3MaWiZ/Qe/f42Sy7c6f2zXzmHSfHQWy7La/NUyo7wi/R+U3JHuJ6CZAe1TLpROtX+DD3Zrp7+bUw7lBN5FBHJfoMQxrCjo50JHXjGtUbD4TZKakFpyPfpmqe+QcEvZIlkYWkIWfx82Fm7CP2A1riJJcvo4oAwAMguOZHG139kdYQH0nxBb3ruEa0LhOWyv1lzhfb+JELzKjHyujz/65157AhnUgy5faLxBxSyk7ZMkNpQ2PAwvd2oJWS1jTdPWdOyo3zv6yohL0YaUSmMJwOHzYb76hJwYUFp2B3h7afpquoIP/LOc1pHuFWD8v04JM/5/pTV+b9QTSPUzcf+AY3ziClR45jijvfG92ncKs4ptjggDACyS06koQ+5fZgm2fHw2n2f3KZ/W3uF1rZcl9/x4HV4Xd5GfofcWqT9cp9MkA3U3hcfcvu1A86awM2fv09bdq+RT/08tPXdYTtZL0Iacj/x2oMeVpNRAhlJQxC9LIfjOobc6t0QX1h9FHKYcNNb9O4Pv7GgNOjRdRo+YA+55aHFATql1VRyDYsDwgAgu+REGpz47d+SSvXlvkS4OSp82+rb4HV4Xf5yH2+r4HBLkAAAUATkRBoM/1otJ37+SZCFht4mwssu98+IpAXSAAAUKTmTBsO/VsvJn0dA/SSU/gcLeZkV8YOFkAYAoEjJqTSYxJ9G33n4Fn32yweyKYrD7afReR0AAACFR86lwZj+EyZeBv+ECQAACpe8SIPhDm3+bob9717/oC75370WZKc3AACAGHmTBgAAgJUPpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkAaAAAAjIE0AAAAGANpAAAAMAbSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGPyJo37D4l6fnaPXjkwR2uartPvvnaV/qDuKpWL9zyPy3gZAAAAhUtepPHJv0bpT75zjb70rSsLBi/DywIAAChMbkZu51Yab39821UQicE1Dvs9rwMAAKDwyKk0TIXxle/M0vwjor8/eYd++9vWvOURR4SmR0dpOqIms0yopZxKWkbV1CKZD9P46QkKz6tpAABYBnImjU/PR5Pk4Bale69T/9h9tRZR/z/fp9+oscp4G/lljDo8Hmo8qqwx00O1pdXUO2NNZsqipDEcoJLSAIXUJF3ro7oKL3WdU9MAALAM5EQa9x4Q/fGu1H0YLIWF2HfcqqHwNnhby0YhSQMAAAqAnEjj0E/vJYlCj3TS4KaqLyvp8Lbyxyi1lpZT6zBROFgtkrZI8ipqg8ocl45Rs7+SysS8sko/NfdNWfMV00ebqLbSI9bx0LrqJhq8pAoEujTk9h0Cie9bLqftm+e5CSzdvmq7hmig3k9r5bFWU9dZrd0tMkG9qqykopJq9w3Fmr7kuu191FVtn+c2Cp5boM3u2hB1qGVLPOKaBCdIryOmPU7HvqzjnO5voCoPn7+HquqP0TSa5QAoCHIijar35pJEocef/d11tWRq2v/xjlyWt5U/4olbkpSoJ6jL66Ha7imKiiQWvdBNtSLhdpy1SqPHG6jM+wYNXBApcz5Kk93VVFbRQIMq35pKQ5JY00g4FqN9VVRTcCxslXeJ/VW20bgsnaGBag/5WoYowsl4boKCYrqqyxKgXNcrtjXF2w7TeIe17ZG7stjJ3VHar10TmhFSFdPNJy1tGB2ntq9Qm1+IRxzLbiEKMSsaHqJWbznt7F9AWgCAvJETaZS8OSsT/iZNHulqF4n808UHcj3eVv5IJw0u92n9ClGaHh2i0CVOkDPUu7mc6vpEko4RpoGaeC0le9Iw25e/Q6sFqfUHron3FzrJXyoStS6BiT7a3zVKnJp53Ve6YyctkvkYdVSWU/NxSwQ6LIUSXydNqmkmMtRJ+/t532bH6djXpW56pXQT9aaooQEAlpecSON3tlqi4P6Iug9vLUka1yOP5Hq8rfyRThpR8dS9idZyc059O/WenrCe1CWWUIIX1KRivK0ylvCyJw2zfcWa1Bh9fd72xm6atkqSSFpXMLIneR4jz2PPkJpKJMPjVEAaABQOOZHG7712VSb82/cfy+ldhy1xpIr//lZyc1VErMtlvK38kU4aivAEhfo6qZnb4b1v0AlZ7p4gQwGPI0Ha73MhjcR9ZU8aURqsz540jI9TAWkAUDjktHlq/Eq893IhcbjVQv515qEsK6jmKSGLEa5dqEkxQ2tqWULzlCPZLkYaZvtKmYzdmqeuiXMbnZEd2MnSmKKgz7x5Kjo1SiMTfGwZHqcC0gCgcMiJNL7eafVldDiyUmpxuEnj+6esjnDeVv5ISNzzQ2K6kvaPRinK+TJ8jHZWeKn5qMpo4VPUWhn/XofV6SuSMfdxcKdvzzbypugIZymUVWyjAV42qjqb9X3Ltv0aGrim9p2QTE32lToZG3aE29vmzutKITD1cUanhmhwVInAqCN8qcdpAWkAUDjkRBr2kNvEUVI8lFaXhR2J0nj0OF5bWa4htxaqD0PMKwtYSSt6ric25JaHl+7sHJNP5zbTfQ1UpQ8v1fqinckvQuPt1rZLPF6qa2+jRse+Z+jEDp/cT22PSNAuyTTdvhZMxvqQW3keo7H+GV73lUB3bBht2YY3qFcbcjvZ7qWymj5RZ1BoQ255yGzrUe1ABBkdpwDSAKBwyIk0+Ndq7e9ZvJdQ23jyjdRf+vvzluv0+a8exobb8pf78Mu3+ScpkQMAgCIn0mDsnxH5TVGL4J8GsflJ6D493WjVItziy/XX6N+/ar3P/8+IAAbSAACkImfSYL571Po5kN+qvUIB8f6Bav5I1UylB68LlgdIAwCQipxKg2nRfun26T2zdOTsfbK/g5Eq/m4AwgAAgEIk59JgTpwz/ydMvCwAAIDCJC/SYBL/3Sv/q1cOfo9/9woAACuDvEkDAADAygfSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAY3ImjT9vuU5f+tYVRzy9Z5Zu33+slgAAALDSyJk0fn/b1SRpcJw4F1VLAAAAWGnkTBr/be+sqzQCR2+rJQAAAKw0ciaNv/7hDVdp/E3HDbVEgRKZoN56P60tLaeSikqqqj9G0/OqjLl0jJr9lVQmyssqq6lrNKIKFFN9sfISj5fq9g1RWFs/OjVGg8E22rlJlAVn1Nw4C5dHaDLYQFUese1SD63zN9CJS6ooFXN8PpvIx+u0jKqZjNpWpUdsq5zWPlfjPJf5CIXaa6z11L56z6nymR6q5fNzibKA2ofrMgEKWaUAgBVKzqTxvZN3XKXx1e8VsjSiNLLbQ14hCpnoo1PUW+0hX/uEVXx3lPZ7PVTbPUVRUR45HSBfaTX12rl9fow6RBK2yyk8RK3ecqrrC1vlwwEpmubOTmr1lVNtohTSlEdPNohyIQqePR+lye5qKvO206RVnMxMH9VV+qixa5Sm55zNguEeXreBBi9Z88NHG8S51NCAOtRIXw2VeAM0wtP2virbaFwXqI48dz8Fp9T0hU7yV4r15yIUiQWaJgFY6eRMGpPX55OE8acNs3Tp14/UEgXI3VPUXOqj4AU1zQw1UYmv00rM+ntJlAbry8nbNmZNyqdrTSKCyXZv/Ak/lnBnqHezizQWLLf25e+ws7JgXkgp8XhjWALc2a8s4CBMA9Vi+z162RQFhahah62pUIuoGeg1k8gxakw4N51I/zYqq+kT9ReFEGDJ5h6xJwDAaiJn0mDWaiOo/uubszQbKWBhMDLpN9GI/jR9qZteUc0q4WB1UiKU8149ppKlSLx+raYxxzUNt8SdQhox3Mqtea1DalIi5m2MJ3oHUig1tL8j3pyV1NSmMz9KrRVxAclajV3TEEzLWk2qmoZ13s0n4zUJeV1e2ES1svnLQ+uq22jkmioEAKxYciqNg8P3pDB+o+YKzdwscGEwUhoJ7e7avOjxhoSaBifTTU6RzPTRzmfj7fh+uxbiIANpOAThNk+h+hR8u4UoOJeHx6hLLOtzPR5RI+rwU1lMfhbjbb7YeZQ8u81qFnNBCsbfTdNqmgmfbqPmph4an4lQZGaMgtVCHgnLAABWHjmVxqPHRE83WqOo3uzT01GBkkYasvmqQuvTGOuk2gqRUOtPkXzG5nZ9rc/D6tPIck3DVBqjASorbaDBu2paIKXH/RJq2ma6/w3yiVpFSPuIZHNTYp+Ga00jTAM1Wr9NKsJ9VJeyKQ0AsFLIqTSYz375QErjt2qv0NkvHqq5BYoUROrmKSZ6rpt2qiaXqvoeGgj44n0anKgTkrJM1BsTn7AzkIZp8xR3RC8kQEV0OEC+imrqdYzCsvo8dvbrold9Ho79C8baxPoNNKLJyZ1RahU1FtdjBQCsGHIuDab2g5tSHE++cY2m51ZwR3gi89yWX0kdZ9U0d/4mLOvWpLU0aSyyI3zuGO10OxddalPdVOsRwtA2aWHtv/m4PtrJkoZzntXZXtWVuIEJCm72UZd9XRi3awsAWHHkRRr3HsQ7xUvedB9BxfNe+N4Nqnpvjt76KEL/MHqPLt/It2AShtzOieRX7ZIU56MUmRql4HYvrd2u9QPI5qtKau6fUc1TVlt+cj/CUqQhjs4x5DZC4x3VSX0JcaIUCniprLqTxufEpOrTiJ3LJVHrqPCKJ3/3ZsPpLj+VbG6ncdU8Nc1Dciu20Qm9FUrWXOLDdHXG23jf3TTJjpkP00iLF30aAKwC8iINJnz7sRxyy+L4o9ev0vCkMInil7Pz9J92XpNlevzxrmUYbpPw5b7ahC/nWYnS+jJca98ERRLb+NN8uc9iadIQB+f8cl+6EUmcrPdV0zrud0k4Fzmklo8xMexO/YW+3KcY3yfOc7fqz0lE37dY3/fNdgqxvAAAK5q8SYNhcdg/ZMgjqrb33KKf/eoB/dF299+p+u1vX1FrAgAAKATyKg2Gm6rqPrzlKonEgDQAAKCwyLs0bP7pwgP6s79L/vl0PSANAAAoLJZNGszjx0SHfnqPnv1uGNIAAIAVwLJKQ2fi6jz9/ck75P/BDSrde51+59Ur9BdCJgAAAAqHgpEGAACAwgfSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAmGWRxofDD8j73Tsy+D0AAICVQd6lEfriEZU13HYEzwMAAFD45F0a3UMPkqTB8wAAABQ+qGkAAAAwBn0aAAAAjFkWaQCQdWZ6qLa0mnpnrMlQSznVBtVEEhGaHh2l6YiazBmj1FpaTq3D1lQ4WE0lLaPWhAvRqVEKTeX8oADICEgjDZx8kv7Q5yaot34T+TwJZcMBKhFJoqprSs1wEj3ZQGWi3JHMLh2jZn+lnF9WWU1do4tJGhGaDDZQFR+HWH/tC9soeNa5vjx+UaaHezK1EpwvMEpRNcfG9RpkGZlQtWNc+1wNtfZNJB1LShYljTHq8Hio8Wiaa60+TzvKKv20s32IwvOqPC2Lk0Zon4fKth8TnyoAhQukkYakhDnTR3WVPmrsEk+qcwkpzU4ylW00npRYojSy2yPLY8ns7ijt93qotnuKomL5yOkA+bTEl45I/zYq8wZoJKymef2KN+jEnDXN+xysL6e64BRF5iLxcM3EVoIrKfXS/lHnAnmTxuYekqcyH6XwxDHav9FDPrFfI3EsShqGyM8zQCF+L44pImoCwe1eKqvuoWkjcSxOGgCsBCCNNDgTppX4d/arLJ0IJ5mNNUIqHmo+mZDqwkI2paKsRktmQ01U4uukSWtKYCV5b9uYmraZod7N8eRjEaHBJh/tdBjGmaTc10uFtW6V308lXqf0kqQRGaPgNj+tZcl4/NTcp2pWY23krRBJ1l537hjtLPVR8IKapikK+sqp+XiyBhzSsAmL9Su81KFdjunjTVQrrm9JqYfWVbdTyBakmzS6hmig3jpOWYuL1cISr1MKdGnYzItaihC94x5IdT3cpLHnGIXaq2ldhVq2P/755UPOAGRK1qXxs8l56hp8IF9Tcfv+Y+odfSCD36eCR1XxcNzlHF3l+EOeHxJJoIb2d9hNQh6qqj8Wf+rkJCMS30iXSLz1pxxPyNNiXtnuUzTIyUxJwy1RynmvJjZRGCR/8SQ8fbSBfKLmEbqr5smkVUlV1VpCC6Zq8lEJbkgkdn85+TRxOa8BH0u8dhTl5rXKSnFsYqvzYhsVcUlEjzeIa6RJUkpkm1YTiuMqDSVRf4eVhKNCsl67ZjUfpnGRfGPruEijpKKagmOiVFybyS6xLNcAZWkG0hBMdvjin+9C18NNGqIm13x0RiwralMnxflo1wPSACuBrErjg4TvYPB0IiwJ3747sWX+5zt3XcXBo6rKtW0t1ygrxx+yTEwioe4WouCcEB6jLpHMYwmWkwwnJlWrGLAzID+dikTScdbanp1EZVJ11DSEXLo3uSTPhaRhlclmsWe30YDenRKdEE/aDdRx2mqeklIRokuqBUm0BHehk6pK/bHk77gG4hzLEo6Zk2hZgMutJF/bYx19qEXsqyVAXluCvG7SuVm4S0Pft3WejlrK3VPULEQxcE28d5GGLRuJKpfLZigNx7EueD1cpOF4mOByD+1Xl9ZxnQEoULIqjfXfjcuAg6cT4dqFvgwHz0uEh+Pqy/D0cuD4Qx4VCaK0gQZjT/Iq8dtPsLEkYzVjxTrEObGofg7eXuzJm5NehdanMdZJtdxsoRKL3DfLIClc+j3smkaFeHJ1y8qK8X2VSbUgC2eCG2/zUolfJEN1zPY1sJ6WE48nXs79LNb2WZR8LGK7FdY142TqSOQa6aVhHV/yvtW1cGuesq8z4yh3nmtKDKSx8PVw7kcua99LEme5fp0BKFSyKo3/EXAmep5OZEVLQzyB+xOTiExGap6eZM62kVeKQhdImAaqnckseq6bdqo2+qr6HhoI+OJ9GnftzusJCm4UT9lH453ZLJlkxNO4WG5nf+rxN6mSc1IilW334li7Z2gkURpJzWcafD24X4OvlVyOax8esd0Zce6itpXYXaNwPy6r5mKJho8v9fr5lIbePLXw9YA0wOojq9L4fz996Ej0PJ0IN0Vxk5S9zELNU/q28tE8Nd7hJ3+b/kdrJa1YEk/q2BVwZ3ZSTYPhTl8PNQe7taYqq4nFkcx05rk/wWrGcuLWPBWmEzt81Ninp1lLGnYTTuRkE/l39DkSsaM93kFyIo2KmhWP5qrl5i+VzOSwYVFzGNFqW+QQGJ+3j3Zu88fOk2tjZfUN1JhQS9NxlYajI9zqa0kazmzvO1/SSOgIX/h6QBpg9ZH1jvB/ufyIgv/0QL6mgiXBtQsON2HY5Lsj3EoAVuep7KiUQ2D10TtRCgV4yGUnjXPnperT0Juh9CTDnd/cVMEd4FaSTiENsS97OOda13H6btJQ2491DLs0T6mk23paJbgL3aIWYNCnEcM633hzi0DVQLhfR35fITpDg7uFJDR5cV9GiS5XKVuxjZRP5AnS4Gs/1kONG5xDbuUQY/58zllbkc15Lwhh8wJLlkaEQl0BCrp9P0b/POVnNEQdmzzOIbcLXg9IA6w+si6Nlc50XwNVyeYia5hmx1A8GUrmwzSyTw2ZrKik2n3al70Sn0xlh7hec3CRhkxm8S+zRWJPqTpCCKNDNJlwKDQvEl7ntthIrnX+BupVCdUmeq6Hml+wz0cfDpqImzQEETFfJEVHMpsbpa5vCsGJ5ZOugcDRzyNJIUsNmVB5eypSfblP/3zWvqCd75KloY5Ndd47kJ9n/JhSfrkv5fWANMDqA9IAxY09si1VXwkAwAGkAYqa6Fg71bn8dAoAwB1IAwAAgDHLIg0eCcVDaDmW60t7AAAAFk/epcEjofShtBzL+TMhAAAAzMm7NPDvXgEAYOWCmgYAAABj0KcBAADAmGWRBgAAgJUJpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwRkrj3v37hEAgEIgCinv3Ur8uJeztZhiQBgKBQKyGsMWQ6jVLAWkgEAhEIUS6pM+vmQRvIwsBaSAQCMRKDlsIbq962MtnGJAGAoFAFGLoyd9+zST0bWcQkAYCgUCshrDFoL/qoS+bQUAaCAQCUYihJ3/7NZPQt51BQBoIBAKxGsIWg/6qh75sBgFpIBAIRCGGnvwTX5cS9nYzjLxI4/3PIvSH//safelbV4ziK9+5RodHb7luC4FAIBAuYYsh1WuWIi/SYAm4yWGhYMm4bQuBQCBWZaRL+vyaSfA2shB5kYYtArcyt1js8ggEAlG0YQvB7VUPe/kMI6/SWGy4bQuBQCCKIvTkb79mEvq2MwhIY1ljij6sKqe3B93KVmucobdLX6YPp9zKEAjEksMWg/6qh75sBoHmqcS4PkYf7niR1lWUU0mph9a9uJUOngm7L5txLCQNq2zLwSmXspUckAYCYRR68rdfMwl92xlEXqSx2Fg+aUzRkZc99Hz9R3Tx+i26d+cWXf68g7ZUrKd3zuRiNBekgUAgshS2GPRXPfRlM4i8SGNP3xztOTLnWuYWyyaNS4doS+lL9OEF5/xQYB2V7D4Vm7748R7ass5j1URe3k8j19SyU7z+Hvr4zP5Y+Us7hIDuxLd18Ug9veQRtZiKdbQlcIDe+WsXacjtcE1HRdUhumyv/5G+7z30acKxWmEJ56XOifi8cx30YukWOjJjTS+0nZGmBFnJ47ETvZX0f3RwnzyPZKmp8sPxa7Cu9gCdv+4sP3jiMO39avwahmLlIq6doYNbX6S1fO6eF+n1js/ppl1mcI1vjnTQ63Lb5bT2q/V0ZCJehkCsmNCTf+LrUsLeboaRc2mMXrwdk4CpOJZNGnc+p++vE4lw/xjNaklIj5un9tD69S30GSffOzMU2v9yPKmrZC9rKrfEsjOf0Ntie68fUc1bn++j5ytEwvx8RtZiLn5UT8+L5U1rGjc/rqey9dvpyDmrFnT+wMtUVlFPn+oJV8Xlg9px2dNbDtOseJ9uO+mlUU5lLMuJMM2K84wtJ8Mql9fghpie+ZwOitpbWf0nKvHb63dQiK/hjTE6KM5zfevn1vp3Jujgi0IErWesz2DmFL29XgiwXQkw3TW+cEDUDMWxqnNjSa9f10IjfCxy/wjEKg1bDKlesxR5qWn8aPDWosSxbNIQcfPsIWr4K/GUyk+4ezro0zGR4GPlViLf+7HWVHXjE9orEuqRS+K9TGgi+WoJihNwWcsZ9d5D6wMqOcoQ23OradhlDmlY01sP68czQ0e2uD3ti5g5TFtjid5azlo3/XbSS+N5OnjOXjcxuDyhtjayj9bHrkvy+lJoLyvBDbZQ2bp9FNKlzetXiMTP8wyu8Yu2YGQICT3voXfOxJdHIAoy0iV9fs0keBtZiJxIw076qSKdOOzl3MryEvyE+vlhOrjjZdkhvvYlu/nEekqONRvFQiVUmdBEctO2xQmtpIkTmpWsY0/EMqx5ZtJwT9ah1nVq+875DlFc+4hejzVNpd9OemnY793CpfyOqC0ssL5eK5Lvd9i1EhXy+NU6Btc4+fNJdY0RiFUQthDcXvWwl88wlkUajYUuDT24uUQkIqv5hBPeOvr+5y7LcSyDNEZaRK3IVRr3afbwFiqp/Yguf1wfa5oy2U7WpaFqY6nWTysN2dek1ln0NUYgVmjoyd9+zST0bWcQeWme4t+eMhUGx3JJg9v6SxKbRkRcPPCSaj7h9vaEDmYOe/kFExq/z2PzFIeqYbxe69HWS78dPuZvHMiiNGQnvN48lVoaZs1Tqa7xLfqsXu8/UZHweSIQqzJsMeiveujLZhC57wi/cGdRwuBYLmncu3GG3lnvoZdaTmlDbg9Rg5i35ZCVRGePbKUy7sw+az3NzvKQ3K+KJMcdwmmkkdgRfv7w9gU6wu/TZ7tFDaflDN28ZfWhWB3YIvleUB3Yh7aKZCqmXTrCrQjTx7Vi/wlJOt12ZBJ/cR+NyI7qCfq0fr22DRNpxDuq792aoA9fFrIU1yDeEb6ANFRH+Jb2z1VH+Bn6/lcTO8LTXOPS9bT3I+vzunnhI9r7V1vpYzVqDIFYMaEnf/s1k9C3nUHkpabR2DdnLAyOZZMGx7UxOrJnCz3Pw2JF8lv7ly/R3oNjjifXi4fr6SU53NMa0vmhEkjahCbCaMitiptCSN+Qy8a3Gd+3GiqbZjipbKLSRlHZseB27kzRx9ufpzJxfmXrXqS9rXvoG4uSxkv0zoF9sSGxL24/lDTkNqU0OK6doR/9r/XakFs1korLDK7x7Jn9tPUvrc+nbN3L9P1Teq0KgVilYYtBf9VDXzaDyIs0FhvLKo1VFtwklrL5KieRTioIBMIo9OSf+LqUsLebYeRFGouVAKSRhbgRptkx/s5C/At9+QlIA4FYlrDFkOo1S5FXaSw23LaFMAs5GqrieWo4ks9aBgekgUAsKdIlfX7NJHgbWQhIA4FAIFZy2EJwe9XDXj7DQPMUAoFAFGLoyd9+zST0bWcQeZHGH9Yt/t+9/kk9/t0rAoFAGIctBv1VD33ZDCIv0uDfnmIJuMnBLVgynWIdt20hEAhEUYSe/O3XTELfdgaRF2kgEAgEIsdhi0F/1UNfNoOANBAIBKIQQ0/+ia9LCXu7GQakgUAgEKshbDGkes1SQBoIBAJRCJEu6fNrJsHbyEJAGggEArGSwxaC26se9vIZBqSBQCAQhRh68rdfMwl92xkEpIFAIBCrIWwx6K966MtmEJAGAoFAFGLoyd9+zST0bWcQkAYCgUCshrDFoL/qoS+bQUhpEAAAAGAApAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxuRMGh+F7tMze2bpS9+6YhxPNczST8R6K49Rai2tpt4ZNZnIcIBKNvdQWE0ulXCw2ng7ctmWUTW1SGZ6qHah8wEAFC05k8Z/3nnNVQzp4t99+wr9y/RDtZVlZKqbqkorqeOsml4QSAMAUBzkTBq2BBbD5s45uc7TjbMUnVczl4nxtkryVlZS2e5TFFXzUgNpAACKg4KSxq17j+nLu6ways7Dt9TcZWB+jDoq/RQc7qO60gYavKvmx4jQeHs1rasopxKPn5qD7dSoJ9nIGHVVC+GUltPaFxqot/2NBZJ9hCaDDVRV6aGSUg+t8zfQiUuqKIFEaUTP9VCz39pPmTje5v54lpfL7ummE/V+WivK5XFq5cz08Saqtfdb3U6hOVUAaQAAUlBQ0mB+OvmAfqPGWpffLwfRkw1UJpNzlEZ2e6iuz5nuI/3bqMwrZHJJ1EGiYRrvqBaJ206yYTrxqod8u4/RtCweo2C1SMwppBE5+obYVoBGVOF0t9iWv5umrUkHDmnMHaPGCi+1nlYrTnVTbYUQ3ZQ1KZct9VLz0RlRa4tS+HSAfKXx8uhQE3nt/c6LcxASjG0b0gAApKDgpME09kXkulzr4NpHfkkQxdk28jqS+Az1bi53imR+KN48JRNuDQ1oxSQSdMqaxt0IRfSajErYA9fUtIZDGkIEkTm94cw6rtoeay9WTWNIvreI0mB9OXnbxsR7a9nm49r6d09Rs71fSAMAkIKClMbDR0QVzdfl+t94324zyRPhPqqraKARO5HbTVXqCd3qv6ikDs69MbQ+De6/qGyjcavAYqE+jfkIjceap8pVuCdshzQEEa15yl63NmitKJdN6NOY7t6k5vHxxteJhy4+SAMAkEzBS+PrnfmVhtWsk5xQvftsS2RXGnJ/splIPfUvkLAd0pDLWc1T1qABVdMwlkbiOWhAGgCAFBR089R/3JHv5qkpCvo91DqsJm0udJKfRaAl52w1T4Va4olecqmbXjGRRpKIxHFtTJBGyuYpPs9yquqKVZ8s7BFrkAYAIAUF3RE++Is8d4SPtZG3IkChpOG+Isn6PNR80qoNJHaEh9o2LdARPkodG1N3hE+2e0VZO42LmobsNK/hZioDaZxrJ59YrmtM1DTuhmm8q0aOknJIY4GOcHkOFdUUPBexpsc6qfYFIUY+RUgDAJCCgpLGcg+5Hd+X+nsZkx0+Ktl+TJVlccjt/ExsWGxZZTV1HO0W2/JR8IIq13BIQzDd30BVHnEMFZVUu+8YBbeXk7/DsoJV03AOuW097jyC6b54X4o8TiUQSAMAkIqCkkYhfbkPAABAMjmThl1jWGwUzM+IAAAASCJn0uAfLHx6kT9Y+KcNs9R3diX+YCEAABQHOZMGAACA1QekAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkAaAAAAjIE0AAAAGANpAAAAMAbSAAAAYAykAQAAwBhIAwAAgDGQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAH0QcP6MbcLZq5MktTv5qmX1z4FY3/YhJRRMGfOX/2fA/wvcD3BAA2kAaQ3LwVoS8uzdCFyS/o6rXrYvo23b8fpflHj9QSoFjgz5w/e74H+F7ge4LvDb5HAIA0ipzI7TvyqfLS9FW6Ld4D4AbfG3yP8L3C9wwoXiCNIoafIid/dRmyAMbwvcL3DN87oDiBNIqQhw/nZXMD/vDBUuF7h+8hvpdAcQFpFBn8R85NDOFfz6k5ACwNvof4XoI4igtIo8jgp0MIA2QLvpf4ngLFA6RRRHCTApqkQLbBfVVcQBpFAo944Q5MAHIB31sYVVUcQBpFArc9Y5QUyBV8b/E9BlY/kEYRwF/K4jH2AOQSvsfwBcDVD6RRBHBHZS5rGR2Dd2nLwZv0xa/x7fFihu8xdIqvfiCNVQ7/bhD/DEQuePyYqKb7Jn3pW1dk/Icd1+ji9cUOv4zQZLCBqio9VFJaTmufq6GOobAqA5kzQ72by6mkZdSaHGsjX6mHdvbn5hrzvYbfqlrdQBqrHP7BuVyMbGFhvHJgLiYMOzb+8IZawoxI/zYqE0msak8PDZ4+RsEdPjHtpf2jUbVEoTNKrUJ2tcFCfcJOlEY7+Ss81HhUSWM4IGRdTb1ZOny+1/ieA6sXSGOVw79Uyj88l010Yfzea1cd0nj3xOKawUItIqFt7KZ4F2qYxo+O0vRKccZKk0YiWZYG32t8z4HVC6SxyuERLfyLpdmChfH1H1nCCI7co3+ciNJv1ljC2HroplrKnOkuv0haXmo+OkPRpJYtt4SXkKTnIxTq3EZVHrGcqLGs8zdQx55N4n2AQtYS4iIco9bqSlGDEct4vFTX3kaNjkS/cBNZ9FwPNfu19fcNUZiPVSZc3q8d7sk3PNRGdc9Z23asL5DS3NxOA+3VtK6CtyFqXfU9NJmqPzkyQb31/tiyvm+20cg1VcbMWeVr5b781BwcpYF68d6+hjM9VCvKWofVvmPHLmJzj1B2ZvC9hlFUqxtIY5XD/xshWz9vPi82Ywuj68xdOa9n9J6UxlKEIZkP0+AebpISSYsTalMfjce+sJ5eGuNtXpk8X2mymrd6hTDktmxphI/RTpFgyzZso66+IRrpa6c6r5Uk7W1MB6uprMJHrX0TFJ6bofHgG+SLNZGNUUdlOXnr+2hyJkLTw+1UW7mJukZFVg9P0MjpTqoT2/KL4x45LWpI1mWJMzdErRt81NglyubE+qcDVCWOx9c2JovtxF22sYl6jw4JedSIfZdTVdeULHcwL65HtUecSxMNTMxQZGaMereL8/eKc+X9zotj5XPzbKLW4DEaOdpDrRvF8iwYF2lEJsT16KgR+xfn3ivejwpxW0stGb7X+J4DqxdIY5XD/1QnGzwUwvjaD24kCWOpNYwkOAEHm0RCFk/kIoHvH+ZH7TTSuHuKmkVCrOrQE2yERvZUxqQhazIVDTSoP7lf6paJU25jXmxPbMPfPqEKmSgN8tN5/SnxboqCfpHUq9spNBVxqQ0ZNk9FIxQR0oiIrDyyR2xbPdVb0nhDO74InXhVzKt2eeoXNZsykeC7zqlphq+B2H/z8ShFTzaIcj8FL6gyhkUipOcmDUmWm6eYbN1zoDCBNFY52fgDZmF89XuWMH542hJG93CWhDEvkp3+eMtP0ywKmTTTSCMxASrCouZgS8Nq/klMwMnbcDTT2GGvF5mggX3b6JUN3ESV2HyURhrifAZeVU1bMtSTvy6NhONzP2b7vOztOIP3r5+3jtwepAGyBKSxysm0eeqBeLJOJYxv/jjTGob1FFwmn+jjxJ/ElTT08nCfbA6SSVo9ZS9U05js8C1c01C1lbo+Z4oOX5igiKpVhIeP0bhdHB2jLp845oAtsoWlEe7hRF4tnv7VGcyLmgTXYpYgDasmUUMDesF8mCYnrBmFUNNA89TqB9JY5WTSEc7C+Kv/+2spiP2fWqOiOj+7GxMGd4pnCidVfnr3v9pOA6eHxBP9JtmJa4tgvI0FwJ3XfTRytJsaN1gdynaSTuzTsIbsiiSZsk+jjV6RnebxbUx2cT+I1i/SxMfgodoeUR6xpFK24Q0KHh2iwWCT7JPwqj4JlsZ+Lt8YEMffRyE9YQt4SLHV0T9FkbkZmuxrIr9YfinSoPkpCm4U56/3WWzi5rxqGuBTsfs0Kpx9GrI2kkoao9zkJWpPAXF9+0a1UWxLAx3hqx9IY5WTyZDbv+2yvriXK2HYhE/HRxeVVfKIn/hTvj1ayBoNZMmjS9Q+Yk/2CaOnuOlosD2hmUYbPVVWWU0dQ30JtYOITOayP0Ut0yqSfAx99FVFJdU2HaNprW8jclKIRO2/46yaaSNqAiP74iOjfN9sp47t4v1SpMFwU1lTfHvrqptoUK9o6aOnxLFW1fPgAPE+lTTEXkaa7OvbltS0tVgw5Hb1A2mscjL5ct9z+8L07Het1NV+6k5OhJEx0RkaP+dMr+P7RO3E10l2y3pkYoym9eYp1cTFnccgu+DLfasfSGOVk8nPiLA0/qDuKlX+n7AUxsvvzxWWMChKoYBqntrHQ14TmpYYfrLm5iPVvMRDbndyE5c9TBVkFfyMyOoH0igClvqDhdt7bklxcNT9wy16VFDCUNjNU3rTUt+Eo2NdNi9902s1wQihVG1rd34hDmQF/GBhcQBpFAH4aXSQD/DT6MUBpFEk8IiWXP48Oihu+N7CqKniANIoEvDvXkEuwb97LR4gjSKCR7bk4mfSQXGD+6q4gDSKDO6oDP869ouAAGQE30vo/C4uII0i4+HDedn2DHGATOF7iO8lvqdA8QBpFCH8R85Ph2hSAEuF7x2+hyCM4gPSKGL4D587MDGqCpjC9wrfM3jgKF4gjSKHR7xwEwOPsYc8QCr43uB7hO8VjJIqbiANIOEvZXFzA/8MBD9F8g/P8S+WZuu//oGVA3/m/NnzPcD3At8TfG/gi3uAgTSAA/7dIP7BOf6lUn6q5P+NwP9UB1E8wZ85f/Z8D/C9gN+SAjqQBgAAAGMgDQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxkhpuP3LRwQCgUAgEgM1DQAAAMZAGgAAAIyBNAAAABgDaQAAADAG0gAAAGAMpAEAAMAYSAMAAIAxkAYAAABjIA0AAADGQBoAAACMgTQAAAAYA2kAAAAwBtIAAABgDKQBAADAGEgDAACAMZAGAAAAYyANAAAAxtyM3Kb/Dzm4z9pzUbT0AAAAAElFTkSuQmCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110001</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       itsolutioncp.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>098110 62875</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390cfd19aaaaaaed</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> accounting software  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       first Floor Punjab Chamber Bulding, chandni Chowk, New Delhi, Delhi 110006      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD4QSURBVHhe7Z2Pc1vXdefzZ3TSdrdpO006nelut+mPzDK7XLJlhTQrTD3G1GNMPMJasRjZcGubjGyxsszQVCSXIR2WTLiqw5QJbVas4bLiirZoMVKkiKYqE7ZF05XJhCZjmZQlwaIE/YJE+ew5974H3Pfwg48CAYHE9zNzBnjv3nfffRcP53vPvRcPn6EC85ffjdFnnzhL//zv16w96fzj0asqz1eej1l77g4TbdVU0Ra1tlzbCwNUX9lOE3pLsxSj8c46Cvo4X6WPNoZbaPSMlcYkJnvpUUmrcR2niFJHZTV1nLQ2XcQiYarYOkDJFlmao+GmEG2skfL8VN8yQvNLVpqwGKW+xwK0gcus8IWosTdKcTs9U90dLNDg1mqqjyxY21k4M0K77/Ppaw01U8+eLck6qvoabee+Pnfbzh9splrVNnwtnSMU2VFNoZ45lSZ567uHqC/spyouo8q/nSKn4yotI9w2oy3G5xDaTn1jxr2U4fod9VlaoCPcttJ2Vf4w9Rzqp92VQYrMSKJcR5gGjaZJ+2wyXOty9Z8f4uv3S1tW04YHmmnQSk9vRzf6XHKcbVX+ELVGpilh5SCK01T3FuteCFBDdxdfj9fPop/2bk7ldV6rh7bge6T1AeseCXfRYHvqHpHzVrVnubZzY9STbK8wdRzS94KXcy57L5n3tboXjPLik8nPSX0O3Tu9X6+7rDLgb+u3U8FF49B7N5Qg/Gnzebpxy9pp8MmVT+nzDR+rPJIXrE/cjgqsU8yODDPbE7Q+9xgN11VT48Ec4g9KnqKIhvC/23W0sXso/Yap/dGiSvsqRyRgHSJOhHvyg+wwHu0voy5ZOZKYpJ77whSZ1N/lxEw/1XPvv+Mkx0AxjlK3DTijY7DmKJpo/OL8Ev16/VllE2dS4cbQKR2FyH7JA9Yh5ySEl9C/iybQyVz3JE4PUGvIHmYKUeuQPcwE1gNFEw2hdfiKEogv7zlPCdaH2JVP6Xf/Tg9LfYfTAAAAlDZFFY3bnxL9Vacepnqi/xKFfnhRvfd3xFQaAACA0qaooiGcvXSbvmBNeovJe9kHAACg9Cm6aAj2aioxrJYCAIC1w10RDUHmMDCPAQAAa4u7JhoAAADWHhCNFZP+C9FCkfZL1jJguV8fO1iK0dTxaYoVfKW21MP1a++sn0uc5qNRmsfSYrBOgWhkIG6sM5fHEtQ2DdBs0gmUumhoBxdsjxqPlNAU/hfZ+lEkqcdb+Cj4WAsN53r8h4sVica5IWqoCVDfaWs7C6rMZJ2qacM9ddQxZD5yYzlWIhqT1OPz0e5DWa45EaPZ6BBFmuoo5M/wWJdrczR1aID2bt9CwbrUYzKSGI/a0I8HmXRcR2ysi+rtR5PwdfadMusRp9mI9bgN6zEwR4xH3tjEjndRw31yjvJ6PAbwBkTDRSLaTsHKALUemqM4fxsT8Tka3RWgqrD9S9a1IRoVfA17o063WCzRSNb52gLNHmqnWnbsHSe9CceKRMMjjjKXEhSbHqG9m1nQuC28CcdKRCMX0j4+qt3eRYNddfwZuUWDzyPPTmrqpUhL0GgHmzmKhPjc3dP6mWKxMeoIGAI110+13F59lkjHj/O9XLOTjiyqTUocbaYqPwuFVJ3bYbY/TFWBbprVyUyCJjqDtHFLF41OL6j7HwA3EA0H+ktZaz3oLMm1Y9TKPTPtNLQjixwfMh7K1k1Tpk9cjFJku374nX5woN0bjNORbU6HM9Xlp4qmY0nnlTjcTBXBXvVFdjgneQxHWBzdWOohhBnRDq42FKKKQBdNGXndopE41UuN6hr0g9qGrcuWOlUZ+eIHtyfrpJjppVBlM42mPX/SJRoWcnyVqy7zh1usHrFuvwnLsWUSjaxt7fFhcc4yLWIj1Mhi1jNpbTPZ2iOjaPSNqYdH2g84TPXonXnTsNvgZDufJ0OkYaVnrHOGdp/v35K8f9Qznox7SX0em6up9bDsSdBoU+ohfoolFp3kQxkZER3X5wSAG4iGySI7EvNLlCRB89ExmjgjXz7tFKrCvTQl3+hr0xRhRxnosrzPkggP9ya7rCfMqt5gSoiUM0h+sTlvkB25PAHX+qKKw7bLSolGnN+b0U4uLKc1pgUwaNeLcYjGGXkmEDvcGa4J9zrlKaEBGS4Rh8QOrSopEtrZVBjOWYnIthGulZvMoqFFN9WuibEWCgTaaVzaT+YlulMOMl00crR1PqLhdqK52iODaFRwXvV8Jemx93H5fna2KnUZ0bDJJhoWGessx2zup3lrU8FtaeeTermf7TW+x/489GfTMab3a7So2HUVAQru6XY8adY5vAUARMOJJyckTsEpLOoLzg5dfcHF4YoDMZ37qS4K2MIgvUX7MelyvmA7dWzzWz1e+WLbEU1KNOa5/Cp2st6e22Q4LT5XbWUoWVdTNCbafM5epxIwH+2VZOXkwzR8jt8vcXk1zdTR5k8+nVSOTRMGRRbRcDhSnUf3fi2M86WLRo62zks0VtAeLiGQ4xx5rXqo9nLlzcqdikaOffb9YpLap9vdWS/nPtUehhgq4azZTkfcDQfKGoiGiWfRcOYxv+DqvWOIgFERjH3MJPX4tSOUHrv0muUY5YSU80wNP8iX+NGmZnb8fmo96rXH53RaU10Bqghx1MCCpZyCcpLaWdgTw6bp4/QwmnLskyx4ElWIGKrrEmeaKRoTvIiGfp9+bt0+TmeZu61XTzSWaw9nm6YcsYWjHs68WSk50YjRcNglhlYkjEeZAxOIhknW4SmiRDxuTQzmdmTqvVs01FNeU8eonvrAHI02WRGGRB9yfJQdszHsI194NSTFkUrwTiINYYlFKsCOo3+Bxl1OMpczkOuQP8uRcXKVTwRNIiRxkMmhGDdZRMMxPCX1syOrdJzOMndb5yca5vDUcu3hbNO7KhoFG57S7ZFddADQQDQc6HmA2j6zt8Uop+ecCM/qyPiLnXN4ilGT3XXbqdFn75MeXZham4KOnl7qC5ugifaAx9U+6U5LrwgLUz07DS0aCRrf5aOqXS5xM+ssQhbkOobsaxWn4uM67kwXxSSZRcM5EZ6lja1zF000HBPhy7VHiYhGgSfC3Ysy7OMRaQATiIaLBH+ZgzVbaO/xOfX4di9Lbh1fcGsivJ69kZ4Ij1LPA64VWcrJsAM3vqDqC+vqgTucU5y/4H4/9xT1F3j+YDvtPehyvIpMTkuLjhpyUaLBTHL0opYW6/IT8hed9xnj12oug/Mbq6bUBDiXkd2JuETj2gJNRXZSyLXkVomIjJ3bS0Mne6n+ARYVbow7F404TfS1UySaXjfn55Og2OSA+stahwjnbA9nm9410bAEN7nkdoHrGGAhP2pdhWvJbexQM9/LzTRuiYxzyW2cpno4mgwZkYtcB39Wqg2Scxqp4wEQIBoZiEd7uYdt/ICqZSjnj/vSvuC5/qtbIZGFy/lKhGJEI4LbOUmEUsVf4lE+TNIy/9dyFqcV5/0BQzSYeLSbGu7RS0zV/2Kb/6lt9UyTK5UEh3PMhBYNez4g14/7cv4/9h2JhiVYA043K6hjknXK/uO+7O3hbNO7JxqM48d97v8F5+PMH/cZ7apx/bgv3EXjavI+hfoDJWPZsfN4ACAaaxT813IaMnfDkVi2uRIAwOoA0ViL4L+W00hMcpSQ4dEpAIDVBaIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOCZoonGjVtE/xq9To++tEh/1nKBfuupj+kLDR+r97Jv4K3rdHPJygwAAKAkKYpojPxHgv7o2XP02SfO5rQ/bT5PR04nrKMAAACUGgUXjdbhK0lR+OK3ztG39l+m0Z/fpMVrnyo7/vOE2idpdr7nX79iHQ0AAKCUKKhotLHzFxH47ac+pgOnbtCnn1oJGZA0ySN55ZjvHipV4Rilo5s+Q0fftDYBAKCMKJho/PT9hHL+v/HNs/TuR7esvSnsqMLNBOeVYyRNyrgbXH7vRTpc97s0wOIw8ODv0oHWF2n2qpUI0ciLibZqqqh0Wn1kQSeebE9L23BPHfUct9KZWCTM+33UejTzvTHfF1LHdZy0dqyUpRiNd9ZR0Ged/4Ht1DcWsxJLjDMj1BryUxXXs8ofpr5o3EowSdD4Lh9V1A1RemqUOqSdQ/00b+1xcO0YtdZw+tYBytYCsbEuariHy5dyfAFqaBmhea9zk+rzbqcJaxOsDQoiGjLp/YfWcFPP6DVrr5NsoiH8iI+RNCnj+k1rZ5G48daztH/Tl+jwkRm6fIO34zP07vNfooGnX6SztyUHROPOSdBoUzU1ROYovhhPme3/3U5kKUGxyV6qr2GROKxdnhYNdlAZneAcRULa2d+ZaMToyDYfVW1up/E5Xbf54+1UK+c/mskh30WuRWlvwEf1/XOUYCcd53oGK8M0mNJXzeIINVb6KeAPETe7C0s0OL3nlLXLIHG0WQlSNtFIRPmcNWGKTC6oOiTiczS6K0BV4ewi4wCisSYpiGj8y5vXldP/YtM5up1lSCqXaMgx9sT5y1xW8ZihE3WfoQMvzZDSB5sbIzSy6VcsoUgXjctvvUAjj31ORyaPPUwn3jHrfJ1meh6k/V/ntE2fo/3PdND0opUkXI3Sieav6GO//hU6fHCGkjp5e4beaf0K7X/QjngiNJ9FRK++00HDj1h1eORBeuOti6lruMnC13l/spxXO0csAbTImS7Xew+dOB6hw+oaf4X2N3TQTDLyWgkLNLg1h0PP4kRme4JUsW1EiYQSjbo6aqjM4ARPdbFz5LTNdygacnxNM4269CE+VEcV/i6aUlviaLlXP9RN9X7pYfto47Z+mjWPWVqg0ZYwbZReeo2f6rujFLd63xJp1feN0XBTiDawQ1YRwinjYEf0EKLWoTRPrxlroYpgL81am7YgB7omrW2N1L1q1zGOnvwU6nGXJdeyhRrq+Hycxxm7xWi4jgWe2zqbaEy08/XvGbO2LGJD/NlsocEzejNxesB5PQe1qrkjzjuODHNw7do1ZcvhNR/QFEQ0tvxoUTn8XPMSuURDkGMlvZbLKhqLB2h4UxWd+Lm1neQ6nX1nhKbPiBg4ReP2z1+gAw9+hX725kXl7BePS6TylWQZiz95mJ34s/TeJ7xx8yK918lRyzMRUlfFovDmU79Cr74yQzfYSd84c4BGtv4Bl61FZ7ZHRzgfcsRz+wbnfZod9gtRp6AJXO+RB79ER4+bdXiQ3pJzct3fbeXj9kQc5Qy0jpD2+8ul6+sdePoFmuHybl59j0489Rna/8OoSl0Z4qT8VBvWDrPCx04kMp1yVl5Fo42d4C6fywnqYZjavmO5hSkHU11+qmhyO09G9dZtR6h758FdIzQvfiY2SZEwRydJpxun8T1+CraNaaHg9D6ujz0Ep5yl6p2zG+ZIaraPrycpSNPUZ0QPiZl+jrIyRwGqHVzOXO2z2kkjkZdPt8VcP9XKeSzx0mgBHDzKaZUslqbflPwsoOOH+TPJIhpaTJvpiDu6seF2210ToI7j1tFcZn2NIfYFjjS+//3vU1tbW05BkDTJIwa8URDRqPj2eeXwT32YPpdhs5xoTJy5pdKlrKIx/yK9yr3qNzMO8No4ReP9znRHPvPCH9BA56jad/7f7qGBPQcsB8x88h6998Z7SjRuv/ksRyYv0Ic6RfHhS1U0sFc75Pc7OerpfS9Z9o0zUXrvnQVi3+5E1fthejd5kov04Rsj9KGIhkqzBcTikwiLo3Wdy6Wr63UKqbqmpyO04k8mMc097GbqOa6Hp+YPNVPQnJ/I4EQS0vP2p5xu0jGqqMJwgqqHW0fDsWWimRwoh96WSQy1UOgyde/c7kkrpC62010YoHqXA04cbqYKa8hGzuEQO5U/TMPnZEPKDlLfaZXCJGg+OsbfhTQZ02U6Ig3+KPu3OB28QygkcnDPBcn5WJRYwFRUMZSShimOTAKdHLXIZ5JFNPT8zxbuAHC0FW6mvkiU5s3iWRTji+YO/dnUD1ilFVg0PvroI9qxY0dW4bAFo76+nk6eLECos04piGj85pNaEC5fz75cajnRkGMlXcoqGisWjQWOFD5DI8ecQ2iLr3N08dSL2qnOcxTwN9xzf+xhOrwvQjMcrdgioJyv9OLdxoIj3Hi3g179ugwHPUFv/JslAhlZoHf/nsXm61+hkX94gd55l4XFPkkGYRJn8bOt1jUsl66u19kmqt729blIHG+hDb4WGs/euXMgzinZu1dOJDVkoUwmV43hnVQPW/eibSeo9qt5jlyiwdHIHh9t2DOWHk0w3kXDNXewNJbal+kaxCzHK+dITvwLlmjo8hI01cNOWIa0mrpp8Ph08rrTUJPUxpyGmvvh8xiRkrRtbV9KoOyhqtS1p65LzV/YE+JLvN+OcHKJhk1smsYjXdT4gI+jqCDttoaghLgxPGW3hXPhQ+FEQ8gmHBCMO6cgoiG/9vYqGjL8dOVGej5bNGQJbtHIOjwlE+IX1cS4F9E4///udzrV29fp7LsH6M29D9MBFoEDPVEVLSjn23xAD1Vl4yZHDW9F6ESrzDl8iUZ+YjgcFxKJvPtvLXp+5ZsdNCMnySIKRx/MLRrJ9AKLhmOYxYMTMfOr4RElFKaARGkvO887EQ3vw1Mu0RAHbopGcrgpndyiYcFOeGKol1rD7GwDO7MO/yRO91OjNa9S2zRAw+3B1JyGcvwpR50yicZ0FlM0aGmSevxaKEwBiQ0Yn48H4vz5Byq30xG5qdW16eEpETb5vqhIo4iiIbiFA4KRHwURjS/t0sNTMsSUjYHodfqd7VpcZNL7rV86Z3hl6a2kFXV4yp4I3zdjbVvkmAjPPTxlzoVobr/TQvs3PUvv8/sbxxto4MEGes8cb+KCdFnGEJPF4sEHMzrrtGGr20aksCrDU95FIxfxoy0UembI4YDUfIUj0vAuGtpZhyjCvdzUUJXhCFdKlolwGQqqSgpBBtGY6aWQPSQlQ0LuSXojWsgpGtJjl+hCpzB62MiRPxtLIpyp+Q/l+NOcvZ4sTw1DOdtKPouqXQM0aAxVOdrbAZ8v6BzSUqioy0dqhFU+T8exLBqbiy8agikcEIz8KIhofOPHeiK8fZkf6M0v3qaN7TGV99fqztJzr8ZpyfK+cqzs/0ZvESfCmavc897/4Ffo6PEZuso6ttySWz0Rfj+deNeahH6zhQ4YE+EzP5RjX6BZNYlxnT78F3a4j3TosWhx7o98hvY/f4DO88G3byzwuapo+OBFTrxI7zSzIFlpahL9H1iM9qRHJrffZSGSOrynV0zd+OAFFoIv0RvKy1kT3VzOWVYVmeh+q5nLcU+EZ01fPdGgGPfYjYlRPdGbe07DjdOJJfRvENjxpYZh8hANLjXbktvGg7br0+WriXCpdmKOBsM+CrRFrQjFKiPcS1PyQS3FaKonTLUcAUh6btHQ7dN6yEqPHaMOjiR2H3KpmInMG8xFKbIjQBt22JPgca5DZrFRcyHJ32W42koJHkcjMgFuRYrZRYPTOAqRSGjQWnJL1+ZovH0L7+PPUI4/3a2WAfdNcqRxjduhr04tgEjW60w/PSqRz7kEJaxboJDYwgHByI+CiIa55PaWJQLZkOW1nT+5Qv+p/ixtaLugfuMhx8ixUkZxl9xq1BJa+8d9X/8SDXdGcv647/JbxnJXWXJrLne9fZHef8FecivzE8/Su8Yk6u3FKL3xDAuLHCvLXV8YpZh98NX36E17ye2mz9GB5heyLnWNvdGSqsOW++noEWPZ8E0WAmPp7qudB5xLd3Omr6JoMGoJpox9s/NIW1K6YtFg1CR0liGXO2HZH/dJ+Vtob39Xcslt6JkB15LbObWkVi25tYaO7PTlhqfMJaqyuqyxV4tNRtSx+geQHUPG/IdaFJDpdxmMis7syXZ3W+nIRk2AW+QSDSF2vJsa7frW+Cn0WBeNq0l9zfzBZqqVtpR5ms4RFjdzIcACHXmGoxs+Njk5XmBEOCAY+VEQ0RDHbz9LKtuP+9zIcFTsip7bkGPkWPlxn5QFQOkgjtY1PAVAGVEQ0RDkabXi+OWRILmW3rqRvHf7MSIAZAeiAcqbgomGIE+rFecvK6BenVj+gYWSp/QfWAjKG4gGKG8KKhqC+9Hojfsv0xu/uKmGosQyPRpdjgEAAFB6FFw0BK9/wiR58CdMAABQuhRFNASZ0JbfZth/9/r5hvS/e8WkNwAAlDZFEw0AAABrH4gGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDNFE40bt4gG3rpOj760SH/WcoF+66mP6fMNH1M1v5d9kiZ5AAAAlC5FEY2f/EeC/ujZc/TZJ87mNMkjeQEAAJQmBReN51+/klEg3CYRh/1ejgEAAFB6FFQ0vArGHz97npZuE/3j0av0G9/U+9aqcCROdVO930cVlWEaXLB2rmHW2/UAAPKjYKLx0/cTaeKQySqfu0AHJ29YRxEdfPcG/WqdTpMy1haT1MMOtr5/jhJLvMk20VZNFW1RnbzmWG/XAwDIl4KIxvWbRH/4rexzGCIKueg8rCMUKUPKWjtEqcPVI1/bTna9XQ8AIF8KIhovv3k9TShMW040ZKjqi5boSFlF5cwItYb8VFVZTVX+ELUOzVkJmvlDLdZwjY82hlto9IyVsDBA9XxMhW1bO6jF3K5spwkrK50bo56wPkeFj88RmaZkTLU0R6MtYdpYw2k1fqpvOUbz0stXaCfeF+miWl811Ue0N0+c6qXGB6RO1bThgWYaNqtcyOtZHKFGh6hIZFJNrYftq0nQaFM1hXqscy7FaLyzjoJcdzlf8LFumorrJH2+Fhoc2K6uveOk3j1/2KxfN59T789EbKzLyqvbYfC0XTizGKXI9hBtkLpzmzf2Tqba3D73wWbVrnKu2qYRml+cpD7rc6ryc7ufMsoDoEwpiGjU/mgxTShM+/PvXLByZqf7Z1dVXimreExTXyA1HJOY6ad6dtw9p3Rq4nAzVQV20vAMu5ulBM32h6mqpplGk77EQ8/8WpT2GuegBXbqvN16VFxYnJ0sO9MdQzQrm4k5Ggz7qKrpmOXgpHx2YOI85+IUl51npI58TqtO8+z4An526Nckf6GvZ4EGtxoiMdNLIalfMl1EhM83qbdmuwNc9359bUtxGm/j7V3WtVkiFdzF174Q1/Uda6FAoJ3GY5I/RlPdYRavAZJNN4loOwXtdmBih5p5u5nGpR1YiCMhFoKuKMWlzWNj1BGoplpbzNS5uZ24ojE+PHFmiBprfLTBX0eRST6b3Tb+LprSRwBQthRENCq+fV45/C2GeCwXXbj59w9uquOkrOIhTjJIfaetTXZn89Exmjgjjkg7yIYh02XFaLgu1eP3IhriqCuCvTRrbQvxsV7ae5AdmHJedTTsOMUQNSTL1PWLzKgUxUSbL9WTV7CDDPporzpl4a9ntidIVe16OxYJU6itnRpt5yrXU8MCJo6aScQtobM52c7RlBWBqWtnwVJiJ7gESbh2jFq5PsPnrO0krohGEaOJ3nY6Im3F51EO36qH4lQXBey6qXO30LiRPr6Hr3PPmLXFqDzOtgCgHCmIaPzmk1ooZD6i4ZXLdyQaF+K31XFSVvFI0FTPFtogw0JN3TR4fFr3TBXpDluY6vIbTnR5JyuO1eGMTMSJugTFHvLRwzXu8rVjTQ0ZpUznL/z10CQ7X1XnOB3ZJlGF1EmXqwQyGSUxSwvG8JRtpmhY7xVybjOfbZkct26HjizNqtrcrIdgDq2lnTvDdUI0AFAURDR++6mPlcO/cuNTtf2t/Vo4stn/+vv04ao4HytpUlbRiU3TxFAvtcp4dmAnHVGOIrOTnWj3FVg0orQ3OcbvLl87y8aDy4y1F/B6aInz1HDvf46jACvCkOhDohUpK1W3BB/L55fhKTuakOvNKRqpoa3c3IFonDNEAKIBgGcKOjw1dTYV7+cSjkxRyH8s3FJpRR2eYuc6Lr1xa5N3GMM12jEVYngqMRel8WkuVzmm5YanzPITNL7Ll5oXsLGbvQjXI3WQoaGG7dtpg71f5ja2NlNr0BQly7FbE9yKsZYcoiHzENVU22cOOTHGEFKKTMNTcTUUNyuX52l4CqIBgBcKIhrf6NVzGT2pAWpFNuHIJBo/OKYnwqWsohEbocaaALUesjxD7Bh1+H20+5B2u3riuJlGZU5AJkcHtrPjyT1xPN+/hSrqBiiWSOiJby8T4btGaF42E3M0vI17546JcJfjmuyiYGWqzglZLXXfdjoizrIY18OonnylOf+gh9QqHBPHcTqyw0cBWZV0jY+dG6GO+2SlUzbR4CMObqcqjmIi1iqo+GQv1T/AZcpplmI0cWiM5q26epkIl4luPREepZ4H3BPhEA0AvFAQ0bCX3LpXSclSWlMsbHOLxu1PU9FKsZfcJk4PJJeopi3NZOaHmqnWXKLq6AhncOosCruVczQmcI0lt7KUs+OQUQg7uOGmkLHklp2s5Zwzls/Eo93UcI+cQ5fXM5aKHopyPWrVFAuVoe8yQZ9aRWURTy1hVUtiB9v5OGvyO4PjFlL1cy2jXeR61PiSK8GE1JLbDNeyGKW+xwLGkltrJZUA0QDAMwURDXlarf07ix+5oo3f35n9R39/0XaB3v7lreRyW/lxH558CwAApUNBREOwHyPyaxxFyKNBbF6duEFf3q2jiEz2xaZz9Llt+v3ae4wIAACsbwomGsJ3D+nHgfx6/Vlq5/c3reGAbMNUpsmxAAAASouCiobQZjzp9st7ztOBUzfI/g1GNvvOMAQDAABKkYKLhnDktPc/YZK8AAAASpOiiIbg/rtX+atXMXmPv3sFAIC1QdFEAwAAwNoHogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZwomGn/RdoE++8RZh315z3m6cuNTKwcAAIC1RsFE43e2f5wmGmJHTiesHAAAANYaBRON//nc+Yyi0X7oipUDAADAWqNgovHgP13MKBpf77lo5ShR4tM02BSiDZXVVFHjp9qmEZpfstKEMyPUGvJTFadX+cPUF41bCZrE6QFqfcBHFXK8L0SNvZNkxlaJuUkajXRR45YANUQWrL02cZqNNFOtj4/l4zc8sJ0ip8zyzXQfbQw105EzVlImzo1RT1jXtcLH5+teQV2WYjTeWUdB41zDc1aasFy6sLSg8oT83B5bByhm7QYArF0KJhovHL2aUTS+9kIpi0aCxnf5KMBCEROhSMzRYNhHwe5pnXwtSnsDPqrvn6MEp8ePt1OwMkyDtr+NjVBjTYA6jlvuMTZGHZx/9yHL8Z9sV0LT2ttLHcFqqnc56vjB7VQVaKdx63BVfs1OOrKotxNHm/l4Fgo5bClBs/1hzt9NszrZxRxFQnwOrntcrmVFdUnQRHuAqsK9NCV1WYrTVA+fy99FU0pAl0tnuK167vPTo50jNLsQV+0FAFj7FEw0Zi8spQnGnzSfpzOf3LZylCDXjlFrZZAiM9a2MNZCFcFe7ZjN94oEjTZVU6BrUm3Fj7ZQaPuQo0c90cY98bao3kg6zgUa3Op21HEabQlSY1KBhCh1cJTQcVLe63OFeozu/BILgbu+NjO9FKpsptFr1jYz37+FKpqOcUlMzrqwONb4aK9VbYVqG1sgl0vnc/WFKGi1CwBg/VAw0RA2GCuo/vu3z9P5eAkLhrAwQPWVLTRu9orP9NOjle00wW9jkXDaMIvat22EXX46CRnKCgTYubon/zM5ahccScwfaqYgRx4TyvHrYzrGVKoF79tsi4oLjiQqNvfTvLWpENFLGybyUBdBtY1ThBw40qVeAWrt7qJ6GZqS4atwN01laiQAwJqioKKx7+R1JRi/WneWFi6VuGAIyvFpgUhi7EscbnZFGlbvPZOQyDxCpZ8aB9wD/UIuR63T1PFf3W7ME+j9ToHItM9CRMMtEJn25ayLDUdBTb4ckYM7XUdIyeGrxAIdafJTVRZxBQCsHQoqGrc/Jfrybr2K6ttDa8BdLCMaagimxpjTmOyl+hp27vaQjwsdafio8aDTTXty1HakUbOdjqjD75ZoxGmqawttCA84FwQkyZB+TtrMNWymhsv4Wqz5GQDA2qSgoiG88YubSjR+vf4snfrwlrW3RFECkX14Skic7qdGa8iltmmAhtuDyTmNTKhIJK2H7aV3L3C+zdUsOnK0JRBFHp6a56hJJucnsmh+xnTX/IZGog/3PgDAWqPgoiHU/8slJRy/v/MczS+u4YlwN0uyQslPPaf0ZmxoJ4WecU6EOyafk2Ry1DE68kyQdg+ZR2tRaD0sR6/yRHiS7KIRH2tXcyrjWaKD7OmT1OO3622hxBeRBgBrnaKIxvWbqUnxim9nXkEl+x544SLV/miR/v61OP1r9Dp9dLHYAuNacrs4TZEwRxR9rnmJpQTF56IU2RGgDTuMKGKun2orU0tuVzo8JSuOKsQJS/a04Skuz7Hk1lrmGnJFE0lcS24XdF1aj7oH0jLXJcGRSrCGI4MsvwNZLj02IBEIi5YUa89p7Mo8jAcAWDsURTSE2JVP1ZJbEY7fe/pjOjnLSmLxi/NL9AeN51SaaX/4rXNWjiLi+nFffeeYFhAbNYRVTRvuqaOOIcshG8SjvdRo/bivyh+i1sh0BkeZpXfPQjDRu93x473B0+a4j+vHfeEuGs/VRI4f962kLnqfnsx3mVo+vFy64KyrDOXNZhniAgCsHYomGoIIh/0gQ1lRtWPgMr31y5v0ezsyP6fqN7551joSAABAKVBU0RBkqKrhlcsZRcJtEA0AACgtii4aNv8+c5P+/Dvpj083DaIBAAClxV0TDeHTT4lefvM6ffW7MYgGAACsAe6qaJhMf7xE/3j0KoV+eJEqn7tAv7ntLP0liwkAAIDSoWREAwAAQOkD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPKNG4fuMGwWAwGKyE7Pr17K93Yna5eRpEAwaDwday2YKQ6dU0O3+eBtGAwWCwUjTT+duv+ZhZdh4G0YDBYLD1YLYwmK+mmXnzMIgGDAaDlaKZzt9+zcfMsvMwiAYMBoOtB7OFwXw1zcybh0E0YDAYrBTNdP7u1zsxu9w8DaIBg8Fg68FsYcj2ukoG0YDBYLBSsOWcvrzmY1LGKlhRROPFN+L0hb87R5994qwn++Nnz9H+6OWMZcFgMBjMMFsQMr2aZufP04oiGiICmcQhl4nIZCoLBoPBysJM52+/5mNm2XlYUUTDFoJMaZlspflhMBis7M0WBvPVNDNvHlZU0VipZSoLBoPBysJM52+/5mNm2XkYROOu2hy9UltNz49mSluvdoKer3yYXpnLlAaDwe7YbGEwX00z8+ZhGJ5y24VJeuWZTbSxppoqKn20cdOTtO9ELHPevC2XaOi0x/fNZUhbywbRgME8men83a93Yna5eVpRRGOldvdEY44OPOyj+5teow8uXKbrVy/TR2/30OM199L3ThRiNRdEAwaDrZLZwpDtdZWsKKKxZ2iR9hxYzJiWye6aaJx5mR6vfIhemXHun2jfSBW7jiW3P3h9Dz2+0acjkYf30vg5K++cHL+HXj+xN5n+0DMsQFdTZX1woIke8nEUU7ORHm9/ib73YAbRUOVIpGNZ7cv0kX38a+a599BPXXXVpgXnod7p1L7TPbSp8nE6sKC3c5Uz3uISK1Uf29Frp//jfZ3qOtJFzUrfn2qDjfUv0fsXnOn7juyn576WasOJZDrbuRO078lNtEGu3beJnu55my7ZaR7a+NJ4Dz2tyq6mDV9rogPTqTQYrGRtOacvr/mYlLEKVnDRiH5wJSkCXoXjronG1bfpBxvZEe6dpPOGEzLt0rE9dO+9bfSGON+rCzSx9+GUU7ecvYpULnPehZ/Q81ze0wes4a23O+n+GnaYby+oKOaD15rofs7vNdK49HoTVd27gw6c1lHQ+y89TFU1TfRT0+Fa9tE+o1729uP76Ty/X66c5UWjmqpELKdjdJ6vM5lPmU5XbXCRtxfepn0cvVU1/cRy/PbxPTQhbXhxkvbxdd7b8bY+/uo07dvEQtBxQn8GC8fo+XtZALstAVyujWde4siQ62pdm4j0vRvbaFzqos4Pg60zswUh06tpdv48rSiRxo9HL69IOO6aaLBdOvUyNf8191Klh7unh346yQ4+ma4d+XOvG0NVF39Cz7FDPXCG3yuHxs7XcFDigKvaTljvfXRvu+UclXF5mSINO80hGnr7yf1mfRbowOOZevtsC/vpyaSj1/n0scuXs7xo3E/7TtvHuk3SXdHaeCfdm2yX9OOVoD1sCdxoG1Vt7KQJU7Tl+Bp2/LLPQxtvsgVGGYvQ/T763olUfhhsTZjp/O3XfMwsOw8riGjYTj+bLSccdr5MaUUx6aG+vZ/2PfOwmhDf8JA9fKJ7yclho6RZDlU5NHZuRlni0CpaxKFpZ53sESvT+7yJRmZnPdGx0Srfud8hFOdeo6eTQ1PLl7O8aNjvM1mG9KscLeQ43oyK1Ptn7KjEMlV/6xgPbZz++WRrYxhsHZktDOaraWbePOyuiMbuUhcN02S4hB2RHj4Rh7eRfvB2hnxid0E0xts4KsooGjfo/P7HqaL+Nfro9abk0JSXclZdNKxoLNvxy4qGmmuyjllxG8Nga9RM52+/5mNm2XlYUYan5NlTXgVD7G6Jhoz1V7iHRtg+eOkha/hExttdE8xidv6cDk3eF3F4SsyKMJ6u9xnHLV+O1PmRl1ZRNNQkvDk8lV00vA1PZWvjy/RGkzl/Ypnr84TB1qXZwmC+mmbmzcMKPxE+c3VFgiF2t0Tj+sUT9L17ffRQ2zFjye3L1Mz7Hn9ZO9HzB56kKpnMPqV7s+dlSe7X2MnJhPAyouGeCH9//44cE+E36I1dHOG0naBLl/Ucip7AZuc7Y01gv/wkO1PezjARri1Gr9fz+V1OerlylBPf1EnjaqJ6mn7adK9RhhfRSE1UX788Ta88zGLJbZCaCM8hGtZE+OPdb1sT4SfoB19zT4Qv08aV99Jzr+nP69LMa/TcXz9Jr1urxmCwNWOm83e/3onZ5eZpRYk0dg8tehYMsbsmGmLnJunAnsfpflkWy85vw189RM/tm3T0XD/Y30QPqeWeeknnK5aALOvQ2DwtubXsEgvSIypvqszUua2lssssJ1VDVMYqKttylnN1jl7fcT9V8fVVbdxEz3XsoUdWJBoP0fde6kwuid204+W0JbdZRUPs3An68d/cayy5tVZSSZqHNj5/Yi89+Vf686na+DD94JgZVcFg69RsYcj2ukpWFNFYqd1V0VhnJkNiWYevCmLLiQoMBstoyzl9ec3HpIxVsEvxK4UXjZWKAERjFexijM5Pym8WUj/oK45BNGCwopotCJleTbPz52lFFY2VWqayYN5MrYaquZ+aDxQzyhCDaMBgq2Km87df8zGz7DwMogGDwWDrwWxhMF9NM/PmYRiegsFgsFI00/nbr/mYWXYeVhTR+ELDyv/u9Y+a8HevMBgM5tlsYTBfTTPz5mFFEQ159pSIQCZxyGQiMr18TKayYDAYrCzMdP7u1zsxu9w8rSiiAYPBYLACmy0M2V5XySAaMBgMVgq2nNOX13xMylgFg2jAYDDYWjZbEDK9mmbnz9MgGjAYDFaKZjp/+zUfM8vOwyAaMBgMth7MFgbz1TQzbx4G0YDBYLBSNNP526/5mFl2HgbRgMFgsPVgtjCYr6aZefMwiAYMBoOVopnO3/16J2aXm6dBNGAwGGw9mC0M2V5XyZRoEAAAAOABiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnimYaLw2cYP+x57z9Nknznq2P20+T6/ycWuPKHVUhmlwwdp0c7KdKrYOUMzavFNikbDnclTetqi1tUIWBqg+1/UAAMqWgonGf2s8l1EYlrP//M2z9N78LauUu8hcP9VW+qnnlLWdE4gGAKA8KJho2CKwErb2Lqpjvrz7PCWWrJ13iakuPwX8fqradYwS1r7sQDQAAOVBSYnG5euf0he/pSOUxv2Xrb13gaVJ6vGHKHJyiBoqm2n0mrU/SZymusO0saaaKnwhao10027TycYnqS/MglNZTRseaKbB7p05nH2cZiPNVOv3UUWljzaGmunIGSvJhVs0EqcHqDWkz1PF9W09mPLyKu+efjrSFKINnK7qaaQL84dbqN4+b7ibJhatBIgGACALJSUawpuzN+lX6/Sx8v5ukDjaTFXKOSdofJePGoac7j5+cDtVBVhMznAMkojRVE+YHbftZGN0ZJuPgrtGaF4lT1IkzI45i2jED+3kstpp3Eqc7+eyQv00rzcdOERjcYR21wSo47h14Fw/1dew0M3pTZW3MkCthxY4aktQ7Hg7BStT6YmxFgrY513ia2ARTJYN0QAAZKHkREPYPRRXx0rUIdFHcXEJxakuCjic+AINbq12CsnSWGp4SjncOho2kokddNZI41qc4mYkYzns4XPWtoFDNFgI4ovmwJmuV/2APouONMbUe02CRpuqKdA1ye913tbDxvHXjlGrfV6IBgAgCyUpGrduE9W0XlDHP/KiPWZSJGJD1FDTTOO2I7eHqqweup6/8FOP+N4kxpyGzF/4u2hKJ2hyzWksxWkqOTxVbVlmh+0QDSZuDE/Zx9ZH9IEqr2tOY75/i7VP6ps6JmWm8EE0AADplLxofKO3uKKhh3XSHWqg01aJ1RUNdT41TGT1+nM4bIdoqHx6eEovGrAiDc+i4b4GA4gGACALJT089V+fKfbw1BxFQj7qOGlt2sz0UkiEwHDOqzU8NdGWcvSKM/30qBfRSBMirtdml2hkHZ6S66ym2r5k+KSxV6xBNAAAWSjpifDRnxd5InyyiwI17TSRttyXnWzQR61HdTTgngif6NqSYyI8Sj2bs0+Ez3YHOK2bpjjSUJPmdTJM5UE0TndTkPP1TXKkcS1GU311apWUQzRyTISra6gJU+R0XG9P9lL9AyyMcokQDQBAFkpKNO72ktupzuy/y5jtCVLFjhErbRWX3C4tJJfFVvnD1HOon8sKUmTGSjdwiAYzf7CZan1chxo/1XeOUGRHNYV6tCroSMO55LbjsLMG80OpuRRVT0tAIBoAgGyUlGiU0o/7AAAApFMw0bAjhpVayTxGBAAAQBoFEw15YOGXV/jAwj9pPk9Dp9biAwsBAKA8KJhoAAAAWH9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAA4SN2/SxcXLtHD2PM39cp5+PvNLmvr5LKyMTD5z+ezlHpB7Qe4JAGwgGkBx6XKcPjyzQDOzH9LH5y7w9hW6cSNBS7dvWzlAuSCfuXz2cg/IvSD3hNwbco8AANEoc+JXrqpe5Zn5j+kKvwcgE3JvyD0i94rcM6B8gWiUMdKLnP3lRxAL4Bm5V+SekXsHlCcQjTLk1q0lNdyALz64U+TekXtI7iVQXkA0ygz5kssQQ+yTRWsPAHeG3ENyL0E4yguIRpkhvUMIBlgt5F6SewqUDxCNMkKGFDAkBVYb3FflBUSjTJAVLzKBCUAhkHsLq6rKA4hGmSBjz1glBQqF3Ftyj4H1D0SjDJAfZckaewAKidxj+AHg+geiUQbIRGUho4ye0Wv0+L5L9OEn+PV4OSP3GCbF1z8QjXWOPDdIHgNRCD79lKiu/xJ99omzyv7LM+fogwsrXX4Zp9lIM9X6fVRRWU0b7qmjnrGYlQbyZ4EGt1ZTRVtUb052UbDSR40HC9PGcq/hWVXrG4jGOkceOFeIlS0iGI++tJgUDNs2/9NFK4c34ge3UxU7sdo9AzR6fIQizwR5O0B7owkrR6kTpQ4Wu/pIqfaw3aLRTaEaH+0+ZInGyXYW6zANrlL15V6Tew6sXyAa6xx5Uqk8eG41MQXjt5/62CEa3z+ysmGwiTZ2aJv7KTWFGqOpQ1GaXyuasdZEw80qi4bca3LPgfULRGOdIyta5Imlq4UIxjd+rAUjMn6dfjadoF+r04Lx5MuXrFzeme8LsdMKUOuhBUqkjWxlcnguJ70Up4ne7VTr43wcsWwMNVPPni38vp0mdA5uhBHqCPs5guE8vgA1dHfRboejzz1Eljg9QK0h4/jOMYpJXZXDlfPaltn5xsa6qOEeXbbjeEaJ5tZuGu4O08YaKYOjrqYBms02nxyfpsGmUDJv8LEuGj9npQmLOn2DOleIWiNRGm7i93YbLgxQPad1nLTOnaw729YBluz8kHsNq6jWNxCNdY78N8JqPd58iYuxBaPvxDW1byB6XYnGnQiGYilGo3tkSIqdljjUliGaSv5gfXnRmOoKKOf5aIse3hpkwVBl2aIRG6FGdrBV922nvqExGh/qpoaAdpJ2GfORMFXVBKljaJpiiws0FdlJweQQ2ST1+Ksp0DREswtxmj/ZTfX+LdQXZa8em6bx473UwGWFuN7jxzlC0s2SYnGMOu4L0u4+Tlvk44+3Uy3XJ9g1qZJtx121uYUGD42xeNTxuauptm9OpTtY4vYI+/haWmh4eoHiC5M0uIOvP8DXKudd4rrKtfm2UEdkhMYPDVDHZs4vApNBNOLT3B49dXx+vvZBfh9l4da57hi51+SeA+sXiMY6R/5UZzW4xYLxf354MU0w7jTCSEMccKSFHTL3yNmB7z0pXe1lROPaMWplh1jbYzrYOI3v8SdFQ0UyNc00avbcz/Qrx6nKWOLyuIxQ97SVKCRoVHrnTcf43RxFQuzUw900MRfPEA15HJ5KxCnOohFnrzy+h8u2evVaNHYa9YvTkW28L5yh18+RTRU7+L7T1rYgbcDnbz2coMTRZk4PUWTGShNESFj0MomGYpWHp4TVuudAaQLRWOesxhdYBONrL2jB+KfjWjD6T66SYCyxszO7t9KbFqFQTnMZ0XA7QIsYRw62aOjhH7cDTi/DMUxjm31cfJqGO7fTo/fJEJV7+GgZ0eDrGd5mDW0ps3r+pmi46pe5zvZ12eU4Tc5vXreJKg+iAVYJiMY6J9/hqZvcs84mGI/9c74Rhu4FV6kefYpUT9wSDTM9NqSGg5STtnrZuSKN2Z5g7kjDilYahpwuOjYzTXErqoidHKEpOzkxSX1BrnO7LWS5RSM2II48zL1/6wqWOJKQKOYORENHEnU0bCYsxWh2Wu8ohUgDw1PrH4jGOiefiXARjL/+v58ogdj7U70qqveNa0nBkEnxfBGnKr330LZuGj4+xj36LWoS1xaCqS4RAJm8HqLxQ/20+z49oWw7afechl6yy04y65xGFz2qJs1TZcz2yTyIMS/SInXwUf0Ap8e1qFTdt5Mih8ZoNNKi5iQC1pyEiMZeSd/czvUfognTYTOypFhP9M9RfHGBZodaKMT570Q0aGmOIpv5+s05iy0ynBemYbkUe06jxjmnoaKRbKIRlSEvjp7auX2HosYqtjsDE+HrH4jGOiefJbd/26d/uFcowbCJHU+tLqryy4qfVC/fXi2kVwNp8ejj6CPZs3etnpKho9Fu1zCNsXqqyh+mnrEhV3QQV85czadYeTrYyScxV1/V+Km+ZYTmjbmN+FEWEuv8PaesnTYcCYx3plZGBR/rpp4d/P5OREOQobKWVHkbwy00agZa5uoprmttkywO4PfZRIPPMt5it29X2tDWSsGS2/UPRGOdk8+P++7pjNFXv6tdV/exqwURjLxJLNDUaad7nerk6CTYS/bIenx6kubN4SlriEsmj8Hqgh/3rX8gGuucfB4jIqLx+YaPyf8PMSUYD7+4WFqCQQmaaLeGpzplyatraEmQnrUMH1nDS7LktlGGuOxlqmBVwWNE1j8QjTLgTh9YuGPgshIOsYZ/vUy3S0owLOzhKXNoaWjaMbGuhpceC+ghGBaU2u3dzh/EgVUBDywsDyAaZQAejQ6KAR6NXh5ANMoEWdFSyMejg/JG7i2smioPIBplAv7uFRQS/N1r+QDRKCNkZUshHpMOyhvcV+UFRKPMkInK2CfJJwICkBdyL2Hyu7yAaJQZt24tqbFnCAfIF7mH5F6SewqUDxCNMkS+5NI7xJACuFPk3pF7CIJRfkA0yhj54ssEJlZVAa/IvSL3DDoc5QtEo8yRFS8yxCBr7CEeIBtyb8g9IvcKVkmVNxANoJAfZclwgzwGQnqR8uA5eWLpav3rH1g7yGcun73cA3IvyD0h9wZ+uAcEiAZwIM8NkgfOyZNKpVcp/40gf6oDKx+Tz1w+e7kH5F7As6SACUQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPKNEI9NfPsJgMBgM5jZEGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPXIpfof8PlI0ZiTNfBzgAAAAASUVORK5CYII=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110006</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       softcoresoftware.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>093130 01226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390ce5b4b4100029</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Advance Acoustic Research  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       1669, Brahmaputra Apartments, Sector 29, Noida, Uttar Pradesh 201301      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADoGSURBVHhe7Z2PcxvneefzZ3TS9q5pO/0xneldr+mPzDF3PLBlhVxHmHqMq8e4eISzYjGS4dYOGdviybJCUxFdlnRYMuGpClMktHliDJcRT7RFi5YihTRVmbAtmq5MpjQZy4QsCRYlSJQgUX7ufd59F3h3sQCWwg+BxPcz8wyw++6+u1iAz2ffHwA/RwAAAIAL/rZpJ0EaAAAAXAFpAAAAcA2kAQAAwDWQBgAAANeUTRo3bxP9c/QGPfbSMv1Z+yX6jac/od9p/kQ+53VDb9+gW6tqYwAAABVJWaQx9q9J+qPnLtDnv3E+Z/xp60U6fjap9gIAAFBplFwaHaPXUlL44rcu0LcOXaWJn9+i5ZXPZIz/PCnXcZm53QuvX1N7AwAAqCRKKo1OkfxZAr/59Cd0+MxN+uwzVeAAl/E2vC3v852jlSqOCTqx5XN04i21CAAAVUTJpPHTD5Iy+f/aN8/Tex/fVmvTmK0KO9NiW96Hy7iOe8HV91+kY42/S0NCDkMP/y4d7niRFq6rQkijIKY766im1hpNkZhReLoro2zTfY0UHlflgngkJNZ7qeOE82djaSAo9+s+rVasldU4TfU0UsCrjv/QThqYjKvCCuPcGHUEfeQR5+nxhWggmlAFOkma2uulmsYRyiyNUjdf5+AgLak1FlZOUke9KN8+RI5XQL1fDQOLaoWV5IlWeW6p9xdsCEoiDR70/kPV3RSeWFFrrWSTBvNDsQ+XcR03bqmVZeLm28/RoS1fomPH5+nqTbGcmKf3XvgSDT3zIp2/w1tAGndPkiZa6qg5skiJ5UQ6zPwvk1AXTatFWk1SfKafmuqFJI4ZKc+QhkhkjklwkSJBI9nfnTTidPxJL3m2dtHUonFuS+Nd1MDHP+GUkO8hK1Ha7/dS0+AiJVeJEuI8A7UhGrbn5+Ux2lPrI78vSOKy21DSEOXhM2qVhpn080mjxtdLsxmTWJSsRDmksbG4krhWfGn8+K0bMul/seUC3cnSJZVLGryPOXD+sqirfMzTqcbP0eGX5kn6weTmGI1t+SUlikxpXH37AI09/gWjZfL4Djr1rn7ON2g+/DAd+poo2/IFOvRsN80tqyLmepROtX7F2PdrX6FjR+Yp5ck78/Rux1fo0MNmiydCS1kkev3dbhp9VJ3Dow/Tm29fTr+GW0J8PQ+m6nm1Z0wJUJGznF/vfXRqPELH5Gv8JTrU3E3zqZbXWojR8PYcCd0uDcVCOEA1T45JSUhpNDZSc61DEjzTK5KjKNt6l9Lg/etbacLmh8RIo5EY5RInWnFXP9JHTT5Oil7a/OQgLej7rMZooj1Em/kuvd5HTX1RSqikyi2tpoFJGm0J0iaRUGUL4Yy2s6X1EKSOEee7eJpsp5pAPy2oRVPI/t4ZtWzA5+7Ze1K0nnwUDNvr4teyjZobxfHENta2W5xGG4XgxbXOKY2t4nqL65DR8ouPiPdIlIk6LNJYjlJkp/Haa7xB2tM/kzqufG/bxmi6T107Ud5xpDTCWVlZkZEPt9tVEyWRxrYfLsuEn2tcIpc0GN6XyxtEXWVj+TCNbvHQqZ+r5RQ36Py7YzR3jmVglcadnx+gww9/hX721mWZ7JfHuaXylVQdy2/sEEn8OXr/U7Fw6zK93yNaLc9GSL4qIYW3nv4levWVebopkvTNc4dpbPsfiLoN6SyEjRbOR6LFc+em2PYZkbAPRK1CY8R5jz38JToxrp/Dw/Q2H1Oc+3sdYr+2iKWeoY4xMvJ+vnLj9Q49c4DmRX23rr9Pp57+HB36QVSWrg1OUj5qCKWTRkdkLp2s3EqjUyRBcRdrTYLGnW3DwMncYsrBbK+PalrsyVMg79a30fA5XjDuzgN7x2iJc0l8hiIh0TpJJd0ETbX5KNA5aYhClA+I8zETp+yeqw9RZEakYdGSWhgQryclpDka0FoPyflB0cpybgXI62BL5nKduk4G3PLyGtdicZAaMloEhgCHT4iyWiFLPTfy9kKgU8fEe5JLGqJsirsEbdeNuwn5mkywJE1prBrn09CrJBqfpG5/HTWo91Gef62fOo7GxOsXrcwT7eSv3UnHS5ACvve971FnZ2dOIXAZb8MB0pREGjXfvigT/pmPMscyTPJJY/rcbVnOdZWNpRfpVXFX/ZZjB6+JVRof9GQm8vkDf0BDPRNy3cWf3EdDbYdVAhZ8+j69/+b7Uhp33npOtEwO0EdGieSjlzw0tN9IyB/0iFZP//upum+ei9L778ZI5HYr8rx30Hupg1ymj94co49YGrLMFIji04iQo3qd+crl67WKVL6mZyK05ncmOSfusFspPG50Ty0dbaWAPj7hII0k33n70oknlRhlq0JLgurOdjSepzWTA5nQO51kaIjCqNO4OzcEouBzMZNubIiabAk4eayVakJG4uVjWGQntw/R6AVe4LoDNHBWlgiStBSdFH8LGRoz6rS0NMRbObjNmuAtouCWg71FwMcTUhICk62KkbQaZkXLxN8jWi1KDFmlwfWnrr1avzpDYZ8hO9myMqUhtvfYxSVbd+I9F+vke2uRD5+fl9SfQ1H5+OOPadeuXVnFYQqjqamJTp++m2brxqUk0vj1pwwhXL2RfbpUPmnwvlzOdZWNNUsjJloKn6Oxk9YutOXXRevi6ReNpLokWgF/I+7cH99Bxw5GaF60VkwJyOTLd/H2EMJhbr7XTa9+jbuDvkFv/kRJwJEYvfd3QjZf+wqN/cMBevc9IRbzIA5i4j/Gn21XryFfuXy91msiz9t8fTaS4+20ydtOU9lv4CxwckolCikNkbj18PqpWeveSd9hG3etZhKU6+U4Ry5piNZIm5c2tU1a7opN3EvDNnawKu6YzXVOr4FDJV5LEmWUNIz6kjQb3kabuEurpY+Gx+dSrzsDOUitjWnIsR9xHC3p8rXVB6nNriprUjZelxy/MAfEV8V6s4WTTxpS8uK6ylaeOpYmB/31ZkpBIFtxxuuX5Zbrr1/34pNNHBBGbkoiDf62t1tpcPfTtZuZ25nS4Cm4ZSNr9xQPiF+WA+NupHHx/z1oTap3btD59w7TW/t30GEhgcPhqGwtyOTbetjoqsrGLdFqeDtCpzp4zOFLNPaGlnBscEvkvZ+0G+Mr3+ymeT5IFimceDi3NFLlJZZGWgKCVBLKjr69HGuQotAFEqX9InnejTTcd0/ZpMEJXJcGJ0yjJIPc0lDE52h6pJ86Qj7y+HfT8SxvefLsIO1R4yoNLUM02hVIj2nIxG8TlwytRaAnZa11oAskPqS9P3b09yvV8tMFIlowoTzSuJB+/eWWBmMXB4SRn5JI40t7je4p7mLKxlD0Bv3WTkMuPOj99i+sI7w89ZbLyto9ZQ6EH5xXy4ocA+G5u6f0sRCDO++206Etz9EH4vnN8WYaeriZ3tf7m0RFRl1aF5Ni+cjDjsk6o9vqjtZSKEr3lHtp5CJxop2Cz45YEpAcrzATyRqlYSTrIEUieldVAYkmy0A4dwXJO2e55CCN+X4Kml1S3CVkH6TXWgs5pSFkMcWtC6NEYHQbWbbPhhwvSI9/yMSfkeyNwfJ0N5T1WvF74dk7RMNaV5XletuxvF/i+AEh7sig1lVltPpS5y+2z9s9VWZpMLo4IIz8lEQaX/+RMRDelecLekvLd2hzV1xu+yuN5+n5VxO0qrIv78vrv95fxoFwwXVx533o4a/QifF5ui48lm/KrTEQ/iCdek8NQr/VToe1gfD5H/C+B2hBDmLcoI9+LBLuo91GXzQn90c/R4deOEwXxc53bsbEsTw0euSyKLxM77YKIakyOYj+D0JGbZktkzvvCRHxObxvzJi6+eEBIYIv0Zsyy6mBblHPeWEVHuh+u1XUYx8Iz1pePGlQXNyx1/upe9xIQcZAb+4xDTvWJJZMTetMd8MUkmiyT7ndc8RMm0b9ciCcTzu5SMMhL/lFsjNehaoj1E+z/Eatxmk2HKIG0QLg8tzSMK4PDwRL4iepW7Qk9h21WUxH3NknFqMU2eWnTbvMQfCEOAdn2cixkNT3MmzXSgpPtEZ4AFy1FN1LQ/w9q+/IpLvAbNJQA+FN4Rk1EB6l8EO2gfB7IA3GFAeEkZ+SSEOfcntbSSAbPL22541r9O+aztOmzkvyOx68D+/LdZR3yq2BnEJrfrnva1+i0Z5Izi/3XX1bm+7KU2716a53LtMHB8wptzw+8Ry9pw2i3lmO0pvPCrHwvjzd9cAExc2dr79Pb5lTbrd8gQ63Hsg61TX+Znv6HLY9SCeOa9OGbwkRaFN3X+05bJ26m7O8iNIQJM8OUcdDRqLPmFK6ZmkI5CB0li6XuyHvl/u4/m20f7A3NeU2+OyQbcrtopxSK6eNqq4jszxf95S8PmrKrX1KagZyX+MLkN0j2viHHJh2+l6GQLbOzMF2+7UyWjZyAFyxFmkYx023djKkwYjP+8DjQnCp12cbr7pH0mBYHBBGfkoiDU785m9JZftynx3ujopfM8Y2eB/el7/cx3UBUDlwIrN1TwFQRZREGgz/Wi0nfv5JkFxTb+3wtvf6Z0QAyA6kAaqbkkmD4V+r5eTPM6Benc7/g4W8TeX/YCGobiANUN2UVBqM/afR9xy6Sm/+2y3ZFcXh9NPovA8AAIDKo+TSYNz+EybeBv+ECQAAKpeySIPhAW3+bob5715/uznz371i0BsAACqbskkDAADA+gfSAAAA4BpIAwAAgGsgDQAAAK6BNAAAALgG0gAAAOAaSAMAAIBrIA0AAACugTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BpIAwAAgGsgDQAAAK6BNAAAALgG0gAAAOAaSAMAAIBrIA0AAACuKZs0bt4mGnr7Bj320jL9Wfsl+o2nP6Hfbv6E6sRzXsdlvA0AAIDKpSzSeONfk/RHz12gz3/jfM7gbXhbAAAAlUnJpfHC69ccBWEPbnGYz3kfAAAAlUdJpeFWGH/83EVavUP0jyeu069901i3XsQx3VlHNZ1RtZQb3rYpElNLmSQXozS9mFBLAABQeZRMGj/9IJkhB6eoff4SHZm5qfYiOvLeTfrlRqOM66h0iimN6R4veXaNEbQBAKhUSiKNG7eI/vBb2ccwWAq56DlmtFC4Dq6rkimmNAAAoNIpiTRefutGhij0yCcN7qr6opIO11VWLkxS+HE/baoVMvD6qblvhsz2TjwSopq2QRp90kee2i6aFuvs0kieHaKOIJfXkccXpI4jaUlIafSN0EDILA/RwJl0u0KvyzjWGE33hWhzPZ+Lta4MEnM03BI0zrveR009kxRfVWWCpaPt1OTzUk2tlzaH2mninCoQZDuvpSOt1OAV9Yl9GlrGaEmrDwBQnZREGg0/XM4QhR5//veX1JbZ6fvZdbkt11U+5mjA76WmwUVKcoJcnqRusdxxwtCGTOS1fuoYmaP4srHOIo3lMdpX76fu8bixvDhITfVBiiwai3Lb+hBFZkT5apIWBkPkqW+lqRWtXJcGH+toTJxLkuIn2slfu5OOO16OGI2GvBTonKSEPO85iojlhgHjwMljreTx76bReXHO2nEnlK/kcf1ieZHL4zTdGxSSEvvvFaIQq5Jxvg51tOcIOs4AqHZKIo2ab1+UCX+bJo98rQs7//LhLbkf11U2REJNLCcMYSg4oXq6tETecjLV8mAs0pD766UxGt4u7uKHDInwto8N6q2FRYoE0sk4QxqWY0WpW9zx71eHsjDfT8FakfSVfCRzI7R/IEoJdQ7NI0pkkjiNNqa7yjLO69wgPVa7jYZtrZHU6wQAVC0lkcavP2WIgscjml+5elfSuJS4I/fjuspKTOueMkNP5LbEaU+mCa17ytxfT872MY2pNmt59mOxNOqo+7Ra1DndRTVbB2lJLVrh/QIUmVeLitleX6r+jPOKDVFTbYiGtVWQBgCAKYk0fvPpT2TCv3bzM7n8rUOGOLLFf/u7zO6qhNiXy7iusrEiEqyPu6fmUq2N3InclkxlsjW6p4z9VUujAqUx3eVN1Z9xXpAGACALJe2emj2f7ufJJQ6nVsi/xm7LsrJ2T8lkaQxwm3BSz57IbcmUk/f2IUp3BAlpbLVKYU3dU5Zj5ZCGU/fUhTmaisYo6bJ7CtIAALihJNL4er8xlhG2ZLHs4nCSxvdPGgPhXFfZkAPZPuo4skjJlaSccRTkmUtZE7ktmZ7to4BItgMzoqWxEqfZgUbZzWVpSaxlINxyLKs0kouTNBE1ReBmIFxI5RwPdIvjDu0kv20gHNIAALihJNIwp9zaZ0nxVFpdFmbYpXHns3RrpdxTbpNn+lJTUxtahmi0K5AakM4rDUFqmqqc9jpGkV11FAwbyVsmZ8vU1p0UOZuekbQWaSz0+cnTOJJu1ehTbr1B2tMfNQSiWBoR56VPuVUzuhhIAwDglpJIg3+t1vyexQ9trY3f3539S39/0XmJ3vnF7dR0W/5yH375FgAAKoeSSIMxf0bkV0Qrgn8axOTV6Zv05X1GK8Ipvthygb7wpPF8PfyMCAAAVBMlkwbznaPGz4H8atN56hLPb6nukmzdVHrwvgAAACqLkkqD6dR+6fbLbRfp8Jmbqe9gZIu/H4UwAACgEim5NJjjZ93/EybeFgAAQGVSFmkw9n/3yv/qlYOf49+9AgDA+qBs0gAAALD+gTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BpIAwAAgGsgDQAAAK6BNAAAALgG0gAAAOAaSAMAAIBrIA0AAACugTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BpIAwAAgGsgDQAAAK4pmTT+ovMSff4b5y3x5baLdO3mZ2oLAAAA642SSeO3dn6SIQ2O42eTagsAAADrjZJJ478+f9FRGl1Hr6ktAAAArDdKJo2H/+myozS+Fr6stqhQEnM03BKkTbV1VFPvo4aWMVpaVWXMyiLNHh2i/Tu3UaBxiOJqtUny7BB1BH3k4f29fmrui1JC2z8+2UtNPi/ViPJN9zXSwJmEKslNfCgk6gzRcEytEMhjPWTUVeMN0p7+GdLbcfnKLSTjtBAdoUhLIwV9XTStVltY5msjXrdX1NcZVSs1cpQvHWmlBvm6vbQ51EfTy6oAALCuKJk0Dpy47iiNrx6oZGkkaWqvl/xCFHFO9MlFGg55KdA3ZxRTlLqFSJpa+inSHqCa7TZpxIaoqd5PHUdjlOT9Y2PU4a+j5hG11eIgNYjEP3DWEEVivIsC9bvpeL4EGh+jPfUiEevSkOv81D2u6o5PUrffS/uOKgnlK7cQo+HtXmrY2UvDvY3iOA7SiI1Qsy9A+waitLTsoJ4c5ckov05x7vNi/Wqcpjr9mdcOALAuKJk0Fi6tZgjjT1ov0rlP76gtKpCVk9RRG6DIvFpmJtupJtBPC2qRVKshHgllJD5uDdSErOsWwkIu6q5bPm85qd3ti2S9tY46jmW9/xckaKLFS01dXdSkSSNxop2CO0csx5ruTN/h5yvPwGwNne5ykIYh0z1HsqX53OVTbXUUDC+qJYG8zj4Kz6hlAMC6oWTSYDZpM6j+87cv0sVEBQuD4ZZCbTtNad1JdG6QHnO483aShhPTnd5UwuSk/dig1r8k4ITaFLGu00mKJO4PCmmd43Ozdk/pJM9xq8ZP+6POAspXnsJJGquilVLbSPvDrdTAXU+1olWid9vlLOdWjP01Guv2HHHXNQcAqBxKKo2Dp29IYfxy43mKXalwYTBSGraE6bRO4Eoa8/3UUL+TjquNWBp2QTitS7E6Q2GR6OUduTyPTGnI8+AxC3HnvmdIu5tX5CvPwEka8th1FNgrRMDOic/QgEj6gV7VVMhZnhQtJVtLQ7WwcskSAFCZlFQadz4j+vI+YxbVt0fWwV1lMaUh7uz3iYTffTr9utcqjYVwkPxtk0Z3VhZpmBgtiexdRPnKUzhJI9pFntpWmlhRy4LksVaq8fXSLC/kKU+eaCWPNqYxG+ZB/XzdcgCASqSk0mDe/LdbUhq/2nSeznx0W62tUGRiLkL3VCIqB52dBOG6e4rPRWul5JMGszS4jWqeHKNses5XLnGShmgxBXPJNF+5OOLCwE7azIP53iB1REZofwBjGgCsR0ouDabpx1ekOH5/9wVaWl7nA+GKrNJYNWZcNQ1mdgWtZSB8uktNlXUIlkx8ZDcFn7UOdEspqPrzlWfFSRrLY7TH6bqYLY185Xa4247LdDkDANYFZZHGjVvpQfGabzvPoOJ1Dx24TA0/XKa/ey1B/xy9QR9fLrdgbFNul+coIgTQMJBlrMAujVUhAZ6i2xl1Tsy2Kbfxo60UqG+lKa1bJyv2loasKz2lNqP7KV95NpykIV7NdJefPKF+muXpwWrMIn1d8pUrkglaOj1I+8R57Dua5zwAABVJWaTBxK99Jqfcsjh+75lP6PSCMIni3y6u0h/suSDL9PjDb11QW5QR25f7mnomDYHYcJSGTLiZLQP9+xWWL/c91ErDSiB5ceieSkT7aY/68p7Hx90+cxZZ5St3xFEaAv5+RU/I6GJyui55yuX1qhVCfbydRt2+ZgBAxVE2aTAsDvOHDHlG1a6hq/T2L27R7+1y/p2qX/vmebUnAACASqCs0mC4q6r5lauOkrAHpAEAAJVF2aVh8i/zt+jP/z7z59P1gDQAAKCyuGfSYD77jOjlt27QX34nDmkAAMA64J5KQ2fuk1X6xxPXKfiDy1T7/CX69SfP038XMgEAAFA5VIw0AAAAVD6QBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXQBoAAABcA2kAAABwDaQBAADANZAGAAAA10AaAAAAXANpAAAAcA2kAQAAwDWQBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXQBoAAABcc0+k8crpW+T/znUZ/BwAAMD6oOzSmP7oDnlar1mC1wEAAKh8yi6NwclbGdLgdQAAACoftDQAAAC4BmMaAAAAXHNPpAE2JsnFKE0vJtRSJvFIiGo6o2oJ5CdK3bUhGo6pxbumWPUAAGnYiNHw9jpqimT+dcmEt32I4mqZlqM08LifNtXWUU29jxpahmhBz5fnxqgj6COPKPf4QjQQzZ5Mcx03F/HxXmp+gI9hTQjyXPm8zODz29lHUxfUBjbk9vUhGrUfPjZETWtINtM9XvLsGqNsr7QY0shWx3SneJ3meofztpQXg9Nd1mssYtN9jRQeX9t7mBtIA1QekIYFt9KI02hjHQU6JymxKhaTizQc8pK/Z0aW0kqU9vu91DS4SElRnhjvokDOP9q1SiMpEnSANm/rpYm5GCWSarXCeq5i68QiTez1U42/l2b5fG3I7UXS84Q0KTJrlEY+Np40umhaLdJqkuIz/dRU76WOY7luENYCpAEqD0jDgltp8B9hHXWflguS5NHd6fLJdqoJ9NOCLGGSNNFSR/5eJZUMshxXJj8tMZksDlJDFgEwdmlIlsdoT22AIvNqWUNuHwhSg0h4e45oezkk36Wj7dTk84qE6aXNoXaaOKcKBBmJmVtbD5nb9tJw1zatPEELkVZqMOsKttJxra5s5JOGLNfu/psiY/K9Sq8zr2fu43N9TX1DFObzt19Lxi4NxUI4QDVPGq0tpzqSZ4e0FmiQOo7o73mCZvtCtLlenKdXlEX6aJ/9+h/Tr38fTS+rAkHyTB8138dlRqsn3bo1pBEZH9Hejz6aLZbbQFVRdGm8vbBKAxO35GM2rt38jIajt2Tw82zwrCqejlu+2VVupZGkqb3edEtj1WhpBJQUnJK2XKeSSSZrk8bS4DYKtPVROKR1f51J1+x0fFo5SR21Pgo7eMvcfuFYK3nqd9Jxc0ebNJJc7t9No/OiaSPurBcGQ2L7VppQh7ZIY3WGwtzaEgfka5RcFALxp8sTQrIefxdNqWMtcV3BQVoyFrMizzWHNCQuWhr5ji+3rw9R+PQiJexNOcalNCx1CHHvq/dT97g6qJB/U32QIovGYuLITnFO4nqeE9sm4zQbFuekX39xM+I3z3lVlAvBpN5nW91G67aRRuWicZPjCfXTLC+vzFFEfN6y38QAkJ2iSuPHtu9g8LIdlkSg53pqm//53RVHcfCsqjqtrvLMsjKSd/qu1BZ6Iuak+EC6bPOTI6kyTq7WloaR6DMSeYq1ScNMRpEZUZtI3ktHWsmvJfsMaazG8ndPye0TokXkJU/LSaFFgSX5GufYPKK/AqObzjxvS2IWSdXjsx5PXgOzfCVBiRXjqUQdazTLuItJsaSR7/i8fTCssrkTDtJIcsvKZ70eljrEe5VY1gWk3vchvqYO13d1UutWMso7jmn7yxsBdc7y/HenBM7vzcL4JC3I6lga1lamvI727kgAXFBUadz/nbQMOHjZDrcu9G04eJ0dno6rb8PLpSdL8hZYE3Gcjj+ptTTUmIbZ0pB/zPXamIbs6xZJy0zGGejHNe4KLbIyQx5fJOqQPaEtUiRQR3uOGBlDnqttX89WcYeaayDcfG3xMdpj9stbkm9m4mFme32pZKwnZlmnrWUl15mJezVBs6nuIfM8rYneCUsdGmuWRp7j8/ZOn4MUUhrmfiq8fmruixqfCYFTHQmte8rcL/2+21uCvE6//tqxUmGWx+j4swHyeIO0p72fRmdi8rNnoNdjYHnPAVgDRZXG/+iyJnpetrMhpHGBk5K4s9f6k2m+n4K17TSl/lCTZwdpj+p75plVo10B12MayWVxF8xxtp8eq22lCXNZdpMY4yP2c9QTlD0hzPb6yZO1ayxze9lN4hOvRSS4fNKY7hKvUSVjPTHLOnNIQz6XXS1Kow6J3gm9Dh2LFFxII9/xnRK+hSzdUzoZdchjGF1IRkK33yzkk4Zz96JO8twMTUR6ac9DosW4tY9mZWsK0gDFo6jS+Mlbty2JnpftcFcUd0mZ2+TqntLrKmf3lFOysPyRyT9+kcz17g0pDds6k1XREhB3l+EzvCBaKS0B2mPJjtaWQgp5nMzEJO/uLa0Wcd5bbS0NPSEkuOXjo+7Tzu2czAQSE60ZL/m3h8RrMpONcW2K1T2VkVDPDQpBWhObE/Ehca62rj/zPFKtLxfSyHf8jHI7dyMN3sd2nfl9M7ZxuL6W7in+DNVRw4Cty8y8STkXpamoaF0Yi2L9DIV95mQNSAMUj6IPhL//8R2K/Mst+ZgNlgS3LjichGFSuQPhxh9wU58xyEtJY8wg426e+7AXoxTZ5adN2vcXlgaC4i5XCGZR/ImnBpS1AWiTLNKQ6+v91HFUnGdqTKOVppSwnBKCXBcUyVZL4iaOCUQeQyRaLdkYA+FqoJbPe2inPK6rgfC5EdqnDYQv9PnFMcWdsLjTT8ZnKNLIrTLzWAmaHuiiiNN3W1T3Gdcb59fLA8aR3RTQv2cik62P9kdF3SqLSmE1itcoVvBdfu7jl0gaZ/vk1OuBGdHSWBHnPdAov+djbmMfCJ/u3WYZCJflPJZ11rgustvzISFmfo0zvfIamGXJ+UHZqhk4y0uQBigeRZfG+satNAT5vtwnE74x9bF7ZC7Vzy1ZFUmxr5ECXk7KYpuHWmlY/bFbWInR9LjYVy3qyKmbcvpk5v6OCUEmcZevTbEk1tu/OLg0ok1T5Sm32o2vRRpMrim3qzHR4grK68ezv8JHB2lfqvtLvQ9ygNiB2CSFzWsv6g48bj0PcXVoNrzNqLtLHS82RvseMMQgB45zHr9E0hCw4Bv4fRefmaaeMXFDoY9PuZhym7r+Du/7ZG9qyi2/pu5j5o6QBigekAaoPGTXSv7+ewBA+YE0QMWRnOmjZtFCUD1LAIAKAtIAAADgmnsiDZ4JxVNoOcozKwoAAEAxKLs0eCaUPpWWo3yzowAAABRC2aWBf/cKAADrF7Q0AAAAuAZjGgAAAFxzT6QBAABgfQJpAAAAcA2kAQAAwDWQBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXSGncuHmTEAgEAlFBceNG5mMhodddQEAaCAQCsRHCFIP+qIe+bQEBaSAQCEQlhp787Y93E2a9BQakgUAgEBshTDFkeyxSQBoIBAJRCZEv6fNjIcF1FCEgDQQCgVjPYQrB6VEPc/sCA9JAIBCISgw9+ZuPhYRedwEBaSAQCMRGCFMM+qMe+rYFBKSBQCAQlRh68jcfCwm97gKiLNJ48c0E/c7/vkCf/8Z5V/HHz12gQ9GrjnUhEAgEwiFMMeiPeujbFhBlkQZLwEkOuYIl41QXAoFAVEXoyd/+eDdh1ltglEUapgicypxirdsjEAhE1YcphmyPRYqySmOt4VQXAoFAbMjIl/T5sZDgOooQkMY9jUV6paGOXphwKtuocYpeqN1Bryw6lSEQiDWHKQSnRz3M7QsMdE/Z49IMvfLsFtpcX0c1tV7avOUpOngq7rxtwZFLGkbZEwcXHcrWc0AaCISr0JO/+VhI6HUXEGWRxlrj3kljkQ7v8NKDLa/Rh5eu0o3rV+njd8L0RP399N1TpZjNBWkgEIgihSkG/VEPfdsCoizSaBtZprbDy45lTnHPpHHuZXqi9hF6Zd66frprM9XsPZla/vD1Nnpis9doiezYT1MX1LaLvH8bvX5qf6r8kWeFgK6n6/rwcAs94hWtmPrN9ETXS/Tdhx2kIevhlo6KhpfpY3P/1/Rjt9FPbedqhCGcR/rn0uvOhmlL7RN0OGYs56pnqt0mK3k+ZqI3kv6PDvbI15EpNVV+KH0NNje9RB9cspYfPH6Inv9q+hpOp8pFXDhFB5/aQpv4tXu30DPhd+iKWebiGl+ZCtMzsu462vTVFjo8ly5DINZN6MnffCwk9LoLiJJLI/rhtZQE3Irjnknj+jv0/c0iEe6foYtaEtLjysk2uv/+TnqTk+/1GE3v35FO6irZy5bKVbFt7A16QdT3zGHVvfVODz1YLxLmOzHZivnwtRZ6UGzvtqVx5fUW8ty/iw6fNVpBH7y0gzz1LfRTPeGq+Pigdl7m8hOH6KJ4nq+e/NKoIw/Lci5OF8XrTG0nwyiX1+CyWI69QwdF683T8oZK/Ob+YZrma3h5hg6K13l/9zvG/tfn6OAWIYLuU8Z7EDtJL9wvBNinBJjvGs+/JFqG4lzVa2NJ37+5k6b4XOTxEYgNGqYY9Ec99G0LiLK0NH40cXVN4rhn0hBx5czL1PrX4i6V73DbwvTTGZHgU+VGIn/+da2r6vIb9LxIqIfPiecyoYnkqyUoTsCezlPquZfu71LJUYaoz6mlYZZZpGEsP3VIP58YHX7C6W5fROwQPZVK9MZ2xr7568kvjQfp4FlzX3twua21NtVD96euS+b+Umg7lOAmOsmzuYemdWnz/vUi8fM6F9d4iykYGUJCD3rpu6fS2yMQ6yL05G9/vJsw6y0wSiINM+lni3ziMLdzKitL8B3qO4fo4LM75ID4pkfM7hPjLjnVbZQKlVBlQhPJTauLE1pNOyc0I1mn7ohlGOvcScM5WU93b1b1W9dbRHHhNXom1TWVv5780jCfO4VD+XXRWsixv94qks+fNVslKuT5q31cXOPM9yfbNUYgNlCYYsj2WKS4J9LYV+nS0IO7S0QiMrpPOOFtpu+/47Adxz2QxlSnaBU5SuMmXTz0BNU0vUYfv96S6ppyU0/RpaFaY9n2zysNOdak9lnzNUYg1knkS/r8WEhwHUWIsnRP8W9PuRUGx72SBvf119i7RkR8+NIjqvuE+9ttA8wc5vY5Exo/L2P3FIdqYTzT5NX2y18Pn/OjLxVRGnIQXu+eyi4Nd91T2a7xVXqzRR8/UWF7PxGIDRWmEJwe9TC3LzBKPxA+f31NwuC4V9K4cfkUffd+Lz3SeVKbcvsytYp1T7xsJNGLh58iDw9mnzHuZi/ylNyviiTHA8J5pGEfCP/g0K4cA+E36c29ooXTeYquXDXGUIwBbJF859UA9stPiWQqlh0Gwo2I0+tN4vi2JJ2vHpnEt/TQlByonqOfttyv1eFGGumB6htX5+iVHUKW4hqkB8JzSEMNhD/R944aCD9F3/+qfSA8zzWuvZ+ef814v67Mv0bP//VT9LqaNYZArJvQk7/5WEjodRcQZWlp7BtZdi0MjnsmDY4LM3S47Ql6kKfFiuS36a8eoecPzljuXD881EKPyOmexpTOV5RA8iY0Ea6m3Kq4IoT0qNw2XWf62GqqbJ7ppLKLSptFZUbOeq4v0uu7HiSPeH2ezVvo+e42enRN0niEvvtST2pK7JZdL2dMuc0qDY4Lp+hHf3O/NuVWzaTiMhfX+OKp/fTUXxnvj2fzDvr+Sb1VhUBs0DDFoD/qoW9bQJRFGmuNeyqNDRbcJZa1+6okkU8qCATCVejJ33wsJPS6C4iySGOtEoA0ihCX43Rxhr+zkP5CX3kC0kAg7kmYYtAf9dC3LSDKKo21hlNdCHchZ0PVP0ith8vZyuCANBCIooSe/O2PdxNmvQUGpIFAIBAbIUwxZHssUqB7CoFAICoh8iV9fiwkuI4iRFmk8TvNa/93r3/Ugn/3ikAgEHnDFILTox7m9gVGWaTBvz3FEnCSg1OwZPrFPk51IRAIRFWEnvzNx0JCr7uAKIs0EAgEAlHiMMWgP+qhb1tAQBoIBAJRiaEnf/OxkNDrLiAgDQQCgdgIYYpBf9RD37aAgDQQCASiEkNP/vbHuwmz3gID0kAgEIiNEKYYsj0WKSANBAKBqITIl/T5sZDgOooQkAYCgUCs5zCF4PSoh7l9gQFpIBAIRCWGnvzNx0JCr7uAgDQQCARiI4QpBv1RD33bAkJKgwAAAAAXQBoAAABcA2kAAABwDaQBAADANZAGAAAA10AaAAAAXANpAAAAcA2kAQAAwDWQBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXlEwar03fpP/SdpE+/43zruNPWy/Sq2K/9UeUumtDNBxTi3ZOd1HN9iGKq8W7JR4Jua5HbtsZVUtrJDZETbleDwCgaimZNP7TnguOYsgX//6b5+n9pduqlnvI4iA11PoofEYt5wTSAABUByWThimBtbC9f1nu8+V9Fym5qlbeI2Z7feT3+ciz9yQl1brsQBoAgOqgoqRx9cZn9MVvGS2UPYeuqrX3gNUZCvuCFDk9Qs21rTSxotanSNBsX4g219dRjTdIHZE+2qcn2cQMDYSEcGrraNNDrTTctztHsk/QQqSVGnxeqqn10uZgKx0/p4ps2KWRPDtEHUHjOB5xvh1H0llebts2SMdbgrRJlMvz1MqZpWPt1GQeN9RH08uqANIAAGShoqTBvLVwi3650diXn98LkidaySOTc5Km9nqpecSa7hNHdpLHL2RyTrRBknGaDYdE4jaTbJyOP+mlwN4xWpLFMxQJicScRRqJo7tFXV00pQqXBkVdwUFaMhYtWKSxPEb76v3UPa52XBykpnohukVjUW5b66eOozHRaktSfLyLArXp8uRkO/nN466K1yAkmKob0gAAZKHipMHsG0nIfbnVwa2P8mITxZle8luSeIyGt9dZRbI6me6ekgm3kUa1YhIJOmtLYyVBCb0loxL26AW1rGGRhhBBYlnvODPOq2nIOIrR0piUzw2SNNFSR/7eGfHc2LbjmLb/yknqMI8LaQAAslCR0rh9h6i+45Lc/9EXzT6TMhEfoeb6VpoyE7nZVaXu0I3xCx+FOfem0MY0ePzC10uzRoFBrjGN1QTNprqn6lQ4J2yLNAQJrXvK3LcpYuwot7WNaSwNblPr+HzT+6RDFx+kAQDIpOKl8fX+8krD6NbJTKj+HtMSxZWGPJ7sJlJ3/TkStkUacjuje8qYNKBaGq6lYX8NGpAGACALFd099R+fLXf31CJFgl7qPq0WTeb7Kcgi0JJzsbqnpjvTiV5ybpAecyONDBGJ89pqk0bW7il+nXXUMJBqPhmYM9YgDQBAFip6IHzi52UeCJ/pJX99F01nTPcVSTbgpY4TRmvAPhA+3bstx0B4lMJbsw+EL/T5RVkfzYqWhhw0b+RuKhfSONtHAbHdwIxoaazEaXagUc6Sskgjx0C4fA31IYqcTRjLM/3U9JAQI79ESAMAkIWKksa9nnI725P9exkL4QDV7BpTZUWccrsaS02L9fhCFD46KOoKUGRelWtYpCFYOtJKDV5xDvU+auoZo8iuOgqGDSsYLQ3rlNvuY9YzWBpJj6XI81QCgTQAANmoKGlU0pf7AAAAZFIyaZgthrVGxfyMCAAAgAxKJg3+wcIvr/EHC/+k9SKNnFmPP1gIAADVQcmkAQAAYOMBaQAAAHANpAEAAMA1kAYAAADXQBoAAABcA2kAAABwDaQBAADANZAGAAAA10AaAAAAXANpAAAAcA2kAQAAwDWQBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXQBoAAABcA2kAAABwDaQBAADANZAGAAAA10AaAAAAXANpAAAAcA2kAQAAwDWQBgAAANdAGgAAAFwDaQAAAHANpAEAAMA1kAYAAADXQBoAAABcA2kAAABwDaQBAADANZAGsJC8dYsuL1+l2PmLtPiLJfr5/C9o9ucLiCoKfs/5vefPAH8W+DMBgAmkASRXriboo3Mxml/4iD65cEksX6ObN5O0eueO2gJUC/ye83vPnwH+LPBngj8b/BkBANKochLXrsu7ynNLn9A18RwAJ/izwZ8R/qzwZwZUL5BGFcN3kQu/+BiyAK7hzwp/ZvizA6oTSKMKuX17VXY34A8f3C382eHPEH+WQHUBaVQZ/EfOXQzxT5fVGgDuDv4M8WcJ4qguII0qg+8OIQxQLPizxJ8pUD1AGlUEdymgSwoUG3yuqgtIo0rgGS88gAlAKeDPFmZVVQeQRpXAfc+YJQVKBX+2+DMGNj6QRhXAX8riOfYAlBL+jOELgBsfSKMK4IHKUrYywhMr9MTBK/TRp/j2eDXDnzEMim98II0NDv9uEP8MRCn47DOixsEr9PlvnJfxH569QB9eWuv0ywQtRFqpweelmto62nRfI4Un46oMFE6MhrfXUU1n1Fic6aVArZf2HCnNNebPGn6ramMDaWxw+AfnSjGzhYXx2EvLKWGYsfWfLqst3JE4spM8Iok1tA3RxPgYRZ4NiGU/7Y8m1RaVTpS6heyaIpV6h22XRh8F672076iSxukuIesQDRfp9Pmzxp85sHGBNDY4/Eul/MNzxUQXxm8+/YlFGt87vrZusOlOkdC2DlJ6CDVOs0ejtLRenLHepGGnyNLgzxp/5sDGBdLY4PCMFv7F0mLBwvj6jwxhRKZu0M/mkvQrjYYwnnr5itrKPUsDQZG0/NRxNEbJjJ4tp4RnS9KrCZru30kNXrGdaLFsDrZSuG2beN5F08YW4iKMUXfIJ1owYhuvn5r7emmfJdHn7iJLnh2ijqC2f88kxflcZcLl45rhnHzjk73UfJ9Rt2V/gZTm9j4a7QvR5nquQ7S6WoZoIdt4cmKOhluCqW0Dj/fS1AVVxiwb5ZvksYLUEYnSaIt4bl7D2BA1ibLu0+rYqXMXsX1IKLsw+LOGWVQbG0hjg8P/G6FYP2++KqoxhTFwakWuG4rekNK4G2FIVuM00cZdUiJpcUJtH6HZ1BfW80tjttcvk+dj7Ub31rAQhqzLlEZ8jPaIBOt5YCcNjEzS1EgfNfuNJGnWsRQJkac+QN0jcxRfjtFsZDcFUl1kMxT21ZG/ZYQWYglaOt1HTb5tNBAVWT0+R1Pj/dQs6gqK854aFy0k47KkWZ6k7gcCtG9AlC2L/ce7qEGcT6B3RhabiduztZ2Gj04KeTSKY9dRw8CiLLewKq5HyCteSzuNzsUoEZuh4V3i9fvFa+Xjropz5dfm3UbdkTGaOjpE3VvF9iwYB2kk5sT1CDeK44vXPiyeR4W4ja3uGv6s8WcObFwgjQ0O/1OdYnBbCON//eByhjDutoWRASfgSLtIyOKOXCTw/af5VjuPNFZOUodIiA1hPcEmaKrNl5KGbMnUt9KEfud+blAmTlnHqqhP1BHsm1OFTJIm+O685aR4tkiRoEjqoT6aXkw4tIZcdk8lE5QQ0kiIrDzVJupWd/WGNHZr55eg40+KdSGHu37RsvGIBD9wVi0zfA3E8TuOJSl5olWUBykyr8oYFomQnpM0JEXunmKK9ZkDlQmkscEpxh8wC+OrBwxh/NO4IYzB00USxqpIdvrtLd9Nsyhk0swjDXsCVMRFy8GUhtH9Y0/AmXVYumnMMPdLzNFoz0567AHuorJ3H+WRhng9o0+qri0Z6s5fl4bt/JzP2XxdZj3W4OPrr1tH1gdpgCIBaWxwCu2euiXurLMJ4/H/W2gLw7gL9sg7+jTpO3ElDb08PiK7g2SSVnfZuVoaC+FA7paGaq00j1hTdHx+jhKqVRE/PUazZnFyhgYC4py7TJHllkZ8iBN5SNz9q1ewKloS3Iq5C2kYLYlGGtULVuO0MGesqISWBrqnNj6QxgankIFwFsZf/59PpSD2/9SYFdX/5kpKGDwoXiicVPnuPfhkH42OT4o7+m1yENcUwWwvC4AHr0do6ugg7XvAGFA2k7R9TMOYsiuSZNYxjV56TA6ap+tYGOBxEG1cpJ3PwUtNQ6I8YUjF88BuihydpIlIuxyT8KsxCZbGfi7f2iXOf4Sm9YQt4CnFxkD/IiWWY7Qw0k5Bsf3dSINWFymyVbx+fcxiG3fnhWiUX4o5plFvHdOQrZFs0ohyl5doPXWJ6zsS1Wax3R0YCN/4QBobnEKm3P7tgPHFvVIJwyQ+np5d5PHxjJ/0Xb45W8iYDWTIY0C0PlJ39rbZU9x1NNFn66bRZk95fCEKT47YWgcJmczleIraplsk+RT67Kt6HzW1j9GSNraROCFEoo4fPqNWmoiWwFRPemZU4PE+Cu8Sz+9GGgx3lbWn69scaqcJvaGlz54S59rQwpMDxPNs0hBHmWo3r29vRtfWWsGU240PpLHBKeTLfff1xOkvv2Okrr6T10sijIJJxmj2rDW9zvaI1kmgn8ye9cTcDC3p3VOqi4sHj0FxwZf7Nj6QxgankJ8RYWn8dvMn5PuHuBTGjheXK0sYlKTpLtU91cNTXm1dSwzfWXP3kepe4im3e7iLy5ymCooKfkZk4wNpVAF3+4OFu4auSnFwNP/zVbpTUcJQmN1TetfSyJxlYF12Lz3uN7pghFAadvZZvxAHigJ+sLA6gDSqAPw0OigH+Gn06gDSqBJ4Rkspfx4dVDf82cKsqeoA0qgS8O9eQSnBv3utHiCNKoJntpTiZ9JBdYPPVXUBaVQZPFAZ/zT1i4AAFAR/ljD4XV1AGlXG7dursu8Z4gCFwp8h/izxZwpUD5BGFcJ/5Hx3iC4FcLfwZ4c/QxBG9QFpVDH8h88DmJhVBdzCnxX+zOCGo3qBNKocnvHCXQw8xx7yANngzwZ/RvizgllS1Q2kAST8pSzubuCfgeC7SP7hOf7F0mL91z+wfuD3nN97/gzwZ4E/E/zZwBf3AANpAAv8u0H8g3P8S6V8V8n/G4H/qQ6ieoLfc37v+TPAnwX8lhTQgTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BpIAwAAgGsgDQAAAK6BNAAAALgG0gAAAOAaSAMAAIBrIA0AAACugTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BopDad/+YhAIBAIhD3Q0gAAAOAaSAMAAIBrIA0AAACugTQAAAC4BtIAAADgGkgDAACAayANAAAAroE0AAAAuAbSAAAA4BpIAwAAgGsgDQAAAK6BNAAAALgG0gAAAOAaSAMAAIBrIA0AAACugTQAAAC4BtIAAADgGkgDAACAayANAAAArrmSuEb/H9qILJm15NMBAAAAAElFTkSuQmCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acoustical consultant</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       arlabin.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>0120 433 1669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390ce57072ab3f3f</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Building acoustic, insulation, interior, exterior contactor  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       phase- 01, Office no. 03 , Ist floor Krishna Plaza, 37, Pratap Nagar, Mayur Vihar, Delhi, 110091      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD7aSURBVHhe7Z2PUxznmefvz0hld+/2V11yd1W5q9vsnq+K5DjIcZrbnKh1eSouz8XlybksIgfdWoG1DatIMkERDkEOBwmnXNglwWZNPF5KnIiFRSRbK4JXC/GKZVeGRIZEBkvyxEgjSxob+7nned+3Z97u6ZlpGGYYmO+n6qmZnrf77be7336+7695339GAAAAQAD+tLmFIBoAAAACAdEAAAAQGIgGAACAwCjRmP/5IsFgMBgMls9Q0wAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAlFQ0fn3rI2o/maAv9P2a/s2Bq8rku/wW5zAAAADlTclE49TcXfpXf36VPv7Vt31Nwn48e9fsXaasjFBzdTfNmk1gWFuhs21R2lVdS1XHZng7TtO9jbS7jrerQxR5bISWza6geCQv9lNzfYjveS3tujdC+1oGaXbVBJYjnE/mzy9QfM1s5yAea9R5qxxQfqCRRlfMdoVREtF4cfpOShy+9Bfv0qvzSRNC6rv85oTLvmVL2YpGghZj7dQQ0k56d7Sdzl4xQUIyToszYxRra6Jo/frSn7w0Ql3ReqoRQairp+bOMVpMmEBDfIRf6HA3Tcd5gx1A4lQLVdVzGpYSlFhN0PLCEqWf+Dbh2hQNNJrrDoWptX/Ougb7frODfrCFYhc9NyUAyhHuHSG5bXm50M3nyvXsZuh4XYiah/le8zNIXhqkfSV0bL7XcoXfl7ow9UxluTfXxqiVw4cume0clE40Vmh0r36uKeN839A2QvOOAEM0iisa125+SL/zuBaErvFb5tdMJEz2kX2v8jFlSZmKRvLVdqoRJy2ZeC1Ji8ONVBPup0UVKi9BiBpa+mi0rymP4/Ew10eR6jAdjc1RnJ1/YmWORg+EqebhYVq0Soez3Vy6tV5o7/b2Y4li0Vpq7l+ghFxnfIp6wiE6elo7PxHFGkckZft8N0XqDtLZdZbqN1U0rnkcWYkdW8a1JGbUPWuObU4CSi0adrqTiSWaPBKmquigzvcQjeKKhvRXiBhEvvdr8wvRL7k++r1X36Nvnbqlvjv8D95H9v36/1t/qW1z4IzOmWFozKnmc6n9cXaQTnJUZumkszPp8Ia2CVpOXYIpgTrHekv8phlHNduo0suYdSxnzouDdPhBOVZKr+00vmQCcpKkybZaig5YO6+xk6uOUOyys20+85ZWbeI03lRLDXa8wtocDdTX0uFTclN8SmUu0y/W7DH+br/wrlJ8lLpiC+lSPN+jyU7TtCU1m/4Z7bi95H0W4rfs+7mO2sDlQYpWt9PkbbPNLA/voaq2c5zOBKcvQoddHkPyTS31XDCbAclwtFcmUrW6mnq+L2P63qv7p+6ntozzqOdq7SNx+ji25dOd6Xzd2EmTdt5ksoeb9yLWp2pXfkLguhZ+hqONIYp2z1i1M584vGnM8X6o+DsmaLbf5A3JN6fS6ZB71Dw0ReOmmbSmns9lP2/Jc4+FdRNqRs3RJlM0FLfPUVd1PQ3M8feMdEtzbBNFTE0/8lg/zZtTq3Tbz0ZZ+li7Jq+euXVN5UrRReM/PX1dCcHfLOhHJCIh2459svVqSjjO/zypfvtsx3W1XXr0yx85ws5HHEZ8jmKc+WuOiLNgVGYx4fxDMn6OelIOlJ3U6YOuEuiylPijw6n2/MV+LqU3sghJZMkl9WKFeyUXMleGuSrPmekyB3JtYflUO4WlKclyXP7oTN4zZTYV/NvD2ZxLQNFYnaDDtvBYzPfV8wucPqFXFHJu356h41ICNc0otMKOkre7XpWbkqDpjnqKHJsyJfw5GvJ7gYU8z0Icf0PdHhq4oB+Gqg1UR32vJwO5T1ybcvXDTHX61wrkWZ1upwg/9/zPyo1bNBZoyLovycuSH9hJXVSB+Z+d15F5tpNnuDYaPkjjJn+p2mgdC6O5XbnD9XtR09hPs9LkKI/KQ+pajGBE+Hm7d/OJw5PGXO+Hdr5h6jq9wvcnSfFXOylc3ZKq3ak8xu9PbI7vpqR/iPev76N5Feq+t7Sqa446z3lZv2i40r3GefgYbzs+w8UKjdv3ht+xo9J8d97kqiV55pxHAxUWt46ii8ZvNWtxuHlHj446/sp7LtEQk98E2Ue2/zkfszVIxt5Do3YJ7GIfZ05T6lSZxV0ClcxawyUqxW1+GWzHYTLX+DW9KftG+xf0BpO8MkPTM/wS8PfZY1wyc5XqlygWCdFxq4DujxENl0D4/casRzQ8L4aN29l5RIHJtS3OqSrC1Xy1pUlMDdLxU3ztPvdX7d/o46zzPAu5nylBNsz3conOSldW5D55BSLjN32PVcnx8y0Ba4Vu3PdR8l7Eat9nMZqZotkrxvUUJBo6ra1j9hXpmqR2jvnCddpyCa6+ln4aZYdZZTnzND5xeNKc6/1Q8auanoPEl34/1LH2+2PiVu8ei4j0rSnBMNh5xY2+Fy7RkA57ruFUOYU4T7qTCY+QyrOqy3xW0vcnhcpZI9Q6XfaB5twjrpxXdhRdNP61GTHliEbnS7q5yjavaMgxW4NkRI+jVE095jeVWdyZwXaIUsqYTzVPGYdiZ665QdoXkqp/O1fTp2gxlTcsB+SxnguSpvR2ZqlbH7tdREMda9VSXKj0pa81ZV4HLuR8Fvr6u87YLySLk3TQ+8XlJUMgGL/fBH7xVU2jjh1l3ojduO9jkuYH9tAuaZJrY+d73vSnOOR7dt7n5dr2d/qqxqjuV5Bw/7zgoK6FnXgzF5Pn+8JZahqeODxpzv5+mPhNHtLo98LJ4/LsXe9Gxv2wmqccc8Xn4Pcu6qbmVMHAGzfXrtLNU455npUcI7WKC45iaBL2QBNjme94eVF00fj8t+NKCGaW3lfb3uapT1jNUz/75fvqNzlma/DJ2Kpaan5TmSW7aKiMrZqnzOvizVwCl1r0SCZpmw3TUa5uOxk11bSyLoxAbJPmqbyikWpSyEPOZ+EvGmqUV1DRCNo8pdD3e73Pzy0ahvgCzY4NUpf0+YQP6sENQhFEIz1gIUi4Jx97UNfi3LM1GUjg7QT3iSPw+2Hit/KUji+gaNzmfbkg1zy8kKptePNoGp13cjpuV7qTHBc/K2mecmq93meVrclOxaObp3S6Apy7DCi6aBwxHeFP/zj9QolISO1Cah2OYAhOLUSO2Rp8MrbdKaoecnbRyMi4V4atYY/8Mpx3l54SY03GaSRp+ojVd+JglzSzEqAj3GE9osGp8u8I1yOLbAfpfQFzbfs1TyWXZmh6gW/M0jA1SL+Dfcps9yDvsyigeSpnR3iczh6K0FFXU44WDa9I5cMlGiwW01K7UCGC3TzEFCQa2hkV1jzleS88ZAig9NHJMZ7OdFccrjTmej9M/K5ntw7R8Mkr0x3uPJomgOP2ubeuApoUMKzzLXPaVbOUlZ8U8kxdhQadj3Keuwwoumj84/IHSgg+dfCaq03Ry/scJvvIvnLM1qAzotO5muqM48yl3IFP5rMdlXSISbvuPNc0ktKJ3iTNVOmX4uzjXNrguJVOcolqsoOd2IEJ7SjM8Fbp6BOSMpLm/mBNHu4htwmaH3B3wKfwczyXJ+h4N1+v2XSRZchtVZhrA9azzCUSgms7Z0e4vkc1jYN6TLy0JfO1NPT5jHTJ8yx0R7jpGGUSF/q0IDlCem2GJs9zGsymG8+QW1ca2QkMRa3/peRpnlqdoVj3sO+f7NyiwTU7Llk7z59Ux356mK8ugDTR+DXOW36JdjmyzG3d0c1CKH0k0lE80kLhjI7wbOEbEA0m5SyzxeFKY+73oyDRUB3O9dR1ip/3bXlenRSVEViu+BzWKxoJOnuAfYSM3OO4k0sT1HO/vPcmb5r/qhyf8Xlol/r5/WqkIc6jyduc14eaVPOZPneCZoe6KTZjHlAZUXTREP7YNFH91d96pTaNDMGVff7bM35vXqmQjLiHjg/3pYYeRg+NeIbc5nBUZsigM+Rv4PQwHbVL/IkFGnWGFHLcDS3sHK08kZjpp9Z75bzm+Kmg98Lz577GPpo2ne8u/ERDfvPptHMI8ue+nCLBeLftIbdynT2n7VrSkho2mbpHbdb9t8n3LBj7fqoht9YLqEa6hfqyXnfuYcH8Qg+2uP5MOXrJL5GMcTDOYAgbr6N13Ws+5+FBWyw5b3ENR8J8O0pdjsxnm1kes4aDy5BaTyUye/jGREPSLKOFatihJtbyiQaT4/0oSDSY9L/ldZ4a7454OtYd1isaTGKOhkxekaHyo6PdqZqqSrc8T4856ZZRkiofybvVO0GxA06rgUlHGXaKl0Q0Tv/jXSUI97Rfp7s+lQiZk0r6NmQf2XfryP9y7DRUE8DjprYDNh8ZfRe0nwYAB/V/KDPEt8woiWgI/71b1zaOjmW6p4YfrKqwresAd6g00Yhz1brFPcQYbCJJmv9eEx33jJgBIB/JOa4lu/4cWT6UTDR+cX1N/WdDbPZKuroxdlHXQuR32WdrqbyaBgAArIeSiYbgzC/1mY7rqhNUpkN3Zr79Vo55qQAAAJQHJRWNDz8i+pNe3Uz11eEbFDWz29b3xFUYAACA8qakoiG8feNDNd+UiIWYfJffAAAAlD8lFw3BGU0ltrWjpQAAAKyHLRENQfow0I8BAADbiy0TDQAAANsPiAYA5YRMnZJaN3v7DAG3/42f+e9tNzLXmKypAbYnEA0v9vQRatqMc6nVw9SL4ZkOQJv/NBFp9JQArmM4bte6w+smwHQHBaBe/Dq+Lm/0PtNTbDlqepRaahjyzIthUHNzcXix7lUw9ASA3kkUFTKTcl2tnmfKtW52iUTD3D/HZAW5w/1TRriCsR7RmO0Npedcy8XtJZo/PULHW/ZQpMk7RQmTJzw+5UwHVEu77m1yr+TH5A5P0Hx/ejU+7yqbMj9XfGGGxgfbqfX+ejpuT1i4w4Fo2Mhf9+3J9MyEhRFrYRgvMg2H/ypdNpkOPmPd4XVTAtEQB+JdAKmMRUNNq55xL/UMwhK+taLBKZEZfmWeL08alajVtdN0xtRspRQNM48XO8ME1wRishY8P3uXo8zBekQjGHztUmhrG6RYZ8RnXqs84WrG5EYWXy0EGeu45wl3FkxSk1J6Jy5l5BplPrPjsT5q5bzlmuV2hwPRsFkYpuZIn+ulVi9ARoY1KJGxluTMShYHn7GEZCeNjrSoCdtUJlzLsvaw2ld+M5ZKX641yrUDyrr+uQd13ZEoNdSF6PAp6+q9opEtjQ7eydwGpNSfnmgw1xrJKg0dwzT+uIRnn1RROb2Hm6iVrytjCc84l9yrOcyeZpzJel6Oy+3A9dTzuoaQ6cTt/JE3vapGEfI4GDMtvuNkXfdXny92foy61FrnMpGg+/5u2v3zhpsClOvZ87OMtegJOdUkjmYNcyFDNPKs5x1IVMx7aN9jFznCFwe8ExLyO2hNX5873L2vQk2Xb61ImPIR8owgGsDBrBHePGJ5CQtVQvSbgjyDoKIh07KP0eKKXpoy99rDmXHmXqNcZ2417bs4RHNt2WpJzou4KFNm29N+e0Qjdxr1dNfhxzkemTbanDPloPKskazSINPFjy1Q3LUspgdxepzWaZmy3DNzqUxjLumZZEeVule5ziuzsdqOXW07BQPtxHOKRp70yjofrjU9nDzgFDwyRENqe4M0Lye4vUAxfubhPtPEtZn3z0dUXI5VFhLam66Fq6n76+v5Pul4M0TDTPOfdT3vIKJhsO+xH37hco59w9aDYmQNDScP5A7X990tBPKbeVdd+O27s4Fo+KFeIs7YbNGsk4bp1cn8F6f34iMa0uGZse6wnk7ZIffawz5x5lyjXDJ3jvXPPaRfxASXtGV6a+M8PKKRM42efRW2g5KmkBxrJKs0eETAF4lTmqZMrWLc8R7OTKHskMVJpO5VnvO6FmtyZqlVJUu5h3lEI196JT6rJqOarOxZcDNEw72YljqH02S4mffPRzTsa5N9ajyLZ4mopNdk94iG67xyHe71vEshGq53g7F/yx0u6/N7ahpqYTM/cYBoABtTMo44JTsblzPJh36ZU81JynTzkXvdYc+Lm3PtYR/RyLlGeabDc61/7sH1IqoFglggzyQ8To3JlUY/Z+T5LdcaySoNQZxLKk7d1JPqEBdHZ56R10nkXJvZeraytG268zqAaORNrwiZU9hIcE3M04GfIRrZzyds7v1zk3Ft1jlSZuKX++t8zzyv27Ha+wbBe81e/MJzi0L+cNdCW8kV3f/otxomRANkIEs32iVBhW52yTZaJxMfB+8lQzTyrT2cGad6eVRGNyWkPA5IN414fjN4X8TEqRZ2wJ00zU4qHWeeNPo5I/s3lb7sayRnOp8s2HGmHL4tIHEab7TuVZ7zptcykBKn1XS0KaJhSujShKfWYfcsb7se0SjG/bOwm6dUXDnWXbGFIPO8WyMaG2+eYmTlwE7vgmpWn0YKiEZlc7GfopF+98sjouGplquRF76jXbKxEdHQx7gyo2vt4cw47ZKSwrVGuY9o+KyF7ZD5IupV2MJ7G/kYJ548abwm12Q1FwleUfGcw14jOdP5ZMHl9MTRc0k+Nmw1VXnuVZ7zCqqG8XgLNbtqk3IP3U189n0KnF6Tf8ZjLVTVNOZ2xOsRjaLcP4OnI9x3hFfqvpSfaOTu6M4f7kUth+t9VgqIRmVjRrekhtz6Nk/p0rXvePus6217nJYfGaKRZ+1hRkpGYelzMYtG516jXGfurOufe/B9USWNailOJ858aUyv+6zCvR3hOddINmlIOZccayZ7nJ5qWuB4sg4ayHNexRzXWCQOl3PT8TT0zai1w+V6u8J8P8x9ynSW2dDxSBpbxzyucD2iUYz7J/0kS1M0sCfENUhryK0SEZ1/1P83VJNNhA6b9G9YNHKtUW9wXbMPvuEizHJvzJDauFrH3RK9fOEOt1do8XQ3NYQifJ/Nby4gGkAcX2pt6DC19nr+5KQ6Wz1NCg7y8vmut70R0WByrD0sJOcGaZ/0JTjnzLlGuWTuHOufe8j2oi7z7zW2I8uTxozw/oNuB591jWSThpTzMffQb81kb0lZPSO7WSnz/uc6r4ad5Oe9w2OZKxN0VAmj7pMa6NizAdHg2yLL7PrV8tYjGszm3T+Ow1jWP/etztDQY2GVv/T50vtsWDSyvjNpvNfsJVu46897kvc867jnC1fp5OtsaOmn6ayvLkQDFEB5r7ed6YBKgsfxqNFCORxAVlL9DGa72KhaFTszr+PcrpT6/gUEa9RvPyAam0a5r7e9FaIhU2dEzHh92ZyinnCeGlcWSrZmshrGuqL+b+LbBLlNKc81p7FG/XYEolExbFFNQ+bycpo0pLmvX/cHlC2q876Wdu3x/LMdAKCAaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwJRMNO5+QPTXM3do33Or9LnOd+j3nrxKn2y9qr7LbyM/u0Pvr5mdAQAAlCUlEY2Jf0rSH379Gn38q2/ntHvar9PZS0lzFAAAgHKj6KLRNX4rJQqffuoaPXXiJk3+/H1avf2RsvM/T6rfJMzZ75mXb5mjAQAAlBNFFY1j7PxFBH7/yat08uJd+ugjE+CDhMk+sq8c8+3TEI7NIB5rpKq9IxQ32wAAUAhFE41X3kgq5//bf/Y2/cNbH5hf0zi1Ci+zvK8cI2ESx1Zw940TdKjzj+lTh+6hjz31x7T3B6doPmECy421FZrubaJIqJaqqmtp171NNDCVlohyFo34+T5qvb+eaqobaXTF/MioNPO1pC1Eu6PtNHrJeQgrNLqXf69rp+nb5icXSxSLynHdNGt+AQBsDkURDen0/gPT3DQw6ftWZxUN4Qd8jIRJHHfeNz+Wirm/oM8fup+eHHuDrr6boBsrb1Ds+P30qa4f0dKHZp+yYYXGG0NU0zhI8ysssGtJis8NUnNdmHouaAdbnqKRpNneCO3e00eTCyuU8JQNMtKcTNDy6XaKVEcpdll+MKLBgtI65nNlS8PUoMQGogHAZlMU0fjR391RTv/TbdfowyxNUrlEQ45xOs5f4LhKR4JO9txDkZE3zbbhwzfou0fuoSd/Ykq6b52gLx3qpthPvkmRp7g2cuhzFPnBebphicrd2R/Rk52f47B76I86v0knU1HO0jOH9tOzr53i2oyEf5Y+0/0szW6gJpN8tZ1quLQ96Tl2cSCScroZDnhtiSY7G2l3nZTU66m58xwt26PWrkxQV1RK/7VUUx+lrrElE6BZPtNJzfUhXfpv7KfZVRPAJC/2U+u9EqZrPEMzWS5KnHq4j+azjJbzF7okTbbVUrhvjr9r0WhtaqKq6DAt6x1SzPfWU5jD9hVJNG7fvq0sH0H3A2A7URTR2PODVeXwc/VL5BINQY6V8AaOq2S8e4aePPQgPfsLs20xO3wvfewvL+gNJRqfpb0jb9AN1rS7vzpP3zjKYnPiLR3+Kw5/aj/FfsFF6A+TdPWVb9LnjnTTBaV/Ihr30Ke6f0Sz4hUTb9Kzz9xDnxt+QwLXxXxfPVW1nWN36iG+QNPnF1gCvQ44wY43RJEDY7QoByWXaFRqKqk4FmgoHKLm4SVKskNPXh7mWks9DVxUgZSc6qRwuJumJbK1OM33W3GvTtBRqeGcN2c63801gyYa15sulof3UKSjnwYaHXFqpKGLaYEJKho9Z85RV13E1D4Mt+U3rpG8OkLNRRKN7373u3Ts2LGcgiBhso8YADuJoohG1TeuK4d/8VeZfRkO+URj9soHKlziKhlKDNjZG99vc3VsP33smRN0VTZMTeOCVbO4cfoJ+tjTPyIpl1/4wWfpPldthYXh6c/SM38v30U03MKk4u4+peNeB7PHuLZwbMZs+eNywCviSD2OPD5Grak+hRnqqY7Q0CUVwiRpeWaKn4VIinbUXWcsiRIHzceOX+PvKu6DVq0nTovnp2jRRzRUuusaKTbHgWt8jlPtFK5robNmXz/RSMz1c/z11HMhnZbDp1i4pFbRK0KiSYxx7aNpjBIqPcURjbfeeosOHDiQVTgcwWhubqYLF0xBA4AdQlFE43ef0IJw80724VL5REOOlXCJq2SsVzRUiEFqF+q3dyjGNQdplvLaM9Oyo26ess/hittFkqY7QrSrYyqzNsGsWzQudFNVZJAWVYjDHA3Uc6ldXUyS5gf20C5ptmrrp1GpraSakERQpJ/Aa47grNDZQxGqCUXpcOcgjc+tqNpKJnEab6yl6IDd7LVEsYiIgFYclWbPedxNZVo0mmN8YmnqSnWIm2Yr6ecoomgI2YQDggF2OkURDfm3d1DRkOanW3cz93NEQ4bglox1NU95ROMXP6L7LNFI9X9ksHmikbV5ikvviVX9a37RmKHjdY5oGOILNDs2SF3SfBQ+SGdTtZB6GkgX6n1JXpmjyVgfHX4wRDUP99N8RkFcNzMph28hAuj85lfTcGOJhohQkxEKW0BmuqmmyB3hXuGAYIBKoCii8R+P6OYpaWLKxsjMHfqXLVpcpNP7Z790D5OSobcSVtLmqawd4W/Ss52ZHeG2W7h7/pumeSpJ5/o/S5/qv0B3TZgi1ZS1HtHIjdMR7h12mrUjPF/zlNUXotEOWTtnPYy1YcjdMU6mNpG8MkPTM1y70Jv8u12DcZMpdiwCD3tqGoFFg899pp2qooM0ajdViUAWWTQEWzggGKASKIpofPmHuiO8O88f9JZXP6Td3XG17282vU1P/zhBa8a5yrHy+5cHS9gRLmQZcvuxo39Bs47jV6JhOsLF88Uv0DNH76Evjb2jw00c3zint1VH+dNfo5NK/zZPNOQ/GtKRHTkwQvNxTkjeIbemI/zIBC1LupNLNP441yYcBx6foMN8bNdp7Ywpfo566kN09LSOK3GqhUWqkWLm/xIJOdeDfTQvB8/1UcQKU53o1WGrf8RCxMs5T6pPIy1+6xUN3fktzVhRijmaViLREBzhgGCASqAoomEPuf3A6iz2Q4bX9v7kFv3z5rdp17F31H885Bg5VuIo7ZBbTd4/9ynRaKf+sfSQ2y89d8E15PbG3z9L+498TvVlfOrr++m7F4ygbKZoCGoIrfPnPvkTXAsN5fpzH+8/3ha1htyygFh9D8lLI6kht1XSPzE4Z9UIWOjH2qlBDbmtpV0P2n+443NN9aWG3MqIqJ4zxqn7oM7zYJZ41isajHSIqw5ws11K0RBEOCAYoBIoimiI43fmksr25z4v0hwVv6X7NuQYOVb+3CdxlR1+fRoAAFABFEU0BJmtVhy/TAmSa+itF9l3q6cRyQtEAwBQoRRNNASZrVacv4yA+vFs/gkLZZ9tMWEhRAMAUKEUVTQE79Toh0/cpJ/+4n3VFCXmNzW6HAMAAKD8KLpoCEEXYZJ9sAgTAACULyURDUE6tOW/Gc5yr59ozVzutSw7vQEAAKQomWgAAADY/kA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIEpmWjc/YBo5Gd3aN9zq/S5znfo9568Sp9ovUq1/F1+kzDZBwAAQPlSEtH4yT8l6Q+/fo0+/tW3c5rsI/sCAAAoT4ouGs+8fMtXILwmNQ7nuxwDAACg/CiqaAQVjD/6+nVa+5Doe6++R7/9Z/q3shSOlRFqrm6k0RWzvUHisUaqOjZjtoCAewLA9qBoovHKG8kMcfCz6qffoVNzd81RRKf+4S79RpMOkzjKCoiGmwvdVFXdTbNmsxAgGgBsD4oiGnfeJ/qDp7L3YYgo5KL3jK6hSBwSV9kA0XAD0QCg4iiKaLzwd3cyhMK2fKIhTVWfNqIjcZWOGerxiIJyZntHKC4bXtG4MkFd0Xqqqa6lmvoodY0tmQBmbYXOtkVpd10tVdXVU0PbGC2v6SC3g0zQ7LEw1TQOp8KTl0bc8Z6yVSpB8/2NOt4Qh8UGqYu/91yQMJ3+oVgfNYRqqTlmjkvMUawlSrs4PnWMnU5m+UwnNdeHWABCtLuxn2ZX9e8qnR0TNGufz6Rl9hhvS3zG9PmZnOdK0GKsXaVNn6uPpq/pkFzn8iWxQKN8f9V5+P42905R3Nw/Yfm0fU2dNHnFBDCS9ub+MRpqdO4x37OLCVo+lU5bQ9tE6nkAANIURTQafrCaIRS2/ZdvvWP2zE7/37yn9pW4Ssd6RGOBhsIhah5eoiQ7l+TlYWpm5zVwUcKIFvu1ECxKC1tyiUYbQxTunVNhtmgs8/eaMJfWE2qTaHWCjtaFqee8OiPRksQbpZjxvYlTLezkWmh8IUnJZJzmB/j4lNOW9LMTFMe/lKCEnJvFa3SvlU4Ruvp63l83/SWnOinM55+W061xfOy0netV6awOU9fpFT42SfFXed/qFjrrPBJvTSPPueIj+lr1uVj8JO1RFksJy3cuFys0zvczcmyKEuLYVxcoxtsNQ/omJc+083kO0vhlPi/HtTjM56lrp0lzj5XghXl7ScLjNNsXZZHi44+wUPBPyfgU9YRr6fAp56EAAByKIhpV37iuHP4eSzzy1S68/O2b76vjJK7SsR7RkH0jNHRJvgtJWp6Zotkr2kGKY4r2L6jvQvLKDE3PsEPk745oJNnpRuo4PqsULE4usarj0Igj5pLxiKTAfHdqEAotFGnRiFDssgrQ8DlqIoO0aDaFxYEI1XSLaOn4us5Y57t9jrr4Gse5BqDS2XZOpVkj8YfouFNJ8opGznMtUSziOdfaAp3tHlY1m7znsrk8SNFqdvq3zbawMEbHh2a4LqOvqXVMPTFDnMab0vdNns2+YeseXhmmfdV7XM9BCQuaywDI4Ebi1uaLxu8+oYVC+iNaX7y5IdF4J/GhOk7iKh3iqIKKRpJLyntolzSNtPXT6PkFXeo1JOcGaR+XXnc3ttNQbIoWLR+m4jzQrpqVGgbdTUVCwmqecpp/tMOzBcLB/i1L+q14UqYcoj42M1zHoY51OU7P+T2ikf9cbsdsk/dcNnLeh3UNJRM5ziOczHxffSp+1TxlC69PXxVEAwB/iiIav//kVeXwb939SG0/dUILRzb7z9/MbK5K8LESJnGVDnE4QUXDEF+g2bFB6pL28fBBOmuHrcVpcWaMYm3STh+mo6d1oIpTmqSWJuhwiOOzHak6h26ekiYepzZQkGg8PsElcD9k/3oa0K1mGeR15H6ikfNcWycas90hiAYAm0BRRMNpnpp/O130ziUcfrWQf1r5QIWVvnnK7diUM/MTDRaLaaldyO8KuwmExeK8u3aRGGty9xUYhyTt/LsaR9KdruIQnfMpWDQeTsc73uhterGdq3x3O7/kq+2qPX/abspJPZYlikW5tmP6AlKY8PWKRt5zZTRPxWn+/Awt8/7rEg2/5qlr/DxU81+w5imIBgAboyii8eVB3Zcx4HqrswuHn2h8/5zuCJe4Sod2OA19M6qpKck1ga4wOw9f0eBaAtcepONWET9HPfUhrk2IjMTp7OMhihyZ0CN62DlOdnBN5IAuhbscpOo8ZifmtLFf6qcIn2Nojmsat9mpDjWpEUKOk1Md4aYT178j3O38aG2OBvgaUmlJrtDkkQgdNk5VxVfXSLFLWv4Sc4PU/GAfzbNvz+vIVV9AE41fk7Twdp5z5e0Iz3Gu5NIUTc44QhCkI5zvkfQvSUf4SAuFPR3hEA0ANkZRRMMZcusdJSVDaW2xcMwrGh9+lK6tlHbILXNlgo7eb4ZqRttpoGNP1uYpe2isDBE9PDiX7sg1Q0LV8FEZwtkySPPGaWU4SC45N1RHU00qqaGfaijpBMUO1FJ0wKkNeIfc9tPRXKIhrM7Q0GPh7MNTx/h8anhqLe16sJ1GjYDkL/2v0NlDEXX9uqOeyXku95BbuSeu4b05zqVGozWN6ecg2ENu1b3XQu+QviYz5NaqTEE0ANg4RRENma3W+Z/FDzy1jU8dzP6nv/967B16/ZcfpIbbyp/7MPOtD5ZzdEY7ZQgFAAAUgaKIhuBMI/KbXIuQqUEcfjx7lz5zVNci/OzTbdfodx7X38tuGpEyID7aRFHzfwJp9po+Fvb0gQAAQPEommgI3z6tpwP5rea3qZu/v29KyNmaqWyTY4EPIhS9TRQxTTyRx9L/4AYAgGJTVNEQjlkz3X6m4zqdvHiXnP9gZLNvjUMwAACgHCm6aAhnLwVfhEn2BQAAUJ6URDQE73KvstSrmHzHcq8AALA9KJloAAAA2P5ANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAARGicadu3cJBoPBYGVkd+5kfhZidtwFGEQDBoPBdoI5wmB/2mbvW4BBNGAwGKwczXb+zmchZsddgEE0YDAYbCeYIwz2p232vgUYRAMGg8HK0Wzn7/3ciDnxFmgQDRgMBtsJ5ghDts9NMogGDAaDlYPlc/ryWYhJHJtgEA0YDAbbzuYIgt+nbc7+BRpEAwaDwcrRbOfvfBZidtwFWElE49mfJuiTf36NPv7VtwPZH339Gp2YuekbFwwGg8F8zBEG+9M2e98CrCSiISLgJw65TETGLy4YDAarCLOdv/NZiNlxF2AlEQ1HCPzC/Gy9+8NgMFjFmyMM9qdt9r4FWElFY73mFxcMBoNVhNnO3/u5EXPiLdAgGltqS/RiQy09M+kXtlPtNXqm+lF6cckvDAaDrdscQfD7tM3Zv0BD85TX3pmjFw89RLvraqmqOkS7H3qCnn8t7r9vwZZLNHTY/ueXfMK2s0E0YLBAZjt/57MQs+MuwEoiGuu1rRONJTr5aIgeaHuJ3nznJt157ya99foA7a+7j77zWjFGc0E0YDDYJpkjDPanbfa+BVhJRKNjbJU6Tq76hvnZlonGlRdof/Uj9OJl9++z3bup6si51PabL3fQ/t0hXRN59DhNXzP7LsnxHfTya8dT4Y8cYgF6Lx3Xmyfb6JEQ12LqdtP+7ufoO//TRzRUPFLTMdbwAr3lHP+Sfe4OesWTVm1acB4ZXEj/dmmAHqreTydX9HaueKY7PWKl0uM4eu30f/h8r7qOTFEz4SfS92B383P0xjvu8OfPnqCnv5i+h7OpcLZrr9HzTzxEu+TaQw/R1wZepxtOWIB7fGN6gL6m4q6lXV9so5ML6TAYbNuY7fydz0LMjrsAK7pozLx5KyUCQYVjy0Tjvdfp+7vZER6fo+uWE7LtxrkOuu++Y/RTcb7vrdDs8UfTTt04e1VTucn7rvyEnuH4vnbSNG+93ksP1LHDfH1F1WLefKmNHuD9g9Y0brzcRjX3HaCTl3Qt6I3nHqWaujZ6xXa4xt563kqXs73/BF3n7/niyS8atVQjYrkQp+t8nan9lOlwdQ/e5e2V1+l5rr3VtP3EOH7n+AGalXv47hw9z9d5X8/r+vj3Fuj5h1gIel7Tz2DlHD1zHwtgvxHAfPf48nNcM+S0mmsTkb5v9zGalrSo88NgO9QcYbA/bbP3LcBKUtP44eTNdQnHlokG242LL1D7F7iUKiXcjgF6ZY4dfCpcO/KnX7aaqt79CT3NDvXkFf6uHBo7X8tBiQOuOfaa+R6i+7qNc1TG8fnVNJwwl2jo7SdO2OlZoZP7/Ur7bCsn6ImUo9f76WPzx5NfNB6g5y85x3pNwj21teleui91XzKPV4L2qBG4yWNUs7uXZm3RluPr2PHLbwHu8UOOwChjEXogRN95Lb0/DLYtzHb+3s+NmBNvgVYU0XCcfjbLJxzOfn5hJTEpob5+gp4/9KjqEN/1iNN8okvJqWajlBmHqhwaOzcrLnFoVZ3i0LSzTpWIlenfgomGv7Oe7dlt4nf/7hKKay/R11JNU/njyS8aznc/8wl/j2sLOY63a0Xq+yGnVmJMpd8cE+AeZz6fbPcYBttB5ghDts9Nsi0RjaPlLhq2SXMJOyLdfCIObzd9/3Wf/cS2QDSmj3GtyFc07tL1E/upqvkleuvltlTTVJB4Nl00TG0s2/F5RUP1NZlj1n2PYbBtYvmcvnwWYhLHJlhJmqdk7qmggiG2VaIhbf1V3qYRtjefe8Q0n0h7u6eDWczZP6dDk+8lbJ4SMzWMrzWHrOPyxyNp/spzmygaqhPebp7KLhrBmqey3eOb9NM2u//EmOd5wmA7yhxB8Pu0zdm/QCt+R/jl99YlGGJbJRp33n2NvnNfiB45ds4acvsCtfNv+1/QTvT6ySeoRjqzL+rS7HUZkvtFdnLSIZxHNLwd4W+cOJCjI/wu/fQI13COvUY3buo+FN2Bzc73sunAfuEJdqa87dMRri1OLzfz+T1OOl88yok/1EvTqqN6gV5pu8+KI4hopDuq79xcoBcfZbHke5DuCM8hGqYjfH//66Yj/DX6/he9HeF57nH1ffT0S/p53bj8Ej39hSfoZTNqDAbbNmY7f+ezELPjLsBKUtM4OrYaWDDEtkw0xK7N0cmO/fSADItl57frTx6hp5+fc5Vc3zzRRo+o4Z56SOeLRkDyOjS2QENujd1gQfqK2jcdZ/rcZqhsnuGkqonKGkXlWM543luilw88QDV8fTW7H6KnezroK+sSjUfoO8/1pobEPnTghYwht1lFQ+zaa/TD/3WfNeTWjKSSsAD3+Pprx+mJP9HPp2b3o/T9c3atCgbboeYIg/1pm71vAVYS0Vivbalo7DCTJrGszVdFsXyiAoPBApnt/J3PQsyOuwAriWisVwQgGptg78bp+pz8ZyH9h77SGEQDBtsSc4TB/rTN3rcAK6lorNf84oIFMzUaqu4Baj9ZylqGGEQDBtsUs52/93Mj5sRboEE0YDAYbCeYIwzZPjfJ0DwFg8Fg5WD5nL58FmISxyZYSUTjk63rX+71D9uw3CsMBoPlNUcQ/D5tc/Yv0EoiGjL3lIiAnzj4mYjMIB/jFxcMBoNVhNnO3/ksxOy4C7CSiAYMBoPBimyOMNifttn7FmAQDRgMBitHs52/81mI2XEXYBANGAwG2wnmCIP9aZu9bwEG0YDBYLByNNv5ez83Yk68BRpEAwaDwXaCOcKQ7XOTDKIBg8Fg5WD5nL58FmISxyYYRAMGg8G2szmC4Pdpm7N/gQbRgMFgsHI02/k7n4WYHXcBBtGAwWCwnWCOMNifttn7FmBKNAgAAAAIAEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMAUTTRemr1Ln+24Th//6tuB7Z726/RjPm77MUM91Y00umI2vVzopqq9IxQ3mxslHmsMHI/a99iM2VonKyPUnOt6AAAVS9FE498fvuYrDPnsX/zZ2/SPyx+YWLaQpWFqqK6ngYtmOycQDQBAZVA00XBEYD3sHVxVx3zm6HVKrpkft4j5vnoK19dTzZFzlDS/ZQeiAQCoDMpKNG7e+Yg+/ZSuoRw+cdP8ugWszdFAfZRiF8aotbqdJm+b31MkaL6/kXbX1VJVKEpdsX46ajvZxBwNNbLgVNfSrgfbabT/YA5nn6DFWDs11IeoqjpEu6PtdPaKCfLgFY3kpRHqiurz1HB6u06lvbzat2OYzrZFaReHq3Ra4cLymU5qds7b2E+zqyYAogEAyEJZiYbwd4vv02806WPl+1aQfLWdapRzTtL0kRC1jrndfeJUC9WEWUyucB0kGaf5gUZ23I6TjdPZx0MUOTJByyp4jmKN7JiziEbi9EGOq5umTeDyMMcVHaZlvenCJRqrE3S0Lkw9582BS8PUXMdCt6Q31b7VYeo6vcK1tiTFz3dTpDodnpzqpLBz3jW+BhbBVNwQDQBAFspONISjYwl1rNQ6pPZRWjxCcbGPwi4nvkKje2vdQrI2lW6eUg63icatYGIHnbWmcTtBCbsmYxz2+DWzbeESDRaCxKrdcKbT1Tyiz6JrGlPquyZJk221FO6b4+96364z1vG3z1GXc16IBgAgC2UpGh98SFTX9Y46/ivPOm0mJSI+Rq117TTtOHKnqcqU0HX/RT0NiO9NYfVpSP9FfR/N6wBNrj6NtQTNp5qnao35O2yXaDAJq3nKObY5pg9U+3r6NJaH95jfJL3pY9JmCx9EAwCQSdmLxpcHSysaulkn06GGex2V2FzRUOdTzUSm1J/DYbtEQ+2nm6f0oAFT0wgsGt5rsIBoAACyUNbNU//uUKmbp5YoFg1RzwWz6XB5kKIiBJZz3qzmqdljaUevuDJM+4KIRoYQcboe9ohG1uYpuc5aahhKVZ80zog1iAYAIAtl3RE++fMSd4TP9VG4rptmM4b7spONhKjrVV0b8HaEz/btydERPkMDD2fvCF/sD3NYP81zTUN1mjdJM1UA0bjUTxHeb2iOaxq34zQ/1KRGSblEI0dHuLqGukaKXUro7blBan6QhVEuEaIBAMhCWYnGVg+5ne/N/r+MxYEIVR2YMGGbOOR2bSU1LLamvpEGTg9zXBGKXTbhFi7RYJZPtVNDiNNQV0/NvRMUO1BL0QGtCrqm4R5y23PGnYLlsXRfikqnERCIBgAgG2UlGuX05z4AAACZFE00nBrDeq1sphEBAACQQdFEQyYs/Mw6Jyz8D+3XaezidpywEAAAKoOiiQYAAICdB0QDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA3gIvn++/Tu6k1aefs6Lf1ymX5++Zc0//NFWAWZPHN59pIHJC9IngDAAaIBFDduJuhXV1bo8uKv6Oq1d3j7Ft29m6S1Dz80e4BKQZ65PHvJA5IXJE9I3pA8AgBEo8JJ3HpPlSqvLF+lW/wdAD8kb0gekbwieQZULhCNCkZKkYu/fAtiAQIjeUXyjOQdUJlANCqQDz5YU80NePHBRpG8I3lI8hKoLCAaFYa85NLEEP/1qvkFgI0heUjyEoSjsoBoVBhSOoRggM1C8pLkKVA5QDQqCGlSQJMU2GyQryoLiEaFICNepAMTgGIgeQujqioDiEaFIG3PGCUFioXkLcljYOcD0agA5E9ZMsYegGIieQx/ANz5QDQqAOmoLGYtY2DyNu1//gb96tf493glI3kMneI7H4jGDkfmDZJpIIrBRx8RNQ3foI9/9W1l//bQNXrznfUOv0zQYqydGupDVFVdS7vubaKBqbgJA4WzQqN7a6nq2IzenOujSHWIDp8qzj2WvIa5qnY2EI0djkw4V4yRLSIY+55bTQmGYw//5btmj2AkTrVQDTuxho4Rmjw/QbFDEd4O0/GZpNmj3JmhHha75li5lrC9otFP0boQHT1tRONCN4t1I41uUvIlr0meAzsXiMYOR2YqlYnnNhNbMH7/yasu0fju2fU1g80eY4f28DClu1DjNH96hpa3i2ZsN9HwssmiIXlN8hzYuUA0djgyokVmLN0sRDC+/EMtGLHpO/Q3C0n6zSYtGE+8cMPsFZzloSg7rTB1nV6hZEbLlp/D8zjptQTNDrZQQ4j34xrL7mg7DXTs4e/dNKv34JswQT2N9VyD4X1CYWrt76OjLkefu4kseWmEuqLW8b1TFJe0Kocr53XM3/nGp/qo9V4dt+t4Ronm3n4a72+k3XUSB9e62kZoMVt/cmKBRtuiqX0jj/XR9DUTJqzq8F3qXFHqis3QeBt/d+7hygg1c1jPBXPuVNrZ9o6wZBeG5DWMotrZQDR2OLI2wmZNb77G0TiCMfTabfXbyMwdJRobEQzFWpwmO6RJip2WONTOMZpP/WE9v2jM94WV89zXqZu3RlkwVFyOaMQn6DA72Jr7W2hobIqmx/qpNaydpBPHcqyRauoi1DO2QPHVFZqPHaRIqolsjgbqayncNkaLKwlavtBPzfV7aGiGvXp8gabPD1IrxxXldE+f5xqSvi1pVqeo5/4IHR3isFU+/nw3NXB6In1zKthx3DUPd9Lo6SkWjyY+dy01DC2pcBdrfD8aQ3wtnTS+sEKJlTkaPcDXH+ZrlfOucVrl2kJ7qCc2QdOnR6jnYd5fBMZHNBILfD8Gmvj8fO2j/H2GhVvvtWEkr0meAzsXiMYORxbV2Qw+YMH40l+8myEYG61hZCAOONbJDplL5OzAj1+QonYe0bh9jrrYITYM2A42QdMd9SnRUDWZunaatEvuV4aV41RxrHF8HEe0f8EECkmalNJ52zn+tkSxKDv1xn6aXUr41IYCNk8lE5Rg0UiwV57u4LhNqV6LxkErfQk6+zj/1uhT6ueaTQ07+KFLZluQe8Dn7zqTpOSr7RwepdhlEyaIkLDo+YmGYpObp4TNynOgPIFo7HA24wUWwfji/9WC8ZfntWAMX9gkwVhjZ2cXb6U0LUKhnGYe0fA6QEOcaw6OaOjmH68DzozD1UzjmHNcYoHGe1to3/3SROVtPsojGnw944+bpi1lpuRvi4Ynff5pdq7Licdtcn77um1UfBANsElANHY4hTZPvc8l62yC8dhfFVrD0KXgGlWiT5MuiRvRsMPjY6o5SDlpU8rOVdNYHIjkrmmY2krrmNtFxy8vUMLUKuIXJmjeCU7O0VCE09ztCFlu0YiPiCNv5NK/uYI1rklILWYDoqFrEk00bgesxWlxQf9QDjUNNE/tfCAaO5xCOsJFML7wf36tBOL4K3pU1OBPb6cEQzrFC0WcqpTeo4/30/j5KS7R71GduI4QzPeJAEjn9RhNnx6mo/frDmXHSXv7NPSQXXaSWfs0+mif6jRPx7E4JP0gVr9Ip6QhRM0jHJ7QolJz/0GKnZ6iyVin6pMImz4JEY3jEv5wN6d/jGZth83IkGLd0b9EidUVWhzrpCjvvxHRoLUlij3M12/3WeyR5rxGGpdLcfo06tx9Gqo2kk00ZqTJi2tP3Xx/x2asUWwbAx3hOx+Ixg6nkCG3fzqk/7hXLMFwiJ9Pjy6qqZcRP+lSvjNaSI8G0uIxxLWPVMneM3pKmo4m+z3NNNboqZr6RhqYGvPUDhLKmav+FLNPDzv5FPboq7p6au6coGWrbyPxKguJOf/ARfOjA9cEpnvTI6Mij/XTwAH+vhHREKSprDMd3+7GTpq0K1r26ClOa0ObDA7g79lEg88y3enc376Mpq31giG3Ox+Ixg6nkD/33dsbp89/W7uu/nPvFUUwCia5QvOX3O51vpdrJ5FBclrWEwtztGw3T5kmLuk8BpsL/ty384Fo7HAKmUZEROMTrVep/n/HlWA8+uxqeQkGJWm22zRP9cqQV0/TkiAla2k+Ms1LMuT2sDRxOcNUwaaCaUR2PhCNCmCjExYeGLmphEOs9a9v0odlJRgGp3nKbloaW3B1rKvmpcfCugmGBaWhpd/9hziwKWDCwsoAolEBYGp0UAowNXplANGoEGRESzGnRweVjeQtjJqqDCAaFQKWewXFBMu9Vg4QjQpCRrYUY5p0UNkgX1UWEI0KQzoq479OzQgIQEFIXkLnd2UB0agwPvhgTbU9QzhAoUgekrwkeQpUDhCNCkRecikdokkBbBTJO5KHIBiVB0SjgpEXXzowMaoKBEXyiuQZFDgqF4hGhSMjXqSJQcbYQzxANiRvSB6RvIJRUpUNRAMo5E9Z0twg00BIKVImnpMZSzdr1T+wfZBnLs9e8oDkBckTkjfwxz0gQDSAC5k3SCack5lKpVQpayPIojqwyjF55vLsJQ9IXsBcUsAGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBUaLht+QjDAaDwWBeQ00DAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYG4kbtH/B8N96kCofST0AAAAAElFTkSuQmCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110091</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       ulsskagreentech.com      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x390cebc1d3b4bc89</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Fabric Acoustic Panels, Auditorium Acoustics, Studio Acoustics, Soundproof Hall- ArchiAcoustics  </x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">       K-3, UPSIDC, Site C Rd, Block K, UPSIDC Site B, Surajpur, Greater Noida, Uttar Pradesh 201306      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAEIxSURBVHhe7Z3/cxvnfefvz8ikvbte27n2fsndXNOeb4bJ8MAcT7j2hKnHuHqCi8fIaSxGLn21Qla2WEVSGCqUw1IOj0x46gUpEtqsGSPliSPGoslItkqGLkPEFYtUJhOZTGTSloyYEmRKkGl/7vk8z7PAs4sFsCS+EATfr5nPAIt99tlnn332836+4dl/RhXk1PkUffyLb9MzP0jpX4h+kdyks6+8Tz0vpeR3C97msHzMzrBGY4eaqD22preJVkdaqeHQCK1mk2mQoOFQiIav6E1mc5b6G0MUu6a387DQ56eGzsuU1tuSzQRFA03Ue1H9mozxuUcpKbdc2LhMvY0BiprnZ66P0BONrTRxQ3yf66OGxj5aUHvc40xO0cnmIEUTajP9ahf5mrtofkNtWyxHQ4XTI5Bh2sbJeQfnTzeRry8uvsVF/jRR/5z6ndZGqV2kdczK8pURamkMU2xFbzOuec+sUCzcRC3DZmCBzBd/9hwmjvygTRVH9p6rMtAxblylvKdGGvPgmrfrIm8z5cF+7Qtn/BQc0JmuWRwIkO8M55NIVyhbFiSbSVqcjtMq3xeZb/o6+LtfpO86b+SSky5RPmSe5wlvUk/lNH2xixoCg7ToKE+rIwepoVWFXzjTRA0y/xmnP8hT3vKUz+LlYXfyZ+1HqaKi8dPVD6QQfOL4DUrnffiJ7ot9HIbD8jE7Q65o0Kb4rdVPIVGQbA+OJE3zp/zkax2hZd7JD3W0lXxBXTDX4xTrG6GFdRnYTmKQQo1B6p1coRQfu7FC830HxbHiwdEPQdGHUZx/oS9IvgN9NL+SkvmbTiZo7Jj4TT8EBR/GzTQlE6PU/bDj+qxrPjZKi0nxqww3RO3ige2fU3KweqGPzl5wPDwMOzARrjuWoCRfhzh2dbqPWsRvZ+N8BodoSIcckPvSMgFJunSE83SIFjnfdJ62DCZc8l9cr7i+UPNBOju9oq4/tUIzp9T1uwq9UzQEHEdQOJ8ZrXSpC0fFfRDb18UZ00laGBT3xRKNAvc0536Je8ppabDKg/Parw2JfGmlWEIdkZobVIKpHUpylMuSuLe8ezOlylZYVGB4pykagkKVG7dytCp+k2WNr7mOy6mNjTidDfqppW+WVvlirHjFb+2j6pm3i4aq7ARFZSetCqcqG3zPrqr4U3y+R8T9zSQqS9HyUCjfa5iKiwbzh19PSjH4m793VAkM/urV92WY//ps/qJXeVxEg5GO0C8eHJeCKGqqMz2ttL9ZFDZRuw09OUjzXHNi5IOta1IupK6OUm9Y1CyFI2loDlDL0SFbASr+MArYmYz3UMeDokbI8fiD9ETnKC1bSXV7GDmctn0PtlH/+FKuQ5bX1UYhv7qu/eGjNDybTQk/XKrl4MLaLA0fDWfyZP/DbRTNHOtwnOLMi9GDtE/8lolPnHuiM3t8i3k9LqTiQ3TSykdx/R094/nDu4iGyBUpVMGMQxJ5GtH31B+m3liEui3RKHBPnXmbUx5yrp3THsncu32PHKVY3Ex4ipZjXdSi74GtfDhEw2oxtURzhdy9HK3RhHC4vs4pSl2v33Kaw/oSTWTCc7wHxf3NxusUjbQQhSc4bHM2bavj4p4ErHvWRWNaQJwULQ9F/EOtUhXRmPzpPSkID3TdpHsujYhf3fmIfqfjHRmGw9YNVwYpyM1hvVk/JGmirYlOXijgyeuVeryndVtOa5xdmu9VEQ3mv/Wp1kb3eK6jafnOutz3R6JFUj+IGvRftdFZt2bybic5Rd1H8nT/1DX1eE/ruJzWNLs336smGj+/uUn/vP1taQvXs82N8SuqFcK/cxgAAAC1S9VEg+mduCMF4lOnb8rBsOSdj+jf/IXqlvpLsQ8AAEBtU1XR+PAjoj8eUN1UXxy5ReFvvye/B/qTch8AAIDapqqiwbx960P6XT3ozcbf+TcAAAC1T9VFg7FmU7HV1WwpAACoc3ZENBgew8A4BgAA7C52TDQAAADsPiAaO0qKVuNxWsUU+Z3jxhLNX83//yD5r17jH8KgGGpVBfNf79uD/z1ffL0vUH0gGk5SSzRmLGHByxLYl3YoI+tT1N3sz13IrRrwujfmUh+VvE7GdfmOEpDxWetZmeQu1VGI5Fgb+YIRWtbbTsohGvniKLw4nqDceabzxra0BS+7MjBLxrqhJbJDorGZpPkBczmRLpowV1TRzzUvVyOXQumcsv85NZ2k5fg4xTrbKBzIzfM0L6XyiLUESphODjnWQrsxS9FWYymbSO5aaXI5loNBmYbS82fngGjYUOvxhE6JApVZ0EwtgJbrnHYxKfFAOhZuW53skgvTWSuIlp2KiIZ4QI2F8xRbE41i1KNomHmTXktQTK5B5VjJdtvshGjoBRF5kUtuNFqLO2ZWtFULiwaFUEhxTK+ohQ4jS7xTwGnmtb0GaWywLTfP9eq6/dO6RZqclc9Pd2YtOr1SsogvxfHn7Bc/icrJ/oePU2xuhVL5l+DbFUA0TG7wAmIHc5aM5uWqG07Pyu/8oNsebL3omCrcqqAPxwblInMqnF50Ti5wpmpAlzLx2x9i6VxOj9Alq0YkajT9F7NdJ1s/tzurw2FqsFZLNZDXaTkPGXcPjY0ela0RK42rF3uo3bqW1oht4TpZG9ML2/kCYeq9oNIgnSNfj7aMQ9lcyy72KGp/7ZG4eugE8lojoxTl2p3bYnjSoYapRTysoUFT6XIdo1zQUNcS5aKAV4yHmfPcjP/6lK5R8vUJJ9J30Obw811jIYqKhsxrI49Eeqbz5Fmh81vlZ+II73cTm9y8kVwbonDjUbok7qVrHFyLflLVkN1q0asX9KKKfA8HRujsAfs50lfM/Le3ANJXjAUbH2yj4UxrV5Xn2PS4cT8itOjaGI7TWdFiP2tmsVyOXT8b8rtjOfLZHmoIDWVbmFarw0WoU6/2UPjouK0MZu4dI/Ovi2YMMZDLrVvPEp/fL/I3pxDvTiAaJvo9AZkagwvFHbd4mNmZrqTkUtKpyePZ5a0FvIR1Znlrx0MsH1i9VHY6U/vPvltiq+d2J0WXjjRR2GU1VBvakYVOjdPyml7OWjxowcxS3Um5EmzG4cquNqM2tjIiWmjGezFyHsYUzZ8OUOjMrK6dJWjYqGnLh1LkRZRrZm4Xo+Ob5+XFbS0kh2OUy48fFPGodKWm+1SeWsuPm6LB95+XyRaRcZrSK0JAgoZzKHaNeSgqGhIPLY0i55fn4WXMx5coue5WABx5Y+EUDVscSzTMeTKilp6ndVWL7n1Vx89Lp1vLu2fKrHEOfneH2D92TYTn/UJggtz9ww7WcT3q3rTRhNy0yrNuPWwsUUzkT9BWQSiALL/akcvvPTRvPtPyXR52cZC4iIaTNFcsgkbvAx9zwFEJY1GyyhV/f7KPYkZl0Etlo1aBaDjgmhyv2y/7LXuGaGZJFWiL4o7bUaPZEA7cbI7q8Go5ZPtDLB9Y3aJRqNVkLQe/5XO74uKc3DAfOok6zvZSIF2bk9ciHELK5qj0eUZ1/jkfxpz4Rd7zS3KMl+EUFDYjvuUot5xErVE6BXueFn7Rkc5z6+EWcWa7NBSyxmg59mLXmIeyiUaR88vzFOxmsueNJL0mWraihanzICcOeU5VabDgdFvL2Ofmr0iT0dLg/fb7yC+X0q0CWQaOZ95jwuV9eXqWluXl5JZnmTbr/RsFSdFMpz/bApXncQiB22+MM88N5PnZ6TcG6OSocU18jFWGLIzf1HH8TpI1mY+pREScu4JdwRUGouEG14gSPCimuk72Hcw2i4s7buu7hvtXM91TXODYzPAO0XA4F9Npbfncrjidk9rOpM0q/DkPlUpr9hosy57T9t4FbZnzOB9GuW3Go02fP+danZjxyRaC9S4JM0/VtdmETsAv0rE90Ob3I1PC5WRx3pOC15gHt/vKbFk0BIXOn+88WdzuIb/jIdvN6BrHmtE9ZZkMo9JsXyJf/Wbmv/18yqz9l06EyKcraBMJ5VQVueVZps0qn3kRz9vgQdpnvoSrTKJhoVoafnHdOiV8jDNdxm+5bz9MC1HbQqupxoBoFINfbiMKvnWDt+q4ZUGXXTq6yOSELywa8tWV+rfyiEb+Amt7KHMeKo4/kL92JMOrrgb14DucoPNh5O0C7xLYkmgw8g1z4vqv85sAC4sGvxHPJhTm90KiUewa8+B2X5kti0aR8+c7TxZ7eXMjJ44NcYyo8LSPLGUcejbd6vzFRKPYe1fS1xM0ExuU4x6+A6KCJlufueVZps3pnB3Y3khoIfOtfN1TjKzMWWWFjynQPWU+wxbF71XtAtEw8PoO4SdGjJIsC2R+x53j/PR7kbPhC4mGcvBm99RWzp2P1Hib63XaHkoZt/nwFHk/Mj84tgdaOIwDxrU7H8Yi7wLPyTcnOQ+3mkHTcKhVpDubp2Xtnip2jXmQImUOukrsXY8yrmKiUeT8xR2Rvby5kRNHTjlQr0C1whTuntKvQz7l6DLT+Zu+Hqf5uGhdqE3VYgxYx25dNFKzfRTiCpoxOUPiZSDcIqdcifOOH6fwCftAuCwXVuuhyEC4bNk6ziVfI4uWRh3g4R3CsuCGB2mBS5D1zt8Cjns5wo5M1J5ES4Pfixxr424qM7xDNKxBRYEaGMzGt6VzF3r/sPlu5TV1nam1BI3xjJljuvbk4iwKvh/5akSmdZgH8TeStDjcJrszMk5QimUbTdzw9i7wrYuGQN4/s/tDIAfCjTx1vofbdETOgfClcXHvjdZAwWtM0cJwn/t/XeSUTRWvfG96WhwbOy4HkCeMS3S+jzonz4rksbyWcouGHKwOUO+FFXFOHujuoTDPdrPCOAbCl4WDtQ2EZ94xrtIou3Ye1jOJrGN1eUpfGxFlLkjDV3lra6Kh3hUvwjtmPiocU27Xl+Q045wKEONWrmQFJztgn9M95Zxyu6b2ZyYLaL/SHlX71ZhG8QkUtQpEw0mRdwizw5X9sGKfnPI42ONoOdgLugyvZ034Aq0UnRyh7kytx0U0jkWyf0LyHzTerS3Yyrl1KyTv+4dFXNk/Q3F8Ifu7tV1Egyn0fmT71Mspih2z16SttGcGjgu8C3xboiGQzkOcw3SMhd7DneOIiky5zX+NuqWQb1DcNi7A4wg9NONwGrnvo87Ns0J5XBHREPC0WGuaNd+jib6QrY++2JRbM//lM2CU6eTsoG1f/0Xrnm9FNFTecxw5Zl2L48997fn+0JinXJnTtuWzZ/oExvbnvsL7nXmw24Bo7CguolHwod8CeO9zdZFdKwXGfACoEyAaO4Vsxo5Sh/FnwvKJBt77XG3SCVGb5q4lvQ1AvQLR2CHk4Cg39weyjqasLQ0AAKgAEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4Jmqica9D4j+Nn6Xnnh+nT7T8y791tPv0O92vCO/82+jP7lL9zd1YAAAADVJVURj6p/S9PtfuUEf/+LbBe2Brpt06WpaHwUAAKDWqLho9E7cyYjCJ798g7587jbN/Ow+rW98JG36Z2n5G++zwj378h19NAAAgFqioqJxRjh/FoHffvodOn/lHn30kd7hAu/jMByWj/n6JISjHCRjrdRwaJSSehsAAEqhYqLxyhtp6fx/48/fpn986wP9axarVeFkQYTlY3gfx7ET3HvjHJ3o+UP6xIkH6GNf/kM69J0LtJjSO2uNzTWaH2ijkL+JGhqbaN+DbRSdzUpEzYnG2ii1i3RyWp3m64vLIDLNtn1+2h/uorGr1k1Yo7FD4vfmLprf0D/ZWKFYmI/rowX9CwCgPFRENHjQ+/d0d1N0xvWpzisazHfEMbyP47h7X/9YLRLfpj868TA9Pf4GvfNeim6tvUGxsw/TJ3q/Rysf6jA1wxpNtPrJ1zpEi2tCYDfTlEwMUXtzkPrnlIPdFS2NzQRFA2GKrajNnDSnU7Q62UWhRhHmGv+gRUMISse4y5WtjFCLFBuIBgDlpiKi8b0f35VO/5OdN+jDPF1ShUSDj7EGzl8UcVWPFJ3vf4BCo2/qbc2Hb9A3Tz1AT/9Q13TfOkefP9FHsR9+jUJfFq2RE5+h0Hem6ZYhKvcWvkdP93xG7HuA/qDna3Q+E+UCPXviMD332gXRmuH9n6ZP9T1HC9toyaRf7SKfqG3POI5djoYyTjfHAW+u0ExPK+1v5pp6gNp7LtOqOWvt+hT1hgPkE07XJxx577j25JrViz3UHvCr2n9rhBbW9Q5B+kqEOh7kfarFMxz3dlGpC0fJ1zYucl/hLnRpmulsouBgQnxXotHR1kYN4RFaVQEyLA4EKCj2PVEh0djY2JBWDK/hANhNVEQ0Dn5nXTr8QuMShUSD4WN5f4uIq2q8d5GePvEIPfdzvW2wMPIgfeyv59SGFI1P06HRN+iW0LR7v5ymr3YLsTn3ltr/S7H/y4cp9nNR+/8wTe+88jX6zKk+mpP6x6LxAH2i73u0wF4x9SY99+wD9JmRN3jnllgcDFBD52XhTh0kl2h+ekk6YbsDTgnH66fQsXFa5oPSKzTGLZVMHEs0HPRT+8gKpYWQpK+NiFZLgKJX5E5Kz/ZQMNhH8xzZZpIWI0bc61PUzS2caX2m6T7RMmijCbVZAO5K8lPvq9mr8Coa/RcvU29zSLc+NBv8m2iRvMrdYJURjW9+85t05syZgoLA+zgMGwD1REVEo+GrN6XDv/LL3LEMi2KisXD9A7mf46oaUgyEs9e+3+Sd8cP0sWfP0Tu8oVsac0bL4tbkU/SxZ74nXCDR3Hc+TQ/ZWitCGJ75ND37D/ydRcMuTDLuvgsq7i2wcEa0Fs6ocYB82BywHE9wOPLkOHU0ttLYGm/Eqb8xRMNX5R5Bmlbjs+JesENXjrr3oiFR7KDFsRM3xHcZ93Gj1ZOk5elZWi4iGrK15GgtuIlGKhER8Qeofy6blpMXhHBxq2KAhUSRGhetD261yPRURjTeeustOnbsWF7hsASjvb2d5uZ0RQOAOqEiovGbTylBuH03/3SpYqLBx/J+jqtqbFU05B4Nty7kb+9STLQcuFvKac/Oc0DVPWWewxa3jTTNn/bTvtOzua0JwZZFY66PGkJDtCz3WPB4gqi1y4tJ02L0IO3jbqvOCI1xayXTdcWCosYR7GYJzhpdOhEinz9MJ3uGaCKxJlsrhUnSRFvuuIRMs+M89q4yJRrtMXFiHr/IDIjrbiuOr4KiweQTDggGqHcqIhr8b2+vosHdT3fu5YazRIOn4FaNLXVPOUTj59+jhwzRyIx/5FA+0cjbPbWZptS6+rW4aMTpbLMlGprkEi2MD1Fva4B8weN0KdMKCVA0W6l3JX09QTOxQTr5iJ98ByK0WKhLPzFIIZcZUG4tDTuGaJjCYwpIvI98FR4IdwoHBAPsBSoiGv/xlOqe4i6mfIzG79K/PqrEhQe9f/IL+zQpnnrL+6raPZV3IPxNeq4ndyDcdAv3pr+mu6fSdDnyafpEZI7u6X2STFfWVkSjMNZAuNPp5h0IL9Y9ZYyFKJRDVs5ZTWNtGbYPjJNuTaSvx2k+LloXalP8brZg3BCCeMqfG59ga6IhYrrYRQ3hIRozu6pYICssGowpHBAMsBeoiGh84btqILyvyB/0Vtc/pP19SRn219vepmd+kKJN7Vz5WP79C0NVHAhn8ky5/Vj3t2nBcvxSNPRAOHvJ5Bw92/0AfX78XbVfx/HVy2pbDpQ/8yU6L/WvfKLB/9HggezQsVFaTIqEFJ1yqwfCT03RKqc7vUITR0RrwmqtJKfopDi2d1I5Y0pepv6An7onVVxyllNzK8X0/yVSfK5HBmmRD5athuw+OYjeGDTGRxy4CZhmq6KhBr+5Gys7bbdaosFYwgHBAHuBioiGOeX2A2Ow2A2eXjvwwzv0L9rfpn1n3pX/8eBj+FiOo7pTbhVF/9wnRaOLIuPZKbeff37ONuX21j88R4dPfUaOZXziK4fpm3NaUMopGoycQmv9uY//BHeUhgv9uU+En+gMG1NuhYAYYw/pq6OZKbcNPD4xlLB1f62Od1GLnHLbRPseMf9wJ841O5iZcusLtFL/Re3UXeABbN8pl641wZZFQ8DxyQFwvV1N0WBYOCAYYC9QEdFgx2+tJZXvz31OuDsqeUeNbfAxfCz/uY/jqjncxjQAAGAPUBHRYHi1Wnb8vCRIoam3TjjsTi8jUhSIBgBgj1Ix0WB4tVp2/jwD6gcLxRcs5DC7YsFCiAYAYI9SUdFgnEujnzx3m3708/uyK4rNbWl0PgYAAEDtUXHRYLy+hInD4CVMAABQu1RFNBge0Ob/Zlive/2djtzXvdbkoDcAAIAMVRMNAAAAux+IBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzVRONex8Qjf7kLj3x/Dp9pudd+q2n36Hf6XiHmsR3/o33cRgAAAC1S1VE44f/lKbf/8oN+vgX3y5oHIbDAgAAqE0qLhrPvnzHVSCcxi0O6zsfAwAAoPaoqGh4FYw/+MpN2vyQ6K9efZ9+48/VbxCOItxYovmrSb1RmyRjrdRwaJTypnKur/B+AEDNUTHReOWNdI44uFnjM+/ShcQ9fRTRhX+8R7/WpvZxHIBZo7FDTdQeW9PbwiGPtZEvGKFlvV2LQDQAqD8qIhp37xP93pfzj2GwKBRi4KJqoXAcHBfIFY3dAEQDgPqjIqLx4o/v5giFacVEg7uqPqlFh+OqKjdmKfpkkPY1NlGDP0gdkQSZ7Z3k7CC1B/zUIPbve6SLxq6m9B7B5grN9LTS/mZxbHOA2nsu0+qm3kdx6m9spTHD7zudavpKhDoe1HE/2EbDcRH32ii1c1os0+FzHDKnuzVAPg7jD1NvbCmb7s01utQZzqSrpXNcpWt9ik7a0pSgaKCJei9aR6ZpprOJwtEVtenh+oZjg9TiVwKXk8ZUgoZ1GmXeRY4XFI1S83p4PKKP99P+1ggtrqt8UPdW5NGF3SXCANQCFRGNlu+s5wiFaf/5L9/VIfMT+bv3ZViOq3os0XDQT+0jK5SWTnWW+sV276vKiabjfRRqFk72mtpOTnaJ7S6a3+CtlHCwfgodG6dl3p1eobFWP/k6L2vnXUQ0hAPvbg5S/7Ryoalpca7GNpqQmy7dU+axG3E6a6Z7bYp6jXQvR4Lkax2xpSs4kOCAMt6MSFwborBwqL4zcbUtRSRAUQ7q6frEscI5L6ykKCV+tItGki4dEcefmqJVsS+dTFBMHJ9PNErP6yZ1Lg6fjFM0LISHhWJyTeRRmpIyf4/SpWoWLwDqgIqIRsNXb0qHf9AQj2KtCyd//+Z9eRzHVTWEM0mtp5Tj1SycEY6wj52oo9YtSdLCUB9duia+yhaB5eQ1yXHqyAhFEdGQxx+nmUxlOknL07O0rHYWFI30xS5qCA3ZxjdSs0N09oJKK19DOLIkvzPp63GajwvnKb4vR0P6+lSc4TN9dDIwSIv8A6epuY8WpBB5ub4QxTgvNLnX5zh+tiePaJQjrw/S2HW5R7I6cpAaDozQqt62hKV/Tm8CADxREdH4zaeUUPB4RMf3b29LNN5NfSiP47iqyprRPWWZrHkrx90/q4LlwP3zDsdtdfcox1RENET8l04IBy5qwyd7hmgiwTViuUNQWDTk99P5EiZccGKInvBzF00XDccsIdIkBiko050SLQFuVfC5lPOXYmTV3ku9Pj7eEiOLvGMalc5rBqIBwHa4lbpTftH47affkQ7/zr2P5PaXzynhyGf/6Wu53VUpcSzv47iqxoZwJAHu5lnKOGyupW9fNOJ0tnkrjoxbAQmaiQ3SyUf85DsQoUXZHVOaaEg2RcslPk6xTh4HCFL3pI5rU6SruZUmVi5Tr3bq3Prgcy30+enkBd30KfX6Ki4aW81rDmOFBwB4pSKiYXVPLb6d7ecpJBxurZB/WvtA7qtq95Ts9uijBb3JzJ+2RMOtyyRFq3Fdc99Gl4npyMwuI8mmWXMuLBpu3VPpFRHfEu81u7kUqfE2w4Gq6+o4epT2WWMZPLZxqIt6Q0Z3k6frK+CoS+6e2mpeQzQAqAQVEY0vDKmxjOiMrCZnyCccbqLxrctqIJzjqhpyMDpAvRdWKL2RptXJHgrz7BztTD0NzuqBXh6cnTgSMAZnleNvGYxTSmhpeoUHq0XcliNLDMq4Y3qGUPraiHCMQRq+KjeleAX74pRO63ObTrDgQHh2ADrJ+0SLY+a0SNexKZFihYxLONDsrCklWPaWQbHrK+aonQPhcYoeMAfChShMT9HCDblRYl5DNACoFBURDWvKrXOWFE+lNcXCMqdofPhRtrVS7Sm3PO3VmqbZ0jlKE32hbL++IDsNlMcIemjGrAxvCudlTG1t7xFOLdvYIrouROlhfWy4i6KnD9ocGcdtTbn1BVqp/2LW66lxCY5XtYRynKAx5VYeO2kkLLVEY1a6+LqODtGiMXtVzZqyzyRaOOM3ZlFpCl6fB0ddcMqtmrnWMZZ169vPa4gGAJWiIqLBq9Va/7P4jqO18Ynj+f/091/OvEuv/+KDzHRb/nMfVr4FAIDaoSKiwVjLiPy6aEXw0iAWP1i4R5/qVq0IN/tk5w36V0fUdywjAgAAtUXFRIP5+qRaDuSft79NfeL7fd19kK+byjQ+FgAAQG1RUdFgzhgr3X7q9E06f+UeWf/ByGd/OQHBAACAWqTiosFcuur9JUwcFgAAQG1SFdFgnK975Ve9svF3vO4VAAB2B1UTDQAAALsfiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADP7IhofH/uPgW//r40/g4AAGB3UHXRWPjlh+TrumMz/g0AAEDtU3XRGJm9nyMa/BsAAIDaBy0NAAAAnsGYBgAAAM/siGgAUMukV+K0sJLSW7kkY63UcCaut0Bx4tTf2Epja3pzu6yNUntjHy3oTbAzQDRcSMWH6GQ4QL7GJmpoDlDL0SFaWNc7LTZXaKanjUJ+EUaE2/dgG/VPruidmvU4DT8ZpH1WPJ2jtOz0RZtrND/QRuGAnxoOjVJS/+yF9NVR6n1EHMfx+8N0cihBab1PXAUtx7qohePV6RuO53eEjKfrLiMLZ8R5yuh8pTNvbqUJp3OSzsa701oY8JPv2JTIQXfKIRr54rDliUu6y51nNNenyo9hXFai06V6eBOIRj0B0XCQFg9RqPkgnZ1eoRR74A0hDqeC1BAcpMVNFYYd/Virn0LHRmlxTQTaTFMyMUTtzX46ecFy+0maaGui0JlZSvFx6RV5THAgoXYzG3GKPhygJwamaHktRWkrfi8kp+hkc5D6p/X5krPUH/RT96RydcnRVvIFu2jmupKR5GQXhRrbaCKPKnm67jJTEdEQTs/X6hDfLYpGMepPNAxHbJTl3ouFKxnegWjUExANGysUCzdRy7CjxbCZoGigSTxEygGnX+0iX3MXzW/IzQyp8TZqCA3RstziB6WJ+ufkhiQ9edzWmlgdDlNo0BARV4RAHbLHw6Re7aHw0XGbc8w6FCFYrU3UPmruFdcWyo1H4e26paM7PUITR7g1oh9eIaAzPa20v1mcW7RO2iNxJZISs7Xjp/3hLrp0nX9XeZOt3RqOIJWg2NGwap2J1lPvuJUm5XiGY4PUIlp37bFcDyTTFwpTi028BS7Od3Wyh9qtdLX2CHHVOwQ5jvn6lG7RcdhBGus7aOzPd42FKSYacr+RR+2xqTx5Vvj8HF97ZJSinH63lqxTNDTL0RA1HFGtLbc4ZCtXt0p9AXGfLpj3I0WLEV0m+B7GItTtzP+LZv5HbC3a9JUIdTzI+xwtZHkfe+hSPJI5tqVzilYrVKkB7pRdNH6yvEnDM/flZz7u3PuIxuL3pfH3fPCsKp6OW7XZVeui9t4Yotg1vZ2HxcEANXReNrqC3EjT/CnRGrFaGpuqpZEVCSEGB4LUGxm0PTyLOZU7d9FwkmbHFgzS2XieVG0Kp9uc59o8XrdyZCLN40uUXOfzpGj+dCB7jckEDYu0Wg49JUTSF+yjee2pVkdE6yc8QqtqM9c5cwvukJ/aR1Zkq0teUyAgrp3PpYTGxw5mJaVaQw5k+oRTW77Ion6ULlke0iEaad4fPE4T10Qkoma9zOkSlYAZnfe2dLFwihZcezQhrzG9wvmc3V/sGvNRTDQkHloanvK4uZWic6IF6ZZpHkXDFocoL91mK3dlRLRMwhTT+p66cDTbyk0naTEq0mTm/2wPBa00b4r9QmAyguaIOzUtWsBWC1nmh2i9nxJCIaO+TP2iUnPyQs5DAypIWUXje47/YPC2ExaJ0MD7mTD/4xsbrsLBs6qajLiqMsvK5SF1w/ng5oUdzsMirKwZNtH+I2bLwHKCQ7TIP6bX6FKnqLnpBzVLYdHI1kgDdHLU0VIwWI6GXeLWeLxueS5TLOVxwjkYLS52yA1W99CGcO5ma0yfZ+KG2szJR+HAfJmWmoKdl6+Pw3B+FRY2SzSS4ipnOv3ks9Jquz6Vnx3j2TshjpRdiZbY2dLFaQrYu+hWR4yWRpFrzEe5RMNLHoej+cuFm2gosbbnhy0OIbQpWWmwUHmqWrYu+bs5K1uJZv5brVfJxmXqtdIs0388I+B8b5anZ2lZRs377OWN06bKB6gWZRWNh76eFQM23nbCrQszDBv/5oSn45pheLviOB9Suc0OWZmrUxHI7Uw46wFM0qUjRktDj2lkWho3OG6HE7w2ROFGUUMWTXV7nKa5O3fV0nB0y2hWLxynkKjZLeSrkHm87hxHJx2OmTZtVq1xM0WLxmC8sux5nPmYFUCHyTCqe8rt2i2yosEbPOaj++Vt1+cuPrL1qNNipkvG6RBbWz4UucZ85OSlxpYnzvsicOaZlzy27p8rbvfQH6QOo5vRLY6U0T1lHafCcP4GSDTMDMx7x9+Nc2XM2i8qTydERYEndvQM0URiLTvWJ/PDLnA5+QEqTllF47/32R09bzupadGQNR5ngWd0TUo/OGbT3YZZa5OioAQggxSFHprnh0DXruzOxXi4uAa5zrZEsQOiZjZpbecfMJc1YEe61AC3iLNQP7vH685xdHy9XAvXm05keNkNoWuVDifofODdHHQW0/G4I4+3REMgu0kCIr+FgysmGgt9wunqtJjpckuTmQ/FrjEfZhwmtjzxIBrFzs/hi4uG3RE7yYlDnkN1IamyaJYTzt9iouFW1uykrydoJjZIJx8RLcYDEVrk1oU8L0RjpymraPy/H39gc/S87YS7orhLygpTqHvKjKs6fwJU3RS2GU4Su/OkK4MUdJuJZD6AsoDbm9JKNKzf7IPMkusj9IRTaPS5nd1TyfHjFD5hHwiXomF2H3Ffs188rAV6JxTerjvH0Yn4WxqzfdkSQ9BynI28PrtDM+NznWCQiW/rosHpn+AZa4daRb5bx6prKlf3VLFrzAfPbstOmrBQ6ch0BXkQDS95bNvvZDuiwcc48nlMVGxUGJf8tXVP5Zt0oT7S1+M0HxetC7UpflfPiSz/EI2aoOwD4T9960OK/f19+ZkPFgluXbC5CYZF1QfCmeuiYDYHqTuWoCQ7r3SKkokROima/9Z0VlGHFYU1KGpAooa3omr+6fUVmj8TFrW+iHYE6uFoj6gBVB6z4Cms5rhCZlosP0zWmMYp5wC7u2goh50dMMzpntLX0T/nXm/PwcN159aOVRecHJdhoeNBzWgrtQyq/4ssR4LCuYhaoqgFp5MJirVxF0rWoUnn2yacT1rs5zySg85qoDOZybMQnZQOaDuiIWBHw7N4jGPVQLjIdx6o5YHw0aMU9DoQvjRO3cZAeOFrFOVkuI9ibv+P0d1nHK/Kb5F3seOyVZj5n4l0tgE5uUFkkcSZZ8XyuCKicTVCIXGO4YRoaWyIdA+3ydluVhjnQPjC4EHbQLjcL64zdlXlS4qn+D4ihJmvMTEo88Dal74mKj6inA9fFRsQjZqg7KJRF6zNUtT6Ux7Panq4jfrHl+zO3NmX7A/SE0cjNG8OgBb9c5+eLin/IMjTB13+/CfOuhrXA4EO5J/x5FRQPe0xlk2jfJhk+h3mdKomRa47VzQEmys00RlW0yud17DJQqimz/oCrRSdHKFus2tobYq6H1ZOLjNw7Miz9oFZJSDbFQ3BqvjddFrM6rh173jWWg/NGBXfHEfEgizzmcM6ptwWvEbdUrNNfTZw5HfoSXs6+N4vRg+quK3BXmeeFcnjioiGYPWCLrfyHk1R7Jg5WO5hym0m/5to3yNdNKZFgknODmam3PI19V/UB0I0agKIBgCVQnatFO+/B2A3AdEAoEKkExHqEC0EWwsVgF0ORAMAAIBndkQ0eCYUT6Flq86sKAAAAOWg6qLBM6HMqbRsVZ0dBQAAYNtUXTTwulcAANi9oKUBAADAMxjTAAAA4JkdEQ0AAAC7E4gGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8I0Xj7r17BIPBYLAasrt3839ux6x4SzSIBgwGg9WDWcKQ77NMBtGAwWCwWrBiTp8/SzGOowwG0YDBYLDdbJYguH2aZoUv0SAaMBgMVotmOn/rsxQz4y7BIBowGAxWD2YJg/lpmhm2BINowGAwWC2a6fytz1LMjLsEg2jAYDBYPZglDOanaWbYEgyiAYPBYLVopvN3fm7HrHhLtKqIxnM/StHv/sUN+vgX3/Zkf/CVG3Qufts1LhgMBoO5mCUM+T7LZFURDRYBN3EoZCwybnHBYDBYXVoxp8+fpRjHUQarimhYQuC2z822Gh4Gg8H2rFmC4PZpmhW+RKuqaGzV3OKCwWCwPWGm87c+SzEz7hIMorGjtkLfb2miZ2fc9tWrvUbPNj5O319x2weDwbZtljCYn6aZYUswdE857d0Eff/Eo7S/uYkaGv20/9Gn6IXXku5hS7ZCoqH2HX5hxWXfbjaIBgzmyUznb32WYmbcJVhVRGOrtnOisULnH/fTZztfojffvU13379Nb70epcPND9E3XqvEbC6IBgwGK5NZwmB+mmaGLcGqIhqnx9fp9Pl1131utmOicf1FOtz4GH3/mv33hb791HDqcmb7zZdP0+H9ftUSefwszd/QYVf4+NP08mtnM/sfOyEE6P1sXG+e76TH/KIV07yfDvc9T9/4ny6iIePhlo62lhfpLev4l8xzn6ZXHGlVpgTnsaGl7G9Xo/Ro42E6v6a2C8Uz3+MQK5key9Erp//dFwbkdeSKmt5/LpsH+9ufpzfete9/4dI5euZz2TxcyOwXduM1euGpR2kfX7v/UfpS9HW6Ze3zkMe35qP0JRl3E+37XCedX8rug8F2jZnO3/m5HbPiLdEqLhrxN+9kRMCrcOyYaLz/On1rv3CEZxN003BCpt26fJoeeugM/Yid7/trtHD28axT185etlRui7BrP6RnRXxfOq+7t14foM82C4f5+ppsxbz5Uid9VoT32tK49XIn+R46RuevqlbQG88/Tr7mTnrFdLja3nrBSJe1ffgc3RTfi8VTXDSayMdiuZSkm+I6M+Gkqf0yD94T22uv0wui9ebr/KF2/NbxUVrgPHwvQS+I63yo/3V1/PtL9MKjQgj6X1P3YO0yPfuQEMCIFsBieXztedEyFGnV18Yi/dD+MzTPaZHnh8Hq1CxhyPdZJqtKS+O7M7e3JBw7JhrCbl15kbr+RNRSuYZ7OkqvJISDz+xXjvyZl42uqvd+SM8Ih3r+uvguHZpwvoaDYgfsO/Oa/u6nh/q0c5Qm4nNraVj7bKKhtp86Z6Znjc4fdqvtC1s7R09lHL0Kp44tHk9x0fgsvXDVOtZpvN/RWpsfoIcy+ZJ7vBS0x7XAzZwh3/4BWjBFm49vFo6ff/OQx49aAiNNiNBn/fSN17LhYbCatGJOnz9LMY6jDFYR0bCcfj4rJhxWOLd9VTGuob5+jl448bgcEN/3mNV9omrJmW6jjGmHKh2acG5GXOzQGnrYoSlnnakRS1O/eRMNd2e90L9fx2//3SYUN16iL2W6porHU1w0rO9u5rL/fdFaKHC82SqS309YrRJtMv36GA95nHt/8uUxDFYHZgmC26dpVvgSbUdEo7vWRcM07i4Rjkh1n7DD20/fet0lHNsOiMb8GdEqchWNe3Tz3GFqaH+J3nq5M9M15SWesouGbo3lO76oaMixJn3MlvMYBtulZjp/67MUM+MuwarSPcVrT3kVDLadEg3u629wdo0Ie/P5x3T3Cfe3OwaY2azwBR0af69i9xSbbmF8qd1vHFc8Hk7znz5fRtGQg/Bm91R+0fDWPZUvj2/TjzrN8RNtjvsJg9WlWcJgfppmhi3BKj8Qfu39LQkG206Jxt33XqNvPOSnx85cNqbcvkhd4rfDLyonevP8U+TjwewrqjZ7k6fkfk44OR4QLiIazoHwN84dKzAQfo9+dEq0cM68RrduqzEUNYAtnO81PYD94lPCmYptl4FwZUl6uV2c3+Gki8UjnfijAzQvB6qX6JXOh4w4vIhGdqD67u0l+v7jQixFHmQHwguIhh4IPxx5XQ+Ev0bf+pxzILxIHjc+RM+8pO7XrWsv0TN/8hS9rGeNwWC7xkznb32WYmbcJVhVWhrd4+ueBYNtx0SD7UaCzp8+TJ/labHC+e3748fomRcStprrm+c66TE53VNN6fy+FpCiDk2Ypym32m4JQfpTGTYbZ/bceqpskemksovKmEVlWcF43l+hl499lnzi+nz7H6Vn+k/Tn25JNB6jbzw/kJkS++ixF3Om3OYVDbYbr9F3/9dDxpRbPZOK93nI45uvnaWn/ljdH9/+x+lbl81WFQxWp2YJg/lpmhm2BKuKaGzVdlQ06sy4Syxv91VFrJiowGAwT2Y6f+fndsyKt0SrimhsVQQgGmWw95J0M8H/Wcj+oa86BtGAwXbELGHI91kmq6pobNXc4oJ5Mzkbqvmz1HW+mq0MNogGDLYtK+b0+bMU4zjKYBANGAwG281mCYLbp2lW+BIN3VMwGAxWi2Y6f+uzFDPjLsGqIhq/27H1173+fide9wqDwWCezRIG89M0M2wJVhXR4LWnWATcxMHNWGSGxDFuccFgMNieMNP5W5+lmBl3CVYV0YDBYDBYhc0SBvPTNDNsCQbRgMFgsFo00/k7P7djVrwlGkQDBoPB6sEsYcj3WSaDaMBgMFgtWDGnz5+lGMdRBoNowGAw2G42SxDcPk2zwpdoEA0YDAarRTOdv/VZiplxl2AQDRgMBqsHs4TB/DTNDFuCQTRgMBisFs10/tZnKWbGXYJBNGAwGKwezBIG89M0M2wJJkWDAAAAAA9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwTMVE46WFe/Tp0zfp419827M90HWTfiCO233Eqb+xlcbW9KaTuT5qODRKSb25XZKxVs/xyLBn4npri6yNUnuh6wEA7FkqJhr//uQNV2EoZv/yz9+mn65+oGPZQVZGqKUxQNErersgEA0AwN6gYqJhicBWODS0Lo/5VPdNSm/qH3eIxcEABQMB8p26TGn9W34gGgCAvUFNicbtux/RJ7+sWignz93Wv+4AmwmKBsIUmxunjsYumtnQv2dI0WKklfY3N1GDP0y9sQh1m042laDhViE4jU2075EuGoscL+DsU7Qc66KWgJ8aGv20P9xFl67rXQ6copG+Okq9YXUen0hv74Wsl5dhT4/Qpc4w7RP7ZTqN/czqxR5qt87bGqGFdb0DogEAyENNiQbz4+X79Gtt6lj+vhOkX+0in3TOaZo/5aeOcbu7T104Sr6gEJProg2STtJitFU4bsvJJunSET+FTk3RqtydoFircMx5RCM1eVzE1UfzeufqiIgrPEKratOGTTTWp6i7OUj90/rAlRFqbxZCt6I2ZdjGIPVOrolWW5qS030UaszuT8/2UNA676a4BiGCmbghGgCAPNScaDDd4yl5LLc6uPVRXRxCcWWQgjYnvkZjh5rsQrI5m+2ekg63jSaM3SQcdN6WxkaKUmZLRjvsiRt628AmGkIIUutmx5lKV/uoOotqaczK74o0zXQ2UXAwIb6rsL0XjeM3LlOvdV6IBgAgDzUpGh98SNTc+648/k+fs/pMqkRynDqau2jecuRWV5WuoavxiwBF2fdmMMY0ePwiMEiLaoei0JjGZooWM91TTdrcHbZNNAQpo3vKOrY9pg6UYR1jGqsjB/VvnN7sMVkzhQ+iAQDIpeZF4wtD1RUN1a2T61CDA5ZKlFc05PlkN5Gu9Rdw2DbRkOFU95SaNKBbGp5Fw3kNBhANAEAearp76t+dqHb31ArFwn7qn9ObFteGKMxCYDjncnVPLZzJOnrJ9RF6woto5AiRSNcBh2jk7Z7i62yiluFM80lhzViDaAAA8lDTA+EzP6vyQHhikILNfbSQM91XONmQn3pfVa0B50D4wuDBAgPhcYoeyD8QvhwJin0RWhQtDTlo3sbdVB5E42qEQiLccEK0NDaStDjcJmdJ2USjwEC4vIbmVopdTantxBC1PyKEkS8RogEAyENNicZOT7ldHMj/v4zlaIgajk3pfWWccru5lpkW6wu0UnRyRMQVotg1vd/AJhqC1Qtd1OIXaWgOUPvAFMWONVE4qlRBtTTsU277L9pTsDqeHUuR6dQCAtEAAOSjpkSjlv7cBwAAIJeKiYbVYtiq1cwyIgAAAHKomGjwgoWf2uKChf+h6yaNX9mNCxYCAMDeoGKiAQAAoP6AaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAWyk79+n99Zv09rbN2nlF6v0s2u/oMWfLcP2kPE953vPZYDLApcJACwgGkBy63aKfnl9ja4t/5LeufGu2L5D9+6lafPDD3UIsFfge873nssAlwUuE1w2uIwAANHY46TuvC9rlddX36E74jsAbnDZ4DLCZYXLDNi7QDT2MFyLXP7FWxAL4BkuK1xmuOyAvQlEYw/ywQebsrsBDz7YLlx2uAxxWQJ7C4jGHoMfcu5iSP5qXf8CwPbgMsRlCcKxt4Bo7DG4dgjBAOWCyxKXKbB3gGjsIbhLAV1SoNygXO0tIBp7BJ7xwgOYAFQCLluYVbU3gGjsEbjvGbOkQKXgssVlDNQ/EI09AP8pi+fYA1BJuIzhD4D1D0RjD8ADlZVsZURnNujwC7fol7/Cv8f3MlzGMChe/0A06hxeN4iXgagEH31E1DZyiz7+xbel/dsTN+jNd7c6/TJFy7Euagn4qaGxifY92EbR2aTeB0pnjcYONVHDmbjaTAxSqNFPJy9UJo+5rGGtqvoGolHn8IJzlZjZwoLxxPPrGcGw7MBfv6dDeCN14Sj5hBNrOT1KM9NTFDsREttBOhtP6xC1Tpz6hdi1x2q1hu0UjQiFm/3UPalFY65PiHUrjZUp+VzWuMyB+gWiUefwSqW88Fw5MQXjt59+xyYa37y0tW6whTPCoR0YoewQapIWJ+O0uls0Y7eJhpMyiwaXNS5zoH6BaNQ5PKOFVywtFywYX/iuEozY/F36u6U0/XqbEoynXrylQ3lndTgsnFaQeifXKJ3Ts+Xm8BxOejNFC0NHqcUvwokWy/5wF0VPHxTf+2hBhRCZMEX9rQHRghFh/EHqiAxSt83RF+4iS18dpd6wcfzALCU5rdLh8nktc3e+ydlB6nhQxW07XiBF81CEJiKttL+Z4xCtrs5RWs43npxaorHOcCZs6MlBmr+h9zHrav8+ea4w9cbiNNEpvlt5uDZK7WJf/5w+dybtwg6NCskuDS5rmEVV30A06hx+N0K5ljffFNFYgjH82ob8bTR+V4rGdgRDspmkmdPcJSWcFjvUnnFazPxhvbhoLA4GpfN8okd1b40JwZBxWaKRnKKTwsH6Hj5Kw+OzND8eoY6gcpJWHKuxVvI1h6h/fImS62u0GDtOoUwXWYKigSYKdo7T8lqKVuci1B44SMNx4dWTSzQ/PUQdIq6wSPf8tGghqWzJsj5L/Q+HqHtY7FsXx0/3UYtIT2gwIXdbjtt3oIfGJmeFeLSJczdRy/CK3G9jU+RHq19cSw9NLK1Rai1BY8fE9QfFtfJ5N0Va+dr8B6k/NkXzk6PUf0CEZ4FxEY3UksiPaJs4v7j2MfE9LoRbhdo2XNa4zIH6BaJR5/BLdcrBB0IwPv/t93IEY7stjBzYAcd6hEMWNXLhwM/OcVW7iGhsXKZe4RBboqaDTdH86UBGNGRLprmLZsya+/UR6ThlHJsiPhFHOLKkdzJpmuHaeedl8W2FYmHh1FsjtLCScmkNeeyeSqcoJUQjJbzy/GkRt67VK9E4bqQvRZeOiN9aXWr9omXjEw5++KreZjgPxPl7L6Yp/WqX2B+m2DW9j2EhEaLnJhqSMndPMeUqc6A2gWjUOeV4gFkwPvd/lWD89bQSjJG5MgnGpnB2ZvWWa9MsFNJpFhENpwPUJEXLwRIN1f3jdMC5cdi6aSyzjkst0cTAUXriYe6icnYfFRENcT0TR3TXljRd8zdFw5E+9zRb12XFYzc+v3ndJjI+iAYoExCNOqfU7qn7omadTzCe/JtSWxiqFuyTNfos2Zq4Fg1zf3JcdgdJJ61r2YVaGsvRUOGWhm6tdIzbXXTy2hKldKsiOTdFi9budIKGQyLNfZaQFRaN5Cg78lZR+9dXsClaEtyK2YZoqJZEG02YOzaTtLykfqiFlga6p+ofiEadU8pAOAvGn/yfX0mBOPuKmhU19KONjGDwoHipsFPl2nv4SIQmpmdFjf6gHMS1hGBxkAWAB6/HaX5yhLofVgPKlpN2jmmoKbvCSeYd0xikJ+SgeTaO5WEeBzHGRXo4DX5qHxX7U0pUfA8fp9jkLM3EeuSYRFCPSbBonOX9B/pE+sdpwXTYAp5SrAb6Vyi1vkbL4z0UFuG3Ixq0uUKxA+L6zTGLg9yd10oTfCnWmEazfUxDtkbyiUacu7xE66lP5O943JjFtj0wEF7/QDTqnFKm3P7ZsPrjXqUEwyI5nZ1d5AvwjJ9sLd+aLaRmAynxGBatj0zN3jF7iruOZiKObhpj9pQv0ErR2XFH6yAlnbkcT9Fh+oWTz2DOvmoOUHvPFK0aYxupV4WQ6PNHr+gfLURLYH4gOzMq9GSEosfE9+2IBsNdZT3Z+Pa39tCM2dAyZ0+JtLZ08uQA8T2faIizzPdY+TuY07W1VTDltv6BaNQ5pfy578GBJP3R15Xrilx+vyKCUTLpNVq8aneviwOidRIaIqtnPbWUoFWze0p3cfHgMSgv+HNf/QPRqHNKWUaEReN3Ot6hwP9OSsF4/Ln12hIMStNCn+6eGuApr46uJYZr1tx9pLuXeMrtSe7isqapgrKCZUTqH4jGHmC7CxYeG70thYOt429v04c1JRgaq3vK7FoaX7INrMvupSeDqgtGCErL0Yj9D3GgLGDBwr0BRGMPgKXRQTXA0uh7A4jGHoFntFRyeXSwt+GyhVlTewOIxh4Br3sFlQSve907QDT2EDyzpRLLpIO9DcrV3gKiscfggcrkrzIrAgJQElyWMPi9t4Bo7DE++GBT9j1DOECpcBnissRlCuwdIBp7EH7IuXaILgWwXbjscBmCYOw9IBp7GH7weQATs6qAV7iscJlBhWPvAtHY4/CMF+5i4Dn2EA+QDy4bXEa4rGCW1N4GogEk/Kcs7m7gZSC4FskLz/GKpeV66x/YPfA953vPZYDLApcJLhv44x5gIBrABq8bxAvO8UqlXKvkdyPwS3Vge8f4nvO95zLAZQFrSQETiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4RoqG2ysfYTAYDAZzGloaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPHMrdYf+P8w4Eghi2naLAAAAAElFTkSuQmCC</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAEIvSURBVHhe7Z3/cxvnfefvz8ikvbte27n2fsndXNOeb4bJ8MAcT7j2hKnHuHqCi8fIaSxGLn21Qla2WEVSGCqUw1IOj0x46gUpEtqsGSPliSPGoslItkqGLkPEFYtUJhOZTGTSloyYEmRKkGl/7vk8z7PAs4sFsCS+EATfr5nPAIt99tlnn332836+4dl/RhXk1PkUffyLb9MzP0jpX4h+kdyks6+8Tz0vpeR3C97msHzMzrBGY4eaqD22preJVkdaqeHQCK1mk2mQoOFQiIav6E1mc5b6G0MUu6a387DQ56eGzsuU1tuSzQRFA03Ue1H9mozxuUcpKbdc2LhMvY0BiprnZ66P0BONrTRxQ3yf66OGxj5aUHvc40xO0cnmIEUTajP9ahf5mrtofkNtWyxHQ4XTI5Bh2sbJeQfnTzeRry8uvsVF/jRR/5z6ndZGqV2kdczK8pURamkMU2xFbzOuec+sUCzcRC3DZmCBzBd/9hwmjvygTRVH9p6rMtAxblylvKdGGvPgmrfrIm8z5cF+7Qtn/BQc0JmuWRwIkO8M55NIVyhbFiSbSVqcjtMq3xeZb/o6+LtfpO86b+SSky5RPmSe5wlvUk/lNH2xixoCg7ToKE+rIwepoVWFXzjTRA0y/xmnP8hT3vKUz+LlYXfyZ+1HqaKi8dPVD6QQfOL4DUrnffiJ7ot9HIbD8jE7Q65o0Kb4rdVPIVGQbA+OJE3zp/zkax2hZd7JD3W0lXxBXTDX4xTrG6GFdRnYTmKQQo1B6p1coRQfu7FC830HxbHiwdEPQdGHUZx/oS9IvgN9NL+SkvmbTiZo7Jj4TT8EBR/GzTQlE6PU/bDj+qxrPjZKi0nxqww3RO3ige2fU3KweqGPzl5wPDwMOzARrjuWoCRfhzh2dbqPWsRvZ+N8BodoSIcckPvSMgFJunSE83SIFjnfdJ62DCZc8l9cr7i+UPNBOju9oq4/tUIzp9T1uwq9UzQEHEdQOJ8ZrXSpC0fFfRDb18UZ00laGBT3xRKNAvc0536Je8ppabDKg/Parw2JfGmlWEIdkZobVIKpHUpylMuSuLe8ezOlylZYVGB4pykagkKVG7dytCp+k2WNr7mOy6mNjTidDfqppW+WVvlirHjFb+2j6pm3i4aq7ARFZSetCqcqG3zPrqr4U3y+R8T9zSQqS9HyUCjfa5iKiwbzh19PSjH4m793VAkM/urV92WY//ps/qJXeVxEg5GO0C8eHJeCKGqqMz2ttL9ZFDZRuw09OUjzXHNi5IOta1IupK6OUm9Y1CyFI2loDlDL0SFbASr+MArYmYz3UMeDokbI8fiD9ETnKC1bSXV7GDmctn0PtlH/+FKuQ5bX1UYhv7qu/eGjNDybTQk/XKrl4MLaLA0fDWfyZP/DbRTNHOtwnOLMi9GDtE/8lolPnHuiM3t8i3k9LqTiQ3TSykdx/R094/nDu4iGyBUpVMGMQxJ5GtH31B+m3liEui3RKHBPnXmbUx5yrp3THsncu32PHKVY3Ex4ipZjXdSi74GtfDhEw2oxtURzhdy9HK3RhHC4vs4pSl2v33Kaw/oSTWTCc7wHxf3NxusUjbQQhSc4bHM2bavj4p4ErHvWRWNaQJwULQ9F/EOtUhXRmPzpPSkID3TdpHsujYhf3fmIfqfjHRmGw9YNVwYpyM1hvVk/JGmirYlOXijgyeuVeryndVtOa5xdmu9VEQ3mv/Wp1kb3eK6jafnOutz3R6JFUj+IGvRftdFZt2bybic5Rd1H8nT/1DX1eE/ruJzWNLs336smGj+/uUn/vP1taQvXs82N8SuqFcK/cxgAAAC1S9VEg+mduCMF4lOnb8rBsOSdj+jf/IXqlvpLsQ8AAEBtU1XR+PAjoj8eUN1UXxy5ReFvvye/B/qTch8AAIDapqqiwbx960P6XT3ozcbf+TcAAAC1T9VFg7FmU7HV1WwpAACoc3ZENBgew8A4BgAA7C52TDQAAADsPiAaO0qKVuNxWsUU+Z3jxhLNX83//yD5r17jH8KgGGpVBfNf79uD/z1ffL0vUH0gGk5SSzRmLGHByxLYl3YoI+tT1N3sz13IrRrwujfmUh+VvE7GdfmOEpDxWetZmeQu1VGI5Fgb+YIRWtbbTsohGvniKLw4nqDceabzxra0BS+7MjBLxrqhJbJDorGZpPkBczmRLpowV1TRzzUvVyOXQumcsv85NZ2k5fg4xTrbKBzIzfM0L6XyiLUESphODjnWQrsxS9FWYymbSO5aaXI5loNBmYbS82fngGjYUOvxhE6JApVZ0EwtgJbrnHYxKfFAOhZuW53skgvTWSuIlp2KiIZ4QI2F8xRbE41i1KNomHmTXktQTK5B5VjJdtvshGjoBRF5kUtuNFqLO2ZWtFULiwaFUEhxTK+ohQ4jS7xTwGnmtb0GaWywLTfP9eq6/dO6RZqclc9Pd2YtOr1SsogvxfHn7Bc/icrJ/oePU2xuhVL5l+DbFUA0TG7wAmIHc5aM5uWqG07Pyu/8oNsebL3omCrcqqAPxwblInMqnF50Ti5wpmpAlzLx2x9i6VxOj9Alq0YkajT9F7NdJ1s/tzurw2FqsFZLNZDXaTkPGXcPjY0ela0RK42rF3uo3bqW1oht4TpZG9ML2/kCYeq9oNIgnSNfj7aMQ9lcyy72KGp/7ZG4eugE8lojoxTl2p3bYnjSoYapRTysoUFT6XIdo1zQUNcS5aKAV4yHmfPcjP/6lK5R8vUJJ9J30Obw811jIYqKhsxrI49Eeqbz5Fmh81vlZ+II73cTm9y8kVwbonDjUbok7qVrHFyLflLVkN1q0asX9KKKfA8HRujsAfs50lfM/Le3ANJXjAUbH2yj4UxrV5Xn2PS4cT8itOjaGI7TWdFiP2tmsVyOXT8b8rtjOfLZHmoIDWVbmFarw0WoU6/2UPjouK0MZu4dI/Ovi2YMMZDLrVvPEp/fL/I3pxDvTiAaJvo9AZkagwvFHbd4mNmZrqTkUtKpyePZ5a0FvIR1Znlrx0MsH1i9VHY6U/vPvltiq+d2J0WXjjRR2GU1VBvakYVOjdPyml7OWjxowcxS3Um5EmzG4cquNqM2tjIiWmjGezFyHsYUzZ8OUOjMrK6dJWjYqGnLh1LkRZRrZm4Xo+Ob5+XFbS0kh2OUy48fFPGodKWm+1SeWsuPm6LB95+XyRaRcZrSK0JAgoZzKHaNeSgqGhIPLY0i55fn4WXMx5coue5WABx5Y+EUDVscSzTMeTKilp6ndVWL7n1Vx89Lp1vLu2fKrHEOfneH2D92TYTn/UJggtz9ww7WcT3q3rTRhNy0yrNuPWwsUUzkT9BWQSiALL/akcvvPTRvPtPyXR52cZC4iIaTNFcsgkbvAx9zwFEJY1GyyhV/f7KPYkZl0Etlo1aBaDjgmhyv2y/7LXuGaGZJFWiL4o7bUaPZEA7cbI7q8Go5ZPtDLB9Y3aJRqNVkLQe/5XO74uKc3DAfOok6zvZSIF2bk9ciHELK5qj0eUZ1/jkfxpz4Rd7zS3KMl+EUFDYjvuUot5xErVE6BXueFn7Rkc5z6+EWcWa7NBSyxmg59mLXmIeyiUaR88vzFOxmsueNJL0mWraihanzICcOeU5VabDgdFvL2Ofmr0iT0dLg/fb7yC+X0q0CWQaOZ95jwuV9eXqWluXl5JZnmTbr/RsFSdFMpz/bApXncQiB22+MM88N5PnZ6TcG6OSocU18jFWGLIzf1HH8TpI1mY+pREScu4JdwRUGouEG14gSPCimuk72Hcw2i4s7buu7hvtXM91TXODYzPAO0XA4F9Npbfncrjidk9rOpM0q/DkPlUpr9hosy57T9t4FbZnzOB9GuW3Go02fP+danZjxyRaC9S4JM0/VtdmETsAv0rE90Ob3I1PC5WRx3pOC15gHt/vKbFk0BIXOn+88WdzuIb/jIdvN6BrHmtE9ZZkMo9JsXyJf/Wbmv/18yqz9l06EyKcraBMJ5VQVueVZps0qn3kRz9vgQdpnvoSrTKJhoVoafnHdOiV8jDNdxm+5bz9MC1HbQqupxoBoFINfbiMKvnWDt+q4ZUGXXTq6yOSELywa8tWV+rfyiEb+Amt7KHMeKo4/kL92JMOrrgb14DucoPNh5O0C7xLYkmgw8g1z4vqv85sAC4sGvxHPJhTm90KiUewa8+B2X5kti0aR8+c7TxZ7eXMjJ44NcYyo8LSPLGUcejbd6vzFRKPYe1fS1xM0ExuU4x6+A6KCJlufueVZps3pnB3Y3khoIfOtfN1TjKzMWWWFjynQPWU+wxbF71XtAtEw8PoO4SdGjJIsC2R+x53j/PR7kbPhC4mGcvBm99RWzp2P1Hib63XaHkoZt/nwFHk/Mj84tgdaOIwDxrU7H8Yi7wLPyTcnOQ+3mkHTcKhVpDubp2Xtnip2jXmQImUOukrsXY8yrmKiUeT8xR2Rvby5kRNHTjlQr0C1whTuntKvQz7l6DLT+Zu+Hqf5uGhdqE3VYgxYx25dNFKzfRTiCpoxOUPiZSDcIqdcifOOH6fwCftAuCwXVuuhyEC4bNk6ziVfI4uWRh3g4R3CsuCGB2mBS5D1zt8Cjns5wo5M1J5ES4Pfixxr424qM7xDNKxBRYEaGMzGt6VzF3r/sPlu5TV1nam1BI3xjJljuvbk4iwKvh/5akSmdZgH8TeStDjcJrszMk5QimUbTdzw9i7wrYuGQN4/s/tDIAfCjTx1vofbdETOgfClcXHvjdZAwWtM0cJwn/t/XeSUTRWvfG96WhwbOy4HkCeMS3S+jzonz4rksbyWcouGHKwOUO+FFXFOHujuoTDPdrPCOAbCl4WDtQ2EZ94xrtIou3Ye1jOJrGN1eUpfGxFlLkjDV3lra6Kh3hUvwjtmPiocU27Xl+Q045wKEONWrmQFJztgn9M95Zxyu6b2ZyYLaL/SHlX71ZhG8QkUtQpEw0mRdwizw5X9sGKfnPI42ONoOdgLugyvZ034Aq0UnRyh7kytx0U0jkWyf0LyHzTerS3Yyrl1KyTv+4dFXNk/Q3F8Ifu7tV1Egyn0fmT71Mspih2z16SttGcGjgu8C3xboiGQzkOcw3SMhd7DneOIiky5zX+NuqWQb1DcNi7A4wg9NONwGrnvo87Ns0J5XBHREPC0WGuaNd+jib6QrY++2JRbM//lM2CU6eTsoG1f/0Xrnm9FNFTecxw5Zl2L48997fn+0JinXJnTtuWzZ/oExvbnvsL7nXmw24Bo7CguolHwod8CeO9zdZFdKwXGfACoEyAaO4Vsxo5Sh/FnwvKJBt77XG3SCVGb5q4lvQ1AvQLR2CHk4Cg39weyjqasLQ0AAKgAEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4Jmqica9D4j+Nn6Xnnh+nT7T8y791tPv0O92vCO/82+jP7lL9zd1YAAAADVJVURj6p/S9PtfuUEf/+LbBe2Brpt06WpaHwUAAKDWqLho9E7cyYjCJ798g7587jbN/Ow+rW98JG36Z2n5G++zwj378h19NAAAgFqioqJxRjh/FoHffvodOn/lHn30kd7hAu/jMByWj/n6JISjHCRjrdRwaJSSehsAAEqhYqLxyhtp6fx/48/fpn986wP9axarVeFkQYTlY3gfx7ET3HvjHJ3o+UP6xIkH6GNf/kM69J0LtJjSO2uNzTWaH2ijkL+JGhqbaN+DbRSdzUpEzYnG2ii1i3RyWp3m64vLIDLNtn1+2h/uorGr1k1Yo7FD4vfmLprf0D/ZWKFYmI/rowX9CwCgPFRENHjQ+/d0d1N0xvWpzisazHfEMbyP47h7X/9YLRLfpj868TA9Pf4GvfNeim6tvUGxsw/TJ3q/Rysf6jA1wxpNtPrJ1zpEi2tCYDfTlEwMUXtzkPrnlIPdFS2NzQRFA2GKrajNnDSnU7Q62UWhRhHmGv+gRUMISse4y5WtjFCLFBuIBgDlpiKi8b0f35VO/5OdN+jDPF1ShUSDj7EGzl8UcVWPFJ3vf4BCo2/qbc2Hb9A3Tz1AT/9Q13TfOkefP9FHsR9+jUJfFq2RE5+h0Hem6ZYhKvcWvkdP93xG7HuA/qDna3Q+E+UCPXviMD332gXRmuH9n6ZP9T1HC9toyaRf7SKfqG3POI5djoYyTjfHAW+u0ExPK+1v5pp6gNp7LtOqOWvt+hT1hgPkE07XJxx577j25JrViz3UHvCr2n9rhBbW9Q5B+kqEOh7kfarFMxz3dlGpC0fJ1zYucl/hLnRpmulsouBgQnxXotHR1kYN4RFaVQEyLA4EKCj2PVEh0djY2JBWDK/hANhNVEQ0Dn5nXTr8QuMShUSD4WN5f4uIq2q8d5GePvEIPfdzvW2wMPIgfeyv59SGFI1P06HRN+iW0LR7v5ymr3YLsTn3ltr/S7H/y4cp9nNR+/8wTe+88jX6zKk+mpP6x6LxAH2i73u0wF4x9SY99+wD9JmRN3jnllgcDFBD52XhTh0kl2h+ekk6YbsDTgnH66fQsXFa5oPSKzTGLZVMHEs0HPRT+8gKpYWQpK+NiFZLgKJX5E5Kz/ZQMNhH8xzZZpIWI0bc61PUzS2caX2m6T7RMmijCbVZAO5K8lPvq9mr8Coa/RcvU29zSLc+NBv8m2iRvMrdYJURjW9+85t05syZgoLA+zgMGwD1REVEo+GrN6XDv/LL3LEMi2KisXD9A7mf46oaUgyEs9e+3+Sd8cP0sWfP0Tu8oVsac0bL4tbkU/SxZ74nXCDR3Hc+TQ/ZWitCGJ75ND37D/ydRcMuTDLuvgsq7i2wcEa0Fs6ocYB82BywHE9wOPLkOHU0ttLYGm/Eqb8xRMNX5R5Bmlbjs+JesENXjrr3oiFR7KDFsRM3xHcZ93Gj1ZOk5elZWi4iGrK15GgtuIlGKhER8Qeofy6blpMXhHBxq2KAhUSRGhetD261yPRURjTeeustOnbsWF7hsASjvb2d5uZ0RQOAOqEiovGbTylBuH03/3SpYqLBx/J+jqtqbFU05B4Nty7kb+9STLQcuFvKac/Oc0DVPWWewxa3jTTNn/bTvtOzua0JwZZFY66PGkJDtCz3WPB4gqi1y4tJ02L0IO3jbqvOCI1xayXTdcWCosYR7GYJzhpdOhEinz9MJ3uGaCKxJlsrhUnSRFvuuIRMs+M89q4yJRrtMXFiHr/IDIjrbiuOr4KiweQTDggGqHcqIhr8b2+vosHdT3fu5YazRIOn4FaNLXVPOUTj59+jhwzRyIx/5FA+0cjbPbWZptS6+rW4aMTpbLMlGprkEi2MD1Fva4B8weN0KdMKCVA0W6l3JX09QTOxQTr5iJ98ByK0WKhLPzFIIZcZUG4tDTuGaJjCYwpIvI98FR4IdwoHBAPsBSoiGv/xlOqe4i6mfIzG79K/PqrEhQe9f/IL+zQpnnrL+6raPZV3IPxNeq4ndyDcdAv3pr+mu6fSdDnyafpEZI7u6X2STFfWVkSjMNZAuNPp5h0IL9Y9ZYyFKJRDVs5ZTWNtGbYPjJNuTaSvx2k+LloXalP8brZg3BCCeMqfG59ga6IhYrrYRQ3hIRozu6pYICssGowpHBAMsBeoiGh84btqILyvyB/0Vtc/pP19SRn219vepmd+kKJN7Vz5WP79C0NVHAhn8ky5/Vj3t2nBcvxSNPRAOHvJ5Bw92/0AfX78XbVfx/HVy2pbDpQ/8yU6L/WvfKLB/9HggezQsVFaTIqEFJ1yqwfCT03RKqc7vUITR0RrwmqtJKfopDi2d1I5Y0pepv6An7onVVxyllNzK8X0/yVSfK5HBmmRD5athuw+OYjeGDTGRxy4CZhmq6KhBr+5Gys7bbdaosFYwgHBAHuBioiGOeX2A2Ow2A2eXjvwwzv0L9rfpn1n3pX/8eBj+FiOo7pTbhVF/9wnRaOLIuPZKbeff37ONuX21j88R4dPfUaOZXziK4fpm3NaUMopGoycQmv9uY//BHeUhgv9uU+En+gMG1NuhYAYYw/pq6OZKbcNPD4xlLB1f62Od1GLnHLbRPseMf9wJ841O5iZcusLtFL/Re3UXeABbN8pl641wZZFQ8DxyQFwvV1N0WBYOCAYYC9QEdFgx2+tJZXvz31OuDsqeUeNbfAxfCz/uY/jqjncxjQAAGAPUBHRYHi1Wnb8vCRIoam3TjjsTi8jUhSIBgBgj1Ix0WB4tVp2/jwD6gcLxRcs5DC7YsFCiAYAYI9SUdFgnEujnzx3m3708/uyK4rNbWl0PgYAAEDtUXHRYLy+hInD4CVMAABQu1RFNBge0Ob/Zlive/2djtzXvdbkoDcAAIAMVRMNAAAAux+IBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzVRONex8Qjf7kLj3x/Dp9pudd+q2n36Hf6XiHmsR3/o33cRgAAAC1S1VE44f/lKbf/8oN+vgX3y5oHIbDAgAAqE0qLhrPvnzHVSCcxi0O6zsfAwAAoPaoqGh4FYw/+MpN2vyQ6K9efZ9+48/VbxCOItxYovmrSb1RmyRjrdRwaJTypnKur/B+AEDNUTHReOWNdI44uFnjM+/ShcQ9fRTRhX+8R7/WpvZxHIBZo7FDTdQeW9PbwiGPtZEvGKFlvV2LQDQAqD8qIhp37xP93pfzj2GwKBRi4KJqoXAcHBfIFY3dAEQDgPqjIqLx4o/v5giFacVEg7uqPqlFh+OqKjdmKfpkkPY1NlGDP0gdkQSZ7Z3k7CC1B/zUIPbve6SLxq6m9B7B5grN9LTS/mZxbHOA2nsu0+qm3kdx6m9spTHD7zudavpKhDoe1HE/2EbDcRH32ii1c1os0+FzHDKnuzVAPg7jD1NvbCmb7s01utQZzqSrpXNcpWt9ik7a0pSgaKCJei9aR6ZpprOJwtEVtenh+oZjg9TiVwKXk8ZUgoZ1GmXeRY4XFI1S83p4PKKP99P+1ggtrqt8UPdW5NGF3SXCANQCFRGNlu+s5wiFaf/5L9/VIfMT+bv3ZViOq3os0XDQT+0jK5SWTnWW+sV276vKiabjfRRqFk72mtpOTnaJ7S6a3+CtlHCwfgodG6dl3p1eobFWP/k6L2vnXUQ0hAPvbg5S/7Ryoalpca7GNpqQmy7dU+axG3E6a6Z7bYp6jXQvR4Lkax2xpSs4kOCAMt6MSFwborBwqL4zcbUtRSRAUQ7q6frEscI5L6ykKCV+tItGki4dEcefmqJVsS+dTFBMHJ9PNErP6yZ1Lg6fjFM0LISHhWJyTeRRmpIyf4/SpWoWLwDqgIqIRsNXb0qHf9AQj2KtCyd//+Z9eRzHVTWEM0mtp5Tj1SycEY6wj52oo9YtSdLCUB9duia+yhaB5eQ1yXHqyAhFEdGQxx+nmUxlOknL07O0rHYWFI30xS5qCA3ZxjdSs0N09oJKK19DOLIkvzPp63GajwvnKb4vR0P6+lSc4TN9dDIwSIv8A6epuY8WpBB5ub4QxTgvNLnX5zh+tiePaJQjrw/S2HW5R7I6cpAaDozQqt62hKV/Tm8CADxREdH4zaeUUPB4RMf3b29LNN5NfSiP47iqyprRPWWZrHkrx90/q4LlwP3zDsdtdfcox1RENET8l04IBy5qwyd7hmgiwTViuUNQWDTk99P5EiZccGKInvBzF00XDccsIdIkBiko050SLQFuVfC5lPOXYmTV3ku9Pj7eEiOLvGMalc5rBqIBwHaoiGj89tPvSId/595HcvvL55Rw5LP/9LXc7qqUOJb3cVxVY0M4kgB38yxlHDbX0rcvGnE627wVR8atgATNxAbp5CN+8h2I0KLsjilNNCSbouUSH6dYJ48DBKl7Use1KdLV3EoTK5epVzt1bn3wuRb6/HTygm76lHp9FReNreY1h7HCAwC8UtHuqcW3s/08hYTDrRXyT2sfyH1V7Z6S3R59tKA3mfnTlmi4dZmkaDWua+7b6DIxHZnZZSTZNGvOhUXDrXsqvSLiW+K9ZjeXIjXeZjhQdV0dR4/SPmssg8c2DnVRb8jobvJ0fQUcdcndU1vNa4gGAJXgVupO+UXjC0NqLCM6I6vJGfIJh5tofOuyGgjnuKqGHIwOUO+FFUpvpGl1sofCPDtHO1NPg7N6oJcHZyeOBIzBWeX4WwbjlBJaml7hwWoRt+XIEoMy7pieIZS+NiIcY5CGr8pNKV7Bvjil0/rcphMsOBCeHYBO8j7R4pg5LdJ1bEqkWCHjEg40O2tKCZa9ZVDs+oo5audAeJyiB8yBcCEK01O0cENulJjXEA0AKkVFRMOacuucJcVTaU2xsMwpGh9+lG2tVHvKLU97taZptnSO0kRfKNuvL8hOA+Uxgh6aMSvDm8J5GVNb23uEU8s2toiuC1F6WB8b7qLo6YM2R8ZxW1NufYFW6r+Y9XpqXILjVS2hHCdoTLmVx04aCUst0ZiVLr6uo0O0aMxeVbOm7DOJFs74jVlUmoLX58FRF5xyq2audYxl3fr28xqiAUClqIho8Gq11v8svuNobXzieP4//f2XM+/S67/4IDPdlv/ch5VvAQCgdqiIaDDWMiK/LloRvDSIxQ8W7tGnulUrws0+2XmD/tUR9R3LiAAAQG1RMdFgvj6plgP55+1vU5/4fl93H+TrpjKNjwUAAFBbVFQ0mDPGSrefOn2Tzl+5R9Z/MPLZX05AMAAAoBapuGgwl656fwkThwUAAFCbVEU0GOfrXvlVr2z8Ha97BQCA3UHVRAMAAMDuB6IBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMzsiGt+fu0/Br78vjb8DAADYHVRdNBZ++SH5uu7YjH8DAABQ+1RdNEZm7+eIBv8GAACg9kFLAwAAgGcwpgEAAMAzOyIaANQy6ZU4Layk9FYuyVgrNZyJ6y1QnDj1N7bS2Jre3C5ro9Te2EcLehPsDBANF1LxIToZDpCvsYkamgPUcnSIFtb1TovNFZrpaaOQX4QR4fY92Eb9kyt6p2Y9TsNPBmmfFU/nKC07fdHmGs0PtFE44KeGQ6OU1D97IX11lHofEcdx/P4wnRxKUFrvE1dBy7EuauF4dfqG4/kdIePpusvIwhlxnjI6X+nMm1tpwumcpLPx7rQWBvzkOzYlctCdcohGvjhseeKS7nLnGc31qfJjGJeV6HSpHt4EolFPQDQcpMVDFGo+SGenVyjFHnhDiMOpIDUEB2lxU4VhRz/W6qfQsVFaXBOBNtOUTAxRe7OfTl6w3H6SJtqaKHRmllJ8XHpFHhMcSKjdzEacog8H6ImBKVpeS1Hait8LySk62Ryk/ml9vuQs9Qf91D2pXF1ytJV8wS6aua5kJDnZRaHGNprIo0qerrvMVEQ0hNPztTrEd4uiUYz6Ew3DERtlufdi4UqGdyAa9QREw8YKxcJN1DLsaDFsJigaaBIPkXLA6Ve7yNfcRfMbcjNDaryNGkJDtCy3+EFpov45uSFJTx63tSZWh8MUGjRExBUhUIfs8TCpV3sofHTc5hyzDkUIVmsTtY+ae8W1hXLjUXi7bunoTo/QxBFujeiHVwjoTE8r7W8W5xatk/ZIXImkxGzt+Gl/uIsuXeffVd5ka7eGI0glKHY0rFpnovXUO26lSTme4dggtYjWXXss1wPJ9IXC1GITb4GL812d7KF2K12tPUJc9Q5BjmO+PqVbdBx2kMb6Dhr7811jYYqJhtxv5FF7bCpPnhU+P8fXHhmlKKffrSXrFA3NcjREDUdUa8stDtnK1a1SX0Dcpwvm/UjRYkSXCb6HsQh1O/P/opn/EVuLNn0lQh0P8j5HC1nexx66FI9kjm3pnKLVClVqgDtlF42fLG/S8Mx9+ZmPO/c+orH4fWn8PR88q4qn41ZtdtW6qL03hih2TW/nYXEwQA2dl42uIDfSNH9KtEaslsamamlkRUKIwYEg9UYGbQ/PYk7lzl00nKTZsQWDdDaeJ1Wbwuk257k2j9etHJlI8/gSJdf5PCmaPx3IXmMyQcMirZZDTwmR9AX7aF57qtUR0foJj9Cq2sx1ztyCO+Sn9pEV2eqS1xQIiGvncymh8bGDWUmp1pADmT7h1JYvsqgfpUuWh3SIRpr3B4/TxDURiahZL3O6RCVgRue9LV0snKIF1x5NyGtMr3A+Z/cXu8Z8FBMNiYeWhqc8bm6l6JxoQbplmkfRsMUhyku32cpdGREtkzDFtL6nLhzNtnLTSVqMijSZ+T/bQ0ErzZtivxCYjKA54k5Nixaw1UKW+SFa76eEUMioL1O/qNScvJDz0IAKUlbR+J7jPxi87YRFIjTwfibM//jGhqtw8KyqJiOuqsyycnlI3XA+uHlhh/OwCCtrhk20/4jZMrCc4BAt8o/pNbrUKWpu+kHNUlg0sjXSAJ0cdbQUDJajYZe4NR6vW57LFEt5nHAORouLHXKD1T20IZy72RrT55m4oTZz8lE4MF+mpaZg5+Xr4zCcX4WFzRKNpLjKmU4/+ay02q5P5WfHePZOiCNlV6IldrZ0cZoC9i661RGjpVHkGvNRLtHwksfhaP5y4SYaSqzt+WGLQwhtSlYaLFSeqpatS/5uzspWopn/VutVsnGZeq00y/Qfzwg435vl6VlallHzPnt547Sp8gGqRVlF46GvZ8WAjbedcOvCDMPGvznh6bhmGN6uOM6HVG6zQ1bm6lQEcjsTznoAk3TpiNHS0GMamZbGDY7b4QSvDVG4UdSQRVPdHqdp7s5dtTQc3TKa1QvHKSRqdgv5KmQerzvH0UmHY6ZNm1Vr3EzRojEYryx7Hmc+ZgXQYTKM6p5yu3aLrGjwBo/56H552/W5i49sPeq0mOmScTrE1pYPRa4xHzl5qbHlifO+CJx55iWPrfvnits99Aepw+hmdIsjZXRPWcepMJy/ARINMwPz3vF341wZs/aLytMJUVHgiR09QzSRWMuO9cn8sAtcTn6AilNW0fjvfXZHz9tOalo0ZI3HWeAZXZPSD47ZdLdh1tqkKCgByCBFoYfm+SHQtSu7czEeLq5BrrMtUeyAqJlNWtv5B8xlDdiRLjXALeIs1M/u8bpzHB1fL9fC9aYTGV52Q+hapcMJOh94NwedxXQ87sjjLdEQyG6SgMhv4eCKicZCn3C6Oi1mutzSZOZDsWvMhxmHiS1PPIhGsfNz+OKiYXfETnLikOdQXUiqLJrlhPO3mGi4lTU76esJmokN0slHRIvxQIQWuXUhzwvR2GnKKhr/78cf2Bw9bzvhrijukrLCFOqeMuOqzp8AVTeFbYaTxO486cogBd1mIpkPoCzg9qa0Eg3rN/sgs+T6CD3hFBp9bmf3VHL8OIVP2AfCpWiY3Ufc1+wXD2uB3gmFt+vOcXQi/pbGbF+2xBC0HGcjr8/u0Mz4XCcYZOLbumhw+id4xtqhVpHv1rHqmsrVPVXsGvPBs9uykyYsVDoyXUEeRMNLHtv2O9mOaPAxjnweExUbFcYlf23dU/kmXaiP9PU4zcdF60Jtit/VcyLLP0SjJij7QPhP3/qQYn9/X37mg0WCWxdsboJhUfWBcOa6KJjNQeqOJSjJziudomRihE6K5r81nVXUYUVhDYoakKjhraiaf3p9hebPhEWtL6IdgXo42iNqAJXHLHgKqzmukJkWyw+TNaZxyjnA7i4aymFnBwxzuqf0dfTPudfbc/Bw3bm1Y9UFJ8dlWOh4UDPaSi2D6v8iy5GgcC6ilihqwelkgmJt3IWSdWjS+bYJ55MW+zmP5KCzGuhMZvIsRCelA9qOaAjY0fAsHuNYNRAu8p0HankgfPQoBb0OhC+NU7cxEF74GkU5Ge6jmNv/Y3T3Gcer8lvkXey4bBVm/mcinW1ATm4QWSRx5lmxPK6IaFyNUEicYzghWhobIt3DbXK2mxXGORC+MHjQNhAu94vrjF1V+ZLiKb6PCGHma0wMyjyw9qWviYqPKOfDV8UGRKMmKLto1AVrsxS1/pTHs5oebqP+8SW7M3f2JfuD9MTRCM2bA6BF/9ynp0vKPwjy9EGXP/+Js67G9UCgA/lnPDkVVE97jGXTKB8mmX6HOZ2qSZHrzhUNweYKTXSG1fRK5zVsshCq6bO+QCtFJ0eo2+waWpui7oeVk8sMHDvyrH1gVgnIdkVDsCp+N50Wszpu3TuetdZDM0bFN8cRsSDLfOawjim3Ba9Rt9RsU58NHPkdetKeDr73i9GDKm5rsNeZZ0XyuCKiIVi9oMutvEdTFDtmDpZ7mHKbyf8m2vdIF41pkWCSs4OZKbd8Tf0X9YEQjZoAogFApZBdK8X77wHYTUA0AKgQ6USEOkQLwdZCBWCXA9EAAADgmR0RDZ4JxVNo2aozKwoAAEA5qLpo8EwocyotW1VnRwEAANg2VRcNvO4VAAB2L2hpAAAA8AzGNAAAAHhmR0QDAADA7gSiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0jRuHvvHsFgMBishuzu3fyf2zEr3hINogGDwWD1YJYw5Pssk0E0YDAYrBasmNPnz1KM4yiDQTRgMBhsN5slCG6fplnhSzSIBgwGg9Wimc7f+izFzLhLMIgGDAaD1YNZwmB+mmaGLcEgGjAYDFaLZjp/67MUM+MuwSAaMBgMVg9mCYP5aZoZtgSDaMBgMFgtmun8nZ/bMSveEq0qovHcj1L0u39xgz7+xbc92R985Qadi992jQsGg8FgLmYJQ77PMllVRINFwE0cChmLjFtcMBgMVpdWzOnzZynGcZTBqiIalhC47XOzrYaHwWCwPWuWILh9mmaFL9GqKhpbNbe4YDAYbE+Y6fytz1LMjLsEg2jsqK3Q91ua6NkZt331aq/Rs42P0/dX3PbBYLBtmyUM5qdpZtgSDN1TTns3Qd8/8Sjtb26ihkY/7X/0KXrhtaR72JKtkGiofYdfWHHZt5sNogGDeTLT+VufpZgZdwlWFdHYqu2caKzQ+cf99NnOl+jNd2/T3fdv01uvR+lw80P0jdcqMZsLogGDwcpkljCYn6aZYUuwqojG6fF1On1+3XWfm+2YaFx/kQ43Pkbfv2b/faFvPzWcupzZfvPl03R4v1+1RB4/S/M3dNgVPv40vfza2cz+x04IAXo/G9eb5zvpMb9oxTTvp8N9z9M3/qeLaMh4uKWjreVFess6/iXz3KfpFUdalSnBeWxoKfvb1Sg92niYzq+p7ULxzPc4xEqmx3L0yul/94UBeR25oqb3n8vmwf725+mNd+37X7h0jp75XDYPFzL7hd14jV546lHax9fuf5S+FH2dbln7POTxrfkofUnG3UT7PtdJ55ey+2CwXWOm83d+bseseEu0iotG/M07GRHwKhw7Jhrvv07f2i8c4dkE3TSckGm3Lp+mhx46Qz9i5/v+Gi2cfTzr1LWzly2V2yLs2g/pWRHfl87r7q3XB+izzcJhvr4mWzFvvtRJnxXhvbY0br3cSb6HjtH5q6oV9Mbzj5OvuZNeMR2utrdeMNJlbR8+RzfF92LxFBeNJvKxWC4l6aa4zkw4aWq/zIP3xPba6/SCaL35On+oHb91fJQWOA/fS9AL4jof6n9dHf/+Er3wqBCC/tfUPVi7TM8+JAQwogWwWB5fe160DEVa9bWxSD+0/wzNc1rk+WGwOjVLGPJ9lsmq0tL47sztLQnHjomGsFtXXqSuPxG1VK7hno7SKwnh4DP7lSN/5mWjq+q9H9IzwqGevy6+S4cmnK/hoNgB+868pr/76aE+7RylifjcWhrWPptoqO2nzpnpWaPzh91q+8LWztFTGUevwqlji8dTXDQ+Sy9ctY51Gu93tNbmB+ihTL7kHi8F7XEtcDNnyLd/gBZM0ebjm4Xj59885PGjlsBIEyL0WT9947VseBisJq2Y0+fPUozjKINVRDQsp5/PigmHFc5tX1WMa6ivn6MXTjwuB8T3PWZ1n6hacqbbKGPaoUqHJpybERc7tIYedmjKWWdqxNLUb95Ew91ZL/Tv1/Hbf7cJxY2X6EuZrqni8RQXDeu7m7nsf1+0Fgocb7aK5PcTVqtEm0y/PsZDHufen3x5DIPVgVmC4PZpmhW+RNsR0eiuddEwjbtLhCNS3Sfs8PbTt153Cce2A6Ixf0a0ilxF4x7dPHeYGtpforde7sx0TXmJp+yioVtj+Y4vKhpyrEkfs+U8hsF2qZnO3/osxcy4S7CqdE/x2lNeBYNtp0SD+/obnF0jwt58/jHdfcL97Y4BZjYrfEGHxt+r2D3FplsYX2r3G8cVj4fT/KfPl1E05CC82T2VXzS8dU/ly+Pb9KNOc/xEm+N+wmB1aZYwmJ+mmWFLsMoPhF97f0uCwbZTonH3vdfoGw/56bEzl40pty9Sl/jt8IvKid48/xT5eDD7iqrN3uQpuZ8TTo4HhIuIhnMg/I1zxwoMhN+jH50SLZwzr9Gt22oMRQ1gC+d7TQ9gv/iUcKZi22UgXFmSXm4X53c46WLxSCf+6ADNy4HqJXql8yEjDi+ikR2ovnt7ib7/uBBLkQfZgfACoqEHwg9HXtcD4a/Rtz7nHAgvkseND9EzL6n7devaS/TMnzxFL+tZYzDYrjHT+VufpZgZdwlWlZZG9/i6Z8Fg2zHRYLuRoPOnD9NneVqscH77/vgxeuaFhK3m+ua5TnpMTvdUUzq/rwWkqEMT5mnKrbZbQpD+VIbNxpk9t54qW2Q6qeyiMmZRWVYwnvdX6OVjnyWfuD7f/kfpmf7T9KdbEo3H6BvPD2SmxD567MWcKbd5RYPtxmv03f/1kDHlVs+k4n0e8vjma2fpqT9W98e3/3H61mWzVQWD1alZwmB+mmaGLcGqIhpbtR0VjToz7hLL231VESsmKjAYzJOZzt/5uR2z4i3RqiIaWxUBiEYZ7L0k3Uzwfxayf+irjkE0YLAdMUsY8n2WyaoqGls1t7hg3kzOhmr+LHWdr2Yrgw2iAYNty4o5ff4sxTiOMhhEAwaDwXazWYLg9mmaFb5EQ/cUDAaD1aKZzt/6LMXMuEuwqojG73Zs/XWvv9+J173CYDCYZ7OEwfw0zQxbglVFNHjtKRYBN3FwMxaZIXGMW1wwGAy2J8x0/tZnKWbGXYJVRTRgMBgMVmGzhMH8NM0MW4JBNGAwGKwWzXT+zs/tmBVviQbRgMFgsHowSxjyfZbJIBowGAxWC1bM6fNnKcZxlMEgGjAYDLabzRIEt0/TrPAlGkQDBoPBatFM5299lmJm3CUYRAMGg8HqwSxhMD9NM8OWYBANGAwGq0Uznb/1WYqZcZdgEA0YDAarB7OEwfw0zQxbgknRIAAAAMADEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPFMx0Xhp4R59+vRN+vgX3/ZsD3TdpB+I43YfcepvbKWxNb3pZK6PGg6NUlJvbpdkrNVzPDLsmbje2iJro9Re6HoAAHuWionGvz95w1UYitm//PO36aerH+hYdpCVEWppDFD0it4uCEQDALA3qJhoWCKwFQ4NrctjPtV9k9Kb+scdYnEwQMFAgHynLlNa/5YfiAYAYG9QU6Jx++5H9MkvqxbKyXO39a87wGaCooEwxebGqaOxi2Y29O8ZUrQYaaX9zU3U4A9TbyxC3aaTTSVouFUITmMT7Xuki8Yixws4+xQtx7qoJeCnhkY/7Q930aXrepcDp2ikr45Sb1idxyfS23sh6+Vl2NMjdKkzTPvEfplOYz+zerGH2q3ztkZoYV3vgGgAAPJQU6LB/Hj5Pv1amzqWv+8E6Ve7yCedc5rmT/mpY9zu7lMXjpIvKMTkumiDpJO0GG0Vjttyskm6dMRPoVNTtCp3JyjWKhxzHtFITR4XcfXRvN65OiLiCo/Qqtq0YRON9Snqbg5S/7Q+cGWE2puF0K2oTRm2MUi9k2ui1Zam5HQfhRqz+9OzPRS0zrsprkGIYCZuiAYAIA81JxpM93hKHsutDm59VBeHUFwZpKDNia/R2KEmu5Bszma7p6TDbaMJYzcJB523pbGRopTZktEOe+KG3jawiYYQgtS62XGm0tU+qs6iWhqz8rsiTTOdTRQcTIjvKmzvReP4jcvUa50XogEAyENNisYHHxI1974rj//T56w+kyqRHKeO5i6atxy51VWla+hq/CJAUfa9GYwxDR6/CAzSotqhKDSmsZmixUz3VJM2d4dtEw1Byuieso5tj6kDZVjHmMbqyEH9G6c3e0zWTOGDaAAAcql50fjCUHVFQ3Xr5DrU4IClEuUVDXk+2U2ka/0FHLZNNGQ41T2lJg3oloZn0XBegwFEAwCQh5runvp3J6rdPbVCsbCf+uf0psW1IQqzEBjOuVzdUwtnso5ecn2EnvAiGjlCJNJ1wCEaebun+DqbqGU403xSWDPWIBoAgDzU9ED4zM+qPBCeGKRgcx8t5Ez3FU425KfeV1VrwDkQvjB4sMBAeJyiB/IPhC9HgmJfhBZFS0MOmrdxN5UH0bgaoZAIN5wQLY2NJC0Ot8lZUjbRKDAQLq+huZViV1NqOzFE7Y8IYeRLhGgAAPJQU6Kx01NuFwfy/y9jORqihmNTel8Zp9xurmWmxfoCrRSdHBFxhSh2Te83sImGYPVCF7X4RRqaA9Q+MEWxY00UjipVUC0N+5Tb/ov2FKyOZ8dSZDq1gEA0AAD5qCnRqKU/9wEAAMilYqJhtRi2ajWzjAgAAIAcKiYavGDhp7a4YOF/6LpJ41d244KFAACwN6iYaAAAAKg/IBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAb6fv36b3127T29k1a+cUq/ezaL2jxZ8uwPWR8z/necxngssBlAgALiAaQ3Lqdol9eX6Nry7+kd268K7bv0L17adr88EMdAuwV+J7zvecywGWBywSXDS4jAEA09jipO+/LWuX11XfojvgOgBtcNriMcFnhMgP2LhCNPQzXIpd/8RbEAniGywqXGS47YG8C0diDfPDBpuxuwIMPtguXHS5DXJbA3gKiscfgh5y7GJK/Wte/ALA9uAxxWYJw7C0gGnsMrh1CMEC54LLEZQrsHSAaewjuUkCXFCg3KFd7C4jGHoFnvPAAJgCVgMsWZlXtDSAaewTue8YsKVApuGxxGQP1D0RjD8B/yuI59gBUEi5j+ANg/QPR2APwQGUlWxnRmQ06/MIt+uWv8O/xvQyXMQyK1z8QjTqH1w3iZSAqwUcfEbWN3KKPf/Ftaf/2xA16892tTr9M0XKsi1oCfmpobKJ9D7ZRdDap94HSWaOxQ03UcCauNhODFGr008kLlcljLmtYq6q+gWjUObzgXCVmtrBgPPH8ekYwLDvw1+/pEN5IXThKPuHEWk6P0sz0FMVOhMR2kM7G0zpErROnfiF27bFarWE7RSNC4WY/dU9q0ZjrE2LdSmNlSj6XNS5zoH6BaNQ5vFIpLzxXTkzB+O2n37GJxjcvba0bbOGMcGgHRig7hJqkxck4re4WzdhtouGkzKLBZY3LHKhfIBp1Ds9o4RVLywULxhe+qwQjNn+X/m4pTb/epgTjqRdv6VDeWR0OC6cVpN7JNUrn9Gy5OTyHk95M0cLQUWrxi3CixbI/3EXR0wfF9z5aUCFEJkxRf2tAtGBEGH+QOiKD1G1z9IW7yNJXR6k3bBw/MEtJTqt0uHxey9ydb3J2kDoeVHHbjhdI0TwUoYlIK+1v5jhEq6tzlJbzjSenlmisM5wJG3pykOZv6H3Mutq/T54rTL2xOE10iu9WHq6NUrvY1z+nz51Ju7BDo0KyS4PLGmZR1TcQjTqH341QruXNN0U0lmAMv7YhfxuN35WisR3BkGwmaeY0d0kJp8UOtWecFjN/WC8uGouDQek8n+hR3VtjQjBkXJZoJKfopHCwvoeP0vD4LM2PR6gjqJykFcdqrJV8zSHqH1+i5PoaLcaOUyjTRZagaKCJgp3jtLyWotW5CLUHDtJwXHj15BLNTw9Rh4grLNI9Py1aSCpbsqzPUv/DIeoeFvvWxfHTfdQi0hMaTMjdluP2HeihsclZIR5t4txN1DK8Ivfb2BT50eoX19JDE0trlFpL0Ngxcf1Bca183k2RVr42/0Hqj03R/OQo9R8Q4VlgXEQjtSTyI9omzi+ufUx8jwvhVqG2DZc1LnOgfoFo1Dn8Up1y8IEQjM9/+70cwdhuCyMHdsCxHuGQRY1cOPCzc1zVLiIaG5epVzjElqjpYFM0fzqQEQ3Zkmnuohmz5n59RDpOGcemiE/EEY4s6Z1Mmma4dt55WXxboVhYOPXWCC2spFxaQx67p9IpSgnRSAmvPH9axK1r9Uo0jhvpS9GlI+K3Vpdav2jZ+ISDH76qtxnOA3H+3otpSr/aJfaHKXZN72NYSITouYmGpMzdU0y5yhyoTSAadU45HmAWjM/9XyUYfz2tBGNkrkyCsSmcnVm95do0C4V0mkVEw+kANUnRcrBEQ3X/OB1wbhy2bhrLrONSSzQxcJSeeJi7qJzdR0VEQ1zPxBHdtSVN1/xN0XCkzz3N1nVZ8diNz29et4mMD6IBygREo84ptXvqvqhZ5xOMJ/+m1BaGqgX7ZI0+S7YmrkXD3J8cl91B0knrWnahlsZyNFS4paFbKx3jdhedvLZEKd2qSM5N0aK1O52g4ZBIc58lZIVFIznKjrxV1P71FWyKlgS3YrYhGqol0UYT5o7NJC0vqR9qoaWB7qn6B6JR55QyEM6C8Sf/51dSIM6+omZFDf1oIyMYPCheKuxUufYePhKhielZUaM/KAdxLSFYHGQB4MHrcZqfHKHuh9WAsuWknWMaasqucJJ5xzQG6Qk5aJ6NY3mYx0GMcZEeToOf2kfF/pQSFd/Dxyk2OUszsR45JhHUYxIsGmd5/4E+kf5xWjAdtoCnFKuB/hVKra/R8ngPhUX47YgGba5Q7IC4fnPM4iB357XSBF+KNabRbB/TkK2RfKIR5y4v0XrqE/k7HjdmsW0PDITXPxCNOqeUKbd/Nqz+uFcpwbBITmdnF/kCPOMnW8u3Zgup2UBKPIZF6yNTs3fMnuKuo5mIo5vGmD3lC7RSdHbc0TpISWcux1N0mH7h5DOYs6+aA9TeM0WrxthG6lUhJPr80Sv6RwvREpgfyM6MCj0Zoegx8X07osFwV1lPNr79rT00Yza0zNlTIq0tnTw5QHzPJxriLPM9Vv4O5nRtbRVMua1/IBp1Til/7ntwIEl/9HXluiKX36+IYJRMeo0Wr9rd6+KAaJ2EhsjqWU8tJWjV7J7SXVw8eAzKC/7cV/9ANOqcUpYRYdH4nY53KPC/k1IwHn9uvbYEg9K00Ke7pwZ4yquja4nhmjV3H+nuJZ5ye5K7uKxpqqCsYBmR+geisQfY7oKFx0ZvS+Fg6/jb2/RhTQmGxuqeMruWxpdsA+uye+nJoOqCEYLScjRi/0McKAtYsHBvANHYA2BpdFANsDT63gCisUfgGS2VXB4d7G24bGHW1N4AorFHwOteQSXB6173DhCNPQTPbKnEMulgb4NytbeAaOwxeKAy+avMioAAlASXJQx+7y0gGnuMDz7YlH3PEA5QKlyGuCxxmQJ7B4jGHoQfcq4doksBbBcuO1yGIBh7D4jGHoYffB7AxKwq4BUuK1xmUOHYu0A09jg844W7GHiOPcQD5IPLBpcRLiuYJbW3gWgACf8pi7sbeBkIrkXywnO8Ymm53voHdg98z/necxngssBlgssG/rgHGIgGsMHrBvGCc7xSKdcq+d0I/FId2N4xvud877kMcFnAWlLABKIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnpGi4fbKRxgMBoPBnIaWBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM/cSt2h/w8qKQ8WCw/Q/AAAAABJRU5ErkJggg==</x:t>
   </x:si>
   <x:si>
     <x:t>201306</x:t>
@@ -583,7 +604,7 @@
     <x:t xml:space="preserve">       B-1A/19,Ist Floor, Commercial Complex,Sector51 Noida,Uttar Pradesh 201307, Noida, Uttar Pradesh 201307      </x:t>
   </x:si>
   <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADvTSURBVHhe7Z2NV1znfefzZ/Sk7W7T9vTl9Jzudpu+5CzZZaGlmmyPOPXxbH3MxkezdiwiG7d2ILbFyraCUYRLIaGQsKpDOgk2K+JxiVhhC4tIkSKMKjO2hXFlSDHEMsiSx8IavY2M/N3n99znzjwzzMuFYYYBvp9zfme497n3uS8z+n3u8zKjz4AQQgjxwN827AalQQghxBOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPFE0aNz8B/jl8Aw89v4g/a/0Qv/H4B/idxg/037Ju4PUbuLVkNiaEEFKSFEUaI/8awx89fRGf/dqFrPGnzZdw/FzM7EUIIaTUKLg02oavxqXw+W9cxDcOXcHoz29h8fqnOk79PKbXSZm73bdeuWr2JoQQUkoUVBrtKvmLBH7z8Q9w+OxNfPqpKUiDlMk2sq3s8+2jpSqOUZzY8RmceM0sEkLIFqJg0vjpOzGd/H/t6xfw1vufmLUJ3FZFKhNqW9lHyqSO9eDK28/hWP3vYkDJYeDe38Xhtucwe80UUhp5Ez03gLadfmwrr0TnGbNSONOBMrXOjm131CN4asFsAERCdWq9D20n0n825vsCer+kelfCUgTjXfWo8Znj37MbfWMRU1hinB9BW6AaFeo8K6rr0BeOmgKbGMb3+VBWP4TlpWF0yn0O9GPerEni+km0VanyXQPIdAciY91ovEPVL/X4/GhsHcG817FJ/X53YMIsko1BQaQhg95/aLqbgqPXzdpkMklD+IHaR8qkjhu3zMoicfP1p3Foxxdw7PgMrtxUy9EZvPWtL2Dgiedw4bZsQWnkQ2SwHtvvehKhM3OIpn40UpPIUgyRyV40VClJHHNSniMNlaDSJsE5hAJOsl+dNCI4/qgPFfd1YHwuiuhiFPOnOlArxz+RLiGvI9fDOOD3oaF/DjGVpKPqPGvK6zCY8KvD4gj2llfDXx1AaM6si2OkocqDZ80qi9iJZi2kTNKIhdUxq+oQmlzQ5xCLzmF0nx8VdZklkwSlsSEpiDR+9NoNnfQ/33QRtzN0SWWThuzjDpy/oOoqHjM4Xf8ZHH5+BtoPLjdHMLLjl4wolkvjyuvPYuThzzktk4cfwOk37XO+gZngvTj0FVW243M49FQnphdNkXAtjNPNX3L2/cqXcOzIDOKevD2DN9u+hEP3ui2eEOYzSPTam50YftCcw4P34tXXLyeu4ZYSX9fd8Xpe6hoxAjRkLZfrvQOnT4VwTF/jL+FQYydm4i2vFSBPrr7dOJ4po2RIIrPBGpQ9OqIloaVRX4/G8jRJ8Gy3So6q7L5VSkP2r2rGaIofokP1KKvuxpRekkSrnuqHetBQLU/YPmx/tB+z9j5LCxhtrcN2eUqvqkZDTxhR8/Q90V6Jhr4xDDcFdEtLtxDOWjsntR4CaBtalukdxlpRVtOLWbMoLYrRpkr4uyfNsoOce8W+k6r1VI1AMLUuuZadaKxXx1PbJLfdIhiur1Rl6tozSGOiQ11/y5hZMkSG1HuzE4PnncWYtCrt6zniWE3ug5a/iVW3DLNw/fp1Hbnwuh1xKIg0dv5gUSf8bOMS2aQhyL5SXqvqKhqLhzG8owKnf26W49zAhTdHMH1eZJAsjds/fxaH7/0SfvbaZZ3sF09JS+VL8ToWf/KASuJP4+2P1MKty3i7S7VangpBX5WSwmuP/xJeenEGN1WSvnn+MEZ2/YGq25HObNBp4bynWjy3b6ptn1AJ+9lwstAEdd4j934BJ07Z53AvXpdjqnN/q03t1xJKqmegbQRO3s9V7lzvwBPPYkbVd+va2zj9+Gdw6PthXboiJNE93IGQSZhlvkQS0XiVRrtKgvt8KUnQ6Yap7TuJwV2rS0JT3dUoa0pNngr9tO4mQufpvGbfCOYlz0QmEapTrZN40o1ivKUaNe1jjihUeZ86n4aQlSz107lKw6olNdunricupGn0Wa2H2Ey/amWlbwXo+5CSzPU6c58cpOXlc+7FXD9q5ThGXg6OAAdPqLJyJUs7b8r2SqDjx9R7kkEajkybcTy1deOi7tv+Kj86T5m9VZ0NVZbsC9zS+O53v4v29vasQpAy2UaCeKMg0ij75iWd8M++t3wswyWXNCbOf6LLpa6iMf8cXlJP1a+l7eB1SZbGO13LE/nMs3+Aga5Rve7Sj+/AQMthk4AVH72Nt199W0vj9mtPq5bJs3jPKdG893wFBg44CfmdLtXq6X07XvfN82G8/eYCVG5PRp/3A3grfpDLeO/VEbwn0tBlrkAMH4WUHM115irX15ssUn1NT4Sw0nfG6Vryo+2o050RnVRP62o56D4cp0kiMXnyrk4k3Xhi1K0KKwnqJ9x6DEcWVi0NndDb08nQEYVTp/N07j5Ja+Rc3KS7MKCuKTkBx441o8x02cgxkmSnt6/D8EVZkLpr0HdOlyhimA+PqX8Ly8dvdJ1JLQ31VvbvTE7wSaKQlkPqWJAcT0lJCUy3KoYSaphSLRN/l3pj5D3JIA1n/GenegBQra26ZvSFwpi3q1dSjC7aK5z3pmHA1FZgabz//vvYs2dPRnG4wmhoaMCZMwVo6mxSCiKNX3/MEcKVG5mnS+WShuwr5VJX0VixNBZUS+EzGDmZ3IW2+IpqXTz+nJNU51Ur4G/Uk/vDD+DYwRBmVGvFlYBOvvIUnxpKOMLNtzrx0lekO+hrePXHRgJpWcBbf6dk85UvYeQfnsWbbymxuAdJIyZJFj/bZa4hV7m+3uR7os/bvb4UYqdasc3XivE0D3e6OyPpST6lS0UnkUSXhQ4ZXLW6dxJP2M5TtJsE9Xo9zpFNGqo10uLDtpYx6xwSeJdGytjB0lhiXbprkDCJV47hClBjpOHUF8NUUCVh6dJq6sHgqen4dS9DD1JbYxp67Ecdx7q/kvhr+xKCcruqEteeuC49fuEOiC+p9W4LJ5s0XCLTGA91Y+896v2tqsF+q/WoJz2Y7in3XsSvv8DSEDKJg8JYPQWRhnzb26s0pPvp6s3l27nSkCm4RSNj95QMiF/WA+NepHHp/92dnFRv38CFtw7jtQMP4LCSwOFgWLcWdPJtPux0VWXilmo1vB7C6TYZc/gCRn5iJZwUpCXy1o9bnfGVr3diRg6SQQon7s0ujXj5GkpDdzOlJGWd7N11HpJIQhqme0SLwhZIGAdU8lyNNLx3T6VIQxK4LY14d9NyskvDoJLwxFAv2upUsvU/mbH7J3auH3vNuEpt0wCGO2oSAtaJP5GoEyGtMWcTWxpYmkSw2hGFLZDIQOJ+eyGq3n9/+W4clw+1vjane0rEJv9edEujiNIQUsVBYeRHQaTxhX1O95R0MWViIHwDv7XbkYsMer/+i+QRXpl6K2VF7Z5yB8IPzphlQ5aB8OzdU/ZYiMPtN1txaMfTeEf9ffNUIwbubcTbdn+Tqsipy+piMiweuTdtsl7WbXXbaimsSfeUd2lkI3pk97IulfGW1JaGd2k4yTqAkHrKTXRVWYlwpWQYCJeuoIq4CNJIY6YXAbdLSrqEUgfprdZCVmnIE7u0LpwShdNtlLR9JpZEnInxD534lyV7p2WX6IZKvlci9Yp9Axi0uqqS7ncS6ng1yV1aGt3q8kH3sMr7mbSvksZ9xZeGYIuDwsiPgkjjqz90BsI7cnxBb37xNrZ3RPS2v1J/Ac+8FMWSyb6yr6z/am8RB8IV19ST96F7v4QTp2ZwTXks15RbZyD8bpx+ywxCv9aKw9ZA+Mz3Zd9nMasHMW7gvR+phPtgp5M4Jbk/+Bkc+tZhXFI73765oI5VgeEjl1XhZbzZrIRkyvQg+j8oGbUsb5ncfkuJSM7hbWfG1M13n1Ui+AJe1VnODHSrei4oq8hA9+vNqp7UgfCM5Wsnjfg00aDT7eKMaaxsYDQ5icWc7yCoxJfohslDGqrWTFNu9x5xU59Tvx4IlyZJbA6DdT74VWvJaaGYOup6MSVv1FIEU8E61CoxSnl2aagWTZUz5qOJnESnaknsP5piMRsZN5gLI7THj2173EHwqDqH9LLRYyHx72Wk3CstPNUakQFw01LMLA1Vploh0hIaNFNucX0O4x071Tr1Hsr+53r0NOC+SdXSuK7uQ1+9ngARP6/z/XhIWj4XY4ila/qtMa44KIz8KIg07Cm3nxgJZEKm13b95Cr+XcMFbGv/UH/HQ/aRfaWO4k65ddBTaN0v933lCxjuCmX9ct+V163prjLl1p7uevsy3nnWnXIr4xNP4y1rEPX2YhivPqXEIvvKdNdnRxFxd772Nl5zp9zu+BwONz+bcapr5NXWxDnsvBsnjlvThm8pEVhTd1/qOpw8dTdr+RpKQ7g4hqB0u6jkIdNNg/YX51YsDYUehM7Q5bIacn65T+rfiQP93fEpt4GnBlKm3M7pKbV6yq3pOnLLc3VP2VNUZXbZ3l5HNmnR+zpfgOwcssY/9KSANFOSBd06cwfbU++V07LRA+CGbNIQIqd6sNc936pqBB7uxrge1HeYP9KMWrmXMk7TNaLkZk8EWMDxp1TrRu0bHxwvMCIOCiM/CiINSfzub0ll+nJfKtIdFbnqjG3IPrKvfLlP6iKkdJBEm9I9RcgWoiDSEOTXaiXxy0+CZJt6m4psu94/I0JIZigNsrUpmDQE+bVaSf4yA+qlidw/WCjblP4PFpKtDaVBtjYFlYaQ+tPoew9dwav/dkt3RUmk+2l02YcQQkjpUXBpCF7/EybZhv8JEyGElC5FkYYgA9ry3Qz3v3v97cbl/90rB70JIaS0KZo0CCGEbHwoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDimaJJ4+YnwMDrN/DQ84v4s9YP8RuPf4DfbvwAlepvWSdlsg0hhJDSpSjS+Mm/xvBHT1/EZ792IWvINrItIYSQ0qTg0vjWK1fTCiI1pMXh/i37EEIIKT0KKg2vwvjjpy9h6Tbwjyeu4de+7qyjOHJwcRrj5yJmIQ8WBtBQXofBBbNcQCKhOpTtGkCms9bl7WGzRAgpRQomjZ++E1smh3RR/syHODJ50+wFHHnrJn653imTOoiwgMFdlWgIJTJ7ZLAeFf4ezJrlVUNpEEJWQEGkceMW8IffyDyGIVLIRtcxp4UidUhdZLk01gxKgxCyAgoijRdeu7FMFHbkkoZ0VX3eSEfqKioXxxB82I9t5ZUo8/nR2DMJu70TGetGQ7UPZap82z3NGDwXNSWKpTmMttZhe5Xat6oaDa0nMb9kyhBGZ0pyTk2isbM9aLzD1H1HPfrCqm6d1FV9bpjtlyVgOe+6alTINr4A2kLTifNeimC8qx41PqnDh5qHezDlnrYtjclu+Ks6MOGe8+II9pbXIDRjljGHUE0l2o6ZmhfDCO0OmHsVwN5e617pelsxOLBb34/OM2nO+fwI2u6R6/Vhe103Bjt2ZpVG1nvv5VyONKPW3IPaphHML06iz9yziuo69J216iOEpKUg0qj9weIyUdjx53//odkyMz0/u6a3lbqKxzT6/D409M8hJolzcQydarnthJN+YuEO1FSpBDvjLEeONqvlZoxfl6UoRptUQt4zhFkpjs1hsM6HiqaTJnnlkIZK0Pur/Og85aTU6Cl1rPJ6DOvFNN1T9r7Xwzhgn/eCSsbWec/2+FFR1++c11IU4+1qeZ85L1saS+ocqxKSiB1r1gk6flwtkd04Lm+JEmQooJJvdxhROWZE7lUlaoNzelNXdjX71P1YiOrzSjrnpUkE5ZyDk3r/2Jycs0roGaSR9d57OhfnWBG1e+z8EPZW+bCtuh6hSXU2SzHM9tcpcXRjytmDEJKBgkij7JuXdMLfackjV+silX9595beT+oqGip5RBedBOcy0a6eQjskkcWUFCoRcBORJoKJ3g4clySrE5Ob5A2RITTGRZFDGnr/JzEaf9iNYPbUGGadwqzS0Mm9pjdpfCM61osDR5xzjUWjiDq51uFMh2oJqRaF/G1Lw1xjw4BzERPtSjztHfA/OqKUqFD7VbjnK39LkrXuFc5aLRVdbzNGtVAdkq43zf7z/ZlaGjnuvadzacW4VT7eogTVMmaWFEn3gRCSiYJI49cfc0Qh4xGNL15ZlTQ+jN7W+0ldRWXB6p5yQycyJ3F3WnkmCUnEKYkbUE/T1U7XTO7uqQUcf6oGFdK10tqL4ckFS17ZpaH/thNgKksLVveUG+mkoWRzZDfKdOtIzl21KiLS+nCS/2ywJp649THjrSiDbomYunS95hiGZefsysig16WVRvZ7v5pzkYeBpGNRGoR4oiDS+M3HP9AJ/+rNT/XyNw454sgU/+3vlndXRdW+UiZ1FY3rKkFWSzfPdDxhJ5LLaqQRxgHTn+9lTEOInZ/EaKgbe+/xoeK+HkzpJ/V8pBFT11DtdE+5T/1yrhmkoZflCX2mFwGd1OUp36euYQHDddUITjqbpU3UF6261lsaOc6F0iBkdRS0e2rqQqI/IJs40rVC/nXhE11W1O6pNMlFd2Po5JKuiySK+bDpQtL75uqe2onB87pEYyfR2PkwxsOqdeEUOX3+8VZKdmmk656Kzan6pvWJOQlX12MYa80sDT3YXYO9uwPx40n9FU3N2G93N3nqEsosjXT7r6x7yrr3qzgXSoOQ1VEQaXy11xnLCNod2opM4kgnje+ddAbCpa6ioQejq9F2ZA6x6zHMH21FQGZCmeTiaSB83wjmpTg2h+FH1RN+/AnYSd7uYG184NdNopPduu6QmREUm+lXScyPvnN6UcvL3xFGLGaObSfgrAPhURzf44NfZgupa5Ljdt4lM5AyScMZyyizZ03prh51rnbLwAw+uwPZiIQRvCd18DmLNFIHwqeHsN8eCF+KYOLoGObNAb0MhK/kXCgNQlZHQaThTrlNnSUlU2ltWbiRKo3bnyZaK8WecivTXp1pnTItcwDDHTVJXR+JaZ8yTbQVo/bDr0pew00Ba8qtStSSxFzOKynphK32DTQj2KKerN0kqpC63Sm3MgW081gig8Ume/GQjEnI07NaTkrAgjXlVu971DqxaGJqqZ6qOtiBgNtqSJMsdctFntzNstpoWUtHsxhGX3x6skxzNbOXhFzSELJNudUC9yF41lkUst77FZ4LpUHI6iiINOTXat3vWfwgpbXx+09m/tLfX7R/iDd+8Ul8uq18uY+/fEsIIaVDQaQhuD8j8iuqFSE/DeLy0sRNfHG/04pIF59vuojPPer8zZ8RIYSQ0qJg0hC+fdT5OZBfbbiADvX3LdNdkKmbyg7ZlxBCSGlRUGkI7dYv3X6x5RIOn70J9zsYmeLvhykMQggpRQouDeH4Oe//CZNsSwghpDQpijSE1P/uVf6rVwn5m//dKyGEbAyKJg1CCCEbH0qDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4pmPo1cpDUIIId6gNAghhHiG0iCEEOIZSoMQQohnCiaNv2j/EJ/92oWk+GLLJVy9+anZghBCyEajYNL4rd0fLJOGxPFzMbMFIYSQjUbBpPFfn7mUVhodR6+aLQghhGw0CiaNe//pclppfCV42WxRokSnMdgUwLbySpRVVaO2aQTzS6ZMuD6HqaMDOLB7J2rqBxAxq11i5wbQFqhGhezv86OxJ4yotX9krBsN1T6UqfJtd9Sj72zUlGQnMlCn6qzD4IJZodDHusepq8wXwN7eSdjtuFzlLpFQnbPNsvDhQNhsJCzKvVHX7VNl7XZBrmNFMRtqRq3sp8q33bMbIY/XTQgpLQomjWdPXEsrjS8/W8rSiGF8nw9+JYqIJPrYHAbrfKjpmXaKEUanEklDUy9CrTUo25UijYUBNFT50XZ0ATHZf2EEbf5KNA6Zreb6UasSf985J2FGT3WgpupJHF/Ui5mJjGBvlSRcSxp6nR+dp0zdkTF0+n3Yf9Qk41zluTjbDX+gH/NmEQtDaKyuwf6+MOYXU9ST41jRI7tR4e/AuCn2fN2EkJKjYNKY/XBpmTD+pPkSzn9022xRglw/ibbyGoRmzLIw1oqyml7MmkWYVoN+Ok+RhrQGyuqS180GlVzMU7n+u+mk9QS+gMH7KtF2LN3zv0sUo00+NHR0oMGSRvREKwK7h5KONdGeaAHkKs9OBMcf9SVkZ2S694hdW4Lsx1LnrwS7124iiXxVi6PzjFkkhGwYCiYNYZs1g+o/f/MSLkVLWBiCtBTKWzFud0ed78dD5R2YMIsu6aSRjol2HwLBOfN3JR7qt5MnMN5SiYZQ8jqb2JkO9cSvpHVezi25e8omdl5aNX4cCKcXUK7yJKRFVNWM8etmeUm1HMrrcSDodjH5lnfbWWQ91lIM80ebUaNaHhNu/YSQDUNBpXHwzA0tjF+uv4CFj0tcGIKWRoog0q1TeJLGTK9Kvrtx3Gwk0kgVRLp1cZYmEVTJNzip/tbnsVwaifGIauwdcORkk6t8OU6rorbP2lYfuxI1+5QoxAORSfTtUsvdcmIJsh9LtarUPrr8L3dj2MupEEJKjoJK4/anwBf3O7Oovjm0AQY+11Ia6ml7v0r4nWcS171SacwGA/C3jDndWRmk4eI83WfuQspVHicyhEbVqhi2Nwt3oKK8GaNWyyB2rBll1d2YMss2WY/ltjQsmRJCNg4FlYbw6r/d0tL41YYLOPveJ2ZtiaIT8xp0T0XDeiA4nSA8d0/JudiJNYc0hPn+nSh7dASZ9JyrXJjq9qNinz3uolAtpoBHmbpkP5YzlrP3yAZ4kCCEJFFwaQgNP/pYi+P3n7yI+cUNPhBuyCiNJWfGVUP/8v6XlQyET3SY6atpQiQTGXoSgaeSB591ojb15ypPi1x/VQCh1FNfHMHedPfFtDSyHyuC40/VYH98UF3wMgGAEFKKFEUaN24lBsXLvpl+BpWsu+fZy6j9wSL+7uUo/jl8A+9fLrZgUqbcLk4jpASQ1L9vSCuNJZUMZYpuezh9Yk6ZchvR3TTWgHM2Ulsauq7ENNdlXUK5ytOgr6l+KE3rIKYkplogdb2YkmmyZkwjfl9yHGu+L4Ayd8otu6cI2dAURRpC5OqnesqtiOP3nvgAZ2aVSQz/dmkJf7D3oi6z4w+/cdFsUURSvtzX0DXmCCSFtNI405G2ZWB/vyLpy333NGPQCCQnabqnouFe7DVfqKuoDqAtNJ0kq1zlSciguzqvthMZtliKYLyrDtvl+yJp7kvWYy1FMdG7Oz7zantgBddNCCkpiiYNQcTh/pChzKjaM3AFr//iFn5vT/rfqfq1r18wexJCCCkFiioNQbqqGl+8klYSqUFpEEJIaVF0abj8y8wt/PnfL//5dDsoDUIIKS3WTRrCp58CL7x2A3/57QilQQghG4B1lYbN9AdL+McT1xD4/mWUP/Mhfv3RC/jvSiaEEEJKh5KRBiGEkNKH0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZ9ZFGi+euQX/t6/pkL8JIYRsDIoujYn3bqOi+WpSyDpCCCGlT9Gl0T92a5k0ZB0hhJDShy0NQgghnuGYBiGEEM+sizTIViKK+XAY81GzuIwFDO6qROcZs0g8EEZneR0GF8zialkYQEN5BybMIiFeoDRyMNFeibL2sFlSnB9BW6AaFeWVqKiuQ194eTaMnhtA204/tqltkpLhmQ6UqXW1fXNmRTKxE8263obQyrJBoY4XCdWhrKoOw6nFOtl4TVqTCPp82H80kzXWRhryPi2/Dqfu+Hp9P5KT5LL3N0/0PVP3NBE+bA80Y/BcRmuuAkqDrB+URg6Sksr1MA74fWjon0NsSSXrUx2oSfnHGxmsx/a7nkTozByi181KF5PEy6q7MaX2TyaG8X0+Xb4SaRTyeG4CrKgbQMSs06xIGrnYhNLYZd2vmGppHW1Wn5MAQjNmXd5QGmT9oDRykJRUxlpRVtOLWWdJEcNoUyX83ZPO4vWTaPPtxvGkDGshSeu+ejRW+9B2ImZWGiJDaCxXZfWZk9+yxFqw4znoBFgTQG2VD3uPWAdJI435o61oUMfRT9Z1rRg9bwp0gks+9/kjzaj1qftaVY2Grn4cuM8uj2I2pMrdutRT+vF4XZnJJQ39PopATXSecc4rsc5NntmO7yTrvlC3Pv90922ZNDT25yRdHbmuOYqpnjpsr1Ln6QugLdSD/fb9X1rAaKspl3vaE0Y0/pAg+9ajRu63qrvm4R5MLJoi/T624ni4J/7e1TaNYH7ZAwYhCdZcGq/PLqFv9JZ+zcTVm59iMHxLh/ydCZlVJdNx13N2lS2NdAlBr3t0RP3TVIhUHu5AqCmgu4r0P/AjVmKRJK72H+8LoKzppEolCebVuop9JzGaJfktk0bBjufgXu/ssWZUVFlySpFGTMr9T2J4Rh1hKYbZ/jq1fTNG9U1JkcZkN2qq6hCaVJWpbZ2n8ER59OiTqq4OjJtjzUtdgX7MO4sZySUNjYeWRvbjO9dSUacS71wU0RQPC96kkVxHrmuOHtmtytX9PK82jkUwFVTl8fsfxXhLNWraxxxRRCbRZ11zUt1LEYy3+1FWP+R8XvX7WImafUoUuuqT6KyuVA8Ia9mVRjYbayqNH6V8B0OWUxFJ1HRdi2/zP79zPa04ZFZVpVXXes2yspOKJMfklob8A98ZTxI6YZT70XZ0wem+mlRPcGo5aBoiOmlJV5F5yh92M8vSJILV1QiezZ78UqVRuOM5JBJgVCU9Hypc8SRJwzm3xiG3ciGC4XgLJlkaE+0++LvcExTU/nZL47pKpHY3mznW8EWznIG1kkb248u11GTtZkonDed9qVbXKHcvTR1Zj5nm/i6NqTrM/dfbKqFY++vPqelS1OezZyTxwBCZxvipaUsayfvK/ajosO4HISmsqTTu/HZCBhKynIq0LuxtJGRdKjId195GlteDpKQi3UFV1pjGZC8apEvAJNOJDtXET3qiT+m+iictZzwhPkCt1leYcQc7+eljq4S7PJyEsdbHSyUpAUZGsFdde9sxlW5MUnOkkT6RTnVXm/tmS8NJgMlPss66uDSWopiKd9UkX2820l/HKqSR9fhyLdnPxRG5u58TFdWqBTjkTkZIU0fOYyrB256169DXlHw8He77tjCC/Xf5sO2e3ejsHcKUtFZc9PuY434QksKaSuN/dCQnellOZUNLQxE714+98f7fAQx31MST9GywZtk/OJ1E3HV20jrbDb9O3HZCV0/odVaSkyfQRYlphNTTeNtRdzmqpbXmx0shSRoK3U1S3Yrxc7mloYWmz0PKvUtDH1N3p5jkliSozKyVNLIfP03CTyH1ni1neR25j5lDGvK+OgXpkW7AyREMdu1GrU+99z2TzoMGpUFWwZpK48evfZKU6GU5FemKki4pd5ts3VN2XcXonpoKBhDotv/BpDy5p7I0h1DA6eYRJKmmdl+Nt6R78hfUvjXqyT3Ub3UdpSS5OMmJ1aVwx3NYngAXlGR88O+qQyCe1Jw61qp7alnyP9+Ph3IkamF5q0uhu+GUbI+ZtR6kkf34hZFG9mOmub9299RcP2plZpbbkBHUA4WDkkV4DBN260IeHtx7QGmQVbDmA+Fvv38boX+5pV8zIZKQ1oVEOmG4FHsgXH9vwQzSxtTTWURPqbXGCFxUWXQujNAeP7btMYPggjslNzitByWdvmzrH3RK0pLBaOlKkAFp5591piTurE+VRuGO55A2AUqikS45K/E5A+FmoFbdm9mB3fB7HAifHXoyaSB8tsevjtmDKfXUHYtMIlQvrTpzrEV1zzv6E7N/bKRePb4z5wxQX5/DeMdOPQg84fbZ62SshHlR1W3yqB6TqlfXqFbo1lu24xdIGtmPaVp41kD4RLe6rnh5BMcf9aGirhdTcl+WnIHyWvXgIJc41e23ytT97pNWTY/zoEFpkFWw5tLY6MwPJfqW5ct7wbGUf/76H1oltt1Rj84hJ1kncXEMwbrEl/+S9k990tUD1ImWSuYk7jwxzqbLRAU5nkOmBDiv1ieSlkPivpkpt/En3xRpKLJOuV1awHEzG0xfz9F+7He7v/S9zzworr/kaL54KXXX7u5NEYyq+6kaXd4wYK7K9PlLktb1Zjt+gaSR/ZhCrim3cxhW++ty02066z7JyIyprsSU26Tp0JQGWQWUBtk4uOMyZpEQUnwoDbJBiGHqH+tx4Iw9iE4IKTaUBiGEEM+sizRkJpRMoZVYry/tEUIIWTlFl4bMhLKn0kqs58+EEEII8U7RpcH/7pUQQjYubGkQQgjxDMc0CCGEeGZdpEEIIWRjQmkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9oady4eRMMBoPBKKG4cWP5az5h151HUBoMBoOxGcIVg/1qh71tHkFpMBgMRimGnfxTX1cTbr15BqXBYDAYmyFcMWR6XaOgNBgMBqMUIlfSl9d8QupYg6A0GAwGYyOHK4R0r3a42+cZlAaDwWCUYtjJ333NJ+y68whKg8FgMDZDuGKwX+2wt80jKA0Gg8EoxbCTv/uaT9h15xFFkcZzr0bxO//7Ij77tQue4o+fvohD4Stp62IwGAxGmnDFYL/aYW+bRxRFGiKBdHLIFiKZdHUxGAzGlgg7+ae+ribcevOMokjDFUG6snSx0u0ZDAZjy4crhkyvaxRFlcZKI11dDAaDsSkjV9KX13xC6liDoDTWNebwYm0lvjWarmyzxml8q/wBvDiXrozBYKw4XCGke7XD3T7PYPdUanw4iRef2oHtVZUoK/dh+47HcPB0JP22eUc2aThljxycS1O2kYPSYDA8hZ383dd8wq47jyiKNFYa6yeNORx+wIe7m17Gux9ewY1rV/D+G0E8UnUnvnO6ELO5KA0Gg7FG4YrBfrXD3jaPKIo0WoYW0XJ4MW1Zulg3aZx/AY+U348XZ5LXT3RsR9m+k/Hld19pwSPbfU5L5IEDGL9otp2T/VvwyukD8fL7n1ICupao693DTbjfp1oxVdvxSMfz+M69aaSh65GWjonaF/C+u//L9rFb8NOUc3XCEc79vdOJdeeC2FH+CA4vOMvZ6hlvTZGVPh830TtJ/4cHu/R1LJeaKT+UuAfbG57HOx8mlx88fgjPfDlxDyfi5SounsbBx3Zgm1y7bweeCL6Bj90yD/f44/EgntB1V2Lbl5tweDpRxmBsmLCTv/uaT9h15xEFl0b43atxCXgVx7pJ49ob+N52lQgPTOKSlYTs+PhkC+68sx2vSvK9toCJAw8kkrpJ9rqlckVtu/ATfEvV98Rh0731RhfurlIJ840F3Yp59+Um3K2299rS+PiVJlTcuQeHzzmtoHeefwAVVU34qZ1wTbx/0Dovd/mRQ7ik/s5VT25pVKJCZDkdwSV1nfHtdDjl+h5cVssLb+Cgar1VNP3EJH53/yAm5B5ensRBdZ13dr7h7H9tGgd3KBF0nnbeg4WT+NadSoA9RoC57vHM86plqM7VXJtI+s7t7RiXc9HHZzA2abhisF/tsLfNI4rS0vjh6JUViWPdpKHi47MvoPmv1VOqPOG2BPHTSZXg4+VOIn/mFaur6vJP8IxKqIfPq791QlPJ10pQkoAr2k+bv324s8MkRx2qvnQtDbcsSRrO8mOH7PNZwOFH0j3tq1g4hMfiid7Zztk3dz25pXE3Dp5z900NKU9prY134c74fVm+vxbaA0Zwo+2o2N6FCVvasn+VSvyyzsM93uEKRoeS0N0+fOd0YnsGY0OEnfxTX1cTbr15RkGk4Sb9TJFLHO526cqKEvKE+sYhHHzqAT0gvu1+t/vEeUqOdxvFwyRUndBUcrPqkoRW1ioJzUnW8SdiHc46b9JIn6wnOreb+pPXJ4ni4st4It41lbue3NJw/04XacqvqdZClv3tVpH++ym3VWJCn7/Zx8M9Xv7+ZLrHDMYmClcMmV7XKNZFGvtLXRp2SHeJSkRO94kkvO343htptpNYB2mMt6tWUVpp3MSlQ4+grOFlvP9KU7xryks9ay4N0xrLtH9OaeixJrPPiu8xg7FBIlfSl9d8QupYgyhK95T89pRXYUislzSkr78stWtExbvP32+6T6S/PWWAWcLdPmtCk7+L2D0lYVoYTzT4rP1y1yPn/ODzaygNPQhvd09lloa37qlM9/gKXm2yx09MpLyfDMamClcI6V7tcLfPMwo/ED5zbUXCkFgvady4fBrfudOH+9tPWlNuX0CzWvfIC04SvXT4MVTIYPZZ52n2kkzJ/bJKcjIgnEMaqQPh7xzak2Ug/CZe3adaOO2n8fEVZwzFGcBWyXfGDGC/8JhKpmo5zUC4ExG80qCOn5Kkc9Wjk/iOLozrgepp/LTpTqsOL9JIDFTfuDKNFx9QslT3IDEQnkUaZiD8kZ43zED4aXzvy6kD4TnucfmdeOZl5/36eOZlPPPXj+EVM2uMwdgwYSd/9zWfsOvOI4rS0tg/tOhZGBLrJg2Ji5M43PII7pZpsSr5bfur+/HMwcmkJ9d3DzXhfj3d05nS+aIRSM6EpsLTlFsTHyshPai3TdSZOLaZKptjOqnuorJmUbmRtZ5rc3hlz92oUNdXsX0HnulswYMrksb9+M7zXfEpsTv2vLBsym1GaUhcPI0f/s2d1pRbM5NKyjzc40unD+Cxv3Len4rtD+B7J+1WFYOxScMVg/1qh71tHlEUaaw01lUamyykSyxj91VBIpdUGAyGp7CTv/uaT9h15xFFkcZKJUBprEFcjuDSpHxnIfGFvuIEpcFgrEu4YrBf7bC3zSOKKo2VRrq6GN5Cz4aquhvNh4vZypCgNBiMNQk7+ae+ribcevMMSoPBYDA2Q7hiyPS6RsHuKQaDwSiFyJX05TWfkDrWIIoijd9pXPl/9/pHTfzvXhkMBiNnuEJI92qHu32eURRpyG9PiQTSySFdiGR61T7p6mIwGIwtEXbyd1/zCbvuPKIo0mAwGAxGgcMVg/1qh71tHkFpMBgMRimGnfzd13zCrjuPoDQYDAZjM4QrBvvVDnvbPILSYDAYjFIMO/mnvq4m3HrzDEqDwWAwNkO4Ysj0ukZBaTAYDEYpRK6kL6/5hNSxBkFpMBgMxkYOVwjpXu1wt88zKA0Gg8EoxbCTv/uaT9h15xGUBoPBYGyGcMVgv9phb5tHaGmAEEII8QClQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8UzBpPHyxE38l5ZL+OzXLniOP22+hJfUfhuPMDrL6zC4YBZTOdOBsl0DiJjF1RIJ1XmuR2/bHjZLK2RhAA3ZrocQsmUpmDT+096LacWQK/791y/g7flPTC3ryFw/asurETxrlrNCaRBCtgYFk4YrgZWwq3dR7/PF/ZcQWzIr14mp7mr4q6tRse8kYmZdZigNQsjWoKSkceXGp/j8N5wWyt5DV8zadWBpEsHqAEJnhtBY3ozR62Z9nCimeuqwvaoSZb4A2kI92G8n2egk+uqUcMorse2eZgz2PJkl2UcxG2pGbbUPZeU+bA804/h5U5RCqjRi5wbQFnCOU6HOt+1IIsvrbVv6cbwpgG2qXJ+nVS7MH2tFg3vcuh5MLJoCSoMQkoGSkobw2uwt/HK9s6/8vR7ETjSjQifnGMb3+dA4lJzuo0d2o8KvZHJetUFiEUwF61TidpNsBMcf9aFm3wjmdfEkQnUqMWeQRvTok6quDoybwvl+VVegH/POYhJJ0lgcwf4qPzpPmR3n+tFQpUQ35yzqbcv9aDu6oFptMUROdaCmPFEeG2uF3z3ukroGJcF43ZQGISQDJScNYf9QVO8rrQ5pfRSXFFGc7YY/KYkvYHBXZbJIlsYS3VM64dZj2CqGStAZWxrXo4jaLRmTsIcvmmWLJGkoEUQX7Y4z57waBpyjOC2NMf23QwyjTZXwd0+qv51t245Z+18/iTb3uJQGISQDJSmNT24DVW0f6v0ffM7tMykSkSE0VjVj3E3kbleVeUJ3xi+qEZTcG8ca05Dxi+puTDkFDtnGNJaimIp3T1WaSJ+wk6ShiFrdU+6+DSFnR71typjGfP9Os07ON7FPImzxURqEkOWUvDS+2ltcaTjdOssTqr/LtcTaSkMfT3cTmaf+LAk7SRp6O6d7ypk0YFoanqWReg0WlAYhJAMl3T31H58qdvfUHEIBHzrPmEWXmV4ERARWcl6r7qmJ9kSi15zvx0NepLFMROq87kuRRsbuKbnOStT2xZtPDu6MNUqDEJKBkh4IH/15kQfCJ7vhr+rAxLLpvirJ1vjQdsJpDaQOhE9078wyEB5G8L7MA+GzPX5V1oMp1dLQg+b10k3lQRrnelCjtuubVC2N6xFM9dXrWVJJ0sgyEK6voaoOoXNRZ3myFw33KDHKJVIahJAMlJQ01nvK7VRX5u9lzAZrULZnxJSt4ZTbpYX4tNiK6joEj/arumoQmjHlFknSUMwfaUatT51DVTUaukYQ2lOJQNCxgtPSSJ5y23ks+QzmhxJjKfo8jUAoDUJIJkpKGqX05T5CCCHLKZg03BbDSqNkfkaEEELIMgomDfnBwi+u8AcL/6T5EobObsQfLCSEkK1BwaRBCCFk80FpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAZJInbrFi4vXsHChUuY+8U8fj7zC0z9fJaxhULec3nv5TMgnwX5TBDiQmkQzcdXonjv/AJmZt/DBxc/VMtXcfNmDEu3b5styFZB3nN57+UzIJ8F+UzIZ0M+I4RQGluc6NVr+qny/PwHuKr+JiQd8tmQz4h8VuQzQ7YulMYWRp4iZ3/xPmVBPCOfFfnMyGeHbE0ojS3IJ58s6e4G/sMnq0U+O/IZks8S2VpQGlsM+UcuXQyRjxbNGkJWh3yG5LNEcWwtKI0thjwdUhhkrZDPknymyNaB0thCSJcCu6TIWsPP1daC0tgiyIwXGcAkpBDIZ4uzqrYGlMYWQfqeOUuKFAr5bMlnjGx+KI0tgHwpS+bYE1JI5DPGLwBufiiNLYAMVBaylREcvY5HDn6M9z7it8e3MvIZ46D45ofS2OTI7wbJz0AUgk8/Ber7P8Znv3ZBx3946iLe/XCl0y+jmA01o7bah7LySmy7ox7BsYgpI/mzgMFdlShrDzuLk92oKfdh75HC3GP5rPG3qjY3lMYmR35wrhAzW0QYDz2/GBeGG/f902WzhTeiR3ajQiWx2pYBjJ4aQeipGrXsx4FwzGxR6oTRqWTXECrVJ+xUafQgUOXD/qNGGmc6lKzrMLhGpy+fNfnMkc0LpbHJkV8qlR+eW0tsYfzm4x8kSeO7x1fWDTbRrhLaff1IDKFGMHU0jPmN4oyNJo1U1lga8lmTzxzZvFAamxyZ0SK/WLpWiDC++kNHGKHxG/jZdAy/Uu8I47EXPjZbeWe+L6CSlh9tRxcQW9azlS7hpSTppSgmenej1qe2Uy2W7YFmBFt2qr87MOFsoW7CCDrrqlULRm3j86Oxpxv7kxJ99i6y2LkBtAWs/bvGEJFz1QlXjutG+uQbGetG4x1O3Un7K7Q0d/VguKcO26ukDtXqahrAbKbx5Og0BpsC8W1rHu7G+EVTJiw65dv0sQJoC4Ux3KT+du/hwgAaVFnnGXPs+Lmr2DWglJ0f8lnjLKrNDaWxyZH/G2Gtft58SVXjCqPv9HW9biB8Q0tjNcLQLEUw2iJdUippSUJtHcJU/AvruaUx1e3XyfOhVqd7a1AJQ9flSiMygr0qwVbctRt9Q2MYH+pBo99Jkm4d86E6VFTVoHNoGpHFBUyFnkRNvItsEsHqSvibhjC7EMX8mR40VO9EX1hl9cg0xk/1olHVFVDnPX5KtZCc25JgcQydd9Vgf58qW1T7n+pArTqfmu5JXewm7or7WjF4dEzJo14duxK1fXO6PIkldT/qfOpaWjE8vYDowiQG96jr96trleMuqXOVa/PtRGdoBONHB9B5n9peBJNGGtFpdT+C9er46toH1d9hJW5nq1UjnzX5zJHNC6WxyZH/VGct+EQJ4399//IyYay2hbEMScChVpWQ1RO5SuAHzsijdg5pXD+JNpUQa4N2go1ivKU6Lg3dkqlqxqj95H6+XydOXceSqk/VEeiZNoVCDKPydN50Uv01h1BAJfW6HkzMRdO0hjx2T8WiiCppRFVWHm9RdZunekcaT1rnF8XxR9W6ujRP/aplU6ESfN85syzIPVDHbzsWQ+xEsyoPIDRjygQRiZJeOmlo1rh7SlirzxwpTSiNTc5a/AMWYXz5WUcY/3TKEUb/mTUSxpJKdvbjrTxNiyh00swhjdQEaIioloMrDaf7JzUBL68jqZvGDXe/6DSGu3bjobukiyq1+yiHNNT1DD9qurZ0mCd/Wxop55f+nN3rcutJDjm+fd02uj5Kg6wRlMYmJ9/uqVvqyTqTMB7+v/m2MJyn4Ar9RJ8g8SRupGGXR4Z0d5BO0uYpO1tLYzZYk72lYVorjUPJKToyM42oaVVEzoxgyi2OTaKvRp1zhyuy7NKIDEgir1NP/+YKllRLQloxq5CG05Kox7BdsBTB7LSzohRaGuye2vxQGpucfAbCRRh//X8+0oI48FNnVlTvq9fjwpBB8XyRpCpP74FHezB8akw90e/Ug7iuCKa6RQAyeD2E8aP92H+XM6DsJunUMQ1nyq5KkhnHNLrxkB40T9Qx2yfjINa4SKucgw8NA6o86kil4q4nETo6htFQqx6T8JsxCZHGASm/r0Od/xAm7IStkCnFzkD/HKKLC5gdakVAbb8aaWBpDqH71PXbYxY7pTuvDsNyKe6YRlXymIZujWSSRli6vFTrqUPd36GwNYttdXAgfPNDaWxy8ply+7d9zhf3CiUMl8ipxOyiimqZ8ZN4yndnCzmzgRx59KnWR/zJPmX2lHQdjfakdNNYs6cqqusQHBtKaR1EdTLX4ylmm06V5OPYs6+qqtHQOoJ5a2wjekKJxBw/eNasdFEtgfGuxMyomod7ENyj/l6NNATpKmtN1Le9rhWjdkPLnj2lzrW2SSYHqL8zSUMdZbzVvb/dy7q2Vgqn3G5+KI1NTj5f7rujK4K//LaTunpOXiuIMPImtoCpc8npdapLtU5qeuH2rEenJzFvd0+ZLi4ZPCZrC7/ct/mhNDY5+fyMiEjjtxs/QPU/RLQwHnhusbSEgRgmOkz3VJdMeU3pWhLkyVq6j0z3kky53StdXO40VbKm8GdENj+UxhZgtT9YuGfgihaHROM/X8HtkhKGwe2esruWhqaTBtZ199LDfqcLRgmldndP8hfiyJrAHyzcGlAaWwD+NDopBvxp9K0BpbFFkBkthfx5dLK1kc8WZ01tDSiNLQL/u1dSSPjfvW4dKI0thMxsKcTPpJOtDT9XWwtKY4shA5WRj+K/CEhIXshniYPfWwtKY4vxySdLuu+Z4iD5Ip8h+SzJZ4psHSiNLYj8I5enQ3YpkNUinx35DFEYWw9KYwsj//BlAJOzqohX5LMinxk+cGxdKI0tjsx4kS4GmWNPeZBMyGdDPiPyWeEsqa0NpUE08qUs6W6Qn4GQp0j54Tn5xdK1+l//yMZB3nN57+UzIJ8F+UzIZ4Nf3CMCpUGSkN8Nkh+ck18qladK+b8R5D/VYWydkPdc3nv5DMhngb8lRWwoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4Rksj3X/5yGAwGAxGarClQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzH0ev4v8DmkJk4jQ9PEoAAAAASUVORK5CYII=</x:t>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADtBSURBVHhe7Z2NV1znfefzZ/Sk7W7T9vTl9Jzudpu+5CzZZaGlmmyPOPXxbH3MxkezdiwiB7d2ILbFyraCUSSXQkIhYVWHdBJs1sTjErHCFhaRIkUYVWbsCOPKkGKIZZAlj4U1ehsZ+bvP77nPnXnm/cIwwwDfzzm/M9z73PvcF4bf5z4vM3wKhBBCiAf+tmk3KA1CCCGeoDQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeKZk0rj5MfDP4Rt48Lkl/FnbB/iNx97H7zS/r3+WdYOv38CtZbMxIYSQsqQk0hj91xj+6KmL+PRXL+SMP229hOPnYmYvQggh5UbRpdE+cjUuhc9+/SK+fugKxn5+C0vXP9Fx6ucxvU7K3O2++cpVszchhJByoqjS6FDJXyTwm4+9j8Nnb+KTT0xBBqRMtpFtZZ9vHS1XcYzhxI5P4cRrZpEQQrYQRZPGT96O6eT/a1+7gDff+9isTeC2KlKZVNvKPlImdawHV956FscafxeDSg6D9/4uDrc/i7lrppDSKJjouUG07/RjW2U1us6YlcKZTlSodXZsu6MRwVOLZgMgEmpQ631oP5H5vbHQH9D7JdW7EpYjmOhuRJ3PHP+e3egfj5jCMuP8KNoDtahS51lV24D+cNQU2MQwsc+HisZhpJeG0SX3OTCABbMmiesn0V6jyncNIu0OZPhd2bHq+0/KnqJIQwa9/9B0NwXHrpu1yWSThvB9tY+USR03bpmVJeLm60/h0I7P4djxWVy5qZajs3jzm5/D4OPP4sJt2YLSKITIUCO23/UEQmfmEU19a+hE1IlJs4jlGCJTfWiqUZI45qQ8RxoqMWVMgvMIBQpJWhEcf8SHqvs6MTEfRXQpioVTnaiX45/IlJDXkethHPT70DQwj9iyErE6z7rKBgwl/OqwNIq9lbXw1wYQmjfr4hhpqPLgWbPKInaiVQspozRsFgfRlOnYZFNSFGn88LUbOul/tuUibmfpksolDdnHHTh/QdVVOmZxuvFTOPzcLLQfXG6OYnTHLxlRpEvjyuvPYPShzzgtk4cewOmf2ed8A7PBe3HoS6psx2dw6MkuzCyZIuFaGKdbv+Ds+6Uv4NiRWcQ9eXsWP2v/Ag7d67Z4QljIItFrP+vCyFfMOXzlXrz6+uXENdxS4uu+O17PS92jRoCGnOVyvXfg9KkQjulr/CUcau7CbLzltQLkydW3G8ezZaBUaRjmgnWoeGRUS0JLo7ERzZUZkuDZHpUcVdl9q5SG7F/TirEUP0SHG1FR24NpvSSJVj3VD/eiqVY9watWz/ZHBjBn77O8iLG2BmyXp/SaWjT1hhE1MwMnO6rR1D+OkZaAbmnpFsJZa+ek1kMA7cNpmd5hvA0VdX2YM4vSohhrqYa/Z8osO8i5V+07qVpPtQgEU+uSa9mJ5kZ1PLVNctstgpHGalWmrn010tDrkn+Xcu0VHWGzpM74bB/23iP3UFp0rRjJcqmFcv36dR358LrdVqco0tj5/SWd8HONS+SShiD7Snm9qqtkLB3GyI4qnP65WY5zAxd+NoqZ8yKDZGnc/vkzOHzvF/DT1y7rZL90SloqX4jXsfTjB1QSfwpvfagWbl3GW92q1fJkCPqqlBRee+yX8NKLs7ipkvTN84cxuusPVN2OdOaCTgvnXdXiuX1Tbfu4StjPhJOFJqjzHr33czhxyj6He/G6HFOd+5vtar8DoaR6BttH4eT9fOXO9Q4+/gxmVX23rr2F0499Coe+l/jj94wkuoc6ETIJs8KnkuIRK9N4lUaHSoL7fClJ0OmGqe8/iaFdq5PGdE8tKlpSk6dCP63vxNB5WXCezuv2jWJB8ktkCqEG1TqJJ90oJg7Uoq5j3BGFKu9X59MUcq5TJ86aBoSmVBpWLam5fnU9cSHNoN9qPcRmB1QrK3MrQN+HlGSu15n75CAtL59zL+YHUC/HSZrW7ghw6IQqq1SytPOlbK8EOnFM/U6KIY3zcm1qn1l119R9WDjSqoSvti9Czv7Od76Djo6OnEKQMtlGguSmKNKo+MYlnfDPvps+luGSTxqT5z/W5VJXyVh4Fi+pp+rXMnbwuiRL4+3u9EQ++8wfYLB7TK+79KM7MHjgsEnAig/fwluvvqWlcfu1p1TL5Bm865Ro3n2uCoMHnT+st7tVq6fvrXjdN8+H8dbPFqFyezL6vB/Am/GDXMa7r47iXZGGLnMFYvgwpORorjNfub7eZJHqa3o8hJX+ZpyuJT/ajy46XSpT6mldLQfdh+MM0ojJk3dtIunGE6NuVVhJMDKsWh+NGIksrloaqU/CCRxROHU6T+eOQAxyLm7S1ckyOQHHjrWiosFJvHKMJNmZhDtyURak7jr0n9MlCpVMw+PqbyF9/EbXmdTSUL/KgZ3JCT5JFNJySB0LkuMpKSmB6VbFcEIN06pl4u9Wvxj5nRRBGpMdqdJXgqvzwbz115T33nsPe/bsySoOVxhNTU04c2Y1TdStRVGk8euPOkK4ciP7dKl80pB9pVzqKhkrlsaiail8CqMnk7vQll5RrYvHnnWS6oJqBfyNenJ/6AEcez6EWdVacSWgk688xaeGEo5w880uvPQl6Q76Kl79kZFARhbx5t8p2XzpCxj9h2fwszeVWNyDZBCTJIuf7jLXkK9cX2/yPdHn7V5fCrFTbdjma8NEhoe6yU5fypN8SpeKloZKLHb4/Gi2uncST9jOU7SbBPV6Pc6RSxqqNXLAh20Hxq1zSOBdGikJcnk8sS7TNUiYxCvHcAWoSUq4MUwHd2KbdGm19GLo1Ez8utPQg9TWmIYe+1HHse6vJP76/kRidruqEteeuC49fuEOiC+r9W4LpyjScH5Hme7TamTvhWzioDBWTlGkIZ/29ioN6X66ejN9O1caMgW3ZGTtnpIB8ct6YNyLNC79v7uTk+rtG7jw5mG8dvABHFYSOBwM69aCTr6th52uqmzcUq2G10M43S5jDp/D6I/tv8xkpCXy5o/anPGVr3VhVg6SRQon7s0tjXj5GkpDdzOlJGWd7N11GVoaqSSk4SRBRxS2QMI4qJLnaqThvXsqJUFKArelEe9uSie3NAyRGUwO96G9oRZV/idwPMuvPHZuAHvNuEp9yyBGOusSAtaJP1NiltaYs4ktDSxPIVjriMIWSGQwcb+zskpp7D2SMnhUZFLFQWGsjqJI43P7nO4p6WLKxmD4Bn5rtyMXGfR+/RfJI7wy9VbKSto95Q6EPz9rlg05BsJzd0/ZYyEOt3/WhkM7nsLb6uebp5oxeG8z3rL7m1RFTl1WF5Nh6ci9GZN1WrfVbaulsCbdU96lkYvokd1pXSoTB1JbGt6l4STrAEIhu6vKSoQrJctAuHQFVcVFkEEas30IuF1S0iWUOkhvtRZySkPJYkJaF06Jwuk2Sto+G8sizsT4h078acneadkluqGS75VIvWrfIIasrqqk+52NrNJQDw8p1+5IQ8l7nz0OZMjWqlpDbHFQGKujKNL48g+cgfDOPB/QW1i6je2dEb3trzRewNMvRbFssq/sK+u/3FfCgXDFNfXkfejeL+DEqVlcUx7LN+XWGQi/G6ffNIPQr7XhsDUQPvs92fcZzOlBjBt494cq4X6ly0mckty/8ikc+uZhXFI73765qI5VhZEjl1XhZfysVQnJlOlB9H9QMjqQ3jK5/aYSkZzDW86MqZvvPKNE8Dm8qrOcGehW9VxQVpGB7tdbVT2pA+FZy9dOGvFpokGn28UZ07AS7EqlYZKPPEEnumEKkIaqNduU271HkhOtHgiXjBebx1CDD36VDJ0EaOpo6MO0/KKWI5gONqBeiVHKc0tDtWhqnDEfTeQkulRLYv/RHE/kyzFE58MI7fFj2x53EDyqziGzbPRYSPxzGSn3SgtPJXYZADctxVVLQ7d01H1TK2PxqdOuNBRTPagz41uCHru6K8fMujXEFQeFsTqKIg17yu3HRgLZkOm13T++in/XdAHbOj7Qn/GQfWRfqaO0U24d9BRa98N9X/ocRrpDOT/cd+V1a7qrTLm1p7vevoy3n3Gn3Mr4xFN40xpEvb0UxqtPKrHIvjLd9ZkxRNydr72F19wptzs+g8Otz2Sd6hp5tS1xDjvvxonj1rThW0oE1tTdl7oPJ0/dzVm+htIQLo4jKN0uKjnJdNOg/cG5FUtDoQehs3S5rIa8H+6T+nfi4EBPfMpt4MnBlCm383pKrZ5ya7qO3PJ83VMx+eCjmXIrs8v29jmyyYje1/kAZNewNf6hJwVk+lyGQrfO3MH21HvltGz0ALhh1dJQxM724kF9H32oe6gXwT2WNBTRcC+a73Ckn/ZeKDIiDgpjdRRFGpL43e+SyvbhvlSkOypy1RnbkH1kX/lwn9RFSPkgiTY9QRKyVSiKNAT5tlpJ/PKVILmm3qYi267314gQkh1Kg2xtiiYNQb6tVpK/zIB6aTL/FxbKNuX/hYVka0NpkK1NUaUhpH41+t5DV/Dqv93SXVESmb4aXfYhhBBSfhRdGoLXf8Ik2/CfMBFCSPlSEmkIMqAtn81w/93rbzen/7tXDnoTQkh5UzJpEEII2fhQGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEMyWTxs2PgcHXb+DB55bwZ20f4Dceex+/3fw+qtXPsk7KZBtCCCHlS0mk8eN/jeGPnrqIT3/1Qs6QbWRbQggh5UnRpfHNV65mFERqSIvD/Vn2IYQQUn4UVRpehfHHT13C8m3gH09cw699zVlHceTh4gwmzkXMQgEsDqKpsgFDi2a5iERCDajYNYhsZ63LO8JmiRBSjhRNGj95O5Ymh0xR+fQHODJ10+wFHHnzJn650SmTOoiwiKFd1WgKJTJ7ZKgRVf5ezJnlVUNpEEJWQFGkceMW8Idfzz6GIVLIRfcxp4UidUhdJF0aawalQQhZAUWRxguv3UgThR35pCFdVZ810pG6SsrFcQQf8mNbZTUqfH40907Bbu9ExnvQVOtDhSrfdk8rhs5FTYlieR5jbQ3YXqP2ralFU9tJLCybMoTRlZKcU5No7Gwvmu8wdd/RiP6wqlsndVWfG2b7tAQs591QiyrZxhdAe2gmcd7LEUx0N6LOJ3X4UPdQL6bd07alMdUDf00nJt1zXhrF3so6hGbNMuYRqqtG+zFT81IYod0Bc68C2Ntn3StdbxuGBnfr+9F1JsM5nx9F+z1yvT5sb+jBUOfOnNLIee+9nMuRVtSbe1DfMoqFpSn0m3tWVduA/rNWfYSQjBRFGvXfX0oThR1//vcfmC2z0/vTa3pbqat0zKDf70PTwDxikjiXxtGllttPOOknFu5EXY1KsLPOcuRoq1puxcR1WYpirEUl5D3DmJPi2DyGGnyoajlpklceaagEvb/Gj65TTkqNnlLHqmzEiF7M0D1l73s9jIP2eS+qZGyd91yvH1UNA855LUcx0aGW95nzsqWxrM6xJiGJ2LFWnaDjx9US2Y3j8itRggwFVPLtCSMqx4zIvapGfXBeb+rKrm6fuh+LUX1eSee8PIWgnHNwSu8fm5dzVgk9izRy3ntP5+IcK6J2j50fxt4aH7bVNiI0pc5mOYa5gQYljh5MO3sQQrJQFGlUfOOSTvg7LXnka12k8i/v3NL7SV0lQyWP6JKT4FwmO9RTaKckspiSQjUCbiLSRDDZ14njkmR1YnKTvCEyjOa4KPJIQ+//BMbiD7sRzJ0ax5xTmFMaOrnX9SWNb0TH+3DwiHOusWgUUSfXOpzpVC0h1aKQn21pmGtsGnQuYrJDiaejE/5HRpUSFWq/Kvd85WdJsta9wlmrpaLrbcWYFqpD0vVm2H9hIFtLI8+993QubZiwyicOKEEdGDdLiqT7QAjJRlGk8euPOqKQ8YjmF6+sShofRG/r/aSukrJodU+5oROZk7i7rDyThCTilMQNqKfpWqdrJn/31CKOP1mHKulaaevDyNSiJa/c0tA/2wkwleVFq3vKjUzSULI5shsVunUk565aFRFpfTjJfy5YF0/c+pjxVpRBt0RMXbpecwxD2jm7MjLodRmlkfver+Zc5GEg6ViUBiGeKIo0fvOx93XCv3rzE7389UOOOLLFf/u79O6qqNpXyqSuknFdJcha6eaZiSfsRHJZjTTCOGj6872MaQix81MYC/Vg7z0+VN3Xi2n9pF6INGLqGmqd7in3qV/ONYs09LI8oc/2IaCTujzl+9Q1LGKkoRbBKWezjIn6olXXeksjz7lQGoSsjqJ2T01fSPQH5BJHplbIvy5+rMtK2j2VIbnobgydXDJ1kUSxEDZdSHrffN1TOzF0Xpdo7CQaOx/GRFi1Lpwip88/3krJLY1M3VOxeVXfjD4xJ+HqegzjbdmloQe767B3dyB+PKm/qqUV++3uJk9dQtmlkWn/lXVPWfd+FedCaRCyOooijS/3OWMZQbtDW5FNHJmk8d2TzkC41FUy9GB0LdqPzCN2PYaFo20IyEwok1w8DYTvG8WCFMfmMfKIesKPPwE7ydsdrI0P/LpJdKpH1x0yM4JiswMqifnRf04vann5O8OIxcyx7QSccyA8iuN7fPDLbCF1TXLcrrtkBlI2aThjGRX2rCnd1aPO1W4ZmMFndyAbkTCC96QOPueQRupA+Mww9tsD4csRTB4dx4I5oJeB8JWcC6VByOooijTcKbeps6RkKq0tCzdSpXH7k0RrpdRTbmXaqzOtU6ZlDmKksy6p6yMx7VOmibZhzH74VclrpCVgTblViVqSmMt5JSWdsNW+gVYED6gnazeJKqRud8qtTAHtOpbIYLGpPjwoYxLy9KyWkxKwYE251fsetU4smphaqqeqDnUi4LYaMiRL3XKRJ3ezrDZKa+lolsLoj09PlmmuZvaSkE8aQq4pt1rgPgTPOotCznu/wnOhNAhZHUWRhnxbrfs5i++ntDZ+/4nsH/r7i44P8MYvPo5Pt5UP9/GbbwkhpHwoijQE92tEfkW1IuSrQVxemryJz+93WhGZ4rMtF/GZR5yf+TUihBBSXhRNGsK3jjpfB/KrTRfQqX6+ZboLsnVT2SH7EkIIKS+KKg2hw/qm288fuITDZ2/C/QxGtvj7EQqDEELKkaJLQzh+zvs/YZJtCSGElCclkYaQ+u9e5V+9SsjP/HevhBCyMSiZNAghhGx8KA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZz6KXqU0CCGEeIPSIIQQ4hlKgxBCiGcoDUIIIZ4pmjT+ouMDfPqrF5Li8wcu4erNT8wWhBBCNhpFk8Zv7X4/TRoSx8/FzBaEEEI2GkWTxn99+lJGaXQevWq2IIQQstEomjTu/afLGaXxpeBls0WZEp3BUEsA2yqrUVFTi/qWUSwsmzLh+jymjw7i4O6dqGscRMSsdomdG0R7oBZVsr/Pj+beMKLW/pHxHjTV+lChyrfd0Yj+s1FTkpvIYIOqswFDi2aFQh/rHqeuCl8Ae/umYLfj8pW7REINzjZp4cPBsNlIWJJ7o67bp8o67IJ8x4piLtSKetlPlW+7ZzdCHq+bEFJeFE0az5y4llEaX3ymnKURw8Q+H/xKFBFJ9LF5DDX4UNc74xQjjC4lkqaWPoTa6lCxK0Uai4NoqvGj/egiYrL/4ija/dVoHjZbzQ+gXiX+/nNOwoye6kRdzRM4vqQXsxMZxd4aSbiWNPQ6P7pOmboj4+jy+7D/qEnG+crzcbYH/sAAFswiFofRXFuH/f1hLCylqCfPsaJHdqPK34kJU+z5ugkhZUfRpDH3wXKaMP6k9RLOf3jbbFGGXD+J9so6hGbNsjDehoq6PsyZRZhWg346T5GGtAYqGpLXzQWVXMxTuf655aT1BL6Iofuq0X4s0/O/SxRjLT40dXaiyZJG9EQbAruHk4412ZFoAeQrz00Exx/xJWRnZLr3iF1bgtzHUuevBLvXbiKJfFWLo+uMWSSEbBiKJg1hmzWD6j9/4xIuRctYGIK0FCrbMGF3R50fwIOVnZg0iy6ZpJGJyQ4fAsF583M1HhywkycwcaAaTaHkdTaxM53qiV9J67ycW3L3lE3svLRq/DgYziygfOVJSIuophUT183ysmo5VDbiYNDtYvKld9tZ5DzWcgwLR1tRp1oek279hJANQ1Gl8fyZG1oYv9x4AYsflbkwBC2NFEFkWqfwJI3ZPpV8d+O42UikkSqITOviLE8hqJJvcEr9rM8jXRqJ8Yha7B105GSTrzwdp1VR329tq49djbp9ShTigcgU+nep5R45sQS5j6VaVWofXf6XuzHi5VQIIWVHUaVx+xPg8/udWVTfGN4AA59rKQ31tL1fJfyuM4nrXqk05oIB+A+MO91ZWaTh4jzdZ+9CylceJzKMZtWqGLE3C3eiqrIVY1bLIHasFRW1PZg2yzY5j+W2NCyZEkI2DkWVhvDqv93S0vjVpgs4++7HZm2ZohPzGnRPRcN6IDiTIDx3T8m52Ik1jzSEhYGdqHhkFNn0nK9cmO7xo2qfPe6iUC2mgEeZuuQ+ljOWs/fIBniQIIQkUXRpCE0//EiL4/efuIiFpQ0+EG7IKo1lZ8ZV00B6/8tKBsInO8301QwhkokMP4HAk8mDzzpRm/rzlWdErr8mgFDqqS+NYm+m+2JaGrmPFcHxJ+uwPz6oLniZAEAIKUdKIo0btxKD4hXfyDyDStbd88xl1H9/CX/3chT/HL6B9y6XWjApU26XZhBSAkjq3zdklMaySoYyRbcjnDkxp0y5jehuGmvAORepLQ1dV2Kaa1qXUL7yDOhrahzO0DqIKYmpFkhDH6ZlmqwZ04jflzzHWugPoMKdcsvuKUI2NCWRhhC5+omecivi+L3H38eZOWUSw79dWsYf7L2oy+z4w69fNFuUkJQP9zV1jzsCSSGjNM50ZmwZ2J+vSPpw3z2tGDICyUuG7qlouA97zQfqqmoDaA/NJMkqX3kSMuiuzqv9RJYtliOY6G7Advm8SIb7kvNYy1FM9u2Oz7zaHljBdRNCyoqSSUMQcbhfZCgzqvYMXsHrv7iF39uT+Xuqfu1rF8yehBBCyoGSSkOQrqrmF69klERqUBqEEFJelFwaLv8yewt//vfpX59uB6VBCCHlxbpJQ/jkE+CF127gL78VoTQIIWQDsK7SsJl5fxn/eOIaAt+7jMqnP8CvP3IB/13JhBBCSPlQNtIghBBS/lAahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPHMukjjxTO34P/WNR3yMyGEkI1ByaUx+e5tVLVeTQpZRwghpPwpuTQGxm+lSUPWEUIIKX/Y0iCEEOIZjmkQQgjxzLpIg2wlolgIh7EQNYtpLGJoVzW6zphF4oEwuiobMLRoFlfL4iCaKjsxaRYJ8QKlkYfJjmpUdITNkuL8KNoDtaiqrEZVbQP6w+nZMHpuEO07/dimtklKhmc6UaHW1ffPmxXJxE606nqbQivLBsU6XiTUgIqaBoykFutk4zVpTSHo82H/0WzWWBtpyO8p/TqcuuPr9f1ITpJpv98C0fdM3dNE+LA90Iqhc1mtuQooDbJ+UBp5SEoq18M46PehaWAesWWVrE91oi7ljzcy1Ijtdz2B0Jl5RK+blS4miVfU9mBa7Z9MDBP7fLp8JdIo5vHcBFjVMIiIWadZkTTysQmlscu6XzHV0jraqt4nAYRmzbqCoTTI+kFp5CEpqYy3oaKuD3POkiKGsZZq+HumnMXrJ9Hu243jSRnWQpLWfY1orvWh/UTMrDREhtFcqcoasye/tMRatOM56ARYF0B9jQ97j1gHySCNhaNtaFLH0U/WDW0YO28KdIJLPveFI62o96n7WlOLpu4BHLzPLo9iLqTK3brUU/rxeF3ZyScN/XsUgZroOuOcV2KdmzxzHd9J1v2hHn3+me5bmjQ09vskUx35rjmK6d4GbK9R5+kLoD3Ui/32/V9exFibKZd72htGNP6QIPs2ok7ut6q77qFeTC6ZIv17bMPxcG/8d1ffMoqFtAcMQhKsuTRen1tG/9gt/ZqNqzc/wVD4lg75ORsyq0qm467n7CpbGpkSgl73yKj601SIVB7qRKgloLuK9B/4ESuxSBJX+0/0B1DRclKlkgQLal3VvpMYy5H80qRRtOM5uNc7d6wVVTWWnFKkEZNy/xMYmVVHWI5hbqBBbd+KMX1TUqQx1YO6mgaEplRlalvnKTxRHj36hKqrExPmWAtSV2AAC85iVvJJQ+OhpZH7+M61VDWoxDsfRTTFw4I3aSTXke+ao0d2q3J1P8+rjWMRTAdVefz+RzFxoBZ1HeOOKCJT6LeuOanu5QgmOvyoaBx23q/691iNun1KFLrqk+iqrVYPCGvZlUY2G2sqjR+mfAZDllMRSdR1X4tv8z+/fT2jOGRWVbVV13rNsrKTiiTH5JaG/IHvjCcJnTAq/Wg/uuh0X02pJzi1HDQNEZ20pKvIPOWPuJlleQrB2loEz+ZOfqnSKN7xHBIJMKqSng9VrniSpOGcW/OwW7kQwUi8BZMsjckOH/zd7gkKan+7pXFdJVK7m80ca+SiWc7CWkkj9/HlWupydjNlkobze6lV1yh3L0MdOY+Z4f4uj6s6zP3X2yqhWPvr96npUtTns2c08cAQmcHEqRlLGsn7yv2o6rTuByEprKk07vxWQgYSspyKtC7sbSRkXSoyHdfeRpbXg6SkIt1BNdaYxlQfmqRLwCTTyU7VxE96ok/pvoonLWc8IT5ArdZXmXEHO/npY6uEmx5Owljr46WSlAAjo9irrr39mEo3Jqk50sicSKd7as19s6XhJMDkJ1lnXVway1FMx7tqkq83F5mvYxXSyHl8uZbc5+KI3N3Piapa1QIcdicjZKgj7zGV4G3P2nXoa0o+ng7397Y4iv13+bDtnt3o6hvGtLRWXPTvMc/9ICSFNZXG/+hMTvSynMqGloYidm4Ae+P9v4MY6ayLJ+m5YF3aH5xOIu46O2md7YFfJ247oasn9AYryckT6JLEDELqabz9qLsc1dJa8+OlkCQNhe4mqW3DxLn80tBC0+ch5d6loY+pu1NMcksSVHbWShq5j58h4aeQes/SSa8j/zHzSEN+r05BZqQbcGoUQ927Ue9Tv/veKedBg9Igq2BNpfGj1z5OSvSynIp0RUmXlLtNru4pu65SdE9NBwMI9Nh/MClP7qkszyMUcLp5BEmqqd1XEwcyPfkLat869eQeGrC6jlKSXJzkxOpSvOM5pCfARSUZH/y7GhCIJzWnjrXqnkpL/ucH8GCeRC2kt7oUuhtOyfaYWetBGrmPXxxp5D5mhvtrd0/ND6BeZma5DRlBPVA4KFmExzFpty7k4cG9B5QGWQVrPhD+1nu3EfqXW/o1GyIJaV1IZBKGS6kHwvXnFswgbUw9nUX0lFprjMBFlUXnwwjt8WPbHjMILrhTcoMzelDS6cu2/qBTkpYMRktXggxIO3/W2ZK4sz5VGsU7nkPGBCiJRrrkrMTnDISbgVp1b+YGd8PvcSB8bviJpIHwuV6/OmYvptVTdywyhVCjtOrMsZbUPe8cSMz+sZF69fjOvDNAfX0eE5079SDwpNtnr5OxEuZFVbfJo3pMqlFdo1qhW2+5jl8kaeQ+pmnhWQPhkz3quuLlERx/xIeqhj5My31ZdgbK69WDg1zidI/fKlP3u19aNb3OgwalQVbBmktjo7MwnOhblg/vBcdT/vz1H1o1tt3RiK5hJ1kncXEcwYbEh/+S9k990tUD1ImWSvYk7jwxzmXKREU5nkO2BLig1ieSlkPivpkpt/En3xRpKHJOuV1exHEzG0xfz9EB7He7v/S9zz4orj/kaD54KXXX7+5LEYyq+8k6Xd40aK7K9PlLktb15jp+kaSR+5hCvim38xhR++ty02065z7JyIyp7sSU26Tp0JQGWQWUBtk4uOMyZpEQUnooDbJBiGH6Hxtx8Iw9iE4IKTWUBiGEEM+sizRkJpRMoZVYrw/tEUIIWTkll4bMhLKn0kqs59eEEEII8U7JpcF/90oIIRsXtjQIIYR4hmMahBBCPLMu0iCEELIxoTQIIYR4htIghBDiGUqDEEKIZygNQgghnqE0CCGEeIbSIIQQ4hlKgxBCiGe0NG7cvAkGg8FglFHcuJH+WkjYdRcQlAaDwWBshnDFYL/aYW9bQFAaDAaDUY5hJ//U19WEW2+BQWkwGAzGZghXDNle1ygoDQaDwSiHyJf05bWQkDrWICgNBoPB2MjhCiHTqx3u9gUGpcFgMBjlGHbyd18LCbvuAoLSYDAYjM0QrhjsVzvsbQsISoPBYDDKMezk774WEnbdBURJpPHsq1H8zv++iE9/9YKn+OOnLuJQ+ErGuhgMBoORIVwx2K922NsWECWRhkggkxxyhUgmU10MBoOxJcJO/qmvqwm33gKjJNJwRZCpLFOsdHsGg8HY8uGKIdvrGkVJpbHSyFQXg8FgbMrIl/TltZCQOtYgKI11jXm8WF+Nb45lKtuscRrfrHwAL85nKmMwGCsOVwiZXu1wty8w2D2VGh9M4cUnd2B7TTUqKn3YvuNRPH86knnbgiOXNJyyh5+fz1C2kYPSYDA8hZ383ddCwq67gCiJNFYa6yeNeRx+wIe7W17GOx9cwY1rV/DeG0E8XHMnvn26GLO5KA0Gg7FG4YrBfrXD3raAKIk0Dgwv4cDhpYxlmWLdpHH+BTxceT9enE1eP9m5HRX7TsaX33nlAB7e7nNaIg8cxMRFs+287H8Ar5w+GC+//0kloGuJut453IL7faoVU7MdD3c+h2/fm0Eauh5p6ZiofwHvufu/bB/7AH6Scq5OOMK5v28mse5cEDsqH8bhRWc5Vz0TbSmy0ufjJnon6f/g+W59HelSM+WHEvdge9NzePuD5PLnjx/C019M3MPJeLmKi6fx/KM7sE2u3bcDjwffwEdumYd7/NFEEI/ruqux7YstODyTKGMwNkzYyd99LSTsuguIoksj/M7VuAS8imPdpHHtDXx3u0qEB6dwyUpCdnx08gDuvLMDr0ryvbaIyYMPJJK6Sfa6pXJFbbv4Y3xT1ff4YdO99UY37q5RCfONRd2KeeflFtyttvfa0vjolRZU3bkHh885raC3n3sAVTUt+ImdcE2897x1Xu7yw4dwSf2cr5780qhGlchyJoJL6jrj2+lwyvU9uKyWF9/A86r1VtXyY5P43f2DmJR7eHkKz6vrvLPrDWf/azN4focSQddp53eweBLfvFMJsNcIMN89nn1OtQzVuZprE0nfub0DE3Iu+vgMxiYNVwz2qx32tgVESVoaPxi7siJxrJs0VHx09gW0/rV6SpUn3ANB/GRKJfh4uZPIn37F6qq6/GM8rRLq4fPqZ53QVPK1EpQk4KqO0+ZnH+7sNMlRh6ovU0vDLUuShrP86CH7fBZx+OFMT/sqFg/h0Xiid7Zz9s1fT35p3I3nz7n7poaUp7TWJrpxZ/y+pO+vhfaAEdxYB6q2d2PSlrbsX6MSv6zzcI93uILRoSR0tw/fPp3YnsHYEGEn/9TX1YRbb4FRFGm4ST9b5BOHu12mspKEPKG+cQjPP/mAHhDfdr/bfeI8Jce7jeJhEqpOaCq5WXVJQqtok4TmJOv4E7EOZ503aWRO1pNd2039yeuTRHHxZTwe75rKX09+abg/Z4oM5ddUayHH/narSP/8pNsqMaHP3+zj4R6n/36y3WMGYxOFK4Zsr2sU6yKN/eUuDTuku0QlIqf7RBLednz3jQzbSayDNCY6VKsoozRu4tKhh1HR9DLee6Ul3jXlpZ41l4ZpjWXbP6809FiT2WfF95jB2CCRL+nLayEhdaxBlKR7Sr57yqswJNZLGtLXX5HaNaLinefuN90n0t+eMsAs4W6fM6HJzyXsnpIwLYzHm3zWfvnrkXP+ynNrKA09CG93T2WXhrfuqWz3+ApebbHHT0yk/D4ZjE0VrhAyvdrhbl9gFH8gfPbaioQhsV7SuHH5NL59pw/3d5y0pty+gFa17uEXnCR66fCjqJLB7LPO0+wlmZL7RZXkZEA4jzRSB8LfPrQnx0D4Tby6T7VwOk7joyvOGIozgK2S76wZwH7hUZVM1XKGgXAnInilSR0/JUnnq0cn8R3dmNAD1TP4ScudVh1epJEYqL5xZQYvPqBkqe5BYiA8hzTMQPjDvW+YgfDT+O4XUwfC89zjyjvx9MvO7+uj2Zfx9F8/ilfMrDEGY8OEnfzd10LCrruAKElLY//wkmdhSKybNCQuTuHwgYdxt0yLVclv21/dj6efn0p6cn3nUAvu19M9nSmdLxqB5E1oKjxNuTXxkRLSV/S2iToTxzZTZfNMJ9VdVNYsKjdy1nNtHq/suRtV6vqqtu/A010H8JUVSeN+fPu57viU2B17XkibcptVGhIXT+MHf3OnNeXWzKSSMg/3+NLpg3j0r5zfT9X2B/Ddk3arisHYpOGKwX61w962gCiJNFYa6yqNTRbSJZa1+6ookU8qDAbDU9jJ330tJOy6C4iSSGOlEqA01iAuR3BpSj6zkPhAX2mC0mAw1iVcMdivdtjbFhAllcZKI1NdDG+hZ0PV3I3Ww6VsZUhQGgzGmoSd/FNfVxNuvQUGpcFgMBibIVwxZHtdo2D3FIPBYJRD5Ev68lpISB1rECWRxu80r/zfvf5RC//dK4PBYOQNVwiZXu1wty8wSiIN+e4pkUAmOWQKkUyf2idTXQwGg7Elwk7+7mshYdddQJREGgwGg8EocrhisF/tsLctICgNBoPBKMewk7/7WkjYdRcQlAaDwWBshnDFYL/aYW9bQFAaDAaDUY5hJ//U19WEW2+BQWkwGAzGZghXDNle1ygoDQaDwSiHyJf05bWQkDrWICgNBoPB2MjhCiHTqx3u9gUGpcFgMBjlGHbyd18LCbvuAoLSYDAYjM0QrhjsVzvsbQsILQ0QQgghHqA0CCGEeIbSIIQQ4hlKgxBCiGcoDUIIIZ6hNAghhHiG0iCEEOIZSoMQQohnKA1CCCGeoTQIIYR4htIghBDiGUqDEEKIZygNQgghnimaNF6evIn/cuASPv3VC57jT1sv4SW138YjjK7KBgwtmsVUznSiYtcgImZxtURCDZ7r0dt2hM3SClkcRFOu6yGEbFmKJo3/tPdiRjHki3//tQt4a+FjU8s6Mj+A+spaBM+a5ZxQGoSQrUHRpOFKYCXs6lvS+3x+/yXEls3KdWK6pxb+2lpU7TuJmFmXHUqDELI1KCtpXLnxCT77daeFsvfQFbN2HVieQrA2gNCZYTRXtmLsulkfJ4rp3gZsr6lGhS+A9lAv9ttJNjqF/gYlnMpqbLunFUO9T+RI9lHMhVpRX+tDRaUP2wOtOH7eFKWQKo3YuUG0B5zjVKnzbT+SyPJ62wMDON4SwDZVrs/TKhcWjrWhyT1uQy8ml0wBpUEIyUJZSUN4be4WfrnR2Vd+Xg9iJ1pRpZNzDBP7fGgeTk730SO7UeVXMjmv2iCxCKaDDSpxu0k2guOP+FC3bxQLungKoQaVmLNII3r0CVVXJyZM4cKAqiswgAVnMYkkaSyNYn+NH12nzI7zA2iqUaKbdxb1tpV+tB9dVK22GCKnOlFXmSiPjbfB7x53WV2DkmC8bkqDEJKFspOGsH84qveVVoe0PkpLiijO9sCflMQXMbSrOlkky+OJ7imdcBsxYhVDJeisLY3rUUTtloxJ2CMXzbJFkjSUCKJLdseZc15Ng85RnJbGuP7ZIYaxlmr4e6bUz8627ces/a+fRLt7XEqDEJKFspTGx7eBmvYP9P5fedbtMykRkWE017Riwk3kbleVeUJ3xi9qEZTcG8ca05Dxi9oeTDsFDrnGNJajmI53T1WbyJywk6ShiFrdU+6+TSFnR71typjGwsBOs07ON7FPImzxURqEkHTKXhpf7iutNJxunfSE6u92LbG20tDH091E5qk/R8JOkobezumeciYNmJaGZ2mkXoMFpUEIyUJZd0/9xydL3T01j1DAh64zZtFltg8BEYGVnNeqe2qyI5HoNecH8KAXaaSJSJ3XfSnSyNo9JddZjfr+ePPJwZ2xRmkQQrJQ1gPhYz8v8UD4VA/8NZ2YTJvuq5JsnQ/tJ5zWQOpA+GTPzhwD4WEE78s+ED7X61dlvZhWLQ09aN4o3VQepHGuF3Vqu/4p1dK4HsF0f6OeJZUkjRwD4foaahoQOhd1lqf60HSPEqNcIqVBCMlCWUljvafcTndn/1zGXLAOFXtGTdkaTrldXoxPi62qbUDw6ICqqw6hWVNukSQNxcKRVtT71DnU1KKpexShPdUIBB0rOC2N5Cm3XceSz2BhODGWos/TCITSIIRko6ykUU4f7iOEEJJO0aThthhWGmXzNSKEEELSKJo05AsLP7/CLyz8k9ZLGD67Eb+wkBBCtgZFkwYhhJDNB6VBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGiSJ2K1buLx0BYsXLmH+Fwv4+ewvMP3zOcYWCvmdy+9e3gPyXpD3BCEulAbRfHQlinfPL2J27l28f/EDtXwVN2/GsHz7ttmCbBXkdy6/e3kPyHtB3hPy3pD3CCGUxhYnevWafqo8v/A+rqqfCcmEvDfkPSLvFXnPkK0LpbGFkafIuV+8R1kQz8h7Rd4z8t4hWxNKYwvy8cfLuruBf/hktch7R95D8l4iWwtKY4shf+TSxRD5cMmsIWR1yHtI3ksUx9aC0thiyNMhhUHWCnkvyXuKbB0ojS2EdCmwS4qsNXxfbS0ojS2CzHiRAUxCioG8tziramtAaWwRpO+Zs6RIsZD3lrzHyOaH0tgCyIeyZI49IcVE3mP8AODmh9LYAshAZTFbGcGx63j4+Y/w7of89PhWRt5jHBTf/FAamxz53iD5Gohi8MknQOPAR/j0Vy/o+A9PXsQ7H6x0+mUUc6FW1Nf6UFFZjW13NCI4HjFlpHAWMbSrGhUdYWdxqgd1lT7sPVKceyzvNX5X1eaG0tjkyBfOFWNmiwjjweeW4sJw475/umy28Eb0yG5UqSRWf2AQY6dGEXqyTi37cTAcM1uUO2F0Kdk1hcr1CTtVGr0I1Piw/6iRxplOJesGDK3R6ct7Td5zZPNCaWxy5JtK5Yvn1hJbGL/52PtJ0vjO8ZV1g012qIR23wASQ6gRTB8NY2GjOGOjSSOVNZaGvNfkPUc2L5TGJkdmtMg3lq4VIowv/8ARRmjiBn46E8OvNDrCePSFj8xW3lnoD6ik5Uf70UXE0nq2MiW8lCS9HMVk327U+9R2qsWyPdCK4IGd6udOTDpbqJswiq6GWtWCUdv4/Gju7cH+pESfu4ssdm4Q7QFr/+5xRORcdcKV47qROflGxnvQfIdTd9L+Ci3NXb0Y6W3A9hqpQ7W6WgYxl208OTqDoZZAfNu6h3owcdGUCUtO+TZ9rADaQ2GMtKif3Xu4OIgmVdZ1xhw7fu4qdg0qZReGvNc4i2pzQ2lscuR/I6zV15svq2pcYfSfvq7XDYZvaGmsRhia5QjGDkiXlEpaklDbhjEd/8B6fmlM9/h18nywzeneGlLC0HW50oiMYq9KsFV37Ub/8DgmhnvR7HeSpFvHQqgBVTV16BqeQWRpEdOhJ1AX7yKbQrC2Gv6WYcwtRrFwphdNtTvRH1ZZPTKDiVN9aFZ1BdR5T5xSLSTntiRYGkfXXXXY36/KltT+pzpRr86nrmdKF7uJu+q+NgwdHVfyaFTHrkZ9/7wuT2JZ3Y8Gn7qWNozMLCK6OIWhPer6/epa5bjL6lzl2nw70RUaxcTRQXTdp7YXwWSQRnRG3Y9gozq+uvYh9XNYidvZatXIe03ec2TzQmlscuSf6qwFHyth/K/vXU4TxmpbGGlIAg61qYSsnshVAj94Rh6180jj+km0q4RYH7QTbBQTB2rj0tAtmZpWjNlP7ucHdOLUdSyr+lQdgd4ZUyjEMCZP5y0n1U/zCAVUUm/oxeR8NENryGP3VCyKqJJGVGXliQOqbvNU70jjCev8ojj+iFrXkOGpX7VsqlSC7z9nlgW5B+r47cdiiJ1oVeUBhGZNmSAiUdLLJA3NGndPCWv1niPlCaWxyVmLP2ARxhefcYTxT6ccYQycWSNhLKtkZz/eytO0iEInzTzSSE2AhohqObjScLp/UhNweh1J3TRuuPtFZzDSvRsP3iVdVKndR3mkoa5n5BHTtaXDPPnb0kg5v8zn7F6XW09yyPHt67bR9VEaZI2gNDY5hXZP3VJP1tmE8dD/LbSF4TwFV+kn+gSJJ3EjDbs8Mqy7g3SSNk/ZuVoac8G63C0N01ppHk5O0ZHZGURNqyJyZhTTbnFsCv116pw7XZHllkZkUBJ5g3r6N1ewrFoS0opZhTSclkQjRuyC5QjmZpwV5dDSYPfU5ofS2OQUMhAuwvjr//OhFsTBnzizovpevR4XhgyKF4okVXl6DzzSi5FT4+qJfqcexHVFMN0jApDB62FMHB3A/rucAWU3SaeOaThTdlWSzDqm0YMH9aB5oo65fhkHscZF2uQcfGgaVOVRRypVdz2B0NFxjIXa9JiE34xJiDQOSvl9ner8hzFpJ2yFTCl2BvrnEV1axNxwGwJq+9VIA8vzCN2nrt8es9gp3XkNGJFLccc0apLHNHRrJJs0wtLlpVpPner+DoetWWyrgwPhmx9KY5NTyJTbv+13PrhXLGG4RE4lZhdV1cqMn8RTvjtbyJkN5MijX7U+4k/2KbOnpOtorDelm8aaPVVV24Dg+HBK6yCqk7keTzHbdKkkH8eefVVTi6a2USxYYxvRE0ok5vjBs2ali2oJTHQnZkbVPdSL4B7182qkIUhXWVuivu0NbRizG1r27Cl1rvUtMjlA/ZxNGuooE23u/e1J69paKZxyu/mhNDY5hXy4747uCP7yW07q6j15rSjCKJjYIqbPJafX6W7VOqnrg9uzHp2ZwoLdPWW6uGTwmKwt/HDf5ofS2OQU8jUiIo3fbn4ftf8Q0cJ44Nml8hIGYpjsNN1T3TLlNaVrSZAna+k+Mt1LMuV2r3RxudNUyZrCrxHZ/FAaW4DVfmHhnsErWhwSzf98BbfLShgGt3vK7loankkaWNfdSw/5nS4YJZT63b3JH4gjawK/sHBrQGlsAfjV6KQU8KvRtwaUxhZBZrQU8+vRydZG3lucNbU1oDS2CPx3r6SY8N+9bh0ojS2EzGwpxtekk60N31dbC0pjiyEDlZEP498ISEhByHuJg99bC0pji/Hxx8u675niIIUi7yF5L8l7imwdKI0tiPyRy9MhuxTIapH3jryHKIytB6WxhZE/fBnA5Kwq4hV5r8h7hg8cWxdKY4sjM16ki0Hm2FMeJBvy3pD3iLxXOEtqa0NpEI18KEu6G+RrIOQpUr54Tr6xdK3+6x/ZOMjvXH738h6Q94K8J+S9wQ/uEYHSIEnI9wbJF87JN5XKU6X8bwT5pzqMrRPyO5ffvbwH5L3A75IiNpQGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjyjpZHpXz4yGAwGg5EabGkQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8QylQQghxDOUBiGEEM9QGoQQQjxDaRBCCPEMpUEIIcQzlAYhhBDPUBqEEEI8Q2kQQgjxDKVBCCHEM5QGIYQQz1AahBBCPENpEEII8cxH0av4/5wAb2H8J9BPAAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>201307</x:t>
@@ -1023,7 +1044,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K2" s="1">
-        <x:v>44869.8384656366</x:v>
+        <x:v>44872.7312472801</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
@@ -1058,103 +1079,103 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="K3" s="1">
-        <x:v>44869.8227796065</x:v>
+        <x:v>44872.7325041551</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K4" s="1">
-        <x:v>44869.8234857755</x:v>
+        <x:v>44872.7332041667</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K5" s="1">
-        <x:v>44869.8241632755</x:v>
+        <x:v>44872.7338887384</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
         <x:v>19</x:v>
@@ -1163,33 +1184,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K6" s="1">
-        <x:v>44869.6935277083</x:v>
+        <x:v>44872.7345914236</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
         <x:v>19</x:v>
@@ -1198,33 +1219,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K7" s="1">
-        <x:v>44869.6941209954</x:v>
+        <x:v>44872.6971328472</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>19</x:v>
@@ -1233,15 +1254,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K8" s="1">
-        <x:v>44869.6944011111</x:v>
+        <x:v>44872.6975185995</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>13</x:v>
@@ -1250,16 +1271,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>19</x:v>
@@ -1268,50 +1289,50 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K9" s="1">
-        <x:v>44869.6950077778</x:v>
+        <x:v>44872.6981861343</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K10" s="1">
-        <x:v>44869.6959677662</x:v>
+        <x:v>44872.6992260532</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>13</x:v>
@@ -1320,68 +1341,68 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K11" s="1">
-        <x:v>44869.696585787</x:v>
+        <x:v>44872.6999281481</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K12" s="1">
-        <x:v>44869.6975141435</x:v>
+        <x:v>44872.7009727199</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>13</x:v>
@@ -1390,33 +1411,33 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K13" s="1">
-        <x:v>44869.6980978819</x:v>
+        <x:v>44872.7019861806</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>13</x:v>
@@ -1425,68 +1446,68 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K14" s="1">
-        <x:v>44869.6987556134</x:v>
+        <x:v>44872.702735162</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K15" s="1">
-        <x:v>44869.6996780787</x:v>
+        <x:v>44872.7037725694</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>13</x:v>
@@ -1495,33 +1516,33 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K16" s="1">
-        <x:v>44869.7006026968</x:v>
+        <x:v>44872.7047696065</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>13</x:v>
@@ -1530,103 +1551,103 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K17" s="1">
-        <x:v>44869.7015445833</x:v>
+        <x:v>44872.7058026736</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K18" s="1">
-        <x:v>44869.7028427315</x:v>
+        <x:v>44872.7071676736</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K19" s="1">
-        <x:v>44869.7031982407</x:v>
+        <x:v>44872.7076173264</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>13</x:v>
@@ -1635,51 +1656,51 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="K20" s="1">
-        <x:v>44869.7037868634</x:v>
+        <x:v>44872.7083268171</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:11">
       <x:c r="A21" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
         <x:v>19</x:v>
@@ -1688,50 +1709,50 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K21" s="1">
-        <x:v>44869.7044037153</x:v>
+        <x:v>44872.7090993634</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
       <x:c r="A22" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K22" s="1">
-        <x:v>44869.7049771875</x:v>
+        <x:v>44872.7101246065</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:11">
       <x:c r="A23" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>13</x:v>
@@ -1740,68 +1761,68 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="K23" s="1">
-        <x:v>44869.7052691667</x:v>
+        <x:v>44872.7105371759</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:11">
       <x:c r="A24" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K24" s="1">
-        <x:v>44869.7058832176</x:v>
+        <x:v>44872.7112594213</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
       <x:c r="A25" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>13</x:v>
@@ -1810,68 +1831,68 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="K25" s="1">
-        <x:v>44869.7062356134</x:v>
+        <x:v>44872.7117128356</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:11">
       <x:c r="A26" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="K26" s="1">
-        <x:v>44869.7069046528</x:v>
+        <x:v>44872.7124741435</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
       <x:c r="A27" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>13</x:v>
@@ -1880,95 +1901,95 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K27" s="1">
-        <x:v>44869.7073044444</x:v>
+        <x:v>44872.7129617361</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:11">
       <x:c r="A28" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K28" s="1">
-        <x:v>44869.7082555324</x:v>
+        <x:v>44872.7140318403</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:11">
       <x:c r="A29" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="K29" s="1">
-        <x:v>44869.7088855556</x:v>
+        <x:v>44872.7147515046</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
